--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4AFFCF-AE73-4AF0-A4C7-863F45E66B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDB0B488-EB6B-4591-8E0F-EB08E7EC5C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,9 +374,6 @@
     <xf numFmtId="44" fontId="3" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,7 +426,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
@@ -775,8 +772,8 @@
   <dimension ref="A1:Z829"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S29" sqref="S29"/>
+      <pane ySplit="3" topLeftCell="B4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -784,7 +781,7 @@
   <cols>
     <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="12" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
@@ -795,7 +792,7 @@
     <col min="13" max="13" width="11.5703125" style="13" customWidth="1"/>
     <col min="14" max="14" width="15" style="13" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="13" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" style="13" customWidth="1"/>
     <col min="18" max="18" width="10.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.28515625" style="13" customWidth="1"/>
@@ -822,35 +819,35 @@
     <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="1"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="28"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="27"/>
     </row>
     <row r="3" spans="1:26" ht="75" customHeight="1">
       <c r="B3" s="6" t="s">
@@ -939,20 +936,34 @@
       <c r="P4" s="13">
         <v>4</v>
       </c>
-      <c r="Q4" s="13">
-        <v>4</v>
+      <c r="Q4" s="16">
+        <v>1</v>
       </c>
       <c r="R4" s="13">
         <v>24275.27</v>
       </c>
       <c r="S4" s="17">
-        <v>0.96079999999999999</v>
+        <v>0.93569999999999998</v>
       </c>
       <c r="T4" s="13">
         <v>0</v>
       </c>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13">
+      <c r="U4" s="16">
+        <v>1</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0.9778</v>
+      </c>
+      <c r="W4" s="16">
+        <v>1</v>
+      </c>
+      <c r="X4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="16">
         <v>0</v>
       </c>
     </row>
@@ -963,8 +974,39 @@
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="Y5" s="13"/>
+      <c r="P5" s="13">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>1</v>
+      </c>
+      <c r="R5" s="13">
+        <v>42543.01</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="T5" s="13">
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="V5" s="17">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0.996</v>
+      </c>
+      <c r="X5" s="13">
+        <v>11</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>1754.06</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="B6" s="10">
@@ -1032,8 +1074,8 @@
       <c r="V7" s="17">
         <v>0.93049999999999999</v>
       </c>
-      <c r="W7" s="25">
-        <v>99.7</v>
+      <c r="W7" s="17">
+        <v>0.997</v>
       </c>
       <c r="X7" s="13">
         <v>199</v>
@@ -1076,7 +1118,39 @@
       <c r="K8" s="13">
         <v>0</v>
       </c>
-      <c r="R8" s="13"/>
+      <c r="P8" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>1</v>
+      </c>
+      <c r="R8" s="13">
+        <v>67837.56</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>1</v>
+      </c>
+      <c r="V8" s="17">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="W8" s="17">
+        <v>0.998</v>
+      </c>
+      <c r="X8" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>293.57</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="10">
@@ -1117,7 +1191,6 @@
         <v>30</v>
       </c>
       <c r="R12" s="13"/>
-      <c r="Y12" s="13"/>
     </row>
     <row r="13" spans="1:26">
       <c r="B13" s="11">
@@ -1185,7 +1258,6 @@
         <v>30</v>
       </c>
       <c r="R19" s="13"/>
-      <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="2:26">
       <c r="B20" s="11">
@@ -1245,20 +1317,20 @@
       <c r="P25" s="13">
         <v>5</v>
       </c>
-      <c r="Q25" s="13">
-        <v>5</v>
+      <c r="Q25" s="16">
+        <v>1</v>
       </c>
       <c r="R25" s="13">
         <v>30773.43</v>
       </c>
-      <c r="S25" s="13">
-        <v>0.9042</v>
+      <c r="S25" s="17">
+        <v>0.84309999999999996</v>
       </c>
       <c r="T25" s="13">
         <v>0</v>
       </c>
       <c r="Y25" s="13"/>
-      <c r="Z25" s="13">
+      <c r="Z25" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1269,8 +1341,39 @@
       <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="13"/>
-      <c r="Y26" s="13"/>
+      <c r="P26" s="13">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>1</v>
+      </c>
+      <c r="R26" s="13">
+        <v>32397.439999999999</v>
+      </c>
+      <c r="S26" s="17">
+        <v>0.75639999999999996</v>
+      </c>
+      <c r="T26" s="13">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <v>1</v>
+      </c>
+      <c r="V26" s="17">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="W26" s="17">
+        <v>0.998</v>
+      </c>
+      <c r="X26" s="13">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="22">
+        <v>2731.5</v>
+      </c>
+      <c r="Z26" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:26">
       <c r="B27" s="11">
@@ -1350,6 +1453,15 @@
       <c r="T28" s="13">
         <v>6</v>
       </c>
+      <c r="U28" s="17">
+        <v>0.998</v>
+      </c>
+      <c r="V28" s="17">
+        <v>0.9365</v>
+      </c>
+      <c r="W28" s="17">
+        <v>0.995</v>
+      </c>
       <c r="X28" s="13">
         <v>218</v>
       </c>
@@ -1391,8 +1503,30 @@
       <c r="K29" s="13">
         <v>0</v>
       </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="13"/>
+      <c r="P29" s="13">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>1</v>
+      </c>
+      <c r="R29" s="13">
+        <v>210274.72</v>
+      </c>
+      <c r="S29" s="17">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="T29" s="13">
+        <v>0</v>
+      </c>
+      <c r="X29" s="13">
+        <v>49</v>
+      </c>
+      <c r="Y29" s="22">
+        <v>16871.38</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="30" spans="2:26">
       <c r="B30" s="11">
@@ -1421,23 +1555,32 @@
       <c r="C32" t="s">
         <v>29</v>
       </c>
+      <c r="D32" s="12">
+        <v>31915.56</v>
+      </c>
+      <c r="E32" s="12">
+        <v>43055.360000000001</v>
+      </c>
+      <c r="F32" s="12">
+        <v>287.11</v>
+      </c>
       <c r="P32" s="13">
         <v>2</v>
       </c>
-      <c r="Q32" s="13">
-        <v>2</v>
+      <c r="Q32" s="16">
+        <v>1</v>
       </c>
       <c r="R32" s="13">
         <v>8388.2000000000007</v>
       </c>
-      <c r="S32" s="13">
-        <v>0.88600000000000001</v>
+      <c r="S32" s="17">
+        <v>0.79890000000000005</v>
       </c>
       <c r="T32" s="13">
         <v>0</v>
       </c>
       <c r="Y32" s="13"/>
-      <c r="Z32" s="13">
+      <c r="Z32" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1448,8 +1591,39 @@
       <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="R33" s="13"/>
-      <c r="Y33" s="13"/>
+      <c r="P33" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>1</v>
+      </c>
+      <c r="R33" s="13">
+        <v>32131.06</v>
+      </c>
+      <c r="S33" s="17">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0</v>
+      </c>
+      <c r="U33" s="16">
+        <v>1</v>
+      </c>
+      <c r="V33" s="17">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="W33" s="16">
+        <v>1</v>
+      </c>
+      <c r="X33" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="22">
+        <v>1250.6500000000001</v>
+      </c>
+      <c r="Z33" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:26">
       <c r="B34" s="11">
@@ -1517,6 +1691,15 @@
       <c r="T35" s="13">
         <v>2</v>
       </c>
+      <c r="U35" s="17">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="V35" s="17">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="W35" s="17">
+        <v>0.996</v>
+      </c>
       <c r="X35" s="13">
         <v>206</v>
       </c>
@@ -1610,7 +1793,18 @@
       <c r="C39" t="s">
         <v>29</v>
       </c>
-      <c r="R39" s="13"/>
+      <c r="P39" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>1</v>
+      </c>
+      <c r="R39" s="13">
+        <v>33936.980000000003</v>
+      </c>
+      <c r="S39" s="17">
+        <v>0.75419999999999998</v>
+      </c>
       <c r="Y39" s="13"/>
     </row>
     <row r="40" spans="2:26">
@@ -1620,8 +1814,21 @@
       <c r="C40" t="s">
         <v>30</v>
       </c>
-      <c r="R40" s="13"/>
-      <c r="Y40" s="13"/>
+      <c r="P40" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>1</v>
+      </c>
+      <c r="R40" s="13">
+        <v>46721.98</v>
+      </c>
+      <c r="S40" s="17">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="T40" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="2:26">
       <c r="B41" s="11">
@@ -1743,7 +1950,6 @@
         <v>30</v>
       </c>
       <c r="R47" s="13"/>
-      <c r="Y47" s="13"/>
     </row>
     <row r="48" spans="2:26">
       <c r="B48" s="11">
@@ -1811,7 +2017,6 @@
         <v>30</v>
       </c>
       <c r="R54" s="13"/>
-      <c r="Y54" s="13"/>
     </row>
     <row r="55" spans="2:25">
       <c r="B55" s="11">
@@ -1879,7 +2084,6 @@
         <v>30</v>
       </c>
       <c r="R61" s="13"/>
-      <c r="Y61" s="13"/>
     </row>
     <row r="62" spans="2:25">
       <c r="B62" s="11">
@@ -1947,7 +2151,6 @@
         <v>30</v>
       </c>
       <c r="R68" s="13"/>
-      <c r="Y68" s="13"/>
     </row>
     <row r="69" spans="2:25">
       <c r="B69" s="11">
@@ -2015,7 +2218,6 @@
         <v>30</v>
       </c>
       <c r="R75" s="13"/>
-      <c r="Y75" s="13"/>
     </row>
     <row r="76" spans="2:25">
       <c r="B76" s="11">
@@ -2083,7 +2285,6 @@
         <v>30</v>
       </c>
       <c r="R82" s="13"/>
-      <c r="Y82" s="13"/>
     </row>
     <row r="83" spans="2:25">
       <c r="B83" s="11">
@@ -2151,7 +2352,6 @@
         <v>30</v>
       </c>
       <c r="R89" s="13"/>
-      <c r="Y89" s="13"/>
     </row>
     <row r="90" spans="2:25">
       <c r="B90" s="11">
@@ -2219,7 +2419,6 @@
         <v>30</v>
       </c>
       <c r="R96" s="13"/>
-      <c r="Y96" s="13"/>
     </row>
     <row r="97" spans="2:25">
       <c r="B97" s="11">
@@ -2287,7 +2486,6 @@
         <v>30</v>
       </c>
       <c r="R103" s="13"/>
-      <c r="Y103" s="13"/>
     </row>
     <row r="104" spans="2:25">
       <c r="B104" s="11">
@@ -2355,7 +2553,6 @@
         <v>30</v>
       </c>
       <c r="R110" s="13"/>
-      <c r="Y110" s="13"/>
     </row>
     <row r="111" spans="2:25">
       <c r="B111" s="11">
@@ -2423,7 +2620,6 @@
         <v>30</v>
       </c>
       <c r="R117" s="13"/>
-      <c r="Y117" s="13"/>
     </row>
     <row r="118" spans="2:25">
       <c r="B118" s="11">
@@ -2491,7 +2687,6 @@
         <v>30</v>
       </c>
       <c r="R124" s="13"/>
-      <c r="Y124" s="13"/>
     </row>
     <row r="125" spans="2:25">
       <c r="B125" s="11">
@@ -2559,7 +2754,6 @@
         <v>30</v>
       </c>
       <c r="R131" s="13"/>
-      <c r="Y131" s="13"/>
     </row>
     <row r="132" spans="2:25">
       <c r="B132" s="11">
@@ -2627,7 +2821,6 @@
         <v>30</v>
       </c>
       <c r="R138" s="13"/>
-      <c r="Y138" s="13"/>
     </row>
     <row r="139" spans="2:25">
       <c r="B139" s="11">
@@ -2695,7 +2888,6 @@
         <v>30</v>
       </c>
       <c r="R145" s="13"/>
-      <c r="Y145" s="13"/>
     </row>
     <row r="146" spans="2:25">
       <c r="B146" s="11">
@@ -2763,7 +2955,6 @@
         <v>30</v>
       </c>
       <c r="R152" s="13"/>
-      <c r="Y152" s="13"/>
     </row>
     <row r="153" spans="2:25">
       <c r="B153" s="11">
@@ -2831,7 +3022,6 @@
         <v>30</v>
       </c>
       <c r="R159" s="13"/>
-      <c r="Y159" s="13"/>
     </row>
     <row r="160" spans="2:25">
       <c r="B160" s="11">
@@ -2899,7 +3089,6 @@
         <v>30</v>
       </c>
       <c r="R166" s="13"/>
-      <c r="Y166" s="13"/>
     </row>
     <row r="167" spans="2:25">
       <c r="B167" s="11">
@@ -2967,7 +3156,6 @@
         <v>30</v>
       </c>
       <c r="R173" s="13"/>
-      <c r="Y173" s="13"/>
     </row>
     <row r="174" spans="2:25">
       <c r="B174" s="11">
@@ -3035,7 +3223,6 @@
         <v>30</v>
       </c>
       <c r="R180" s="13"/>
-      <c r="Y180" s="13"/>
     </row>
     <row r="181" spans="2:25">
       <c r="B181" s="11">
@@ -9543,6 +9730,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5f7d05b22801f8a5aef07f913f0a6c2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36a9bbd0f338303ab31ebe548315c8aa" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
@@ -9686,12 +9879,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9702,11 +9889,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDB0B488-EB6B-4591-8E0F-EB08E7EC5C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="13_ncr:1_{CCD3546E-43BF-4E1C-BFAF-27E3850A78DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28EDF95D-2A70-45B7-9A85-EC845A5A624A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="B4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1117,6 +1117,9 @@
       </c>
       <c r="K8" s="13">
         <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1500</v>
       </c>
       <c r="P8" s="13">
         <v>9</v>

--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens-my.sharepoint.com/personal/carlos_renier_superfrio_com_br/Documents/Apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="542" documentId="13_ncr:1_{CCD3546E-43BF-4E1C-BFAF-27E3850A78DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28EDF95D-2A70-45B7-9A85-EC845A5A624A}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="13_ncr:1_{CCD3546E-43BF-4E1C-BFAF-27E3850A78DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B955C7E-A8CB-47FB-B6E7-0C44CB8838F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +300,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,9 +353,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -388,6 +385,18 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -771,40 +780,40 @@
   </sheetPr>
   <dimension ref="A1:Z829"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="B4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="13" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="13" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="13" customWidth="1"/>
     <col min="14" max="14" width="15" style="13" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" style="31" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="13" customWidth="1"/>
     <col min="20" max="20" width="16" style="13" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="13"/>
-    <col min="22" max="23" width="9.140625" style="13"/>
-    <col min="24" max="24" width="17.140625" style="13" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" style="22" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" style="13" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="13"/>
+    <col min="22" max="23" width="9.109375" style="13"/>
+    <col min="24" max="24" width="17.109375" style="13" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" style="21" customWidth="1"/>
+    <col min="26" max="26" width="18.5546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
@@ -813,43 +822,44 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="H1"/>
-      <c r="R1" s="19"/>
-      <c r="Y1" s="23"/>
-    </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="18"/>
+      <c r="Y1" s="22"/>
+    </row>
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="27"/>
-    </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -895,10 +905,10 @@
       <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>20</v>
       </c>
       <c r="S3" s="9" t="s">
@@ -919,14 +929,14 @@
       <c r="X3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="23" t="s">
         <v>27</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -936,8 +946,8 @@
       <c r="P4" s="13">
         <v>4</v>
       </c>
-      <c r="Q4" s="16">
-        <v>1</v>
+      <c r="Q4" s="31">
+        <v>4</v>
       </c>
       <c r="R4" s="13">
         <v>24275.27</v>
@@ -960,14 +970,14 @@
       <c r="X4" s="13">
         <v>0</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="Y4" s="21">
         <v>0</v>
       </c>
       <c r="Z4" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>45905</v>
       </c>
@@ -977,8 +987,8 @@
       <c r="P5" s="13">
         <v>13</v>
       </c>
-      <c r="Q5" s="16">
-        <v>1</v>
+      <c r="Q5" s="31">
+        <v>13</v>
       </c>
       <c r="R5" s="13">
         <v>42543.01</v>
@@ -1001,14 +1011,14 @@
       <c r="X5" s="13">
         <v>11</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y5" s="21">
         <v>1754.06</v>
       </c>
       <c r="Z5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="10">
         <v>45905</v>
       </c>
@@ -1018,8 +1028,8 @@
       <c r="P6" s="13">
         <v>9</v>
       </c>
-      <c r="Q6" s="16">
-        <v>1</v>
+      <c r="Q6" s="31">
+        <v>9</v>
       </c>
       <c r="R6" s="13">
         <v>36895.53</v>
@@ -1049,7 +1059,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>45905</v>
       </c>
@@ -1059,7 +1069,7 @@
       <c r="P7" s="13">
         <v>208</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="20">
         <v>729357.62</v>
       </c>
       <c r="S7" s="17">
@@ -1080,14 +1090,14 @@
       <c r="X7" s="13">
         <v>199</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7" s="21">
         <v>30719.98</v>
       </c>
       <c r="Z7" s="16">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>45905</v>
       </c>
@@ -1124,8 +1134,8 @@
       <c r="P8" s="13">
         <v>9</v>
       </c>
-      <c r="Q8" s="16">
-        <v>1</v>
+      <c r="Q8" s="31">
+        <v>9</v>
       </c>
       <c r="R8" s="13">
         <v>67837.56</v>
@@ -1148,14 +1158,14 @@
       <c r="X8" s="13">
         <v>3</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y8" s="21">
         <v>293.57</v>
       </c>
       <c r="Z8" s="16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9" s="10">
         <v>45905</v>
       </c>
@@ -1165,7 +1175,7 @@
       <c r="R9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>45905</v>
       </c>
@@ -1175,7 +1185,7 @@
       <c r="R10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
@@ -1186,7 +1196,7 @@
       <c r="S11" s="17"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
         <v>45906</v>
       </c>
@@ -1195,7 +1205,7 @@
       </c>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <v>45906</v>
       </c>
@@ -1205,7 +1215,7 @@
       <c r="R13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14" s="11">
         <v>45906</v>
       </c>
@@ -1214,7 +1224,7 @@
       </c>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="11">
         <v>45906</v>
       </c>
@@ -1223,7 +1233,7 @@
       </c>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>45906</v>
       </c>
@@ -1233,7 +1243,7 @@
       <c r="R16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>45906</v>
       </c>
@@ -1243,7 +1253,7 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
@@ -1253,7 +1263,7 @@
       <c r="R18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="2:26">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>45907</v>
       </c>
@@ -1262,7 +1272,7 @@
       </c>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>45907</v>
       </c>
@@ -1272,7 +1282,7 @@
       <c r="R20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>45907</v>
       </c>
@@ -1281,7 +1291,7 @@
       </c>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>45907</v>
       </c>
@@ -1290,7 +1300,7 @@
       </c>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="2:26">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>45907</v>
       </c>
@@ -1300,7 +1310,7 @@
       <c r="R23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="2:26">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>45907</v>
       </c>
@@ -1310,7 +1320,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1320,8 +1330,8 @@
       <c r="P25" s="13">
         <v>5</v>
       </c>
-      <c r="Q25" s="16">
-        <v>1</v>
+      <c r="Q25" s="31">
+        <v>5</v>
       </c>
       <c r="R25" s="13">
         <v>30773.43</v>
@@ -1337,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>45908</v>
       </c>
@@ -1347,8 +1357,8 @@
       <c r="P26" s="13">
         <v>13</v>
       </c>
-      <c r="Q26" s="16">
-        <v>1</v>
+      <c r="Q26" s="31">
+        <v>13</v>
       </c>
       <c r="R26" s="13">
         <v>32397.439999999999</v>
@@ -1371,14 +1381,14 @@
       <c r="X26" s="13">
         <v>7</v>
       </c>
-      <c r="Y26" s="22">
+      <c r="Y26" s="21">
         <v>2731.5</v>
       </c>
       <c r="Z26" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B27" s="11">
         <v>45908</v>
       </c>
@@ -1388,8 +1398,8 @@
       <c r="P27" s="13">
         <v>11</v>
       </c>
-      <c r="Q27" s="16">
-        <v>1</v>
+      <c r="Q27" s="31">
+        <v>11</v>
       </c>
       <c r="R27" s="13">
         <v>53331.25</v>
@@ -1410,7 +1420,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>45908</v>
       </c>
@@ -1444,10 +1454,10 @@
       <c r="P28" s="13">
         <v>228</v>
       </c>
-      <c r="Q28" s="16">
-        <v>1</v>
-      </c>
-      <c r="R28" s="21">
+      <c r="Q28" s="31">
+        <v>228</v>
+      </c>
+      <c r="R28" s="20">
         <v>858757.38</v>
       </c>
       <c r="S28" s="13">
@@ -1468,14 +1478,14 @@
       <c r="X28" s="13">
         <v>218</v>
       </c>
-      <c r="Y28" s="22">
+      <c r="Y28" s="21">
         <v>63334.96</v>
       </c>
       <c r="Z28" s="16">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B29" s="11">
         <v>45908</v>
       </c>
@@ -1509,8 +1519,8 @@
       <c r="P29" s="13">
         <v>35</v>
       </c>
-      <c r="Q29" s="16">
-        <v>1</v>
+      <c r="Q29" s="31">
+        <v>35</v>
       </c>
       <c r="R29" s="13">
         <v>210274.72</v>
@@ -1524,14 +1534,14 @@
       <c r="X29" s="13">
         <v>49</v>
       </c>
-      <c r="Y29" s="22">
+      <c r="Y29" s="21">
         <v>16871.38</v>
       </c>
       <c r="Z29" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:26">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>45908</v>
       </c>
@@ -1541,7 +1551,7 @@
       <c r="R30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="2:26">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>45908</v>
       </c>
@@ -1551,7 +1561,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1570,8 +1580,8 @@
       <c r="P32" s="13">
         <v>2</v>
       </c>
-      <c r="Q32" s="16">
-        <v>1</v>
+      <c r="Q32" s="31">
+        <v>2</v>
       </c>
       <c r="R32" s="13">
         <v>8388.2000000000007</v>
@@ -1587,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:26">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B33" s="11">
         <v>45909</v>
       </c>
@@ -1597,8 +1607,8 @@
       <c r="P33" s="13">
         <v>12</v>
       </c>
-      <c r="Q33" s="16">
-        <v>1</v>
+      <c r="Q33" s="31">
+        <v>12</v>
       </c>
       <c r="R33" s="13">
         <v>32131.06</v>
@@ -1621,14 +1631,14 @@
       <c r="X33" s="13">
         <v>2</v>
       </c>
-      <c r="Y33" s="22">
+      <c r="Y33" s="21">
         <v>1250.6500000000001</v>
       </c>
       <c r="Z33" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B34" s="11">
         <v>45909</v>
       </c>
@@ -1638,8 +1648,8 @@
       <c r="P34" s="13">
         <v>9</v>
       </c>
-      <c r="Q34" s="16">
-        <v>1</v>
+      <c r="Q34" s="31">
+        <v>9</v>
       </c>
       <c r="R34" s="13">
         <v>44394.27</v>
@@ -1660,7 +1670,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:26">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="11">
         <v>45909</v>
       </c>
@@ -1682,10 +1692,10 @@
       <c r="P35" s="13">
         <v>181</v>
       </c>
-      <c r="Q35" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="R35" s="21">
+      <c r="Q35" s="31">
+        <v>98</v>
+      </c>
+      <c r="R35" s="20">
         <v>633694.4</v>
       </c>
       <c r="S35" s="17">
@@ -1706,14 +1716,14 @@
       <c r="X35" s="13">
         <v>206</v>
       </c>
-      <c r="Y35" s="22">
+      <c r="Y35" s="21">
         <v>48577.1</v>
       </c>
       <c r="Z35" s="16">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:26">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B36" s="11">
         <v>45909</v>
       </c>
@@ -1747,8 +1757,8 @@
       <c r="P36" s="13">
         <v>23</v>
       </c>
-      <c r="Q36" s="16">
-        <v>1</v>
+      <c r="Q36" s="31">
+        <v>23</v>
       </c>
       <c r="R36" s="13">
         <v>98604.29</v>
@@ -1762,14 +1772,14 @@
       <c r="X36" s="13">
         <v>21</v>
       </c>
-      <c r="Y36" s="22">
+      <c r="Y36" s="21">
         <v>5125.07</v>
       </c>
       <c r="Z36" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:26">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
         <v>45909</v>
       </c>
@@ -1779,7 +1789,7 @@
       <c r="R37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:26">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B38" s="11">
         <v>45909</v>
       </c>
@@ -1789,7 +1799,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -1799,8 +1809,8 @@
       <c r="P39" s="13">
         <v>6</v>
       </c>
-      <c r="Q39" s="16">
-        <v>1</v>
+      <c r="Q39" s="31">
+        <v>6</v>
       </c>
       <c r="R39" s="13">
         <v>33936.980000000003</v>
@@ -1810,7 +1820,7 @@
       </c>
       <c r="Y39" s="13"/>
     </row>
-    <row r="40" spans="2:26">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B40" s="11">
         <v>45910</v>
       </c>
@@ -1820,8 +1830,8 @@
       <c r="P40" s="13">
         <v>16</v>
       </c>
-      <c r="Q40" s="16">
-        <v>1</v>
+      <c r="Q40" s="31">
+        <v>16</v>
       </c>
       <c r="R40" s="13">
         <v>46721.98</v>
@@ -1833,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B41" s="11">
         <v>45910</v>
       </c>
@@ -1843,8 +1853,8 @@
       <c r="P41" s="13">
         <v>9</v>
       </c>
-      <c r="Q41" s="16">
-        <v>1</v>
+      <c r="Q41" s="31">
+        <v>9</v>
       </c>
       <c r="R41" s="13">
         <v>49095.98</v>
@@ -1865,7 +1875,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:26">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B42" s="11">
         <v>45910</v>
       </c>
@@ -1875,10 +1885,10 @@
       <c r="P42" s="13">
         <v>208</v>
       </c>
-      <c r="Q42" s="18">
-        <v>0.94</v>
-      </c>
-      <c r="R42" s="21">
+      <c r="Q42" s="32">
+        <v>94</v>
+      </c>
+      <c r="R42" s="20">
         <v>745017.34</v>
       </c>
       <c r="S42" s="17">
@@ -1889,7 +1899,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" spans="2:26">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B43" s="11">
         <v>45910</v>
       </c>
@@ -1899,8 +1909,8 @@
       <c r="P43" s="13">
         <v>21</v>
       </c>
-      <c r="Q43" s="16">
-        <v>1</v>
+      <c r="Q43" s="31">
+        <v>21</v>
       </c>
       <c r="R43" s="13">
         <v>102791.49</v>
@@ -1915,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:26">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B44" s="11">
         <v>45910</v>
       </c>
@@ -1925,7 +1935,7 @@
       <c r="R44" s="13"/>
       <c r="Y44" s="13"/>
     </row>
-    <row r="45" spans="2:26">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
         <v>45910</v>
       </c>
@@ -1935,7 +1945,7 @@
       <c r="R45" s="13"/>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
@@ -1945,7 +1955,7 @@
       <c r="R46" s="13"/>
       <c r="Y46" s="13"/>
     </row>
-    <row r="47" spans="2:26">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B47" s="11">
         <v>45911</v>
       </c>
@@ -1954,7 +1964,7 @@
       </c>
       <c r="R47" s="13"/>
     </row>
-    <row r="48" spans="2:26">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B48" s="11">
         <v>45911</v>
       </c>
@@ -1964,7 +1974,7 @@
       <c r="R48" s="13"/>
       <c r="Y48" s="13"/>
     </row>
-    <row r="49" spans="2:25">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B49" s="11">
         <v>45911</v>
       </c>
@@ -1973,7 +1983,7 @@
       </c>
       <c r="Y49" s="13"/>
     </row>
-    <row r="50" spans="2:25">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B50" s="11">
         <v>45911</v>
       </c>
@@ -1982,7 +1992,7 @@
       </c>
       <c r="R50" s="13"/>
     </row>
-    <row r="51" spans="2:25">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B51" s="11">
         <v>45911</v>
       </c>
@@ -1992,7 +2002,7 @@
       <c r="R51" s="13"/>
       <c r="Y51" s="13"/>
     </row>
-    <row r="52" spans="2:25">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B52" s="11">
         <v>45911</v>
       </c>
@@ -2002,7 +2012,7 @@
       <c r="R52" s="13"/>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:25">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
@@ -2012,7 +2022,7 @@
       <c r="R53" s="13"/>
       <c r="Y53" s="13"/>
     </row>
-    <row r="54" spans="2:25">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B54" s="11">
         <v>45912</v>
       </c>
@@ -2021,7 +2031,7 @@
       </c>
       <c r="R54" s="13"/>
     </row>
-    <row r="55" spans="2:25">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B55" s="11">
         <v>45912</v>
       </c>
@@ -2031,7 +2041,7 @@
       <c r="R55" s="13"/>
       <c r="Y55" s="13"/>
     </row>
-    <row r="56" spans="2:25">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B56" s="11">
         <v>45912</v>
       </c>
@@ -2040,7 +2050,7 @@
       </c>
       <c r="Y56" s="13"/>
     </row>
-    <row r="57" spans="2:25">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B57" s="11">
         <v>45912</v>
       </c>
@@ -2049,7 +2059,7 @@
       </c>
       <c r="R57" s="13"/>
     </row>
-    <row r="58" spans="2:25">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B58" s="11">
         <v>45912</v>
       </c>
@@ -2059,7 +2069,7 @@
       <c r="R58" s="13"/>
       <c r="Y58" s="13"/>
     </row>
-    <row r="59" spans="2:25">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B59" s="11">
         <v>45912</v>
       </c>
@@ -2069,7 +2079,7 @@
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:25">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2079,7 +2089,7 @@
       <c r="R60" s="13"/>
       <c r="Y60" s="13"/>
     </row>
-    <row r="61" spans="2:25">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B61" s="11">
         <v>45913</v>
       </c>
@@ -2088,7 +2098,7 @@
       </c>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="2:25">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B62" s="11">
         <v>45913</v>
       </c>
@@ -2098,7 +2108,7 @@
       <c r="R62" s="13"/>
       <c r="Y62" s="13"/>
     </row>
-    <row r="63" spans="2:25">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B63" s="11">
         <v>45913</v>
       </c>
@@ -2107,7 +2117,7 @@
       </c>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:25">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
@@ -2116,7 +2126,7 @@
       </c>
       <c r="R64" s="13"/>
     </row>
-    <row r="65" spans="2:25">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B65" s="11">
         <v>45913</v>
       </c>
@@ -2126,7 +2136,7 @@
       <c r="R65" s="13"/>
       <c r="Y65" s="13"/>
     </row>
-    <row r="66" spans="2:25">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B66" s="11">
         <v>45913</v>
       </c>
@@ -2136,7 +2146,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:25">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2146,7 +2156,7 @@
       <c r="R67" s="13"/>
       <c r="Y67" s="13"/>
     </row>
-    <row r="68" spans="2:25">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B68" s="11">
         <v>45914</v>
       </c>
@@ -2155,7 +2165,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="2:25">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B69" s="11">
         <v>45914</v>
       </c>
@@ -2165,7 +2175,7 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:25">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
@@ -2174,7 +2184,7 @@
       </c>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:25">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
@@ -2183,7 +2193,7 @@
       </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="2:25">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B72" s="11">
         <v>45914</v>
       </c>
@@ -2193,7 +2203,7 @@
       <c r="R72" s="13"/>
       <c r="Y72" s="13"/>
     </row>
-    <row r="73" spans="2:25">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B73" s="11">
         <v>45914</v>
       </c>
@@ -2203,7 +2213,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:25">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2213,7 +2223,7 @@
       <c r="R74" s="13"/>
       <c r="Y74" s="13"/>
     </row>
-    <row r="75" spans="2:25">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B75" s="11">
         <v>45915</v>
       </c>
@@ -2222,7 +2232,7 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="2:25">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B76" s="11">
         <v>45915</v>
       </c>
@@ -2232,7 +2242,7 @@
       <c r="R76" s="13"/>
       <c r="Y76" s="13"/>
     </row>
-    <row r="77" spans="2:25">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
@@ -2241,7 +2251,7 @@
       </c>
       <c r="Y77" s="13"/>
     </row>
-    <row r="78" spans="2:25">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B78" s="11">
         <v>45915</v>
       </c>
@@ -2250,7 +2260,7 @@
       </c>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="2:25">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B79" s="11">
         <v>45915</v>
       </c>
@@ -2260,7 +2270,7 @@
       <c r="R79" s="13"/>
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B80" s="11">
         <v>45915</v>
       </c>
@@ -2270,7 +2280,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2280,7 +2290,7 @@
       <c r="R81" s="13"/>
       <c r="Y81" s="13"/>
     </row>
-    <row r="82" spans="2:25">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B82" s="11">
         <v>45916</v>
       </c>
@@ -2289,7 +2299,7 @@
       </c>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="2:25">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B83" s="11">
         <v>45916</v>
       </c>
@@ -2299,7 +2309,7 @@
       <c r="R83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="2:25">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B84" s="11">
         <v>45916</v>
       </c>
@@ -2308,7 +2318,7 @@
       </c>
       <c r="Y84" s="13"/>
     </row>
-    <row r="85" spans="2:25">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B85" s="11">
         <v>45916</v>
       </c>
@@ -2317,7 +2327,7 @@
       </c>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="2:25">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B86" s="11">
         <v>45916</v>
       </c>
@@ -2327,7 +2337,7 @@
       <c r="R86" s="13"/>
       <c r="Y86" s="13"/>
     </row>
-    <row r="87" spans="2:25">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B87" s="11">
         <v>45916</v>
       </c>
@@ -2337,7 +2347,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2347,7 +2357,7 @@
       <c r="R88" s="13"/>
       <c r="Y88" s="13"/>
     </row>
-    <row r="89" spans="2:25">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B89" s="11">
         <v>45917</v>
       </c>
@@ -2356,7 +2366,7 @@
       </c>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="2:25">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B90" s="11">
         <v>45917</v>
       </c>
@@ -2366,7 +2376,7 @@
       <c r="R90" s="13"/>
       <c r="Y90" s="13"/>
     </row>
-    <row r="91" spans="2:25">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B91" s="11">
         <v>45917</v>
       </c>
@@ -2375,7 +2385,7 @@
       </c>
       <c r="Y91" s="13"/>
     </row>
-    <row r="92" spans="2:25">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B92" s="11">
         <v>45917</v>
       </c>
@@ -2384,7 +2394,7 @@
       </c>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="2:25">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B93" s="11">
         <v>45917</v>
       </c>
@@ -2394,7 +2404,7 @@
       <c r="R93" s="13"/>
       <c r="Y93" s="13"/>
     </row>
-    <row r="94" spans="2:25">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B94" s="11">
         <v>45917</v>
       </c>
@@ -2404,7 +2414,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -2414,7 +2424,7 @@
       <c r="R95" s="13"/>
       <c r="Y95" s="13"/>
     </row>
-    <row r="96" spans="2:25">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B96" s="11">
         <v>45918</v>
       </c>
@@ -2423,7 +2433,7 @@
       </c>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="2:25">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B97" s="11">
         <v>45918</v>
       </c>
@@ -2433,7 +2443,7 @@
       <c r="R97" s="13"/>
       <c r="Y97" s="13"/>
     </row>
-    <row r="98" spans="2:25">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B98" s="11">
         <v>45918</v>
       </c>
@@ -2442,7 +2452,7 @@
       </c>
       <c r="Y98" s="13"/>
     </row>
-    <row r="99" spans="2:25">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B99" s="11">
         <v>45918</v>
       </c>
@@ -2451,7 +2461,7 @@
       </c>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="2:25">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B100" s="11">
         <v>45918</v>
       </c>
@@ -2461,7 +2471,7 @@
       <c r="R100" s="13"/>
       <c r="Y100" s="13"/>
     </row>
-    <row r="101" spans="2:25">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B101" s="11">
         <v>45918</v>
       </c>
@@ -2471,7 +2481,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -2481,7 +2491,7 @@
       <c r="R102" s="13"/>
       <c r="Y102" s="13"/>
     </row>
-    <row r="103" spans="2:25">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B103" s="11">
         <v>45919</v>
       </c>
@@ -2490,7 +2500,7 @@
       </c>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="2:25">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B104" s="11">
         <v>45919</v>
       </c>
@@ -2500,7 +2510,7 @@
       <c r="R104" s="13"/>
       <c r="Y104" s="13"/>
     </row>
-    <row r="105" spans="2:25">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B105" s="11">
         <v>45919</v>
       </c>
@@ -2509,7 +2519,7 @@
       </c>
       <c r="Y105" s="13"/>
     </row>
-    <row r="106" spans="2:25">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B106" s="11">
         <v>45919</v>
       </c>
@@ -2518,7 +2528,7 @@
       </c>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" spans="2:25">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B107" s="11">
         <v>45919</v>
       </c>
@@ -2528,7 +2538,7 @@
       <c r="R107" s="13"/>
       <c r="Y107" s="13"/>
     </row>
-    <row r="108" spans="2:25">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B108" s="11">
         <v>45919</v>
       </c>
@@ -2538,7 +2548,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -2548,7 +2558,7 @@
       <c r="R109" s="13"/>
       <c r="Y109" s="13"/>
     </row>
-    <row r="110" spans="2:25">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B110" s="11">
         <v>45920</v>
       </c>
@@ -2557,7 +2567,7 @@
       </c>
       <c r="R110" s="13"/>
     </row>
-    <row r="111" spans="2:25">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B111" s="11">
         <v>45920</v>
       </c>
@@ -2567,7 +2577,7 @@
       <c r="R111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="2:25">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B112" s="11">
         <v>45920</v>
       </c>
@@ -2576,7 +2586,7 @@
       </c>
       <c r="Y112" s="13"/>
     </row>
-    <row r="113" spans="2:25">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B113" s="11">
         <v>45920</v>
       </c>
@@ -2585,7 +2595,7 @@
       </c>
       <c r="R113" s="13"/>
     </row>
-    <row r="114" spans="2:25">
+    <row r="114" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B114" s="11">
         <v>45920</v>
       </c>
@@ -2595,7 +2605,7 @@
       <c r="R114" s="13"/>
       <c r="Y114" s="13"/>
     </row>
-    <row r="115" spans="2:25">
+    <row r="115" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B115" s="11">
         <v>45920</v>
       </c>
@@ -2605,7 +2615,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25">
+    <row r="116" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -2615,7 +2625,7 @@
       <c r="R116" s="13"/>
       <c r="Y116" s="13"/>
     </row>
-    <row r="117" spans="2:25">
+    <row r="117" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B117" s="11">
         <v>45921</v>
       </c>
@@ -2624,7 +2634,7 @@
       </c>
       <c r="R117" s="13"/>
     </row>
-    <row r="118" spans="2:25">
+    <row r="118" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B118" s="11">
         <v>45921</v>
       </c>
@@ -2634,7 +2644,7 @@
       <c r="R118" s="13"/>
       <c r="Y118" s="13"/>
     </row>
-    <row r="119" spans="2:25">
+    <row r="119" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B119" s="11">
         <v>45921</v>
       </c>
@@ -2643,7 +2653,7 @@
       </c>
       <c r="Y119" s="13"/>
     </row>
-    <row r="120" spans="2:25">
+    <row r="120" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B120" s="11">
         <v>45921</v>
       </c>
@@ -2652,7 +2662,7 @@
       </c>
       <c r="R120" s="13"/>
     </row>
-    <row r="121" spans="2:25">
+    <row r="121" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B121" s="11">
         <v>45921</v>
       </c>
@@ -2662,7 +2672,7 @@
       <c r="R121" s="13"/>
       <c r="Y121" s="13"/>
     </row>
-    <row r="122" spans="2:25">
+    <row r="122" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B122" s="11">
         <v>45921</v>
       </c>
@@ -2672,7 +2682,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25">
+    <row r="123" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -2682,7 +2692,7 @@
       <c r="R123" s="13"/>
       <c r="Y123" s="13"/>
     </row>
-    <row r="124" spans="2:25">
+    <row r="124" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B124" s="11">
         <v>45922</v>
       </c>
@@ -2691,7 +2701,7 @@
       </c>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" spans="2:25">
+    <row r="125" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B125" s="11">
         <v>45922</v>
       </c>
@@ -2701,7 +2711,7 @@
       <c r="R125" s="13"/>
       <c r="Y125" s="13"/>
     </row>
-    <row r="126" spans="2:25">
+    <row r="126" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B126" s="11">
         <v>45922</v>
       </c>
@@ -2710,7 +2720,7 @@
       </c>
       <c r="Y126" s="13"/>
     </row>
-    <row r="127" spans="2:25">
+    <row r="127" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B127" s="11">
         <v>45922</v>
       </c>
@@ -2719,7 +2729,7 @@
       </c>
       <c r="R127" s="13"/>
     </row>
-    <row r="128" spans="2:25">
+    <row r="128" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B128" s="11">
         <v>45922</v>
       </c>
@@ -2729,7 +2739,7 @@
       <c r="R128" s="13"/>
       <c r="Y128" s="13"/>
     </row>
-    <row r="129" spans="2:25">
+    <row r="129" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B129" s="11">
         <v>45922</v>
       </c>
@@ -2739,7 +2749,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25">
+    <row r="130" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -2749,7 +2759,7 @@
       <c r="R130" s="13"/>
       <c r="Y130" s="13"/>
     </row>
-    <row r="131" spans="2:25">
+    <row r="131" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B131" s="11">
         <v>45923</v>
       </c>
@@ -2758,7 +2768,7 @@
       </c>
       <c r="R131" s="13"/>
     </row>
-    <row r="132" spans="2:25">
+    <row r="132" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B132" s="11">
         <v>45923</v>
       </c>
@@ -2768,7 +2778,7 @@
       <c r="R132" s="13"/>
       <c r="Y132" s="13"/>
     </row>
-    <row r="133" spans="2:25">
+    <row r="133" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B133" s="11">
         <v>45923</v>
       </c>
@@ -2777,7 +2787,7 @@
       </c>
       <c r="Y133" s="13"/>
     </row>
-    <row r="134" spans="2:25">
+    <row r="134" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B134" s="11">
         <v>45923</v>
       </c>
@@ -2786,7 +2796,7 @@
       </c>
       <c r="R134" s="13"/>
     </row>
-    <row r="135" spans="2:25">
+    <row r="135" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B135" s="11">
         <v>45923</v>
       </c>
@@ -2796,7 +2806,7 @@
       <c r="R135" s="13"/>
       <c r="Y135" s="13"/>
     </row>
-    <row r="136" spans="2:25">
+    <row r="136" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B136" s="11">
         <v>45923</v>
       </c>
@@ -2806,7 +2816,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25">
+    <row r="137" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -2816,7 +2826,7 @@
       <c r="R137" s="13"/>
       <c r="Y137" s="13"/>
     </row>
-    <row r="138" spans="2:25">
+    <row r="138" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B138" s="11">
         <v>45924</v>
       </c>
@@ -2825,7 +2835,7 @@
       </c>
       <c r="R138" s="13"/>
     </row>
-    <row r="139" spans="2:25">
+    <row r="139" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B139" s="11">
         <v>45924</v>
       </c>
@@ -2835,7 +2845,7 @@
       <c r="R139" s="13"/>
       <c r="Y139" s="13"/>
     </row>
-    <row r="140" spans="2:25">
+    <row r="140" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B140" s="11">
         <v>45924</v>
       </c>
@@ -2844,7 +2854,7 @@
       </c>
       <c r="Y140" s="13"/>
     </row>
-    <row r="141" spans="2:25">
+    <row r="141" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B141" s="11">
         <v>45924</v>
       </c>
@@ -2853,7 +2863,7 @@
       </c>
       <c r="R141" s="13"/>
     </row>
-    <row r="142" spans="2:25">
+    <row r="142" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B142" s="11">
         <v>45924</v>
       </c>
@@ -2863,7 +2873,7 @@
       <c r="R142" s="13"/>
       <c r="Y142" s="13"/>
     </row>
-    <row r="143" spans="2:25">
+    <row r="143" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B143" s="11">
         <v>45924</v>
       </c>
@@ -2873,7 +2883,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25">
+    <row r="144" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -2883,7 +2893,7 @@
       <c r="R144" s="13"/>
       <c r="Y144" s="13"/>
     </row>
-    <row r="145" spans="2:25">
+    <row r="145" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B145" s="11">
         <v>45925</v>
       </c>
@@ -2892,7 +2902,7 @@
       </c>
       <c r="R145" s="13"/>
     </row>
-    <row r="146" spans="2:25">
+    <row r="146" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B146" s="11">
         <v>45925</v>
       </c>
@@ -2902,7 +2912,7 @@
       <c r="R146" s="13"/>
       <c r="Y146" s="13"/>
     </row>
-    <row r="147" spans="2:25">
+    <row r="147" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B147" s="11">
         <v>45925</v>
       </c>
@@ -2911,7 +2921,7 @@
       </c>
       <c r="Y147" s="13"/>
     </row>
-    <row r="148" spans="2:25">
+    <row r="148" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B148" s="11">
         <v>45925</v>
       </c>
@@ -2920,7 +2930,7 @@
       </c>
       <c r="R148" s="13"/>
     </row>
-    <row r="149" spans="2:25">
+    <row r="149" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B149" s="11">
         <v>45925</v>
       </c>
@@ -2930,7 +2940,7 @@
       <c r="R149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25">
+    <row r="150" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B150" s="11">
         <v>45925</v>
       </c>
@@ -2940,7 +2950,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25">
+    <row r="151" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -2950,7 +2960,7 @@
       <c r="R151" s="13"/>
       <c r="Y151" s="13"/>
     </row>
-    <row r="152" spans="2:25">
+    <row r="152" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B152" s="11">
         <v>45926</v>
       </c>
@@ -2959,7 +2969,7 @@
       </c>
       <c r="R152" s="13"/>
     </row>
-    <row r="153" spans="2:25">
+    <row r="153" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B153" s="11">
         <v>45926</v>
       </c>
@@ -2969,7 +2979,7 @@
       <c r="R153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="2:25">
+    <row r="154" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B154" s="11">
         <v>45926</v>
       </c>
@@ -2978,7 +2988,7 @@
       </c>
       <c r="Y154" s="13"/>
     </row>
-    <row r="155" spans="2:25">
+    <row r="155" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B155" s="11">
         <v>45926</v>
       </c>
@@ -2987,7 +2997,7 @@
       </c>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" spans="2:25">
+    <row r="156" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B156" s="11">
         <v>45926</v>
       </c>
@@ -2997,7 +3007,7 @@
       <c r="R156" s="13"/>
       <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="2:25">
+    <row r="157" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B157" s="11">
         <v>45926</v>
       </c>
@@ -3007,7 +3017,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25">
+    <row r="158" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3017,7 +3027,7 @@
       <c r="R158" s="13"/>
       <c r="Y158" s="13"/>
     </row>
-    <row r="159" spans="2:25">
+    <row r="159" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B159" s="11">
         <v>45927</v>
       </c>
@@ -3026,7 +3036,7 @@
       </c>
       <c r="R159" s="13"/>
     </row>
-    <row r="160" spans="2:25">
+    <row r="160" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B160" s="11">
         <v>45927</v>
       </c>
@@ -3036,7 +3046,7 @@
       <c r="R160" s="13"/>
       <c r="Y160" s="13"/>
     </row>
-    <row r="161" spans="2:25">
+    <row r="161" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B161" s="11">
         <v>45927</v>
       </c>
@@ -3045,7 +3055,7 @@
       </c>
       <c r="Y161" s="13"/>
     </row>
-    <row r="162" spans="2:25">
+    <row r="162" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B162" s="11">
         <v>45927</v>
       </c>
@@ -3054,7 +3064,7 @@
       </c>
       <c r="R162" s="13"/>
     </row>
-    <row r="163" spans="2:25">
+    <row r="163" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B163" s="11">
         <v>45927</v>
       </c>
@@ -3064,7 +3074,7 @@
       <c r="R163" s="13"/>
       <c r="Y163" s="13"/>
     </row>
-    <row r="164" spans="2:25">
+    <row r="164" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B164" s="11">
         <v>45927</v>
       </c>
@@ -3074,7 +3084,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25">
+    <row r="165" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3084,7 +3094,7 @@
       <c r="R165" s="13"/>
       <c r="Y165" s="13"/>
     </row>
-    <row r="166" spans="2:25">
+    <row r="166" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B166" s="11">
         <v>45928</v>
       </c>
@@ -3093,7 +3103,7 @@
       </c>
       <c r="R166" s="13"/>
     </row>
-    <row r="167" spans="2:25">
+    <row r="167" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B167" s="11">
         <v>45928</v>
       </c>
@@ -3103,7 +3113,7 @@
       <c r="R167" s="13"/>
       <c r="Y167" s="13"/>
     </row>
-    <row r="168" spans="2:25">
+    <row r="168" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B168" s="11">
         <v>45928</v>
       </c>
@@ -3112,7 +3122,7 @@
       </c>
       <c r="Y168" s="13"/>
     </row>
-    <row r="169" spans="2:25">
+    <row r="169" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B169" s="11">
         <v>45928</v>
       </c>
@@ -3121,7 +3131,7 @@
       </c>
       <c r="R169" s="13"/>
     </row>
-    <row r="170" spans="2:25">
+    <row r="170" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B170" s="11">
         <v>45928</v>
       </c>
@@ -3131,7 +3141,7 @@
       <c r="R170" s="13"/>
       <c r="Y170" s="13"/>
     </row>
-    <row r="171" spans="2:25">
+    <row r="171" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B171" s="11">
         <v>45928</v>
       </c>
@@ -3141,7 +3151,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25">
+    <row r="172" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3151,7 +3161,7 @@
       <c r="R172" s="13"/>
       <c r="Y172" s="13"/>
     </row>
-    <row r="173" spans="2:25">
+    <row r="173" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B173" s="11">
         <v>45929</v>
       </c>
@@ -3160,7 +3170,7 @@
       </c>
       <c r="R173" s="13"/>
     </row>
-    <row r="174" spans="2:25">
+    <row r="174" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B174" s="11">
         <v>45929</v>
       </c>
@@ -3170,7 +3180,7 @@
       <c r="R174" s="13"/>
       <c r="Y174" s="13"/>
     </row>
-    <row r="175" spans="2:25">
+    <row r="175" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B175" s="11">
         <v>45929</v>
       </c>
@@ -3179,7 +3189,7 @@
       </c>
       <c r="Y175" s="13"/>
     </row>
-    <row r="176" spans="2:25">
+    <row r="176" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B176" s="11">
         <v>45929</v>
       </c>
@@ -3188,7 +3198,7 @@
       </c>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" spans="2:25">
+    <row r="177" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B177" s="11">
         <v>45929</v>
       </c>
@@ -3198,7 +3208,7 @@
       <c r="R177" s="13"/>
       <c r="Y177" s="13"/>
     </row>
-    <row r="178" spans="2:25">
+    <row r="178" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B178" s="11">
         <v>45929</v>
       </c>
@@ -3208,7 +3218,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25">
+    <row r="179" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3218,7 +3228,7 @@
       <c r="R179" s="13"/>
       <c r="Y179" s="13"/>
     </row>
-    <row r="180" spans="2:25">
+    <row r="180" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B180" s="11">
         <v>45930</v>
       </c>
@@ -3227,7 +3237,7 @@
       </c>
       <c r="R180" s="13"/>
     </row>
-    <row r="181" spans="2:25">
+    <row r="181" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B181" s="11">
         <v>45930</v>
       </c>
@@ -3237,7 +3247,7 @@
       <c r="R181" s="13"/>
       <c r="Y181" s="13"/>
     </row>
-    <row r="182" spans="2:25">
+    <row r="182" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B182" s="11">
         <v>45930</v>
       </c>
@@ -3246,7 +3256,7 @@
       </c>
       <c r="Y182" s="13"/>
     </row>
-    <row r="183" spans="2:25">
+    <row r="183" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B183" s="11">
         <v>45930</v>
       </c>
@@ -3255,7 +3265,7 @@
       </c>
       <c r="R183" s="13"/>
     </row>
-    <row r="184" spans="2:25">
+    <row r="184" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B184" s="11">
         <v>45930</v>
       </c>
@@ -3265,7 +3275,7 @@
       <c r="R184" s="13"/>
       <c r="Y184" s="13"/>
     </row>
-    <row r="185" spans="2:25">
+    <row r="185" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B185" s="11">
         <v>45930</v>
       </c>
@@ -3275,7 +3285,7 @@
       <c r="R185" s="13"/>
       <c r="Y185" s="13"/>
     </row>
-    <row r="186" spans="2:25">
+    <row r="186" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B186" s="11">
         <v>45931</v>
       </c>
@@ -3285,7 +3295,7 @@
       <c r="R186" s="13"/>
       <c r="Y186" s="13"/>
     </row>
-    <row r="187" spans="2:25">
+    <row r="187" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B187" s="11">
         <v>45931</v>
       </c>
@@ -3295,7 +3305,7 @@
       <c r="R187" s="13"/>
       <c r="Y187" s="13"/>
     </row>
-    <row r="188" spans="2:25">
+    <row r="188" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B188" s="11">
         <v>45931</v>
       </c>
@@ -3305,7 +3315,7 @@
       <c r="R188" s="13"/>
       <c r="Y188" s="13"/>
     </row>
-    <row r="189" spans="2:25">
+    <row r="189" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B189" s="11">
         <v>45931</v>
       </c>
@@ -3315,7 +3325,7 @@
       <c r="R189" s="13"/>
       <c r="Y189" s="13"/>
     </row>
-    <row r="190" spans="2:25">
+    <row r="190" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B190" s="11">
         <v>45931</v>
       </c>
@@ -3325,7 +3335,7 @@
       <c r="R190" s="13"/>
       <c r="Y190" s="13"/>
     </row>
-    <row r="191" spans="2:25">
+    <row r="191" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B191" s="11">
         <v>45931</v>
       </c>
@@ -3335,7 +3345,7 @@
       <c r="R191" s="13"/>
       <c r="Y191" s="13"/>
     </row>
-    <row r="192" spans="2:25">
+    <row r="192" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B192" s="11">
         <v>45931</v>
       </c>
@@ -3345,7 +3355,7 @@
       <c r="R192" s="13"/>
       <c r="Y192" s="13"/>
     </row>
-    <row r="193" spans="2:25">
+    <row r="193" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B193" s="11">
         <v>45932</v>
       </c>
@@ -3355,7 +3365,7 @@
       <c r="R193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25">
+    <row r="194" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B194" s="11">
         <v>45932</v>
       </c>
@@ -3365,7 +3375,7 @@
       <c r="R194" s="13"/>
       <c r="Y194" s="13"/>
     </row>
-    <row r="195" spans="2:25">
+    <row r="195" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B195" s="11">
         <v>45932</v>
       </c>
@@ -3375,7 +3385,7 @@
       <c r="R195" s="13"/>
       <c r="Y195" s="13"/>
     </row>
-    <row r="196" spans="2:25">
+    <row r="196" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B196" s="11">
         <v>45932</v>
       </c>
@@ -3385,7 +3395,7 @@
       <c r="R196" s="13"/>
       <c r="Y196" s="13"/>
     </row>
-    <row r="197" spans="2:25">
+    <row r="197" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B197" s="11">
         <v>45932</v>
       </c>
@@ -3395,7 +3405,7 @@
       <c r="R197" s="13"/>
       <c r="Y197" s="13"/>
     </row>
-    <row r="198" spans="2:25">
+    <row r="198" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B198" s="11">
         <v>45932</v>
       </c>
@@ -3405,7 +3415,7 @@
       <c r="R198" s="13"/>
       <c r="Y198" s="13"/>
     </row>
-    <row r="199" spans="2:25">
+    <row r="199" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B199" s="11">
         <v>45932</v>
       </c>
@@ -3415,7 +3425,7 @@
       <c r="R199" s="13"/>
       <c r="Y199" s="13"/>
     </row>
-    <row r="200" spans="2:25">
+    <row r="200" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B200" s="11">
         <v>45933</v>
       </c>
@@ -3425,7 +3435,7 @@
       <c r="R200" s="13"/>
       <c r="Y200" s="13"/>
     </row>
-    <row r="201" spans="2:25">
+    <row r="201" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B201" s="11">
         <v>45933</v>
       </c>
@@ -3435,7 +3445,7 @@
       <c r="R201" s="13"/>
       <c r="Y201" s="13"/>
     </row>
-    <row r="202" spans="2:25">
+    <row r="202" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B202" s="11">
         <v>45933</v>
       </c>
@@ -3445,7 +3455,7 @@
       <c r="R202" s="13"/>
       <c r="Y202" s="13"/>
     </row>
-    <row r="203" spans="2:25">
+    <row r="203" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B203" s="11">
         <v>45933</v>
       </c>
@@ -3455,7 +3465,7 @@
       <c r="R203" s="13"/>
       <c r="Y203" s="13"/>
     </row>
-    <row r="204" spans="2:25">
+    <row r="204" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B204" s="11">
         <v>45933</v>
       </c>
@@ -3465,7 +3475,7 @@
       <c r="R204" s="13"/>
       <c r="Y204" s="13"/>
     </row>
-    <row r="205" spans="2:25">
+    <row r="205" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B205" s="11">
         <v>45933</v>
       </c>
@@ -3475,7 +3485,7 @@
       <c r="R205" s="13"/>
       <c r="Y205" s="13"/>
     </row>
-    <row r="206" spans="2:25">
+    <row r="206" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B206" s="11">
         <v>45933</v>
       </c>
@@ -3485,7 +3495,7 @@
       <c r="R206" s="13"/>
       <c r="Y206" s="13"/>
     </row>
-    <row r="207" spans="2:25">
+    <row r="207" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B207" s="11">
         <v>45934</v>
       </c>
@@ -3495,7 +3505,7 @@
       <c r="R207" s="13"/>
       <c r="Y207" s="13"/>
     </row>
-    <row r="208" spans="2:25">
+    <row r="208" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B208" s="11">
         <v>45934</v>
       </c>
@@ -3505,7 +3515,7 @@
       <c r="R208" s="13"/>
       <c r="Y208" s="13"/>
     </row>
-    <row r="209" spans="2:25">
+    <row r="209" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B209" s="11">
         <v>45934</v>
       </c>
@@ -3515,7 +3525,7 @@
       <c r="R209" s="13"/>
       <c r="Y209" s="13"/>
     </row>
-    <row r="210" spans="2:25">
+    <row r="210" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B210" s="11">
         <v>45934</v>
       </c>
@@ -3525,7 +3535,7 @@
       <c r="R210" s="13"/>
       <c r="Y210" s="13"/>
     </row>
-    <row r="211" spans="2:25">
+    <row r="211" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B211" s="11">
         <v>45934</v>
       </c>
@@ -3535,7 +3545,7 @@
       <c r="R211" s="13"/>
       <c r="Y211" s="13"/>
     </row>
-    <row r="212" spans="2:25">
+    <row r="212" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B212" s="11">
         <v>45934</v>
       </c>
@@ -3545,7 +3555,7 @@
       <c r="R212" s="13"/>
       <c r="Y212" s="13"/>
     </row>
-    <row r="213" spans="2:25">
+    <row r="213" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B213" s="11">
         <v>45934</v>
       </c>
@@ -3555,7 +3565,7 @@
       <c r="R213" s="13"/>
       <c r="Y213" s="13"/>
     </row>
-    <row r="214" spans="2:25">
+    <row r="214" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B214" s="11">
         <v>45935</v>
       </c>
@@ -3565,7 +3575,7 @@
       <c r="R214" s="13"/>
       <c r="Y214" s="13"/>
     </row>
-    <row r="215" spans="2:25">
+    <row r="215" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B215" s="11">
         <v>45935</v>
       </c>
@@ -3575,7 +3585,7 @@
       <c r="R215" s="13"/>
       <c r="Y215" s="13"/>
     </row>
-    <row r="216" spans="2:25">
+    <row r="216" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B216" s="11">
         <v>45935</v>
       </c>
@@ -3585,7 +3595,7 @@
       <c r="R216" s="13"/>
       <c r="Y216" s="13"/>
     </row>
-    <row r="217" spans="2:25">
+    <row r="217" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B217" s="11">
         <v>45935</v>
       </c>
@@ -3595,7 +3605,7 @@
       <c r="R217" s="13"/>
       <c r="Y217" s="13"/>
     </row>
-    <row r="218" spans="2:25">
+    <row r="218" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B218" s="11">
         <v>45935</v>
       </c>
@@ -3605,7 +3615,7 @@
       <c r="R218" s="13"/>
       <c r="Y218" s="13"/>
     </row>
-    <row r="219" spans="2:25">
+    <row r="219" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B219" s="11">
         <v>45935</v>
       </c>
@@ -3615,7 +3625,7 @@
       <c r="R219" s="13"/>
       <c r="Y219" s="13"/>
     </row>
-    <row r="220" spans="2:25">
+    <row r="220" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B220" s="11">
         <v>45935</v>
       </c>
@@ -3625,7 +3635,7 @@
       <c r="R220" s="13"/>
       <c r="Y220" s="13"/>
     </row>
-    <row r="221" spans="2:25">
+    <row r="221" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B221" s="11">
         <v>45936</v>
       </c>
@@ -3635,7 +3645,7 @@
       <c r="R221" s="13"/>
       <c r="Y221" s="13"/>
     </row>
-    <row r="222" spans="2:25">
+    <row r="222" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B222" s="11">
         <v>45936</v>
       </c>
@@ -3645,7 +3655,7 @@
       <c r="R222" s="13"/>
       <c r="Y222" s="13"/>
     </row>
-    <row r="223" spans="2:25">
+    <row r="223" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B223" s="11">
         <v>45936</v>
       </c>
@@ -3655,7 +3665,7 @@
       <c r="R223" s="13"/>
       <c r="Y223" s="13"/>
     </row>
-    <row r="224" spans="2:25">
+    <row r="224" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B224" s="11">
         <v>45936</v>
       </c>
@@ -3665,7 +3675,7 @@
       <c r="R224" s="13"/>
       <c r="Y224" s="13"/>
     </row>
-    <row r="225" spans="2:25">
+    <row r="225" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B225" s="11">
         <v>45936</v>
       </c>
@@ -3675,7 +3685,7 @@
       <c r="R225" s="13"/>
       <c r="Y225" s="13"/>
     </row>
-    <row r="226" spans="2:25">
+    <row r="226" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B226" s="11">
         <v>45936</v>
       </c>
@@ -3685,7 +3695,7 @@
       <c r="R226" s="13"/>
       <c r="Y226" s="13"/>
     </row>
-    <row r="227" spans="2:25">
+    <row r="227" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B227" s="11">
         <v>45936</v>
       </c>
@@ -3695,7 +3705,7 @@
       <c r="R227" s="13"/>
       <c r="Y227" s="13"/>
     </row>
-    <row r="228" spans="2:25">
+    <row r="228" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B228" s="11">
         <v>45937</v>
       </c>
@@ -3705,7 +3715,7 @@
       <c r="R228" s="13"/>
       <c r="Y228" s="13"/>
     </row>
-    <row r="229" spans="2:25">
+    <row r="229" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B229" s="11">
         <v>45937</v>
       </c>
@@ -3715,7 +3725,7 @@
       <c r="R229" s="13"/>
       <c r="Y229" s="13"/>
     </row>
-    <row r="230" spans="2:25">
+    <row r="230" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B230" s="11">
         <v>45937</v>
       </c>
@@ -3725,7 +3735,7 @@
       <c r="R230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="2:25">
+    <row r="231" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B231" s="11">
         <v>45937</v>
       </c>
@@ -3735,7 +3745,7 @@
       <c r="R231" s="13"/>
       <c r="Y231" s="13"/>
     </row>
-    <row r="232" spans="2:25">
+    <row r="232" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B232" s="11">
         <v>45937</v>
       </c>
@@ -3745,7 +3755,7 @@
       <c r="R232" s="13"/>
       <c r="Y232" s="13"/>
     </row>
-    <row r="233" spans="2:25">
+    <row r="233" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B233" s="11">
         <v>45937</v>
       </c>
@@ -3755,7 +3765,7 @@
       <c r="R233" s="13"/>
       <c r="Y233" s="13"/>
     </row>
-    <row r="234" spans="2:25">
+    <row r="234" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B234" s="11">
         <v>45937</v>
       </c>
@@ -3765,7 +3775,7 @@
       <c r="R234" s="13"/>
       <c r="Y234" s="13"/>
     </row>
-    <row r="235" spans="2:25">
+    <row r="235" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B235" s="11">
         <v>45938</v>
       </c>
@@ -3775,7 +3785,7 @@
       <c r="R235" s="13"/>
       <c r="Y235" s="13"/>
     </row>
-    <row r="236" spans="2:25">
+    <row r="236" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B236" s="11">
         <v>45938</v>
       </c>
@@ -3785,7 +3795,7 @@
       <c r="R236" s="13"/>
       <c r="Y236" s="13"/>
     </row>
-    <row r="237" spans="2:25">
+    <row r="237" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B237" s="11">
         <v>45938</v>
       </c>
@@ -3795,7 +3805,7 @@
       <c r="R237" s="13"/>
       <c r="Y237" s="13"/>
     </row>
-    <row r="238" spans="2:25">
+    <row r="238" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B238" s="11">
         <v>45938</v>
       </c>
@@ -3805,7 +3815,7 @@
       <c r="R238" s="13"/>
       <c r="Y238" s="13"/>
     </row>
-    <row r="239" spans="2:25">
+    <row r="239" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B239" s="11">
         <v>45938</v>
       </c>
@@ -3815,7 +3825,7 @@
       <c r="R239" s="13"/>
       <c r="Y239" s="13"/>
     </row>
-    <row r="240" spans="2:25">
+    <row r="240" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B240" s="11">
         <v>45938</v>
       </c>
@@ -3825,7 +3835,7 @@
       <c r="R240" s="13"/>
       <c r="Y240" s="13"/>
     </row>
-    <row r="241" spans="2:25">
+    <row r="241" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B241" s="11">
         <v>45938</v>
       </c>
@@ -3835,7 +3845,7 @@
       <c r="R241" s="13"/>
       <c r="Y241" s="13"/>
     </row>
-    <row r="242" spans="2:25">
+    <row r="242" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B242" s="11">
         <v>45939</v>
       </c>
@@ -3845,7 +3855,7 @@
       <c r="R242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25">
+    <row r="243" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B243" s="11">
         <v>45939</v>
       </c>
@@ -3855,7 +3865,7 @@
       <c r="R243" s="13"/>
       <c r="Y243" s="13"/>
     </row>
-    <row r="244" spans="2:25">
+    <row r="244" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B244" s="11">
         <v>45939</v>
       </c>
@@ -3865,7 +3875,7 @@
       <c r="R244" s="13"/>
       <c r="Y244" s="13"/>
     </row>
-    <row r="245" spans="2:25">
+    <row r="245" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B245" s="11">
         <v>45939</v>
       </c>
@@ -3875,7 +3885,7 @@
       <c r="R245" s="13"/>
       <c r="Y245" s="13"/>
     </row>
-    <row r="246" spans="2:25">
+    <row r="246" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B246" s="11">
         <v>45939</v>
       </c>
@@ -3885,7 +3895,7 @@
       <c r="R246" s="13"/>
       <c r="Y246" s="13"/>
     </row>
-    <row r="247" spans="2:25">
+    <row r="247" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B247" s="11">
         <v>45939</v>
       </c>
@@ -3895,7 +3905,7 @@
       <c r="R247" s="13"/>
       <c r="Y247" s="13"/>
     </row>
-    <row r="248" spans="2:25">
+    <row r="248" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B248" s="11">
         <v>45939</v>
       </c>
@@ -3905,7 +3915,7 @@
       <c r="R248" s="13"/>
       <c r="Y248" s="13"/>
     </row>
-    <row r="249" spans="2:25">
+    <row r="249" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B249" s="11">
         <v>45940</v>
       </c>
@@ -3915,7 +3925,7 @@
       <c r="R249" s="13"/>
       <c r="Y249" s="13"/>
     </row>
-    <row r="250" spans="2:25">
+    <row r="250" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B250" s="11">
         <v>45940</v>
       </c>
@@ -3925,7 +3935,7 @@
       <c r="R250" s="13"/>
       <c r="Y250" s="13"/>
     </row>
-    <row r="251" spans="2:25">
+    <row r="251" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B251" s="11">
         <v>45940</v>
       </c>
@@ -3935,7 +3945,7 @@
       <c r="R251" s="13"/>
       <c r="Y251" s="13"/>
     </row>
-    <row r="252" spans="2:25">
+    <row r="252" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B252" s="11">
         <v>45940</v>
       </c>
@@ -3945,7 +3955,7 @@
       <c r="R252" s="13"/>
       <c r="Y252" s="13"/>
     </row>
-    <row r="253" spans="2:25">
+    <row r="253" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B253" s="11">
         <v>45940</v>
       </c>
@@ -3955,7 +3965,7 @@
       <c r="R253" s="13"/>
       <c r="Y253" s="13"/>
     </row>
-    <row r="254" spans="2:25">
+    <row r="254" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B254" s="11">
         <v>45940</v>
       </c>
@@ -3965,7 +3975,7 @@
       <c r="R254" s="13"/>
       <c r="Y254" s="13"/>
     </row>
-    <row r="255" spans="2:25">
+    <row r="255" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B255" s="11">
         <v>45940</v>
       </c>
@@ -3975,7 +3985,7 @@
       <c r="R255" s="13"/>
       <c r="Y255" s="13"/>
     </row>
-    <row r="256" spans="2:25">
+    <row r="256" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B256" s="11">
         <v>45941</v>
       </c>
@@ -3985,7 +3995,7 @@
       <c r="R256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="2:25">
+    <row r="257" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B257" s="11">
         <v>45941</v>
       </c>
@@ -3995,7 +4005,7 @@
       <c r="R257" s="13"/>
       <c r="Y257" s="13"/>
     </row>
-    <row r="258" spans="2:25">
+    <row r="258" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B258" s="11">
         <v>45941</v>
       </c>
@@ -4005,7 +4015,7 @@
       <c r="R258" s="13"/>
       <c r="Y258" s="13"/>
     </row>
-    <row r="259" spans="2:25">
+    <row r="259" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B259" s="11">
         <v>45941</v>
       </c>
@@ -4015,7 +4025,7 @@
       <c r="R259" s="13"/>
       <c r="Y259" s="13"/>
     </row>
-    <row r="260" spans="2:25">
+    <row r="260" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B260" s="11">
         <v>45941</v>
       </c>
@@ -4025,7 +4035,7 @@
       <c r="R260" s="13"/>
       <c r="Y260" s="13"/>
     </row>
-    <row r="261" spans="2:25">
+    <row r="261" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B261" s="11">
         <v>45941</v>
       </c>
@@ -4035,7 +4045,7 @@
       <c r="R261" s="13"/>
       <c r="Y261" s="13"/>
     </row>
-    <row r="262" spans="2:25">
+    <row r="262" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B262" s="11">
         <v>45941</v>
       </c>
@@ -4045,7 +4055,7 @@
       <c r="R262" s="13"/>
       <c r="Y262" s="13"/>
     </row>
-    <row r="263" spans="2:25">
+    <row r="263" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B263" s="11">
         <v>45942</v>
       </c>
@@ -4055,7 +4065,7 @@
       <c r="R263" s="13"/>
       <c r="Y263" s="13"/>
     </row>
-    <row r="264" spans="2:25">
+    <row r="264" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B264" s="11">
         <v>45942</v>
       </c>
@@ -4065,7 +4075,7 @@
       <c r="R264" s="13"/>
       <c r="Y264" s="13"/>
     </row>
-    <row r="265" spans="2:25">
+    <row r="265" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B265" s="11">
         <v>45942</v>
       </c>
@@ -4075,7 +4085,7 @@
       <c r="R265" s="13"/>
       <c r="Y265" s="13"/>
     </row>
-    <row r="266" spans="2:25">
+    <row r="266" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B266" s="11">
         <v>45942</v>
       </c>
@@ -4085,7 +4095,7 @@
       <c r="R266" s="13"/>
       <c r="Y266" s="13"/>
     </row>
-    <row r="267" spans="2:25">
+    <row r="267" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B267" s="11">
         <v>45942</v>
       </c>
@@ -4095,7 +4105,7 @@
       <c r="R267" s="13"/>
       <c r="Y267" s="13"/>
     </row>
-    <row r="268" spans="2:25">
+    <row r="268" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B268" s="11">
         <v>45942</v>
       </c>
@@ -4105,7 +4115,7 @@
       <c r="R268" s="13"/>
       <c r="Y268" s="13"/>
     </row>
-    <row r="269" spans="2:25">
+    <row r="269" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B269" s="11">
         <v>45942</v>
       </c>
@@ -4115,7 +4125,7 @@
       <c r="R269" s="13"/>
       <c r="Y269" s="13"/>
     </row>
-    <row r="270" spans="2:25">
+    <row r="270" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B270" s="11">
         <v>45943</v>
       </c>
@@ -4125,7 +4135,7 @@
       <c r="R270" s="13"/>
       <c r="Y270" s="13"/>
     </row>
-    <row r="271" spans="2:25">
+    <row r="271" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B271" s="11">
         <v>45943</v>
       </c>
@@ -4135,7 +4145,7 @@
       <c r="R271" s="13"/>
       <c r="Y271" s="13"/>
     </row>
-    <row r="272" spans="2:25">
+    <row r="272" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B272" s="11">
         <v>45943</v>
       </c>
@@ -4145,7 +4155,7 @@
       <c r="R272" s="13"/>
       <c r="Y272" s="13"/>
     </row>
-    <row r="273" spans="2:25">
+    <row r="273" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B273" s="11">
         <v>45943</v>
       </c>
@@ -4155,7 +4165,7 @@
       <c r="R273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25">
+    <row r="274" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B274" s="11">
         <v>45943</v>
       </c>
@@ -4165,7 +4175,7 @@
       <c r="R274" s="13"/>
       <c r="Y274" s="13"/>
     </row>
-    <row r="275" spans="2:25">
+    <row r="275" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B275" s="11">
         <v>45943</v>
       </c>
@@ -4175,7 +4185,7 @@
       <c r="R275" s="13"/>
       <c r="Y275" s="13"/>
     </row>
-    <row r="276" spans="2:25">
+    <row r="276" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B276" s="11">
         <v>45943</v>
       </c>
@@ -4185,7 +4195,7 @@
       <c r="R276" s="13"/>
       <c r="Y276" s="13"/>
     </row>
-    <row r="277" spans="2:25">
+    <row r="277" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B277" s="11">
         <v>45944</v>
       </c>
@@ -4195,7 +4205,7 @@
       <c r="R277" s="13"/>
       <c r="Y277" s="13"/>
     </row>
-    <row r="278" spans="2:25">
+    <row r="278" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B278" s="11">
         <v>45944</v>
       </c>
@@ -4205,7 +4215,7 @@
       <c r="R278" s="13"/>
       <c r="Y278" s="13"/>
     </row>
-    <row r="279" spans="2:25">
+    <row r="279" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B279" s="11">
         <v>45944</v>
       </c>
@@ -4215,7 +4225,7 @@
       <c r="R279" s="13"/>
       <c r="Y279" s="13"/>
     </row>
-    <row r="280" spans="2:25">
+    <row r="280" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B280" s="11">
         <v>45944</v>
       </c>
@@ -4225,7 +4235,7 @@
       <c r="R280" s="13"/>
       <c r="Y280" s="13"/>
     </row>
-    <row r="281" spans="2:25">
+    <row r="281" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B281" s="11">
         <v>45944</v>
       </c>
@@ -4235,7 +4245,7 @@
       <c r="R281" s="13"/>
       <c r="Y281" s="13"/>
     </row>
-    <row r="282" spans="2:25">
+    <row r="282" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B282" s="11">
         <v>45944</v>
       </c>
@@ -4245,7 +4255,7 @@
       <c r="R282" s="13"/>
       <c r="Y282" s="13"/>
     </row>
-    <row r="283" spans="2:25">
+    <row r="283" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B283" s="11">
         <v>45944</v>
       </c>
@@ -4255,7 +4265,7 @@
       <c r="R283" s="13"/>
       <c r="Y283" s="13"/>
     </row>
-    <row r="284" spans="2:25">
+    <row r="284" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B284" s="11">
         <v>45945</v>
       </c>
@@ -4265,7 +4275,7 @@
       <c r="R284" s="13"/>
       <c r="Y284" s="13"/>
     </row>
-    <row r="285" spans="2:25">
+    <row r="285" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B285" s="11">
         <v>45945</v>
       </c>
@@ -4275,7 +4285,7 @@
       <c r="R285" s="13"/>
       <c r="Y285" s="13"/>
     </row>
-    <row r="286" spans="2:25">
+    <row r="286" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B286" s="11">
         <v>45945</v>
       </c>
@@ -4285,7 +4295,7 @@
       <c r="R286" s="13"/>
       <c r="Y286" s="13"/>
     </row>
-    <row r="287" spans="2:25">
+    <row r="287" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B287" s="11">
         <v>45945</v>
       </c>
@@ -4295,7 +4305,7 @@
       <c r="R287" s="13"/>
       <c r="Y287" s="13"/>
     </row>
-    <row r="288" spans="2:25">
+    <row r="288" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B288" s="11">
         <v>45945</v>
       </c>
@@ -4305,7 +4315,7 @@
       <c r="R288" s="13"/>
       <c r="Y288" s="13"/>
     </row>
-    <row r="289" spans="2:25">
+    <row r="289" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B289" s="11">
         <v>45945</v>
       </c>
@@ -4315,7 +4325,7 @@
       <c r="R289" s="13"/>
       <c r="Y289" s="13"/>
     </row>
-    <row r="290" spans="2:25">
+    <row r="290" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B290" s="11">
         <v>45945</v>
       </c>
@@ -4325,7 +4335,7 @@
       <c r="R290" s="13"/>
       <c r="Y290" s="13"/>
     </row>
-    <row r="291" spans="2:25">
+    <row r="291" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B291" s="11">
         <v>45946</v>
       </c>
@@ -4335,7 +4345,7 @@
       <c r="R291" s="13"/>
       <c r="Y291" s="13"/>
     </row>
-    <row r="292" spans="2:25">
+    <row r="292" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B292" s="11">
         <v>45946</v>
       </c>
@@ -4345,7 +4355,7 @@
       <c r="R292" s="13"/>
       <c r="Y292" s="13"/>
     </row>
-    <row r="293" spans="2:25">
+    <row r="293" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B293" s="11">
         <v>45946</v>
       </c>
@@ -4355,7 +4365,7 @@
       <c r="R293" s="13"/>
       <c r="Y293" s="13"/>
     </row>
-    <row r="294" spans="2:25">
+    <row r="294" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B294" s="11">
         <v>45946</v>
       </c>
@@ -4365,7 +4375,7 @@
       <c r="R294" s="13"/>
       <c r="Y294" s="13"/>
     </row>
-    <row r="295" spans="2:25">
+    <row r="295" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B295" s="11">
         <v>45946</v>
       </c>
@@ -4375,7 +4385,7 @@
       <c r="R295" s="13"/>
       <c r="Y295" s="13"/>
     </row>
-    <row r="296" spans="2:25">
+    <row r="296" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B296" s="11">
         <v>45946</v>
       </c>
@@ -4385,7 +4395,7 @@
       <c r="R296" s="13"/>
       <c r="Y296" s="13"/>
     </row>
-    <row r="297" spans="2:25">
+    <row r="297" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B297" s="11">
         <v>45946</v>
       </c>
@@ -4395,7 +4405,7 @@
       <c r="R297" s="13"/>
       <c r="Y297" s="13"/>
     </row>
-    <row r="298" spans="2:25">
+    <row r="298" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B298" s="11">
         <v>45947</v>
       </c>
@@ -4405,7 +4415,7 @@
       <c r="R298" s="13"/>
       <c r="Y298" s="13"/>
     </row>
-    <row r="299" spans="2:25">
+    <row r="299" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B299" s="11">
         <v>45947</v>
       </c>
@@ -4415,7 +4425,7 @@
       <c r="R299" s="13"/>
       <c r="Y299" s="13"/>
     </row>
-    <row r="300" spans="2:25">
+    <row r="300" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B300" s="11">
         <v>45947</v>
       </c>
@@ -4425,7 +4435,7 @@
       <c r="R300" s="13"/>
       <c r="Y300" s="13"/>
     </row>
-    <row r="301" spans="2:25">
+    <row r="301" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B301" s="11">
         <v>45947</v>
       </c>
@@ -4435,7 +4445,7 @@
       <c r="R301" s="13"/>
       <c r="Y301" s="13"/>
     </row>
-    <row r="302" spans="2:25">
+    <row r="302" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B302" s="11">
         <v>45947</v>
       </c>
@@ -4445,7 +4455,7 @@
       <c r="R302" s="13"/>
       <c r="Y302" s="13"/>
     </row>
-    <row r="303" spans="2:25">
+    <row r="303" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B303" s="11">
         <v>45947</v>
       </c>
@@ -4455,7 +4465,7 @@
       <c r="R303" s="13"/>
       <c r="Y303" s="13"/>
     </row>
-    <row r="304" spans="2:25">
+    <row r="304" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B304" s="11">
         <v>45947</v>
       </c>
@@ -4465,7 +4475,7 @@
       <c r="R304" s="13"/>
       <c r="Y304" s="13"/>
     </row>
-    <row r="305" spans="2:25">
+    <row r="305" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B305" s="11">
         <v>45948</v>
       </c>
@@ -4475,7 +4485,7 @@
       <c r="R305" s="13"/>
       <c r="Y305" s="13"/>
     </row>
-    <row r="306" spans="2:25">
+    <row r="306" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B306" s="11">
         <v>45948</v>
       </c>
@@ -4485,7 +4495,7 @@
       <c r="R306" s="13"/>
       <c r="Y306" s="13"/>
     </row>
-    <row r="307" spans="2:25">
+    <row r="307" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B307" s="11">
         <v>45948</v>
       </c>
@@ -4495,7 +4505,7 @@
       <c r="R307" s="13"/>
       <c r="Y307" s="13"/>
     </row>
-    <row r="308" spans="2:25">
+    <row r="308" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B308" s="11">
         <v>45948</v>
       </c>
@@ -4505,7 +4515,7 @@
       <c r="R308" s="13"/>
       <c r="Y308" s="13"/>
     </row>
-    <row r="309" spans="2:25">
+    <row r="309" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B309" s="11">
         <v>45948</v>
       </c>
@@ -4515,7 +4525,7 @@
       <c r="R309" s="13"/>
       <c r="Y309" s="13"/>
     </row>
-    <row r="310" spans="2:25">
+    <row r="310" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B310" s="11">
         <v>45948</v>
       </c>
@@ -4525,7 +4535,7 @@
       <c r="R310" s="13"/>
       <c r="Y310" s="13"/>
     </row>
-    <row r="311" spans="2:25">
+    <row r="311" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B311" s="11">
         <v>45948</v>
       </c>
@@ -4535,7 +4545,7 @@
       <c r="R311" s="13"/>
       <c r="Y311" s="13"/>
     </row>
-    <row r="312" spans="2:25">
+    <row r="312" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B312" s="11">
         <v>45949</v>
       </c>
@@ -4545,7 +4555,7 @@
       <c r="R312" s="13"/>
       <c r="Y312" s="13"/>
     </row>
-    <row r="313" spans="2:25">
+    <row r="313" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B313" s="11">
         <v>45949</v>
       </c>
@@ -4555,7 +4565,7 @@
       <c r="R313" s="13"/>
       <c r="Y313" s="13"/>
     </row>
-    <row r="314" spans="2:25">
+    <row r="314" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B314" s="11">
         <v>45949</v>
       </c>
@@ -4565,7 +4575,7 @@
       <c r="R314" s="13"/>
       <c r="Y314" s="13"/>
     </row>
-    <row r="315" spans="2:25">
+    <row r="315" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B315" s="11">
         <v>45949</v>
       </c>
@@ -4575,7 +4585,7 @@
       <c r="R315" s="13"/>
       <c r="Y315" s="13"/>
     </row>
-    <row r="316" spans="2:25">
+    <row r="316" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B316" s="11">
         <v>45949</v>
       </c>
@@ -4585,7 +4595,7 @@
       <c r="R316" s="13"/>
       <c r="Y316" s="13"/>
     </row>
-    <row r="317" spans="2:25">
+    <row r="317" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B317" s="11">
         <v>45949</v>
       </c>
@@ -4595,7 +4605,7 @@
       <c r="R317" s="13"/>
       <c r="Y317" s="13"/>
     </row>
-    <row r="318" spans="2:25">
+    <row r="318" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B318" s="11">
         <v>45949</v>
       </c>
@@ -4605,7 +4615,7 @@
       <c r="R318" s="13"/>
       <c r="Y318" s="13"/>
     </row>
-    <row r="319" spans="2:25">
+    <row r="319" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B319" s="11">
         <v>45950</v>
       </c>
@@ -4615,7 +4625,7 @@
       <c r="R319" s="13"/>
       <c r="Y319" s="13"/>
     </row>
-    <row r="320" spans="2:25">
+    <row r="320" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B320" s="11">
         <v>45950</v>
       </c>
@@ -4625,7 +4635,7 @@
       <c r="R320" s="13"/>
       <c r="Y320" s="13"/>
     </row>
-    <row r="321" spans="2:25">
+    <row r="321" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B321" s="11">
         <v>45950</v>
       </c>
@@ -4635,7 +4645,7 @@
       <c r="R321" s="13"/>
       <c r="Y321" s="13"/>
     </row>
-    <row r="322" spans="2:25">
+    <row r="322" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B322" s="11">
         <v>45950</v>
       </c>
@@ -4645,7 +4655,7 @@
       <c r="R322" s="13"/>
       <c r="Y322" s="13"/>
     </row>
-    <row r="323" spans="2:25">
+    <row r="323" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B323" s="11">
         <v>45950</v>
       </c>
@@ -4655,7 +4665,7 @@
       <c r="R323" s="13"/>
       <c r="Y323" s="13"/>
     </row>
-    <row r="324" spans="2:25">
+    <row r="324" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B324" s="11">
         <v>45950</v>
       </c>
@@ -4665,7 +4675,7 @@
       <c r="R324" s="13"/>
       <c r="Y324" s="13"/>
     </row>
-    <row r="325" spans="2:25">
+    <row r="325" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B325" s="11">
         <v>45950</v>
       </c>
@@ -4675,7 +4685,7 @@
       <c r="R325" s="13"/>
       <c r="Y325" s="13"/>
     </row>
-    <row r="326" spans="2:25">
+    <row r="326" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B326" s="11">
         <v>45951</v>
       </c>
@@ -4685,7 +4695,7 @@
       <c r="R326" s="13"/>
       <c r="Y326" s="13"/>
     </row>
-    <row r="327" spans="2:25">
+    <row r="327" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B327" s="11">
         <v>45951</v>
       </c>
@@ -4695,7 +4705,7 @@
       <c r="R327" s="13"/>
       <c r="Y327" s="13"/>
     </row>
-    <row r="328" spans="2:25">
+    <row r="328" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B328" s="11">
         <v>45951</v>
       </c>
@@ -4705,7 +4715,7 @@
       <c r="R328" s="13"/>
       <c r="Y328" s="13"/>
     </row>
-    <row r="329" spans="2:25">
+    <row r="329" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B329" s="11">
         <v>45951</v>
       </c>
@@ -4715,7 +4725,7 @@
       <c r="R329" s="13"/>
       <c r="Y329" s="13"/>
     </row>
-    <row r="330" spans="2:25">
+    <row r="330" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B330" s="11">
         <v>45951</v>
       </c>
@@ -4725,7 +4735,7 @@
       <c r="R330" s="13"/>
       <c r="Y330" s="13"/>
     </row>
-    <row r="331" spans="2:25">
+    <row r="331" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B331" s="11">
         <v>45951</v>
       </c>
@@ -4735,7 +4745,7 @@
       <c r="R331" s="13"/>
       <c r="Y331" s="13"/>
     </row>
-    <row r="332" spans="2:25">
+    <row r="332" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B332" s="11">
         <v>45951</v>
       </c>
@@ -4745,7 +4755,7 @@
       <c r="R332" s="13"/>
       <c r="Y332" s="13"/>
     </row>
-    <row r="333" spans="2:25">
+    <row r="333" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B333" s="11">
         <v>45952</v>
       </c>
@@ -4755,7 +4765,7 @@
       <c r="R333" s="13"/>
       <c r="Y333" s="13"/>
     </row>
-    <row r="334" spans="2:25">
+    <row r="334" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B334" s="11">
         <v>45952</v>
       </c>
@@ -4765,7 +4775,7 @@
       <c r="R334" s="13"/>
       <c r="Y334" s="13"/>
     </row>
-    <row r="335" spans="2:25">
+    <row r="335" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B335" s="11">
         <v>45952</v>
       </c>
@@ -4775,7 +4785,7 @@
       <c r="R335" s="13"/>
       <c r="Y335" s="13"/>
     </row>
-    <row r="336" spans="2:25">
+    <row r="336" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B336" s="11">
         <v>45952</v>
       </c>
@@ -4785,7 +4795,7 @@
       <c r="R336" s="13"/>
       <c r="Y336" s="13"/>
     </row>
-    <row r="337" spans="2:25">
+    <row r="337" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B337" s="11">
         <v>45952</v>
       </c>
@@ -4795,7 +4805,7 @@
       <c r="R337" s="13"/>
       <c r="Y337" s="13"/>
     </row>
-    <row r="338" spans="2:25">
+    <row r="338" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B338" s="11">
         <v>45952</v>
       </c>
@@ -4805,7 +4815,7 @@
       <c r="R338" s="13"/>
       <c r="Y338" s="13"/>
     </row>
-    <row r="339" spans="2:25">
+    <row r="339" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B339" s="11">
         <v>45952</v>
       </c>
@@ -4815,7 +4825,7 @@
       <c r="R339" s="13"/>
       <c r="Y339" s="13"/>
     </row>
-    <row r="340" spans="2:25">
+    <row r="340" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B340" s="11">
         <v>45953</v>
       </c>
@@ -4825,7 +4835,7 @@
       <c r="R340" s="13"/>
       <c r="Y340" s="13"/>
     </row>
-    <row r="341" spans="2:25">
+    <row r="341" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B341" s="11">
         <v>45953</v>
       </c>
@@ -4835,7 +4845,7 @@
       <c r="R341" s="13"/>
       <c r="Y341" s="13"/>
     </row>
-    <row r="342" spans="2:25">
+    <row r="342" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B342" s="11">
         <v>45953</v>
       </c>
@@ -4845,7 +4855,7 @@
       <c r="R342" s="13"/>
       <c r="Y342" s="13"/>
     </row>
-    <row r="343" spans="2:25">
+    <row r="343" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B343" s="11">
         <v>45953</v>
       </c>
@@ -4855,7 +4865,7 @@
       <c r="R343" s="13"/>
       <c r="Y343" s="13"/>
     </row>
-    <row r="344" spans="2:25">
+    <row r="344" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B344" s="11">
         <v>45953</v>
       </c>
@@ -4865,7 +4875,7 @@
       <c r="R344" s="13"/>
       <c r="Y344" s="13"/>
     </row>
-    <row r="345" spans="2:25">
+    <row r="345" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B345" s="11">
         <v>45953</v>
       </c>
@@ -4875,7 +4885,7 @@
       <c r="R345" s="13"/>
       <c r="Y345" s="13"/>
     </row>
-    <row r="346" spans="2:25">
+    <row r="346" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B346" s="11">
         <v>45953</v>
       </c>
@@ -4885,7 +4895,7 @@
       <c r="R346" s="13"/>
       <c r="Y346" s="13"/>
     </row>
-    <row r="347" spans="2:25">
+    <row r="347" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B347" s="11">
         <v>45954</v>
       </c>
@@ -4895,7 +4905,7 @@
       <c r="R347" s="13"/>
       <c r="Y347" s="13"/>
     </row>
-    <row r="348" spans="2:25">
+    <row r="348" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B348" s="11">
         <v>45954</v>
       </c>
@@ -4905,7 +4915,7 @@
       <c r="R348" s="13"/>
       <c r="Y348" s="13"/>
     </row>
-    <row r="349" spans="2:25">
+    <row r="349" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B349" s="11">
         <v>45954</v>
       </c>
@@ -4915,7 +4925,7 @@
       <c r="R349" s="13"/>
       <c r="Y349" s="13"/>
     </row>
-    <row r="350" spans="2:25">
+    <row r="350" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B350" s="11">
         <v>45954</v>
       </c>
@@ -4925,7 +4935,7 @@
       <c r="R350" s="13"/>
       <c r="Y350" s="13"/>
     </row>
-    <row r="351" spans="2:25">
+    <row r="351" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B351" s="11">
         <v>45954</v>
       </c>
@@ -4935,7 +4945,7 @@
       <c r="R351" s="13"/>
       <c r="Y351" s="13"/>
     </row>
-    <row r="352" spans="2:25">
+    <row r="352" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B352" s="11">
         <v>45954</v>
       </c>
@@ -4945,7 +4955,7 @@
       <c r="R352" s="13"/>
       <c r="Y352" s="13"/>
     </row>
-    <row r="353" spans="2:25">
+    <row r="353" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B353" s="11">
         <v>45954</v>
       </c>
@@ -4955,7 +4965,7 @@
       <c r="R353" s="13"/>
       <c r="Y353" s="13"/>
     </row>
-    <row r="354" spans="2:25">
+    <row r="354" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B354" s="11">
         <v>45955</v>
       </c>
@@ -4965,7 +4975,7 @@
       <c r="R354" s="13"/>
       <c r="Y354" s="13"/>
     </row>
-    <row r="355" spans="2:25">
+    <row r="355" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B355" s="11">
         <v>45955</v>
       </c>
@@ -4975,7 +4985,7 @@
       <c r="R355" s="13"/>
       <c r="Y355" s="13"/>
     </row>
-    <row r="356" spans="2:25">
+    <row r="356" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B356" s="11">
         <v>45955</v>
       </c>
@@ -4985,7 +4995,7 @@
       <c r="R356" s="13"/>
       <c r="Y356" s="13"/>
     </row>
-    <row r="357" spans="2:25">
+    <row r="357" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B357" s="11">
         <v>45955</v>
       </c>
@@ -4995,7 +5005,7 @@
       <c r="R357" s="13"/>
       <c r="Y357" s="13"/>
     </row>
-    <row r="358" spans="2:25">
+    <row r="358" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B358" s="11">
         <v>45955</v>
       </c>
@@ -5005,7 +5015,7 @@
       <c r="R358" s="13"/>
       <c r="Y358" s="13"/>
     </row>
-    <row r="359" spans="2:25">
+    <row r="359" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B359" s="11">
         <v>45955</v>
       </c>
@@ -5015,7 +5025,7 @@
       <c r="R359" s="13"/>
       <c r="Y359" s="13"/>
     </row>
-    <row r="360" spans="2:25">
+    <row r="360" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B360" s="11">
         <v>45955</v>
       </c>
@@ -5025,7 +5035,7 @@
       <c r="R360" s="13"/>
       <c r="Y360" s="13"/>
     </row>
-    <row r="361" spans="2:25">
+    <row r="361" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B361" s="11">
         <v>45956</v>
       </c>
@@ -5035,7 +5045,7 @@
       <c r="R361" s="13"/>
       <c r="Y361" s="13"/>
     </row>
-    <row r="362" spans="2:25">
+    <row r="362" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B362" s="11">
         <v>45956</v>
       </c>
@@ -5045,7 +5055,7 @@
       <c r="R362" s="13"/>
       <c r="Y362" s="13"/>
     </row>
-    <row r="363" spans="2:25">
+    <row r="363" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B363" s="11">
         <v>45956</v>
       </c>
@@ -5055,7 +5065,7 @@
       <c r="R363" s="13"/>
       <c r="Y363" s="13"/>
     </row>
-    <row r="364" spans="2:25">
+    <row r="364" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B364" s="11">
         <v>45956</v>
       </c>
@@ -5065,7 +5075,7 @@
       <c r="R364" s="13"/>
       <c r="Y364" s="13"/>
     </row>
-    <row r="365" spans="2:25">
+    <row r="365" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B365" s="11">
         <v>45956</v>
       </c>
@@ -5075,7 +5085,7 @@
       <c r="R365" s="13"/>
       <c r="Y365" s="13"/>
     </row>
-    <row r="366" spans="2:25">
+    <row r="366" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B366" s="11">
         <v>45956</v>
       </c>
@@ -5085,7 +5095,7 @@
       <c r="R366" s="13"/>
       <c r="Y366" s="13"/>
     </row>
-    <row r="367" spans="2:25">
+    <row r="367" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B367" s="11">
         <v>45956</v>
       </c>
@@ -5095,7 +5105,7 @@
       <c r="R367" s="13"/>
       <c r="Y367" s="13"/>
     </row>
-    <row r="368" spans="2:25">
+    <row r="368" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B368" s="11">
         <v>45957</v>
       </c>
@@ -5105,7 +5115,7 @@
       <c r="R368" s="13"/>
       <c r="Y368" s="13"/>
     </row>
-    <row r="369" spans="2:25">
+    <row r="369" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B369" s="11">
         <v>45957</v>
       </c>
@@ -5115,7 +5125,7 @@
       <c r="R369" s="13"/>
       <c r="Y369" s="13"/>
     </row>
-    <row r="370" spans="2:25">
+    <row r="370" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B370" s="11">
         <v>45957</v>
       </c>
@@ -5125,7 +5135,7 @@
       <c r="R370" s="13"/>
       <c r="Y370" s="13"/>
     </row>
-    <row r="371" spans="2:25">
+    <row r="371" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B371" s="11">
         <v>45957</v>
       </c>
@@ -5135,7 +5145,7 @@
       <c r="R371" s="13"/>
       <c r="Y371" s="13"/>
     </row>
-    <row r="372" spans="2:25">
+    <row r="372" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B372" s="11">
         <v>45957</v>
       </c>
@@ -5145,7 +5155,7 @@
       <c r="R372" s="13"/>
       <c r="Y372" s="13"/>
     </row>
-    <row r="373" spans="2:25">
+    <row r="373" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B373" s="11">
         <v>45957</v>
       </c>
@@ -5155,7 +5165,7 @@
       <c r="R373" s="13"/>
       <c r="Y373" s="13"/>
     </row>
-    <row r="374" spans="2:25">
+    <row r="374" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B374" s="11">
         <v>45957</v>
       </c>
@@ -5165,7 +5175,7 @@
       <c r="R374" s="13"/>
       <c r="Y374" s="13"/>
     </row>
-    <row r="375" spans="2:25">
+    <row r="375" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B375" s="11">
         <v>45958</v>
       </c>
@@ -5175,7 +5185,7 @@
       <c r="R375" s="13"/>
       <c r="Y375" s="13"/>
     </row>
-    <row r="376" spans="2:25">
+    <row r="376" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B376" s="11">
         <v>45958</v>
       </c>
@@ -5185,7 +5195,7 @@
       <c r="R376" s="13"/>
       <c r="Y376" s="13"/>
     </row>
-    <row r="377" spans="2:25">
+    <row r="377" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B377" s="11">
         <v>45958</v>
       </c>
@@ -5195,7 +5205,7 @@
       <c r="R377" s="13"/>
       <c r="Y377" s="13"/>
     </row>
-    <row r="378" spans="2:25">
+    <row r="378" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B378" s="11">
         <v>45958</v>
       </c>
@@ -5205,7 +5215,7 @@
       <c r="R378" s="13"/>
       <c r="Y378" s="13"/>
     </row>
-    <row r="379" spans="2:25">
+    <row r="379" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B379" s="11">
         <v>45958</v>
       </c>
@@ -5215,7 +5225,7 @@
       <c r="R379" s="13"/>
       <c r="Y379" s="13"/>
     </row>
-    <row r="380" spans="2:25">
+    <row r="380" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B380" s="11">
         <v>45958</v>
       </c>
@@ -5225,7 +5235,7 @@
       <c r="R380" s="13"/>
       <c r="Y380" s="13"/>
     </row>
-    <row r="381" spans="2:25">
+    <row r="381" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B381" s="11">
         <v>45958</v>
       </c>
@@ -5235,7 +5245,7 @@
       <c r="R381" s="13"/>
       <c r="Y381" s="13"/>
     </row>
-    <row r="382" spans="2:25">
+    <row r="382" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B382" s="11">
         <v>45959</v>
       </c>
@@ -5245,7 +5255,7 @@
       <c r="R382" s="13"/>
       <c r="Y382" s="13"/>
     </row>
-    <row r="383" spans="2:25">
+    <row r="383" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B383" s="11">
         <v>45959</v>
       </c>
@@ -5255,7 +5265,7 @@
       <c r="R383" s="13"/>
       <c r="Y383" s="13"/>
     </row>
-    <row r="384" spans="2:25">
+    <row r="384" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B384" s="11">
         <v>45959</v>
       </c>
@@ -5265,7 +5275,7 @@
       <c r="R384" s="13"/>
       <c r="Y384" s="13"/>
     </row>
-    <row r="385" spans="2:25">
+    <row r="385" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B385" s="11">
         <v>45959</v>
       </c>
@@ -5275,7 +5285,7 @@
       <c r="R385" s="13"/>
       <c r="Y385" s="13"/>
     </row>
-    <row r="386" spans="2:25">
+    <row r="386" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B386" s="11">
         <v>45959</v>
       </c>
@@ -5285,7 +5295,7 @@
       <c r="R386" s="13"/>
       <c r="Y386" s="13"/>
     </row>
-    <row r="387" spans="2:25">
+    <row r="387" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B387" s="11">
         <v>45959</v>
       </c>
@@ -5295,7 +5305,7 @@
       <c r="R387" s="13"/>
       <c r="Y387" s="13"/>
     </row>
-    <row r="388" spans="2:25">
+    <row r="388" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B388" s="11">
         <v>45959</v>
       </c>
@@ -5305,7 +5315,7 @@
       <c r="R388" s="13"/>
       <c r="Y388" s="13"/>
     </row>
-    <row r="389" spans="2:25">
+    <row r="389" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B389" s="11">
         <v>45960</v>
       </c>
@@ -5315,7 +5325,7 @@
       <c r="R389" s="13"/>
       <c r="Y389" s="13"/>
     </row>
-    <row r="390" spans="2:25">
+    <row r="390" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B390" s="11">
         <v>45960</v>
       </c>
@@ -5325,7 +5335,7 @@
       <c r="R390" s="13"/>
       <c r="Y390" s="13"/>
     </row>
-    <row r="391" spans="2:25">
+    <row r="391" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B391" s="11">
         <v>45960</v>
       </c>
@@ -5335,7 +5345,7 @@
       <c r="R391" s="13"/>
       <c r="Y391" s="13"/>
     </row>
-    <row r="392" spans="2:25">
+    <row r="392" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B392" s="11">
         <v>45960</v>
       </c>
@@ -5345,7 +5355,7 @@
       <c r="R392" s="13"/>
       <c r="Y392" s="13"/>
     </row>
-    <row r="393" spans="2:25">
+    <row r="393" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B393" s="11">
         <v>45960</v>
       </c>
@@ -5355,7 +5365,7 @@
       <c r="R393" s="13"/>
       <c r="Y393" s="13"/>
     </row>
-    <row r="394" spans="2:25">
+    <row r="394" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B394" s="11">
         <v>45960</v>
       </c>
@@ -5365,7 +5375,7 @@
       <c r="R394" s="13"/>
       <c r="Y394" s="13"/>
     </row>
-    <row r="395" spans="2:25">
+    <row r="395" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B395" s="11">
         <v>45960</v>
       </c>
@@ -5375,7 +5385,7 @@
       <c r="R395" s="13"/>
       <c r="Y395" s="13"/>
     </row>
-    <row r="396" spans="2:25">
+    <row r="396" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B396" s="11">
         <v>45961</v>
       </c>
@@ -5385,7 +5395,7 @@
       <c r="R396" s="13"/>
       <c r="Y396" s="13"/>
     </row>
-    <row r="397" spans="2:25">
+    <row r="397" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B397" s="11">
         <v>45961</v>
       </c>
@@ -5395,7 +5405,7 @@
       <c r="R397" s="13"/>
       <c r="Y397" s="13"/>
     </row>
-    <row r="398" spans="2:25">
+    <row r="398" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B398" s="11">
         <v>45961</v>
       </c>
@@ -5405,7 +5415,7 @@
       <c r="R398" s="13"/>
       <c r="Y398" s="13"/>
     </row>
-    <row r="399" spans="2:25">
+    <row r="399" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B399" s="11">
         <v>45961</v>
       </c>
@@ -5415,7 +5425,7 @@
       <c r="R399" s="13"/>
       <c r="Y399" s="13"/>
     </row>
-    <row r="400" spans="2:25">
+    <row r="400" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B400" s="11">
         <v>45961</v>
       </c>
@@ -5425,7 +5435,7 @@
       <c r="R400" s="13"/>
       <c r="Y400" s="13"/>
     </row>
-    <row r="401" spans="2:25">
+    <row r="401" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B401" s="11">
         <v>45961</v>
       </c>
@@ -5435,7 +5445,7 @@
       <c r="R401" s="13"/>
       <c r="Y401" s="13"/>
     </row>
-    <row r="402" spans="2:25">
+    <row r="402" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B402" s="11">
         <v>45961</v>
       </c>
@@ -5445,7 +5455,7 @@
       <c r="R402" s="13"/>
       <c r="Y402" s="13"/>
     </row>
-    <row r="403" spans="2:25">
+    <row r="403" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B403" s="11">
         <v>45962</v>
       </c>
@@ -5455,7 +5465,7 @@
       <c r="R403" s="13"/>
       <c r="Y403" s="13"/>
     </row>
-    <row r="404" spans="2:25">
+    <row r="404" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B404" s="11">
         <v>45962</v>
       </c>
@@ -5465,7 +5475,7 @@
       <c r="R404" s="13"/>
       <c r="Y404" s="13"/>
     </row>
-    <row r="405" spans="2:25">
+    <row r="405" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B405" s="11">
         <v>45962</v>
       </c>
@@ -5475,7 +5485,7 @@
       <c r="R405" s="13"/>
       <c r="Y405" s="13"/>
     </row>
-    <row r="406" spans="2:25">
+    <row r="406" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B406" s="11">
         <v>45962</v>
       </c>
@@ -5485,7 +5495,7 @@
       <c r="R406" s="13"/>
       <c r="Y406" s="13"/>
     </row>
-    <row r="407" spans="2:25">
+    <row r="407" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B407" s="11">
         <v>45962</v>
       </c>
@@ -5495,7 +5505,7 @@
       <c r="R407" s="13"/>
       <c r="Y407" s="13"/>
     </row>
-    <row r="408" spans="2:25">
+    <row r="408" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B408" s="11">
         <v>45962</v>
       </c>
@@ -5505,7 +5515,7 @@
       <c r="R408" s="13"/>
       <c r="Y408" s="13"/>
     </row>
-    <row r="409" spans="2:25">
+    <row r="409" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B409" s="11">
         <v>45962</v>
       </c>
@@ -5515,7 +5525,7 @@
       <c r="R409" s="13"/>
       <c r="Y409" s="13"/>
     </row>
-    <row r="410" spans="2:25">
+    <row r="410" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B410" s="11">
         <v>45963</v>
       </c>
@@ -5525,7 +5535,7 @@
       <c r="R410" s="13"/>
       <c r="Y410" s="13"/>
     </row>
-    <row r="411" spans="2:25">
+    <row r="411" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B411" s="11">
         <v>45963</v>
       </c>
@@ -5535,7 +5545,7 @@
       <c r="R411" s="13"/>
       <c r="Y411" s="13"/>
     </row>
-    <row r="412" spans="2:25">
+    <row r="412" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B412" s="11">
         <v>45963</v>
       </c>
@@ -5545,7 +5555,7 @@
       <c r="R412" s="13"/>
       <c r="Y412" s="13"/>
     </row>
-    <row r="413" spans="2:25">
+    <row r="413" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B413" s="11">
         <v>45963</v>
       </c>
@@ -5555,7 +5565,7 @@
       <c r="R413" s="13"/>
       <c r="Y413" s="13"/>
     </row>
-    <row r="414" spans="2:25">
+    <row r="414" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B414" s="11">
         <v>45963</v>
       </c>
@@ -5565,7 +5575,7 @@
       <c r="R414" s="13"/>
       <c r="Y414" s="13"/>
     </row>
-    <row r="415" spans="2:25">
+    <row r="415" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B415" s="11">
         <v>45963</v>
       </c>
@@ -5575,7 +5585,7 @@
       <c r="R415" s="13"/>
       <c r="Y415" s="13"/>
     </row>
-    <row r="416" spans="2:25">
+    <row r="416" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B416" s="11">
         <v>45963</v>
       </c>
@@ -5585,7 +5595,7 @@
       <c r="R416" s="13"/>
       <c r="Y416" s="13"/>
     </row>
-    <row r="417" spans="2:25">
+    <row r="417" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B417" s="11">
         <v>45964</v>
       </c>
@@ -5595,7 +5605,7 @@
       <c r="R417" s="13"/>
       <c r="Y417" s="13"/>
     </row>
-    <row r="418" spans="2:25">
+    <row r="418" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B418" s="11">
         <v>45964</v>
       </c>
@@ -5605,7 +5615,7 @@
       <c r="R418" s="13"/>
       <c r="Y418" s="13"/>
     </row>
-    <row r="419" spans="2:25">
+    <row r="419" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B419" s="11">
         <v>45964</v>
       </c>
@@ -5615,7 +5625,7 @@
       <c r="R419" s="13"/>
       <c r="Y419" s="13"/>
     </row>
-    <row r="420" spans="2:25">
+    <row r="420" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B420" s="11">
         <v>45964</v>
       </c>
@@ -5625,7 +5635,7 @@
       <c r="R420" s="13"/>
       <c r="Y420" s="13"/>
     </row>
-    <row r="421" spans="2:25">
+    <row r="421" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B421" s="11">
         <v>45964</v>
       </c>
@@ -5635,7 +5645,7 @@
       <c r="R421" s="13"/>
       <c r="Y421" s="13"/>
     </row>
-    <row r="422" spans="2:25">
+    <row r="422" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B422" s="11">
         <v>45964</v>
       </c>
@@ -5645,7 +5655,7 @@
       <c r="R422" s="13"/>
       <c r="Y422" s="13"/>
     </row>
-    <row r="423" spans="2:25">
+    <row r="423" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B423" s="11">
         <v>45964</v>
       </c>
@@ -5655,7 +5665,7 @@
       <c r="R423" s="13"/>
       <c r="Y423" s="13"/>
     </row>
-    <row r="424" spans="2:25">
+    <row r="424" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B424" s="11">
         <v>45965</v>
       </c>
@@ -5665,7 +5675,7 @@
       <c r="R424" s="13"/>
       <c r="Y424" s="13"/>
     </row>
-    <row r="425" spans="2:25">
+    <row r="425" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B425" s="11">
         <v>45965</v>
       </c>
@@ -5675,7 +5685,7 @@
       <c r="R425" s="13"/>
       <c r="Y425" s="13"/>
     </row>
-    <row r="426" spans="2:25">
+    <row r="426" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B426" s="11">
         <v>45965</v>
       </c>
@@ -5685,7 +5695,7 @@
       <c r="R426" s="13"/>
       <c r="Y426" s="13"/>
     </row>
-    <row r="427" spans="2:25">
+    <row r="427" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B427" s="11">
         <v>45965</v>
       </c>
@@ -5695,7 +5705,7 @@
       <c r="R427" s="13"/>
       <c r="Y427" s="13"/>
     </row>
-    <row r="428" spans="2:25">
+    <row r="428" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B428" s="11">
         <v>45965</v>
       </c>
@@ -5705,7 +5715,7 @@
       <c r="R428" s="13"/>
       <c r="Y428" s="13"/>
     </row>
-    <row r="429" spans="2:25">
+    <row r="429" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B429" s="11">
         <v>45965</v>
       </c>
@@ -5715,7 +5725,7 @@
       <c r="R429" s="13"/>
       <c r="Y429" s="13"/>
     </row>
-    <row r="430" spans="2:25">
+    <row r="430" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B430" s="11">
         <v>45965</v>
       </c>
@@ -5725,7 +5735,7 @@
       <c r="R430" s="13"/>
       <c r="Y430" s="13"/>
     </row>
-    <row r="431" spans="2:25">
+    <row r="431" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B431" s="11">
         <v>45966</v>
       </c>
@@ -5735,7 +5745,7 @@
       <c r="R431" s="13"/>
       <c r="Y431" s="13"/>
     </row>
-    <row r="432" spans="2:25">
+    <row r="432" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B432" s="11">
         <v>45966</v>
       </c>
@@ -5745,7 +5755,7 @@
       <c r="R432" s="13"/>
       <c r="Y432" s="13"/>
     </row>
-    <row r="433" spans="2:25">
+    <row r="433" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B433" s="11">
         <v>45966</v>
       </c>
@@ -5755,7 +5765,7 @@
       <c r="R433" s="13"/>
       <c r="Y433" s="13"/>
     </row>
-    <row r="434" spans="2:25">
+    <row r="434" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B434" s="11">
         <v>45966</v>
       </c>
@@ -5765,7 +5775,7 @@
       <c r="R434" s="13"/>
       <c r="Y434" s="13"/>
     </row>
-    <row r="435" spans="2:25">
+    <row r="435" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B435" s="11">
         <v>45966</v>
       </c>
@@ -5775,7 +5785,7 @@
       <c r="R435" s="13"/>
       <c r="Y435" s="13"/>
     </row>
-    <row r="436" spans="2:25">
+    <row r="436" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B436" s="11">
         <v>45966</v>
       </c>
@@ -5785,7 +5795,7 @@
       <c r="R436" s="13"/>
       <c r="Y436" s="13"/>
     </row>
-    <row r="437" spans="2:25">
+    <row r="437" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B437" s="11">
         <v>45966</v>
       </c>
@@ -5795,7 +5805,7 @@
       <c r="R437" s="13"/>
       <c r="Y437" s="13"/>
     </row>
-    <row r="438" spans="2:25">
+    <row r="438" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B438" s="11">
         <v>45967</v>
       </c>
@@ -5805,7 +5815,7 @@
       <c r="R438" s="13"/>
       <c r="Y438" s="13"/>
     </row>
-    <row r="439" spans="2:25">
+    <row r="439" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B439" s="11">
         <v>45967</v>
       </c>
@@ -5815,7 +5825,7 @@
       <c r="R439" s="13"/>
       <c r="Y439" s="13"/>
     </row>
-    <row r="440" spans="2:25">
+    <row r="440" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B440" s="11">
         <v>45967</v>
       </c>
@@ -5825,7 +5835,7 @@
       <c r="R440" s="13"/>
       <c r="Y440" s="13"/>
     </row>
-    <row r="441" spans="2:25">
+    <row r="441" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B441" s="11">
         <v>45967</v>
       </c>
@@ -5835,7 +5845,7 @@
       <c r="R441" s="13"/>
       <c r="Y441" s="13"/>
     </row>
-    <row r="442" spans="2:25">
+    <row r="442" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B442" s="11">
         <v>45967</v>
       </c>
@@ -5845,7 +5855,7 @@
       <c r="R442" s="13"/>
       <c r="Y442" s="13"/>
     </row>
-    <row r="443" spans="2:25">
+    <row r="443" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B443" s="11">
         <v>45967</v>
       </c>
@@ -5855,7 +5865,7 @@
       <c r="R443" s="13"/>
       <c r="Y443" s="13"/>
     </row>
-    <row r="444" spans="2:25">
+    <row r="444" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B444" s="11">
         <v>45967</v>
       </c>
@@ -5865,7 +5875,7 @@
       <c r="R444" s="13"/>
       <c r="Y444" s="13"/>
     </row>
-    <row r="445" spans="2:25">
+    <row r="445" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B445" s="11">
         <v>45968</v>
       </c>
@@ -5875,7 +5885,7 @@
       <c r="R445" s="13"/>
       <c r="Y445" s="13"/>
     </row>
-    <row r="446" spans="2:25">
+    <row r="446" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B446" s="11">
         <v>45968</v>
       </c>
@@ -5885,7 +5895,7 @@
       <c r="R446" s="13"/>
       <c r="Y446" s="13"/>
     </row>
-    <row r="447" spans="2:25">
+    <row r="447" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B447" s="11">
         <v>45968</v>
       </c>
@@ -5895,7 +5905,7 @@
       <c r="R447" s="13"/>
       <c r="Y447" s="13"/>
     </row>
-    <row r="448" spans="2:25">
+    <row r="448" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B448" s="11">
         <v>45968</v>
       </c>
@@ -5905,7 +5915,7 @@
       <c r="R448" s="13"/>
       <c r="Y448" s="13"/>
     </row>
-    <row r="449" spans="2:25">
+    <row r="449" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B449" s="11">
         <v>45968</v>
       </c>
@@ -5915,7 +5925,7 @@
       <c r="R449" s="13"/>
       <c r="Y449" s="13"/>
     </row>
-    <row r="450" spans="2:25">
+    <row r="450" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B450" s="11">
         <v>45968</v>
       </c>
@@ -5925,7 +5935,7 @@
       <c r="R450" s="13"/>
       <c r="Y450" s="13"/>
     </row>
-    <row r="451" spans="2:25">
+    <row r="451" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B451" s="11">
         <v>45968</v>
       </c>
@@ -5935,7 +5945,7 @@
       <c r="R451" s="13"/>
       <c r="Y451" s="13"/>
     </row>
-    <row r="452" spans="2:25">
+    <row r="452" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B452" s="11">
         <v>45969</v>
       </c>
@@ -5945,7 +5955,7 @@
       <c r="R452" s="13"/>
       <c r="Y452" s="13"/>
     </row>
-    <row r="453" spans="2:25">
+    <row r="453" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B453" s="11">
         <v>45969</v>
       </c>
@@ -5955,7 +5965,7 @@
       <c r="R453" s="13"/>
       <c r="Y453" s="13"/>
     </row>
-    <row r="454" spans="2:25">
+    <row r="454" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B454" s="11">
         <v>45969</v>
       </c>
@@ -5965,7 +5975,7 @@
       <c r="R454" s="13"/>
       <c r="Y454" s="13"/>
     </row>
-    <row r="455" spans="2:25">
+    <row r="455" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B455" s="11">
         <v>45969</v>
       </c>
@@ -5975,7 +5985,7 @@
       <c r="R455" s="13"/>
       <c r="Y455" s="13"/>
     </row>
-    <row r="456" spans="2:25">
+    <row r="456" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B456" s="11">
         <v>45969</v>
       </c>
@@ -5985,7 +5995,7 @@
       <c r="R456" s="13"/>
       <c r="Y456" s="13"/>
     </row>
-    <row r="457" spans="2:25">
+    <row r="457" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B457" s="11">
         <v>45969</v>
       </c>
@@ -5995,7 +6005,7 @@
       <c r="R457" s="13"/>
       <c r="Y457" s="13"/>
     </row>
-    <row r="458" spans="2:25">
+    <row r="458" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B458" s="11">
         <v>45969</v>
       </c>
@@ -6005,7 +6015,7 @@
       <c r="R458" s="13"/>
       <c r="Y458" s="13"/>
     </row>
-    <row r="459" spans="2:25">
+    <row r="459" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B459" s="11">
         <v>45970</v>
       </c>
@@ -6015,7 +6025,7 @@
       <c r="R459" s="13"/>
       <c r="Y459" s="13"/>
     </row>
-    <row r="460" spans="2:25">
+    <row r="460" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B460" s="11">
         <v>45970</v>
       </c>
@@ -6025,7 +6035,7 @@
       <c r="R460" s="13"/>
       <c r="Y460" s="13"/>
     </row>
-    <row r="461" spans="2:25">
+    <row r="461" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B461" s="11">
         <v>45970</v>
       </c>
@@ -6035,7 +6045,7 @@
       <c r="R461" s="13"/>
       <c r="Y461" s="13"/>
     </row>
-    <row r="462" spans="2:25">
+    <row r="462" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B462" s="11">
         <v>45970</v>
       </c>
@@ -6045,7 +6055,7 @@
       <c r="R462" s="13"/>
       <c r="Y462" s="13"/>
     </row>
-    <row r="463" spans="2:25">
+    <row r="463" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B463" s="11">
         <v>45970</v>
       </c>
@@ -6055,7 +6065,7 @@
       <c r="R463" s="13"/>
       <c r="Y463" s="13"/>
     </row>
-    <row r="464" spans="2:25">
+    <row r="464" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B464" s="11">
         <v>45970</v>
       </c>
@@ -6065,7 +6075,7 @@
       <c r="R464" s="13"/>
       <c r="Y464" s="13"/>
     </row>
-    <row r="465" spans="2:25">
+    <row r="465" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B465" s="11">
         <v>45970</v>
       </c>
@@ -6075,7 +6085,7 @@
       <c r="R465" s="13"/>
       <c r="Y465" s="13"/>
     </row>
-    <row r="466" spans="2:25">
+    <row r="466" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B466" s="11">
         <v>45971</v>
       </c>
@@ -6085,7 +6095,7 @@
       <c r="R466" s="13"/>
       <c r="Y466" s="13"/>
     </row>
-    <row r="467" spans="2:25">
+    <row r="467" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B467" s="11">
         <v>45971</v>
       </c>
@@ -6095,7 +6105,7 @@
       <c r="R467" s="13"/>
       <c r="Y467" s="13"/>
     </row>
-    <row r="468" spans="2:25">
+    <row r="468" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B468" s="11">
         <v>45971</v>
       </c>
@@ -6105,7 +6115,7 @@
       <c r="R468" s="13"/>
       <c r="Y468" s="13"/>
     </row>
-    <row r="469" spans="2:25">
+    <row r="469" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B469" s="11">
         <v>45971</v>
       </c>
@@ -6115,7 +6125,7 @@
       <c r="R469" s="13"/>
       <c r="Y469" s="13"/>
     </row>
-    <row r="470" spans="2:25">
+    <row r="470" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B470" s="11">
         <v>45971</v>
       </c>
@@ -6125,7 +6135,7 @@
       <c r="R470" s="13"/>
       <c r="Y470" s="13"/>
     </row>
-    <row r="471" spans="2:25">
+    <row r="471" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B471" s="11">
         <v>45971</v>
       </c>
@@ -6135,7 +6145,7 @@
       <c r="R471" s="13"/>
       <c r="Y471" s="13"/>
     </row>
-    <row r="472" spans="2:25">
+    <row r="472" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B472" s="11">
         <v>45971</v>
       </c>
@@ -6145,7 +6155,7 @@
       <c r="R472" s="13"/>
       <c r="Y472" s="13"/>
     </row>
-    <row r="473" spans="2:25">
+    <row r="473" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B473" s="11">
         <v>45972</v>
       </c>
@@ -6155,7 +6165,7 @@
       <c r="R473" s="13"/>
       <c r="Y473" s="13"/>
     </row>
-    <row r="474" spans="2:25">
+    <row r="474" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B474" s="11">
         <v>45972</v>
       </c>
@@ -6165,7 +6175,7 @@
       <c r="R474" s="13"/>
       <c r="Y474" s="13"/>
     </row>
-    <row r="475" spans="2:25">
+    <row r="475" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B475" s="11">
         <v>45972</v>
       </c>
@@ -6175,7 +6185,7 @@
       <c r="R475" s="13"/>
       <c r="Y475" s="13"/>
     </row>
-    <row r="476" spans="2:25">
+    <row r="476" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B476" s="11">
         <v>45972</v>
       </c>
@@ -6185,7 +6195,7 @@
       <c r="R476" s="13"/>
       <c r="Y476" s="13"/>
     </row>
-    <row r="477" spans="2:25">
+    <row r="477" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B477" s="11">
         <v>45972</v>
       </c>
@@ -6195,7 +6205,7 @@
       <c r="R477" s="13"/>
       <c r="Y477" s="13"/>
     </row>
-    <row r="478" spans="2:25">
+    <row r="478" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B478" s="11">
         <v>45972</v>
       </c>
@@ -6205,7 +6215,7 @@
       <c r="R478" s="13"/>
       <c r="Y478" s="13"/>
     </row>
-    <row r="479" spans="2:25">
+    <row r="479" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B479" s="11">
         <v>45972</v>
       </c>
@@ -6215,7 +6225,7 @@
       <c r="R479" s="13"/>
       <c r="Y479" s="13"/>
     </row>
-    <row r="480" spans="2:25">
+    <row r="480" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B480" s="11">
         <v>45973</v>
       </c>
@@ -6225,7 +6235,7 @@
       <c r="R480" s="13"/>
       <c r="Y480" s="13"/>
     </row>
-    <row r="481" spans="2:25">
+    <row r="481" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B481" s="11">
         <v>45973</v>
       </c>
@@ -6235,7 +6245,7 @@
       <c r="R481" s="13"/>
       <c r="Y481" s="13"/>
     </row>
-    <row r="482" spans="2:25">
+    <row r="482" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B482" s="11">
         <v>45973</v>
       </c>
@@ -6245,7 +6255,7 @@
       <c r="R482" s="13"/>
       <c r="Y482" s="13"/>
     </row>
-    <row r="483" spans="2:25">
+    <row r="483" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B483" s="11">
         <v>45973</v>
       </c>
@@ -6255,7 +6265,7 @@
       <c r="R483" s="13"/>
       <c r="Y483" s="13"/>
     </row>
-    <row r="484" spans="2:25">
+    <row r="484" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B484" s="11">
         <v>45973</v>
       </c>
@@ -6265,7 +6275,7 @@
       <c r="R484" s="13"/>
       <c r="Y484" s="13"/>
     </row>
-    <row r="485" spans="2:25">
+    <row r="485" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B485" s="11">
         <v>45973</v>
       </c>
@@ -6275,7 +6285,7 @@
       <c r="R485" s="13"/>
       <c r="Y485" s="13"/>
     </row>
-    <row r="486" spans="2:25">
+    <row r="486" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B486" s="11">
         <v>45973</v>
       </c>
@@ -6285,7 +6295,7 @@
       <c r="R486" s="13"/>
       <c r="Y486" s="13"/>
     </row>
-    <row r="487" spans="2:25">
+    <row r="487" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B487" s="11">
         <v>45974</v>
       </c>
@@ -6295,7 +6305,7 @@
       <c r="R487" s="13"/>
       <c r="Y487" s="13"/>
     </row>
-    <row r="488" spans="2:25">
+    <row r="488" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B488" s="11">
         <v>45974</v>
       </c>
@@ -6305,7 +6315,7 @@
       <c r="R488" s="13"/>
       <c r="Y488" s="13"/>
     </row>
-    <row r="489" spans="2:25">
+    <row r="489" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B489" s="11">
         <v>45974</v>
       </c>
@@ -6315,7 +6325,7 @@
       <c r="R489" s="13"/>
       <c r="Y489" s="13"/>
     </row>
-    <row r="490" spans="2:25">
+    <row r="490" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B490" s="11">
         <v>45974</v>
       </c>
@@ -6325,7 +6335,7 @@
       <c r="R490" s="13"/>
       <c r="Y490" s="13"/>
     </row>
-    <row r="491" spans="2:25">
+    <row r="491" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B491" s="11">
         <v>45974</v>
       </c>
@@ -6335,7 +6345,7 @@
       <c r="R491" s="13"/>
       <c r="Y491" s="13"/>
     </row>
-    <row r="492" spans="2:25">
+    <row r="492" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B492" s="11">
         <v>45974</v>
       </c>
@@ -6345,7 +6355,7 @@
       <c r="R492" s="13"/>
       <c r="Y492" s="13"/>
     </row>
-    <row r="493" spans="2:25">
+    <row r="493" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B493" s="11">
         <v>45974</v>
       </c>
@@ -6355,7 +6365,7 @@
       <c r="R493" s="13"/>
       <c r="Y493" s="13"/>
     </row>
-    <row r="494" spans="2:25">
+    <row r="494" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B494" s="11">
         <v>45975</v>
       </c>
@@ -6365,7 +6375,7 @@
       <c r="R494" s="13"/>
       <c r="Y494" s="13"/>
     </row>
-    <row r="495" spans="2:25">
+    <row r="495" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B495" s="11">
         <v>45975</v>
       </c>
@@ -6375,7 +6385,7 @@
       <c r="R495" s="13"/>
       <c r="Y495" s="13"/>
     </row>
-    <row r="496" spans="2:25">
+    <row r="496" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B496" s="11">
         <v>45975</v>
       </c>
@@ -6385,7 +6395,7 @@
       <c r="R496" s="13"/>
       <c r="Y496" s="13"/>
     </row>
-    <row r="497" spans="2:25">
+    <row r="497" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B497" s="11">
         <v>45975</v>
       </c>
@@ -6395,7 +6405,7 @@
       <c r="R497" s="13"/>
       <c r="Y497" s="13"/>
     </row>
-    <row r="498" spans="2:25">
+    <row r="498" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B498" s="11">
         <v>45975</v>
       </c>
@@ -6405,7 +6415,7 @@
       <c r="R498" s="13"/>
       <c r="Y498" s="13"/>
     </row>
-    <row r="499" spans="2:25">
+    <row r="499" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B499" s="11">
         <v>45975</v>
       </c>
@@ -6415,7 +6425,7 @@
       <c r="R499" s="13"/>
       <c r="Y499" s="13"/>
     </row>
-    <row r="500" spans="2:25">
+    <row r="500" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B500" s="11">
         <v>45975</v>
       </c>
@@ -6425,7 +6435,7 @@
       <c r="R500" s="13"/>
       <c r="Y500" s="13"/>
     </row>
-    <row r="501" spans="2:25">
+    <row r="501" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B501" s="11">
         <v>45976</v>
       </c>
@@ -6435,7 +6445,7 @@
       <c r="R501" s="13"/>
       <c r="Y501" s="13"/>
     </row>
-    <row r="502" spans="2:25">
+    <row r="502" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B502" s="11">
         <v>45976</v>
       </c>
@@ -6445,7 +6455,7 @@
       <c r="R502" s="13"/>
       <c r="Y502" s="13"/>
     </row>
-    <row r="503" spans="2:25">
+    <row r="503" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B503" s="11">
         <v>45976</v>
       </c>
@@ -6455,7 +6465,7 @@
       <c r="R503" s="13"/>
       <c r="Y503" s="13"/>
     </row>
-    <row r="504" spans="2:25">
+    <row r="504" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B504" s="11">
         <v>45976</v>
       </c>
@@ -6465,7 +6475,7 @@
       <c r="R504" s="13"/>
       <c r="Y504" s="13"/>
     </row>
-    <row r="505" spans="2:25">
+    <row r="505" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B505" s="11">
         <v>45976</v>
       </c>
@@ -6475,7 +6485,7 @@
       <c r="R505" s="13"/>
       <c r="Y505" s="13"/>
     </row>
-    <row r="506" spans="2:25">
+    <row r="506" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B506" s="11">
         <v>45976</v>
       </c>
@@ -6485,7 +6495,7 @@
       <c r="R506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25">
+    <row r="507" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B507" s="11">
         <v>45976</v>
       </c>
@@ -6495,7 +6505,7 @@
       <c r="R507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25">
+    <row r="508" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B508" s="11">
         <v>45977</v>
       </c>
@@ -6505,7 +6515,7 @@
       <c r="R508" s="13"/>
       <c r="Y508" s="13"/>
     </row>
-    <row r="509" spans="2:25">
+    <row r="509" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B509" s="11">
         <v>45977</v>
       </c>
@@ -6515,7 +6525,7 @@
       <c r="R509" s="13"/>
       <c r="Y509" s="13"/>
     </row>
-    <row r="510" spans="2:25">
+    <row r="510" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B510" s="11">
         <v>45977</v>
       </c>
@@ -6525,7 +6535,7 @@
       <c r="R510" s="13"/>
       <c r="Y510" s="13"/>
     </row>
-    <row r="511" spans="2:25">
+    <row r="511" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B511" s="11">
         <v>45977</v>
       </c>
@@ -6535,7 +6545,7 @@
       <c r="R511" s="13"/>
       <c r="Y511" s="13"/>
     </row>
-    <row r="512" spans="2:25">
+    <row r="512" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B512" s="11">
         <v>45977</v>
       </c>
@@ -6545,7 +6555,7 @@
       <c r="R512" s="13"/>
       <c r="Y512" s="13"/>
     </row>
-    <row r="513" spans="2:25">
+    <row r="513" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B513" s="11">
         <v>45977</v>
       </c>
@@ -6555,7 +6565,7 @@
       <c r="R513" s="13"/>
       <c r="Y513" s="13"/>
     </row>
-    <row r="514" spans="2:25">
+    <row r="514" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B514" s="11">
         <v>45977</v>
       </c>
@@ -6565,7 +6575,7 @@
       <c r="R514" s="13"/>
       <c r="Y514" s="13"/>
     </row>
-    <row r="515" spans="2:25">
+    <row r="515" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B515" s="11">
         <v>45978</v>
       </c>
@@ -6575,7 +6585,7 @@
       <c r="R515" s="13"/>
       <c r="Y515" s="13"/>
     </row>
-    <row r="516" spans="2:25">
+    <row r="516" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B516" s="11">
         <v>45978</v>
       </c>
@@ -6585,7 +6595,7 @@
       <c r="R516" s="13"/>
       <c r="Y516" s="13"/>
     </row>
-    <row r="517" spans="2:25">
+    <row r="517" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B517" s="11">
         <v>45978</v>
       </c>
@@ -6595,7 +6605,7 @@
       <c r="R517" s="13"/>
       <c r="Y517" s="13"/>
     </row>
-    <row r="518" spans="2:25">
+    <row r="518" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B518" s="11">
         <v>45978</v>
       </c>
@@ -6605,7 +6615,7 @@
       <c r="R518" s="13"/>
       <c r="Y518" s="13"/>
     </row>
-    <row r="519" spans="2:25">
+    <row r="519" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B519" s="11">
         <v>45978</v>
       </c>
@@ -6615,7 +6625,7 @@
       <c r="R519" s="13"/>
       <c r="Y519" s="13"/>
     </row>
-    <row r="520" spans="2:25">
+    <row r="520" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B520" s="11">
         <v>45978</v>
       </c>
@@ -6625,7 +6635,7 @@
       <c r="R520" s="13"/>
       <c r="Y520" s="13"/>
     </row>
-    <row r="521" spans="2:25">
+    <row r="521" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B521" s="11">
         <v>45978</v>
       </c>
@@ -6635,7 +6645,7 @@
       <c r="R521" s="13"/>
       <c r="Y521" s="13"/>
     </row>
-    <row r="522" spans="2:25">
+    <row r="522" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B522" s="11">
         <v>45979</v>
       </c>
@@ -6645,7 +6655,7 @@
       <c r="R522" s="13"/>
       <c r="Y522" s="13"/>
     </row>
-    <row r="523" spans="2:25">
+    <row r="523" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B523" s="11">
         <v>45979</v>
       </c>
@@ -6655,7 +6665,7 @@
       <c r="R523" s="13"/>
       <c r="Y523" s="13"/>
     </row>
-    <row r="524" spans="2:25">
+    <row r="524" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B524" s="11">
         <v>45979</v>
       </c>
@@ -6665,7 +6675,7 @@
       <c r="R524" s="13"/>
       <c r="Y524" s="13"/>
     </row>
-    <row r="525" spans="2:25">
+    <row r="525" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B525" s="11">
         <v>45979</v>
       </c>
@@ -6675,7 +6685,7 @@
       <c r="R525" s="13"/>
       <c r="Y525" s="13"/>
     </row>
-    <row r="526" spans="2:25">
+    <row r="526" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B526" s="11">
         <v>45979</v>
       </c>
@@ -6685,7 +6695,7 @@
       <c r="R526" s="13"/>
       <c r="Y526" s="13"/>
     </row>
-    <row r="527" spans="2:25">
+    <row r="527" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B527" s="11">
         <v>45979</v>
       </c>
@@ -6695,7 +6705,7 @@
       <c r="R527" s="13"/>
       <c r="Y527" s="13"/>
     </row>
-    <row r="528" spans="2:25">
+    <row r="528" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B528" s="11">
         <v>45979</v>
       </c>
@@ -6705,7 +6715,7 @@
       <c r="R528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25">
+    <row r="529" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B529" s="11">
         <v>45980</v>
       </c>
@@ -6715,7 +6725,7 @@
       <c r="R529" s="13"/>
       <c r="Y529" s="13"/>
     </row>
-    <row r="530" spans="2:25">
+    <row r="530" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B530" s="11">
         <v>45980</v>
       </c>
@@ -6725,7 +6735,7 @@
       <c r="R530" s="13"/>
       <c r="Y530" s="13"/>
     </row>
-    <row r="531" spans="2:25">
+    <row r="531" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B531" s="11">
         <v>45980</v>
       </c>
@@ -6735,7 +6745,7 @@
       <c r="R531" s="13"/>
       <c r="Y531" s="13"/>
     </row>
-    <row r="532" spans="2:25">
+    <row r="532" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B532" s="11">
         <v>45980</v>
       </c>
@@ -6745,7 +6755,7 @@
       <c r="R532" s="13"/>
       <c r="Y532" s="13"/>
     </row>
-    <row r="533" spans="2:25">
+    <row r="533" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B533" s="11">
         <v>45980</v>
       </c>
@@ -6755,7 +6765,7 @@
       <c r="R533" s="13"/>
       <c r="Y533" s="13"/>
     </row>
-    <row r="534" spans="2:25">
+    <row r="534" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B534" s="11">
         <v>45980</v>
       </c>
@@ -6765,7 +6775,7 @@
       <c r="R534" s="13"/>
       <c r="Y534" s="13"/>
     </row>
-    <row r="535" spans="2:25">
+    <row r="535" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B535" s="11">
         <v>45980</v>
       </c>
@@ -6775,7 +6785,7 @@
       <c r="R535" s="13"/>
       <c r="Y535" s="13"/>
     </row>
-    <row r="536" spans="2:25">
+    <row r="536" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B536" s="11">
         <v>45981</v>
       </c>
@@ -6785,7 +6795,7 @@
       <c r="R536" s="13"/>
       <c r="Y536" s="13"/>
     </row>
-    <row r="537" spans="2:25">
+    <row r="537" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B537" s="11">
         <v>45981</v>
       </c>
@@ -6795,7 +6805,7 @@
       <c r="R537" s="13"/>
       <c r="Y537" s="13"/>
     </row>
-    <row r="538" spans="2:25">
+    <row r="538" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B538" s="11">
         <v>45981</v>
       </c>
@@ -6805,7 +6815,7 @@
       <c r="R538" s="13"/>
       <c r="Y538" s="13"/>
     </row>
-    <row r="539" spans="2:25">
+    <row r="539" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B539" s="11">
         <v>45981</v>
       </c>
@@ -6815,7 +6825,7 @@
       <c r="R539" s="13"/>
       <c r="Y539" s="13"/>
     </row>
-    <row r="540" spans="2:25">
+    <row r="540" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B540" s="11">
         <v>45981</v>
       </c>
@@ -6825,7 +6835,7 @@
       <c r="R540" s="13"/>
       <c r="Y540" s="13"/>
     </row>
-    <row r="541" spans="2:25">
+    <row r="541" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B541" s="11">
         <v>45981</v>
       </c>
@@ -6835,7 +6845,7 @@
       <c r="R541" s="13"/>
       <c r="Y541" s="13"/>
     </row>
-    <row r="542" spans="2:25">
+    <row r="542" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B542" s="11">
         <v>45981</v>
       </c>
@@ -6845,7 +6855,7 @@
       <c r="R542" s="13"/>
       <c r="Y542" s="13"/>
     </row>
-    <row r="543" spans="2:25">
+    <row r="543" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B543" s="11">
         <v>45982</v>
       </c>
@@ -6855,7 +6865,7 @@
       <c r="R543" s="13"/>
       <c r="Y543" s="13"/>
     </row>
-    <row r="544" spans="2:25">
+    <row r="544" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B544" s="11">
         <v>45982</v>
       </c>
@@ -6865,7 +6875,7 @@
       <c r="R544" s="13"/>
       <c r="Y544" s="13"/>
     </row>
-    <row r="545" spans="2:25">
+    <row r="545" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B545" s="11">
         <v>45982</v>
       </c>
@@ -6875,7 +6885,7 @@
       <c r="R545" s="13"/>
       <c r="Y545" s="13"/>
     </row>
-    <row r="546" spans="2:25">
+    <row r="546" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B546" s="11">
         <v>45982</v>
       </c>
@@ -6885,7 +6895,7 @@
       <c r="R546" s="13"/>
       <c r="Y546" s="13"/>
     </row>
-    <row r="547" spans="2:25">
+    <row r="547" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B547" s="11">
         <v>45982</v>
       </c>
@@ -6895,7 +6905,7 @@
       <c r="R547" s="13"/>
       <c r="Y547" s="13"/>
     </row>
-    <row r="548" spans="2:25">
+    <row r="548" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B548" s="11">
         <v>45982</v>
       </c>
@@ -6905,7 +6915,7 @@
       <c r="R548" s="13"/>
       <c r="Y548" s="13"/>
     </row>
-    <row r="549" spans="2:25">
+    <row r="549" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B549" s="11">
         <v>45982</v>
       </c>
@@ -6915,7 +6925,7 @@
       <c r="R549" s="13"/>
       <c r="Y549" s="13"/>
     </row>
-    <row r="550" spans="2:25">
+    <row r="550" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B550" s="11">
         <v>45983</v>
       </c>
@@ -6925,7 +6935,7 @@
       <c r="R550" s="13"/>
       <c r="Y550" s="13"/>
     </row>
-    <row r="551" spans="2:25">
+    <row r="551" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B551" s="11">
         <v>45983</v>
       </c>
@@ -6935,7 +6945,7 @@
       <c r="R551" s="13"/>
       <c r="Y551" s="13"/>
     </row>
-    <row r="552" spans="2:25">
+    <row r="552" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B552" s="11">
         <v>45983</v>
       </c>
@@ -6945,7 +6955,7 @@
       <c r="R552" s="13"/>
       <c r="Y552" s="13"/>
     </row>
-    <row r="553" spans="2:25">
+    <row r="553" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B553" s="11">
         <v>45983</v>
       </c>
@@ -6955,7 +6965,7 @@
       <c r="R553" s="13"/>
       <c r="Y553" s="13"/>
     </row>
-    <row r="554" spans="2:25">
+    <row r="554" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B554" s="11">
         <v>45983</v>
       </c>
@@ -6965,7 +6975,7 @@
       <c r="R554" s="13"/>
       <c r="Y554" s="13"/>
     </row>
-    <row r="555" spans="2:25">
+    <row r="555" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B555" s="11">
         <v>45983</v>
       </c>
@@ -6975,7 +6985,7 @@
       <c r="R555" s="13"/>
       <c r="Y555" s="13"/>
     </row>
-    <row r="556" spans="2:25">
+    <row r="556" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B556" s="11">
         <v>45983</v>
       </c>
@@ -6985,7 +6995,7 @@
       <c r="R556" s="13"/>
       <c r="Y556" s="13"/>
     </row>
-    <row r="557" spans="2:25">
+    <row r="557" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B557" s="11">
         <v>45984</v>
       </c>
@@ -6995,7 +7005,7 @@
       <c r="R557" s="13"/>
       <c r="Y557" s="13"/>
     </row>
-    <row r="558" spans="2:25">
+    <row r="558" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B558" s="11">
         <v>45984</v>
       </c>
@@ -7005,7 +7015,7 @@
       <c r="R558" s="13"/>
       <c r="Y558" s="13"/>
     </row>
-    <row r="559" spans="2:25">
+    <row r="559" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B559" s="11">
         <v>45984</v>
       </c>
@@ -7015,7 +7025,7 @@
       <c r="R559" s="13"/>
       <c r="Y559" s="13"/>
     </row>
-    <row r="560" spans="2:25">
+    <row r="560" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B560" s="11">
         <v>45984</v>
       </c>
@@ -7025,7 +7035,7 @@
       <c r="R560" s="13"/>
       <c r="Y560" s="13"/>
     </row>
-    <row r="561" spans="2:25">
+    <row r="561" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B561" s="11">
         <v>45984</v>
       </c>
@@ -7035,7 +7045,7 @@
       <c r="R561" s="13"/>
       <c r="Y561" s="13"/>
     </row>
-    <row r="562" spans="2:25">
+    <row r="562" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B562" s="11">
         <v>45984</v>
       </c>
@@ -7045,7 +7055,7 @@
       <c r="R562" s="13"/>
       <c r="Y562" s="13"/>
     </row>
-    <row r="563" spans="2:25">
+    <row r="563" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B563" s="11">
         <v>45984</v>
       </c>
@@ -7055,7 +7065,7 @@
       <c r="R563" s="13"/>
       <c r="Y563" s="13"/>
     </row>
-    <row r="564" spans="2:25">
+    <row r="564" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B564" s="11">
         <v>45985</v>
       </c>
@@ -7065,7 +7075,7 @@
       <c r="R564" s="13"/>
       <c r="Y564" s="13"/>
     </row>
-    <row r="565" spans="2:25">
+    <row r="565" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B565" s="11">
         <v>45985</v>
       </c>
@@ -7075,7 +7085,7 @@
       <c r="R565" s="13"/>
       <c r="Y565" s="13"/>
     </row>
-    <row r="566" spans="2:25">
+    <row r="566" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B566" s="11">
         <v>45985</v>
       </c>
@@ -7085,7 +7095,7 @@
       <c r="R566" s="13"/>
       <c r="Y566" s="13"/>
     </row>
-    <row r="567" spans="2:25">
+    <row r="567" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B567" s="11">
         <v>45985</v>
       </c>
@@ -7095,7 +7105,7 @@
       <c r="R567" s="13"/>
       <c r="Y567" s="13"/>
     </row>
-    <row r="568" spans="2:25">
+    <row r="568" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B568" s="11">
         <v>45985</v>
       </c>
@@ -7105,7 +7115,7 @@
       <c r="R568" s="13"/>
       <c r="Y568" s="13"/>
     </row>
-    <row r="569" spans="2:25">
+    <row r="569" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B569" s="11">
         <v>45985</v>
       </c>
@@ -7115,7 +7125,7 @@
       <c r="R569" s="13"/>
       <c r="Y569" s="13"/>
     </row>
-    <row r="570" spans="2:25">
+    <row r="570" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B570" s="11">
         <v>45985</v>
       </c>
@@ -7125,7 +7135,7 @@
       <c r="R570" s="13"/>
       <c r="Y570" s="13"/>
     </row>
-    <row r="571" spans="2:25">
+    <row r="571" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B571" s="11">
         <v>45986</v>
       </c>
@@ -7135,7 +7145,7 @@
       <c r="R571" s="13"/>
       <c r="Y571" s="13"/>
     </row>
-    <row r="572" spans="2:25">
+    <row r="572" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B572" s="11">
         <v>45986</v>
       </c>
@@ -7145,7 +7155,7 @@
       <c r="R572" s="13"/>
       <c r="Y572" s="13"/>
     </row>
-    <row r="573" spans="2:25">
+    <row r="573" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B573" s="11">
         <v>45986</v>
       </c>
@@ -7155,7 +7165,7 @@
       <c r="R573" s="13"/>
       <c r="Y573" s="13"/>
     </row>
-    <row r="574" spans="2:25">
+    <row r="574" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B574" s="11">
         <v>45986</v>
       </c>
@@ -7165,7 +7175,7 @@
       <c r="R574" s="13"/>
       <c r="Y574" s="13"/>
     </row>
-    <row r="575" spans="2:25">
+    <row r="575" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B575" s="11">
         <v>45986</v>
       </c>
@@ -7175,7 +7185,7 @@
       <c r="R575" s="13"/>
       <c r="Y575" s="13"/>
     </row>
-    <row r="576" spans="2:25">
+    <row r="576" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B576" s="11">
         <v>45986</v>
       </c>
@@ -7185,7 +7195,7 @@
       <c r="R576" s="13"/>
       <c r="Y576" s="13"/>
     </row>
-    <row r="577" spans="2:25">
+    <row r="577" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B577" s="11">
         <v>45986</v>
       </c>
@@ -7195,7 +7205,7 @@
       <c r="R577" s="13"/>
       <c r="Y577" s="13"/>
     </row>
-    <row r="578" spans="2:25">
+    <row r="578" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B578" s="11">
         <v>45987</v>
       </c>
@@ -7205,7 +7215,7 @@
       <c r="R578" s="13"/>
       <c r="Y578" s="13"/>
     </row>
-    <row r="579" spans="2:25">
+    <row r="579" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B579" s="11">
         <v>45987</v>
       </c>
@@ -7215,7 +7225,7 @@
       <c r="R579" s="13"/>
       <c r="Y579" s="13"/>
     </row>
-    <row r="580" spans="2:25">
+    <row r="580" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B580" s="11">
         <v>45987</v>
       </c>
@@ -7225,7 +7235,7 @@
       <c r="R580" s="13"/>
       <c r="Y580" s="13"/>
     </row>
-    <row r="581" spans="2:25">
+    <row r="581" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B581" s="11">
         <v>45987</v>
       </c>
@@ -7235,7 +7245,7 @@
       <c r="R581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25">
+    <row r="582" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B582" s="11">
         <v>45987</v>
       </c>
@@ -7245,7 +7255,7 @@
       <c r="R582" s="13"/>
       <c r="Y582" s="13"/>
     </row>
-    <row r="583" spans="2:25">
+    <row r="583" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B583" s="11">
         <v>45987</v>
       </c>
@@ -7255,7 +7265,7 @@
       <c r="R583" s="13"/>
       <c r="Y583" s="13"/>
     </row>
-    <row r="584" spans="2:25">
+    <row r="584" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B584" s="11">
         <v>45987</v>
       </c>
@@ -7265,7 +7275,7 @@
       <c r="R584" s="13"/>
       <c r="Y584" s="13"/>
     </row>
-    <row r="585" spans="2:25">
+    <row r="585" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B585" s="11">
         <v>45988</v>
       </c>
@@ -7275,7 +7285,7 @@
       <c r="R585" s="13"/>
       <c r="Y585" s="13"/>
     </row>
-    <row r="586" spans="2:25">
+    <row r="586" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B586" s="11">
         <v>45988</v>
       </c>
@@ -7285,7 +7295,7 @@
       <c r="R586" s="13"/>
       <c r="Y586" s="13"/>
     </row>
-    <row r="587" spans="2:25">
+    <row r="587" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B587" s="11">
         <v>45988</v>
       </c>
@@ -7295,7 +7305,7 @@
       <c r="R587" s="13"/>
       <c r="Y587" s="13"/>
     </row>
-    <row r="588" spans="2:25">
+    <row r="588" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B588" s="11">
         <v>45988</v>
       </c>
@@ -7305,7 +7315,7 @@
       <c r="R588" s="13"/>
       <c r="Y588" s="13"/>
     </row>
-    <row r="589" spans="2:25">
+    <row r="589" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B589" s="11">
         <v>45988</v>
       </c>
@@ -7315,7 +7325,7 @@
       <c r="R589" s="13"/>
       <c r="Y589" s="13"/>
     </row>
-    <row r="590" spans="2:25">
+    <row r="590" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B590" s="11">
         <v>45988</v>
       </c>
@@ -7325,7 +7335,7 @@
       <c r="R590" s="13"/>
       <c r="Y590" s="13"/>
     </row>
-    <row r="591" spans="2:25">
+    <row r="591" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B591" s="11">
         <v>45988</v>
       </c>
@@ -7335,7 +7345,7 @@
       <c r="R591" s="13"/>
       <c r="Y591" s="13"/>
     </row>
-    <row r="592" spans="2:25">
+    <row r="592" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B592" s="11">
         <v>45989</v>
       </c>
@@ -7345,7 +7355,7 @@
       <c r="R592" s="13"/>
       <c r="Y592" s="13"/>
     </row>
-    <row r="593" spans="2:25">
+    <row r="593" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B593" s="11">
         <v>45989</v>
       </c>
@@ -7355,7 +7365,7 @@
       <c r="R593" s="13"/>
       <c r="Y593" s="13"/>
     </row>
-    <row r="594" spans="2:25">
+    <row r="594" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B594" s="11">
         <v>45989</v>
       </c>
@@ -7365,7 +7375,7 @@
       <c r="R594" s="13"/>
       <c r="Y594" s="13"/>
     </row>
-    <row r="595" spans="2:25">
+    <row r="595" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B595" s="11">
         <v>45989</v>
       </c>
@@ -7375,7 +7385,7 @@
       <c r="R595" s="13"/>
       <c r="Y595" s="13"/>
     </row>
-    <row r="596" spans="2:25">
+    <row r="596" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B596" s="11">
         <v>45989</v>
       </c>
@@ -7385,7 +7395,7 @@
       <c r="R596" s="13"/>
       <c r="Y596" s="13"/>
     </row>
-    <row r="597" spans="2:25">
+    <row r="597" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B597" s="11">
         <v>45989</v>
       </c>
@@ -7395,7 +7405,7 @@
       <c r="R597" s="13"/>
       <c r="Y597" s="13"/>
     </row>
-    <row r="598" spans="2:25">
+    <row r="598" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B598" s="11">
         <v>45989</v>
       </c>
@@ -7405,7 +7415,7 @@
       <c r="R598" s="13"/>
       <c r="Y598" s="13"/>
     </row>
-    <row r="599" spans="2:25">
+    <row r="599" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B599" s="11">
         <v>45990</v>
       </c>
@@ -7415,7 +7425,7 @@
       <c r="R599" s="13"/>
       <c r="Y599" s="13"/>
     </row>
-    <row r="600" spans="2:25">
+    <row r="600" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B600" s="11">
         <v>45990</v>
       </c>
@@ -7425,7 +7435,7 @@
       <c r="R600" s="13"/>
       <c r="Y600" s="13"/>
     </row>
-    <row r="601" spans="2:25">
+    <row r="601" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B601" s="11">
         <v>45990</v>
       </c>
@@ -7435,7 +7445,7 @@
       <c r="R601" s="13"/>
       <c r="Y601" s="13"/>
     </row>
-    <row r="602" spans="2:25">
+    <row r="602" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B602" s="11">
         <v>45990</v>
       </c>
@@ -7445,7 +7455,7 @@
       <c r="R602" s="13"/>
       <c r="Y602" s="13"/>
     </row>
-    <row r="603" spans="2:25">
+    <row r="603" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B603" s="11">
         <v>45990</v>
       </c>
@@ -7455,7 +7465,7 @@
       <c r="R603" s="13"/>
       <c r="Y603" s="13"/>
     </row>
-    <row r="604" spans="2:25">
+    <row r="604" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B604" s="11">
         <v>45990</v>
       </c>
@@ -7465,7 +7475,7 @@
       <c r="R604" s="13"/>
       <c r="Y604" s="13"/>
     </row>
-    <row r="605" spans="2:25">
+    <row r="605" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B605" s="11">
         <v>45990</v>
       </c>
@@ -7475,7 +7485,7 @@
       <c r="R605" s="13"/>
       <c r="Y605" s="13"/>
     </row>
-    <row r="606" spans="2:25">
+    <row r="606" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B606" s="11">
         <v>45991</v>
       </c>
@@ -7485,7 +7495,7 @@
       <c r="R606" s="13"/>
       <c r="Y606" s="13"/>
     </row>
-    <row r="607" spans="2:25">
+    <row r="607" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B607" s="11">
         <v>45991</v>
       </c>
@@ -7495,7 +7505,7 @@
       <c r="R607" s="13"/>
       <c r="Y607" s="13"/>
     </row>
-    <row r="608" spans="2:25">
+    <row r="608" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B608" s="11">
         <v>45991</v>
       </c>
@@ -7505,7 +7515,7 @@
       <c r="R608" s="13"/>
       <c r="Y608" s="13"/>
     </row>
-    <row r="609" spans="2:25">
+    <row r="609" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B609" s="11">
         <v>45991</v>
       </c>
@@ -7515,7 +7525,7 @@
       <c r="R609" s="13"/>
       <c r="Y609" s="13"/>
     </row>
-    <row r="610" spans="2:25">
+    <row r="610" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B610" s="11">
         <v>45991</v>
       </c>
@@ -7525,7 +7535,7 @@
       <c r="R610" s="13"/>
       <c r="Y610" s="13"/>
     </row>
-    <row r="611" spans="2:25">
+    <row r="611" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B611" s="11">
         <v>45991</v>
       </c>
@@ -7535,7 +7545,7 @@
       <c r="R611" s="13"/>
       <c r="Y611" s="13"/>
     </row>
-    <row r="612" spans="2:25">
+    <row r="612" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B612" s="11">
         <v>45991</v>
       </c>
@@ -7545,7 +7555,7 @@
       <c r="R612" s="13"/>
       <c r="Y612" s="13"/>
     </row>
-    <row r="613" spans="2:25">
+    <row r="613" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B613" s="11">
         <v>45992</v>
       </c>
@@ -7555,7 +7565,7 @@
       <c r="R613" s="13"/>
       <c r="Y613" s="13"/>
     </row>
-    <row r="614" spans="2:25">
+    <row r="614" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B614" s="11">
         <v>45992</v>
       </c>
@@ -7565,7 +7575,7 @@
       <c r="R614" s="13"/>
       <c r="Y614" s="13"/>
     </row>
-    <row r="615" spans="2:25">
+    <row r="615" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B615" s="11">
         <v>45992</v>
       </c>
@@ -7575,7 +7585,7 @@
       <c r="R615" s="13"/>
       <c r="Y615" s="13"/>
     </row>
-    <row r="616" spans="2:25">
+    <row r="616" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B616" s="11">
         <v>45992</v>
       </c>
@@ -7585,7 +7595,7 @@
       <c r="R616" s="13"/>
       <c r="Y616" s="13"/>
     </row>
-    <row r="617" spans="2:25">
+    <row r="617" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B617" s="11">
         <v>45992</v>
       </c>
@@ -7595,7 +7605,7 @@
       <c r="R617" s="13"/>
       <c r="Y617" s="13"/>
     </row>
-    <row r="618" spans="2:25">
+    <row r="618" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B618" s="11">
         <v>45992</v>
       </c>
@@ -7605,7 +7615,7 @@
       <c r="R618" s="13"/>
       <c r="Y618" s="13"/>
     </row>
-    <row r="619" spans="2:25">
+    <row r="619" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B619" s="11">
         <v>45992</v>
       </c>
@@ -7615,7 +7625,7 @@
       <c r="R619" s="13"/>
       <c r="Y619" s="13"/>
     </row>
-    <row r="620" spans="2:25">
+    <row r="620" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B620" s="11">
         <v>45993</v>
       </c>
@@ -7625,7 +7635,7 @@
       <c r="R620" s="13"/>
       <c r="Y620" s="13"/>
     </row>
-    <row r="621" spans="2:25">
+    <row r="621" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B621" s="11">
         <v>45993</v>
       </c>
@@ -7635,7 +7645,7 @@
       <c r="R621" s="13"/>
       <c r="Y621" s="13"/>
     </row>
-    <row r="622" spans="2:25">
+    <row r="622" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B622" s="11">
         <v>45993</v>
       </c>
@@ -7645,7 +7655,7 @@
       <c r="R622" s="13"/>
       <c r="Y622" s="13"/>
     </row>
-    <row r="623" spans="2:25">
+    <row r="623" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B623" s="11">
         <v>45993</v>
       </c>
@@ -7655,7 +7665,7 @@
       <c r="R623" s="13"/>
       <c r="Y623" s="13"/>
     </row>
-    <row r="624" spans="2:25">
+    <row r="624" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B624" s="11">
         <v>45993</v>
       </c>
@@ -7665,7 +7675,7 @@
       <c r="R624" s="13"/>
       <c r="Y624" s="13"/>
     </row>
-    <row r="625" spans="2:25">
+    <row r="625" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B625" s="11">
         <v>45993</v>
       </c>
@@ -7675,7 +7685,7 @@
       <c r="R625" s="13"/>
       <c r="Y625" s="13"/>
     </row>
-    <row r="626" spans="2:25">
+    <row r="626" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B626" s="11">
         <v>45993</v>
       </c>
@@ -7685,7 +7695,7 @@
       <c r="R626" s="13"/>
       <c r="Y626" s="13"/>
     </row>
-    <row r="627" spans="2:25">
+    <row r="627" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B627" s="11">
         <v>45994</v>
       </c>
@@ -7695,7 +7705,7 @@
       <c r="R627" s="13"/>
       <c r="Y627" s="13"/>
     </row>
-    <row r="628" spans="2:25">
+    <row r="628" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B628" s="11">
         <v>45994</v>
       </c>
@@ -7705,7 +7715,7 @@
       <c r="R628" s="13"/>
       <c r="Y628" s="13"/>
     </row>
-    <row r="629" spans="2:25">
+    <row r="629" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B629" s="11">
         <v>45994</v>
       </c>
@@ -7715,7 +7725,7 @@
       <c r="R629" s="13"/>
       <c r="Y629" s="13"/>
     </row>
-    <row r="630" spans="2:25">
+    <row r="630" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B630" s="11">
         <v>45994</v>
       </c>
@@ -7725,7 +7735,7 @@
       <c r="R630" s="13"/>
       <c r="Y630" s="13"/>
     </row>
-    <row r="631" spans="2:25">
+    <row r="631" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B631" s="11">
         <v>45994</v>
       </c>
@@ -7735,7 +7745,7 @@
       <c r="R631" s="13"/>
       <c r="Y631" s="13"/>
     </row>
-    <row r="632" spans="2:25">
+    <row r="632" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B632" s="11">
         <v>45994</v>
       </c>
@@ -7745,7 +7755,7 @@
       <c r="R632" s="13"/>
       <c r="Y632" s="13"/>
     </row>
-    <row r="633" spans="2:25">
+    <row r="633" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B633" s="11">
         <v>45994</v>
       </c>
@@ -7755,7 +7765,7 @@
       <c r="R633" s="13"/>
       <c r="Y633" s="13"/>
     </row>
-    <row r="634" spans="2:25">
+    <row r="634" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B634" s="11">
         <v>45995</v>
       </c>
@@ -7765,7 +7775,7 @@
       <c r="R634" s="13"/>
       <c r="Y634" s="13"/>
     </row>
-    <row r="635" spans="2:25">
+    <row r="635" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B635" s="11">
         <v>45995</v>
       </c>
@@ -7775,7 +7785,7 @@
       <c r="R635" s="13"/>
       <c r="Y635" s="13"/>
     </row>
-    <row r="636" spans="2:25">
+    <row r="636" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B636" s="11">
         <v>45995</v>
       </c>
@@ -7785,7 +7795,7 @@
       <c r="R636" s="13"/>
       <c r="Y636" s="13"/>
     </row>
-    <row r="637" spans="2:25">
+    <row r="637" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B637" s="11">
         <v>45995</v>
       </c>
@@ -7795,7 +7805,7 @@
       <c r="R637" s="13"/>
       <c r="Y637" s="13"/>
     </row>
-    <row r="638" spans="2:25">
+    <row r="638" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B638" s="11">
         <v>45995</v>
       </c>
@@ -7805,7 +7815,7 @@
       <c r="R638" s="13"/>
       <c r="Y638" s="13"/>
     </row>
-    <row r="639" spans="2:25">
+    <row r="639" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B639" s="11">
         <v>45995</v>
       </c>
@@ -7815,7 +7825,7 @@
       <c r="R639" s="13"/>
       <c r="Y639" s="13"/>
     </row>
-    <row r="640" spans="2:25">
+    <row r="640" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B640" s="11">
         <v>45995</v>
       </c>
@@ -7825,7 +7835,7 @@
       <c r="R640" s="13"/>
       <c r="Y640" s="13"/>
     </row>
-    <row r="641" spans="2:25">
+    <row r="641" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B641" s="11">
         <v>45996</v>
       </c>
@@ -7835,7 +7845,7 @@
       <c r="R641" s="13"/>
       <c r="Y641" s="13"/>
     </row>
-    <row r="642" spans="2:25">
+    <row r="642" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B642" s="11">
         <v>45996</v>
       </c>
@@ -7845,7 +7855,7 @@
       <c r="R642" s="13"/>
       <c r="Y642" s="13"/>
     </row>
-    <row r="643" spans="2:25">
+    <row r="643" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B643" s="11">
         <v>45996</v>
       </c>
@@ -7855,7 +7865,7 @@
       <c r="R643" s="13"/>
       <c r="Y643" s="13"/>
     </row>
-    <row r="644" spans="2:25">
+    <row r="644" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B644" s="11">
         <v>45996</v>
       </c>
@@ -7865,7 +7875,7 @@
       <c r="R644" s="13"/>
       <c r="Y644" s="13"/>
     </row>
-    <row r="645" spans="2:25">
+    <row r="645" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B645" s="11">
         <v>45996</v>
       </c>
@@ -7875,7 +7885,7 @@
       <c r="R645" s="13"/>
       <c r="Y645" s="13"/>
     </row>
-    <row r="646" spans="2:25">
+    <row r="646" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B646" s="11">
         <v>45996</v>
       </c>
@@ -7885,7 +7895,7 @@
       <c r="R646" s="13"/>
       <c r="Y646" s="13"/>
     </row>
-    <row r="647" spans="2:25">
+    <row r="647" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B647" s="11">
         <v>45996</v>
       </c>
@@ -7895,7 +7905,7 @@
       <c r="R647" s="13"/>
       <c r="Y647" s="13"/>
     </row>
-    <row r="648" spans="2:25">
+    <row r="648" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B648" s="11">
         <v>45997</v>
       </c>
@@ -7905,7 +7915,7 @@
       <c r="R648" s="13"/>
       <c r="Y648" s="13"/>
     </row>
-    <row r="649" spans="2:25">
+    <row r="649" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B649" s="11">
         <v>45997</v>
       </c>
@@ -7915,7 +7925,7 @@
       <c r="R649" s="13"/>
       <c r="Y649" s="13"/>
     </row>
-    <row r="650" spans="2:25">
+    <row r="650" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B650" s="11">
         <v>45997</v>
       </c>
@@ -7925,7 +7935,7 @@
       <c r="R650" s="13"/>
       <c r="Y650" s="13"/>
     </row>
-    <row r="651" spans="2:25">
+    <row r="651" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B651" s="11">
         <v>45997</v>
       </c>
@@ -7935,7 +7945,7 @@
       <c r="R651" s="13"/>
       <c r="Y651" s="13"/>
     </row>
-    <row r="652" spans="2:25">
+    <row r="652" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B652" s="11">
         <v>45997</v>
       </c>
@@ -7945,7 +7955,7 @@
       <c r="R652" s="13"/>
       <c r="Y652" s="13"/>
     </row>
-    <row r="653" spans="2:25">
+    <row r="653" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B653" s="11">
         <v>45997</v>
       </c>
@@ -7955,7 +7965,7 @@
       <c r="R653" s="13"/>
       <c r="Y653" s="13"/>
     </row>
-    <row r="654" spans="2:25">
+    <row r="654" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B654" s="11">
         <v>45997</v>
       </c>
@@ -7965,7 +7975,7 @@
       <c r="R654" s="13"/>
       <c r="Y654" s="13"/>
     </row>
-    <row r="655" spans="2:25">
+    <row r="655" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B655" s="11">
         <v>45998</v>
       </c>
@@ -7975,7 +7985,7 @@
       <c r="R655" s="13"/>
       <c r="Y655" s="13"/>
     </row>
-    <row r="656" spans="2:25">
+    <row r="656" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B656" s="11">
         <v>45998</v>
       </c>
@@ -7985,7 +7995,7 @@
       <c r="R656" s="13"/>
       <c r="Y656" s="13"/>
     </row>
-    <row r="657" spans="2:25">
+    <row r="657" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B657" s="11">
         <v>45998</v>
       </c>
@@ -7995,7 +8005,7 @@
       <c r="R657" s="13"/>
       <c r="Y657" s="13"/>
     </row>
-    <row r="658" spans="2:25">
+    <row r="658" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B658" s="11">
         <v>45998</v>
       </c>
@@ -8005,7 +8015,7 @@
       <c r="R658" s="13"/>
       <c r="Y658" s="13"/>
     </row>
-    <row r="659" spans="2:25">
+    <row r="659" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B659" s="11">
         <v>45998</v>
       </c>
@@ -8015,7 +8025,7 @@
       <c r="R659" s="13"/>
       <c r="Y659" s="13"/>
     </row>
-    <row r="660" spans="2:25">
+    <row r="660" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B660" s="11">
         <v>45998</v>
       </c>
@@ -8025,7 +8035,7 @@
       <c r="R660" s="13"/>
       <c r="Y660" s="13"/>
     </row>
-    <row r="661" spans="2:25">
+    <row r="661" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B661" s="11">
         <v>45998</v>
       </c>
@@ -8035,7 +8045,7 @@
       <c r="R661" s="13"/>
       <c r="Y661" s="13"/>
     </row>
-    <row r="662" spans="2:25">
+    <row r="662" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B662" s="11">
         <v>45999</v>
       </c>
@@ -8045,7 +8055,7 @@
       <c r="R662" s="13"/>
       <c r="Y662" s="13"/>
     </row>
-    <row r="663" spans="2:25">
+    <row r="663" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B663" s="11">
         <v>45999</v>
       </c>
@@ -8055,7 +8065,7 @@
       <c r="R663" s="13"/>
       <c r="Y663" s="13"/>
     </row>
-    <row r="664" spans="2:25">
+    <row r="664" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B664" s="11">
         <v>45999</v>
       </c>
@@ -8065,7 +8075,7 @@
       <c r="R664" s="13"/>
       <c r="Y664" s="13"/>
     </row>
-    <row r="665" spans="2:25">
+    <row r="665" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B665" s="11">
         <v>45999</v>
       </c>
@@ -8075,7 +8085,7 @@
       <c r="R665" s="13"/>
       <c r="Y665" s="13"/>
     </row>
-    <row r="666" spans="2:25">
+    <row r="666" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B666" s="11">
         <v>45999</v>
       </c>
@@ -8085,7 +8095,7 @@
       <c r="R666" s="13"/>
       <c r="Y666" s="13"/>
     </row>
-    <row r="667" spans="2:25">
+    <row r="667" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B667" s="11">
         <v>45999</v>
       </c>
@@ -8095,7 +8105,7 @@
       <c r="R667" s="13"/>
       <c r="Y667" s="13"/>
     </row>
-    <row r="668" spans="2:25">
+    <row r="668" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B668" s="11">
         <v>45999</v>
       </c>
@@ -8105,7 +8115,7 @@
       <c r="R668" s="13"/>
       <c r="Y668" s="13"/>
     </row>
-    <row r="669" spans="2:25">
+    <row r="669" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B669" s="11">
         <v>46000</v>
       </c>
@@ -8115,7 +8125,7 @@
       <c r="R669" s="13"/>
       <c r="Y669" s="13"/>
     </row>
-    <row r="670" spans="2:25">
+    <row r="670" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B670" s="11">
         <v>46000</v>
       </c>
@@ -8125,7 +8135,7 @@
       <c r="R670" s="13"/>
       <c r="Y670" s="13"/>
     </row>
-    <row r="671" spans="2:25">
+    <row r="671" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B671" s="11">
         <v>46000</v>
       </c>
@@ -8135,7 +8145,7 @@
       <c r="R671" s="13"/>
       <c r="Y671" s="13"/>
     </row>
-    <row r="672" spans="2:25">
+    <row r="672" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B672" s="11">
         <v>46000</v>
       </c>
@@ -8145,7 +8155,7 @@
       <c r="R672" s="13"/>
       <c r="Y672" s="13"/>
     </row>
-    <row r="673" spans="2:25">
+    <row r="673" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B673" s="11">
         <v>46000</v>
       </c>
@@ -8155,7 +8165,7 @@
       <c r="R673" s="13"/>
       <c r="Y673" s="13"/>
     </row>
-    <row r="674" spans="2:25">
+    <row r="674" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B674" s="11">
         <v>46000</v>
       </c>
@@ -8165,7 +8175,7 @@
       <c r="R674" s="13"/>
       <c r="Y674" s="13"/>
     </row>
-    <row r="675" spans="2:25">
+    <row r="675" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B675" s="11">
         <v>46000</v>
       </c>
@@ -8175,7 +8185,7 @@
       <c r="R675" s="13"/>
       <c r="Y675" s="13"/>
     </row>
-    <row r="676" spans="2:25">
+    <row r="676" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B676" s="11">
         <v>46001</v>
       </c>
@@ -8185,7 +8195,7 @@
       <c r="R676" s="13"/>
       <c r="Y676" s="13"/>
     </row>
-    <row r="677" spans="2:25">
+    <row r="677" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B677" s="11">
         <v>46001</v>
       </c>
@@ -8195,7 +8205,7 @@
       <c r="R677" s="13"/>
       <c r="Y677" s="13"/>
     </row>
-    <row r="678" spans="2:25">
+    <row r="678" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B678" s="11">
         <v>46001</v>
       </c>
@@ -8205,7 +8215,7 @@
       <c r="R678" s="13"/>
       <c r="Y678" s="13"/>
     </row>
-    <row r="679" spans="2:25">
+    <row r="679" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B679" s="11">
         <v>46001</v>
       </c>
@@ -8215,7 +8225,7 @@
       <c r="R679" s="13"/>
       <c r="Y679" s="13"/>
     </row>
-    <row r="680" spans="2:25">
+    <row r="680" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B680" s="11">
         <v>46001</v>
       </c>
@@ -8225,7 +8235,7 @@
       <c r="R680" s="13"/>
       <c r="Y680" s="13"/>
     </row>
-    <row r="681" spans="2:25">
+    <row r="681" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B681" s="11">
         <v>46001</v>
       </c>
@@ -8235,7 +8245,7 @@
       <c r="R681" s="13"/>
       <c r="Y681" s="13"/>
     </row>
-    <row r="682" spans="2:25">
+    <row r="682" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B682" s="11">
         <v>46001</v>
       </c>
@@ -8245,7 +8255,7 @@
       <c r="R682" s="13"/>
       <c r="Y682" s="13"/>
     </row>
-    <row r="683" spans="2:25">
+    <row r="683" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B683" s="11">
         <v>46002</v>
       </c>
@@ -8255,7 +8265,7 @@
       <c r="R683" s="13"/>
       <c r="Y683" s="13"/>
     </row>
-    <row r="684" spans="2:25">
+    <row r="684" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B684" s="11">
         <v>46002</v>
       </c>
@@ -8265,7 +8275,7 @@
       <c r="R684" s="13"/>
       <c r="Y684" s="13"/>
     </row>
-    <row r="685" spans="2:25">
+    <row r="685" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B685" s="11">
         <v>46002</v>
       </c>
@@ -8275,7 +8285,7 @@
       <c r="R685" s="13"/>
       <c r="Y685" s="13"/>
     </row>
-    <row r="686" spans="2:25">
+    <row r="686" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B686" s="11">
         <v>46002</v>
       </c>
@@ -8285,7 +8295,7 @@
       <c r="R686" s="13"/>
       <c r="Y686" s="13"/>
     </row>
-    <row r="687" spans="2:25">
+    <row r="687" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B687" s="11">
         <v>46002</v>
       </c>
@@ -8295,7 +8305,7 @@
       <c r="R687" s="13"/>
       <c r="Y687" s="13"/>
     </row>
-    <row r="688" spans="2:25">
+    <row r="688" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B688" s="11">
         <v>46002</v>
       </c>
@@ -8305,7 +8315,7 @@
       <c r="R688" s="13"/>
       <c r="Y688" s="13"/>
     </row>
-    <row r="689" spans="2:25">
+    <row r="689" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B689" s="11">
         <v>46002</v>
       </c>
@@ -8315,7 +8325,7 @@
       <c r="R689" s="13"/>
       <c r="Y689" s="13"/>
     </row>
-    <row r="690" spans="2:25">
+    <row r="690" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B690" s="11">
         <v>46003</v>
       </c>
@@ -8325,7 +8335,7 @@
       <c r="R690" s="13"/>
       <c r="Y690" s="13"/>
     </row>
-    <row r="691" spans="2:25">
+    <row r="691" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B691" s="11">
         <v>46003</v>
       </c>
@@ -8335,7 +8345,7 @@
       <c r="R691" s="13"/>
       <c r="Y691" s="13"/>
     </row>
-    <row r="692" spans="2:25">
+    <row r="692" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B692" s="11">
         <v>46003</v>
       </c>
@@ -8345,7 +8355,7 @@
       <c r="R692" s="13"/>
       <c r="Y692" s="13"/>
     </row>
-    <row r="693" spans="2:25">
+    <row r="693" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B693" s="11">
         <v>46003</v>
       </c>
@@ -8355,7 +8365,7 @@
       <c r="R693" s="13"/>
       <c r="Y693" s="13"/>
     </row>
-    <row r="694" spans="2:25">
+    <row r="694" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B694" s="11">
         <v>46003</v>
       </c>
@@ -8365,7 +8375,7 @@
       <c r="R694" s="13"/>
       <c r="Y694" s="13"/>
     </row>
-    <row r="695" spans="2:25">
+    <row r="695" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B695" s="11">
         <v>46003</v>
       </c>
@@ -8375,7 +8385,7 @@
       <c r="R695" s="13"/>
       <c r="Y695" s="13"/>
     </row>
-    <row r="696" spans="2:25">
+    <row r="696" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B696" s="11">
         <v>46003</v>
       </c>
@@ -8385,7 +8395,7 @@
       <c r="R696" s="13"/>
       <c r="Y696" s="13"/>
     </row>
-    <row r="697" spans="2:25">
+    <row r="697" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B697" s="11">
         <v>46004</v>
       </c>
@@ -8395,7 +8405,7 @@
       <c r="R697" s="13"/>
       <c r="Y697" s="13"/>
     </row>
-    <row r="698" spans="2:25">
+    <row r="698" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B698" s="11">
         <v>46004</v>
       </c>
@@ -8405,7 +8415,7 @@
       <c r="R698" s="13"/>
       <c r="Y698" s="13"/>
     </row>
-    <row r="699" spans="2:25">
+    <row r="699" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B699" s="11">
         <v>46004</v>
       </c>
@@ -8415,7 +8425,7 @@
       <c r="R699" s="13"/>
       <c r="Y699" s="13"/>
     </row>
-    <row r="700" spans="2:25">
+    <row r="700" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B700" s="11">
         <v>46004</v>
       </c>
@@ -8425,7 +8435,7 @@
       <c r="R700" s="13"/>
       <c r="Y700" s="13"/>
     </row>
-    <row r="701" spans="2:25">
+    <row r="701" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B701" s="11">
         <v>46004</v>
       </c>
@@ -8435,7 +8445,7 @@
       <c r="R701" s="13"/>
       <c r="Y701" s="13"/>
     </row>
-    <row r="702" spans="2:25">
+    <row r="702" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B702" s="11">
         <v>46004</v>
       </c>
@@ -8445,7 +8455,7 @@
       <c r="R702" s="13"/>
       <c r="Y702" s="13"/>
     </row>
-    <row r="703" spans="2:25">
+    <row r="703" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B703" s="11">
         <v>46004</v>
       </c>
@@ -8455,7 +8465,7 @@
       <c r="R703" s="13"/>
       <c r="Y703" s="13"/>
     </row>
-    <row r="704" spans="2:25">
+    <row r="704" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B704" s="11">
         <v>46005</v>
       </c>
@@ -8465,7 +8475,7 @@
       <c r="R704" s="13"/>
       <c r="Y704" s="13"/>
     </row>
-    <row r="705" spans="2:25">
+    <row r="705" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B705" s="11">
         <v>46005</v>
       </c>
@@ -8475,7 +8485,7 @@
       <c r="R705" s="13"/>
       <c r="Y705" s="13"/>
     </row>
-    <row r="706" spans="2:25">
+    <row r="706" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B706" s="11">
         <v>46005</v>
       </c>
@@ -8485,7 +8495,7 @@
       <c r="R706" s="13"/>
       <c r="Y706" s="13"/>
     </row>
-    <row r="707" spans="2:25">
+    <row r="707" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B707" s="11">
         <v>46005</v>
       </c>
@@ -8495,7 +8505,7 @@
       <c r="R707" s="13"/>
       <c r="Y707" s="13"/>
     </row>
-    <row r="708" spans="2:25">
+    <row r="708" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B708" s="11">
         <v>46005</v>
       </c>
@@ -8505,7 +8515,7 @@
       <c r="R708" s="13"/>
       <c r="Y708" s="13"/>
     </row>
-    <row r="709" spans="2:25">
+    <row r="709" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B709" s="11">
         <v>46005</v>
       </c>
@@ -8515,7 +8525,7 @@
       <c r="R709" s="13"/>
       <c r="Y709" s="13"/>
     </row>
-    <row r="710" spans="2:25">
+    <row r="710" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B710" s="11">
         <v>46005</v>
       </c>
@@ -8525,7 +8535,7 @@
       <c r="R710" s="13"/>
       <c r="Y710" s="13"/>
     </row>
-    <row r="711" spans="2:25">
+    <row r="711" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B711" s="11">
         <v>46006</v>
       </c>
@@ -8535,7 +8545,7 @@
       <c r="R711" s="13"/>
       <c r="Y711" s="13"/>
     </row>
-    <row r="712" spans="2:25">
+    <row r="712" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B712" s="11">
         <v>46006</v>
       </c>
@@ -8545,7 +8555,7 @@
       <c r="R712" s="13"/>
       <c r="Y712" s="13"/>
     </row>
-    <row r="713" spans="2:25">
+    <row r="713" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B713" s="11">
         <v>46006</v>
       </c>
@@ -8555,7 +8565,7 @@
       <c r="R713" s="13"/>
       <c r="Y713" s="13"/>
     </row>
-    <row r="714" spans="2:25">
+    <row r="714" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B714" s="11">
         <v>46006</v>
       </c>
@@ -8565,7 +8575,7 @@
       <c r="R714" s="13"/>
       <c r="Y714" s="13"/>
     </row>
-    <row r="715" spans="2:25">
+    <row r="715" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B715" s="11">
         <v>46006</v>
       </c>
@@ -8575,7 +8585,7 @@
       <c r="R715" s="13"/>
       <c r="Y715" s="13"/>
     </row>
-    <row r="716" spans="2:25">
+    <row r="716" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B716" s="11">
         <v>46006</v>
       </c>
@@ -8585,7 +8595,7 @@
       <c r="R716" s="13"/>
       <c r="Y716" s="13"/>
     </row>
-    <row r="717" spans="2:25">
+    <row r="717" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B717" s="11">
         <v>46006</v>
       </c>
@@ -8595,7 +8605,7 @@
       <c r="R717" s="13"/>
       <c r="Y717" s="13"/>
     </row>
-    <row r="718" spans="2:25">
+    <row r="718" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B718" s="11">
         <v>46007</v>
       </c>
@@ -8605,7 +8615,7 @@
       <c r="R718" s="13"/>
       <c r="Y718" s="13"/>
     </row>
-    <row r="719" spans="2:25">
+    <row r="719" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B719" s="11">
         <v>46007</v>
       </c>
@@ -8615,7 +8625,7 @@
       <c r="R719" s="13"/>
       <c r="Y719" s="13"/>
     </row>
-    <row r="720" spans="2:25">
+    <row r="720" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B720" s="11">
         <v>46007</v>
       </c>
@@ -8625,7 +8635,7 @@
       <c r="R720" s="13"/>
       <c r="Y720" s="13"/>
     </row>
-    <row r="721" spans="2:25">
+    <row r="721" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B721" s="11">
         <v>46007</v>
       </c>
@@ -8635,7 +8645,7 @@
       <c r="R721" s="13"/>
       <c r="Y721" s="13"/>
     </row>
-    <row r="722" spans="2:25">
+    <row r="722" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B722" s="11">
         <v>46007</v>
       </c>
@@ -8645,7 +8655,7 @@
       <c r="R722" s="13"/>
       <c r="Y722" s="13"/>
     </row>
-    <row r="723" spans="2:25">
+    <row r="723" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B723" s="11">
         <v>46007</v>
       </c>
@@ -8655,7 +8665,7 @@
       <c r="R723" s="13"/>
       <c r="Y723" s="13"/>
     </row>
-    <row r="724" spans="2:25">
+    <row r="724" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B724" s="11">
         <v>46007</v>
       </c>
@@ -8665,7 +8675,7 @@
       <c r="R724" s="13"/>
       <c r="Y724" s="13"/>
     </row>
-    <row r="725" spans="2:25">
+    <row r="725" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B725" s="11">
         <v>46008</v>
       </c>
@@ -8675,7 +8685,7 @@
       <c r="R725" s="13"/>
       <c r="Y725" s="13"/>
     </row>
-    <row r="726" spans="2:25">
+    <row r="726" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B726" s="11">
         <v>46008</v>
       </c>
@@ -8685,7 +8695,7 @@
       <c r="R726" s="13"/>
       <c r="Y726" s="13"/>
     </row>
-    <row r="727" spans="2:25">
+    <row r="727" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B727" s="11">
         <v>46008</v>
       </c>
@@ -8695,7 +8705,7 @@
       <c r="R727" s="13"/>
       <c r="Y727" s="13"/>
     </row>
-    <row r="728" spans="2:25">
+    <row r="728" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B728" s="11">
         <v>46008</v>
       </c>
@@ -8705,7 +8715,7 @@
       <c r="R728" s="13"/>
       <c r="Y728" s="13"/>
     </row>
-    <row r="729" spans="2:25">
+    <row r="729" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B729" s="11">
         <v>46008</v>
       </c>
@@ -8715,7 +8725,7 @@
       <c r="R729" s="13"/>
       <c r="Y729" s="13"/>
     </row>
-    <row r="730" spans="2:25">
+    <row r="730" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B730" s="11">
         <v>46008</v>
       </c>
@@ -8725,7 +8735,7 @@
       <c r="R730" s="13"/>
       <c r="Y730" s="13"/>
     </row>
-    <row r="731" spans="2:25">
+    <row r="731" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B731" s="11">
         <v>46008</v>
       </c>
@@ -8735,7 +8745,7 @@
       <c r="R731" s="13"/>
       <c r="Y731" s="13"/>
     </row>
-    <row r="732" spans="2:25">
+    <row r="732" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B732" s="11">
         <v>46009</v>
       </c>
@@ -8745,7 +8755,7 @@
       <c r="R732" s="13"/>
       <c r="Y732" s="13"/>
     </row>
-    <row r="733" spans="2:25">
+    <row r="733" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B733" s="11">
         <v>46009</v>
       </c>
@@ -8755,7 +8765,7 @@
       <c r="R733" s="13"/>
       <c r="Y733" s="13"/>
     </row>
-    <row r="734" spans="2:25">
+    <row r="734" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B734" s="11">
         <v>46009</v>
       </c>
@@ -8765,7 +8775,7 @@
       <c r="R734" s="13"/>
       <c r="Y734" s="13"/>
     </row>
-    <row r="735" spans="2:25">
+    <row r="735" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B735" s="11">
         <v>46009</v>
       </c>
@@ -8775,7 +8785,7 @@
       <c r="R735" s="13"/>
       <c r="Y735" s="13"/>
     </row>
-    <row r="736" spans="2:25">
+    <row r="736" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B736" s="11">
         <v>46009</v>
       </c>
@@ -8785,7 +8795,7 @@
       <c r="R736" s="13"/>
       <c r="Y736" s="13"/>
     </row>
-    <row r="737" spans="2:25">
+    <row r="737" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B737" s="11">
         <v>46009</v>
       </c>
@@ -8795,7 +8805,7 @@
       <c r="R737" s="13"/>
       <c r="Y737" s="13"/>
     </row>
-    <row r="738" spans="2:25">
+    <row r="738" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B738" s="11">
         <v>46009</v>
       </c>
@@ -8805,7 +8815,7 @@
       <c r="R738" s="13"/>
       <c r="Y738" s="13"/>
     </row>
-    <row r="739" spans="2:25">
+    <row r="739" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B739" s="11">
         <v>46010</v>
       </c>
@@ -8815,7 +8825,7 @@
       <c r="R739" s="13"/>
       <c r="Y739" s="13"/>
     </row>
-    <row r="740" spans="2:25">
+    <row r="740" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B740" s="11">
         <v>46010</v>
       </c>
@@ -8825,7 +8835,7 @@
       <c r="R740" s="13"/>
       <c r="Y740" s="13"/>
     </row>
-    <row r="741" spans="2:25">
+    <row r="741" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B741" s="11">
         <v>46010</v>
       </c>
@@ -8835,7 +8845,7 @@
       <c r="R741" s="13"/>
       <c r="Y741" s="13"/>
     </row>
-    <row r="742" spans="2:25">
+    <row r="742" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B742" s="11">
         <v>46010</v>
       </c>
@@ -8845,7 +8855,7 @@
       <c r="R742" s="13"/>
       <c r="Y742" s="13"/>
     </row>
-    <row r="743" spans="2:25">
+    <row r="743" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B743" s="11">
         <v>46010</v>
       </c>
@@ -8855,7 +8865,7 @@
       <c r="R743" s="13"/>
       <c r="Y743" s="13"/>
     </row>
-    <row r="744" spans="2:25">
+    <row r="744" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B744" s="11">
         <v>46010</v>
       </c>
@@ -8865,7 +8875,7 @@
       <c r="R744" s="13"/>
       <c r="Y744" s="13"/>
     </row>
-    <row r="745" spans="2:25">
+    <row r="745" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B745" s="11">
         <v>46010</v>
       </c>
@@ -8875,7 +8885,7 @@
       <c r="R745" s="13"/>
       <c r="Y745" s="13"/>
     </row>
-    <row r="746" spans="2:25">
+    <row r="746" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B746" s="11">
         <v>46011</v>
       </c>
@@ -8885,7 +8895,7 @@
       <c r="R746" s="13"/>
       <c r="Y746" s="13"/>
     </row>
-    <row r="747" spans="2:25">
+    <row r="747" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B747" s="11">
         <v>46011</v>
       </c>
@@ -8895,7 +8905,7 @@
       <c r="R747" s="13"/>
       <c r="Y747" s="13"/>
     </row>
-    <row r="748" spans="2:25">
+    <row r="748" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B748" s="11">
         <v>46011</v>
       </c>
@@ -8905,7 +8915,7 @@
       <c r="R748" s="13"/>
       <c r="Y748" s="13"/>
     </row>
-    <row r="749" spans="2:25">
+    <row r="749" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B749" s="11">
         <v>46011</v>
       </c>
@@ -8915,7 +8925,7 @@
       <c r="R749" s="13"/>
       <c r="Y749" s="13"/>
     </row>
-    <row r="750" spans="2:25">
+    <row r="750" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B750" s="11">
         <v>46011</v>
       </c>
@@ -8925,7 +8935,7 @@
       <c r="R750" s="13"/>
       <c r="Y750" s="13"/>
     </row>
-    <row r="751" spans="2:25">
+    <row r="751" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B751" s="11">
         <v>46011</v>
       </c>
@@ -8935,7 +8945,7 @@
       <c r="R751" s="13"/>
       <c r="Y751" s="13"/>
     </row>
-    <row r="752" spans="2:25">
+    <row r="752" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B752" s="11">
         <v>46011</v>
       </c>
@@ -8945,7 +8955,7 @@
       <c r="R752" s="13"/>
       <c r="Y752" s="13"/>
     </row>
-    <row r="753" spans="2:25">
+    <row r="753" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B753" s="11">
         <v>46012</v>
       </c>
@@ -8955,7 +8965,7 @@
       <c r="R753" s="13"/>
       <c r="Y753" s="13"/>
     </row>
-    <row r="754" spans="2:25">
+    <row r="754" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B754" s="11">
         <v>46012</v>
       </c>
@@ -8965,7 +8975,7 @@
       <c r="R754" s="13"/>
       <c r="Y754" s="13"/>
     </row>
-    <row r="755" spans="2:25">
+    <row r="755" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B755" s="11">
         <v>46012</v>
       </c>
@@ -8975,7 +8985,7 @@
       <c r="R755" s="13"/>
       <c r="Y755" s="13"/>
     </row>
-    <row r="756" spans="2:25">
+    <row r="756" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B756" s="11">
         <v>46012</v>
       </c>
@@ -8985,7 +8995,7 @@
       <c r="R756" s="13"/>
       <c r="Y756" s="13"/>
     </row>
-    <row r="757" spans="2:25">
+    <row r="757" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B757" s="11">
         <v>46012</v>
       </c>
@@ -8995,7 +9005,7 @@
       <c r="R757" s="13"/>
       <c r="Y757" s="13"/>
     </row>
-    <row r="758" spans="2:25">
+    <row r="758" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B758" s="11">
         <v>46012</v>
       </c>
@@ -9005,7 +9015,7 @@
       <c r="R758" s="13"/>
       <c r="Y758" s="13"/>
     </row>
-    <row r="759" spans="2:25">
+    <row r="759" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B759" s="11">
         <v>46012</v>
       </c>
@@ -9015,7 +9025,7 @@
       <c r="R759" s="13"/>
       <c r="Y759" s="13"/>
     </row>
-    <row r="760" spans="2:25">
+    <row r="760" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B760" s="11">
         <v>46013</v>
       </c>
@@ -9025,7 +9035,7 @@
       <c r="R760" s="13"/>
       <c r="Y760" s="13"/>
     </row>
-    <row r="761" spans="2:25">
+    <row r="761" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B761" s="11">
         <v>46013</v>
       </c>
@@ -9035,7 +9045,7 @@
       <c r="R761" s="13"/>
       <c r="Y761" s="13"/>
     </row>
-    <row r="762" spans="2:25">
+    <row r="762" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B762" s="11">
         <v>46013</v>
       </c>
@@ -9045,7 +9055,7 @@
       <c r="R762" s="13"/>
       <c r="Y762" s="13"/>
     </row>
-    <row r="763" spans="2:25">
+    <row r="763" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B763" s="11">
         <v>46013</v>
       </c>
@@ -9055,7 +9065,7 @@
       <c r="R763" s="13"/>
       <c r="Y763" s="13"/>
     </row>
-    <row r="764" spans="2:25">
+    <row r="764" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B764" s="11">
         <v>46013</v>
       </c>
@@ -9065,7 +9075,7 @@
       <c r="R764" s="13"/>
       <c r="Y764" s="13"/>
     </row>
-    <row r="765" spans="2:25">
+    <row r="765" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B765" s="11">
         <v>46013</v>
       </c>
@@ -9075,7 +9085,7 @@
       <c r="R765" s="13"/>
       <c r="Y765" s="13"/>
     </row>
-    <row r="766" spans="2:25">
+    <row r="766" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B766" s="11">
         <v>46013</v>
       </c>
@@ -9085,7 +9095,7 @@
       <c r="R766" s="13"/>
       <c r="Y766" s="13"/>
     </row>
-    <row r="767" spans="2:25">
+    <row r="767" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B767" s="11">
         <v>46014</v>
       </c>
@@ -9095,7 +9105,7 @@
       <c r="R767" s="13"/>
       <c r="Y767" s="13"/>
     </row>
-    <row r="768" spans="2:25">
+    <row r="768" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B768" s="11">
         <v>46014</v>
       </c>
@@ -9105,7 +9115,7 @@
       <c r="R768" s="13"/>
       <c r="Y768" s="13"/>
     </row>
-    <row r="769" spans="2:25">
+    <row r="769" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B769" s="11">
         <v>46014</v>
       </c>
@@ -9115,7 +9125,7 @@
       <c r="R769" s="13"/>
       <c r="Y769" s="13"/>
     </row>
-    <row r="770" spans="2:25">
+    <row r="770" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B770" s="11">
         <v>46014</v>
       </c>
@@ -9125,7 +9135,7 @@
       <c r="R770" s="13"/>
       <c r="Y770" s="13"/>
     </row>
-    <row r="771" spans="2:25">
+    <row r="771" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B771" s="11">
         <v>46014</v>
       </c>
@@ -9135,7 +9145,7 @@
       <c r="R771" s="13"/>
       <c r="Y771" s="13"/>
     </row>
-    <row r="772" spans="2:25">
+    <row r="772" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B772" s="11">
         <v>46014</v>
       </c>
@@ -9145,7 +9155,7 @@
       <c r="R772" s="13"/>
       <c r="Y772" s="13"/>
     </row>
-    <row r="773" spans="2:25">
+    <row r="773" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B773" s="11">
         <v>46014</v>
       </c>
@@ -9155,7 +9165,7 @@
       <c r="R773" s="13"/>
       <c r="Y773" s="13"/>
     </row>
-    <row r="774" spans="2:25">
+    <row r="774" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B774" s="11">
         <v>46015</v>
       </c>
@@ -9165,7 +9175,7 @@
       <c r="R774" s="13"/>
       <c r="Y774" s="13"/>
     </row>
-    <row r="775" spans="2:25">
+    <row r="775" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B775" s="11">
         <v>46015</v>
       </c>
@@ -9175,7 +9185,7 @@
       <c r="R775" s="13"/>
       <c r="Y775" s="13"/>
     </row>
-    <row r="776" spans="2:25">
+    <row r="776" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B776" s="11">
         <v>46015</v>
       </c>
@@ -9185,7 +9195,7 @@
       <c r="R776" s="13"/>
       <c r="Y776" s="13"/>
     </row>
-    <row r="777" spans="2:25">
+    <row r="777" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B777" s="11">
         <v>46015</v>
       </c>
@@ -9195,7 +9205,7 @@
       <c r="R777" s="13"/>
       <c r="Y777" s="13"/>
     </row>
-    <row r="778" spans="2:25">
+    <row r="778" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B778" s="11">
         <v>46015</v>
       </c>
@@ -9205,7 +9215,7 @@
       <c r="R778" s="13"/>
       <c r="Y778" s="13"/>
     </row>
-    <row r="779" spans="2:25">
+    <row r="779" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B779" s="11">
         <v>46015</v>
       </c>
@@ -9215,7 +9225,7 @@
       <c r="R779" s="13"/>
       <c r="Y779" s="13"/>
     </row>
-    <row r="780" spans="2:25">
+    <row r="780" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B780" s="11">
         <v>46015</v>
       </c>
@@ -9225,7 +9235,7 @@
       <c r="R780" s="13"/>
       <c r="Y780" s="13"/>
     </row>
-    <row r="781" spans="2:25">
+    <row r="781" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B781" s="11">
         <v>46016</v>
       </c>
@@ -9235,7 +9245,7 @@
       <c r="R781" s="13"/>
       <c r="Y781" s="13"/>
     </row>
-    <row r="782" spans="2:25">
+    <row r="782" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B782" s="11">
         <v>46016</v>
       </c>
@@ -9245,7 +9255,7 @@
       <c r="R782" s="13"/>
       <c r="Y782" s="13"/>
     </row>
-    <row r="783" spans="2:25">
+    <row r="783" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B783" s="11">
         <v>46016</v>
       </c>
@@ -9255,7 +9265,7 @@
       <c r="R783" s="13"/>
       <c r="Y783" s="13"/>
     </row>
-    <row r="784" spans="2:25">
+    <row r="784" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B784" s="11">
         <v>46016</v>
       </c>
@@ -9265,7 +9275,7 @@
       <c r="R784" s="13"/>
       <c r="Y784" s="13"/>
     </row>
-    <row r="785" spans="2:25">
+    <row r="785" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B785" s="11">
         <v>46016</v>
       </c>
@@ -9275,7 +9285,7 @@
       <c r="R785" s="13"/>
       <c r="Y785" s="13"/>
     </row>
-    <row r="786" spans="2:25">
+    <row r="786" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B786" s="11">
         <v>46016</v>
       </c>
@@ -9285,7 +9295,7 @@
       <c r="R786" s="13"/>
       <c r="Y786" s="13"/>
     </row>
-    <row r="787" spans="2:25">
+    <row r="787" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B787" s="11">
         <v>46016</v>
       </c>
@@ -9295,7 +9305,7 @@
       <c r="R787" s="13"/>
       <c r="Y787" s="13"/>
     </row>
-    <row r="788" spans="2:25">
+    <row r="788" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B788" s="11">
         <v>46017</v>
       </c>
@@ -9305,7 +9315,7 @@
       <c r="R788" s="13"/>
       <c r="Y788" s="13"/>
     </row>
-    <row r="789" spans="2:25">
+    <row r="789" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B789" s="11">
         <v>46017</v>
       </c>
@@ -9315,7 +9325,7 @@
       <c r="R789" s="13"/>
       <c r="Y789" s="13"/>
     </row>
-    <row r="790" spans="2:25">
+    <row r="790" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B790" s="11">
         <v>46017</v>
       </c>
@@ -9325,7 +9335,7 @@
       <c r="R790" s="13"/>
       <c r="Y790" s="13"/>
     </row>
-    <row r="791" spans="2:25">
+    <row r="791" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B791" s="11">
         <v>46017</v>
       </c>
@@ -9335,7 +9345,7 @@
       <c r="R791" s="13"/>
       <c r="Y791" s="13"/>
     </row>
-    <row r="792" spans="2:25">
+    <row r="792" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B792" s="11">
         <v>46017</v>
       </c>
@@ -9345,7 +9355,7 @@
       <c r="R792" s="13"/>
       <c r="Y792" s="13"/>
     </row>
-    <row r="793" spans="2:25">
+    <row r="793" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B793" s="11">
         <v>46017</v>
       </c>
@@ -9355,7 +9365,7 @@
       <c r="R793" s="13"/>
       <c r="Y793" s="13"/>
     </row>
-    <row r="794" spans="2:25">
+    <row r="794" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B794" s="11">
         <v>46017</v>
       </c>
@@ -9365,7 +9375,7 @@
       <c r="R794" s="13"/>
       <c r="Y794" s="13"/>
     </row>
-    <row r="795" spans="2:25">
+    <row r="795" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B795" s="11">
         <v>46018</v>
       </c>
@@ -9375,7 +9385,7 @@
       <c r="R795" s="13"/>
       <c r="Y795" s="13"/>
     </row>
-    <row r="796" spans="2:25">
+    <row r="796" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B796" s="11">
         <v>46018</v>
       </c>
@@ -9385,7 +9395,7 @@
       <c r="R796" s="13"/>
       <c r="Y796" s="13"/>
     </row>
-    <row r="797" spans="2:25">
+    <row r="797" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B797" s="11">
         <v>46018</v>
       </c>
@@ -9395,7 +9405,7 @@
       <c r="R797" s="13"/>
       <c r="Y797" s="13"/>
     </row>
-    <row r="798" spans="2:25">
+    <row r="798" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B798" s="11">
         <v>46018</v>
       </c>
@@ -9405,7 +9415,7 @@
       <c r="R798" s="13"/>
       <c r="Y798" s="13"/>
     </row>
-    <row r="799" spans="2:25">
+    <row r="799" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B799" s="11">
         <v>46018</v>
       </c>
@@ -9415,7 +9425,7 @@
       <c r="R799" s="13"/>
       <c r="Y799" s="13"/>
     </row>
-    <row r="800" spans="2:25">
+    <row r="800" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B800" s="11">
         <v>46018</v>
       </c>
@@ -9425,7 +9435,7 @@
       <c r="R800" s="13"/>
       <c r="Y800" s="13"/>
     </row>
-    <row r="801" spans="2:25">
+    <row r="801" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B801" s="11">
         <v>46018</v>
       </c>
@@ -9435,7 +9445,7 @@
       <c r="R801" s="13"/>
       <c r="Y801" s="13"/>
     </row>
-    <row r="802" spans="2:25">
+    <row r="802" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B802" s="11">
         <v>46019</v>
       </c>
@@ -9445,7 +9455,7 @@
       <c r="R802" s="13"/>
       <c r="Y802" s="13"/>
     </row>
-    <row r="803" spans="2:25">
+    <row r="803" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B803" s="11">
         <v>46019</v>
       </c>
@@ -9455,7 +9465,7 @@
       <c r="R803" s="13"/>
       <c r="Y803" s="13"/>
     </row>
-    <row r="804" spans="2:25">
+    <row r="804" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B804" s="11">
         <v>46019</v>
       </c>
@@ -9465,7 +9475,7 @@
       <c r="R804" s="13"/>
       <c r="Y804" s="13"/>
     </row>
-    <row r="805" spans="2:25">
+    <row r="805" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B805" s="11">
         <v>46019</v>
       </c>
@@ -9475,7 +9485,7 @@
       <c r="R805" s="13"/>
       <c r="Y805" s="13"/>
     </row>
-    <row r="806" spans="2:25">
+    <row r="806" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B806" s="11">
         <v>46019</v>
       </c>
@@ -9485,7 +9495,7 @@
       <c r="R806" s="13"/>
       <c r="Y806" s="13"/>
     </row>
-    <row r="807" spans="2:25">
+    <row r="807" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B807" s="11">
         <v>46019</v>
       </c>
@@ -9495,7 +9505,7 @@
       <c r="R807" s="13"/>
       <c r="Y807" s="13"/>
     </row>
-    <row r="808" spans="2:25">
+    <row r="808" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B808" s="11">
         <v>46019</v>
       </c>
@@ -9505,7 +9515,7 @@
       <c r="R808" s="13"/>
       <c r="Y808" s="13"/>
     </row>
-    <row r="809" spans="2:25">
+    <row r="809" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B809" s="11">
         <v>46020</v>
       </c>
@@ -9515,7 +9525,7 @@
       <c r="R809" s="13"/>
       <c r="Y809" s="13"/>
     </row>
-    <row r="810" spans="2:25">
+    <row r="810" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B810" s="11">
         <v>46020</v>
       </c>
@@ -9525,7 +9535,7 @@
       <c r="R810" s="13"/>
       <c r="Y810" s="13"/>
     </row>
-    <row r="811" spans="2:25">
+    <row r="811" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B811" s="11">
         <v>46020</v>
       </c>
@@ -9535,7 +9545,7 @@
       <c r="R811" s="13"/>
       <c r="Y811" s="13"/>
     </row>
-    <row r="812" spans="2:25">
+    <row r="812" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B812" s="11">
         <v>46020</v>
       </c>
@@ -9545,7 +9555,7 @@
       <c r="R812" s="13"/>
       <c r="Y812" s="13"/>
     </row>
-    <row r="813" spans="2:25">
+    <row r="813" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B813" s="11">
         <v>46020</v>
       </c>
@@ -9555,7 +9565,7 @@
       <c r="R813" s="13"/>
       <c r="Y813" s="13"/>
     </row>
-    <row r="814" spans="2:25">
+    <row r="814" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B814" s="11">
         <v>46020</v>
       </c>
@@ -9565,7 +9575,7 @@
       <c r="R814" s="13"/>
       <c r="Y814" s="13"/>
     </row>
-    <row r="815" spans="2:25">
+    <row r="815" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B815" s="11">
         <v>46020</v>
       </c>
@@ -9575,7 +9585,7 @@
       <c r="R815" s="13"/>
       <c r="Y815" s="13"/>
     </row>
-    <row r="816" spans="2:25">
+    <row r="816" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B816" s="11">
         <v>46021</v>
       </c>
@@ -9585,7 +9595,7 @@
       <c r="R816" s="13"/>
       <c r="Y816" s="13"/>
     </row>
-    <row r="817" spans="2:25">
+    <row r="817" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B817" s="11">
         <v>46021</v>
       </c>
@@ -9595,7 +9605,7 @@
       <c r="R817" s="13"/>
       <c r="Y817" s="13"/>
     </row>
-    <row r="818" spans="2:25">
+    <row r="818" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B818" s="11">
         <v>46021</v>
       </c>
@@ -9605,7 +9615,7 @@
       <c r="R818" s="13"/>
       <c r="Y818" s="13"/>
     </row>
-    <row r="819" spans="2:25">
+    <row r="819" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B819" s="11">
         <v>46021</v>
       </c>
@@ -9615,7 +9625,7 @@
       <c r="R819" s="13"/>
       <c r="Y819" s="13"/>
     </row>
-    <row r="820" spans="2:25">
+    <row r="820" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B820" s="11">
         <v>46021</v>
       </c>
@@ -9625,7 +9635,7 @@
       <c r="R820" s="13"/>
       <c r="Y820" s="13"/>
     </row>
-    <row r="821" spans="2:25">
+    <row r="821" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B821" s="11">
         <v>46021</v>
       </c>
@@ -9635,7 +9645,7 @@
       <c r="R821" s="13"/>
       <c r="Y821" s="13"/>
     </row>
-    <row r="822" spans="2:25">
+    <row r="822" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B822" s="11">
         <v>46021</v>
       </c>
@@ -9645,7 +9655,7 @@
       <c r="R822" s="13"/>
       <c r="Y822" s="13"/>
     </row>
-    <row r="823" spans="2:25">
+    <row r="823" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B823" s="11">
         <v>46022</v>
       </c>
@@ -9655,7 +9665,7 @@
       <c r="R823" s="13"/>
       <c r="Y823" s="13"/>
     </row>
-    <row r="824" spans="2:25">
+    <row r="824" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B824" s="11">
         <v>46022</v>
       </c>
@@ -9665,7 +9675,7 @@
       <c r="R824" s="13"/>
       <c r="Y824" s="13"/>
     </row>
-    <row r="825" spans="2:25">
+    <row r="825" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B825" s="11">
         <v>46022</v>
       </c>
@@ -9675,7 +9685,7 @@
       <c r="R825" s="13"/>
       <c r="Y825" s="13"/>
     </row>
-    <row r="826" spans="2:25">
+    <row r="826" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B826" s="11">
         <v>46022</v>
       </c>
@@ -9685,7 +9695,7 @@
       <c r="R826" s="13"/>
       <c r="Y826" s="13"/>
     </row>
-    <row r="827" spans="2:25">
+    <row r="827" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B827" s="11">
         <v>46022</v>
       </c>
@@ -9695,7 +9705,7 @@
       <c r="R827" s="13"/>
       <c r="Y827" s="13"/>
     </row>
-    <row r="828" spans="2:25">
+    <row r="828" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B828" s="11">
         <v>46022</v>
       </c>
@@ -9705,7 +9715,7 @@
       <c r="R828" s="13"/>
       <c r="Y828" s="13"/>
     </row>
-    <row r="829" spans="2:25">
+    <row r="829" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B829" s="11">
         <v>46022</v>
       </c>
@@ -9733,9 +9743,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9883,22 +9896,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29301"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens-my.sharepoint.com/personal/carlos_renier_superfrio_com_br/Documents/Apps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="13_ncr:1_{CCD3546E-43BF-4E1C-BFAF-27E3850A78DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B955C7E-A8CB-47FB-B6E7-0C44CB8838F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08EF6FE1-12CA-407E-A8FC-8A49F3E43452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +300,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,6 +353,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -385,18 +388,6 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -488,6 +479,29 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <namedSheetView name="Exibição 1" id="{292D52A0-5F2B-4A27-BA4B-AEB5D224519A}">
+    <nsvFilter filterId="{189FA7ED-4382-47B5-A726-2C2BB85CC8B9}" ref="A3:Z829" tableId="0">
+      <columnFilter colId="1">
+        <filter colId="1">
+          <x:filters>
+            <x:dateGroupItem year="2025" month="9" dateTimeGrouping="month"/>
+          </x:filters>
+        </filter>
+      </columnFilter>
+      <columnFilter colId="2">
+        <filter colId="2">
+          <x:filters>
+            <x:filter val="CBWII"/>
+          </x:filters>
+        </filter>
+      </columnFilter>
+    </nsvFilter>
+  </namedSheetView>
+</namedSheetViews>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,45 +789,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189FA7ED-4382-47B5-A726-2C2BB85CC8B9}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:Z829"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="13" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="15" style="13" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" style="13" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" style="31" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11" style="13" customWidth="1"/>
+    <col min="8" max="9" width="6.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="13" customWidth="1"/>
+    <col min="12" max="14" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="13" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="13" customWidth="1"/>
     <col min="20" max="20" width="16" style="13" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="13"/>
-    <col min="22" max="23" width="9.109375" style="13"/>
-    <col min="24" max="24" width="17.109375" style="13" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" style="21" customWidth="1"/>
-    <col min="26" max="26" width="18.5546875" style="13" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="13"/>
+    <col min="22" max="23" width="9.140625" style="13"/>
+    <col min="24" max="24" width="17.140625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="22" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A1" s="1"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
@@ -822,44 +835,43 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="H1"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="18"/>
-      <c r="Y1" s="22"/>
-    </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="19"/>
+      <c r="Y1" s="23"/>
+    </row>
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="1"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="26"/>
-    </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="27"/>
+    </row>
+    <row r="3" spans="1:26" ht="75" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -905,10 +917,10 @@
       <c r="P3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="S3" s="9" t="s">
@@ -929,14 +941,14 @@
       <c r="X3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="24" t="s">
         <v>27</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" hidden="1">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -946,8 +958,8 @@
       <c r="P4" s="13">
         <v>4</v>
       </c>
-      <c r="Q4" s="31">
-        <v>4</v>
+      <c r="Q4" s="16">
+        <v>1</v>
       </c>
       <c r="R4" s="13">
         <v>24275.27</v>
@@ -970,14 +982,14 @@
       <c r="X4" s="13">
         <v>0</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="22">
         <v>0</v>
       </c>
       <c r="Z4" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" hidden="1">
       <c r="B5" s="10">
         <v>45905</v>
       </c>
@@ -987,8 +999,8 @@
       <c r="P5" s="13">
         <v>13</v>
       </c>
-      <c r="Q5" s="31">
-        <v>13</v>
+      <c r="Q5" s="16">
+        <v>1</v>
       </c>
       <c r="R5" s="13">
         <v>42543.01</v>
@@ -1011,14 +1023,14 @@
       <c r="X5" s="13">
         <v>11</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Y5" s="22">
         <v>1754.06</v>
       </c>
       <c r="Z5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" hidden="1">
       <c r="B6" s="10">
         <v>45905</v>
       </c>
@@ -1028,8 +1040,8 @@
       <c r="P6" s="13">
         <v>9</v>
       </c>
-      <c r="Q6" s="31">
-        <v>9</v>
+      <c r="Q6" s="16">
+        <v>1</v>
       </c>
       <c r="R6" s="13">
         <v>36895.53</v>
@@ -1059,17 +1071,20 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="10">
         <v>45905</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="O7" s="13">
+        <v>1500</v>
+      </c>
       <c r="P7" s="13">
         <v>208</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="21">
         <v>729357.62</v>
       </c>
       <c r="S7" s="17">
@@ -1090,14 +1105,14 @@
       <c r="X7" s="13">
         <v>199</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="Y7" s="22">
         <v>30719.98</v>
       </c>
       <c r="Z7" s="16">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" hidden="1">
       <c r="B8" s="10">
         <v>45905</v>
       </c>
@@ -1134,8 +1149,8 @@
       <c r="P8" s="13">
         <v>9</v>
       </c>
-      <c r="Q8" s="31">
-        <v>9</v>
+      <c r="Q8" s="16">
+        <v>1</v>
       </c>
       <c r="R8" s="13">
         <v>67837.56</v>
@@ -1158,14 +1173,14 @@
       <c r="X8" s="13">
         <v>3</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="22">
         <v>293.57</v>
       </c>
       <c r="Z8" s="16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" hidden="1">
       <c r="B9" s="10">
         <v>45905</v>
       </c>
@@ -1175,7 +1190,7 @@
       <c r="R9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" hidden="1">
       <c r="B10" s="10">
         <v>45905</v>
       </c>
@@ -1185,7 +1200,7 @@
       <c r="R10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" hidden="1">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
@@ -1196,7 +1211,7 @@
       <c r="S11" s="17"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" hidden="1">
       <c r="B12" s="11">
         <v>45906</v>
       </c>
@@ -1205,7 +1220,7 @@
       </c>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" hidden="1">
       <c r="B13" s="11">
         <v>45906</v>
       </c>
@@ -1215,16 +1230,19 @@
       <c r="R13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26">
       <c r="B14" s="11">
         <v>45906</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
+      <c r="O14" s="13">
+        <v>1500</v>
+      </c>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" hidden="1">
       <c r="B15" s="11">
         <v>45906</v>
       </c>
@@ -1233,7 +1251,7 @@
       </c>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" hidden="1">
       <c r="B16" s="11">
         <v>45906</v>
       </c>
@@ -1243,7 +1261,7 @@
       <c r="R16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" hidden="1">
       <c r="B17" s="11">
         <v>45906</v>
       </c>
@@ -1253,7 +1271,7 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:26" hidden="1">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
@@ -1263,7 +1281,7 @@
       <c r="R18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" hidden="1">
       <c r="B19" s="11">
         <v>45907</v>
       </c>
@@ -1272,7 +1290,7 @@
       </c>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" hidden="1">
       <c r="B20" s="11">
         <v>45907</v>
       </c>
@@ -1282,16 +1300,19 @@
       <c r="R20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26">
       <c r="B21" s="11">
         <v>45907</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
+      <c r="O21" s="13">
+        <v>1500</v>
+      </c>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" hidden="1">
       <c r="B22" s="11">
         <v>45907</v>
       </c>
@@ -1300,7 +1321,7 @@
       </c>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" hidden="1">
       <c r="B23" s="11">
         <v>45907</v>
       </c>
@@ -1310,7 +1331,7 @@
       <c r="R23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" hidden="1">
       <c r="B24" s="11">
         <v>45907</v>
       </c>
@@ -1320,7 +1341,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" hidden="1">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1330,8 +1351,8 @@
       <c r="P25" s="13">
         <v>5</v>
       </c>
-      <c r="Q25" s="31">
-        <v>5</v>
+      <c r="Q25" s="16">
+        <v>1</v>
       </c>
       <c r="R25" s="13">
         <v>30773.43</v>
@@ -1347,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" hidden="1">
       <c r="B26" s="11">
         <v>45908</v>
       </c>
@@ -1357,8 +1378,8 @@
       <c r="P26" s="13">
         <v>13</v>
       </c>
-      <c r="Q26" s="31">
-        <v>13</v>
+      <c r="Q26" s="16">
+        <v>1</v>
       </c>
       <c r="R26" s="13">
         <v>32397.439999999999</v>
@@ -1381,14 +1402,14 @@
       <c r="X26" s="13">
         <v>7</v>
       </c>
-      <c r="Y26" s="21">
+      <c r="Y26" s="22">
         <v>2731.5</v>
       </c>
       <c r="Z26" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:26" hidden="1">
       <c r="B27" s="11">
         <v>45908</v>
       </c>
@@ -1398,8 +1419,8 @@
       <c r="P27" s="13">
         <v>11</v>
       </c>
-      <c r="Q27" s="31">
-        <v>11</v>
+      <c r="Q27" s="16">
+        <v>1</v>
       </c>
       <c r="R27" s="13">
         <v>53331.25</v>
@@ -1420,7 +1441,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:26">
       <c r="B28" s="11">
         <v>45908</v>
       </c>
@@ -1454,10 +1475,10 @@
       <c r="P28" s="13">
         <v>228</v>
       </c>
-      <c r="Q28" s="31">
-        <v>228</v>
-      </c>
-      <c r="R28" s="20">
+      <c r="Q28" s="16">
+        <v>1</v>
+      </c>
+      <c r="R28" s="21">
         <v>858757.38</v>
       </c>
       <c r="S28" s="13">
@@ -1478,14 +1499,14 @@
       <c r="X28" s="13">
         <v>218</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="Y28" s="22">
         <v>63334.96</v>
       </c>
       <c r="Z28" s="16">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" hidden="1">
       <c r="B29" s="11">
         <v>45908</v>
       </c>
@@ -1519,8 +1540,8 @@
       <c r="P29" s="13">
         <v>35</v>
       </c>
-      <c r="Q29" s="31">
-        <v>35</v>
+      <c r="Q29" s="16">
+        <v>1</v>
       </c>
       <c r="R29" s="13">
         <v>210274.72</v>
@@ -1534,14 +1555,14 @@
       <c r="X29" s="13">
         <v>49</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="Y29" s="22">
         <v>16871.38</v>
       </c>
       <c r="Z29" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" hidden="1">
       <c r="B30" s="11">
         <v>45908</v>
       </c>
@@ -1551,7 +1572,7 @@
       <c r="R30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" hidden="1">
       <c r="B31" s="11">
         <v>45908</v>
       </c>
@@ -1561,7 +1582,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" hidden="1">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1580,8 +1601,8 @@
       <c r="P32" s="13">
         <v>2</v>
       </c>
-      <c r="Q32" s="31">
-        <v>2</v>
+      <c r="Q32" s="16">
+        <v>1</v>
       </c>
       <c r="R32" s="13">
         <v>8388.2000000000007</v>
@@ -1597,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:26" hidden="1">
       <c r="B33" s="11">
         <v>45909</v>
       </c>
@@ -1607,8 +1628,8 @@
       <c r="P33" s="13">
         <v>12</v>
       </c>
-      <c r="Q33" s="31">
-        <v>12</v>
+      <c r="Q33" s="16">
+        <v>1</v>
       </c>
       <c r="R33" s="13">
         <v>32131.06</v>
@@ -1631,14 +1652,14 @@
       <c r="X33" s="13">
         <v>2</v>
       </c>
-      <c r="Y33" s="21">
+      <c r="Y33" s="22">
         <v>1250.6500000000001</v>
       </c>
       <c r="Z33" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:26" hidden="1">
       <c r="B34" s="11">
         <v>45909</v>
       </c>
@@ -1648,8 +1669,8 @@
       <c r="P34" s="13">
         <v>9</v>
       </c>
-      <c r="Q34" s="31">
-        <v>9</v>
+      <c r="Q34" s="16">
+        <v>1</v>
       </c>
       <c r="R34" s="13">
         <v>44394.27</v>
@@ -1670,7 +1691,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:26">
       <c r="B35" s="11">
         <v>45909</v>
       </c>
@@ -1692,10 +1713,10 @@
       <c r="P35" s="13">
         <v>181</v>
       </c>
-      <c r="Q35" s="31">
-        <v>98</v>
-      </c>
-      <c r="R35" s="20">
+      <c r="Q35" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="R35" s="21">
         <v>633694.4</v>
       </c>
       <c r="S35" s="17">
@@ -1716,14 +1737,14 @@
       <c r="X35" s="13">
         <v>206</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="Y35" s="22">
         <v>48577.1</v>
       </c>
       <c r="Z35" s="16">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:26" hidden="1">
       <c r="B36" s="11">
         <v>45909</v>
       </c>
@@ -1757,8 +1778,8 @@
       <c r="P36" s="13">
         <v>23</v>
       </c>
-      <c r="Q36" s="31">
-        <v>23</v>
+      <c r="Q36" s="16">
+        <v>1</v>
       </c>
       <c r="R36" s="13">
         <v>98604.29</v>
@@ -1772,14 +1793,14 @@
       <c r="X36" s="13">
         <v>21</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y36" s="22">
         <v>5125.07</v>
       </c>
       <c r="Z36" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:26" hidden="1">
       <c r="B37" s="11">
         <v>45909</v>
       </c>
@@ -1789,7 +1810,7 @@
       <c r="R37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" hidden="1">
       <c r="B38" s="11">
         <v>45909</v>
       </c>
@@ -1799,7 +1820,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" hidden="1">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -1809,8 +1830,8 @@
       <c r="P39" s="13">
         <v>6</v>
       </c>
-      <c r="Q39" s="31">
-        <v>6</v>
+      <c r="Q39" s="16">
+        <v>1</v>
       </c>
       <c r="R39" s="13">
         <v>33936.980000000003</v>
@@ -1820,18 +1841,27 @@
       </c>
       <c r="Y39" s="13"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:26" hidden="1">
       <c r="B40" s="11">
         <v>45910</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
       </c>
+      <c r="D40" s="12">
+        <v>31915.56</v>
+      </c>
+      <c r="E40" s="12">
+        <v>39212.449999999997</v>
+      </c>
+      <c r="F40" s="12">
+        <v>402.15</v>
+      </c>
       <c r="P40" s="13">
         <v>16</v>
       </c>
-      <c r="Q40" s="31">
-        <v>16</v>
+      <c r="Q40" s="16">
+        <v>1</v>
       </c>
       <c r="R40" s="13">
         <v>46721.98</v>
@@ -1843,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" hidden="1">
       <c r="B41" s="11">
         <v>45910</v>
       </c>
@@ -1853,8 +1883,8 @@
       <c r="P41" s="13">
         <v>9</v>
       </c>
-      <c r="Q41" s="31">
-        <v>9</v>
+      <c r="Q41" s="16">
+        <v>1</v>
       </c>
       <c r="R41" s="13">
         <v>49095.98</v>
@@ -1875,20 +1905,32 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26">
       <c r="B42" s="11">
         <v>45910</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
       </c>
+      <c r="D42" s="12">
+        <v>890</v>
+      </c>
+      <c r="E42" s="12">
+        <v>769</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1332</v>
+      </c>
+      <c r="J42" s="13">
+        <v>24</v>
+      </c>
       <c r="P42" s="13">
         <v>208</v>
       </c>
-      <c r="Q42" s="32">
-        <v>94</v>
-      </c>
-      <c r="R42" s="20">
+      <c r="Q42" s="18">
+        <v>0.94</v>
+      </c>
+      <c r="R42" s="21">
         <v>745017.34</v>
       </c>
       <c r="S42" s="17">
@@ -1899,7 +1941,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" hidden="1">
       <c r="B43" s="11">
         <v>45910</v>
       </c>
@@ -1909,8 +1951,8 @@
       <c r="P43" s="13">
         <v>21</v>
       </c>
-      <c r="Q43" s="31">
-        <v>21</v>
+      <c r="Q43" s="16">
+        <v>1</v>
       </c>
       <c r="R43" s="13">
         <v>102791.49</v>
@@ -1925,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" hidden="1">
       <c r="B44" s="11">
         <v>45910</v>
       </c>
@@ -1935,7 +1977,7 @@
       <c r="R44" s="13"/>
       <c r="Y44" s="13"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" hidden="1">
       <c r="B45" s="11">
         <v>45910</v>
       </c>
@@ -1945,7 +1987,7 @@
       <c r="R45" s="13"/>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:26" hidden="1">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
@@ -1955,7 +1997,7 @@
       <c r="R46" s="13"/>
       <c r="Y46" s="13"/>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:26" hidden="1">
       <c r="B47" s="11">
         <v>45911</v>
       </c>
@@ -1964,7 +2006,7 @@
       </c>
       <c r="R47" s="13"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:26" hidden="1">
       <c r="B48" s="11">
         <v>45911</v>
       </c>
@@ -1974,16 +2016,25 @@
       <c r="R48" s="13"/>
       <c r="Y48" s="13"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:25">
       <c r="B49" s="11">
         <v>45911</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
       </c>
+      <c r="P49" s="13">
+        <v>181</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>0.97</v>
+      </c>
+      <c r="R49" s="21">
+        <v>680281</v>
+      </c>
       <c r="Y49" s="13"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:25" hidden="1">
       <c r="B50" s="11">
         <v>45911</v>
       </c>
@@ -1992,7 +2043,7 @@
       </c>
       <c r="R50" s="13"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:25" hidden="1">
       <c r="B51" s="11">
         <v>45911</v>
       </c>
@@ -2002,7 +2053,7 @@
       <c r="R51" s="13"/>
       <c r="Y51" s="13"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:25" hidden="1">
       <c r="B52" s="11">
         <v>45911</v>
       </c>
@@ -2012,7 +2063,7 @@
       <c r="R52" s="13"/>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:25" hidden="1">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
@@ -2022,7 +2073,7 @@
       <c r="R53" s="13"/>
       <c r="Y53" s="13"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:25" hidden="1">
       <c r="B54" s="11">
         <v>45912</v>
       </c>
@@ -2031,7 +2082,7 @@
       </c>
       <c r="R54" s="13"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:25" hidden="1">
       <c r="B55" s="11">
         <v>45912</v>
       </c>
@@ -2041,7 +2092,7 @@
       <c r="R55" s="13"/>
       <c r="Y55" s="13"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:25">
       <c r="B56" s="11">
         <v>45912</v>
       </c>
@@ -2050,7 +2101,7 @@
       </c>
       <c r="Y56" s="13"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:25" hidden="1">
       <c r="B57" s="11">
         <v>45912</v>
       </c>
@@ -2059,7 +2110,7 @@
       </c>
       <c r="R57" s="13"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:25" hidden="1">
       <c r="B58" s="11">
         <v>45912</v>
       </c>
@@ -2069,7 +2120,7 @@
       <c r="R58" s="13"/>
       <c r="Y58" s="13"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:25" hidden="1">
       <c r="B59" s="11">
         <v>45912</v>
       </c>
@@ -2079,7 +2130,7 @@
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:25" hidden="1">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2089,7 +2140,7 @@
       <c r="R60" s="13"/>
       <c r="Y60" s="13"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:25" hidden="1">
       <c r="B61" s="11">
         <v>45913</v>
       </c>
@@ -2098,7 +2149,7 @@
       </c>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:25" hidden="1">
       <c r="B62" s="11">
         <v>45913</v>
       </c>
@@ -2108,7 +2159,7 @@
       <c r="R62" s="13"/>
       <c r="Y62" s="13"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:25">
       <c r="B63" s="11">
         <v>45913</v>
       </c>
@@ -2117,7 +2168,7 @@
       </c>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:25" hidden="1">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
@@ -2126,7 +2177,7 @@
       </c>
       <c r="R64" s="13"/>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:25" hidden="1">
       <c r="B65" s="11">
         <v>45913</v>
       </c>
@@ -2136,7 +2187,7 @@
       <c r="R65" s="13"/>
       <c r="Y65" s="13"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:25" hidden="1">
       <c r="B66" s="11">
         <v>45913</v>
       </c>
@@ -2146,7 +2197,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:25" hidden="1">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2156,7 +2207,7 @@
       <c r="R67" s="13"/>
       <c r="Y67" s="13"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:25" hidden="1">
       <c r="B68" s="11">
         <v>45914</v>
       </c>
@@ -2165,7 +2216,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:25" hidden="1">
       <c r="B69" s="11">
         <v>45914</v>
       </c>
@@ -2175,7 +2226,7 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:25">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
@@ -2184,7 +2235,7 @@
       </c>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:25" hidden="1">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
@@ -2193,7 +2244,7 @@
       </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:25" hidden="1">
       <c r="B72" s="11">
         <v>45914</v>
       </c>
@@ -2203,7 +2254,7 @@
       <c r="R72" s="13"/>
       <c r="Y72" s="13"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:25" hidden="1">
       <c r="B73" s="11">
         <v>45914</v>
       </c>
@@ -2213,7 +2264,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:25" hidden="1">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2223,7 +2274,7 @@
       <c r="R74" s="13"/>
       <c r="Y74" s="13"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:25" hidden="1">
       <c r="B75" s="11">
         <v>45915</v>
       </c>
@@ -2232,7 +2283,7 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:25" hidden="1">
       <c r="B76" s="11">
         <v>45915</v>
       </c>
@@ -2242,7 +2293,7 @@
       <c r="R76" s="13"/>
       <c r="Y76" s="13"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:25">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
@@ -2251,7 +2302,7 @@
       </c>
       <c r="Y77" s="13"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:25" hidden="1">
       <c r="B78" s="11">
         <v>45915</v>
       </c>
@@ -2260,7 +2311,7 @@
       </c>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:25" hidden="1">
       <c r="B79" s="11">
         <v>45915</v>
       </c>
@@ -2270,7 +2321,7 @@
       <c r="R79" s="13"/>
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:25" hidden="1">
       <c r="B80" s="11">
         <v>45915</v>
       </c>
@@ -2280,7 +2331,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:25" hidden="1">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2290,7 +2341,7 @@
       <c r="R81" s="13"/>
       <c r="Y81" s="13"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:25" hidden="1">
       <c r="B82" s="11">
         <v>45916</v>
       </c>
@@ -2299,7 +2350,7 @@
       </c>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:25" hidden="1">
       <c r="B83" s="11">
         <v>45916</v>
       </c>
@@ -2309,7 +2360,7 @@
       <c r="R83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:25">
       <c r="B84" s="11">
         <v>45916</v>
       </c>
@@ -2318,7 +2369,7 @@
       </c>
       <c r="Y84" s="13"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:25" hidden="1">
       <c r="B85" s="11">
         <v>45916</v>
       </c>
@@ -2327,7 +2378,7 @@
       </c>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:25" hidden="1">
       <c r="B86" s="11">
         <v>45916</v>
       </c>
@@ -2337,7 +2388,7 @@
       <c r="R86" s="13"/>
       <c r="Y86" s="13"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:25" hidden="1">
       <c r="B87" s="11">
         <v>45916</v>
       </c>
@@ -2347,7 +2398,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:25" hidden="1">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2357,7 +2408,7 @@
       <c r="R88" s="13"/>
       <c r="Y88" s="13"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:25" hidden="1">
       <c r="B89" s="11">
         <v>45917</v>
       </c>
@@ -2366,7 +2417,7 @@
       </c>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:25" hidden="1">
       <c r="B90" s="11">
         <v>45917</v>
       </c>
@@ -2376,7 +2427,7 @@
       <c r="R90" s="13"/>
       <c r="Y90" s="13"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:25">
       <c r="B91" s="11">
         <v>45917</v>
       </c>
@@ -2385,7 +2436,7 @@
       </c>
       <c r="Y91" s="13"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:25" hidden="1">
       <c r="B92" s="11">
         <v>45917</v>
       </c>
@@ -2394,7 +2445,7 @@
       </c>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:25" hidden="1">
       <c r="B93" s="11">
         <v>45917</v>
       </c>
@@ -2404,7 +2455,7 @@
       <c r="R93" s="13"/>
       <c r="Y93" s="13"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:25" hidden="1">
       <c r="B94" s="11">
         <v>45917</v>
       </c>
@@ -2414,7 +2465,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:25" hidden="1">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -2424,7 +2475,7 @@
       <c r="R95" s="13"/>
       <c r="Y95" s="13"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:25" hidden="1">
       <c r="B96" s="11">
         <v>45918</v>
       </c>
@@ -2433,7 +2484,7 @@
       </c>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:25" hidden="1">
       <c r="B97" s="11">
         <v>45918</v>
       </c>
@@ -2443,7 +2494,7 @@
       <c r="R97" s="13"/>
       <c r="Y97" s="13"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:25">
       <c r="B98" s="11">
         <v>45918</v>
       </c>
@@ -2452,7 +2503,7 @@
       </c>
       <c r="Y98" s="13"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:25" hidden="1">
       <c r="B99" s="11">
         <v>45918</v>
       </c>
@@ -2461,7 +2512,7 @@
       </c>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:25" hidden="1">
       <c r="B100" s="11">
         <v>45918</v>
       </c>
@@ -2471,7 +2522,7 @@
       <c r="R100" s="13"/>
       <c r="Y100" s="13"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:25" hidden="1">
       <c r="B101" s="11">
         <v>45918</v>
       </c>
@@ -2481,7 +2532,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:25" hidden="1">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -2491,7 +2542,7 @@
       <c r="R102" s="13"/>
       <c r="Y102" s="13"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:25" hidden="1">
       <c r="B103" s="11">
         <v>45919</v>
       </c>
@@ -2500,7 +2551,7 @@
       </c>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:25" hidden="1">
       <c r="B104" s="11">
         <v>45919</v>
       </c>
@@ -2510,7 +2561,7 @@
       <c r="R104" s="13"/>
       <c r="Y104" s="13"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:25">
       <c r="B105" s="11">
         <v>45919</v>
       </c>
@@ -2519,7 +2570,7 @@
       </c>
       <c r="Y105" s="13"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:25" hidden="1">
       <c r="B106" s="11">
         <v>45919</v>
       </c>
@@ -2528,7 +2579,7 @@
       </c>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:25" hidden="1">
       <c r="B107" s="11">
         <v>45919</v>
       </c>
@@ -2538,7 +2589,7 @@
       <c r="R107" s="13"/>
       <c r="Y107" s="13"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:25" hidden="1">
       <c r="B108" s="11">
         <v>45919</v>
       </c>
@@ -2548,7 +2599,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:25" hidden="1">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -2558,7 +2609,7 @@
       <c r="R109" s="13"/>
       <c r="Y109" s="13"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:25" hidden="1">
       <c r="B110" s="11">
         <v>45920</v>
       </c>
@@ -2567,7 +2618,7 @@
       </c>
       <c r="R110" s="13"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:25" hidden="1">
       <c r="B111" s="11">
         <v>45920</v>
       </c>
@@ -2577,7 +2628,7 @@
       <c r="R111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:25">
       <c r="B112" s="11">
         <v>45920</v>
       </c>
@@ -2586,7 +2637,7 @@
       </c>
       <c r="Y112" s="13"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:25" hidden="1">
       <c r="B113" s="11">
         <v>45920</v>
       </c>
@@ -2595,7 +2646,7 @@
       </c>
       <c r="R113" s="13"/>
     </row>
-    <row r="114" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:25" hidden="1">
       <c r="B114" s="11">
         <v>45920</v>
       </c>
@@ -2605,7 +2656,7 @@
       <c r="R114" s="13"/>
       <c r="Y114" s="13"/>
     </row>
-    <row r="115" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:25" hidden="1">
       <c r="B115" s="11">
         <v>45920</v>
       </c>
@@ -2615,7 +2666,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:25" hidden="1">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -2625,7 +2676,7 @@
       <c r="R116" s="13"/>
       <c r="Y116" s="13"/>
     </row>
-    <row r="117" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:25" hidden="1">
       <c r="B117" s="11">
         <v>45921</v>
       </c>
@@ -2634,7 +2685,7 @@
       </c>
       <c r="R117" s="13"/>
     </row>
-    <row r="118" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:25" hidden="1">
       <c r="B118" s="11">
         <v>45921</v>
       </c>
@@ -2644,7 +2695,7 @@
       <c r="R118" s="13"/>
       <c r="Y118" s="13"/>
     </row>
-    <row r="119" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:25">
       <c r="B119" s="11">
         <v>45921</v>
       </c>
@@ -2653,7 +2704,7 @@
       </c>
       <c r="Y119" s="13"/>
     </row>
-    <row r="120" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:25" hidden="1">
       <c r="B120" s="11">
         <v>45921</v>
       </c>
@@ -2662,7 +2713,7 @@
       </c>
       <c r="R120" s="13"/>
     </row>
-    <row r="121" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:25" hidden="1">
       <c r="B121" s="11">
         <v>45921</v>
       </c>
@@ -2672,7 +2723,7 @@
       <c r="R121" s="13"/>
       <c r="Y121" s="13"/>
     </row>
-    <row r="122" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:25" hidden="1">
       <c r="B122" s="11">
         <v>45921</v>
       </c>
@@ -2682,7 +2733,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:25" hidden="1">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -2692,7 +2743,7 @@
       <c r="R123" s="13"/>
       <c r="Y123" s="13"/>
     </row>
-    <row r="124" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:25" hidden="1">
       <c r="B124" s="11">
         <v>45922</v>
       </c>
@@ -2701,7 +2752,7 @@
       </c>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:25" hidden="1">
       <c r="B125" s="11">
         <v>45922</v>
       </c>
@@ -2711,7 +2762,7 @@
       <c r="R125" s="13"/>
       <c r="Y125" s="13"/>
     </row>
-    <row r="126" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:25">
       <c r="B126" s="11">
         <v>45922</v>
       </c>
@@ -2720,7 +2771,7 @@
       </c>
       <c r="Y126" s="13"/>
     </row>
-    <row r="127" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:25" hidden="1">
       <c r="B127" s="11">
         <v>45922</v>
       </c>
@@ -2729,7 +2780,7 @@
       </c>
       <c r="R127" s="13"/>
     </row>
-    <row r="128" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:25" hidden="1">
       <c r="B128" s="11">
         <v>45922</v>
       </c>
@@ -2739,7 +2790,7 @@
       <c r="R128" s="13"/>
       <c r="Y128" s="13"/>
     </row>
-    <row r="129" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:25" hidden="1">
       <c r="B129" s="11">
         <v>45922</v>
       </c>
@@ -2749,7 +2800,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:25" hidden="1">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -2759,7 +2810,7 @@
       <c r="R130" s="13"/>
       <c r="Y130" s="13"/>
     </row>
-    <row r="131" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:25" hidden="1">
       <c r="B131" s="11">
         <v>45923</v>
       </c>
@@ -2768,7 +2819,7 @@
       </c>
       <c r="R131" s="13"/>
     </row>
-    <row r="132" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:25" hidden="1">
       <c r="B132" s="11">
         <v>45923</v>
       </c>
@@ -2778,7 +2829,7 @@
       <c r="R132" s="13"/>
       <c r="Y132" s="13"/>
     </row>
-    <row r="133" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:25">
       <c r="B133" s="11">
         <v>45923</v>
       </c>
@@ -2787,7 +2838,7 @@
       </c>
       <c r="Y133" s="13"/>
     </row>
-    <row r="134" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:25" hidden="1">
       <c r="B134" s="11">
         <v>45923</v>
       </c>
@@ -2796,7 +2847,7 @@
       </c>
       <c r="R134" s="13"/>
     </row>
-    <row r="135" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:25" hidden="1">
       <c r="B135" s="11">
         <v>45923</v>
       </c>
@@ -2806,7 +2857,7 @@
       <c r="R135" s="13"/>
       <c r="Y135" s="13"/>
     </row>
-    <row r="136" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:25" hidden="1">
       <c r="B136" s="11">
         <v>45923</v>
       </c>
@@ -2816,7 +2867,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:25" hidden="1">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -2826,7 +2877,7 @@
       <c r="R137" s="13"/>
       <c r="Y137" s="13"/>
     </row>
-    <row r="138" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:25" hidden="1">
       <c r="B138" s="11">
         <v>45924</v>
       </c>
@@ -2835,7 +2886,7 @@
       </c>
       <c r="R138" s="13"/>
     </row>
-    <row r="139" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:25" hidden="1">
       <c r="B139" s="11">
         <v>45924</v>
       </c>
@@ -2845,7 +2896,7 @@
       <c r="R139" s="13"/>
       <c r="Y139" s="13"/>
     </row>
-    <row r="140" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:25">
       <c r="B140" s="11">
         <v>45924</v>
       </c>
@@ -2854,7 +2905,7 @@
       </c>
       <c r="Y140" s="13"/>
     </row>
-    <row r="141" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:25" hidden="1">
       <c r="B141" s="11">
         <v>45924</v>
       </c>
@@ -2863,7 +2914,7 @@
       </c>
       <c r="R141" s="13"/>
     </row>
-    <row r="142" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:25" hidden="1">
       <c r="B142" s="11">
         <v>45924</v>
       </c>
@@ -2873,7 +2924,7 @@
       <c r="R142" s="13"/>
       <c r="Y142" s="13"/>
     </row>
-    <row r="143" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:25" hidden="1">
       <c r="B143" s="11">
         <v>45924</v>
       </c>
@@ -2883,7 +2934,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:25" hidden="1">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -2893,7 +2944,7 @@
       <c r="R144" s="13"/>
       <c r="Y144" s="13"/>
     </row>
-    <row r="145" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:25" hidden="1">
       <c r="B145" s="11">
         <v>45925</v>
       </c>
@@ -2902,7 +2953,7 @@
       </c>
       <c r="R145" s="13"/>
     </row>
-    <row r="146" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:25" hidden="1">
       <c r="B146" s="11">
         <v>45925</v>
       </c>
@@ -2912,7 +2963,7 @@
       <c r="R146" s="13"/>
       <c r="Y146" s="13"/>
     </row>
-    <row r="147" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:25">
       <c r="B147" s="11">
         <v>45925</v>
       </c>
@@ -2921,7 +2972,7 @@
       </c>
       <c r="Y147" s="13"/>
     </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:25" hidden="1">
       <c r="B148" s="11">
         <v>45925</v>
       </c>
@@ -2930,7 +2981,7 @@
       </c>
       <c r="R148" s="13"/>
     </row>
-    <row r="149" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:25" hidden="1">
       <c r="B149" s="11">
         <v>45925</v>
       </c>
@@ -2940,7 +2991,7 @@
       <c r="R149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:25" hidden="1">
       <c r="B150" s="11">
         <v>45925</v>
       </c>
@@ -2950,7 +3001,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:25" hidden="1">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -2960,7 +3011,7 @@
       <c r="R151" s="13"/>
       <c r="Y151" s="13"/>
     </row>
-    <row r="152" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:25" hidden="1">
       <c r="B152" s="11">
         <v>45926</v>
       </c>
@@ -2969,7 +3020,7 @@
       </c>
       <c r="R152" s="13"/>
     </row>
-    <row r="153" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:25" hidden="1">
       <c r="B153" s="11">
         <v>45926</v>
       </c>
@@ -2979,7 +3030,7 @@
       <c r="R153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:25">
       <c r="B154" s="11">
         <v>45926</v>
       </c>
@@ -2988,7 +3039,7 @@
       </c>
       <c r="Y154" s="13"/>
     </row>
-    <row r="155" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:25" hidden="1">
       <c r="B155" s="11">
         <v>45926</v>
       </c>
@@ -2997,7 +3048,7 @@
       </c>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:25" hidden="1">
       <c r="B156" s="11">
         <v>45926</v>
       </c>
@@ -3007,7 +3058,7 @@
       <c r="R156" s="13"/>
       <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:25" hidden="1">
       <c r="B157" s="11">
         <v>45926</v>
       </c>
@@ -3017,7 +3068,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:25" hidden="1">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3027,7 +3078,7 @@
       <c r="R158" s="13"/>
       <c r="Y158" s="13"/>
     </row>
-    <row r="159" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:25" hidden="1">
       <c r="B159" s="11">
         <v>45927</v>
       </c>
@@ -3036,7 +3087,7 @@
       </c>
       <c r="R159" s="13"/>
     </row>
-    <row r="160" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:25" hidden="1">
       <c r="B160" s="11">
         <v>45927</v>
       </c>
@@ -3046,7 +3097,7 @@
       <c r="R160" s="13"/>
       <c r="Y160" s="13"/>
     </row>
-    <row r="161" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:25">
       <c r="B161" s="11">
         <v>45927</v>
       </c>
@@ -3055,7 +3106,7 @@
       </c>
       <c r="Y161" s="13"/>
     </row>
-    <row r="162" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:25" hidden="1">
       <c r="B162" s="11">
         <v>45927</v>
       </c>
@@ -3064,7 +3115,7 @@
       </c>
       <c r="R162" s="13"/>
     </row>
-    <row r="163" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:25" hidden="1">
       <c r="B163" s="11">
         <v>45927</v>
       </c>
@@ -3074,7 +3125,7 @@
       <c r="R163" s="13"/>
       <c r="Y163" s="13"/>
     </row>
-    <row r="164" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:25" hidden="1">
       <c r="B164" s="11">
         <v>45927</v>
       </c>
@@ -3084,7 +3135,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:25" hidden="1">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3094,7 +3145,7 @@
       <c r="R165" s="13"/>
       <c r="Y165" s="13"/>
     </row>
-    <row r="166" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:25" hidden="1">
       <c r="B166" s="11">
         <v>45928</v>
       </c>
@@ -3103,7 +3154,7 @@
       </c>
       <c r="R166" s="13"/>
     </row>
-    <row r="167" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:25" hidden="1">
       <c r="B167" s="11">
         <v>45928</v>
       </c>
@@ -3113,7 +3164,7 @@
       <c r="R167" s="13"/>
       <c r="Y167" s="13"/>
     </row>
-    <row r="168" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:25">
       <c r="B168" s="11">
         <v>45928</v>
       </c>
@@ -3122,7 +3173,7 @@
       </c>
       <c r="Y168" s="13"/>
     </row>
-    <row r="169" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:25" hidden="1">
       <c r="B169" s="11">
         <v>45928</v>
       </c>
@@ -3131,7 +3182,7 @@
       </c>
       <c r="R169" s="13"/>
     </row>
-    <row r="170" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:25" hidden="1">
       <c r="B170" s="11">
         <v>45928</v>
       </c>
@@ -3141,7 +3192,7 @@
       <c r="R170" s="13"/>
       <c r="Y170" s="13"/>
     </row>
-    <row r="171" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:25" hidden="1">
       <c r="B171" s="11">
         <v>45928</v>
       </c>
@@ -3151,7 +3202,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:25" hidden="1">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3161,7 +3212,7 @@
       <c r="R172" s="13"/>
       <c r="Y172" s="13"/>
     </row>
-    <row r="173" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:25" hidden="1">
       <c r="B173" s="11">
         <v>45929</v>
       </c>
@@ -3170,7 +3221,7 @@
       </c>
       <c r="R173" s="13"/>
     </row>
-    <row r="174" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:25" hidden="1">
       <c r="B174" s="11">
         <v>45929</v>
       </c>
@@ -3180,7 +3231,7 @@
       <c r="R174" s="13"/>
       <c r="Y174" s="13"/>
     </row>
-    <row r="175" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:25">
       <c r="B175" s="11">
         <v>45929</v>
       </c>
@@ -3189,7 +3240,7 @@
       </c>
       <c r="Y175" s="13"/>
     </row>
-    <row r="176" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:25" hidden="1">
       <c r="B176" s="11">
         <v>45929</v>
       </c>
@@ -3198,7 +3249,7 @@
       </c>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:25" hidden="1">
       <c r="B177" s="11">
         <v>45929</v>
       </c>
@@ -3208,7 +3259,7 @@
       <c r="R177" s="13"/>
       <c r="Y177" s="13"/>
     </row>
-    <row r="178" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:25" hidden="1">
       <c r="B178" s="11">
         <v>45929</v>
       </c>
@@ -3218,7 +3269,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:25" hidden="1">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3228,7 +3279,7 @@
       <c r="R179" s="13"/>
       <c r="Y179" s="13"/>
     </row>
-    <row r="180" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:25" hidden="1">
       <c r="B180" s="11">
         <v>45930</v>
       </c>
@@ -3237,7 +3288,7 @@
       </c>
       <c r="R180" s="13"/>
     </row>
-    <row r="181" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:25" hidden="1">
       <c r="B181" s="11">
         <v>45930</v>
       </c>
@@ -3247,7 +3298,7 @@
       <c r="R181" s="13"/>
       <c r="Y181" s="13"/>
     </row>
-    <row r="182" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:25">
       <c r="B182" s="11">
         <v>45930</v>
       </c>
@@ -3256,7 +3307,7 @@
       </c>
       <c r="Y182" s="13"/>
     </row>
-    <row r="183" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:25" hidden="1">
       <c r="B183" s="11">
         <v>45930</v>
       </c>
@@ -3265,7 +3316,7 @@
       </c>
       <c r="R183" s="13"/>
     </row>
-    <row r="184" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:25" hidden="1">
       <c r="B184" s="11">
         <v>45930</v>
       </c>
@@ -3275,7 +3326,7 @@
       <c r="R184" s="13"/>
       <c r="Y184" s="13"/>
     </row>
-    <row r="185" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:25" hidden="1">
       <c r="B185" s="11">
         <v>45930</v>
       </c>
@@ -3285,7 +3336,7 @@
       <c r="R185" s="13"/>
       <c r="Y185" s="13"/>
     </row>
-    <row r="186" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:25" hidden="1">
       <c r="B186" s="11">
         <v>45931</v>
       </c>
@@ -3295,7 +3346,7 @@
       <c r="R186" s="13"/>
       <c r="Y186" s="13"/>
     </row>
-    <row r="187" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:25" hidden="1">
       <c r="B187" s="11">
         <v>45931</v>
       </c>
@@ -3305,7 +3356,7 @@
       <c r="R187" s="13"/>
       <c r="Y187" s="13"/>
     </row>
-    <row r="188" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:25" hidden="1">
       <c r="B188" s="11">
         <v>45931</v>
       </c>
@@ -3315,7 +3366,7 @@
       <c r="R188" s="13"/>
       <c r="Y188" s="13"/>
     </row>
-    <row r="189" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:25" hidden="1">
       <c r="B189" s="11">
         <v>45931</v>
       </c>
@@ -3325,7 +3376,7 @@
       <c r="R189" s="13"/>
       <c r="Y189" s="13"/>
     </row>
-    <row r="190" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:25" hidden="1">
       <c r="B190" s="11">
         <v>45931</v>
       </c>
@@ -3335,7 +3386,7 @@
       <c r="R190" s="13"/>
       <c r="Y190" s="13"/>
     </row>
-    <row r="191" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:25" hidden="1">
       <c r="B191" s="11">
         <v>45931</v>
       </c>
@@ -3345,7 +3396,7 @@
       <c r="R191" s="13"/>
       <c r="Y191" s="13"/>
     </row>
-    <row r="192" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:25" hidden="1">
       <c r="B192" s="11">
         <v>45931</v>
       </c>
@@ -3355,7 +3406,7 @@
       <c r="R192" s="13"/>
       <c r="Y192" s="13"/>
     </row>
-    <row r="193" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:25" hidden="1">
       <c r="B193" s="11">
         <v>45932</v>
       </c>
@@ -3365,7 +3416,7 @@
       <c r="R193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:25" hidden="1">
       <c r="B194" s="11">
         <v>45932</v>
       </c>
@@ -3375,7 +3426,7 @@
       <c r="R194" s="13"/>
       <c r="Y194" s="13"/>
     </row>
-    <row r="195" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:25" hidden="1">
       <c r="B195" s="11">
         <v>45932</v>
       </c>
@@ -3385,7 +3436,7 @@
       <c r="R195" s="13"/>
       <c r="Y195" s="13"/>
     </row>
-    <row r="196" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:25" hidden="1">
       <c r="B196" s="11">
         <v>45932</v>
       </c>
@@ -3395,7 +3446,7 @@
       <c r="R196" s="13"/>
       <c r="Y196" s="13"/>
     </row>
-    <row r="197" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:25" hidden="1">
       <c r="B197" s="11">
         <v>45932</v>
       </c>
@@ -3405,7 +3456,7 @@
       <c r="R197" s="13"/>
       <c r="Y197" s="13"/>
     </row>
-    <row r="198" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:25" hidden="1">
       <c r="B198" s="11">
         <v>45932</v>
       </c>
@@ -3415,7 +3466,7 @@
       <c r="R198" s="13"/>
       <c r="Y198" s="13"/>
     </row>
-    <row r="199" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:25" hidden="1">
       <c r="B199" s="11">
         <v>45932</v>
       </c>
@@ -3425,7 +3476,7 @@
       <c r="R199" s="13"/>
       <c r="Y199" s="13"/>
     </row>
-    <row r="200" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:25" hidden="1">
       <c r="B200" s="11">
         <v>45933</v>
       </c>
@@ -3435,7 +3486,7 @@
       <c r="R200" s="13"/>
       <c r="Y200" s="13"/>
     </row>
-    <row r="201" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:25" hidden="1">
       <c r="B201" s="11">
         <v>45933</v>
       </c>
@@ -3445,7 +3496,7 @@
       <c r="R201" s="13"/>
       <c r="Y201" s="13"/>
     </row>
-    <row r="202" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:25" hidden="1">
       <c r="B202" s="11">
         <v>45933</v>
       </c>
@@ -3455,7 +3506,7 @@
       <c r="R202" s="13"/>
       <c r="Y202" s="13"/>
     </row>
-    <row r="203" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:25" hidden="1">
       <c r="B203" s="11">
         <v>45933</v>
       </c>
@@ -3465,7 +3516,7 @@
       <c r="R203" s="13"/>
       <c r="Y203" s="13"/>
     </row>
-    <row r="204" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:25" hidden="1">
       <c r="B204" s="11">
         <v>45933</v>
       </c>
@@ -3475,7 +3526,7 @@
       <c r="R204" s="13"/>
       <c r="Y204" s="13"/>
     </row>
-    <row r="205" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:25" hidden="1">
       <c r="B205" s="11">
         <v>45933</v>
       </c>
@@ -3485,7 +3536,7 @@
       <c r="R205" s="13"/>
       <c r="Y205" s="13"/>
     </row>
-    <row r="206" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:25" hidden="1">
       <c r="B206" s="11">
         <v>45933</v>
       </c>
@@ -3495,7 +3546,7 @@
       <c r="R206" s="13"/>
       <c r="Y206" s="13"/>
     </row>
-    <row r="207" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:25" hidden="1">
       <c r="B207" s="11">
         <v>45934</v>
       </c>
@@ -3505,7 +3556,7 @@
       <c r="R207" s="13"/>
       <c r="Y207" s="13"/>
     </row>
-    <row r="208" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:25" hidden="1">
       <c r="B208" s="11">
         <v>45934</v>
       </c>
@@ -3515,7 +3566,7 @@
       <c r="R208" s="13"/>
       <c r="Y208" s="13"/>
     </row>
-    <row r="209" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:25" hidden="1">
       <c r="B209" s="11">
         <v>45934</v>
       </c>
@@ -3525,7 +3576,7 @@
       <c r="R209" s="13"/>
       <c r="Y209" s="13"/>
     </row>
-    <row r="210" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:25" hidden="1">
       <c r="B210" s="11">
         <v>45934</v>
       </c>
@@ -3535,7 +3586,7 @@
       <c r="R210" s="13"/>
       <c r="Y210" s="13"/>
     </row>
-    <row r="211" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:25" hidden="1">
       <c r="B211" s="11">
         <v>45934</v>
       </c>
@@ -3545,7 +3596,7 @@
       <c r="R211" s="13"/>
       <c r="Y211" s="13"/>
     </row>
-    <row r="212" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:25" hidden="1">
       <c r="B212" s="11">
         <v>45934</v>
       </c>
@@ -3555,7 +3606,7 @@
       <c r="R212" s="13"/>
       <c r="Y212" s="13"/>
     </row>
-    <row r="213" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:25" hidden="1">
       <c r="B213" s="11">
         <v>45934</v>
       </c>
@@ -3565,7 +3616,7 @@
       <c r="R213" s="13"/>
       <c r="Y213" s="13"/>
     </row>
-    <row r="214" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:25" hidden="1">
       <c r="B214" s="11">
         <v>45935</v>
       </c>
@@ -3575,7 +3626,7 @@
       <c r="R214" s="13"/>
       <c r="Y214" s="13"/>
     </row>
-    <row r="215" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:25" hidden="1">
       <c r="B215" s="11">
         <v>45935</v>
       </c>
@@ -3585,7 +3636,7 @@
       <c r="R215" s="13"/>
       <c r="Y215" s="13"/>
     </row>
-    <row r="216" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:25" hidden="1">
       <c r="B216" s="11">
         <v>45935</v>
       </c>
@@ -3595,7 +3646,7 @@
       <c r="R216" s="13"/>
       <c r="Y216" s="13"/>
     </row>
-    <row r="217" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:25" hidden="1">
       <c r="B217" s="11">
         <v>45935</v>
       </c>
@@ -3605,7 +3656,7 @@
       <c r="R217" s="13"/>
       <c r="Y217" s="13"/>
     </row>
-    <row r="218" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:25" hidden="1">
       <c r="B218" s="11">
         <v>45935</v>
       </c>
@@ -3615,7 +3666,7 @@
       <c r="R218" s="13"/>
       <c r="Y218" s="13"/>
     </row>
-    <row r="219" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:25" hidden="1">
       <c r="B219" s="11">
         <v>45935</v>
       </c>
@@ -3625,7 +3676,7 @@
       <c r="R219" s="13"/>
       <c r="Y219" s="13"/>
     </row>
-    <row r="220" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:25" hidden="1">
       <c r="B220" s="11">
         <v>45935</v>
       </c>
@@ -3635,7 +3686,7 @@
       <c r="R220" s="13"/>
       <c r="Y220" s="13"/>
     </row>
-    <row r="221" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:25" hidden="1">
       <c r="B221" s="11">
         <v>45936</v>
       </c>
@@ -3645,7 +3696,7 @@
       <c r="R221" s="13"/>
       <c r="Y221" s="13"/>
     </row>
-    <row r="222" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:25" hidden="1">
       <c r="B222" s="11">
         <v>45936</v>
       </c>
@@ -3655,7 +3706,7 @@
       <c r="R222" s="13"/>
       <c r="Y222" s="13"/>
     </row>
-    <row r="223" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:25" hidden="1">
       <c r="B223" s="11">
         <v>45936</v>
       </c>
@@ -3665,7 +3716,7 @@
       <c r="R223" s="13"/>
       <c r="Y223" s="13"/>
     </row>
-    <row r="224" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:25" hidden="1">
       <c r="B224" s="11">
         <v>45936</v>
       </c>
@@ -3675,7 +3726,7 @@
       <c r="R224" s="13"/>
       <c r="Y224" s="13"/>
     </row>
-    <row r="225" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:25" hidden="1">
       <c r="B225" s="11">
         <v>45936</v>
       </c>
@@ -3685,7 +3736,7 @@
       <c r="R225" s="13"/>
       <c r="Y225" s="13"/>
     </row>
-    <row r="226" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:25" hidden="1">
       <c r="B226" s="11">
         <v>45936</v>
       </c>
@@ -3695,7 +3746,7 @@
       <c r="R226" s="13"/>
       <c r="Y226" s="13"/>
     </row>
-    <row r="227" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:25" hidden="1">
       <c r="B227" s="11">
         <v>45936</v>
       </c>
@@ -3705,7 +3756,7 @@
       <c r="R227" s="13"/>
       <c r="Y227" s="13"/>
     </row>
-    <row r="228" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:25" hidden="1">
       <c r="B228" s="11">
         <v>45937</v>
       </c>
@@ -3715,7 +3766,7 @@
       <c r="R228" s="13"/>
       <c r="Y228" s="13"/>
     </row>
-    <row r="229" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:25" hidden="1">
       <c r="B229" s="11">
         <v>45937</v>
       </c>
@@ -3725,7 +3776,7 @@
       <c r="R229" s="13"/>
       <c r="Y229" s="13"/>
     </row>
-    <row r="230" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:25" hidden="1">
       <c r="B230" s="11">
         <v>45937</v>
       </c>
@@ -3735,7 +3786,7 @@
       <c r="R230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:25" hidden="1">
       <c r="B231" s="11">
         <v>45937</v>
       </c>
@@ -3745,7 +3796,7 @@
       <c r="R231" s="13"/>
       <c r="Y231" s="13"/>
     </row>
-    <row r="232" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:25" hidden="1">
       <c r="B232" s="11">
         <v>45937</v>
       </c>
@@ -3755,7 +3806,7 @@
       <c r="R232" s="13"/>
       <c r="Y232" s="13"/>
     </row>
-    <row r="233" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:25" hidden="1">
       <c r="B233" s="11">
         <v>45937</v>
       </c>
@@ -3765,7 +3816,7 @@
       <c r="R233" s="13"/>
       <c r="Y233" s="13"/>
     </row>
-    <row r="234" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:25" hidden="1">
       <c r="B234" s="11">
         <v>45937</v>
       </c>
@@ -3775,7 +3826,7 @@
       <c r="R234" s="13"/>
       <c r="Y234" s="13"/>
     </row>
-    <row r="235" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:25" hidden="1">
       <c r="B235" s="11">
         <v>45938</v>
       </c>
@@ -3785,7 +3836,7 @@
       <c r="R235" s="13"/>
       <c r="Y235" s="13"/>
     </row>
-    <row r="236" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:25" hidden="1">
       <c r="B236" s="11">
         <v>45938</v>
       </c>
@@ -3795,7 +3846,7 @@
       <c r="R236" s="13"/>
       <c r="Y236" s="13"/>
     </row>
-    <row r="237" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:25" hidden="1">
       <c r="B237" s="11">
         <v>45938</v>
       </c>
@@ -3805,7 +3856,7 @@
       <c r="R237" s="13"/>
       <c r="Y237" s="13"/>
     </row>
-    <row r="238" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:25" hidden="1">
       <c r="B238" s="11">
         <v>45938</v>
       </c>
@@ -3815,7 +3866,7 @@
       <c r="R238" s="13"/>
       <c r="Y238" s="13"/>
     </row>
-    <row r="239" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:25" hidden="1">
       <c r="B239" s="11">
         <v>45938</v>
       </c>
@@ -3825,7 +3876,7 @@
       <c r="R239" s="13"/>
       <c r="Y239" s="13"/>
     </row>
-    <row r="240" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:25" hidden="1">
       <c r="B240" s="11">
         <v>45938</v>
       </c>
@@ -3835,7 +3886,7 @@
       <c r="R240" s="13"/>
       <c r="Y240" s="13"/>
     </row>
-    <row r="241" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:25" hidden="1">
       <c r="B241" s="11">
         <v>45938</v>
       </c>
@@ -3845,7 +3896,7 @@
       <c r="R241" s="13"/>
       <c r="Y241" s="13"/>
     </row>
-    <row r="242" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:25" hidden="1">
       <c r="B242" s="11">
         <v>45939</v>
       </c>
@@ -3855,7 +3906,7 @@
       <c r="R242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:25" hidden="1">
       <c r="B243" s="11">
         <v>45939</v>
       </c>
@@ -3865,7 +3916,7 @@
       <c r="R243" s="13"/>
       <c r="Y243" s="13"/>
     </row>
-    <row r="244" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:25" hidden="1">
       <c r="B244" s="11">
         <v>45939</v>
       </c>
@@ -3875,7 +3926,7 @@
       <c r="R244" s="13"/>
       <c r="Y244" s="13"/>
     </row>
-    <row r="245" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:25" hidden="1">
       <c r="B245" s="11">
         <v>45939</v>
       </c>
@@ -3885,7 +3936,7 @@
       <c r="R245" s="13"/>
       <c r="Y245" s="13"/>
     </row>
-    <row r="246" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:25" hidden="1">
       <c r="B246" s="11">
         <v>45939</v>
       </c>
@@ -3895,7 +3946,7 @@
       <c r="R246" s="13"/>
       <c r="Y246" s="13"/>
     </row>
-    <row r="247" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:25" hidden="1">
       <c r="B247" s="11">
         <v>45939</v>
       </c>
@@ -3905,7 +3956,7 @@
       <c r="R247" s="13"/>
       <c r="Y247" s="13"/>
     </row>
-    <row r="248" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:25" hidden="1">
       <c r="B248" s="11">
         <v>45939</v>
       </c>
@@ -3915,7 +3966,7 @@
       <c r="R248" s="13"/>
       <c r="Y248" s="13"/>
     </row>
-    <row r="249" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:25" hidden="1">
       <c r="B249" s="11">
         <v>45940</v>
       </c>
@@ -3925,7 +3976,7 @@
       <c r="R249" s="13"/>
       <c r="Y249" s="13"/>
     </row>
-    <row r="250" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:25" hidden="1">
       <c r="B250" s="11">
         <v>45940</v>
       </c>
@@ -3935,7 +3986,7 @@
       <c r="R250" s="13"/>
       <c r="Y250" s="13"/>
     </row>
-    <row r="251" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:25" hidden="1">
       <c r="B251" s="11">
         <v>45940</v>
       </c>
@@ -3945,7 +3996,7 @@
       <c r="R251" s="13"/>
       <c r="Y251" s="13"/>
     </row>
-    <row r="252" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:25" hidden="1">
       <c r="B252" s="11">
         <v>45940</v>
       </c>
@@ -3955,7 +4006,7 @@
       <c r="R252" s="13"/>
       <c r="Y252" s="13"/>
     </row>
-    <row r="253" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:25" hidden="1">
       <c r="B253" s="11">
         <v>45940</v>
       </c>
@@ -3965,7 +4016,7 @@
       <c r="R253" s="13"/>
       <c r="Y253" s="13"/>
     </row>
-    <row r="254" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:25" hidden="1">
       <c r="B254" s="11">
         <v>45940</v>
       </c>
@@ -3975,7 +4026,7 @@
       <c r="R254" s="13"/>
       <c r="Y254" s="13"/>
     </row>
-    <row r="255" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:25" hidden="1">
       <c r="B255" s="11">
         <v>45940</v>
       </c>
@@ -3985,7 +4036,7 @@
       <c r="R255" s="13"/>
       <c r="Y255" s="13"/>
     </row>
-    <row r="256" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:25" hidden="1">
       <c r="B256" s="11">
         <v>45941</v>
       </c>
@@ -3995,7 +4046,7 @@
       <c r="R256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:25" hidden="1">
       <c r="B257" s="11">
         <v>45941</v>
       </c>
@@ -4005,7 +4056,7 @@
       <c r="R257" s="13"/>
       <c r="Y257" s="13"/>
     </row>
-    <row r="258" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:25" hidden="1">
       <c r="B258" s="11">
         <v>45941</v>
       </c>
@@ -4015,7 +4066,7 @@
       <c r="R258" s="13"/>
       <c r="Y258" s="13"/>
     </row>
-    <row r="259" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:25" hidden="1">
       <c r="B259" s="11">
         <v>45941</v>
       </c>
@@ -4025,7 +4076,7 @@
       <c r="R259" s="13"/>
       <c r="Y259" s="13"/>
     </row>
-    <row r="260" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:25" hidden="1">
       <c r="B260" s="11">
         <v>45941</v>
       </c>
@@ -4035,7 +4086,7 @@
       <c r="R260" s="13"/>
       <c r="Y260" s="13"/>
     </row>
-    <row r="261" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:25" hidden="1">
       <c r="B261" s="11">
         <v>45941</v>
       </c>
@@ -4045,7 +4096,7 @@
       <c r="R261" s="13"/>
       <c r="Y261" s="13"/>
     </row>
-    <row r="262" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:25" hidden="1">
       <c r="B262" s="11">
         <v>45941</v>
       </c>
@@ -4055,7 +4106,7 @@
       <c r="R262" s="13"/>
       <c r="Y262" s="13"/>
     </row>
-    <row r="263" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:25" hidden="1">
       <c r="B263" s="11">
         <v>45942</v>
       </c>
@@ -4065,7 +4116,7 @@
       <c r="R263" s="13"/>
       <c r="Y263" s="13"/>
     </row>
-    <row r="264" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:25" hidden="1">
       <c r="B264" s="11">
         <v>45942</v>
       </c>
@@ -4075,7 +4126,7 @@
       <c r="R264" s="13"/>
       <c r="Y264" s="13"/>
     </row>
-    <row r="265" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:25" hidden="1">
       <c r="B265" s="11">
         <v>45942</v>
       </c>
@@ -4085,7 +4136,7 @@
       <c r="R265" s="13"/>
       <c r="Y265" s="13"/>
     </row>
-    <row r="266" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:25" hidden="1">
       <c r="B266" s="11">
         <v>45942</v>
       </c>
@@ -4095,7 +4146,7 @@
       <c r="R266" s="13"/>
       <c r="Y266" s="13"/>
     </row>
-    <row r="267" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:25" hidden="1">
       <c r="B267" s="11">
         <v>45942</v>
       </c>
@@ -4105,7 +4156,7 @@
       <c r="R267" s="13"/>
       <c r="Y267" s="13"/>
     </row>
-    <row r="268" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:25" hidden="1">
       <c r="B268" s="11">
         <v>45942</v>
       </c>
@@ -4115,7 +4166,7 @@
       <c r="R268" s="13"/>
       <c r="Y268" s="13"/>
     </row>
-    <row r="269" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:25" hidden="1">
       <c r="B269" s="11">
         <v>45942</v>
       </c>
@@ -4125,7 +4176,7 @@
       <c r="R269" s="13"/>
       <c r="Y269" s="13"/>
     </row>
-    <row r="270" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:25" hidden="1">
       <c r="B270" s="11">
         <v>45943</v>
       </c>
@@ -4135,7 +4186,7 @@
       <c r="R270" s="13"/>
       <c r="Y270" s="13"/>
     </row>
-    <row r="271" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:25" hidden="1">
       <c r="B271" s="11">
         <v>45943</v>
       </c>
@@ -4145,7 +4196,7 @@
       <c r="R271" s="13"/>
       <c r="Y271" s="13"/>
     </row>
-    <row r="272" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:25" hidden="1">
       <c r="B272" s="11">
         <v>45943</v>
       </c>
@@ -4155,7 +4206,7 @@
       <c r="R272" s="13"/>
       <c r="Y272" s="13"/>
     </row>
-    <row r="273" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:25" hidden="1">
       <c r="B273" s="11">
         <v>45943</v>
       </c>
@@ -4165,7 +4216,7 @@
       <c r="R273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:25" hidden="1">
       <c r="B274" s="11">
         <v>45943</v>
       </c>
@@ -4175,7 +4226,7 @@
       <c r="R274" s="13"/>
       <c r="Y274" s="13"/>
     </row>
-    <row r="275" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:25" hidden="1">
       <c r="B275" s="11">
         <v>45943</v>
       </c>
@@ -4185,7 +4236,7 @@
       <c r="R275" s="13"/>
       <c r="Y275" s="13"/>
     </row>
-    <row r="276" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:25" hidden="1">
       <c r="B276" s="11">
         <v>45943</v>
       </c>
@@ -4195,7 +4246,7 @@
       <c r="R276" s="13"/>
       <c r="Y276" s="13"/>
     </row>
-    <row r="277" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:25" hidden="1">
       <c r="B277" s="11">
         <v>45944</v>
       </c>
@@ -4205,7 +4256,7 @@
       <c r="R277" s="13"/>
       <c r="Y277" s="13"/>
     </row>
-    <row r="278" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:25" hidden="1">
       <c r="B278" s="11">
         <v>45944</v>
       </c>
@@ -4215,7 +4266,7 @@
       <c r="R278" s="13"/>
       <c r="Y278" s="13"/>
     </row>
-    <row r="279" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:25" hidden="1">
       <c r="B279" s="11">
         <v>45944</v>
       </c>
@@ -4225,7 +4276,7 @@
       <c r="R279" s="13"/>
       <c r="Y279" s="13"/>
     </row>
-    <row r="280" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:25" hidden="1">
       <c r="B280" s="11">
         <v>45944</v>
       </c>
@@ -4235,7 +4286,7 @@
       <c r="R280" s="13"/>
       <c r="Y280" s="13"/>
     </row>
-    <row r="281" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:25" hidden="1">
       <c r="B281" s="11">
         <v>45944</v>
       </c>
@@ -4245,7 +4296,7 @@
       <c r="R281" s="13"/>
       <c r="Y281" s="13"/>
     </row>
-    <row r="282" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:25" hidden="1">
       <c r="B282" s="11">
         <v>45944</v>
       </c>
@@ -4255,7 +4306,7 @@
       <c r="R282" s="13"/>
       <c r="Y282" s="13"/>
     </row>
-    <row r="283" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:25" hidden="1">
       <c r="B283" s="11">
         <v>45944</v>
       </c>
@@ -4265,7 +4316,7 @@
       <c r="R283" s="13"/>
       <c r="Y283" s="13"/>
     </row>
-    <row r="284" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:25" hidden="1">
       <c r="B284" s="11">
         <v>45945</v>
       </c>
@@ -4275,7 +4326,7 @@
       <c r="R284" s="13"/>
       <c r="Y284" s="13"/>
     </row>
-    <row r="285" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:25" hidden="1">
       <c r="B285" s="11">
         <v>45945</v>
       </c>
@@ -4285,7 +4336,7 @@
       <c r="R285" s="13"/>
       <c r="Y285" s="13"/>
     </row>
-    <row r="286" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:25" hidden="1">
       <c r="B286" s="11">
         <v>45945</v>
       </c>
@@ -4295,7 +4346,7 @@
       <c r="R286" s="13"/>
       <c r="Y286" s="13"/>
     </row>
-    <row r="287" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:25" hidden="1">
       <c r="B287" s="11">
         <v>45945</v>
       </c>
@@ -4305,7 +4356,7 @@
       <c r="R287" s="13"/>
       <c r="Y287" s="13"/>
     </row>
-    <row r="288" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:25" hidden="1">
       <c r="B288" s="11">
         <v>45945</v>
       </c>
@@ -4315,7 +4366,7 @@
       <c r="R288" s="13"/>
       <c r="Y288" s="13"/>
     </row>
-    <row r="289" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:25" hidden="1">
       <c r="B289" s="11">
         <v>45945</v>
       </c>
@@ -4325,7 +4376,7 @@
       <c r="R289" s="13"/>
       <c r="Y289" s="13"/>
     </row>
-    <row r="290" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:25" hidden="1">
       <c r="B290" s="11">
         <v>45945</v>
       </c>
@@ -4335,7 +4386,7 @@
       <c r="R290" s="13"/>
       <c r="Y290" s="13"/>
     </row>
-    <row r="291" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:25" hidden="1">
       <c r="B291" s="11">
         <v>45946</v>
       </c>
@@ -4345,7 +4396,7 @@
       <c r="R291" s="13"/>
       <c r="Y291" s="13"/>
     </row>
-    <row r="292" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:25" hidden="1">
       <c r="B292" s="11">
         <v>45946</v>
       </c>
@@ -4355,7 +4406,7 @@
       <c r="R292" s="13"/>
       <c r="Y292" s="13"/>
     </row>
-    <row r="293" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:25" hidden="1">
       <c r="B293" s="11">
         <v>45946</v>
       </c>
@@ -4365,7 +4416,7 @@
       <c r="R293" s="13"/>
       <c r="Y293" s="13"/>
     </row>
-    <row r="294" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:25" hidden="1">
       <c r="B294" s="11">
         <v>45946</v>
       </c>
@@ -4375,7 +4426,7 @@
       <c r="R294" s="13"/>
       <c r="Y294" s="13"/>
     </row>
-    <row r="295" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:25" hidden="1">
       <c r="B295" s="11">
         <v>45946</v>
       </c>
@@ -4385,7 +4436,7 @@
       <c r="R295" s="13"/>
       <c r="Y295" s="13"/>
     </row>
-    <row r="296" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:25" hidden="1">
       <c r="B296" s="11">
         <v>45946</v>
       </c>
@@ -4395,7 +4446,7 @@
       <c r="R296" s="13"/>
       <c r="Y296" s="13"/>
     </row>
-    <row r="297" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:25" hidden="1">
       <c r="B297" s="11">
         <v>45946</v>
       </c>
@@ -4405,7 +4456,7 @@
       <c r="R297" s="13"/>
       <c r="Y297" s="13"/>
     </row>
-    <row r="298" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:25" hidden="1">
       <c r="B298" s="11">
         <v>45947</v>
       </c>
@@ -4415,7 +4466,7 @@
       <c r="R298" s="13"/>
       <c r="Y298" s="13"/>
     </row>
-    <row r="299" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:25" hidden="1">
       <c r="B299" s="11">
         <v>45947</v>
       </c>
@@ -4425,7 +4476,7 @@
       <c r="R299" s="13"/>
       <c r="Y299" s="13"/>
     </row>
-    <row r="300" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:25" hidden="1">
       <c r="B300" s="11">
         <v>45947</v>
       </c>
@@ -4435,7 +4486,7 @@
       <c r="R300" s="13"/>
       <c r="Y300" s="13"/>
     </row>
-    <row r="301" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:25" hidden="1">
       <c r="B301" s="11">
         <v>45947</v>
       </c>
@@ -4445,7 +4496,7 @@
       <c r="R301" s="13"/>
       <c r="Y301" s="13"/>
     </row>
-    <row r="302" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:25" hidden="1">
       <c r="B302" s="11">
         <v>45947</v>
       </c>
@@ -4455,7 +4506,7 @@
       <c r="R302" s="13"/>
       <c r="Y302" s="13"/>
     </row>
-    <row r="303" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:25" hidden="1">
       <c r="B303" s="11">
         <v>45947</v>
       </c>
@@ -4465,7 +4516,7 @@
       <c r="R303" s="13"/>
       <c r="Y303" s="13"/>
     </row>
-    <row r="304" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:25" hidden="1">
       <c r="B304" s="11">
         <v>45947</v>
       </c>
@@ -4475,7 +4526,7 @@
       <c r="R304" s="13"/>
       <c r="Y304" s="13"/>
     </row>
-    <row r="305" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:25" hidden="1">
       <c r="B305" s="11">
         <v>45948</v>
       </c>
@@ -4485,7 +4536,7 @@
       <c r="R305" s="13"/>
       <c r="Y305" s="13"/>
     </row>
-    <row r="306" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:25" hidden="1">
       <c r="B306" s="11">
         <v>45948</v>
       </c>
@@ -4495,7 +4546,7 @@
       <c r="R306" s="13"/>
       <c r="Y306" s="13"/>
     </row>
-    <row r="307" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:25" hidden="1">
       <c r="B307" s="11">
         <v>45948</v>
       </c>
@@ -4505,7 +4556,7 @@
       <c r="R307" s="13"/>
       <c r="Y307" s="13"/>
     </row>
-    <row r="308" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:25" hidden="1">
       <c r="B308" s="11">
         <v>45948</v>
       </c>
@@ -4515,7 +4566,7 @@
       <c r="R308" s="13"/>
       <c r="Y308" s="13"/>
     </row>
-    <row r="309" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:25" hidden="1">
       <c r="B309" s="11">
         <v>45948</v>
       </c>
@@ -4525,7 +4576,7 @@
       <c r="R309" s="13"/>
       <c r="Y309" s="13"/>
     </row>
-    <row r="310" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:25" hidden="1">
       <c r="B310" s="11">
         <v>45948</v>
       </c>
@@ -4535,7 +4586,7 @@
       <c r="R310" s="13"/>
       <c r="Y310" s="13"/>
     </row>
-    <row r="311" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:25" hidden="1">
       <c r="B311" s="11">
         <v>45948</v>
       </c>
@@ -4545,7 +4596,7 @@
       <c r="R311" s="13"/>
       <c r="Y311" s="13"/>
     </row>
-    <row r="312" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:25" hidden="1">
       <c r="B312" s="11">
         <v>45949</v>
       </c>
@@ -4555,7 +4606,7 @@
       <c r="R312" s="13"/>
       <c r="Y312" s="13"/>
     </row>
-    <row r="313" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:25" hidden="1">
       <c r="B313" s="11">
         <v>45949</v>
       </c>
@@ -4565,7 +4616,7 @@
       <c r="R313" s="13"/>
       <c r="Y313" s="13"/>
     </row>
-    <row r="314" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:25" hidden="1">
       <c r="B314" s="11">
         <v>45949</v>
       </c>
@@ -4575,7 +4626,7 @@
       <c r="R314" s="13"/>
       <c r="Y314" s="13"/>
     </row>
-    <row r="315" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:25" hidden="1">
       <c r="B315" s="11">
         <v>45949</v>
       </c>
@@ -4585,7 +4636,7 @@
       <c r="R315" s="13"/>
       <c r="Y315" s="13"/>
     </row>
-    <row r="316" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:25" hidden="1">
       <c r="B316" s="11">
         <v>45949</v>
       </c>
@@ -4595,7 +4646,7 @@
       <c r="R316" s="13"/>
       <c r="Y316" s="13"/>
     </row>
-    <row r="317" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:25" hidden="1">
       <c r="B317" s="11">
         <v>45949</v>
       </c>
@@ -4605,7 +4656,7 @@
       <c r="R317" s="13"/>
       <c r="Y317" s="13"/>
     </row>
-    <row r="318" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:25" hidden="1">
       <c r="B318" s="11">
         <v>45949</v>
       </c>
@@ -4615,7 +4666,7 @@
       <c r="R318" s="13"/>
       <c r="Y318" s="13"/>
     </row>
-    <row r="319" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:25" hidden="1">
       <c r="B319" s="11">
         <v>45950</v>
       </c>
@@ -4625,7 +4676,7 @@
       <c r="R319" s="13"/>
       <c r="Y319" s="13"/>
     </row>
-    <row r="320" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:25" hidden="1">
       <c r="B320" s="11">
         <v>45950</v>
       </c>
@@ -4635,7 +4686,7 @@
       <c r="R320" s="13"/>
       <c r="Y320" s="13"/>
     </row>
-    <row r="321" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:25" hidden="1">
       <c r="B321" s="11">
         <v>45950</v>
       </c>
@@ -4645,7 +4696,7 @@
       <c r="R321" s="13"/>
       <c r="Y321" s="13"/>
     </row>
-    <row r="322" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:25" hidden="1">
       <c r="B322" s="11">
         <v>45950</v>
       </c>
@@ -4655,7 +4706,7 @@
       <c r="R322" s="13"/>
       <c r="Y322" s="13"/>
     </row>
-    <row r="323" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:25" hidden="1">
       <c r="B323" s="11">
         <v>45950</v>
       </c>
@@ -4665,7 +4716,7 @@
       <c r="R323" s="13"/>
       <c r="Y323" s="13"/>
     </row>
-    <row r="324" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:25" hidden="1">
       <c r="B324" s="11">
         <v>45950</v>
       </c>
@@ -4675,7 +4726,7 @@
       <c r="R324" s="13"/>
       <c r="Y324" s="13"/>
     </row>
-    <row r="325" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:25" hidden="1">
       <c r="B325" s="11">
         <v>45950</v>
       </c>
@@ -4685,7 +4736,7 @@
       <c r="R325" s="13"/>
       <c r="Y325" s="13"/>
     </row>
-    <row r="326" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:25" hidden="1">
       <c r="B326" s="11">
         <v>45951</v>
       </c>
@@ -4695,7 +4746,7 @@
       <c r="R326" s="13"/>
       <c r="Y326" s="13"/>
     </row>
-    <row r="327" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:25" hidden="1">
       <c r="B327" s="11">
         <v>45951</v>
       </c>
@@ -4705,7 +4756,7 @@
       <c r="R327" s="13"/>
       <c r="Y327" s="13"/>
     </row>
-    <row r="328" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:25" hidden="1">
       <c r="B328" s="11">
         <v>45951</v>
       </c>
@@ -4715,7 +4766,7 @@
       <c r="R328" s="13"/>
       <c r="Y328" s="13"/>
     </row>
-    <row r="329" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:25" hidden="1">
       <c r="B329" s="11">
         <v>45951</v>
       </c>
@@ -4725,7 +4776,7 @@
       <c r="R329" s="13"/>
       <c r="Y329" s="13"/>
     </row>
-    <row r="330" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:25" hidden="1">
       <c r="B330" s="11">
         <v>45951</v>
       </c>
@@ -4735,7 +4786,7 @@
       <c r="R330" s="13"/>
       <c r="Y330" s="13"/>
     </row>
-    <row r="331" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:25" hidden="1">
       <c r="B331" s="11">
         <v>45951</v>
       </c>
@@ -4745,7 +4796,7 @@
       <c r="R331" s="13"/>
       <c r="Y331" s="13"/>
     </row>
-    <row r="332" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:25" hidden="1">
       <c r="B332" s="11">
         <v>45951</v>
       </c>
@@ -4755,7 +4806,7 @@
       <c r="R332" s="13"/>
       <c r="Y332" s="13"/>
     </row>
-    <row r="333" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:25" hidden="1">
       <c r="B333" s="11">
         <v>45952</v>
       </c>
@@ -4765,7 +4816,7 @@
       <c r="R333" s="13"/>
       <c r="Y333" s="13"/>
     </row>
-    <row r="334" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:25" hidden="1">
       <c r="B334" s="11">
         <v>45952</v>
       </c>
@@ -4775,7 +4826,7 @@
       <c r="R334" s="13"/>
       <c r="Y334" s="13"/>
     </row>
-    <row r="335" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:25" hidden="1">
       <c r="B335" s="11">
         <v>45952</v>
       </c>
@@ -4785,7 +4836,7 @@
       <c r="R335" s="13"/>
       <c r="Y335" s="13"/>
     </row>
-    <row r="336" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:25" hidden="1">
       <c r="B336" s="11">
         <v>45952</v>
       </c>
@@ -4795,7 +4846,7 @@
       <c r="R336" s="13"/>
       <c r="Y336" s="13"/>
     </row>
-    <row r="337" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:25" hidden="1">
       <c r="B337" s="11">
         <v>45952</v>
       </c>
@@ -4805,7 +4856,7 @@
       <c r="R337" s="13"/>
       <c r="Y337" s="13"/>
     </row>
-    <row r="338" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:25" hidden="1">
       <c r="B338" s="11">
         <v>45952</v>
       </c>
@@ -4815,7 +4866,7 @@
       <c r="R338" s="13"/>
       <c r="Y338" s="13"/>
     </row>
-    <row r="339" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:25" hidden="1">
       <c r="B339" s="11">
         <v>45952</v>
       </c>
@@ -4825,7 +4876,7 @@
       <c r="R339" s="13"/>
       <c r="Y339" s="13"/>
     </row>
-    <row r="340" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:25" hidden="1">
       <c r="B340" s="11">
         <v>45953</v>
       </c>
@@ -4835,7 +4886,7 @@
       <c r="R340" s="13"/>
       <c r="Y340" s="13"/>
     </row>
-    <row r="341" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:25" hidden="1">
       <c r="B341" s="11">
         <v>45953</v>
       </c>
@@ -4845,7 +4896,7 @@
       <c r="R341" s="13"/>
       <c r="Y341" s="13"/>
     </row>
-    <row r="342" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:25" hidden="1">
       <c r="B342" s="11">
         <v>45953</v>
       </c>
@@ -4855,7 +4906,7 @@
       <c r="R342" s="13"/>
       <c r="Y342" s="13"/>
     </row>
-    <row r="343" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:25" hidden="1">
       <c r="B343" s="11">
         <v>45953</v>
       </c>
@@ -4865,7 +4916,7 @@
       <c r="R343" s="13"/>
       <c r="Y343" s="13"/>
     </row>
-    <row r="344" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:25" hidden="1">
       <c r="B344" s="11">
         <v>45953</v>
       </c>
@@ -4875,7 +4926,7 @@
       <c r="R344" s="13"/>
       <c r="Y344" s="13"/>
     </row>
-    <row r="345" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:25" hidden="1">
       <c r="B345" s="11">
         <v>45953</v>
       </c>
@@ -4885,7 +4936,7 @@
       <c r="R345" s="13"/>
       <c r="Y345" s="13"/>
     </row>
-    <row r="346" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:25" hidden="1">
       <c r="B346" s="11">
         <v>45953</v>
       </c>
@@ -4895,7 +4946,7 @@
       <c r="R346" s="13"/>
       <c r="Y346" s="13"/>
     </row>
-    <row r="347" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:25" hidden="1">
       <c r="B347" s="11">
         <v>45954</v>
       </c>
@@ -4905,7 +4956,7 @@
       <c r="R347" s="13"/>
       <c r="Y347" s="13"/>
     </row>
-    <row r="348" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:25" hidden="1">
       <c r="B348" s="11">
         <v>45954</v>
       </c>
@@ -4915,7 +4966,7 @@
       <c r="R348" s="13"/>
       <c r="Y348" s="13"/>
     </row>
-    <row r="349" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:25" hidden="1">
       <c r="B349" s="11">
         <v>45954</v>
       </c>
@@ -4925,7 +4976,7 @@
       <c r="R349" s="13"/>
       <c r="Y349" s="13"/>
     </row>
-    <row r="350" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:25" hidden="1">
       <c r="B350" s="11">
         <v>45954</v>
       </c>
@@ -4935,7 +4986,7 @@
       <c r="R350" s="13"/>
       <c r="Y350" s="13"/>
     </row>
-    <row r="351" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:25" hidden="1">
       <c r="B351" s="11">
         <v>45954</v>
       </c>
@@ -4945,7 +4996,7 @@
       <c r="R351" s="13"/>
       <c r="Y351" s="13"/>
     </row>
-    <row r="352" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:25" hidden="1">
       <c r="B352" s="11">
         <v>45954</v>
       </c>
@@ -4955,7 +5006,7 @@
       <c r="R352" s="13"/>
       <c r="Y352" s="13"/>
     </row>
-    <row r="353" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:25" hidden="1">
       <c r="B353" s="11">
         <v>45954</v>
       </c>
@@ -4965,7 +5016,7 @@
       <c r="R353" s="13"/>
       <c r="Y353" s="13"/>
     </row>
-    <row r="354" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:25" hidden="1">
       <c r="B354" s="11">
         <v>45955</v>
       </c>
@@ -4975,7 +5026,7 @@
       <c r="R354" s="13"/>
       <c r="Y354" s="13"/>
     </row>
-    <row r="355" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:25" hidden="1">
       <c r="B355" s="11">
         <v>45955</v>
       </c>
@@ -4985,7 +5036,7 @@
       <c r="R355" s="13"/>
       <c r="Y355" s="13"/>
     </row>
-    <row r="356" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:25" hidden="1">
       <c r="B356" s="11">
         <v>45955</v>
       </c>
@@ -4995,7 +5046,7 @@
       <c r="R356" s="13"/>
       <c r="Y356" s="13"/>
     </row>
-    <row r="357" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:25" hidden="1">
       <c r="B357" s="11">
         <v>45955</v>
       </c>
@@ -5005,7 +5056,7 @@
       <c r="R357" s="13"/>
       <c r="Y357" s="13"/>
     </row>
-    <row r="358" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:25" hidden="1">
       <c r="B358" s="11">
         <v>45955</v>
       </c>
@@ -5015,7 +5066,7 @@
       <c r="R358" s="13"/>
       <c r="Y358" s="13"/>
     </row>
-    <row r="359" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:25" hidden="1">
       <c r="B359" s="11">
         <v>45955</v>
       </c>
@@ -5025,7 +5076,7 @@
       <c r="R359" s="13"/>
       <c r="Y359" s="13"/>
     </row>
-    <row r="360" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:25" hidden="1">
       <c r="B360" s="11">
         <v>45955</v>
       </c>
@@ -5035,7 +5086,7 @@
       <c r="R360" s="13"/>
       <c r="Y360" s="13"/>
     </row>
-    <row r="361" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:25" hidden="1">
       <c r="B361" s="11">
         <v>45956</v>
       </c>
@@ -5045,7 +5096,7 @@
       <c r="R361" s="13"/>
       <c r="Y361" s="13"/>
     </row>
-    <row r="362" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:25" hidden="1">
       <c r="B362" s="11">
         <v>45956</v>
       </c>
@@ -5055,7 +5106,7 @@
       <c r="R362" s="13"/>
       <c r="Y362" s="13"/>
     </row>
-    <row r="363" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:25" hidden="1">
       <c r="B363" s="11">
         <v>45956</v>
       </c>
@@ -5065,7 +5116,7 @@
       <c r="R363" s="13"/>
       <c r="Y363" s="13"/>
     </row>
-    <row r="364" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:25" hidden="1">
       <c r="B364" s="11">
         <v>45956</v>
       </c>
@@ -5075,7 +5126,7 @@
       <c r="R364" s="13"/>
       <c r="Y364" s="13"/>
     </row>
-    <row r="365" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:25" hidden="1">
       <c r="B365" s="11">
         <v>45956</v>
       </c>
@@ -5085,7 +5136,7 @@
       <c r="R365" s="13"/>
       <c r="Y365" s="13"/>
     </row>
-    <row r="366" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:25" hidden="1">
       <c r="B366" s="11">
         <v>45956</v>
       </c>
@@ -5095,7 +5146,7 @@
       <c r="R366" s="13"/>
       <c r="Y366" s="13"/>
     </row>
-    <row r="367" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:25" hidden="1">
       <c r="B367" s="11">
         <v>45956</v>
       </c>
@@ -5105,7 +5156,7 @@
       <c r="R367" s="13"/>
       <c r="Y367" s="13"/>
     </row>
-    <row r="368" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:25" hidden="1">
       <c r="B368" s="11">
         <v>45957</v>
       </c>
@@ -5115,7 +5166,7 @@
       <c r="R368" s="13"/>
       <c r="Y368" s="13"/>
     </row>
-    <row r="369" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:25" hidden="1">
       <c r="B369" s="11">
         <v>45957</v>
       </c>
@@ -5125,7 +5176,7 @@
       <c r="R369" s="13"/>
       <c r="Y369" s="13"/>
     </row>
-    <row r="370" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:25" hidden="1">
       <c r="B370" s="11">
         <v>45957</v>
       </c>
@@ -5135,7 +5186,7 @@
       <c r="R370" s="13"/>
       <c r="Y370" s="13"/>
     </row>
-    <row r="371" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:25" hidden="1">
       <c r="B371" s="11">
         <v>45957</v>
       </c>
@@ -5145,7 +5196,7 @@
       <c r="R371" s="13"/>
       <c r="Y371" s="13"/>
     </row>
-    <row r="372" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:25" hidden="1">
       <c r="B372" s="11">
         <v>45957</v>
       </c>
@@ -5155,7 +5206,7 @@
       <c r="R372" s="13"/>
       <c r="Y372" s="13"/>
     </row>
-    <row r="373" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:25" hidden="1">
       <c r="B373" s="11">
         <v>45957</v>
       </c>
@@ -5165,7 +5216,7 @@
       <c r="R373" s="13"/>
       <c r="Y373" s="13"/>
     </row>
-    <row r="374" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:25" hidden="1">
       <c r="B374" s="11">
         <v>45957</v>
       </c>
@@ -5175,7 +5226,7 @@
       <c r="R374" s="13"/>
       <c r="Y374" s="13"/>
     </row>
-    <row r="375" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:25" hidden="1">
       <c r="B375" s="11">
         <v>45958</v>
       </c>
@@ -5185,7 +5236,7 @@
       <c r="R375" s="13"/>
       <c r="Y375" s="13"/>
     </row>
-    <row r="376" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:25" hidden="1">
       <c r="B376" s="11">
         <v>45958</v>
       </c>
@@ -5195,7 +5246,7 @@
       <c r="R376" s="13"/>
       <c r="Y376" s="13"/>
     </row>
-    <row r="377" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:25" hidden="1">
       <c r="B377" s="11">
         <v>45958</v>
       </c>
@@ -5205,7 +5256,7 @@
       <c r="R377" s="13"/>
       <c r="Y377" s="13"/>
     </row>
-    <row r="378" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:25" hidden="1">
       <c r="B378" s="11">
         <v>45958</v>
       </c>
@@ -5215,7 +5266,7 @@
       <c r="R378" s="13"/>
       <c r="Y378" s="13"/>
     </row>
-    <row r="379" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:25" hidden="1">
       <c r="B379" s="11">
         <v>45958</v>
       </c>
@@ -5225,7 +5276,7 @@
       <c r="R379" s="13"/>
       <c r="Y379" s="13"/>
     </row>
-    <row r="380" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:25" hidden="1">
       <c r="B380" s="11">
         <v>45958</v>
       </c>
@@ -5235,7 +5286,7 @@
       <c r="R380" s="13"/>
       <c r="Y380" s="13"/>
     </row>
-    <row r="381" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:25" hidden="1">
       <c r="B381" s="11">
         <v>45958</v>
       </c>
@@ -5245,7 +5296,7 @@
       <c r="R381" s="13"/>
       <c r="Y381" s="13"/>
     </row>
-    <row r="382" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:25" hidden="1">
       <c r="B382" s="11">
         <v>45959</v>
       </c>
@@ -5255,7 +5306,7 @@
       <c r="R382" s="13"/>
       <c r="Y382" s="13"/>
     </row>
-    <row r="383" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:25" hidden="1">
       <c r="B383" s="11">
         <v>45959</v>
       </c>
@@ -5265,7 +5316,7 @@
       <c r="R383" s="13"/>
       <c r="Y383" s="13"/>
     </row>
-    <row r="384" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:25" hidden="1">
       <c r="B384" s="11">
         <v>45959</v>
       </c>
@@ -5275,7 +5326,7 @@
       <c r="R384" s="13"/>
       <c r="Y384" s="13"/>
     </row>
-    <row r="385" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:25" hidden="1">
       <c r="B385" s="11">
         <v>45959</v>
       </c>
@@ -5285,7 +5336,7 @@
       <c r="R385" s="13"/>
       <c r="Y385" s="13"/>
     </row>
-    <row r="386" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:25" hidden="1">
       <c r="B386" s="11">
         <v>45959</v>
       </c>
@@ -5295,7 +5346,7 @@
       <c r="R386" s="13"/>
       <c r="Y386" s="13"/>
     </row>
-    <row r="387" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:25" hidden="1">
       <c r="B387" s="11">
         <v>45959</v>
       </c>
@@ -5305,7 +5356,7 @@
       <c r="R387" s="13"/>
       <c r="Y387" s="13"/>
     </row>
-    <row r="388" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:25" hidden="1">
       <c r="B388" s="11">
         <v>45959</v>
       </c>
@@ -5315,7 +5366,7 @@
       <c r="R388" s="13"/>
       <c r="Y388" s="13"/>
     </row>
-    <row r="389" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:25" hidden="1">
       <c r="B389" s="11">
         <v>45960</v>
       </c>
@@ -5325,7 +5376,7 @@
       <c r="R389" s="13"/>
       <c r="Y389" s="13"/>
     </row>
-    <row r="390" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:25" hidden="1">
       <c r="B390" s="11">
         <v>45960</v>
       </c>
@@ -5335,7 +5386,7 @@
       <c r="R390" s="13"/>
       <c r="Y390" s="13"/>
     </row>
-    <row r="391" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:25" hidden="1">
       <c r="B391" s="11">
         <v>45960</v>
       </c>
@@ -5345,7 +5396,7 @@
       <c r="R391" s="13"/>
       <c r="Y391" s="13"/>
     </row>
-    <row r="392" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:25" hidden="1">
       <c r="B392" s="11">
         <v>45960</v>
       </c>
@@ -5355,7 +5406,7 @@
       <c r="R392" s="13"/>
       <c r="Y392" s="13"/>
     </row>
-    <row r="393" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:25" hidden="1">
       <c r="B393" s="11">
         <v>45960</v>
       </c>
@@ -5365,7 +5416,7 @@
       <c r="R393" s="13"/>
       <c r="Y393" s="13"/>
     </row>
-    <row r="394" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:25" hidden="1">
       <c r="B394" s="11">
         <v>45960</v>
       </c>
@@ -5375,7 +5426,7 @@
       <c r="R394" s="13"/>
       <c r="Y394" s="13"/>
     </row>
-    <row r="395" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:25" hidden="1">
       <c r="B395" s="11">
         <v>45960</v>
       </c>
@@ -5385,7 +5436,7 @@
       <c r="R395" s="13"/>
       <c r="Y395" s="13"/>
     </row>
-    <row r="396" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:25" hidden="1">
       <c r="B396" s="11">
         <v>45961</v>
       </c>
@@ -5395,7 +5446,7 @@
       <c r="R396" s="13"/>
       <c r="Y396" s="13"/>
     </row>
-    <row r="397" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:25" hidden="1">
       <c r="B397" s="11">
         <v>45961</v>
       </c>
@@ -5405,7 +5456,7 @@
       <c r="R397" s="13"/>
       <c r="Y397" s="13"/>
     </row>
-    <row r="398" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:25" hidden="1">
       <c r="B398" s="11">
         <v>45961</v>
       </c>
@@ -5415,7 +5466,7 @@
       <c r="R398" s="13"/>
       <c r="Y398" s="13"/>
     </row>
-    <row r="399" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:25" hidden="1">
       <c r="B399" s="11">
         <v>45961</v>
       </c>
@@ -5425,7 +5476,7 @@
       <c r="R399" s="13"/>
       <c r="Y399" s="13"/>
     </row>
-    <row r="400" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:25" hidden="1">
       <c r="B400" s="11">
         <v>45961</v>
       </c>
@@ -5435,7 +5486,7 @@
       <c r="R400" s="13"/>
       <c r="Y400" s="13"/>
     </row>
-    <row r="401" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:25" hidden="1">
       <c r="B401" s="11">
         <v>45961</v>
       </c>
@@ -5445,7 +5496,7 @@
       <c r="R401" s="13"/>
       <c r="Y401" s="13"/>
     </row>
-    <row r="402" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:25" hidden="1">
       <c r="B402" s="11">
         <v>45961</v>
       </c>
@@ -5455,7 +5506,7 @@
       <c r="R402" s="13"/>
       <c r="Y402" s="13"/>
     </row>
-    <row r="403" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:25" hidden="1">
       <c r="B403" s="11">
         <v>45962</v>
       </c>
@@ -5465,7 +5516,7 @@
       <c r="R403" s="13"/>
       <c r="Y403" s="13"/>
     </row>
-    <row r="404" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:25" hidden="1">
       <c r="B404" s="11">
         <v>45962</v>
       </c>
@@ -5475,7 +5526,7 @@
       <c r="R404" s="13"/>
       <c r="Y404" s="13"/>
     </row>
-    <row r="405" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:25" hidden="1">
       <c r="B405" s="11">
         <v>45962</v>
       </c>
@@ -5485,7 +5536,7 @@
       <c r="R405" s="13"/>
       <c r="Y405" s="13"/>
     </row>
-    <row r="406" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:25" hidden="1">
       <c r="B406" s="11">
         <v>45962</v>
       </c>
@@ -5495,7 +5546,7 @@
       <c r="R406" s="13"/>
       <c r="Y406" s="13"/>
     </row>
-    <row r="407" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:25" hidden="1">
       <c r="B407" s="11">
         <v>45962</v>
       </c>
@@ -5505,7 +5556,7 @@
       <c r="R407" s="13"/>
       <c r="Y407" s="13"/>
     </row>
-    <row r="408" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:25" hidden="1">
       <c r="B408" s="11">
         <v>45962</v>
       </c>
@@ -5515,7 +5566,7 @@
       <c r="R408" s="13"/>
       <c r="Y408" s="13"/>
     </row>
-    <row r="409" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:25" hidden="1">
       <c r="B409" s="11">
         <v>45962</v>
       </c>
@@ -5525,7 +5576,7 @@
       <c r="R409" s="13"/>
       <c r="Y409" s="13"/>
     </row>
-    <row r="410" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:25" hidden="1">
       <c r="B410" s="11">
         <v>45963</v>
       </c>
@@ -5535,7 +5586,7 @@
       <c r="R410" s="13"/>
       <c r="Y410" s="13"/>
     </row>
-    <row r="411" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:25" hidden="1">
       <c r="B411" s="11">
         <v>45963</v>
       </c>
@@ -5545,7 +5596,7 @@
       <c r="R411" s="13"/>
       <c r="Y411" s="13"/>
     </row>
-    <row r="412" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:25" hidden="1">
       <c r="B412" s="11">
         <v>45963</v>
       </c>
@@ -5555,7 +5606,7 @@
       <c r="R412" s="13"/>
       <c r="Y412" s="13"/>
     </row>
-    <row r="413" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:25" hidden="1">
       <c r="B413" s="11">
         <v>45963</v>
       </c>
@@ -5565,7 +5616,7 @@
       <c r="R413" s="13"/>
       <c r="Y413" s="13"/>
     </row>
-    <row r="414" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:25" hidden="1">
       <c r="B414" s="11">
         <v>45963</v>
       </c>
@@ -5575,7 +5626,7 @@
       <c r="R414" s="13"/>
       <c r="Y414" s="13"/>
     </row>
-    <row r="415" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:25" hidden="1">
       <c r="B415" s="11">
         <v>45963</v>
       </c>
@@ -5585,7 +5636,7 @@
       <c r="R415" s="13"/>
       <c r="Y415" s="13"/>
     </row>
-    <row r="416" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:25" hidden="1">
       <c r="B416" s="11">
         <v>45963</v>
       </c>
@@ -5595,7 +5646,7 @@
       <c r="R416" s="13"/>
       <c r="Y416" s="13"/>
     </row>
-    <row r="417" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:25" hidden="1">
       <c r="B417" s="11">
         <v>45964</v>
       </c>
@@ -5605,7 +5656,7 @@
       <c r="R417" s="13"/>
       <c r="Y417" s="13"/>
     </row>
-    <row r="418" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:25" hidden="1">
       <c r="B418" s="11">
         <v>45964</v>
       </c>
@@ -5615,7 +5666,7 @@
       <c r="R418" s="13"/>
       <c r="Y418" s="13"/>
     </row>
-    <row r="419" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:25" hidden="1">
       <c r="B419" s="11">
         <v>45964</v>
       </c>
@@ -5625,7 +5676,7 @@
       <c r="R419" s="13"/>
       <c r="Y419" s="13"/>
     </row>
-    <row r="420" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:25" hidden="1">
       <c r="B420" s="11">
         <v>45964</v>
       </c>
@@ -5635,7 +5686,7 @@
       <c r="R420" s="13"/>
       <c r="Y420" s="13"/>
     </row>
-    <row r="421" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:25" hidden="1">
       <c r="B421" s="11">
         <v>45964</v>
       </c>
@@ -5645,7 +5696,7 @@
       <c r="R421" s="13"/>
       <c r="Y421" s="13"/>
     </row>
-    <row r="422" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:25" hidden="1">
       <c r="B422" s="11">
         <v>45964</v>
       </c>
@@ -5655,7 +5706,7 @@
       <c r="R422" s="13"/>
       <c r="Y422" s="13"/>
     </row>
-    <row r="423" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:25" hidden="1">
       <c r="B423" s="11">
         <v>45964</v>
       </c>
@@ -5665,7 +5716,7 @@
       <c r="R423" s="13"/>
       <c r="Y423" s="13"/>
     </row>
-    <row r="424" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:25" hidden="1">
       <c r="B424" s="11">
         <v>45965</v>
       </c>
@@ -5675,7 +5726,7 @@
       <c r="R424" s="13"/>
       <c r="Y424" s="13"/>
     </row>
-    <row r="425" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:25" hidden="1">
       <c r="B425" s="11">
         <v>45965</v>
       </c>
@@ -5685,7 +5736,7 @@
       <c r="R425" s="13"/>
       <c r="Y425" s="13"/>
     </row>
-    <row r="426" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:25" hidden="1">
       <c r="B426" s="11">
         <v>45965</v>
       </c>
@@ -5695,7 +5746,7 @@
       <c r="R426" s="13"/>
       <c r="Y426" s="13"/>
     </row>
-    <row r="427" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:25" hidden="1">
       <c r="B427" s="11">
         <v>45965</v>
       </c>
@@ -5705,7 +5756,7 @@
       <c r="R427" s="13"/>
       <c r="Y427" s="13"/>
     </row>
-    <row r="428" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:25" hidden="1">
       <c r="B428" s="11">
         <v>45965</v>
       </c>
@@ -5715,7 +5766,7 @@
       <c r="R428" s="13"/>
       <c r="Y428" s="13"/>
     </row>
-    <row r="429" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:25" hidden="1">
       <c r="B429" s="11">
         <v>45965</v>
       </c>
@@ -5725,7 +5776,7 @@
       <c r="R429" s="13"/>
       <c r="Y429" s="13"/>
     </row>
-    <row r="430" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:25" hidden="1">
       <c r="B430" s="11">
         <v>45965</v>
       </c>
@@ -5735,7 +5786,7 @@
       <c r="R430" s="13"/>
       <c r="Y430" s="13"/>
     </row>
-    <row r="431" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:25" hidden="1">
       <c r="B431" s="11">
         <v>45966</v>
       </c>
@@ -5745,7 +5796,7 @@
       <c r="R431" s="13"/>
       <c r="Y431" s="13"/>
     </row>
-    <row r="432" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:25" hidden="1">
       <c r="B432" s="11">
         <v>45966</v>
       </c>
@@ -5755,7 +5806,7 @@
       <c r="R432" s="13"/>
       <c r="Y432" s="13"/>
     </row>
-    <row r="433" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:25" hidden="1">
       <c r="B433" s="11">
         <v>45966</v>
       </c>
@@ -5765,7 +5816,7 @@
       <c r="R433" s="13"/>
       <c r="Y433" s="13"/>
     </row>
-    <row r="434" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:25" hidden="1">
       <c r="B434" s="11">
         <v>45966</v>
       </c>
@@ -5775,7 +5826,7 @@
       <c r="R434" s="13"/>
       <c r="Y434" s="13"/>
     </row>
-    <row r="435" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:25" hidden="1">
       <c r="B435" s="11">
         <v>45966</v>
       </c>
@@ -5785,7 +5836,7 @@
       <c r="R435" s="13"/>
       <c r="Y435" s="13"/>
     </row>
-    <row r="436" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:25" hidden="1">
       <c r="B436" s="11">
         <v>45966</v>
       </c>
@@ -5795,7 +5846,7 @@
       <c r="R436" s="13"/>
       <c r="Y436" s="13"/>
     </row>
-    <row r="437" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:25" hidden="1">
       <c r="B437" s="11">
         <v>45966</v>
       </c>
@@ -5805,7 +5856,7 @@
       <c r="R437" s="13"/>
       <c r="Y437" s="13"/>
     </row>
-    <row r="438" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:25" hidden="1">
       <c r="B438" s="11">
         <v>45967</v>
       </c>
@@ -5815,7 +5866,7 @@
       <c r="R438" s="13"/>
       <c r="Y438" s="13"/>
     </row>
-    <row r="439" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:25" hidden="1">
       <c r="B439" s="11">
         <v>45967</v>
       </c>
@@ -5825,7 +5876,7 @@
       <c r="R439" s="13"/>
       <c r="Y439" s="13"/>
     </row>
-    <row r="440" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:25" hidden="1">
       <c r="B440" s="11">
         <v>45967</v>
       </c>
@@ -5835,7 +5886,7 @@
       <c r="R440" s="13"/>
       <c r="Y440" s="13"/>
     </row>
-    <row r="441" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:25" hidden="1">
       <c r="B441" s="11">
         <v>45967</v>
       </c>
@@ -5845,7 +5896,7 @@
       <c r="R441" s="13"/>
       <c r="Y441" s="13"/>
     </row>
-    <row r="442" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:25" hidden="1">
       <c r="B442" s="11">
         <v>45967</v>
       </c>
@@ -5855,7 +5906,7 @@
       <c r="R442" s="13"/>
       <c r="Y442" s="13"/>
     </row>
-    <row r="443" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:25" hidden="1">
       <c r="B443" s="11">
         <v>45967</v>
       </c>
@@ -5865,7 +5916,7 @@
       <c r="R443" s="13"/>
       <c r="Y443" s="13"/>
     </row>
-    <row r="444" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:25" hidden="1">
       <c r="B444" s="11">
         <v>45967</v>
       </c>
@@ -5875,7 +5926,7 @@
       <c r="R444" s="13"/>
       <c r="Y444" s="13"/>
     </row>
-    <row r="445" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:25" hidden="1">
       <c r="B445" s="11">
         <v>45968</v>
       </c>
@@ -5885,7 +5936,7 @@
       <c r="R445" s="13"/>
       <c r="Y445" s="13"/>
     </row>
-    <row r="446" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:25" hidden="1">
       <c r="B446" s="11">
         <v>45968</v>
       </c>
@@ -5895,7 +5946,7 @@
       <c r="R446" s="13"/>
       <c r="Y446" s="13"/>
     </row>
-    <row r="447" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:25" hidden="1">
       <c r="B447" s="11">
         <v>45968</v>
       </c>
@@ -5905,7 +5956,7 @@
       <c r="R447" s="13"/>
       <c r="Y447" s="13"/>
     </row>
-    <row r="448" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:25" hidden="1">
       <c r="B448" s="11">
         <v>45968</v>
       </c>
@@ -5915,7 +5966,7 @@
       <c r="R448" s="13"/>
       <c r="Y448" s="13"/>
     </row>
-    <row r="449" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:25" hidden="1">
       <c r="B449" s="11">
         <v>45968</v>
       </c>
@@ -5925,7 +5976,7 @@
       <c r="R449" s="13"/>
       <c r="Y449" s="13"/>
     </row>
-    <row r="450" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:25" hidden="1">
       <c r="B450" s="11">
         <v>45968</v>
       </c>
@@ -5935,7 +5986,7 @@
       <c r="R450" s="13"/>
       <c r="Y450" s="13"/>
     </row>
-    <row r="451" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:25" hidden="1">
       <c r="B451" s="11">
         <v>45968</v>
       </c>
@@ -5945,7 +5996,7 @@
       <c r="R451" s="13"/>
       <c r="Y451" s="13"/>
     </row>
-    <row r="452" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:25" hidden="1">
       <c r="B452" s="11">
         <v>45969</v>
       </c>
@@ -5955,7 +6006,7 @@
       <c r="R452" s="13"/>
       <c r="Y452" s="13"/>
     </row>
-    <row r="453" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:25" hidden="1">
       <c r="B453" s="11">
         <v>45969</v>
       </c>
@@ -5965,7 +6016,7 @@
       <c r="R453" s="13"/>
       <c r="Y453" s="13"/>
     </row>
-    <row r="454" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:25" hidden="1">
       <c r="B454" s="11">
         <v>45969</v>
       </c>
@@ -5975,7 +6026,7 @@
       <c r="R454" s="13"/>
       <c r="Y454" s="13"/>
     </row>
-    <row r="455" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:25" hidden="1">
       <c r="B455" s="11">
         <v>45969</v>
       </c>
@@ -5985,7 +6036,7 @@
       <c r="R455" s="13"/>
       <c r="Y455" s="13"/>
     </row>
-    <row r="456" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:25" hidden="1">
       <c r="B456" s="11">
         <v>45969</v>
       </c>
@@ -5995,7 +6046,7 @@
       <c r="R456" s="13"/>
       <c r="Y456" s="13"/>
     </row>
-    <row r="457" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:25" hidden="1">
       <c r="B457" s="11">
         <v>45969</v>
       </c>
@@ -6005,7 +6056,7 @@
       <c r="R457" s="13"/>
       <c r="Y457" s="13"/>
     </row>
-    <row r="458" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:25" hidden="1">
       <c r="B458" s="11">
         <v>45969</v>
       </c>
@@ -6015,7 +6066,7 @@
       <c r="R458" s="13"/>
       <c r="Y458" s="13"/>
     </row>
-    <row r="459" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:25" hidden="1">
       <c r="B459" s="11">
         <v>45970</v>
       </c>
@@ -6025,7 +6076,7 @@
       <c r="R459" s="13"/>
       <c r="Y459" s="13"/>
     </row>
-    <row r="460" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:25" hidden="1">
       <c r="B460" s="11">
         <v>45970</v>
       </c>
@@ -6035,7 +6086,7 @@
       <c r="R460" s="13"/>
       <c r="Y460" s="13"/>
     </row>
-    <row r="461" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:25" hidden="1">
       <c r="B461" s="11">
         <v>45970</v>
       </c>
@@ -6045,7 +6096,7 @@
       <c r="R461" s="13"/>
       <c r="Y461" s="13"/>
     </row>
-    <row r="462" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:25" hidden="1">
       <c r="B462" s="11">
         <v>45970</v>
       </c>
@@ -6055,7 +6106,7 @@
       <c r="R462" s="13"/>
       <c r="Y462" s="13"/>
     </row>
-    <row r="463" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:25" hidden="1">
       <c r="B463" s="11">
         <v>45970</v>
       </c>
@@ -6065,7 +6116,7 @@
       <c r="R463" s="13"/>
       <c r="Y463" s="13"/>
     </row>
-    <row r="464" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:25" hidden="1">
       <c r="B464" s="11">
         <v>45970</v>
       </c>
@@ -6075,7 +6126,7 @@
       <c r="R464" s="13"/>
       <c r="Y464" s="13"/>
     </row>
-    <row r="465" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:25" hidden="1">
       <c r="B465" s="11">
         <v>45970</v>
       </c>
@@ -6085,7 +6136,7 @@
       <c r="R465" s="13"/>
       <c r="Y465" s="13"/>
     </row>
-    <row r="466" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:25" hidden="1">
       <c r="B466" s="11">
         <v>45971</v>
       </c>
@@ -6095,7 +6146,7 @@
       <c r="R466" s="13"/>
       <c r="Y466" s="13"/>
     </row>
-    <row r="467" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:25" hidden="1">
       <c r="B467" s="11">
         <v>45971</v>
       </c>
@@ -6105,7 +6156,7 @@
       <c r="R467" s="13"/>
       <c r="Y467" s="13"/>
     </row>
-    <row r="468" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:25" hidden="1">
       <c r="B468" s="11">
         <v>45971</v>
       </c>
@@ -6115,7 +6166,7 @@
       <c r="R468" s="13"/>
       <c r="Y468" s="13"/>
     </row>
-    <row r="469" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:25" hidden="1">
       <c r="B469" s="11">
         <v>45971</v>
       </c>
@@ -6125,7 +6176,7 @@
       <c r="R469" s="13"/>
       <c r="Y469" s="13"/>
     </row>
-    <row r="470" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:25" hidden="1">
       <c r="B470" s="11">
         <v>45971</v>
       </c>
@@ -6135,7 +6186,7 @@
       <c r="R470" s="13"/>
       <c r="Y470" s="13"/>
     </row>
-    <row r="471" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:25" hidden="1">
       <c r="B471" s="11">
         <v>45971</v>
       </c>
@@ -6145,7 +6196,7 @@
       <c r="R471" s="13"/>
       <c r="Y471" s="13"/>
     </row>
-    <row r="472" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:25" hidden="1">
       <c r="B472" s="11">
         <v>45971</v>
       </c>
@@ -6155,7 +6206,7 @@
       <c r="R472" s="13"/>
       <c r="Y472" s="13"/>
     </row>
-    <row r="473" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:25" hidden="1">
       <c r="B473" s="11">
         <v>45972</v>
       </c>
@@ -6165,7 +6216,7 @@
       <c r="R473" s="13"/>
       <c r="Y473" s="13"/>
     </row>
-    <row r="474" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:25" hidden="1">
       <c r="B474" s="11">
         <v>45972</v>
       </c>
@@ -6175,7 +6226,7 @@
       <c r="R474" s="13"/>
       <c r="Y474" s="13"/>
     </row>
-    <row r="475" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:25" hidden="1">
       <c r="B475" s="11">
         <v>45972</v>
       </c>
@@ -6185,7 +6236,7 @@
       <c r="R475" s="13"/>
       <c r="Y475" s="13"/>
     </row>
-    <row r="476" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:25" hidden="1">
       <c r="B476" s="11">
         <v>45972</v>
       </c>
@@ -6195,7 +6246,7 @@
       <c r="R476" s="13"/>
       <c r="Y476" s="13"/>
     </row>
-    <row r="477" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:25" hidden="1">
       <c r="B477" s="11">
         <v>45972</v>
       </c>
@@ -6205,7 +6256,7 @@
       <c r="R477" s="13"/>
       <c r="Y477" s="13"/>
     </row>
-    <row r="478" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:25" hidden="1">
       <c r="B478" s="11">
         <v>45972</v>
       </c>
@@ -6215,7 +6266,7 @@
       <c r="R478" s="13"/>
       <c r="Y478" s="13"/>
     </row>
-    <row r="479" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:25" hidden="1">
       <c r="B479" s="11">
         <v>45972</v>
       </c>
@@ -6225,7 +6276,7 @@
       <c r="R479" s="13"/>
       <c r="Y479" s="13"/>
     </row>
-    <row r="480" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:25" hidden="1">
       <c r="B480" s="11">
         <v>45973</v>
       </c>
@@ -6235,7 +6286,7 @@
       <c r="R480" s="13"/>
       <c r="Y480" s="13"/>
     </row>
-    <row r="481" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:25" hidden="1">
       <c r="B481" s="11">
         <v>45973</v>
       </c>
@@ -6245,7 +6296,7 @@
       <c r="R481" s="13"/>
       <c r="Y481" s="13"/>
     </row>
-    <row r="482" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:25" hidden="1">
       <c r="B482" s="11">
         <v>45973</v>
       </c>
@@ -6255,7 +6306,7 @@
       <c r="R482" s="13"/>
       <c r="Y482" s="13"/>
     </row>
-    <row r="483" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:25" hidden="1">
       <c r="B483" s="11">
         <v>45973</v>
       </c>
@@ -6265,7 +6316,7 @@
       <c r="R483" s="13"/>
       <c r="Y483" s="13"/>
     </row>
-    <row r="484" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:25" hidden="1">
       <c r="B484" s="11">
         <v>45973</v>
       </c>
@@ -6275,7 +6326,7 @@
       <c r="R484" s="13"/>
       <c r="Y484" s="13"/>
     </row>
-    <row r="485" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:25" hidden="1">
       <c r="B485" s="11">
         <v>45973</v>
       </c>
@@ -6285,7 +6336,7 @@
       <c r="R485" s="13"/>
       <c r="Y485" s="13"/>
     </row>
-    <row r="486" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:25" hidden="1">
       <c r="B486" s="11">
         <v>45973</v>
       </c>
@@ -6295,7 +6346,7 @@
       <c r="R486" s="13"/>
       <c r="Y486" s="13"/>
     </row>
-    <row r="487" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:25" hidden="1">
       <c r="B487" s="11">
         <v>45974</v>
       </c>
@@ -6305,7 +6356,7 @@
       <c r="R487" s="13"/>
       <c r="Y487" s="13"/>
     </row>
-    <row r="488" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:25" hidden="1">
       <c r="B488" s="11">
         <v>45974</v>
       </c>
@@ -6315,7 +6366,7 @@
       <c r="R488" s="13"/>
       <c r="Y488" s="13"/>
     </row>
-    <row r="489" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:25" hidden="1">
       <c r="B489" s="11">
         <v>45974</v>
       </c>
@@ -6325,7 +6376,7 @@
       <c r="R489" s="13"/>
       <c r="Y489" s="13"/>
     </row>
-    <row r="490" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:25" hidden="1">
       <c r="B490" s="11">
         <v>45974</v>
       </c>
@@ -6335,7 +6386,7 @@
       <c r="R490" s="13"/>
       <c r="Y490" s="13"/>
     </row>
-    <row r="491" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:25" hidden="1">
       <c r="B491" s="11">
         <v>45974</v>
       </c>
@@ -6345,7 +6396,7 @@
       <c r="R491" s="13"/>
       <c r="Y491" s="13"/>
     </row>
-    <row r="492" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:25" hidden="1">
       <c r="B492" s="11">
         <v>45974</v>
       </c>
@@ -6355,7 +6406,7 @@
       <c r="R492" s="13"/>
       <c r="Y492" s="13"/>
     </row>
-    <row r="493" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:25" hidden="1">
       <c r="B493" s="11">
         <v>45974</v>
       </c>
@@ -6365,7 +6416,7 @@
       <c r="R493" s="13"/>
       <c r="Y493" s="13"/>
     </row>
-    <row r="494" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:25" hidden="1">
       <c r="B494" s="11">
         <v>45975</v>
       </c>
@@ -6375,7 +6426,7 @@
       <c r="R494" s="13"/>
       <c r="Y494" s="13"/>
     </row>
-    <row r="495" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:25" hidden="1">
       <c r="B495" s="11">
         <v>45975</v>
       </c>
@@ -6385,7 +6436,7 @@
       <c r="R495" s="13"/>
       <c r="Y495" s="13"/>
     </row>
-    <row r="496" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:25" hidden="1">
       <c r="B496" s="11">
         <v>45975</v>
       </c>
@@ -6395,7 +6446,7 @@
       <c r="R496" s="13"/>
       <c r="Y496" s="13"/>
     </row>
-    <row r="497" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:25" hidden="1">
       <c r="B497" s="11">
         <v>45975</v>
       </c>
@@ -6405,7 +6456,7 @@
       <c r="R497" s="13"/>
       <c r="Y497" s="13"/>
     </row>
-    <row r="498" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:25" hidden="1">
       <c r="B498" s="11">
         <v>45975</v>
       </c>
@@ -6415,7 +6466,7 @@
       <c r="R498" s="13"/>
       <c r="Y498" s="13"/>
     </row>
-    <row r="499" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:25" hidden="1">
       <c r="B499" s="11">
         <v>45975</v>
       </c>
@@ -6425,7 +6476,7 @@
       <c r="R499" s="13"/>
       <c r="Y499" s="13"/>
     </row>
-    <row r="500" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:25" hidden="1">
       <c r="B500" s="11">
         <v>45975</v>
       </c>
@@ -6435,7 +6486,7 @@
       <c r="R500" s="13"/>
       <c r="Y500" s="13"/>
     </row>
-    <row r="501" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:25" hidden="1">
       <c r="B501" s="11">
         <v>45976</v>
       </c>
@@ -6445,7 +6496,7 @@
       <c r="R501" s="13"/>
       <c r="Y501" s="13"/>
     </row>
-    <row r="502" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:25" hidden="1">
       <c r="B502" s="11">
         <v>45976</v>
       </c>
@@ -6455,7 +6506,7 @@
       <c r="R502" s="13"/>
       <c r="Y502" s="13"/>
     </row>
-    <row r="503" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:25" hidden="1">
       <c r="B503" s="11">
         <v>45976</v>
       </c>
@@ -6465,7 +6516,7 @@
       <c r="R503" s="13"/>
       <c r="Y503" s="13"/>
     </row>
-    <row r="504" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:25" hidden="1">
       <c r="B504" s="11">
         <v>45976</v>
       </c>
@@ -6475,7 +6526,7 @@
       <c r="R504" s="13"/>
       <c r="Y504" s="13"/>
     </row>
-    <row r="505" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:25" hidden="1">
       <c r="B505" s="11">
         <v>45976</v>
       </c>
@@ -6485,7 +6536,7 @@
       <c r="R505" s="13"/>
       <c r="Y505" s="13"/>
     </row>
-    <row r="506" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:25" hidden="1">
       <c r="B506" s="11">
         <v>45976</v>
       </c>
@@ -6495,7 +6546,7 @@
       <c r="R506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:25" hidden="1">
       <c r="B507" s="11">
         <v>45976</v>
       </c>
@@ -6505,7 +6556,7 @@
       <c r="R507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:25" hidden="1">
       <c r="B508" s="11">
         <v>45977</v>
       </c>
@@ -6515,7 +6566,7 @@
       <c r="R508" s="13"/>
       <c r="Y508" s="13"/>
     </row>
-    <row r="509" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:25" hidden="1">
       <c r="B509" s="11">
         <v>45977</v>
       </c>
@@ -6525,7 +6576,7 @@
       <c r="R509" s="13"/>
       <c r="Y509" s="13"/>
     </row>
-    <row r="510" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:25" hidden="1">
       <c r="B510" s="11">
         <v>45977</v>
       </c>
@@ -6535,7 +6586,7 @@
       <c r="R510" s="13"/>
       <c r="Y510" s="13"/>
     </row>
-    <row r="511" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:25" hidden="1">
       <c r="B511" s="11">
         <v>45977</v>
       </c>
@@ -6545,7 +6596,7 @@
       <c r="R511" s="13"/>
       <c r="Y511" s="13"/>
     </row>
-    <row r="512" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:25" hidden="1">
       <c r="B512" s="11">
         <v>45977</v>
       </c>
@@ -6555,7 +6606,7 @@
       <c r="R512" s="13"/>
       <c r="Y512" s="13"/>
     </row>
-    <row r="513" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:25" hidden="1">
       <c r="B513" s="11">
         <v>45977</v>
       </c>
@@ -6565,7 +6616,7 @@
       <c r="R513" s="13"/>
       <c r="Y513" s="13"/>
     </row>
-    <row r="514" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:25" hidden="1">
       <c r="B514" s="11">
         <v>45977</v>
       </c>
@@ -6575,7 +6626,7 @@
       <c r="R514" s="13"/>
       <c r="Y514" s="13"/>
     </row>
-    <row r="515" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:25" hidden="1">
       <c r="B515" s="11">
         <v>45978</v>
       </c>
@@ -6585,7 +6636,7 @@
       <c r="R515" s="13"/>
       <c r="Y515" s="13"/>
     </row>
-    <row r="516" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:25" hidden="1">
       <c r="B516" s="11">
         <v>45978</v>
       </c>
@@ -6595,7 +6646,7 @@
       <c r="R516" s="13"/>
       <c r="Y516" s="13"/>
     </row>
-    <row r="517" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:25" hidden="1">
       <c r="B517" s="11">
         <v>45978</v>
       </c>
@@ -6605,7 +6656,7 @@
       <c r="R517" s="13"/>
       <c r="Y517" s="13"/>
     </row>
-    <row r="518" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:25" hidden="1">
       <c r="B518" s="11">
         <v>45978</v>
       </c>
@@ -6615,7 +6666,7 @@
       <c r="R518" s="13"/>
       <c r="Y518" s="13"/>
     </row>
-    <row r="519" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:25" hidden="1">
       <c r="B519" s="11">
         <v>45978</v>
       </c>
@@ -6625,7 +6676,7 @@
       <c r="R519" s="13"/>
       <c r="Y519" s="13"/>
     </row>
-    <row r="520" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:25" hidden="1">
       <c r="B520" s="11">
         <v>45978</v>
       </c>
@@ -6635,7 +6686,7 @@
       <c r="R520" s="13"/>
       <c r="Y520" s="13"/>
     </row>
-    <row r="521" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:25" hidden="1">
       <c r="B521" s="11">
         <v>45978</v>
       </c>
@@ -6645,7 +6696,7 @@
       <c r="R521" s="13"/>
       <c r="Y521" s="13"/>
     </row>
-    <row r="522" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:25" hidden="1">
       <c r="B522" s="11">
         <v>45979</v>
       </c>
@@ -6655,7 +6706,7 @@
       <c r="R522" s="13"/>
       <c r="Y522" s="13"/>
     </row>
-    <row r="523" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:25" hidden="1">
       <c r="B523" s="11">
         <v>45979</v>
       </c>
@@ -6665,7 +6716,7 @@
       <c r="R523" s="13"/>
       <c r="Y523" s="13"/>
     </row>
-    <row r="524" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:25" hidden="1">
       <c r="B524" s="11">
         <v>45979</v>
       </c>
@@ -6675,7 +6726,7 @@
       <c r="R524" s="13"/>
       <c r="Y524" s="13"/>
     </row>
-    <row r="525" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:25" hidden="1">
       <c r="B525" s="11">
         <v>45979</v>
       </c>
@@ -6685,7 +6736,7 @@
       <c r="R525" s="13"/>
       <c r="Y525" s="13"/>
     </row>
-    <row r="526" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:25" hidden="1">
       <c r="B526" s="11">
         <v>45979</v>
       </c>
@@ -6695,7 +6746,7 @@
       <c r="R526" s="13"/>
       <c r="Y526" s="13"/>
     </row>
-    <row r="527" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:25" hidden="1">
       <c r="B527" s="11">
         <v>45979</v>
       </c>
@@ -6705,7 +6756,7 @@
       <c r="R527" s="13"/>
       <c r="Y527" s="13"/>
     </row>
-    <row r="528" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:25" hidden="1">
       <c r="B528" s="11">
         <v>45979</v>
       </c>
@@ -6715,7 +6766,7 @@
       <c r="R528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:25" hidden="1">
       <c r="B529" s="11">
         <v>45980</v>
       </c>
@@ -6725,7 +6776,7 @@
       <c r="R529" s="13"/>
       <c r="Y529" s="13"/>
     </row>
-    <row r="530" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:25" hidden="1">
       <c r="B530" s="11">
         <v>45980</v>
       </c>
@@ -6735,7 +6786,7 @@
       <c r="R530" s="13"/>
       <c r="Y530" s="13"/>
     </row>
-    <row r="531" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:25" hidden="1">
       <c r="B531" s="11">
         <v>45980</v>
       </c>
@@ -6745,7 +6796,7 @@
       <c r="R531" s="13"/>
       <c r="Y531" s="13"/>
     </row>
-    <row r="532" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:25" hidden="1">
       <c r="B532" s="11">
         <v>45980</v>
       </c>
@@ -6755,7 +6806,7 @@
       <c r="R532" s="13"/>
       <c r="Y532" s="13"/>
     </row>
-    <row r="533" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:25" hidden="1">
       <c r="B533" s="11">
         <v>45980</v>
       </c>
@@ -6765,7 +6816,7 @@
       <c r="R533" s="13"/>
       <c r="Y533" s="13"/>
     </row>
-    <row r="534" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:25" hidden="1">
       <c r="B534" s="11">
         <v>45980</v>
       </c>
@@ -6775,7 +6826,7 @@
       <c r="R534" s="13"/>
       <c r="Y534" s="13"/>
     </row>
-    <row r="535" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:25" hidden="1">
       <c r="B535" s="11">
         <v>45980</v>
       </c>
@@ -6785,7 +6836,7 @@
       <c r="R535" s="13"/>
       <c r="Y535" s="13"/>
     </row>
-    <row r="536" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:25" hidden="1">
       <c r="B536" s="11">
         <v>45981</v>
       </c>
@@ -6795,7 +6846,7 @@
       <c r="R536" s="13"/>
       <c r="Y536" s="13"/>
     </row>
-    <row r="537" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:25" hidden="1">
       <c r="B537" s="11">
         <v>45981</v>
       </c>
@@ -6805,7 +6856,7 @@
       <c r="R537" s="13"/>
       <c r="Y537" s="13"/>
     </row>
-    <row r="538" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:25" hidden="1">
       <c r="B538" s="11">
         <v>45981</v>
       </c>
@@ -6815,7 +6866,7 @@
       <c r="R538" s="13"/>
       <c r="Y538" s="13"/>
     </row>
-    <row r="539" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:25" hidden="1">
       <c r="B539" s="11">
         <v>45981</v>
       </c>
@@ -6825,7 +6876,7 @@
       <c r="R539" s="13"/>
       <c r="Y539" s="13"/>
     </row>
-    <row r="540" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:25" hidden="1">
       <c r="B540" s="11">
         <v>45981</v>
       </c>
@@ -6835,7 +6886,7 @@
       <c r="R540" s="13"/>
       <c r="Y540" s="13"/>
     </row>
-    <row r="541" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:25" hidden="1">
       <c r="B541" s="11">
         <v>45981</v>
       </c>
@@ -6845,7 +6896,7 @@
       <c r="R541" s="13"/>
       <c r="Y541" s="13"/>
     </row>
-    <row r="542" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:25" hidden="1">
       <c r="B542" s="11">
         <v>45981</v>
       </c>
@@ -6855,7 +6906,7 @@
       <c r="R542" s="13"/>
       <c r="Y542" s="13"/>
     </row>
-    <row r="543" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:25" hidden="1">
       <c r="B543" s="11">
         <v>45982</v>
       </c>
@@ -6865,7 +6916,7 @@
       <c r="R543" s="13"/>
       <c r="Y543" s="13"/>
     </row>
-    <row r="544" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:25" hidden="1">
       <c r="B544" s="11">
         <v>45982</v>
       </c>
@@ -6875,7 +6926,7 @@
       <c r="R544" s="13"/>
       <c r="Y544" s="13"/>
     </row>
-    <row r="545" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:25" hidden="1">
       <c r="B545" s="11">
         <v>45982</v>
       </c>
@@ -6885,7 +6936,7 @@
       <c r="R545" s="13"/>
       <c r="Y545" s="13"/>
     </row>
-    <row r="546" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:25" hidden="1">
       <c r="B546" s="11">
         <v>45982</v>
       </c>
@@ -6895,7 +6946,7 @@
       <c r="R546" s="13"/>
       <c r="Y546" s="13"/>
     </row>
-    <row r="547" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:25" hidden="1">
       <c r="B547" s="11">
         <v>45982</v>
       </c>
@@ -6905,7 +6956,7 @@
       <c r="R547" s="13"/>
       <c r="Y547" s="13"/>
     </row>
-    <row r="548" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:25" hidden="1">
       <c r="B548" s="11">
         <v>45982</v>
       </c>
@@ -6915,7 +6966,7 @@
       <c r="R548" s="13"/>
       <c r="Y548" s="13"/>
     </row>
-    <row r="549" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:25" hidden="1">
       <c r="B549" s="11">
         <v>45982</v>
       </c>
@@ -6925,7 +6976,7 @@
       <c r="R549" s="13"/>
       <c r="Y549" s="13"/>
     </row>
-    <row r="550" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:25" hidden="1">
       <c r="B550" s="11">
         <v>45983</v>
       </c>
@@ -6935,7 +6986,7 @@
       <c r="R550" s="13"/>
       <c r="Y550" s="13"/>
     </row>
-    <row r="551" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:25" hidden="1">
       <c r="B551" s="11">
         <v>45983</v>
       </c>
@@ -6945,7 +6996,7 @@
       <c r="R551" s="13"/>
       <c r="Y551" s="13"/>
     </row>
-    <row r="552" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:25" hidden="1">
       <c r="B552" s="11">
         <v>45983</v>
       </c>
@@ -6955,7 +7006,7 @@
       <c r="R552" s="13"/>
       <c r="Y552" s="13"/>
     </row>
-    <row r="553" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:25" hidden="1">
       <c r="B553" s="11">
         <v>45983</v>
       </c>
@@ -6965,7 +7016,7 @@
       <c r="R553" s="13"/>
       <c r="Y553" s="13"/>
     </row>
-    <row r="554" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:25" hidden="1">
       <c r="B554" s="11">
         <v>45983</v>
       </c>
@@ -6975,7 +7026,7 @@
       <c r="R554" s="13"/>
       <c r="Y554" s="13"/>
     </row>
-    <row r="555" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:25" hidden="1">
       <c r="B555" s="11">
         <v>45983</v>
       </c>
@@ -6985,7 +7036,7 @@
       <c r="R555" s="13"/>
       <c r="Y555" s="13"/>
     </row>
-    <row r="556" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:25" hidden="1">
       <c r="B556" s="11">
         <v>45983</v>
       </c>
@@ -6995,7 +7046,7 @@
       <c r="R556" s="13"/>
       <c r="Y556" s="13"/>
     </row>
-    <row r="557" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:25" hidden="1">
       <c r="B557" s="11">
         <v>45984</v>
       </c>
@@ -7005,7 +7056,7 @@
       <c r="R557" s="13"/>
       <c r="Y557" s="13"/>
     </row>
-    <row r="558" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:25" hidden="1">
       <c r="B558" s="11">
         <v>45984</v>
       </c>
@@ -7015,7 +7066,7 @@
       <c r="R558" s="13"/>
       <c r="Y558" s="13"/>
     </row>
-    <row r="559" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:25" hidden="1">
       <c r="B559" s="11">
         <v>45984</v>
       </c>
@@ -7025,7 +7076,7 @@
       <c r="R559" s="13"/>
       <c r="Y559" s="13"/>
     </row>
-    <row r="560" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:25" hidden="1">
       <c r="B560" s="11">
         <v>45984</v>
       </c>
@@ -7035,7 +7086,7 @@
       <c r="R560" s="13"/>
       <c r="Y560" s="13"/>
     </row>
-    <row r="561" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:25" hidden="1">
       <c r="B561" s="11">
         <v>45984</v>
       </c>
@@ -7045,7 +7096,7 @@
       <c r="R561" s="13"/>
       <c r="Y561" s="13"/>
     </row>
-    <row r="562" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:25" hidden="1">
       <c r="B562" s="11">
         <v>45984</v>
       </c>
@@ -7055,7 +7106,7 @@
       <c r="R562" s="13"/>
       <c r="Y562" s="13"/>
     </row>
-    <row r="563" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:25" hidden="1">
       <c r="B563" s="11">
         <v>45984</v>
       </c>
@@ -7065,7 +7116,7 @@
       <c r="R563" s="13"/>
       <c r="Y563" s="13"/>
     </row>
-    <row r="564" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:25" hidden="1">
       <c r="B564" s="11">
         <v>45985</v>
       </c>
@@ -7075,7 +7126,7 @@
       <c r="R564" s="13"/>
       <c r="Y564" s="13"/>
     </row>
-    <row r="565" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:25" hidden="1">
       <c r="B565" s="11">
         <v>45985</v>
       </c>
@@ -7085,7 +7136,7 @@
       <c r="R565" s="13"/>
       <c r="Y565" s="13"/>
     </row>
-    <row r="566" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:25" hidden="1">
       <c r="B566" s="11">
         <v>45985</v>
       </c>
@@ -7095,7 +7146,7 @@
       <c r="R566" s="13"/>
       <c r="Y566" s="13"/>
     </row>
-    <row r="567" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:25" hidden="1">
       <c r="B567" s="11">
         <v>45985</v>
       </c>
@@ -7105,7 +7156,7 @@
       <c r="R567" s="13"/>
       <c r="Y567" s="13"/>
     </row>
-    <row r="568" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:25" hidden="1">
       <c r="B568" s="11">
         <v>45985</v>
       </c>
@@ -7115,7 +7166,7 @@
       <c r="R568" s="13"/>
       <c r="Y568" s="13"/>
     </row>
-    <row r="569" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:25" hidden="1">
       <c r="B569" s="11">
         <v>45985</v>
       </c>
@@ -7125,7 +7176,7 @@
       <c r="R569" s="13"/>
       <c r="Y569" s="13"/>
     </row>
-    <row r="570" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:25" hidden="1">
       <c r="B570" s="11">
         <v>45985</v>
       </c>
@@ -7135,7 +7186,7 @@
       <c r="R570" s="13"/>
       <c r="Y570" s="13"/>
     </row>
-    <row r="571" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:25" hidden="1">
       <c r="B571" s="11">
         <v>45986</v>
       </c>
@@ -7145,7 +7196,7 @@
       <c r="R571" s="13"/>
       <c r="Y571" s="13"/>
     </row>
-    <row r="572" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:25" hidden="1">
       <c r="B572" s="11">
         <v>45986</v>
       </c>
@@ -7155,7 +7206,7 @@
       <c r="R572" s="13"/>
       <c r="Y572" s="13"/>
     </row>
-    <row r="573" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:25" hidden="1">
       <c r="B573" s="11">
         <v>45986</v>
       </c>
@@ -7165,7 +7216,7 @@
       <c r="R573" s="13"/>
       <c r="Y573" s="13"/>
     </row>
-    <row r="574" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:25" hidden="1">
       <c r="B574" s="11">
         <v>45986</v>
       </c>
@@ -7175,7 +7226,7 @@
       <c r="R574" s="13"/>
       <c r="Y574" s="13"/>
     </row>
-    <row r="575" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:25" hidden="1">
       <c r="B575" s="11">
         <v>45986</v>
       </c>
@@ -7185,7 +7236,7 @@
       <c r="R575" s="13"/>
       <c r="Y575" s="13"/>
     </row>
-    <row r="576" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:25" hidden="1">
       <c r="B576" s="11">
         <v>45986</v>
       </c>
@@ -7195,7 +7246,7 @@
       <c r="R576" s="13"/>
       <c r="Y576" s="13"/>
     </row>
-    <row r="577" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:25" hidden="1">
       <c r="B577" s="11">
         <v>45986</v>
       </c>
@@ -7205,7 +7256,7 @@
       <c r="R577" s="13"/>
       <c r="Y577" s="13"/>
     </row>
-    <row r="578" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:25" hidden="1">
       <c r="B578" s="11">
         <v>45987</v>
       </c>
@@ -7215,7 +7266,7 @@
       <c r="R578" s="13"/>
       <c r="Y578" s="13"/>
     </row>
-    <row r="579" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:25" hidden="1">
       <c r="B579" s="11">
         <v>45987</v>
       </c>
@@ -7225,7 +7276,7 @@
       <c r="R579" s="13"/>
       <c r="Y579" s="13"/>
     </row>
-    <row r="580" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:25" hidden="1">
       <c r="B580" s="11">
         <v>45987</v>
       </c>
@@ -7235,7 +7286,7 @@
       <c r="R580" s="13"/>
       <c r="Y580" s="13"/>
     </row>
-    <row r="581" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:25" hidden="1">
       <c r="B581" s="11">
         <v>45987</v>
       </c>
@@ -7245,7 +7296,7 @@
       <c r="R581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:25" hidden="1">
       <c r="B582" s="11">
         <v>45987</v>
       </c>
@@ -7255,7 +7306,7 @@
       <c r="R582" s="13"/>
       <c r="Y582" s="13"/>
     </row>
-    <row r="583" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:25" hidden="1">
       <c r="B583" s="11">
         <v>45987</v>
       </c>
@@ -7265,7 +7316,7 @@
       <c r="R583" s="13"/>
       <c r="Y583" s="13"/>
     </row>
-    <row r="584" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:25" hidden="1">
       <c r="B584" s="11">
         <v>45987</v>
       </c>
@@ -7275,7 +7326,7 @@
       <c r="R584" s="13"/>
       <c r="Y584" s="13"/>
     </row>
-    <row r="585" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:25" hidden="1">
       <c r="B585" s="11">
         <v>45988</v>
       </c>
@@ -7285,7 +7336,7 @@
       <c r="R585" s="13"/>
       <c r="Y585" s="13"/>
     </row>
-    <row r="586" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:25" hidden="1">
       <c r="B586" s="11">
         <v>45988</v>
       </c>
@@ -7295,7 +7346,7 @@
       <c r="R586" s="13"/>
       <c r="Y586" s="13"/>
     </row>
-    <row r="587" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:25" hidden="1">
       <c r="B587" s="11">
         <v>45988</v>
       </c>
@@ -7305,7 +7356,7 @@
       <c r="R587" s="13"/>
       <c r="Y587" s="13"/>
     </row>
-    <row r="588" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:25" hidden="1">
       <c r="B588" s="11">
         <v>45988</v>
       </c>
@@ -7315,7 +7366,7 @@
       <c r="R588" s="13"/>
       <c r="Y588" s="13"/>
     </row>
-    <row r="589" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:25" hidden="1">
       <c r="B589" s="11">
         <v>45988</v>
       </c>
@@ -7325,7 +7376,7 @@
       <c r="R589" s="13"/>
       <c r="Y589" s="13"/>
     </row>
-    <row r="590" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:25" hidden="1">
       <c r="B590" s="11">
         <v>45988</v>
       </c>
@@ -7335,7 +7386,7 @@
       <c r="R590" s="13"/>
       <c r="Y590" s="13"/>
     </row>
-    <row r="591" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:25" hidden="1">
       <c r="B591" s="11">
         <v>45988</v>
       </c>
@@ -7345,7 +7396,7 @@
       <c r="R591" s="13"/>
       <c r="Y591" s="13"/>
     </row>
-    <row r="592" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:25" hidden="1">
       <c r="B592" s="11">
         <v>45989</v>
       </c>
@@ -7355,7 +7406,7 @@
       <c r="R592" s="13"/>
       <c r="Y592" s="13"/>
     </row>
-    <row r="593" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:25" hidden="1">
       <c r="B593" s="11">
         <v>45989</v>
       </c>
@@ -7365,7 +7416,7 @@
       <c r="R593" s="13"/>
       <c r="Y593" s="13"/>
     </row>
-    <row r="594" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:25" hidden="1">
       <c r="B594" s="11">
         <v>45989</v>
       </c>
@@ -7375,7 +7426,7 @@
       <c r="R594" s="13"/>
       <c r="Y594" s="13"/>
     </row>
-    <row r="595" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:25" hidden="1">
       <c r="B595" s="11">
         <v>45989</v>
       </c>
@@ -7385,7 +7436,7 @@
       <c r="R595" s="13"/>
       <c r="Y595" s="13"/>
     </row>
-    <row r="596" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:25" hidden="1">
       <c r="B596" s="11">
         <v>45989</v>
       </c>
@@ -7395,7 +7446,7 @@
       <c r="R596" s="13"/>
       <c r="Y596" s="13"/>
     </row>
-    <row r="597" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:25" hidden="1">
       <c r="B597" s="11">
         <v>45989</v>
       </c>
@@ -7405,7 +7456,7 @@
       <c r="R597" s="13"/>
       <c r="Y597" s="13"/>
     </row>
-    <row r="598" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:25" hidden="1">
       <c r="B598" s="11">
         <v>45989</v>
       </c>
@@ -7415,7 +7466,7 @@
       <c r="R598" s="13"/>
       <c r="Y598" s="13"/>
     </row>
-    <row r="599" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:25" hidden="1">
       <c r="B599" s="11">
         <v>45990</v>
       </c>
@@ -7425,7 +7476,7 @@
       <c r="R599" s="13"/>
       <c r="Y599" s="13"/>
     </row>
-    <row r="600" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:25" hidden="1">
       <c r="B600" s="11">
         <v>45990</v>
       </c>
@@ -7435,7 +7486,7 @@
       <c r="R600" s="13"/>
       <c r="Y600" s="13"/>
     </row>
-    <row r="601" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:25" hidden="1">
       <c r="B601" s="11">
         <v>45990</v>
       </c>
@@ -7445,7 +7496,7 @@
       <c r="R601" s="13"/>
       <c r="Y601" s="13"/>
     </row>
-    <row r="602" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:25" hidden="1">
       <c r="B602" s="11">
         <v>45990</v>
       </c>
@@ -7455,7 +7506,7 @@
       <c r="R602" s="13"/>
       <c r="Y602" s="13"/>
     </row>
-    <row r="603" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:25" hidden="1">
       <c r="B603" s="11">
         <v>45990</v>
       </c>
@@ -7465,7 +7516,7 @@
       <c r="R603" s="13"/>
       <c r="Y603" s="13"/>
     </row>
-    <row r="604" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:25" hidden="1">
       <c r="B604" s="11">
         <v>45990</v>
       </c>
@@ -7475,7 +7526,7 @@
       <c r="R604" s="13"/>
       <c r="Y604" s="13"/>
     </row>
-    <row r="605" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:25" hidden="1">
       <c r="B605" s="11">
         <v>45990</v>
       </c>
@@ -7485,7 +7536,7 @@
       <c r="R605" s="13"/>
       <c r="Y605" s="13"/>
     </row>
-    <row r="606" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:25" hidden="1">
       <c r="B606" s="11">
         <v>45991</v>
       </c>
@@ -7495,7 +7546,7 @@
       <c r="R606" s="13"/>
       <c r="Y606" s="13"/>
     </row>
-    <row r="607" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:25" hidden="1">
       <c r="B607" s="11">
         <v>45991</v>
       </c>
@@ -7505,7 +7556,7 @@
       <c r="R607" s="13"/>
       <c r="Y607" s="13"/>
     </row>
-    <row r="608" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:25" hidden="1">
       <c r="B608" s="11">
         <v>45991</v>
       </c>
@@ -7515,7 +7566,7 @@
       <c r="R608" s="13"/>
       <c r="Y608" s="13"/>
     </row>
-    <row r="609" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:25" hidden="1">
       <c r="B609" s="11">
         <v>45991</v>
       </c>
@@ -7525,7 +7576,7 @@
       <c r="R609" s="13"/>
       <c r="Y609" s="13"/>
     </row>
-    <row r="610" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:25" hidden="1">
       <c r="B610" s="11">
         <v>45991</v>
       </c>
@@ -7535,7 +7586,7 @@
       <c r="R610" s="13"/>
       <c r="Y610" s="13"/>
     </row>
-    <row r="611" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:25" hidden="1">
       <c r="B611" s="11">
         <v>45991</v>
       </c>
@@ -7545,7 +7596,7 @@
       <c r="R611" s="13"/>
       <c r="Y611" s="13"/>
     </row>
-    <row r="612" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:25" hidden="1">
       <c r="B612" s="11">
         <v>45991</v>
       </c>
@@ -7555,7 +7606,7 @@
       <c r="R612" s="13"/>
       <c r="Y612" s="13"/>
     </row>
-    <row r="613" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:25" hidden="1">
       <c r="B613" s="11">
         <v>45992</v>
       </c>
@@ -7565,7 +7616,7 @@
       <c r="R613" s="13"/>
       <c r="Y613" s="13"/>
     </row>
-    <row r="614" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:25" hidden="1">
       <c r="B614" s="11">
         <v>45992</v>
       </c>
@@ -7575,7 +7626,7 @@
       <c r="R614" s="13"/>
       <c r="Y614" s="13"/>
     </row>
-    <row r="615" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:25" hidden="1">
       <c r="B615" s="11">
         <v>45992</v>
       </c>
@@ -7585,7 +7636,7 @@
       <c r="R615" s="13"/>
       <c r="Y615" s="13"/>
     </row>
-    <row r="616" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:25" hidden="1">
       <c r="B616" s="11">
         <v>45992</v>
       </c>
@@ -7595,7 +7646,7 @@
       <c r="R616" s="13"/>
       <c r="Y616" s="13"/>
     </row>
-    <row r="617" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:25" hidden="1">
       <c r="B617" s="11">
         <v>45992</v>
       </c>
@@ -7605,7 +7656,7 @@
       <c r="R617" s="13"/>
       <c r="Y617" s="13"/>
     </row>
-    <row r="618" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:25" hidden="1">
       <c r="B618" s="11">
         <v>45992</v>
       </c>
@@ -7615,7 +7666,7 @@
       <c r="R618" s="13"/>
       <c r="Y618" s="13"/>
     </row>
-    <row r="619" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:25" hidden="1">
       <c r="B619" s="11">
         <v>45992</v>
       </c>
@@ -7625,7 +7676,7 @@
       <c r="R619" s="13"/>
       <c r="Y619" s="13"/>
     </row>
-    <row r="620" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:25" hidden="1">
       <c r="B620" s="11">
         <v>45993</v>
       </c>
@@ -7635,7 +7686,7 @@
       <c r="R620" s="13"/>
       <c r="Y620" s="13"/>
     </row>
-    <row r="621" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:25" hidden="1">
       <c r="B621" s="11">
         <v>45993</v>
       </c>
@@ -7645,7 +7696,7 @@
       <c r="R621" s="13"/>
       <c r="Y621" s="13"/>
     </row>
-    <row r="622" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:25" hidden="1">
       <c r="B622" s="11">
         <v>45993</v>
       </c>
@@ -7655,7 +7706,7 @@
       <c r="R622" s="13"/>
       <c r="Y622" s="13"/>
     </row>
-    <row r="623" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:25" hidden="1">
       <c r="B623" s="11">
         <v>45993</v>
       </c>
@@ -7665,7 +7716,7 @@
       <c r="R623" s="13"/>
       <c r="Y623" s="13"/>
     </row>
-    <row r="624" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:25" hidden="1">
       <c r="B624" s="11">
         <v>45993</v>
       </c>
@@ -7675,7 +7726,7 @@
       <c r="R624" s="13"/>
       <c r="Y624" s="13"/>
     </row>
-    <row r="625" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:25" hidden="1">
       <c r="B625" s="11">
         <v>45993</v>
       </c>
@@ -7685,7 +7736,7 @@
       <c r="R625" s="13"/>
       <c r="Y625" s="13"/>
     </row>
-    <row r="626" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:25" hidden="1">
       <c r="B626" s="11">
         <v>45993</v>
       </c>
@@ -7695,7 +7746,7 @@
       <c r="R626" s="13"/>
       <c r="Y626" s="13"/>
     </row>
-    <row r="627" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:25" hidden="1">
       <c r="B627" s="11">
         <v>45994</v>
       </c>
@@ -7705,7 +7756,7 @@
       <c r="R627" s="13"/>
       <c r="Y627" s="13"/>
     </row>
-    <row r="628" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:25" hidden="1">
       <c r="B628" s="11">
         <v>45994</v>
       </c>
@@ -7715,7 +7766,7 @@
       <c r="R628" s="13"/>
       <c r="Y628" s="13"/>
     </row>
-    <row r="629" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:25" hidden="1">
       <c r="B629" s="11">
         <v>45994</v>
       </c>
@@ -7725,7 +7776,7 @@
       <c r="R629" s="13"/>
       <c r="Y629" s="13"/>
     </row>
-    <row r="630" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:25" hidden="1">
       <c r="B630" s="11">
         <v>45994</v>
       </c>
@@ -7735,7 +7786,7 @@
       <c r="R630" s="13"/>
       <c r="Y630" s="13"/>
     </row>
-    <row r="631" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:25" hidden="1">
       <c r="B631" s="11">
         <v>45994</v>
       </c>
@@ -7745,7 +7796,7 @@
       <c r="R631" s="13"/>
       <c r="Y631" s="13"/>
     </row>
-    <row r="632" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:25" hidden="1">
       <c r="B632" s="11">
         <v>45994</v>
       </c>
@@ -7755,7 +7806,7 @@
       <c r="R632" s="13"/>
       <c r="Y632" s="13"/>
     </row>
-    <row r="633" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:25" hidden="1">
       <c r="B633" s="11">
         <v>45994</v>
       </c>
@@ -7765,7 +7816,7 @@
       <c r="R633" s="13"/>
       <c r="Y633" s="13"/>
     </row>
-    <row r="634" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:25" hidden="1">
       <c r="B634" s="11">
         <v>45995</v>
       </c>
@@ -7775,7 +7826,7 @@
       <c r="R634" s="13"/>
       <c r="Y634" s="13"/>
     </row>
-    <row r="635" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:25" hidden="1">
       <c r="B635" s="11">
         <v>45995</v>
       </c>
@@ -7785,7 +7836,7 @@
       <c r="R635" s="13"/>
       <c r="Y635" s="13"/>
     </row>
-    <row r="636" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:25" hidden="1">
       <c r="B636" s="11">
         <v>45995</v>
       </c>
@@ -7795,7 +7846,7 @@
       <c r="R636" s="13"/>
       <c r="Y636" s="13"/>
     </row>
-    <row r="637" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:25" hidden="1">
       <c r="B637" s="11">
         <v>45995</v>
       </c>
@@ -7805,7 +7856,7 @@
       <c r="R637" s="13"/>
       <c r="Y637" s="13"/>
     </row>
-    <row r="638" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:25" hidden="1">
       <c r="B638" s="11">
         <v>45995</v>
       </c>
@@ -7815,7 +7866,7 @@
       <c r="R638" s="13"/>
       <c r="Y638" s="13"/>
     </row>
-    <row r="639" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:25" hidden="1">
       <c r="B639" s="11">
         <v>45995</v>
       </c>
@@ -7825,7 +7876,7 @@
       <c r="R639" s="13"/>
       <c r="Y639" s="13"/>
     </row>
-    <row r="640" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:25" hidden="1">
       <c r="B640" s="11">
         <v>45995</v>
       </c>
@@ -7835,7 +7886,7 @@
       <c r="R640" s="13"/>
       <c r="Y640" s="13"/>
     </row>
-    <row r="641" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:25" hidden="1">
       <c r="B641" s="11">
         <v>45996</v>
       </c>
@@ -7845,7 +7896,7 @@
       <c r="R641" s="13"/>
       <c r="Y641" s="13"/>
     </row>
-    <row r="642" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:25" hidden="1">
       <c r="B642" s="11">
         <v>45996</v>
       </c>
@@ -7855,7 +7906,7 @@
       <c r="R642" s="13"/>
       <c r="Y642" s="13"/>
     </row>
-    <row r="643" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:25" hidden="1">
       <c r="B643" s="11">
         <v>45996</v>
       </c>
@@ -7865,7 +7916,7 @@
       <c r="R643" s="13"/>
       <c r="Y643" s="13"/>
     </row>
-    <row r="644" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:25" hidden="1">
       <c r="B644" s="11">
         <v>45996</v>
       </c>
@@ -7875,7 +7926,7 @@
       <c r="R644" s="13"/>
       <c r="Y644" s="13"/>
     </row>
-    <row r="645" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:25" hidden="1">
       <c r="B645" s="11">
         <v>45996</v>
       </c>
@@ -7885,7 +7936,7 @@
       <c r="R645" s="13"/>
       <c r="Y645" s="13"/>
     </row>
-    <row r="646" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:25" hidden="1">
       <c r="B646" s="11">
         <v>45996</v>
       </c>
@@ -7895,7 +7946,7 @@
       <c r="R646" s="13"/>
       <c r="Y646" s="13"/>
     </row>
-    <row r="647" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:25" hidden="1">
       <c r="B647" s="11">
         <v>45996</v>
       </c>
@@ -7905,7 +7956,7 @@
       <c r="R647" s="13"/>
       <c r="Y647" s="13"/>
     </row>
-    <row r="648" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:25" hidden="1">
       <c r="B648" s="11">
         <v>45997</v>
       </c>
@@ -7915,7 +7966,7 @@
       <c r="R648" s="13"/>
       <c r="Y648" s="13"/>
     </row>
-    <row r="649" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:25" hidden="1">
       <c r="B649" s="11">
         <v>45997</v>
       </c>
@@ -7925,7 +7976,7 @@
       <c r="R649" s="13"/>
       <c r="Y649" s="13"/>
     </row>
-    <row r="650" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:25" hidden="1">
       <c r="B650" s="11">
         <v>45997</v>
       </c>
@@ -7935,7 +7986,7 @@
       <c r="R650" s="13"/>
       <c r="Y650" s="13"/>
     </row>
-    <row r="651" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:25" hidden="1">
       <c r="B651" s="11">
         <v>45997</v>
       </c>
@@ -7945,7 +7996,7 @@
       <c r="R651" s="13"/>
       <c r="Y651" s="13"/>
     </row>
-    <row r="652" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:25" hidden="1">
       <c r="B652" s="11">
         <v>45997</v>
       </c>
@@ -7955,7 +8006,7 @@
       <c r="R652" s="13"/>
       <c r="Y652" s="13"/>
     </row>
-    <row r="653" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:25" hidden="1">
       <c r="B653" s="11">
         <v>45997</v>
       </c>
@@ -7965,7 +8016,7 @@
       <c r="R653" s="13"/>
       <c r="Y653" s="13"/>
     </row>
-    <row r="654" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:25" hidden="1">
       <c r="B654" s="11">
         <v>45997</v>
       </c>
@@ -7975,7 +8026,7 @@
       <c r="R654" s="13"/>
       <c r="Y654" s="13"/>
     </row>
-    <row r="655" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:25" hidden="1">
       <c r="B655" s="11">
         <v>45998</v>
       </c>
@@ -7985,7 +8036,7 @@
       <c r="R655" s="13"/>
       <c r="Y655" s="13"/>
     </row>
-    <row r="656" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:25" hidden="1">
       <c r="B656" s="11">
         <v>45998</v>
       </c>
@@ -7995,7 +8046,7 @@
       <c r="R656" s="13"/>
       <c r="Y656" s="13"/>
     </row>
-    <row r="657" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:25" hidden="1">
       <c r="B657" s="11">
         <v>45998</v>
       </c>
@@ -8005,7 +8056,7 @@
       <c r="R657" s="13"/>
       <c r="Y657" s="13"/>
     </row>
-    <row r="658" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:25" hidden="1">
       <c r="B658" s="11">
         <v>45998</v>
       </c>
@@ -8015,7 +8066,7 @@
       <c r="R658" s="13"/>
       <c r="Y658" s="13"/>
     </row>
-    <row r="659" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:25" hidden="1">
       <c r="B659" s="11">
         <v>45998</v>
       </c>
@@ -8025,7 +8076,7 @@
       <c r="R659" s="13"/>
       <c r="Y659" s="13"/>
     </row>
-    <row r="660" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:25" hidden="1">
       <c r="B660" s="11">
         <v>45998</v>
       </c>
@@ -8035,7 +8086,7 @@
       <c r="R660" s="13"/>
       <c r="Y660" s="13"/>
     </row>
-    <row r="661" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:25" hidden="1">
       <c r="B661" s="11">
         <v>45998</v>
       </c>
@@ -8045,7 +8096,7 @@
       <c r="R661" s="13"/>
       <c r="Y661" s="13"/>
     </row>
-    <row r="662" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:25" hidden="1">
       <c r="B662" s="11">
         <v>45999</v>
       </c>
@@ -8055,7 +8106,7 @@
       <c r="R662" s="13"/>
       <c r="Y662" s="13"/>
     </row>
-    <row r="663" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:25" hidden="1">
       <c r="B663" s="11">
         <v>45999</v>
       </c>
@@ -8065,7 +8116,7 @@
       <c r="R663" s="13"/>
       <c r="Y663" s="13"/>
     </row>
-    <row r="664" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:25" hidden="1">
       <c r="B664" s="11">
         <v>45999</v>
       </c>
@@ -8075,7 +8126,7 @@
       <c r="R664" s="13"/>
       <c r="Y664" s="13"/>
     </row>
-    <row r="665" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:25" hidden="1">
       <c r="B665" s="11">
         <v>45999</v>
       </c>
@@ -8085,7 +8136,7 @@
       <c r="R665" s="13"/>
       <c r="Y665" s="13"/>
     </row>
-    <row r="666" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:25" hidden="1">
       <c r="B666" s="11">
         <v>45999</v>
       </c>
@@ -8095,7 +8146,7 @@
       <c r="R666" s="13"/>
       <c r="Y666" s="13"/>
     </row>
-    <row r="667" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:25" hidden="1">
       <c r="B667" s="11">
         <v>45999</v>
       </c>
@@ -8105,7 +8156,7 @@
       <c r="R667" s="13"/>
       <c r="Y667" s="13"/>
     </row>
-    <row r="668" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:25" hidden="1">
       <c r="B668" s="11">
         <v>45999</v>
       </c>
@@ -8115,7 +8166,7 @@
       <c r="R668" s="13"/>
       <c r="Y668" s="13"/>
     </row>
-    <row r="669" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:25" hidden="1">
       <c r="B669" s="11">
         <v>46000</v>
       </c>
@@ -8125,7 +8176,7 @@
       <c r="R669" s="13"/>
       <c r="Y669" s="13"/>
     </row>
-    <row r="670" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:25" hidden="1">
       <c r="B670" s="11">
         <v>46000</v>
       </c>
@@ -8135,7 +8186,7 @@
       <c r="R670" s="13"/>
       <c r="Y670" s="13"/>
     </row>
-    <row r="671" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:25" hidden="1">
       <c r="B671" s="11">
         <v>46000</v>
       </c>
@@ -8145,7 +8196,7 @@
       <c r="R671" s="13"/>
       <c r="Y671" s="13"/>
     </row>
-    <row r="672" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:25" hidden="1">
       <c r="B672" s="11">
         <v>46000</v>
       </c>
@@ -8155,7 +8206,7 @@
       <c r="R672" s="13"/>
       <c r="Y672" s="13"/>
     </row>
-    <row r="673" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:25" hidden="1">
       <c r="B673" s="11">
         <v>46000</v>
       </c>
@@ -8165,7 +8216,7 @@
       <c r="R673" s="13"/>
       <c r="Y673" s="13"/>
     </row>
-    <row r="674" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:25" hidden="1">
       <c r="B674" s="11">
         <v>46000</v>
       </c>
@@ -8175,7 +8226,7 @@
       <c r="R674" s="13"/>
       <c r="Y674" s="13"/>
     </row>
-    <row r="675" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:25" hidden="1">
       <c r="B675" s="11">
         <v>46000</v>
       </c>
@@ -8185,7 +8236,7 @@
       <c r="R675" s="13"/>
       <c r="Y675" s="13"/>
     </row>
-    <row r="676" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:25" hidden="1">
       <c r="B676" s="11">
         <v>46001</v>
       </c>
@@ -8195,7 +8246,7 @@
       <c r="R676" s="13"/>
       <c r="Y676" s="13"/>
     </row>
-    <row r="677" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:25" hidden="1">
       <c r="B677" s="11">
         <v>46001</v>
       </c>
@@ -8205,7 +8256,7 @@
       <c r="R677" s="13"/>
       <c r="Y677" s="13"/>
     </row>
-    <row r="678" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:25" hidden="1">
       <c r="B678" s="11">
         <v>46001</v>
       </c>
@@ -8215,7 +8266,7 @@
       <c r="R678" s="13"/>
       <c r="Y678" s="13"/>
     </row>
-    <row r="679" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:25" hidden="1">
       <c r="B679" s="11">
         <v>46001</v>
       </c>
@@ -8225,7 +8276,7 @@
       <c r="R679" s="13"/>
       <c r="Y679" s="13"/>
     </row>
-    <row r="680" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:25" hidden="1">
       <c r="B680" s="11">
         <v>46001</v>
       </c>
@@ -8235,7 +8286,7 @@
       <c r="R680" s="13"/>
       <c r="Y680" s="13"/>
     </row>
-    <row r="681" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:25" hidden="1">
       <c r="B681" s="11">
         <v>46001</v>
       </c>
@@ -8245,7 +8296,7 @@
       <c r="R681" s="13"/>
       <c r="Y681" s="13"/>
     </row>
-    <row r="682" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:25" hidden="1">
       <c r="B682" s="11">
         <v>46001</v>
       </c>
@@ -8255,7 +8306,7 @@
       <c r="R682" s="13"/>
       <c r="Y682" s="13"/>
     </row>
-    <row r="683" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:25" hidden="1">
       <c r="B683" s="11">
         <v>46002</v>
       </c>
@@ -8265,7 +8316,7 @@
       <c r="R683" s="13"/>
       <c r="Y683" s="13"/>
     </row>
-    <row r="684" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:25" hidden="1">
       <c r="B684" s="11">
         <v>46002</v>
       </c>
@@ -8275,7 +8326,7 @@
       <c r="R684" s="13"/>
       <c r="Y684" s="13"/>
     </row>
-    <row r="685" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:25" hidden="1">
       <c r="B685" s="11">
         <v>46002</v>
       </c>
@@ -8285,7 +8336,7 @@
       <c r="R685" s="13"/>
       <c r="Y685" s="13"/>
     </row>
-    <row r="686" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:25" hidden="1">
       <c r="B686" s="11">
         <v>46002</v>
       </c>
@@ -8295,7 +8346,7 @@
       <c r="R686" s="13"/>
       <c r="Y686" s="13"/>
     </row>
-    <row r="687" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:25" hidden="1">
       <c r="B687" s="11">
         <v>46002</v>
       </c>
@@ -8305,7 +8356,7 @@
       <c r="R687" s="13"/>
       <c r="Y687" s="13"/>
     </row>
-    <row r="688" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:25" hidden="1">
       <c r="B688" s="11">
         <v>46002</v>
       </c>
@@ -8315,7 +8366,7 @@
       <c r="R688" s="13"/>
       <c r="Y688" s="13"/>
     </row>
-    <row r="689" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:25" hidden="1">
       <c r="B689" s="11">
         <v>46002</v>
       </c>
@@ -8325,7 +8376,7 @@
       <c r="R689" s="13"/>
       <c r="Y689" s="13"/>
     </row>
-    <row r="690" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:25" hidden="1">
       <c r="B690" s="11">
         <v>46003</v>
       </c>
@@ -8335,7 +8386,7 @@
       <c r="R690" s="13"/>
       <c r="Y690" s="13"/>
     </row>
-    <row r="691" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:25" hidden="1">
       <c r="B691" s="11">
         <v>46003</v>
       </c>
@@ -8345,7 +8396,7 @@
       <c r="R691" s="13"/>
       <c r="Y691" s="13"/>
     </row>
-    <row r="692" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:25" hidden="1">
       <c r="B692" s="11">
         <v>46003</v>
       </c>
@@ -8355,7 +8406,7 @@
       <c r="R692" s="13"/>
       <c r="Y692" s="13"/>
     </row>
-    <row r="693" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:25" hidden="1">
       <c r="B693" s="11">
         <v>46003</v>
       </c>
@@ -8365,7 +8416,7 @@
       <c r="R693" s="13"/>
       <c r="Y693" s="13"/>
     </row>
-    <row r="694" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:25" hidden="1">
       <c r="B694" s="11">
         <v>46003</v>
       </c>
@@ -8375,7 +8426,7 @@
       <c r="R694" s="13"/>
       <c r="Y694" s="13"/>
     </row>
-    <row r="695" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:25" hidden="1">
       <c r="B695" s="11">
         <v>46003</v>
       </c>
@@ -8385,7 +8436,7 @@
       <c r="R695" s="13"/>
       <c r="Y695" s="13"/>
     </row>
-    <row r="696" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:25" hidden="1">
       <c r="B696" s="11">
         <v>46003</v>
       </c>
@@ -8395,7 +8446,7 @@
       <c r="R696" s="13"/>
       <c r="Y696" s="13"/>
     </row>
-    <row r="697" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:25" hidden="1">
       <c r="B697" s="11">
         <v>46004</v>
       </c>
@@ -8405,7 +8456,7 @@
       <c r="R697" s="13"/>
       <c r="Y697" s="13"/>
     </row>
-    <row r="698" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:25" hidden="1">
       <c r="B698" s="11">
         <v>46004</v>
       </c>
@@ -8415,7 +8466,7 @@
       <c r="R698" s="13"/>
       <c r="Y698" s="13"/>
     </row>
-    <row r="699" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:25" hidden="1">
       <c r="B699" s="11">
         <v>46004</v>
       </c>
@@ -8425,7 +8476,7 @@
       <c r="R699" s="13"/>
       <c r="Y699" s="13"/>
     </row>
-    <row r="700" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:25" hidden="1">
       <c r="B700" s="11">
         <v>46004</v>
       </c>
@@ -8435,7 +8486,7 @@
       <c r="R700" s="13"/>
       <c r="Y700" s="13"/>
     </row>
-    <row r="701" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:25" hidden="1">
       <c r="B701" s="11">
         <v>46004</v>
       </c>
@@ -8445,7 +8496,7 @@
       <c r="R701" s="13"/>
       <c r="Y701" s="13"/>
     </row>
-    <row r="702" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:25" hidden="1">
       <c r="B702" s="11">
         <v>46004</v>
       </c>
@@ -8455,7 +8506,7 @@
       <c r="R702" s="13"/>
       <c r="Y702" s="13"/>
     </row>
-    <row r="703" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:25" hidden="1">
       <c r="B703" s="11">
         <v>46004</v>
       </c>
@@ -8465,7 +8516,7 @@
       <c r="R703" s="13"/>
       <c r="Y703" s="13"/>
     </row>
-    <row r="704" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:25" hidden="1">
       <c r="B704" s="11">
         <v>46005</v>
       </c>
@@ -8475,7 +8526,7 @@
       <c r="R704" s="13"/>
       <c r="Y704" s="13"/>
     </row>
-    <row r="705" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:25" hidden="1">
       <c r="B705" s="11">
         <v>46005</v>
       </c>
@@ -8485,7 +8536,7 @@
       <c r="R705" s="13"/>
       <c r="Y705" s="13"/>
     </row>
-    <row r="706" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:25" hidden="1">
       <c r="B706" s="11">
         <v>46005</v>
       </c>
@@ -8495,7 +8546,7 @@
       <c r="R706" s="13"/>
       <c r="Y706" s="13"/>
     </row>
-    <row r="707" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:25" hidden="1">
       <c r="B707" s="11">
         <v>46005</v>
       </c>
@@ -8505,7 +8556,7 @@
       <c r="R707" s="13"/>
       <c r="Y707" s="13"/>
     </row>
-    <row r="708" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:25" hidden="1">
       <c r="B708" s="11">
         <v>46005</v>
       </c>
@@ -8515,7 +8566,7 @@
       <c r="R708" s="13"/>
       <c r="Y708" s="13"/>
     </row>
-    <row r="709" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:25" hidden="1">
       <c r="B709" s="11">
         <v>46005</v>
       </c>
@@ -8525,7 +8576,7 @@
       <c r="R709" s="13"/>
       <c r="Y709" s="13"/>
     </row>
-    <row r="710" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:25" hidden="1">
       <c r="B710" s="11">
         <v>46005</v>
       </c>
@@ -8535,7 +8586,7 @@
       <c r="R710" s="13"/>
       <c r="Y710" s="13"/>
     </row>
-    <row r="711" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:25" hidden="1">
       <c r="B711" s="11">
         <v>46006</v>
       </c>
@@ -8545,7 +8596,7 @@
       <c r="R711" s="13"/>
       <c r="Y711" s="13"/>
     </row>
-    <row r="712" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:25" hidden="1">
       <c r="B712" s="11">
         <v>46006</v>
       </c>
@@ -8555,7 +8606,7 @@
       <c r="R712" s="13"/>
       <c r="Y712" s="13"/>
     </row>
-    <row r="713" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:25" hidden="1">
       <c r="B713" s="11">
         <v>46006</v>
       </c>
@@ -8565,7 +8616,7 @@
       <c r="R713" s="13"/>
       <c r="Y713" s="13"/>
     </row>
-    <row r="714" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:25" hidden="1">
       <c r="B714" s="11">
         <v>46006</v>
       </c>
@@ -8575,7 +8626,7 @@
       <c r="R714" s="13"/>
       <c r="Y714" s="13"/>
     </row>
-    <row r="715" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:25" hidden="1">
       <c r="B715" s="11">
         <v>46006</v>
       </c>
@@ -8585,7 +8636,7 @@
       <c r="R715" s="13"/>
       <c r="Y715" s="13"/>
     </row>
-    <row r="716" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:25" hidden="1">
       <c r="B716" s="11">
         <v>46006</v>
       </c>
@@ -8595,7 +8646,7 @@
       <c r="R716" s="13"/>
       <c r="Y716" s="13"/>
     </row>
-    <row r="717" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:25" hidden="1">
       <c r="B717" s="11">
         <v>46006</v>
       </c>
@@ -8605,7 +8656,7 @@
       <c r="R717" s="13"/>
       <c r="Y717" s="13"/>
     </row>
-    <row r="718" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:25" hidden="1">
       <c r="B718" s="11">
         <v>46007</v>
       </c>
@@ -8615,7 +8666,7 @@
       <c r="R718" s="13"/>
       <c r="Y718" s="13"/>
     </row>
-    <row r="719" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:25" hidden="1">
       <c r="B719" s="11">
         <v>46007</v>
       </c>
@@ -8625,7 +8676,7 @@
       <c r="R719" s="13"/>
       <c r="Y719" s="13"/>
     </row>
-    <row r="720" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:25" hidden="1">
       <c r="B720" s="11">
         <v>46007</v>
       </c>
@@ -8635,7 +8686,7 @@
       <c r="R720" s="13"/>
       <c r="Y720" s="13"/>
     </row>
-    <row r="721" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:25" hidden="1">
       <c r="B721" s="11">
         <v>46007</v>
       </c>
@@ -8645,7 +8696,7 @@
       <c r="R721" s="13"/>
       <c r="Y721" s="13"/>
     </row>
-    <row r="722" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:25" hidden="1">
       <c r="B722" s="11">
         <v>46007</v>
       </c>
@@ -8655,7 +8706,7 @@
       <c r="R722" s="13"/>
       <c r="Y722" s="13"/>
     </row>
-    <row r="723" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:25" hidden="1">
       <c r="B723" s="11">
         <v>46007</v>
       </c>
@@ -8665,7 +8716,7 @@
       <c r="R723" s="13"/>
       <c r="Y723" s="13"/>
     </row>
-    <row r="724" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:25" hidden="1">
       <c r="B724" s="11">
         <v>46007</v>
       </c>
@@ -8675,7 +8726,7 @@
       <c r="R724" s="13"/>
       <c r="Y724" s="13"/>
     </row>
-    <row r="725" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:25" hidden="1">
       <c r="B725" s="11">
         <v>46008</v>
       </c>
@@ -8685,7 +8736,7 @@
       <c r="R725" s="13"/>
       <c r="Y725" s="13"/>
     </row>
-    <row r="726" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:25" hidden="1">
       <c r="B726" s="11">
         <v>46008</v>
       </c>
@@ -8695,7 +8746,7 @@
       <c r="R726" s="13"/>
       <c r="Y726" s="13"/>
     </row>
-    <row r="727" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:25" hidden="1">
       <c r="B727" s="11">
         <v>46008</v>
       </c>
@@ -8705,7 +8756,7 @@
       <c r="R727" s="13"/>
       <c r="Y727" s="13"/>
     </row>
-    <row r="728" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:25" hidden="1">
       <c r="B728" s="11">
         <v>46008</v>
       </c>
@@ -8715,7 +8766,7 @@
       <c r="R728" s="13"/>
       <c r="Y728" s="13"/>
     </row>
-    <row r="729" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:25" hidden="1">
       <c r="B729" s="11">
         <v>46008</v>
       </c>
@@ -8725,7 +8776,7 @@
       <c r="R729" s="13"/>
       <c r="Y729" s="13"/>
     </row>
-    <row r="730" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:25" hidden="1">
       <c r="B730" s="11">
         <v>46008</v>
       </c>
@@ -8735,7 +8786,7 @@
       <c r="R730" s="13"/>
       <c r="Y730" s="13"/>
     </row>
-    <row r="731" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:25" hidden="1">
       <c r="B731" s="11">
         <v>46008</v>
       </c>
@@ -8745,7 +8796,7 @@
       <c r="R731" s="13"/>
       <c r="Y731" s="13"/>
     </row>
-    <row r="732" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:25" hidden="1">
       <c r="B732" s="11">
         <v>46009</v>
       </c>
@@ -8755,7 +8806,7 @@
       <c r="R732" s="13"/>
       <c r="Y732" s="13"/>
     </row>
-    <row r="733" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:25" hidden="1">
       <c r="B733" s="11">
         <v>46009</v>
       </c>
@@ -8765,7 +8816,7 @@
       <c r="R733" s="13"/>
       <c r="Y733" s="13"/>
     </row>
-    <row r="734" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:25" hidden="1">
       <c r="B734" s="11">
         <v>46009</v>
       </c>
@@ -8775,7 +8826,7 @@
       <c r="R734" s="13"/>
       <c r="Y734" s="13"/>
     </row>
-    <row r="735" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:25" hidden="1">
       <c r="B735" s="11">
         <v>46009</v>
       </c>
@@ -8785,7 +8836,7 @@
       <c r="R735" s="13"/>
       <c r="Y735" s="13"/>
     </row>
-    <row r="736" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:25" hidden="1">
       <c r="B736" s="11">
         <v>46009</v>
       </c>
@@ -8795,7 +8846,7 @@
       <c r="R736" s="13"/>
       <c r="Y736" s="13"/>
     </row>
-    <row r="737" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:25" hidden="1">
       <c r="B737" s="11">
         <v>46009</v>
       </c>
@@ -8805,7 +8856,7 @@
       <c r="R737" s="13"/>
       <c r="Y737" s="13"/>
     </row>
-    <row r="738" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:25" hidden="1">
       <c r="B738" s="11">
         <v>46009</v>
       </c>
@@ -8815,7 +8866,7 @@
       <c r="R738" s="13"/>
       <c r="Y738" s="13"/>
     </row>
-    <row r="739" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:25" hidden="1">
       <c r="B739" s="11">
         <v>46010</v>
       </c>
@@ -8825,7 +8876,7 @@
       <c r="R739" s="13"/>
       <c r="Y739" s="13"/>
     </row>
-    <row r="740" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:25" hidden="1">
       <c r="B740" s="11">
         <v>46010</v>
       </c>
@@ -8835,7 +8886,7 @@
       <c r="R740" s="13"/>
       <c r="Y740" s="13"/>
     </row>
-    <row r="741" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:25" hidden="1">
       <c r="B741" s="11">
         <v>46010</v>
       </c>
@@ -8845,7 +8896,7 @@
       <c r="R741" s="13"/>
       <c r="Y741" s="13"/>
     </row>
-    <row r="742" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:25" hidden="1">
       <c r="B742" s="11">
         <v>46010</v>
       </c>
@@ -8855,7 +8906,7 @@
       <c r="R742" s="13"/>
       <c r="Y742" s="13"/>
     </row>
-    <row r="743" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:25" hidden="1">
       <c r="B743" s="11">
         <v>46010</v>
       </c>
@@ -8865,7 +8916,7 @@
       <c r="R743" s="13"/>
       <c r="Y743" s="13"/>
     </row>
-    <row r="744" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:25" hidden="1">
       <c r="B744" s="11">
         <v>46010</v>
       </c>
@@ -8875,7 +8926,7 @@
       <c r="R744" s="13"/>
       <c r="Y744" s="13"/>
     </row>
-    <row r="745" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:25" hidden="1">
       <c r="B745" s="11">
         <v>46010</v>
       </c>
@@ -8885,7 +8936,7 @@
       <c r="R745" s="13"/>
       <c r="Y745" s="13"/>
     </row>
-    <row r="746" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:25" hidden="1">
       <c r="B746" s="11">
         <v>46011</v>
       </c>
@@ -8895,7 +8946,7 @@
       <c r="R746" s="13"/>
       <c r="Y746" s="13"/>
     </row>
-    <row r="747" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:25" hidden="1">
       <c r="B747" s="11">
         <v>46011</v>
       </c>
@@ -8905,7 +8956,7 @@
       <c r="R747" s="13"/>
       <c r="Y747" s="13"/>
     </row>
-    <row r="748" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:25" hidden="1">
       <c r="B748" s="11">
         <v>46011</v>
       </c>
@@ -8915,7 +8966,7 @@
       <c r="R748" s="13"/>
       <c r="Y748" s="13"/>
     </row>
-    <row r="749" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:25" hidden="1">
       <c r="B749" s="11">
         <v>46011</v>
       </c>
@@ -8925,7 +8976,7 @@
       <c r="R749" s="13"/>
       <c r="Y749" s="13"/>
     </row>
-    <row r="750" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:25" hidden="1">
       <c r="B750" s="11">
         <v>46011</v>
       </c>
@@ -8935,7 +8986,7 @@
       <c r="R750" s="13"/>
       <c r="Y750" s="13"/>
     </row>
-    <row r="751" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:25" hidden="1">
       <c r="B751" s="11">
         <v>46011</v>
       </c>
@@ -8945,7 +8996,7 @@
       <c r="R751" s="13"/>
       <c r="Y751" s="13"/>
     </row>
-    <row r="752" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:25" hidden="1">
       <c r="B752" s="11">
         <v>46011</v>
       </c>
@@ -8955,7 +9006,7 @@
       <c r="R752" s="13"/>
       <c r="Y752" s="13"/>
     </row>
-    <row r="753" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:25" hidden="1">
       <c r="B753" s="11">
         <v>46012</v>
       </c>
@@ -8965,7 +9016,7 @@
       <c r="R753" s="13"/>
       <c r="Y753" s="13"/>
     </row>
-    <row r="754" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:25" hidden="1">
       <c r="B754" s="11">
         <v>46012</v>
       </c>
@@ -8975,7 +9026,7 @@
       <c r="R754" s="13"/>
       <c r="Y754" s="13"/>
     </row>
-    <row r="755" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:25" hidden="1">
       <c r="B755" s="11">
         <v>46012</v>
       </c>
@@ -8985,7 +9036,7 @@
       <c r="R755" s="13"/>
       <c r="Y755" s="13"/>
     </row>
-    <row r="756" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:25" hidden="1">
       <c r="B756" s="11">
         <v>46012</v>
       </c>
@@ -8995,7 +9046,7 @@
       <c r="R756" s="13"/>
       <c r="Y756" s="13"/>
     </row>
-    <row r="757" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:25" hidden="1">
       <c r="B757" s="11">
         <v>46012</v>
       </c>
@@ -9005,7 +9056,7 @@
       <c r="R757" s="13"/>
       <c r="Y757" s="13"/>
     </row>
-    <row r="758" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:25" hidden="1">
       <c r="B758" s="11">
         <v>46012</v>
       </c>
@@ -9015,7 +9066,7 @@
       <c r="R758" s="13"/>
       <c r="Y758" s="13"/>
     </row>
-    <row r="759" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:25" hidden="1">
       <c r="B759" s="11">
         <v>46012</v>
       </c>
@@ -9025,7 +9076,7 @@
       <c r="R759" s="13"/>
       <c r="Y759" s="13"/>
     </row>
-    <row r="760" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:25" hidden="1">
       <c r="B760" s="11">
         <v>46013</v>
       </c>
@@ -9035,7 +9086,7 @@
       <c r="R760" s="13"/>
       <c r="Y760" s="13"/>
     </row>
-    <row r="761" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:25" hidden="1">
       <c r="B761" s="11">
         <v>46013</v>
       </c>
@@ -9045,7 +9096,7 @@
       <c r="R761" s="13"/>
       <c r="Y761" s="13"/>
     </row>
-    <row r="762" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:25" hidden="1">
       <c r="B762" s="11">
         <v>46013</v>
       </c>
@@ -9055,7 +9106,7 @@
       <c r="R762" s="13"/>
       <c r="Y762" s="13"/>
     </row>
-    <row r="763" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:25" hidden="1">
       <c r="B763" s="11">
         <v>46013</v>
       </c>
@@ -9065,7 +9116,7 @@
       <c r="R763" s="13"/>
       <c r="Y763" s="13"/>
     </row>
-    <row r="764" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:25" hidden="1">
       <c r="B764" s="11">
         <v>46013</v>
       </c>
@@ -9075,7 +9126,7 @@
       <c r="R764" s="13"/>
       <c r="Y764" s="13"/>
     </row>
-    <row r="765" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:25" hidden="1">
       <c r="B765" s="11">
         <v>46013</v>
       </c>
@@ -9085,7 +9136,7 @@
       <c r="R765" s="13"/>
       <c r="Y765" s="13"/>
     </row>
-    <row r="766" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:25" hidden="1">
       <c r="B766" s="11">
         <v>46013</v>
       </c>
@@ -9095,7 +9146,7 @@
       <c r="R766" s="13"/>
       <c r="Y766" s="13"/>
     </row>
-    <row r="767" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:25" hidden="1">
       <c r="B767" s="11">
         <v>46014</v>
       </c>
@@ -9105,7 +9156,7 @@
       <c r="R767" s="13"/>
       <c r="Y767" s="13"/>
     </row>
-    <row r="768" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:25" hidden="1">
       <c r="B768" s="11">
         <v>46014</v>
       </c>
@@ -9115,7 +9166,7 @@
       <c r="R768" s="13"/>
       <c r="Y768" s="13"/>
     </row>
-    <row r="769" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:25" hidden="1">
       <c r="B769" s="11">
         <v>46014</v>
       </c>
@@ -9125,7 +9176,7 @@
       <c r="R769" s="13"/>
       <c r="Y769" s="13"/>
     </row>
-    <row r="770" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:25" hidden="1">
       <c r="B770" s="11">
         <v>46014</v>
       </c>
@@ -9135,7 +9186,7 @@
       <c r="R770" s="13"/>
       <c r="Y770" s="13"/>
     </row>
-    <row r="771" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:25" hidden="1">
       <c r="B771" s="11">
         <v>46014</v>
       </c>
@@ -9145,7 +9196,7 @@
       <c r="R771" s="13"/>
       <c r="Y771" s="13"/>
     </row>
-    <row r="772" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:25" hidden="1">
       <c r="B772" s="11">
         <v>46014</v>
       </c>
@@ -9155,7 +9206,7 @@
       <c r="R772" s="13"/>
       <c r="Y772" s="13"/>
     </row>
-    <row r="773" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:25" hidden="1">
       <c r="B773" s="11">
         <v>46014</v>
       </c>
@@ -9165,7 +9216,7 @@
       <c r="R773" s="13"/>
       <c r="Y773" s="13"/>
     </row>
-    <row r="774" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:25" hidden="1">
       <c r="B774" s="11">
         <v>46015</v>
       </c>
@@ -9175,7 +9226,7 @@
       <c r="R774" s="13"/>
       <c r="Y774" s="13"/>
     </row>
-    <row r="775" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:25" hidden="1">
       <c r="B775" s="11">
         <v>46015</v>
       </c>
@@ -9185,7 +9236,7 @@
       <c r="R775" s="13"/>
       <c r="Y775" s="13"/>
     </row>
-    <row r="776" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:25" hidden="1">
       <c r="B776" s="11">
         <v>46015</v>
       </c>
@@ -9195,7 +9246,7 @@
       <c r="R776" s="13"/>
       <c r="Y776" s="13"/>
     </row>
-    <row r="777" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:25" hidden="1">
       <c r="B777" s="11">
         <v>46015</v>
       </c>
@@ -9205,7 +9256,7 @@
       <c r="R777" s="13"/>
       <c r="Y777" s="13"/>
     </row>
-    <row r="778" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:25" hidden="1">
       <c r="B778" s="11">
         <v>46015</v>
       </c>
@@ -9215,7 +9266,7 @@
       <c r="R778" s="13"/>
       <c r="Y778" s="13"/>
     </row>
-    <row r="779" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:25" hidden="1">
       <c r="B779" s="11">
         <v>46015</v>
       </c>
@@ -9225,7 +9276,7 @@
       <c r="R779" s="13"/>
       <c r="Y779" s="13"/>
     </row>
-    <row r="780" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:25" hidden="1">
       <c r="B780" s="11">
         <v>46015</v>
       </c>
@@ -9235,7 +9286,7 @@
       <c r="R780" s="13"/>
       <c r="Y780" s="13"/>
     </row>
-    <row r="781" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:25" hidden="1">
       <c r="B781" s="11">
         <v>46016</v>
       </c>
@@ -9245,7 +9296,7 @@
       <c r="R781" s="13"/>
       <c r="Y781" s="13"/>
     </row>
-    <row r="782" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:25" hidden="1">
       <c r="B782" s="11">
         <v>46016</v>
       </c>
@@ -9255,7 +9306,7 @@
       <c r="R782" s="13"/>
       <c r="Y782" s="13"/>
     </row>
-    <row r="783" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:25" hidden="1">
       <c r="B783" s="11">
         <v>46016</v>
       </c>
@@ -9265,7 +9316,7 @@
       <c r="R783" s="13"/>
       <c r="Y783" s="13"/>
     </row>
-    <row r="784" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:25" hidden="1">
       <c r="B784" s="11">
         <v>46016</v>
       </c>
@@ -9275,7 +9326,7 @@
       <c r="R784" s="13"/>
       <c r="Y784" s="13"/>
     </row>
-    <row r="785" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:25" hidden="1">
       <c r="B785" s="11">
         <v>46016</v>
       </c>
@@ -9285,7 +9336,7 @@
       <c r="R785" s="13"/>
       <c r="Y785" s="13"/>
     </row>
-    <row r="786" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:25" hidden="1">
       <c r="B786" s="11">
         <v>46016</v>
       </c>
@@ -9295,7 +9346,7 @@
       <c r="R786" s="13"/>
       <c r="Y786" s="13"/>
     </row>
-    <row r="787" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:25" hidden="1">
       <c r="B787" s="11">
         <v>46016</v>
       </c>
@@ -9305,7 +9356,7 @@
       <c r="R787" s="13"/>
       <c r="Y787" s="13"/>
     </row>
-    <row r="788" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:25" hidden="1">
       <c r="B788" s="11">
         <v>46017</v>
       </c>
@@ -9315,7 +9366,7 @@
       <c r="R788" s="13"/>
       <c r="Y788" s="13"/>
     </row>
-    <row r="789" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:25" hidden="1">
       <c r="B789" s="11">
         <v>46017</v>
       </c>
@@ -9325,7 +9376,7 @@
       <c r="R789" s="13"/>
       <c r="Y789" s="13"/>
     </row>
-    <row r="790" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:25" hidden="1">
       <c r="B790" s="11">
         <v>46017</v>
       </c>
@@ -9335,7 +9386,7 @@
       <c r="R790" s="13"/>
       <c r="Y790" s="13"/>
     </row>
-    <row r="791" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:25" hidden="1">
       <c r="B791" s="11">
         <v>46017</v>
       </c>
@@ -9345,7 +9396,7 @@
       <c r="R791" s="13"/>
       <c r="Y791" s="13"/>
     </row>
-    <row r="792" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:25" hidden="1">
       <c r="B792" s="11">
         <v>46017</v>
       </c>
@@ -9355,7 +9406,7 @@
       <c r="R792" s="13"/>
       <c r="Y792" s="13"/>
     </row>
-    <row r="793" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:25" hidden="1">
       <c r="B793" s="11">
         <v>46017</v>
       </c>
@@ -9365,7 +9416,7 @@
       <c r="R793" s="13"/>
       <c r="Y793" s="13"/>
     </row>
-    <row r="794" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:25" hidden="1">
       <c r="B794" s="11">
         <v>46017</v>
       </c>
@@ -9375,7 +9426,7 @@
       <c r="R794" s="13"/>
       <c r="Y794" s="13"/>
     </row>
-    <row r="795" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:25" hidden="1">
       <c r="B795" s="11">
         <v>46018</v>
       </c>
@@ -9385,7 +9436,7 @@
       <c r="R795" s="13"/>
       <c r="Y795" s="13"/>
     </row>
-    <row r="796" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:25" hidden="1">
       <c r="B796" s="11">
         <v>46018</v>
       </c>
@@ -9395,7 +9446,7 @@
       <c r="R796" s="13"/>
       <c r="Y796" s="13"/>
     </row>
-    <row r="797" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:25" hidden="1">
       <c r="B797" s="11">
         <v>46018</v>
       </c>
@@ -9405,7 +9456,7 @@
       <c r="R797" s="13"/>
       <c r="Y797" s="13"/>
     </row>
-    <row r="798" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="798" spans="2:25" hidden="1">
       <c r="B798" s="11">
         <v>46018</v>
       </c>
@@ -9415,7 +9466,7 @@
       <c r="R798" s="13"/>
       <c r="Y798" s="13"/>
     </row>
-    <row r="799" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:25" hidden="1">
       <c r="B799" s="11">
         <v>46018</v>
       </c>
@@ -9425,7 +9476,7 @@
       <c r="R799" s="13"/>
       <c r="Y799" s="13"/>
     </row>
-    <row r="800" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:25" hidden="1">
       <c r="B800" s="11">
         <v>46018</v>
       </c>
@@ -9435,7 +9486,7 @@
       <c r="R800" s="13"/>
       <c r="Y800" s="13"/>
     </row>
-    <row r="801" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="801" spans="2:25" hidden="1">
       <c r="B801" s="11">
         <v>46018</v>
       </c>
@@ -9445,7 +9496,7 @@
       <c r="R801" s="13"/>
       <c r="Y801" s="13"/>
     </row>
-    <row r="802" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:25" hidden="1">
       <c r="B802" s="11">
         <v>46019</v>
       </c>
@@ -9455,7 +9506,7 @@
       <c r="R802" s="13"/>
       <c r="Y802" s="13"/>
     </row>
-    <row r="803" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="803" spans="2:25" hidden="1">
       <c r="B803" s="11">
         <v>46019</v>
       </c>
@@ -9465,7 +9516,7 @@
       <c r="R803" s="13"/>
       <c r="Y803" s="13"/>
     </row>
-    <row r="804" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:25" hidden="1">
       <c r="B804" s="11">
         <v>46019</v>
       </c>
@@ -9475,7 +9526,7 @@
       <c r="R804" s="13"/>
       <c r="Y804" s="13"/>
     </row>
-    <row r="805" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="805" spans="2:25" hidden="1">
       <c r="B805" s="11">
         <v>46019</v>
       </c>
@@ -9485,7 +9536,7 @@
       <c r="R805" s="13"/>
       <c r="Y805" s="13"/>
     </row>
-    <row r="806" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="806" spans="2:25" hidden="1">
       <c r="B806" s="11">
         <v>46019</v>
       </c>
@@ -9495,7 +9546,7 @@
       <c r="R806" s="13"/>
       <c r="Y806" s="13"/>
     </row>
-    <row r="807" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="807" spans="2:25" hidden="1">
       <c r="B807" s="11">
         <v>46019</v>
       </c>
@@ -9505,7 +9556,7 @@
       <c r="R807" s="13"/>
       <c r="Y807" s="13"/>
     </row>
-    <row r="808" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:25" hidden="1">
       <c r="B808" s="11">
         <v>46019</v>
       </c>
@@ -9515,7 +9566,7 @@
       <c r="R808" s="13"/>
       <c r="Y808" s="13"/>
     </row>
-    <row r="809" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="809" spans="2:25" hidden="1">
       <c r="B809" s="11">
         <v>46020</v>
       </c>
@@ -9525,7 +9576,7 @@
       <c r="R809" s="13"/>
       <c r="Y809" s="13"/>
     </row>
-    <row r="810" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="810" spans="2:25" hidden="1">
       <c r="B810" s="11">
         <v>46020</v>
       </c>
@@ -9535,7 +9586,7 @@
       <c r="R810" s="13"/>
       <c r="Y810" s="13"/>
     </row>
-    <row r="811" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:25" hidden="1">
       <c r="B811" s="11">
         <v>46020</v>
       </c>
@@ -9545,7 +9596,7 @@
       <c r="R811" s="13"/>
       <c r="Y811" s="13"/>
     </row>
-    <row r="812" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="812" spans="2:25" hidden="1">
       <c r="B812" s="11">
         <v>46020</v>
       </c>
@@ -9555,7 +9606,7 @@
       <c r="R812" s="13"/>
       <c r="Y812" s="13"/>
     </row>
-    <row r="813" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:25" hidden="1">
       <c r="B813" s="11">
         <v>46020</v>
       </c>
@@ -9565,7 +9616,7 @@
       <c r="R813" s="13"/>
       <c r="Y813" s="13"/>
     </row>
-    <row r="814" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="814" spans="2:25" hidden="1">
       <c r="B814" s="11">
         <v>46020</v>
       </c>
@@ -9575,7 +9626,7 @@
       <c r="R814" s="13"/>
       <c r="Y814" s="13"/>
     </row>
-    <row r="815" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:25" hidden="1">
       <c r="B815" s="11">
         <v>46020</v>
       </c>
@@ -9585,7 +9636,7 @@
       <c r="R815" s="13"/>
       <c r="Y815" s="13"/>
     </row>
-    <row r="816" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="816" spans="2:25" hidden="1">
       <c r="B816" s="11">
         <v>46021</v>
       </c>
@@ -9595,7 +9646,7 @@
       <c r="R816" s="13"/>
       <c r="Y816" s="13"/>
     </row>
-    <row r="817" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="817" spans="2:25" hidden="1">
       <c r="B817" s="11">
         <v>46021</v>
       </c>
@@ -9605,7 +9656,7 @@
       <c r="R817" s="13"/>
       <c r="Y817" s="13"/>
     </row>
-    <row r="818" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:25" hidden="1">
       <c r="B818" s="11">
         <v>46021</v>
       </c>
@@ -9615,7 +9666,7 @@
       <c r="R818" s="13"/>
       <c r="Y818" s="13"/>
     </row>
-    <row r="819" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:25" hidden="1">
       <c r="B819" s="11">
         <v>46021</v>
       </c>
@@ -9625,7 +9676,7 @@
       <c r="R819" s="13"/>
       <c r="Y819" s="13"/>
     </row>
-    <row r="820" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:25" hidden="1">
       <c r="B820" s="11">
         <v>46021</v>
       </c>
@@ -9635,7 +9686,7 @@
       <c r="R820" s="13"/>
       <c r="Y820" s="13"/>
     </row>
-    <row r="821" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="821" spans="2:25" hidden="1">
       <c r="B821" s="11">
         <v>46021</v>
       </c>
@@ -9645,7 +9696,7 @@
       <c r="R821" s="13"/>
       <c r="Y821" s="13"/>
     </row>
-    <row r="822" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="822" spans="2:25" hidden="1">
       <c r="B822" s="11">
         <v>46021</v>
       </c>
@@ -9655,7 +9706,7 @@
       <c r="R822" s="13"/>
       <c r="Y822" s="13"/>
     </row>
-    <row r="823" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:25" hidden="1">
       <c r="B823" s="11">
         <v>46022</v>
       </c>
@@ -9665,7 +9716,7 @@
       <c r="R823" s="13"/>
       <c r="Y823" s="13"/>
     </row>
-    <row r="824" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:25" hidden="1">
       <c r="B824" s="11">
         <v>46022</v>
       </c>
@@ -9675,7 +9726,7 @@
       <c r="R824" s="13"/>
       <c r="Y824" s="13"/>
     </row>
-    <row r="825" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:25" hidden="1">
       <c r="B825" s="11">
         <v>46022</v>
       </c>
@@ -9685,7 +9736,7 @@
       <c r="R825" s="13"/>
       <c r="Y825" s="13"/>
     </row>
-    <row r="826" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:25" hidden="1">
       <c r="B826" s="11">
         <v>46022</v>
       </c>
@@ -9695,7 +9746,7 @@
       <c r="R826" s="13"/>
       <c r="Y826" s="13"/>
     </row>
-    <row r="827" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="827" spans="2:25" hidden="1">
       <c r="B827" s="11">
         <v>46022</v>
       </c>
@@ -9705,7 +9756,7 @@
       <c r="R827" s="13"/>
       <c r="Y827" s="13"/>
     </row>
-    <row r="828" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="828" spans="2:25" hidden="1">
       <c r="B828" s="11">
         <v>46022</v>
       </c>
@@ -9715,7 +9766,7 @@
       <c r="R828" s="13"/>
       <c r="Y828" s="13"/>
     </row>
-    <row r="829" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="829" spans="2:25" hidden="1">
       <c r="B829" s="11">
         <v>46022</v>
       </c>
@@ -9726,13 +9777,24 @@
       <c r="Y829" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:Z829" xr:uid="{189FA7ED-4382-47B5-A726-2C2BB85CC8B9}"/>
+  <autoFilter ref="A3:Z829" xr:uid="{189FA7ED-4382-47B5-A726-2C2BB85CC8B9}">
+    <filterColumn colId="1">
+      <filters>
+        <dateGroupItem year="2025" month="9" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="RMSPII"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:Z2"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{87072A1E-199A-41C2-A98C-29295B711797}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -9743,15 +9805,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5f7d05b22801f8a5aef07f913f0a6c2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36a9bbd0f338303ab31ebe548315c8aa" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
@@ -9895,43 +9948,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08EF6FE1-12CA-407E-A8FC-8A49F3E43452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52880257-E99D-4124-838C-9E60541D3782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -795,7 +795,7 @@
   <dimension ref="A1:Z829"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="R29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -1948,6 +1948,15 @@
       <c r="C43" t="s">
         <v>33</v>
       </c>
+      <c r="D43" s="15">
+        <v>120353</v>
+      </c>
+      <c r="E43" s="15">
+        <v>105966</v>
+      </c>
+      <c r="F43" s="12">
+        <v>30</v>
+      </c>
       <c r="P43" s="13">
         <v>21</v>
       </c>
@@ -9794,7 +9803,7 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:Z2"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{87072A1E-199A-41C2-A98C-29295B711797}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -9805,6 +9814,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5f7d05b22801f8a5aef07f913f0a6c2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36a9bbd0f338303ab31ebe548315c8aa" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
@@ -9948,23 +9972,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9972,5 +9981,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52880257-E99D-4124-838C-9E60541D3782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69EBC9F6-C415-4059-A87C-82D01E05A383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens-my.sharepoint.com/personal/carlos_renier_superfrio_com_br/Documents/Apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69EBC9F6-C415-4059-A87C-82D01E05A383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="610" documentId="13_ncr:1_{CCD3546E-43BF-4E1C-BFAF-27E3850A78DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC53F25-7CE4-45BB-B405-6B634A9D5F3D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +300,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -351,9 +351,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -794,13 +791,13 @@
   </sheetPr>
   <dimension ref="A1:Z829"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="R29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
@@ -816,17 +813,17 @@
     <col min="15" max="15" width="10" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.28515625" style="13" customWidth="1"/>
     <col min="20" max="20" width="16" style="13" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" style="13"/>
     <col min="22" max="23" width="9.140625" style="13"/>
     <col min="24" max="24" width="17.140625" style="13" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" style="22" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="21" customWidth="1"/>
     <col min="26" max="26" width="18.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
@@ -835,43 +832,43 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="H1"/>
-      <c r="R1" s="19"/>
-      <c r="Y1" s="23"/>
-    </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="R1" s="18"/>
+      <c r="Y1" s="22"/>
+    </row>
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="27"/>
-    </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="26"/>
+    </row>
+    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -920,7 +917,7 @@
       <c r="Q3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="19" t="s">
         <v>20</v>
       </c>
       <c r="S3" s="9" t="s">
@@ -941,14 +938,14 @@
       <c r="X3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="23" t="s">
         <v>27</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -958,8 +955,8 @@
       <c r="P4" s="13">
         <v>4</v>
       </c>
-      <c r="Q4" s="16">
-        <v>1</v>
+      <c r="Q4" s="13">
+        <v>4</v>
       </c>
       <c r="R4" s="13">
         <v>24275.27</v>
@@ -982,14 +979,14 @@
       <c r="X4" s="13">
         <v>0</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="Y4" s="21">
         <v>0</v>
       </c>
       <c r="Z4" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>45905</v>
       </c>
@@ -999,8 +996,8 @@
       <c r="P5" s="13">
         <v>13</v>
       </c>
-      <c r="Q5" s="16">
-        <v>1</v>
+      <c r="Q5" s="13">
+        <v>13</v>
       </c>
       <c r="R5" s="13">
         <v>42543.01</v>
@@ -1023,14 +1020,14 @@
       <c r="X5" s="13">
         <v>11</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y5" s="21">
         <v>1754.06</v>
       </c>
       <c r="Z5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>45905</v>
       </c>
@@ -1040,8 +1037,8 @@
       <c r="P6" s="13">
         <v>9</v>
       </c>
-      <c r="Q6" s="16">
-        <v>1</v>
+      <c r="Q6" s="13">
+        <v>9</v>
       </c>
       <c r="R6" s="13">
         <v>36895.53</v>
@@ -1071,7 +1068,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>45905</v>
       </c>
@@ -1084,7 +1081,7 @@
       <c r="P7" s="13">
         <v>208</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="20">
         <v>729357.62</v>
       </c>
       <c r="S7" s="17">
@@ -1105,14 +1102,14 @@
       <c r="X7" s="13">
         <v>199</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7" s="21">
         <v>30719.98</v>
       </c>
       <c r="Z7" s="16">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>45905</v>
       </c>
@@ -1149,8 +1146,8 @@
       <c r="P8" s="13">
         <v>9</v>
       </c>
-      <c r="Q8" s="16">
-        <v>1</v>
+      <c r="Q8" s="13">
+        <v>9</v>
       </c>
       <c r="R8" s="13">
         <v>67837.56</v>
@@ -1173,14 +1170,14 @@
       <c r="X8" s="13">
         <v>3</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y8" s="21">
         <v>293.57</v>
       </c>
       <c r="Z8" s="16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>45905</v>
       </c>
@@ -1190,7 +1187,7 @@
       <c r="R9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:26" hidden="1">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>45905</v>
       </c>
@@ -1200,7 +1197,7 @@
       <c r="R10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26" hidden="1">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
@@ -1211,7 +1208,7 @@
       <c r="S11" s="17"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26" hidden="1">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>45906</v>
       </c>
@@ -1220,7 +1217,7 @@
       </c>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:26" hidden="1">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>45906</v>
       </c>
@@ -1230,7 +1227,7 @@
       <c r="R13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>45906</v>
       </c>
@@ -1242,7 +1239,7 @@
       </c>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:26" hidden="1">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>45906</v>
       </c>
@@ -1251,7 +1248,7 @@
       </c>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:26" hidden="1">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>45906</v>
       </c>
@@ -1261,7 +1258,7 @@
       <c r="R16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:26" hidden="1">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>45906</v>
       </c>
@@ -1271,7 +1268,7 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26" hidden="1">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
@@ -1281,7 +1278,7 @@
       <c r="R18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="2:26" hidden="1">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>45907</v>
       </c>
@@ -1290,7 +1287,7 @@
       </c>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:26" hidden="1">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>45907</v>
       </c>
@@ -1300,7 +1297,7 @@
       <c r="R20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>45907</v>
       </c>
@@ -1312,7 +1309,7 @@
       </c>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="2:26" hidden="1">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>45907</v>
       </c>
@@ -1321,7 +1318,7 @@
       </c>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="2:26" hidden="1">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>45907</v>
       </c>
@@ -1331,7 +1328,7 @@
       <c r="R23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="2:26" hidden="1">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>45907</v>
       </c>
@@ -1341,7 +1338,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26" hidden="1">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1351,8 +1348,8 @@
       <c r="P25" s="13">
         <v>5</v>
       </c>
-      <c r="Q25" s="16">
-        <v>1</v>
+      <c r="Q25" s="13">
+        <v>5</v>
       </c>
       <c r="R25" s="13">
         <v>30773.43</v>
@@ -1368,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26" hidden="1">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>45908</v>
       </c>
@@ -1378,8 +1375,8 @@
       <c r="P26" s="13">
         <v>13</v>
       </c>
-      <c r="Q26" s="16">
-        <v>1</v>
+      <c r="Q26" s="13">
+        <v>13</v>
       </c>
       <c r="R26" s="13">
         <v>32397.439999999999</v>
@@ -1402,14 +1399,14 @@
       <c r="X26" s="13">
         <v>7</v>
       </c>
-      <c r="Y26" s="22">
+      <c r="Y26" s="21">
         <v>2731.5</v>
       </c>
       <c r="Z26" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26" hidden="1">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>45908</v>
       </c>
@@ -1419,8 +1416,8 @@
       <c r="P27" s="13">
         <v>11</v>
       </c>
-      <c r="Q27" s="16">
-        <v>1</v>
+      <c r="Q27" s="13">
+        <v>11</v>
       </c>
       <c r="R27" s="13">
         <v>53331.25</v>
@@ -1441,7 +1438,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>45908</v>
       </c>
@@ -1475,10 +1472,10 @@
       <c r="P28" s="13">
         <v>228</v>
       </c>
-      <c r="Q28" s="16">
-        <v>1</v>
-      </c>
-      <c r="R28" s="21">
+      <c r="Q28" s="13">
+        <v>228</v>
+      </c>
+      <c r="R28" s="20">
         <v>858757.38</v>
       </c>
       <c r="S28" s="13">
@@ -1499,14 +1496,14 @@
       <c r="X28" s="13">
         <v>218</v>
       </c>
-      <c r="Y28" s="22">
+      <c r="Y28" s="21">
         <v>63334.96</v>
       </c>
       <c r="Z28" s="16">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:26" hidden="1">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>45908</v>
       </c>
@@ -1540,8 +1537,8 @@
       <c r="P29" s="13">
         <v>35</v>
       </c>
-      <c r="Q29" s="16">
-        <v>1</v>
+      <c r="Q29" s="13">
+        <v>35</v>
       </c>
       <c r="R29" s="13">
         <v>210274.72</v>
@@ -1555,14 +1552,14 @@
       <c r="X29" s="13">
         <v>49</v>
       </c>
-      <c r="Y29" s="22">
+      <c r="Y29" s="21">
         <v>16871.38</v>
       </c>
       <c r="Z29" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:26" hidden="1">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>45908</v>
       </c>
@@ -1572,7 +1569,7 @@
       <c r="R30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="2:26" hidden="1">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>45908</v>
       </c>
@@ -1582,7 +1579,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26" hidden="1">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1600,9 +1597,6 @@
       </c>
       <c r="P32" s="13">
         <v>2</v>
-      </c>
-      <c r="Q32" s="16">
-        <v>1</v>
       </c>
       <c r="R32" s="13">
         <v>8388.2000000000007</v>
@@ -1618,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:26" hidden="1">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>45909</v>
       </c>
@@ -1628,9 +1622,6 @@
       <c r="P33" s="13">
         <v>12</v>
       </c>
-      <c r="Q33" s="16">
-        <v>1</v>
-      </c>
       <c r="R33" s="13">
         <v>32131.06</v>
       </c>
@@ -1652,14 +1643,14 @@
       <c r="X33" s="13">
         <v>2</v>
       </c>
-      <c r="Y33" s="22">
+      <c r="Y33" s="21">
         <v>1250.6500000000001</v>
       </c>
       <c r="Z33" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26" hidden="1">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>45909</v>
       </c>
@@ -1669,9 +1660,6 @@
       <c r="P34" s="13">
         <v>9</v>
       </c>
-      <c r="Q34" s="16">
-        <v>1</v>
-      </c>
       <c r="R34" s="13">
         <v>44394.27</v>
       </c>
@@ -1691,7 +1679,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:26">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>45909</v>
       </c>
@@ -1713,10 +1701,10 @@
       <c r="P35" s="13">
         <v>181</v>
       </c>
-      <c r="Q35" s="16">
-        <v>0.98</v>
-      </c>
-      <c r="R35" s="21">
+      <c r="Q35" s="13">
+        <v>98</v>
+      </c>
+      <c r="R35" s="20">
         <v>633694.4</v>
       </c>
       <c r="S35" s="17">
@@ -1737,14 +1725,14 @@
       <c r="X35" s="13">
         <v>206</v>
       </c>
-      <c r="Y35" s="22">
+      <c r="Y35" s="21">
         <v>48577.1</v>
       </c>
       <c r="Z35" s="16">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:26" hidden="1">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>45909</v>
       </c>
@@ -1778,9 +1766,6 @@
       <c r="P36" s="13">
         <v>23</v>
       </c>
-      <c r="Q36" s="16">
-        <v>1</v>
-      </c>
       <c r="R36" s="13">
         <v>98604.29</v>
       </c>
@@ -1793,14 +1778,14 @@
       <c r="X36" s="13">
         <v>21</v>
       </c>
-      <c r="Y36" s="22">
+      <c r="Y36" s="21">
         <v>5125.07</v>
       </c>
       <c r="Z36" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:26" hidden="1">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>45909</v>
       </c>
@@ -1810,7 +1795,7 @@
       <c r="R37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:26" hidden="1">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>45909</v>
       </c>
@@ -1820,7 +1805,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26" hidden="1">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -1830,9 +1815,6 @@
       <c r="P39" s="13">
         <v>6</v>
       </c>
-      <c r="Q39" s="16">
-        <v>1</v>
-      </c>
       <c r="R39" s="13">
         <v>33936.980000000003</v>
       </c>
@@ -1841,7 +1823,7 @@
       </c>
       <c r="Y39" s="13"/>
     </row>
-    <row r="40" spans="2:26" hidden="1">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>45910</v>
       </c>
@@ -1860,9 +1842,6 @@
       <c r="P40" s="13">
         <v>16</v>
       </c>
-      <c r="Q40" s="16">
-        <v>1</v>
-      </c>
       <c r="R40" s="13">
         <v>46721.98</v>
       </c>
@@ -1873,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26" hidden="1">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>45910</v>
       </c>
@@ -1883,9 +1862,6 @@
       <c r="P41" s="13">
         <v>9</v>
       </c>
-      <c r="Q41" s="16">
-        <v>1</v>
-      </c>
       <c r="R41" s="13">
         <v>49095.98</v>
       </c>
@@ -1905,7 +1881,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:26">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>45910</v>
       </c>
@@ -1927,10 +1903,10 @@
       <c r="P42" s="13">
         <v>208</v>
       </c>
-      <c r="Q42" s="18">
-        <v>0.94</v>
-      </c>
-      <c r="R42" s="21">
+      <c r="Q42" s="13">
+        <v>94</v>
+      </c>
+      <c r="R42" s="20">
         <v>745017.34</v>
       </c>
       <c r="S42" s="17">
@@ -1941,7 +1917,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" spans="2:26" hidden="1">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>45910</v>
       </c>
@@ -1960,9 +1936,6 @@
       <c r="P43" s="13">
         <v>21</v>
       </c>
-      <c r="Q43" s="16">
-        <v>1</v>
-      </c>
       <c r="R43" s="13">
         <v>102791.49</v>
       </c>
@@ -1976,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:26" hidden="1">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>45910</v>
       </c>
@@ -1986,7 +1959,7 @@
       <c r="R44" s="13"/>
       <c r="Y44" s="13"/>
     </row>
-    <row r="45" spans="2:26" hidden="1">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>45910</v>
       </c>
@@ -1996,7 +1969,7 @@
       <c r="R45" s="13"/>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26" hidden="1">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
@@ -2006,7 +1979,7 @@
       <c r="R46" s="13"/>
       <c r="Y46" s="13"/>
     </row>
-    <row r="47" spans="2:26" hidden="1">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <v>45911</v>
       </c>
@@ -2015,7 +1988,7 @@
       </c>
       <c r="R47" s="13"/>
     </row>
-    <row r="48" spans="2:26" hidden="1">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <v>45911</v>
       </c>
@@ -2025,7 +1998,7 @@
       <c r="R48" s="13"/>
       <c r="Y48" s="13"/>
     </row>
-    <row r="49" spans="2:25">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <v>45911</v>
       </c>
@@ -2035,15 +2008,15 @@
       <c r="P49" s="13">
         <v>181</v>
       </c>
-      <c r="Q49" s="16">
-        <v>0.97</v>
-      </c>
-      <c r="R49" s="21">
+      <c r="Q49" s="13">
+        <v>97</v>
+      </c>
+      <c r="R49" s="20">
         <v>680281</v>
       </c>
       <c r="Y49" s="13"/>
     </row>
-    <row r="50" spans="2:25" hidden="1">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <v>45911</v>
       </c>
@@ -2052,7 +2025,7 @@
       </c>
       <c r="R50" s="13"/>
     </row>
-    <row r="51" spans="2:25" hidden="1">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="11">
         <v>45911</v>
       </c>
@@ -2062,7 +2035,7 @@
       <c r="R51" s="13"/>
       <c r="Y51" s="13"/>
     </row>
-    <row r="52" spans="2:25" hidden="1">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="11">
         <v>45911</v>
       </c>
@@ -2072,7 +2045,7 @@
       <c r="R52" s="13"/>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:25" hidden="1">
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
@@ -2082,7 +2055,7 @@
       <c r="R53" s="13"/>
       <c r="Y53" s="13"/>
     </row>
-    <row r="54" spans="2:25" hidden="1">
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <v>45912</v>
       </c>
@@ -2091,7 +2064,7 @@
       </c>
       <c r="R54" s="13"/>
     </row>
-    <row r="55" spans="2:25" hidden="1">
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="11">
         <v>45912</v>
       </c>
@@ -2101,7 +2074,7 @@
       <c r="R55" s="13"/>
       <c r="Y55" s="13"/>
     </row>
-    <row r="56" spans="2:25">
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <v>45912</v>
       </c>
@@ -2110,7 +2083,7 @@
       </c>
       <c r="Y56" s="13"/>
     </row>
-    <row r="57" spans="2:25" hidden="1">
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <v>45912</v>
       </c>
@@ -2119,7 +2092,7 @@
       </c>
       <c r="R57" s="13"/>
     </row>
-    <row r="58" spans="2:25" hidden="1">
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <v>45912</v>
       </c>
@@ -2129,7 +2102,7 @@
       <c r="R58" s="13"/>
       <c r="Y58" s="13"/>
     </row>
-    <row r="59" spans="2:25" hidden="1">
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <v>45912</v>
       </c>
@@ -2139,7 +2112,7 @@
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:25" hidden="1">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2149,7 +2122,7 @@
       <c r="R60" s="13"/>
       <c r="Y60" s="13"/>
     </row>
-    <row r="61" spans="2:25" hidden="1">
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <v>45913</v>
       </c>
@@ -2158,7 +2131,7 @@
       </c>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="2:25" hidden="1">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <v>45913</v>
       </c>
@@ -2168,7 +2141,7 @@
       <c r="R62" s="13"/>
       <c r="Y62" s="13"/>
     </row>
-    <row r="63" spans="2:25">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="11">
         <v>45913</v>
       </c>
@@ -2177,7 +2150,7 @@
       </c>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:25" hidden="1">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
@@ -2186,7 +2159,7 @@
       </c>
       <c r="R64" s="13"/>
     </row>
-    <row r="65" spans="2:25" hidden="1">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B65" s="11">
         <v>45913</v>
       </c>
@@ -2196,7 +2169,7 @@
       <c r="R65" s="13"/>
       <c r="Y65" s="13"/>
     </row>
-    <row r="66" spans="2:25" hidden="1">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B66" s="11">
         <v>45913</v>
       </c>
@@ -2206,7 +2179,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:25" hidden="1">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2216,7 +2189,7 @@
       <c r="R67" s="13"/>
       <c r="Y67" s="13"/>
     </row>
-    <row r="68" spans="2:25" hidden="1">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
         <v>45914</v>
       </c>
@@ -2225,7 +2198,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="2:25" hidden="1">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="11">
         <v>45914</v>
       </c>
@@ -2235,7 +2208,7 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:25">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
@@ -2244,7 +2217,7 @@
       </c>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:25" hidden="1">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
@@ -2253,7 +2226,7 @@
       </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="2:25" hidden="1">
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B72" s="11">
         <v>45914</v>
       </c>
@@ -2263,7 +2236,7 @@
       <c r="R72" s="13"/>
       <c r="Y72" s="13"/>
     </row>
-    <row r="73" spans="2:25" hidden="1">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B73" s="11">
         <v>45914</v>
       </c>
@@ -2273,7 +2246,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:25" hidden="1">
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2283,7 +2256,7 @@
       <c r="R74" s="13"/>
       <c r="Y74" s="13"/>
     </row>
-    <row r="75" spans="2:25" hidden="1">
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B75" s="11">
         <v>45915</v>
       </c>
@@ -2292,7 +2265,7 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="2:25" hidden="1">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="11">
         <v>45915</v>
       </c>
@@ -2302,7 +2275,7 @@
       <c r="R76" s="13"/>
       <c r="Y76" s="13"/>
     </row>
-    <row r="77" spans="2:25">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
@@ -2311,7 +2284,7 @@
       </c>
       <c r="Y77" s="13"/>
     </row>
-    <row r="78" spans="2:25" hidden="1">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="11">
         <v>45915</v>
       </c>
@@ -2320,7 +2293,7 @@
       </c>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="2:25" hidden="1">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <v>45915</v>
       </c>
@@ -2330,7 +2303,7 @@
       <c r="R79" s="13"/>
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:25" hidden="1">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="11">
         <v>45915</v>
       </c>
@@ -2340,7 +2313,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25" hidden="1">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2350,7 +2323,7 @@
       <c r="R81" s="13"/>
       <c r="Y81" s="13"/>
     </row>
-    <row r="82" spans="2:25" hidden="1">
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B82" s="11">
         <v>45916</v>
       </c>
@@ -2359,7 +2332,7 @@
       </c>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="2:25" hidden="1">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="11">
         <v>45916</v>
       </c>
@@ -2369,7 +2342,7 @@
       <c r="R83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="2:25">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
         <v>45916</v>
       </c>
@@ -2378,7 +2351,7 @@
       </c>
       <c r="Y84" s="13"/>
     </row>
-    <row r="85" spans="2:25" hidden="1">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="11">
         <v>45916</v>
       </c>
@@ -2387,7 +2360,7 @@
       </c>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="2:25" hidden="1">
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B86" s="11">
         <v>45916</v>
       </c>
@@ -2397,7 +2370,7 @@
       <c r="R86" s="13"/>
       <c r="Y86" s="13"/>
     </row>
-    <row r="87" spans="2:25" hidden="1">
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B87" s="11">
         <v>45916</v>
       </c>
@@ -2407,7 +2380,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25" hidden="1">
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2417,7 +2390,7 @@
       <c r="R88" s="13"/>
       <c r="Y88" s="13"/>
     </row>
-    <row r="89" spans="2:25" hidden="1">
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B89" s="11">
         <v>45917</v>
       </c>
@@ -2426,7 +2399,7 @@
       </c>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="2:25" hidden="1">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="11">
         <v>45917</v>
       </c>
@@ -2436,7 +2409,7 @@
       <c r="R90" s="13"/>
       <c r="Y90" s="13"/>
     </row>
-    <row r="91" spans="2:25">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="11">
         <v>45917</v>
       </c>
@@ -2445,7 +2418,7 @@
       </c>
       <c r="Y91" s="13"/>
     </row>
-    <row r="92" spans="2:25" hidden="1">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="11">
         <v>45917</v>
       </c>
@@ -2454,7 +2427,7 @@
       </c>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="2:25" hidden="1">
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B93" s="11">
         <v>45917</v>
       </c>
@@ -2464,7 +2437,7 @@
       <c r="R93" s="13"/>
       <c r="Y93" s="13"/>
     </row>
-    <row r="94" spans="2:25" hidden="1">
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B94" s="11">
         <v>45917</v>
       </c>
@@ -2474,7 +2447,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25" hidden="1">
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -2484,7 +2457,7 @@
       <c r="R95" s="13"/>
       <c r="Y95" s="13"/>
     </row>
-    <row r="96" spans="2:25" hidden="1">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="11">
         <v>45918</v>
       </c>
@@ -2493,7 +2466,7 @@
       </c>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="2:25" hidden="1">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="11">
         <v>45918</v>
       </c>
@@ -2503,7 +2476,7 @@
       <c r="R97" s="13"/>
       <c r="Y97" s="13"/>
     </row>
-    <row r="98" spans="2:25">
+    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B98" s="11">
         <v>45918</v>
       </c>
@@ -2512,7 +2485,7 @@
       </c>
       <c r="Y98" s="13"/>
     </row>
-    <row r="99" spans="2:25" hidden="1">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="11">
         <v>45918</v>
       </c>
@@ -2521,7 +2494,7 @@
       </c>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="2:25" hidden="1">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="11">
         <v>45918</v>
       </c>
@@ -2531,7 +2504,7 @@
       <c r="R100" s="13"/>
       <c r="Y100" s="13"/>
     </row>
-    <row r="101" spans="2:25" hidden="1">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="11">
         <v>45918</v>
       </c>
@@ -2541,7 +2514,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25" hidden="1">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -2551,7 +2524,7 @@
       <c r="R102" s="13"/>
       <c r="Y102" s="13"/>
     </row>
-    <row r="103" spans="2:25" hidden="1">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="11">
         <v>45919</v>
       </c>
@@ -2560,7 +2533,7 @@
       </c>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="2:25" hidden="1">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="11">
         <v>45919</v>
       </c>
@@ -2570,7 +2543,7 @@
       <c r="R104" s="13"/>
       <c r="Y104" s="13"/>
     </row>
-    <row r="105" spans="2:25">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="11">
         <v>45919</v>
       </c>
@@ -2579,7 +2552,7 @@
       </c>
       <c r="Y105" s="13"/>
     </row>
-    <row r="106" spans="2:25" hidden="1">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="11">
         <v>45919</v>
       </c>
@@ -2588,7 +2561,7 @@
       </c>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" spans="2:25" hidden="1">
+    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B107" s="11">
         <v>45919</v>
       </c>
@@ -2598,7 +2571,7 @@
       <c r="R107" s="13"/>
       <c r="Y107" s="13"/>
     </row>
-    <row r="108" spans="2:25" hidden="1">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="11">
         <v>45919</v>
       </c>
@@ -2608,7 +2581,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25" hidden="1">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -2618,7 +2591,7 @@
       <c r="R109" s="13"/>
       <c r="Y109" s="13"/>
     </row>
-    <row r="110" spans="2:25" hidden="1">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="11">
         <v>45920</v>
       </c>
@@ -2627,7 +2600,7 @@
       </c>
       <c r="R110" s="13"/>
     </row>
-    <row r="111" spans="2:25" hidden="1">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="11">
         <v>45920</v>
       </c>
@@ -2637,7 +2610,7 @@
       <c r="R111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="2:25">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="11">
         <v>45920</v>
       </c>
@@ -2646,7 +2619,7 @@
       </c>
       <c r="Y112" s="13"/>
     </row>
-    <row r="113" spans="2:25" hidden="1">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="11">
         <v>45920</v>
       </c>
@@ -2655,7 +2628,7 @@
       </c>
       <c r="R113" s="13"/>
     </row>
-    <row r="114" spans="2:25" hidden="1">
+    <row r="114" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B114" s="11">
         <v>45920</v>
       </c>
@@ -2665,7 +2638,7 @@
       <c r="R114" s="13"/>
       <c r="Y114" s="13"/>
     </row>
-    <row r="115" spans="2:25" hidden="1">
+    <row r="115" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B115" s="11">
         <v>45920</v>
       </c>
@@ -2675,7 +2648,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25" hidden="1">
+    <row r="116" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -2685,7 +2658,7 @@
       <c r="R116" s="13"/>
       <c r="Y116" s="13"/>
     </row>
-    <row r="117" spans="2:25" hidden="1">
+    <row r="117" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B117" s="11">
         <v>45921</v>
       </c>
@@ -2694,7 +2667,7 @@
       </c>
       <c r="R117" s="13"/>
     </row>
-    <row r="118" spans="2:25" hidden="1">
+    <row r="118" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B118" s="11">
         <v>45921</v>
       </c>
@@ -2704,7 +2677,7 @@
       <c r="R118" s="13"/>
       <c r="Y118" s="13"/>
     </row>
-    <row r="119" spans="2:25">
+    <row r="119" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B119" s="11">
         <v>45921</v>
       </c>
@@ -2713,7 +2686,7 @@
       </c>
       <c r="Y119" s="13"/>
     </row>
-    <row r="120" spans="2:25" hidden="1">
+    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B120" s="11">
         <v>45921</v>
       </c>
@@ -2722,7 +2695,7 @@
       </c>
       <c r="R120" s="13"/>
     </row>
-    <row r="121" spans="2:25" hidden="1">
+    <row r="121" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B121" s="11">
         <v>45921</v>
       </c>
@@ -2732,7 +2705,7 @@
       <c r="R121" s="13"/>
       <c r="Y121" s="13"/>
     </row>
-    <row r="122" spans="2:25" hidden="1">
+    <row r="122" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B122" s="11">
         <v>45921</v>
       </c>
@@ -2742,7 +2715,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25" hidden="1">
+    <row r="123" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -2752,7 +2725,7 @@
       <c r="R123" s="13"/>
       <c r="Y123" s="13"/>
     </row>
-    <row r="124" spans="2:25" hidden="1">
+    <row r="124" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B124" s="11">
         <v>45922</v>
       </c>
@@ -2761,7 +2734,7 @@
       </c>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" spans="2:25" hidden="1">
+    <row r="125" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B125" s="11">
         <v>45922</v>
       </c>
@@ -2771,7 +2744,7 @@
       <c r="R125" s="13"/>
       <c r="Y125" s="13"/>
     </row>
-    <row r="126" spans="2:25">
+    <row r="126" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B126" s="11">
         <v>45922</v>
       </c>
@@ -2780,7 +2753,7 @@
       </c>
       <c r="Y126" s="13"/>
     </row>
-    <row r="127" spans="2:25" hidden="1">
+    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B127" s="11">
         <v>45922</v>
       </c>
@@ -2789,7 +2762,7 @@
       </c>
       <c r="R127" s="13"/>
     </row>
-    <row r="128" spans="2:25" hidden="1">
+    <row r="128" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B128" s="11">
         <v>45922</v>
       </c>
@@ -2799,7 +2772,7 @@
       <c r="R128" s="13"/>
       <c r="Y128" s="13"/>
     </row>
-    <row r="129" spans="2:25" hidden="1">
+    <row r="129" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B129" s="11">
         <v>45922</v>
       </c>
@@ -2809,7 +2782,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25" hidden="1">
+    <row r="130" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -2819,7 +2792,7 @@
       <c r="R130" s="13"/>
       <c r="Y130" s="13"/>
     </row>
-    <row r="131" spans="2:25" hidden="1">
+    <row r="131" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B131" s="11">
         <v>45923</v>
       </c>
@@ -2828,7 +2801,7 @@
       </c>
       <c r="R131" s="13"/>
     </row>
-    <row r="132" spans="2:25" hidden="1">
+    <row r="132" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B132" s="11">
         <v>45923</v>
       </c>
@@ -2838,7 +2811,7 @@
       <c r="R132" s="13"/>
       <c r="Y132" s="13"/>
     </row>
-    <row r="133" spans="2:25">
+    <row r="133" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B133" s="11">
         <v>45923</v>
       </c>
@@ -2847,7 +2820,7 @@
       </c>
       <c r="Y133" s="13"/>
     </row>
-    <row r="134" spans="2:25" hidden="1">
+    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B134" s="11">
         <v>45923</v>
       </c>
@@ -2856,7 +2829,7 @@
       </c>
       <c r="R134" s="13"/>
     </row>
-    <row r="135" spans="2:25" hidden="1">
+    <row r="135" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B135" s="11">
         <v>45923</v>
       </c>
@@ -2866,7 +2839,7 @@
       <c r="R135" s="13"/>
       <c r="Y135" s="13"/>
     </row>
-    <row r="136" spans="2:25" hidden="1">
+    <row r="136" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B136" s="11">
         <v>45923</v>
       </c>
@@ -2876,7 +2849,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25" hidden="1">
+    <row r="137" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -2886,7 +2859,7 @@
       <c r="R137" s="13"/>
       <c r="Y137" s="13"/>
     </row>
-    <row r="138" spans="2:25" hidden="1">
+    <row r="138" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B138" s="11">
         <v>45924</v>
       </c>
@@ -2895,7 +2868,7 @@
       </c>
       <c r="R138" s="13"/>
     </row>
-    <row r="139" spans="2:25" hidden="1">
+    <row r="139" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B139" s="11">
         <v>45924</v>
       </c>
@@ -2905,7 +2878,7 @@
       <c r="R139" s="13"/>
       <c r="Y139" s="13"/>
     </row>
-    <row r="140" spans="2:25">
+    <row r="140" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B140" s="11">
         <v>45924</v>
       </c>
@@ -2914,7 +2887,7 @@
       </c>
       <c r="Y140" s="13"/>
     </row>
-    <row r="141" spans="2:25" hidden="1">
+    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B141" s="11">
         <v>45924</v>
       </c>
@@ -2923,7 +2896,7 @@
       </c>
       <c r="R141" s="13"/>
     </row>
-    <row r="142" spans="2:25" hidden="1">
+    <row r="142" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B142" s="11">
         <v>45924</v>
       </c>
@@ -2933,7 +2906,7 @@
       <c r="R142" s="13"/>
       <c r="Y142" s="13"/>
     </row>
-    <row r="143" spans="2:25" hidden="1">
+    <row r="143" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B143" s="11">
         <v>45924</v>
       </c>
@@ -2943,7 +2916,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25" hidden="1">
+    <row r="144" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -2953,7 +2926,7 @@
       <c r="R144" s="13"/>
       <c r="Y144" s="13"/>
     </row>
-    <row r="145" spans="2:25" hidden="1">
+    <row r="145" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B145" s="11">
         <v>45925</v>
       </c>
@@ -2962,7 +2935,7 @@
       </c>
       <c r="R145" s="13"/>
     </row>
-    <row r="146" spans="2:25" hidden="1">
+    <row r="146" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B146" s="11">
         <v>45925</v>
       </c>
@@ -2972,7 +2945,7 @@
       <c r="R146" s="13"/>
       <c r="Y146" s="13"/>
     </row>
-    <row r="147" spans="2:25">
+    <row r="147" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B147" s="11">
         <v>45925</v>
       </c>
@@ -2981,7 +2954,7 @@
       </c>
       <c r="Y147" s="13"/>
     </row>
-    <row r="148" spans="2:25" hidden="1">
+    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B148" s="11">
         <v>45925</v>
       </c>
@@ -2990,7 +2963,7 @@
       </c>
       <c r="R148" s="13"/>
     </row>
-    <row r="149" spans="2:25" hidden="1">
+    <row r="149" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B149" s="11">
         <v>45925</v>
       </c>
@@ -3000,7 +2973,7 @@
       <c r="R149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" hidden="1">
+    <row r="150" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B150" s="11">
         <v>45925</v>
       </c>
@@ -3010,7 +2983,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" hidden="1">
+    <row r="151" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -3020,7 +2993,7 @@
       <c r="R151" s="13"/>
       <c r="Y151" s="13"/>
     </row>
-    <row r="152" spans="2:25" hidden="1">
+    <row r="152" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B152" s="11">
         <v>45926</v>
       </c>
@@ -3029,7 +3002,7 @@
       </c>
       <c r="R152" s="13"/>
     </row>
-    <row r="153" spans="2:25" hidden="1">
+    <row r="153" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B153" s="11">
         <v>45926</v>
       </c>
@@ -3039,7 +3012,7 @@
       <c r="R153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="2:25">
+    <row r="154" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B154" s="11">
         <v>45926</v>
       </c>
@@ -3048,7 +3021,7 @@
       </c>
       <c r="Y154" s="13"/>
     </row>
-    <row r="155" spans="2:25" hidden="1">
+    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B155" s="11">
         <v>45926</v>
       </c>
@@ -3057,7 +3030,7 @@
       </c>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" spans="2:25" hidden="1">
+    <row r="156" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B156" s="11">
         <v>45926</v>
       </c>
@@ -3067,7 +3040,7 @@
       <c r="R156" s="13"/>
       <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="2:25" hidden="1">
+    <row r="157" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B157" s="11">
         <v>45926</v>
       </c>
@@ -3077,7 +3050,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25" hidden="1">
+    <row r="158" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3087,7 +3060,7 @@
       <c r="R158" s="13"/>
       <c r="Y158" s="13"/>
     </row>
-    <row r="159" spans="2:25" hidden="1">
+    <row r="159" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B159" s="11">
         <v>45927</v>
       </c>
@@ -3096,7 +3069,7 @@
       </c>
       <c r="R159" s="13"/>
     </row>
-    <row r="160" spans="2:25" hidden="1">
+    <row r="160" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B160" s="11">
         <v>45927</v>
       </c>
@@ -3106,7 +3079,7 @@
       <c r="R160" s="13"/>
       <c r="Y160" s="13"/>
     </row>
-    <row r="161" spans="2:25">
+    <row r="161" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B161" s="11">
         <v>45927</v>
       </c>
@@ -3115,7 +3088,7 @@
       </c>
       <c r="Y161" s="13"/>
     </row>
-    <row r="162" spans="2:25" hidden="1">
+    <row r="162" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B162" s="11">
         <v>45927</v>
       </c>
@@ -3124,7 +3097,7 @@
       </c>
       <c r="R162" s="13"/>
     </row>
-    <row r="163" spans="2:25" hidden="1">
+    <row r="163" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B163" s="11">
         <v>45927</v>
       </c>
@@ -3134,7 +3107,7 @@
       <c r="R163" s="13"/>
       <c r="Y163" s="13"/>
     </row>
-    <row r="164" spans="2:25" hidden="1">
+    <row r="164" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B164" s="11">
         <v>45927</v>
       </c>
@@ -3144,7 +3117,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25" hidden="1">
+    <row r="165" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3154,7 +3127,7 @@
       <c r="R165" s="13"/>
       <c r="Y165" s="13"/>
     </row>
-    <row r="166" spans="2:25" hidden="1">
+    <row r="166" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B166" s="11">
         <v>45928</v>
       </c>
@@ -3163,7 +3136,7 @@
       </c>
       <c r="R166" s="13"/>
     </row>
-    <row r="167" spans="2:25" hidden="1">
+    <row r="167" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B167" s="11">
         <v>45928</v>
       </c>
@@ -3173,7 +3146,7 @@
       <c r="R167" s="13"/>
       <c r="Y167" s="13"/>
     </row>
-    <row r="168" spans="2:25">
+    <row r="168" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B168" s="11">
         <v>45928</v>
       </c>
@@ -3182,7 +3155,7 @@
       </c>
       <c r="Y168" s="13"/>
     </row>
-    <row r="169" spans="2:25" hidden="1">
+    <row r="169" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B169" s="11">
         <v>45928</v>
       </c>
@@ -3191,7 +3164,7 @@
       </c>
       <c r="R169" s="13"/>
     </row>
-    <row r="170" spans="2:25" hidden="1">
+    <row r="170" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B170" s="11">
         <v>45928</v>
       </c>
@@ -3201,7 +3174,7 @@
       <c r="R170" s="13"/>
       <c r="Y170" s="13"/>
     </row>
-    <row r="171" spans="2:25" hidden="1">
+    <row r="171" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B171" s="11">
         <v>45928</v>
       </c>
@@ -3211,7 +3184,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25" hidden="1">
+    <row r="172" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3221,7 +3194,7 @@
       <c r="R172" s="13"/>
       <c r="Y172" s="13"/>
     </row>
-    <row r="173" spans="2:25" hidden="1">
+    <row r="173" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B173" s="11">
         <v>45929</v>
       </c>
@@ -3230,7 +3203,7 @@
       </c>
       <c r="R173" s="13"/>
     </row>
-    <row r="174" spans="2:25" hidden="1">
+    <row r="174" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B174" s="11">
         <v>45929</v>
       </c>
@@ -3240,7 +3213,7 @@
       <c r="R174" s="13"/>
       <c r="Y174" s="13"/>
     </row>
-    <row r="175" spans="2:25">
+    <row r="175" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B175" s="11">
         <v>45929</v>
       </c>
@@ -3249,7 +3222,7 @@
       </c>
       <c r="Y175" s="13"/>
     </row>
-    <row r="176" spans="2:25" hidden="1">
+    <row r="176" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B176" s="11">
         <v>45929</v>
       </c>
@@ -3258,7 +3231,7 @@
       </c>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" spans="2:25" hidden="1">
+    <row r="177" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B177" s="11">
         <v>45929</v>
       </c>
@@ -3268,7 +3241,7 @@
       <c r="R177" s="13"/>
       <c r="Y177" s="13"/>
     </row>
-    <row r="178" spans="2:25" hidden="1">
+    <row r="178" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B178" s="11">
         <v>45929</v>
       </c>
@@ -3278,7 +3251,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25" hidden="1">
+    <row r="179" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3288,7 +3261,7 @@
       <c r="R179" s="13"/>
       <c r="Y179" s="13"/>
     </row>
-    <row r="180" spans="2:25" hidden="1">
+    <row r="180" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B180" s="11">
         <v>45930</v>
       </c>
@@ -3297,7 +3270,7 @@
       </c>
       <c r="R180" s="13"/>
     </row>
-    <row r="181" spans="2:25" hidden="1">
+    <row r="181" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B181" s="11">
         <v>45930</v>
       </c>
@@ -3307,7 +3280,7 @@
       <c r="R181" s="13"/>
       <c r="Y181" s="13"/>
     </row>
-    <row r="182" spans="2:25">
+    <row r="182" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B182" s="11">
         <v>45930</v>
       </c>
@@ -3316,7 +3289,7 @@
       </c>
       <c r="Y182" s="13"/>
     </row>
-    <row r="183" spans="2:25" hidden="1">
+    <row r="183" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B183" s="11">
         <v>45930</v>
       </c>
@@ -3325,7 +3298,7 @@
       </c>
       <c r="R183" s="13"/>
     </row>
-    <row r="184" spans="2:25" hidden="1">
+    <row r="184" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B184" s="11">
         <v>45930</v>
       </c>
@@ -3335,7 +3308,7 @@
       <c r="R184" s="13"/>
       <c r="Y184" s="13"/>
     </row>
-    <row r="185" spans="2:25" hidden="1">
+    <row r="185" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B185" s="11">
         <v>45930</v>
       </c>
@@ -3345,7 +3318,7 @@
       <c r="R185" s="13"/>
       <c r="Y185" s="13"/>
     </row>
-    <row r="186" spans="2:25" hidden="1">
+    <row r="186" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="11">
         <v>45931</v>
       </c>
@@ -3355,7 +3328,7 @@
       <c r="R186" s="13"/>
       <c r="Y186" s="13"/>
     </row>
-    <row r="187" spans="2:25" hidden="1">
+    <row r="187" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="11">
         <v>45931</v>
       </c>
@@ -3365,7 +3338,7 @@
       <c r="R187" s="13"/>
       <c r="Y187" s="13"/>
     </row>
-    <row r="188" spans="2:25" hidden="1">
+    <row r="188" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="11">
         <v>45931</v>
       </c>
@@ -3375,7 +3348,7 @@
       <c r="R188" s="13"/>
       <c r="Y188" s="13"/>
     </row>
-    <row r="189" spans="2:25" hidden="1">
+    <row r="189" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="11">
         <v>45931</v>
       </c>
@@ -3385,7 +3358,7 @@
       <c r="R189" s="13"/>
       <c r="Y189" s="13"/>
     </row>
-    <row r="190" spans="2:25" hidden="1">
+    <row r="190" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="11">
         <v>45931</v>
       </c>
@@ -3395,7 +3368,7 @@
       <c r="R190" s="13"/>
       <c r="Y190" s="13"/>
     </row>
-    <row r="191" spans="2:25" hidden="1">
+    <row r="191" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="11">
         <v>45931</v>
       </c>
@@ -3405,7 +3378,7 @@
       <c r="R191" s="13"/>
       <c r="Y191" s="13"/>
     </row>
-    <row r="192" spans="2:25" hidden="1">
+    <row r="192" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="11">
         <v>45931</v>
       </c>
@@ -3415,7 +3388,7 @@
       <c r="R192" s="13"/>
       <c r="Y192" s="13"/>
     </row>
-    <row r="193" spans="2:25" hidden="1">
+    <row r="193" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="11">
         <v>45932</v>
       </c>
@@ -3425,7 +3398,7 @@
       <c r="R193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" hidden="1">
+    <row r="194" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="11">
         <v>45932</v>
       </c>
@@ -3435,7 +3408,7 @@
       <c r="R194" s="13"/>
       <c r="Y194" s="13"/>
     </row>
-    <row r="195" spans="2:25" hidden="1">
+    <row r="195" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="11">
         <v>45932</v>
       </c>
@@ -3445,7 +3418,7 @@
       <c r="R195" s="13"/>
       <c r="Y195" s="13"/>
     </row>
-    <row r="196" spans="2:25" hidden="1">
+    <row r="196" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="11">
         <v>45932</v>
       </c>
@@ -3455,7 +3428,7 @@
       <c r="R196" s="13"/>
       <c r="Y196" s="13"/>
     </row>
-    <row r="197" spans="2:25" hidden="1">
+    <row r="197" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="11">
         <v>45932</v>
       </c>
@@ -3465,7 +3438,7 @@
       <c r="R197" s="13"/>
       <c r="Y197" s="13"/>
     </row>
-    <row r="198" spans="2:25" hidden="1">
+    <row r="198" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="11">
         <v>45932</v>
       </c>
@@ -3475,7 +3448,7 @@
       <c r="R198" s="13"/>
       <c r="Y198" s="13"/>
     </row>
-    <row r="199" spans="2:25" hidden="1">
+    <row r="199" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="11">
         <v>45932</v>
       </c>
@@ -3485,7 +3458,7 @@
       <c r="R199" s="13"/>
       <c r="Y199" s="13"/>
     </row>
-    <row r="200" spans="2:25" hidden="1">
+    <row r="200" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="11">
         <v>45933</v>
       </c>
@@ -3495,7 +3468,7 @@
       <c r="R200" s="13"/>
       <c r="Y200" s="13"/>
     </row>
-    <row r="201" spans="2:25" hidden="1">
+    <row r="201" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="11">
         <v>45933</v>
       </c>
@@ -3505,7 +3478,7 @@
       <c r="R201" s="13"/>
       <c r="Y201" s="13"/>
     </row>
-    <row r="202" spans="2:25" hidden="1">
+    <row r="202" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="11">
         <v>45933</v>
       </c>
@@ -3515,7 +3488,7 @@
       <c r="R202" s="13"/>
       <c r="Y202" s="13"/>
     </row>
-    <row r="203" spans="2:25" hidden="1">
+    <row r="203" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="11">
         <v>45933</v>
       </c>
@@ -3525,7 +3498,7 @@
       <c r="R203" s="13"/>
       <c r="Y203" s="13"/>
     </row>
-    <row r="204" spans="2:25" hidden="1">
+    <row r="204" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="11">
         <v>45933</v>
       </c>
@@ -3535,7 +3508,7 @@
       <c r="R204" s="13"/>
       <c r="Y204" s="13"/>
     </row>
-    <row r="205" spans="2:25" hidden="1">
+    <row r="205" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="11">
         <v>45933</v>
       </c>
@@ -3545,7 +3518,7 @@
       <c r="R205" s="13"/>
       <c r="Y205" s="13"/>
     </row>
-    <row r="206" spans="2:25" hidden="1">
+    <row r="206" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="11">
         <v>45933</v>
       </c>
@@ -3555,7 +3528,7 @@
       <c r="R206" s="13"/>
       <c r="Y206" s="13"/>
     </row>
-    <row r="207" spans="2:25" hidden="1">
+    <row r="207" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="11">
         <v>45934</v>
       </c>
@@ -3565,7 +3538,7 @@
       <c r="R207" s="13"/>
       <c r="Y207" s="13"/>
     </row>
-    <row r="208" spans="2:25" hidden="1">
+    <row r="208" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="11">
         <v>45934</v>
       </c>
@@ -3575,7 +3548,7 @@
       <c r="R208" s="13"/>
       <c r="Y208" s="13"/>
     </row>
-    <row r="209" spans="2:25" hidden="1">
+    <row r="209" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="11">
         <v>45934</v>
       </c>
@@ -3585,7 +3558,7 @@
       <c r="R209" s="13"/>
       <c r="Y209" s="13"/>
     </row>
-    <row r="210" spans="2:25" hidden="1">
+    <row r="210" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="11">
         <v>45934</v>
       </c>
@@ -3595,7 +3568,7 @@
       <c r="R210" s="13"/>
       <c r="Y210" s="13"/>
     </row>
-    <row r="211" spans="2:25" hidden="1">
+    <row r="211" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="11">
         <v>45934</v>
       </c>
@@ -3605,7 +3578,7 @@
       <c r="R211" s="13"/>
       <c r="Y211" s="13"/>
     </row>
-    <row r="212" spans="2:25" hidden="1">
+    <row r="212" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="11">
         <v>45934</v>
       </c>
@@ -3615,7 +3588,7 @@
       <c r="R212" s="13"/>
       <c r="Y212" s="13"/>
     </row>
-    <row r="213" spans="2:25" hidden="1">
+    <row r="213" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="11">
         <v>45934</v>
       </c>
@@ -3625,7 +3598,7 @@
       <c r="R213" s="13"/>
       <c r="Y213" s="13"/>
     </row>
-    <row r="214" spans="2:25" hidden="1">
+    <row r="214" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="11">
         <v>45935</v>
       </c>
@@ -3635,7 +3608,7 @@
       <c r="R214" s="13"/>
       <c r="Y214" s="13"/>
     </row>
-    <row r="215" spans="2:25" hidden="1">
+    <row r="215" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="11">
         <v>45935</v>
       </c>
@@ -3645,7 +3618,7 @@
       <c r="R215" s="13"/>
       <c r="Y215" s="13"/>
     </row>
-    <row r="216" spans="2:25" hidden="1">
+    <row r="216" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="11">
         <v>45935</v>
       </c>
@@ -3655,7 +3628,7 @@
       <c r="R216" s="13"/>
       <c r="Y216" s="13"/>
     </row>
-    <row r="217" spans="2:25" hidden="1">
+    <row r="217" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="11">
         <v>45935</v>
       </c>
@@ -3665,7 +3638,7 @@
       <c r="R217" s="13"/>
       <c r="Y217" s="13"/>
     </row>
-    <row r="218" spans="2:25" hidden="1">
+    <row r="218" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="11">
         <v>45935</v>
       </c>
@@ -3675,7 +3648,7 @@
       <c r="R218" s="13"/>
       <c r="Y218" s="13"/>
     </row>
-    <row r="219" spans="2:25" hidden="1">
+    <row r="219" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="11">
         <v>45935</v>
       </c>
@@ -3685,7 +3658,7 @@
       <c r="R219" s="13"/>
       <c r="Y219" s="13"/>
     </row>
-    <row r="220" spans="2:25" hidden="1">
+    <row r="220" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="11">
         <v>45935</v>
       </c>
@@ -3695,7 +3668,7 @@
       <c r="R220" s="13"/>
       <c r="Y220" s="13"/>
     </row>
-    <row r="221" spans="2:25" hidden="1">
+    <row r="221" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="11">
         <v>45936</v>
       </c>
@@ -3705,7 +3678,7 @@
       <c r="R221" s="13"/>
       <c r="Y221" s="13"/>
     </row>
-    <row r="222" spans="2:25" hidden="1">
+    <row r="222" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="11">
         <v>45936</v>
       </c>
@@ -3715,7 +3688,7 @@
       <c r="R222" s="13"/>
       <c r="Y222" s="13"/>
     </row>
-    <row r="223" spans="2:25" hidden="1">
+    <row r="223" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="11">
         <v>45936</v>
       </c>
@@ -3725,7 +3698,7 @@
       <c r="R223" s="13"/>
       <c r="Y223" s="13"/>
     </row>
-    <row r="224" spans="2:25" hidden="1">
+    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="11">
         <v>45936</v>
       </c>
@@ -3735,7 +3708,7 @@
       <c r="R224" s="13"/>
       <c r="Y224" s="13"/>
     </row>
-    <row r="225" spans="2:25" hidden="1">
+    <row r="225" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="11">
         <v>45936</v>
       </c>
@@ -3745,7 +3718,7 @@
       <c r="R225" s="13"/>
       <c r="Y225" s="13"/>
     </row>
-    <row r="226" spans="2:25" hidden="1">
+    <row r="226" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="11">
         <v>45936</v>
       </c>
@@ -3755,7 +3728,7 @@
       <c r="R226" s="13"/>
       <c r="Y226" s="13"/>
     </row>
-    <row r="227" spans="2:25" hidden="1">
+    <row r="227" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="11">
         <v>45936</v>
       </c>
@@ -3765,7 +3738,7 @@
       <c r="R227" s="13"/>
       <c r="Y227" s="13"/>
     </row>
-    <row r="228" spans="2:25" hidden="1">
+    <row r="228" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="11">
         <v>45937</v>
       </c>
@@ -3775,7 +3748,7 @@
       <c r="R228" s="13"/>
       <c r="Y228" s="13"/>
     </row>
-    <row r="229" spans="2:25" hidden="1">
+    <row r="229" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="11">
         <v>45937</v>
       </c>
@@ -3785,7 +3758,7 @@
       <c r="R229" s="13"/>
       <c r="Y229" s="13"/>
     </row>
-    <row r="230" spans="2:25" hidden="1">
+    <row r="230" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="11">
         <v>45937</v>
       </c>
@@ -3795,7 +3768,7 @@
       <c r="R230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="2:25" hidden="1">
+    <row r="231" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="11">
         <v>45937</v>
       </c>
@@ -3805,7 +3778,7 @@
       <c r="R231" s="13"/>
       <c r="Y231" s="13"/>
     </row>
-    <row r="232" spans="2:25" hidden="1">
+    <row r="232" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="11">
         <v>45937</v>
       </c>
@@ -3815,7 +3788,7 @@
       <c r="R232" s="13"/>
       <c r="Y232" s="13"/>
     </row>
-    <row r="233" spans="2:25" hidden="1">
+    <row r="233" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="11">
         <v>45937</v>
       </c>
@@ -3825,7 +3798,7 @@
       <c r="R233" s="13"/>
       <c r="Y233" s="13"/>
     </row>
-    <row r="234" spans="2:25" hidden="1">
+    <row r="234" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="11">
         <v>45937</v>
       </c>
@@ -3835,7 +3808,7 @@
       <c r="R234" s="13"/>
       <c r="Y234" s="13"/>
     </row>
-    <row r="235" spans="2:25" hidden="1">
+    <row r="235" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="11">
         <v>45938</v>
       </c>
@@ -3845,7 +3818,7 @@
       <c r="R235" s="13"/>
       <c r="Y235" s="13"/>
     </row>
-    <row r="236" spans="2:25" hidden="1">
+    <row r="236" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="11">
         <v>45938</v>
       </c>
@@ -3855,7 +3828,7 @@
       <c r="R236" s="13"/>
       <c r="Y236" s="13"/>
     </row>
-    <row r="237" spans="2:25" hidden="1">
+    <row r="237" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="11">
         <v>45938</v>
       </c>
@@ -3865,7 +3838,7 @@
       <c r="R237" s="13"/>
       <c r="Y237" s="13"/>
     </row>
-    <row r="238" spans="2:25" hidden="1">
+    <row r="238" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="11">
         <v>45938</v>
       </c>
@@ -3875,7 +3848,7 @@
       <c r="R238" s="13"/>
       <c r="Y238" s="13"/>
     </row>
-    <row r="239" spans="2:25" hidden="1">
+    <row r="239" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="11">
         <v>45938</v>
       </c>
@@ -3885,7 +3858,7 @@
       <c r="R239" s="13"/>
       <c r="Y239" s="13"/>
     </row>
-    <row r="240" spans="2:25" hidden="1">
+    <row r="240" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="11">
         <v>45938</v>
       </c>
@@ -3895,7 +3868,7 @@
       <c r="R240" s="13"/>
       <c r="Y240" s="13"/>
     </row>
-    <row r="241" spans="2:25" hidden="1">
+    <row r="241" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="11">
         <v>45938</v>
       </c>
@@ -3905,7 +3878,7 @@
       <c r="R241" s="13"/>
       <c r="Y241" s="13"/>
     </row>
-    <row r="242" spans="2:25" hidden="1">
+    <row r="242" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242" s="11">
         <v>45939</v>
       </c>
@@ -3915,7 +3888,7 @@
       <c r="R242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" hidden="1">
+    <row r="243" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243" s="11">
         <v>45939</v>
       </c>
@@ -3925,7 +3898,7 @@
       <c r="R243" s="13"/>
       <c r="Y243" s="13"/>
     </row>
-    <row r="244" spans="2:25" hidden="1">
+    <row r="244" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244" s="11">
         <v>45939</v>
       </c>
@@ -3935,7 +3908,7 @@
       <c r="R244" s="13"/>
       <c r="Y244" s="13"/>
     </row>
-    <row r="245" spans="2:25" hidden="1">
+    <row r="245" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245" s="11">
         <v>45939</v>
       </c>
@@ -3945,7 +3918,7 @@
       <c r="R245" s="13"/>
       <c r="Y245" s="13"/>
     </row>
-    <row r="246" spans="2:25" hidden="1">
+    <row r="246" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246" s="11">
         <v>45939</v>
       </c>
@@ -3955,7 +3928,7 @@
       <c r="R246" s="13"/>
       <c r="Y246" s="13"/>
     </row>
-    <row r="247" spans="2:25" hidden="1">
+    <row r="247" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="11">
         <v>45939</v>
       </c>
@@ -3965,7 +3938,7 @@
       <c r="R247" s="13"/>
       <c r="Y247" s="13"/>
     </row>
-    <row r="248" spans="2:25" hidden="1">
+    <row r="248" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="11">
         <v>45939</v>
       </c>
@@ -3975,7 +3948,7 @@
       <c r="R248" s="13"/>
       <c r="Y248" s="13"/>
     </row>
-    <row r="249" spans="2:25" hidden="1">
+    <row r="249" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" s="11">
         <v>45940</v>
       </c>
@@ -3985,7 +3958,7 @@
       <c r="R249" s="13"/>
       <c r="Y249" s="13"/>
     </row>
-    <row r="250" spans="2:25" hidden="1">
+    <row r="250" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250" s="11">
         <v>45940</v>
       </c>
@@ -3995,7 +3968,7 @@
       <c r="R250" s="13"/>
       <c r="Y250" s="13"/>
     </row>
-    <row r="251" spans="2:25" hidden="1">
+    <row r="251" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251" s="11">
         <v>45940</v>
       </c>
@@ -4005,7 +3978,7 @@
       <c r="R251" s="13"/>
       <c r="Y251" s="13"/>
     </row>
-    <row r="252" spans="2:25" hidden="1">
+    <row r="252" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252" s="11">
         <v>45940</v>
       </c>
@@ -4015,7 +3988,7 @@
       <c r="R252" s="13"/>
       <c r="Y252" s="13"/>
     </row>
-    <row r="253" spans="2:25" hidden="1">
+    <row r="253" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253" s="11">
         <v>45940</v>
       </c>
@@ -4025,7 +3998,7 @@
       <c r="R253" s="13"/>
       <c r="Y253" s="13"/>
     </row>
-    <row r="254" spans="2:25" hidden="1">
+    <row r="254" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254" s="11">
         <v>45940</v>
       </c>
@@ -4035,7 +4008,7 @@
       <c r="R254" s="13"/>
       <c r="Y254" s="13"/>
     </row>
-    <row r="255" spans="2:25" hidden="1">
+    <row r="255" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255" s="11">
         <v>45940</v>
       </c>
@@ -4045,7 +4018,7 @@
       <c r="R255" s="13"/>
       <c r="Y255" s="13"/>
     </row>
-    <row r="256" spans="2:25" hidden="1">
+    <row r="256" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B256" s="11">
         <v>45941</v>
       </c>
@@ -4055,7 +4028,7 @@
       <c r="R256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="2:25" hidden="1">
+    <row r="257" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257" s="11">
         <v>45941</v>
       </c>
@@ -4065,7 +4038,7 @@
       <c r="R257" s="13"/>
       <c r="Y257" s="13"/>
     </row>
-    <row r="258" spans="2:25" hidden="1">
+    <row r="258" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B258" s="11">
         <v>45941</v>
       </c>
@@ -4075,7 +4048,7 @@
       <c r="R258" s="13"/>
       <c r="Y258" s="13"/>
     </row>
-    <row r="259" spans="2:25" hidden="1">
+    <row r="259" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B259" s="11">
         <v>45941</v>
       </c>
@@ -4085,7 +4058,7 @@
       <c r="R259" s="13"/>
       <c r="Y259" s="13"/>
     </row>
-    <row r="260" spans="2:25" hidden="1">
+    <row r="260" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B260" s="11">
         <v>45941</v>
       </c>
@@ -4095,7 +4068,7 @@
       <c r="R260" s="13"/>
       <c r="Y260" s="13"/>
     </row>
-    <row r="261" spans="2:25" hidden="1">
+    <row r="261" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B261" s="11">
         <v>45941</v>
       </c>
@@ -4105,7 +4078,7 @@
       <c r="R261" s="13"/>
       <c r="Y261" s="13"/>
     </row>
-    <row r="262" spans="2:25" hidden="1">
+    <row r="262" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B262" s="11">
         <v>45941</v>
       </c>
@@ -4115,7 +4088,7 @@
       <c r="R262" s="13"/>
       <c r="Y262" s="13"/>
     </row>
-    <row r="263" spans="2:25" hidden="1">
+    <row r="263" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B263" s="11">
         <v>45942</v>
       </c>
@@ -4125,7 +4098,7 @@
       <c r="R263" s="13"/>
       <c r="Y263" s="13"/>
     </row>
-    <row r="264" spans="2:25" hidden="1">
+    <row r="264" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B264" s="11">
         <v>45942</v>
       </c>
@@ -4135,7 +4108,7 @@
       <c r="R264" s="13"/>
       <c r="Y264" s="13"/>
     </row>
-    <row r="265" spans="2:25" hidden="1">
+    <row r="265" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B265" s="11">
         <v>45942</v>
       </c>
@@ -4145,7 +4118,7 @@
       <c r="R265" s="13"/>
       <c r="Y265" s="13"/>
     </row>
-    <row r="266" spans="2:25" hidden="1">
+    <row r="266" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B266" s="11">
         <v>45942</v>
       </c>
@@ -4155,7 +4128,7 @@
       <c r="R266" s="13"/>
       <c r="Y266" s="13"/>
     </row>
-    <row r="267" spans="2:25" hidden="1">
+    <row r="267" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267" s="11">
         <v>45942</v>
       </c>
@@ -4165,7 +4138,7 @@
       <c r="R267" s="13"/>
       <c r="Y267" s="13"/>
     </row>
-    <row r="268" spans="2:25" hidden="1">
+    <row r="268" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B268" s="11">
         <v>45942</v>
       </c>
@@ -4175,7 +4148,7 @@
       <c r="R268" s="13"/>
       <c r="Y268" s="13"/>
     </row>
-    <row r="269" spans="2:25" hidden="1">
+    <row r="269" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="11">
         <v>45942</v>
       </c>
@@ -4185,7 +4158,7 @@
       <c r="R269" s="13"/>
       <c r="Y269" s="13"/>
     </row>
-    <row r="270" spans="2:25" hidden="1">
+    <row r="270" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="11">
         <v>45943</v>
       </c>
@@ -4195,7 +4168,7 @@
       <c r="R270" s="13"/>
       <c r="Y270" s="13"/>
     </row>
-    <row r="271" spans="2:25" hidden="1">
+    <row r="271" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="11">
         <v>45943</v>
       </c>
@@ -4205,7 +4178,7 @@
       <c r="R271" s="13"/>
       <c r="Y271" s="13"/>
     </row>
-    <row r="272" spans="2:25" hidden="1">
+    <row r="272" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="11">
         <v>45943</v>
       </c>
@@ -4215,7 +4188,7 @@
       <c r="R272" s="13"/>
       <c r="Y272" s="13"/>
     </row>
-    <row r="273" spans="2:25" hidden="1">
+    <row r="273" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="11">
         <v>45943</v>
       </c>
@@ -4225,7 +4198,7 @@
       <c r="R273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" hidden="1">
+    <row r="274" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274" s="11">
         <v>45943</v>
       </c>
@@ -4235,7 +4208,7 @@
       <c r="R274" s="13"/>
       <c r="Y274" s="13"/>
     </row>
-    <row r="275" spans="2:25" hidden="1">
+    <row r="275" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275" s="11">
         <v>45943</v>
       </c>
@@ -4245,7 +4218,7 @@
       <c r="R275" s="13"/>
       <c r="Y275" s="13"/>
     </row>
-    <row r="276" spans="2:25" hidden="1">
+    <row r="276" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276" s="11">
         <v>45943</v>
       </c>
@@ -4255,7 +4228,7 @@
       <c r="R276" s="13"/>
       <c r="Y276" s="13"/>
     </row>
-    <row r="277" spans="2:25" hidden="1">
+    <row r="277" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B277" s="11">
         <v>45944</v>
       </c>
@@ -4265,7 +4238,7 @@
       <c r="R277" s="13"/>
       <c r="Y277" s="13"/>
     </row>
-    <row r="278" spans="2:25" hidden="1">
+    <row r="278" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B278" s="11">
         <v>45944</v>
       </c>
@@ -4275,7 +4248,7 @@
       <c r="R278" s="13"/>
       <c r="Y278" s="13"/>
     </row>
-    <row r="279" spans="2:25" hidden="1">
+    <row r="279" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B279" s="11">
         <v>45944</v>
       </c>
@@ -4285,7 +4258,7 @@
       <c r="R279" s="13"/>
       <c r="Y279" s="13"/>
     </row>
-    <row r="280" spans="2:25" hidden="1">
+    <row r="280" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B280" s="11">
         <v>45944</v>
       </c>
@@ -4295,7 +4268,7 @@
       <c r="R280" s="13"/>
       <c r="Y280" s="13"/>
     </row>
-    <row r="281" spans="2:25" hidden="1">
+    <row r="281" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281" s="11">
         <v>45944</v>
       </c>
@@ -4305,7 +4278,7 @@
       <c r="R281" s="13"/>
       <c r="Y281" s="13"/>
     </row>
-    <row r="282" spans="2:25" hidden="1">
+    <row r="282" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B282" s="11">
         <v>45944</v>
       </c>
@@ -4315,7 +4288,7 @@
       <c r="R282" s="13"/>
       <c r="Y282" s="13"/>
     </row>
-    <row r="283" spans="2:25" hidden="1">
+    <row r="283" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B283" s="11">
         <v>45944</v>
       </c>
@@ -4325,7 +4298,7 @@
       <c r="R283" s="13"/>
       <c r="Y283" s="13"/>
     </row>
-    <row r="284" spans="2:25" hidden="1">
+    <row r="284" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B284" s="11">
         <v>45945</v>
       </c>
@@ -4335,7 +4308,7 @@
       <c r="R284" s="13"/>
       <c r="Y284" s="13"/>
     </row>
-    <row r="285" spans="2:25" hidden="1">
+    <row r="285" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B285" s="11">
         <v>45945</v>
       </c>
@@ -4345,7 +4318,7 @@
       <c r="R285" s="13"/>
       <c r="Y285" s="13"/>
     </row>
-    <row r="286" spans="2:25" hidden="1">
+    <row r="286" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B286" s="11">
         <v>45945</v>
       </c>
@@ -4355,7 +4328,7 @@
       <c r="R286" s="13"/>
       <c r="Y286" s="13"/>
     </row>
-    <row r="287" spans="2:25" hidden="1">
+    <row r="287" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B287" s="11">
         <v>45945</v>
       </c>
@@ -4365,7 +4338,7 @@
       <c r="R287" s="13"/>
       <c r="Y287" s="13"/>
     </row>
-    <row r="288" spans="2:25" hidden="1">
+    <row r="288" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288" s="11">
         <v>45945</v>
       </c>
@@ -4375,7 +4348,7 @@
       <c r="R288" s="13"/>
       <c r="Y288" s="13"/>
     </row>
-    <row r="289" spans="2:25" hidden="1">
+    <row r="289" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289" s="11">
         <v>45945</v>
       </c>
@@ -4385,7 +4358,7 @@
       <c r="R289" s="13"/>
       <c r="Y289" s="13"/>
     </row>
-    <row r="290" spans="2:25" hidden="1">
+    <row r="290" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B290" s="11">
         <v>45945</v>
       </c>
@@ -4395,7 +4368,7 @@
       <c r="R290" s="13"/>
       <c r="Y290" s="13"/>
     </row>
-    <row r="291" spans="2:25" hidden="1">
+    <row r="291" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291" s="11">
         <v>45946</v>
       </c>
@@ -4405,7 +4378,7 @@
       <c r="R291" s="13"/>
       <c r="Y291" s="13"/>
     </row>
-    <row r="292" spans="2:25" hidden="1">
+    <row r="292" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292" s="11">
         <v>45946</v>
       </c>
@@ -4415,7 +4388,7 @@
       <c r="R292" s="13"/>
       <c r="Y292" s="13"/>
     </row>
-    <row r="293" spans="2:25" hidden="1">
+    <row r="293" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293" s="11">
         <v>45946</v>
       </c>
@@ -4425,7 +4398,7 @@
       <c r="R293" s="13"/>
       <c r="Y293" s="13"/>
     </row>
-    <row r="294" spans="2:25" hidden="1">
+    <row r="294" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294" s="11">
         <v>45946</v>
       </c>
@@ -4435,7 +4408,7 @@
       <c r="R294" s="13"/>
       <c r="Y294" s="13"/>
     </row>
-    <row r="295" spans="2:25" hidden="1">
+    <row r="295" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295" s="11">
         <v>45946</v>
       </c>
@@ -4445,7 +4418,7 @@
       <c r="R295" s="13"/>
       <c r="Y295" s="13"/>
     </row>
-    <row r="296" spans="2:25" hidden="1">
+    <row r="296" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296" s="11">
         <v>45946</v>
       </c>
@@ -4455,7 +4428,7 @@
       <c r="R296" s="13"/>
       <c r="Y296" s="13"/>
     </row>
-    <row r="297" spans="2:25" hidden="1">
+    <row r="297" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297" s="11">
         <v>45946</v>
       </c>
@@ -4465,7 +4438,7 @@
       <c r="R297" s="13"/>
       <c r="Y297" s="13"/>
     </row>
-    <row r="298" spans="2:25" hidden="1">
+    <row r="298" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298" s="11">
         <v>45947</v>
       </c>
@@ -4475,7 +4448,7 @@
       <c r="R298" s="13"/>
       <c r="Y298" s="13"/>
     </row>
-    <row r="299" spans="2:25" hidden="1">
+    <row r="299" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299" s="11">
         <v>45947</v>
       </c>
@@ -4485,7 +4458,7 @@
       <c r="R299" s="13"/>
       <c r="Y299" s="13"/>
     </row>
-    <row r="300" spans="2:25" hidden="1">
+    <row r="300" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300" s="11">
         <v>45947</v>
       </c>
@@ -4495,7 +4468,7 @@
       <c r="R300" s="13"/>
       <c r="Y300" s="13"/>
     </row>
-    <row r="301" spans="2:25" hidden="1">
+    <row r="301" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B301" s="11">
         <v>45947</v>
       </c>
@@ -4505,7 +4478,7 @@
       <c r="R301" s="13"/>
       <c r="Y301" s="13"/>
     </row>
-    <row r="302" spans="2:25" hidden="1">
+    <row r="302" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B302" s="11">
         <v>45947</v>
       </c>
@@ -4515,7 +4488,7 @@
       <c r="R302" s="13"/>
       <c r="Y302" s="13"/>
     </row>
-    <row r="303" spans="2:25" hidden="1">
+    <row r="303" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="11">
         <v>45947</v>
       </c>
@@ -4525,7 +4498,7 @@
       <c r="R303" s="13"/>
       <c r="Y303" s="13"/>
     </row>
-    <row r="304" spans="2:25" hidden="1">
+    <row r="304" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B304" s="11">
         <v>45947</v>
       </c>
@@ -4535,7 +4508,7 @@
       <c r="R304" s="13"/>
       <c r="Y304" s="13"/>
     </row>
-    <row r="305" spans="2:25" hidden="1">
+    <row r="305" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B305" s="11">
         <v>45948</v>
       </c>
@@ -4545,7 +4518,7 @@
       <c r="R305" s="13"/>
       <c r="Y305" s="13"/>
     </row>
-    <row r="306" spans="2:25" hidden="1">
+    <row r="306" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306" s="11">
         <v>45948</v>
       </c>
@@ -4555,7 +4528,7 @@
       <c r="R306" s="13"/>
       <c r="Y306" s="13"/>
     </row>
-    <row r="307" spans="2:25" hidden="1">
+    <row r="307" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="11">
         <v>45948</v>
       </c>
@@ -4565,7 +4538,7 @@
       <c r="R307" s="13"/>
       <c r="Y307" s="13"/>
     </row>
-    <row r="308" spans="2:25" hidden="1">
+    <row r="308" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308" s="11">
         <v>45948</v>
       </c>
@@ -4575,7 +4548,7 @@
       <c r="R308" s="13"/>
       <c r="Y308" s="13"/>
     </row>
-    <row r="309" spans="2:25" hidden="1">
+    <row r="309" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="11">
         <v>45948</v>
       </c>
@@ -4585,7 +4558,7 @@
       <c r="R309" s="13"/>
       <c r="Y309" s="13"/>
     </row>
-    <row r="310" spans="2:25" hidden="1">
+    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="11">
         <v>45948</v>
       </c>
@@ -4595,7 +4568,7 @@
       <c r="R310" s="13"/>
       <c r="Y310" s="13"/>
     </row>
-    <row r="311" spans="2:25" hidden="1">
+    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B311" s="11">
         <v>45948</v>
       </c>
@@ -4605,7 +4578,7 @@
       <c r="R311" s="13"/>
       <c r="Y311" s="13"/>
     </row>
-    <row r="312" spans="2:25" hidden="1">
+    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B312" s="11">
         <v>45949</v>
       </c>
@@ -4615,7 +4588,7 @@
       <c r="R312" s="13"/>
       <c r="Y312" s="13"/>
     </row>
-    <row r="313" spans="2:25" hidden="1">
+    <row r="313" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B313" s="11">
         <v>45949</v>
       </c>
@@ -4625,7 +4598,7 @@
       <c r="R313" s="13"/>
       <c r="Y313" s="13"/>
     </row>
-    <row r="314" spans="2:25" hidden="1">
+    <row r="314" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314" s="11">
         <v>45949</v>
       </c>
@@ -4635,7 +4608,7 @@
       <c r="R314" s="13"/>
       <c r="Y314" s="13"/>
     </row>
-    <row r="315" spans="2:25" hidden="1">
+    <row r="315" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="11">
         <v>45949</v>
       </c>
@@ -4645,7 +4618,7 @@
       <c r="R315" s="13"/>
       <c r="Y315" s="13"/>
     </row>
-    <row r="316" spans="2:25" hidden="1">
+    <row r="316" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316" s="11">
         <v>45949</v>
       </c>
@@ -4655,7 +4628,7 @@
       <c r="R316" s="13"/>
       <c r="Y316" s="13"/>
     </row>
-    <row r="317" spans="2:25" hidden="1">
+    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B317" s="11">
         <v>45949</v>
       </c>
@@ -4665,7 +4638,7 @@
       <c r="R317" s="13"/>
       <c r="Y317" s="13"/>
     </row>
-    <row r="318" spans="2:25" hidden="1">
+    <row r="318" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B318" s="11">
         <v>45949</v>
       </c>
@@ -4675,7 +4648,7 @@
       <c r="R318" s="13"/>
       <c r="Y318" s="13"/>
     </row>
-    <row r="319" spans="2:25" hidden="1">
+    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B319" s="11">
         <v>45950</v>
       </c>
@@ -4685,7 +4658,7 @@
       <c r="R319" s="13"/>
       <c r="Y319" s="13"/>
     </row>
-    <row r="320" spans="2:25" hidden="1">
+    <row r="320" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B320" s="11">
         <v>45950</v>
       </c>
@@ -4695,7 +4668,7 @@
       <c r="R320" s="13"/>
       <c r="Y320" s="13"/>
     </row>
-    <row r="321" spans="2:25" hidden="1">
+    <row r="321" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B321" s="11">
         <v>45950</v>
       </c>
@@ -4705,7 +4678,7 @@
       <c r="R321" s="13"/>
       <c r="Y321" s="13"/>
     </row>
-    <row r="322" spans="2:25" hidden="1">
+    <row r="322" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="11">
         <v>45950</v>
       </c>
@@ -4715,7 +4688,7 @@
       <c r="R322" s="13"/>
       <c r="Y322" s="13"/>
     </row>
-    <row r="323" spans="2:25" hidden="1">
+    <row r="323" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="11">
         <v>45950</v>
       </c>
@@ -4725,7 +4698,7 @@
       <c r="R323" s="13"/>
       <c r="Y323" s="13"/>
     </row>
-    <row r="324" spans="2:25" hidden="1">
+    <row r="324" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="11">
         <v>45950</v>
       </c>
@@ -4735,7 +4708,7 @@
       <c r="R324" s="13"/>
       <c r="Y324" s="13"/>
     </row>
-    <row r="325" spans="2:25" hidden="1">
+    <row r="325" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="11">
         <v>45950</v>
       </c>
@@ -4745,7 +4718,7 @@
       <c r="R325" s="13"/>
       <c r="Y325" s="13"/>
     </row>
-    <row r="326" spans="2:25" hidden="1">
+    <row r="326" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="11">
         <v>45951</v>
       </c>
@@ -4755,7 +4728,7 @@
       <c r="R326" s="13"/>
       <c r="Y326" s="13"/>
     </row>
-    <row r="327" spans="2:25" hidden="1">
+    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B327" s="11">
         <v>45951</v>
       </c>
@@ -4765,7 +4738,7 @@
       <c r="R327" s="13"/>
       <c r="Y327" s="13"/>
     </row>
-    <row r="328" spans="2:25" hidden="1">
+    <row r="328" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B328" s="11">
         <v>45951</v>
       </c>
@@ -4775,7 +4748,7 @@
       <c r="R328" s="13"/>
       <c r="Y328" s="13"/>
     </row>
-    <row r="329" spans="2:25" hidden="1">
+    <row r="329" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B329" s="11">
         <v>45951</v>
       </c>
@@ -4785,7 +4758,7 @@
       <c r="R329" s="13"/>
       <c r="Y329" s="13"/>
     </row>
-    <row r="330" spans="2:25" hidden="1">
+    <row r="330" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B330" s="11">
         <v>45951</v>
       </c>
@@ -4795,7 +4768,7 @@
       <c r="R330" s="13"/>
       <c r="Y330" s="13"/>
     </row>
-    <row r="331" spans="2:25" hidden="1">
+    <row r="331" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B331" s="11">
         <v>45951</v>
       </c>
@@ -4805,7 +4778,7 @@
       <c r="R331" s="13"/>
       <c r="Y331" s="13"/>
     </row>
-    <row r="332" spans="2:25" hidden="1">
+    <row r="332" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B332" s="11">
         <v>45951</v>
       </c>
@@ -4815,7 +4788,7 @@
       <c r="R332" s="13"/>
       <c r="Y332" s="13"/>
     </row>
-    <row r="333" spans="2:25" hidden="1">
+    <row r="333" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B333" s="11">
         <v>45952</v>
       </c>
@@ -4825,7 +4798,7 @@
       <c r="R333" s="13"/>
       <c r="Y333" s="13"/>
     </row>
-    <row r="334" spans="2:25" hidden="1">
+    <row r="334" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B334" s="11">
         <v>45952</v>
       </c>
@@ -4835,7 +4808,7 @@
       <c r="R334" s="13"/>
       <c r="Y334" s="13"/>
     </row>
-    <row r="335" spans="2:25" hidden="1">
+    <row r="335" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335" s="11">
         <v>45952</v>
       </c>
@@ -4845,7 +4818,7 @@
       <c r="R335" s="13"/>
       <c r="Y335" s="13"/>
     </row>
-    <row r="336" spans="2:25" hidden="1">
+    <row r="336" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B336" s="11">
         <v>45952</v>
       </c>
@@ -4855,7 +4828,7 @@
       <c r="R336" s="13"/>
       <c r="Y336" s="13"/>
     </row>
-    <row r="337" spans="2:25" hidden="1">
+    <row r="337" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B337" s="11">
         <v>45952</v>
       </c>
@@ -4865,7 +4838,7 @@
       <c r="R337" s="13"/>
       <c r="Y337" s="13"/>
     </row>
-    <row r="338" spans="2:25" hidden="1">
+    <row r="338" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B338" s="11">
         <v>45952</v>
       </c>
@@ -4875,7 +4848,7 @@
       <c r="R338" s="13"/>
       <c r="Y338" s="13"/>
     </row>
-    <row r="339" spans="2:25" hidden="1">
+    <row r="339" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B339" s="11">
         <v>45952</v>
       </c>
@@ -4885,7 +4858,7 @@
       <c r="R339" s="13"/>
       <c r="Y339" s="13"/>
     </row>
-    <row r="340" spans="2:25" hidden="1">
+    <row r="340" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B340" s="11">
         <v>45953</v>
       </c>
@@ -4895,7 +4868,7 @@
       <c r="R340" s="13"/>
       <c r="Y340" s="13"/>
     </row>
-    <row r="341" spans="2:25" hidden="1">
+    <row r="341" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B341" s="11">
         <v>45953</v>
       </c>
@@ -4905,7 +4878,7 @@
       <c r="R341" s="13"/>
       <c r="Y341" s="13"/>
     </row>
-    <row r="342" spans="2:25" hidden="1">
+    <row r="342" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B342" s="11">
         <v>45953</v>
       </c>
@@ -4915,7 +4888,7 @@
       <c r="R342" s="13"/>
       <c r="Y342" s="13"/>
     </row>
-    <row r="343" spans="2:25" hidden="1">
+    <row r="343" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B343" s="11">
         <v>45953</v>
       </c>
@@ -4925,7 +4898,7 @@
       <c r="R343" s="13"/>
       <c r="Y343" s="13"/>
     </row>
-    <row r="344" spans="2:25" hidden="1">
+    <row r="344" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B344" s="11">
         <v>45953</v>
       </c>
@@ -4935,7 +4908,7 @@
       <c r="R344" s="13"/>
       <c r="Y344" s="13"/>
     </row>
-    <row r="345" spans="2:25" hidden="1">
+    <row r="345" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B345" s="11">
         <v>45953</v>
       </c>
@@ -4945,7 +4918,7 @@
       <c r="R345" s="13"/>
       <c r="Y345" s="13"/>
     </row>
-    <row r="346" spans="2:25" hidden="1">
+    <row r="346" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="11">
         <v>45953</v>
       </c>
@@ -4955,7 +4928,7 @@
       <c r="R346" s="13"/>
       <c r="Y346" s="13"/>
     </row>
-    <row r="347" spans="2:25" hidden="1">
+    <row r="347" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B347" s="11">
         <v>45954</v>
       </c>
@@ -4965,7 +4938,7 @@
       <c r="R347" s="13"/>
       <c r="Y347" s="13"/>
     </row>
-    <row r="348" spans="2:25" hidden="1">
+    <row r="348" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="11">
         <v>45954</v>
       </c>
@@ -4975,7 +4948,7 @@
       <c r="R348" s="13"/>
       <c r="Y348" s="13"/>
     </row>
-    <row r="349" spans="2:25" hidden="1">
+    <row r="349" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B349" s="11">
         <v>45954</v>
       </c>
@@ -4985,7 +4958,7 @@
       <c r="R349" s="13"/>
       <c r="Y349" s="13"/>
     </row>
-    <row r="350" spans="2:25" hidden="1">
+    <row r="350" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B350" s="11">
         <v>45954</v>
       </c>
@@ -4995,7 +4968,7 @@
       <c r="R350" s="13"/>
       <c r="Y350" s="13"/>
     </row>
-    <row r="351" spans="2:25" hidden="1">
+    <row r="351" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B351" s="11">
         <v>45954</v>
       </c>
@@ -5005,7 +4978,7 @@
       <c r="R351" s="13"/>
       <c r="Y351" s="13"/>
     </row>
-    <row r="352" spans="2:25" hidden="1">
+    <row r="352" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B352" s="11">
         <v>45954</v>
       </c>
@@ -5015,7 +4988,7 @@
       <c r="R352" s="13"/>
       <c r="Y352" s="13"/>
     </row>
-    <row r="353" spans="2:25" hidden="1">
+    <row r="353" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B353" s="11">
         <v>45954</v>
       </c>
@@ -5025,7 +4998,7 @@
       <c r="R353" s="13"/>
       <c r="Y353" s="13"/>
     </row>
-    <row r="354" spans="2:25" hidden="1">
+    <row r="354" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B354" s="11">
         <v>45955</v>
       </c>
@@ -5035,7 +5008,7 @@
       <c r="R354" s="13"/>
       <c r="Y354" s="13"/>
     </row>
-    <row r="355" spans="2:25" hidden="1">
+    <row r="355" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B355" s="11">
         <v>45955</v>
       </c>
@@ -5045,7 +5018,7 @@
       <c r="R355" s="13"/>
       <c r="Y355" s="13"/>
     </row>
-    <row r="356" spans="2:25" hidden="1">
+    <row r="356" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B356" s="11">
         <v>45955</v>
       </c>
@@ -5055,7 +5028,7 @@
       <c r="R356" s="13"/>
       <c r="Y356" s="13"/>
     </row>
-    <row r="357" spans="2:25" hidden="1">
+    <row r="357" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B357" s="11">
         <v>45955</v>
       </c>
@@ -5065,7 +5038,7 @@
       <c r="R357" s="13"/>
       <c r="Y357" s="13"/>
     </row>
-    <row r="358" spans="2:25" hidden="1">
+    <row r="358" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B358" s="11">
         <v>45955</v>
       </c>
@@ -5075,7 +5048,7 @@
       <c r="R358" s="13"/>
       <c r="Y358" s="13"/>
     </row>
-    <row r="359" spans="2:25" hidden="1">
+    <row r="359" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B359" s="11">
         <v>45955</v>
       </c>
@@ -5085,7 +5058,7 @@
       <c r="R359" s="13"/>
       <c r="Y359" s="13"/>
     </row>
-    <row r="360" spans="2:25" hidden="1">
+    <row r="360" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B360" s="11">
         <v>45955</v>
       </c>
@@ -5095,7 +5068,7 @@
       <c r="R360" s="13"/>
       <c r="Y360" s="13"/>
     </row>
-    <row r="361" spans="2:25" hidden="1">
+    <row r="361" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B361" s="11">
         <v>45956</v>
       </c>
@@ -5105,7 +5078,7 @@
       <c r="R361" s="13"/>
       <c r="Y361" s="13"/>
     </row>
-    <row r="362" spans="2:25" hidden="1">
+    <row r="362" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B362" s="11">
         <v>45956</v>
       </c>
@@ -5115,7 +5088,7 @@
       <c r="R362" s="13"/>
       <c r="Y362" s="13"/>
     </row>
-    <row r="363" spans="2:25" hidden="1">
+    <row r="363" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B363" s="11">
         <v>45956</v>
       </c>
@@ -5125,7 +5098,7 @@
       <c r="R363" s="13"/>
       <c r="Y363" s="13"/>
     </row>
-    <row r="364" spans="2:25" hidden="1">
+    <row r="364" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B364" s="11">
         <v>45956</v>
       </c>
@@ -5135,7 +5108,7 @@
       <c r="R364" s="13"/>
       <c r="Y364" s="13"/>
     </row>
-    <row r="365" spans="2:25" hidden="1">
+    <row r="365" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B365" s="11">
         <v>45956</v>
       </c>
@@ -5145,7 +5118,7 @@
       <c r="R365" s="13"/>
       <c r="Y365" s="13"/>
     </row>
-    <row r="366" spans="2:25" hidden="1">
+    <row r="366" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B366" s="11">
         <v>45956</v>
       </c>
@@ -5155,7 +5128,7 @@
       <c r="R366" s="13"/>
       <c r="Y366" s="13"/>
     </row>
-    <row r="367" spans="2:25" hidden="1">
+    <row r="367" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B367" s="11">
         <v>45956</v>
       </c>
@@ -5165,7 +5138,7 @@
       <c r="R367" s="13"/>
       <c r="Y367" s="13"/>
     </row>
-    <row r="368" spans="2:25" hidden="1">
+    <row r="368" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="11">
         <v>45957</v>
       </c>
@@ -5175,7 +5148,7 @@
       <c r="R368" s="13"/>
       <c r="Y368" s="13"/>
     </row>
-    <row r="369" spans="2:25" hidden="1">
+    <row r="369" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369" s="11">
         <v>45957</v>
       </c>
@@ -5185,7 +5158,7 @@
       <c r="R369" s="13"/>
       <c r="Y369" s="13"/>
     </row>
-    <row r="370" spans="2:25" hidden="1">
+    <row r="370" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B370" s="11">
         <v>45957</v>
       </c>
@@ -5195,7 +5168,7 @@
       <c r="R370" s="13"/>
       <c r="Y370" s="13"/>
     </row>
-    <row r="371" spans="2:25" hidden="1">
+    <row r="371" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B371" s="11">
         <v>45957</v>
       </c>
@@ -5205,7 +5178,7 @@
       <c r="R371" s="13"/>
       <c r="Y371" s="13"/>
     </row>
-    <row r="372" spans="2:25" hidden="1">
+    <row r="372" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B372" s="11">
         <v>45957</v>
       </c>
@@ -5215,7 +5188,7 @@
       <c r="R372" s="13"/>
       <c r="Y372" s="13"/>
     </row>
-    <row r="373" spans="2:25" hidden="1">
+    <row r="373" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B373" s="11">
         <v>45957</v>
       </c>
@@ -5225,7 +5198,7 @@
       <c r="R373" s="13"/>
       <c r="Y373" s="13"/>
     </row>
-    <row r="374" spans="2:25" hidden="1">
+    <row r="374" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B374" s="11">
         <v>45957</v>
       </c>
@@ -5235,7 +5208,7 @@
       <c r="R374" s="13"/>
       <c r="Y374" s="13"/>
     </row>
-    <row r="375" spans="2:25" hidden="1">
+    <row r="375" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B375" s="11">
         <v>45958</v>
       </c>
@@ -5245,7 +5218,7 @@
       <c r="R375" s="13"/>
       <c r="Y375" s="13"/>
     </row>
-    <row r="376" spans="2:25" hidden="1">
+    <row r="376" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B376" s="11">
         <v>45958</v>
       </c>
@@ -5255,7 +5228,7 @@
       <c r="R376" s="13"/>
       <c r="Y376" s="13"/>
     </row>
-    <row r="377" spans="2:25" hidden="1">
+    <row r="377" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B377" s="11">
         <v>45958</v>
       </c>
@@ -5265,7 +5238,7 @@
       <c r="R377" s="13"/>
       <c r="Y377" s="13"/>
     </row>
-    <row r="378" spans="2:25" hidden="1">
+    <row r="378" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B378" s="11">
         <v>45958</v>
       </c>
@@ -5275,7 +5248,7 @@
       <c r="R378" s="13"/>
       <c r="Y378" s="13"/>
     </row>
-    <row r="379" spans="2:25" hidden="1">
+    <row r="379" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B379" s="11">
         <v>45958</v>
       </c>
@@ -5285,7 +5258,7 @@
       <c r="R379" s="13"/>
       <c r="Y379" s="13"/>
     </row>
-    <row r="380" spans="2:25" hidden="1">
+    <row r="380" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B380" s="11">
         <v>45958</v>
       </c>
@@ -5295,7 +5268,7 @@
       <c r="R380" s="13"/>
       <c r="Y380" s="13"/>
     </row>
-    <row r="381" spans="2:25" hidden="1">
+    <row r="381" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B381" s="11">
         <v>45958</v>
       </c>
@@ -5305,7 +5278,7 @@
       <c r="R381" s="13"/>
       <c r="Y381" s="13"/>
     </row>
-    <row r="382" spans="2:25" hidden="1">
+    <row r="382" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B382" s="11">
         <v>45959</v>
       </c>
@@ -5315,7 +5288,7 @@
       <c r="R382" s="13"/>
       <c r="Y382" s="13"/>
     </row>
-    <row r="383" spans="2:25" hidden="1">
+    <row r="383" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B383" s="11">
         <v>45959</v>
       </c>
@@ -5325,7 +5298,7 @@
       <c r="R383" s="13"/>
       <c r="Y383" s="13"/>
     </row>
-    <row r="384" spans="2:25" hidden="1">
+    <row r="384" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B384" s="11">
         <v>45959</v>
       </c>
@@ -5335,7 +5308,7 @@
       <c r="R384" s="13"/>
       <c r="Y384" s="13"/>
     </row>
-    <row r="385" spans="2:25" hidden="1">
+    <row r="385" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B385" s="11">
         <v>45959</v>
       </c>
@@ -5345,7 +5318,7 @@
       <c r="R385" s="13"/>
       <c r="Y385" s="13"/>
     </row>
-    <row r="386" spans="2:25" hidden="1">
+    <row r="386" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B386" s="11">
         <v>45959</v>
       </c>
@@ -5355,7 +5328,7 @@
       <c r="R386" s="13"/>
       <c r="Y386" s="13"/>
     </row>
-    <row r="387" spans="2:25" hidden="1">
+    <row r="387" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B387" s="11">
         <v>45959</v>
       </c>
@@ -5365,7 +5338,7 @@
       <c r="R387" s="13"/>
       <c r="Y387" s="13"/>
     </row>
-    <row r="388" spans="2:25" hidden="1">
+    <row r="388" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B388" s="11">
         <v>45959</v>
       </c>
@@ -5375,7 +5348,7 @@
       <c r="R388" s="13"/>
       <c r="Y388" s="13"/>
     </row>
-    <row r="389" spans="2:25" hidden="1">
+    <row r="389" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B389" s="11">
         <v>45960</v>
       </c>
@@ -5385,7 +5358,7 @@
       <c r="R389" s="13"/>
       <c r="Y389" s="13"/>
     </row>
-    <row r="390" spans="2:25" hidden="1">
+    <row r="390" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B390" s="11">
         <v>45960</v>
       </c>
@@ -5395,7 +5368,7 @@
       <c r="R390" s="13"/>
       <c r="Y390" s="13"/>
     </row>
-    <row r="391" spans="2:25" hidden="1">
+    <row r="391" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B391" s="11">
         <v>45960</v>
       </c>
@@ -5405,7 +5378,7 @@
       <c r="R391" s="13"/>
       <c r="Y391" s="13"/>
     </row>
-    <row r="392" spans="2:25" hidden="1">
+    <row r="392" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B392" s="11">
         <v>45960</v>
       </c>
@@ -5415,7 +5388,7 @@
       <c r="R392" s="13"/>
       <c r="Y392" s="13"/>
     </row>
-    <row r="393" spans="2:25" hidden="1">
+    <row r="393" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="11">
         <v>45960</v>
       </c>
@@ -5425,7 +5398,7 @@
       <c r="R393" s="13"/>
       <c r="Y393" s="13"/>
     </row>
-    <row r="394" spans="2:25" hidden="1">
+    <row r="394" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="11">
         <v>45960</v>
       </c>
@@ -5435,7 +5408,7 @@
       <c r="R394" s="13"/>
       <c r="Y394" s="13"/>
     </row>
-    <row r="395" spans="2:25" hidden="1">
+    <row r="395" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="11">
         <v>45960</v>
       </c>
@@ -5445,7 +5418,7 @@
       <c r="R395" s="13"/>
       <c r="Y395" s="13"/>
     </row>
-    <row r="396" spans="2:25" hidden="1">
+    <row r="396" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B396" s="11">
         <v>45961</v>
       </c>
@@ -5455,7 +5428,7 @@
       <c r="R396" s="13"/>
       <c r="Y396" s="13"/>
     </row>
-    <row r="397" spans="2:25" hidden="1">
+    <row r="397" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B397" s="11">
         <v>45961</v>
       </c>
@@ -5465,7 +5438,7 @@
       <c r="R397" s="13"/>
       <c r="Y397" s="13"/>
     </row>
-    <row r="398" spans="2:25" hidden="1">
+    <row r="398" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B398" s="11">
         <v>45961</v>
       </c>
@@ -5475,7 +5448,7 @@
       <c r="R398" s="13"/>
       <c r="Y398" s="13"/>
     </row>
-    <row r="399" spans="2:25" hidden="1">
+    <row r="399" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B399" s="11">
         <v>45961</v>
       </c>
@@ -5485,7 +5458,7 @@
       <c r="R399" s="13"/>
       <c r="Y399" s="13"/>
     </row>
-    <row r="400" spans="2:25" hidden="1">
+    <row r="400" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B400" s="11">
         <v>45961</v>
       </c>
@@ -5495,7 +5468,7 @@
       <c r="R400" s="13"/>
       <c r="Y400" s="13"/>
     </row>
-    <row r="401" spans="2:25" hidden="1">
+    <row r="401" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B401" s="11">
         <v>45961</v>
       </c>
@@ -5505,7 +5478,7 @@
       <c r="R401" s="13"/>
       <c r="Y401" s="13"/>
     </row>
-    <row r="402" spans="2:25" hidden="1">
+    <row r="402" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B402" s="11">
         <v>45961</v>
       </c>
@@ -5515,7 +5488,7 @@
       <c r="R402" s="13"/>
       <c r="Y402" s="13"/>
     </row>
-    <row r="403" spans="2:25" hidden="1">
+    <row r="403" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B403" s="11">
         <v>45962</v>
       </c>
@@ -5525,7 +5498,7 @@
       <c r="R403" s="13"/>
       <c r="Y403" s="13"/>
     </row>
-    <row r="404" spans="2:25" hidden="1">
+    <row r="404" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B404" s="11">
         <v>45962</v>
       </c>
@@ -5535,7 +5508,7 @@
       <c r="R404" s="13"/>
       <c r="Y404" s="13"/>
     </row>
-    <row r="405" spans="2:25" hidden="1">
+    <row r="405" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B405" s="11">
         <v>45962</v>
       </c>
@@ -5545,7 +5518,7 @@
       <c r="R405" s="13"/>
       <c r="Y405" s="13"/>
     </row>
-    <row r="406" spans="2:25" hidden="1">
+    <row r="406" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B406" s="11">
         <v>45962</v>
       </c>
@@ -5555,7 +5528,7 @@
       <c r="R406" s="13"/>
       <c r="Y406" s="13"/>
     </row>
-    <row r="407" spans="2:25" hidden="1">
+    <row r="407" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B407" s="11">
         <v>45962</v>
       </c>
@@ -5565,7 +5538,7 @@
       <c r="R407" s="13"/>
       <c r="Y407" s="13"/>
     </row>
-    <row r="408" spans="2:25" hidden="1">
+    <row r="408" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B408" s="11">
         <v>45962</v>
       </c>
@@ -5575,7 +5548,7 @@
       <c r="R408" s="13"/>
       <c r="Y408" s="13"/>
     </row>
-    <row r="409" spans="2:25" hidden="1">
+    <row r="409" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B409" s="11">
         <v>45962</v>
       </c>
@@ -5585,7 +5558,7 @@
       <c r="R409" s="13"/>
       <c r="Y409" s="13"/>
     </row>
-    <row r="410" spans="2:25" hidden="1">
+    <row r="410" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B410" s="11">
         <v>45963</v>
       </c>
@@ -5595,7 +5568,7 @@
       <c r="R410" s="13"/>
       <c r="Y410" s="13"/>
     </row>
-    <row r="411" spans="2:25" hidden="1">
+    <row r="411" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B411" s="11">
         <v>45963</v>
       </c>
@@ -5605,7 +5578,7 @@
       <c r="R411" s="13"/>
       <c r="Y411" s="13"/>
     </row>
-    <row r="412" spans="2:25" hidden="1">
+    <row r="412" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B412" s="11">
         <v>45963</v>
       </c>
@@ -5615,7 +5588,7 @@
       <c r="R412" s="13"/>
       <c r="Y412" s="13"/>
     </row>
-    <row r="413" spans="2:25" hidden="1">
+    <row r="413" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B413" s="11">
         <v>45963</v>
       </c>
@@ -5625,7 +5598,7 @@
       <c r="R413" s="13"/>
       <c r="Y413" s="13"/>
     </row>
-    <row r="414" spans="2:25" hidden="1">
+    <row r="414" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B414" s="11">
         <v>45963</v>
       </c>
@@ -5635,7 +5608,7 @@
       <c r="R414" s="13"/>
       <c r="Y414" s="13"/>
     </row>
-    <row r="415" spans="2:25" hidden="1">
+    <row r="415" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="11">
         <v>45963</v>
       </c>
@@ -5645,7 +5618,7 @@
       <c r="R415" s="13"/>
       <c r="Y415" s="13"/>
     </row>
-    <row r="416" spans="2:25" hidden="1">
+    <row r="416" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B416" s="11">
         <v>45963</v>
       </c>
@@ -5655,7 +5628,7 @@
       <c r="R416" s="13"/>
       <c r="Y416" s="13"/>
     </row>
-    <row r="417" spans="2:25" hidden="1">
+    <row r="417" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="11">
         <v>45964</v>
       </c>
@@ -5665,7 +5638,7 @@
       <c r="R417" s="13"/>
       <c r="Y417" s="13"/>
     </row>
-    <row r="418" spans="2:25" hidden="1">
+    <row r="418" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B418" s="11">
         <v>45964</v>
       </c>
@@ -5675,7 +5648,7 @@
       <c r="R418" s="13"/>
       <c r="Y418" s="13"/>
     </row>
-    <row r="419" spans="2:25" hidden="1">
+    <row r="419" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B419" s="11">
         <v>45964</v>
       </c>
@@ -5685,7 +5658,7 @@
       <c r="R419" s="13"/>
       <c r="Y419" s="13"/>
     </row>
-    <row r="420" spans="2:25" hidden="1">
+    <row r="420" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B420" s="11">
         <v>45964</v>
       </c>
@@ -5695,7 +5668,7 @@
       <c r="R420" s="13"/>
       <c r="Y420" s="13"/>
     </row>
-    <row r="421" spans="2:25" hidden="1">
+    <row r="421" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B421" s="11">
         <v>45964</v>
       </c>
@@ -5705,7 +5678,7 @@
       <c r="R421" s="13"/>
       <c r="Y421" s="13"/>
     </row>
-    <row r="422" spans="2:25" hidden="1">
+    <row r="422" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B422" s="11">
         <v>45964</v>
       </c>
@@ -5715,7 +5688,7 @@
       <c r="R422" s="13"/>
       <c r="Y422" s="13"/>
     </row>
-    <row r="423" spans="2:25" hidden="1">
+    <row r="423" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B423" s="11">
         <v>45964</v>
       </c>
@@ -5725,7 +5698,7 @@
       <c r="R423" s="13"/>
       <c r="Y423" s="13"/>
     </row>
-    <row r="424" spans="2:25" hidden="1">
+    <row r="424" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B424" s="11">
         <v>45965</v>
       </c>
@@ -5735,7 +5708,7 @@
       <c r="R424" s="13"/>
       <c r="Y424" s="13"/>
     </row>
-    <row r="425" spans="2:25" hidden="1">
+    <row r="425" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B425" s="11">
         <v>45965</v>
       </c>
@@ -5745,7 +5718,7 @@
       <c r="R425" s="13"/>
       <c r="Y425" s="13"/>
     </row>
-    <row r="426" spans="2:25" hidden="1">
+    <row r="426" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B426" s="11">
         <v>45965</v>
       </c>
@@ -5755,7 +5728,7 @@
       <c r="R426" s="13"/>
       <c r="Y426" s="13"/>
     </row>
-    <row r="427" spans="2:25" hidden="1">
+    <row r="427" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B427" s="11">
         <v>45965</v>
       </c>
@@ -5765,7 +5738,7 @@
       <c r="R427" s="13"/>
       <c r="Y427" s="13"/>
     </row>
-    <row r="428" spans="2:25" hidden="1">
+    <row r="428" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B428" s="11">
         <v>45965</v>
       </c>
@@ -5775,7 +5748,7 @@
       <c r="R428" s="13"/>
       <c r="Y428" s="13"/>
     </row>
-    <row r="429" spans="2:25" hidden="1">
+    <row r="429" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B429" s="11">
         <v>45965</v>
       </c>
@@ -5785,7 +5758,7 @@
       <c r="R429" s="13"/>
       <c r="Y429" s="13"/>
     </row>
-    <row r="430" spans="2:25" hidden="1">
+    <row r="430" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B430" s="11">
         <v>45965</v>
       </c>
@@ -5795,7 +5768,7 @@
       <c r="R430" s="13"/>
       <c r="Y430" s="13"/>
     </row>
-    <row r="431" spans="2:25" hidden="1">
+    <row r="431" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B431" s="11">
         <v>45966</v>
       </c>
@@ -5805,7 +5778,7 @@
       <c r="R431" s="13"/>
       <c r="Y431" s="13"/>
     </row>
-    <row r="432" spans="2:25" hidden="1">
+    <row r="432" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" s="11">
         <v>45966</v>
       </c>
@@ -5815,7 +5788,7 @@
       <c r="R432" s="13"/>
       <c r="Y432" s="13"/>
     </row>
-    <row r="433" spans="2:25" hidden="1">
+    <row r="433" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B433" s="11">
         <v>45966</v>
       </c>
@@ -5825,7 +5798,7 @@
       <c r="R433" s="13"/>
       <c r="Y433" s="13"/>
     </row>
-    <row r="434" spans="2:25" hidden="1">
+    <row r="434" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" s="11">
         <v>45966</v>
       </c>
@@ -5835,7 +5808,7 @@
       <c r="R434" s="13"/>
       <c r="Y434" s="13"/>
     </row>
-    <row r="435" spans="2:25" hidden="1">
+    <row r="435" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B435" s="11">
         <v>45966</v>
       </c>
@@ -5845,7 +5818,7 @@
       <c r="R435" s="13"/>
       <c r="Y435" s="13"/>
     </row>
-    <row r="436" spans="2:25" hidden="1">
+    <row r="436" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B436" s="11">
         <v>45966</v>
       </c>
@@ -5855,7 +5828,7 @@
       <c r="R436" s="13"/>
       <c r="Y436" s="13"/>
     </row>
-    <row r="437" spans="2:25" hidden="1">
+    <row r="437" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B437" s="11">
         <v>45966</v>
       </c>
@@ -5865,7 +5838,7 @@
       <c r="R437" s="13"/>
       <c r="Y437" s="13"/>
     </row>
-    <row r="438" spans="2:25" hidden="1">
+    <row r="438" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B438" s="11">
         <v>45967</v>
       </c>
@@ -5875,7 +5848,7 @@
       <c r="R438" s="13"/>
       <c r="Y438" s="13"/>
     </row>
-    <row r="439" spans="2:25" hidden="1">
+    <row r="439" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B439" s="11">
         <v>45967</v>
       </c>
@@ -5885,7 +5858,7 @@
       <c r="R439" s="13"/>
       <c r="Y439" s="13"/>
     </row>
-    <row r="440" spans="2:25" hidden="1">
+    <row r="440" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B440" s="11">
         <v>45967</v>
       </c>
@@ -5895,7 +5868,7 @@
       <c r="R440" s="13"/>
       <c r="Y440" s="13"/>
     </row>
-    <row r="441" spans="2:25" hidden="1">
+    <row r="441" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B441" s="11">
         <v>45967</v>
       </c>
@@ -5905,7 +5878,7 @@
       <c r="R441" s="13"/>
       <c r="Y441" s="13"/>
     </row>
-    <row r="442" spans="2:25" hidden="1">
+    <row r="442" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B442" s="11">
         <v>45967</v>
       </c>
@@ -5915,7 +5888,7 @@
       <c r="R442" s="13"/>
       <c r="Y442" s="13"/>
     </row>
-    <row r="443" spans="2:25" hidden="1">
+    <row r="443" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B443" s="11">
         <v>45967</v>
       </c>
@@ -5925,7 +5898,7 @@
       <c r="R443" s="13"/>
       <c r="Y443" s="13"/>
     </row>
-    <row r="444" spans="2:25" hidden="1">
+    <row r="444" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B444" s="11">
         <v>45967</v>
       </c>
@@ -5935,7 +5908,7 @@
       <c r="R444" s="13"/>
       <c r="Y444" s="13"/>
     </row>
-    <row r="445" spans="2:25" hidden="1">
+    <row r="445" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B445" s="11">
         <v>45968</v>
       </c>
@@ -5945,7 +5918,7 @@
       <c r="R445" s="13"/>
       <c r="Y445" s="13"/>
     </row>
-    <row r="446" spans="2:25" hidden="1">
+    <row r="446" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="11">
         <v>45968</v>
       </c>
@@ -5955,7 +5928,7 @@
       <c r="R446" s="13"/>
       <c r="Y446" s="13"/>
     </row>
-    <row r="447" spans="2:25" hidden="1">
+    <row r="447" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="11">
         <v>45968</v>
       </c>
@@ -5965,7 +5938,7 @@
       <c r="R447" s="13"/>
       <c r="Y447" s="13"/>
     </row>
-    <row r="448" spans="2:25" hidden="1">
+    <row r="448" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="11">
         <v>45968</v>
       </c>
@@ -5975,7 +5948,7 @@
       <c r="R448" s="13"/>
       <c r="Y448" s="13"/>
     </row>
-    <row r="449" spans="2:25" hidden="1">
+    <row r="449" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="11">
         <v>45968</v>
       </c>
@@ -5985,7 +5958,7 @@
       <c r="R449" s="13"/>
       <c r="Y449" s="13"/>
     </row>
-    <row r="450" spans="2:25" hidden="1">
+    <row r="450" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="11">
         <v>45968</v>
       </c>
@@ -5995,7 +5968,7 @@
       <c r="R450" s="13"/>
       <c r="Y450" s="13"/>
     </row>
-    <row r="451" spans="2:25" hidden="1">
+    <row r="451" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="11">
         <v>45968</v>
       </c>
@@ -6005,7 +5978,7 @@
       <c r="R451" s="13"/>
       <c r="Y451" s="13"/>
     </row>
-    <row r="452" spans="2:25" hidden="1">
+    <row r="452" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B452" s="11">
         <v>45969</v>
       </c>
@@ -6015,7 +5988,7 @@
       <c r="R452" s="13"/>
       <c r="Y452" s="13"/>
     </row>
-    <row r="453" spans="2:25" hidden="1">
+    <row r="453" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B453" s="11">
         <v>45969</v>
       </c>
@@ -6025,7 +5998,7 @@
       <c r="R453" s="13"/>
       <c r="Y453" s="13"/>
     </row>
-    <row r="454" spans="2:25" hidden="1">
+    <row r="454" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B454" s="11">
         <v>45969</v>
       </c>
@@ -6035,7 +6008,7 @@
       <c r="R454" s="13"/>
       <c r="Y454" s="13"/>
     </row>
-    <row r="455" spans="2:25" hidden="1">
+    <row r="455" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B455" s="11">
         <v>45969</v>
       </c>
@@ -6045,7 +6018,7 @@
       <c r="R455" s="13"/>
       <c r="Y455" s="13"/>
     </row>
-    <row r="456" spans="2:25" hidden="1">
+    <row r="456" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B456" s="11">
         <v>45969</v>
       </c>
@@ -6055,7 +6028,7 @@
       <c r="R456" s="13"/>
       <c r="Y456" s="13"/>
     </row>
-    <row r="457" spans="2:25" hidden="1">
+    <row r="457" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B457" s="11">
         <v>45969</v>
       </c>
@@ -6065,7 +6038,7 @@
       <c r="R457" s="13"/>
       <c r="Y457" s="13"/>
     </row>
-    <row r="458" spans="2:25" hidden="1">
+    <row r="458" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B458" s="11">
         <v>45969</v>
       </c>
@@ -6075,7 +6048,7 @@
       <c r="R458" s="13"/>
       <c r="Y458" s="13"/>
     </row>
-    <row r="459" spans="2:25" hidden="1">
+    <row r="459" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B459" s="11">
         <v>45970</v>
       </c>
@@ -6085,7 +6058,7 @@
       <c r="R459" s="13"/>
       <c r="Y459" s="13"/>
     </row>
-    <row r="460" spans="2:25" hidden="1">
+    <row r="460" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B460" s="11">
         <v>45970</v>
       </c>
@@ -6095,7 +6068,7 @@
       <c r="R460" s="13"/>
       <c r="Y460" s="13"/>
     </row>
-    <row r="461" spans="2:25" hidden="1">
+    <row r="461" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B461" s="11">
         <v>45970</v>
       </c>
@@ -6105,7 +6078,7 @@
       <c r="R461" s="13"/>
       <c r="Y461" s="13"/>
     </row>
-    <row r="462" spans="2:25" hidden="1">
+    <row r="462" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B462" s="11">
         <v>45970</v>
       </c>
@@ -6115,7 +6088,7 @@
       <c r="R462" s="13"/>
       <c r="Y462" s="13"/>
     </row>
-    <row r="463" spans="2:25" hidden="1">
+    <row r="463" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B463" s="11">
         <v>45970</v>
       </c>
@@ -6125,7 +6098,7 @@
       <c r="R463" s="13"/>
       <c r="Y463" s="13"/>
     </row>
-    <row r="464" spans="2:25" hidden="1">
+    <row r="464" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B464" s="11">
         <v>45970</v>
       </c>
@@ -6135,7 +6108,7 @@
       <c r="R464" s="13"/>
       <c r="Y464" s="13"/>
     </row>
-    <row r="465" spans="2:25" hidden="1">
+    <row r="465" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B465" s="11">
         <v>45970</v>
       </c>
@@ -6145,7 +6118,7 @@
       <c r="R465" s="13"/>
       <c r="Y465" s="13"/>
     </row>
-    <row r="466" spans="2:25" hidden="1">
+    <row r="466" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B466" s="11">
         <v>45971</v>
       </c>
@@ -6155,7 +6128,7 @@
       <c r="R466" s="13"/>
       <c r="Y466" s="13"/>
     </row>
-    <row r="467" spans="2:25" hidden="1">
+    <row r="467" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B467" s="11">
         <v>45971</v>
       </c>
@@ -6165,7 +6138,7 @@
       <c r="R467" s="13"/>
       <c r="Y467" s="13"/>
     </row>
-    <row r="468" spans="2:25" hidden="1">
+    <row r="468" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B468" s="11">
         <v>45971</v>
       </c>
@@ -6175,7 +6148,7 @@
       <c r="R468" s="13"/>
       <c r="Y468" s="13"/>
     </row>
-    <row r="469" spans="2:25" hidden="1">
+    <row r="469" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B469" s="11">
         <v>45971</v>
       </c>
@@ -6185,7 +6158,7 @@
       <c r="R469" s="13"/>
       <c r="Y469" s="13"/>
     </row>
-    <row r="470" spans="2:25" hidden="1">
+    <row r="470" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B470" s="11">
         <v>45971</v>
       </c>
@@ -6195,7 +6168,7 @@
       <c r="R470" s="13"/>
       <c r="Y470" s="13"/>
     </row>
-    <row r="471" spans="2:25" hidden="1">
+    <row r="471" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B471" s="11">
         <v>45971</v>
       </c>
@@ -6205,7 +6178,7 @@
       <c r="R471" s="13"/>
       <c r="Y471" s="13"/>
     </row>
-    <row r="472" spans="2:25" hidden="1">
+    <row r="472" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B472" s="11">
         <v>45971</v>
       </c>
@@ -6215,7 +6188,7 @@
       <c r="R472" s="13"/>
       <c r="Y472" s="13"/>
     </row>
-    <row r="473" spans="2:25" hidden="1">
+    <row r="473" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B473" s="11">
         <v>45972</v>
       </c>
@@ -6225,7 +6198,7 @@
       <c r="R473" s="13"/>
       <c r="Y473" s="13"/>
     </row>
-    <row r="474" spans="2:25" hidden="1">
+    <row r="474" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B474" s="11">
         <v>45972</v>
       </c>
@@ -6235,7 +6208,7 @@
       <c r="R474" s="13"/>
       <c r="Y474" s="13"/>
     </row>
-    <row r="475" spans="2:25" hidden="1">
+    <row r="475" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B475" s="11">
         <v>45972</v>
       </c>
@@ -6245,7 +6218,7 @@
       <c r="R475" s="13"/>
       <c r="Y475" s="13"/>
     </row>
-    <row r="476" spans="2:25" hidden="1">
+    <row r="476" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B476" s="11">
         <v>45972</v>
       </c>
@@ -6255,7 +6228,7 @@
       <c r="R476" s="13"/>
       <c r="Y476" s="13"/>
     </row>
-    <row r="477" spans="2:25" hidden="1">
+    <row r="477" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B477" s="11">
         <v>45972</v>
       </c>
@@ -6265,7 +6238,7 @@
       <c r="R477" s="13"/>
       <c r="Y477" s="13"/>
     </row>
-    <row r="478" spans="2:25" hidden="1">
+    <row r="478" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B478" s="11">
         <v>45972</v>
       </c>
@@ -6275,7 +6248,7 @@
       <c r="R478" s="13"/>
       <c r="Y478" s="13"/>
     </row>
-    <row r="479" spans="2:25" hidden="1">
+    <row r="479" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B479" s="11">
         <v>45972</v>
       </c>
@@ -6285,7 +6258,7 @@
       <c r="R479" s="13"/>
       <c r="Y479" s="13"/>
     </row>
-    <row r="480" spans="2:25" hidden="1">
+    <row r="480" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B480" s="11">
         <v>45973</v>
       </c>
@@ -6295,7 +6268,7 @@
       <c r="R480" s="13"/>
       <c r="Y480" s="13"/>
     </row>
-    <row r="481" spans="2:25" hidden="1">
+    <row r="481" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B481" s="11">
         <v>45973</v>
       </c>
@@ -6305,7 +6278,7 @@
       <c r="R481" s="13"/>
       <c r="Y481" s="13"/>
     </row>
-    <row r="482" spans="2:25" hidden="1">
+    <row r="482" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B482" s="11">
         <v>45973</v>
       </c>
@@ -6315,7 +6288,7 @@
       <c r="R482" s="13"/>
       <c r="Y482" s="13"/>
     </row>
-    <row r="483" spans="2:25" hidden="1">
+    <row r="483" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B483" s="11">
         <v>45973</v>
       </c>
@@ -6325,7 +6298,7 @@
       <c r="R483" s="13"/>
       <c r="Y483" s="13"/>
     </row>
-    <row r="484" spans="2:25" hidden="1">
+    <row r="484" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B484" s="11">
         <v>45973</v>
       </c>
@@ -6335,7 +6308,7 @@
       <c r="R484" s="13"/>
       <c r="Y484" s="13"/>
     </row>
-    <row r="485" spans="2:25" hidden="1">
+    <row r="485" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B485" s="11">
         <v>45973</v>
       </c>
@@ -6345,7 +6318,7 @@
       <c r="R485" s="13"/>
       <c r="Y485" s="13"/>
     </row>
-    <row r="486" spans="2:25" hidden="1">
+    <row r="486" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B486" s="11">
         <v>45973</v>
       </c>
@@ -6355,7 +6328,7 @@
       <c r="R486" s="13"/>
       <c r="Y486" s="13"/>
     </row>
-    <row r="487" spans="2:25" hidden="1">
+    <row r="487" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B487" s="11">
         <v>45974</v>
       </c>
@@ -6365,7 +6338,7 @@
       <c r="R487" s="13"/>
       <c r="Y487" s="13"/>
     </row>
-    <row r="488" spans="2:25" hidden="1">
+    <row r="488" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B488" s="11">
         <v>45974</v>
       </c>
@@ -6375,7 +6348,7 @@
       <c r="R488" s="13"/>
       <c r="Y488" s="13"/>
     </row>
-    <row r="489" spans="2:25" hidden="1">
+    <row r="489" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B489" s="11">
         <v>45974</v>
       </c>
@@ -6385,7 +6358,7 @@
       <c r="R489" s="13"/>
       <c r="Y489" s="13"/>
     </row>
-    <row r="490" spans="2:25" hidden="1">
+    <row r="490" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B490" s="11">
         <v>45974</v>
       </c>
@@ -6395,7 +6368,7 @@
       <c r="R490" s="13"/>
       <c r="Y490" s="13"/>
     </row>
-    <row r="491" spans="2:25" hidden="1">
+    <row r="491" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B491" s="11">
         <v>45974</v>
       </c>
@@ -6405,7 +6378,7 @@
       <c r="R491" s="13"/>
       <c r="Y491" s="13"/>
     </row>
-    <row r="492" spans="2:25" hidden="1">
+    <row r="492" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B492" s="11">
         <v>45974</v>
       </c>
@@ -6415,7 +6388,7 @@
       <c r="R492" s="13"/>
       <c r="Y492" s="13"/>
     </row>
-    <row r="493" spans="2:25" hidden="1">
+    <row r="493" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B493" s="11">
         <v>45974</v>
       </c>
@@ -6425,7 +6398,7 @@
       <c r="R493" s="13"/>
       <c r="Y493" s="13"/>
     </row>
-    <row r="494" spans="2:25" hidden="1">
+    <row r="494" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B494" s="11">
         <v>45975</v>
       </c>
@@ -6435,7 +6408,7 @@
       <c r="R494" s="13"/>
       <c r="Y494" s="13"/>
     </row>
-    <row r="495" spans="2:25" hidden="1">
+    <row r="495" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B495" s="11">
         <v>45975</v>
       </c>
@@ -6445,7 +6418,7 @@
       <c r="R495" s="13"/>
       <c r="Y495" s="13"/>
     </row>
-    <row r="496" spans="2:25" hidden="1">
+    <row r="496" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B496" s="11">
         <v>45975</v>
       </c>
@@ -6455,7 +6428,7 @@
       <c r="R496" s="13"/>
       <c r="Y496" s="13"/>
     </row>
-    <row r="497" spans="2:25" hidden="1">
+    <row r="497" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B497" s="11">
         <v>45975</v>
       </c>
@@ -6465,7 +6438,7 @@
       <c r="R497" s="13"/>
       <c r="Y497" s="13"/>
     </row>
-    <row r="498" spans="2:25" hidden="1">
+    <row r="498" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B498" s="11">
         <v>45975</v>
       </c>
@@ -6475,7 +6448,7 @@
       <c r="R498" s="13"/>
       <c r="Y498" s="13"/>
     </row>
-    <row r="499" spans="2:25" hidden="1">
+    <row r="499" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B499" s="11">
         <v>45975</v>
       </c>
@@ -6485,7 +6458,7 @@
       <c r="R499" s="13"/>
       <c r="Y499" s="13"/>
     </row>
-    <row r="500" spans="2:25" hidden="1">
+    <row r="500" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B500" s="11">
         <v>45975</v>
       </c>
@@ -6495,7 +6468,7 @@
       <c r="R500" s="13"/>
       <c r="Y500" s="13"/>
     </row>
-    <row r="501" spans="2:25" hidden="1">
+    <row r="501" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B501" s="11">
         <v>45976</v>
       </c>
@@ -6505,7 +6478,7 @@
       <c r="R501" s="13"/>
       <c r="Y501" s="13"/>
     </row>
-    <row r="502" spans="2:25" hidden="1">
+    <row r="502" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B502" s="11">
         <v>45976</v>
       </c>
@@ -6515,7 +6488,7 @@
       <c r="R502" s="13"/>
       <c r="Y502" s="13"/>
     </row>
-    <row r="503" spans="2:25" hidden="1">
+    <row r="503" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B503" s="11">
         <v>45976</v>
       </c>
@@ -6525,7 +6498,7 @@
       <c r="R503" s="13"/>
       <c r="Y503" s="13"/>
     </row>
-    <row r="504" spans="2:25" hidden="1">
+    <row r="504" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B504" s="11">
         <v>45976</v>
       </c>
@@ -6535,7 +6508,7 @@
       <c r="R504" s="13"/>
       <c r="Y504" s="13"/>
     </row>
-    <row r="505" spans="2:25" hidden="1">
+    <row r="505" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B505" s="11">
         <v>45976</v>
       </c>
@@ -6545,7 +6518,7 @@
       <c r="R505" s="13"/>
       <c r="Y505" s="13"/>
     </row>
-    <row r="506" spans="2:25" hidden="1">
+    <row r="506" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B506" s="11">
         <v>45976</v>
       </c>
@@ -6555,7 +6528,7 @@
       <c r="R506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25" hidden="1">
+    <row r="507" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B507" s="11">
         <v>45976</v>
       </c>
@@ -6565,7 +6538,7 @@
       <c r="R507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25" hidden="1">
+    <row r="508" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B508" s="11">
         <v>45977</v>
       </c>
@@ -6575,7 +6548,7 @@
       <c r="R508" s="13"/>
       <c r="Y508" s="13"/>
     </row>
-    <row r="509" spans="2:25" hidden="1">
+    <row r="509" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B509" s="11">
         <v>45977</v>
       </c>
@@ -6585,7 +6558,7 @@
       <c r="R509" s="13"/>
       <c r="Y509" s="13"/>
     </row>
-    <row r="510" spans="2:25" hidden="1">
+    <row r="510" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B510" s="11">
         <v>45977</v>
       </c>
@@ -6595,7 +6568,7 @@
       <c r="R510" s="13"/>
       <c r="Y510" s="13"/>
     </row>
-    <row r="511" spans="2:25" hidden="1">
+    <row r="511" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B511" s="11">
         <v>45977</v>
       </c>
@@ -6605,7 +6578,7 @@
       <c r="R511" s="13"/>
       <c r="Y511" s="13"/>
     </row>
-    <row r="512" spans="2:25" hidden="1">
+    <row r="512" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B512" s="11">
         <v>45977</v>
       </c>
@@ -6615,7 +6588,7 @@
       <c r="R512" s="13"/>
       <c r="Y512" s="13"/>
     </row>
-    <row r="513" spans="2:25" hidden="1">
+    <row r="513" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B513" s="11">
         <v>45977</v>
       </c>
@@ -6625,7 +6598,7 @@
       <c r="R513" s="13"/>
       <c r="Y513" s="13"/>
     </row>
-    <row r="514" spans="2:25" hidden="1">
+    <row r="514" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B514" s="11">
         <v>45977</v>
       </c>
@@ -6635,7 +6608,7 @@
       <c r="R514" s="13"/>
       <c r="Y514" s="13"/>
     </row>
-    <row r="515" spans="2:25" hidden="1">
+    <row r="515" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B515" s="11">
         <v>45978</v>
       </c>
@@ -6645,7 +6618,7 @@
       <c r="R515" s="13"/>
       <c r="Y515" s="13"/>
     </row>
-    <row r="516" spans="2:25" hidden="1">
+    <row r="516" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B516" s="11">
         <v>45978</v>
       </c>
@@ -6655,7 +6628,7 @@
       <c r="R516" s="13"/>
       <c r="Y516" s="13"/>
     </row>
-    <row r="517" spans="2:25" hidden="1">
+    <row r="517" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B517" s="11">
         <v>45978</v>
       </c>
@@ -6665,7 +6638,7 @@
       <c r="R517" s="13"/>
       <c r="Y517" s="13"/>
     </row>
-    <row r="518" spans="2:25" hidden="1">
+    <row r="518" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B518" s="11">
         <v>45978</v>
       </c>
@@ -6675,7 +6648,7 @@
       <c r="R518" s="13"/>
       <c r="Y518" s="13"/>
     </row>
-    <row r="519" spans="2:25" hidden="1">
+    <row r="519" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B519" s="11">
         <v>45978</v>
       </c>
@@ -6685,7 +6658,7 @@
       <c r="R519" s="13"/>
       <c r="Y519" s="13"/>
     </row>
-    <row r="520" spans="2:25" hidden="1">
+    <row r="520" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B520" s="11">
         <v>45978</v>
       </c>
@@ -6695,7 +6668,7 @@
       <c r="R520" s="13"/>
       <c r="Y520" s="13"/>
     </row>
-    <row r="521" spans="2:25" hidden="1">
+    <row r="521" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B521" s="11">
         <v>45978</v>
       </c>
@@ -6705,7 +6678,7 @@
       <c r="R521" s="13"/>
       <c r="Y521" s="13"/>
     </row>
-    <row r="522" spans="2:25" hidden="1">
+    <row r="522" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B522" s="11">
         <v>45979</v>
       </c>
@@ -6715,7 +6688,7 @@
       <c r="R522" s="13"/>
       <c r="Y522" s="13"/>
     </row>
-    <row r="523" spans="2:25" hidden="1">
+    <row r="523" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B523" s="11">
         <v>45979</v>
       </c>
@@ -6725,7 +6698,7 @@
       <c r="R523" s="13"/>
       <c r="Y523" s="13"/>
     </row>
-    <row r="524" spans="2:25" hidden="1">
+    <row r="524" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B524" s="11">
         <v>45979</v>
       </c>
@@ -6735,7 +6708,7 @@
       <c r="R524" s="13"/>
       <c r="Y524" s="13"/>
     </row>
-    <row r="525" spans="2:25" hidden="1">
+    <row r="525" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B525" s="11">
         <v>45979</v>
       </c>
@@ -6745,7 +6718,7 @@
       <c r="R525" s="13"/>
       <c r="Y525" s="13"/>
     </row>
-    <row r="526" spans="2:25" hidden="1">
+    <row r="526" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B526" s="11">
         <v>45979</v>
       </c>
@@ -6755,7 +6728,7 @@
       <c r="R526" s="13"/>
       <c r="Y526" s="13"/>
     </row>
-    <row r="527" spans="2:25" hidden="1">
+    <row r="527" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B527" s="11">
         <v>45979</v>
       </c>
@@ -6765,7 +6738,7 @@
       <c r="R527" s="13"/>
       <c r="Y527" s="13"/>
     </row>
-    <row r="528" spans="2:25" hidden="1">
+    <row r="528" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B528" s="11">
         <v>45979</v>
       </c>
@@ -6775,7 +6748,7 @@
       <c r="R528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25" hidden="1">
+    <row r="529" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B529" s="11">
         <v>45980</v>
       </c>
@@ -6785,7 +6758,7 @@
       <c r="R529" s="13"/>
       <c r="Y529" s="13"/>
     </row>
-    <row r="530" spans="2:25" hidden="1">
+    <row r="530" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B530" s="11">
         <v>45980</v>
       </c>
@@ -6795,7 +6768,7 @@
       <c r="R530" s="13"/>
       <c r="Y530" s="13"/>
     </row>
-    <row r="531" spans="2:25" hidden="1">
+    <row r="531" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B531" s="11">
         <v>45980</v>
       </c>
@@ -6805,7 +6778,7 @@
       <c r="R531" s="13"/>
       <c r="Y531" s="13"/>
     </row>
-    <row r="532" spans="2:25" hidden="1">
+    <row r="532" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B532" s="11">
         <v>45980</v>
       </c>
@@ -6815,7 +6788,7 @@
       <c r="R532" s="13"/>
       <c r="Y532" s="13"/>
     </row>
-    <row r="533" spans="2:25" hidden="1">
+    <row r="533" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B533" s="11">
         <v>45980</v>
       </c>
@@ -6825,7 +6798,7 @@
       <c r="R533" s="13"/>
       <c r="Y533" s="13"/>
     </row>
-    <row r="534" spans="2:25" hidden="1">
+    <row r="534" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B534" s="11">
         <v>45980</v>
       </c>
@@ -6835,7 +6808,7 @@
       <c r="R534" s="13"/>
       <c r="Y534" s="13"/>
     </row>
-    <row r="535" spans="2:25" hidden="1">
+    <row r="535" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B535" s="11">
         <v>45980</v>
       </c>
@@ -6845,7 +6818,7 @@
       <c r="R535" s="13"/>
       <c r="Y535" s="13"/>
     </row>
-    <row r="536" spans="2:25" hidden="1">
+    <row r="536" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B536" s="11">
         <v>45981</v>
       </c>
@@ -6855,7 +6828,7 @@
       <c r="R536" s="13"/>
       <c r="Y536" s="13"/>
     </row>
-    <row r="537" spans="2:25" hidden="1">
+    <row r="537" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B537" s="11">
         <v>45981</v>
       </c>
@@ -6865,7 +6838,7 @@
       <c r="R537" s="13"/>
       <c r="Y537" s="13"/>
     </row>
-    <row r="538" spans="2:25" hidden="1">
+    <row r="538" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B538" s="11">
         <v>45981</v>
       </c>
@@ -6875,7 +6848,7 @@
       <c r="R538" s="13"/>
       <c r="Y538" s="13"/>
     </row>
-    <row r="539" spans="2:25" hidden="1">
+    <row r="539" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B539" s="11">
         <v>45981</v>
       </c>
@@ -6885,7 +6858,7 @@
       <c r="R539" s="13"/>
       <c r="Y539" s="13"/>
     </row>
-    <row r="540" spans="2:25" hidden="1">
+    <row r="540" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B540" s="11">
         <v>45981</v>
       </c>
@@ -6895,7 +6868,7 @@
       <c r="R540" s="13"/>
       <c r="Y540" s="13"/>
     </row>
-    <row r="541" spans="2:25" hidden="1">
+    <row r="541" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B541" s="11">
         <v>45981</v>
       </c>
@@ -6905,7 +6878,7 @@
       <c r="R541" s="13"/>
       <c r="Y541" s="13"/>
     </row>
-    <row r="542" spans="2:25" hidden="1">
+    <row r="542" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B542" s="11">
         <v>45981</v>
       </c>
@@ -6915,7 +6888,7 @@
       <c r="R542" s="13"/>
       <c r="Y542" s="13"/>
     </row>
-    <row r="543" spans="2:25" hidden="1">
+    <row r="543" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B543" s="11">
         <v>45982</v>
       </c>
@@ -6925,7 +6898,7 @@
       <c r="R543" s="13"/>
       <c r="Y543" s="13"/>
     </row>
-    <row r="544" spans="2:25" hidden="1">
+    <row r="544" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B544" s="11">
         <v>45982</v>
       </c>
@@ -6935,7 +6908,7 @@
       <c r="R544" s="13"/>
       <c r="Y544" s="13"/>
     </row>
-    <row r="545" spans="2:25" hidden="1">
+    <row r="545" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B545" s="11">
         <v>45982</v>
       </c>
@@ -6945,7 +6918,7 @@
       <c r="R545" s="13"/>
       <c r="Y545" s="13"/>
     </row>
-    <row r="546" spans="2:25" hidden="1">
+    <row r="546" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B546" s="11">
         <v>45982</v>
       </c>
@@ -6955,7 +6928,7 @@
       <c r="R546" s="13"/>
       <c r="Y546" s="13"/>
     </row>
-    <row r="547" spans="2:25" hidden="1">
+    <row r="547" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B547" s="11">
         <v>45982</v>
       </c>
@@ -6965,7 +6938,7 @@
       <c r="R547" s="13"/>
       <c r="Y547" s="13"/>
     </row>
-    <row r="548" spans="2:25" hidden="1">
+    <row r="548" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B548" s="11">
         <v>45982</v>
       </c>
@@ -6975,7 +6948,7 @@
       <c r="R548" s="13"/>
       <c r="Y548" s="13"/>
     </row>
-    <row r="549" spans="2:25" hidden="1">
+    <row r="549" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B549" s="11">
         <v>45982</v>
       </c>
@@ -6985,7 +6958,7 @@
       <c r="R549" s="13"/>
       <c r="Y549" s="13"/>
     </row>
-    <row r="550" spans="2:25" hidden="1">
+    <row r="550" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B550" s="11">
         <v>45983</v>
       </c>
@@ -6995,7 +6968,7 @@
       <c r="R550" s="13"/>
       <c r="Y550" s="13"/>
     </row>
-    <row r="551" spans="2:25" hidden="1">
+    <row r="551" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B551" s="11">
         <v>45983</v>
       </c>
@@ -7005,7 +6978,7 @@
       <c r="R551" s="13"/>
       <c r="Y551" s="13"/>
     </row>
-    <row r="552" spans="2:25" hidden="1">
+    <row r="552" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B552" s="11">
         <v>45983</v>
       </c>
@@ -7015,7 +6988,7 @@
       <c r="R552" s="13"/>
       <c r="Y552" s="13"/>
     </row>
-    <row r="553" spans="2:25" hidden="1">
+    <row r="553" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B553" s="11">
         <v>45983</v>
       </c>
@@ -7025,7 +6998,7 @@
       <c r="R553" s="13"/>
       <c r="Y553" s="13"/>
     </row>
-    <row r="554" spans="2:25" hidden="1">
+    <row r="554" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B554" s="11">
         <v>45983</v>
       </c>
@@ -7035,7 +7008,7 @@
       <c r="R554" s="13"/>
       <c r="Y554" s="13"/>
     </row>
-    <row r="555" spans="2:25" hidden="1">
+    <row r="555" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B555" s="11">
         <v>45983</v>
       </c>
@@ -7045,7 +7018,7 @@
       <c r="R555" s="13"/>
       <c r="Y555" s="13"/>
     </row>
-    <row r="556" spans="2:25" hidden="1">
+    <row r="556" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B556" s="11">
         <v>45983</v>
       </c>
@@ -7055,7 +7028,7 @@
       <c r="R556" s="13"/>
       <c r="Y556" s="13"/>
     </row>
-    <row r="557" spans="2:25" hidden="1">
+    <row r="557" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B557" s="11">
         <v>45984</v>
       </c>
@@ -7065,7 +7038,7 @@
       <c r="R557" s="13"/>
       <c r="Y557" s="13"/>
     </row>
-    <row r="558" spans="2:25" hidden="1">
+    <row r="558" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B558" s="11">
         <v>45984</v>
       </c>
@@ -7075,7 +7048,7 @@
       <c r="R558" s="13"/>
       <c r="Y558" s="13"/>
     </row>
-    <row r="559" spans="2:25" hidden="1">
+    <row r="559" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B559" s="11">
         <v>45984</v>
       </c>
@@ -7085,7 +7058,7 @@
       <c r="R559" s="13"/>
       <c r="Y559" s="13"/>
     </row>
-    <row r="560" spans="2:25" hidden="1">
+    <row r="560" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B560" s="11">
         <v>45984</v>
       </c>
@@ -7095,7 +7068,7 @@
       <c r="R560" s="13"/>
       <c r="Y560" s="13"/>
     </row>
-    <row r="561" spans="2:25" hidden="1">
+    <row r="561" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B561" s="11">
         <v>45984</v>
       </c>
@@ -7105,7 +7078,7 @@
       <c r="R561" s="13"/>
       <c r="Y561" s="13"/>
     </row>
-    <row r="562" spans="2:25" hidden="1">
+    <row r="562" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B562" s="11">
         <v>45984</v>
       </c>
@@ -7115,7 +7088,7 @@
       <c r="R562" s="13"/>
       <c r="Y562" s="13"/>
     </row>
-    <row r="563" spans="2:25" hidden="1">
+    <row r="563" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B563" s="11">
         <v>45984</v>
       </c>
@@ -7125,7 +7098,7 @@
       <c r="R563" s="13"/>
       <c r="Y563" s="13"/>
     </row>
-    <row r="564" spans="2:25" hidden="1">
+    <row r="564" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B564" s="11">
         <v>45985</v>
       </c>
@@ -7135,7 +7108,7 @@
       <c r="R564" s="13"/>
       <c r="Y564" s="13"/>
     </row>
-    <row r="565" spans="2:25" hidden="1">
+    <row r="565" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B565" s="11">
         <v>45985</v>
       </c>
@@ -7145,7 +7118,7 @@
       <c r="R565" s="13"/>
       <c r="Y565" s="13"/>
     </row>
-    <row r="566" spans="2:25" hidden="1">
+    <row r="566" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B566" s="11">
         <v>45985</v>
       </c>
@@ -7155,7 +7128,7 @@
       <c r="R566" s="13"/>
       <c r="Y566" s="13"/>
     </row>
-    <row r="567" spans="2:25" hidden="1">
+    <row r="567" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B567" s="11">
         <v>45985</v>
       </c>
@@ -7165,7 +7138,7 @@
       <c r="R567" s="13"/>
       <c r="Y567" s="13"/>
     </row>
-    <row r="568" spans="2:25" hidden="1">
+    <row r="568" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B568" s="11">
         <v>45985</v>
       </c>
@@ -7175,7 +7148,7 @@
       <c r="R568" s="13"/>
       <c r="Y568" s="13"/>
     </row>
-    <row r="569" spans="2:25" hidden="1">
+    <row r="569" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B569" s="11">
         <v>45985</v>
       </c>
@@ -7185,7 +7158,7 @@
       <c r="R569" s="13"/>
       <c r="Y569" s="13"/>
     </row>
-    <row r="570" spans="2:25" hidden="1">
+    <row r="570" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B570" s="11">
         <v>45985</v>
       </c>
@@ -7195,7 +7168,7 @@
       <c r="R570" s="13"/>
       <c r="Y570" s="13"/>
     </row>
-    <row r="571" spans="2:25" hidden="1">
+    <row r="571" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B571" s="11">
         <v>45986</v>
       </c>
@@ -7205,7 +7178,7 @@
       <c r="R571" s="13"/>
       <c r="Y571" s="13"/>
     </row>
-    <row r="572" spans="2:25" hidden="1">
+    <row r="572" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B572" s="11">
         <v>45986</v>
       </c>
@@ -7215,7 +7188,7 @@
       <c r="R572" s="13"/>
       <c r="Y572" s="13"/>
     </row>
-    <row r="573" spans="2:25" hidden="1">
+    <row r="573" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B573" s="11">
         <v>45986</v>
       </c>
@@ -7225,7 +7198,7 @@
       <c r="R573" s="13"/>
       <c r="Y573" s="13"/>
     </row>
-    <row r="574" spans="2:25" hidden="1">
+    <row r="574" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B574" s="11">
         <v>45986</v>
       </c>
@@ -7235,7 +7208,7 @@
       <c r="R574" s="13"/>
       <c r="Y574" s="13"/>
     </row>
-    <row r="575" spans="2:25" hidden="1">
+    <row r="575" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B575" s="11">
         <v>45986</v>
       </c>
@@ -7245,7 +7218,7 @@
       <c r="R575" s="13"/>
       <c r="Y575" s="13"/>
     </row>
-    <row r="576" spans="2:25" hidden="1">
+    <row r="576" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B576" s="11">
         <v>45986</v>
       </c>
@@ -7255,7 +7228,7 @@
       <c r="R576" s="13"/>
       <c r="Y576" s="13"/>
     </row>
-    <row r="577" spans="2:25" hidden="1">
+    <row r="577" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B577" s="11">
         <v>45986</v>
       </c>
@@ -7265,7 +7238,7 @@
       <c r="R577" s="13"/>
       <c r="Y577" s="13"/>
     </row>
-    <row r="578" spans="2:25" hidden="1">
+    <row r="578" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B578" s="11">
         <v>45987</v>
       </c>
@@ -7275,7 +7248,7 @@
       <c r="R578" s="13"/>
       <c r="Y578" s="13"/>
     </row>
-    <row r="579" spans="2:25" hidden="1">
+    <row r="579" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B579" s="11">
         <v>45987</v>
       </c>
@@ -7285,7 +7258,7 @@
       <c r="R579" s="13"/>
       <c r="Y579" s="13"/>
     </row>
-    <row r="580" spans="2:25" hidden="1">
+    <row r="580" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B580" s="11">
         <v>45987</v>
       </c>
@@ -7295,7 +7268,7 @@
       <c r="R580" s="13"/>
       <c r="Y580" s="13"/>
     </row>
-    <row r="581" spans="2:25" hidden="1">
+    <row r="581" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B581" s="11">
         <v>45987</v>
       </c>
@@ -7305,7 +7278,7 @@
       <c r="R581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25" hidden="1">
+    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B582" s="11">
         <v>45987</v>
       </c>
@@ -7315,7 +7288,7 @@
       <c r="R582" s="13"/>
       <c r="Y582" s="13"/>
     </row>
-    <row r="583" spans="2:25" hidden="1">
+    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B583" s="11">
         <v>45987</v>
       </c>
@@ -7325,7 +7298,7 @@
       <c r="R583" s="13"/>
       <c r="Y583" s="13"/>
     </row>
-    <row r="584" spans="2:25" hidden="1">
+    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B584" s="11">
         <v>45987</v>
       </c>
@@ -7335,7 +7308,7 @@
       <c r="R584" s="13"/>
       <c r="Y584" s="13"/>
     </row>
-    <row r="585" spans="2:25" hidden="1">
+    <row r="585" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B585" s="11">
         <v>45988</v>
       </c>
@@ -7345,7 +7318,7 @@
       <c r="R585" s="13"/>
       <c r="Y585" s="13"/>
     </row>
-    <row r="586" spans="2:25" hidden="1">
+    <row r="586" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B586" s="11">
         <v>45988</v>
       </c>
@@ -7355,7 +7328,7 @@
       <c r="R586" s="13"/>
       <c r="Y586" s="13"/>
     </row>
-    <row r="587" spans="2:25" hidden="1">
+    <row r="587" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B587" s="11">
         <v>45988</v>
       </c>
@@ -7365,7 +7338,7 @@
       <c r="R587" s="13"/>
       <c r="Y587" s="13"/>
     </row>
-    <row r="588" spans="2:25" hidden="1">
+    <row r="588" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B588" s="11">
         <v>45988</v>
       </c>
@@ -7375,7 +7348,7 @@
       <c r="R588" s="13"/>
       <c r="Y588" s="13"/>
     </row>
-    <row r="589" spans="2:25" hidden="1">
+    <row r="589" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B589" s="11">
         <v>45988</v>
       </c>
@@ -7385,7 +7358,7 @@
       <c r="R589" s="13"/>
       <c r="Y589" s="13"/>
     </row>
-    <row r="590" spans="2:25" hidden="1">
+    <row r="590" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B590" s="11">
         <v>45988</v>
       </c>
@@ -7395,7 +7368,7 @@
       <c r="R590" s="13"/>
       <c r="Y590" s="13"/>
     </row>
-    <row r="591" spans="2:25" hidden="1">
+    <row r="591" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B591" s="11">
         <v>45988</v>
       </c>
@@ -7405,7 +7378,7 @@
       <c r="R591" s="13"/>
       <c r="Y591" s="13"/>
     </row>
-    <row r="592" spans="2:25" hidden="1">
+    <row r="592" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B592" s="11">
         <v>45989</v>
       </c>
@@ -7415,7 +7388,7 @@
       <c r="R592" s="13"/>
       <c r="Y592" s="13"/>
     </row>
-    <row r="593" spans="2:25" hidden="1">
+    <row r="593" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B593" s="11">
         <v>45989</v>
       </c>
@@ -7425,7 +7398,7 @@
       <c r="R593" s="13"/>
       <c r="Y593" s="13"/>
     </row>
-    <row r="594" spans="2:25" hidden="1">
+    <row r="594" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B594" s="11">
         <v>45989</v>
       </c>
@@ -7435,7 +7408,7 @@
       <c r="R594" s="13"/>
       <c r="Y594" s="13"/>
     </row>
-    <row r="595" spans="2:25" hidden="1">
+    <row r="595" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B595" s="11">
         <v>45989</v>
       </c>
@@ -7445,7 +7418,7 @@
       <c r="R595" s="13"/>
       <c r="Y595" s="13"/>
     </row>
-    <row r="596" spans="2:25" hidden="1">
+    <row r="596" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B596" s="11">
         <v>45989</v>
       </c>
@@ -7455,7 +7428,7 @@
       <c r="R596" s="13"/>
       <c r="Y596" s="13"/>
     </row>
-    <row r="597" spans="2:25" hidden="1">
+    <row r="597" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B597" s="11">
         <v>45989</v>
       </c>
@@ -7465,7 +7438,7 @@
       <c r="R597" s="13"/>
       <c r="Y597" s="13"/>
     </row>
-    <row r="598" spans="2:25" hidden="1">
+    <row r="598" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B598" s="11">
         <v>45989</v>
       </c>
@@ -7475,7 +7448,7 @@
       <c r="R598" s="13"/>
       <c r="Y598" s="13"/>
     </row>
-    <row r="599" spans="2:25" hidden="1">
+    <row r="599" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B599" s="11">
         <v>45990</v>
       </c>
@@ -7485,7 +7458,7 @@
       <c r="R599" s="13"/>
       <c r="Y599" s="13"/>
     </row>
-    <row r="600" spans="2:25" hidden="1">
+    <row r="600" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B600" s="11">
         <v>45990</v>
       </c>
@@ -7495,7 +7468,7 @@
       <c r="R600" s="13"/>
       <c r="Y600" s="13"/>
     </row>
-    <row r="601" spans="2:25" hidden="1">
+    <row r="601" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B601" s="11">
         <v>45990</v>
       </c>
@@ -7505,7 +7478,7 @@
       <c r="R601" s="13"/>
       <c r="Y601" s="13"/>
     </row>
-    <row r="602" spans="2:25" hidden="1">
+    <row r="602" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B602" s="11">
         <v>45990</v>
       </c>
@@ -7515,7 +7488,7 @@
       <c r="R602" s="13"/>
       <c r="Y602" s="13"/>
     </row>
-    <row r="603" spans="2:25" hidden="1">
+    <row r="603" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B603" s="11">
         <v>45990</v>
       </c>
@@ -7525,7 +7498,7 @@
       <c r="R603" s="13"/>
       <c r="Y603" s="13"/>
     </row>
-    <row r="604" spans="2:25" hidden="1">
+    <row r="604" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B604" s="11">
         <v>45990</v>
       </c>
@@ -7535,7 +7508,7 @@
       <c r="R604" s="13"/>
       <c r="Y604" s="13"/>
     </row>
-    <row r="605" spans="2:25" hidden="1">
+    <row r="605" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B605" s="11">
         <v>45990</v>
       </c>
@@ -7545,7 +7518,7 @@
       <c r="R605" s="13"/>
       <c r="Y605" s="13"/>
     </row>
-    <row r="606" spans="2:25" hidden="1">
+    <row r="606" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B606" s="11">
         <v>45991</v>
       </c>
@@ -7555,7 +7528,7 @@
       <c r="R606" s="13"/>
       <c r="Y606" s="13"/>
     </row>
-    <row r="607" spans="2:25" hidden="1">
+    <row r="607" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B607" s="11">
         <v>45991</v>
       </c>
@@ -7565,7 +7538,7 @@
       <c r="R607" s="13"/>
       <c r="Y607" s="13"/>
     </row>
-    <row r="608" spans="2:25" hidden="1">
+    <row r="608" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B608" s="11">
         <v>45991</v>
       </c>
@@ -7575,7 +7548,7 @@
       <c r="R608" s="13"/>
       <c r="Y608" s="13"/>
     </row>
-    <row r="609" spans="2:25" hidden="1">
+    <row r="609" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B609" s="11">
         <v>45991</v>
       </c>
@@ -7585,7 +7558,7 @@
       <c r="R609" s="13"/>
       <c r="Y609" s="13"/>
     </row>
-    <row r="610" spans="2:25" hidden="1">
+    <row r="610" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B610" s="11">
         <v>45991</v>
       </c>
@@ -7595,7 +7568,7 @@
       <c r="R610" s="13"/>
       <c r="Y610" s="13"/>
     </row>
-    <row r="611" spans="2:25" hidden="1">
+    <row r="611" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B611" s="11">
         <v>45991</v>
       </c>
@@ -7605,7 +7578,7 @@
       <c r="R611" s="13"/>
       <c r="Y611" s="13"/>
     </row>
-    <row r="612" spans="2:25" hidden="1">
+    <row r="612" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B612" s="11">
         <v>45991</v>
       </c>
@@ -7615,7 +7588,7 @@
       <c r="R612" s="13"/>
       <c r="Y612" s="13"/>
     </row>
-    <row r="613" spans="2:25" hidden="1">
+    <row r="613" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B613" s="11">
         <v>45992</v>
       </c>
@@ -7625,7 +7598,7 @@
       <c r="R613" s="13"/>
       <c r="Y613" s="13"/>
     </row>
-    <row r="614" spans="2:25" hidden="1">
+    <row r="614" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B614" s="11">
         <v>45992</v>
       </c>
@@ -7635,7 +7608,7 @@
       <c r="R614" s="13"/>
       <c r="Y614" s="13"/>
     </row>
-    <row r="615" spans="2:25" hidden="1">
+    <row r="615" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B615" s="11">
         <v>45992</v>
       </c>
@@ -7645,7 +7618,7 @@
       <c r="R615" s="13"/>
       <c r="Y615" s="13"/>
     </row>
-    <row r="616" spans="2:25" hidden="1">
+    <row r="616" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B616" s="11">
         <v>45992</v>
       </c>
@@ -7655,7 +7628,7 @@
       <c r="R616" s="13"/>
       <c r="Y616" s="13"/>
     </row>
-    <row r="617" spans="2:25" hidden="1">
+    <row r="617" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B617" s="11">
         <v>45992</v>
       </c>
@@ -7665,7 +7638,7 @@
       <c r="R617" s="13"/>
       <c r="Y617" s="13"/>
     </row>
-    <row r="618" spans="2:25" hidden="1">
+    <row r="618" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B618" s="11">
         <v>45992</v>
       </c>
@@ -7675,7 +7648,7 @@
       <c r="R618" s="13"/>
       <c r="Y618" s="13"/>
     </row>
-    <row r="619" spans="2:25" hidden="1">
+    <row r="619" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B619" s="11">
         <v>45992</v>
       </c>
@@ -7685,7 +7658,7 @@
       <c r="R619" s="13"/>
       <c r="Y619" s="13"/>
     </row>
-    <row r="620" spans="2:25" hidden="1">
+    <row r="620" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B620" s="11">
         <v>45993</v>
       </c>
@@ -7695,7 +7668,7 @@
       <c r="R620" s="13"/>
       <c r="Y620" s="13"/>
     </row>
-    <row r="621" spans="2:25" hidden="1">
+    <row r="621" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B621" s="11">
         <v>45993</v>
       </c>
@@ -7705,7 +7678,7 @@
       <c r="R621" s="13"/>
       <c r="Y621" s="13"/>
     </row>
-    <row r="622" spans="2:25" hidden="1">
+    <row r="622" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B622" s="11">
         <v>45993</v>
       </c>
@@ -7715,7 +7688,7 @@
       <c r="R622" s="13"/>
       <c r="Y622" s="13"/>
     </row>
-    <row r="623" spans="2:25" hidden="1">
+    <row r="623" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B623" s="11">
         <v>45993</v>
       </c>
@@ -7725,7 +7698,7 @@
       <c r="R623" s="13"/>
       <c r="Y623" s="13"/>
     </row>
-    <row r="624" spans="2:25" hidden="1">
+    <row r="624" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B624" s="11">
         <v>45993</v>
       </c>
@@ -7735,7 +7708,7 @@
       <c r="R624" s="13"/>
       <c r="Y624" s="13"/>
     </row>
-    <row r="625" spans="2:25" hidden="1">
+    <row r="625" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B625" s="11">
         <v>45993</v>
       </c>
@@ -7745,7 +7718,7 @@
       <c r="R625" s="13"/>
       <c r="Y625" s="13"/>
     </row>
-    <row r="626" spans="2:25" hidden="1">
+    <row r="626" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B626" s="11">
         <v>45993</v>
       </c>
@@ -7755,7 +7728,7 @@
       <c r="R626" s="13"/>
       <c r="Y626" s="13"/>
     </row>
-    <row r="627" spans="2:25" hidden="1">
+    <row r="627" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B627" s="11">
         <v>45994</v>
       </c>
@@ -7765,7 +7738,7 @@
       <c r="R627" s="13"/>
       <c r="Y627" s="13"/>
     </row>
-    <row r="628" spans="2:25" hidden="1">
+    <row r="628" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B628" s="11">
         <v>45994</v>
       </c>
@@ -7775,7 +7748,7 @@
       <c r="R628" s="13"/>
       <c r="Y628" s="13"/>
     </row>
-    <row r="629" spans="2:25" hidden="1">
+    <row r="629" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B629" s="11">
         <v>45994</v>
       </c>
@@ -7785,7 +7758,7 @@
       <c r="R629" s="13"/>
       <c r="Y629" s="13"/>
     </row>
-    <row r="630" spans="2:25" hidden="1">
+    <row r="630" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B630" s="11">
         <v>45994</v>
       </c>
@@ -7795,7 +7768,7 @@
       <c r="R630" s="13"/>
       <c r="Y630" s="13"/>
     </row>
-    <row r="631" spans="2:25" hidden="1">
+    <row r="631" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B631" s="11">
         <v>45994</v>
       </c>
@@ -7805,7 +7778,7 @@
       <c r="R631" s="13"/>
       <c r="Y631" s="13"/>
     </row>
-    <row r="632" spans="2:25" hidden="1">
+    <row r="632" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B632" s="11">
         <v>45994</v>
       </c>
@@ -7815,7 +7788,7 @@
       <c r="R632" s="13"/>
       <c r="Y632" s="13"/>
     </row>
-    <row r="633" spans="2:25" hidden="1">
+    <row r="633" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B633" s="11">
         <v>45994</v>
       </c>
@@ -7825,7 +7798,7 @@
       <c r="R633" s="13"/>
       <c r="Y633" s="13"/>
     </row>
-    <row r="634" spans="2:25" hidden="1">
+    <row r="634" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B634" s="11">
         <v>45995</v>
       </c>
@@ -7835,7 +7808,7 @@
       <c r="R634" s="13"/>
       <c r="Y634" s="13"/>
     </row>
-    <row r="635" spans="2:25" hidden="1">
+    <row r="635" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B635" s="11">
         <v>45995</v>
       </c>
@@ -7845,7 +7818,7 @@
       <c r="R635" s="13"/>
       <c r="Y635" s="13"/>
     </row>
-    <row r="636" spans="2:25" hidden="1">
+    <row r="636" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B636" s="11">
         <v>45995</v>
       </c>
@@ -7855,7 +7828,7 @@
       <c r="R636" s="13"/>
       <c r="Y636" s="13"/>
     </row>
-    <row r="637" spans="2:25" hidden="1">
+    <row r="637" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B637" s="11">
         <v>45995</v>
       </c>
@@ -7865,7 +7838,7 @@
       <c r="R637" s="13"/>
       <c r="Y637" s="13"/>
     </row>
-    <row r="638" spans="2:25" hidden="1">
+    <row r="638" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B638" s="11">
         <v>45995</v>
       </c>
@@ -7875,7 +7848,7 @@
       <c r="R638" s="13"/>
       <c r="Y638" s="13"/>
     </row>
-    <row r="639" spans="2:25" hidden="1">
+    <row r="639" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B639" s="11">
         <v>45995</v>
       </c>
@@ -7885,7 +7858,7 @@
       <c r="R639" s="13"/>
       <c r="Y639" s="13"/>
     </row>
-    <row r="640" spans="2:25" hidden="1">
+    <row r="640" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B640" s="11">
         <v>45995</v>
       </c>
@@ -7895,7 +7868,7 @@
       <c r="R640" s="13"/>
       <c r="Y640" s="13"/>
     </row>
-    <row r="641" spans="2:25" hidden="1">
+    <row r="641" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B641" s="11">
         <v>45996</v>
       </c>
@@ -7905,7 +7878,7 @@
       <c r="R641" s="13"/>
       <c r="Y641" s="13"/>
     </row>
-    <row r="642" spans="2:25" hidden="1">
+    <row r="642" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B642" s="11">
         <v>45996</v>
       </c>
@@ -7915,7 +7888,7 @@
       <c r="R642" s="13"/>
       <c r="Y642" s="13"/>
     </row>
-    <row r="643" spans="2:25" hidden="1">
+    <row r="643" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B643" s="11">
         <v>45996</v>
       </c>
@@ -7925,7 +7898,7 @@
       <c r="R643" s="13"/>
       <c r="Y643" s="13"/>
     </row>
-    <row r="644" spans="2:25" hidden="1">
+    <row r="644" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B644" s="11">
         <v>45996</v>
       </c>
@@ -7935,7 +7908,7 @@
       <c r="R644" s="13"/>
       <c r="Y644" s="13"/>
     </row>
-    <row r="645" spans="2:25" hidden="1">
+    <row r="645" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B645" s="11">
         <v>45996</v>
       </c>
@@ -7945,7 +7918,7 @@
       <c r="R645" s="13"/>
       <c r="Y645" s="13"/>
     </row>
-    <row r="646" spans="2:25" hidden="1">
+    <row r="646" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B646" s="11">
         <v>45996</v>
       </c>
@@ -7955,7 +7928,7 @@
       <c r="R646" s="13"/>
       <c r="Y646" s="13"/>
     </row>
-    <row r="647" spans="2:25" hidden="1">
+    <row r="647" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B647" s="11">
         <v>45996</v>
       </c>
@@ -7965,7 +7938,7 @@
       <c r="R647" s="13"/>
       <c r="Y647" s="13"/>
     </row>
-    <row r="648" spans="2:25" hidden="1">
+    <row r="648" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B648" s="11">
         <v>45997</v>
       </c>
@@ -7975,7 +7948,7 @@
       <c r="R648" s="13"/>
       <c r="Y648" s="13"/>
     </row>
-    <row r="649" spans="2:25" hidden="1">
+    <row r="649" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B649" s="11">
         <v>45997</v>
       </c>
@@ -7985,7 +7958,7 @@
       <c r="R649" s="13"/>
       <c r="Y649" s="13"/>
     </row>
-    <row r="650" spans="2:25" hidden="1">
+    <row r="650" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B650" s="11">
         <v>45997</v>
       </c>
@@ -7995,7 +7968,7 @@
       <c r="R650" s="13"/>
       <c r="Y650" s="13"/>
     </row>
-    <row r="651" spans="2:25" hidden="1">
+    <row r="651" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B651" s="11">
         <v>45997</v>
       </c>
@@ -8005,7 +7978,7 @@
       <c r="R651" s="13"/>
       <c r="Y651" s="13"/>
     </row>
-    <row r="652" spans="2:25" hidden="1">
+    <row r="652" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B652" s="11">
         <v>45997</v>
       </c>
@@ -8015,7 +7988,7 @@
       <c r="R652" s="13"/>
       <c r="Y652" s="13"/>
     </row>
-    <row r="653" spans="2:25" hidden="1">
+    <row r="653" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B653" s="11">
         <v>45997</v>
       </c>
@@ -8025,7 +7998,7 @@
       <c r="R653" s="13"/>
       <c r="Y653" s="13"/>
     </row>
-    <row r="654" spans="2:25" hidden="1">
+    <row r="654" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B654" s="11">
         <v>45997</v>
       </c>
@@ -8035,7 +8008,7 @@
       <c r="R654" s="13"/>
       <c r="Y654" s="13"/>
     </row>
-    <row r="655" spans="2:25" hidden="1">
+    <row r="655" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B655" s="11">
         <v>45998</v>
       </c>
@@ -8045,7 +8018,7 @@
       <c r="R655" s="13"/>
       <c r="Y655" s="13"/>
     </row>
-    <row r="656" spans="2:25" hidden="1">
+    <row r="656" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B656" s="11">
         <v>45998</v>
       </c>
@@ -8055,7 +8028,7 @@
       <c r="R656" s="13"/>
       <c r="Y656" s="13"/>
     </row>
-    <row r="657" spans="2:25" hidden="1">
+    <row r="657" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B657" s="11">
         <v>45998</v>
       </c>
@@ -8065,7 +8038,7 @@
       <c r="R657" s="13"/>
       <c r="Y657" s="13"/>
     </row>
-    <row r="658" spans="2:25" hidden="1">
+    <row r="658" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B658" s="11">
         <v>45998</v>
       </c>
@@ -8075,7 +8048,7 @@
       <c r="R658" s="13"/>
       <c r="Y658" s="13"/>
     </row>
-    <row r="659" spans="2:25" hidden="1">
+    <row r="659" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B659" s="11">
         <v>45998</v>
       </c>
@@ -8085,7 +8058,7 @@
       <c r="R659" s="13"/>
       <c r="Y659" s="13"/>
     </row>
-    <row r="660" spans="2:25" hidden="1">
+    <row r="660" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B660" s="11">
         <v>45998</v>
       </c>
@@ -8095,7 +8068,7 @@
       <c r="R660" s="13"/>
       <c r="Y660" s="13"/>
     </row>
-    <row r="661" spans="2:25" hidden="1">
+    <row r="661" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B661" s="11">
         <v>45998</v>
       </c>
@@ -8105,7 +8078,7 @@
       <c r="R661" s="13"/>
       <c r="Y661" s="13"/>
     </row>
-    <row r="662" spans="2:25" hidden="1">
+    <row r="662" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B662" s="11">
         <v>45999</v>
       </c>
@@ -8115,7 +8088,7 @@
       <c r="R662" s="13"/>
       <c r="Y662" s="13"/>
     </row>
-    <row r="663" spans="2:25" hidden="1">
+    <row r="663" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B663" s="11">
         <v>45999</v>
       </c>
@@ -8125,7 +8098,7 @@
       <c r="R663" s="13"/>
       <c r="Y663" s="13"/>
     </row>
-    <row r="664" spans="2:25" hidden="1">
+    <row r="664" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B664" s="11">
         <v>45999</v>
       </c>
@@ -8135,7 +8108,7 @@
       <c r="R664" s="13"/>
       <c r="Y664" s="13"/>
     </row>
-    <row r="665" spans="2:25" hidden="1">
+    <row r="665" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B665" s="11">
         <v>45999</v>
       </c>
@@ -8145,7 +8118,7 @@
       <c r="R665" s="13"/>
       <c r="Y665" s="13"/>
     </row>
-    <row r="666" spans="2:25" hidden="1">
+    <row r="666" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B666" s="11">
         <v>45999</v>
       </c>
@@ -8155,7 +8128,7 @@
       <c r="R666" s="13"/>
       <c r="Y666" s="13"/>
     </row>
-    <row r="667" spans="2:25" hidden="1">
+    <row r="667" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B667" s="11">
         <v>45999</v>
       </c>
@@ -8165,7 +8138,7 @@
       <c r="R667" s="13"/>
       <c r="Y667" s="13"/>
     </row>
-    <row r="668" spans="2:25" hidden="1">
+    <row r="668" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B668" s="11">
         <v>45999</v>
       </c>
@@ -8175,7 +8148,7 @@
       <c r="R668" s="13"/>
       <c r="Y668" s="13"/>
     </row>
-    <row r="669" spans="2:25" hidden="1">
+    <row r="669" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B669" s="11">
         <v>46000</v>
       </c>
@@ -8185,7 +8158,7 @@
       <c r="R669" s="13"/>
       <c r="Y669" s="13"/>
     </row>
-    <row r="670" spans="2:25" hidden="1">
+    <row r="670" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B670" s="11">
         <v>46000</v>
       </c>
@@ -8195,7 +8168,7 @@
       <c r="R670" s="13"/>
       <c r="Y670" s="13"/>
     </row>
-    <row r="671" spans="2:25" hidden="1">
+    <row r="671" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B671" s="11">
         <v>46000</v>
       </c>
@@ -8205,7 +8178,7 @@
       <c r="R671" s="13"/>
       <c r="Y671" s="13"/>
     </row>
-    <row r="672" spans="2:25" hidden="1">
+    <row r="672" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B672" s="11">
         <v>46000</v>
       </c>
@@ -8215,7 +8188,7 @@
       <c r="R672" s="13"/>
       <c r="Y672" s="13"/>
     </row>
-    <row r="673" spans="2:25" hidden="1">
+    <row r="673" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B673" s="11">
         <v>46000</v>
       </c>
@@ -8225,7 +8198,7 @@
       <c r="R673" s="13"/>
       <c r="Y673" s="13"/>
     </row>
-    <row r="674" spans="2:25" hidden="1">
+    <row r="674" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B674" s="11">
         <v>46000</v>
       </c>
@@ -8235,7 +8208,7 @@
       <c r="R674" s="13"/>
       <c r="Y674" s="13"/>
     </row>
-    <row r="675" spans="2:25" hidden="1">
+    <row r="675" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B675" s="11">
         <v>46000</v>
       </c>
@@ -8245,7 +8218,7 @@
       <c r="R675" s="13"/>
       <c r="Y675" s="13"/>
     </row>
-    <row r="676" spans="2:25" hidden="1">
+    <row r="676" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B676" s="11">
         <v>46001</v>
       </c>
@@ -8255,7 +8228,7 @@
       <c r="R676" s="13"/>
       <c r="Y676" s="13"/>
     </row>
-    <row r="677" spans="2:25" hidden="1">
+    <row r="677" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B677" s="11">
         <v>46001</v>
       </c>
@@ -8265,7 +8238,7 @@
       <c r="R677" s="13"/>
       <c r="Y677" s="13"/>
     </row>
-    <row r="678" spans="2:25" hidden="1">
+    <row r="678" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B678" s="11">
         <v>46001</v>
       </c>
@@ -8275,7 +8248,7 @@
       <c r="R678" s="13"/>
       <c r="Y678" s="13"/>
     </row>
-    <row r="679" spans="2:25" hidden="1">
+    <row r="679" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B679" s="11">
         <v>46001</v>
       </c>
@@ -8285,7 +8258,7 @@
       <c r="R679" s="13"/>
       <c r="Y679" s="13"/>
     </row>
-    <row r="680" spans="2:25" hidden="1">
+    <row r="680" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B680" s="11">
         <v>46001</v>
       </c>
@@ -8295,7 +8268,7 @@
       <c r="R680" s="13"/>
       <c r="Y680" s="13"/>
     </row>
-    <row r="681" spans="2:25" hidden="1">
+    <row r="681" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B681" s="11">
         <v>46001</v>
       </c>
@@ -8305,7 +8278,7 @@
       <c r="R681" s="13"/>
       <c r="Y681" s="13"/>
     </row>
-    <row r="682" spans="2:25" hidden="1">
+    <row r="682" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B682" s="11">
         <v>46001</v>
       </c>
@@ -8315,7 +8288,7 @@
       <c r="R682" s="13"/>
       <c r="Y682" s="13"/>
     </row>
-    <row r="683" spans="2:25" hidden="1">
+    <row r="683" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B683" s="11">
         <v>46002</v>
       </c>
@@ -8325,7 +8298,7 @@
       <c r="R683" s="13"/>
       <c r="Y683" s="13"/>
     </row>
-    <row r="684" spans="2:25" hidden="1">
+    <row r="684" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B684" s="11">
         <v>46002</v>
       </c>
@@ -8335,7 +8308,7 @@
       <c r="R684" s="13"/>
       <c r="Y684" s="13"/>
     </row>
-    <row r="685" spans="2:25" hidden="1">
+    <row r="685" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B685" s="11">
         <v>46002</v>
       </c>
@@ -8345,7 +8318,7 @@
       <c r="R685" s="13"/>
       <c r="Y685" s="13"/>
     </row>
-    <row r="686" spans="2:25" hidden="1">
+    <row r="686" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B686" s="11">
         <v>46002</v>
       </c>
@@ -8355,7 +8328,7 @@
       <c r="R686" s="13"/>
       <c r="Y686" s="13"/>
     </row>
-    <row r="687" spans="2:25" hidden="1">
+    <row r="687" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B687" s="11">
         <v>46002</v>
       </c>
@@ -8365,7 +8338,7 @@
       <c r="R687" s="13"/>
       <c r="Y687" s="13"/>
     </row>
-    <row r="688" spans="2:25" hidden="1">
+    <row r="688" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B688" s="11">
         <v>46002</v>
       </c>
@@ -8375,7 +8348,7 @@
       <c r="R688" s="13"/>
       <c r="Y688" s="13"/>
     </row>
-    <row r="689" spans="2:25" hidden="1">
+    <row r="689" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B689" s="11">
         <v>46002</v>
       </c>
@@ -8385,7 +8358,7 @@
       <c r="R689" s="13"/>
       <c r="Y689" s="13"/>
     </row>
-    <row r="690" spans="2:25" hidden="1">
+    <row r="690" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B690" s="11">
         <v>46003</v>
       </c>
@@ -8395,7 +8368,7 @@
       <c r="R690" s="13"/>
       <c r="Y690" s="13"/>
     </row>
-    <row r="691" spans="2:25" hidden="1">
+    <row r="691" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B691" s="11">
         <v>46003</v>
       </c>
@@ -8405,7 +8378,7 @@
       <c r="R691" s="13"/>
       <c r="Y691" s="13"/>
     </row>
-    <row r="692" spans="2:25" hidden="1">
+    <row r="692" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B692" s="11">
         <v>46003</v>
       </c>
@@ -8415,7 +8388,7 @@
       <c r="R692" s="13"/>
       <c r="Y692" s="13"/>
     </row>
-    <row r="693" spans="2:25" hidden="1">
+    <row r="693" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B693" s="11">
         <v>46003</v>
       </c>
@@ -8425,7 +8398,7 @@
       <c r="R693" s="13"/>
       <c r="Y693" s="13"/>
     </row>
-    <row r="694" spans="2:25" hidden="1">
+    <row r="694" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B694" s="11">
         <v>46003</v>
       </c>
@@ -8435,7 +8408,7 @@
       <c r="R694" s="13"/>
       <c r="Y694" s="13"/>
     </row>
-    <row r="695" spans="2:25" hidden="1">
+    <row r="695" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B695" s="11">
         <v>46003</v>
       </c>
@@ -8445,7 +8418,7 @@
       <c r="R695" s="13"/>
       <c r="Y695" s="13"/>
     </row>
-    <row r="696" spans="2:25" hidden="1">
+    <row r="696" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B696" s="11">
         <v>46003</v>
       </c>
@@ -8455,7 +8428,7 @@
       <c r="R696" s="13"/>
       <c r="Y696" s="13"/>
     </row>
-    <row r="697" spans="2:25" hidden="1">
+    <row r="697" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B697" s="11">
         <v>46004</v>
       </c>
@@ -8465,7 +8438,7 @@
       <c r="R697" s="13"/>
       <c r="Y697" s="13"/>
     </row>
-    <row r="698" spans="2:25" hidden="1">
+    <row r="698" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B698" s="11">
         <v>46004</v>
       </c>
@@ -8475,7 +8448,7 @@
       <c r="R698" s="13"/>
       <c r="Y698" s="13"/>
     </row>
-    <row r="699" spans="2:25" hidden="1">
+    <row r="699" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B699" s="11">
         <v>46004</v>
       </c>
@@ -8485,7 +8458,7 @@
       <c r="R699" s="13"/>
       <c r="Y699" s="13"/>
     </row>
-    <row r="700" spans="2:25" hidden="1">
+    <row r="700" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B700" s="11">
         <v>46004</v>
       </c>
@@ -8495,7 +8468,7 @@
       <c r="R700" s="13"/>
       <c r="Y700" s="13"/>
     </row>
-    <row r="701" spans="2:25" hidden="1">
+    <row r="701" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B701" s="11">
         <v>46004</v>
       </c>
@@ -8505,7 +8478,7 @@
       <c r="R701" s="13"/>
       <c r="Y701" s="13"/>
     </row>
-    <row r="702" spans="2:25" hidden="1">
+    <row r="702" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B702" s="11">
         <v>46004</v>
       </c>
@@ -8515,7 +8488,7 @@
       <c r="R702" s="13"/>
       <c r="Y702" s="13"/>
     </row>
-    <row r="703" spans="2:25" hidden="1">
+    <row r="703" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B703" s="11">
         <v>46004</v>
       </c>
@@ -8525,7 +8498,7 @@
       <c r="R703" s="13"/>
       <c r="Y703" s="13"/>
     </row>
-    <row r="704" spans="2:25" hidden="1">
+    <row r="704" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B704" s="11">
         <v>46005</v>
       </c>
@@ -8535,7 +8508,7 @@
       <c r="R704" s="13"/>
       <c r="Y704" s="13"/>
     </row>
-    <row r="705" spans="2:25" hidden="1">
+    <row r="705" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B705" s="11">
         <v>46005</v>
       </c>
@@ -8545,7 +8518,7 @@
       <c r="R705" s="13"/>
       <c r="Y705" s="13"/>
     </row>
-    <row r="706" spans="2:25" hidden="1">
+    <row r="706" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B706" s="11">
         <v>46005</v>
       </c>
@@ -8555,7 +8528,7 @@
       <c r="R706" s="13"/>
       <c r="Y706" s="13"/>
     </row>
-    <row r="707" spans="2:25" hidden="1">
+    <row r="707" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B707" s="11">
         <v>46005</v>
       </c>
@@ -8565,7 +8538,7 @@
       <c r="R707" s="13"/>
       <c r="Y707" s="13"/>
     </row>
-    <row r="708" spans="2:25" hidden="1">
+    <row r="708" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B708" s="11">
         <v>46005</v>
       </c>
@@ -8575,7 +8548,7 @@
       <c r="R708" s="13"/>
       <c r="Y708" s="13"/>
     </row>
-    <row r="709" spans="2:25" hidden="1">
+    <row r="709" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B709" s="11">
         <v>46005</v>
       </c>
@@ -8585,7 +8558,7 @@
       <c r="R709" s="13"/>
       <c r="Y709" s="13"/>
     </row>
-    <row r="710" spans="2:25" hidden="1">
+    <row r="710" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B710" s="11">
         <v>46005</v>
       </c>
@@ -8595,7 +8568,7 @@
       <c r="R710" s="13"/>
       <c r="Y710" s="13"/>
     </row>
-    <row r="711" spans="2:25" hidden="1">
+    <row r="711" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B711" s="11">
         <v>46006</v>
       </c>
@@ -8605,7 +8578,7 @@
       <c r="R711" s="13"/>
       <c r="Y711" s="13"/>
     </row>
-    <row r="712" spans="2:25" hidden="1">
+    <row r="712" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B712" s="11">
         <v>46006</v>
       </c>
@@ -8615,7 +8588,7 @@
       <c r="R712" s="13"/>
       <c r="Y712" s="13"/>
     </row>
-    <row r="713" spans="2:25" hidden="1">
+    <row r="713" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B713" s="11">
         <v>46006</v>
       </c>
@@ -8625,7 +8598,7 @@
       <c r="R713" s="13"/>
       <c r="Y713" s="13"/>
     </row>
-    <row r="714" spans="2:25" hidden="1">
+    <row r="714" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B714" s="11">
         <v>46006</v>
       </c>
@@ -8635,7 +8608,7 @@
       <c r="R714" s="13"/>
       <c r="Y714" s="13"/>
     </row>
-    <row r="715" spans="2:25" hidden="1">
+    <row r="715" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B715" s="11">
         <v>46006</v>
       </c>
@@ -8645,7 +8618,7 @@
       <c r="R715" s="13"/>
       <c r="Y715" s="13"/>
     </row>
-    <row r="716" spans="2:25" hidden="1">
+    <row r="716" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B716" s="11">
         <v>46006</v>
       </c>
@@ -8655,7 +8628,7 @@
       <c r="R716" s="13"/>
       <c r="Y716" s="13"/>
     </row>
-    <row r="717" spans="2:25" hidden="1">
+    <row r="717" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B717" s="11">
         <v>46006</v>
       </c>
@@ -8665,7 +8638,7 @@
       <c r="R717" s="13"/>
       <c r="Y717" s="13"/>
     </row>
-    <row r="718" spans="2:25" hidden="1">
+    <row r="718" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B718" s="11">
         <v>46007</v>
       </c>
@@ -8675,7 +8648,7 @@
       <c r="R718" s="13"/>
       <c r="Y718" s="13"/>
     </row>
-    <row r="719" spans="2:25" hidden="1">
+    <row r="719" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B719" s="11">
         <v>46007</v>
       </c>
@@ -8685,7 +8658,7 @@
       <c r="R719" s="13"/>
       <c r="Y719" s="13"/>
     </row>
-    <row r="720" spans="2:25" hidden="1">
+    <row r="720" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B720" s="11">
         <v>46007</v>
       </c>
@@ -8695,7 +8668,7 @@
       <c r="R720" s="13"/>
       <c r="Y720" s="13"/>
     </row>
-    <row r="721" spans="2:25" hidden="1">
+    <row r="721" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B721" s="11">
         <v>46007</v>
       </c>
@@ -8705,7 +8678,7 @@
       <c r="R721" s="13"/>
       <c r="Y721" s="13"/>
     </row>
-    <row r="722" spans="2:25" hidden="1">
+    <row r="722" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B722" s="11">
         <v>46007</v>
       </c>
@@ -8715,7 +8688,7 @@
       <c r="R722" s="13"/>
       <c r="Y722" s="13"/>
     </row>
-    <row r="723" spans="2:25" hidden="1">
+    <row r="723" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B723" s="11">
         <v>46007</v>
       </c>
@@ -8725,7 +8698,7 @@
       <c r="R723" s="13"/>
       <c r="Y723" s="13"/>
     </row>
-    <row r="724" spans="2:25" hidden="1">
+    <row r="724" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B724" s="11">
         <v>46007</v>
       </c>
@@ -8735,7 +8708,7 @@
       <c r="R724" s="13"/>
       <c r="Y724" s="13"/>
     </row>
-    <row r="725" spans="2:25" hidden="1">
+    <row r="725" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B725" s="11">
         <v>46008</v>
       </c>
@@ -8745,7 +8718,7 @@
       <c r="R725" s="13"/>
       <c r="Y725" s="13"/>
     </row>
-    <row r="726" spans="2:25" hidden="1">
+    <row r="726" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B726" s="11">
         <v>46008</v>
       </c>
@@ -8755,7 +8728,7 @@
       <c r="R726" s="13"/>
       <c r="Y726" s="13"/>
     </row>
-    <row r="727" spans="2:25" hidden="1">
+    <row r="727" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B727" s="11">
         <v>46008</v>
       </c>
@@ -8765,7 +8738,7 @@
       <c r="R727" s="13"/>
       <c r="Y727" s="13"/>
     </row>
-    <row r="728" spans="2:25" hidden="1">
+    <row r="728" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B728" s="11">
         <v>46008</v>
       </c>
@@ -8775,7 +8748,7 @@
       <c r="R728" s="13"/>
       <c r="Y728" s="13"/>
     </row>
-    <row r="729" spans="2:25" hidden="1">
+    <row r="729" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B729" s="11">
         <v>46008</v>
       </c>
@@ -8785,7 +8758,7 @@
       <c r="R729" s="13"/>
       <c r="Y729" s="13"/>
     </row>
-    <row r="730" spans="2:25" hidden="1">
+    <row r="730" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B730" s="11">
         <v>46008</v>
       </c>
@@ -8795,7 +8768,7 @@
       <c r="R730" s="13"/>
       <c r="Y730" s="13"/>
     </row>
-    <row r="731" spans="2:25" hidden="1">
+    <row r="731" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B731" s="11">
         <v>46008</v>
       </c>
@@ -8805,7 +8778,7 @@
       <c r="R731" s="13"/>
       <c r="Y731" s="13"/>
     </row>
-    <row r="732" spans="2:25" hidden="1">
+    <row r="732" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B732" s="11">
         <v>46009</v>
       </c>
@@ -8815,7 +8788,7 @@
       <c r="R732" s="13"/>
       <c r="Y732" s="13"/>
     </row>
-    <row r="733" spans="2:25" hidden="1">
+    <row r="733" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B733" s="11">
         <v>46009</v>
       </c>
@@ -8825,7 +8798,7 @@
       <c r="R733" s="13"/>
       <c r="Y733" s="13"/>
     </row>
-    <row r="734" spans="2:25" hidden="1">
+    <row r="734" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B734" s="11">
         <v>46009</v>
       </c>
@@ -8835,7 +8808,7 @@
       <c r="R734" s="13"/>
       <c r="Y734" s="13"/>
     </row>
-    <row r="735" spans="2:25" hidden="1">
+    <row r="735" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B735" s="11">
         <v>46009</v>
       </c>
@@ -8845,7 +8818,7 @@
       <c r="R735" s="13"/>
       <c r="Y735" s="13"/>
     </row>
-    <row r="736" spans="2:25" hidden="1">
+    <row r="736" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B736" s="11">
         <v>46009</v>
       </c>
@@ -8855,7 +8828,7 @@
       <c r="R736" s="13"/>
       <c r="Y736" s="13"/>
     </row>
-    <row r="737" spans="2:25" hidden="1">
+    <row r="737" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B737" s="11">
         <v>46009</v>
       </c>
@@ -8865,7 +8838,7 @@
       <c r="R737" s="13"/>
       <c r="Y737" s="13"/>
     </row>
-    <row r="738" spans="2:25" hidden="1">
+    <row r="738" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B738" s="11">
         <v>46009</v>
       </c>
@@ -8875,7 +8848,7 @@
       <c r="R738" s="13"/>
       <c r="Y738" s="13"/>
     </row>
-    <row r="739" spans="2:25" hidden="1">
+    <row r="739" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B739" s="11">
         <v>46010</v>
       </c>
@@ -8885,7 +8858,7 @@
       <c r="R739" s="13"/>
       <c r="Y739" s="13"/>
     </row>
-    <row r="740" spans="2:25" hidden="1">
+    <row r="740" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B740" s="11">
         <v>46010</v>
       </c>
@@ -8895,7 +8868,7 @@
       <c r="R740" s="13"/>
       <c r="Y740" s="13"/>
     </row>
-    <row r="741" spans="2:25" hidden="1">
+    <row r="741" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B741" s="11">
         <v>46010</v>
       </c>
@@ -8905,7 +8878,7 @@
       <c r="R741" s="13"/>
       <c r="Y741" s="13"/>
     </row>
-    <row r="742" spans="2:25" hidden="1">
+    <row r="742" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B742" s="11">
         <v>46010</v>
       </c>
@@ -8915,7 +8888,7 @@
       <c r="R742" s="13"/>
       <c r="Y742" s="13"/>
     </row>
-    <row r="743" spans="2:25" hidden="1">
+    <row r="743" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B743" s="11">
         <v>46010</v>
       </c>
@@ -8925,7 +8898,7 @@
       <c r="R743" s="13"/>
       <c r="Y743" s="13"/>
     </row>
-    <row r="744" spans="2:25" hidden="1">
+    <row r="744" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B744" s="11">
         <v>46010</v>
       </c>
@@ -8935,7 +8908,7 @@
       <c r="R744" s="13"/>
       <c r="Y744" s="13"/>
     </row>
-    <row r="745" spans="2:25" hidden="1">
+    <row r="745" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B745" s="11">
         <v>46010</v>
       </c>
@@ -8945,7 +8918,7 @@
       <c r="R745" s="13"/>
       <c r="Y745" s="13"/>
     </row>
-    <row r="746" spans="2:25" hidden="1">
+    <row r="746" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B746" s="11">
         <v>46011</v>
       </c>
@@ -8955,7 +8928,7 @@
       <c r="R746" s="13"/>
       <c r="Y746" s="13"/>
     </row>
-    <row r="747" spans="2:25" hidden="1">
+    <row r="747" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B747" s="11">
         <v>46011</v>
       </c>
@@ -8965,7 +8938,7 @@
       <c r="R747" s="13"/>
       <c r="Y747" s="13"/>
     </row>
-    <row r="748" spans="2:25" hidden="1">
+    <row r="748" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B748" s="11">
         <v>46011</v>
       </c>
@@ -8975,7 +8948,7 @@
       <c r="R748" s="13"/>
       <c r="Y748" s="13"/>
     </row>
-    <row r="749" spans="2:25" hidden="1">
+    <row r="749" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B749" s="11">
         <v>46011</v>
       </c>
@@ -8985,7 +8958,7 @@
       <c r="R749" s="13"/>
       <c r="Y749" s="13"/>
     </row>
-    <row r="750" spans="2:25" hidden="1">
+    <row r="750" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B750" s="11">
         <v>46011</v>
       </c>
@@ -8995,7 +8968,7 @@
       <c r="R750" s="13"/>
       <c r="Y750" s="13"/>
     </row>
-    <row r="751" spans="2:25" hidden="1">
+    <row r="751" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B751" s="11">
         <v>46011</v>
       </c>
@@ -9005,7 +8978,7 @@
       <c r="R751" s="13"/>
       <c r="Y751" s="13"/>
     </row>
-    <row r="752" spans="2:25" hidden="1">
+    <row r="752" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B752" s="11">
         <v>46011</v>
       </c>
@@ -9015,7 +8988,7 @@
       <c r="R752" s="13"/>
       <c r="Y752" s="13"/>
     </row>
-    <row r="753" spans="2:25" hidden="1">
+    <row r="753" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B753" s="11">
         <v>46012</v>
       </c>
@@ -9025,7 +8998,7 @@
       <c r="R753" s="13"/>
       <c r="Y753" s="13"/>
     </row>
-    <row r="754" spans="2:25" hidden="1">
+    <row r="754" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B754" s="11">
         <v>46012</v>
       </c>
@@ -9035,7 +9008,7 @@
       <c r="R754" s="13"/>
       <c r="Y754" s="13"/>
     </row>
-    <row r="755" spans="2:25" hidden="1">
+    <row r="755" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B755" s="11">
         <v>46012</v>
       </c>
@@ -9045,7 +9018,7 @@
       <c r="R755" s="13"/>
       <c r="Y755" s="13"/>
     </row>
-    <row r="756" spans="2:25" hidden="1">
+    <row r="756" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B756" s="11">
         <v>46012</v>
       </c>
@@ -9055,7 +9028,7 @@
       <c r="R756" s="13"/>
       <c r="Y756" s="13"/>
     </row>
-    <row r="757" spans="2:25" hidden="1">
+    <row r="757" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B757" s="11">
         <v>46012</v>
       </c>
@@ -9065,7 +9038,7 @@
       <c r="R757" s="13"/>
       <c r="Y757" s="13"/>
     </row>
-    <row r="758" spans="2:25" hidden="1">
+    <row r="758" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B758" s="11">
         <v>46012</v>
       </c>
@@ -9075,7 +9048,7 @@
       <c r="R758" s="13"/>
       <c r="Y758" s="13"/>
     </row>
-    <row r="759" spans="2:25" hidden="1">
+    <row r="759" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B759" s="11">
         <v>46012</v>
       </c>
@@ -9085,7 +9058,7 @@
       <c r="R759" s="13"/>
       <c r="Y759" s="13"/>
     </row>
-    <row r="760" spans="2:25" hidden="1">
+    <row r="760" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B760" s="11">
         <v>46013</v>
       </c>
@@ -9095,7 +9068,7 @@
       <c r="R760" s="13"/>
       <c r="Y760" s="13"/>
     </row>
-    <row r="761" spans="2:25" hidden="1">
+    <row r="761" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B761" s="11">
         <v>46013</v>
       </c>
@@ -9105,7 +9078,7 @@
       <c r="R761" s="13"/>
       <c r="Y761" s="13"/>
     </row>
-    <row r="762" spans="2:25" hidden="1">
+    <row r="762" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B762" s="11">
         <v>46013</v>
       </c>
@@ -9115,7 +9088,7 @@
       <c r="R762" s="13"/>
       <c r="Y762" s="13"/>
     </row>
-    <row r="763" spans="2:25" hidden="1">
+    <row r="763" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B763" s="11">
         <v>46013</v>
       </c>
@@ -9125,7 +9098,7 @@
       <c r="R763" s="13"/>
       <c r="Y763" s="13"/>
     </row>
-    <row r="764" spans="2:25" hidden="1">
+    <row r="764" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B764" s="11">
         <v>46013</v>
       </c>
@@ -9135,7 +9108,7 @@
       <c r="R764" s="13"/>
       <c r="Y764" s="13"/>
     </row>
-    <row r="765" spans="2:25" hidden="1">
+    <row r="765" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B765" s="11">
         <v>46013</v>
       </c>
@@ -9145,7 +9118,7 @@
       <c r="R765" s="13"/>
       <c r="Y765" s="13"/>
     </row>
-    <row r="766" spans="2:25" hidden="1">
+    <row r="766" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B766" s="11">
         <v>46013</v>
       </c>
@@ -9155,7 +9128,7 @@
       <c r="R766" s="13"/>
       <c r="Y766" s="13"/>
     </row>
-    <row r="767" spans="2:25" hidden="1">
+    <row r="767" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B767" s="11">
         <v>46014</v>
       </c>
@@ -9165,7 +9138,7 @@
       <c r="R767" s="13"/>
       <c r="Y767" s="13"/>
     </row>
-    <row r="768" spans="2:25" hidden="1">
+    <row r="768" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B768" s="11">
         <v>46014</v>
       </c>
@@ -9175,7 +9148,7 @@
       <c r="R768" s="13"/>
       <c r="Y768" s="13"/>
     </row>
-    <row r="769" spans="2:25" hidden="1">
+    <row r="769" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B769" s="11">
         <v>46014</v>
       </c>
@@ -9185,7 +9158,7 @@
       <c r="R769" s="13"/>
       <c r="Y769" s="13"/>
     </row>
-    <row r="770" spans="2:25" hidden="1">
+    <row r="770" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B770" s="11">
         <v>46014</v>
       </c>
@@ -9195,7 +9168,7 @@
       <c r="R770" s="13"/>
       <c r="Y770" s="13"/>
     </row>
-    <row r="771" spans="2:25" hidden="1">
+    <row r="771" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B771" s="11">
         <v>46014</v>
       </c>
@@ -9205,7 +9178,7 @@
       <c r="R771" s="13"/>
       <c r="Y771" s="13"/>
     </row>
-    <row r="772" spans="2:25" hidden="1">
+    <row r="772" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B772" s="11">
         <v>46014</v>
       </c>
@@ -9215,7 +9188,7 @@
       <c r="R772" s="13"/>
       <c r="Y772" s="13"/>
     </row>
-    <row r="773" spans="2:25" hidden="1">
+    <row r="773" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B773" s="11">
         <v>46014</v>
       </c>
@@ -9225,7 +9198,7 @@
       <c r="R773" s="13"/>
       <c r="Y773" s="13"/>
     </row>
-    <row r="774" spans="2:25" hidden="1">
+    <row r="774" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B774" s="11">
         <v>46015</v>
       </c>
@@ -9235,7 +9208,7 @@
       <c r="R774" s="13"/>
       <c r="Y774" s="13"/>
     </row>
-    <row r="775" spans="2:25" hidden="1">
+    <row r="775" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B775" s="11">
         <v>46015</v>
       </c>
@@ -9245,7 +9218,7 @@
       <c r="R775" s="13"/>
       <c r="Y775" s="13"/>
     </row>
-    <row r="776" spans="2:25" hidden="1">
+    <row r="776" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B776" s="11">
         <v>46015</v>
       </c>
@@ -9255,7 +9228,7 @@
       <c r="R776" s="13"/>
       <c r="Y776" s="13"/>
     </row>
-    <row r="777" spans="2:25" hidden="1">
+    <row r="777" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B777" s="11">
         <v>46015</v>
       </c>
@@ -9265,7 +9238,7 @@
       <c r="R777" s="13"/>
       <c r="Y777" s="13"/>
     </row>
-    <row r="778" spans="2:25" hidden="1">
+    <row r="778" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B778" s="11">
         <v>46015</v>
       </c>
@@ -9275,7 +9248,7 @@
       <c r="R778" s="13"/>
       <c r="Y778" s="13"/>
     </row>
-    <row r="779" spans="2:25" hidden="1">
+    <row r="779" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B779" s="11">
         <v>46015</v>
       </c>
@@ -9285,7 +9258,7 @@
       <c r="R779" s="13"/>
       <c r="Y779" s="13"/>
     </row>
-    <row r="780" spans="2:25" hidden="1">
+    <row r="780" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B780" s="11">
         <v>46015</v>
       </c>
@@ -9295,7 +9268,7 @@
       <c r="R780" s="13"/>
       <c r="Y780" s="13"/>
     </row>
-    <row r="781" spans="2:25" hidden="1">
+    <row r="781" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B781" s="11">
         <v>46016</v>
       </c>
@@ -9305,7 +9278,7 @@
       <c r="R781" s="13"/>
       <c r="Y781" s="13"/>
     </row>
-    <row r="782" spans="2:25" hidden="1">
+    <row r="782" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B782" s="11">
         <v>46016</v>
       </c>
@@ -9315,7 +9288,7 @@
       <c r="R782" s="13"/>
       <c r="Y782" s="13"/>
     </row>
-    <row r="783" spans="2:25" hidden="1">
+    <row r="783" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B783" s="11">
         <v>46016</v>
       </c>
@@ -9325,7 +9298,7 @@
       <c r="R783" s="13"/>
       <c r="Y783" s="13"/>
     </row>
-    <row r="784" spans="2:25" hidden="1">
+    <row r="784" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B784" s="11">
         <v>46016</v>
       </c>
@@ -9335,7 +9308,7 @@
       <c r="R784" s="13"/>
       <c r="Y784" s="13"/>
     </row>
-    <row r="785" spans="2:25" hidden="1">
+    <row r="785" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B785" s="11">
         <v>46016</v>
       </c>
@@ -9345,7 +9318,7 @@
       <c r="R785" s="13"/>
       <c r="Y785" s="13"/>
     </row>
-    <row r="786" spans="2:25" hidden="1">
+    <row r="786" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B786" s="11">
         <v>46016</v>
       </c>
@@ -9355,7 +9328,7 @@
       <c r="R786" s="13"/>
       <c r="Y786" s="13"/>
     </row>
-    <row r="787" spans="2:25" hidden="1">
+    <row r="787" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B787" s="11">
         <v>46016</v>
       </c>
@@ -9365,7 +9338,7 @@
       <c r="R787" s="13"/>
       <c r="Y787" s="13"/>
     </row>
-    <row r="788" spans="2:25" hidden="1">
+    <row r="788" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B788" s="11">
         <v>46017</v>
       </c>
@@ -9375,7 +9348,7 @@
       <c r="R788" s="13"/>
       <c r="Y788" s="13"/>
     </row>
-    <row r="789" spans="2:25" hidden="1">
+    <row r="789" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B789" s="11">
         <v>46017</v>
       </c>
@@ -9385,7 +9358,7 @@
       <c r="R789" s="13"/>
       <c r="Y789" s="13"/>
     </row>
-    <row r="790" spans="2:25" hidden="1">
+    <row r="790" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B790" s="11">
         <v>46017</v>
       </c>
@@ -9395,7 +9368,7 @@
       <c r="R790" s="13"/>
       <c r="Y790" s="13"/>
     </row>
-    <row r="791" spans="2:25" hidden="1">
+    <row r="791" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B791" s="11">
         <v>46017</v>
       </c>
@@ -9405,7 +9378,7 @@
       <c r="R791" s="13"/>
       <c r="Y791" s="13"/>
     </row>
-    <row r="792" spans="2:25" hidden="1">
+    <row r="792" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B792" s="11">
         <v>46017</v>
       </c>
@@ -9415,7 +9388,7 @@
       <c r="R792" s="13"/>
       <c r="Y792" s="13"/>
     </row>
-    <row r="793" spans="2:25" hidden="1">
+    <row r="793" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B793" s="11">
         <v>46017</v>
       </c>
@@ -9425,7 +9398,7 @@
       <c r="R793" s="13"/>
       <c r="Y793" s="13"/>
     </row>
-    <row r="794" spans="2:25" hidden="1">
+    <row r="794" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B794" s="11">
         <v>46017</v>
       </c>
@@ -9435,7 +9408,7 @@
       <c r="R794" s="13"/>
       <c r="Y794" s="13"/>
     </row>
-    <row r="795" spans="2:25" hidden="1">
+    <row r="795" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B795" s="11">
         <v>46018</v>
       </c>
@@ -9445,7 +9418,7 @@
       <c r="R795" s="13"/>
       <c r="Y795" s="13"/>
     </row>
-    <row r="796" spans="2:25" hidden="1">
+    <row r="796" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B796" s="11">
         <v>46018</v>
       </c>
@@ -9455,7 +9428,7 @@
       <c r="R796" s="13"/>
       <c r="Y796" s="13"/>
     </row>
-    <row r="797" spans="2:25" hidden="1">
+    <row r="797" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B797" s="11">
         <v>46018</v>
       </c>
@@ -9465,7 +9438,7 @@
       <c r="R797" s="13"/>
       <c r="Y797" s="13"/>
     </row>
-    <row r="798" spans="2:25" hidden="1">
+    <row r="798" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B798" s="11">
         <v>46018</v>
       </c>
@@ -9475,7 +9448,7 @@
       <c r="R798" s="13"/>
       <c r="Y798" s="13"/>
     </row>
-    <row r="799" spans="2:25" hidden="1">
+    <row r="799" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B799" s="11">
         <v>46018</v>
       </c>
@@ -9485,7 +9458,7 @@
       <c r="R799" s="13"/>
       <c r="Y799" s="13"/>
     </row>
-    <row r="800" spans="2:25" hidden="1">
+    <row r="800" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B800" s="11">
         <v>46018</v>
       </c>
@@ -9495,7 +9468,7 @@
       <c r="R800" s="13"/>
       <c r="Y800" s="13"/>
     </row>
-    <row r="801" spans="2:25" hidden="1">
+    <row r="801" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B801" s="11">
         <v>46018</v>
       </c>
@@ -9505,7 +9478,7 @@
       <c r="R801" s="13"/>
       <c r="Y801" s="13"/>
     </row>
-    <row r="802" spans="2:25" hidden="1">
+    <row r="802" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B802" s="11">
         <v>46019</v>
       </c>
@@ -9515,7 +9488,7 @@
       <c r="R802" s="13"/>
       <c r="Y802" s="13"/>
     </row>
-    <row r="803" spans="2:25" hidden="1">
+    <row r="803" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B803" s="11">
         <v>46019</v>
       </c>
@@ -9525,7 +9498,7 @@
       <c r="R803" s="13"/>
       <c r="Y803" s="13"/>
     </row>
-    <row r="804" spans="2:25" hidden="1">
+    <row r="804" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B804" s="11">
         <v>46019</v>
       </c>
@@ -9535,7 +9508,7 @@
       <c r="R804" s="13"/>
       <c r="Y804" s="13"/>
     </row>
-    <row r="805" spans="2:25" hidden="1">
+    <row r="805" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B805" s="11">
         <v>46019</v>
       </c>
@@ -9545,7 +9518,7 @@
       <c r="R805" s="13"/>
       <c r="Y805" s="13"/>
     </row>
-    <row r="806" spans="2:25" hidden="1">
+    <row r="806" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B806" s="11">
         <v>46019</v>
       </c>
@@ -9555,7 +9528,7 @@
       <c r="R806" s="13"/>
       <c r="Y806" s="13"/>
     </row>
-    <row r="807" spans="2:25" hidden="1">
+    <row r="807" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B807" s="11">
         <v>46019</v>
       </c>
@@ -9565,7 +9538,7 @@
       <c r="R807" s="13"/>
       <c r="Y807" s="13"/>
     </row>
-    <row r="808" spans="2:25" hidden="1">
+    <row r="808" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B808" s="11">
         <v>46019</v>
       </c>
@@ -9575,7 +9548,7 @@
       <c r="R808" s="13"/>
       <c r="Y808" s="13"/>
     </row>
-    <row r="809" spans="2:25" hidden="1">
+    <row r="809" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B809" s="11">
         <v>46020</v>
       </c>
@@ -9585,7 +9558,7 @@
       <c r="R809" s="13"/>
       <c r="Y809" s="13"/>
     </row>
-    <row r="810" spans="2:25" hidden="1">
+    <row r="810" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B810" s="11">
         <v>46020</v>
       </c>
@@ -9595,7 +9568,7 @@
       <c r="R810" s="13"/>
       <c r="Y810" s="13"/>
     </row>
-    <row r="811" spans="2:25" hidden="1">
+    <row r="811" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B811" s="11">
         <v>46020</v>
       </c>
@@ -9605,7 +9578,7 @@
       <c r="R811" s="13"/>
       <c r="Y811" s="13"/>
     </row>
-    <row r="812" spans="2:25" hidden="1">
+    <row r="812" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B812" s="11">
         <v>46020</v>
       </c>
@@ -9615,7 +9588,7 @@
       <c r="R812" s="13"/>
       <c r="Y812" s="13"/>
     </row>
-    <row r="813" spans="2:25" hidden="1">
+    <row r="813" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B813" s="11">
         <v>46020</v>
       </c>
@@ -9625,7 +9598,7 @@
       <c r="R813" s="13"/>
       <c r="Y813" s="13"/>
     </row>
-    <row r="814" spans="2:25" hidden="1">
+    <row r="814" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B814" s="11">
         <v>46020</v>
       </c>
@@ -9635,7 +9608,7 @@
       <c r="R814" s="13"/>
       <c r="Y814" s="13"/>
     </row>
-    <row r="815" spans="2:25" hidden="1">
+    <row r="815" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B815" s="11">
         <v>46020</v>
       </c>
@@ -9645,7 +9618,7 @@
       <c r="R815" s="13"/>
       <c r="Y815" s="13"/>
     </row>
-    <row r="816" spans="2:25" hidden="1">
+    <row r="816" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B816" s="11">
         <v>46021</v>
       </c>
@@ -9655,7 +9628,7 @@
       <c r="R816" s="13"/>
       <c r="Y816" s="13"/>
     </row>
-    <row r="817" spans="2:25" hidden="1">
+    <row r="817" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B817" s="11">
         <v>46021</v>
       </c>
@@ -9665,7 +9638,7 @@
       <c r="R817" s="13"/>
       <c r="Y817" s="13"/>
     </row>
-    <row r="818" spans="2:25" hidden="1">
+    <row r="818" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B818" s="11">
         <v>46021</v>
       </c>
@@ -9675,7 +9648,7 @@
       <c r="R818" s="13"/>
       <c r="Y818" s="13"/>
     </row>
-    <row r="819" spans="2:25" hidden="1">
+    <row r="819" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B819" s="11">
         <v>46021</v>
       </c>
@@ -9685,7 +9658,7 @@
       <c r="R819" s="13"/>
       <c r="Y819" s="13"/>
     </row>
-    <row r="820" spans="2:25" hidden="1">
+    <row r="820" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B820" s="11">
         <v>46021</v>
       </c>
@@ -9695,7 +9668,7 @@
       <c r="R820" s="13"/>
       <c r="Y820" s="13"/>
     </row>
-    <row r="821" spans="2:25" hidden="1">
+    <row r="821" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B821" s="11">
         <v>46021</v>
       </c>
@@ -9705,7 +9678,7 @@
       <c r="R821" s="13"/>
       <c r="Y821" s="13"/>
     </row>
-    <row r="822" spans="2:25" hidden="1">
+    <row r="822" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B822" s="11">
         <v>46021</v>
       </c>
@@ -9715,7 +9688,7 @@
       <c r="R822" s="13"/>
       <c r="Y822" s="13"/>
     </row>
-    <row r="823" spans="2:25" hidden="1">
+    <row r="823" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B823" s="11">
         <v>46022</v>
       </c>
@@ -9725,7 +9698,7 @@
       <c r="R823" s="13"/>
       <c r="Y823" s="13"/>
     </row>
-    <row r="824" spans="2:25" hidden="1">
+    <row r="824" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B824" s="11">
         <v>46022</v>
       </c>
@@ -9735,7 +9708,7 @@
       <c r="R824" s="13"/>
       <c r="Y824" s="13"/>
     </row>
-    <row r="825" spans="2:25" hidden="1">
+    <row r="825" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B825" s="11">
         <v>46022</v>
       </c>
@@ -9745,7 +9718,7 @@
       <c r="R825" s="13"/>
       <c r="Y825" s="13"/>
     </row>
-    <row r="826" spans="2:25" hidden="1">
+    <row r="826" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B826" s="11">
         <v>46022</v>
       </c>
@@ -9755,7 +9728,7 @@
       <c r="R826" s="13"/>
       <c r="Y826" s="13"/>
     </row>
-    <row r="827" spans="2:25" hidden="1">
+    <row r="827" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B827" s="11">
         <v>46022</v>
       </c>
@@ -9765,7 +9738,7 @@
       <c r="R827" s="13"/>
       <c r="Y827" s="13"/>
     </row>
-    <row r="828" spans="2:25" hidden="1">
+    <row r="828" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B828" s="11">
         <v>46022</v>
       </c>
@@ -9775,7 +9748,7 @@
       <c r="R828" s="13"/>
       <c r="Y828" s="13"/>
     </row>
-    <row r="829" spans="2:25" hidden="1">
+    <row r="829" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B829" s="11">
         <v>46022</v>
       </c>
@@ -9790,11 +9763,6 @@
     <filterColumn colId="1">
       <filters>
         <dateGroupItem year="2025" month="9" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RMSPII"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9803,7 +9771,7 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:Z2"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{87072A1E-199A-41C2-A98C-29295B711797}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -9814,21 +9782,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5f7d05b22801f8a5aef07f913f0a6c2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36a9bbd0f338303ab31ebe548315c8aa" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
@@ -9972,14 +9925,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens-my.sharepoint.com/personal/carlos_renier_superfrio_com_br/Documents/Apps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="610" documentId="13_ncr:1_{CCD3546E-43BF-4E1C-BFAF-27E3850A78DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC53F25-7CE4-45BB-B405-6B634A9D5F3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{693DFFCF-5327-4014-A55D-CC9209BD6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -156,12 +156,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +301,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,6 +372,20 @@
     <xf numFmtId="44" fontId="3" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,7 +438,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
@@ -789,32 +804,32 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:Z829"/>
+  <dimension ref="A1:AA829"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="P6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q56" sqref="Q56"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="11" style="13" customWidth="1"/>
-    <col min="8" max="9" width="6.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="13" customWidth="1"/>
-    <col min="12" max="14" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="15" style="13" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="13" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="13" customWidth="1"/>
     <col min="20" max="20" width="16" style="13" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" style="13"/>
     <col min="22" max="23" width="9.140625" style="13"/>
@@ -823,7 +838,7 @@
     <col min="26" max="26" width="18.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A1" s="1"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
@@ -835,40 +850,40 @@
       <c r="R1" s="18"/>
       <c r="Y1" s="22"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="1"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="26"/>
-    </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="32"/>
+    </row>
+    <row r="3" spans="1:26" ht="75" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -945,7 +960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -955,8 +970,8 @@
       <c r="P4" s="13">
         <v>4</v>
       </c>
-      <c r="Q4" s="13">
-        <v>4</v>
+      <c r="Q4" s="16">
+        <v>1</v>
       </c>
       <c r="R4" s="13">
         <v>24275.27</v>
@@ -986,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1">
       <c r="B5" s="10">
         <v>45905</v>
       </c>
@@ -996,7 +1011,7 @@
       <c r="P5" s="13">
         <v>13</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="28">
         <v>13</v>
       </c>
       <c r="R5" s="13">
@@ -1027,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1">
       <c r="B6" s="10">
         <v>45905</v>
       </c>
@@ -1037,7 +1052,7 @@
       <c r="P6" s="13">
         <v>9</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="28">
         <v>9</v>
       </c>
       <c r="R6" s="13">
@@ -1068,7 +1083,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" hidden="1">
       <c r="B7" s="10">
         <v>45905</v>
       </c>
@@ -1081,6 +1096,9 @@
       <c r="P7" s="13">
         <v>208</v>
       </c>
+      <c r="Q7" s="13">
+        <v>208</v>
+      </c>
       <c r="R7" s="20">
         <v>729357.62</v>
       </c>
@@ -1109,7 +1127,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="10">
         <v>45905</v>
       </c>
@@ -1146,8 +1164,8 @@
       <c r="P8" s="13">
         <v>9</v>
       </c>
-      <c r="Q8" s="13">
-        <v>9</v>
+      <c r="Q8" s="16">
+        <v>1</v>
       </c>
       <c r="R8" s="13">
         <v>67837.56</v>
@@ -1177,7 +1195,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1">
       <c r="B9" s="10">
         <v>45905</v>
       </c>
@@ -1187,17 +1205,16 @@
       <c r="R9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1">
       <c r="B10" s="10">
         <v>45905</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
@@ -1208,26 +1225,28 @@
       <c r="S11" s="17"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1">
       <c r="B12" s="11">
         <v>45906</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
+      <c r="Q12" s="28"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1">
       <c r="B13" s="11">
         <v>45906</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
       </c>
+      <c r="Q13" s="28"/>
       <c r="R13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1">
       <c r="B14" s="11">
         <v>45906</v>
       </c>
@@ -1239,7 +1258,7 @@
       </c>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="11">
         <v>45906</v>
       </c>
@@ -1248,7 +1267,7 @@
       </c>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1">
       <c r="B16" s="11">
         <v>45906</v>
       </c>
@@ -1258,7 +1277,7 @@
       <c r="R16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" hidden="1">
       <c r="B17" s="11">
         <v>45906</v>
       </c>
@@ -1268,7 +1287,7 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" hidden="1">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
@@ -1278,26 +1297,28 @@
       <c r="R18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" hidden="1">
       <c r="B19" s="11">
         <v>45907</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
+      <c r="Q19" s="28"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" hidden="1">
       <c r="B20" s="11">
         <v>45907</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
+      <c r="Q20" s="28"/>
       <c r="R20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" hidden="1">
       <c r="B21" s="11">
         <v>45907</v>
       </c>
@@ -1309,7 +1330,7 @@
       </c>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26">
       <c r="B22" s="11">
         <v>45907</v>
       </c>
@@ -1318,7 +1339,7 @@
       </c>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" hidden="1">
       <c r="B23" s="11">
         <v>45907</v>
       </c>
@@ -1328,7 +1349,7 @@
       <c r="R23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" hidden="1">
       <c r="B24" s="11">
         <v>45907</v>
       </c>
@@ -1338,7 +1359,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" hidden="1">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1348,8 +1369,8 @@
       <c r="P25" s="13">
         <v>5</v>
       </c>
-      <c r="Q25" s="13">
-        <v>5</v>
+      <c r="Q25" s="16">
+        <v>1</v>
       </c>
       <c r="R25" s="13">
         <v>30773.43</v>
@@ -1365,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" hidden="1">
       <c r="B26" s="11">
         <v>45908</v>
       </c>
@@ -1375,7 +1396,7 @@
       <c r="P26" s="13">
         <v>13</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="28">
         <v>13</v>
       </c>
       <c r="R26" s="13">
@@ -1406,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" hidden="1">
       <c r="B27" s="11">
         <v>45908</v>
       </c>
@@ -1416,7 +1437,7 @@
       <c r="P27" s="13">
         <v>11</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="28">
         <v>11</v>
       </c>
       <c r="R27" s="13">
@@ -1428,6 +1449,15 @@
       <c r="T27" s="13">
         <v>0</v>
       </c>
+      <c r="U27" s="16">
+        <v>1</v>
+      </c>
+      <c r="V27" s="16">
+        <v>1</v>
+      </c>
+      <c r="W27" s="16">
+        <v>1</v>
+      </c>
       <c r="X27" s="13">
         <v>0</v>
       </c>
@@ -1438,7 +1468,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" hidden="1">
       <c r="B28" s="11">
         <v>45908</v>
       </c>
@@ -1472,13 +1502,13 @@
       <c r="P28" s="13">
         <v>228</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="24">
         <v>228</v>
       </c>
       <c r="R28" s="20">
         <v>858757.38</v>
       </c>
-      <c r="S28" s="13">
+      <c r="S28" s="17">
         <v>0.84399999999999997</v>
       </c>
       <c r="T28" s="13">
@@ -1503,7 +1533,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="11">
         <v>45908</v>
       </c>
@@ -1537,8 +1567,8 @@
       <c r="P29" s="13">
         <v>35</v>
       </c>
-      <c r="Q29" s="13">
-        <v>35</v>
+      <c r="Q29" s="16">
+        <v>1</v>
       </c>
       <c r="R29" s="13">
         <v>210274.72</v>
@@ -1559,7 +1589,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" hidden="1">
       <c r="B30" s="11">
         <v>45908</v>
       </c>
@@ -1569,7 +1599,7 @@
       <c r="R30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" hidden="1">
       <c r="B31" s="11">
         <v>45908</v>
       </c>
@@ -1579,7 +1609,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" hidden="1">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1597,6 +1627,9 @@
       </c>
       <c r="P32" s="13">
         <v>2</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>1</v>
       </c>
       <c r="R32" s="13">
         <v>8388.2000000000007</v>
@@ -1612,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" hidden="1">
       <c r="B33" s="11">
         <v>45909</v>
       </c>
@@ -1622,6 +1655,9 @@
       <c r="P33" s="13">
         <v>12</v>
       </c>
+      <c r="Q33" s="28">
+        <v>12</v>
+      </c>
       <c r="R33" s="13">
         <v>32131.06</v>
       </c>
@@ -1650,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" hidden="1">
       <c r="B34" s="11">
         <v>45909</v>
       </c>
@@ -1660,6 +1696,9 @@
       <c r="P34" s="13">
         <v>9</v>
       </c>
+      <c r="Q34" s="28">
+        <v>9</v>
+      </c>
       <c r="R34" s="13">
         <v>44394.27</v>
       </c>
@@ -1679,7 +1718,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" hidden="1">
       <c r="B35" s="11">
         <v>45909</v>
       </c>
@@ -1701,8 +1740,8 @@
       <c r="P35" s="13">
         <v>181</v>
       </c>
-      <c r="Q35" s="13">
-        <v>98</v>
+      <c r="Q35" s="24">
+        <v>180</v>
       </c>
       <c r="R35" s="20">
         <v>633694.4</v>
@@ -1732,7 +1771,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26">
       <c r="B36" s="11">
         <v>45909</v>
       </c>
@@ -1766,6 +1805,9 @@
       <c r="P36" s="13">
         <v>23</v>
       </c>
+      <c r="Q36" s="16">
+        <v>1</v>
+      </c>
       <c r="R36" s="13">
         <v>98604.29</v>
       </c>
@@ -1785,7 +1827,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" hidden="1">
       <c r="B37" s="11">
         <v>45909</v>
       </c>
@@ -1795,7 +1837,7 @@
       <c r="R37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" hidden="1">
       <c r="B38" s="11">
         <v>45909</v>
       </c>
@@ -1805,7 +1847,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" hidden="1">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -1815,6 +1857,9 @@
       <c r="P39" s="13">
         <v>6</v>
       </c>
+      <c r="Q39" s="16">
+        <v>1</v>
+      </c>
       <c r="R39" s="13">
         <v>33936.980000000003</v>
       </c>
@@ -1823,7 +1868,7 @@
       </c>
       <c r="Y39" s="13"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" hidden="1">
       <c r="B40" s="11">
         <v>45910</v>
       </c>
@@ -1842,6 +1887,9 @@
       <c r="P40" s="13">
         <v>16</v>
       </c>
+      <c r="Q40" s="28">
+        <v>16</v>
+      </c>
       <c r="R40" s="13">
         <v>46721.98</v>
       </c>
@@ -1852,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" hidden="1">
       <c r="B41" s="11">
         <v>45910</v>
       </c>
@@ -1862,6 +1910,9 @@
       <c r="P41" s="13">
         <v>9</v>
       </c>
+      <c r="Q41" s="28">
+        <v>9</v>
+      </c>
       <c r="R41" s="13">
         <v>49095.98</v>
       </c>
@@ -1881,7 +1932,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" hidden="1">
       <c r="B42" s="11">
         <v>45910</v>
       </c>
@@ -1903,8 +1954,8 @@
       <c r="P42" s="13">
         <v>208</v>
       </c>
-      <c r="Q42" s="13">
-        <v>94</v>
+      <c r="Q42" s="25">
+        <v>178</v>
       </c>
       <c r="R42" s="20">
         <v>745017.34</v>
@@ -1912,12 +1963,20 @@
       <c r="S42" s="17">
         <v>0.85870000000000002</v>
       </c>
-      <c r="Y42" s="13"/>
+      <c r="T42" s="13">
+        <v>13</v>
+      </c>
+      <c r="X42" s="13">
+        <v>488</v>
+      </c>
+      <c r="Y42" s="26">
+        <v>85359.62</v>
+      </c>
       <c r="Z42" s="16">
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26">
       <c r="B43" s="11">
         <v>45910</v>
       </c>
@@ -1936,6 +1995,9 @@
       <c r="P43" s="13">
         <v>21</v>
       </c>
+      <c r="Q43" s="16">
+        <v>1</v>
+      </c>
       <c r="R43" s="13">
         <v>102791.49</v>
       </c>
@@ -1949,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" hidden="1">
       <c r="B44" s="11">
         <v>45910</v>
       </c>
@@ -1959,7 +2021,7 @@
       <c r="R44" s="13"/>
       <c r="Y44" s="13"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" hidden="1">
       <c r="B45" s="11">
         <v>45910</v>
       </c>
@@ -1969,7 +2031,7 @@
       <c r="R45" s="13"/>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" hidden="1">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
@@ -1979,44 +2041,95 @@
       <c r="R46" s="13"/>
       <c r="Y46" s="13"/>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" hidden="1">
       <c r="B47" s="11">
         <v>45911</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
-      <c r="R47" s="13"/>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="R47" s="13">
+        <v>39225.25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" hidden="1">
       <c r="B48" s="11">
         <v>45911</v>
       </c>
       <c r="C48" t="s">
         <v>31</v>
       </c>
-      <c r="R48" s="13"/>
-      <c r="Y48" s="13"/>
-    </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="P48" s="13">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>8</v>
+      </c>
+      <c r="R48" s="13">
+        <v>34852.959999999999</v>
+      </c>
+      <c r="S48" s="17">
+        <v>1.0262</v>
+      </c>
+      <c r="T48" s="13">
+        <v>0</v>
+      </c>
+      <c r="X48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="17">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" hidden="1">
       <c r="B49" s="11">
         <v>45911</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
       </c>
+      <c r="D49" s="12">
+        <v>862</v>
+      </c>
+      <c r="E49" s="12">
+        <v>702</v>
+      </c>
+      <c r="F49" s="12">
+        <v>631</v>
+      </c>
+      <c r="J49" s="13">
+        <v>57</v>
+      </c>
       <c r="P49" s="13">
         <v>181</v>
       </c>
-      <c r="Q49" s="13">
-        <v>97</v>
+      <c r="Q49" s="24">
+        <v>177</v>
       </c>
       <c r="R49" s="20">
         <v>680281</v>
       </c>
-      <c r="Y49" s="13"/>
-    </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S49" s="17">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="T49" s="13">
+        <v>7</v>
+      </c>
+      <c r="X49" s="13">
+        <v>159</v>
+      </c>
+      <c r="Y49" s="26">
+        <v>30267.27</v>
+      </c>
+      <c r="Z49" s="16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA49" s="27"/>
+    </row>
+    <row r="50" spans="2:27">
       <c r="B50" s="11">
         <v>45911</v>
       </c>
@@ -2025,7 +2138,7 @@
       </c>
       <c r="R50" s="13"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" hidden="1">
       <c r="B51" s="11">
         <v>45911</v>
       </c>
@@ -2035,7 +2148,7 @@
       <c r="R51" s="13"/>
       <c r="Y51" s="13"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" hidden="1">
       <c r="B52" s="11">
         <v>45911</v>
       </c>
@@ -2045,7 +2158,7 @@
       <c r="R52" s="13"/>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" hidden="1">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
@@ -2055,7 +2168,7 @@
       <c r="R53" s="13"/>
       <c r="Y53" s="13"/>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" hidden="1">
       <c r="B54" s="11">
         <v>45912</v>
       </c>
@@ -2064,26 +2177,55 @@
       </c>
       <c r="R54" s="13"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" hidden="1">
       <c r="B55" s="11">
         <v>45912</v>
       </c>
       <c r="C55" t="s">
         <v>31</v>
       </c>
-      <c r="R55" s="13"/>
+      <c r="P55" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>6</v>
+      </c>
+      <c r="R55" s="13">
+        <v>30402.52</v>
+      </c>
+      <c r="S55" s="17">
+        <v>0.78710000000000002</v>
+      </c>
       <c r="Y55" s="13"/>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z55" s="17">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" hidden="1">
       <c r="B56" s="11">
         <v>45912</v>
       </c>
       <c r="C56" t="s">
         <v>32</v>
       </c>
+      <c r="P56" s="13">
+        <v>203</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>197</v>
+      </c>
+      <c r="R56" s="20">
+        <v>722569.55</v>
+      </c>
+      <c r="S56" s="17">
+        <v>0.87</v>
+      </c>
       <c r="Y56" s="13"/>
-    </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z56" s="16">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27">
       <c r="B57" s="11">
         <v>45912</v>
       </c>
@@ -2092,7 +2234,7 @@
       </c>
       <c r="R57" s="13"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" hidden="1">
       <c r="B58" s="11">
         <v>45912</v>
       </c>
@@ -2102,17 +2244,38 @@
       <c r="R58" s="13"/>
       <c r="Y58" s="13"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" hidden="1">
       <c r="B59" s="11">
         <v>45912</v>
       </c>
       <c r="C59" t="s">
         <v>35</v>
       </c>
+      <c r="D59" s="12">
+        <v>35000</v>
+      </c>
+      <c r="E59" s="12">
+        <v>45000</v>
+      </c>
+      <c r="F59" s="12">
+        <v>63</v>
+      </c>
+      <c r="G59" s="13">
+        <v>620</v>
+      </c>
+      <c r="H59" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="I59" s="14">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="J59" s="13">
+        <v>0</v>
+      </c>
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" hidden="1">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2122,7 +2285,7 @@
       <c r="R60" s="13"/>
       <c r="Y60" s="13"/>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" hidden="1">
       <c r="B61" s="11">
         <v>45913</v>
       </c>
@@ -2131,7 +2294,7 @@
       </c>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" hidden="1">
       <c r="B62" s="11">
         <v>45913</v>
       </c>
@@ -2141,7 +2304,7 @@
       <c r="R62" s="13"/>
       <c r="Y62" s="13"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" hidden="1">
       <c r="B63" s="11">
         <v>45913</v>
       </c>
@@ -2150,7 +2313,7 @@
       </c>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
@@ -2158,8 +2321,9 @@
         <v>33</v>
       </c>
       <c r="R64" s="13"/>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA64" s="29"/>
+    </row>
+    <row r="65" spans="2:25" hidden="1">
       <c r="B65" s="11">
         <v>45913</v>
       </c>
@@ -2169,7 +2333,7 @@
       <c r="R65" s="13"/>
       <c r="Y65" s="13"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:25" hidden="1">
       <c r="B66" s="11">
         <v>45913</v>
       </c>
@@ -2179,7 +2343,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" hidden="1">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2189,7 +2353,7 @@
       <c r="R67" s="13"/>
       <c r="Y67" s="13"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" hidden="1">
       <c r="B68" s="11">
         <v>45914</v>
       </c>
@@ -2198,7 +2362,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" hidden="1">
       <c r="B69" s="11">
         <v>45914</v>
       </c>
@@ -2208,7 +2372,7 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:25" hidden="1">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
@@ -2217,7 +2381,7 @@
       </c>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:25">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
@@ -2226,7 +2390,7 @@
       </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:25" hidden="1">
       <c r="B72" s="11">
         <v>45914</v>
       </c>
@@ -2236,7 +2400,7 @@
       <c r="R72" s="13"/>
       <c r="Y72" s="13"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:25" hidden="1">
       <c r="B73" s="11">
         <v>45914</v>
       </c>
@@ -2246,7 +2410,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:25" hidden="1">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2256,7 +2420,7 @@
       <c r="R74" s="13"/>
       <c r="Y74" s="13"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:25" hidden="1">
       <c r="B75" s="11">
         <v>45915</v>
       </c>
@@ -2265,7 +2429,7 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:25" hidden="1">
       <c r="B76" s="11">
         <v>45915</v>
       </c>
@@ -2275,7 +2439,7 @@
       <c r="R76" s="13"/>
       <c r="Y76" s="13"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:25" hidden="1">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
@@ -2284,7 +2448,7 @@
       </c>
       <c r="Y77" s="13"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:25">
       <c r="B78" s="11">
         <v>45915</v>
       </c>
@@ -2293,7 +2457,7 @@
       </c>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:25" hidden="1">
       <c r="B79" s="11">
         <v>45915</v>
       </c>
@@ -2303,7 +2467,7 @@
       <c r="R79" s="13"/>
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:25" hidden="1">
       <c r="B80" s="11">
         <v>45915</v>
       </c>
@@ -2313,7 +2477,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:25" hidden="1">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2323,7 +2487,7 @@
       <c r="R81" s="13"/>
       <c r="Y81" s="13"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:25" hidden="1">
       <c r="B82" s="11">
         <v>45916</v>
       </c>
@@ -2332,7 +2496,7 @@
       </c>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:25" hidden="1">
       <c r="B83" s="11">
         <v>45916</v>
       </c>
@@ -2342,7 +2506,7 @@
       <c r="R83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:25" hidden="1">
       <c r="B84" s="11">
         <v>45916</v>
       </c>
@@ -2351,7 +2515,7 @@
       </c>
       <c r="Y84" s="13"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:25">
       <c r="B85" s="11">
         <v>45916</v>
       </c>
@@ -2360,7 +2524,7 @@
       </c>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:25" hidden="1">
       <c r="B86" s="11">
         <v>45916</v>
       </c>
@@ -2370,7 +2534,7 @@
       <c r="R86" s="13"/>
       <c r="Y86" s="13"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:25" hidden="1">
       <c r="B87" s="11">
         <v>45916</v>
       </c>
@@ -2380,7 +2544,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:25" hidden="1">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2390,7 +2554,7 @@
       <c r="R88" s="13"/>
       <c r="Y88" s="13"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:25" hidden="1">
       <c r="B89" s="11">
         <v>45917</v>
       </c>
@@ -2399,7 +2563,7 @@
       </c>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:25" hidden="1">
       <c r="B90" s="11">
         <v>45917</v>
       </c>
@@ -2409,7 +2573,7 @@
       <c r="R90" s="13"/>
       <c r="Y90" s="13"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:25" hidden="1">
       <c r="B91" s="11">
         <v>45917</v>
       </c>
@@ -2418,7 +2582,7 @@
       </c>
       <c r="Y91" s="13"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:25">
       <c r="B92" s="11">
         <v>45917</v>
       </c>
@@ -2427,7 +2591,7 @@
       </c>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:25" hidden="1">
       <c r="B93" s="11">
         <v>45917</v>
       </c>
@@ -2437,7 +2601,7 @@
       <c r="R93" s="13"/>
       <c r="Y93" s="13"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:25" hidden="1">
       <c r="B94" s="11">
         <v>45917</v>
       </c>
@@ -2447,7 +2611,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:25" hidden="1">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -2457,7 +2621,7 @@
       <c r="R95" s="13"/>
       <c r="Y95" s="13"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:25" hidden="1">
       <c r="B96" s="11">
         <v>45918</v>
       </c>
@@ -2466,7 +2630,7 @@
       </c>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:25" hidden="1">
       <c r="B97" s="11">
         <v>45918</v>
       </c>
@@ -2476,7 +2640,7 @@
       <c r="R97" s="13"/>
       <c r="Y97" s="13"/>
     </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25" hidden="1">
       <c r="B98" s="11">
         <v>45918</v>
       </c>
@@ -2485,7 +2649,7 @@
       </c>
       <c r="Y98" s="13"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:25">
       <c r="B99" s="11">
         <v>45918</v>
       </c>
@@ -2494,7 +2658,7 @@
       </c>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:25" hidden="1">
       <c r="B100" s="11">
         <v>45918</v>
       </c>
@@ -2504,7 +2668,7 @@
       <c r="R100" s="13"/>
       <c r="Y100" s="13"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25" hidden="1">
       <c r="B101" s="11">
         <v>45918</v>
       </c>
@@ -2514,7 +2678,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:25" hidden="1">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -2524,7 +2688,7 @@
       <c r="R102" s="13"/>
       <c r="Y102" s="13"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:25" hidden="1">
       <c r="B103" s="11">
         <v>45919</v>
       </c>
@@ -2533,7 +2697,7 @@
       </c>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:25" hidden="1">
       <c r="B104" s="11">
         <v>45919</v>
       </c>
@@ -2543,7 +2707,7 @@
       <c r="R104" s="13"/>
       <c r="Y104" s="13"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:25" hidden="1">
       <c r="B105" s="11">
         <v>45919</v>
       </c>
@@ -2552,7 +2716,7 @@
       </c>
       <c r="Y105" s="13"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:25">
       <c r="B106" s="11">
         <v>45919</v>
       </c>
@@ -2561,7 +2725,7 @@
       </c>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:25" hidden="1">
       <c r="B107" s="11">
         <v>45919</v>
       </c>
@@ -2571,7 +2735,7 @@
       <c r="R107" s="13"/>
       <c r="Y107" s="13"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:25" hidden="1">
       <c r="B108" s="11">
         <v>45919</v>
       </c>
@@ -2581,7 +2745,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:25" hidden="1">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -2591,7 +2755,7 @@
       <c r="R109" s="13"/>
       <c r="Y109" s="13"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:25" hidden="1">
       <c r="B110" s="11">
         <v>45920</v>
       </c>
@@ -2600,7 +2764,7 @@
       </c>
       <c r="R110" s="13"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:25" hidden="1">
       <c r="B111" s="11">
         <v>45920</v>
       </c>
@@ -2610,7 +2774,7 @@
       <c r="R111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:25" hidden="1">
       <c r="B112" s="11">
         <v>45920</v>
       </c>
@@ -2619,7 +2783,7 @@
       </c>
       <c r="Y112" s="13"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:25">
       <c r="B113" s="11">
         <v>45920</v>
       </c>
@@ -2628,7 +2792,7 @@
       </c>
       <c r="R113" s="13"/>
     </row>
-    <row r="114" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:25" hidden="1">
       <c r="B114" s="11">
         <v>45920</v>
       </c>
@@ -2638,7 +2802,7 @@
       <c r="R114" s="13"/>
       <c r="Y114" s="13"/>
     </row>
-    <row r="115" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:25" hidden="1">
       <c r="B115" s="11">
         <v>45920</v>
       </c>
@@ -2648,7 +2812,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:25" hidden="1">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -2658,7 +2822,7 @@
       <c r="R116" s="13"/>
       <c r="Y116" s="13"/>
     </row>
-    <row r="117" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:25" hidden="1">
       <c r="B117" s="11">
         <v>45921</v>
       </c>
@@ -2667,7 +2831,7 @@
       </c>
       <c r="R117" s="13"/>
     </row>
-    <row r="118" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:25" hidden="1">
       <c r="B118" s="11">
         <v>45921</v>
       </c>
@@ -2677,7 +2841,7 @@
       <c r="R118" s="13"/>
       <c r="Y118" s="13"/>
     </row>
-    <row r="119" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:25" hidden="1">
       <c r="B119" s="11">
         <v>45921</v>
       </c>
@@ -2686,7 +2850,7 @@
       </c>
       <c r="Y119" s="13"/>
     </row>
-    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:25">
       <c r="B120" s="11">
         <v>45921</v>
       </c>
@@ -2695,7 +2859,7 @@
       </c>
       <c r="R120" s="13"/>
     </row>
-    <row r="121" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:25" hidden="1">
       <c r="B121" s="11">
         <v>45921</v>
       </c>
@@ -2705,7 +2869,7 @@
       <c r="R121" s="13"/>
       <c r="Y121" s="13"/>
     </row>
-    <row r="122" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:25" hidden="1">
       <c r="B122" s="11">
         <v>45921</v>
       </c>
@@ -2715,7 +2879,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:25" hidden="1">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -2725,7 +2889,7 @@
       <c r="R123" s="13"/>
       <c r="Y123" s="13"/>
     </row>
-    <row r="124" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:25" hidden="1">
       <c r="B124" s="11">
         <v>45922</v>
       </c>
@@ -2734,7 +2898,7 @@
       </c>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:25" hidden="1">
       <c r="B125" s="11">
         <v>45922</v>
       </c>
@@ -2744,7 +2908,7 @@
       <c r="R125" s="13"/>
       <c r="Y125" s="13"/>
     </row>
-    <row r="126" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:25" hidden="1">
       <c r="B126" s="11">
         <v>45922</v>
       </c>
@@ -2753,7 +2917,7 @@
       </c>
       <c r="Y126" s="13"/>
     </row>
-    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:25">
       <c r="B127" s="11">
         <v>45922</v>
       </c>
@@ -2762,7 +2926,7 @@
       </c>
       <c r="R127" s="13"/>
     </row>
-    <row r="128" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:25" hidden="1">
       <c r="B128" s="11">
         <v>45922</v>
       </c>
@@ -2772,7 +2936,7 @@
       <c r="R128" s="13"/>
       <c r="Y128" s="13"/>
     </row>
-    <row r="129" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:25" hidden="1">
       <c r="B129" s="11">
         <v>45922</v>
       </c>
@@ -2782,7 +2946,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:25" hidden="1">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -2792,7 +2956,7 @@
       <c r="R130" s="13"/>
       <c r="Y130" s="13"/>
     </row>
-    <row r="131" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:25" hidden="1">
       <c r="B131" s="11">
         <v>45923</v>
       </c>
@@ -2801,7 +2965,7 @@
       </c>
       <c r="R131" s="13"/>
     </row>
-    <row r="132" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:25" hidden="1">
       <c r="B132" s="11">
         <v>45923</v>
       </c>
@@ -2811,7 +2975,7 @@
       <c r="R132" s="13"/>
       <c r="Y132" s="13"/>
     </row>
-    <row r="133" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:25" hidden="1">
       <c r="B133" s="11">
         <v>45923</v>
       </c>
@@ -2820,7 +2984,7 @@
       </c>
       <c r="Y133" s="13"/>
     </row>
-    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:25">
       <c r="B134" s="11">
         <v>45923</v>
       </c>
@@ -2829,7 +2993,7 @@
       </c>
       <c r="R134" s="13"/>
     </row>
-    <row r="135" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:25" hidden="1">
       <c r="B135" s="11">
         <v>45923</v>
       </c>
@@ -2839,7 +3003,7 @@
       <c r="R135" s="13"/>
       <c r="Y135" s="13"/>
     </row>
-    <row r="136" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:25" hidden="1">
       <c r="B136" s="11">
         <v>45923</v>
       </c>
@@ -2849,7 +3013,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:25" hidden="1">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -2859,7 +3023,7 @@
       <c r="R137" s="13"/>
       <c r="Y137" s="13"/>
     </row>
-    <row r="138" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:25" hidden="1">
       <c r="B138" s="11">
         <v>45924</v>
       </c>
@@ -2868,7 +3032,7 @@
       </c>
       <c r="R138" s="13"/>
     </row>
-    <row r="139" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:25" hidden="1">
       <c r="B139" s="11">
         <v>45924</v>
       </c>
@@ -2878,7 +3042,7 @@
       <c r="R139" s="13"/>
       <c r="Y139" s="13"/>
     </row>
-    <row r="140" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:25" hidden="1">
       <c r="B140" s="11">
         <v>45924</v>
       </c>
@@ -2887,7 +3051,7 @@
       </c>
       <c r="Y140" s="13"/>
     </row>
-    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:25">
       <c r="B141" s="11">
         <v>45924</v>
       </c>
@@ -2896,7 +3060,7 @@
       </c>
       <c r="R141" s="13"/>
     </row>
-    <row r="142" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:25" hidden="1">
       <c r="B142" s="11">
         <v>45924</v>
       </c>
@@ -2906,7 +3070,7 @@
       <c r="R142" s="13"/>
       <c r="Y142" s="13"/>
     </row>
-    <row r="143" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:25" hidden="1">
       <c r="B143" s="11">
         <v>45924</v>
       </c>
@@ -2916,7 +3080,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:25" hidden="1">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -2926,7 +3090,7 @@
       <c r="R144" s="13"/>
       <c r="Y144" s="13"/>
     </row>
-    <row r="145" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:25" hidden="1">
       <c r="B145" s="11">
         <v>45925</v>
       </c>
@@ -2935,7 +3099,7 @@
       </c>
       <c r="R145" s="13"/>
     </row>
-    <row r="146" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:25" hidden="1">
       <c r="B146" s="11">
         <v>45925</v>
       </c>
@@ -2945,7 +3109,7 @@
       <c r="R146" s="13"/>
       <c r="Y146" s="13"/>
     </row>
-    <row r="147" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:25" hidden="1">
       <c r="B147" s="11">
         <v>45925</v>
       </c>
@@ -2954,7 +3118,7 @@
       </c>
       <c r="Y147" s="13"/>
     </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:25">
       <c r="B148" s="11">
         <v>45925</v>
       </c>
@@ -2963,7 +3127,7 @@
       </c>
       <c r="R148" s="13"/>
     </row>
-    <row r="149" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:25" hidden="1">
       <c r="B149" s="11">
         <v>45925</v>
       </c>
@@ -2973,7 +3137,7 @@
       <c r="R149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:25" hidden="1">
       <c r="B150" s="11">
         <v>45925</v>
       </c>
@@ -2983,7 +3147,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:25" hidden="1">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -2993,7 +3157,7 @@
       <c r="R151" s="13"/>
       <c r="Y151" s="13"/>
     </row>
-    <row r="152" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:25" hidden="1">
       <c r="B152" s="11">
         <v>45926</v>
       </c>
@@ -3002,7 +3166,7 @@
       </c>
       <c r="R152" s="13"/>
     </row>
-    <row r="153" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:25" hidden="1">
       <c r="B153" s="11">
         <v>45926</v>
       </c>
@@ -3012,7 +3176,7 @@
       <c r="R153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:25" hidden="1">
       <c r="B154" s="11">
         <v>45926</v>
       </c>
@@ -3021,7 +3185,7 @@
       </c>
       <c r="Y154" s="13"/>
     </row>
-    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:25">
       <c r="B155" s="11">
         <v>45926</v>
       </c>
@@ -3030,7 +3194,7 @@
       </c>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:25" hidden="1">
       <c r="B156" s="11">
         <v>45926</v>
       </c>
@@ -3040,7 +3204,7 @@
       <c r="R156" s="13"/>
       <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:25" hidden="1">
       <c r="B157" s="11">
         <v>45926</v>
       </c>
@@ -3050,7 +3214,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:25" hidden="1">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3060,7 +3224,7 @@
       <c r="R158" s="13"/>
       <c r="Y158" s="13"/>
     </row>
-    <row r="159" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:25" hidden="1">
       <c r="B159" s="11">
         <v>45927</v>
       </c>
@@ -3069,7 +3233,7 @@
       </c>
       <c r="R159" s="13"/>
     </row>
-    <row r="160" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:25" hidden="1">
       <c r="B160" s="11">
         <v>45927</v>
       </c>
@@ -3079,7 +3243,7 @@
       <c r="R160" s="13"/>
       <c r="Y160" s="13"/>
     </row>
-    <row r="161" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:25" hidden="1">
       <c r="B161" s="11">
         <v>45927</v>
       </c>
@@ -3088,7 +3252,7 @@
       </c>
       <c r="Y161" s="13"/>
     </row>
-    <row r="162" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:25">
       <c r="B162" s="11">
         <v>45927</v>
       </c>
@@ -3097,7 +3261,7 @@
       </c>
       <c r="R162" s="13"/>
     </row>
-    <row r="163" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:25" hidden="1">
       <c r="B163" s="11">
         <v>45927</v>
       </c>
@@ -3107,7 +3271,7 @@
       <c r="R163" s="13"/>
       <c r="Y163" s="13"/>
     </row>
-    <row r="164" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:25" hidden="1">
       <c r="B164" s="11">
         <v>45927</v>
       </c>
@@ -3117,7 +3281,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:25" hidden="1">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3127,7 +3291,7 @@
       <c r="R165" s="13"/>
       <c r="Y165" s="13"/>
     </row>
-    <row r="166" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:25" hidden="1">
       <c r="B166" s="11">
         <v>45928</v>
       </c>
@@ -3136,7 +3300,7 @@
       </c>
       <c r="R166" s="13"/>
     </row>
-    <row r="167" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:25" hidden="1">
       <c r="B167" s="11">
         <v>45928</v>
       </c>
@@ -3146,7 +3310,7 @@
       <c r="R167" s="13"/>
       <c r="Y167" s="13"/>
     </row>
-    <row r="168" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:25" hidden="1">
       <c r="B168" s="11">
         <v>45928</v>
       </c>
@@ -3155,7 +3319,7 @@
       </c>
       <c r="Y168" s="13"/>
     </row>
-    <row r="169" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:25">
       <c r="B169" s="11">
         <v>45928</v>
       </c>
@@ -3164,7 +3328,7 @@
       </c>
       <c r="R169" s="13"/>
     </row>
-    <row r="170" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:25" hidden="1">
       <c r="B170" s="11">
         <v>45928</v>
       </c>
@@ -3174,7 +3338,7 @@
       <c r="R170" s="13"/>
       <c r="Y170" s="13"/>
     </row>
-    <row r="171" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:25" hidden="1">
       <c r="B171" s="11">
         <v>45928</v>
       </c>
@@ -3184,7 +3348,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:25" hidden="1">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3194,7 +3358,7 @@
       <c r="R172" s="13"/>
       <c r="Y172" s="13"/>
     </row>
-    <row r="173" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:25" hidden="1">
       <c r="B173" s="11">
         <v>45929</v>
       </c>
@@ -3203,7 +3367,7 @@
       </c>
       <c r="R173" s="13"/>
     </row>
-    <row r="174" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:25" hidden="1">
       <c r="B174" s="11">
         <v>45929</v>
       </c>
@@ -3213,7 +3377,7 @@
       <c r="R174" s="13"/>
       <c r="Y174" s="13"/>
     </row>
-    <row r="175" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:25" hidden="1">
       <c r="B175" s="11">
         <v>45929</v>
       </c>
@@ -3222,7 +3386,7 @@
       </c>
       <c r="Y175" s="13"/>
     </row>
-    <row r="176" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:25">
       <c r="B176" s="11">
         <v>45929</v>
       </c>
@@ -3231,7 +3395,7 @@
       </c>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:25" hidden="1">
       <c r="B177" s="11">
         <v>45929</v>
       </c>
@@ -3241,7 +3405,7 @@
       <c r="R177" s="13"/>
       <c r="Y177" s="13"/>
     </row>
-    <row r="178" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:25" hidden="1">
       <c r="B178" s="11">
         <v>45929</v>
       </c>
@@ -3251,7 +3415,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:25" hidden="1">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3261,7 +3425,7 @@
       <c r="R179" s="13"/>
       <c r="Y179" s="13"/>
     </row>
-    <row r="180" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:25" hidden="1">
       <c r="B180" s="11">
         <v>45930</v>
       </c>
@@ -3270,7 +3434,7 @@
       </c>
       <c r="R180" s="13"/>
     </row>
-    <row r="181" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:25" hidden="1">
       <c r="B181" s="11">
         <v>45930</v>
       </c>
@@ -3280,7 +3444,7 @@
       <c r="R181" s="13"/>
       <c r="Y181" s="13"/>
     </row>
-    <row r="182" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:25" hidden="1">
       <c r="B182" s="11">
         <v>45930</v>
       </c>
@@ -3289,7 +3453,7 @@
       </c>
       <c r="Y182" s="13"/>
     </row>
-    <row r="183" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:25">
       <c r="B183" s="11">
         <v>45930</v>
       </c>
@@ -3298,7 +3462,7 @@
       </c>
       <c r="R183" s="13"/>
     </row>
-    <row r="184" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:25" hidden="1">
       <c r="B184" s="11">
         <v>45930</v>
       </c>
@@ -3308,7 +3472,7 @@
       <c r="R184" s="13"/>
       <c r="Y184" s="13"/>
     </row>
-    <row r="185" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:25" hidden="1">
       <c r="B185" s="11">
         <v>45930</v>
       </c>
@@ -3318,7 +3482,7 @@
       <c r="R185" s="13"/>
       <c r="Y185" s="13"/>
     </row>
-    <row r="186" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:25" hidden="1">
       <c r="B186" s="11">
         <v>45931</v>
       </c>
@@ -3328,7 +3492,7 @@
       <c r="R186" s="13"/>
       <c r="Y186" s="13"/>
     </row>
-    <row r="187" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:25" hidden="1">
       <c r="B187" s="11">
         <v>45931</v>
       </c>
@@ -3338,7 +3502,7 @@
       <c r="R187" s="13"/>
       <c r="Y187" s="13"/>
     </row>
-    <row r="188" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:25" hidden="1">
       <c r="B188" s="11">
         <v>45931</v>
       </c>
@@ -3348,7 +3512,7 @@
       <c r="R188" s="13"/>
       <c r="Y188" s="13"/>
     </row>
-    <row r="189" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:25" hidden="1">
       <c r="B189" s="11">
         <v>45931</v>
       </c>
@@ -3358,7 +3522,7 @@
       <c r="R189" s="13"/>
       <c r="Y189" s="13"/>
     </row>
-    <row r="190" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:25" hidden="1">
       <c r="B190" s="11">
         <v>45931</v>
       </c>
@@ -3368,7 +3532,7 @@
       <c r="R190" s="13"/>
       <c r="Y190" s="13"/>
     </row>
-    <row r="191" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:25" hidden="1">
       <c r="B191" s="11">
         <v>45931</v>
       </c>
@@ -3378,7 +3542,7 @@
       <c r="R191" s="13"/>
       <c r="Y191" s="13"/>
     </row>
-    <row r="192" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:25" hidden="1">
       <c r="B192" s="11">
         <v>45931</v>
       </c>
@@ -3388,7 +3552,7 @@
       <c r="R192" s="13"/>
       <c r="Y192" s="13"/>
     </row>
-    <row r="193" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:25" hidden="1">
       <c r="B193" s="11">
         <v>45932</v>
       </c>
@@ -3398,7 +3562,7 @@
       <c r="R193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:25" hidden="1">
       <c r="B194" s="11">
         <v>45932</v>
       </c>
@@ -3408,7 +3572,7 @@
       <c r="R194" s="13"/>
       <c r="Y194" s="13"/>
     </row>
-    <row r="195" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:25" hidden="1">
       <c r="B195" s="11">
         <v>45932</v>
       </c>
@@ -3418,7 +3582,7 @@
       <c r="R195" s="13"/>
       <c r="Y195" s="13"/>
     </row>
-    <row r="196" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:25" hidden="1">
       <c r="B196" s="11">
         <v>45932</v>
       </c>
@@ -3428,7 +3592,7 @@
       <c r="R196" s="13"/>
       <c r="Y196" s="13"/>
     </row>
-    <row r="197" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:25" hidden="1">
       <c r="B197" s="11">
         <v>45932</v>
       </c>
@@ -3438,7 +3602,7 @@
       <c r="R197" s="13"/>
       <c r="Y197" s="13"/>
     </row>
-    <row r="198" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:25" hidden="1">
       <c r="B198" s="11">
         <v>45932</v>
       </c>
@@ -3448,7 +3612,7 @@
       <c r="R198" s="13"/>
       <c r="Y198" s="13"/>
     </row>
-    <row r="199" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:25" hidden="1">
       <c r="B199" s="11">
         <v>45932</v>
       </c>
@@ -3458,7 +3622,7 @@
       <c r="R199" s="13"/>
       <c r="Y199" s="13"/>
     </row>
-    <row r="200" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:25" hidden="1">
       <c r="B200" s="11">
         <v>45933</v>
       </c>
@@ -3468,7 +3632,7 @@
       <c r="R200" s="13"/>
       <c r="Y200" s="13"/>
     </row>
-    <row r="201" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:25" hidden="1">
       <c r="B201" s="11">
         <v>45933</v>
       </c>
@@ -3478,7 +3642,7 @@
       <c r="R201" s="13"/>
       <c r="Y201" s="13"/>
     </row>
-    <row r="202" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:25" hidden="1">
       <c r="B202" s="11">
         <v>45933</v>
       </c>
@@ -3488,7 +3652,7 @@
       <c r="R202" s="13"/>
       <c r="Y202" s="13"/>
     </row>
-    <row r="203" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:25" hidden="1">
       <c r="B203" s="11">
         <v>45933</v>
       </c>
@@ -3498,7 +3662,7 @@
       <c r="R203" s="13"/>
       <c r="Y203" s="13"/>
     </row>
-    <row r="204" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:25" hidden="1">
       <c r="B204" s="11">
         <v>45933</v>
       </c>
@@ -3508,7 +3672,7 @@
       <c r="R204" s="13"/>
       <c r="Y204" s="13"/>
     </row>
-    <row r="205" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:25" hidden="1">
       <c r="B205" s="11">
         <v>45933</v>
       </c>
@@ -3518,7 +3682,7 @@
       <c r="R205" s="13"/>
       <c r="Y205" s="13"/>
     </row>
-    <row r="206" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:25" hidden="1">
       <c r="B206" s="11">
         <v>45933</v>
       </c>
@@ -3528,7 +3692,7 @@
       <c r="R206" s="13"/>
       <c r="Y206" s="13"/>
     </row>
-    <row r="207" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:25" hidden="1">
       <c r="B207" s="11">
         <v>45934</v>
       </c>
@@ -3538,7 +3702,7 @@
       <c r="R207" s="13"/>
       <c r="Y207" s="13"/>
     </row>
-    <row r="208" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:25" hidden="1">
       <c r="B208" s="11">
         <v>45934</v>
       </c>
@@ -3548,7 +3712,7 @@
       <c r="R208" s="13"/>
       <c r="Y208" s="13"/>
     </row>
-    <row r="209" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:25" hidden="1">
       <c r="B209" s="11">
         <v>45934</v>
       </c>
@@ -3558,7 +3722,7 @@
       <c r="R209" s="13"/>
       <c r="Y209" s="13"/>
     </row>
-    <row r="210" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:25" hidden="1">
       <c r="B210" s="11">
         <v>45934</v>
       </c>
@@ -3568,7 +3732,7 @@
       <c r="R210" s="13"/>
       <c r="Y210" s="13"/>
     </row>
-    <row r="211" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:25" hidden="1">
       <c r="B211" s="11">
         <v>45934</v>
       </c>
@@ -3578,7 +3742,7 @@
       <c r="R211" s="13"/>
       <c r="Y211" s="13"/>
     </row>
-    <row r="212" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:25" hidden="1">
       <c r="B212" s="11">
         <v>45934</v>
       </c>
@@ -3588,7 +3752,7 @@
       <c r="R212" s="13"/>
       <c r="Y212" s="13"/>
     </row>
-    <row r="213" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:25" hidden="1">
       <c r="B213" s="11">
         <v>45934</v>
       </c>
@@ -3598,7 +3762,7 @@
       <c r="R213" s="13"/>
       <c r="Y213" s="13"/>
     </row>
-    <row r="214" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:25" hidden="1">
       <c r="B214" s="11">
         <v>45935</v>
       </c>
@@ -3608,7 +3772,7 @@
       <c r="R214" s="13"/>
       <c r="Y214" s="13"/>
     </row>
-    <row r="215" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:25" hidden="1">
       <c r="B215" s="11">
         <v>45935</v>
       </c>
@@ -3618,7 +3782,7 @@
       <c r="R215" s="13"/>
       <c r="Y215" s="13"/>
     </row>
-    <row r="216" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:25" hidden="1">
       <c r="B216" s="11">
         <v>45935</v>
       </c>
@@ -3628,7 +3792,7 @@
       <c r="R216" s="13"/>
       <c r="Y216" s="13"/>
     </row>
-    <row r="217" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:25" hidden="1">
       <c r="B217" s="11">
         <v>45935</v>
       </c>
@@ -3638,7 +3802,7 @@
       <c r="R217" s="13"/>
       <c r="Y217" s="13"/>
     </row>
-    <row r="218" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:25" hidden="1">
       <c r="B218" s="11">
         <v>45935</v>
       </c>
@@ -3648,7 +3812,7 @@
       <c r="R218" s="13"/>
       <c r="Y218" s="13"/>
     </row>
-    <row r="219" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:25" hidden="1">
       <c r="B219" s="11">
         <v>45935</v>
       </c>
@@ -3658,7 +3822,7 @@
       <c r="R219" s="13"/>
       <c r="Y219" s="13"/>
     </row>
-    <row r="220" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:25" hidden="1">
       <c r="B220" s="11">
         <v>45935</v>
       </c>
@@ -3668,7 +3832,7 @@
       <c r="R220" s="13"/>
       <c r="Y220" s="13"/>
     </row>
-    <row r="221" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:25" hidden="1">
       <c r="B221" s="11">
         <v>45936</v>
       </c>
@@ -3678,7 +3842,7 @@
       <c r="R221" s="13"/>
       <c r="Y221" s="13"/>
     </row>
-    <row r="222" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:25" hidden="1">
       <c r="B222" s="11">
         <v>45936</v>
       </c>
@@ -3688,7 +3852,7 @@
       <c r="R222" s="13"/>
       <c r="Y222" s="13"/>
     </row>
-    <row r="223" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:25" hidden="1">
       <c r="B223" s="11">
         <v>45936</v>
       </c>
@@ -3698,7 +3862,7 @@
       <c r="R223" s="13"/>
       <c r="Y223" s="13"/>
     </row>
-    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:25" hidden="1">
       <c r="B224" s="11">
         <v>45936</v>
       </c>
@@ -3708,7 +3872,7 @@
       <c r="R224" s="13"/>
       <c r="Y224" s="13"/>
     </row>
-    <row r="225" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:25" hidden="1">
       <c r="B225" s="11">
         <v>45936</v>
       </c>
@@ -3718,7 +3882,7 @@
       <c r="R225" s="13"/>
       <c r="Y225" s="13"/>
     </row>
-    <row r="226" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:25" hidden="1">
       <c r="B226" s="11">
         <v>45936</v>
       </c>
@@ -3728,7 +3892,7 @@
       <c r="R226" s="13"/>
       <c r="Y226" s="13"/>
     </row>
-    <row r="227" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:25" hidden="1">
       <c r="B227" s="11">
         <v>45936</v>
       </c>
@@ -3738,7 +3902,7 @@
       <c r="R227" s="13"/>
       <c r="Y227" s="13"/>
     </row>
-    <row r="228" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:25" hidden="1">
       <c r="B228" s="11">
         <v>45937</v>
       </c>
@@ -3748,7 +3912,7 @@
       <c r="R228" s="13"/>
       <c r="Y228" s="13"/>
     </row>
-    <row r="229" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:25" hidden="1">
       <c r="B229" s="11">
         <v>45937</v>
       </c>
@@ -3758,7 +3922,7 @@
       <c r="R229" s="13"/>
       <c r="Y229" s="13"/>
     </row>
-    <row r="230" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:25" hidden="1">
       <c r="B230" s="11">
         <v>45937</v>
       </c>
@@ -3768,7 +3932,7 @@
       <c r="R230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:25" hidden="1">
       <c r="B231" s="11">
         <v>45937</v>
       </c>
@@ -3778,7 +3942,7 @@
       <c r="R231" s="13"/>
       <c r="Y231" s="13"/>
     </row>
-    <row r="232" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:25" hidden="1">
       <c r="B232" s="11">
         <v>45937</v>
       </c>
@@ -3788,7 +3952,7 @@
       <c r="R232" s="13"/>
       <c r="Y232" s="13"/>
     </row>
-    <row r="233" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:25" hidden="1">
       <c r="B233" s="11">
         <v>45937</v>
       </c>
@@ -3798,7 +3962,7 @@
       <c r="R233" s="13"/>
       <c r="Y233" s="13"/>
     </row>
-    <row r="234" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:25" hidden="1">
       <c r="B234" s="11">
         <v>45937</v>
       </c>
@@ -3808,7 +3972,7 @@
       <c r="R234" s="13"/>
       <c r="Y234" s="13"/>
     </row>
-    <row r="235" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:25" hidden="1">
       <c r="B235" s="11">
         <v>45938</v>
       </c>
@@ -3818,7 +3982,7 @@
       <c r="R235" s="13"/>
       <c r="Y235" s="13"/>
     </row>
-    <row r="236" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:25" hidden="1">
       <c r="B236" s="11">
         <v>45938</v>
       </c>
@@ -3828,7 +3992,7 @@
       <c r="R236" s="13"/>
       <c r="Y236" s="13"/>
     </row>
-    <row r="237" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:25" hidden="1">
       <c r="B237" s="11">
         <v>45938</v>
       </c>
@@ -3838,7 +4002,7 @@
       <c r="R237" s="13"/>
       <c r="Y237" s="13"/>
     </row>
-    <row r="238" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:25" hidden="1">
       <c r="B238" s="11">
         <v>45938</v>
       </c>
@@ -3848,7 +4012,7 @@
       <c r="R238" s="13"/>
       <c r="Y238" s="13"/>
     </row>
-    <row r="239" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:25" hidden="1">
       <c r="B239" s="11">
         <v>45938</v>
       </c>
@@ -3858,7 +4022,7 @@
       <c r="R239" s="13"/>
       <c r="Y239" s="13"/>
     </row>
-    <row r="240" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:25" hidden="1">
       <c r="B240" s="11">
         <v>45938</v>
       </c>
@@ -3868,7 +4032,7 @@
       <c r="R240" s="13"/>
       <c r="Y240" s="13"/>
     </row>
-    <row r="241" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:25" hidden="1">
       <c r="B241" s="11">
         <v>45938</v>
       </c>
@@ -3878,7 +4042,7 @@
       <c r="R241" s="13"/>
       <c r="Y241" s="13"/>
     </row>
-    <row r="242" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:25" hidden="1">
       <c r="B242" s="11">
         <v>45939</v>
       </c>
@@ -3888,7 +4052,7 @@
       <c r="R242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:25" hidden="1">
       <c r="B243" s="11">
         <v>45939</v>
       </c>
@@ -3898,7 +4062,7 @@
       <c r="R243" s="13"/>
       <c r="Y243" s="13"/>
     </row>
-    <row r="244" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:25" hidden="1">
       <c r="B244" s="11">
         <v>45939</v>
       </c>
@@ -3908,7 +4072,7 @@
       <c r="R244" s="13"/>
       <c r="Y244" s="13"/>
     </row>
-    <row r="245" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:25" hidden="1">
       <c r="B245" s="11">
         <v>45939</v>
       </c>
@@ -3918,7 +4082,7 @@
       <c r="R245" s="13"/>
       <c r="Y245" s="13"/>
     </row>
-    <row r="246" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:25" hidden="1">
       <c r="B246" s="11">
         <v>45939</v>
       </c>
@@ -3928,7 +4092,7 @@
       <c r="R246" s="13"/>
       <c r="Y246" s="13"/>
     </row>
-    <row r="247" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:25" hidden="1">
       <c r="B247" s="11">
         <v>45939</v>
       </c>
@@ -3938,7 +4102,7 @@
       <c r="R247" s="13"/>
       <c r="Y247" s="13"/>
     </row>
-    <row r="248" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:25" hidden="1">
       <c r="B248" s="11">
         <v>45939</v>
       </c>
@@ -3948,7 +4112,7 @@
       <c r="R248" s="13"/>
       <c r="Y248" s="13"/>
     </row>
-    <row r="249" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:25" hidden="1">
       <c r="B249" s="11">
         <v>45940</v>
       </c>
@@ -3958,7 +4122,7 @@
       <c r="R249" s="13"/>
       <c r="Y249" s="13"/>
     </row>
-    <row r="250" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:25" hidden="1">
       <c r="B250" s="11">
         <v>45940</v>
       </c>
@@ -3968,7 +4132,7 @@
       <c r="R250" s="13"/>
       <c r="Y250" s="13"/>
     </row>
-    <row r="251" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:25" hidden="1">
       <c r="B251" s="11">
         <v>45940</v>
       </c>
@@ -3978,7 +4142,7 @@
       <c r="R251" s="13"/>
       <c r="Y251" s="13"/>
     </row>
-    <row r="252" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:25" hidden="1">
       <c r="B252" s="11">
         <v>45940</v>
       </c>
@@ -3988,7 +4152,7 @@
       <c r="R252" s="13"/>
       <c r="Y252" s="13"/>
     </row>
-    <row r="253" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:25" hidden="1">
       <c r="B253" s="11">
         <v>45940</v>
       </c>
@@ -3998,7 +4162,7 @@
       <c r="R253" s="13"/>
       <c r="Y253" s="13"/>
     </row>
-    <row r="254" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:25" hidden="1">
       <c r="B254" s="11">
         <v>45940</v>
       </c>
@@ -4008,7 +4172,7 @@
       <c r="R254" s="13"/>
       <c r="Y254" s="13"/>
     </row>
-    <row r="255" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:25" hidden="1">
       <c r="B255" s="11">
         <v>45940</v>
       </c>
@@ -4018,7 +4182,7 @@
       <c r="R255" s="13"/>
       <c r="Y255" s="13"/>
     </row>
-    <row r="256" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:25" hidden="1">
       <c r="B256" s="11">
         <v>45941</v>
       </c>
@@ -4028,7 +4192,7 @@
       <c r="R256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:25" hidden="1">
       <c r="B257" s="11">
         <v>45941</v>
       </c>
@@ -4038,7 +4202,7 @@
       <c r="R257" s="13"/>
       <c r="Y257" s="13"/>
     </row>
-    <row r="258" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:25" hidden="1">
       <c r="B258" s="11">
         <v>45941</v>
       </c>
@@ -4048,7 +4212,7 @@
       <c r="R258" s="13"/>
       <c r="Y258" s="13"/>
     </row>
-    <row r="259" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:25" hidden="1">
       <c r="B259" s="11">
         <v>45941</v>
       </c>
@@ -4058,7 +4222,7 @@
       <c r="R259" s="13"/>
       <c r="Y259" s="13"/>
     </row>
-    <row r="260" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:25" hidden="1">
       <c r="B260" s="11">
         <v>45941</v>
       </c>
@@ -4068,7 +4232,7 @@
       <c r="R260" s="13"/>
       <c r="Y260" s="13"/>
     </row>
-    <row r="261" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:25" hidden="1">
       <c r="B261" s="11">
         <v>45941</v>
       </c>
@@ -4078,7 +4242,7 @@
       <c r="R261" s="13"/>
       <c r="Y261" s="13"/>
     </row>
-    <row r="262" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:25" hidden="1">
       <c r="B262" s="11">
         <v>45941</v>
       </c>
@@ -4088,7 +4252,7 @@
       <c r="R262" s="13"/>
       <c r="Y262" s="13"/>
     </row>
-    <row r="263" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:25" hidden="1">
       <c r="B263" s="11">
         <v>45942</v>
       </c>
@@ -4098,7 +4262,7 @@
       <c r="R263" s="13"/>
       <c r="Y263" s="13"/>
     </row>
-    <row r="264" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:25" hidden="1">
       <c r="B264" s="11">
         <v>45942</v>
       </c>
@@ -4108,7 +4272,7 @@
       <c r="R264" s="13"/>
       <c r="Y264" s="13"/>
     </row>
-    <row r="265" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:25" hidden="1">
       <c r="B265" s="11">
         <v>45942</v>
       </c>
@@ -4118,7 +4282,7 @@
       <c r="R265" s="13"/>
       <c r="Y265" s="13"/>
     </row>
-    <row r="266" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:25" hidden="1">
       <c r="B266" s="11">
         <v>45942</v>
       </c>
@@ -4128,7 +4292,7 @@
       <c r="R266" s="13"/>
       <c r="Y266" s="13"/>
     </row>
-    <row r="267" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:25" hidden="1">
       <c r="B267" s="11">
         <v>45942</v>
       </c>
@@ -4138,7 +4302,7 @@
       <c r="R267" s="13"/>
       <c r="Y267" s="13"/>
     </row>
-    <row r="268" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:25" hidden="1">
       <c r="B268" s="11">
         <v>45942</v>
       </c>
@@ -4148,7 +4312,7 @@
       <c r="R268" s="13"/>
       <c r="Y268" s="13"/>
     </row>
-    <row r="269" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:25" hidden="1">
       <c r="B269" s="11">
         <v>45942</v>
       </c>
@@ -4158,7 +4322,7 @@
       <c r="R269" s="13"/>
       <c r="Y269" s="13"/>
     </row>
-    <row r="270" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:25" hidden="1">
       <c r="B270" s="11">
         <v>45943</v>
       </c>
@@ -4168,7 +4332,7 @@
       <c r="R270" s="13"/>
       <c r="Y270" s="13"/>
     </row>
-    <row r="271" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:25" hidden="1">
       <c r="B271" s="11">
         <v>45943</v>
       </c>
@@ -4178,7 +4342,7 @@
       <c r="R271" s="13"/>
       <c r="Y271" s="13"/>
     </row>
-    <row r="272" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:25" hidden="1">
       <c r="B272" s="11">
         <v>45943</v>
       </c>
@@ -4188,7 +4352,7 @@
       <c r="R272" s="13"/>
       <c r="Y272" s="13"/>
     </row>
-    <row r="273" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:25" hidden="1">
       <c r="B273" s="11">
         <v>45943</v>
       </c>
@@ -4198,7 +4362,7 @@
       <c r="R273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:25" hidden="1">
       <c r="B274" s="11">
         <v>45943</v>
       </c>
@@ -4208,7 +4372,7 @@
       <c r="R274" s="13"/>
       <c r="Y274" s="13"/>
     </row>
-    <row r="275" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:25" hidden="1">
       <c r="B275" s="11">
         <v>45943</v>
       </c>
@@ -4218,7 +4382,7 @@
       <c r="R275" s="13"/>
       <c r="Y275" s="13"/>
     </row>
-    <row r="276" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:25" hidden="1">
       <c r="B276" s="11">
         <v>45943</v>
       </c>
@@ -4228,7 +4392,7 @@
       <c r="R276" s="13"/>
       <c r="Y276" s="13"/>
     </row>
-    <row r="277" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:25" hidden="1">
       <c r="B277" s="11">
         <v>45944</v>
       </c>
@@ -4238,7 +4402,7 @@
       <c r="R277" s="13"/>
       <c r="Y277" s="13"/>
     </row>
-    <row r="278" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:25" hidden="1">
       <c r="B278" s="11">
         <v>45944</v>
       </c>
@@ -4248,7 +4412,7 @@
       <c r="R278" s="13"/>
       <c r="Y278" s="13"/>
     </row>
-    <row r="279" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:25" hidden="1">
       <c r="B279" s="11">
         <v>45944</v>
       </c>
@@ -4258,7 +4422,7 @@
       <c r="R279" s="13"/>
       <c r="Y279" s="13"/>
     </row>
-    <row r="280" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:25" hidden="1">
       <c r="B280" s="11">
         <v>45944</v>
       </c>
@@ -4268,7 +4432,7 @@
       <c r="R280" s="13"/>
       <c r="Y280" s="13"/>
     </row>
-    <row r="281" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:25" hidden="1">
       <c r="B281" s="11">
         <v>45944</v>
       </c>
@@ -4278,7 +4442,7 @@
       <c r="R281" s="13"/>
       <c r="Y281" s="13"/>
     </row>
-    <row r="282" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:25" hidden="1">
       <c r="B282" s="11">
         <v>45944</v>
       </c>
@@ -4288,7 +4452,7 @@
       <c r="R282" s="13"/>
       <c r="Y282" s="13"/>
     </row>
-    <row r="283" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:25" hidden="1">
       <c r="B283" s="11">
         <v>45944</v>
       </c>
@@ -4298,7 +4462,7 @@
       <c r="R283" s="13"/>
       <c r="Y283" s="13"/>
     </row>
-    <row r="284" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:25" hidden="1">
       <c r="B284" s="11">
         <v>45945</v>
       </c>
@@ -4308,7 +4472,7 @@
       <c r="R284" s="13"/>
       <c r="Y284" s="13"/>
     </row>
-    <row r="285" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:25" hidden="1">
       <c r="B285" s="11">
         <v>45945</v>
       </c>
@@ -4318,7 +4482,7 @@
       <c r="R285" s="13"/>
       <c r="Y285" s="13"/>
     </row>
-    <row r="286" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:25" hidden="1">
       <c r="B286" s="11">
         <v>45945</v>
       </c>
@@ -4328,7 +4492,7 @@
       <c r="R286" s="13"/>
       <c r="Y286" s="13"/>
     </row>
-    <row r="287" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:25" hidden="1">
       <c r="B287" s="11">
         <v>45945</v>
       </c>
@@ -4338,7 +4502,7 @@
       <c r="R287" s="13"/>
       <c r="Y287" s="13"/>
     </row>
-    <row r="288" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:25" hidden="1">
       <c r="B288" s="11">
         <v>45945</v>
       </c>
@@ -4348,7 +4512,7 @@
       <c r="R288" s="13"/>
       <c r="Y288" s="13"/>
     </row>
-    <row r="289" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:25" hidden="1">
       <c r="B289" s="11">
         <v>45945</v>
       </c>
@@ -4358,7 +4522,7 @@
       <c r="R289" s="13"/>
       <c r="Y289" s="13"/>
     </row>
-    <row r="290" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:25" hidden="1">
       <c r="B290" s="11">
         <v>45945</v>
       </c>
@@ -4368,7 +4532,7 @@
       <c r="R290" s="13"/>
       <c r="Y290" s="13"/>
     </row>
-    <row r="291" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:25" hidden="1">
       <c r="B291" s="11">
         <v>45946</v>
       </c>
@@ -4378,7 +4542,7 @@
       <c r="R291" s="13"/>
       <c r="Y291" s="13"/>
     </row>
-    <row r="292" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:25" hidden="1">
       <c r="B292" s="11">
         <v>45946</v>
       </c>
@@ -4388,7 +4552,7 @@
       <c r="R292" s="13"/>
       <c r="Y292" s="13"/>
     </row>
-    <row r="293" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:25" hidden="1">
       <c r="B293" s="11">
         <v>45946</v>
       </c>
@@ -4398,7 +4562,7 @@
       <c r="R293" s="13"/>
       <c r="Y293" s="13"/>
     </row>
-    <row r="294" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:25" hidden="1">
       <c r="B294" s="11">
         <v>45946</v>
       </c>
@@ -4408,7 +4572,7 @@
       <c r="R294" s="13"/>
       <c r="Y294" s="13"/>
     </row>
-    <row r="295" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:25" hidden="1">
       <c r="B295" s="11">
         <v>45946</v>
       </c>
@@ -4418,7 +4582,7 @@
       <c r="R295" s="13"/>
       <c r="Y295" s="13"/>
     </row>
-    <row r="296" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:25" hidden="1">
       <c r="B296" s="11">
         <v>45946</v>
       </c>
@@ -4428,7 +4592,7 @@
       <c r="R296" s="13"/>
       <c r="Y296" s="13"/>
     </row>
-    <row r="297" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:25" hidden="1">
       <c r="B297" s="11">
         <v>45946</v>
       </c>
@@ -4438,7 +4602,7 @@
       <c r="R297" s="13"/>
       <c r="Y297" s="13"/>
     </row>
-    <row r="298" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:25" hidden="1">
       <c r="B298" s="11">
         <v>45947</v>
       </c>
@@ -4448,7 +4612,7 @@
       <c r="R298" s="13"/>
       <c r="Y298" s="13"/>
     </row>
-    <row r="299" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:25" hidden="1">
       <c r="B299" s="11">
         <v>45947</v>
       </c>
@@ -4458,7 +4622,7 @@
       <c r="R299" s="13"/>
       <c r="Y299" s="13"/>
     </row>
-    <row r="300" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:25" hidden="1">
       <c r="B300" s="11">
         <v>45947</v>
       </c>
@@ -4468,7 +4632,7 @@
       <c r="R300" s="13"/>
       <c r="Y300" s="13"/>
     </row>
-    <row r="301" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:25" hidden="1">
       <c r="B301" s="11">
         <v>45947</v>
       </c>
@@ -4478,7 +4642,7 @@
       <c r="R301" s="13"/>
       <c r="Y301" s="13"/>
     </row>
-    <row r="302" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:25" hidden="1">
       <c r="B302" s="11">
         <v>45947</v>
       </c>
@@ -4488,7 +4652,7 @@
       <c r="R302" s="13"/>
       <c r="Y302" s="13"/>
     </row>
-    <row r="303" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:25" hidden="1">
       <c r="B303" s="11">
         <v>45947</v>
       </c>
@@ -4498,7 +4662,7 @@
       <c r="R303" s="13"/>
       <c r="Y303" s="13"/>
     </row>
-    <row r="304" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:25" hidden="1">
       <c r="B304" s="11">
         <v>45947</v>
       </c>
@@ -4508,7 +4672,7 @@
       <c r="R304" s="13"/>
       <c r="Y304" s="13"/>
     </row>
-    <row r="305" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:25" hidden="1">
       <c r="B305" s="11">
         <v>45948</v>
       </c>
@@ -4518,7 +4682,7 @@
       <c r="R305" s="13"/>
       <c r="Y305" s="13"/>
     </row>
-    <row r="306" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:25" hidden="1">
       <c r="B306" s="11">
         <v>45948</v>
       </c>
@@ -4528,7 +4692,7 @@
       <c r="R306" s="13"/>
       <c r="Y306" s="13"/>
     </row>
-    <row r="307" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:25" hidden="1">
       <c r="B307" s="11">
         <v>45948</v>
       </c>
@@ -4538,7 +4702,7 @@
       <c r="R307" s="13"/>
       <c r="Y307" s="13"/>
     </row>
-    <row r="308" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:25" hidden="1">
       <c r="B308" s="11">
         <v>45948</v>
       </c>
@@ -4548,7 +4712,7 @@
       <c r="R308" s="13"/>
       <c r="Y308" s="13"/>
     </row>
-    <row r="309" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:25" hidden="1">
       <c r="B309" s="11">
         <v>45948</v>
       </c>
@@ -4558,7 +4722,7 @@
       <c r="R309" s="13"/>
       <c r="Y309" s="13"/>
     </row>
-    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:25" hidden="1">
       <c r="B310" s="11">
         <v>45948</v>
       </c>
@@ -4568,7 +4732,7 @@
       <c r="R310" s="13"/>
       <c r="Y310" s="13"/>
     </row>
-    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:25" hidden="1">
       <c r="B311" s="11">
         <v>45948</v>
       </c>
@@ -4578,7 +4742,7 @@
       <c r="R311" s="13"/>
       <c r="Y311" s="13"/>
     </row>
-    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:25" hidden="1">
       <c r="B312" s="11">
         <v>45949</v>
       </c>
@@ -4588,7 +4752,7 @@
       <c r="R312" s="13"/>
       <c r="Y312" s="13"/>
     </row>
-    <row r="313" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:25" hidden="1">
       <c r="B313" s="11">
         <v>45949</v>
       </c>
@@ -4598,7 +4762,7 @@
       <c r="R313" s="13"/>
       <c r="Y313" s="13"/>
     </row>
-    <row r="314" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:25" hidden="1">
       <c r="B314" s="11">
         <v>45949</v>
       </c>
@@ -4608,7 +4772,7 @@
       <c r="R314" s="13"/>
       <c r="Y314" s="13"/>
     </row>
-    <row r="315" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:25" hidden="1">
       <c r="B315" s="11">
         <v>45949</v>
       </c>
@@ -4618,7 +4782,7 @@
       <c r="R315" s="13"/>
       <c r="Y315" s="13"/>
     </row>
-    <row r="316" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:25" hidden="1">
       <c r="B316" s="11">
         <v>45949</v>
       </c>
@@ -4628,7 +4792,7 @@
       <c r="R316" s="13"/>
       <c r="Y316" s="13"/>
     </row>
-    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:25" hidden="1">
       <c r="B317" s="11">
         <v>45949</v>
       </c>
@@ -4638,7 +4802,7 @@
       <c r="R317" s="13"/>
       <c r="Y317" s="13"/>
     </row>
-    <row r="318" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:25" hidden="1">
       <c r="B318" s="11">
         <v>45949</v>
       </c>
@@ -4648,7 +4812,7 @@
       <c r="R318" s="13"/>
       <c r="Y318" s="13"/>
     </row>
-    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:25" hidden="1">
       <c r="B319" s="11">
         <v>45950</v>
       </c>
@@ -4658,7 +4822,7 @@
       <c r="R319" s="13"/>
       <c r="Y319" s="13"/>
     </row>
-    <row r="320" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:25" hidden="1">
       <c r="B320" s="11">
         <v>45950</v>
       </c>
@@ -4668,7 +4832,7 @@
       <c r="R320" s="13"/>
       <c r="Y320" s="13"/>
     </row>
-    <row r="321" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:25" hidden="1">
       <c r="B321" s="11">
         <v>45950</v>
       </c>
@@ -4678,7 +4842,7 @@
       <c r="R321" s="13"/>
       <c r="Y321" s="13"/>
     </row>
-    <row r="322" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:25" hidden="1">
       <c r="B322" s="11">
         <v>45950</v>
       </c>
@@ -4688,7 +4852,7 @@
       <c r="R322" s="13"/>
       <c r="Y322" s="13"/>
     </row>
-    <row r="323" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:25" hidden="1">
       <c r="B323" s="11">
         <v>45950</v>
       </c>
@@ -4698,7 +4862,7 @@
       <c r="R323" s="13"/>
       <c r="Y323" s="13"/>
     </row>
-    <row r="324" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:25" hidden="1">
       <c r="B324" s="11">
         <v>45950</v>
       </c>
@@ -4708,7 +4872,7 @@
       <c r="R324" s="13"/>
       <c r="Y324" s="13"/>
     </row>
-    <row r="325" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:25" hidden="1">
       <c r="B325" s="11">
         <v>45950</v>
       </c>
@@ -4718,7 +4882,7 @@
       <c r="R325" s="13"/>
       <c r="Y325" s="13"/>
     </row>
-    <row r="326" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:25" hidden="1">
       <c r="B326" s="11">
         <v>45951</v>
       </c>
@@ -4728,7 +4892,7 @@
       <c r="R326" s="13"/>
       <c r="Y326" s="13"/>
     </row>
-    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:25" hidden="1">
       <c r="B327" s="11">
         <v>45951</v>
       </c>
@@ -4738,7 +4902,7 @@
       <c r="R327" s="13"/>
       <c r="Y327" s="13"/>
     </row>
-    <row r="328" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:25" hidden="1">
       <c r="B328" s="11">
         <v>45951</v>
       </c>
@@ -4748,7 +4912,7 @@
       <c r="R328" s="13"/>
       <c r="Y328" s="13"/>
     </row>
-    <row r="329" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:25" hidden="1">
       <c r="B329" s="11">
         <v>45951</v>
       </c>
@@ -4758,7 +4922,7 @@
       <c r="R329" s="13"/>
       <c r="Y329" s="13"/>
     </row>
-    <row r="330" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:25" hidden="1">
       <c r="B330" s="11">
         <v>45951</v>
       </c>
@@ -4768,7 +4932,7 @@
       <c r="R330" s="13"/>
       <c r="Y330" s="13"/>
     </row>
-    <row r="331" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:25" hidden="1">
       <c r="B331" s="11">
         <v>45951</v>
       </c>
@@ -4778,7 +4942,7 @@
       <c r="R331" s="13"/>
       <c r="Y331" s="13"/>
     </row>
-    <row r="332" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:25" hidden="1">
       <c r="B332" s="11">
         <v>45951</v>
       </c>
@@ -4788,7 +4952,7 @@
       <c r="R332" s="13"/>
       <c r="Y332" s="13"/>
     </row>
-    <row r="333" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:25" hidden="1">
       <c r="B333" s="11">
         <v>45952</v>
       </c>
@@ -4798,7 +4962,7 @@
       <c r="R333" s="13"/>
       <c r="Y333" s="13"/>
     </row>
-    <row r="334" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:25" hidden="1">
       <c r="B334" s="11">
         <v>45952</v>
       </c>
@@ -4808,7 +4972,7 @@
       <c r="R334" s="13"/>
       <c r="Y334" s="13"/>
     </row>
-    <row r="335" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:25" hidden="1">
       <c r="B335" s="11">
         <v>45952</v>
       </c>
@@ -4818,7 +4982,7 @@
       <c r="R335" s="13"/>
       <c r="Y335" s="13"/>
     </row>
-    <row r="336" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:25" hidden="1">
       <c r="B336" s="11">
         <v>45952</v>
       </c>
@@ -4828,7 +4992,7 @@
       <c r="R336" s="13"/>
       <c r="Y336" s="13"/>
     </row>
-    <row r="337" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:25" hidden="1">
       <c r="B337" s="11">
         <v>45952</v>
       </c>
@@ -4838,7 +5002,7 @@
       <c r="R337" s="13"/>
       <c r="Y337" s="13"/>
     </row>
-    <row r="338" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:25" hidden="1">
       <c r="B338" s="11">
         <v>45952</v>
       </c>
@@ -4848,7 +5012,7 @@
       <c r="R338" s="13"/>
       <c r="Y338" s="13"/>
     </row>
-    <row r="339" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:25" hidden="1">
       <c r="B339" s="11">
         <v>45952</v>
       </c>
@@ -4858,7 +5022,7 @@
       <c r="R339" s="13"/>
       <c r="Y339" s="13"/>
     </row>
-    <row r="340" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:25" hidden="1">
       <c r="B340" s="11">
         <v>45953</v>
       </c>
@@ -4868,7 +5032,7 @@
       <c r="R340" s="13"/>
       <c r="Y340" s="13"/>
     </row>
-    <row r="341" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:25" hidden="1">
       <c r="B341" s="11">
         <v>45953</v>
       </c>
@@ -4878,7 +5042,7 @@
       <c r="R341" s="13"/>
       <c r="Y341" s="13"/>
     </row>
-    <row r="342" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:25" hidden="1">
       <c r="B342" s="11">
         <v>45953</v>
       </c>
@@ -4888,7 +5052,7 @@
       <c r="R342" s="13"/>
       <c r="Y342" s="13"/>
     </row>
-    <row r="343" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:25" hidden="1">
       <c r="B343" s="11">
         <v>45953</v>
       </c>
@@ -4898,7 +5062,7 @@
       <c r="R343" s="13"/>
       <c r="Y343" s="13"/>
     </row>
-    <row r="344" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:25" hidden="1">
       <c r="B344" s="11">
         <v>45953</v>
       </c>
@@ -4908,7 +5072,7 @@
       <c r="R344" s="13"/>
       <c r="Y344" s="13"/>
     </row>
-    <row r="345" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:25" hidden="1">
       <c r="B345" s="11">
         <v>45953</v>
       </c>
@@ -4918,7 +5082,7 @@
       <c r="R345" s="13"/>
       <c r="Y345" s="13"/>
     </row>
-    <row r="346" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:25" hidden="1">
       <c r="B346" s="11">
         <v>45953</v>
       </c>
@@ -4928,7 +5092,7 @@
       <c r="R346" s="13"/>
       <c r="Y346" s="13"/>
     </row>
-    <row r="347" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:25" hidden="1">
       <c r="B347" s="11">
         <v>45954</v>
       </c>
@@ -4938,7 +5102,7 @@
       <c r="R347" s="13"/>
       <c r="Y347" s="13"/>
     </row>
-    <row r="348" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:25" hidden="1">
       <c r="B348" s="11">
         <v>45954</v>
       </c>
@@ -4948,7 +5112,7 @@
       <c r="R348" s="13"/>
       <c r="Y348" s="13"/>
     </row>
-    <row r="349" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:25" hidden="1">
       <c r="B349" s="11">
         <v>45954</v>
       </c>
@@ -4958,7 +5122,7 @@
       <c r="R349" s="13"/>
       <c r="Y349" s="13"/>
     </row>
-    <row r="350" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:25" hidden="1">
       <c r="B350" s="11">
         <v>45954</v>
       </c>
@@ -4968,7 +5132,7 @@
       <c r="R350" s="13"/>
       <c r="Y350" s="13"/>
     </row>
-    <row r="351" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:25" hidden="1">
       <c r="B351" s="11">
         <v>45954</v>
       </c>
@@ -4978,7 +5142,7 @@
       <c r="R351" s="13"/>
       <c r="Y351" s="13"/>
     </row>
-    <row r="352" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:25" hidden="1">
       <c r="B352" s="11">
         <v>45954</v>
       </c>
@@ -4988,7 +5152,7 @@
       <c r="R352" s="13"/>
       <c r="Y352" s="13"/>
     </row>
-    <row r="353" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:25" hidden="1">
       <c r="B353" s="11">
         <v>45954</v>
       </c>
@@ -4998,7 +5162,7 @@
       <c r="R353" s="13"/>
       <c r="Y353" s="13"/>
     </row>
-    <row r="354" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:25" hidden="1">
       <c r="B354" s="11">
         <v>45955</v>
       </c>
@@ -5008,7 +5172,7 @@
       <c r="R354" s="13"/>
       <c r="Y354" s="13"/>
     </row>
-    <row r="355" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:25" hidden="1">
       <c r="B355" s="11">
         <v>45955</v>
       </c>
@@ -5018,7 +5182,7 @@
       <c r="R355" s="13"/>
       <c r="Y355" s="13"/>
     </row>
-    <row r="356" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:25" hidden="1">
       <c r="B356" s="11">
         <v>45955</v>
       </c>
@@ -5028,7 +5192,7 @@
       <c r="R356" s="13"/>
       <c r="Y356" s="13"/>
     </row>
-    <row r="357" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:25" hidden="1">
       <c r="B357" s="11">
         <v>45955</v>
       </c>
@@ -5038,7 +5202,7 @@
       <c r="R357" s="13"/>
       <c r="Y357" s="13"/>
     </row>
-    <row r="358" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:25" hidden="1">
       <c r="B358" s="11">
         <v>45955</v>
       </c>
@@ -5048,7 +5212,7 @@
       <c r="R358" s="13"/>
       <c r="Y358" s="13"/>
     </row>
-    <row r="359" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:25" hidden="1">
       <c r="B359" s="11">
         <v>45955</v>
       </c>
@@ -5058,7 +5222,7 @@
       <c r="R359" s="13"/>
       <c r="Y359" s="13"/>
     </row>
-    <row r="360" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:25" hidden="1">
       <c r="B360" s="11">
         <v>45955</v>
       </c>
@@ -5068,7 +5232,7 @@
       <c r="R360" s="13"/>
       <c r="Y360" s="13"/>
     </row>
-    <row r="361" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:25" hidden="1">
       <c r="B361" s="11">
         <v>45956</v>
       </c>
@@ -5078,7 +5242,7 @@
       <c r="R361" s="13"/>
       <c r="Y361" s="13"/>
     </row>
-    <row r="362" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:25" hidden="1">
       <c r="B362" s="11">
         <v>45956</v>
       </c>
@@ -5088,7 +5252,7 @@
       <c r="R362" s="13"/>
       <c r="Y362" s="13"/>
     </row>
-    <row r="363" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:25" hidden="1">
       <c r="B363" s="11">
         <v>45956</v>
       </c>
@@ -5098,7 +5262,7 @@
       <c r="R363" s="13"/>
       <c r="Y363" s="13"/>
     </row>
-    <row r="364" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:25" hidden="1">
       <c r="B364" s="11">
         <v>45956</v>
       </c>
@@ -5108,7 +5272,7 @@
       <c r="R364" s="13"/>
       <c r="Y364" s="13"/>
     </row>
-    <row r="365" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:25" hidden="1">
       <c r="B365" s="11">
         <v>45956</v>
       </c>
@@ -5118,7 +5282,7 @@
       <c r="R365" s="13"/>
       <c r="Y365" s="13"/>
     </row>
-    <row r="366" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:25" hidden="1">
       <c r="B366" s="11">
         <v>45956</v>
       </c>
@@ -5128,7 +5292,7 @@
       <c r="R366" s="13"/>
       <c r="Y366" s="13"/>
     </row>
-    <row r="367" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:25" hidden="1">
       <c r="B367" s="11">
         <v>45956</v>
       </c>
@@ -5138,7 +5302,7 @@
       <c r="R367" s="13"/>
       <c r="Y367" s="13"/>
     </row>
-    <row r="368" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:25" hidden="1">
       <c r="B368" s="11">
         <v>45957</v>
       </c>
@@ -5148,7 +5312,7 @@
       <c r="R368" s="13"/>
       <c r="Y368" s="13"/>
     </row>
-    <row r="369" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:25" hidden="1">
       <c r="B369" s="11">
         <v>45957</v>
       </c>
@@ -5158,7 +5322,7 @@
       <c r="R369" s="13"/>
       <c r="Y369" s="13"/>
     </row>
-    <row r="370" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:25" hidden="1">
       <c r="B370" s="11">
         <v>45957</v>
       </c>
@@ -5168,7 +5332,7 @@
       <c r="R370" s="13"/>
       <c r="Y370" s="13"/>
     </row>
-    <row r="371" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:25" hidden="1">
       <c r="B371" s="11">
         <v>45957</v>
       </c>
@@ -5178,7 +5342,7 @@
       <c r="R371" s="13"/>
       <c r="Y371" s="13"/>
     </row>
-    <row r="372" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:25" hidden="1">
       <c r="B372" s="11">
         <v>45957</v>
       </c>
@@ -5188,7 +5352,7 @@
       <c r="R372" s="13"/>
       <c r="Y372" s="13"/>
     </row>
-    <row r="373" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:25" hidden="1">
       <c r="B373" s="11">
         <v>45957</v>
       </c>
@@ -5198,7 +5362,7 @@
       <c r="R373" s="13"/>
       <c r="Y373" s="13"/>
     </row>
-    <row r="374" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:25" hidden="1">
       <c r="B374" s="11">
         <v>45957</v>
       </c>
@@ -5208,7 +5372,7 @@
       <c r="R374" s="13"/>
       <c r="Y374" s="13"/>
     </row>
-    <row r="375" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:25" hidden="1">
       <c r="B375" s="11">
         <v>45958</v>
       </c>
@@ -5218,7 +5382,7 @@
       <c r="R375" s="13"/>
       <c r="Y375" s="13"/>
     </row>
-    <row r="376" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:25" hidden="1">
       <c r="B376" s="11">
         <v>45958</v>
       </c>
@@ -5228,7 +5392,7 @@
       <c r="R376" s="13"/>
       <c r="Y376" s="13"/>
     </row>
-    <row r="377" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:25" hidden="1">
       <c r="B377" s="11">
         <v>45958</v>
       </c>
@@ -5238,7 +5402,7 @@
       <c r="R377" s="13"/>
       <c r="Y377" s="13"/>
     </row>
-    <row r="378" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:25" hidden="1">
       <c r="B378" s="11">
         <v>45958</v>
       </c>
@@ -5248,7 +5412,7 @@
       <c r="R378" s="13"/>
       <c r="Y378" s="13"/>
     </row>
-    <row r="379" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:25" hidden="1">
       <c r="B379" s="11">
         <v>45958</v>
       </c>
@@ -5258,7 +5422,7 @@
       <c r="R379" s="13"/>
       <c r="Y379" s="13"/>
     </row>
-    <row r="380" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:25" hidden="1">
       <c r="B380" s="11">
         <v>45958</v>
       </c>
@@ -5268,7 +5432,7 @@
       <c r="R380" s="13"/>
       <c r="Y380" s="13"/>
     </row>
-    <row r="381" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:25" hidden="1">
       <c r="B381" s="11">
         <v>45958</v>
       </c>
@@ -5278,7 +5442,7 @@
       <c r="R381" s="13"/>
       <c r="Y381" s="13"/>
     </row>
-    <row r="382" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:25" hidden="1">
       <c r="B382" s="11">
         <v>45959</v>
       </c>
@@ -5288,7 +5452,7 @@
       <c r="R382" s="13"/>
       <c r="Y382" s="13"/>
     </row>
-    <row r="383" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:25" hidden="1">
       <c r="B383" s="11">
         <v>45959</v>
       </c>
@@ -5298,7 +5462,7 @@
       <c r="R383" s="13"/>
       <c r="Y383" s="13"/>
     </row>
-    <row r="384" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:25" hidden="1">
       <c r="B384" s="11">
         <v>45959</v>
       </c>
@@ -5308,7 +5472,7 @@
       <c r="R384" s="13"/>
       <c r="Y384" s="13"/>
     </row>
-    <row r="385" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:25" hidden="1">
       <c r="B385" s="11">
         <v>45959</v>
       </c>
@@ -5318,7 +5482,7 @@
       <c r="R385" s="13"/>
       <c r="Y385" s="13"/>
     </row>
-    <row r="386" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:25" hidden="1">
       <c r="B386" s="11">
         <v>45959</v>
       </c>
@@ -5328,7 +5492,7 @@
       <c r="R386" s="13"/>
       <c r="Y386" s="13"/>
     </row>
-    <row r="387" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:25" hidden="1">
       <c r="B387" s="11">
         <v>45959</v>
       </c>
@@ -5338,7 +5502,7 @@
       <c r="R387" s="13"/>
       <c r="Y387" s="13"/>
     </row>
-    <row r="388" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:25" hidden="1">
       <c r="B388" s="11">
         <v>45959</v>
       </c>
@@ -5348,7 +5512,7 @@
       <c r="R388" s="13"/>
       <c r="Y388" s="13"/>
     </row>
-    <row r="389" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:25" hidden="1">
       <c r="B389" s="11">
         <v>45960</v>
       </c>
@@ -5358,7 +5522,7 @@
       <c r="R389" s="13"/>
       <c r="Y389" s="13"/>
     </row>
-    <row r="390" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:25" hidden="1">
       <c r="B390" s="11">
         <v>45960</v>
       </c>
@@ -5368,7 +5532,7 @@
       <c r="R390" s="13"/>
       <c r="Y390" s="13"/>
     </row>
-    <row r="391" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:25" hidden="1">
       <c r="B391" s="11">
         <v>45960</v>
       </c>
@@ -5378,7 +5542,7 @@
       <c r="R391" s="13"/>
       <c r="Y391" s="13"/>
     </row>
-    <row r="392" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:25" hidden="1">
       <c r="B392" s="11">
         <v>45960</v>
       </c>
@@ -5388,7 +5552,7 @@
       <c r="R392" s="13"/>
       <c r="Y392" s="13"/>
     </row>
-    <row r="393" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:25" hidden="1">
       <c r="B393" s="11">
         <v>45960</v>
       </c>
@@ -5398,7 +5562,7 @@
       <c r="R393" s="13"/>
       <c r="Y393" s="13"/>
     </row>
-    <row r="394" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:25" hidden="1">
       <c r="B394" s="11">
         <v>45960</v>
       </c>
@@ -5408,7 +5572,7 @@
       <c r="R394" s="13"/>
       <c r="Y394" s="13"/>
     </row>
-    <row r="395" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:25" hidden="1">
       <c r="B395" s="11">
         <v>45960</v>
       </c>
@@ -5418,7 +5582,7 @@
       <c r="R395" s="13"/>
       <c r="Y395" s="13"/>
     </row>
-    <row r="396" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:25" hidden="1">
       <c r="B396" s="11">
         <v>45961</v>
       </c>
@@ -5428,7 +5592,7 @@
       <c r="R396" s="13"/>
       <c r="Y396" s="13"/>
     </row>
-    <row r="397" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:25" hidden="1">
       <c r="B397" s="11">
         <v>45961</v>
       </c>
@@ -5438,7 +5602,7 @@
       <c r="R397" s="13"/>
       <c r="Y397" s="13"/>
     </row>
-    <row r="398" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:25" hidden="1">
       <c r="B398" s="11">
         <v>45961</v>
       </c>
@@ -5448,7 +5612,7 @@
       <c r="R398" s="13"/>
       <c r="Y398" s="13"/>
     </row>
-    <row r="399" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:25" hidden="1">
       <c r="B399" s="11">
         <v>45961</v>
       </c>
@@ -5458,7 +5622,7 @@
       <c r="R399" s="13"/>
       <c r="Y399" s="13"/>
     </row>
-    <row r="400" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:25" hidden="1">
       <c r="B400" s="11">
         <v>45961</v>
       </c>
@@ -5468,7 +5632,7 @@
       <c r="R400" s="13"/>
       <c r="Y400" s="13"/>
     </row>
-    <row r="401" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:25" hidden="1">
       <c r="B401" s="11">
         <v>45961</v>
       </c>
@@ -5478,7 +5642,7 @@
       <c r="R401" s="13"/>
       <c r="Y401" s="13"/>
     </row>
-    <row r="402" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:25" hidden="1">
       <c r="B402" s="11">
         <v>45961</v>
       </c>
@@ -5488,7 +5652,7 @@
       <c r="R402" s="13"/>
       <c r="Y402" s="13"/>
     </row>
-    <row r="403" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:25" hidden="1">
       <c r="B403" s="11">
         <v>45962</v>
       </c>
@@ -5498,7 +5662,7 @@
       <c r="R403" s="13"/>
       <c r="Y403" s="13"/>
     </row>
-    <row r="404" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:25" hidden="1">
       <c r="B404" s="11">
         <v>45962</v>
       </c>
@@ -5508,7 +5672,7 @@
       <c r="R404" s="13"/>
       <c r="Y404" s="13"/>
     </row>
-    <row r="405" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:25" hidden="1">
       <c r="B405" s="11">
         <v>45962</v>
       </c>
@@ -5518,7 +5682,7 @@
       <c r="R405" s="13"/>
       <c r="Y405" s="13"/>
     </row>
-    <row r="406" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:25" hidden="1">
       <c r="B406" s="11">
         <v>45962</v>
       </c>
@@ -5528,7 +5692,7 @@
       <c r="R406" s="13"/>
       <c r="Y406" s="13"/>
     </row>
-    <row r="407" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:25" hidden="1">
       <c r="B407" s="11">
         <v>45962</v>
       </c>
@@ -5538,7 +5702,7 @@
       <c r="R407" s="13"/>
       <c r="Y407" s="13"/>
     </row>
-    <row r="408" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:25" hidden="1">
       <c r="B408" s="11">
         <v>45962</v>
       </c>
@@ -5548,7 +5712,7 @@
       <c r="R408" s="13"/>
       <c r="Y408" s="13"/>
     </row>
-    <row r="409" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:25" hidden="1">
       <c r="B409" s="11">
         <v>45962</v>
       </c>
@@ -5558,7 +5722,7 @@
       <c r="R409" s="13"/>
       <c r="Y409" s="13"/>
     </row>
-    <row r="410" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:25" hidden="1">
       <c r="B410" s="11">
         <v>45963</v>
       </c>
@@ -5568,7 +5732,7 @@
       <c r="R410" s="13"/>
       <c r="Y410" s="13"/>
     </row>
-    <row r="411" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:25" hidden="1">
       <c r="B411" s="11">
         <v>45963</v>
       </c>
@@ -5578,7 +5742,7 @@
       <c r="R411" s="13"/>
       <c r="Y411" s="13"/>
     </row>
-    <row r="412" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:25" hidden="1">
       <c r="B412" s="11">
         <v>45963</v>
       </c>
@@ -5588,7 +5752,7 @@
       <c r="R412" s="13"/>
       <c r="Y412" s="13"/>
     </row>
-    <row r="413" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:25" hidden="1">
       <c r="B413" s="11">
         <v>45963</v>
       </c>
@@ -5598,7 +5762,7 @@
       <c r="R413" s="13"/>
       <c r="Y413" s="13"/>
     </row>
-    <row r="414" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:25" hidden="1">
       <c r="B414" s="11">
         <v>45963</v>
       </c>
@@ -5608,7 +5772,7 @@
       <c r="R414" s="13"/>
       <c r="Y414" s="13"/>
     </row>
-    <row r="415" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:25" hidden="1">
       <c r="B415" s="11">
         <v>45963</v>
       </c>
@@ -5618,7 +5782,7 @@
       <c r="R415" s="13"/>
       <c r="Y415" s="13"/>
     </row>
-    <row r="416" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:25" hidden="1">
       <c r="B416" s="11">
         <v>45963</v>
       </c>
@@ -5628,7 +5792,7 @@
       <c r="R416" s="13"/>
       <c r="Y416" s="13"/>
     </row>
-    <row r="417" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:25" hidden="1">
       <c r="B417" s="11">
         <v>45964</v>
       </c>
@@ -5638,7 +5802,7 @@
       <c r="R417" s="13"/>
       <c r="Y417" s="13"/>
     </row>
-    <row r="418" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:25" hidden="1">
       <c r="B418" s="11">
         <v>45964</v>
       </c>
@@ -5648,7 +5812,7 @@
       <c r="R418" s="13"/>
       <c r="Y418" s="13"/>
     </row>
-    <row r="419" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:25" hidden="1">
       <c r="B419" s="11">
         <v>45964</v>
       </c>
@@ -5658,7 +5822,7 @@
       <c r="R419" s="13"/>
       <c r="Y419" s="13"/>
     </row>
-    <row r="420" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:25" hidden="1">
       <c r="B420" s="11">
         <v>45964</v>
       </c>
@@ -5668,7 +5832,7 @@
       <c r="R420" s="13"/>
       <c r="Y420" s="13"/>
     </row>
-    <row r="421" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:25" hidden="1">
       <c r="B421" s="11">
         <v>45964</v>
       </c>
@@ -5678,7 +5842,7 @@
       <c r="R421" s="13"/>
       <c r="Y421" s="13"/>
     </row>
-    <row r="422" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:25" hidden="1">
       <c r="B422" s="11">
         <v>45964</v>
       </c>
@@ -5688,7 +5852,7 @@
       <c r="R422" s="13"/>
       <c r="Y422" s="13"/>
     </row>
-    <row r="423" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:25" hidden="1">
       <c r="B423" s="11">
         <v>45964</v>
       </c>
@@ -5698,7 +5862,7 @@
       <c r="R423" s="13"/>
       <c r="Y423" s="13"/>
     </row>
-    <row r="424" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:25" hidden="1">
       <c r="B424" s="11">
         <v>45965</v>
       </c>
@@ -5708,7 +5872,7 @@
       <c r="R424" s="13"/>
       <c r="Y424" s="13"/>
     </row>
-    <row r="425" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:25" hidden="1">
       <c r="B425" s="11">
         <v>45965</v>
       </c>
@@ -5718,7 +5882,7 @@
       <c r="R425" s="13"/>
       <c r="Y425" s="13"/>
     </row>
-    <row r="426" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:25" hidden="1">
       <c r="B426" s="11">
         <v>45965</v>
       </c>
@@ -5728,7 +5892,7 @@
       <c r="R426" s="13"/>
       <c r="Y426" s="13"/>
     </row>
-    <row r="427" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:25" hidden="1">
       <c r="B427" s="11">
         <v>45965</v>
       </c>
@@ -5738,7 +5902,7 @@
       <c r="R427" s="13"/>
       <c r="Y427" s="13"/>
     </row>
-    <row r="428" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:25" hidden="1">
       <c r="B428" s="11">
         <v>45965</v>
       </c>
@@ -5748,7 +5912,7 @@
       <c r="R428" s="13"/>
       <c r="Y428" s="13"/>
     </row>
-    <row r="429" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:25" hidden="1">
       <c r="B429" s="11">
         <v>45965</v>
       </c>
@@ -5758,7 +5922,7 @@
       <c r="R429" s="13"/>
       <c r="Y429" s="13"/>
     </row>
-    <row r="430" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:25" hidden="1">
       <c r="B430" s="11">
         <v>45965</v>
       </c>
@@ -5768,7 +5932,7 @@
       <c r="R430" s="13"/>
       <c r="Y430" s="13"/>
     </row>
-    <row r="431" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:25" hidden="1">
       <c r="B431" s="11">
         <v>45966</v>
       </c>
@@ -5778,7 +5942,7 @@
       <c r="R431" s="13"/>
       <c r="Y431" s="13"/>
     </row>
-    <row r="432" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:25" hidden="1">
       <c r="B432" s="11">
         <v>45966</v>
       </c>
@@ -5788,7 +5952,7 @@
       <c r="R432" s="13"/>
       <c r="Y432" s="13"/>
     </row>
-    <row r="433" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:25" hidden="1">
       <c r="B433" s="11">
         <v>45966</v>
       </c>
@@ -5798,7 +5962,7 @@
       <c r="R433" s="13"/>
       <c r="Y433" s="13"/>
     </row>
-    <row r="434" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:25" hidden="1">
       <c r="B434" s="11">
         <v>45966</v>
       </c>
@@ -5808,7 +5972,7 @@
       <c r="R434" s="13"/>
       <c r="Y434" s="13"/>
     </row>
-    <row r="435" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:25" hidden="1">
       <c r="B435" s="11">
         <v>45966</v>
       </c>
@@ -5818,7 +5982,7 @@
       <c r="R435" s="13"/>
       <c r="Y435" s="13"/>
     </row>
-    <row r="436" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:25" hidden="1">
       <c r="B436" s="11">
         <v>45966</v>
       </c>
@@ -5828,7 +5992,7 @@
       <c r="R436" s="13"/>
       <c r="Y436" s="13"/>
     </row>
-    <row r="437" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:25" hidden="1">
       <c r="B437" s="11">
         <v>45966</v>
       </c>
@@ -5838,7 +6002,7 @@
       <c r="R437" s="13"/>
       <c r="Y437" s="13"/>
     </row>
-    <row r="438" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:25" hidden="1">
       <c r="B438" s="11">
         <v>45967</v>
       </c>
@@ -5848,7 +6012,7 @@
       <c r="R438" s="13"/>
       <c r="Y438" s="13"/>
     </row>
-    <row r="439" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:25" hidden="1">
       <c r="B439" s="11">
         <v>45967</v>
       </c>
@@ -5858,7 +6022,7 @@
       <c r="R439" s="13"/>
       <c r="Y439" s="13"/>
     </row>
-    <row r="440" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:25" hidden="1">
       <c r="B440" s="11">
         <v>45967</v>
       </c>
@@ -5868,7 +6032,7 @@
       <c r="R440" s="13"/>
       <c r="Y440" s="13"/>
     </row>
-    <row r="441" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:25" hidden="1">
       <c r="B441" s="11">
         <v>45967</v>
       </c>
@@ -5878,7 +6042,7 @@
       <c r="R441" s="13"/>
       <c r="Y441" s="13"/>
     </row>
-    <row r="442" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:25" hidden="1">
       <c r="B442" s="11">
         <v>45967</v>
       </c>
@@ -5888,7 +6052,7 @@
       <c r="R442" s="13"/>
       <c r="Y442" s="13"/>
     </row>
-    <row r="443" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:25" hidden="1">
       <c r="B443" s="11">
         <v>45967</v>
       </c>
@@ -5898,7 +6062,7 @@
       <c r="R443" s="13"/>
       <c r="Y443" s="13"/>
     </row>
-    <row r="444" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:25" hidden="1">
       <c r="B444" s="11">
         <v>45967</v>
       </c>
@@ -5908,7 +6072,7 @@
       <c r="R444" s="13"/>
       <c r="Y444" s="13"/>
     </row>
-    <row r="445" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:25" hidden="1">
       <c r="B445" s="11">
         <v>45968</v>
       </c>
@@ -5918,7 +6082,7 @@
       <c r="R445" s="13"/>
       <c r="Y445" s="13"/>
     </row>
-    <row r="446" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:25" hidden="1">
       <c r="B446" s="11">
         <v>45968</v>
       </c>
@@ -5928,7 +6092,7 @@
       <c r="R446" s="13"/>
       <c r="Y446" s="13"/>
     </row>
-    <row r="447" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:25" hidden="1">
       <c r="B447" s="11">
         <v>45968</v>
       </c>
@@ -5938,7 +6102,7 @@
       <c r="R447" s="13"/>
       <c r="Y447" s="13"/>
     </row>
-    <row r="448" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:25" hidden="1">
       <c r="B448" s="11">
         <v>45968</v>
       </c>
@@ -5948,7 +6112,7 @@
       <c r="R448" s="13"/>
       <c r="Y448" s="13"/>
     </row>
-    <row r="449" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:25" hidden="1">
       <c r="B449" s="11">
         <v>45968</v>
       </c>
@@ -5958,7 +6122,7 @@
       <c r="R449" s="13"/>
       <c r="Y449" s="13"/>
     </row>
-    <row r="450" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:25" hidden="1">
       <c r="B450" s="11">
         <v>45968</v>
       </c>
@@ -5968,7 +6132,7 @@
       <c r="R450" s="13"/>
       <c r="Y450" s="13"/>
     </row>
-    <row r="451" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:25" hidden="1">
       <c r="B451" s="11">
         <v>45968</v>
       </c>
@@ -5978,7 +6142,7 @@
       <c r="R451" s="13"/>
       <c r="Y451" s="13"/>
     </row>
-    <row r="452" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:25" hidden="1">
       <c r="B452" s="11">
         <v>45969</v>
       </c>
@@ -5988,7 +6152,7 @@
       <c r="R452" s="13"/>
       <c r="Y452" s="13"/>
     </row>
-    <row r="453" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:25" hidden="1">
       <c r="B453" s="11">
         <v>45969</v>
       </c>
@@ -5998,7 +6162,7 @@
       <c r="R453" s="13"/>
       <c r="Y453" s="13"/>
     </row>
-    <row r="454" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:25" hidden="1">
       <c r="B454" s="11">
         <v>45969</v>
       </c>
@@ -6008,7 +6172,7 @@
       <c r="R454" s="13"/>
       <c r="Y454" s="13"/>
     </row>
-    <row r="455" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:25" hidden="1">
       <c r="B455" s="11">
         <v>45969</v>
       </c>
@@ -6018,7 +6182,7 @@
       <c r="R455" s="13"/>
       <c r="Y455" s="13"/>
     </row>
-    <row r="456" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:25" hidden="1">
       <c r="B456" s="11">
         <v>45969</v>
       </c>
@@ -6028,7 +6192,7 @@
       <c r="R456" s="13"/>
       <c r="Y456" s="13"/>
     </row>
-    <row r="457" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:25" hidden="1">
       <c r="B457" s="11">
         <v>45969</v>
       </c>
@@ -6038,7 +6202,7 @@
       <c r="R457" s="13"/>
       <c r="Y457" s="13"/>
     </row>
-    <row r="458" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:25" hidden="1">
       <c r="B458" s="11">
         <v>45969</v>
       </c>
@@ -6048,7 +6212,7 @@
       <c r="R458" s="13"/>
       <c r="Y458" s="13"/>
     </row>
-    <row r="459" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:25" hidden="1">
       <c r="B459" s="11">
         <v>45970</v>
       </c>
@@ -6058,7 +6222,7 @@
       <c r="R459" s="13"/>
       <c r="Y459" s="13"/>
     </row>
-    <row r="460" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:25" hidden="1">
       <c r="B460" s="11">
         <v>45970</v>
       </c>
@@ -6068,7 +6232,7 @@
       <c r="R460" s="13"/>
       <c r="Y460" s="13"/>
     </row>
-    <row r="461" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:25" hidden="1">
       <c r="B461" s="11">
         <v>45970</v>
       </c>
@@ -6078,7 +6242,7 @@
       <c r="R461" s="13"/>
       <c r="Y461" s="13"/>
     </row>
-    <row r="462" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:25" hidden="1">
       <c r="B462" s="11">
         <v>45970</v>
       </c>
@@ -6088,7 +6252,7 @@
       <c r="R462" s="13"/>
       <c r="Y462" s="13"/>
     </row>
-    <row r="463" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:25" hidden="1">
       <c r="B463" s="11">
         <v>45970</v>
       </c>
@@ -6098,7 +6262,7 @@
       <c r="R463" s="13"/>
       <c r="Y463" s="13"/>
     </row>
-    <row r="464" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:25" hidden="1">
       <c r="B464" s="11">
         <v>45970</v>
       </c>
@@ -6108,7 +6272,7 @@
       <c r="R464" s="13"/>
       <c r="Y464" s="13"/>
     </row>
-    <row r="465" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:25" hidden="1">
       <c r="B465" s="11">
         <v>45970</v>
       </c>
@@ -6118,7 +6282,7 @@
       <c r="R465" s="13"/>
       <c r="Y465" s="13"/>
     </row>
-    <row r="466" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:25" hidden="1">
       <c r="B466" s="11">
         <v>45971</v>
       </c>
@@ -6128,7 +6292,7 @@
       <c r="R466" s="13"/>
       <c r="Y466" s="13"/>
     </row>
-    <row r="467" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:25" hidden="1">
       <c r="B467" s="11">
         <v>45971</v>
       </c>
@@ -6138,7 +6302,7 @@
       <c r="R467" s="13"/>
       <c r="Y467" s="13"/>
     </row>
-    <row r="468" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:25" hidden="1">
       <c r="B468" s="11">
         <v>45971</v>
       </c>
@@ -6148,7 +6312,7 @@
       <c r="R468" s="13"/>
       <c r="Y468" s="13"/>
     </row>
-    <row r="469" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:25" hidden="1">
       <c r="B469" s="11">
         <v>45971</v>
       </c>
@@ -6158,7 +6322,7 @@
       <c r="R469" s="13"/>
       <c r="Y469" s="13"/>
     </row>
-    <row r="470" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:25" hidden="1">
       <c r="B470" s="11">
         <v>45971</v>
       </c>
@@ -6168,7 +6332,7 @@
       <c r="R470" s="13"/>
       <c r="Y470" s="13"/>
     </row>
-    <row r="471" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:25" hidden="1">
       <c r="B471" s="11">
         <v>45971</v>
       </c>
@@ -6178,7 +6342,7 @@
       <c r="R471" s="13"/>
       <c r="Y471" s="13"/>
     </row>
-    <row r="472" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:25" hidden="1">
       <c r="B472" s="11">
         <v>45971</v>
       </c>
@@ -6188,7 +6352,7 @@
       <c r="R472" s="13"/>
       <c r="Y472" s="13"/>
     </row>
-    <row r="473" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:25" hidden="1">
       <c r="B473" s="11">
         <v>45972</v>
       </c>
@@ -6198,7 +6362,7 @@
       <c r="R473" s="13"/>
       <c r="Y473" s="13"/>
     </row>
-    <row r="474" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:25" hidden="1">
       <c r="B474" s="11">
         <v>45972</v>
       </c>
@@ -6208,7 +6372,7 @@
       <c r="R474" s="13"/>
       <c r="Y474" s="13"/>
     </row>
-    <row r="475" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:25" hidden="1">
       <c r="B475" s="11">
         <v>45972</v>
       </c>
@@ -6218,7 +6382,7 @@
       <c r="R475" s="13"/>
       <c r="Y475" s="13"/>
     </row>
-    <row r="476" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:25" hidden="1">
       <c r="B476" s="11">
         <v>45972</v>
       </c>
@@ -6228,7 +6392,7 @@
       <c r="R476" s="13"/>
       <c r="Y476" s="13"/>
     </row>
-    <row r="477" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:25" hidden="1">
       <c r="B477" s="11">
         <v>45972</v>
       </c>
@@ -6238,7 +6402,7 @@
       <c r="R477" s="13"/>
       <c r="Y477" s="13"/>
     </row>
-    <row r="478" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:25" hidden="1">
       <c r="B478" s="11">
         <v>45972</v>
       </c>
@@ -6248,7 +6412,7 @@
       <c r="R478" s="13"/>
       <c r="Y478" s="13"/>
     </row>
-    <row r="479" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:25" hidden="1">
       <c r="B479" s="11">
         <v>45972</v>
       </c>
@@ -6258,7 +6422,7 @@
       <c r="R479" s="13"/>
       <c r="Y479" s="13"/>
     </row>
-    <row r="480" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:25" hidden="1">
       <c r="B480" s="11">
         <v>45973</v>
       </c>
@@ -6268,7 +6432,7 @@
       <c r="R480" s="13"/>
       <c r="Y480" s="13"/>
     </row>
-    <row r="481" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:25" hidden="1">
       <c r="B481" s="11">
         <v>45973</v>
       </c>
@@ -6278,7 +6442,7 @@
       <c r="R481" s="13"/>
       <c r="Y481" s="13"/>
     </row>
-    <row r="482" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:25" hidden="1">
       <c r="B482" s="11">
         <v>45973</v>
       </c>
@@ -6288,7 +6452,7 @@
       <c r="R482" s="13"/>
       <c r="Y482" s="13"/>
     </row>
-    <row r="483" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:25" hidden="1">
       <c r="B483" s="11">
         <v>45973</v>
       </c>
@@ -6298,7 +6462,7 @@
       <c r="R483" s="13"/>
       <c r="Y483" s="13"/>
     </row>
-    <row r="484" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:25" hidden="1">
       <c r="B484" s="11">
         <v>45973</v>
       </c>
@@ -6308,7 +6472,7 @@
       <c r="R484" s="13"/>
       <c r="Y484" s="13"/>
     </row>
-    <row r="485" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:25" hidden="1">
       <c r="B485" s="11">
         <v>45973</v>
       </c>
@@ -6318,7 +6482,7 @@
       <c r="R485" s="13"/>
       <c r="Y485" s="13"/>
     </row>
-    <row r="486" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:25" hidden="1">
       <c r="B486" s="11">
         <v>45973</v>
       </c>
@@ -6328,7 +6492,7 @@
       <c r="R486" s="13"/>
       <c r="Y486" s="13"/>
     </row>
-    <row r="487" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:25" hidden="1">
       <c r="B487" s="11">
         <v>45974</v>
       </c>
@@ -6338,7 +6502,7 @@
       <c r="R487" s="13"/>
       <c r="Y487" s="13"/>
     </row>
-    <row r="488" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:25" hidden="1">
       <c r="B488" s="11">
         <v>45974</v>
       </c>
@@ -6348,7 +6512,7 @@
       <c r="R488" s="13"/>
       <c r="Y488" s="13"/>
     </row>
-    <row r="489" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:25" hidden="1">
       <c r="B489" s="11">
         <v>45974</v>
       </c>
@@ -6358,7 +6522,7 @@
       <c r="R489" s="13"/>
       <c r="Y489" s="13"/>
     </row>
-    <row r="490" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:25" hidden="1">
       <c r="B490" s="11">
         <v>45974</v>
       </c>
@@ -6368,7 +6532,7 @@
       <c r="R490" s="13"/>
       <c r="Y490" s="13"/>
     </row>
-    <row r="491" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:25" hidden="1">
       <c r="B491" s="11">
         <v>45974</v>
       </c>
@@ -6378,7 +6542,7 @@
       <c r="R491" s="13"/>
       <c r="Y491" s="13"/>
     </row>
-    <row r="492" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:25" hidden="1">
       <c r="B492" s="11">
         <v>45974</v>
       </c>
@@ -6388,7 +6552,7 @@
       <c r="R492" s="13"/>
       <c r="Y492" s="13"/>
     </row>
-    <row r="493" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:25" hidden="1">
       <c r="B493" s="11">
         <v>45974</v>
       </c>
@@ -6398,7 +6562,7 @@
       <c r="R493" s="13"/>
       <c r="Y493" s="13"/>
     </row>
-    <row r="494" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:25" hidden="1">
       <c r="B494" s="11">
         <v>45975</v>
       </c>
@@ -6408,7 +6572,7 @@
       <c r="R494" s="13"/>
       <c r="Y494" s="13"/>
     </row>
-    <row r="495" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:25" hidden="1">
       <c r="B495" s="11">
         <v>45975</v>
       </c>
@@ -6418,7 +6582,7 @@
       <c r="R495" s="13"/>
       <c r="Y495" s="13"/>
     </row>
-    <row r="496" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:25" hidden="1">
       <c r="B496" s="11">
         <v>45975</v>
       </c>
@@ -6428,7 +6592,7 @@
       <c r="R496" s="13"/>
       <c r="Y496" s="13"/>
     </row>
-    <row r="497" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:25" hidden="1">
       <c r="B497" s="11">
         <v>45975</v>
       </c>
@@ -6438,7 +6602,7 @@
       <c r="R497" s="13"/>
       <c r="Y497" s="13"/>
     </row>
-    <row r="498" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:25" hidden="1">
       <c r="B498" s="11">
         <v>45975</v>
       </c>
@@ -6448,7 +6612,7 @@
       <c r="R498" s="13"/>
       <c r="Y498" s="13"/>
     </row>
-    <row r="499" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:25" hidden="1">
       <c r="B499" s="11">
         <v>45975</v>
       </c>
@@ -6458,7 +6622,7 @@
       <c r="R499" s="13"/>
       <c r="Y499" s="13"/>
     </row>
-    <row r="500" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:25" hidden="1">
       <c r="B500" s="11">
         <v>45975</v>
       </c>
@@ -6468,7 +6632,7 @@
       <c r="R500" s="13"/>
       <c r="Y500" s="13"/>
     </row>
-    <row r="501" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:25" hidden="1">
       <c r="B501" s="11">
         <v>45976</v>
       </c>
@@ -6478,7 +6642,7 @@
       <c r="R501" s="13"/>
       <c r="Y501" s="13"/>
     </row>
-    <row r="502" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:25" hidden="1">
       <c r="B502" s="11">
         <v>45976</v>
       </c>
@@ -6488,7 +6652,7 @@
       <c r="R502" s="13"/>
       <c r="Y502" s="13"/>
     </row>
-    <row r="503" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:25" hidden="1">
       <c r="B503" s="11">
         <v>45976</v>
       </c>
@@ -6498,7 +6662,7 @@
       <c r="R503" s="13"/>
       <c r="Y503" s="13"/>
     </row>
-    <row r="504" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:25" hidden="1">
       <c r="B504" s="11">
         <v>45976</v>
       </c>
@@ -6508,7 +6672,7 @@
       <c r="R504" s="13"/>
       <c r="Y504" s="13"/>
     </row>
-    <row r="505" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:25" hidden="1">
       <c r="B505" s="11">
         <v>45976</v>
       </c>
@@ -6518,7 +6682,7 @@
       <c r="R505" s="13"/>
       <c r="Y505" s="13"/>
     </row>
-    <row r="506" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:25" hidden="1">
       <c r="B506" s="11">
         <v>45976</v>
       </c>
@@ -6528,7 +6692,7 @@
       <c r="R506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:25" hidden="1">
       <c r="B507" s="11">
         <v>45976</v>
       </c>
@@ -6538,7 +6702,7 @@
       <c r="R507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:25" hidden="1">
       <c r="B508" s="11">
         <v>45977</v>
       </c>
@@ -6548,7 +6712,7 @@
       <c r="R508" s="13"/>
       <c r="Y508" s="13"/>
     </row>
-    <row r="509" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:25" hidden="1">
       <c r="B509" s="11">
         <v>45977</v>
       </c>
@@ -6558,7 +6722,7 @@
       <c r="R509" s="13"/>
       <c r="Y509" s="13"/>
     </row>
-    <row r="510" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:25" hidden="1">
       <c r="B510" s="11">
         <v>45977</v>
       </c>
@@ -6568,7 +6732,7 @@
       <c r="R510" s="13"/>
       <c r="Y510" s="13"/>
     </row>
-    <row r="511" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:25" hidden="1">
       <c r="B511" s="11">
         <v>45977</v>
       </c>
@@ -6578,7 +6742,7 @@
       <c r="R511" s="13"/>
       <c r="Y511" s="13"/>
     </row>
-    <row r="512" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:25" hidden="1">
       <c r="B512" s="11">
         <v>45977</v>
       </c>
@@ -6588,7 +6752,7 @@
       <c r="R512" s="13"/>
       <c r="Y512" s="13"/>
     </row>
-    <row r="513" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:25" hidden="1">
       <c r="B513" s="11">
         <v>45977</v>
       </c>
@@ -6598,7 +6762,7 @@
       <c r="R513" s="13"/>
       <c r="Y513" s="13"/>
     </row>
-    <row r="514" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:25" hidden="1">
       <c r="B514" s="11">
         <v>45977</v>
       </c>
@@ -6608,7 +6772,7 @@
       <c r="R514" s="13"/>
       <c r="Y514" s="13"/>
     </row>
-    <row r="515" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:25" hidden="1">
       <c r="B515" s="11">
         <v>45978</v>
       </c>
@@ -6618,7 +6782,7 @@
       <c r="R515" s="13"/>
       <c r="Y515" s="13"/>
     </row>
-    <row r="516" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:25" hidden="1">
       <c r="B516" s="11">
         <v>45978</v>
       </c>
@@ -6628,7 +6792,7 @@
       <c r="R516" s="13"/>
       <c r="Y516" s="13"/>
     </row>
-    <row r="517" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:25" hidden="1">
       <c r="B517" s="11">
         <v>45978</v>
       </c>
@@ -6638,7 +6802,7 @@
       <c r="R517" s="13"/>
       <c r="Y517" s="13"/>
     </row>
-    <row r="518" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:25" hidden="1">
       <c r="B518" s="11">
         <v>45978</v>
       </c>
@@ -6648,7 +6812,7 @@
       <c r="R518" s="13"/>
       <c r="Y518" s="13"/>
     </row>
-    <row r="519" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:25" hidden="1">
       <c r="B519" s="11">
         <v>45978</v>
       </c>
@@ -6658,7 +6822,7 @@
       <c r="R519" s="13"/>
       <c r="Y519" s="13"/>
     </row>
-    <row r="520" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:25" hidden="1">
       <c r="B520" s="11">
         <v>45978</v>
       </c>
@@ -6668,7 +6832,7 @@
       <c r="R520" s="13"/>
       <c r="Y520" s="13"/>
     </row>
-    <row r="521" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:25" hidden="1">
       <c r="B521" s="11">
         <v>45978</v>
       </c>
@@ -6678,7 +6842,7 @@
       <c r="R521" s="13"/>
       <c r="Y521" s="13"/>
     </row>
-    <row r="522" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:25" hidden="1">
       <c r="B522" s="11">
         <v>45979</v>
       </c>
@@ -6688,7 +6852,7 @@
       <c r="R522" s="13"/>
       <c r="Y522" s="13"/>
     </row>
-    <row r="523" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:25" hidden="1">
       <c r="B523" s="11">
         <v>45979</v>
       </c>
@@ -6698,7 +6862,7 @@
       <c r="R523" s="13"/>
       <c r="Y523" s="13"/>
     </row>
-    <row r="524" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:25" hidden="1">
       <c r="B524" s="11">
         <v>45979</v>
       </c>
@@ -6708,7 +6872,7 @@
       <c r="R524" s="13"/>
       <c r="Y524" s="13"/>
     </row>
-    <row r="525" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:25" hidden="1">
       <c r="B525" s="11">
         <v>45979</v>
       </c>
@@ -6718,7 +6882,7 @@
       <c r="R525" s="13"/>
       <c r="Y525" s="13"/>
     </row>
-    <row r="526" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:25" hidden="1">
       <c r="B526" s="11">
         <v>45979</v>
       </c>
@@ -6728,7 +6892,7 @@
       <c r="R526" s="13"/>
       <c r="Y526" s="13"/>
     </row>
-    <row r="527" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:25" hidden="1">
       <c r="B527" s="11">
         <v>45979</v>
       </c>
@@ -6738,7 +6902,7 @@
       <c r="R527" s="13"/>
       <c r="Y527" s="13"/>
     </row>
-    <row r="528" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:25" hidden="1">
       <c r="B528" s="11">
         <v>45979</v>
       </c>
@@ -6748,7 +6912,7 @@
       <c r="R528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:25" hidden="1">
       <c r="B529" s="11">
         <v>45980</v>
       </c>
@@ -6758,7 +6922,7 @@
       <c r="R529" s="13"/>
       <c r="Y529" s="13"/>
     </row>
-    <row r="530" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:25" hidden="1">
       <c r="B530" s="11">
         <v>45980</v>
       </c>
@@ -6768,7 +6932,7 @@
       <c r="R530" s="13"/>
       <c r="Y530" s="13"/>
     </row>
-    <row r="531" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:25" hidden="1">
       <c r="B531" s="11">
         <v>45980</v>
       </c>
@@ -6778,7 +6942,7 @@
       <c r="R531" s="13"/>
       <c r="Y531" s="13"/>
     </row>
-    <row r="532" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:25" hidden="1">
       <c r="B532" s="11">
         <v>45980</v>
       </c>
@@ -6788,7 +6952,7 @@
       <c r="R532" s="13"/>
       <c r="Y532" s="13"/>
     </row>
-    <row r="533" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:25" hidden="1">
       <c r="B533" s="11">
         <v>45980</v>
       </c>
@@ -6798,7 +6962,7 @@
       <c r="R533" s="13"/>
       <c r="Y533" s="13"/>
     </row>
-    <row r="534" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:25" hidden="1">
       <c r="B534" s="11">
         <v>45980</v>
       </c>
@@ -6808,7 +6972,7 @@
       <c r="R534" s="13"/>
       <c r="Y534" s="13"/>
     </row>
-    <row r="535" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:25" hidden="1">
       <c r="B535" s="11">
         <v>45980</v>
       </c>
@@ -6818,7 +6982,7 @@
       <c r="R535" s="13"/>
       <c r="Y535" s="13"/>
     </row>
-    <row r="536" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:25" hidden="1">
       <c r="B536" s="11">
         <v>45981</v>
       </c>
@@ -6828,7 +6992,7 @@
       <c r="R536" s="13"/>
       <c r="Y536" s="13"/>
     </row>
-    <row r="537" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:25" hidden="1">
       <c r="B537" s="11">
         <v>45981</v>
       </c>
@@ -6838,7 +7002,7 @@
       <c r="R537" s="13"/>
       <c r="Y537" s="13"/>
     </row>
-    <row r="538" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:25" hidden="1">
       <c r="B538" s="11">
         <v>45981</v>
       </c>
@@ -6848,7 +7012,7 @@
       <c r="R538" s="13"/>
       <c r="Y538" s="13"/>
     </row>
-    <row r="539" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:25" hidden="1">
       <c r="B539" s="11">
         <v>45981</v>
       </c>
@@ -6858,7 +7022,7 @@
       <c r="R539" s="13"/>
       <c r="Y539" s="13"/>
     </row>
-    <row r="540" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:25" hidden="1">
       <c r="B540" s="11">
         <v>45981</v>
       </c>
@@ -6868,7 +7032,7 @@
       <c r="R540" s="13"/>
       <c r="Y540" s="13"/>
     </row>
-    <row r="541" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:25" hidden="1">
       <c r="B541" s="11">
         <v>45981</v>
       </c>
@@ -6878,7 +7042,7 @@
       <c r="R541" s="13"/>
       <c r="Y541" s="13"/>
     </row>
-    <row r="542" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:25" hidden="1">
       <c r="B542" s="11">
         <v>45981</v>
       </c>
@@ -6888,7 +7052,7 @@
       <c r="R542" s="13"/>
       <c r="Y542" s="13"/>
     </row>
-    <row r="543" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:25" hidden="1">
       <c r="B543" s="11">
         <v>45982</v>
       </c>
@@ -6898,7 +7062,7 @@
       <c r="R543" s="13"/>
       <c r="Y543" s="13"/>
     </row>
-    <row r="544" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:25" hidden="1">
       <c r="B544" s="11">
         <v>45982</v>
       </c>
@@ -6908,7 +7072,7 @@
       <c r="R544" s="13"/>
       <c r="Y544" s="13"/>
     </row>
-    <row r="545" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:25" hidden="1">
       <c r="B545" s="11">
         <v>45982</v>
       </c>
@@ -6918,7 +7082,7 @@
       <c r="R545" s="13"/>
       <c r="Y545" s="13"/>
     </row>
-    <row r="546" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:25" hidden="1">
       <c r="B546" s="11">
         <v>45982</v>
       </c>
@@ -6928,7 +7092,7 @@
       <c r="R546" s="13"/>
       <c r="Y546" s="13"/>
     </row>
-    <row r="547" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:25" hidden="1">
       <c r="B547" s="11">
         <v>45982</v>
       </c>
@@ -6938,7 +7102,7 @@
       <c r="R547" s="13"/>
       <c r="Y547" s="13"/>
     </row>
-    <row r="548" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:25" hidden="1">
       <c r="B548" s="11">
         <v>45982</v>
       </c>
@@ -6948,7 +7112,7 @@
       <c r="R548" s="13"/>
       <c r="Y548" s="13"/>
     </row>
-    <row r="549" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:25" hidden="1">
       <c r="B549" s="11">
         <v>45982</v>
       </c>
@@ -6958,7 +7122,7 @@
       <c r="R549" s="13"/>
       <c r="Y549" s="13"/>
     </row>
-    <row r="550" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:25" hidden="1">
       <c r="B550" s="11">
         <v>45983</v>
       </c>
@@ -6968,7 +7132,7 @@
       <c r="R550" s="13"/>
       <c r="Y550" s="13"/>
     </row>
-    <row r="551" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:25" hidden="1">
       <c r="B551" s="11">
         <v>45983</v>
       </c>
@@ -6978,7 +7142,7 @@
       <c r="R551" s="13"/>
       <c r="Y551" s="13"/>
     </row>
-    <row r="552" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:25" hidden="1">
       <c r="B552" s="11">
         <v>45983</v>
       </c>
@@ -6988,7 +7152,7 @@
       <c r="R552" s="13"/>
       <c r="Y552" s="13"/>
     </row>
-    <row r="553" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:25" hidden="1">
       <c r="B553" s="11">
         <v>45983</v>
       </c>
@@ -6998,7 +7162,7 @@
       <c r="R553" s="13"/>
       <c r="Y553" s="13"/>
     </row>
-    <row r="554" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:25" hidden="1">
       <c r="B554" s="11">
         <v>45983</v>
       </c>
@@ -7008,7 +7172,7 @@
       <c r="R554" s="13"/>
       <c r="Y554" s="13"/>
     </row>
-    <row r="555" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:25" hidden="1">
       <c r="B555" s="11">
         <v>45983</v>
       </c>
@@ -7018,7 +7182,7 @@
       <c r="R555" s="13"/>
       <c r="Y555" s="13"/>
     </row>
-    <row r="556" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:25" hidden="1">
       <c r="B556" s="11">
         <v>45983</v>
       </c>
@@ -7028,7 +7192,7 @@
       <c r="R556" s="13"/>
       <c r="Y556" s="13"/>
     </row>
-    <row r="557" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:25" hidden="1">
       <c r="B557" s="11">
         <v>45984</v>
       </c>
@@ -7038,7 +7202,7 @@
       <c r="R557" s="13"/>
       <c r="Y557" s="13"/>
     </row>
-    <row r="558" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:25" hidden="1">
       <c r="B558" s="11">
         <v>45984</v>
       </c>
@@ -7048,7 +7212,7 @@
       <c r="R558" s="13"/>
       <c r="Y558" s="13"/>
     </row>
-    <row r="559" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:25" hidden="1">
       <c r="B559" s="11">
         <v>45984</v>
       </c>
@@ -7058,7 +7222,7 @@
       <c r="R559" s="13"/>
       <c r="Y559" s="13"/>
     </row>
-    <row r="560" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:25" hidden="1">
       <c r="B560" s="11">
         <v>45984</v>
       </c>
@@ -7068,7 +7232,7 @@
       <c r="R560" s="13"/>
       <c r="Y560" s="13"/>
     </row>
-    <row r="561" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:25" hidden="1">
       <c r="B561" s="11">
         <v>45984</v>
       </c>
@@ -7078,7 +7242,7 @@
       <c r="R561" s="13"/>
       <c r="Y561" s="13"/>
     </row>
-    <row r="562" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:25" hidden="1">
       <c r="B562" s="11">
         <v>45984</v>
       </c>
@@ -7088,7 +7252,7 @@
       <c r="R562" s="13"/>
       <c r="Y562" s="13"/>
     </row>
-    <row r="563" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:25" hidden="1">
       <c r="B563" s="11">
         <v>45984</v>
       </c>
@@ -7098,7 +7262,7 @@
       <c r="R563" s="13"/>
       <c r="Y563" s="13"/>
     </row>
-    <row r="564" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:25" hidden="1">
       <c r="B564" s="11">
         <v>45985</v>
       </c>
@@ -7108,7 +7272,7 @@
       <c r="R564" s="13"/>
       <c r="Y564" s="13"/>
     </row>
-    <row r="565" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:25" hidden="1">
       <c r="B565" s="11">
         <v>45985</v>
       </c>
@@ -7118,7 +7282,7 @@
       <c r="R565" s="13"/>
       <c r="Y565" s="13"/>
     </row>
-    <row r="566" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:25" hidden="1">
       <c r="B566" s="11">
         <v>45985</v>
       </c>
@@ -7128,7 +7292,7 @@
       <c r="R566" s="13"/>
       <c r="Y566" s="13"/>
     </row>
-    <row r="567" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:25" hidden="1">
       <c r="B567" s="11">
         <v>45985</v>
       </c>
@@ -7138,7 +7302,7 @@
       <c r="R567" s="13"/>
       <c r="Y567" s="13"/>
     </row>
-    <row r="568" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:25" hidden="1">
       <c r="B568" s="11">
         <v>45985</v>
       </c>
@@ -7148,7 +7312,7 @@
       <c r="R568" s="13"/>
       <c r="Y568" s="13"/>
     </row>
-    <row r="569" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:25" hidden="1">
       <c r="B569" s="11">
         <v>45985</v>
       </c>
@@ -7158,7 +7322,7 @@
       <c r="R569" s="13"/>
       <c r="Y569" s="13"/>
     </row>
-    <row r="570" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:25" hidden="1">
       <c r="B570" s="11">
         <v>45985</v>
       </c>
@@ -7168,7 +7332,7 @@
       <c r="R570" s="13"/>
       <c r="Y570" s="13"/>
     </row>
-    <row r="571" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:25" hidden="1">
       <c r="B571" s="11">
         <v>45986</v>
       </c>
@@ -7178,7 +7342,7 @@
       <c r="R571" s="13"/>
       <c r="Y571" s="13"/>
     </row>
-    <row r="572" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:25" hidden="1">
       <c r="B572" s="11">
         <v>45986</v>
       </c>
@@ -7188,7 +7352,7 @@
       <c r="R572" s="13"/>
       <c r="Y572" s="13"/>
     </row>
-    <row r="573" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:25" hidden="1">
       <c r="B573" s="11">
         <v>45986</v>
       </c>
@@ -7198,7 +7362,7 @@
       <c r="R573" s="13"/>
       <c r="Y573" s="13"/>
     </row>
-    <row r="574" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:25" hidden="1">
       <c r="B574" s="11">
         <v>45986</v>
       </c>
@@ -7208,7 +7372,7 @@
       <c r="R574" s="13"/>
       <c r="Y574" s="13"/>
     </row>
-    <row r="575" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:25" hidden="1">
       <c r="B575" s="11">
         <v>45986</v>
       </c>
@@ -7218,7 +7382,7 @@
       <c r="R575" s="13"/>
       <c r="Y575" s="13"/>
     </row>
-    <row r="576" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:25" hidden="1">
       <c r="B576" s="11">
         <v>45986</v>
       </c>
@@ -7228,7 +7392,7 @@
       <c r="R576" s="13"/>
       <c r="Y576" s="13"/>
     </row>
-    <row r="577" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:25" hidden="1">
       <c r="B577" s="11">
         <v>45986</v>
       </c>
@@ -7238,7 +7402,7 @@
       <c r="R577" s="13"/>
       <c r="Y577" s="13"/>
     </row>
-    <row r="578" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:25" hidden="1">
       <c r="B578" s="11">
         <v>45987</v>
       </c>
@@ -7248,7 +7412,7 @@
       <c r="R578" s="13"/>
       <c r="Y578" s="13"/>
     </row>
-    <row r="579" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:25" hidden="1">
       <c r="B579" s="11">
         <v>45987</v>
       </c>
@@ -7258,7 +7422,7 @@
       <c r="R579" s="13"/>
       <c r="Y579" s="13"/>
     </row>
-    <row r="580" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:25" hidden="1">
       <c r="B580" s="11">
         <v>45987</v>
       </c>
@@ -7268,7 +7432,7 @@
       <c r="R580" s="13"/>
       <c r="Y580" s="13"/>
     </row>
-    <row r="581" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:25" hidden="1">
       <c r="B581" s="11">
         <v>45987</v>
       </c>
@@ -7278,7 +7442,7 @@
       <c r="R581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:25" hidden="1">
       <c r="B582" s="11">
         <v>45987</v>
       </c>
@@ -7288,7 +7452,7 @@
       <c r="R582" s="13"/>
       <c r="Y582" s="13"/>
     </row>
-    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:25" hidden="1">
       <c r="B583" s="11">
         <v>45987</v>
       </c>
@@ -7298,7 +7462,7 @@
       <c r="R583" s="13"/>
       <c r="Y583" s="13"/>
     </row>
-    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:25" hidden="1">
       <c r="B584" s="11">
         <v>45987</v>
       </c>
@@ -7308,7 +7472,7 @@
       <c r="R584" s="13"/>
       <c r="Y584" s="13"/>
     </row>
-    <row r="585" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:25" hidden="1">
       <c r="B585" s="11">
         <v>45988</v>
       </c>
@@ -7318,7 +7482,7 @@
       <c r="R585" s="13"/>
       <c r="Y585" s="13"/>
     </row>
-    <row r="586" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:25" hidden="1">
       <c r="B586" s="11">
         <v>45988</v>
       </c>
@@ -7328,7 +7492,7 @@
       <c r="R586" s="13"/>
       <c r="Y586" s="13"/>
     </row>
-    <row r="587" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:25" hidden="1">
       <c r="B587" s="11">
         <v>45988</v>
       </c>
@@ -7338,7 +7502,7 @@
       <c r="R587" s="13"/>
       <c r="Y587" s="13"/>
     </row>
-    <row r="588" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:25" hidden="1">
       <c r="B588" s="11">
         <v>45988</v>
       </c>
@@ -7348,7 +7512,7 @@
       <c r="R588" s="13"/>
       <c r="Y588" s="13"/>
     </row>
-    <row r="589" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:25" hidden="1">
       <c r="B589" s="11">
         <v>45988</v>
       </c>
@@ -7358,7 +7522,7 @@
       <c r="R589" s="13"/>
       <c r="Y589" s="13"/>
     </row>
-    <row r="590" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:25" hidden="1">
       <c r="B590" s="11">
         <v>45988</v>
       </c>
@@ -7368,7 +7532,7 @@
       <c r="R590" s="13"/>
       <c r="Y590" s="13"/>
     </row>
-    <row r="591" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:25" hidden="1">
       <c r="B591" s="11">
         <v>45988</v>
       </c>
@@ -7378,7 +7542,7 @@
       <c r="R591" s="13"/>
       <c r="Y591" s="13"/>
     </row>
-    <row r="592" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:25" hidden="1">
       <c r="B592" s="11">
         <v>45989</v>
       </c>
@@ -7388,7 +7552,7 @@
       <c r="R592" s="13"/>
       <c r="Y592" s="13"/>
     </row>
-    <row r="593" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:25" hidden="1">
       <c r="B593" s="11">
         <v>45989</v>
       </c>
@@ -7398,7 +7562,7 @@
       <c r="R593" s="13"/>
       <c r="Y593" s="13"/>
     </row>
-    <row r="594" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:25" hidden="1">
       <c r="B594" s="11">
         <v>45989</v>
       </c>
@@ -7408,7 +7572,7 @@
       <c r="R594" s="13"/>
       <c r="Y594" s="13"/>
     </row>
-    <row r="595" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:25" hidden="1">
       <c r="B595" s="11">
         <v>45989</v>
       </c>
@@ -7418,7 +7582,7 @@
       <c r="R595" s="13"/>
       <c r="Y595" s="13"/>
     </row>
-    <row r="596" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:25" hidden="1">
       <c r="B596" s="11">
         <v>45989</v>
       </c>
@@ -7428,7 +7592,7 @@
       <c r="R596" s="13"/>
       <c r="Y596" s="13"/>
     </row>
-    <row r="597" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:25" hidden="1">
       <c r="B597" s="11">
         <v>45989</v>
       </c>
@@ -7438,7 +7602,7 @@
       <c r="R597" s="13"/>
       <c r="Y597" s="13"/>
     </row>
-    <row r="598" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:25" hidden="1">
       <c r="B598" s="11">
         <v>45989</v>
       </c>
@@ -7448,7 +7612,7 @@
       <c r="R598" s="13"/>
       <c r="Y598" s="13"/>
     </row>
-    <row r="599" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:25" hidden="1">
       <c r="B599" s="11">
         <v>45990</v>
       </c>
@@ -7458,7 +7622,7 @@
       <c r="R599" s="13"/>
       <c r="Y599" s="13"/>
     </row>
-    <row r="600" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:25" hidden="1">
       <c r="B600" s="11">
         <v>45990</v>
       </c>
@@ -7468,7 +7632,7 @@
       <c r="R600" s="13"/>
       <c r="Y600" s="13"/>
     </row>
-    <row r="601" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:25" hidden="1">
       <c r="B601" s="11">
         <v>45990</v>
       </c>
@@ -7478,7 +7642,7 @@
       <c r="R601" s="13"/>
       <c r="Y601" s="13"/>
     </row>
-    <row r="602" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:25" hidden="1">
       <c r="B602" s="11">
         <v>45990</v>
       </c>
@@ -7488,7 +7652,7 @@
       <c r="R602" s="13"/>
       <c r="Y602" s="13"/>
     </row>
-    <row r="603" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:25" hidden="1">
       <c r="B603" s="11">
         <v>45990</v>
       </c>
@@ -7498,7 +7662,7 @@
       <c r="R603" s="13"/>
       <c r="Y603" s="13"/>
     </row>
-    <row r="604" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:25" hidden="1">
       <c r="B604" s="11">
         <v>45990</v>
       </c>
@@ -7508,7 +7672,7 @@
       <c r="R604" s="13"/>
       <c r="Y604" s="13"/>
     </row>
-    <row r="605" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:25" hidden="1">
       <c r="B605" s="11">
         <v>45990</v>
       </c>
@@ -7518,7 +7682,7 @@
       <c r="R605" s="13"/>
       <c r="Y605" s="13"/>
     </row>
-    <row r="606" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:25" hidden="1">
       <c r="B606" s="11">
         <v>45991</v>
       </c>
@@ -7528,7 +7692,7 @@
       <c r="R606" s="13"/>
       <c r="Y606" s="13"/>
     </row>
-    <row r="607" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:25" hidden="1">
       <c r="B607" s="11">
         <v>45991</v>
       </c>
@@ -7538,7 +7702,7 @@
       <c r="R607" s="13"/>
       <c r="Y607" s="13"/>
     </row>
-    <row r="608" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:25" hidden="1">
       <c r="B608" s="11">
         <v>45991</v>
       </c>
@@ -7548,7 +7712,7 @@
       <c r="R608" s="13"/>
       <c r="Y608" s="13"/>
     </row>
-    <row r="609" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:25" hidden="1">
       <c r="B609" s="11">
         <v>45991</v>
       </c>
@@ -7558,7 +7722,7 @@
       <c r="R609" s="13"/>
       <c r="Y609" s="13"/>
     </row>
-    <row r="610" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:25" hidden="1">
       <c r="B610" s="11">
         <v>45991</v>
       </c>
@@ -7568,7 +7732,7 @@
       <c r="R610" s="13"/>
       <c r="Y610" s="13"/>
     </row>
-    <row r="611" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:25" hidden="1">
       <c r="B611" s="11">
         <v>45991</v>
       </c>
@@ -7578,7 +7742,7 @@
       <c r="R611" s="13"/>
       <c r="Y611" s="13"/>
     </row>
-    <row r="612" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:25" hidden="1">
       <c r="B612" s="11">
         <v>45991</v>
       </c>
@@ -7588,7 +7752,7 @@
       <c r="R612" s="13"/>
       <c r="Y612" s="13"/>
     </row>
-    <row r="613" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:25" hidden="1">
       <c r="B613" s="11">
         <v>45992</v>
       </c>
@@ -7598,7 +7762,7 @@
       <c r="R613" s="13"/>
       <c r="Y613" s="13"/>
     </row>
-    <row r="614" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:25" hidden="1">
       <c r="B614" s="11">
         <v>45992</v>
       </c>
@@ -7608,7 +7772,7 @@
       <c r="R614" s="13"/>
       <c r="Y614" s="13"/>
     </row>
-    <row r="615" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:25" hidden="1">
       <c r="B615" s="11">
         <v>45992</v>
       </c>
@@ -7618,7 +7782,7 @@
       <c r="R615" s="13"/>
       <c r="Y615" s="13"/>
     </row>
-    <row r="616" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:25" hidden="1">
       <c r="B616" s="11">
         <v>45992</v>
       </c>
@@ -7628,7 +7792,7 @@
       <c r="R616" s="13"/>
       <c r="Y616" s="13"/>
     </row>
-    <row r="617" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:25" hidden="1">
       <c r="B617" s="11">
         <v>45992</v>
       </c>
@@ -7638,7 +7802,7 @@
       <c r="R617" s="13"/>
       <c r="Y617" s="13"/>
     </row>
-    <row r="618" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:25" hidden="1">
       <c r="B618" s="11">
         <v>45992</v>
       </c>
@@ -7648,7 +7812,7 @@
       <c r="R618" s="13"/>
       <c r="Y618" s="13"/>
     </row>
-    <row r="619" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:25" hidden="1">
       <c r="B619" s="11">
         <v>45992</v>
       </c>
@@ -7658,7 +7822,7 @@
       <c r="R619" s="13"/>
       <c r="Y619" s="13"/>
     </row>
-    <row r="620" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:25" hidden="1">
       <c r="B620" s="11">
         <v>45993</v>
       </c>
@@ -7668,7 +7832,7 @@
       <c r="R620" s="13"/>
       <c r="Y620" s="13"/>
     </row>
-    <row r="621" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:25" hidden="1">
       <c r="B621" s="11">
         <v>45993</v>
       </c>
@@ -7678,7 +7842,7 @@
       <c r="R621" s="13"/>
       <c r="Y621" s="13"/>
     </row>
-    <row r="622" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:25" hidden="1">
       <c r="B622" s="11">
         <v>45993</v>
       </c>
@@ -7688,7 +7852,7 @@
       <c r="R622" s="13"/>
       <c r="Y622" s="13"/>
     </row>
-    <row r="623" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:25" hidden="1">
       <c r="B623" s="11">
         <v>45993</v>
       </c>
@@ -7698,7 +7862,7 @@
       <c r="R623" s="13"/>
       <c r="Y623" s="13"/>
     </row>
-    <row r="624" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:25" hidden="1">
       <c r="B624" s="11">
         <v>45993</v>
       </c>
@@ -7708,7 +7872,7 @@
       <c r="R624" s="13"/>
       <c r="Y624" s="13"/>
     </row>
-    <row r="625" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:25" hidden="1">
       <c r="B625" s="11">
         <v>45993</v>
       </c>
@@ -7718,7 +7882,7 @@
       <c r="R625" s="13"/>
       <c r="Y625" s="13"/>
     </row>
-    <row r="626" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:25" hidden="1">
       <c r="B626" s="11">
         <v>45993</v>
       </c>
@@ -7728,7 +7892,7 @@
       <c r="R626" s="13"/>
       <c r="Y626" s="13"/>
     </row>
-    <row r="627" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:25" hidden="1">
       <c r="B627" s="11">
         <v>45994</v>
       </c>
@@ -7738,7 +7902,7 @@
       <c r="R627" s="13"/>
       <c r="Y627" s="13"/>
     </row>
-    <row r="628" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:25" hidden="1">
       <c r="B628" s="11">
         <v>45994</v>
       </c>
@@ -7748,7 +7912,7 @@
       <c r="R628" s="13"/>
       <c r="Y628" s="13"/>
     </row>
-    <row r="629" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:25" hidden="1">
       <c r="B629" s="11">
         <v>45994</v>
       </c>
@@ -7758,7 +7922,7 @@
       <c r="R629" s="13"/>
       <c r="Y629" s="13"/>
     </row>
-    <row r="630" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:25" hidden="1">
       <c r="B630" s="11">
         <v>45994</v>
       </c>
@@ -7768,7 +7932,7 @@
       <c r="R630" s="13"/>
       <c r="Y630" s="13"/>
     </row>
-    <row r="631" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:25" hidden="1">
       <c r="B631" s="11">
         <v>45994</v>
       </c>
@@ -7778,7 +7942,7 @@
       <c r="R631" s="13"/>
       <c r="Y631" s="13"/>
     </row>
-    <row r="632" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:25" hidden="1">
       <c r="B632" s="11">
         <v>45994</v>
       </c>
@@ -7788,7 +7952,7 @@
       <c r="R632" s="13"/>
       <c r="Y632" s="13"/>
     </row>
-    <row r="633" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:25" hidden="1">
       <c r="B633" s="11">
         <v>45994</v>
       </c>
@@ -7798,7 +7962,7 @@
       <c r="R633" s="13"/>
       <c r="Y633" s="13"/>
     </row>
-    <row r="634" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:25" hidden="1">
       <c r="B634" s="11">
         <v>45995</v>
       </c>
@@ -7808,7 +7972,7 @@
       <c r="R634" s="13"/>
       <c r="Y634" s="13"/>
     </row>
-    <row r="635" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:25" hidden="1">
       <c r="B635" s="11">
         <v>45995</v>
       </c>
@@ -7818,7 +7982,7 @@
       <c r="R635" s="13"/>
       <c r="Y635" s="13"/>
     </row>
-    <row r="636" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:25" hidden="1">
       <c r="B636" s="11">
         <v>45995</v>
       </c>
@@ -7828,7 +7992,7 @@
       <c r="R636" s="13"/>
       <c r="Y636" s="13"/>
     </row>
-    <row r="637" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:25" hidden="1">
       <c r="B637" s="11">
         <v>45995</v>
       </c>
@@ -7838,7 +8002,7 @@
       <c r="R637" s="13"/>
       <c r="Y637" s="13"/>
     </row>
-    <row r="638" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:25" hidden="1">
       <c r="B638" s="11">
         <v>45995</v>
       </c>
@@ -7848,7 +8012,7 @@
       <c r="R638" s="13"/>
       <c r="Y638" s="13"/>
     </row>
-    <row r="639" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:25" hidden="1">
       <c r="B639" s="11">
         <v>45995</v>
       </c>
@@ -7858,7 +8022,7 @@
       <c r="R639" s="13"/>
       <c r="Y639" s="13"/>
     </row>
-    <row r="640" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:25" hidden="1">
       <c r="B640" s="11">
         <v>45995</v>
       </c>
@@ -7868,7 +8032,7 @@
       <c r="R640" s="13"/>
       <c r="Y640" s="13"/>
     </row>
-    <row r="641" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:25" hidden="1">
       <c r="B641" s="11">
         <v>45996</v>
       </c>
@@ -7878,7 +8042,7 @@
       <c r="R641" s="13"/>
       <c r="Y641" s="13"/>
     </row>
-    <row r="642" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:25" hidden="1">
       <c r="B642" s="11">
         <v>45996</v>
       </c>
@@ -7888,7 +8052,7 @@
       <c r="R642" s="13"/>
       <c r="Y642" s="13"/>
     </row>
-    <row r="643" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:25" hidden="1">
       <c r="B643" s="11">
         <v>45996</v>
       </c>
@@ -7898,7 +8062,7 @@
       <c r="R643" s="13"/>
       <c r="Y643" s="13"/>
     </row>
-    <row r="644" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:25" hidden="1">
       <c r="B644" s="11">
         <v>45996</v>
       </c>
@@ -7908,7 +8072,7 @@
       <c r="R644" s="13"/>
       <c r="Y644" s="13"/>
     </row>
-    <row r="645" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:25" hidden="1">
       <c r="B645" s="11">
         <v>45996</v>
       </c>
@@ -7918,7 +8082,7 @@
       <c r="R645" s="13"/>
       <c r="Y645" s="13"/>
     </row>
-    <row r="646" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:25" hidden="1">
       <c r="B646" s="11">
         <v>45996</v>
       </c>
@@ -7928,7 +8092,7 @@
       <c r="R646" s="13"/>
       <c r="Y646" s="13"/>
     </row>
-    <row r="647" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:25" hidden="1">
       <c r="B647" s="11">
         <v>45996</v>
       </c>
@@ -7938,7 +8102,7 @@
       <c r="R647" s="13"/>
       <c r="Y647" s="13"/>
     </row>
-    <row r="648" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:25" hidden="1">
       <c r="B648" s="11">
         <v>45997</v>
       </c>
@@ -7948,7 +8112,7 @@
       <c r="R648" s="13"/>
       <c r="Y648" s="13"/>
     </row>
-    <row r="649" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:25" hidden="1">
       <c r="B649" s="11">
         <v>45997</v>
       </c>
@@ -7958,7 +8122,7 @@
       <c r="R649" s="13"/>
       <c r="Y649" s="13"/>
     </row>
-    <row r="650" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:25" hidden="1">
       <c r="B650" s="11">
         <v>45997</v>
       </c>
@@ -7968,7 +8132,7 @@
       <c r="R650" s="13"/>
       <c r="Y650" s="13"/>
     </row>
-    <row r="651" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:25" hidden="1">
       <c r="B651" s="11">
         <v>45997</v>
       </c>
@@ -7978,7 +8142,7 @@
       <c r="R651" s="13"/>
       <c r="Y651" s="13"/>
     </row>
-    <row r="652" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:25" hidden="1">
       <c r="B652" s="11">
         <v>45997</v>
       </c>
@@ -7988,7 +8152,7 @@
       <c r="R652" s="13"/>
       <c r="Y652" s="13"/>
     </row>
-    <row r="653" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:25" hidden="1">
       <c r="B653" s="11">
         <v>45997</v>
       </c>
@@ -7998,7 +8162,7 @@
       <c r="R653" s="13"/>
       <c r="Y653" s="13"/>
     </row>
-    <row r="654" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:25" hidden="1">
       <c r="B654" s="11">
         <v>45997</v>
       </c>
@@ -8008,7 +8172,7 @@
       <c r="R654" s="13"/>
       <c r="Y654" s="13"/>
     </row>
-    <row r="655" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:25" hidden="1">
       <c r="B655" s="11">
         <v>45998</v>
       </c>
@@ -8018,7 +8182,7 @@
       <c r="R655" s="13"/>
       <c r="Y655" s="13"/>
     </row>
-    <row r="656" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:25" hidden="1">
       <c r="B656" s="11">
         <v>45998</v>
       </c>
@@ -8028,7 +8192,7 @@
       <c r="R656" s="13"/>
       <c r="Y656" s="13"/>
     </row>
-    <row r="657" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:25" hidden="1">
       <c r="B657" s="11">
         <v>45998</v>
       </c>
@@ -8038,7 +8202,7 @@
       <c r="R657" s="13"/>
       <c r="Y657" s="13"/>
     </row>
-    <row r="658" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:25" hidden="1">
       <c r="B658" s="11">
         <v>45998</v>
       </c>
@@ -8048,7 +8212,7 @@
       <c r="R658" s="13"/>
       <c r="Y658" s="13"/>
     </row>
-    <row r="659" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:25" hidden="1">
       <c r="B659" s="11">
         <v>45998</v>
       </c>
@@ -8058,7 +8222,7 @@
       <c r="R659" s="13"/>
       <c r="Y659" s="13"/>
     </row>
-    <row r="660" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:25" hidden="1">
       <c r="B660" s="11">
         <v>45998</v>
       </c>
@@ -8068,7 +8232,7 @@
       <c r="R660" s="13"/>
       <c r="Y660" s="13"/>
     </row>
-    <row r="661" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:25" hidden="1">
       <c r="B661" s="11">
         <v>45998</v>
       </c>
@@ -8078,7 +8242,7 @@
       <c r="R661" s="13"/>
       <c r="Y661" s="13"/>
     </row>
-    <row r="662" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:25" hidden="1">
       <c r="B662" s="11">
         <v>45999</v>
       </c>
@@ -8088,7 +8252,7 @@
       <c r="R662" s="13"/>
       <c r="Y662" s="13"/>
     </row>
-    <row r="663" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:25" hidden="1">
       <c r="B663" s="11">
         <v>45999</v>
       </c>
@@ -8098,7 +8262,7 @@
       <c r="R663" s="13"/>
       <c r="Y663" s="13"/>
     </row>
-    <row r="664" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:25" hidden="1">
       <c r="B664" s="11">
         <v>45999</v>
       </c>
@@ -8108,7 +8272,7 @@
       <c r="R664" s="13"/>
       <c r="Y664" s="13"/>
     </row>
-    <row r="665" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:25" hidden="1">
       <c r="B665" s="11">
         <v>45999</v>
       </c>
@@ -8118,7 +8282,7 @@
       <c r="R665" s="13"/>
       <c r="Y665" s="13"/>
     </row>
-    <row r="666" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:25" hidden="1">
       <c r="B666" s="11">
         <v>45999</v>
       </c>
@@ -8128,7 +8292,7 @@
       <c r="R666" s="13"/>
       <c r="Y666" s="13"/>
     </row>
-    <row r="667" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:25" hidden="1">
       <c r="B667" s="11">
         <v>45999</v>
       </c>
@@ -8138,7 +8302,7 @@
       <c r="R667" s="13"/>
       <c r="Y667" s="13"/>
     </row>
-    <row r="668" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:25" hidden="1">
       <c r="B668" s="11">
         <v>45999</v>
       </c>
@@ -8148,7 +8312,7 @@
       <c r="R668" s="13"/>
       <c r="Y668" s="13"/>
     </row>
-    <row r="669" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:25" hidden="1">
       <c r="B669" s="11">
         <v>46000</v>
       </c>
@@ -8158,7 +8322,7 @@
       <c r="R669" s="13"/>
       <c r="Y669" s="13"/>
     </row>
-    <row r="670" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:25" hidden="1">
       <c r="B670" s="11">
         <v>46000</v>
       </c>
@@ -8168,7 +8332,7 @@
       <c r="R670" s="13"/>
       <c r="Y670" s="13"/>
     </row>
-    <row r="671" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:25" hidden="1">
       <c r="B671" s="11">
         <v>46000</v>
       </c>
@@ -8178,7 +8342,7 @@
       <c r="R671" s="13"/>
       <c r="Y671" s="13"/>
     </row>
-    <row r="672" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:25" hidden="1">
       <c r="B672" s="11">
         <v>46000</v>
       </c>
@@ -8188,7 +8352,7 @@
       <c r="R672" s="13"/>
       <c r="Y672" s="13"/>
     </row>
-    <row r="673" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:25" hidden="1">
       <c r="B673" s="11">
         <v>46000</v>
       </c>
@@ -8198,7 +8362,7 @@
       <c r="R673" s="13"/>
       <c r="Y673" s="13"/>
     </row>
-    <row r="674" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:25" hidden="1">
       <c r="B674" s="11">
         <v>46000</v>
       </c>
@@ -8208,7 +8372,7 @@
       <c r="R674" s="13"/>
       <c r="Y674" s="13"/>
     </row>
-    <row r="675" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:25" hidden="1">
       <c r="B675" s="11">
         <v>46000</v>
       </c>
@@ -8218,7 +8382,7 @@
       <c r="R675" s="13"/>
       <c r="Y675" s="13"/>
     </row>
-    <row r="676" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:25" hidden="1">
       <c r="B676" s="11">
         <v>46001</v>
       </c>
@@ -8228,7 +8392,7 @@
       <c r="R676" s="13"/>
       <c r="Y676" s="13"/>
     </row>
-    <row r="677" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:25" hidden="1">
       <c r="B677" s="11">
         <v>46001</v>
       </c>
@@ -8238,7 +8402,7 @@
       <c r="R677" s="13"/>
       <c r="Y677" s="13"/>
     </row>
-    <row r="678" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:25" hidden="1">
       <c r="B678" s="11">
         <v>46001</v>
       </c>
@@ -8248,7 +8412,7 @@
       <c r="R678" s="13"/>
       <c r="Y678" s="13"/>
     </row>
-    <row r="679" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:25" hidden="1">
       <c r="B679" s="11">
         <v>46001</v>
       </c>
@@ -8258,7 +8422,7 @@
       <c r="R679" s="13"/>
       <c r="Y679" s="13"/>
     </row>
-    <row r="680" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:25" hidden="1">
       <c r="B680" s="11">
         <v>46001</v>
       </c>
@@ -8268,7 +8432,7 @@
       <c r="R680" s="13"/>
       <c r="Y680" s="13"/>
     </row>
-    <row r="681" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:25" hidden="1">
       <c r="B681" s="11">
         <v>46001</v>
       </c>
@@ -8278,7 +8442,7 @@
       <c r="R681" s="13"/>
       <c r="Y681" s="13"/>
     </row>
-    <row r="682" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:25" hidden="1">
       <c r="B682" s="11">
         <v>46001</v>
       </c>
@@ -8288,7 +8452,7 @@
       <c r="R682" s="13"/>
       <c r="Y682" s="13"/>
     </row>
-    <row r="683" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:25" hidden="1">
       <c r="B683" s="11">
         <v>46002</v>
       </c>
@@ -8298,7 +8462,7 @@
       <c r="R683" s="13"/>
       <c r="Y683" s="13"/>
     </row>
-    <row r="684" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:25" hidden="1">
       <c r="B684" s="11">
         <v>46002</v>
       </c>
@@ -8308,7 +8472,7 @@
       <c r="R684" s="13"/>
       <c r="Y684" s="13"/>
     </row>
-    <row r="685" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:25" hidden="1">
       <c r="B685" s="11">
         <v>46002</v>
       </c>
@@ -8318,7 +8482,7 @@
       <c r="R685" s="13"/>
       <c r="Y685" s="13"/>
     </row>
-    <row r="686" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:25" hidden="1">
       <c r="B686" s="11">
         <v>46002</v>
       </c>
@@ -8328,7 +8492,7 @@
       <c r="R686" s="13"/>
       <c r="Y686" s="13"/>
     </row>
-    <row r="687" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:25" hidden="1">
       <c r="B687" s="11">
         <v>46002</v>
       </c>
@@ -8338,7 +8502,7 @@
       <c r="R687" s="13"/>
       <c r="Y687" s="13"/>
     </row>
-    <row r="688" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:25" hidden="1">
       <c r="B688" s="11">
         <v>46002</v>
       </c>
@@ -8348,7 +8512,7 @@
       <c r="R688" s="13"/>
       <c r="Y688" s="13"/>
     </row>
-    <row r="689" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:25" hidden="1">
       <c r="B689" s="11">
         <v>46002</v>
       </c>
@@ -8358,7 +8522,7 @@
       <c r="R689" s="13"/>
       <c r="Y689" s="13"/>
     </row>
-    <row r="690" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:25" hidden="1">
       <c r="B690" s="11">
         <v>46003</v>
       </c>
@@ -8368,7 +8532,7 @@
       <c r="R690" s="13"/>
       <c r="Y690" s="13"/>
     </row>
-    <row r="691" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:25" hidden="1">
       <c r="B691" s="11">
         <v>46003</v>
       </c>
@@ -8378,7 +8542,7 @@
       <c r="R691" s="13"/>
       <c r="Y691" s="13"/>
     </row>
-    <row r="692" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:25" hidden="1">
       <c r="B692" s="11">
         <v>46003</v>
       </c>
@@ -8388,7 +8552,7 @@
       <c r="R692" s="13"/>
       <c r="Y692" s="13"/>
     </row>
-    <row r="693" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:25" hidden="1">
       <c r="B693" s="11">
         <v>46003</v>
       </c>
@@ -8398,7 +8562,7 @@
       <c r="R693" s="13"/>
       <c r="Y693" s="13"/>
     </row>
-    <row r="694" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:25" hidden="1">
       <c r="B694" s="11">
         <v>46003</v>
       </c>
@@ -8408,7 +8572,7 @@
       <c r="R694" s="13"/>
       <c r="Y694" s="13"/>
     </row>
-    <row r="695" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:25" hidden="1">
       <c r="B695" s="11">
         <v>46003</v>
       </c>
@@ -8418,7 +8582,7 @@
       <c r="R695" s="13"/>
       <c r="Y695" s="13"/>
     </row>
-    <row r="696" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:25" hidden="1">
       <c r="B696" s="11">
         <v>46003</v>
       </c>
@@ -8428,7 +8592,7 @@
       <c r="R696" s="13"/>
       <c r="Y696" s="13"/>
     </row>
-    <row r="697" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:25" hidden="1">
       <c r="B697" s="11">
         <v>46004</v>
       </c>
@@ -8438,7 +8602,7 @@
       <c r="R697" s="13"/>
       <c r="Y697" s="13"/>
     </row>
-    <row r="698" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:25" hidden="1">
       <c r="B698" s="11">
         <v>46004</v>
       </c>
@@ -8448,7 +8612,7 @@
       <c r="R698" s="13"/>
       <c r="Y698" s="13"/>
     </row>
-    <row r="699" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:25" hidden="1">
       <c r="B699" s="11">
         <v>46004</v>
       </c>
@@ -8458,7 +8622,7 @@
       <c r="R699" s="13"/>
       <c r="Y699" s="13"/>
     </row>
-    <row r="700" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:25" hidden="1">
       <c r="B700" s="11">
         <v>46004</v>
       </c>
@@ -8468,7 +8632,7 @@
       <c r="R700" s="13"/>
       <c r="Y700" s="13"/>
     </row>
-    <row r="701" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:25" hidden="1">
       <c r="B701" s="11">
         <v>46004</v>
       </c>
@@ -8478,7 +8642,7 @@
       <c r="R701" s="13"/>
       <c r="Y701" s="13"/>
     </row>
-    <row r="702" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:25" hidden="1">
       <c r="B702" s="11">
         <v>46004</v>
       </c>
@@ -8488,7 +8652,7 @@
       <c r="R702" s="13"/>
       <c r="Y702" s="13"/>
     </row>
-    <row r="703" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:25" hidden="1">
       <c r="B703" s="11">
         <v>46004</v>
       </c>
@@ -8498,7 +8662,7 @@
       <c r="R703" s="13"/>
       <c r="Y703" s="13"/>
     </row>
-    <row r="704" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:25" hidden="1">
       <c r="B704" s="11">
         <v>46005</v>
       </c>
@@ -8508,7 +8672,7 @@
       <c r="R704" s="13"/>
       <c r="Y704" s="13"/>
     </row>
-    <row r="705" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:25" hidden="1">
       <c r="B705" s="11">
         <v>46005</v>
       </c>
@@ -8518,7 +8682,7 @@
       <c r="R705" s="13"/>
       <c r="Y705" s="13"/>
     </row>
-    <row r="706" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:25" hidden="1">
       <c r="B706" s="11">
         <v>46005</v>
       </c>
@@ -8528,7 +8692,7 @@
       <c r="R706" s="13"/>
       <c r="Y706" s="13"/>
     </row>
-    <row r="707" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:25" hidden="1">
       <c r="B707" s="11">
         <v>46005</v>
       </c>
@@ -8538,7 +8702,7 @@
       <c r="R707" s="13"/>
       <c r="Y707" s="13"/>
     </row>
-    <row r="708" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:25" hidden="1">
       <c r="B708" s="11">
         <v>46005</v>
       </c>
@@ -8548,7 +8712,7 @@
       <c r="R708" s="13"/>
       <c r="Y708" s="13"/>
     </row>
-    <row r="709" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:25" hidden="1">
       <c r="B709" s="11">
         <v>46005</v>
       </c>
@@ -8558,7 +8722,7 @@
       <c r="R709" s="13"/>
       <c r="Y709" s="13"/>
     </row>
-    <row r="710" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:25" hidden="1">
       <c r="B710" s="11">
         <v>46005</v>
       </c>
@@ -8568,7 +8732,7 @@
       <c r="R710" s="13"/>
       <c r="Y710" s="13"/>
     </row>
-    <row r="711" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:25" hidden="1">
       <c r="B711" s="11">
         <v>46006</v>
       </c>
@@ -8578,7 +8742,7 @@
       <c r="R711" s="13"/>
       <c r="Y711" s="13"/>
     </row>
-    <row r="712" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:25" hidden="1">
       <c r="B712" s="11">
         <v>46006</v>
       </c>
@@ -8588,7 +8752,7 @@
       <c r="R712" s="13"/>
       <c r="Y712" s="13"/>
     </row>
-    <row r="713" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:25" hidden="1">
       <c r="B713" s="11">
         <v>46006</v>
       </c>
@@ -8598,7 +8762,7 @@
       <c r="R713" s="13"/>
       <c r="Y713" s="13"/>
     </row>
-    <row r="714" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:25" hidden="1">
       <c r="B714" s="11">
         <v>46006</v>
       </c>
@@ -8608,7 +8772,7 @@
       <c r="R714" s="13"/>
       <c r="Y714" s="13"/>
     </row>
-    <row r="715" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:25" hidden="1">
       <c r="B715" s="11">
         <v>46006</v>
       </c>
@@ -8618,7 +8782,7 @@
       <c r="R715" s="13"/>
       <c r="Y715" s="13"/>
     </row>
-    <row r="716" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:25" hidden="1">
       <c r="B716" s="11">
         <v>46006</v>
       </c>
@@ -8628,7 +8792,7 @@
       <c r="R716" s="13"/>
       <c r="Y716" s="13"/>
     </row>
-    <row r="717" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:25" hidden="1">
       <c r="B717" s="11">
         <v>46006</v>
       </c>
@@ -8638,7 +8802,7 @@
       <c r="R717" s="13"/>
       <c r="Y717" s="13"/>
     </row>
-    <row r="718" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:25" hidden="1">
       <c r="B718" s="11">
         <v>46007</v>
       </c>
@@ -8648,7 +8812,7 @@
       <c r="R718" s="13"/>
       <c r="Y718" s="13"/>
     </row>
-    <row r="719" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:25" hidden="1">
       <c r="B719" s="11">
         <v>46007</v>
       </c>
@@ -8658,7 +8822,7 @@
       <c r="R719" s="13"/>
       <c r="Y719" s="13"/>
     </row>
-    <row r="720" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:25" hidden="1">
       <c r="B720" s="11">
         <v>46007</v>
       </c>
@@ -8668,7 +8832,7 @@
       <c r="R720" s="13"/>
       <c r="Y720" s="13"/>
     </row>
-    <row r="721" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:25" hidden="1">
       <c r="B721" s="11">
         <v>46007</v>
       </c>
@@ -8678,7 +8842,7 @@
       <c r="R721" s="13"/>
       <c r="Y721" s="13"/>
     </row>
-    <row r="722" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:25" hidden="1">
       <c r="B722" s="11">
         <v>46007</v>
       </c>
@@ -8688,7 +8852,7 @@
       <c r="R722" s="13"/>
       <c r="Y722" s="13"/>
     </row>
-    <row r="723" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:25" hidden="1">
       <c r="B723" s="11">
         <v>46007</v>
       </c>
@@ -8698,7 +8862,7 @@
       <c r="R723" s="13"/>
       <c r="Y723" s="13"/>
     </row>
-    <row r="724" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:25" hidden="1">
       <c r="B724" s="11">
         <v>46007</v>
       </c>
@@ -8708,7 +8872,7 @@
       <c r="R724" s="13"/>
       <c r="Y724" s="13"/>
     </row>
-    <row r="725" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:25" hidden="1">
       <c r="B725" s="11">
         <v>46008</v>
       </c>
@@ -8718,7 +8882,7 @@
       <c r="R725" s="13"/>
       <c r="Y725" s="13"/>
     </row>
-    <row r="726" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:25" hidden="1">
       <c r="B726" s="11">
         <v>46008</v>
       </c>
@@ -8728,7 +8892,7 @@
       <c r="R726" s="13"/>
       <c r="Y726" s="13"/>
     </row>
-    <row r="727" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:25" hidden="1">
       <c r="B727" s="11">
         <v>46008</v>
       </c>
@@ -8738,7 +8902,7 @@
       <c r="R727" s="13"/>
       <c r="Y727" s="13"/>
     </row>
-    <row r="728" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:25" hidden="1">
       <c r="B728" s="11">
         <v>46008</v>
       </c>
@@ -8748,7 +8912,7 @@
       <c r="R728" s="13"/>
       <c r="Y728" s="13"/>
     </row>
-    <row r="729" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:25" hidden="1">
       <c r="B729" s="11">
         <v>46008</v>
       </c>
@@ -8758,7 +8922,7 @@
       <c r="R729" s="13"/>
       <c r="Y729" s="13"/>
     </row>
-    <row r="730" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:25" hidden="1">
       <c r="B730" s="11">
         <v>46008</v>
       </c>
@@ -8768,7 +8932,7 @@
       <c r="R730" s="13"/>
       <c r="Y730" s="13"/>
     </row>
-    <row r="731" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:25" hidden="1">
       <c r="B731" s="11">
         <v>46008</v>
       </c>
@@ -8778,7 +8942,7 @@
       <c r="R731" s="13"/>
       <c r="Y731" s="13"/>
     </row>
-    <row r="732" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:25" hidden="1">
       <c r="B732" s="11">
         <v>46009</v>
       </c>
@@ -8788,7 +8952,7 @@
       <c r="R732" s="13"/>
       <c r="Y732" s="13"/>
     </row>
-    <row r="733" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:25" hidden="1">
       <c r="B733" s="11">
         <v>46009</v>
       </c>
@@ -8798,7 +8962,7 @@
       <c r="R733" s="13"/>
       <c r="Y733" s="13"/>
     </row>
-    <row r="734" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:25" hidden="1">
       <c r="B734" s="11">
         <v>46009</v>
       </c>
@@ -8808,7 +8972,7 @@
       <c r="R734" s="13"/>
       <c r="Y734" s="13"/>
     </row>
-    <row r="735" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:25" hidden="1">
       <c r="B735" s="11">
         <v>46009</v>
       </c>
@@ -8818,7 +8982,7 @@
       <c r="R735" s="13"/>
       <c r="Y735" s="13"/>
     </row>
-    <row r="736" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:25" hidden="1">
       <c r="B736" s="11">
         <v>46009</v>
       </c>
@@ -8828,7 +8992,7 @@
       <c r="R736" s="13"/>
       <c r="Y736" s="13"/>
     </row>
-    <row r="737" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:25" hidden="1">
       <c r="B737" s="11">
         <v>46009</v>
       </c>
@@ -8838,7 +9002,7 @@
       <c r="R737" s="13"/>
       <c r="Y737" s="13"/>
     </row>
-    <row r="738" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:25" hidden="1">
       <c r="B738" s="11">
         <v>46009</v>
       </c>
@@ -8848,7 +9012,7 @@
       <c r="R738" s="13"/>
       <c r="Y738" s="13"/>
     </row>
-    <row r="739" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:25" hidden="1">
       <c r="B739" s="11">
         <v>46010</v>
       </c>
@@ -8858,7 +9022,7 @@
       <c r="R739" s="13"/>
       <c r="Y739" s="13"/>
     </row>
-    <row r="740" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:25" hidden="1">
       <c r="B740" s="11">
         <v>46010</v>
       </c>
@@ -8868,7 +9032,7 @@
       <c r="R740" s="13"/>
       <c r="Y740" s="13"/>
     </row>
-    <row r="741" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:25" hidden="1">
       <c r="B741" s="11">
         <v>46010</v>
       </c>
@@ -8878,7 +9042,7 @@
       <c r="R741" s="13"/>
       <c r="Y741" s="13"/>
     </row>
-    <row r="742" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:25" hidden="1">
       <c r="B742" s="11">
         <v>46010</v>
       </c>
@@ -8888,7 +9052,7 @@
       <c r="R742" s="13"/>
       <c r="Y742" s="13"/>
     </row>
-    <row r="743" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:25" hidden="1">
       <c r="B743" s="11">
         <v>46010</v>
       </c>
@@ -8898,7 +9062,7 @@
       <c r="R743" s="13"/>
       <c r="Y743" s="13"/>
     </row>
-    <row r="744" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:25" hidden="1">
       <c r="B744" s="11">
         <v>46010</v>
       </c>
@@ -8908,7 +9072,7 @@
       <c r="R744" s="13"/>
       <c r="Y744" s="13"/>
     </row>
-    <row r="745" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:25" hidden="1">
       <c r="B745" s="11">
         <v>46010</v>
       </c>
@@ -8918,7 +9082,7 @@
       <c r="R745" s="13"/>
       <c r="Y745" s="13"/>
     </row>
-    <row r="746" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:25" hidden="1">
       <c r="B746" s="11">
         <v>46011</v>
       </c>
@@ -8928,7 +9092,7 @@
       <c r="R746" s="13"/>
       <c r="Y746" s="13"/>
     </row>
-    <row r="747" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:25" hidden="1">
       <c r="B747" s="11">
         <v>46011</v>
       </c>
@@ -8938,7 +9102,7 @@
       <c r="R747" s="13"/>
       <c r="Y747" s="13"/>
     </row>
-    <row r="748" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:25" hidden="1">
       <c r="B748" s="11">
         <v>46011</v>
       </c>
@@ -8948,7 +9112,7 @@
       <c r="R748" s="13"/>
       <c r="Y748" s="13"/>
     </row>
-    <row r="749" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:25" hidden="1">
       <c r="B749" s="11">
         <v>46011</v>
       </c>
@@ -8958,7 +9122,7 @@
       <c r="R749" s="13"/>
       <c r="Y749" s="13"/>
     </row>
-    <row r="750" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:25" hidden="1">
       <c r="B750" s="11">
         <v>46011</v>
       </c>
@@ -8968,7 +9132,7 @@
       <c r="R750" s="13"/>
       <c r="Y750" s="13"/>
     </row>
-    <row r="751" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:25" hidden="1">
       <c r="B751" s="11">
         <v>46011</v>
       </c>
@@ -8978,7 +9142,7 @@
       <c r="R751" s="13"/>
       <c r="Y751" s="13"/>
     </row>
-    <row r="752" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:25" hidden="1">
       <c r="B752" s="11">
         <v>46011</v>
       </c>
@@ -8988,7 +9152,7 @@
       <c r="R752" s="13"/>
       <c r="Y752" s="13"/>
     </row>
-    <row r="753" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:25" hidden="1">
       <c r="B753" s="11">
         <v>46012</v>
       </c>
@@ -8998,7 +9162,7 @@
       <c r="R753" s="13"/>
       <c r="Y753" s="13"/>
     </row>
-    <row r="754" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:25" hidden="1">
       <c r="B754" s="11">
         <v>46012</v>
       </c>
@@ -9008,7 +9172,7 @@
       <c r="R754" s="13"/>
       <c r="Y754" s="13"/>
     </row>
-    <row r="755" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:25" hidden="1">
       <c r="B755" s="11">
         <v>46012</v>
       </c>
@@ -9018,7 +9182,7 @@
       <c r="R755" s="13"/>
       <c r="Y755" s="13"/>
     </row>
-    <row r="756" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:25" hidden="1">
       <c r="B756" s="11">
         <v>46012</v>
       </c>
@@ -9028,7 +9192,7 @@
       <c r="R756" s="13"/>
       <c r="Y756" s="13"/>
     </row>
-    <row r="757" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:25" hidden="1">
       <c r="B757" s="11">
         <v>46012</v>
       </c>
@@ -9038,7 +9202,7 @@
       <c r="R757" s="13"/>
       <c r="Y757" s="13"/>
     </row>
-    <row r="758" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:25" hidden="1">
       <c r="B758" s="11">
         <v>46012</v>
       </c>
@@ -9048,7 +9212,7 @@
       <c r="R758" s="13"/>
       <c r="Y758" s="13"/>
     </row>
-    <row r="759" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:25" hidden="1">
       <c r="B759" s="11">
         <v>46012</v>
       </c>
@@ -9058,7 +9222,7 @@
       <c r="R759" s="13"/>
       <c r="Y759" s="13"/>
     </row>
-    <row r="760" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:25" hidden="1">
       <c r="B760" s="11">
         <v>46013</v>
       </c>
@@ -9068,7 +9232,7 @@
       <c r="R760" s="13"/>
       <c r="Y760" s="13"/>
     </row>
-    <row r="761" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:25" hidden="1">
       <c r="B761" s="11">
         <v>46013</v>
       </c>
@@ -9078,7 +9242,7 @@
       <c r="R761" s="13"/>
       <c r="Y761" s="13"/>
     </row>
-    <row r="762" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:25" hidden="1">
       <c r="B762" s="11">
         <v>46013</v>
       </c>
@@ -9088,7 +9252,7 @@
       <c r="R762" s="13"/>
       <c r="Y762" s="13"/>
     </row>
-    <row r="763" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:25" hidden="1">
       <c r="B763" s="11">
         <v>46013</v>
       </c>
@@ -9098,7 +9262,7 @@
       <c r="R763" s="13"/>
       <c r="Y763" s="13"/>
     </row>
-    <row r="764" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:25" hidden="1">
       <c r="B764" s="11">
         <v>46013</v>
       </c>
@@ -9108,7 +9272,7 @@
       <c r="R764" s="13"/>
       <c r="Y764" s="13"/>
     </row>
-    <row r="765" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:25" hidden="1">
       <c r="B765" s="11">
         <v>46013</v>
       </c>
@@ -9118,7 +9282,7 @@
       <c r="R765" s="13"/>
       <c r="Y765" s="13"/>
     </row>
-    <row r="766" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:25" hidden="1">
       <c r="B766" s="11">
         <v>46013</v>
       </c>
@@ -9128,7 +9292,7 @@
       <c r="R766" s="13"/>
       <c r="Y766" s="13"/>
     </row>
-    <row r="767" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:25" hidden="1">
       <c r="B767" s="11">
         <v>46014</v>
       </c>
@@ -9138,7 +9302,7 @@
       <c r="R767" s="13"/>
       <c r="Y767" s="13"/>
     </row>
-    <row r="768" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:25" hidden="1">
       <c r="B768" s="11">
         <v>46014</v>
       </c>
@@ -9148,7 +9312,7 @@
       <c r="R768" s="13"/>
       <c r="Y768" s="13"/>
     </row>
-    <row r="769" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:25" hidden="1">
       <c r="B769" s="11">
         <v>46014</v>
       </c>
@@ -9158,7 +9322,7 @@
       <c r="R769" s="13"/>
       <c r="Y769" s="13"/>
     </row>
-    <row r="770" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:25" hidden="1">
       <c r="B770" s="11">
         <v>46014</v>
       </c>
@@ -9168,7 +9332,7 @@
       <c r="R770" s="13"/>
       <c r="Y770" s="13"/>
     </row>
-    <row r="771" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:25" hidden="1">
       <c r="B771" s="11">
         <v>46014</v>
       </c>
@@ -9178,7 +9342,7 @@
       <c r="R771" s="13"/>
       <c r="Y771" s="13"/>
     </row>
-    <row r="772" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:25" hidden="1">
       <c r="B772" s="11">
         <v>46014</v>
       </c>
@@ -9188,7 +9352,7 @@
       <c r="R772" s="13"/>
       <c r="Y772" s="13"/>
     </row>
-    <row r="773" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:25" hidden="1">
       <c r="B773" s="11">
         <v>46014</v>
       </c>
@@ -9198,7 +9362,7 @@
       <c r="R773" s="13"/>
       <c r="Y773" s="13"/>
     </row>
-    <row r="774" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:25" hidden="1">
       <c r="B774" s="11">
         <v>46015</v>
       </c>
@@ -9208,7 +9372,7 @@
       <c r="R774" s="13"/>
       <c r="Y774" s="13"/>
     </row>
-    <row r="775" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:25" hidden="1">
       <c r="B775" s="11">
         <v>46015</v>
       </c>
@@ -9218,7 +9382,7 @@
       <c r="R775" s="13"/>
       <c r="Y775" s="13"/>
     </row>
-    <row r="776" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:25" hidden="1">
       <c r="B776" s="11">
         <v>46015</v>
       </c>
@@ -9228,7 +9392,7 @@
       <c r="R776" s="13"/>
       <c r="Y776" s="13"/>
     </row>
-    <row r="777" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:25" hidden="1">
       <c r="B777" s="11">
         <v>46015</v>
       </c>
@@ -9238,7 +9402,7 @@
       <c r="R777" s="13"/>
       <c r="Y777" s="13"/>
     </row>
-    <row r="778" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:25" hidden="1">
       <c r="B778" s="11">
         <v>46015</v>
       </c>
@@ -9248,7 +9412,7 @@
       <c r="R778" s="13"/>
       <c r="Y778" s="13"/>
     </row>
-    <row r="779" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:25" hidden="1">
       <c r="B779" s="11">
         <v>46015</v>
       </c>
@@ -9258,7 +9422,7 @@
       <c r="R779" s="13"/>
       <c r="Y779" s="13"/>
     </row>
-    <row r="780" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:25" hidden="1">
       <c r="B780" s="11">
         <v>46015</v>
       </c>
@@ -9268,7 +9432,7 @@
       <c r="R780" s="13"/>
       <c r="Y780" s="13"/>
     </row>
-    <row r="781" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:25" hidden="1">
       <c r="B781" s="11">
         <v>46016</v>
       </c>
@@ -9278,7 +9442,7 @@
       <c r="R781" s="13"/>
       <c r="Y781" s="13"/>
     </row>
-    <row r="782" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:25" hidden="1">
       <c r="B782" s="11">
         <v>46016</v>
       </c>
@@ -9288,7 +9452,7 @@
       <c r="R782" s="13"/>
       <c r="Y782" s="13"/>
     </row>
-    <row r="783" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:25" hidden="1">
       <c r="B783" s="11">
         <v>46016</v>
       </c>
@@ -9298,7 +9462,7 @@
       <c r="R783" s="13"/>
       <c r="Y783" s="13"/>
     </row>
-    <row r="784" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:25" hidden="1">
       <c r="B784" s="11">
         <v>46016</v>
       </c>
@@ -9308,7 +9472,7 @@
       <c r="R784" s="13"/>
       <c r="Y784" s="13"/>
     </row>
-    <row r="785" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:25" hidden="1">
       <c r="B785" s="11">
         <v>46016</v>
       </c>
@@ -9318,7 +9482,7 @@
       <c r="R785" s="13"/>
       <c r="Y785" s="13"/>
     </row>
-    <row r="786" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:25" hidden="1">
       <c r="B786" s="11">
         <v>46016</v>
       </c>
@@ -9328,7 +9492,7 @@
       <c r="R786" s="13"/>
       <c r="Y786" s="13"/>
     </row>
-    <row r="787" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:25" hidden="1">
       <c r="B787" s="11">
         <v>46016</v>
       </c>
@@ -9338,7 +9502,7 @@
       <c r="R787" s="13"/>
       <c r="Y787" s="13"/>
     </row>
-    <row r="788" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:25" hidden="1">
       <c r="B788" s="11">
         <v>46017</v>
       </c>
@@ -9348,7 +9512,7 @@
       <c r="R788" s="13"/>
       <c r="Y788" s="13"/>
     </row>
-    <row r="789" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:25" hidden="1">
       <c r="B789" s="11">
         <v>46017</v>
       </c>
@@ -9358,7 +9522,7 @@
       <c r="R789" s="13"/>
       <c r="Y789" s="13"/>
     </row>
-    <row r="790" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:25" hidden="1">
       <c r="B790" s="11">
         <v>46017</v>
       </c>
@@ -9368,7 +9532,7 @@
       <c r="R790" s="13"/>
       <c r="Y790" s="13"/>
     </row>
-    <row r="791" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:25" hidden="1">
       <c r="B791" s="11">
         <v>46017</v>
       </c>
@@ -9378,7 +9542,7 @@
       <c r="R791" s="13"/>
       <c r="Y791" s="13"/>
     </row>
-    <row r="792" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:25" hidden="1">
       <c r="B792" s="11">
         <v>46017</v>
       </c>
@@ -9388,7 +9552,7 @@
       <c r="R792" s="13"/>
       <c r="Y792" s="13"/>
     </row>
-    <row r="793" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:25" hidden="1">
       <c r="B793" s="11">
         <v>46017</v>
       </c>
@@ -9398,7 +9562,7 @@
       <c r="R793" s="13"/>
       <c r="Y793" s="13"/>
     </row>
-    <row r="794" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:25" hidden="1">
       <c r="B794" s="11">
         <v>46017</v>
       </c>
@@ -9408,7 +9572,7 @@
       <c r="R794" s="13"/>
       <c r="Y794" s="13"/>
     </row>
-    <row r="795" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:25" hidden="1">
       <c r="B795" s="11">
         <v>46018</v>
       </c>
@@ -9418,7 +9582,7 @@
       <c r="R795" s="13"/>
       <c r="Y795" s="13"/>
     </row>
-    <row r="796" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:25" hidden="1">
       <c r="B796" s="11">
         <v>46018</v>
       </c>
@@ -9428,7 +9592,7 @@
       <c r="R796" s="13"/>
       <c r="Y796" s="13"/>
     </row>
-    <row r="797" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:25" hidden="1">
       <c r="B797" s="11">
         <v>46018</v>
       </c>
@@ -9438,7 +9602,7 @@
       <c r="R797" s="13"/>
       <c r="Y797" s="13"/>
     </row>
-    <row r="798" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:25" hidden="1">
       <c r="B798" s="11">
         <v>46018</v>
       </c>
@@ -9448,7 +9612,7 @@
       <c r="R798" s="13"/>
       <c r="Y798" s="13"/>
     </row>
-    <row r="799" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:25" hidden="1">
       <c r="B799" s="11">
         <v>46018</v>
       </c>
@@ -9458,7 +9622,7 @@
       <c r="R799" s="13"/>
       <c r="Y799" s="13"/>
     </row>
-    <row r="800" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:25" hidden="1">
       <c r="B800" s="11">
         <v>46018</v>
       </c>
@@ -9468,7 +9632,7 @@
       <c r="R800" s="13"/>
       <c r="Y800" s="13"/>
     </row>
-    <row r="801" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:25" hidden="1">
       <c r="B801" s="11">
         <v>46018</v>
       </c>
@@ -9478,7 +9642,7 @@
       <c r="R801" s="13"/>
       <c r="Y801" s="13"/>
     </row>
-    <row r="802" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:25" hidden="1">
       <c r="B802" s="11">
         <v>46019</v>
       </c>
@@ -9488,7 +9652,7 @@
       <c r="R802" s="13"/>
       <c r="Y802" s="13"/>
     </row>
-    <row r="803" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:25" hidden="1">
       <c r="B803" s="11">
         <v>46019</v>
       </c>
@@ -9498,7 +9662,7 @@
       <c r="R803" s="13"/>
       <c r="Y803" s="13"/>
     </row>
-    <row r="804" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:25" hidden="1">
       <c r="B804" s="11">
         <v>46019</v>
       </c>
@@ -9508,7 +9672,7 @@
       <c r="R804" s="13"/>
       <c r="Y804" s="13"/>
     </row>
-    <row r="805" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:25" hidden="1">
       <c r="B805" s="11">
         <v>46019</v>
       </c>
@@ -9518,7 +9682,7 @@
       <c r="R805" s="13"/>
       <c r="Y805" s="13"/>
     </row>
-    <row r="806" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:25" hidden="1">
       <c r="B806" s="11">
         <v>46019</v>
       </c>
@@ -9528,7 +9692,7 @@
       <c r="R806" s="13"/>
       <c r="Y806" s="13"/>
     </row>
-    <row r="807" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:25" hidden="1">
       <c r="B807" s="11">
         <v>46019</v>
       </c>
@@ -9538,7 +9702,7 @@
       <c r="R807" s="13"/>
       <c r="Y807" s="13"/>
     </row>
-    <row r="808" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:25" hidden="1">
       <c r="B808" s="11">
         <v>46019</v>
       </c>
@@ -9548,7 +9712,7 @@
       <c r="R808" s="13"/>
       <c r="Y808" s="13"/>
     </row>
-    <row r="809" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:25" hidden="1">
       <c r="B809" s="11">
         <v>46020</v>
       </c>
@@ -9558,7 +9722,7 @@
       <c r="R809" s="13"/>
       <c r="Y809" s="13"/>
     </row>
-    <row r="810" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:25" hidden="1">
       <c r="B810" s="11">
         <v>46020</v>
       </c>
@@ -9568,7 +9732,7 @@
       <c r="R810" s="13"/>
       <c r="Y810" s="13"/>
     </row>
-    <row r="811" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:25" hidden="1">
       <c r="B811" s="11">
         <v>46020</v>
       </c>
@@ -9578,7 +9742,7 @@
       <c r="R811" s="13"/>
       <c r="Y811" s="13"/>
     </row>
-    <row r="812" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:25" hidden="1">
       <c r="B812" s="11">
         <v>46020</v>
       </c>
@@ -9588,7 +9752,7 @@
       <c r="R812" s="13"/>
       <c r="Y812" s="13"/>
     </row>
-    <row r="813" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:25" hidden="1">
       <c r="B813" s="11">
         <v>46020</v>
       </c>
@@ -9598,7 +9762,7 @@
       <c r="R813" s="13"/>
       <c r="Y813" s="13"/>
     </row>
-    <row r="814" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:25" hidden="1">
       <c r="B814" s="11">
         <v>46020</v>
       </c>
@@ -9608,7 +9772,7 @@
       <c r="R814" s="13"/>
       <c r="Y814" s="13"/>
     </row>
-    <row r="815" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:25" hidden="1">
       <c r="B815" s="11">
         <v>46020</v>
       </c>
@@ -9618,7 +9782,7 @@
       <c r="R815" s="13"/>
       <c r="Y815" s="13"/>
     </row>
-    <row r="816" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:25" hidden="1">
       <c r="B816" s="11">
         <v>46021</v>
       </c>
@@ -9628,7 +9792,7 @@
       <c r="R816" s="13"/>
       <c r="Y816" s="13"/>
     </row>
-    <row r="817" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:25" hidden="1">
       <c r="B817" s="11">
         <v>46021</v>
       </c>
@@ -9638,7 +9802,7 @@
       <c r="R817" s="13"/>
       <c r="Y817" s="13"/>
     </row>
-    <row r="818" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:25" hidden="1">
       <c r="B818" s="11">
         <v>46021</v>
       </c>
@@ -9648,7 +9812,7 @@
       <c r="R818" s="13"/>
       <c r="Y818" s="13"/>
     </row>
-    <row r="819" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:25" hidden="1">
       <c r="B819" s="11">
         <v>46021</v>
       </c>
@@ -9658,7 +9822,7 @@
       <c r="R819" s="13"/>
       <c r="Y819" s="13"/>
     </row>
-    <row r="820" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:25" hidden="1">
       <c r="B820" s="11">
         <v>46021</v>
       </c>
@@ -9668,7 +9832,7 @@
       <c r="R820" s="13"/>
       <c r="Y820" s="13"/>
     </row>
-    <row r="821" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:25" hidden="1">
       <c r="B821" s="11">
         <v>46021</v>
       </c>
@@ -9678,7 +9842,7 @@
       <c r="R821" s="13"/>
       <c r="Y821" s="13"/>
     </row>
-    <row r="822" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:25" hidden="1">
       <c r="B822" s="11">
         <v>46021</v>
       </c>
@@ -9688,7 +9852,7 @@
       <c r="R822" s="13"/>
       <c r="Y822" s="13"/>
     </row>
-    <row r="823" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:25" hidden="1">
       <c r="B823" s="11">
         <v>46022</v>
       </c>
@@ -9698,7 +9862,7 @@
       <c r="R823" s="13"/>
       <c r="Y823" s="13"/>
     </row>
-    <row r="824" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:25" hidden="1">
       <c r="B824" s="11">
         <v>46022</v>
       </c>
@@ -9708,7 +9872,7 @@
       <c r="R824" s="13"/>
       <c r="Y824" s="13"/>
     </row>
-    <row r="825" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:25" hidden="1">
       <c r="B825" s="11">
         <v>46022</v>
       </c>
@@ -9718,7 +9882,7 @@
       <c r="R825" s="13"/>
       <c r="Y825" s="13"/>
     </row>
-    <row r="826" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:25" hidden="1">
       <c r="B826" s="11">
         <v>46022</v>
       </c>
@@ -9728,7 +9892,7 @@
       <c r="R826" s="13"/>
       <c r="Y826" s="13"/>
     </row>
-    <row r="827" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:25" hidden="1">
       <c r="B827" s="11">
         <v>46022</v>
       </c>
@@ -9738,7 +9902,7 @@
       <c r="R827" s="13"/>
       <c r="Y827" s="13"/>
     </row>
-    <row r="828" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:25" hidden="1">
       <c r="B828" s="11">
         <v>46022</v>
       </c>
@@ -9748,7 +9912,7 @@
       <c r="R828" s="13"/>
       <c r="Y828" s="13"/>
     </row>
-    <row r="829" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:25" hidden="1">
       <c r="B829" s="11">
         <v>46022</v>
       </c>
@@ -9763,6 +9927,11 @@
     <filterColumn colId="1">
       <filters>
         <dateGroupItem year="2025" month="9" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="RMRJ"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9771,7 +9940,7 @@
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:Z2"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{87072A1E-199A-41C2-A98C-29295B711797}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -9782,6 +9951,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5f7d05b22801f8a5aef07f913f0a6c2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36a9bbd0f338303ab31ebe548315c8aa" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
@@ -9925,52 +10109,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens-my.sharepoint.com/personal/carlos_renier_superfrio_com_br/Documents/Apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{693DFFCF-5327-4014-A55D-CC9209BD6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB0526A8-0702-4DE0-B096-12B537E22C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="38">
   <si>
     <t>Controle e monitoramento de KPIs - Catering</t>
   </si>
@@ -149,6 +149,9 @@
     <t>MAQ</t>
   </si>
   <si>
+    <t>95,92%%</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
 </sst>
@@ -162,7 +165,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,12 +810,12 @@
   <dimension ref="A1:AA829"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="P6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q56" sqref="Q56"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
@@ -838,7 +841,7 @@
     <col min="26" max="26" width="18.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
@@ -850,7 +853,7 @@
       <c r="R1" s="18"/>
       <c r="Y1" s="22"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="7"/>
       <c r="D2" s="30" t="s">
@@ -883,7 +886,7 @@
       <c r="Y2" s="34"/>
       <c r="Z2" s="32"/>
     </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1">
+    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -960,7 +963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -970,8 +973,8 @@
       <c r="P4" s="13">
         <v>4</v>
       </c>
-      <c r="Q4" s="16">
-        <v>1</v>
+      <c r="Q4" s="28">
+        <v>4</v>
       </c>
       <c r="R4" s="13">
         <v>24275.27</v>
@@ -1001,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>45905</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>45905</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>45905</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>45905</v>
       </c>
@@ -1164,8 +1167,8 @@
       <c r="P8" s="13">
         <v>9</v>
       </c>
-      <c r="Q8" s="16">
-        <v>1</v>
+      <c r="Q8" s="28">
+        <v>9</v>
       </c>
       <c r="R8" s="13">
         <v>67837.56</v>
@@ -1195,7 +1198,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>45905</v>
       </c>
@@ -1205,7 +1208,7 @@
       <c r="R9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:26" hidden="1">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>45905</v>
       </c>
@@ -1214,18 +1217,19 @@
       </c>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26" hidden="1">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
+      <c r="Q11" s="28"/>
       <c r="R11" s="13"/>
       <c r="S11" s="17"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26" hidden="1">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>45906</v>
       </c>
@@ -1235,7 +1239,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:26" hidden="1">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>45906</v>
       </c>
@@ -1246,7 +1250,7 @@
       <c r="R13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:26" hidden="1">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>45906</v>
       </c>
@@ -1258,16 +1262,17 @@
       </c>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>45906</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
+      <c r="Q15" s="28"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:26" hidden="1">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>45906</v>
       </c>
@@ -1277,7 +1282,7 @@
       <c r="R16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:26" hidden="1">
+    <row r="17" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>45906</v>
       </c>
@@ -1287,17 +1292,18 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26" hidden="1">
+    <row r="18" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
+      <c r="Q18" s="28"/>
       <c r="R18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="2:26" hidden="1">
+    <row r="19" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>45907</v>
       </c>
@@ -1307,7 +1313,7 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:26" hidden="1">
+    <row r="20" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>45907</v>
       </c>
@@ -1318,7 +1324,7 @@
       <c r="R20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:26" hidden="1">
+    <row r="21" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>45907</v>
       </c>
@@ -1330,16 +1336,17 @@
       </c>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>45907</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
+      <c r="Q22" s="28"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="2:26" hidden="1">
+    <row r="23" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>45907</v>
       </c>
@@ -1349,7 +1356,7 @@
       <c r="R23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="2:26" hidden="1">
+    <row r="24" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>45907</v>
       </c>
@@ -1359,7 +1366,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26" hidden="1">
+    <row r="25" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1369,8 +1376,8 @@
       <c r="P25" s="13">
         <v>5</v>
       </c>
-      <c r="Q25" s="16">
-        <v>1</v>
+      <c r="Q25" s="28">
+        <v>5</v>
       </c>
       <c r="R25" s="13">
         <v>30773.43</v>
@@ -1381,12 +1388,26 @@
       <c r="T25" s="13">
         <v>0</v>
       </c>
-      <c r="Y25" s="13"/>
+      <c r="U25" s="16">
+        <v>1</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="17">
+        <v>0.999</v>
+      </c>
+      <c r="X25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>0</v>
+      </c>
       <c r="Z25" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26" hidden="1">
+    <row r="26" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>45908</v>
       </c>
@@ -1427,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26" hidden="1">
+    <row r="27" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>45908</v>
       </c>
@@ -1468,7 +1489,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:26" hidden="1">
+    <row r="28" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>45908</v>
       </c>
@@ -1488,10 +1509,10 @@
         <v>1850</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J28" s="13">
         <v>0</v>
@@ -1533,7 +1554,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>45908</v>
       </c>
@@ -1567,8 +1588,8 @@
       <c r="P29" s="13">
         <v>35</v>
       </c>
-      <c r="Q29" s="16">
-        <v>1</v>
+      <c r="Q29" s="28">
+        <v>35</v>
       </c>
       <c r="R29" s="13">
         <v>210274.72</v>
@@ -1589,7 +1610,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:26" hidden="1">
+    <row r="30" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>45908</v>
       </c>
@@ -1599,7 +1620,7 @@
       <c r="R30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="2:26" hidden="1">
+    <row r="31" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>45908</v>
       </c>
@@ -1609,7 +1630,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26" hidden="1">
+    <row r="32" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1628,8 +1649,8 @@
       <c r="P32" s="13">
         <v>2</v>
       </c>
-      <c r="Q32" s="16">
-        <v>1</v>
+      <c r="Q32" s="28">
+        <v>2</v>
       </c>
       <c r="R32" s="13">
         <v>8388.2000000000007</v>
@@ -1640,12 +1661,26 @@
       <c r="T32" s="13">
         <v>0</v>
       </c>
-      <c r="Y32" s="13"/>
+      <c r="U32" s="16">
+        <v>1</v>
+      </c>
+      <c r="V32" s="16">
+        <v>1</v>
+      </c>
+      <c r="W32" s="16">
+        <v>1</v>
+      </c>
+      <c r="X32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>0</v>
+      </c>
       <c r="Z32" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:26" hidden="1">
+    <row r="33" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>45909</v>
       </c>
@@ -1686,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26" hidden="1">
+    <row r="34" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>45909</v>
       </c>
@@ -1708,6 +1743,15 @@
       <c r="T34" s="13">
         <v>0</v>
       </c>
+      <c r="U34" s="16">
+        <v>1</v>
+      </c>
+      <c r="V34" s="16">
+        <v>1</v>
+      </c>
+      <c r="W34" s="16">
+        <v>1</v>
+      </c>
       <c r="X34" s="13">
         <v>0</v>
       </c>
@@ -1718,7 +1762,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:26" hidden="1">
+    <row r="35" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>45909</v>
       </c>
@@ -1771,7 +1815,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:26">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>45909</v>
       </c>
@@ -1805,8 +1849,8 @@
       <c r="P36" s="13">
         <v>23</v>
       </c>
-      <c r="Q36" s="16">
-        <v>1</v>
+      <c r="Q36" s="28">
+        <v>23</v>
       </c>
       <c r="R36" s="13">
         <v>98604.29</v>
@@ -1827,7 +1871,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:26" hidden="1">
+    <row r="37" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>45909</v>
       </c>
@@ -1837,7 +1881,7 @@
       <c r="R37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:26" hidden="1">
+    <row r="38" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>45909</v>
       </c>
@@ -1847,7 +1891,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26" hidden="1">
+    <row r="39" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -1857,8 +1901,8 @@
       <c r="P39" s="13">
         <v>6</v>
       </c>
-      <c r="Q39" s="16">
-        <v>1</v>
+      <c r="Q39" s="28">
+        <v>6</v>
       </c>
       <c r="R39" s="13">
         <v>33936.980000000003</v>
@@ -1866,9 +1910,15 @@
       <c r="S39" s="17">
         <v>0.75419999999999998</v>
       </c>
+      <c r="T39" s="13">
+        <v>0</v>
+      </c>
       <c r="Y39" s="13"/>
-    </row>
-    <row r="40" spans="2:26" hidden="1">
+      <c r="Z39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>45910</v>
       </c>
@@ -1899,8 +1949,11 @@
       <c r="T40" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:26" hidden="1">
+      <c r="Z40" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>45910</v>
       </c>
@@ -1932,7 +1985,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:26" hidden="1">
+    <row r="42" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>45910</v>
       </c>
@@ -1976,7 +2029,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" spans="2:26">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>45910</v>
       </c>
@@ -1995,8 +2048,8 @@
       <c r="P43" s="13">
         <v>21</v>
       </c>
-      <c r="Q43" s="16">
-        <v>1</v>
+      <c r="Q43" s="28">
+        <v>21</v>
       </c>
       <c r="R43" s="13">
         <v>102791.49</v>
@@ -2011,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:26" hidden="1">
+    <row r="44" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>45910</v>
       </c>
@@ -2021,7 +2074,7 @@
       <c r="R44" s="13"/>
       <c r="Y44" s="13"/>
     </row>
-    <row r="45" spans="2:26" hidden="1">
+    <row r="45" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>45910</v>
       </c>
@@ -2031,28 +2084,60 @@
       <c r="R45" s="13"/>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26" hidden="1">
+    <row r="46" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
       </c>
-      <c r="R46" s="13"/>
+      <c r="P46" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="13">
+        <v>6</v>
+      </c>
+      <c r="R46" s="13">
+        <v>24762.55</v>
+      </c>
+      <c r="S46" s="17">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="T46" s="13">
+        <v>0</v>
+      </c>
       <c r="Y46" s="13"/>
-    </row>
-    <row r="47" spans="2:26" hidden="1">
+      <c r="Z46" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <v>45911</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
+      <c r="P47" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>10</v>
+      </c>
       <c r="R47" s="13">
         <v>39225.25</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" hidden="1">
+      <c r="S47" s="17">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="T47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <v>45911</v>
       </c>
@@ -2084,7 +2169,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1">
+    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <v>45911</v>
       </c>
@@ -2129,16 +2214,22 @@
       </c>
       <c r="AA49" s="27"/>
     </row>
-    <row r="50" spans="2:27">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <v>45911</v>
       </c>
       <c r="C50" t="s">
         <v>33</v>
       </c>
+      <c r="D50" s="15">
+        <v>86579</v>
+      </c>
+      <c r="E50" s="15">
+        <v>111713</v>
+      </c>
       <c r="R50" s="13"/>
     </row>
-    <row r="51" spans="2:27" hidden="1">
+    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="11">
         <v>45911</v>
       </c>
@@ -2148,7 +2239,7 @@
       <c r="R51" s="13"/>
       <c r="Y51" s="13"/>
     </row>
-    <row r="52" spans="2:27" hidden="1">
+    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="11">
         <v>45911</v>
       </c>
@@ -2158,26 +2249,54 @@
       <c r="R52" s="13"/>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:27" hidden="1">
+    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
       </c>
-      <c r="R53" s="13"/>
+      <c r="P53" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>4</v>
+      </c>
+      <c r="R53" s="13">
+        <v>23228.01</v>
+      </c>
+      <c r="S53" s="17">
+        <v>0.93440000000000001</v>
+      </c>
       <c r="Y53" s="13"/>
-    </row>
-    <row r="54" spans="2:27" hidden="1">
+      <c r="Z53" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <v>45912</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
       </c>
-      <c r="R54" s="13"/>
-    </row>
-    <row r="55" spans="2:27" hidden="1">
+      <c r="P54" s="13">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>10</v>
+      </c>
+      <c r="R54" s="13">
+        <v>36142.35</v>
+      </c>
+      <c r="S54" s="17">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="Z54" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="11">
         <v>45912</v>
       </c>
@@ -2201,7 +2320,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1">
+    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <v>45912</v>
       </c>
@@ -2225,7 +2344,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="57" spans="2:27">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <v>45912</v>
       </c>
@@ -2234,7 +2353,7 @@
       </c>
       <c r="R57" s="13"/>
     </row>
-    <row r="58" spans="2:27" hidden="1">
+    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <v>45912</v>
       </c>
@@ -2244,7 +2363,7 @@
       <c r="R58" s="13"/>
       <c r="Y58" s="13"/>
     </row>
-    <row r="59" spans="2:27" hidden="1">
+    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <v>45912</v>
       </c>
@@ -2275,7 +2394,7 @@
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:27" hidden="1">
+    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2285,7 +2404,7 @@
       <c r="R60" s="13"/>
       <c r="Y60" s="13"/>
     </row>
-    <row r="61" spans="2:27" hidden="1">
+    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <v>45913</v>
       </c>
@@ -2294,7 +2413,7 @@
       </c>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="2:27" hidden="1">
+    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <v>45913</v>
       </c>
@@ -2304,7 +2423,7 @@
       <c r="R62" s="13"/>
       <c r="Y62" s="13"/>
     </row>
-    <row r="63" spans="2:27" hidden="1">
+    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="11">
         <v>45913</v>
       </c>
@@ -2313,7 +2432,7 @@
       </c>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:27">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
@@ -2323,7 +2442,7 @@
       <c r="R64" s="13"/>
       <c r="AA64" s="29"/>
     </row>
-    <row r="65" spans="2:25" hidden="1">
+    <row r="65" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="11">
         <v>45913</v>
       </c>
@@ -2333,7 +2452,7 @@
       <c r="R65" s="13"/>
       <c r="Y65" s="13"/>
     </row>
-    <row r="66" spans="2:25" hidden="1">
+    <row r="66" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="11">
         <v>45913</v>
       </c>
@@ -2343,7 +2462,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:25" hidden="1">
+    <row r="67" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2353,7 +2472,7 @@
       <c r="R67" s="13"/>
       <c r="Y67" s="13"/>
     </row>
-    <row r="68" spans="2:25" hidden="1">
+    <row r="68" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
         <v>45914</v>
       </c>
@@ -2362,7 +2481,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="2:25" hidden="1">
+    <row r="69" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="11">
         <v>45914</v>
       </c>
@@ -2372,7 +2491,7 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:25" hidden="1">
+    <row r="70" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
@@ -2381,7 +2500,7 @@
       </c>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:25">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
@@ -2390,7 +2509,7 @@
       </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="2:25" hidden="1">
+    <row r="72" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="11">
         <v>45914</v>
       </c>
@@ -2400,7 +2519,7 @@
       <c r="R72" s="13"/>
       <c r="Y72" s="13"/>
     </row>
-    <row r="73" spans="2:25" hidden="1">
+    <row r="73" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="11">
         <v>45914</v>
       </c>
@@ -2410,7 +2529,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:25" hidden="1">
+    <row r="74" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2420,7 +2539,7 @@
       <c r="R74" s="13"/>
       <c r="Y74" s="13"/>
     </row>
-    <row r="75" spans="2:25" hidden="1">
+    <row r="75" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="11">
         <v>45915</v>
       </c>
@@ -2429,7 +2548,7 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="2:25" hidden="1">
+    <row r="76" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="11">
         <v>45915</v>
       </c>
@@ -2439,7 +2558,7 @@
       <c r="R76" s="13"/>
       <c r="Y76" s="13"/>
     </row>
-    <row r="77" spans="2:25" hidden="1">
+    <row r="77" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
@@ -2448,7 +2567,7 @@
       </c>
       <c r="Y77" s="13"/>
     </row>
-    <row r="78" spans="2:25">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="11">
         <v>45915</v>
       </c>
@@ -2457,7 +2576,7 @@
       </c>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="2:25" hidden="1">
+    <row r="79" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <v>45915</v>
       </c>
@@ -2467,7 +2586,7 @@
       <c r="R79" s="13"/>
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:25" hidden="1">
+    <row r="80" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="11">
         <v>45915</v>
       </c>
@@ -2477,7 +2596,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25" hidden="1">
+    <row r="81" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2487,7 +2606,7 @@
       <c r="R81" s="13"/>
       <c r="Y81" s="13"/>
     </row>
-    <row r="82" spans="2:25" hidden="1">
+    <row r="82" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="11">
         <v>45916</v>
       </c>
@@ -2496,7 +2615,7 @@
       </c>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="2:25" hidden="1">
+    <row r="83" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="11">
         <v>45916</v>
       </c>
@@ -2506,7 +2625,7 @@
       <c r="R83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="2:25" hidden="1">
+    <row r="84" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
         <v>45916</v>
       </c>
@@ -2515,7 +2634,7 @@
       </c>
       <c r="Y84" s="13"/>
     </row>
-    <row r="85" spans="2:25">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="11">
         <v>45916</v>
       </c>
@@ -2524,7 +2643,7 @@
       </c>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="2:25" hidden="1">
+    <row r="86" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="11">
         <v>45916</v>
       </c>
@@ -2534,7 +2653,7 @@
       <c r="R86" s="13"/>
       <c r="Y86" s="13"/>
     </row>
-    <row r="87" spans="2:25" hidden="1">
+    <row r="87" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="11">
         <v>45916</v>
       </c>
@@ -2544,7 +2663,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25" hidden="1">
+    <row r="88" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2554,7 +2673,7 @@
       <c r="R88" s="13"/>
       <c r="Y88" s="13"/>
     </row>
-    <row r="89" spans="2:25" hidden="1">
+    <row r="89" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="11">
         <v>45917</v>
       </c>
@@ -2563,7 +2682,7 @@
       </c>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="2:25" hidden="1">
+    <row r="90" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="11">
         <v>45917</v>
       </c>
@@ -2573,7 +2692,7 @@
       <c r="R90" s="13"/>
       <c r="Y90" s="13"/>
     </row>
-    <row r="91" spans="2:25" hidden="1">
+    <row r="91" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="11">
         <v>45917</v>
       </c>
@@ -2582,7 +2701,7 @@
       </c>
       <c r="Y91" s="13"/>
     </row>
-    <row r="92" spans="2:25">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="11">
         <v>45917</v>
       </c>
@@ -2591,7 +2710,7 @@
       </c>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="2:25" hidden="1">
+    <row r="93" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="11">
         <v>45917</v>
       </c>
@@ -2601,7 +2720,7 @@
       <c r="R93" s="13"/>
       <c r="Y93" s="13"/>
     </row>
-    <row r="94" spans="2:25" hidden="1">
+    <row r="94" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="11">
         <v>45917</v>
       </c>
@@ -2611,7 +2730,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25" hidden="1">
+    <row r="95" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -2621,7 +2740,7 @@
       <c r="R95" s="13"/>
       <c r="Y95" s="13"/>
     </row>
-    <row r="96" spans="2:25" hidden="1">
+    <row r="96" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="11">
         <v>45918</v>
       </c>
@@ -2630,7 +2749,7 @@
       </c>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="2:25" hidden="1">
+    <row r="97" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="11">
         <v>45918</v>
       </c>
@@ -2640,7 +2759,7 @@
       <c r="R97" s="13"/>
       <c r="Y97" s="13"/>
     </row>
-    <row r="98" spans="2:25" hidden="1">
+    <row r="98" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="11">
         <v>45918</v>
       </c>
@@ -2649,7 +2768,7 @@
       </c>
       <c r="Y98" s="13"/>
     </row>
-    <row r="99" spans="2:25">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="11">
         <v>45918</v>
       </c>
@@ -2658,7 +2777,7 @@
       </c>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="2:25" hidden="1">
+    <row r="100" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="11">
         <v>45918</v>
       </c>
@@ -2668,7 +2787,7 @@
       <c r="R100" s="13"/>
       <c r="Y100" s="13"/>
     </row>
-    <row r="101" spans="2:25" hidden="1">
+    <row r="101" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="11">
         <v>45918</v>
       </c>
@@ -2678,7 +2797,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25" hidden="1">
+    <row r="102" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -2688,7 +2807,7 @@
       <c r="R102" s="13"/>
       <c r="Y102" s="13"/>
     </row>
-    <row r="103" spans="2:25" hidden="1">
+    <row r="103" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="11">
         <v>45919</v>
       </c>
@@ -2697,7 +2816,7 @@
       </c>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="2:25" hidden="1">
+    <row r="104" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="11">
         <v>45919</v>
       </c>
@@ -2707,7 +2826,7 @@
       <c r="R104" s="13"/>
       <c r="Y104" s="13"/>
     </row>
-    <row r="105" spans="2:25" hidden="1">
+    <row r="105" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="11">
         <v>45919</v>
       </c>
@@ -2716,7 +2835,7 @@
       </c>
       <c r="Y105" s="13"/>
     </row>
-    <row r="106" spans="2:25">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="11">
         <v>45919</v>
       </c>
@@ -2725,7 +2844,7 @@
       </c>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" spans="2:25" hidden="1">
+    <row r="107" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="11">
         <v>45919</v>
       </c>
@@ -2735,7 +2854,7 @@
       <c r="R107" s="13"/>
       <c r="Y107" s="13"/>
     </row>
-    <row r="108" spans="2:25" hidden="1">
+    <row r="108" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="11">
         <v>45919</v>
       </c>
@@ -2745,7 +2864,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25" hidden="1">
+    <row r="109" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -2755,7 +2874,7 @@
       <c r="R109" s="13"/>
       <c r="Y109" s="13"/>
     </row>
-    <row r="110" spans="2:25" hidden="1">
+    <row r="110" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="11">
         <v>45920</v>
       </c>
@@ -2764,7 +2883,7 @@
       </c>
       <c r="R110" s="13"/>
     </row>
-    <row r="111" spans="2:25" hidden="1">
+    <row r="111" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="11">
         <v>45920</v>
       </c>
@@ -2774,7 +2893,7 @@
       <c r="R111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="2:25" hidden="1">
+    <row r="112" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="11">
         <v>45920</v>
       </c>
@@ -2783,7 +2902,7 @@
       </c>
       <c r="Y112" s="13"/>
     </row>
-    <row r="113" spans="2:25">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="11">
         <v>45920</v>
       </c>
@@ -2792,7 +2911,7 @@
       </c>
       <c r="R113" s="13"/>
     </row>
-    <row r="114" spans="2:25" hidden="1">
+    <row r="114" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="11">
         <v>45920</v>
       </c>
@@ -2802,7 +2921,7 @@
       <c r="R114" s="13"/>
       <c r="Y114" s="13"/>
     </row>
-    <row r="115" spans="2:25" hidden="1">
+    <row r="115" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="11">
         <v>45920</v>
       </c>
@@ -2812,7 +2931,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25" hidden="1">
+    <row r="116" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -2822,7 +2941,7 @@
       <c r="R116" s="13"/>
       <c r="Y116" s="13"/>
     </row>
-    <row r="117" spans="2:25" hidden="1">
+    <row r="117" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="11">
         <v>45921</v>
       </c>
@@ -2831,7 +2950,7 @@
       </c>
       <c r="R117" s="13"/>
     </row>
-    <row r="118" spans="2:25" hidden="1">
+    <row r="118" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="11">
         <v>45921</v>
       </c>
@@ -2841,7 +2960,7 @@
       <c r="R118" s="13"/>
       <c r="Y118" s="13"/>
     </row>
-    <row r="119" spans="2:25" hidden="1">
+    <row r="119" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="11">
         <v>45921</v>
       </c>
@@ -2850,7 +2969,7 @@
       </c>
       <c r="Y119" s="13"/>
     </row>
-    <row r="120" spans="2:25">
+    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B120" s="11">
         <v>45921</v>
       </c>
@@ -2859,7 +2978,7 @@
       </c>
       <c r="R120" s="13"/>
     </row>
-    <row r="121" spans="2:25" hidden="1">
+    <row r="121" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="11">
         <v>45921</v>
       </c>
@@ -2869,7 +2988,7 @@
       <c r="R121" s="13"/>
       <c r="Y121" s="13"/>
     </row>
-    <row r="122" spans="2:25" hidden="1">
+    <row r="122" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="11">
         <v>45921</v>
       </c>
@@ -2879,7 +2998,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25" hidden="1">
+    <row r="123" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -2889,7 +3008,7 @@
       <c r="R123" s="13"/>
       <c r="Y123" s="13"/>
     </row>
-    <row r="124" spans="2:25" hidden="1">
+    <row r="124" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="11">
         <v>45922</v>
       </c>
@@ -2898,7 +3017,7 @@
       </c>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" spans="2:25" hidden="1">
+    <row r="125" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="11">
         <v>45922</v>
       </c>
@@ -2908,7 +3027,7 @@
       <c r="R125" s="13"/>
       <c r="Y125" s="13"/>
     </row>
-    <row r="126" spans="2:25" hidden="1">
+    <row r="126" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="11">
         <v>45922</v>
       </c>
@@ -2917,7 +3036,7 @@
       </c>
       <c r="Y126" s="13"/>
     </row>
-    <row r="127" spans="2:25">
+    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B127" s="11">
         <v>45922</v>
       </c>
@@ -2926,7 +3045,7 @@
       </c>
       <c r="R127" s="13"/>
     </row>
-    <row r="128" spans="2:25" hidden="1">
+    <row r="128" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="11">
         <v>45922</v>
       </c>
@@ -2936,7 +3055,7 @@
       <c r="R128" s="13"/>
       <c r="Y128" s="13"/>
     </row>
-    <row r="129" spans="2:25" hidden="1">
+    <row r="129" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="11">
         <v>45922</v>
       </c>
@@ -2946,7 +3065,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25" hidden="1">
+    <row r="130" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -2956,7 +3075,7 @@
       <c r="R130" s="13"/>
       <c r="Y130" s="13"/>
     </row>
-    <row r="131" spans="2:25" hidden="1">
+    <row r="131" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="11">
         <v>45923</v>
       </c>
@@ -2965,7 +3084,7 @@
       </c>
       <c r="R131" s="13"/>
     </row>
-    <row r="132" spans="2:25" hidden="1">
+    <row r="132" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="11">
         <v>45923</v>
       </c>
@@ -2975,7 +3094,7 @@
       <c r="R132" s="13"/>
       <c r="Y132" s="13"/>
     </row>
-    <row r="133" spans="2:25" hidden="1">
+    <row r="133" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="11">
         <v>45923</v>
       </c>
@@ -2984,7 +3103,7 @@
       </c>
       <c r="Y133" s="13"/>
     </row>
-    <row r="134" spans="2:25">
+    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B134" s="11">
         <v>45923</v>
       </c>
@@ -2993,7 +3112,7 @@
       </c>
       <c r="R134" s="13"/>
     </row>
-    <row r="135" spans="2:25" hidden="1">
+    <row r="135" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="11">
         <v>45923</v>
       </c>
@@ -3003,7 +3122,7 @@
       <c r="R135" s="13"/>
       <c r="Y135" s="13"/>
     </row>
-    <row r="136" spans="2:25" hidden="1">
+    <row r="136" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="11">
         <v>45923</v>
       </c>
@@ -3013,7 +3132,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25" hidden="1">
+    <row r="137" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -3023,7 +3142,7 @@
       <c r="R137" s="13"/>
       <c r="Y137" s="13"/>
     </row>
-    <row r="138" spans="2:25" hidden="1">
+    <row r="138" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="11">
         <v>45924</v>
       </c>
@@ -3032,7 +3151,7 @@
       </c>
       <c r="R138" s="13"/>
     </row>
-    <row r="139" spans="2:25" hidden="1">
+    <row r="139" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="11">
         <v>45924</v>
       </c>
@@ -3042,7 +3161,7 @@
       <c r="R139" s="13"/>
       <c r="Y139" s="13"/>
     </row>
-    <row r="140" spans="2:25" hidden="1">
+    <row r="140" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="11">
         <v>45924</v>
       </c>
@@ -3051,7 +3170,7 @@
       </c>
       <c r="Y140" s="13"/>
     </row>
-    <row r="141" spans="2:25">
+    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B141" s="11">
         <v>45924</v>
       </c>
@@ -3060,7 +3179,7 @@
       </c>
       <c r="R141" s="13"/>
     </row>
-    <row r="142" spans="2:25" hidden="1">
+    <row r="142" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="11">
         <v>45924</v>
       </c>
@@ -3070,7 +3189,7 @@
       <c r="R142" s="13"/>
       <c r="Y142" s="13"/>
     </row>
-    <row r="143" spans="2:25" hidden="1">
+    <row r="143" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="11">
         <v>45924</v>
       </c>
@@ -3080,7 +3199,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25" hidden="1">
+    <row r="144" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -3090,7 +3209,7 @@
       <c r="R144" s="13"/>
       <c r="Y144" s="13"/>
     </row>
-    <row r="145" spans="2:25" hidden="1">
+    <row r="145" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="11">
         <v>45925</v>
       </c>
@@ -3099,7 +3218,7 @@
       </c>
       <c r="R145" s="13"/>
     </row>
-    <row r="146" spans="2:25" hidden="1">
+    <row r="146" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="11">
         <v>45925</v>
       </c>
@@ -3109,7 +3228,7 @@
       <c r="R146" s="13"/>
       <c r="Y146" s="13"/>
     </row>
-    <row r="147" spans="2:25" hidden="1">
+    <row r="147" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="11">
         <v>45925</v>
       </c>
@@ -3118,7 +3237,7 @@
       </c>
       <c r="Y147" s="13"/>
     </row>
-    <row r="148" spans="2:25">
+    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B148" s="11">
         <v>45925</v>
       </c>
@@ -3127,7 +3246,7 @@
       </c>
       <c r="R148" s="13"/>
     </row>
-    <row r="149" spans="2:25" hidden="1">
+    <row r="149" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="11">
         <v>45925</v>
       </c>
@@ -3137,7 +3256,7 @@
       <c r="R149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" hidden="1">
+    <row r="150" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="11">
         <v>45925</v>
       </c>
@@ -3147,7 +3266,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" hidden="1">
+    <row r="151" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -3157,7 +3276,7 @@
       <c r="R151" s="13"/>
       <c r="Y151" s="13"/>
     </row>
-    <row r="152" spans="2:25" hidden="1">
+    <row r="152" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="11">
         <v>45926</v>
       </c>
@@ -3166,7 +3285,7 @@
       </c>
       <c r="R152" s="13"/>
     </row>
-    <row r="153" spans="2:25" hidden="1">
+    <row r="153" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="11">
         <v>45926</v>
       </c>
@@ -3176,7 +3295,7 @@
       <c r="R153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="2:25" hidden="1">
+    <row r="154" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="11">
         <v>45926</v>
       </c>
@@ -3185,7 +3304,7 @@
       </c>
       <c r="Y154" s="13"/>
     </row>
-    <row r="155" spans="2:25">
+    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B155" s="11">
         <v>45926</v>
       </c>
@@ -3194,7 +3313,7 @@
       </c>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" spans="2:25" hidden="1">
+    <row r="156" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="11">
         <v>45926</v>
       </c>
@@ -3204,7 +3323,7 @@
       <c r="R156" s="13"/>
       <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="2:25" hidden="1">
+    <row r="157" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="11">
         <v>45926</v>
       </c>
@@ -3214,7 +3333,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25" hidden="1">
+    <row r="158" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3224,7 +3343,7 @@
       <c r="R158" s="13"/>
       <c r="Y158" s="13"/>
     </row>
-    <row r="159" spans="2:25" hidden="1">
+    <row r="159" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="11">
         <v>45927</v>
       </c>
@@ -3233,7 +3352,7 @@
       </c>
       <c r="R159" s="13"/>
     </row>
-    <row r="160" spans="2:25" hidden="1">
+    <row r="160" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="11">
         <v>45927</v>
       </c>
@@ -3243,7 +3362,7 @@
       <c r="R160" s="13"/>
       <c r="Y160" s="13"/>
     </row>
-    <row r="161" spans="2:25" hidden="1">
+    <row r="161" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="11">
         <v>45927</v>
       </c>
@@ -3252,7 +3371,7 @@
       </c>
       <c r="Y161" s="13"/>
     </row>
-    <row r="162" spans="2:25">
+    <row r="162" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B162" s="11">
         <v>45927</v>
       </c>
@@ -3261,7 +3380,7 @@
       </c>
       <c r="R162" s="13"/>
     </row>
-    <row r="163" spans="2:25" hidden="1">
+    <row r="163" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="11">
         <v>45927</v>
       </c>
@@ -3271,7 +3390,7 @@
       <c r="R163" s="13"/>
       <c r="Y163" s="13"/>
     </row>
-    <row r="164" spans="2:25" hidden="1">
+    <row r="164" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="11">
         <v>45927</v>
       </c>
@@ -3281,7 +3400,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25" hidden="1">
+    <row r="165" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3291,7 +3410,7 @@
       <c r="R165" s="13"/>
       <c r="Y165" s="13"/>
     </row>
-    <row r="166" spans="2:25" hidden="1">
+    <row r="166" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="11">
         <v>45928</v>
       </c>
@@ -3300,7 +3419,7 @@
       </c>
       <c r="R166" s="13"/>
     </row>
-    <row r="167" spans="2:25" hidden="1">
+    <row r="167" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="11">
         <v>45928</v>
       </c>
@@ -3310,7 +3429,7 @@
       <c r="R167" s="13"/>
       <c r="Y167" s="13"/>
     </row>
-    <row r="168" spans="2:25" hidden="1">
+    <row r="168" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="11">
         <v>45928</v>
       </c>
@@ -3319,7 +3438,7 @@
       </c>
       <c r="Y168" s="13"/>
     </row>
-    <row r="169" spans="2:25">
+    <row r="169" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B169" s="11">
         <v>45928</v>
       </c>
@@ -3328,7 +3447,7 @@
       </c>
       <c r="R169" s="13"/>
     </row>
-    <row r="170" spans="2:25" hidden="1">
+    <row r="170" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="11">
         <v>45928</v>
       </c>
@@ -3338,7 +3457,7 @@
       <c r="R170" s="13"/>
       <c r="Y170" s="13"/>
     </row>
-    <row r="171" spans="2:25" hidden="1">
+    <row r="171" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="11">
         <v>45928</v>
       </c>
@@ -3348,7 +3467,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25" hidden="1">
+    <row r="172" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3358,7 +3477,7 @@
       <c r="R172" s="13"/>
       <c r="Y172" s="13"/>
     </row>
-    <row r="173" spans="2:25" hidden="1">
+    <row r="173" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="11">
         <v>45929</v>
       </c>
@@ -3367,7 +3486,7 @@
       </c>
       <c r="R173" s="13"/>
     </row>
-    <row r="174" spans="2:25" hidden="1">
+    <row r="174" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="11">
         <v>45929</v>
       </c>
@@ -3377,7 +3496,7 @@
       <c r="R174" s="13"/>
       <c r="Y174" s="13"/>
     </row>
-    <row r="175" spans="2:25" hidden="1">
+    <row r="175" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="11">
         <v>45929</v>
       </c>
@@ -3386,7 +3505,7 @@
       </c>
       <c r="Y175" s="13"/>
     </row>
-    <row r="176" spans="2:25">
+    <row r="176" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B176" s="11">
         <v>45929</v>
       </c>
@@ -3395,7 +3514,7 @@
       </c>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" spans="2:25" hidden="1">
+    <row r="177" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="11">
         <v>45929</v>
       </c>
@@ -3405,7 +3524,7 @@
       <c r="R177" s="13"/>
       <c r="Y177" s="13"/>
     </row>
-    <row r="178" spans="2:25" hidden="1">
+    <row r="178" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="11">
         <v>45929</v>
       </c>
@@ -3415,7 +3534,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25" hidden="1">
+    <row r="179" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3425,7 +3544,7 @@
       <c r="R179" s="13"/>
       <c r="Y179" s="13"/>
     </row>
-    <row r="180" spans="2:25" hidden="1">
+    <row r="180" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="11">
         <v>45930</v>
       </c>
@@ -3434,7 +3553,7 @@
       </c>
       <c r="R180" s="13"/>
     </row>
-    <row r="181" spans="2:25" hidden="1">
+    <row r="181" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="11">
         <v>45930</v>
       </c>
@@ -3444,7 +3563,7 @@
       <c r="R181" s="13"/>
       <c r="Y181" s="13"/>
     </row>
-    <row r="182" spans="2:25" hidden="1">
+    <row r="182" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="11">
         <v>45930</v>
       </c>
@@ -3453,7 +3572,7 @@
       </c>
       <c r="Y182" s="13"/>
     </row>
-    <row r="183" spans="2:25">
+    <row r="183" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B183" s="11">
         <v>45930</v>
       </c>
@@ -3462,7 +3581,7 @@
       </c>
       <c r="R183" s="13"/>
     </row>
-    <row r="184" spans="2:25" hidden="1">
+    <row r="184" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="11">
         <v>45930</v>
       </c>
@@ -3472,7 +3591,7 @@
       <c r="R184" s="13"/>
       <c r="Y184" s="13"/>
     </row>
-    <row r="185" spans="2:25" hidden="1">
+    <row r="185" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="11">
         <v>45930</v>
       </c>
@@ -3482,7 +3601,7 @@
       <c r="R185" s="13"/>
       <c r="Y185" s="13"/>
     </row>
-    <row r="186" spans="2:25" hidden="1">
+    <row r="186" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="11">
         <v>45931</v>
       </c>
@@ -3492,7 +3611,7 @@
       <c r="R186" s="13"/>
       <c r="Y186" s="13"/>
     </row>
-    <row r="187" spans="2:25" hidden="1">
+    <row r="187" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="11">
         <v>45931</v>
       </c>
@@ -3502,7 +3621,7 @@
       <c r="R187" s="13"/>
       <c r="Y187" s="13"/>
     </row>
-    <row r="188" spans="2:25" hidden="1">
+    <row r="188" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="11">
         <v>45931</v>
       </c>
@@ -3512,7 +3631,7 @@
       <c r="R188" s="13"/>
       <c r="Y188" s="13"/>
     </row>
-    <row r="189" spans="2:25" hidden="1">
+    <row r="189" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="11">
         <v>45931</v>
       </c>
@@ -3522,7 +3641,7 @@
       <c r="R189" s="13"/>
       <c r="Y189" s="13"/>
     </row>
-    <row r="190" spans="2:25" hidden="1">
+    <row r="190" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="11">
         <v>45931</v>
       </c>
@@ -3532,7 +3651,7 @@
       <c r="R190" s="13"/>
       <c r="Y190" s="13"/>
     </row>
-    <row r="191" spans="2:25" hidden="1">
+    <row r="191" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="11">
         <v>45931</v>
       </c>
@@ -3542,7 +3661,7 @@
       <c r="R191" s="13"/>
       <c r="Y191" s="13"/>
     </row>
-    <row r="192" spans="2:25" hidden="1">
+    <row r="192" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="11">
         <v>45931</v>
       </c>
@@ -3552,7 +3671,7 @@
       <c r="R192" s="13"/>
       <c r="Y192" s="13"/>
     </row>
-    <row r="193" spans="2:25" hidden="1">
+    <row r="193" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="11">
         <v>45932</v>
       </c>
@@ -3562,7 +3681,7 @@
       <c r="R193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" hidden="1">
+    <row r="194" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="11">
         <v>45932</v>
       </c>
@@ -3572,7 +3691,7 @@
       <c r="R194" s="13"/>
       <c r="Y194" s="13"/>
     </row>
-    <row r="195" spans="2:25" hidden="1">
+    <row r="195" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="11">
         <v>45932</v>
       </c>
@@ -3582,7 +3701,7 @@
       <c r="R195" s="13"/>
       <c r="Y195" s="13"/>
     </row>
-    <row r="196" spans="2:25" hidden="1">
+    <row r="196" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="11">
         <v>45932</v>
       </c>
@@ -3592,7 +3711,7 @@
       <c r="R196" s="13"/>
       <c r="Y196" s="13"/>
     </row>
-    <row r="197" spans="2:25" hidden="1">
+    <row r="197" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="11">
         <v>45932</v>
       </c>
@@ -3602,7 +3721,7 @@
       <c r="R197" s="13"/>
       <c r="Y197" s="13"/>
     </row>
-    <row r="198" spans="2:25" hidden="1">
+    <row r="198" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="11">
         <v>45932</v>
       </c>
@@ -3612,7 +3731,7 @@
       <c r="R198" s="13"/>
       <c r="Y198" s="13"/>
     </row>
-    <row r="199" spans="2:25" hidden="1">
+    <row r="199" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="11">
         <v>45932</v>
       </c>
@@ -3622,7 +3741,7 @@
       <c r="R199" s="13"/>
       <c r="Y199" s="13"/>
     </row>
-    <row r="200" spans="2:25" hidden="1">
+    <row r="200" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="11">
         <v>45933</v>
       </c>
@@ -3632,7 +3751,7 @@
       <c r="R200" s="13"/>
       <c r="Y200" s="13"/>
     </row>
-    <row r="201" spans="2:25" hidden="1">
+    <row r="201" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="11">
         <v>45933</v>
       </c>
@@ -3642,7 +3761,7 @@
       <c r="R201" s="13"/>
       <c r="Y201" s="13"/>
     </row>
-    <row r="202" spans="2:25" hidden="1">
+    <row r="202" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="11">
         <v>45933</v>
       </c>
@@ -3652,7 +3771,7 @@
       <c r="R202" s="13"/>
       <c r="Y202" s="13"/>
     </row>
-    <row r="203" spans="2:25" hidden="1">
+    <row r="203" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="11">
         <v>45933</v>
       </c>
@@ -3662,7 +3781,7 @@
       <c r="R203" s="13"/>
       <c r="Y203" s="13"/>
     </row>
-    <row r="204" spans="2:25" hidden="1">
+    <row r="204" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="11">
         <v>45933</v>
       </c>
@@ -3672,7 +3791,7 @@
       <c r="R204" s="13"/>
       <c r="Y204" s="13"/>
     </row>
-    <row r="205" spans="2:25" hidden="1">
+    <row r="205" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="11">
         <v>45933</v>
       </c>
@@ -3682,7 +3801,7 @@
       <c r="R205" s="13"/>
       <c r="Y205" s="13"/>
     </row>
-    <row r="206" spans="2:25" hidden="1">
+    <row r="206" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="11">
         <v>45933</v>
       </c>
@@ -3692,7 +3811,7 @@
       <c r="R206" s="13"/>
       <c r="Y206" s="13"/>
     </row>
-    <row r="207" spans="2:25" hidden="1">
+    <row r="207" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="11">
         <v>45934</v>
       </c>
@@ -3702,7 +3821,7 @@
       <c r="R207" s="13"/>
       <c r="Y207" s="13"/>
     </row>
-    <row r="208" spans="2:25" hidden="1">
+    <row r="208" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="11">
         <v>45934</v>
       </c>
@@ -3712,7 +3831,7 @@
       <c r="R208" s="13"/>
       <c r="Y208" s="13"/>
     </row>
-    <row r="209" spans="2:25" hidden="1">
+    <row r="209" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="11">
         <v>45934</v>
       </c>
@@ -3722,7 +3841,7 @@
       <c r="R209" s="13"/>
       <c r="Y209" s="13"/>
     </row>
-    <row r="210" spans="2:25" hidden="1">
+    <row r="210" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="11">
         <v>45934</v>
       </c>
@@ -3732,7 +3851,7 @@
       <c r="R210" s="13"/>
       <c r="Y210" s="13"/>
     </row>
-    <row r="211" spans="2:25" hidden="1">
+    <row r="211" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="11">
         <v>45934</v>
       </c>
@@ -3742,7 +3861,7 @@
       <c r="R211" s="13"/>
       <c r="Y211" s="13"/>
     </row>
-    <row r="212" spans="2:25" hidden="1">
+    <row r="212" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="11">
         <v>45934</v>
       </c>
@@ -3752,7 +3871,7 @@
       <c r="R212" s="13"/>
       <c r="Y212" s="13"/>
     </row>
-    <row r="213" spans="2:25" hidden="1">
+    <row r="213" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="11">
         <v>45934</v>
       </c>
@@ -3762,7 +3881,7 @@
       <c r="R213" s="13"/>
       <c r="Y213" s="13"/>
     </row>
-    <row r="214" spans="2:25" hidden="1">
+    <row r="214" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="11">
         <v>45935</v>
       </c>
@@ -3772,7 +3891,7 @@
       <c r="R214" s="13"/>
       <c r="Y214" s="13"/>
     </row>
-    <row r="215" spans="2:25" hidden="1">
+    <row r="215" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="11">
         <v>45935</v>
       </c>
@@ -3782,7 +3901,7 @@
       <c r="R215" s="13"/>
       <c r="Y215" s="13"/>
     </row>
-    <row r="216" spans="2:25" hidden="1">
+    <row r="216" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="11">
         <v>45935</v>
       </c>
@@ -3792,7 +3911,7 @@
       <c r="R216" s="13"/>
       <c r="Y216" s="13"/>
     </row>
-    <row r="217" spans="2:25" hidden="1">
+    <row r="217" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="11">
         <v>45935</v>
       </c>
@@ -3802,7 +3921,7 @@
       <c r="R217" s="13"/>
       <c r="Y217" s="13"/>
     </row>
-    <row r="218" spans="2:25" hidden="1">
+    <row r="218" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="11">
         <v>45935</v>
       </c>
@@ -3812,7 +3931,7 @@
       <c r="R218" s="13"/>
       <c r="Y218" s="13"/>
     </row>
-    <row r="219" spans="2:25" hidden="1">
+    <row r="219" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="11">
         <v>45935</v>
       </c>
@@ -3822,7 +3941,7 @@
       <c r="R219" s="13"/>
       <c r="Y219" s="13"/>
     </row>
-    <row r="220" spans="2:25" hidden="1">
+    <row r="220" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="11">
         <v>45935</v>
       </c>
@@ -3832,7 +3951,7 @@
       <c r="R220" s="13"/>
       <c r="Y220" s="13"/>
     </row>
-    <row r="221" spans="2:25" hidden="1">
+    <row r="221" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="11">
         <v>45936</v>
       </c>
@@ -3842,7 +3961,7 @@
       <c r="R221" s="13"/>
       <c r="Y221" s="13"/>
     </row>
-    <row r="222" spans="2:25" hidden="1">
+    <row r="222" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="11">
         <v>45936</v>
       </c>
@@ -3852,7 +3971,7 @@
       <c r="R222" s="13"/>
       <c r="Y222" s="13"/>
     </row>
-    <row r="223" spans="2:25" hidden="1">
+    <row r="223" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="11">
         <v>45936</v>
       </c>
@@ -3862,7 +3981,7 @@
       <c r="R223" s="13"/>
       <c r="Y223" s="13"/>
     </row>
-    <row r="224" spans="2:25" hidden="1">
+    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="11">
         <v>45936</v>
       </c>
@@ -3872,7 +3991,7 @@
       <c r="R224" s="13"/>
       <c r="Y224" s="13"/>
     </row>
-    <row r="225" spans="2:25" hidden="1">
+    <row r="225" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="11">
         <v>45936</v>
       </c>
@@ -3882,7 +4001,7 @@
       <c r="R225" s="13"/>
       <c r="Y225" s="13"/>
     </row>
-    <row r="226" spans="2:25" hidden="1">
+    <row r="226" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="11">
         <v>45936</v>
       </c>
@@ -3892,7 +4011,7 @@
       <c r="R226" s="13"/>
       <c r="Y226" s="13"/>
     </row>
-    <row r="227" spans="2:25" hidden="1">
+    <row r="227" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="11">
         <v>45936</v>
       </c>
@@ -3902,7 +4021,7 @@
       <c r="R227" s="13"/>
       <c r="Y227" s="13"/>
     </row>
-    <row r="228" spans="2:25" hidden="1">
+    <row r="228" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="11">
         <v>45937</v>
       </c>
@@ -3912,7 +4031,7 @@
       <c r="R228" s="13"/>
       <c r="Y228" s="13"/>
     </row>
-    <row r="229" spans="2:25" hidden="1">
+    <row r="229" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="11">
         <v>45937</v>
       </c>
@@ -3922,7 +4041,7 @@
       <c r="R229" s="13"/>
       <c r="Y229" s="13"/>
     </row>
-    <row r="230" spans="2:25" hidden="1">
+    <row r="230" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="11">
         <v>45937</v>
       </c>
@@ -3932,7 +4051,7 @@
       <c r="R230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="2:25" hidden="1">
+    <row r="231" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="11">
         <v>45937</v>
       </c>
@@ -3942,7 +4061,7 @@
       <c r="R231" s="13"/>
       <c r="Y231" s="13"/>
     </row>
-    <row r="232" spans="2:25" hidden="1">
+    <row r="232" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="11">
         <v>45937</v>
       </c>
@@ -3952,7 +4071,7 @@
       <c r="R232" s="13"/>
       <c r="Y232" s="13"/>
     </row>
-    <row r="233" spans="2:25" hidden="1">
+    <row r="233" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="11">
         <v>45937</v>
       </c>
@@ -3962,7 +4081,7 @@
       <c r="R233" s="13"/>
       <c r="Y233" s="13"/>
     </row>
-    <row r="234" spans="2:25" hidden="1">
+    <row r="234" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="11">
         <v>45937</v>
       </c>
@@ -3972,7 +4091,7 @@
       <c r="R234" s="13"/>
       <c r="Y234" s="13"/>
     </row>
-    <row r="235" spans="2:25" hidden="1">
+    <row r="235" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="11">
         <v>45938</v>
       </c>
@@ -3982,7 +4101,7 @@
       <c r="R235" s="13"/>
       <c r="Y235" s="13"/>
     </row>
-    <row r="236" spans="2:25" hidden="1">
+    <row r="236" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="11">
         <v>45938</v>
       </c>
@@ -3992,7 +4111,7 @@
       <c r="R236" s="13"/>
       <c r="Y236" s="13"/>
     </row>
-    <row r="237" spans="2:25" hidden="1">
+    <row r="237" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="11">
         <v>45938</v>
       </c>
@@ -4002,7 +4121,7 @@
       <c r="R237" s="13"/>
       <c r="Y237" s="13"/>
     </row>
-    <row r="238" spans="2:25" hidden="1">
+    <row r="238" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="11">
         <v>45938</v>
       </c>
@@ -4012,7 +4131,7 @@
       <c r="R238" s="13"/>
       <c r="Y238" s="13"/>
     </row>
-    <row r="239" spans="2:25" hidden="1">
+    <row r="239" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="11">
         <v>45938</v>
       </c>
@@ -4022,7 +4141,7 @@
       <c r="R239" s="13"/>
       <c r="Y239" s="13"/>
     </row>
-    <row r="240" spans="2:25" hidden="1">
+    <row r="240" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="11">
         <v>45938</v>
       </c>
@@ -4032,7 +4151,7 @@
       <c r="R240" s="13"/>
       <c r="Y240" s="13"/>
     </row>
-    <row r="241" spans="2:25" hidden="1">
+    <row r="241" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="11">
         <v>45938</v>
       </c>
@@ -4042,7 +4161,7 @@
       <c r="R241" s="13"/>
       <c r="Y241" s="13"/>
     </row>
-    <row r="242" spans="2:25" hidden="1">
+    <row r="242" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242" s="11">
         <v>45939</v>
       </c>
@@ -4052,7 +4171,7 @@
       <c r="R242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" hidden="1">
+    <row r="243" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243" s="11">
         <v>45939</v>
       </c>
@@ -4062,7 +4181,7 @@
       <c r="R243" s="13"/>
       <c r="Y243" s="13"/>
     </row>
-    <row r="244" spans="2:25" hidden="1">
+    <row r="244" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244" s="11">
         <v>45939</v>
       </c>
@@ -4072,7 +4191,7 @@
       <c r="R244" s="13"/>
       <c r="Y244" s="13"/>
     </row>
-    <row r="245" spans="2:25" hidden="1">
+    <row r="245" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245" s="11">
         <v>45939</v>
       </c>
@@ -4082,7 +4201,7 @@
       <c r="R245" s="13"/>
       <c r="Y245" s="13"/>
     </row>
-    <row r="246" spans="2:25" hidden="1">
+    <row r="246" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246" s="11">
         <v>45939</v>
       </c>
@@ -4092,7 +4211,7 @@
       <c r="R246" s="13"/>
       <c r="Y246" s="13"/>
     </row>
-    <row r="247" spans="2:25" hidden="1">
+    <row r="247" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="11">
         <v>45939</v>
       </c>
@@ -4102,7 +4221,7 @@
       <c r="R247" s="13"/>
       <c r="Y247" s="13"/>
     </row>
-    <row r="248" spans="2:25" hidden="1">
+    <row r="248" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="11">
         <v>45939</v>
       </c>
@@ -4112,7 +4231,7 @@
       <c r="R248" s="13"/>
       <c r="Y248" s="13"/>
     </row>
-    <row r="249" spans="2:25" hidden="1">
+    <row r="249" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" s="11">
         <v>45940</v>
       </c>
@@ -4122,7 +4241,7 @@
       <c r="R249" s="13"/>
       <c r="Y249" s="13"/>
     </row>
-    <row r="250" spans="2:25" hidden="1">
+    <row r="250" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250" s="11">
         <v>45940</v>
       </c>
@@ -4132,7 +4251,7 @@
       <c r="R250" s="13"/>
       <c r="Y250" s="13"/>
     </row>
-    <row r="251" spans="2:25" hidden="1">
+    <row r="251" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251" s="11">
         <v>45940</v>
       </c>
@@ -4142,7 +4261,7 @@
       <c r="R251" s="13"/>
       <c r="Y251" s="13"/>
     </row>
-    <row r="252" spans="2:25" hidden="1">
+    <row r="252" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252" s="11">
         <v>45940</v>
       </c>
@@ -4152,7 +4271,7 @@
       <c r="R252" s="13"/>
       <c r="Y252" s="13"/>
     </row>
-    <row r="253" spans="2:25" hidden="1">
+    <row r="253" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253" s="11">
         <v>45940</v>
       </c>
@@ -4162,7 +4281,7 @@
       <c r="R253" s="13"/>
       <c r="Y253" s="13"/>
     </row>
-    <row r="254" spans="2:25" hidden="1">
+    <row r="254" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254" s="11">
         <v>45940</v>
       </c>
@@ -4172,7 +4291,7 @@
       <c r="R254" s="13"/>
       <c r="Y254" s="13"/>
     </row>
-    <row r="255" spans="2:25" hidden="1">
+    <row r="255" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255" s="11">
         <v>45940</v>
       </c>
@@ -4182,7 +4301,7 @@
       <c r="R255" s="13"/>
       <c r="Y255" s="13"/>
     </row>
-    <row r="256" spans="2:25" hidden="1">
+    <row r="256" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B256" s="11">
         <v>45941</v>
       </c>
@@ -4192,7 +4311,7 @@
       <c r="R256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="2:25" hidden="1">
+    <row r="257" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257" s="11">
         <v>45941</v>
       </c>
@@ -4202,7 +4321,7 @@
       <c r="R257" s="13"/>
       <c r="Y257" s="13"/>
     </row>
-    <row r="258" spans="2:25" hidden="1">
+    <row r="258" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B258" s="11">
         <v>45941</v>
       </c>
@@ -4212,7 +4331,7 @@
       <c r="R258" s="13"/>
       <c r="Y258" s="13"/>
     </row>
-    <row r="259" spans="2:25" hidden="1">
+    <row r="259" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B259" s="11">
         <v>45941</v>
       </c>
@@ -4222,7 +4341,7 @@
       <c r="R259" s="13"/>
       <c r="Y259" s="13"/>
     </row>
-    <row r="260" spans="2:25" hidden="1">
+    <row r="260" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B260" s="11">
         <v>45941</v>
       </c>
@@ -4232,7 +4351,7 @@
       <c r="R260" s="13"/>
       <c r="Y260" s="13"/>
     </row>
-    <row r="261" spans="2:25" hidden="1">
+    <row r="261" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B261" s="11">
         <v>45941</v>
       </c>
@@ -4242,7 +4361,7 @@
       <c r="R261" s="13"/>
       <c r="Y261" s="13"/>
     </row>
-    <row r="262" spans="2:25" hidden="1">
+    <row r="262" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B262" s="11">
         <v>45941</v>
       </c>
@@ -4252,7 +4371,7 @@
       <c r="R262" s="13"/>
       <c r="Y262" s="13"/>
     </row>
-    <row r="263" spans="2:25" hidden="1">
+    <row r="263" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B263" s="11">
         <v>45942</v>
       </c>
@@ -4262,7 +4381,7 @@
       <c r="R263" s="13"/>
       <c r="Y263" s="13"/>
     </row>
-    <row r="264" spans="2:25" hidden="1">
+    <row r="264" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B264" s="11">
         <v>45942</v>
       </c>
@@ -4272,7 +4391,7 @@
       <c r="R264" s="13"/>
       <c r="Y264" s="13"/>
     </row>
-    <row r="265" spans="2:25" hidden="1">
+    <row r="265" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B265" s="11">
         <v>45942</v>
       </c>
@@ -4282,7 +4401,7 @@
       <c r="R265" s="13"/>
       <c r="Y265" s="13"/>
     </row>
-    <row r="266" spans="2:25" hidden="1">
+    <row r="266" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B266" s="11">
         <v>45942</v>
       </c>
@@ -4292,7 +4411,7 @@
       <c r="R266" s="13"/>
       <c r="Y266" s="13"/>
     </row>
-    <row r="267" spans="2:25" hidden="1">
+    <row r="267" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267" s="11">
         <v>45942</v>
       </c>
@@ -4302,7 +4421,7 @@
       <c r="R267" s="13"/>
       <c r="Y267" s="13"/>
     </row>
-    <row r="268" spans="2:25" hidden="1">
+    <row r="268" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B268" s="11">
         <v>45942</v>
       </c>
@@ -4312,7 +4431,7 @@
       <c r="R268" s="13"/>
       <c r="Y268" s="13"/>
     </row>
-    <row r="269" spans="2:25" hidden="1">
+    <row r="269" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="11">
         <v>45942</v>
       </c>
@@ -4322,7 +4441,7 @@
       <c r="R269" s="13"/>
       <c r="Y269" s="13"/>
     </row>
-    <row r="270" spans="2:25" hidden="1">
+    <row r="270" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="11">
         <v>45943</v>
       </c>
@@ -4332,7 +4451,7 @@
       <c r="R270" s="13"/>
       <c r="Y270" s="13"/>
     </row>
-    <row r="271" spans="2:25" hidden="1">
+    <row r="271" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="11">
         <v>45943</v>
       </c>
@@ -4342,7 +4461,7 @@
       <c r="R271" s="13"/>
       <c r="Y271" s="13"/>
     </row>
-    <row r="272" spans="2:25" hidden="1">
+    <row r="272" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="11">
         <v>45943</v>
       </c>
@@ -4352,7 +4471,7 @@
       <c r="R272" s="13"/>
       <c r="Y272" s="13"/>
     </row>
-    <row r="273" spans="2:25" hidden="1">
+    <row r="273" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="11">
         <v>45943</v>
       </c>
@@ -4362,7 +4481,7 @@
       <c r="R273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" hidden="1">
+    <row r="274" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274" s="11">
         <v>45943</v>
       </c>
@@ -4372,7 +4491,7 @@
       <c r="R274" s="13"/>
       <c r="Y274" s="13"/>
     </row>
-    <row r="275" spans="2:25" hidden="1">
+    <row r="275" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275" s="11">
         <v>45943</v>
       </c>
@@ -4382,7 +4501,7 @@
       <c r="R275" s="13"/>
       <c r="Y275" s="13"/>
     </row>
-    <row r="276" spans="2:25" hidden="1">
+    <row r="276" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276" s="11">
         <v>45943</v>
       </c>
@@ -4392,7 +4511,7 @@
       <c r="R276" s="13"/>
       <c r="Y276" s="13"/>
     </row>
-    <row r="277" spans="2:25" hidden="1">
+    <row r="277" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B277" s="11">
         <v>45944</v>
       </c>
@@ -4402,7 +4521,7 @@
       <c r="R277" s="13"/>
       <c r="Y277" s="13"/>
     </row>
-    <row r="278" spans="2:25" hidden="1">
+    <row r="278" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B278" s="11">
         <v>45944</v>
       </c>
@@ -4412,7 +4531,7 @@
       <c r="R278" s="13"/>
       <c r="Y278" s="13"/>
     </row>
-    <row r="279" spans="2:25" hidden="1">
+    <row r="279" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B279" s="11">
         <v>45944</v>
       </c>
@@ -4422,7 +4541,7 @@
       <c r="R279" s="13"/>
       <c r="Y279" s="13"/>
     </row>
-    <row r="280" spans="2:25" hidden="1">
+    <row r="280" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B280" s="11">
         <v>45944</v>
       </c>
@@ -4432,7 +4551,7 @@
       <c r="R280" s="13"/>
       <c r="Y280" s="13"/>
     </row>
-    <row r="281" spans="2:25" hidden="1">
+    <row r="281" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281" s="11">
         <v>45944</v>
       </c>
@@ -4442,7 +4561,7 @@
       <c r="R281" s="13"/>
       <c r="Y281" s="13"/>
     </row>
-    <row r="282" spans="2:25" hidden="1">
+    <row r="282" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B282" s="11">
         <v>45944</v>
       </c>
@@ -4452,7 +4571,7 @@
       <c r="R282" s="13"/>
       <c r="Y282" s="13"/>
     </row>
-    <row r="283" spans="2:25" hidden="1">
+    <row r="283" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B283" s="11">
         <v>45944</v>
       </c>
@@ -4462,7 +4581,7 @@
       <c r="R283" s="13"/>
       <c r="Y283" s="13"/>
     </row>
-    <row r="284" spans="2:25" hidden="1">
+    <row r="284" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B284" s="11">
         <v>45945</v>
       </c>
@@ -4472,7 +4591,7 @@
       <c r="R284" s="13"/>
       <c r="Y284" s="13"/>
     </row>
-    <row r="285" spans="2:25" hidden="1">
+    <row r="285" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B285" s="11">
         <v>45945</v>
       </c>
@@ -4482,7 +4601,7 @@
       <c r="R285" s="13"/>
       <c r="Y285" s="13"/>
     </row>
-    <row r="286" spans="2:25" hidden="1">
+    <row r="286" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B286" s="11">
         <v>45945</v>
       </c>
@@ -4492,7 +4611,7 @@
       <c r="R286" s="13"/>
       <c r="Y286" s="13"/>
     </row>
-    <row r="287" spans="2:25" hidden="1">
+    <row r="287" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B287" s="11">
         <v>45945</v>
       </c>
@@ -4502,7 +4621,7 @@
       <c r="R287" s="13"/>
       <c r="Y287" s="13"/>
     </row>
-    <row r="288" spans="2:25" hidden="1">
+    <row r="288" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288" s="11">
         <v>45945</v>
       </c>
@@ -4512,7 +4631,7 @@
       <c r="R288" s="13"/>
       <c r="Y288" s="13"/>
     </row>
-    <row r="289" spans="2:25" hidden="1">
+    <row r="289" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289" s="11">
         <v>45945</v>
       </c>
@@ -4522,7 +4641,7 @@
       <c r="R289" s="13"/>
       <c r="Y289" s="13"/>
     </row>
-    <row r="290" spans="2:25" hidden="1">
+    <row r="290" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B290" s="11">
         <v>45945</v>
       </c>
@@ -4532,7 +4651,7 @@
       <c r="R290" s="13"/>
       <c r="Y290" s="13"/>
     </row>
-    <row r="291" spans="2:25" hidden="1">
+    <row r="291" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291" s="11">
         <v>45946</v>
       </c>
@@ -4542,7 +4661,7 @@
       <c r="R291" s="13"/>
       <c r="Y291" s="13"/>
     </row>
-    <row r="292" spans="2:25" hidden="1">
+    <row r="292" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292" s="11">
         <v>45946</v>
       </c>
@@ -4552,7 +4671,7 @@
       <c r="R292" s="13"/>
       <c r="Y292" s="13"/>
     </row>
-    <row r="293" spans="2:25" hidden="1">
+    <row r="293" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293" s="11">
         <v>45946</v>
       </c>
@@ -4562,7 +4681,7 @@
       <c r="R293" s="13"/>
       <c r="Y293" s="13"/>
     </row>
-    <row r="294" spans="2:25" hidden="1">
+    <row r="294" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294" s="11">
         <v>45946</v>
       </c>
@@ -4572,7 +4691,7 @@
       <c r="R294" s="13"/>
       <c r="Y294" s="13"/>
     </row>
-    <row r="295" spans="2:25" hidden="1">
+    <row r="295" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295" s="11">
         <v>45946</v>
       </c>
@@ -4582,7 +4701,7 @@
       <c r="R295" s="13"/>
       <c r="Y295" s="13"/>
     </row>
-    <row r="296" spans="2:25" hidden="1">
+    <row r="296" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296" s="11">
         <v>45946</v>
       </c>
@@ -4592,7 +4711,7 @@
       <c r="R296" s="13"/>
       <c r="Y296" s="13"/>
     </row>
-    <row r="297" spans="2:25" hidden="1">
+    <row r="297" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297" s="11">
         <v>45946</v>
       </c>
@@ -4602,7 +4721,7 @@
       <c r="R297" s="13"/>
       <c r="Y297" s="13"/>
     </row>
-    <row r="298" spans="2:25" hidden="1">
+    <row r="298" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298" s="11">
         <v>45947</v>
       </c>
@@ -4612,7 +4731,7 @@
       <c r="R298" s="13"/>
       <c r="Y298" s="13"/>
     </row>
-    <row r="299" spans="2:25" hidden="1">
+    <row r="299" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299" s="11">
         <v>45947</v>
       </c>
@@ -4622,7 +4741,7 @@
       <c r="R299" s="13"/>
       <c r="Y299" s="13"/>
     </row>
-    <row r="300" spans="2:25" hidden="1">
+    <row r="300" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300" s="11">
         <v>45947</v>
       </c>
@@ -4632,7 +4751,7 @@
       <c r="R300" s="13"/>
       <c r="Y300" s="13"/>
     </row>
-    <row r="301" spans="2:25" hidden="1">
+    <row r="301" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B301" s="11">
         <v>45947</v>
       </c>
@@ -4642,7 +4761,7 @@
       <c r="R301" s="13"/>
       <c r="Y301" s="13"/>
     </row>
-    <row r="302" spans="2:25" hidden="1">
+    <row r="302" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B302" s="11">
         <v>45947</v>
       </c>
@@ -4652,7 +4771,7 @@
       <c r="R302" s="13"/>
       <c r="Y302" s="13"/>
     </row>
-    <row r="303" spans="2:25" hidden="1">
+    <row r="303" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="11">
         <v>45947</v>
       </c>
@@ -4662,7 +4781,7 @@
       <c r="R303" s="13"/>
       <c r="Y303" s="13"/>
     </row>
-    <row r="304" spans="2:25" hidden="1">
+    <row r="304" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B304" s="11">
         <v>45947</v>
       </c>
@@ -4672,7 +4791,7 @@
       <c r="R304" s="13"/>
       <c r="Y304" s="13"/>
     </row>
-    <row r="305" spans="2:25" hidden="1">
+    <row r="305" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B305" s="11">
         <v>45948</v>
       </c>
@@ -4682,7 +4801,7 @@
       <c r="R305" s="13"/>
       <c r="Y305" s="13"/>
     </row>
-    <row r="306" spans="2:25" hidden="1">
+    <row r="306" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306" s="11">
         <v>45948</v>
       </c>
@@ -4692,7 +4811,7 @@
       <c r="R306" s="13"/>
       <c r="Y306" s="13"/>
     </row>
-    <row r="307" spans="2:25" hidden="1">
+    <row r="307" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="11">
         <v>45948</v>
       </c>
@@ -4702,7 +4821,7 @@
       <c r="R307" s="13"/>
       <c r="Y307" s="13"/>
     </row>
-    <row r="308" spans="2:25" hidden="1">
+    <row r="308" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308" s="11">
         <v>45948</v>
       </c>
@@ -4712,7 +4831,7 @@
       <c r="R308" s="13"/>
       <c r="Y308" s="13"/>
     </row>
-    <row r="309" spans="2:25" hidden="1">
+    <row r="309" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="11">
         <v>45948</v>
       </c>
@@ -4722,7 +4841,7 @@
       <c r="R309" s="13"/>
       <c r="Y309" s="13"/>
     </row>
-    <row r="310" spans="2:25" hidden="1">
+    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="11">
         <v>45948</v>
       </c>
@@ -4732,7 +4851,7 @@
       <c r="R310" s="13"/>
       <c r="Y310" s="13"/>
     </row>
-    <row r="311" spans="2:25" hidden="1">
+    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B311" s="11">
         <v>45948</v>
       </c>
@@ -4742,7 +4861,7 @@
       <c r="R311" s="13"/>
       <c r="Y311" s="13"/>
     </row>
-    <row r="312" spans="2:25" hidden="1">
+    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B312" s="11">
         <v>45949</v>
       </c>
@@ -4752,7 +4871,7 @@
       <c r="R312" s="13"/>
       <c r="Y312" s="13"/>
     </row>
-    <row r="313" spans="2:25" hidden="1">
+    <row r="313" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B313" s="11">
         <v>45949</v>
       </c>
@@ -4762,7 +4881,7 @@
       <c r="R313" s="13"/>
       <c r="Y313" s="13"/>
     </row>
-    <row r="314" spans="2:25" hidden="1">
+    <row r="314" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314" s="11">
         <v>45949</v>
       </c>
@@ -4772,7 +4891,7 @@
       <c r="R314" s="13"/>
       <c r="Y314" s="13"/>
     </row>
-    <row r="315" spans="2:25" hidden="1">
+    <row r="315" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="11">
         <v>45949</v>
       </c>
@@ -4782,7 +4901,7 @@
       <c r="R315" s="13"/>
       <c r="Y315" s="13"/>
     </row>
-    <row r="316" spans="2:25" hidden="1">
+    <row r="316" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316" s="11">
         <v>45949</v>
       </c>
@@ -4792,7 +4911,7 @@
       <c r="R316" s="13"/>
       <c r="Y316" s="13"/>
     </row>
-    <row r="317" spans="2:25" hidden="1">
+    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B317" s="11">
         <v>45949</v>
       </c>
@@ -4802,7 +4921,7 @@
       <c r="R317" s="13"/>
       <c r="Y317" s="13"/>
     </row>
-    <row r="318" spans="2:25" hidden="1">
+    <row r="318" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B318" s="11">
         <v>45949</v>
       </c>
@@ -4812,7 +4931,7 @@
       <c r="R318" s="13"/>
       <c r="Y318" s="13"/>
     </row>
-    <row r="319" spans="2:25" hidden="1">
+    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B319" s="11">
         <v>45950</v>
       </c>
@@ -4822,7 +4941,7 @@
       <c r="R319" s="13"/>
       <c r="Y319" s="13"/>
     </row>
-    <row r="320" spans="2:25" hidden="1">
+    <row r="320" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B320" s="11">
         <v>45950</v>
       </c>
@@ -4832,7 +4951,7 @@
       <c r="R320" s="13"/>
       <c r="Y320" s="13"/>
     </row>
-    <row r="321" spans="2:25" hidden="1">
+    <row r="321" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B321" s="11">
         <v>45950</v>
       </c>
@@ -4842,7 +4961,7 @@
       <c r="R321" s="13"/>
       <c r="Y321" s="13"/>
     </row>
-    <row r="322" spans="2:25" hidden="1">
+    <row r="322" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="11">
         <v>45950</v>
       </c>
@@ -4852,7 +4971,7 @@
       <c r="R322" s="13"/>
       <c r="Y322" s="13"/>
     </row>
-    <row r="323" spans="2:25" hidden="1">
+    <row r="323" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="11">
         <v>45950</v>
       </c>
@@ -4862,7 +4981,7 @@
       <c r="R323" s="13"/>
       <c r="Y323" s="13"/>
     </row>
-    <row r="324" spans="2:25" hidden="1">
+    <row r="324" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="11">
         <v>45950</v>
       </c>
@@ -4872,7 +4991,7 @@
       <c r="R324" s="13"/>
       <c r="Y324" s="13"/>
     </row>
-    <row r="325" spans="2:25" hidden="1">
+    <row r="325" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="11">
         <v>45950</v>
       </c>
@@ -4882,7 +5001,7 @@
       <c r="R325" s="13"/>
       <c r="Y325" s="13"/>
     </row>
-    <row r="326" spans="2:25" hidden="1">
+    <row r="326" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="11">
         <v>45951</v>
       </c>
@@ -4892,7 +5011,7 @@
       <c r="R326" s="13"/>
       <c r="Y326" s="13"/>
     </row>
-    <row r="327" spans="2:25" hidden="1">
+    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B327" s="11">
         <v>45951</v>
       </c>
@@ -4902,7 +5021,7 @@
       <c r="R327" s="13"/>
       <c r="Y327" s="13"/>
     </row>
-    <row r="328" spans="2:25" hidden="1">
+    <row r="328" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B328" s="11">
         <v>45951</v>
       </c>
@@ -4912,7 +5031,7 @@
       <c r="R328" s="13"/>
       <c r="Y328" s="13"/>
     </row>
-    <row r="329" spans="2:25" hidden="1">
+    <row r="329" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B329" s="11">
         <v>45951</v>
       </c>
@@ -4922,7 +5041,7 @@
       <c r="R329" s="13"/>
       <c r="Y329" s="13"/>
     </row>
-    <row r="330" spans="2:25" hidden="1">
+    <row r="330" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B330" s="11">
         <v>45951</v>
       </c>
@@ -4932,7 +5051,7 @@
       <c r="R330" s="13"/>
       <c r="Y330" s="13"/>
     </row>
-    <row r="331" spans="2:25" hidden="1">
+    <row r="331" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B331" s="11">
         <v>45951</v>
       </c>
@@ -4942,7 +5061,7 @@
       <c r="R331" s="13"/>
       <c r="Y331" s="13"/>
     </row>
-    <row r="332" spans="2:25" hidden="1">
+    <row r="332" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B332" s="11">
         <v>45951</v>
       </c>
@@ -4952,7 +5071,7 @@
       <c r="R332" s="13"/>
       <c r="Y332" s="13"/>
     </row>
-    <row r="333" spans="2:25" hidden="1">
+    <row r="333" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B333" s="11">
         <v>45952</v>
       </c>
@@ -4962,7 +5081,7 @@
       <c r="R333" s="13"/>
       <c r="Y333" s="13"/>
     </row>
-    <row r="334" spans="2:25" hidden="1">
+    <row r="334" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B334" s="11">
         <v>45952</v>
       </c>
@@ -4972,7 +5091,7 @@
       <c r="R334" s="13"/>
       <c r="Y334" s="13"/>
     </row>
-    <row r="335" spans="2:25" hidden="1">
+    <row r="335" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335" s="11">
         <v>45952</v>
       </c>
@@ -4982,7 +5101,7 @@
       <c r="R335" s="13"/>
       <c r="Y335" s="13"/>
     </row>
-    <row r="336" spans="2:25" hidden="1">
+    <row r="336" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B336" s="11">
         <v>45952</v>
       </c>
@@ -4992,7 +5111,7 @@
       <c r="R336" s="13"/>
       <c r="Y336" s="13"/>
     </row>
-    <row r="337" spans="2:25" hidden="1">
+    <row r="337" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B337" s="11">
         <v>45952</v>
       </c>
@@ -5002,7 +5121,7 @@
       <c r="R337" s="13"/>
       <c r="Y337" s="13"/>
     </row>
-    <row r="338" spans="2:25" hidden="1">
+    <row r="338" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B338" s="11">
         <v>45952</v>
       </c>
@@ -5012,7 +5131,7 @@
       <c r="R338" s="13"/>
       <c r="Y338" s="13"/>
     </row>
-    <row r="339" spans="2:25" hidden="1">
+    <row r="339" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B339" s="11">
         <v>45952</v>
       </c>
@@ -5022,7 +5141,7 @@
       <c r="R339" s="13"/>
       <c r="Y339" s="13"/>
     </row>
-    <row r="340" spans="2:25" hidden="1">
+    <row r="340" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B340" s="11">
         <v>45953</v>
       </c>
@@ -5032,7 +5151,7 @@
       <c r="R340" s="13"/>
       <c r="Y340" s="13"/>
     </row>
-    <row r="341" spans="2:25" hidden="1">
+    <row r="341" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B341" s="11">
         <v>45953</v>
       </c>
@@ -5042,7 +5161,7 @@
       <c r="R341" s="13"/>
       <c r="Y341" s="13"/>
     </row>
-    <row r="342" spans="2:25" hidden="1">
+    <row r="342" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B342" s="11">
         <v>45953</v>
       </c>
@@ -5052,7 +5171,7 @@
       <c r="R342" s="13"/>
       <c r="Y342" s="13"/>
     </row>
-    <row r="343" spans="2:25" hidden="1">
+    <row r="343" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B343" s="11">
         <v>45953</v>
       </c>
@@ -5062,7 +5181,7 @@
       <c r="R343" s="13"/>
       <c r="Y343" s="13"/>
     </row>
-    <row r="344" spans="2:25" hidden="1">
+    <row r="344" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B344" s="11">
         <v>45953</v>
       </c>
@@ -5072,7 +5191,7 @@
       <c r="R344" s="13"/>
       <c r="Y344" s="13"/>
     </row>
-    <row r="345" spans="2:25" hidden="1">
+    <row r="345" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B345" s="11">
         <v>45953</v>
       </c>
@@ -5082,7 +5201,7 @@
       <c r="R345" s="13"/>
       <c r="Y345" s="13"/>
     </row>
-    <row r="346" spans="2:25" hidden="1">
+    <row r="346" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="11">
         <v>45953</v>
       </c>
@@ -5092,7 +5211,7 @@
       <c r="R346" s="13"/>
       <c r="Y346" s="13"/>
     </row>
-    <row r="347" spans="2:25" hidden="1">
+    <row r="347" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B347" s="11">
         <v>45954</v>
       </c>
@@ -5102,7 +5221,7 @@
       <c r="R347" s="13"/>
       <c r="Y347" s="13"/>
     </row>
-    <row r="348" spans="2:25" hidden="1">
+    <row r="348" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="11">
         <v>45954</v>
       </c>
@@ -5112,7 +5231,7 @@
       <c r="R348" s="13"/>
       <c r="Y348" s="13"/>
     </row>
-    <row r="349" spans="2:25" hidden="1">
+    <row r="349" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B349" s="11">
         <v>45954</v>
       </c>
@@ -5122,7 +5241,7 @@
       <c r="R349" s="13"/>
       <c r="Y349" s="13"/>
     </row>
-    <row r="350" spans="2:25" hidden="1">
+    <row r="350" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B350" s="11">
         <v>45954</v>
       </c>
@@ -5132,7 +5251,7 @@
       <c r="R350" s="13"/>
       <c r="Y350" s="13"/>
     </row>
-    <row r="351" spans="2:25" hidden="1">
+    <row r="351" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B351" s="11">
         <v>45954</v>
       </c>
@@ -5142,7 +5261,7 @@
       <c r="R351" s="13"/>
       <c r="Y351" s="13"/>
     </row>
-    <row r="352" spans="2:25" hidden="1">
+    <row r="352" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B352" s="11">
         <v>45954</v>
       </c>
@@ -5152,7 +5271,7 @@
       <c r="R352" s="13"/>
       <c r="Y352" s="13"/>
     </row>
-    <row r="353" spans="2:25" hidden="1">
+    <row r="353" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B353" s="11">
         <v>45954</v>
       </c>
@@ -5162,7 +5281,7 @@
       <c r="R353" s="13"/>
       <c r="Y353" s="13"/>
     </row>
-    <row r="354" spans="2:25" hidden="1">
+    <row r="354" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B354" s="11">
         <v>45955</v>
       </c>
@@ -5172,7 +5291,7 @@
       <c r="R354" s="13"/>
       <c r="Y354" s="13"/>
     </row>
-    <row r="355" spans="2:25" hidden="1">
+    <row r="355" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B355" s="11">
         <v>45955</v>
       </c>
@@ -5182,7 +5301,7 @@
       <c r="R355" s="13"/>
       <c r="Y355" s="13"/>
     </row>
-    <row r="356" spans="2:25" hidden="1">
+    <row r="356" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B356" s="11">
         <v>45955</v>
       </c>
@@ -5192,7 +5311,7 @@
       <c r="R356" s="13"/>
       <c r="Y356" s="13"/>
     </row>
-    <row r="357" spans="2:25" hidden="1">
+    <row r="357" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B357" s="11">
         <v>45955</v>
       </c>
@@ -5202,7 +5321,7 @@
       <c r="R357" s="13"/>
       <c r="Y357" s="13"/>
     </row>
-    <row r="358" spans="2:25" hidden="1">
+    <row r="358" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B358" s="11">
         <v>45955</v>
       </c>
@@ -5212,7 +5331,7 @@
       <c r="R358" s="13"/>
       <c r="Y358" s="13"/>
     </row>
-    <row r="359" spans="2:25" hidden="1">
+    <row r="359" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B359" s="11">
         <v>45955</v>
       </c>
@@ -5222,7 +5341,7 @@
       <c r="R359" s="13"/>
       <c r="Y359" s="13"/>
     </row>
-    <row r="360" spans="2:25" hidden="1">
+    <row r="360" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B360" s="11">
         <v>45955</v>
       </c>
@@ -5232,7 +5351,7 @@
       <c r="R360" s="13"/>
       <c r="Y360" s="13"/>
     </row>
-    <row r="361" spans="2:25" hidden="1">
+    <row r="361" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B361" s="11">
         <v>45956</v>
       </c>
@@ -5242,7 +5361,7 @@
       <c r="R361" s="13"/>
       <c r="Y361" s="13"/>
     </row>
-    <row r="362" spans="2:25" hidden="1">
+    <row r="362" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B362" s="11">
         <v>45956</v>
       </c>
@@ -5252,7 +5371,7 @@
       <c r="R362" s="13"/>
       <c r="Y362" s="13"/>
     </row>
-    <row r="363" spans="2:25" hidden="1">
+    <row r="363" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B363" s="11">
         <v>45956</v>
       </c>
@@ -5262,7 +5381,7 @@
       <c r="R363" s="13"/>
       <c r="Y363" s="13"/>
     </row>
-    <row r="364" spans="2:25" hidden="1">
+    <row r="364" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B364" s="11">
         <v>45956</v>
       </c>
@@ -5272,7 +5391,7 @@
       <c r="R364" s="13"/>
       <c r="Y364" s="13"/>
     </row>
-    <row r="365" spans="2:25" hidden="1">
+    <row r="365" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B365" s="11">
         <v>45956</v>
       </c>
@@ -5282,7 +5401,7 @@
       <c r="R365" s="13"/>
       <c r="Y365" s="13"/>
     </row>
-    <row r="366" spans="2:25" hidden="1">
+    <row r="366" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B366" s="11">
         <v>45956</v>
       </c>
@@ -5292,7 +5411,7 @@
       <c r="R366" s="13"/>
       <c r="Y366" s="13"/>
     </row>
-    <row r="367" spans="2:25" hidden="1">
+    <row r="367" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B367" s="11">
         <v>45956</v>
       </c>
@@ -5302,7 +5421,7 @@
       <c r="R367" s="13"/>
       <c r="Y367" s="13"/>
     </row>
-    <row r="368" spans="2:25" hidden="1">
+    <row r="368" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="11">
         <v>45957</v>
       </c>
@@ -5312,7 +5431,7 @@
       <c r="R368" s="13"/>
       <c r="Y368" s="13"/>
     </row>
-    <row r="369" spans="2:25" hidden="1">
+    <row r="369" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369" s="11">
         <v>45957</v>
       </c>
@@ -5322,7 +5441,7 @@
       <c r="R369" s="13"/>
       <c r="Y369" s="13"/>
     </row>
-    <row r="370" spans="2:25" hidden="1">
+    <row r="370" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B370" s="11">
         <v>45957</v>
       </c>
@@ -5332,7 +5451,7 @@
       <c r="R370" s="13"/>
       <c r="Y370" s="13"/>
     </row>
-    <row r="371" spans="2:25" hidden="1">
+    <row r="371" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B371" s="11">
         <v>45957</v>
       </c>
@@ -5342,7 +5461,7 @@
       <c r="R371" s="13"/>
       <c r="Y371" s="13"/>
     </row>
-    <row r="372" spans="2:25" hidden="1">
+    <row r="372" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B372" s="11">
         <v>45957</v>
       </c>
@@ -5352,7 +5471,7 @@
       <c r="R372" s="13"/>
       <c r="Y372" s="13"/>
     </row>
-    <row r="373" spans="2:25" hidden="1">
+    <row r="373" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B373" s="11">
         <v>45957</v>
       </c>
@@ -5362,7 +5481,7 @@
       <c r="R373" s="13"/>
       <c r="Y373" s="13"/>
     </row>
-    <row r="374" spans="2:25" hidden="1">
+    <row r="374" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B374" s="11">
         <v>45957</v>
       </c>
@@ -5372,7 +5491,7 @@
       <c r="R374" s="13"/>
       <c r="Y374" s="13"/>
     </row>
-    <row r="375" spans="2:25" hidden="1">
+    <row r="375" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B375" s="11">
         <v>45958</v>
       </c>
@@ -5382,7 +5501,7 @@
       <c r="R375" s="13"/>
       <c r="Y375" s="13"/>
     </row>
-    <row r="376" spans="2:25" hidden="1">
+    <row r="376" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B376" s="11">
         <v>45958</v>
       </c>
@@ -5392,7 +5511,7 @@
       <c r="R376" s="13"/>
       <c r="Y376" s="13"/>
     </row>
-    <row r="377" spans="2:25" hidden="1">
+    <row r="377" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B377" s="11">
         <v>45958</v>
       </c>
@@ -5402,7 +5521,7 @@
       <c r="R377" s="13"/>
       <c r="Y377" s="13"/>
     </row>
-    <row r="378" spans="2:25" hidden="1">
+    <row r="378" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B378" s="11">
         <v>45958</v>
       </c>
@@ -5412,7 +5531,7 @@
       <c r="R378" s="13"/>
       <c r="Y378" s="13"/>
     </row>
-    <row r="379" spans="2:25" hidden="1">
+    <row r="379" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B379" s="11">
         <v>45958</v>
       </c>
@@ -5422,7 +5541,7 @@
       <c r="R379" s="13"/>
       <c r="Y379" s="13"/>
     </row>
-    <row r="380" spans="2:25" hidden="1">
+    <row r="380" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B380" s="11">
         <v>45958</v>
       </c>
@@ -5432,7 +5551,7 @@
       <c r="R380" s="13"/>
       <c r="Y380" s="13"/>
     </row>
-    <row r="381" spans="2:25" hidden="1">
+    <row r="381" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B381" s="11">
         <v>45958</v>
       </c>
@@ -5442,7 +5561,7 @@
       <c r="R381" s="13"/>
       <c r="Y381" s="13"/>
     </row>
-    <row r="382" spans="2:25" hidden="1">
+    <row r="382" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B382" s="11">
         <v>45959</v>
       </c>
@@ -5452,7 +5571,7 @@
       <c r="R382" s="13"/>
       <c r="Y382" s="13"/>
     </row>
-    <row r="383" spans="2:25" hidden="1">
+    <row r="383" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B383" s="11">
         <v>45959</v>
       </c>
@@ -5462,7 +5581,7 @@
       <c r="R383" s="13"/>
       <c r="Y383" s="13"/>
     </row>
-    <row r="384" spans="2:25" hidden="1">
+    <row r="384" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B384" s="11">
         <v>45959</v>
       </c>
@@ -5472,7 +5591,7 @@
       <c r="R384" s="13"/>
       <c r="Y384" s="13"/>
     </row>
-    <row r="385" spans="2:25" hidden="1">
+    <row r="385" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B385" s="11">
         <v>45959</v>
       </c>
@@ -5482,7 +5601,7 @@
       <c r="R385" s="13"/>
       <c r="Y385" s="13"/>
     </row>
-    <row r="386" spans="2:25" hidden="1">
+    <row r="386" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B386" s="11">
         <v>45959</v>
       </c>
@@ -5492,7 +5611,7 @@
       <c r="R386" s="13"/>
       <c r="Y386" s="13"/>
     </row>
-    <row r="387" spans="2:25" hidden="1">
+    <row r="387" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B387" s="11">
         <v>45959</v>
       </c>
@@ -5502,7 +5621,7 @@
       <c r="R387" s="13"/>
       <c r="Y387" s="13"/>
     </row>
-    <row r="388" spans="2:25" hidden="1">
+    <row r="388" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B388" s="11">
         <v>45959</v>
       </c>
@@ -5512,7 +5631,7 @@
       <c r="R388" s="13"/>
       <c r="Y388" s="13"/>
     </row>
-    <row r="389" spans="2:25" hidden="1">
+    <row r="389" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B389" s="11">
         <v>45960</v>
       </c>
@@ -5522,7 +5641,7 @@
       <c r="R389" s="13"/>
       <c r="Y389" s="13"/>
     </row>
-    <row r="390" spans="2:25" hidden="1">
+    <row r="390" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B390" s="11">
         <v>45960</v>
       </c>
@@ -5532,7 +5651,7 @@
       <c r="R390" s="13"/>
       <c r="Y390" s="13"/>
     </row>
-    <row r="391" spans="2:25" hidden="1">
+    <row r="391" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B391" s="11">
         <v>45960</v>
       </c>
@@ -5542,7 +5661,7 @@
       <c r="R391" s="13"/>
       <c r="Y391" s="13"/>
     </row>
-    <row r="392" spans="2:25" hidden="1">
+    <row r="392" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B392" s="11">
         <v>45960</v>
       </c>
@@ -5552,7 +5671,7 @@
       <c r="R392" s="13"/>
       <c r="Y392" s="13"/>
     </row>
-    <row r="393" spans="2:25" hidden="1">
+    <row r="393" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="11">
         <v>45960</v>
       </c>
@@ -5562,7 +5681,7 @@
       <c r="R393" s="13"/>
       <c r="Y393" s="13"/>
     </row>
-    <row r="394" spans="2:25" hidden="1">
+    <row r="394" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="11">
         <v>45960</v>
       </c>
@@ -5572,7 +5691,7 @@
       <c r="R394" s="13"/>
       <c r="Y394" s="13"/>
     </row>
-    <row r="395" spans="2:25" hidden="1">
+    <row r="395" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="11">
         <v>45960</v>
       </c>
@@ -5582,7 +5701,7 @@
       <c r="R395" s="13"/>
       <c r="Y395" s="13"/>
     </row>
-    <row r="396" spans="2:25" hidden="1">
+    <row r="396" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B396" s="11">
         <v>45961</v>
       </c>
@@ -5592,7 +5711,7 @@
       <c r="R396" s="13"/>
       <c r="Y396" s="13"/>
     </row>
-    <row r="397" spans="2:25" hidden="1">
+    <row r="397" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B397" s="11">
         <v>45961</v>
       </c>
@@ -5602,7 +5721,7 @@
       <c r="R397" s="13"/>
       <c r="Y397" s="13"/>
     </row>
-    <row r="398" spans="2:25" hidden="1">
+    <row r="398" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B398" s="11">
         <v>45961</v>
       </c>
@@ -5612,7 +5731,7 @@
       <c r="R398" s="13"/>
       <c r="Y398" s="13"/>
     </row>
-    <row r="399" spans="2:25" hidden="1">
+    <row r="399" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B399" s="11">
         <v>45961</v>
       </c>
@@ -5622,7 +5741,7 @@
       <c r="R399" s="13"/>
       <c r="Y399" s="13"/>
     </row>
-    <row r="400" spans="2:25" hidden="1">
+    <row r="400" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B400" s="11">
         <v>45961</v>
       </c>
@@ -5632,7 +5751,7 @@
       <c r="R400" s="13"/>
       <c r="Y400" s="13"/>
     </row>
-    <row r="401" spans="2:25" hidden="1">
+    <row r="401" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B401" s="11">
         <v>45961</v>
       </c>
@@ -5642,7 +5761,7 @@
       <c r="R401" s="13"/>
       <c r="Y401" s="13"/>
     </row>
-    <row r="402" spans="2:25" hidden="1">
+    <row r="402" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B402" s="11">
         <v>45961</v>
       </c>
@@ -5652,7 +5771,7 @@
       <c r="R402" s="13"/>
       <c r="Y402" s="13"/>
     </row>
-    <row r="403" spans="2:25" hidden="1">
+    <row r="403" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B403" s="11">
         <v>45962</v>
       </c>
@@ -5662,7 +5781,7 @@
       <c r="R403" s="13"/>
       <c r="Y403" s="13"/>
     </row>
-    <row r="404" spans="2:25" hidden="1">
+    <row r="404" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B404" s="11">
         <v>45962</v>
       </c>
@@ -5672,7 +5791,7 @@
       <c r="R404" s="13"/>
       <c r="Y404" s="13"/>
     </row>
-    <row r="405" spans="2:25" hidden="1">
+    <row r="405" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B405" s="11">
         <v>45962</v>
       </c>
@@ -5682,7 +5801,7 @@
       <c r="R405" s="13"/>
       <c r="Y405" s="13"/>
     </row>
-    <row r="406" spans="2:25" hidden="1">
+    <row r="406" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B406" s="11">
         <v>45962</v>
       </c>
@@ -5692,7 +5811,7 @@
       <c r="R406" s="13"/>
       <c r="Y406" s="13"/>
     </row>
-    <row r="407" spans="2:25" hidden="1">
+    <row r="407" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B407" s="11">
         <v>45962</v>
       </c>
@@ -5702,7 +5821,7 @@
       <c r="R407" s="13"/>
       <c r="Y407" s="13"/>
     </row>
-    <row r="408" spans="2:25" hidden="1">
+    <row r="408" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B408" s="11">
         <v>45962</v>
       </c>
@@ -5712,7 +5831,7 @@
       <c r="R408" s="13"/>
       <c r="Y408" s="13"/>
     </row>
-    <row r="409" spans="2:25" hidden="1">
+    <row r="409" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B409" s="11">
         <v>45962</v>
       </c>
@@ -5722,7 +5841,7 @@
       <c r="R409" s="13"/>
       <c r="Y409" s="13"/>
     </row>
-    <row r="410" spans="2:25" hidden="1">
+    <row r="410" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B410" s="11">
         <v>45963</v>
       </c>
@@ -5732,7 +5851,7 @@
       <c r="R410" s="13"/>
       <c r="Y410" s="13"/>
     </row>
-    <row r="411" spans="2:25" hidden="1">
+    <row r="411" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B411" s="11">
         <v>45963</v>
       </c>
@@ -5742,7 +5861,7 @@
       <c r="R411" s="13"/>
       <c r="Y411" s="13"/>
     </row>
-    <row r="412" spans="2:25" hidden="1">
+    <row r="412" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B412" s="11">
         <v>45963</v>
       </c>
@@ -5752,7 +5871,7 @@
       <c r="R412" s="13"/>
       <c r="Y412" s="13"/>
     </row>
-    <row r="413" spans="2:25" hidden="1">
+    <row r="413" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B413" s="11">
         <v>45963</v>
       </c>
@@ -5762,7 +5881,7 @@
       <c r="R413" s="13"/>
       <c r="Y413" s="13"/>
     </row>
-    <row r="414" spans="2:25" hidden="1">
+    <row r="414" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B414" s="11">
         <v>45963</v>
       </c>
@@ -5772,7 +5891,7 @@
       <c r="R414" s="13"/>
       <c r="Y414" s="13"/>
     </row>
-    <row r="415" spans="2:25" hidden="1">
+    <row r="415" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="11">
         <v>45963</v>
       </c>
@@ -5782,7 +5901,7 @@
       <c r="R415" s="13"/>
       <c r="Y415" s="13"/>
     </row>
-    <row r="416" spans="2:25" hidden="1">
+    <row r="416" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B416" s="11">
         <v>45963</v>
       </c>
@@ -5792,7 +5911,7 @@
       <c r="R416" s="13"/>
       <c r="Y416" s="13"/>
     </row>
-    <row r="417" spans="2:25" hidden="1">
+    <row r="417" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="11">
         <v>45964</v>
       </c>
@@ -5802,7 +5921,7 @@
       <c r="R417" s="13"/>
       <c r="Y417" s="13"/>
     </row>
-    <row r="418" spans="2:25" hidden="1">
+    <row r="418" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B418" s="11">
         <v>45964</v>
       </c>
@@ -5812,7 +5931,7 @@
       <c r="R418" s="13"/>
       <c r="Y418" s="13"/>
     </row>
-    <row r="419" spans="2:25" hidden="1">
+    <row r="419" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B419" s="11">
         <v>45964</v>
       </c>
@@ -5822,7 +5941,7 @@
       <c r="R419" s="13"/>
       <c r="Y419" s="13"/>
     </row>
-    <row r="420" spans="2:25" hidden="1">
+    <row r="420" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B420" s="11">
         <v>45964</v>
       </c>
@@ -5832,7 +5951,7 @@
       <c r="R420" s="13"/>
       <c r="Y420" s="13"/>
     </row>
-    <row r="421" spans="2:25" hidden="1">
+    <row r="421" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B421" s="11">
         <v>45964</v>
       </c>
@@ -5842,7 +5961,7 @@
       <c r="R421" s="13"/>
       <c r="Y421" s="13"/>
     </row>
-    <row r="422" spans="2:25" hidden="1">
+    <row r="422" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B422" s="11">
         <v>45964</v>
       </c>
@@ -5852,7 +5971,7 @@
       <c r="R422" s="13"/>
       <c r="Y422" s="13"/>
     </row>
-    <row r="423" spans="2:25" hidden="1">
+    <row r="423" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B423" s="11">
         <v>45964</v>
       </c>
@@ -5862,7 +5981,7 @@
       <c r="R423" s="13"/>
       <c r="Y423" s="13"/>
     </row>
-    <row r="424" spans="2:25" hidden="1">
+    <row r="424" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B424" s="11">
         <v>45965</v>
       </c>
@@ -5872,7 +5991,7 @@
       <c r="R424" s="13"/>
       <c r="Y424" s="13"/>
     </row>
-    <row r="425" spans="2:25" hidden="1">
+    <row r="425" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B425" s="11">
         <v>45965</v>
       </c>
@@ -5882,7 +6001,7 @@
       <c r="R425" s="13"/>
       <c r="Y425" s="13"/>
     </row>
-    <row r="426" spans="2:25" hidden="1">
+    <row r="426" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B426" s="11">
         <v>45965</v>
       </c>
@@ -5892,7 +6011,7 @@
       <c r="R426" s="13"/>
       <c r="Y426" s="13"/>
     </row>
-    <row r="427" spans="2:25" hidden="1">
+    <row r="427" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B427" s="11">
         <v>45965</v>
       </c>
@@ -5902,7 +6021,7 @@
       <c r="R427" s="13"/>
       <c r="Y427" s="13"/>
     </row>
-    <row r="428" spans="2:25" hidden="1">
+    <row r="428" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B428" s="11">
         <v>45965</v>
       </c>
@@ -5912,7 +6031,7 @@
       <c r="R428" s="13"/>
       <c r="Y428" s="13"/>
     </row>
-    <row r="429" spans="2:25" hidden="1">
+    <row r="429" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B429" s="11">
         <v>45965</v>
       </c>
@@ -5922,7 +6041,7 @@
       <c r="R429" s="13"/>
       <c r="Y429" s="13"/>
     </row>
-    <row r="430" spans="2:25" hidden="1">
+    <row r="430" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B430" s="11">
         <v>45965</v>
       </c>
@@ -5932,7 +6051,7 @@
       <c r="R430" s="13"/>
       <c r="Y430" s="13"/>
     </row>
-    <row r="431" spans="2:25" hidden="1">
+    <row r="431" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B431" s="11">
         <v>45966</v>
       </c>
@@ -5942,7 +6061,7 @@
       <c r="R431" s="13"/>
       <c r="Y431" s="13"/>
     </row>
-    <row r="432" spans="2:25" hidden="1">
+    <row r="432" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" s="11">
         <v>45966</v>
       </c>
@@ -5952,7 +6071,7 @@
       <c r="R432" s="13"/>
       <c r="Y432" s="13"/>
     </row>
-    <row r="433" spans="2:25" hidden="1">
+    <row r="433" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B433" s="11">
         <v>45966</v>
       </c>
@@ -5962,7 +6081,7 @@
       <c r="R433" s="13"/>
       <c r="Y433" s="13"/>
     </row>
-    <row r="434" spans="2:25" hidden="1">
+    <row r="434" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" s="11">
         <v>45966</v>
       </c>
@@ -5972,7 +6091,7 @@
       <c r="R434" s="13"/>
       <c r="Y434" s="13"/>
     </row>
-    <row r="435" spans="2:25" hidden="1">
+    <row r="435" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B435" s="11">
         <v>45966</v>
       </c>
@@ -5982,7 +6101,7 @@
       <c r="R435" s="13"/>
       <c r="Y435" s="13"/>
     </row>
-    <row r="436" spans="2:25" hidden="1">
+    <row r="436" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B436" s="11">
         <v>45966</v>
       </c>
@@ -5992,7 +6111,7 @@
       <c r="R436" s="13"/>
       <c r="Y436" s="13"/>
     </row>
-    <row r="437" spans="2:25" hidden="1">
+    <row r="437" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B437" s="11">
         <v>45966</v>
       </c>
@@ -6002,7 +6121,7 @@
       <c r="R437" s="13"/>
       <c r="Y437" s="13"/>
     </row>
-    <row r="438" spans="2:25" hidden="1">
+    <row r="438" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B438" s="11">
         <v>45967</v>
       </c>
@@ -6012,7 +6131,7 @@
       <c r="R438" s="13"/>
       <c r="Y438" s="13"/>
     </row>
-    <row r="439" spans="2:25" hidden="1">
+    <row r="439" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B439" s="11">
         <v>45967</v>
       </c>
@@ -6022,7 +6141,7 @@
       <c r="R439" s="13"/>
       <c r="Y439" s="13"/>
     </row>
-    <row r="440" spans="2:25" hidden="1">
+    <row r="440" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B440" s="11">
         <v>45967</v>
       </c>
@@ -6032,7 +6151,7 @@
       <c r="R440" s="13"/>
       <c r="Y440" s="13"/>
     </row>
-    <row r="441" spans="2:25" hidden="1">
+    <row r="441" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B441" s="11">
         <v>45967</v>
       </c>
@@ -6042,7 +6161,7 @@
       <c r="R441" s="13"/>
       <c r="Y441" s="13"/>
     </row>
-    <row r="442" spans="2:25" hidden="1">
+    <row r="442" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B442" s="11">
         <v>45967</v>
       </c>
@@ -6052,7 +6171,7 @@
       <c r="R442" s="13"/>
       <c r="Y442" s="13"/>
     </row>
-    <row r="443" spans="2:25" hidden="1">
+    <row r="443" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B443" s="11">
         <v>45967</v>
       </c>
@@ -6062,7 +6181,7 @@
       <c r="R443" s="13"/>
       <c r="Y443" s="13"/>
     </row>
-    <row r="444" spans="2:25" hidden="1">
+    <row r="444" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B444" s="11">
         <v>45967</v>
       </c>
@@ -6072,7 +6191,7 @@
       <c r="R444" s="13"/>
       <c r="Y444" s="13"/>
     </row>
-    <row r="445" spans="2:25" hidden="1">
+    <row r="445" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B445" s="11">
         <v>45968</v>
       </c>
@@ -6082,7 +6201,7 @@
       <c r="R445" s="13"/>
       <c r="Y445" s="13"/>
     </row>
-    <row r="446" spans="2:25" hidden="1">
+    <row r="446" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="11">
         <v>45968</v>
       </c>
@@ -6092,7 +6211,7 @@
       <c r="R446" s="13"/>
       <c r="Y446" s="13"/>
     </row>
-    <row r="447" spans="2:25" hidden="1">
+    <row r="447" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="11">
         <v>45968</v>
       </c>
@@ -6102,7 +6221,7 @@
       <c r="R447" s="13"/>
       <c r="Y447" s="13"/>
     </row>
-    <row r="448" spans="2:25" hidden="1">
+    <row r="448" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="11">
         <v>45968</v>
       </c>
@@ -6112,7 +6231,7 @@
       <c r="R448" s="13"/>
       <c r="Y448" s="13"/>
     </row>
-    <row r="449" spans="2:25" hidden="1">
+    <row r="449" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="11">
         <v>45968</v>
       </c>
@@ -6122,7 +6241,7 @@
       <c r="R449" s="13"/>
       <c r="Y449" s="13"/>
     </row>
-    <row r="450" spans="2:25" hidden="1">
+    <row r="450" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="11">
         <v>45968</v>
       </c>
@@ -6132,7 +6251,7 @@
       <c r="R450" s="13"/>
       <c r="Y450" s="13"/>
     </row>
-    <row r="451" spans="2:25" hidden="1">
+    <row r="451" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="11">
         <v>45968</v>
       </c>
@@ -6142,7 +6261,7 @@
       <c r="R451" s="13"/>
       <c r="Y451" s="13"/>
     </row>
-    <row r="452" spans="2:25" hidden="1">
+    <row r="452" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B452" s="11">
         <v>45969</v>
       </c>
@@ -6152,7 +6271,7 @@
       <c r="R452" s="13"/>
       <c r="Y452" s="13"/>
     </row>
-    <row r="453" spans="2:25" hidden="1">
+    <row r="453" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B453" s="11">
         <v>45969</v>
       </c>
@@ -6162,7 +6281,7 @@
       <c r="R453" s="13"/>
       <c r="Y453" s="13"/>
     </row>
-    <row r="454" spans="2:25" hidden="1">
+    <row r="454" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B454" s="11">
         <v>45969</v>
       </c>
@@ -6172,7 +6291,7 @@
       <c r="R454" s="13"/>
       <c r="Y454" s="13"/>
     </row>
-    <row r="455" spans="2:25" hidden="1">
+    <row r="455" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B455" s="11">
         <v>45969</v>
       </c>
@@ -6182,7 +6301,7 @@
       <c r="R455" s="13"/>
       <c r="Y455" s="13"/>
     </row>
-    <row r="456" spans="2:25" hidden="1">
+    <row r="456" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B456" s="11">
         <v>45969</v>
       </c>
@@ -6192,7 +6311,7 @@
       <c r="R456" s="13"/>
       <c r="Y456" s="13"/>
     </row>
-    <row r="457" spans="2:25" hidden="1">
+    <row r="457" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B457" s="11">
         <v>45969</v>
       </c>
@@ -6202,7 +6321,7 @@
       <c r="R457" s="13"/>
       <c r="Y457" s="13"/>
     </row>
-    <row r="458" spans="2:25" hidden="1">
+    <row r="458" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B458" s="11">
         <v>45969</v>
       </c>
@@ -6212,7 +6331,7 @@
       <c r="R458" s="13"/>
       <c r="Y458" s="13"/>
     </row>
-    <row r="459" spans="2:25" hidden="1">
+    <row r="459" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B459" s="11">
         <v>45970</v>
       </c>
@@ -6222,7 +6341,7 @@
       <c r="R459" s="13"/>
       <c r="Y459" s="13"/>
     </row>
-    <row r="460" spans="2:25" hidden="1">
+    <row r="460" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B460" s="11">
         <v>45970</v>
       </c>
@@ -6232,7 +6351,7 @@
       <c r="R460" s="13"/>
       <c r="Y460" s="13"/>
     </row>
-    <row r="461" spans="2:25" hidden="1">
+    <row r="461" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B461" s="11">
         <v>45970</v>
       </c>
@@ -6242,7 +6361,7 @@
       <c r="R461" s="13"/>
       <c r="Y461" s="13"/>
     </row>
-    <row r="462" spans="2:25" hidden="1">
+    <row r="462" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B462" s="11">
         <v>45970</v>
       </c>
@@ -6252,7 +6371,7 @@
       <c r="R462" s="13"/>
       <c r="Y462" s="13"/>
     </row>
-    <row r="463" spans="2:25" hidden="1">
+    <row r="463" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B463" s="11">
         <v>45970</v>
       </c>
@@ -6262,7 +6381,7 @@
       <c r="R463" s="13"/>
       <c r="Y463" s="13"/>
     </row>
-    <row r="464" spans="2:25" hidden="1">
+    <row r="464" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B464" s="11">
         <v>45970</v>
       </c>
@@ -6272,7 +6391,7 @@
       <c r="R464" s="13"/>
       <c r="Y464" s="13"/>
     </row>
-    <row r="465" spans="2:25" hidden="1">
+    <row r="465" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B465" s="11">
         <v>45970</v>
       </c>
@@ -6282,7 +6401,7 @@
       <c r="R465" s="13"/>
       <c r="Y465" s="13"/>
     </row>
-    <row r="466" spans="2:25" hidden="1">
+    <row r="466" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B466" s="11">
         <v>45971</v>
       </c>
@@ -6292,7 +6411,7 @@
       <c r="R466" s="13"/>
       <c r="Y466" s="13"/>
     </row>
-    <row r="467" spans="2:25" hidden="1">
+    <row r="467" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B467" s="11">
         <v>45971</v>
       </c>
@@ -6302,7 +6421,7 @@
       <c r="R467" s="13"/>
       <c r="Y467" s="13"/>
     </row>
-    <row r="468" spans="2:25" hidden="1">
+    <row r="468" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B468" s="11">
         <v>45971</v>
       </c>
@@ -6312,7 +6431,7 @@
       <c r="R468" s="13"/>
       <c r="Y468" s="13"/>
     </row>
-    <row r="469" spans="2:25" hidden="1">
+    <row r="469" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B469" s="11">
         <v>45971</v>
       </c>
@@ -6322,7 +6441,7 @@
       <c r="R469" s="13"/>
       <c r="Y469" s="13"/>
     </row>
-    <row r="470" spans="2:25" hidden="1">
+    <row r="470" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B470" s="11">
         <v>45971</v>
       </c>
@@ -6332,7 +6451,7 @@
       <c r="R470" s="13"/>
       <c r="Y470" s="13"/>
     </row>
-    <row r="471" spans="2:25" hidden="1">
+    <row r="471" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B471" s="11">
         <v>45971</v>
       </c>
@@ -6342,7 +6461,7 @@
       <c r="R471" s="13"/>
       <c r="Y471" s="13"/>
     </row>
-    <row r="472" spans="2:25" hidden="1">
+    <row r="472" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B472" s="11">
         <v>45971</v>
       </c>
@@ -6352,7 +6471,7 @@
       <c r="R472" s="13"/>
       <c r="Y472" s="13"/>
     </row>
-    <row r="473" spans="2:25" hidden="1">
+    <row r="473" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B473" s="11">
         <v>45972</v>
       </c>
@@ -6362,7 +6481,7 @@
       <c r="R473" s="13"/>
       <c r="Y473" s="13"/>
     </row>
-    <row r="474" spans="2:25" hidden="1">
+    <row r="474" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B474" s="11">
         <v>45972</v>
       </c>
@@ -6372,7 +6491,7 @@
       <c r="R474" s="13"/>
       <c r="Y474" s="13"/>
     </row>
-    <row r="475" spans="2:25" hidden="1">
+    <row r="475" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B475" s="11">
         <v>45972</v>
       </c>
@@ -6382,7 +6501,7 @@
       <c r="R475" s="13"/>
       <c r="Y475" s="13"/>
     </row>
-    <row r="476" spans="2:25" hidden="1">
+    <row r="476" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B476" s="11">
         <v>45972</v>
       </c>
@@ -6392,7 +6511,7 @@
       <c r="R476" s="13"/>
       <c r="Y476" s="13"/>
     </row>
-    <row r="477" spans="2:25" hidden="1">
+    <row r="477" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B477" s="11">
         <v>45972</v>
       </c>
@@ -6402,7 +6521,7 @@
       <c r="R477" s="13"/>
       <c r="Y477" s="13"/>
     </row>
-    <row r="478" spans="2:25" hidden="1">
+    <row r="478" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B478" s="11">
         <v>45972</v>
       </c>
@@ -6412,7 +6531,7 @@
       <c r="R478" s="13"/>
       <c r="Y478" s="13"/>
     </row>
-    <row r="479" spans="2:25" hidden="1">
+    <row r="479" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B479" s="11">
         <v>45972</v>
       </c>
@@ -6422,7 +6541,7 @@
       <c r="R479" s="13"/>
       <c r="Y479" s="13"/>
     </row>
-    <row r="480" spans="2:25" hidden="1">
+    <row r="480" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B480" s="11">
         <v>45973</v>
       </c>
@@ -6432,7 +6551,7 @@
       <c r="R480" s="13"/>
       <c r="Y480" s="13"/>
     </row>
-    <row r="481" spans="2:25" hidden="1">
+    <row r="481" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B481" s="11">
         <v>45973</v>
       </c>
@@ -6442,7 +6561,7 @@
       <c r="R481" s="13"/>
       <c r="Y481" s="13"/>
     </row>
-    <row r="482" spans="2:25" hidden="1">
+    <row r="482" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B482" s="11">
         <v>45973</v>
       </c>
@@ -6452,7 +6571,7 @@
       <c r="R482" s="13"/>
       <c r="Y482" s="13"/>
     </row>
-    <row r="483" spans="2:25" hidden="1">
+    <row r="483" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B483" s="11">
         <v>45973</v>
       </c>
@@ -6462,7 +6581,7 @@
       <c r="R483" s="13"/>
       <c r="Y483" s="13"/>
     </row>
-    <row r="484" spans="2:25" hidden="1">
+    <row r="484" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B484" s="11">
         <v>45973</v>
       </c>
@@ -6472,7 +6591,7 @@
       <c r="R484" s="13"/>
       <c r="Y484" s="13"/>
     </row>
-    <row r="485" spans="2:25" hidden="1">
+    <row r="485" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B485" s="11">
         <v>45973</v>
       </c>
@@ -6482,7 +6601,7 @@
       <c r="R485" s="13"/>
       <c r="Y485" s="13"/>
     </row>
-    <row r="486" spans="2:25" hidden="1">
+    <row r="486" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B486" s="11">
         <v>45973</v>
       </c>
@@ -6492,7 +6611,7 @@
       <c r="R486" s="13"/>
       <c r="Y486" s="13"/>
     </row>
-    <row r="487" spans="2:25" hidden="1">
+    <row r="487" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B487" s="11">
         <v>45974</v>
       </c>
@@ -6502,7 +6621,7 @@
       <c r="R487" s="13"/>
       <c r="Y487" s="13"/>
     </row>
-    <row r="488" spans="2:25" hidden="1">
+    <row r="488" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B488" s="11">
         <v>45974</v>
       </c>
@@ -6512,7 +6631,7 @@
       <c r="R488" s="13"/>
       <c r="Y488" s="13"/>
     </row>
-    <row r="489" spans="2:25" hidden="1">
+    <row r="489" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B489" s="11">
         <v>45974</v>
       </c>
@@ -6522,7 +6641,7 @@
       <c r="R489" s="13"/>
       <c r="Y489" s="13"/>
     </row>
-    <row r="490" spans="2:25" hidden="1">
+    <row r="490" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B490" s="11">
         <v>45974</v>
       </c>
@@ -6532,7 +6651,7 @@
       <c r="R490" s="13"/>
       <c r="Y490" s="13"/>
     </row>
-    <row r="491" spans="2:25" hidden="1">
+    <row r="491" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B491" s="11">
         <v>45974</v>
       </c>
@@ -6542,7 +6661,7 @@
       <c r="R491" s="13"/>
       <c r="Y491" s="13"/>
     </row>
-    <row r="492" spans="2:25" hidden="1">
+    <row r="492" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B492" s="11">
         <v>45974</v>
       </c>
@@ -6552,7 +6671,7 @@
       <c r="R492" s="13"/>
       <c r="Y492" s="13"/>
     </row>
-    <row r="493" spans="2:25" hidden="1">
+    <row r="493" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B493" s="11">
         <v>45974</v>
       </c>
@@ -6562,7 +6681,7 @@
       <c r="R493" s="13"/>
       <c r="Y493" s="13"/>
     </row>
-    <row r="494" spans="2:25" hidden="1">
+    <row r="494" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B494" s="11">
         <v>45975</v>
       </c>
@@ -6572,7 +6691,7 @@
       <c r="R494" s="13"/>
       <c r="Y494" s="13"/>
     </row>
-    <row r="495" spans="2:25" hidden="1">
+    <row r="495" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B495" s="11">
         <v>45975</v>
       </c>
@@ -6582,7 +6701,7 @@
       <c r="R495" s="13"/>
       <c r="Y495" s="13"/>
     </row>
-    <row r="496" spans="2:25" hidden="1">
+    <row r="496" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B496" s="11">
         <v>45975</v>
       </c>
@@ -6592,7 +6711,7 @@
       <c r="R496" s="13"/>
       <c r="Y496" s="13"/>
     </row>
-    <row r="497" spans="2:25" hidden="1">
+    <row r="497" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B497" s="11">
         <v>45975</v>
       </c>
@@ -6602,7 +6721,7 @@
       <c r="R497" s="13"/>
       <c r="Y497" s="13"/>
     </row>
-    <row r="498" spans="2:25" hidden="1">
+    <row r="498" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B498" s="11">
         <v>45975</v>
       </c>
@@ -6612,7 +6731,7 @@
       <c r="R498" s="13"/>
       <c r="Y498" s="13"/>
     </row>
-    <row r="499" spans="2:25" hidden="1">
+    <row r="499" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B499" s="11">
         <v>45975</v>
       </c>
@@ -6622,7 +6741,7 @@
       <c r="R499" s="13"/>
       <c r="Y499" s="13"/>
     </row>
-    <row r="500" spans="2:25" hidden="1">
+    <row r="500" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B500" s="11">
         <v>45975</v>
       </c>
@@ -6632,7 +6751,7 @@
       <c r="R500" s="13"/>
       <c r="Y500" s="13"/>
     </row>
-    <row r="501" spans="2:25" hidden="1">
+    <row r="501" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B501" s="11">
         <v>45976</v>
       </c>
@@ -6642,7 +6761,7 @@
       <c r="R501" s="13"/>
       <c r="Y501" s="13"/>
     </row>
-    <row r="502" spans="2:25" hidden="1">
+    <row r="502" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B502" s="11">
         <v>45976</v>
       </c>
@@ -6652,7 +6771,7 @@
       <c r="R502" s="13"/>
       <c r="Y502" s="13"/>
     </row>
-    <row r="503" spans="2:25" hidden="1">
+    <row r="503" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B503" s="11">
         <v>45976</v>
       </c>
@@ -6662,7 +6781,7 @@
       <c r="R503" s="13"/>
       <c r="Y503" s="13"/>
     </row>
-    <row r="504" spans="2:25" hidden="1">
+    <row r="504" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B504" s="11">
         <v>45976</v>
       </c>
@@ -6672,7 +6791,7 @@
       <c r="R504" s="13"/>
       <c r="Y504" s="13"/>
     </row>
-    <row r="505" spans="2:25" hidden="1">
+    <row r="505" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B505" s="11">
         <v>45976</v>
       </c>
@@ -6682,7 +6801,7 @@
       <c r="R505" s="13"/>
       <c r="Y505" s="13"/>
     </row>
-    <row r="506" spans="2:25" hidden="1">
+    <row r="506" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B506" s="11">
         <v>45976</v>
       </c>
@@ -6692,7 +6811,7 @@
       <c r="R506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25" hidden="1">
+    <row r="507" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B507" s="11">
         <v>45976</v>
       </c>
@@ -6702,7 +6821,7 @@
       <c r="R507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25" hidden="1">
+    <row r="508" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B508" s="11">
         <v>45977</v>
       </c>
@@ -6712,7 +6831,7 @@
       <c r="R508" s="13"/>
       <c r="Y508" s="13"/>
     </row>
-    <row r="509" spans="2:25" hidden="1">
+    <row r="509" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B509" s="11">
         <v>45977</v>
       </c>
@@ -6722,7 +6841,7 @@
       <c r="R509" s="13"/>
       <c r="Y509" s="13"/>
     </row>
-    <row r="510" spans="2:25" hidden="1">
+    <row r="510" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B510" s="11">
         <v>45977</v>
       </c>
@@ -6732,7 +6851,7 @@
       <c r="R510" s="13"/>
       <c r="Y510" s="13"/>
     </row>
-    <row r="511" spans="2:25" hidden="1">
+    <row r="511" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B511" s="11">
         <v>45977</v>
       </c>
@@ -6742,7 +6861,7 @@
       <c r="R511" s="13"/>
       <c r="Y511" s="13"/>
     </row>
-    <row r="512" spans="2:25" hidden="1">
+    <row r="512" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B512" s="11">
         <v>45977</v>
       </c>
@@ -6752,7 +6871,7 @@
       <c r="R512" s="13"/>
       <c r="Y512" s="13"/>
     </row>
-    <row r="513" spans="2:25" hidden="1">
+    <row r="513" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B513" s="11">
         <v>45977</v>
       </c>
@@ -6762,7 +6881,7 @@
       <c r="R513" s="13"/>
       <c r="Y513" s="13"/>
     </row>
-    <row r="514" spans="2:25" hidden="1">
+    <row r="514" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B514" s="11">
         <v>45977</v>
       </c>
@@ -6772,7 +6891,7 @@
       <c r="R514" s="13"/>
       <c r="Y514" s="13"/>
     </row>
-    <row r="515" spans="2:25" hidden="1">
+    <row r="515" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B515" s="11">
         <v>45978</v>
       </c>
@@ -6782,7 +6901,7 @@
       <c r="R515" s="13"/>
       <c r="Y515" s="13"/>
     </row>
-    <row r="516" spans="2:25" hidden="1">
+    <row r="516" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B516" s="11">
         <v>45978</v>
       </c>
@@ -6792,7 +6911,7 @@
       <c r="R516" s="13"/>
       <c r="Y516" s="13"/>
     </row>
-    <row r="517" spans="2:25" hidden="1">
+    <row r="517" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B517" s="11">
         <v>45978</v>
       </c>
@@ -6802,7 +6921,7 @@
       <c r="R517" s="13"/>
       <c r="Y517" s="13"/>
     </row>
-    <row r="518" spans="2:25" hidden="1">
+    <row r="518" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B518" s="11">
         <v>45978</v>
       </c>
@@ -6812,7 +6931,7 @@
       <c r="R518" s="13"/>
       <c r="Y518" s="13"/>
     </row>
-    <row r="519" spans="2:25" hidden="1">
+    <row r="519" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B519" s="11">
         <v>45978</v>
       </c>
@@ -6822,7 +6941,7 @@
       <c r="R519" s="13"/>
       <c r="Y519" s="13"/>
     </row>
-    <row r="520" spans="2:25" hidden="1">
+    <row r="520" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B520" s="11">
         <v>45978</v>
       </c>
@@ -6832,7 +6951,7 @@
       <c r="R520" s="13"/>
       <c r="Y520" s="13"/>
     </row>
-    <row r="521" spans="2:25" hidden="1">
+    <row r="521" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B521" s="11">
         <v>45978</v>
       </c>
@@ -6842,7 +6961,7 @@
       <c r="R521" s="13"/>
       <c r="Y521" s="13"/>
     </row>
-    <row r="522" spans="2:25" hidden="1">
+    <row r="522" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B522" s="11">
         <v>45979</v>
       </c>
@@ -6852,7 +6971,7 @@
       <c r="R522" s="13"/>
       <c r="Y522" s="13"/>
     </row>
-    <row r="523" spans="2:25" hidden="1">
+    <row r="523" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B523" s="11">
         <v>45979</v>
       </c>
@@ -6862,7 +6981,7 @@
       <c r="R523" s="13"/>
       <c r="Y523" s="13"/>
     </row>
-    <row r="524" spans="2:25" hidden="1">
+    <row r="524" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B524" s="11">
         <v>45979</v>
       </c>
@@ -6872,7 +6991,7 @@
       <c r="R524" s="13"/>
       <c r="Y524" s="13"/>
     </row>
-    <row r="525" spans="2:25" hidden="1">
+    <row r="525" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B525" s="11">
         <v>45979</v>
       </c>
@@ -6882,7 +7001,7 @@
       <c r="R525" s="13"/>
       <c r="Y525" s="13"/>
     </row>
-    <row r="526" spans="2:25" hidden="1">
+    <row r="526" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B526" s="11">
         <v>45979</v>
       </c>
@@ -6892,7 +7011,7 @@
       <c r="R526" s="13"/>
       <c r="Y526" s="13"/>
     </row>
-    <row r="527" spans="2:25" hidden="1">
+    <row r="527" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B527" s="11">
         <v>45979</v>
       </c>
@@ -6902,7 +7021,7 @@
       <c r="R527" s="13"/>
       <c r="Y527" s="13"/>
     </row>
-    <row r="528" spans="2:25" hidden="1">
+    <row r="528" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B528" s="11">
         <v>45979</v>
       </c>
@@ -6912,7 +7031,7 @@
       <c r="R528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25" hidden="1">
+    <row r="529" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B529" s="11">
         <v>45980</v>
       </c>
@@ -6922,7 +7041,7 @@
       <c r="R529" s="13"/>
       <c r="Y529" s="13"/>
     </row>
-    <row r="530" spans="2:25" hidden="1">
+    <row r="530" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B530" s="11">
         <v>45980</v>
       </c>
@@ -6932,7 +7051,7 @@
       <c r="R530" s="13"/>
       <c r="Y530" s="13"/>
     </row>
-    <row r="531" spans="2:25" hidden="1">
+    <row r="531" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B531" s="11">
         <v>45980</v>
       </c>
@@ -6942,7 +7061,7 @@
       <c r="R531" s="13"/>
       <c r="Y531" s="13"/>
     </row>
-    <row r="532" spans="2:25" hidden="1">
+    <row r="532" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B532" s="11">
         <v>45980</v>
       </c>
@@ -6952,7 +7071,7 @@
       <c r="R532" s="13"/>
       <c r="Y532" s="13"/>
     </row>
-    <row r="533" spans="2:25" hidden="1">
+    <row r="533" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B533" s="11">
         <v>45980</v>
       </c>
@@ -6962,7 +7081,7 @@
       <c r="R533" s="13"/>
       <c r="Y533" s="13"/>
     </row>
-    <row r="534" spans="2:25" hidden="1">
+    <row r="534" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B534" s="11">
         <v>45980</v>
       </c>
@@ -6972,7 +7091,7 @@
       <c r="R534" s="13"/>
       <c r="Y534" s="13"/>
     </row>
-    <row r="535" spans="2:25" hidden="1">
+    <row r="535" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B535" s="11">
         <v>45980</v>
       </c>
@@ -6982,7 +7101,7 @@
       <c r="R535" s="13"/>
       <c r="Y535" s="13"/>
     </row>
-    <row r="536" spans="2:25" hidden="1">
+    <row r="536" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B536" s="11">
         <v>45981</v>
       </c>
@@ -6992,7 +7111,7 @@
       <c r="R536" s="13"/>
       <c r="Y536" s="13"/>
     </row>
-    <row r="537" spans="2:25" hidden="1">
+    <row r="537" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B537" s="11">
         <v>45981</v>
       </c>
@@ -7002,7 +7121,7 @@
       <c r="R537" s="13"/>
       <c r="Y537" s="13"/>
     </row>
-    <row r="538" spans="2:25" hidden="1">
+    <row r="538" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B538" s="11">
         <v>45981</v>
       </c>
@@ -7012,7 +7131,7 @@
       <c r="R538" s="13"/>
       <c r="Y538" s="13"/>
     </row>
-    <row r="539" spans="2:25" hidden="1">
+    <row r="539" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B539" s="11">
         <v>45981</v>
       </c>
@@ -7022,7 +7141,7 @@
       <c r="R539" s="13"/>
       <c r="Y539" s="13"/>
     </row>
-    <row r="540" spans="2:25" hidden="1">
+    <row r="540" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B540" s="11">
         <v>45981</v>
       </c>
@@ -7032,7 +7151,7 @@
       <c r="R540" s="13"/>
       <c r="Y540" s="13"/>
     </row>
-    <row r="541" spans="2:25" hidden="1">
+    <row r="541" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B541" s="11">
         <v>45981</v>
       </c>
@@ -7042,7 +7161,7 @@
       <c r="R541" s="13"/>
       <c r="Y541" s="13"/>
     </row>
-    <row r="542" spans="2:25" hidden="1">
+    <row r="542" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B542" s="11">
         <v>45981</v>
       </c>
@@ -7052,7 +7171,7 @@
       <c r="R542" s="13"/>
       <c r="Y542" s="13"/>
     </row>
-    <row r="543" spans="2:25" hidden="1">
+    <row r="543" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B543" s="11">
         <v>45982</v>
       </c>
@@ -7062,7 +7181,7 @@
       <c r="R543" s="13"/>
       <c r="Y543" s="13"/>
     </row>
-    <row r="544" spans="2:25" hidden="1">
+    <row r="544" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B544" s="11">
         <v>45982</v>
       </c>
@@ -7072,7 +7191,7 @@
       <c r="R544" s="13"/>
       <c r="Y544" s="13"/>
     </row>
-    <row r="545" spans="2:25" hidden="1">
+    <row r="545" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B545" s="11">
         <v>45982</v>
       </c>
@@ -7082,7 +7201,7 @@
       <c r="R545" s="13"/>
       <c r="Y545" s="13"/>
     </row>
-    <row r="546" spans="2:25" hidden="1">
+    <row r="546" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B546" s="11">
         <v>45982</v>
       </c>
@@ -7092,7 +7211,7 @@
       <c r="R546" s="13"/>
       <c r="Y546" s="13"/>
     </row>
-    <row r="547" spans="2:25" hidden="1">
+    <row r="547" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B547" s="11">
         <v>45982</v>
       </c>
@@ -7102,7 +7221,7 @@
       <c r="R547" s="13"/>
       <c r="Y547" s="13"/>
     </row>
-    <row r="548" spans="2:25" hidden="1">
+    <row r="548" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B548" s="11">
         <v>45982</v>
       </c>
@@ -7112,7 +7231,7 @@
       <c r="R548" s="13"/>
       <c r="Y548" s="13"/>
     </row>
-    <row r="549" spans="2:25" hidden="1">
+    <row r="549" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B549" s="11">
         <v>45982</v>
       </c>
@@ -7122,7 +7241,7 @@
       <c r="R549" s="13"/>
       <c r="Y549" s="13"/>
     </row>
-    <row r="550" spans="2:25" hidden="1">
+    <row r="550" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B550" s="11">
         <v>45983</v>
       </c>
@@ -7132,7 +7251,7 @@
       <c r="R550" s="13"/>
       <c r="Y550" s="13"/>
     </row>
-    <row r="551" spans="2:25" hidden="1">
+    <row r="551" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B551" s="11">
         <v>45983</v>
       </c>
@@ -7142,7 +7261,7 @@
       <c r="R551" s="13"/>
       <c r="Y551" s="13"/>
     </row>
-    <row r="552" spans="2:25" hidden="1">
+    <row r="552" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B552" s="11">
         <v>45983</v>
       </c>
@@ -7152,7 +7271,7 @@
       <c r="R552" s="13"/>
       <c r="Y552" s="13"/>
     </row>
-    <row r="553" spans="2:25" hidden="1">
+    <row r="553" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B553" s="11">
         <v>45983</v>
       </c>
@@ -7162,7 +7281,7 @@
       <c r="R553" s="13"/>
       <c r="Y553" s="13"/>
     </row>
-    <row r="554" spans="2:25" hidden="1">
+    <row r="554" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B554" s="11">
         <v>45983</v>
       </c>
@@ -7172,7 +7291,7 @@
       <c r="R554" s="13"/>
       <c r="Y554" s="13"/>
     </row>
-    <row r="555" spans="2:25" hidden="1">
+    <row r="555" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B555" s="11">
         <v>45983</v>
       </c>
@@ -7182,7 +7301,7 @@
       <c r="R555" s="13"/>
       <c r="Y555" s="13"/>
     </row>
-    <row r="556" spans="2:25" hidden="1">
+    <row r="556" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B556" s="11">
         <v>45983</v>
       </c>
@@ -7192,7 +7311,7 @@
       <c r="R556" s="13"/>
       <c r="Y556" s="13"/>
     </row>
-    <row r="557" spans="2:25" hidden="1">
+    <row r="557" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B557" s="11">
         <v>45984</v>
       </c>
@@ -7202,7 +7321,7 @@
       <c r="R557" s="13"/>
       <c r="Y557" s="13"/>
     </row>
-    <row r="558" spans="2:25" hidden="1">
+    <row r="558" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B558" s="11">
         <v>45984</v>
       </c>
@@ -7212,7 +7331,7 @@
       <c r="R558" s="13"/>
       <c r="Y558" s="13"/>
     </row>
-    <row r="559" spans="2:25" hidden="1">
+    <row r="559" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B559" s="11">
         <v>45984</v>
       </c>
@@ -7222,7 +7341,7 @@
       <c r="R559" s="13"/>
       <c r="Y559" s="13"/>
     </row>
-    <row r="560" spans="2:25" hidden="1">
+    <row r="560" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B560" s="11">
         <v>45984</v>
       </c>
@@ -7232,7 +7351,7 @@
       <c r="R560" s="13"/>
       <c r="Y560" s="13"/>
     </row>
-    <row r="561" spans="2:25" hidden="1">
+    <row r="561" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B561" s="11">
         <v>45984</v>
       </c>
@@ -7242,7 +7361,7 @@
       <c r="R561" s="13"/>
       <c r="Y561" s="13"/>
     </row>
-    <row r="562" spans="2:25" hidden="1">
+    <row r="562" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B562" s="11">
         <v>45984</v>
       </c>
@@ -7252,7 +7371,7 @@
       <c r="R562" s="13"/>
       <c r="Y562" s="13"/>
     </row>
-    <row r="563" spans="2:25" hidden="1">
+    <row r="563" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B563" s="11">
         <v>45984</v>
       </c>
@@ -7262,7 +7381,7 @@
       <c r="R563" s="13"/>
       <c r="Y563" s="13"/>
     </row>
-    <row r="564" spans="2:25" hidden="1">
+    <row r="564" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B564" s="11">
         <v>45985</v>
       </c>
@@ -7272,7 +7391,7 @@
       <c r="R564" s="13"/>
       <c r="Y564" s="13"/>
     </row>
-    <row r="565" spans="2:25" hidden="1">
+    <row r="565" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B565" s="11">
         <v>45985</v>
       </c>
@@ -7282,7 +7401,7 @@
       <c r="R565" s="13"/>
       <c r="Y565" s="13"/>
     </row>
-    <row r="566" spans="2:25" hidden="1">
+    <row r="566" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B566" s="11">
         <v>45985</v>
       </c>
@@ -7292,7 +7411,7 @@
       <c r="R566" s="13"/>
       <c r="Y566" s="13"/>
     </row>
-    <row r="567" spans="2:25" hidden="1">
+    <row r="567" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B567" s="11">
         <v>45985</v>
       </c>
@@ -7302,7 +7421,7 @@
       <c r="R567" s="13"/>
       <c r="Y567" s="13"/>
     </row>
-    <row r="568" spans="2:25" hidden="1">
+    <row r="568" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B568" s="11">
         <v>45985</v>
       </c>
@@ -7312,7 +7431,7 @@
       <c r="R568" s="13"/>
       <c r="Y568" s="13"/>
     </row>
-    <row r="569" spans="2:25" hidden="1">
+    <row r="569" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B569" s="11">
         <v>45985</v>
       </c>
@@ -7322,7 +7441,7 @@
       <c r="R569" s="13"/>
       <c r="Y569" s="13"/>
     </row>
-    <row r="570" spans="2:25" hidden="1">
+    <row r="570" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B570" s="11">
         <v>45985</v>
       </c>
@@ -7332,7 +7451,7 @@
       <c r="R570" s="13"/>
       <c r="Y570" s="13"/>
     </row>
-    <row r="571" spans="2:25" hidden="1">
+    <row r="571" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B571" s="11">
         <v>45986</v>
       </c>
@@ -7342,7 +7461,7 @@
       <c r="R571" s="13"/>
       <c r="Y571" s="13"/>
     </row>
-    <row r="572" spans="2:25" hidden="1">
+    <row r="572" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B572" s="11">
         <v>45986</v>
       </c>
@@ -7352,7 +7471,7 @@
       <c r="R572" s="13"/>
       <c r="Y572" s="13"/>
     </row>
-    <row r="573" spans="2:25" hidden="1">
+    <row r="573" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B573" s="11">
         <v>45986</v>
       </c>
@@ -7362,7 +7481,7 @@
       <c r="R573" s="13"/>
       <c r="Y573" s="13"/>
     </row>
-    <row r="574" spans="2:25" hidden="1">
+    <row r="574" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B574" s="11">
         <v>45986</v>
       </c>
@@ -7372,7 +7491,7 @@
       <c r="R574" s="13"/>
       <c r="Y574" s="13"/>
     </row>
-    <row r="575" spans="2:25" hidden="1">
+    <row r="575" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B575" s="11">
         <v>45986</v>
       </c>
@@ -7382,7 +7501,7 @@
       <c r="R575" s="13"/>
       <c r="Y575" s="13"/>
     </row>
-    <row r="576" spans="2:25" hidden="1">
+    <row r="576" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B576" s="11">
         <v>45986</v>
       </c>
@@ -7392,7 +7511,7 @@
       <c r="R576" s="13"/>
       <c r="Y576" s="13"/>
     </row>
-    <row r="577" spans="2:25" hidden="1">
+    <row r="577" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B577" s="11">
         <v>45986</v>
       </c>
@@ -7402,7 +7521,7 @@
       <c r="R577" s="13"/>
       <c r="Y577" s="13"/>
     </row>
-    <row r="578" spans="2:25" hidden="1">
+    <row r="578" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B578" s="11">
         <v>45987</v>
       </c>
@@ -7412,7 +7531,7 @@
       <c r="R578" s="13"/>
       <c r="Y578" s="13"/>
     </row>
-    <row r="579" spans="2:25" hidden="1">
+    <row r="579" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B579" s="11">
         <v>45987</v>
       </c>
@@ -7422,7 +7541,7 @@
       <c r="R579" s="13"/>
       <c r="Y579" s="13"/>
     </row>
-    <row r="580" spans="2:25" hidden="1">
+    <row r="580" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B580" s="11">
         <v>45987</v>
       </c>
@@ -7432,7 +7551,7 @@
       <c r="R580" s="13"/>
       <c r="Y580" s="13"/>
     </row>
-    <row r="581" spans="2:25" hidden="1">
+    <row r="581" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B581" s="11">
         <v>45987</v>
       </c>
@@ -7442,7 +7561,7 @@
       <c r="R581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25" hidden="1">
+    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B582" s="11">
         <v>45987</v>
       </c>
@@ -7452,7 +7571,7 @@
       <c r="R582" s="13"/>
       <c r="Y582" s="13"/>
     </row>
-    <row r="583" spans="2:25" hidden="1">
+    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B583" s="11">
         <v>45987</v>
       </c>
@@ -7462,7 +7581,7 @@
       <c r="R583" s="13"/>
       <c r="Y583" s="13"/>
     </row>
-    <row r="584" spans="2:25" hidden="1">
+    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B584" s="11">
         <v>45987</v>
       </c>
@@ -7472,7 +7591,7 @@
       <c r="R584" s="13"/>
       <c r="Y584" s="13"/>
     </row>
-    <row r="585" spans="2:25" hidden="1">
+    <row r="585" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B585" s="11">
         <v>45988</v>
       </c>
@@ -7482,7 +7601,7 @@
       <c r="R585" s="13"/>
       <c r="Y585" s="13"/>
     </row>
-    <row r="586" spans="2:25" hidden="1">
+    <row r="586" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B586" s="11">
         <v>45988</v>
       </c>
@@ -7492,7 +7611,7 @@
       <c r="R586" s="13"/>
       <c r="Y586" s="13"/>
     </row>
-    <row r="587" spans="2:25" hidden="1">
+    <row r="587" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B587" s="11">
         <v>45988</v>
       </c>
@@ -7502,7 +7621,7 @@
       <c r="R587" s="13"/>
       <c r="Y587" s="13"/>
     </row>
-    <row r="588" spans="2:25" hidden="1">
+    <row r="588" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B588" s="11">
         <v>45988</v>
       </c>
@@ -7512,7 +7631,7 @@
       <c r="R588" s="13"/>
       <c r="Y588" s="13"/>
     </row>
-    <row r="589" spans="2:25" hidden="1">
+    <row r="589" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B589" s="11">
         <v>45988</v>
       </c>
@@ -7522,7 +7641,7 @@
       <c r="R589" s="13"/>
       <c r="Y589" s="13"/>
     </row>
-    <row r="590" spans="2:25" hidden="1">
+    <row r="590" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B590" s="11">
         <v>45988</v>
       </c>
@@ -7532,7 +7651,7 @@
       <c r="R590" s="13"/>
       <c r="Y590" s="13"/>
     </row>
-    <row r="591" spans="2:25" hidden="1">
+    <row r="591" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B591" s="11">
         <v>45988</v>
       </c>
@@ -7542,7 +7661,7 @@
       <c r="R591" s="13"/>
       <c r="Y591" s="13"/>
     </row>
-    <row r="592" spans="2:25" hidden="1">
+    <row r="592" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B592" s="11">
         <v>45989</v>
       </c>
@@ -7552,7 +7671,7 @@
       <c r="R592" s="13"/>
       <c r="Y592" s="13"/>
     </row>
-    <row r="593" spans="2:25" hidden="1">
+    <row r="593" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B593" s="11">
         <v>45989</v>
       </c>
@@ -7562,7 +7681,7 @@
       <c r="R593" s="13"/>
       <c r="Y593" s="13"/>
     </row>
-    <row r="594" spans="2:25" hidden="1">
+    <row r="594" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B594" s="11">
         <v>45989</v>
       </c>
@@ -7572,7 +7691,7 @@
       <c r="R594" s="13"/>
       <c r="Y594" s="13"/>
     </row>
-    <row r="595" spans="2:25" hidden="1">
+    <row r="595" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B595" s="11">
         <v>45989</v>
       </c>
@@ -7582,7 +7701,7 @@
       <c r="R595" s="13"/>
       <c r="Y595" s="13"/>
     </row>
-    <row r="596" spans="2:25" hidden="1">
+    <row r="596" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B596" s="11">
         <v>45989</v>
       </c>
@@ -7592,7 +7711,7 @@
       <c r="R596" s="13"/>
       <c r="Y596" s="13"/>
     </row>
-    <row r="597" spans="2:25" hidden="1">
+    <row r="597" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B597" s="11">
         <v>45989</v>
       </c>
@@ -7602,7 +7721,7 @@
       <c r="R597" s="13"/>
       <c r="Y597" s="13"/>
     </row>
-    <row r="598" spans="2:25" hidden="1">
+    <row r="598" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B598" s="11">
         <v>45989</v>
       </c>
@@ -7612,7 +7731,7 @@
       <c r="R598" s="13"/>
       <c r="Y598" s="13"/>
     </row>
-    <row r="599" spans="2:25" hidden="1">
+    <row r="599" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B599" s="11">
         <v>45990</v>
       </c>
@@ -7622,7 +7741,7 @@
       <c r="R599" s="13"/>
       <c r="Y599" s="13"/>
     </row>
-    <row r="600" spans="2:25" hidden="1">
+    <row r="600" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B600" s="11">
         <v>45990</v>
       </c>
@@ -7632,7 +7751,7 @@
       <c r="R600" s="13"/>
       <c r="Y600" s="13"/>
     </row>
-    <row r="601" spans="2:25" hidden="1">
+    <row r="601" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B601" s="11">
         <v>45990</v>
       </c>
@@ -7642,7 +7761,7 @@
       <c r="R601" s="13"/>
       <c r="Y601" s="13"/>
     </row>
-    <row r="602" spans="2:25" hidden="1">
+    <row r="602" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B602" s="11">
         <v>45990</v>
       </c>
@@ -7652,7 +7771,7 @@
       <c r="R602" s="13"/>
       <c r="Y602" s="13"/>
     </row>
-    <row r="603" spans="2:25" hidden="1">
+    <row r="603" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B603" s="11">
         <v>45990</v>
       </c>
@@ -7662,7 +7781,7 @@
       <c r="R603" s="13"/>
       <c r="Y603" s="13"/>
     </row>
-    <row r="604" spans="2:25" hidden="1">
+    <row r="604" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B604" s="11">
         <v>45990</v>
       </c>
@@ -7672,7 +7791,7 @@
       <c r="R604" s="13"/>
       <c r="Y604" s="13"/>
     </row>
-    <row r="605" spans="2:25" hidden="1">
+    <row r="605" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B605" s="11">
         <v>45990</v>
       </c>
@@ -7682,7 +7801,7 @@
       <c r="R605" s="13"/>
       <c r="Y605" s="13"/>
     </row>
-    <row r="606" spans="2:25" hidden="1">
+    <row r="606" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B606" s="11">
         <v>45991</v>
       </c>
@@ -7692,7 +7811,7 @@
       <c r="R606" s="13"/>
       <c r="Y606" s="13"/>
     </row>
-    <row r="607" spans="2:25" hidden="1">
+    <row r="607" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B607" s="11">
         <v>45991</v>
       </c>
@@ -7702,7 +7821,7 @@
       <c r="R607" s="13"/>
       <c r="Y607" s="13"/>
     </row>
-    <row r="608" spans="2:25" hidden="1">
+    <row r="608" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B608" s="11">
         <v>45991</v>
       </c>
@@ -7712,7 +7831,7 @@
       <c r="R608" s="13"/>
       <c r="Y608" s="13"/>
     </row>
-    <row r="609" spans="2:25" hidden="1">
+    <row r="609" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B609" s="11">
         <v>45991</v>
       </c>
@@ -7722,7 +7841,7 @@
       <c r="R609" s="13"/>
       <c r="Y609" s="13"/>
     </row>
-    <row r="610" spans="2:25" hidden="1">
+    <row r="610" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B610" s="11">
         <v>45991</v>
       </c>
@@ -7732,7 +7851,7 @@
       <c r="R610" s="13"/>
       <c r="Y610" s="13"/>
     </row>
-    <row r="611" spans="2:25" hidden="1">
+    <row r="611" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B611" s="11">
         <v>45991</v>
       </c>
@@ -7742,7 +7861,7 @@
       <c r="R611" s="13"/>
       <c r="Y611" s="13"/>
     </row>
-    <row r="612" spans="2:25" hidden="1">
+    <row r="612" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B612" s="11">
         <v>45991</v>
       </c>
@@ -7752,7 +7871,7 @@
       <c r="R612" s="13"/>
       <c r="Y612" s="13"/>
     </row>
-    <row r="613" spans="2:25" hidden="1">
+    <row r="613" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B613" s="11">
         <v>45992</v>
       </c>
@@ -7762,7 +7881,7 @@
       <c r="R613" s="13"/>
       <c r="Y613" s="13"/>
     </row>
-    <row r="614" spans="2:25" hidden="1">
+    <row r="614" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B614" s="11">
         <v>45992</v>
       </c>
@@ -7772,7 +7891,7 @@
       <c r="R614" s="13"/>
       <c r="Y614" s="13"/>
     </row>
-    <row r="615" spans="2:25" hidden="1">
+    <row r="615" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B615" s="11">
         <v>45992</v>
       </c>
@@ -7782,7 +7901,7 @@
       <c r="R615" s="13"/>
       <c r="Y615" s="13"/>
     </row>
-    <row r="616" spans="2:25" hidden="1">
+    <row r="616" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B616" s="11">
         <v>45992</v>
       </c>
@@ -7792,7 +7911,7 @@
       <c r="R616" s="13"/>
       <c r="Y616" s="13"/>
     </row>
-    <row r="617" spans="2:25" hidden="1">
+    <row r="617" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B617" s="11">
         <v>45992</v>
       </c>
@@ -7802,7 +7921,7 @@
       <c r="R617" s="13"/>
       <c r="Y617" s="13"/>
     </row>
-    <row r="618" spans="2:25" hidden="1">
+    <row r="618" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B618" s="11">
         <v>45992</v>
       </c>
@@ -7812,7 +7931,7 @@
       <c r="R618" s="13"/>
       <c r="Y618" s="13"/>
     </row>
-    <row r="619" spans="2:25" hidden="1">
+    <row r="619" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B619" s="11">
         <v>45992</v>
       </c>
@@ -7822,7 +7941,7 @@
       <c r="R619" s="13"/>
       <c r="Y619" s="13"/>
     </row>
-    <row r="620" spans="2:25" hidden="1">
+    <row r="620" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B620" s="11">
         <v>45993</v>
       </c>
@@ -7832,7 +7951,7 @@
       <c r="R620" s="13"/>
       <c r="Y620" s="13"/>
     </row>
-    <row r="621" spans="2:25" hidden="1">
+    <row r="621" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B621" s="11">
         <v>45993</v>
       </c>
@@ -7842,7 +7961,7 @@
       <c r="R621" s="13"/>
       <c r="Y621" s="13"/>
     </row>
-    <row r="622" spans="2:25" hidden="1">
+    <row r="622" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B622" s="11">
         <v>45993</v>
       </c>
@@ -7852,7 +7971,7 @@
       <c r="R622" s="13"/>
       <c r="Y622" s="13"/>
     </row>
-    <row r="623" spans="2:25" hidden="1">
+    <row r="623" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B623" s="11">
         <v>45993</v>
       </c>
@@ -7862,7 +7981,7 @@
       <c r="R623" s="13"/>
       <c r="Y623" s="13"/>
     </row>
-    <row r="624" spans="2:25" hidden="1">
+    <row r="624" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B624" s="11">
         <v>45993</v>
       </c>
@@ -7872,7 +7991,7 @@
       <c r="R624" s="13"/>
       <c r="Y624" s="13"/>
     </row>
-    <row r="625" spans="2:25" hidden="1">
+    <row r="625" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B625" s="11">
         <v>45993</v>
       </c>
@@ -7882,7 +8001,7 @@
       <c r="R625" s="13"/>
       <c r="Y625" s="13"/>
     </row>
-    <row r="626" spans="2:25" hidden="1">
+    <row r="626" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B626" s="11">
         <v>45993</v>
       </c>
@@ -7892,7 +8011,7 @@
       <c r="R626" s="13"/>
       <c r="Y626" s="13"/>
     </row>
-    <row r="627" spans="2:25" hidden="1">
+    <row r="627" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B627" s="11">
         <v>45994</v>
       </c>
@@ -7902,7 +8021,7 @@
       <c r="R627" s="13"/>
       <c r="Y627" s="13"/>
     </row>
-    <row r="628" spans="2:25" hidden="1">
+    <row r="628" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B628" s="11">
         <v>45994</v>
       </c>
@@ -7912,7 +8031,7 @@
       <c r="R628" s="13"/>
       <c r="Y628" s="13"/>
     </row>
-    <row r="629" spans="2:25" hidden="1">
+    <row r="629" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B629" s="11">
         <v>45994</v>
       </c>
@@ -7922,7 +8041,7 @@
       <c r="R629" s="13"/>
       <c r="Y629" s="13"/>
     </row>
-    <row r="630" spans="2:25" hidden="1">
+    <row r="630" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B630" s="11">
         <v>45994</v>
       </c>
@@ -7932,7 +8051,7 @@
       <c r="R630" s="13"/>
       <c r="Y630" s="13"/>
     </row>
-    <row r="631" spans="2:25" hidden="1">
+    <row r="631" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B631" s="11">
         <v>45994</v>
       </c>
@@ -7942,7 +8061,7 @@
       <c r="R631" s="13"/>
       <c r="Y631" s="13"/>
     </row>
-    <row r="632" spans="2:25" hidden="1">
+    <row r="632" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B632" s="11">
         <v>45994</v>
       </c>
@@ -7952,7 +8071,7 @@
       <c r="R632" s="13"/>
       <c r="Y632" s="13"/>
     </row>
-    <row r="633" spans="2:25" hidden="1">
+    <row r="633" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B633" s="11">
         <v>45994</v>
       </c>
@@ -7962,7 +8081,7 @@
       <c r="R633" s="13"/>
       <c r="Y633" s="13"/>
     </row>
-    <row r="634" spans="2:25" hidden="1">
+    <row r="634" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B634" s="11">
         <v>45995</v>
       </c>
@@ -7972,7 +8091,7 @@
       <c r="R634" s="13"/>
       <c r="Y634" s="13"/>
     </row>
-    <row r="635" spans="2:25" hidden="1">
+    <row r="635" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B635" s="11">
         <v>45995</v>
       </c>
@@ -7982,7 +8101,7 @@
       <c r="R635" s="13"/>
       <c r="Y635" s="13"/>
     </row>
-    <row r="636" spans="2:25" hidden="1">
+    <row r="636" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B636" s="11">
         <v>45995</v>
       </c>
@@ -7992,7 +8111,7 @@
       <c r="R636" s="13"/>
       <c r="Y636" s="13"/>
     </row>
-    <row r="637" spans="2:25" hidden="1">
+    <row r="637" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B637" s="11">
         <v>45995</v>
       </c>
@@ -8002,7 +8121,7 @@
       <c r="R637" s="13"/>
       <c r="Y637" s="13"/>
     </row>
-    <row r="638" spans="2:25" hidden="1">
+    <row r="638" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B638" s="11">
         <v>45995</v>
       </c>
@@ -8012,7 +8131,7 @@
       <c r="R638" s="13"/>
       <c r="Y638" s="13"/>
     </row>
-    <row r="639" spans="2:25" hidden="1">
+    <row r="639" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B639" s="11">
         <v>45995</v>
       </c>
@@ -8022,7 +8141,7 @@
       <c r="R639" s="13"/>
       <c r="Y639" s="13"/>
     </row>
-    <row r="640" spans="2:25" hidden="1">
+    <row r="640" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B640" s="11">
         <v>45995</v>
       </c>
@@ -8032,7 +8151,7 @@
       <c r="R640" s="13"/>
       <c r="Y640" s="13"/>
     </row>
-    <row r="641" spans="2:25" hidden="1">
+    <row r="641" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B641" s="11">
         <v>45996</v>
       </c>
@@ -8042,7 +8161,7 @@
       <c r="R641" s="13"/>
       <c r="Y641" s="13"/>
     </row>
-    <row r="642" spans="2:25" hidden="1">
+    <row r="642" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B642" s="11">
         <v>45996</v>
       </c>
@@ -8052,7 +8171,7 @@
       <c r="R642" s="13"/>
       <c r="Y642" s="13"/>
     </row>
-    <row r="643" spans="2:25" hidden="1">
+    <row r="643" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B643" s="11">
         <v>45996</v>
       </c>
@@ -8062,7 +8181,7 @@
       <c r="R643" s="13"/>
       <c r="Y643" s="13"/>
     </row>
-    <row r="644" spans="2:25" hidden="1">
+    <row r="644" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B644" s="11">
         <v>45996</v>
       </c>
@@ -8072,7 +8191,7 @@
       <c r="R644" s="13"/>
       <c r="Y644" s="13"/>
     </row>
-    <row r="645" spans="2:25" hidden="1">
+    <row r="645" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B645" s="11">
         <v>45996</v>
       </c>
@@ -8082,7 +8201,7 @@
       <c r="R645" s="13"/>
       <c r="Y645" s="13"/>
     </row>
-    <row r="646" spans="2:25" hidden="1">
+    <row r="646" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B646" s="11">
         <v>45996</v>
       </c>
@@ -8092,7 +8211,7 @@
       <c r="R646" s="13"/>
       <c r="Y646" s="13"/>
     </row>
-    <row r="647" spans="2:25" hidden="1">
+    <row r="647" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B647" s="11">
         <v>45996</v>
       </c>
@@ -8102,7 +8221,7 @@
       <c r="R647" s="13"/>
       <c r="Y647" s="13"/>
     </row>
-    <row r="648" spans="2:25" hidden="1">
+    <row r="648" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B648" s="11">
         <v>45997</v>
       </c>
@@ -8112,7 +8231,7 @@
       <c r="R648" s="13"/>
       <c r="Y648" s="13"/>
     </row>
-    <row r="649" spans="2:25" hidden="1">
+    <row r="649" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B649" s="11">
         <v>45997</v>
       </c>
@@ -8122,7 +8241,7 @@
       <c r="R649" s="13"/>
       <c r="Y649" s="13"/>
     </row>
-    <row r="650" spans="2:25" hidden="1">
+    <row r="650" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B650" s="11">
         <v>45997</v>
       </c>
@@ -8132,7 +8251,7 @@
       <c r="R650" s="13"/>
       <c r="Y650" s="13"/>
     </row>
-    <row r="651" spans="2:25" hidden="1">
+    <row r="651" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B651" s="11">
         <v>45997</v>
       </c>
@@ -8142,7 +8261,7 @@
       <c r="R651" s="13"/>
       <c r="Y651" s="13"/>
     </row>
-    <row r="652" spans="2:25" hidden="1">
+    <row r="652" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B652" s="11">
         <v>45997</v>
       </c>
@@ -8152,7 +8271,7 @@
       <c r="R652" s="13"/>
       <c r="Y652" s="13"/>
     </row>
-    <row r="653" spans="2:25" hidden="1">
+    <row r="653" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B653" s="11">
         <v>45997</v>
       </c>
@@ -8162,7 +8281,7 @@
       <c r="R653" s="13"/>
       <c r="Y653" s="13"/>
     </row>
-    <row r="654" spans="2:25" hidden="1">
+    <row r="654" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B654" s="11">
         <v>45997</v>
       </c>
@@ -8172,7 +8291,7 @@
       <c r="R654" s="13"/>
       <c r="Y654" s="13"/>
     </row>
-    <row r="655" spans="2:25" hidden="1">
+    <row r="655" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B655" s="11">
         <v>45998</v>
       </c>
@@ -8182,7 +8301,7 @@
       <c r="R655" s="13"/>
       <c r="Y655" s="13"/>
     </row>
-    <row r="656" spans="2:25" hidden="1">
+    <row r="656" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B656" s="11">
         <v>45998</v>
       </c>
@@ -8192,7 +8311,7 @@
       <c r="R656" s="13"/>
       <c r="Y656" s="13"/>
     </row>
-    <row r="657" spans="2:25" hidden="1">
+    <row r="657" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B657" s="11">
         <v>45998</v>
       </c>
@@ -8202,7 +8321,7 @@
       <c r="R657" s="13"/>
       <c r="Y657" s="13"/>
     </row>
-    <row r="658" spans="2:25" hidden="1">
+    <row r="658" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B658" s="11">
         <v>45998</v>
       </c>
@@ -8212,7 +8331,7 @@
       <c r="R658" s="13"/>
       <c r="Y658" s="13"/>
     </row>
-    <row r="659" spans="2:25" hidden="1">
+    <row r="659" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B659" s="11">
         <v>45998</v>
       </c>
@@ -8222,7 +8341,7 @@
       <c r="R659" s="13"/>
       <c r="Y659" s="13"/>
     </row>
-    <row r="660" spans="2:25" hidden="1">
+    <row r="660" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B660" s="11">
         <v>45998</v>
       </c>
@@ -8232,7 +8351,7 @@
       <c r="R660" s="13"/>
       <c r="Y660" s="13"/>
     </row>
-    <row r="661" spans="2:25" hidden="1">
+    <row r="661" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B661" s="11">
         <v>45998</v>
       </c>
@@ -8242,7 +8361,7 @@
       <c r="R661" s="13"/>
       <c r="Y661" s="13"/>
     </row>
-    <row r="662" spans="2:25" hidden="1">
+    <row r="662" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B662" s="11">
         <v>45999</v>
       </c>
@@ -8252,7 +8371,7 @@
       <c r="R662" s="13"/>
       <c r="Y662" s="13"/>
     </row>
-    <row r="663" spans="2:25" hidden="1">
+    <row r="663" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B663" s="11">
         <v>45999</v>
       </c>
@@ -8262,7 +8381,7 @@
       <c r="R663" s="13"/>
       <c r="Y663" s="13"/>
     </row>
-    <row r="664" spans="2:25" hidden="1">
+    <row r="664" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B664" s="11">
         <v>45999</v>
       </c>
@@ -8272,7 +8391,7 @@
       <c r="R664" s="13"/>
       <c r="Y664" s="13"/>
     </row>
-    <row r="665" spans="2:25" hidden="1">
+    <row r="665" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B665" s="11">
         <v>45999</v>
       </c>
@@ -8282,7 +8401,7 @@
       <c r="R665" s="13"/>
       <c r="Y665" s="13"/>
     </row>
-    <row r="666" spans="2:25" hidden="1">
+    <row r="666" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B666" s="11">
         <v>45999</v>
       </c>
@@ -8292,7 +8411,7 @@
       <c r="R666" s="13"/>
       <c r="Y666" s="13"/>
     </row>
-    <row r="667" spans="2:25" hidden="1">
+    <row r="667" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B667" s="11">
         <v>45999</v>
       </c>
@@ -8302,7 +8421,7 @@
       <c r="R667" s="13"/>
       <c r="Y667" s="13"/>
     </row>
-    <row r="668" spans="2:25" hidden="1">
+    <row r="668" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B668" s="11">
         <v>45999</v>
       </c>
@@ -8312,7 +8431,7 @@
       <c r="R668" s="13"/>
       <c r="Y668" s="13"/>
     </row>
-    <row r="669" spans="2:25" hidden="1">
+    <row r="669" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B669" s="11">
         <v>46000</v>
       </c>
@@ -8322,7 +8441,7 @@
       <c r="R669" s="13"/>
       <c r="Y669" s="13"/>
     </row>
-    <row r="670" spans="2:25" hidden="1">
+    <row r="670" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B670" s="11">
         <v>46000</v>
       </c>
@@ -8332,7 +8451,7 @@
       <c r="R670" s="13"/>
       <c r="Y670" s="13"/>
     </row>
-    <row r="671" spans="2:25" hidden="1">
+    <row r="671" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B671" s="11">
         <v>46000</v>
       </c>
@@ -8342,7 +8461,7 @@
       <c r="R671" s="13"/>
       <c r="Y671" s="13"/>
     </row>
-    <row r="672" spans="2:25" hidden="1">
+    <row r="672" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B672" s="11">
         <v>46000</v>
       </c>
@@ -8352,7 +8471,7 @@
       <c r="R672" s="13"/>
       <c r="Y672" s="13"/>
     </row>
-    <row r="673" spans="2:25" hidden="1">
+    <row r="673" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B673" s="11">
         <v>46000</v>
       </c>
@@ -8362,7 +8481,7 @@
       <c r="R673" s="13"/>
       <c r="Y673" s="13"/>
     </row>
-    <row r="674" spans="2:25" hidden="1">
+    <row r="674" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B674" s="11">
         <v>46000</v>
       </c>
@@ -8372,7 +8491,7 @@
       <c r="R674" s="13"/>
       <c r="Y674" s="13"/>
     </row>
-    <row r="675" spans="2:25" hidden="1">
+    <row r="675" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B675" s="11">
         <v>46000</v>
       </c>
@@ -8382,7 +8501,7 @@
       <c r="R675" s="13"/>
       <c r="Y675" s="13"/>
     </row>
-    <row r="676" spans="2:25" hidden="1">
+    <row r="676" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B676" s="11">
         <v>46001</v>
       </c>
@@ -8392,7 +8511,7 @@
       <c r="R676" s="13"/>
       <c r="Y676" s="13"/>
     </row>
-    <row r="677" spans="2:25" hidden="1">
+    <row r="677" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B677" s="11">
         <v>46001</v>
       </c>
@@ -8402,7 +8521,7 @@
       <c r="R677" s="13"/>
       <c r="Y677" s="13"/>
     </row>
-    <row r="678" spans="2:25" hidden="1">
+    <row r="678" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B678" s="11">
         <v>46001</v>
       </c>
@@ -8412,7 +8531,7 @@
       <c r="R678" s="13"/>
       <c r="Y678" s="13"/>
     </row>
-    <row r="679" spans="2:25" hidden="1">
+    <row r="679" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B679" s="11">
         <v>46001</v>
       </c>
@@ -8422,7 +8541,7 @@
       <c r="R679" s="13"/>
       <c r="Y679" s="13"/>
     </row>
-    <row r="680" spans="2:25" hidden="1">
+    <row r="680" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B680" s="11">
         <v>46001</v>
       </c>
@@ -8432,7 +8551,7 @@
       <c r="R680" s="13"/>
       <c r="Y680" s="13"/>
     </row>
-    <row r="681" spans="2:25" hidden="1">
+    <row r="681" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B681" s="11">
         <v>46001</v>
       </c>
@@ -8442,7 +8561,7 @@
       <c r="R681" s="13"/>
       <c r="Y681" s="13"/>
     </row>
-    <row r="682" spans="2:25" hidden="1">
+    <row r="682" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B682" s="11">
         <v>46001</v>
       </c>
@@ -8452,7 +8571,7 @@
       <c r="R682" s="13"/>
       <c r="Y682" s="13"/>
     </row>
-    <row r="683" spans="2:25" hidden="1">
+    <row r="683" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B683" s="11">
         <v>46002</v>
       </c>
@@ -8462,7 +8581,7 @@
       <c r="R683" s="13"/>
       <c r="Y683" s="13"/>
     </row>
-    <row r="684" spans="2:25" hidden="1">
+    <row r="684" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B684" s="11">
         <v>46002</v>
       </c>
@@ -8472,7 +8591,7 @@
       <c r="R684" s="13"/>
       <c r="Y684" s="13"/>
     </row>
-    <row r="685" spans="2:25" hidden="1">
+    <row r="685" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B685" s="11">
         <v>46002</v>
       </c>
@@ -8482,7 +8601,7 @@
       <c r="R685" s="13"/>
       <c r="Y685" s="13"/>
     </row>
-    <row r="686" spans="2:25" hidden="1">
+    <row r="686" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B686" s="11">
         <v>46002</v>
       </c>
@@ -8492,7 +8611,7 @@
       <c r="R686" s="13"/>
       <c r="Y686" s="13"/>
     </row>
-    <row r="687" spans="2:25" hidden="1">
+    <row r="687" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B687" s="11">
         <v>46002</v>
       </c>
@@ -8502,7 +8621,7 @@
       <c r="R687" s="13"/>
       <c r="Y687" s="13"/>
     </row>
-    <row r="688" spans="2:25" hidden="1">
+    <row r="688" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B688" s="11">
         <v>46002</v>
       </c>
@@ -8512,7 +8631,7 @@
       <c r="R688" s="13"/>
       <c r="Y688" s="13"/>
     </row>
-    <row r="689" spans="2:25" hidden="1">
+    <row r="689" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B689" s="11">
         <v>46002</v>
       </c>
@@ -8522,7 +8641,7 @@
       <c r="R689" s="13"/>
       <c r="Y689" s="13"/>
     </row>
-    <row r="690" spans="2:25" hidden="1">
+    <row r="690" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B690" s="11">
         <v>46003</v>
       </c>
@@ -8532,7 +8651,7 @@
       <c r="R690" s="13"/>
       <c r="Y690" s="13"/>
     </row>
-    <row r="691" spans="2:25" hidden="1">
+    <row r="691" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B691" s="11">
         <v>46003</v>
       </c>
@@ -8542,7 +8661,7 @@
       <c r="R691" s="13"/>
       <c r="Y691" s="13"/>
     </row>
-    <row r="692" spans="2:25" hidden="1">
+    <row r="692" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B692" s="11">
         <v>46003</v>
       </c>
@@ -8552,7 +8671,7 @@
       <c r="R692" s="13"/>
       <c r="Y692" s="13"/>
     </row>
-    <row r="693" spans="2:25" hidden="1">
+    <row r="693" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B693" s="11">
         <v>46003</v>
       </c>
@@ -8562,7 +8681,7 @@
       <c r="R693" s="13"/>
       <c r="Y693" s="13"/>
     </row>
-    <row r="694" spans="2:25" hidden="1">
+    <row r="694" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B694" s="11">
         <v>46003</v>
       </c>
@@ -8572,7 +8691,7 @@
       <c r="R694" s="13"/>
       <c r="Y694" s="13"/>
     </row>
-    <row r="695" spans="2:25" hidden="1">
+    <row r="695" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B695" s="11">
         <v>46003</v>
       </c>
@@ -8582,7 +8701,7 @@
       <c r="R695" s="13"/>
       <c r="Y695" s="13"/>
     </row>
-    <row r="696" spans="2:25" hidden="1">
+    <row r="696" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B696" s="11">
         <v>46003</v>
       </c>
@@ -8592,7 +8711,7 @@
       <c r="R696" s="13"/>
       <c r="Y696" s="13"/>
     </row>
-    <row r="697" spans="2:25" hidden="1">
+    <row r="697" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B697" s="11">
         <v>46004</v>
       </c>
@@ -8602,7 +8721,7 @@
       <c r="R697" s="13"/>
       <c r="Y697" s="13"/>
     </row>
-    <row r="698" spans="2:25" hidden="1">
+    <row r="698" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B698" s="11">
         <v>46004</v>
       </c>
@@ -8612,7 +8731,7 @@
       <c r="R698" s="13"/>
       <c r="Y698" s="13"/>
     </row>
-    <row r="699" spans="2:25" hidden="1">
+    <row r="699" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B699" s="11">
         <v>46004</v>
       </c>
@@ -8622,7 +8741,7 @@
       <c r="R699" s="13"/>
       <c r="Y699" s="13"/>
     </row>
-    <row r="700" spans="2:25" hidden="1">
+    <row r="700" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B700" s="11">
         <v>46004</v>
       </c>
@@ -8632,7 +8751,7 @@
       <c r="R700" s="13"/>
       <c r="Y700" s="13"/>
     </row>
-    <row r="701" spans="2:25" hidden="1">
+    <row r="701" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B701" s="11">
         <v>46004</v>
       </c>
@@ -8642,7 +8761,7 @@
       <c r="R701" s="13"/>
       <c r="Y701" s="13"/>
     </row>
-    <row r="702" spans="2:25" hidden="1">
+    <row r="702" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B702" s="11">
         <v>46004</v>
       </c>
@@ -8652,7 +8771,7 @@
       <c r="R702" s="13"/>
       <c r="Y702" s="13"/>
     </row>
-    <row r="703" spans="2:25" hidden="1">
+    <row r="703" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B703" s="11">
         <v>46004</v>
       </c>
@@ -8662,7 +8781,7 @@
       <c r="R703" s="13"/>
       <c r="Y703" s="13"/>
     </row>
-    <row r="704" spans="2:25" hidden="1">
+    <row r="704" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B704" s="11">
         <v>46005</v>
       </c>
@@ -8672,7 +8791,7 @@
       <c r="R704" s="13"/>
       <c r="Y704" s="13"/>
     </row>
-    <row r="705" spans="2:25" hidden="1">
+    <row r="705" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B705" s="11">
         <v>46005</v>
       </c>
@@ -8682,7 +8801,7 @@
       <c r="R705" s="13"/>
       <c r="Y705" s="13"/>
     </row>
-    <row r="706" spans="2:25" hidden="1">
+    <row r="706" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B706" s="11">
         <v>46005</v>
       </c>
@@ -8692,7 +8811,7 @@
       <c r="R706" s="13"/>
       <c r="Y706" s="13"/>
     </row>
-    <row r="707" spans="2:25" hidden="1">
+    <row r="707" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B707" s="11">
         <v>46005</v>
       </c>
@@ -8702,7 +8821,7 @@
       <c r="R707" s="13"/>
       <c r="Y707" s="13"/>
     </row>
-    <row r="708" spans="2:25" hidden="1">
+    <row r="708" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B708" s="11">
         <v>46005</v>
       </c>
@@ -8712,7 +8831,7 @@
       <c r="R708" s="13"/>
       <c r="Y708" s="13"/>
     </row>
-    <row r="709" spans="2:25" hidden="1">
+    <row r="709" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B709" s="11">
         <v>46005</v>
       </c>
@@ -8722,7 +8841,7 @@
       <c r="R709" s="13"/>
       <c r="Y709" s="13"/>
     </row>
-    <row r="710" spans="2:25" hidden="1">
+    <row r="710" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B710" s="11">
         <v>46005</v>
       </c>
@@ -8732,7 +8851,7 @@
       <c r="R710" s="13"/>
       <c r="Y710" s="13"/>
     </row>
-    <row r="711" spans="2:25" hidden="1">
+    <row r="711" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B711" s="11">
         <v>46006</v>
       </c>
@@ -8742,7 +8861,7 @@
       <c r="R711" s="13"/>
       <c r="Y711" s="13"/>
     </row>
-    <row r="712" spans="2:25" hidden="1">
+    <row r="712" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B712" s="11">
         <v>46006</v>
       </c>
@@ -8752,7 +8871,7 @@
       <c r="R712" s="13"/>
       <c r="Y712" s="13"/>
     </row>
-    <row r="713" spans="2:25" hidden="1">
+    <row r="713" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B713" s="11">
         <v>46006</v>
       </c>
@@ -8762,7 +8881,7 @@
       <c r="R713" s="13"/>
       <c r="Y713" s="13"/>
     </row>
-    <row r="714" spans="2:25" hidden="1">
+    <row r="714" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B714" s="11">
         <v>46006</v>
       </c>
@@ -8772,7 +8891,7 @@
       <c r="R714" s="13"/>
       <c r="Y714" s="13"/>
     </row>
-    <row r="715" spans="2:25" hidden="1">
+    <row r="715" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B715" s="11">
         <v>46006</v>
       </c>
@@ -8782,7 +8901,7 @@
       <c r="R715" s="13"/>
       <c r="Y715" s="13"/>
     </row>
-    <row r="716" spans="2:25" hidden="1">
+    <row r="716" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B716" s="11">
         <v>46006</v>
       </c>
@@ -8792,7 +8911,7 @@
       <c r="R716" s="13"/>
       <c r="Y716" s="13"/>
     </row>
-    <row r="717" spans="2:25" hidden="1">
+    <row r="717" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B717" s="11">
         <v>46006</v>
       </c>
@@ -8802,7 +8921,7 @@
       <c r="R717" s="13"/>
       <c r="Y717" s="13"/>
     </row>
-    <row r="718" spans="2:25" hidden="1">
+    <row r="718" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B718" s="11">
         <v>46007</v>
       </c>
@@ -8812,7 +8931,7 @@
       <c r="R718" s="13"/>
       <c r="Y718" s="13"/>
     </row>
-    <row r="719" spans="2:25" hidden="1">
+    <row r="719" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B719" s="11">
         <v>46007</v>
       </c>
@@ -8822,7 +8941,7 @@
       <c r="R719" s="13"/>
       <c r="Y719" s="13"/>
     </row>
-    <row r="720" spans="2:25" hidden="1">
+    <row r="720" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B720" s="11">
         <v>46007</v>
       </c>
@@ -8832,7 +8951,7 @@
       <c r="R720" s="13"/>
       <c r="Y720" s="13"/>
     </row>
-    <row r="721" spans="2:25" hidden="1">
+    <row r="721" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B721" s="11">
         <v>46007</v>
       </c>
@@ -8842,7 +8961,7 @@
       <c r="R721" s="13"/>
       <c r="Y721" s="13"/>
     </row>
-    <row r="722" spans="2:25" hidden="1">
+    <row r="722" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B722" s="11">
         <v>46007</v>
       </c>
@@ -8852,7 +8971,7 @@
       <c r="R722" s="13"/>
       <c r="Y722" s="13"/>
     </row>
-    <row r="723" spans="2:25" hidden="1">
+    <row r="723" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B723" s="11">
         <v>46007</v>
       </c>
@@ -8862,7 +8981,7 @@
       <c r="R723" s="13"/>
       <c r="Y723" s="13"/>
     </row>
-    <row r="724" spans="2:25" hidden="1">
+    <row r="724" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B724" s="11">
         <v>46007</v>
       </c>
@@ -8872,7 +8991,7 @@
       <c r="R724" s="13"/>
       <c r="Y724" s="13"/>
     </row>
-    <row r="725" spans="2:25" hidden="1">
+    <row r="725" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B725" s="11">
         <v>46008</v>
       </c>
@@ -8882,7 +9001,7 @@
       <c r="R725" s="13"/>
       <c r="Y725" s="13"/>
     </row>
-    <row r="726" spans="2:25" hidden="1">
+    <row r="726" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B726" s="11">
         <v>46008</v>
       </c>
@@ -8892,7 +9011,7 @@
       <c r="R726" s="13"/>
       <c r="Y726" s="13"/>
     </row>
-    <row r="727" spans="2:25" hidden="1">
+    <row r="727" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B727" s="11">
         <v>46008</v>
       </c>
@@ -8902,7 +9021,7 @@
       <c r="R727" s="13"/>
       <c r="Y727" s="13"/>
     </row>
-    <row r="728" spans="2:25" hidden="1">
+    <row r="728" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B728" s="11">
         <v>46008</v>
       </c>
@@ -8912,7 +9031,7 @@
       <c r="R728" s="13"/>
       <c r="Y728" s="13"/>
     </row>
-    <row r="729" spans="2:25" hidden="1">
+    <row r="729" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B729" s="11">
         <v>46008</v>
       </c>
@@ -8922,7 +9041,7 @@
       <c r="R729" s="13"/>
       <c r="Y729" s="13"/>
     </row>
-    <row r="730" spans="2:25" hidden="1">
+    <row r="730" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B730" s="11">
         <v>46008</v>
       </c>
@@ -8932,7 +9051,7 @@
       <c r="R730" s="13"/>
       <c r="Y730" s="13"/>
     </row>
-    <row r="731" spans="2:25" hidden="1">
+    <row r="731" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B731" s="11">
         <v>46008</v>
       </c>
@@ -8942,7 +9061,7 @@
       <c r="R731" s="13"/>
       <c r="Y731" s="13"/>
     </row>
-    <row r="732" spans="2:25" hidden="1">
+    <row r="732" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B732" s="11">
         <v>46009</v>
       </c>
@@ -8952,7 +9071,7 @@
       <c r="R732" s="13"/>
       <c r="Y732" s="13"/>
     </row>
-    <row r="733" spans="2:25" hidden="1">
+    <row r="733" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B733" s="11">
         <v>46009</v>
       </c>
@@ -8962,7 +9081,7 @@
       <c r="R733" s="13"/>
       <c r="Y733" s="13"/>
     </row>
-    <row r="734" spans="2:25" hidden="1">
+    <row r="734" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B734" s="11">
         <v>46009</v>
       </c>
@@ -8972,7 +9091,7 @@
       <c r="R734" s="13"/>
       <c r="Y734" s="13"/>
     </row>
-    <row r="735" spans="2:25" hidden="1">
+    <row r="735" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B735" s="11">
         <v>46009</v>
       </c>
@@ -8982,7 +9101,7 @@
       <c r="R735" s="13"/>
       <c r="Y735" s="13"/>
     </row>
-    <row r="736" spans="2:25" hidden="1">
+    <row r="736" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B736" s="11">
         <v>46009</v>
       </c>
@@ -8992,7 +9111,7 @@
       <c r="R736" s="13"/>
       <c r="Y736" s="13"/>
     </row>
-    <row r="737" spans="2:25" hidden="1">
+    <row r="737" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B737" s="11">
         <v>46009</v>
       </c>
@@ -9002,7 +9121,7 @@
       <c r="R737" s="13"/>
       <c r="Y737" s="13"/>
     </row>
-    <row r="738" spans="2:25" hidden="1">
+    <row r="738" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B738" s="11">
         <v>46009</v>
       </c>
@@ -9012,7 +9131,7 @@
       <c r="R738" s="13"/>
       <c r="Y738" s="13"/>
     </row>
-    <row r="739" spans="2:25" hidden="1">
+    <row r="739" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B739" s="11">
         <v>46010</v>
       </c>
@@ -9022,7 +9141,7 @@
       <c r="R739" s="13"/>
       <c r="Y739" s="13"/>
     </row>
-    <row r="740" spans="2:25" hidden="1">
+    <row r="740" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B740" s="11">
         <v>46010</v>
       </c>
@@ -9032,7 +9151,7 @@
       <c r="R740" s="13"/>
       <c r="Y740" s="13"/>
     </row>
-    <row r="741" spans="2:25" hidden="1">
+    <row r="741" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B741" s="11">
         <v>46010</v>
       </c>
@@ -9042,7 +9161,7 @@
       <c r="R741" s="13"/>
       <c r="Y741" s="13"/>
     </row>
-    <row r="742" spans="2:25" hidden="1">
+    <row r="742" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B742" s="11">
         <v>46010</v>
       </c>
@@ -9052,7 +9171,7 @@
       <c r="R742" s="13"/>
       <c r="Y742" s="13"/>
     </row>
-    <row r="743" spans="2:25" hidden="1">
+    <row r="743" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B743" s="11">
         <v>46010</v>
       </c>
@@ -9062,7 +9181,7 @@
       <c r="R743" s="13"/>
       <c r="Y743" s="13"/>
     </row>
-    <row r="744" spans="2:25" hidden="1">
+    <row r="744" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B744" s="11">
         <v>46010</v>
       </c>
@@ -9072,7 +9191,7 @@
       <c r="R744" s="13"/>
       <c r="Y744" s="13"/>
     </row>
-    <row r="745" spans="2:25" hidden="1">
+    <row r="745" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B745" s="11">
         <v>46010</v>
       </c>
@@ -9082,7 +9201,7 @@
       <c r="R745" s="13"/>
       <c r="Y745" s="13"/>
     </row>
-    <row r="746" spans="2:25" hidden="1">
+    <row r="746" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B746" s="11">
         <v>46011</v>
       </c>
@@ -9092,7 +9211,7 @@
       <c r="R746" s="13"/>
       <c r="Y746" s="13"/>
     </row>
-    <row r="747" spans="2:25" hidden="1">
+    <row r="747" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B747" s="11">
         <v>46011</v>
       </c>
@@ -9102,7 +9221,7 @@
       <c r="R747" s="13"/>
       <c r="Y747" s="13"/>
     </row>
-    <row r="748" spans="2:25" hidden="1">
+    <row r="748" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B748" s="11">
         <v>46011</v>
       </c>
@@ -9112,7 +9231,7 @@
       <c r="R748" s="13"/>
       <c r="Y748" s="13"/>
     </row>
-    <row r="749" spans="2:25" hidden="1">
+    <row r="749" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B749" s="11">
         <v>46011</v>
       </c>
@@ -9122,7 +9241,7 @@
       <c r="R749" s="13"/>
       <c r="Y749" s="13"/>
     </row>
-    <row r="750" spans="2:25" hidden="1">
+    <row r="750" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B750" s="11">
         <v>46011</v>
       </c>
@@ -9132,7 +9251,7 @@
       <c r="R750" s="13"/>
       <c r="Y750" s="13"/>
     </row>
-    <row r="751" spans="2:25" hidden="1">
+    <row r="751" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B751" s="11">
         <v>46011</v>
       </c>
@@ -9142,7 +9261,7 @@
       <c r="R751" s="13"/>
       <c r="Y751" s="13"/>
     </row>
-    <row r="752" spans="2:25" hidden="1">
+    <row r="752" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B752" s="11">
         <v>46011</v>
       </c>
@@ -9152,7 +9271,7 @@
       <c r="R752" s="13"/>
       <c r="Y752" s="13"/>
     </row>
-    <row r="753" spans="2:25" hidden="1">
+    <row r="753" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B753" s="11">
         <v>46012</v>
       </c>
@@ -9162,7 +9281,7 @@
       <c r="R753" s="13"/>
       <c r="Y753" s="13"/>
     </row>
-    <row r="754" spans="2:25" hidden="1">
+    <row r="754" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B754" s="11">
         <v>46012</v>
       </c>
@@ -9172,7 +9291,7 @@
       <c r="R754" s="13"/>
       <c r="Y754" s="13"/>
     </row>
-    <row r="755" spans="2:25" hidden="1">
+    <row r="755" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B755" s="11">
         <v>46012</v>
       </c>
@@ -9182,7 +9301,7 @@
       <c r="R755" s="13"/>
       <c r="Y755" s="13"/>
     </row>
-    <row r="756" spans="2:25" hidden="1">
+    <row r="756" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B756" s="11">
         <v>46012</v>
       </c>
@@ -9192,7 +9311,7 @@
       <c r="R756" s="13"/>
       <c r="Y756" s="13"/>
     </row>
-    <row r="757" spans="2:25" hidden="1">
+    <row r="757" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B757" s="11">
         <v>46012</v>
       </c>
@@ -9202,7 +9321,7 @@
       <c r="R757" s="13"/>
       <c r="Y757" s="13"/>
     </row>
-    <row r="758" spans="2:25" hidden="1">
+    <row r="758" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B758" s="11">
         <v>46012</v>
       </c>
@@ -9212,7 +9331,7 @@
       <c r="R758" s="13"/>
       <c r="Y758" s="13"/>
     </row>
-    <row r="759" spans="2:25" hidden="1">
+    <row r="759" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B759" s="11">
         <v>46012</v>
       </c>
@@ -9222,7 +9341,7 @@
       <c r="R759" s="13"/>
       <c r="Y759" s="13"/>
     </row>
-    <row r="760" spans="2:25" hidden="1">
+    <row r="760" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B760" s="11">
         <v>46013</v>
       </c>
@@ -9232,7 +9351,7 @@
       <c r="R760" s="13"/>
       <c r="Y760" s="13"/>
     </row>
-    <row r="761" spans="2:25" hidden="1">
+    <row r="761" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B761" s="11">
         <v>46013</v>
       </c>
@@ -9242,7 +9361,7 @@
       <c r="R761" s="13"/>
       <c r="Y761" s="13"/>
     </row>
-    <row r="762" spans="2:25" hidden="1">
+    <row r="762" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B762" s="11">
         <v>46013</v>
       </c>
@@ -9252,7 +9371,7 @@
       <c r="R762" s="13"/>
       <c r="Y762" s="13"/>
     </row>
-    <row r="763" spans="2:25" hidden="1">
+    <row r="763" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B763" s="11">
         <v>46013</v>
       </c>
@@ -9262,7 +9381,7 @@
       <c r="R763" s="13"/>
       <c r="Y763" s="13"/>
     </row>
-    <row r="764" spans="2:25" hidden="1">
+    <row r="764" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B764" s="11">
         <v>46013</v>
       </c>
@@ -9272,7 +9391,7 @@
       <c r="R764" s="13"/>
       <c r="Y764" s="13"/>
     </row>
-    <row r="765" spans="2:25" hidden="1">
+    <row r="765" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B765" s="11">
         <v>46013</v>
       </c>
@@ -9282,7 +9401,7 @@
       <c r="R765" s="13"/>
       <c r="Y765" s="13"/>
     </row>
-    <row r="766" spans="2:25" hidden="1">
+    <row r="766" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B766" s="11">
         <v>46013</v>
       </c>
@@ -9292,7 +9411,7 @@
       <c r="R766" s="13"/>
       <c r="Y766" s="13"/>
     </row>
-    <row r="767" spans="2:25" hidden="1">
+    <row r="767" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B767" s="11">
         <v>46014</v>
       </c>
@@ -9302,7 +9421,7 @@
       <c r="R767" s="13"/>
       <c r="Y767" s="13"/>
     </row>
-    <row r="768" spans="2:25" hidden="1">
+    <row r="768" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B768" s="11">
         <v>46014</v>
       </c>
@@ -9312,7 +9431,7 @@
       <c r="R768" s="13"/>
       <c r="Y768" s="13"/>
     </row>
-    <row r="769" spans="2:25" hidden="1">
+    <row r="769" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B769" s="11">
         <v>46014</v>
       </c>
@@ -9322,7 +9441,7 @@
       <c r="R769" s="13"/>
       <c r="Y769" s="13"/>
     </row>
-    <row r="770" spans="2:25" hidden="1">
+    <row r="770" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B770" s="11">
         <v>46014</v>
       </c>
@@ -9332,7 +9451,7 @@
       <c r="R770" s="13"/>
       <c r="Y770" s="13"/>
     </row>
-    <row r="771" spans="2:25" hidden="1">
+    <row r="771" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B771" s="11">
         <v>46014</v>
       </c>
@@ -9342,7 +9461,7 @@
       <c r="R771" s="13"/>
       <c r="Y771" s="13"/>
     </row>
-    <row r="772" spans="2:25" hidden="1">
+    <row r="772" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B772" s="11">
         <v>46014</v>
       </c>
@@ -9352,7 +9471,7 @@
       <c r="R772" s="13"/>
       <c r="Y772" s="13"/>
     </row>
-    <row r="773" spans="2:25" hidden="1">
+    <row r="773" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B773" s="11">
         <v>46014</v>
       </c>
@@ -9362,7 +9481,7 @@
       <c r="R773" s="13"/>
       <c r="Y773" s="13"/>
     </row>
-    <row r="774" spans="2:25" hidden="1">
+    <row r="774" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B774" s="11">
         <v>46015</v>
       </c>
@@ -9372,7 +9491,7 @@
       <c r="R774" s="13"/>
       <c r="Y774" s="13"/>
     </row>
-    <row r="775" spans="2:25" hidden="1">
+    <row r="775" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B775" s="11">
         <v>46015</v>
       </c>
@@ -9382,7 +9501,7 @@
       <c r="R775" s="13"/>
       <c r="Y775" s="13"/>
     </row>
-    <row r="776" spans="2:25" hidden="1">
+    <row r="776" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B776" s="11">
         <v>46015</v>
       </c>
@@ -9392,7 +9511,7 @@
       <c r="R776" s="13"/>
       <c r="Y776" s="13"/>
     </row>
-    <row r="777" spans="2:25" hidden="1">
+    <row r="777" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B777" s="11">
         <v>46015</v>
       </c>
@@ -9402,7 +9521,7 @@
       <c r="R777" s="13"/>
       <c r="Y777" s="13"/>
     </row>
-    <row r="778" spans="2:25" hidden="1">
+    <row r="778" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B778" s="11">
         <v>46015</v>
       </c>
@@ -9412,7 +9531,7 @@
       <c r="R778" s="13"/>
       <c r="Y778" s="13"/>
     </row>
-    <row r="779" spans="2:25" hidden="1">
+    <row r="779" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B779" s="11">
         <v>46015</v>
       </c>
@@ -9422,7 +9541,7 @@
       <c r="R779" s="13"/>
       <c r="Y779" s="13"/>
     </row>
-    <row r="780" spans="2:25" hidden="1">
+    <row r="780" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B780" s="11">
         <v>46015</v>
       </c>
@@ -9432,7 +9551,7 @@
       <c r="R780" s="13"/>
       <c r="Y780" s="13"/>
     </row>
-    <row r="781" spans="2:25" hidden="1">
+    <row r="781" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B781" s="11">
         <v>46016</v>
       </c>
@@ -9442,7 +9561,7 @@
       <c r="R781" s="13"/>
       <c r="Y781" s="13"/>
     </row>
-    <row r="782" spans="2:25" hidden="1">
+    <row r="782" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B782" s="11">
         <v>46016</v>
       </c>
@@ -9452,7 +9571,7 @@
       <c r="R782" s="13"/>
       <c r="Y782" s="13"/>
     </row>
-    <row r="783" spans="2:25" hidden="1">
+    <row r="783" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B783" s="11">
         <v>46016</v>
       </c>
@@ -9462,7 +9581,7 @@
       <c r="R783" s="13"/>
       <c r="Y783" s="13"/>
     </row>
-    <row r="784" spans="2:25" hidden="1">
+    <row r="784" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B784" s="11">
         <v>46016</v>
       </c>
@@ -9472,7 +9591,7 @@
       <c r="R784" s="13"/>
       <c r="Y784" s="13"/>
     </row>
-    <row r="785" spans="2:25" hidden="1">
+    <row r="785" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B785" s="11">
         <v>46016</v>
       </c>
@@ -9482,7 +9601,7 @@
       <c r="R785" s="13"/>
       <c r="Y785" s="13"/>
     </row>
-    <row r="786" spans="2:25" hidden="1">
+    <row r="786" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B786" s="11">
         <v>46016</v>
       </c>
@@ -9492,7 +9611,7 @@
       <c r="R786" s="13"/>
       <c r="Y786" s="13"/>
     </row>
-    <row r="787" spans="2:25" hidden="1">
+    <row r="787" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B787" s="11">
         <v>46016</v>
       </c>
@@ -9502,7 +9621,7 @@
       <c r="R787" s="13"/>
       <c r="Y787" s="13"/>
     </row>
-    <row r="788" spans="2:25" hidden="1">
+    <row r="788" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B788" s="11">
         <v>46017</v>
       </c>
@@ -9512,7 +9631,7 @@
       <c r="R788" s="13"/>
       <c r="Y788" s="13"/>
     </row>
-    <row r="789" spans="2:25" hidden="1">
+    <row r="789" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B789" s="11">
         <v>46017</v>
       </c>
@@ -9522,7 +9641,7 @@
       <c r="R789" s="13"/>
       <c r="Y789" s="13"/>
     </row>
-    <row r="790" spans="2:25" hidden="1">
+    <row r="790" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B790" s="11">
         <v>46017</v>
       </c>
@@ -9532,7 +9651,7 @@
       <c r="R790" s="13"/>
       <c r="Y790" s="13"/>
     </row>
-    <row r="791" spans="2:25" hidden="1">
+    <row r="791" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B791" s="11">
         <v>46017</v>
       </c>
@@ -9542,7 +9661,7 @@
       <c r="R791" s="13"/>
       <c r="Y791" s="13"/>
     </row>
-    <row r="792" spans="2:25" hidden="1">
+    <row r="792" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B792" s="11">
         <v>46017</v>
       </c>
@@ -9552,7 +9671,7 @@
       <c r="R792" s="13"/>
       <c r="Y792" s="13"/>
     </row>
-    <row r="793" spans="2:25" hidden="1">
+    <row r="793" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B793" s="11">
         <v>46017</v>
       </c>
@@ -9562,7 +9681,7 @@
       <c r="R793" s="13"/>
       <c r="Y793" s="13"/>
     </row>
-    <row r="794" spans="2:25" hidden="1">
+    <row r="794" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B794" s="11">
         <v>46017</v>
       </c>
@@ -9572,7 +9691,7 @@
       <c r="R794" s="13"/>
       <c r="Y794" s="13"/>
     </row>
-    <row r="795" spans="2:25" hidden="1">
+    <row r="795" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B795" s="11">
         <v>46018</v>
       </c>
@@ -9582,7 +9701,7 @@
       <c r="R795" s="13"/>
       <c r="Y795" s="13"/>
     </row>
-    <row r="796" spans="2:25" hidden="1">
+    <row r="796" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B796" s="11">
         <v>46018</v>
       </c>
@@ -9592,7 +9711,7 @@
       <c r="R796" s="13"/>
       <c r="Y796" s="13"/>
     </row>
-    <row r="797" spans="2:25" hidden="1">
+    <row r="797" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B797" s="11">
         <v>46018</v>
       </c>
@@ -9602,7 +9721,7 @@
       <c r="R797" s="13"/>
       <c r="Y797" s="13"/>
     </row>
-    <row r="798" spans="2:25" hidden="1">
+    <row r="798" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B798" s="11">
         <v>46018</v>
       </c>
@@ -9612,7 +9731,7 @@
       <c r="R798" s="13"/>
       <c r="Y798" s="13"/>
     </row>
-    <row r="799" spans="2:25" hidden="1">
+    <row r="799" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B799" s="11">
         <v>46018</v>
       </c>
@@ -9622,7 +9741,7 @@
       <c r="R799" s="13"/>
       <c r="Y799" s="13"/>
     </row>
-    <row r="800" spans="2:25" hidden="1">
+    <row r="800" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B800" s="11">
         <v>46018</v>
       </c>
@@ -9632,7 +9751,7 @@
       <c r="R800" s="13"/>
       <c r="Y800" s="13"/>
     </row>
-    <row r="801" spans="2:25" hidden="1">
+    <row r="801" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B801" s="11">
         <v>46018</v>
       </c>
@@ -9642,7 +9761,7 @@
       <c r="R801" s="13"/>
       <c r="Y801" s="13"/>
     </row>
-    <row r="802" spans="2:25" hidden="1">
+    <row r="802" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B802" s="11">
         <v>46019</v>
       </c>
@@ -9652,7 +9771,7 @@
       <c r="R802" s="13"/>
       <c r="Y802" s="13"/>
     </row>
-    <row r="803" spans="2:25" hidden="1">
+    <row r="803" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B803" s="11">
         <v>46019</v>
       </c>
@@ -9662,7 +9781,7 @@
       <c r="R803" s="13"/>
       <c r="Y803" s="13"/>
     </row>
-    <row r="804" spans="2:25" hidden="1">
+    <row r="804" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B804" s="11">
         <v>46019</v>
       </c>
@@ -9672,7 +9791,7 @@
       <c r="R804" s="13"/>
       <c r="Y804" s="13"/>
     </row>
-    <row r="805" spans="2:25" hidden="1">
+    <row r="805" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B805" s="11">
         <v>46019</v>
       </c>
@@ -9682,7 +9801,7 @@
       <c r="R805" s="13"/>
       <c r="Y805" s="13"/>
     </row>
-    <row r="806" spans="2:25" hidden="1">
+    <row r="806" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B806" s="11">
         <v>46019</v>
       </c>
@@ -9692,7 +9811,7 @@
       <c r="R806" s="13"/>
       <c r="Y806" s="13"/>
     </row>
-    <row r="807" spans="2:25" hidden="1">
+    <row r="807" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B807" s="11">
         <v>46019</v>
       </c>
@@ -9702,7 +9821,7 @@
       <c r="R807" s="13"/>
       <c r="Y807" s="13"/>
     </row>
-    <row r="808" spans="2:25" hidden="1">
+    <row r="808" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B808" s="11">
         <v>46019</v>
       </c>
@@ -9712,7 +9831,7 @@
       <c r="R808" s="13"/>
       <c r="Y808" s="13"/>
     </row>
-    <row r="809" spans="2:25" hidden="1">
+    <row r="809" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B809" s="11">
         <v>46020</v>
       </c>
@@ -9722,7 +9841,7 @@
       <c r="R809" s="13"/>
       <c r="Y809" s="13"/>
     </row>
-    <row r="810" spans="2:25" hidden="1">
+    <row r="810" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B810" s="11">
         <v>46020</v>
       </c>
@@ -9732,7 +9851,7 @@
       <c r="R810" s="13"/>
       <c r="Y810" s="13"/>
     </row>
-    <row r="811" spans="2:25" hidden="1">
+    <row r="811" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B811" s="11">
         <v>46020</v>
       </c>
@@ -9742,7 +9861,7 @@
       <c r="R811" s="13"/>
       <c r="Y811" s="13"/>
     </row>
-    <row r="812" spans="2:25" hidden="1">
+    <row r="812" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B812" s="11">
         <v>46020</v>
       </c>
@@ -9752,7 +9871,7 @@
       <c r="R812" s="13"/>
       <c r="Y812" s="13"/>
     </row>
-    <row r="813" spans="2:25" hidden="1">
+    <row r="813" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B813" s="11">
         <v>46020</v>
       </c>
@@ -9762,7 +9881,7 @@
       <c r="R813" s="13"/>
       <c r="Y813" s="13"/>
     </row>
-    <row r="814" spans="2:25" hidden="1">
+    <row r="814" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B814" s="11">
         <v>46020</v>
       </c>
@@ -9772,7 +9891,7 @@
       <c r="R814" s="13"/>
       <c r="Y814" s="13"/>
     </row>
-    <row r="815" spans="2:25" hidden="1">
+    <row r="815" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B815" s="11">
         <v>46020</v>
       </c>
@@ -9782,7 +9901,7 @@
       <c r="R815" s="13"/>
       <c r="Y815" s="13"/>
     </row>
-    <row r="816" spans="2:25" hidden="1">
+    <row r="816" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B816" s="11">
         <v>46021</v>
       </c>
@@ -9792,7 +9911,7 @@
       <c r="R816" s="13"/>
       <c r="Y816" s="13"/>
     </row>
-    <row r="817" spans="2:25" hidden="1">
+    <row r="817" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B817" s="11">
         <v>46021</v>
       </c>
@@ -9802,7 +9921,7 @@
       <c r="R817" s="13"/>
       <c r="Y817" s="13"/>
     </row>
-    <row r="818" spans="2:25" hidden="1">
+    <row r="818" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B818" s="11">
         <v>46021</v>
       </c>
@@ -9812,7 +9931,7 @@
       <c r="R818" s="13"/>
       <c r="Y818" s="13"/>
     </row>
-    <row r="819" spans="2:25" hidden="1">
+    <row r="819" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B819" s="11">
         <v>46021</v>
       </c>
@@ -9822,7 +9941,7 @@
       <c r="R819" s="13"/>
       <c r="Y819" s="13"/>
     </row>
-    <row r="820" spans="2:25" hidden="1">
+    <row r="820" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B820" s="11">
         <v>46021</v>
       </c>
@@ -9832,7 +9951,7 @@
       <c r="R820" s="13"/>
       <c r="Y820" s="13"/>
     </row>
-    <row r="821" spans="2:25" hidden="1">
+    <row r="821" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B821" s="11">
         <v>46021</v>
       </c>
@@ -9842,7 +9961,7 @@
       <c r="R821" s="13"/>
       <c r="Y821" s="13"/>
     </row>
-    <row r="822" spans="2:25" hidden="1">
+    <row r="822" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B822" s="11">
         <v>46021</v>
       </c>
@@ -9852,7 +9971,7 @@
       <c r="R822" s="13"/>
       <c r="Y822" s="13"/>
     </row>
-    <row r="823" spans="2:25" hidden="1">
+    <row r="823" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B823" s="11">
         <v>46022</v>
       </c>
@@ -9862,7 +9981,7 @@
       <c r="R823" s="13"/>
       <c r="Y823" s="13"/>
     </row>
-    <row r="824" spans="2:25" hidden="1">
+    <row r="824" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B824" s="11">
         <v>46022</v>
       </c>
@@ -9872,7 +9991,7 @@
       <c r="R824" s="13"/>
       <c r="Y824" s="13"/>
     </row>
-    <row r="825" spans="2:25" hidden="1">
+    <row r="825" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B825" s="11">
         <v>46022</v>
       </c>
@@ -9882,7 +10001,7 @@
       <c r="R825" s="13"/>
       <c r="Y825" s="13"/>
     </row>
-    <row r="826" spans="2:25" hidden="1">
+    <row r="826" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B826" s="11">
         <v>46022</v>
       </c>
@@ -9892,7 +10011,7 @@
       <c r="R826" s="13"/>
       <c r="Y826" s="13"/>
     </row>
-    <row r="827" spans="2:25" hidden="1">
+    <row r="827" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B827" s="11">
         <v>46022</v>
       </c>
@@ -9902,7 +10021,7 @@
       <c r="R827" s="13"/>
       <c r="Y827" s="13"/>
     </row>
-    <row r="828" spans="2:25" hidden="1">
+    <row r="828" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B828" s="11">
         <v>46022</v>
       </c>
@@ -9912,7 +10031,7 @@
       <c r="R828" s="13"/>
       <c r="Y828" s="13"/>
     </row>
-    <row r="829" spans="2:25" hidden="1">
+    <row r="829" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B829" s="11">
         <v>46022</v>
       </c>
@@ -9951,21 +10070,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5f7d05b22801f8a5aef07f913f0a6c2d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36a9bbd0f338303ab31ebe548315c8aa" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
@@ -10109,14 +10213,59 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens-my.sharepoint.com/personal/carlos_renier_superfrio_com_br/Documents/Apps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB0526A8-0702-4DE0-B096-12B537E22C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7087569-6A88-4418-92A0-7D4EC74832F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +304,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -389,6 +389,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,13 +813,13 @@
   </sheetPr>
   <dimension ref="A1:AA829"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="B8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
@@ -831,8 +835,8 @@
     <col min="14" max="14" width="15" style="13" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="13" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="13" customWidth="1"/>
     <col min="20" max="20" width="16" style="13" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" style="13"/>
     <col min="22" max="23" width="9.140625" style="13"/>
@@ -841,7 +845,7 @@
     <col min="26" max="26" width="18.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A1" s="1"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
@@ -853,40 +857,40 @@
       <c r="R1" s="18"/>
       <c r="Y1" s="22"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="1"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="32"/>
-    </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="33"/>
+    </row>
+    <row r="3" spans="1:26" ht="75" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -963,7 +967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1">
       <c r="B5" s="10">
         <v>45905</v>
       </c>
@@ -1045,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1">
       <c r="B6" s="10">
         <v>45905</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="B7" s="10">
         <v>45905</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" hidden="1">
       <c r="B8" s="10">
         <v>45905</v>
       </c>
@@ -1191,14 +1195,14 @@
       <c r="X8" s="13">
         <v>3</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="30">
         <v>293.57</v>
       </c>
       <c r="Z8" s="16">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1">
       <c r="B9" s="10">
         <v>45905</v>
       </c>
@@ -1208,7 +1212,7 @@
       <c r="R9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1">
       <c r="B10" s="10">
         <v>45905</v>
       </c>
@@ -1217,7 +1221,7 @@
       </c>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
@@ -1229,7 +1233,7 @@
       <c r="S11" s="17"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1">
       <c r="B12" s="11">
         <v>45906</v>
       </c>
@@ -1239,7 +1243,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1">
       <c r="B13" s="11">
         <v>45906</v>
       </c>
@@ -1250,7 +1254,7 @@
       <c r="R13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="B14" s="11">
         <v>45906</v>
       </c>
@@ -1262,7 +1266,7 @@
       </c>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1">
       <c r="B15" s="11">
         <v>45906</v>
       </c>
@@ -1271,8 +1275,9 @@
       </c>
       <c r="Q15" s="28"/>
       <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="30"/>
+    </row>
+    <row r="16" spans="1:26" hidden="1">
       <c r="B16" s="11">
         <v>45906</v>
       </c>
@@ -1282,7 +1287,7 @@
       <c r="R16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" hidden="1">
       <c r="B17" s="11">
         <v>45906</v>
       </c>
@@ -1292,7 +1297,7 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" hidden="1">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
@@ -1303,7 +1308,7 @@
       <c r="R18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" hidden="1">
       <c r="B19" s="11">
         <v>45907</v>
       </c>
@@ -1313,7 +1318,7 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" hidden="1">
       <c r="B20" s="11">
         <v>45907</v>
       </c>
@@ -1324,7 +1329,7 @@
       <c r="R20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26">
       <c r="B21" s="11">
         <v>45907</v>
       </c>
@@ -1336,7 +1341,7 @@
       </c>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" hidden="1">
       <c r="B22" s="11">
         <v>45907</v>
       </c>
@@ -1345,8 +1350,9 @@
       </c>
       <c r="Q22" s="28"/>
       <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="30"/>
+    </row>
+    <row r="23" spans="2:26" hidden="1">
       <c r="B23" s="11">
         <v>45907</v>
       </c>
@@ -1356,7 +1362,7 @@
       <c r="R23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" hidden="1">
       <c r="B24" s="11">
         <v>45907</v>
       </c>
@@ -1366,7 +1372,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" hidden="1">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" hidden="1">
       <c r="B26" s="11">
         <v>45908</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" hidden="1">
       <c r="B27" s="11">
         <v>45908</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26">
       <c r="B28" s="11">
         <v>45908</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" hidden="1">
       <c r="B29" s="11">
         <v>45908</v>
       </c>
@@ -1600,17 +1606,26 @@
       <c r="T29" s="13">
         <v>0</v>
       </c>
+      <c r="U29" s="16">
+        <v>1</v>
+      </c>
+      <c r="V29" s="17">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="W29" s="17">
+        <v>0.99419999999999997</v>
+      </c>
       <c r="X29" s="13">
         <v>49</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="Y29" s="30">
         <v>16871.38</v>
       </c>
       <c r="Z29" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" hidden="1">
       <c r="B30" s="11">
         <v>45908</v>
       </c>
@@ -1620,7 +1635,7 @@
       <c r="R30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" hidden="1">
       <c r="B31" s="11">
         <v>45908</v>
       </c>
@@ -1630,7 +1645,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" hidden="1">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1680,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" hidden="1">
       <c r="B33" s="11">
         <v>45909</v>
       </c>
@@ -1721,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" hidden="1">
       <c r="B34" s="11">
         <v>45909</v>
       </c>
@@ -1762,7 +1777,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26">
       <c r="B35" s="11">
         <v>45909</v>
       </c>
@@ -1815,7 +1830,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" hidden="1">
       <c r="B36" s="11">
         <v>45909</v>
       </c>
@@ -1861,17 +1876,26 @@
       <c r="T36" s="13">
         <v>0</v>
       </c>
+      <c r="U36" s="16">
+        <v>1</v>
+      </c>
+      <c r="V36" s="17">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="W36" s="17">
+        <v>0.997</v>
+      </c>
       <c r="X36" s="13">
         <v>21</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y36" s="30">
         <v>5125.07</v>
       </c>
       <c r="Z36" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" hidden="1">
       <c r="B37" s="11">
         <v>45909</v>
       </c>
@@ -1881,7 +1905,7 @@
       <c r="R37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" hidden="1">
       <c r="B38" s="11">
         <v>45909</v>
       </c>
@@ -1891,7 +1915,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" hidden="1">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -1918,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" hidden="1">
       <c r="B40" s="11">
         <v>45910</v>
       </c>
@@ -1953,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" hidden="1">
       <c r="B41" s="11">
         <v>45910</v>
       </c>
@@ -1985,7 +2009,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26">
       <c r="B42" s="11">
         <v>45910</v>
       </c>
@@ -2029,7 +2053,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" hidden="1">
       <c r="B43" s="11">
         <v>45910</v>
       </c>
@@ -2045,6 +2069,21 @@
       <c r="F43" s="12">
         <v>30</v>
       </c>
+      <c r="G43" s="13">
+        <v>533</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="I43" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="J43" s="13">
+        <v>7</v>
+      </c>
+      <c r="K43" s="13">
+        <v>0</v>
+      </c>
       <c r="P43" s="13">
         <v>21</v>
       </c>
@@ -2060,11 +2099,17 @@
       <c r="T43" s="13">
         <v>0</v>
       </c>
+      <c r="X43" s="13">
+        <v>11</v>
+      </c>
+      <c r="Y43" s="30">
+        <v>1972.33</v>
+      </c>
       <c r="Z43" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" hidden="1">
       <c r="B44" s="11">
         <v>45910</v>
       </c>
@@ -2074,7 +2119,7 @@
       <c r="R44" s="13"/>
       <c r="Y44" s="13"/>
     </row>
-    <row r="45" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" hidden="1">
       <c r="B45" s="11">
         <v>45910</v>
       </c>
@@ -2084,7 +2129,7 @@
       <c r="R45" s="13"/>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" hidden="1">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
@@ -2111,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" hidden="1">
       <c r="B47" s="11">
         <v>45911</v>
       </c>
@@ -2137,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" hidden="1">
       <c r="B48" s="11">
         <v>45911</v>
       </c>
@@ -2169,7 +2214,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27">
       <c r="B49" s="11">
         <v>45911</v>
       </c>
@@ -2214,7 +2259,7 @@
       </c>
       <c r="AA49" s="27"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" hidden="1">
       <c r="B50" s="11">
         <v>45911</v>
       </c>
@@ -2227,9 +2272,50 @@
       <c r="E50" s="15">
         <v>111713</v>
       </c>
-      <c r="R50" s="13"/>
-    </row>
-    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="12">
+        <v>19</v>
+      </c>
+      <c r="G50" s="13">
+        <v>550</v>
+      </c>
+      <c r="H50" s="14">
+        <v>0.94</v>
+      </c>
+      <c r="I50" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="J50" s="13">
+        <v>20</v>
+      </c>
+      <c r="K50" s="13">
+        <v>0</v>
+      </c>
+      <c r="P50" s="13">
+        <v>24</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>24</v>
+      </c>
+      <c r="R50" s="13">
+        <v>115923.54</v>
+      </c>
+      <c r="S50" s="17">
+        <v>0.69310000000000005</v>
+      </c>
+      <c r="T50" s="13">
+        <v>0</v>
+      </c>
+      <c r="X50" s="13">
+        <v>30</v>
+      </c>
+      <c r="Y50" s="30">
+        <v>5704.67</v>
+      </c>
+      <c r="Z50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" hidden="1">
       <c r="B51" s="11">
         <v>45911</v>
       </c>
@@ -2239,7 +2325,7 @@
       <c r="R51" s="13"/>
       <c r="Y51" s="13"/>
     </row>
-    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" hidden="1">
       <c r="B52" s="11">
         <v>45911</v>
       </c>
@@ -2249,7 +2335,7 @@
       <c r="R52" s="13"/>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" hidden="1">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
@@ -2273,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" hidden="1">
       <c r="B54" s="11">
         <v>45912</v>
       </c>
@@ -2296,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" hidden="1">
       <c r="B55" s="11">
         <v>45912</v>
       </c>
@@ -2320,7 +2406,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27">
       <c r="B56" s="11">
         <v>45912</v>
       </c>
@@ -2344,16 +2430,27 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" hidden="1">
       <c r="B57" s="11">
         <v>45912</v>
       </c>
       <c r="C57" t="s">
         <v>33</v>
       </c>
-      <c r="R57" s="13"/>
-    </row>
-    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="13">
+        <v>19</v>
+      </c>
+      <c r="Q57" s="13">
+        <v>19</v>
+      </c>
+      <c r="R57" s="13">
+        <v>68959.58</v>
+      </c>
+      <c r="S57" s="17">
+        <v>0.63109999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" hidden="1">
       <c r="B58" s="11">
         <v>45912</v>
       </c>
@@ -2363,7 +2460,7 @@
       <c r="R58" s="13"/>
       <c r="Y58" s="13"/>
     </row>
-    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" hidden="1">
       <c r="B59" s="11">
         <v>45912</v>
       </c>
@@ -2394,7 +2491,7 @@
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" hidden="1">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2404,7 +2501,7 @@
       <c r="R60" s="13"/>
       <c r="Y60" s="13"/>
     </row>
-    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" hidden="1">
       <c r="B61" s="11">
         <v>45913</v>
       </c>
@@ -2413,7 +2510,7 @@
       </c>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" hidden="1">
       <c r="B62" s="11">
         <v>45913</v>
       </c>
@@ -2423,7 +2520,7 @@
       <c r="R62" s="13"/>
       <c r="Y62" s="13"/>
     </row>
-    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27">
       <c r="B63" s="11">
         <v>45913</v>
       </c>
@@ -2432,7 +2529,7 @@
       </c>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" hidden="1">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
@@ -2442,7 +2539,7 @@
       <c r="R64" s="13"/>
       <c r="AA64" s="29"/>
     </row>
-    <row r="65" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:25" hidden="1">
       <c r="B65" s="11">
         <v>45913</v>
       </c>
@@ -2452,7 +2549,7 @@
       <c r="R65" s="13"/>
       <c r="Y65" s="13"/>
     </row>
-    <row r="66" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:25" hidden="1">
       <c r="B66" s="11">
         <v>45913</v>
       </c>
@@ -2462,7 +2559,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" hidden="1">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2472,7 +2569,7 @@
       <c r="R67" s="13"/>
       <c r="Y67" s="13"/>
     </row>
-    <row r="68" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" hidden="1">
       <c r="B68" s="11">
         <v>45914</v>
       </c>
@@ -2481,7 +2578,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" hidden="1">
       <c r="B69" s="11">
         <v>45914</v>
       </c>
@@ -2491,7 +2588,7 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:25">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
@@ -2500,7 +2597,7 @@
       </c>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:25" hidden="1">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
@@ -2509,7 +2606,7 @@
       </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:25" hidden="1">
       <c r="B72" s="11">
         <v>45914</v>
       </c>
@@ -2519,7 +2616,7 @@
       <c r="R72" s="13"/>
       <c r="Y72" s="13"/>
     </row>
-    <row r="73" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:25" hidden="1">
       <c r="B73" s="11">
         <v>45914</v>
       </c>
@@ -2529,7 +2626,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:25" hidden="1">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2539,7 +2636,7 @@
       <c r="R74" s="13"/>
       <c r="Y74" s="13"/>
     </row>
-    <row r="75" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:25" hidden="1">
       <c r="B75" s="11">
         <v>45915</v>
       </c>
@@ -2548,7 +2645,7 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:25" hidden="1">
       <c r="B76" s="11">
         <v>45915</v>
       </c>
@@ -2558,7 +2655,7 @@
       <c r="R76" s="13"/>
       <c r="Y76" s="13"/>
     </row>
-    <row r="77" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:25">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
@@ -2567,7 +2664,7 @@
       </c>
       <c r="Y77" s="13"/>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:25" hidden="1">
       <c r="B78" s="11">
         <v>45915</v>
       </c>
@@ -2576,7 +2673,7 @@
       </c>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:25" hidden="1">
       <c r="B79" s="11">
         <v>45915</v>
       </c>
@@ -2586,7 +2683,7 @@
       <c r="R79" s="13"/>
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:25" hidden="1">
       <c r="B80" s="11">
         <v>45915</v>
       </c>
@@ -2596,7 +2693,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:25" hidden="1">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2606,7 +2703,7 @@
       <c r="R81" s="13"/>
       <c r="Y81" s="13"/>
     </row>
-    <row r="82" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:25" hidden="1">
       <c r="B82" s="11">
         <v>45916</v>
       </c>
@@ -2615,7 +2712,7 @@
       </c>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:25" hidden="1">
       <c r="B83" s="11">
         <v>45916</v>
       </c>
@@ -2625,7 +2722,7 @@
       <c r="R83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:25">
       <c r="B84" s="11">
         <v>45916</v>
       </c>
@@ -2634,7 +2731,7 @@
       </c>
       <c r="Y84" s="13"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:25" hidden="1">
       <c r="B85" s="11">
         <v>45916</v>
       </c>
@@ -2643,7 +2740,7 @@
       </c>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:25" hidden="1">
       <c r="B86" s="11">
         <v>45916</v>
       </c>
@@ -2653,7 +2750,7 @@
       <c r="R86" s="13"/>
       <c r="Y86" s="13"/>
     </row>
-    <row r="87" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:25" hidden="1">
       <c r="B87" s="11">
         <v>45916</v>
       </c>
@@ -2663,7 +2760,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:25" hidden="1">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2673,7 +2770,7 @@
       <c r="R88" s="13"/>
       <c r="Y88" s="13"/>
     </row>
-    <row r="89" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:25" hidden="1">
       <c r="B89" s="11">
         <v>45917</v>
       </c>
@@ -2682,7 +2779,7 @@
       </c>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:25" hidden="1">
       <c r="B90" s="11">
         <v>45917</v>
       </c>
@@ -2692,7 +2789,7 @@
       <c r="R90" s="13"/>
       <c r="Y90" s="13"/>
     </row>
-    <row r="91" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:25">
       <c r="B91" s="11">
         <v>45917</v>
       </c>
@@ -2701,7 +2798,7 @@
       </c>
       <c r="Y91" s="13"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:25" hidden="1">
       <c r="B92" s="11">
         <v>45917</v>
       </c>
@@ -2710,7 +2807,7 @@
       </c>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:25" hidden="1">
       <c r="B93" s="11">
         <v>45917</v>
       </c>
@@ -2720,7 +2817,7 @@
       <c r="R93" s="13"/>
       <c r="Y93" s="13"/>
     </row>
-    <row r="94" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:25" hidden="1">
       <c r="B94" s="11">
         <v>45917</v>
       </c>
@@ -2730,7 +2827,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:25" hidden="1">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -2740,7 +2837,7 @@
       <c r="R95" s="13"/>
       <c r="Y95" s="13"/>
     </row>
-    <row r="96" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:25" hidden="1">
       <c r="B96" s="11">
         <v>45918</v>
       </c>
@@ -2749,7 +2846,7 @@
       </c>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:25" hidden="1">
       <c r="B97" s="11">
         <v>45918</v>
       </c>
@@ -2759,7 +2856,7 @@
       <c r="R97" s="13"/>
       <c r="Y97" s="13"/>
     </row>
-    <row r="98" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25">
       <c r="B98" s="11">
         <v>45918</v>
       </c>
@@ -2768,7 +2865,7 @@
       </c>
       <c r="Y98" s="13"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:25" hidden="1">
       <c r="B99" s="11">
         <v>45918</v>
       </c>
@@ -2777,7 +2874,7 @@
       </c>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:25" hidden="1">
       <c r="B100" s="11">
         <v>45918</v>
       </c>
@@ -2787,7 +2884,7 @@
       <c r="R100" s="13"/>
       <c r="Y100" s="13"/>
     </row>
-    <row r="101" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25" hidden="1">
       <c r="B101" s="11">
         <v>45918</v>
       </c>
@@ -2797,7 +2894,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:25" hidden="1">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -2807,7 +2904,7 @@
       <c r="R102" s="13"/>
       <c r="Y102" s="13"/>
     </row>
-    <row r="103" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:25" hidden="1">
       <c r="B103" s="11">
         <v>45919</v>
       </c>
@@ -2816,7 +2913,7 @@
       </c>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:25" hidden="1">
       <c r="B104" s="11">
         <v>45919</v>
       </c>
@@ -2826,7 +2923,7 @@
       <c r="R104" s="13"/>
       <c r="Y104" s="13"/>
     </row>
-    <row r="105" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:25">
       <c r="B105" s="11">
         <v>45919</v>
       </c>
@@ -2835,7 +2932,7 @@
       </c>
       <c r="Y105" s="13"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:25" hidden="1">
       <c r="B106" s="11">
         <v>45919</v>
       </c>
@@ -2844,7 +2941,7 @@
       </c>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:25" hidden="1">
       <c r="B107" s="11">
         <v>45919</v>
       </c>
@@ -2854,7 +2951,7 @@
       <c r="R107" s="13"/>
       <c r="Y107" s="13"/>
     </row>
-    <row r="108" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:25" hidden="1">
       <c r="B108" s="11">
         <v>45919</v>
       </c>
@@ -2864,7 +2961,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:25" hidden="1">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -2874,7 +2971,7 @@
       <c r="R109" s="13"/>
       <c r="Y109" s="13"/>
     </row>
-    <row r="110" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:25" hidden="1">
       <c r="B110" s="11">
         <v>45920</v>
       </c>
@@ -2883,7 +2980,7 @@
       </c>
       <c r="R110" s="13"/>
     </row>
-    <row r="111" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:25" hidden="1">
       <c r="B111" s="11">
         <v>45920</v>
       </c>
@@ -2893,7 +2990,7 @@
       <c r="R111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:25">
       <c r="B112" s="11">
         <v>45920</v>
       </c>
@@ -2902,7 +2999,7 @@
       </c>
       <c r="Y112" s="13"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:25" hidden="1">
       <c r="B113" s="11">
         <v>45920</v>
       </c>
@@ -2911,7 +3008,7 @@
       </c>
       <c r="R113" s="13"/>
     </row>
-    <row r="114" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:25" hidden="1">
       <c r="B114" s="11">
         <v>45920</v>
       </c>
@@ -2921,7 +3018,7 @@
       <c r="R114" s="13"/>
       <c r="Y114" s="13"/>
     </row>
-    <row r="115" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:25" hidden="1">
       <c r="B115" s="11">
         <v>45920</v>
       </c>
@@ -2931,7 +3028,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:25" hidden="1">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -2941,7 +3038,7 @@
       <c r="R116" s="13"/>
       <c r="Y116" s="13"/>
     </row>
-    <row r="117" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:25" hidden="1">
       <c r="B117" s="11">
         <v>45921</v>
       </c>
@@ -2950,7 +3047,7 @@
       </c>
       <c r="R117" s="13"/>
     </row>
-    <row r="118" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:25" hidden="1">
       <c r="B118" s="11">
         <v>45921</v>
       </c>
@@ -2960,7 +3057,7 @@
       <c r="R118" s="13"/>
       <c r="Y118" s="13"/>
     </row>
-    <row r="119" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:25">
       <c r="B119" s="11">
         <v>45921</v>
       </c>
@@ -2969,7 +3066,7 @@
       </c>
       <c r="Y119" s="13"/>
     </row>
-    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:25" hidden="1">
       <c r="B120" s="11">
         <v>45921</v>
       </c>
@@ -2978,7 +3075,7 @@
       </c>
       <c r="R120" s="13"/>
     </row>
-    <row r="121" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:25" hidden="1">
       <c r="B121" s="11">
         <v>45921</v>
       </c>
@@ -2988,7 +3085,7 @@
       <c r="R121" s="13"/>
       <c r="Y121" s="13"/>
     </row>
-    <row r="122" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:25" hidden="1">
       <c r="B122" s="11">
         <v>45921</v>
       </c>
@@ -2998,7 +3095,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:25" hidden="1">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -3008,7 +3105,7 @@
       <c r="R123" s="13"/>
       <c r="Y123" s="13"/>
     </row>
-    <row r="124" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:25" hidden="1">
       <c r="B124" s="11">
         <v>45922</v>
       </c>
@@ -3017,7 +3114,7 @@
       </c>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:25" hidden="1">
       <c r="B125" s="11">
         <v>45922</v>
       </c>
@@ -3027,7 +3124,7 @@
       <c r="R125" s="13"/>
       <c r="Y125" s="13"/>
     </row>
-    <row r="126" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:25">
       <c r="B126" s="11">
         <v>45922</v>
       </c>
@@ -3036,7 +3133,7 @@
       </c>
       <c r="Y126" s="13"/>
     </row>
-    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:25" hidden="1">
       <c r="B127" s="11">
         <v>45922</v>
       </c>
@@ -3045,7 +3142,7 @@
       </c>
       <c r="R127" s="13"/>
     </row>
-    <row r="128" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:25" hidden="1">
       <c r="B128" s="11">
         <v>45922</v>
       </c>
@@ -3055,7 +3152,7 @@
       <c r="R128" s="13"/>
       <c r="Y128" s="13"/>
     </row>
-    <row r="129" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:25" hidden="1">
       <c r="B129" s="11">
         <v>45922</v>
       </c>
@@ -3065,7 +3162,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:25" hidden="1">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -3075,7 +3172,7 @@
       <c r="R130" s="13"/>
       <c r="Y130" s="13"/>
     </row>
-    <row r="131" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:25" hidden="1">
       <c r="B131" s="11">
         <v>45923</v>
       </c>
@@ -3084,7 +3181,7 @@
       </c>
       <c r="R131" s="13"/>
     </row>
-    <row r="132" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:25" hidden="1">
       <c r="B132" s="11">
         <v>45923</v>
       </c>
@@ -3094,7 +3191,7 @@
       <c r="R132" s="13"/>
       <c r="Y132" s="13"/>
     </row>
-    <row r="133" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:25">
       <c r="B133" s="11">
         <v>45923</v>
       </c>
@@ -3103,7 +3200,7 @@
       </c>
       <c r="Y133" s="13"/>
     </row>
-    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:25" hidden="1">
       <c r="B134" s="11">
         <v>45923</v>
       </c>
@@ -3112,7 +3209,7 @@
       </c>
       <c r="R134" s="13"/>
     </row>
-    <row r="135" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:25" hidden="1">
       <c r="B135" s="11">
         <v>45923</v>
       </c>
@@ -3122,7 +3219,7 @@
       <c r="R135" s="13"/>
       <c r="Y135" s="13"/>
     </row>
-    <row r="136" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:25" hidden="1">
       <c r="B136" s="11">
         <v>45923</v>
       </c>
@@ -3132,7 +3229,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:25" hidden="1">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -3142,7 +3239,7 @@
       <c r="R137" s="13"/>
       <c r="Y137" s="13"/>
     </row>
-    <row r="138" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:25" hidden="1">
       <c r="B138" s="11">
         <v>45924</v>
       </c>
@@ -3151,7 +3248,7 @@
       </c>
       <c r="R138" s="13"/>
     </row>
-    <row r="139" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:25" hidden="1">
       <c r="B139" s="11">
         <v>45924</v>
       </c>
@@ -3161,7 +3258,7 @@
       <c r="R139" s="13"/>
       <c r="Y139" s="13"/>
     </row>
-    <row r="140" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:25">
       <c r="B140" s="11">
         <v>45924</v>
       </c>
@@ -3170,7 +3267,7 @@
       </c>
       <c r="Y140" s="13"/>
     </row>
-    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:25" hidden="1">
       <c r="B141" s="11">
         <v>45924</v>
       </c>
@@ -3179,7 +3276,7 @@
       </c>
       <c r="R141" s="13"/>
     </row>
-    <row r="142" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:25" hidden="1">
       <c r="B142" s="11">
         <v>45924</v>
       </c>
@@ -3189,7 +3286,7 @@
       <c r="R142" s="13"/>
       <c r="Y142" s="13"/>
     </row>
-    <row r="143" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:25" hidden="1">
       <c r="B143" s="11">
         <v>45924</v>
       </c>
@@ -3199,7 +3296,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:25" hidden="1">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -3209,7 +3306,7 @@
       <c r="R144" s="13"/>
       <c r="Y144" s="13"/>
     </row>
-    <row r="145" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:25" hidden="1">
       <c r="B145" s="11">
         <v>45925</v>
       </c>
@@ -3218,7 +3315,7 @@
       </c>
       <c r="R145" s="13"/>
     </row>
-    <row r="146" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:25" hidden="1">
       <c r="B146" s="11">
         <v>45925</v>
       </c>
@@ -3228,7 +3325,7 @@
       <c r="R146" s="13"/>
       <c r="Y146" s="13"/>
     </row>
-    <row r="147" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:25">
       <c r="B147" s="11">
         <v>45925</v>
       </c>
@@ -3237,7 +3334,7 @@
       </c>
       <c r="Y147" s="13"/>
     </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:25" hidden="1">
       <c r="B148" s="11">
         <v>45925</v>
       </c>
@@ -3246,7 +3343,7 @@
       </c>
       <c r="R148" s="13"/>
     </row>
-    <row r="149" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:25" hidden="1">
       <c r="B149" s="11">
         <v>45925</v>
       </c>
@@ -3256,7 +3353,7 @@
       <c r="R149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:25" hidden="1">
       <c r="B150" s="11">
         <v>45925</v>
       </c>
@@ -3266,7 +3363,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:25" hidden="1">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -3276,7 +3373,7 @@
       <c r="R151" s="13"/>
       <c r="Y151" s="13"/>
     </row>
-    <row r="152" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:25" hidden="1">
       <c r="B152" s="11">
         <v>45926</v>
       </c>
@@ -3285,7 +3382,7 @@
       </c>
       <c r="R152" s="13"/>
     </row>
-    <row r="153" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:25" hidden="1">
       <c r="B153" s="11">
         <v>45926</v>
       </c>
@@ -3295,7 +3392,7 @@
       <c r="R153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:25">
       <c r="B154" s="11">
         <v>45926</v>
       </c>
@@ -3304,7 +3401,7 @@
       </c>
       <c r="Y154" s="13"/>
     </row>
-    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:25" hidden="1">
       <c r="B155" s="11">
         <v>45926</v>
       </c>
@@ -3313,7 +3410,7 @@
       </c>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:25" hidden="1">
       <c r="B156" s="11">
         <v>45926</v>
       </c>
@@ -3323,7 +3420,7 @@
       <c r="R156" s="13"/>
       <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:25" hidden="1">
       <c r="B157" s="11">
         <v>45926</v>
       </c>
@@ -3333,7 +3430,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:25" hidden="1">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3343,7 +3440,7 @@
       <c r="R158" s="13"/>
       <c r="Y158" s="13"/>
     </row>
-    <row r="159" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:25" hidden="1">
       <c r="B159" s="11">
         <v>45927</v>
       </c>
@@ -3352,7 +3449,7 @@
       </c>
       <c r="R159" s="13"/>
     </row>
-    <row r="160" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:25" hidden="1">
       <c r="B160" s="11">
         <v>45927</v>
       </c>
@@ -3362,7 +3459,7 @@
       <c r="R160" s="13"/>
       <c r="Y160" s="13"/>
     </row>
-    <row r="161" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:25">
       <c r="B161" s="11">
         <v>45927</v>
       </c>
@@ -3371,7 +3468,7 @@
       </c>
       <c r="Y161" s="13"/>
     </row>
-    <row r="162" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:25" hidden="1">
       <c r="B162" s="11">
         <v>45927</v>
       </c>
@@ -3380,7 +3477,7 @@
       </c>
       <c r="R162" s="13"/>
     </row>
-    <row r="163" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:25" hidden="1">
       <c r="B163" s="11">
         <v>45927</v>
       </c>
@@ -3390,7 +3487,7 @@
       <c r="R163" s="13"/>
       <c r="Y163" s="13"/>
     </row>
-    <row r="164" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:25" hidden="1">
       <c r="B164" s="11">
         <v>45927</v>
       </c>
@@ -3400,7 +3497,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:25" hidden="1">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3410,7 +3507,7 @@
       <c r="R165" s="13"/>
       <c r="Y165" s="13"/>
     </row>
-    <row r="166" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:25" hidden="1">
       <c r="B166" s="11">
         <v>45928</v>
       </c>
@@ -3419,7 +3516,7 @@
       </c>
       <c r="R166" s="13"/>
     </row>
-    <row r="167" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:25" hidden="1">
       <c r="B167" s="11">
         <v>45928</v>
       </c>
@@ -3429,7 +3526,7 @@
       <c r="R167" s="13"/>
       <c r="Y167" s="13"/>
     </row>
-    <row r="168" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:25">
       <c r="B168" s="11">
         <v>45928</v>
       </c>
@@ -3438,7 +3535,7 @@
       </c>
       <c r="Y168" s="13"/>
     </row>
-    <row r="169" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:25" hidden="1">
       <c r="B169" s="11">
         <v>45928</v>
       </c>
@@ -3447,7 +3544,7 @@
       </c>
       <c r="R169" s="13"/>
     </row>
-    <row r="170" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:25" hidden="1">
       <c r="B170" s="11">
         <v>45928</v>
       </c>
@@ -3457,7 +3554,7 @@
       <c r="R170" s="13"/>
       <c r="Y170" s="13"/>
     </row>
-    <row r="171" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:25" hidden="1">
       <c r="B171" s="11">
         <v>45928</v>
       </c>
@@ -3467,7 +3564,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:25" hidden="1">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3477,7 +3574,7 @@
       <c r="R172" s="13"/>
       <c r="Y172" s="13"/>
     </row>
-    <row r="173" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:25" hidden="1">
       <c r="B173" s="11">
         <v>45929</v>
       </c>
@@ -3486,7 +3583,7 @@
       </c>
       <c r="R173" s="13"/>
     </row>
-    <row r="174" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:25" hidden="1">
       <c r="B174" s="11">
         <v>45929</v>
       </c>
@@ -3496,7 +3593,7 @@
       <c r="R174" s="13"/>
       <c r="Y174" s="13"/>
     </row>
-    <row r="175" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:25">
       <c r="B175" s="11">
         <v>45929</v>
       </c>
@@ -3505,7 +3602,7 @@
       </c>
       <c r="Y175" s="13"/>
     </row>
-    <row r="176" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:25" hidden="1">
       <c r="B176" s="11">
         <v>45929</v>
       </c>
@@ -3514,7 +3611,7 @@
       </c>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:25" hidden="1">
       <c r="B177" s="11">
         <v>45929</v>
       </c>
@@ -3524,7 +3621,7 @@
       <c r="R177" s="13"/>
       <c r="Y177" s="13"/>
     </row>
-    <row r="178" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:25" hidden="1">
       <c r="B178" s="11">
         <v>45929</v>
       </c>
@@ -3534,7 +3631,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:25" hidden="1">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3544,7 +3641,7 @@
       <c r="R179" s="13"/>
       <c r="Y179" s="13"/>
     </row>
-    <row r="180" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:25" hidden="1">
       <c r="B180" s="11">
         <v>45930</v>
       </c>
@@ -3553,7 +3650,7 @@
       </c>
       <c r="R180" s="13"/>
     </row>
-    <row r="181" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:25" hidden="1">
       <c r="B181" s="11">
         <v>45930</v>
       </c>
@@ -3563,7 +3660,7 @@
       <c r="R181" s="13"/>
       <c r="Y181" s="13"/>
     </row>
-    <row r="182" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:25">
       <c r="B182" s="11">
         <v>45930</v>
       </c>
@@ -3572,7 +3669,7 @@
       </c>
       <c r="Y182" s="13"/>
     </row>
-    <row r="183" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:25" hidden="1">
       <c r="B183" s="11">
         <v>45930</v>
       </c>
@@ -3581,7 +3678,7 @@
       </c>
       <c r="R183" s="13"/>
     </row>
-    <row r="184" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:25" hidden="1">
       <c r="B184" s="11">
         <v>45930</v>
       </c>
@@ -3591,7 +3688,7 @@
       <c r="R184" s="13"/>
       <c r="Y184" s="13"/>
     </row>
-    <row r="185" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:25" hidden="1">
       <c r="B185" s="11">
         <v>45930</v>
       </c>
@@ -3601,7 +3698,7 @@
       <c r="R185" s="13"/>
       <c r="Y185" s="13"/>
     </row>
-    <row r="186" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:25" hidden="1">
       <c r="B186" s="11">
         <v>45931</v>
       </c>
@@ -3611,7 +3708,7 @@
       <c r="R186" s="13"/>
       <c r="Y186" s="13"/>
     </row>
-    <row r="187" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:25" hidden="1">
       <c r="B187" s="11">
         <v>45931</v>
       </c>
@@ -3621,7 +3718,7 @@
       <c r="R187" s="13"/>
       <c r="Y187" s="13"/>
     </row>
-    <row r="188" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:25" hidden="1">
       <c r="B188" s="11">
         <v>45931</v>
       </c>
@@ -3631,7 +3728,7 @@
       <c r="R188" s="13"/>
       <c r="Y188" s="13"/>
     </row>
-    <row r="189" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:25" hidden="1">
       <c r="B189" s="11">
         <v>45931</v>
       </c>
@@ -3641,7 +3738,7 @@
       <c r="R189" s="13"/>
       <c r="Y189" s="13"/>
     </row>
-    <row r="190" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:25" hidden="1">
       <c r="B190" s="11">
         <v>45931</v>
       </c>
@@ -3651,7 +3748,7 @@
       <c r="R190" s="13"/>
       <c r="Y190" s="13"/>
     </row>
-    <row r="191" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:25" hidden="1">
       <c r="B191" s="11">
         <v>45931</v>
       </c>
@@ -3661,7 +3758,7 @@
       <c r="R191" s="13"/>
       <c r="Y191" s="13"/>
     </row>
-    <row r="192" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:25" hidden="1">
       <c r="B192" s="11">
         <v>45931</v>
       </c>
@@ -3671,7 +3768,7 @@
       <c r="R192" s="13"/>
       <c r="Y192" s="13"/>
     </row>
-    <row r="193" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:25" hidden="1">
       <c r="B193" s="11">
         <v>45932</v>
       </c>
@@ -3681,7 +3778,7 @@
       <c r="R193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:25" hidden="1">
       <c r="B194" s="11">
         <v>45932</v>
       </c>
@@ -3691,7 +3788,7 @@
       <c r="R194" s="13"/>
       <c r="Y194" s="13"/>
     </row>
-    <row r="195" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:25" hidden="1">
       <c r="B195" s="11">
         <v>45932</v>
       </c>
@@ -3701,7 +3798,7 @@
       <c r="R195" s="13"/>
       <c r="Y195" s="13"/>
     </row>
-    <row r="196" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:25" hidden="1">
       <c r="B196" s="11">
         <v>45932</v>
       </c>
@@ -3711,7 +3808,7 @@
       <c r="R196" s="13"/>
       <c r="Y196" s="13"/>
     </row>
-    <row r="197" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:25" hidden="1">
       <c r="B197" s="11">
         <v>45932</v>
       </c>
@@ -3721,7 +3818,7 @@
       <c r="R197" s="13"/>
       <c r="Y197" s="13"/>
     </row>
-    <row r="198" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:25" hidden="1">
       <c r="B198" s="11">
         <v>45932</v>
       </c>
@@ -3731,7 +3828,7 @@
       <c r="R198" s="13"/>
       <c r="Y198" s="13"/>
     </row>
-    <row r="199" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:25" hidden="1">
       <c r="B199" s="11">
         <v>45932</v>
       </c>
@@ -3741,7 +3838,7 @@
       <c r="R199" s="13"/>
       <c r="Y199" s="13"/>
     </row>
-    <row r="200" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:25" hidden="1">
       <c r="B200" s="11">
         <v>45933</v>
       </c>
@@ -3751,7 +3848,7 @@
       <c r="R200" s="13"/>
       <c r="Y200" s="13"/>
     </row>
-    <row r="201" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:25" hidden="1">
       <c r="B201" s="11">
         <v>45933</v>
       </c>
@@ -3761,7 +3858,7 @@
       <c r="R201" s="13"/>
       <c r="Y201" s="13"/>
     </row>
-    <row r="202" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:25" hidden="1">
       <c r="B202" s="11">
         <v>45933</v>
       </c>
@@ -3771,7 +3868,7 @@
       <c r="R202" s="13"/>
       <c r="Y202" s="13"/>
     </row>
-    <row r="203" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:25" hidden="1">
       <c r="B203" s="11">
         <v>45933</v>
       </c>
@@ -3781,7 +3878,7 @@
       <c r="R203" s="13"/>
       <c r="Y203" s="13"/>
     </row>
-    <row r="204" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:25" hidden="1">
       <c r="B204" s="11">
         <v>45933</v>
       </c>
@@ -3791,7 +3888,7 @@
       <c r="R204" s="13"/>
       <c r="Y204" s="13"/>
     </row>
-    <row r="205" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:25" hidden="1">
       <c r="B205" s="11">
         <v>45933</v>
       </c>
@@ -3801,7 +3898,7 @@
       <c r="R205" s="13"/>
       <c r="Y205" s="13"/>
     </row>
-    <row r="206" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:25" hidden="1">
       <c r="B206" s="11">
         <v>45933</v>
       </c>
@@ -3811,7 +3908,7 @@
       <c r="R206" s="13"/>
       <c r="Y206" s="13"/>
     </row>
-    <row r="207" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:25" hidden="1">
       <c r="B207" s="11">
         <v>45934</v>
       </c>
@@ -3821,7 +3918,7 @@
       <c r="R207" s="13"/>
       <c r="Y207" s="13"/>
     </row>
-    <row r="208" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:25" hidden="1">
       <c r="B208" s="11">
         <v>45934</v>
       </c>
@@ -3831,7 +3928,7 @@
       <c r="R208" s="13"/>
       <c r="Y208" s="13"/>
     </row>
-    <row r="209" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:25" hidden="1">
       <c r="B209" s="11">
         <v>45934</v>
       </c>
@@ -3841,7 +3938,7 @@
       <c r="R209" s="13"/>
       <c r="Y209" s="13"/>
     </row>
-    <row r="210" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:25" hidden="1">
       <c r="B210" s="11">
         <v>45934</v>
       </c>
@@ -3851,7 +3948,7 @@
       <c r="R210" s="13"/>
       <c r="Y210" s="13"/>
     </row>
-    <row r="211" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:25" hidden="1">
       <c r="B211" s="11">
         <v>45934</v>
       </c>
@@ -3861,7 +3958,7 @@
       <c r="R211" s="13"/>
       <c r="Y211" s="13"/>
     </row>
-    <row r="212" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:25" hidden="1">
       <c r="B212" s="11">
         <v>45934</v>
       </c>
@@ -3871,7 +3968,7 @@
       <c r="R212" s="13"/>
       <c r="Y212" s="13"/>
     </row>
-    <row r="213" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:25" hidden="1">
       <c r="B213" s="11">
         <v>45934</v>
       </c>
@@ -3881,7 +3978,7 @@
       <c r="R213" s="13"/>
       <c r="Y213" s="13"/>
     </row>
-    <row r="214" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:25" hidden="1">
       <c r="B214" s="11">
         <v>45935</v>
       </c>
@@ -3891,7 +3988,7 @@
       <c r="R214" s="13"/>
       <c r="Y214" s="13"/>
     </row>
-    <row r="215" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:25" hidden="1">
       <c r="B215" s="11">
         <v>45935</v>
       </c>
@@ -3901,7 +3998,7 @@
       <c r="R215" s="13"/>
       <c r="Y215" s="13"/>
     </row>
-    <row r="216" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:25" hidden="1">
       <c r="B216" s="11">
         <v>45935</v>
       </c>
@@ -3911,7 +4008,7 @@
       <c r="R216" s="13"/>
       <c r="Y216" s="13"/>
     </row>
-    <row r="217" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:25" hidden="1">
       <c r="B217" s="11">
         <v>45935</v>
       </c>
@@ -3921,7 +4018,7 @@
       <c r="R217" s="13"/>
       <c r="Y217" s="13"/>
     </row>
-    <row r="218" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:25" hidden="1">
       <c r="B218" s="11">
         <v>45935</v>
       </c>
@@ -3931,7 +4028,7 @@
       <c r="R218" s="13"/>
       <c r="Y218" s="13"/>
     </row>
-    <row r="219" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:25" hidden="1">
       <c r="B219" s="11">
         <v>45935</v>
       </c>
@@ -3941,7 +4038,7 @@
       <c r="R219" s="13"/>
       <c r="Y219" s="13"/>
     </row>
-    <row r="220" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:25" hidden="1">
       <c r="B220" s="11">
         <v>45935</v>
       </c>
@@ -3951,7 +4048,7 @@
       <c r="R220" s="13"/>
       <c r="Y220" s="13"/>
     </row>
-    <row r="221" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:25" hidden="1">
       <c r="B221" s="11">
         <v>45936</v>
       </c>
@@ -3961,7 +4058,7 @@
       <c r="R221" s="13"/>
       <c r="Y221" s="13"/>
     </row>
-    <row r="222" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:25" hidden="1">
       <c r="B222" s="11">
         <v>45936</v>
       </c>
@@ -3971,7 +4068,7 @@
       <c r="R222" s="13"/>
       <c r="Y222" s="13"/>
     </row>
-    <row r="223" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:25" hidden="1">
       <c r="B223" s="11">
         <v>45936</v>
       </c>
@@ -3981,7 +4078,7 @@
       <c r="R223" s="13"/>
       <c r="Y223" s="13"/>
     </row>
-    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:25" hidden="1">
       <c r="B224" s="11">
         <v>45936</v>
       </c>
@@ -3991,7 +4088,7 @@
       <c r="R224" s="13"/>
       <c r="Y224" s="13"/>
     </row>
-    <row r="225" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:25" hidden="1">
       <c r="B225" s="11">
         <v>45936</v>
       </c>
@@ -4001,7 +4098,7 @@
       <c r="R225" s="13"/>
       <c r="Y225" s="13"/>
     </row>
-    <row r="226" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:25" hidden="1">
       <c r="B226" s="11">
         <v>45936</v>
       </c>
@@ -4011,7 +4108,7 @@
       <c r="R226" s="13"/>
       <c r="Y226" s="13"/>
     </row>
-    <row r="227" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:25" hidden="1">
       <c r="B227" s="11">
         <v>45936</v>
       </c>
@@ -4021,7 +4118,7 @@
       <c r="R227" s="13"/>
       <c r="Y227" s="13"/>
     </row>
-    <row r="228" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:25" hidden="1">
       <c r="B228" s="11">
         <v>45937</v>
       </c>
@@ -4031,7 +4128,7 @@
       <c r="R228" s="13"/>
       <c r="Y228" s="13"/>
     </row>
-    <row r="229" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:25" hidden="1">
       <c r="B229" s="11">
         <v>45937</v>
       </c>
@@ -4041,7 +4138,7 @@
       <c r="R229" s="13"/>
       <c r="Y229" s="13"/>
     </row>
-    <row r="230" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:25" hidden="1">
       <c r="B230" s="11">
         <v>45937</v>
       </c>
@@ -4051,7 +4148,7 @@
       <c r="R230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:25" hidden="1">
       <c r="B231" s="11">
         <v>45937</v>
       </c>
@@ -4061,7 +4158,7 @@
       <c r="R231" s="13"/>
       <c r="Y231" s="13"/>
     </row>
-    <row r="232" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:25" hidden="1">
       <c r="B232" s="11">
         <v>45937</v>
       </c>
@@ -4071,7 +4168,7 @@
       <c r="R232" s="13"/>
       <c r="Y232" s="13"/>
     </row>
-    <row r="233" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:25" hidden="1">
       <c r="B233" s="11">
         <v>45937</v>
       </c>
@@ -4081,7 +4178,7 @@
       <c r="R233" s="13"/>
       <c r="Y233" s="13"/>
     </row>
-    <row r="234" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:25" hidden="1">
       <c r="B234" s="11">
         <v>45937</v>
       </c>
@@ -4091,7 +4188,7 @@
       <c r="R234" s="13"/>
       <c r="Y234" s="13"/>
     </row>
-    <row r="235" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:25" hidden="1">
       <c r="B235" s="11">
         <v>45938</v>
       </c>
@@ -4101,7 +4198,7 @@
       <c r="R235" s="13"/>
       <c r="Y235" s="13"/>
     </row>
-    <row r="236" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:25" hidden="1">
       <c r="B236" s="11">
         <v>45938</v>
       </c>
@@ -4111,7 +4208,7 @@
       <c r="R236" s="13"/>
       <c r="Y236" s="13"/>
     </row>
-    <row r="237" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:25" hidden="1">
       <c r="B237" s="11">
         <v>45938</v>
       </c>
@@ -4121,7 +4218,7 @@
       <c r="R237" s="13"/>
       <c r="Y237" s="13"/>
     </row>
-    <row r="238" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:25" hidden="1">
       <c r="B238" s="11">
         <v>45938</v>
       </c>
@@ -4131,7 +4228,7 @@
       <c r="R238" s="13"/>
       <c r="Y238" s="13"/>
     </row>
-    <row r="239" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:25" hidden="1">
       <c r="B239" s="11">
         <v>45938</v>
       </c>
@@ -4141,7 +4238,7 @@
       <c r="R239" s="13"/>
       <c r="Y239" s="13"/>
     </row>
-    <row r="240" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:25" hidden="1">
       <c r="B240" s="11">
         <v>45938</v>
       </c>
@@ -4151,7 +4248,7 @@
       <c r="R240" s="13"/>
       <c r="Y240" s="13"/>
     </row>
-    <row r="241" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:25" hidden="1">
       <c r="B241" s="11">
         <v>45938</v>
       </c>
@@ -4161,7 +4258,7 @@
       <c r="R241" s="13"/>
       <c r="Y241" s="13"/>
     </row>
-    <row r="242" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:25" hidden="1">
       <c r="B242" s="11">
         <v>45939</v>
       </c>
@@ -4171,7 +4268,7 @@
       <c r="R242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:25" hidden="1">
       <c r="B243" s="11">
         <v>45939</v>
       </c>
@@ -4181,7 +4278,7 @@
       <c r="R243" s="13"/>
       <c r="Y243" s="13"/>
     </row>
-    <row r="244" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:25" hidden="1">
       <c r="B244" s="11">
         <v>45939</v>
       </c>
@@ -4191,7 +4288,7 @@
       <c r="R244" s="13"/>
       <c r="Y244" s="13"/>
     </row>
-    <row r="245" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:25" hidden="1">
       <c r="B245" s="11">
         <v>45939</v>
       </c>
@@ -4201,7 +4298,7 @@
       <c r="R245" s="13"/>
       <c r="Y245" s="13"/>
     </row>
-    <row r="246" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:25" hidden="1">
       <c r="B246" s="11">
         <v>45939</v>
       </c>
@@ -4211,7 +4308,7 @@
       <c r="R246" s="13"/>
       <c r="Y246" s="13"/>
     </row>
-    <row r="247" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:25" hidden="1">
       <c r="B247" s="11">
         <v>45939</v>
       </c>
@@ -4221,7 +4318,7 @@
       <c r="R247" s="13"/>
       <c r="Y247" s="13"/>
     </row>
-    <row r="248" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:25" hidden="1">
       <c r="B248" s="11">
         <v>45939</v>
       </c>
@@ -4231,7 +4328,7 @@
       <c r="R248" s="13"/>
       <c r="Y248" s="13"/>
     </row>
-    <row r="249" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:25" hidden="1">
       <c r="B249" s="11">
         <v>45940</v>
       </c>
@@ -4241,7 +4338,7 @@
       <c r="R249" s="13"/>
       <c r="Y249" s="13"/>
     </row>
-    <row r="250" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:25" hidden="1">
       <c r="B250" s="11">
         <v>45940</v>
       </c>
@@ -4251,7 +4348,7 @@
       <c r="R250" s="13"/>
       <c r="Y250" s="13"/>
     </row>
-    <row r="251" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:25" hidden="1">
       <c r="B251" s="11">
         <v>45940</v>
       </c>
@@ -4261,7 +4358,7 @@
       <c r="R251" s="13"/>
       <c r="Y251" s="13"/>
     </row>
-    <row r="252" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:25" hidden="1">
       <c r="B252" s="11">
         <v>45940</v>
       </c>
@@ -4271,7 +4368,7 @@
       <c r="R252" s="13"/>
       <c r="Y252" s="13"/>
     </row>
-    <row r="253" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:25" hidden="1">
       <c r="B253" s="11">
         <v>45940</v>
       </c>
@@ -4281,7 +4378,7 @@
       <c r="R253" s="13"/>
       <c r="Y253" s="13"/>
     </row>
-    <row r="254" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:25" hidden="1">
       <c r="B254" s="11">
         <v>45940</v>
       </c>
@@ -4291,7 +4388,7 @@
       <c r="R254" s="13"/>
       <c r="Y254" s="13"/>
     </row>
-    <row r="255" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:25" hidden="1">
       <c r="B255" s="11">
         <v>45940</v>
       </c>
@@ -4301,7 +4398,7 @@
       <c r="R255" s="13"/>
       <c r="Y255" s="13"/>
     </row>
-    <row r="256" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:25" hidden="1">
       <c r="B256" s="11">
         <v>45941</v>
       </c>
@@ -4311,7 +4408,7 @@
       <c r="R256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:25" hidden="1">
       <c r="B257" s="11">
         <v>45941</v>
       </c>
@@ -4321,7 +4418,7 @@
       <c r="R257" s="13"/>
       <c r="Y257" s="13"/>
     </row>
-    <row r="258" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:25" hidden="1">
       <c r="B258" s="11">
         <v>45941</v>
       </c>
@@ -4331,7 +4428,7 @@
       <c r="R258" s="13"/>
       <c r="Y258" s="13"/>
     </row>
-    <row r="259" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:25" hidden="1">
       <c r="B259" s="11">
         <v>45941</v>
       </c>
@@ -4341,7 +4438,7 @@
       <c r="R259" s="13"/>
       <c r="Y259" s="13"/>
     </row>
-    <row r="260" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:25" hidden="1">
       <c r="B260" s="11">
         <v>45941</v>
       </c>
@@ -4351,7 +4448,7 @@
       <c r="R260" s="13"/>
       <c r="Y260" s="13"/>
     </row>
-    <row r="261" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:25" hidden="1">
       <c r="B261" s="11">
         <v>45941</v>
       </c>
@@ -4361,7 +4458,7 @@
       <c r="R261" s="13"/>
       <c r="Y261" s="13"/>
     </row>
-    <row r="262" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:25" hidden="1">
       <c r="B262" s="11">
         <v>45941</v>
       </c>
@@ -4371,7 +4468,7 @@
       <c r="R262" s="13"/>
       <c r="Y262" s="13"/>
     </row>
-    <row r="263" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:25" hidden="1">
       <c r="B263" s="11">
         <v>45942</v>
       </c>
@@ -4381,7 +4478,7 @@
       <c r="R263" s="13"/>
       <c r="Y263" s="13"/>
     </row>
-    <row r="264" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:25" hidden="1">
       <c r="B264" s="11">
         <v>45942</v>
       </c>
@@ -4391,7 +4488,7 @@
       <c r="R264" s="13"/>
       <c r="Y264" s="13"/>
     </row>
-    <row r="265" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:25" hidden="1">
       <c r="B265" s="11">
         <v>45942</v>
       </c>
@@ -4401,7 +4498,7 @@
       <c r="R265" s="13"/>
       <c r="Y265" s="13"/>
     </row>
-    <row r="266" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:25" hidden="1">
       <c r="B266" s="11">
         <v>45942</v>
       </c>
@@ -4411,7 +4508,7 @@
       <c r="R266" s="13"/>
       <c r="Y266" s="13"/>
     </row>
-    <row r="267" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:25" hidden="1">
       <c r="B267" s="11">
         <v>45942</v>
       </c>
@@ -4421,7 +4518,7 @@
       <c r="R267" s="13"/>
       <c r="Y267" s="13"/>
     </row>
-    <row r="268" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:25" hidden="1">
       <c r="B268" s="11">
         <v>45942</v>
       </c>
@@ -4431,7 +4528,7 @@
       <c r="R268" s="13"/>
       <c r="Y268" s="13"/>
     </row>
-    <row r="269" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:25" hidden="1">
       <c r="B269" s="11">
         <v>45942</v>
       </c>
@@ -4441,7 +4538,7 @@
       <c r="R269" s="13"/>
       <c r="Y269" s="13"/>
     </row>
-    <row r="270" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:25" hidden="1">
       <c r="B270" s="11">
         <v>45943</v>
       </c>
@@ -4451,7 +4548,7 @@
       <c r="R270" s="13"/>
       <c r="Y270" s="13"/>
     </row>
-    <row r="271" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:25" hidden="1">
       <c r="B271" s="11">
         <v>45943</v>
       </c>
@@ -4461,7 +4558,7 @@
       <c r="R271" s="13"/>
       <c r="Y271" s="13"/>
     </row>
-    <row r="272" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:25" hidden="1">
       <c r="B272" s="11">
         <v>45943</v>
       </c>
@@ -4471,7 +4568,7 @@
       <c r="R272" s="13"/>
       <c r="Y272" s="13"/>
     </row>
-    <row r="273" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:25" hidden="1">
       <c r="B273" s="11">
         <v>45943</v>
       </c>
@@ -4481,7 +4578,7 @@
       <c r="R273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:25" hidden="1">
       <c r="B274" s="11">
         <v>45943</v>
       </c>
@@ -4491,7 +4588,7 @@
       <c r="R274" s="13"/>
       <c r="Y274" s="13"/>
     </row>
-    <row r="275" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:25" hidden="1">
       <c r="B275" s="11">
         <v>45943</v>
       </c>
@@ -4501,7 +4598,7 @@
       <c r="R275" s="13"/>
       <c r="Y275" s="13"/>
     </row>
-    <row r="276" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:25" hidden="1">
       <c r="B276" s="11">
         <v>45943</v>
       </c>
@@ -4511,7 +4608,7 @@
       <c r="R276" s="13"/>
       <c r="Y276" s="13"/>
     </row>
-    <row r="277" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:25" hidden="1">
       <c r="B277" s="11">
         <v>45944</v>
       </c>
@@ -4521,7 +4618,7 @@
       <c r="R277" s="13"/>
       <c r="Y277" s="13"/>
     </row>
-    <row r="278" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:25" hidden="1">
       <c r="B278" s="11">
         <v>45944</v>
       </c>
@@ -4531,7 +4628,7 @@
       <c r="R278" s="13"/>
       <c r="Y278" s="13"/>
     </row>
-    <row r="279" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:25" hidden="1">
       <c r="B279" s="11">
         <v>45944</v>
       </c>
@@ -4541,7 +4638,7 @@
       <c r="R279" s="13"/>
       <c r="Y279" s="13"/>
     </row>
-    <row r="280" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:25" hidden="1">
       <c r="B280" s="11">
         <v>45944</v>
       </c>
@@ -4551,7 +4648,7 @@
       <c r="R280" s="13"/>
       <c r="Y280" s="13"/>
     </row>
-    <row r="281" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:25" hidden="1">
       <c r="B281" s="11">
         <v>45944</v>
       </c>
@@ -4561,7 +4658,7 @@
       <c r="R281" s="13"/>
       <c r="Y281" s="13"/>
     </row>
-    <row r="282" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:25" hidden="1">
       <c r="B282" s="11">
         <v>45944</v>
       </c>
@@ -4571,7 +4668,7 @@
       <c r="R282" s="13"/>
       <c r="Y282" s="13"/>
     </row>
-    <row r="283" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:25" hidden="1">
       <c r="B283" s="11">
         <v>45944</v>
       </c>
@@ -4581,7 +4678,7 @@
       <c r="R283" s="13"/>
       <c r="Y283" s="13"/>
     </row>
-    <row r="284" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:25" hidden="1">
       <c r="B284" s="11">
         <v>45945</v>
       </c>
@@ -4591,7 +4688,7 @@
       <c r="R284" s="13"/>
       <c r="Y284" s="13"/>
     </row>
-    <row r="285" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:25" hidden="1">
       <c r="B285" s="11">
         <v>45945</v>
       </c>
@@ -4601,7 +4698,7 @@
       <c r="R285" s="13"/>
       <c r="Y285" s="13"/>
     </row>
-    <row r="286" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:25" hidden="1">
       <c r="B286" s="11">
         <v>45945</v>
       </c>
@@ -4611,7 +4708,7 @@
       <c r="R286" s="13"/>
       <c r="Y286" s="13"/>
     </row>
-    <row r="287" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:25" hidden="1">
       <c r="B287" s="11">
         <v>45945</v>
       </c>
@@ -4621,7 +4718,7 @@
       <c r="R287" s="13"/>
       <c r="Y287" s="13"/>
     </row>
-    <row r="288" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:25" hidden="1">
       <c r="B288" s="11">
         <v>45945</v>
       </c>
@@ -4631,7 +4728,7 @@
       <c r="R288" s="13"/>
       <c r="Y288" s="13"/>
     </row>
-    <row r="289" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:25" hidden="1">
       <c r="B289" s="11">
         <v>45945</v>
       </c>
@@ -4641,7 +4738,7 @@
       <c r="R289" s="13"/>
       <c r="Y289" s="13"/>
     </row>
-    <row r="290" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:25" hidden="1">
       <c r="B290" s="11">
         <v>45945</v>
       </c>
@@ -4651,7 +4748,7 @@
       <c r="R290" s="13"/>
       <c r="Y290" s="13"/>
     </row>
-    <row r="291" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:25" hidden="1">
       <c r="B291" s="11">
         <v>45946</v>
       </c>
@@ -4661,7 +4758,7 @@
       <c r="R291" s="13"/>
       <c r="Y291" s="13"/>
     </row>
-    <row r="292" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:25" hidden="1">
       <c r="B292" s="11">
         <v>45946</v>
       </c>
@@ -4671,7 +4768,7 @@
       <c r="R292" s="13"/>
       <c r="Y292" s="13"/>
     </row>
-    <row r="293" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:25" hidden="1">
       <c r="B293" s="11">
         <v>45946</v>
       </c>
@@ -4681,7 +4778,7 @@
       <c r="R293" s="13"/>
       <c r="Y293" s="13"/>
     </row>
-    <row r="294" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:25" hidden="1">
       <c r="B294" s="11">
         <v>45946</v>
       </c>
@@ -4691,7 +4788,7 @@
       <c r="R294" s="13"/>
       <c r="Y294" s="13"/>
     </row>
-    <row r="295" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:25" hidden="1">
       <c r="B295" s="11">
         <v>45946</v>
       </c>
@@ -4701,7 +4798,7 @@
       <c r="R295" s="13"/>
       <c r="Y295" s="13"/>
     </row>
-    <row r="296" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:25" hidden="1">
       <c r="B296" s="11">
         <v>45946</v>
       </c>
@@ -4711,7 +4808,7 @@
       <c r="R296" s="13"/>
       <c r="Y296" s="13"/>
     </row>
-    <row r="297" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:25" hidden="1">
       <c r="B297" s="11">
         <v>45946</v>
       </c>
@@ -4721,7 +4818,7 @@
       <c r="R297" s="13"/>
       <c r="Y297" s="13"/>
     </row>
-    <row r="298" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:25" hidden="1">
       <c r="B298" s="11">
         <v>45947</v>
       </c>
@@ -4731,7 +4828,7 @@
       <c r="R298" s="13"/>
       <c r="Y298" s="13"/>
     </row>
-    <row r="299" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:25" hidden="1">
       <c r="B299" s="11">
         <v>45947</v>
       </c>
@@ -4741,7 +4838,7 @@
       <c r="R299" s="13"/>
       <c r="Y299" s="13"/>
     </row>
-    <row r="300" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:25" hidden="1">
       <c r="B300" s="11">
         <v>45947</v>
       </c>
@@ -4751,7 +4848,7 @@
       <c r="R300" s="13"/>
       <c r="Y300" s="13"/>
     </row>
-    <row r="301" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:25" hidden="1">
       <c r="B301" s="11">
         <v>45947</v>
       </c>
@@ -4761,7 +4858,7 @@
       <c r="R301" s="13"/>
       <c r="Y301" s="13"/>
     </row>
-    <row r="302" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:25" hidden="1">
       <c r="B302" s="11">
         <v>45947</v>
       </c>
@@ -4771,7 +4868,7 @@
       <c r="R302" s="13"/>
       <c r="Y302" s="13"/>
     </row>
-    <row r="303" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:25" hidden="1">
       <c r="B303" s="11">
         <v>45947</v>
       </c>
@@ -4781,7 +4878,7 @@
       <c r="R303" s="13"/>
       <c r="Y303" s="13"/>
     </row>
-    <row r="304" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:25" hidden="1">
       <c r="B304" s="11">
         <v>45947</v>
       </c>
@@ -4791,7 +4888,7 @@
       <c r="R304" s="13"/>
       <c r="Y304" s="13"/>
     </row>
-    <row r="305" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:25" hidden="1">
       <c r="B305" s="11">
         <v>45948</v>
       </c>
@@ -4801,7 +4898,7 @@
       <c r="R305" s="13"/>
       <c r="Y305" s="13"/>
     </row>
-    <row r="306" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:25" hidden="1">
       <c r="B306" s="11">
         <v>45948</v>
       </c>
@@ -4811,7 +4908,7 @@
       <c r="R306" s="13"/>
       <c r="Y306" s="13"/>
     </row>
-    <row r="307" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:25" hidden="1">
       <c r="B307" s="11">
         <v>45948</v>
       </c>
@@ -4821,7 +4918,7 @@
       <c r="R307" s="13"/>
       <c r="Y307" s="13"/>
     </row>
-    <row r="308" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:25" hidden="1">
       <c r="B308" s="11">
         <v>45948</v>
       </c>
@@ -4831,7 +4928,7 @@
       <c r="R308" s="13"/>
       <c r="Y308" s="13"/>
     </row>
-    <row r="309" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:25" hidden="1">
       <c r="B309" s="11">
         <v>45948</v>
       </c>
@@ -4841,7 +4938,7 @@
       <c r="R309" s="13"/>
       <c r="Y309" s="13"/>
     </row>
-    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:25" hidden="1">
       <c r="B310" s="11">
         <v>45948</v>
       </c>
@@ -4851,7 +4948,7 @@
       <c r="R310" s="13"/>
       <c r="Y310" s="13"/>
     </row>
-    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:25" hidden="1">
       <c r="B311" s="11">
         <v>45948</v>
       </c>
@@ -4861,7 +4958,7 @@
       <c r="R311" s="13"/>
       <c r="Y311" s="13"/>
     </row>
-    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:25" hidden="1">
       <c r="B312" s="11">
         <v>45949</v>
       </c>
@@ -4871,7 +4968,7 @@
       <c r="R312" s="13"/>
       <c r="Y312" s="13"/>
     </row>
-    <row r="313" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:25" hidden="1">
       <c r="B313" s="11">
         <v>45949</v>
       </c>
@@ -4881,7 +4978,7 @@
       <c r="R313" s="13"/>
       <c r="Y313" s="13"/>
     </row>
-    <row r="314" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:25" hidden="1">
       <c r="B314" s="11">
         <v>45949</v>
       </c>
@@ -4891,7 +4988,7 @@
       <c r="R314" s="13"/>
       <c r="Y314" s="13"/>
     </row>
-    <row r="315" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:25" hidden="1">
       <c r="B315" s="11">
         <v>45949</v>
       </c>
@@ -4901,7 +4998,7 @@
       <c r="R315" s="13"/>
       <c r="Y315" s="13"/>
     </row>
-    <row r="316" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:25" hidden="1">
       <c r="B316" s="11">
         <v>45949</v>
       </c>
@@ -4911,7 +5008,7 @@
       <c r="R316" s="13"/>
       <c r="Y316" s="13"/>
     </row>
-    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:25" hidden="1">
       <c r="B317" s="11">
         <v>45949</v>
       </c>
@@ -4921,7 +5018,7 @@
       <c r="R317" s="13"/>
       <c r="Y317" s="13"/>
     </row>
-    <row r="318" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:25" hidden="1">
       <c r="B318" s="11">
         <v>45949</v>
       </c>
@@ -4931,7 +5028,7 @@
       <c r="R318" s="13"/>
       <c r="Y318" s="13"/>
     </row>
-    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:25" hidden="1">
       <c r="B319" s="11">
         <v>45950</v>
       </c>
@@ -4941,7 +5038,7 @@
       <c r="R319" s="13"/>
       <c r="Y319" s="13"/>
     </row>
-    <row r="320" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:25" hidden="1">
       <c r="B320" s="11">
         <v>45950</v>
       </c>
@@ -4951,7 +5048,7 @@
       <c r="R320" s="13"/>
       <c r="Y320" s="13"/>
     </row>
-    <row r="321" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:25" hidden="1">
       <c r="B321" s="11">
         <v>45950</v>
       </c>
@@ -4961,7 +5058,7 @@
       <c r="R321" s="13"/>
       <c r="Y321" s="13"/>
     </row>
-    <row r="322" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:25" hidden="1">
       <c r="B322" s="11">
         <v>45950</v>
       </c>
@@ -4971,7 +5068,7 @@
       <c r="R322" s="13"/>
       <c r="Y322" s="13"/>
     </row>
-    <row r="323" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:25" hidden="1">
       <c r="B323" s="11">
         <v>45950</v>
       </c>
@@ -4981,7 +5078,7 @@
       <c r="R323" s="13"/>
       <c r="Y323" s="13"/>
     </row>
-    <row r="324" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:25" hidden="1">
       <c r="B324" s="11">
         <v>45950</v>
       </c>
@@ -4991,7 +5088,7 @@
       <c r="R324" s="13"/>
       <c r="Y324" s="13"/>
     </row>
-    <row r="325" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:25" hidden="1">
       <c r="B325" s="11">
         <v>45950</v>
       </c>
@@ -5001,7 +5098,7 @@
       <c r="R325" s="13"/>
       <c r="Y325" s="13"/>
     </row>
-    <row r="326" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:25" hidden="1">
       <c r="B326" s="11">
         <v>45951</v>
       </c>
@@ -5011,7 +5108,7 @@
       <c r="R326" s="13"/>
       <c r="Y326" s="13"/>
     </row>
-    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:25" hidden="1">
       <c r="B327" s="11">
         <v>45951</v>
       </c>
@@ -5021,7 +5118,7 @@
       <c r="R327" s="13"/>
       <c r="Y327" s="13"/>
     </row>
-    <row r="328" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:25" hidden="1">
       <c r="B328" s="11">
         <v>45951</v>
       </c>
@@ -5031,7 +5128,7 @@
       <c r="R328" s="13"/>
       <c r="Y328" s="13"/>
     </row>
-    <row r="329" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:25" hidden="1">
       <c r="B329" s="11">
         <v>45951</v>
       </c>
@@ -5041,7 +5138,7 @@
       <c r="R329" s="13"/>
       <c r="Y329" s="13"/>
     </row>
-    <row r="330" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:25" hidden="1">
       <c r="B330" s="11">
         <v>45951</v>
       </c>
@@ -5051,7 +5148,7 @@
       <c r="R330" s="13"/>
       <c r="Y330" s="13"/>
     </row>
-    <row r="331" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:25" hidden="1">
       <c r="B331" s="11">
         <v>45951</v>
       </c>
@@ -5061,7 +5158,7 @@
       <c r="R331" s="13"/>
       <c r="Y331" s="13"/>
     </row>
-    <row r="332" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:25" hidden="1">
       <c r="B332" s="11">
         <v>45951</v>
       </c>
@@ -5071,7 +5168,7 @@
       <c r="R332" s="13"/>
       <c r="Y332" s="13"/>
     </row>
-    <row r="333" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:25" hidden="1">
       <c r="B333" s="11">
         <v>45952</v>
       </c>
@@ -5081,7 +5178,7 @@
       <c r="R333" s="13"/>
       <c r="Y333" s="13"/>
     </row>
-    <row r="334" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:25" hidden="1">
       <c r="B334" s="11">
         <v>45952</v>
       </c>
@@ -5091,7 +5188,7 @@
       <c r="R334" s="13"/>
       <c r="Y334" s="13"/>
     </row>
-    <row r="335" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:25" hidden="1">
       <c r="B335" s="11">
         <v>45952</v>
       </c>
@@ -5101,7 +5198,7 @@
       <c r="R335" s="13"/>
       <c r="Y335" s="13"/>
     </row>
-    <row r="336" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:25" hidden="1">
       <c r="B336" s="11">
         <v>45952</v>
       </c>
@@ -5111,7 +5208,7 @@
       <c r="R336" s="13"/>
       <c r="Y336" s="13"/>
     </row>
-    <row r="337" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:25" hidden="1">
       <c r="B337" s="11">
         <v>45952</v>
       </c>
@@ -5121,7 +5218,7 @@
       <c r="R337" s="13"/>
       <c r="Y337" s="13"/>
     </row>
-    <row r="338" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:25" hidden="1">
       <c r="B338" s="11">
         <v>45952</v>
       </c>
@@ -5131,7 +5228,7 @@
       <c r="R338" s="13"/>
       <c r="Y338" s="13"/>
     </row>
-    <row r="339" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:25" hidden="1">
       <c r="B339" s="11">
         <v>45952</v>
       </c>
@@ -5141,7 +5238,7 @@
       <c r="R339" s="13"/>
       <c r="Y339" s="13"/>
     </row>
-    <row r="340" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:25" hidden="1">
       <c r="B340" s="11">
         <v>45953</v>
       </c>
@@ -5151,7 +5248,7 @@
       <c r="R340" s="13"/>
       <c r="Y340" s="13"/>
     </row>
-    <row r="341" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:25" hidden="1">
       <c r="B341" s="11">
         <v>45953</v>
       </c>
@@ -5161,7 +5258,7 @@
       <c r="R341" s="13"/>
       <c r="Y341" s="13"/>
     </row>
-    <row r="342" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:25" hidden="1">
       <c r="B342" s="11">
         <v>45953</v>
       </c>
@@ -5171,7 +5268,7 @@
       <c r="R342" s="13"/>
       <c r="Y342" s="13"/>
     </row>
-    <row r="343" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:25" hidden="1">
       <c r="B343" s="11">
         <v>45953</v>
       </c>
@@ -5181,7 +5278,7 @@
       <c r="R343" s="13"/>
       <c r="Y343" s="13"/>
     </row>
-    <row r="344" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:25" hidden="1">
       <c r="B344" s="11">
         <v>45953</v>
       </c>
@@ -5191,7 +5288,7 @@
       <c r="R344" s="13"/>
       <c r="Y344" s="13"/>
     </row>
-    <row r="345" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:25" hidden="1">
       <c r="B345" s="11">
         <v>45953</v>
       </c>
@@ -5201,7 +5298,7 @@
       <c r="R345" s="13"/>
       <c r="Y345" s="13"/>
     </row>
-    <row r="346" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:25" hidden="1">
       <c r="B346" s="11">
         <v>45953</v>
       </c>
@@ -5211,7 +5308,7 @@
       <c r="R346" s="13"/>
       <c r="Y346" s="13"/>
     </row>
-    <row r="347" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:25" hidden="1">
       <c r="B347" s="11">
         <v>45954</v>
       </c>
@@ -5221,7 +5318,7 @@
       <c r="R347" s="13"/>
       <c r="Y347" s="13"/>
     </row>
-    <row r="348" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:25" hidden="1">
       <c r="B348" s="11">
         <v>45954</v>
       </c>
@@ -5231,7 +5328,7 @@
       <c r="R348" s="13"/>
       <c r="Y348" s="13"/>
     </row>
-    <row r="349" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:25" hidden="1">
       <c r="B349" s="11">
         <v>45954</v>
       </c>
@@ -5241,7 +5338,7 @@
       <c r="R349" s="13"/>
       <c r="Y349" s="13"/>
     </row>
-    <row r="350" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:25" hidden="1">
       <c r="B350" s="11">
         <v>45954</v>
       </c>
@@ -5251,7 +5348,7 @@
       <c r="R350" s="13"/>
       <c r="Y350" s="13"/>
     </row>
-    <row r="351" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:25" hidden="1">
       <c r="B351" s="11">
         <v>45954</v>
       </c>
@@ -5261,7 +5358,7 @@
       <c r="R351" s="13"/>
       <c r="Y351" s="13"/>
     </row>
-    <row r="352" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:25" hidden="1">
       <c r="B352" s="11">
         <v>45954</v>
       </c>
@@ -5271,7 +5368,7 @@
       <c r="R352" s="13"/>
       <c r="Y352" s="13"/>
     </row>
-    <row r="353" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:25" hidden="1">
       <c r="B353" s="11">
         <v>45954</v>
       </c>
@@ -5281,7 +5378,7 @@
       <c r="R353" s="13"/>
       <c r="Y353" s="13"/>
     </row>
-    <row r="354" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:25" hidden="1">
       <c r="B354" s="11">
         <v>45955</v>
       </c>
@@ -5291,7 +5388,7 @@
       <c r="R354" s="13"/>
       <c r="Y354" s="13"/>
     </row>
-    <row r="355" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:25" hidden="1">
       <c r="B355" s="11">
         <v>45955</v>
       </c>
@@ -5301,7 +5398,7 @@
       <c r="R355" s="13"/>
       <c r="Y355" s="13"/>
     </row>
-    <row r="356" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:25" hidden="1">
       <c r="B356" s="11">
         <v>45955</v>
       </c>
@@ -5311,7 +5408,7 @@
       <c r="R356" s="13"/>
       <c r="Y356" s="13"/>
     </row>
-    <row r="357" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:25" hidden="1">
       <c r="B357" s="11">
         <v>45955</v>
       </c>
@@ -5321,7 +5418,7 @@
       <c r="R357" s="13"/>
       <c r="Y357" s="13"/>
     </row>
-    <row r="358" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:25" hidden="1">
       <c r="B358" s="11">
         <v>45955</v>
       </c>
@@ -5331,7 +5428,7 @@
       <c r="R358" s="13"/>
       <c r="Y358" s="13"/>
     </row>
-    <row r="359" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:25" hidden="1">
       <c r="B359" s="11">
         <v>45955</v>
       </c>
@@ -5341,7 +5438,7 @@
       <c r="R359" s="13"/>
       <c r="Y359" s="13"/>
     </row>
-    <row r="360" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:25" hidden="1">
       <c r="B360" s="11">
         <v>45955</v>
       </c>
@@ -5351,7 +5448,7 @@
       <c r="R360" s="13"/>
       <c r="Y360" s="13"/>
     </row>
-    <row r="361" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:25" hidden="1">
       <c r="B361" s="11">
         <v>45956</v>
       </c>
@@ -5361,7 +5458,7 @@
       <c r="R361" s="13"/>
       <c r="Y361" s="13"/>
     </row>
-    <row r="362" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:25" hidden="1">
       <c r="B362" s="11">
         <v>45956</v>
       </c>
@@ -5371,7 +5468,7 @@
       <c r="R362" s="13"/>
       <c r="Y362" s="13"/>
     </row>
-    <row r="363" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:25" hidden="1">
       <c r="B363" s="11">
         <v>45956</v>
       </c>
@@ -5381,7 +5478,7 @@
       <c r="R363" s="13"/>
       <c r="Y363" s="13"/>
     </row>
-    <row r="364" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:25" hidden="1">
       <c r="B364" s="11">
         <v>45956</v>
       </c>
@@ -5391,7 +5488,7 @@
       <c r="R364" s="13"/>
       <c r="Y364" s="13"/>
     </row>
-    <row r="365" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:25" hidden="1">
       <c r="B365" s="11">
         <v>45956</v>
       </c>
@@ -5401,7 +5498,7 @@
       <c r="R365" s="13"/>
       <c r="Y365" s="13"/>
     </row>
-    <row r="366" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:25" hidden="1">
       <c r="B366" s="11">
         <v>45956</v>
       </c>
@@ -5411,7 +5508,7 @@
       <c r="R366" s="13"/>
       <c r="Y366" s="13"/>
     </row>
-    <row r="367" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:25" hidden="1">
       <c r="B367" s="11">
         <v>45956</v>
       </c>
@@ -5421,7 +5518,7 @@
       <c r="R367" s="13"/>
       <c r="Y367" s="13"/>
     </row>
-    <row r="368" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:25" hidden="1">
       <c r="B368" s="11">
         <v>45957</v>
       </c>
@@ -5431,7 +5528,7 @@
       <c r="R368" s="13"/>
       <c r="Y368" s="13"/>
     </row>
-    <row r="369" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:25" hidden="1">
       <c r="B369" s="11">
         <v>45957</v>
       </c>
@@ -5441,7 +5538,7 @@
       <c r="R369" s="13"/>
       <c r="Y369" s="13"/>
     </row>
-    <row r="370" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:25" hidden="1">
       <c r="B370" s="11">
         <v>45957</v>
       </c>
@@ -5451,7 +5548,7 @@
       <c r="R370" s="13"/>
       <c r="Y370" s="13"/>
     </row>
-    <row r="371" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:25" hidden="1">
       <c r="B371" s="11">
         <v>45957</v>
       </c>
@@ -5461,7 +5558,7 @@
       <c r="R371" s="13"/>
       <c r="Y371" s="13"/>
     </row>
-    <row r="372" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:25" hidden="1">
       <c r="B372" s="11">
         <v>45957</v>
       </c>
@@ -5471,7 +5568,7 @@
       <c r="R372" s="13"/>
       <c r="Y372" s="13"/>
     </row>
-    <row r="373" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:25" hidden="1">
       <c r="B373" s="11">
         <v>45957</v>
       </c>
@@ -5481,7 +5578,7 @@
       <c r="R373" s="13"/>
       <c r="Y373" s="13"/>
     </row>
-    <row r="374" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:25" hidden="1">
       <c r="B374" s="11">
         <v>45957</v>
       </c>
@@ -5491,7 +5588,7 @@
       <c r="R374" s="13"/>
       <c r="Y374" s="13"/>
     </row>
-    <row r="375" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:25" hidden="1">
       <c r="B375" s="11">
         <v>45958</v>
       </c>
@@ -5501,7 +5598,7 @@
       <c r="R375" s="13"/>
       <c r="Y375" s="13"/>
     </row>
-    <row r="376" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:25" hidden="1">
       <c r="B376" s="11">
         <v>45958</v>
       </c>
@@ -5511,7 +5608,7 @@
       <c r="R376" s="13"/>
       <c r="Y376" s="13"/>
     </row>
-    <row r="377" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:25" hidden="1">
       <c r="B377" s="11">
         <v>45958</v>
       </c>
@@ -5521,7 +5618,7 @@
       <c r="R377" s="13"/>
       <c r="Y377" s="13"/>
     </row>
-    <row r="378" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:25" hidden="1">
       <c r="B378" s="11">
         <v>45958</v>
       </c>
@@ -5531,7 +5628,7 @@
       <c r="R378" s="13"/>
       <c r="Y378" s="13"/>
     </row>
-    <row r="379" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:25" hidden="1">
       <c r="B379" s="11">
         <v>45958</v>
       </c>
@@ -5541,7 +5638,7 @@
       <c r="R379" s="13"/>
       <c r="Y379" s="13"/>
     </row>
-    <row r="380" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:25" hidden="1">
       <c r="B380" s="11">
         <v>45958</v>
       </c>
@@ -5551,7 +5648,7 @@
       <c r="R380" s="13"/>
       <c r="Y380" s="13"/>
     </row>
-    <row r="381" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:25" hidden="1">
       <c r="B381" s="11">
         <v>45958</v>
       </c>
@@ -5561,7 +5658,7 @@
       <c r="R381" s="13"/>
       <c r="Y381" s="13"/>
     </row>
-    <row r="382" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:25" hidden="1">
       <c r="B382" s="11">
         <v>45959</v>
       </c>
@@ -5571,7 +5668,7 @@
       <c r="R382" s="13"/>
       <c r="Y382" s="13"/>
     </row>
-    <row r="383" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:25" hidden="1">
       <c r="B383" s="11">
         <v>45959</v>
       </c>
@@ -5581,7 +5678,7 @@
       <c r="R383" s="13"/>
       <c r="Y383" s="13"/>
     </row>
-    <row r="384" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:25" hidden="1">
       <c r="B384" s="11">
         <v>45959</v>
       </c>
@@ -5591,7 +5688,7 @@
       <c r="R384" s="13"/>
       <c r="Y384" s="13"/>
     </row>
-    <row r="385" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:25" hidden="1">
       <c r="B385" s="11">
         <v>45959</v>
       </c>
@@ -5601,7 +5698,7 @@
       <c r="R385" s="13"/>
       <c r="Y385" s="13"/>
     </row>
-    <row r="386" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:25" hidden="1">
       <c r="B386" s="11">
         <v>45959</v>
       </c>
@@ -5611,7 +5708,7 @@
       <c r="R386" s="13"/>
       <c r="Y386" s="13"/>
     </row>
-    <row r="387" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:25" hidden="1">
       <c r="B387" s="11">
         <v>45959</v>
       </c>
@@ -5621,7 +5718,7 @@
       <c r="R387" s="13"/>
       <c r="Y387" s="13"/>
     </row>
-    <row r="388" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:25" hidden="1">
       <c r="B388" s="11">
         <v>45959</v>
       </c>
@@ -5631,7 +5728,7 @@
       <c r="R388" s="13"/>
       <c r="Y388" s="13"/>
     </row>
-    <row r="389" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:25" hidden="1">
       <c r="B389" s="11">
         <v>45960</v>
       </c>
@@ -5641,7 +5738,7 @@
       <c r="R389" s="13"/>
       <c r="Y389" s="13"/>
     </row>
-    <row r="390" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:25" hidden="1">
       <c r="B390" s="11">
         <v>45960</v>
       </c>
@@ -5651,7 +5748,7 @@
       <c r="R390" s="13"/>
       <c r="Y390" s="13"/>
     </row>
-    <row r="391" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:25" hidden="1">
       <c r="B391" s="11">
         <v>45960</v>
       </c>
@@ -5661,7 +5758,7 @@
       <c r="R391" s="13"/>
       <c r="Y391" s="13"/>
     </row>
-    <row r="392" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:25" hidden="1">
       <c r="B392" s="11">
         <v>45960</v>
       </c>
@@ -5671,7 +5768,7 @@
       <c r="R392" s="13"/>
       <c r="Y392" s="13"/>
     </row>
-    <row r="393" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:25" hidden="1">
       <c r="B393" s="11">
         <v>45960</v>
       </c>
@@ -5681,7 +5778,7 @@
       <c r="R393" s="13"/>
       <c r="Y393" s="13"/>
     </row>
-    <row r="394" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:25" hidden="1">
       <c r="B394" s="11">
         <v>45960</v>
       </c>
@@ -5691,7 +5788,7 @@
       <c r="R394" s="13"/>
       <c r="Y394" s="13"/>
     </row>
-    <row r="395" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:25" hidden="1">
       <c r="B395" s="11">
         <v>45960</v>
       </c>
@@ -5701,7 +5798,7 @@
       <c r="R395" s="13"/>
       <c r="Y395" s="13"/>
     </row>
-    <row r="396" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:25" hidden="1">
       <c r="B396" s="11">
         <v>45961</v>
       </c>
@@ -5711,7 +5808,7 @@
       <c r="R396" s="13"/>
       <c r="Y396" s="13"/>
     </row>
-    <row r="397" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:25" hidden="1">
       <c r="B397" s="11">
         <v>45961</v>
       </c>
@@ -5721,7 +5818,7 @@
       <c r="R397" s="13"/>
       <c r="Y397" s="13"/>
     </row>
-    <row r="398" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:25" hidden="1">
       <c r="B398" s="11">
         <v>45961</v>
       </c>
@@ -5731,7 +5828,7 @@
       <c r="R398" s="13"/>
       <c r="Y398" s="13"/>
     </row>
-    <row r="399" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:25" hidden="1">
       <c r="B399" s="11">
         <v>45961</v>
       </c>
@@ -5741,7 +5838,7 @@
       <c r="R399" s="13"/>
       <c r="Y399" s="13"/>
     </row>
-    <row r="400" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:25" hidden="1">
       <c r="B400" s="11">
         <v>45961</v>
       </c>
@@ -5751,7 +5848,7 @@
       <c r="R400" s="13"/>
       <c r="Y400" s="13"/>
     </row>
-    <row r="401" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:25" hidden="1">
       <c r="B401" s="11">
         <v>45961</v>
       </c>
@@ -5761,7 +5858,7 @@
       <c r="R401" s="13"/>
       <c r="Y401" s="13"/>
     </row>
-    <row r="402" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:25" hidden="1">
       <c r="B402" s="11">
         <v>45961</v>
       </c>
@@ -5771,7 +5868,7 @@
       <c r="R402" s="13"/>
       <c r="Y402" s="13"/>
     </row>
-    <row r="403" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:25" hidden="1">
       <c r="B403" s="11">
         <v>45962</v>
       </c>
@@ -5781,7 +5878,7 @@
       <c r="R403" s="13"/>
       <c r="Y403" s="13"/>
     </row>
-    <row r="404" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:25" hidden="1">
       <c r="B404" s="11">
         <v>45962</v>
       </c>
@@ -5791,7 +5888,7 @@
       <c r="R404" s="13"/>
       <c r="Y404" s="13"/>
     </row>
-    <row r="405" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:25" hidden="1">
       <c r="B405" s="11">
         <v>45962</v>
       </c>
@@ -5801,7 +5898,7 @@
       <c r="R405" s="13"/>
       <c r="Y405" s="13"/>
     </row>
-    <row r="406" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:25" hidden="1">
       <c r="B406" s="11">
         <v>45962</v>
       </c>
@@ -5811,7 +5908,7 @@
       <c r="R406" s="13"/>
       <c r="Y406" s="13"/>
     </row>
-    <row r="407" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:25" hidden="1">
       <c r="B407" s="11">
         <v>45962</v>
       </c>
@@ -5821,7 +5918,7 @@
       <c r="R407" s="13"/>
       <c r="Y407" s="13"/>
     </row>
-    <row r="408" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:25" hidden="1">
       <c r="B408" s="11">
         <v>45962</v>
       </c>
@@ -5831,7 +5928,7 @@
       <c r="R408" s="13"/>
       <c r="Y408" s="13"/>
     </row>
-    <row r="409" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:25" hidden="1">
       <c r="B409" s="11">
         <v>45962</v>
       </c>
@@ -5841,7 +5938,7 @@
       <c r="R409" s="13"/>
       <c r="Y409" s="13"/>
     </row>
-    <row r="410" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:25" hidden="1">
       <c r="B410" s="11">
         <v>45963</v>
       </c>
@@ -5851,7 +5948,7 @@
       <c r="R410" s="13"/>
       <c r="Y410" s="13"/>
     </row>
-    <row r="411" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:25" hidden="1">
       <c r="B411" s="11">
         <v>45963</v>
       </c>
@@ -5861,7 +5958,7 @@
       <c r="R411" s="13"/>
       <c r="Y411" s="13"/>
     </row>
-    <row r="412" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:25" hidden="1">
       <c r="B412" s="11">
         <v>45963</v>
       </c>
@@ -5871,7 +5968,7 @@
       <c r="R412" s="13"/>
       <c r="Y412" s="13"/>
     </row>
-    <row r="413" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:25" hidden="1">
       <c r="B413" s="11">
         <v>45963</v>
       </c>
@@ -5881,7 +5978,7 @@
       <c r="R413" s="13"/>
       <c r="Y413" s="13"/>
     </row>
-    <row r="414" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:25" hidden="1">
       <c r="B414" s="11">
         <v>45963</v>
       </c>
@@ -5891,7 +5988,7 @@
       <c r="R414" s="13"/>
       <c r="Y414" s="13"/>
     </row>
-    <row r="415" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:25" hidden="1">
       <c r="B415" s="11">
         <v>45963</v>
       </c>
@@ -5901,7 +5998,7 @@
       <c r="R415" s="13"/>
       <c r="Y415" s="13"/>
     </row>
-    <row r="416" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:25" hidden="1">
       <c r="B416" s="11">
         <v>45963</v>
       </c>
@@ -5911,7 +6008,7 @@
       <c r="R416" s="13"/>
       <c r="Y416" s="13"/>
     </row>
-    <row r="417" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:25" hidden="1">
       <c r="B417" s="11">
         <v>45964</v>
       </c>
@@ -5921,7 +6018,7 @@
       <c r="R417" s="13"/>
       <c r="Y417" s="13"/>
     </row>
-    <row r="418" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:25" hidden="1">
       <c r="B418" s="11">
         <v>45964</v>
       </c>
@@ -5931,7 +6028,7 @@
       <c r="R418" s="13"/>
       <c r="Y418" s="13"/>
     </row>
-    <row r="419" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:25" hidden="1">
       <c r="B419" s="11">
         <v>45964</v>
       </c>
@@ -5941,7 +6038,7 @@
       <c r="R419" s="13"/>
       <c r="Y419" s="13"/>
     </row>
-    <row r="420" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:25" hidden="1">
       <c r="B420" s="11">
         <v>45964</v>
       </c>
@@ -5951,7 +6048,7 @@
       <c r="R420" s="13"/>
       <c r="Y420" s="13"/>
     </row>
-    <row r="421" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:25" hidden="1">
       <c r="B421" s="11">
         <v>45964</v>
       </c>
@@ -5961,7 +6058,7 @@
       <c r="R421" s="13"/>
       <c r="Y421" s="13"/>
     </row>
-    <row r="422" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:25" hidden="1">
       <c r="B422" s="11">
         <v>45964</v>
       </c>
@@ -5971,7 +6068,7 @@
       <c r="R422" s="13"/>
       <c r="Y422" s="13"/>
     </row>
-    <row r="423" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:25" hidden="1">
       <c r="B423" s="11">
         <v>45964</v>
       </c>
@@ -5981,7 +6078,7 @@
       <c r="R423" s="13"/>
       <c r="Y423" s="13"/>
     </row>
-    <row r="424" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:25" hidden="1">
       <c r="B424" s="11">
         <v>45965</v>
       </c>
@@ -5991,7 +6088,7 @@
       <c r="R424" s="13"/>
       <c r="Y424" s="13"/>
     </row>
-    <row r="425" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:25" hidden="1">
       <c r="B425" s="11">
         <v>45965</v>
       </c>
@@ -6001,7 +6098,7 @@
       <c r="R425" s="13"/>
       <c r="Y425" s="13"/>
     </row>
-    <row r="426" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:25" hidden="1">
       <c r="B426" s="11">
         <v>45965</v>
       </c>
@@ -6011,7 +6108,7 @@
       <c r="R426" s="13"/>
       <c r="Y426" s="13"/>
     </row>
-    <row r="427" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:25" hidden="1">
       <c r="B427" s="11">
         <v>45965</v>
       </c>
@@ -6021,7 +6118,7 @@
       <c r="R427" s="13"/>
       <c r="Y427" s="13"/>
     </row>
-    <row r="428" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:25" hidden="1">
       <c r="B428" s="11">
         <v>45965</v>
       </c>
@@ -6031,7 +6128,7 @@
       <c r="R428" s="13"/>
       <c r="Y428" s="13"/>
     </row>
-    <row r="429" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:25" hidden="1">
       <c r="B429" s="11">
         <v>45965</v>
       </c>
@@ -6041,7 +6138,7 @@
       <c r="R429" s="13"/>
       <c r="Y429" s="13"/>
     </row>
-    <row r="430" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:25" hidden="1">
       <c r="B430" s="11">
         <v>45965</v>
       </c>
@@ -6051,7 +6148,7 @@
       <c r="R430" s="13"/>
       <c r="Y430" s="13"/>
     </row>
-    <row r="431" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:25" hidden="1">
       <c r="B431" s="11">
         <v>45966</v>
       </c>
@@ -6061,7 +6158,7 @@
       <c r="R431" s="13"/>
       <c r="Y431" s="13"/>
     </row>
-    <row r="432" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:25" hidden="1">
       <c r="B432" s="11">
         <v>45966</v>
       </c>
@@ -6071,7 +6168,7 @@
       <c r="R432" s="13"/>
       <c r="Y432" s="13"/>
     </row>
-    <row r="433" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:25" hidden="1">
       <c r="B433" s="11">
         <v>45966</v>
       </c>
@@ -6081,7 +6178,7 @@
       <c r="R433" s="13"/>
       <c r="Y433" s="13"/>
     </row>
-    <row r="434" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:25" hidden="1">
       <c r="B434" s="11">
         <v>45966</v>
       </c>
@@ -6091,7 +6188,7 @@
       <c r="R434" s="13"/>
       <c r="Y434" s="13"/>
     </row>
-    <row r="435" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:25" hidden="1">
       <c r="B435" s="11">
         <v>45966</v>
       </c>
@@ -6101,7 +6198,7 @@
       <c r="R435" s="13"/>
       <c r="Y435" s="13"/>
     </row>
-    <row r="436" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:25" hidden="1">
       <c r="B436" s="11">
         <v>45966</v>
       </c>
@@ -6111,7 +6208,7 @@
       <c r="R436" s="13"/>
       <c r="Y436" s="13"/>
     </row>
-    <row r="437" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:25" hidden="1">
       <c r="B437" s="11">
         <v>45966</v>
       </c>
@@ -6121,7 +6218,7 @@
       <c r="R437" s="13"/>
       <c r="Y437" s="13"/>
     </row>
-    <row r="438" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:25" hidden="1">
       <c r="B438" s="11">
         <v>45967</v>
       </c>
@@ -6131,7 +6228,7 @@
       <c r="R438" s="13"/>
       <c r="Y438" s="13"/>
     </row>
-    <row r="439" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:25" hidden="1">
       <c r="B439" s="11">
         <v>45967</v>
       </c>
@@ -6141,7 +6238,7 @@
       <c r="R439" s="13"/>
       <c r="Y439" s="13"/>
     </row>
-    <row r="440" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:25" hidden="1">
       <c r="B440" s="11">
         <v>45967</v>
       </c>
@@ -6151,7 +6248,7 @@
       <c r="R440" s="13"/>
       <c r="Y440" s="13"/>
     </row>
-    <row r="441" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:25" hidden="1">
       <c r="B441" s="11">
         <v>45967</v>
       </c>
@@ -6161,7 +6258,7 @@
       <c r="R441" s="13"/>
       <c r="Y441" s="13"/>
     </row>
-    <row r="442" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:25" hidden="1">
       <c r="B442" s="11">
         <v>45967</v>
       </c>
@@ -6171,7 +6268,7 @@
       <c r="R442" s="13"/>
       <c r="Y442" s="13"/>
     </row>
-    <row r="443" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:25" hidden="1">
       <c r="B443" s="11">
         <v>45967</v>
       </c>
@@ -6181,7 +6278,7 @@
       <c r="R443" s="13"/>
       <c r="Y443" s="13"/>
     </row>
-    <row r="444" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:25" hidden="1">
       <c r="B444" s="11">
         <v>45967</v>
       </c>
@@ -6191,7 +6288,7 @@
       <c r="R444" s="13"/>
       <c r="Y444" s="13"/>
     </row>
-    <row r="445" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:25" hidden="1">
       <c r="B445" s="11">
         <v>45968</v>
       </c>
@@ -6201,7 +6298,7 @@
       <c r="R445" s="13"/>
       <c r="Y445" s="13"/>
     </row>
-    <row r="446" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:25" hidden="1">
       <c r="B446" s="11">
         <v>45968</v>
       </c>
@@ -6211,7 +6308,7 @@
       <c r="R446" s="13"/>
       <c r="Y446" s="13"/>
     </row>
-    <row r="447" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:25" hidden="1">
       <c r="B447" s="11">
         <v>45968</v>
       </c>
@@ -6221,7 +6318,7 @@
       <c r="R447" s="13"/>
       <c r="Y447" s="13"/>
     </row>
-    <row r="448" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:25" hidden="1">
       <c r="B448" s="11">
         <v>45968</v>
       </c>
@@ -6231,7 +6328,7 @@
       <c r="R448" s="13"/>
       <c r="Y448" s="13"/>
     </row>
-    <row r="449" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:25" hidden="1">
       <c r="B449" s="11">
         <v>45968</v>
       </c>
@@ -6241,7 +6338,7 @@
       <c r="R449" s="13"/>
       <c r="Y449" s="13"/>
     </row>
-    <row r="450" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:25" hidden="1">
       <c r="B450" s="11">
         <v>45968</v>
       </c>
@@ -6251,7 +6348,7 @@
       <c r="R450" s="13"/>
       <c r="Y450" s="13"/>
     </row>
-    <row r="451" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:25" hidden="1">
       <c r="B451" s="11">
         <v>45968</v>
       </c>
@@ -6261,7 +6358,7 @@
       <c r="R451" s="13"/>
       <c r="Y451" s="13"/>
     </row>
-    <row r="452" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:25" hidden="1">
       <c r="B452" s="11">
         <v>45969</v>
       </c>
@@ -6271,7 +6368,7 @@
       <c r="R452" s="13"/>
       <c r="Y452" s="13"/>
     </row>
-    <row r="453" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:25" hidden="1">
       <c r="B453" s="11">
         <v>45969</v>
       </c>
@@ -6281,7 +6378,7 @@
       <c r="R453" s="13"/>
       <c r="Y453" s="13"/>
     </row>
-    <row r="454" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:25" hidden="1">
       <c r="B454" s="11">
         <v>45969</v>
       </c>
@@ -6291,7 +6388,7 @@
       <c r="R454" s="13"/>
       <c r="Y454" s="13"/>
     </row>
-    <row r="455" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:25" hidden="1">
       <c r="B455" s="11">
         <v>45969</v>
       </c>
@@ -6301,7 +6398,7 @@
       <c r="R455" s="13"/>
       <c r="Y455" s="13"/>
     </row>
-    <row r="456" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:25" hidden="1">
       <c r="B456" s="11">
         <v>45969</v>
       </c>
@@ -6311,7 +6408,7 @@
       <c r="R456" s="13"/>
       <c r="Y456" s="13"/>
     </row>
-    <row r="457" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:25" hidden="1">
       <c r="B457" s="11">
         <v>45969</v>
       </c>
@@ -6321,7 +6418,7 @@
       <c r="R457" s="13"/>
       <c r="Y457" s="13"/>
     </row>
-    <row r="458" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:25" hidden="1">
       <c r="B458" s="11">
         <v>45969</v>
       </c>
@@ -6331,7 +6428,7 @@
       <c r="R458" s="13"/>
       <c r="Y458" s="13"/>
     </row>
-    <row r="459" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:25" hidden="1">
       <c r="B459" s="11">
         <v>45970</v>
       </c>
@@ -6341,7 +6438,7 @@
       <c r="R459" s="13"/>
       <c r="Y459" s="13"/>
     </row>
-    <row r="460" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:25" hidden="1">
       <c r="B460" s="11">
         <v>45970</v>
       </c>
@@ -6351,7 +6448,7 @@
       <c r="R460" s="13"/>
       <c r="Y460" s="13"/>
     </row>
-    <row r="461" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:25" hidden="1">
       <c r="B461" s="11">
         <v>45970</v>
       </c>
@@ -6361,7 +6458,7 @@
       <c r="R461" s="13"/>
       <c r="Y461" s="13"/>
     </row>
-    <row r="462" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:25" hidden="1">
       <c r="B462" s="11">
         <v>45970</v>
       </c>
@@ -6371,7 +6468,7 @@
       <c r="R462" s="13"/>
       <c r="Y462" s="13"/>
     </row>
-    <row r="463" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:25" hidden="1">
       <c r="B463" s="11">
         <v>45970</v>
       </c>
@@ -6381,7 +6478,7 @@
       <c r="R463" s="13"/>
       <c r="Y463" s="13"/>
     </row>
-    <row r="464" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:25" hidden="1">
       <c r="B464" s="11">
         <v>45970</v>
       </c>
@@ -6391,7 +6488,7 @@
       <c r="R464" s="13"/>
       <c r="Y464" s="13"/>
     </row>
-    <row r="465" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:25" hidden="1">
       <c r="B465" s="11">
         <v>45970</v>
       </c>
@@ -6401,7 +6498,7 @@
       <c r="R465" s="13"/>
       <c r="Y465" s="13"/>
     </row>
-    <row r="466" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:25" hidden="1">
       <c r="B466" s="11">
         <v>45971</v>
       </c>
@@ -6411,7 +6508,7 @@
       <c r="R466" s="13"/>
       <c r="Y466" s="13"/>
     </row>
-    <row r="467" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:25" hidden="1">
       <c r="B467" s="11">
         <v>45971</v>
       </c>
@@ -6421,7 +6518,7 @@
       <c r="R467" s="13"/>
       <c r="Y467" s="13"/>
     </row>
-    <row r="468" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:25" hidden="1">
       <c r="B468" s="11">
         <v>45971</v>
       </c>
@@ -6431,7 +6528,7 @@
       <c r="R468" s="13"/>
       <c r="Y468" s="13"/>
     </row>
-    <row r="469" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:25" hidden="1">
       <c r="B469" s="11">
         <v>45971</v>
       </c>
@@ -6441,7 +6538,7 @@
       <c r="R469" s="13"/>
       <c r="Y469" s="13"/>
     </row>
-    <row r="470" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:25" hidden="1">
       <c r="B470" s="11">
         <v>45971</v>
       </c>
@@ -6451,7 +6548,7 @@
       <c r="R470" s="13"/>
       <c r="Y470" s="13"/>
     </row>
-    <row r="471" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:25" hidden="1">
       <c r="B471" s="11">
         <v>45971</v>
       </c>
@@ -6461,7 +6558,7 @@
       <c r="R471" s="13"/>
       <c r="Y471" s="13"/>
     </row>
-    <row r="472" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:25" hidden="1">
       <c r="B472" s="11">
         <v>45971</v>
       </c>
@@ -6471,7 +6568,7 @@
       <c r="R472" s="13"/>
       <c r="Y472" s="13"/>
     </row>
-    <row r="473" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:25" hidden="1">
       <c r="B473" s="11">
         <v>45972</v>
       </c>
@@ -6481,7 +6578,7 @@
       <c r="R473" s="13"/>
       <c r="Y473" s="13"/>
     </row>
-    <row r="474" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:25" hidden="1">
       <c r="B474" s="11">
         <v>45972</v>
       </c>
@@ -6491,7 +6588,7 @@
       <c r="R474" s="13"/>
       <c r="Y474" s="13"/>
     </row>
-    <row r="475" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:25" hidden="1">
       <c r="B475" s="11">
         <v>45972</v>
       </c>
@@ -6501,7 +6598,7 @@
       <c r="R475" s="13"/>
       <c r="Y475" s="13"/>
     </row>
-    <row r="476" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:25" hidden="1">
       <c r="B476" s="11">
         <v>45972</v>
       </c>
@@ -6511,7 +6608,7 @@
       <c r="R476" s="13"/>
       <c r="Y476" s="13"/>
     </row>
-    <row r="477" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:25" hidden="1">
       <c r="B477" s="11">
         <v>45972</v>
       </c>
@@ -6521,7 +6618,7 @@
       <c r="R477" s="13"/>
       <c r="Y477" s="13"/>
     </row>
-    <row r="478" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:25" hidden="1">
       <c r="B478" s="11">
         <v>45972</v>
       </c>
@@ -6531,7 +6628,7 @@
       <c r="R478" s="13"/>
       <c r="Y478" s="13"/>
     </row>
-    <row r="479" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:25" hidden="1">
       <c r="B479" s="11">
         <v>45972</v>
       </c>
@@ -6541,7 +6638,7 @@
       <c r="R479" s="13"/>
       <c r="Y479" s="13"/>
     </row>
-    <row r="480" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:25" hidden="1">
       <c r="B480" s="11">
         <v>45973</v>
       </c>
@@ -6551,7 +6648,7 @@
       <c r="R480" s="13"/>
       <c r="Y480" s="13"/>
     </row>
-    <row r="481" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:25" hidden="1">
       <c r="B481" s="11">
         <v>45973</v>
       </c>
@@ -6561,7 +6658,7 @@
       <c r="R481" s="13"/>
       <c r="Y481" s="13"/>
     </row>
-    <row r="482" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:25" hidden="1">
       <c r="B482" s="11">
         <v>45973</v>
       </c>
@@ -6571,7 +6668,7 @@
       <c r="R482" s="13"/>
       <c r="Y482" s="13"/>
     </row>
-    <row r="483" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:25" hidden="1">
       <c r="B483" s="11">
         <v>45973</v>
       </c>
@@ -6581,7 +6678,7 @@
       <c r="R483" s="13"/>
       <c r="Y483" s="13"/>
     </row>
-    <row r="484" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:25" hidden="1">
       <c r="B484" s="11">
         <v>45973</v>
       </c>
@@ -6591,7 +6688,7 @@
       <c r="R484" s="13"/>
       <c r="Y484" s="13"/>
     </row>
-    <row r="485" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:25" hidden="1">
       <c r="B485" s="11">
         <v>45973</v>
       </c>
@@ -6601,7 +6698,7 @@
       <c r="R485" s="13"/>
       <c r="Y485" s="13"/>
     </row>
-    <row r="486" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:25" hidden="1">
       <c r="B486" s="11">
         <v>45973</v>
       </c>
@@ -6611,7 +6708,7 @@
       <c r="R486" s="13"/>
       <c r="Y486" s="13"/>
     </row>
-    <row r="487" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:25" hidden="1">
       <c r="B487" s="11">
         <v>45974</v>
       </c>
@@ -6621,7 +6718,7 @@
       <c r="R487" s="13"/>
       <c r="Y487" s="13"/>
     </row>
-    <row r="488" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:25" hidden="1">
       <c r="B488" s="11">
         <v>45974</v>
       </c>
@@ -6631,7 +6728,7 @@
       <c r="R488" s="13"/>
       <c r="Y488" s="13"/>
     </row>
-    <row r="489" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:25" hidden="1">
       <c r="B489" s="11">
         <v>45974</v>
       </c>
@@ -6641,7 +6738,7 @@
       <c r="R489" s="13"/>
       <c r="Y489" s="13"/>
     </row>
-    <row r="490" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:25" hidden="1">
       <c r="B490" s="11">
         <v>45974</v>
       </c>
@@ -6651,7 +6748,7 @@
       <c r="R490" s="13"/>
       <c r="Y490" s="13"/>
     </row>
-    <row r="491" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:25" hidden="1">
       <c r="B491" s="11">
         <v>45974</v>
       </c>
@@ -6661,7 +6758,7 @@
       <c r="R491" s="13"/>
       <c r="Y491" s="13"/>
     </row>
-    <row r="492" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:25" hidden="1">
       <c r="B492" s="11">
         <v>45974</v>
       </c>
@@ -6671,7 +6768,7 @@
       <c r="R492" s="13"/>
       <c r="Y492" s="13"/>
     </row>
-    <row r="493" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:25" hidden="1">
       <c r="B493" s="11">
         <v>45974</v>
       </c>
@@ -6681,7 +6778,7 @@
       <c r="R493" s="13"/>
       <c r="Y493" s="13"/>
     </row>
-    <row r="494" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:25" hidden="1">
       <c r="B494" s="11">
         <v>45975</v>
       </c>
@@ -6691,7 +6788,7 @@
       <c r="R494" s="13"/>
       <c r="Y494" s="13"/>
     </row>
-    <row r="495" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:25" hidden="1">
       <c r="B495" s="11">
         <v>45975</v>
       </c>
@@ -6701,7 +6798,7 @@
       <c r="R495" s="13"/>
       <c r="Y495" s="13"/>
     </row>
-    <row r="496" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:25" hidden="1">
       <c r="B496" s="11">
         <v>45975</v>
       </c>
@@ -6711,7 +6808,7 @@
       <c r="R496" s="13"/>
       <c r="Y496" s="13"/>
     </row>
-    <row r="497" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:25" hidden="1">
       <c r="B497" s="11">
         <v>45975</v>
       </c>
@@ -6721,7 +6818,7 @@
       <c r="R497" s="13"/>
       <c r="Y497" s="13"/>
     </row>
-    <row r="498" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:25" hidden="1">
       <c r="B498" s="11">
         <v>45975</v>
       </c>
@@ -6731,7 +6828,7 @@
       <c r="R498" s="13"/>
       <c r="Y498" s="13"/>
     </row>
-    <row r="499" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:25" hidden="1">
       <c r="B499" s="11">
         <v>45975</v>
       </c>
@@ -6741,7 +6838,7 @@
       <c r="R499" s="13"/>
       <c r="Y499" s="13"/>
     </row>
-    <row r="500" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:25" hidden="1">
       <c r="B500" s="11">
         <v>45975</v>
       </c>
@@ -6751,7 +6848,7 @@
       <c r="R500" s="13"/>
       <c r="Y500" s="13"/>
     </row>
-    <row r="501" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:25" hidden="1">
       <c r="B501" s="11">
         <v>45976</v>
       </c>
@@ -6761,7 +6858,7 @@
       <c r="R501" s="13"/>
       <c r="Y501" s="13"/>
     </row>
-    <row r="502" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:25" hidden="1">
       <c r="B502" s="11">
         <v>45976</v>
       </c>
@@ -6771,7 +6868,7 @@
       <c r="R502" s="13"/>
       <c r="Y502" s="13"/>
     </row>
-    <row r="503" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:25" hidden="1">
       <c r="B503" s="11">
         <v>45976</v>
       </c>
@@ -6781,7 +6878,7 @@
       <c r="R503" s="13"/>
       <c r="Y503" s="13"/>
     </row>
-    <row r="504" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:25" hidden="1">
       <c r="B504" s="11">
         <v>45976</v>
       </c>
@@ -6791,7 +6888,7 @@
       <c r="R504" s="13"/>
       <c r="Y504" s="13"/>
     </row>
-    <row r="505" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:25" hidden="1">
       <c r="B505" s="11">
         <v>45976</v>
       </c>
@@ -6801,7 +6898,7 @@
       <c r="R505" s="13"/>
       <c r="Y505" s="13"/>
     </row>
-    <row r="506" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:25" hidden="1">
       <c r="B506" s="11">
         <v>45976</v>
       </c>
@@ -6811,7 +6908,7 @@
       <c r="R506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:25" hidden="1">
       <c r="B507" s="11">
         <v>45976</v>
       </c>
@@ -6821,7 +6918,7 @@
       <c r="R507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:25" hidden="1">
       <c r="B508" s="11">
         <v>45977</v>
       </c>
@@ -6831,7 +6928,7 @@
       <c r="R508" s="13"/>
       <c r="Y508" s="13"/>
     </row>
-    <row r="509" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:25" hidden="1">
       <c r="B509" s="11">
         <v>45977</v>
       </c>
@@ -6841,7 +6938,7 @@
       <c r="R509" s="13"/>
       <c r="Y509" s="13"/>
     </row>
-    <row r="510" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:25" hidden="1">
       <c r="B510" s="11">
         <v>45977</v>
       </c>
@@ -6851,7 +6948,7 @@
       <c r="R510" s="13"/>
       <c r="Y510" s="13"/>
     </row>
-    <row r="511" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:25" hidden="1">
       <c r="B511" s="11">
         <v>45977</v>
       </c>
@@ -6861,7 +6958,7 @@
       <c r="R511" s="13"/>
       <c r="Y511" s="13"/>
     </row>
-    <row r="512" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:25" hidden="1">
       <c r="B512" s="11">
         <v>45977</v>
       </c>
@@ -6871,7 +6968,7 @@
       <c r="R512" s="13"/>
       <c r="Y512" s="13"/>
     </row>
-    <row r="513" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:25" hidden="1">
       <c r="B513" s="11">
         <v>45977</v>
       </c>
@@ -6881,7 +6978,7 @@
       <c r="R513" s="13"/>
       <c r="Y513" s="13"/>
     </row>
-    <row r="514" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:25" hidden="1">
       <c r="B514" s="11">
         <v>45977</v>
       </c>
@@ -6891,7 +6988,7 @@
       <c r="R514" s="13"/>
       <c r="Y514" s="13"/>
     </row>
-    <row r="515" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:25" hidden="1">
       <c r="B515" s="11">
         <v>45978</v>
       </c>
@@ -6901,7 +6998,7 @@
       <c r="R515" s="13"/>
       <c r="Y515" s="13"/>
     </row>
-    <row r="516" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:25" hidden="1">
       <c r="B516" s="11">
         <v>45978</v>
       </c>
@@ -6911,7 +7008,7 @@
       <c r="R516" s="13"/>
       <c r="Y516" s="13"/>
     </row>
-    <row r="517" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:25" hidden="1">
       <c r="B517" s="11">
         <v>45978</v>
       </c>
@@ -6921,7 +7018,7 @@
       <c r="R517" s="13"/>
       <c r="Y517" s="13"/>
     </row>
-    <row r="518" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:25" hidden="1">
       <c r="B518" s="11">
         <v>45978</v>
       </c>
@@ -6931,7 +7028,7 @@
       <c r="R518" s="13"/>
       <c r="Y518" s="13"/>
     </row>
-    <row r="519" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:25" hidden="1">
       <c r="B519" s="11">
         <v>45978</v>
       </c>
@@ -6941,7 +7038,7 @@
       <c r="R519" s="13"/>
       <c r="Y519" s="13"/>
     </row>
-    <row r="520" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:25" hidden="1">
       <c r="B520" s="11">
         <v>45978</v>
       </c>
@@ -6951,7 +7048,7 @@
       <c r="R520" s="13"/>
       <c r="Y520" s="13"/>
     </row>
-    <row r="521" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:25" hidden="1">
       <c r="B521" s="11">
         <v>45978</v>
       </c>
@@ -6961,7 +7058,7 @@
       <c r="R521" s="13"/>
       <c r="Y521" s="13"/>
     </row>
-    <row r="522" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:25" hidden="1">
       <c r="B522" s="11">
         <v>45979</v>
       </c>
@@ -6971,7 +7068,7 @@
       <c r="R522" s="13"/>
       <c r="Y522" s="13"/>
     </row>
-    <row r="523" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:25" hidden="1">
       <c r="B523" s="11">
         <v>45979</v>
       </c>
@@ -6981,7 +7078,7 @@
       <c r="R523" s="13"/>
       <c r="Y523" s="13"/>
     </row>
-    <row r="524" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:25" hidden="1">
       <c r="B524" s="11">
         <v>45979</v>
       </c>
@@ -6991,7 +7088,7 @@
       <c r="R524" s="13"/>
       <c r="Y524" s="13"/>
     </row>
-    <row r="525" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:25" hidden="1">
       <c r="B525" s="11">
         <v>45979</v>
       </c>
@@ -7001,7 +7098,7 @@
       <c r="R525" s="13"/>
       <c r="Y525" s="13"/>
     </row>
-    <row r="526" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:25" hidden="1">
       <c r="B526" s="11">
         <v>45979</v>
       </c>
@@ -7011,7 +7108,7 @@
       <c r="R526" s="13"/>
       <c r="Y526" s="13"/>
     </row>
-    <row r="527" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:25" hidden="1">
       <c r="B527" s="11">
         <v>45979</v>
       </c>
@@ -7021,7 +7118,7 @@
       <c r="R527" s="13"/>
       <c r="Y527" s="13"/>
     </row>
-    <row r="528" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:25" hidden="1">
       <c r="B528" s="11">
         <v>45979</v>
       </c>
@@ -7031,7 +7128,7 @@
       <c r="R528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:25" hidden="1">
       <c r="B529" s="11">
         <v>45980</v>
       </c>
@@ -7041,7 +7138,7 @@
       <c r="R529" s="13"/>
       <c r="Y529" s="13"/>
     </row>
-    <row r="530" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:25" hidden="1">
       <c r="B530" s="11">
         <v>45980</v>
       </c>
@@ -7051,7 +7148,7 @@
       <c r="R530" s="13"/>
       <c r="Y530" s="13"/>
     </row>
-    <row r="531" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:25" hidden="1">
       <c r="B531" s="11">
         <v>45980</v>
       </c>
@@ -7061,7 +7158,7 @@
       <c r="R531" s="13"/>
       <c r="Y531" s="13"/>
     </row>
-    <row r="532" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:25" hidden="1">
       <c r="B532" s="11">
         <v>45980</v>
       </c>
@@ -7071,7 +7168,7 @@
       <c r="R532" s="13"/>
       <c r="Y532" s="13"/>
     </row>
-    <row r="533" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:25" hidden="1">
       <c r="B533" s="11">
         <v>45980</v>
       </c>
@@ -7081,7 +7178,7 @@
       <c r="R533" s="13"/>
       <c r="Y533" s="13"/>
     </row>
-    <row r="534" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:25" hidden="1">
       <c r="B534" s="11">
         <v>45980</v>
       </c>
@@ -7091,7 +7188,7 @@
       <c r="R534" s="13"/>
       <c r="Y534" s="13"/>
     </row>
-    <row r="535" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:25" hidden="1">
       <c r="B535" s="11">
         <v>45980</v>
       </c>
@@ -7101,7 +7198,7 @@
       <c r="R535" s="13"/>
       <c r="Y535" s="13"/>
     </row>
-    <row r="536" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:25" hidden="1">
       <c r="B536" s="11">
         <v>45981</v>
       </c>
@@ -7111,7 +7208,7 @@
       <c r="R536" s="13"/>
       <c r="Y536" s="13"/>
     </row>
-    <row r="537" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:25" hidden="1">
       <c r="B537" s="11">
         <v>45981</v>
       </c>
@@ -7121,7 +7218,7 @@
       <c r="R537" s="13"/>
       <c r="Y537" s="13"/>
     </row>
-    <row r="538" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:25" hidden="1">
       <c r="B538" s="11">
         <v>45981</v>
       </c>
@@ -7131,7 +7228,7 @@
       <c r="R538" s="13"/>
       <c r="Y538" s="13"/>
     </row>
-    <row r="539" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:25" hidden="1">
       <c r="B539" s="11">
         <v>45981</v>
       </c>
@@ -7141,7 +7238,7 @@
       <c r="R539" s="13"/>
       <c r="Y539" s="13"/>
     </row>
-    <row r="540" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:25" hidden="1">
       <c r="B540" s="11">
         <v>45981</v>
       </c>
@@ -7151,7 +7248,7 @@
       <c r="R540" s="13"/>
       <c r="Y540" s="13"/>
     </row>
-    <row r="541" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:25" hidden="1">
       <c r="B541" s="11">
         <v>45981</v>
       </c>
@@ -7161,7 +7258,7 @@
       <c r="R541" s="13"/>
       <c r="Y541" s="13"/>
     </row>
-    <row r="542" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:25" hidden="1">
       <c r="B542" s="11">
         <v>45981</v>
       </c>
@@ -7171,7 +7268,7 @@
       <c r="R542" s="13"/>
       <c r="Y542" s="13"/>
     </row>
-    <row r="543" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:25" hidden="1">
       <c r="B543" s="11">
         <v>45982</v>
       </c>
@@ -7181,7 +7278,7 @@
       <c r="R543" s="13"/>
       <c r="Y543" s="13"/>
     </row>
-    <row r="544" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:25" hidden="1">
       <c r="B544" s="11">
         <v>45982</v>
       </c>
@@ -7191,7 +7288,7 @@
       <c r="R544" s="13"/>
       <c r="Y544" s="13"/>
     </row>
-    <row r="545" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:25" hidden="1">
       <c r="B545" s="11">
         <v>45982</v>
       </c>
@@ -7201,7 +7298,7 @@
       <c r="R545" s="13"/>
       <c r="Y545" s="13"/>
     </row>
-    <row r="546" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:25" hidden="1">
       <c r="B546" s="11">
         <v>45982</v>
       </c>
@@ -7211,7 +7308,7 @@
       <c r="R546" s="13"/>
       <c r="Y546" s="13"/>
     </row>
-    <row r="547" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:25" hidden="1">
       <c r="B547" s="11">
         <v>45982</v>
       </c>
@@ -7221,7 +7318,7 @@
       <c r="R547" s="13"/>
       <c r="Y547" s="13"/>
     </row>
-    <row r="548" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:25" hidden="1">
       <c r="B548" s="11">
         <v>45982</v>
       </c>
@@ -7231,7 +7328,7 @@
       <c r="R548" s="13"/>
       <c r="Y548" s="13"/>
     </row>
-    <row r="549" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:25" hidden="1">
       <c r="B549" s="11">
         <v>45982</v>
       </c>
@@ -7241,7 +7338,7 @@
       <c r="R549" s="13"/>
       <c r="Y549" s="13"/>
     </row>
-    <row r="550" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:25" hidden="1">
       <c r="B550" s="11">
         <v>45983</v>
       </c>
@@ -7251,7 +7348,7 @@
       <c r="R550" s="13"/>
       <c r="Y550" s="13"/>
     </row>
-    <row r="551" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:25" hidden="1">
       <c r="B551" s="11">
         <v>45983</v>
       </c>
@@ -7261,7 +7358,7 @@
       <c r="R551" s="13"/>
       <c r="Y551" s="13"/>
     </row>
-    <row r="552" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:25" hidden="1">
       <c r="B552" s="11">
         <v>45983</v>
       </c>
@@ -7271,7 +7368,7 @@
       <c r="R552" s="13"/>
       <c r="Y552" s="13"/>
     </row>
-    <row r="553" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:25" hidden="1">
       <c r="B553" s="11">
         <v>45983</v>
       </c>
@@ -7281,7 +7378,7 @@
       <c r="R553" s="13"/>
       <c r="Y553" s="13"/>
     </row>
-    <row r="554" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:25" hidden="1">
       <c r="B554" s="11">
         <v>45983</v>
       </c>
@@ -7291,7 +7388,7 @@
       <c r="R554" s="13"/>
       <c r="Y554" s="13"/>
     </row>
-    <row r="555" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:25" hidden="1">
       <c r="B555" s="11">
         <v>45983</v>
       </c>
@@ -7301,7 +7398,7 @@
       <c r="R555" s="13"/>
       <c r="Y555" s="13"/>
     </row>
-    <row r="556" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:25" hidden="1">
       <c r="B556" s="11">
         <v>45983</v>
       </c>
@@ -7311,7 +7408,7 @@
       <c r="R556" s="13"/>
       <c r="Y556" s="13"/>
     </row>
-    <row r="557" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:25" hidden="1">
       <c r="B557" s="11">
         <v>45984</v>
       </c>
@@ -7321,7 +7418,7 @@
       <c r="R557" s="13"/>
       <c r="Y557" s="13"/>
     </row>
-    <row r="558" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:25" hidden="1">
       <c r="B558" s="11">
         <v>45984</v>
       </c>
@@ -7331,7 +7428,7 @@
       <c r="R558" s="13"/>
       <c r="Y558" s="13"/>
     </row>
-    <row r="559" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:25" hidden="1">
       <c r="B559" s="11">
         <v>45984</v>
       </c>
@@ -7341,7 +7438,7 @@
       <c r="R559" s="13"/>
       <c r="Y559" s="13"/>
     </row>
-    <row r="560" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:25" hidden="1">
       <c r="B560" s="11">
         <v>45984</v>
       </c>
@@ -7351,7 +7448,7 @@
       <c r="R560" s="13"/>
       <c r="Y560" s="13"/>
     </row>
-    <row r="561" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:25" hidden="1">
       <c r="B561" s="11">
         <v>45984</v>
       </c>
@@ -7361,7 +7458,7 @@
       <c r="R561" s="13"/>
       <c r="Y561" s="13"/>
     </row>
-    <row r="562" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:25" hidden="1">
       <c r="B562" s="11">
         <v>45984</v>
       </c>
@@ -7371,7 +7468,7 @@
       <c r="R562" s="13"/>
       <c r="Y562" s="13"/>
     </row>
-    <row r="563" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:25" hidden="1">
       <c r="B563" s="11">
         <v>45984</v>
       </c>
@@ -7381,7 +7478,7 @@
       <c r="R563" s="13"/>
       <c r="Y563" s="13"/>
     </row>
-    <row r="564" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:25" hidden="1">
       <c r="B564" s="11">
         <v>45985</v>
       </c>
@@ -7391,7 +7488,7 @@
       <c r="R564" s="13"/>
       <c r="Y564" s="13"/>
     </row>
-    <row r="565" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:25" hidden="1">
       <c r="B565" s="11">
         <v>45985</v>
       </c>
@@ -7401,7 +7498,7 @@
       <c r="R565" s="13"/>
       <c r="Y565" s="13"/>
     </row>
-    <row r="566" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:25" hidden="1">
       <c r="B566" s="11">
         <v>45985</v>
       </c>
@@ -7411,7 +7508,7 @@
       <c r="R566" s="13"/>
       <c r="Y566" s="13"/>
     </row>
-    <row r="567" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:25" hidden="1">
       <c r="B567" s="11">
         <v>45985</v>
       </c>
@@ -7421,7 +7518,7 @@
       <c r="R567" s="13"/>
       <c r="Y567" s="13"/>
     </row>
-    <row r="568" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:25" hidden="1">
       <c r="B568" s="11">
         <v>45985</v>
       </c>
@@ -7431,7 +7528,7 @@
       <c r="R568" s="13"/>
       <c r="Y568" s="13"/>
     </row>
-    <row r="569" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:25" hidden="1">
       <c r="B569" s="11">
         <v>45985</v>
       </c>
@@ -7441,7 +7538,7 @@
       <c r="R569" s="13"/>
       <c r="Y569" s="13"/>
     </row>
-    <row r="570" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:25" hidden="1">
       <c r="B570" s="11">
         <v>45985</v>
       </c>
@@ -7451,7 +7548,7 @@
       <c r="R570" s="13"/>
       <c r="Y570" s="13"/>
     </row>
-    <row r="571" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:25" hidden="1">
       <c r="B571" s="11">
         <v>45986</v>
       </c>
@@ -7461,7 +7558,7 @@
       <c r="R571" s="13"/>
       <c r="Y571" s="13"/>
     </row>
-    <row r="572" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:25" hidden="1">
       <c r="B572" s="11">
         <v>45986</v>
       </c>
@@ -7471,7 +7568,7 @@
       <c r="R572" s="13"/>
       <c r="Y572" s="13"/>
     </row>
-    <row r="573" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:25" hidden="1">
       <c r="B573" s="11">
         <v>45986</v>
       </c>
@@ -7481,7 +7578,7 @@
       <c r="R573" s="13"/>
       <c r="Y573" s="13"/>
     </row>
-    <row r="574" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:25" hidden="1">
       <c r="B574" s="11">
         <v>45986</v>
       </c>
@@ -7491,7 +7588,7 @@
       <c r="R574" s="13"/>
       <c r="Y574" s="13"/>
     </row>
-    <row r="575" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:25" hidden="1">
       <c r="B575" s="11">
         <v>45986</v>
       </c>
@@ -7501,7 +7598,7 @@
       <c r="R575" s="13"/>
       <c r="Y575" s="13"/>
     </row>
-    <row r="576" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:25" hidden="1">
       <c r="B576" s="11">
         <v>45986</v>
       </c>
@@ -7511,7 +7608,7 @@
       <c r="R576" s="13"/>
       <c r="Y576" s="13"/>
     </row>
-    <row r="577" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:25" hidden="1">
       <c r="B577" s="11">
         <v>45986</v>
       </c>
@@ -7521,7 +7618,7 @@
       <c r="R577" s="13"/>
       <c r="Y577" s="13"/>
     </row>
-    <row r="578" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:25" hidden="1">
       <c r="B578" s="11">
         <v>45987</v>
       </c>
@@ -7531,7 +7628,7 @@
       <c r="R578" s="13"/>
       <c r="Y578" s="13"/>
     </row>
-    <row r="579" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:25" hidden="1">
       <c r="B579" s="11">
         <v>45987</v>
       </c>
@@ -7541,7 +7638,7 @@
       <c r="R579" s="13"/>
       <c r="Y579" s="13"/>
     </row>
-    <row r="580" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:25" hidden="1">
       <c r="B580" s="11">
         <v>45987</v>
       </c>
@@ -7551,7 +7648,7 @@
       <c r="R580" s="13"/>
       <c r="Y580" s="13"/>
     </row>
-    <row r="581" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:25" hidden="1">
       <c r="B581" s="11">
         <v>45987</v>
       </c>
@@ -7561,7 +7658,7 @@
       <c r="R581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:25" hidden="1">
       <c r="B582" s="11">
         <v>45987</v>
       </c>
@@ -7571,7 +7668,7 @@
       <c r="R582" s="13"/>
       <c r="Y582" s="13"/>
     </row>
-    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:25" hidden="1">
       <c r="B583" s="11">
         <v>45987</v>
       </c>
@@ -7581,7 +7678,7 @@
       <c r="R583" s="13"/>
       <c r="Y583" s="13"/>
     </row>
-    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:25" hidden="1">
       <c r="B584" s="11">
         <v>45987</v>
       </c>
@@ -7591,7 +7688,7 @@
       <c r="R584" s="13"/>
       <c r="Y584" s="13"/>
     </row>
-    <row r="585" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:25" hidden="1">
       <c r="B585" s="11">
         <v>45988</v>
       </c>
@@ -7601,7 +7698,7 @@
       <c r="R585" s="13"/>
       <c r="Y585" s="13"/>
     </row>
-    <row r="586" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:25" hidden="1">
       <c r="B586" s="11">
         <v>45988</v>
       </c>
@@ -7611,7 +7708,7 @@
       <c r="R586" s="13"/>
       <c r="Y586" s="13"/>
     </row>
-    <row r="587" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:25" hidden="1">
       <c r="B587" s="11">
         <v>45988</v>
       </c>
@@ -7621,7 +7718,7 @@
       <c r="R587" s="13"/>
       <c r="Y587" s="13"/>
     </row>
-    <row r="588" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:25" hidden="1">
       <c r="B588" s="11">
         <v>45988</v>
       </c>
@@ -7631,7 +7728,7 @@
       <c r="R588" s="13"/>
       <c r="Y588" s="13"/>
     </row>
-    <row r="589" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:25" hidden="1">
       <c r="B589" s="11">
         <v>45988</v>
       </c>
@@ -7641,7 +7738,7 @@
       <c r="R589" s="13"/>
       <c r="Y589" s="13"/>
     </row>
-    <row r="590" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:25" hidden="1">
       <c r="B590" s="11">
         <v>45988</v>
       </c>
@@ -7651,7 +7748,7 @@
       <c r="R590" s="13"/>
       <c r="Y590" s="13"/>
     </row>
-    <row r="591" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:25" hidden="1">
       <c r="B591" s="11">
         <v>45988</v>
       </c>
@@ -7661,7 +7758,7 @@
       <c r="R591" s="13"/>
       <c r="Y591" s="13"/>
     </row>
-    <row r="592" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:25" hidden="1">
       <c r="B592" s="11">
         <v>45989</v>
       </c>
@@ -7671,7 +7768,7 @@
       <c r="R592" s="13"/>
       <c r="Y592" s="13"/>
     </row>
-    <row r="593" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:25" hidden="1">
       <c r="B593" s="11">
         <v>45989</v>
       </c>
@@ -7681,7 +7778,7 @@
       <c r="R593" s="13"/>
       <c r="Y593" s="13"/>
     </row>
-    <row r="594" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:25" hidden="1">
       <c r="B594" s="11">
         <v>45989</v>
       </c>
@@ -7691,7 +7788,7 @@
       <c r="R594" s="13"/>
       <c r="Y594" s="13"/>
     </row>
-    <row r="595" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:25" hidden="1">
       <c r="B595" s="11">
         <v>45989</v>
       </c>
@@ -7701,7 +7798,7 @@
       <c r="R595" s="13"/>
       <c r="Y595" s="13"/>
     </row>
-    <row r="596" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:25" hidden="1">
       <c r="B596" s="11">
         <v>45989</v>
       </c>
@@ -7711,7 +7808,7 @@
       <c r="R596" s="13"/>
       <c r="Y596" s="13"/>
     </row>
-    <row r="597" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:25" hidden="1">
       <c r="B597" s="11">
         <v>45989</v>
       </c>
@@ -7721,7 +7818,7 @@
       <c r="R597" s="13"/>
       <c r="Y597" s="13"/>
     </row>
-    <row r="598" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:25" hidden="1">
       <c r="B598" s="11">
         <v>45989</v>
       </c>
@@ -7731,7 +7828,7 @@
       <c r="R598" s="13"/>
       <c r="Y598" s="13"/>
     </row>
-    <row r="599" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:25" hidden="1">
       <c r="B599" s="11">
         <v>45990</v>
       </c>
@@ -7741,7 +7838,7 @@
       <c r="R599" s="13"/>
       <c r="Y599" s="13"/>
     </row>
-    <row r="600" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:25" hidden="1">
       <c r="B600" s="11">
         <v>45990</v>
       </c>
@@ -7751,7 +7848,7 @@
       <c r="R600" s="13"/>
       <c r="Y600" s="13"/>
     </row>
-    <row r="601" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:25" hidden="1">
       <c r="B601" s="11">
         <v>45990</v>
       </c>
@@ -7761,7 +7858,7 @@
       <c r="R601" s="13"/>
       <c r="Y601" s="13"/>
     </row>
-    <row r="602" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:25" hidden="1">
       <c r="B602" s="11">
         <v>45990</v>
       </c>
@@ -7771,7 +7868,7 @@
       <c r="R602" s="13"/>
       <c r="Y602" s="13"/>
     </row>
-    <row r="603" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:25" hidden="1">
       <c r="B603" s="11">
         <v>45990</v>
       </c>
@@ -7781,7 +7878,7 @@
       <c r="R603" s="13"/>
       <c r="Y603" s="13"/>
     </row>
-    <row r="604" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:25" hidden="1">
       <c r="B604" s="11">
         <v>45990</v>
       </c>
@@ -7791,7 +7888,7 @@
       <c r="R604" s="13"/>
       <c r="Y604" s="13"/>
     </row>
-    <row r="605" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:25" hidden="1">
       <c r="B605" s="11">
         <v>45990</v>
       </c>
@@ -7801,7 +7898,7 @@
       <c r="R605" s="13"/>
       <c r="Y605" s="13"/>
     </row>
-    <row r="606" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:25" hidden="1">
       <c r="B606" s="11">
         <v>45991</v>
       </c>
@@ -7811,7 +7908,7 @@
       <c r="R606" s="13"/>
       <c r="Y606" s="13"/>
     </row>
-    <row r="607" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:25" hidden="1">
       <c r="B607" s="11">
         <v>45991</v>
       </c>
@@ -7821,7 +7918,7 @@
       <c r="R607" s="13"/>
       <c r="Y607" s="13"/>
     </row>
-    <row r="608" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:25" hidden="1">
       <c r="B608" s="11">
         <v>45991</v>
       </c>
@@ -7831,7 +7928,7 @@
       <c r="R608" s="13"/>
       <c r="Y608" s="13"/>
     </row>
-    <row r="609" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:25" hidden="1">
       <c r="B609" s="11">
         <v>45991</v>
       </c>
@@ -7841,7 +7938,7 @@
       <c r="R609" s="13"/>
       <c r="Y609" s="13"/>
     </row>
-    <row r="610" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:25" hidden="1">
       <c r="B610" s="11">
         <v>45991</v>
       </c>
@@ -7851,7 +7948,7 @@
       <c r="R610" s="13"/>
       <c r="Y610" s="13"/>
     </row>
-    <row r="611" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:25" hidden="1">
       <c r="B611" s="11">
         <v>45991</v>
       </c>
@@ -7861,7 +7958,7 @@
       <c r="R611" s="13"/>
       <c r="Y611" s="13"/>
     </row>
-    <row r="612" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:25" hidden="1">
       <c r="B612" s="11">
         <v>45991</v>
       </c>
@@ -7871,7 +7968,7 @@
       <c r="R612" s="13"/>
       <c r="Y612" s="13"/>
     </row>
-    <row r="613" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:25" hidden="1">
       <c r="B613" s="11">
         <v>45992</v>
       </c>
@@ -7881,7 +7978,7 @@
       <c r="R613" s="13"/>
       <c r="Y613" s="13"/>
     </row>
-    <row r="614" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:25" hidden="1">
       <c r="B614" s="11">
         <v>45992</v>
       </c>
@@ -7891,7 +7988,7 @@
       <c r="R614" s="13"/>
       <c r="Y614" s="13"/>
     </row>
-    <row r="615" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:25" hidden="1">
       <c r="B615" s="11">
         <v>45992</v>
       </c>
@@ -7901,7 +7998,7 @@
       <c r="R615" s="13"/>
       <c r="Y615" s="13"/>
     </row>
-    <row r="616" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:25" hidden="1">
       <c r="B616" s="11">
         <v>45992</v>
       </c>
@@ -7911,7 +8008,7 @@
       <c r="R616" s="13"/>
       <c r="Y616" s="13"/>
     </row>
-    <row r="617" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:25" hidden="1">
       <c r="B617" s="11">
         <v>45992</v>
       </c>
@@ -7921,7 +8018,7 @@
       <c r="R617" s="13"/>
       <c r="Y617" s="13"/>
     </row>
-    <row r="618" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:25" hidden="1">
       <c r="B618" s="11">
         <v>45992</v>
       </c>
@@ -7931,7 +8028,7 @@
       <c r="R618" s="13"/>
       <c r="Y618" s="13"/>
     </row>
-    <row r="619" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:25" hidden="1">
       <c r="B619" s="11">
         <v>45992</v>
       </c>
@@ -7941,7 +8038,7 @@
       <c r="R619" s="13"/>
       <c r="Y619" s="13"/>
     </row>
-    <row r="620" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:25" hidden="1">
       <c r="B620" s="11">
         <v>45993</v>
       </c>
@@ -7951,7 +8048,7 @@
       <c r="R620" s="13"/>
       <c r="Y620" s="13"/>
     </row>
-    <row r="621" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:25" hidden="1">
       <c r="B621" s="11">
         <v>45993</v>
       </c>
@@ -7961,7 +8058,7 @@
       <c r="R621" s="13"/>
       <c r="Y621" s="13"/>
     </row>
-    <row r="622" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:25" hidden="1">
       <c r="B622" s="11">
         <v>45993</v>
       </c>
@@ -7971,7 +8068,7 @@
       <c r="R622" s="13"/>
       <c r="Y622" s="13"/>
     </row>
-    <row r="623" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:25" hidden="1">
       <c r="B623" s="11">
         <v>45993</v>
       </c>
@@ -7981,7 +8078,7 @@
       <c r="R623" s="13"/>
       <c r="Y623" s="13"/>
     </row>
-    <row r="624" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:25" hidden="1">
       <c r="B624" s="11">
         <v>45993</v>
       </c>
@@ -7991,7 +8088,7 @@
       <c r="R624" s="13"/>
       <c r="Y624" s="13"/>
     </row>
-    <row r="625" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:25" hidden="1">
       <c r="B625" s="11">
         <v>45993</v>
       </c>
@@ -8001,7 +8098,7 @@
       <c r="R625" s="13"/>
       <c r="Y625" s="13"/>
     </row>
-    <row r="626" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:25" hidden="1">
       <c r="B626" s="11">
         <v>45993</v>
       </c>
@@ -8011,7 +8108,7 @@
       <c r="R626" s="13"/>
       <c r="Y626" s="13"/>
     </row>
-    <row r="627" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:25" hidden="1">
       <c r="B627" s="11">
         <v>45994</v>
       </c>
@@ -8021,7 +8118,7 @@
       <c r="R627" s="13"/>
       <c r="Y627" s="13"/>
     </row>
-    <row r="628" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:25" hidden="1">
       <c r="B628" s="11">
         <v>45994</v>
       </c>
@@ -8031,7 +8128,7 @@
       <c r="R628" s="13"/>
       <c r="Y628" s="13"/>
     </row>
-    <row r="629" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:25" hidden="1">
       <c r="B629" s="11">
         <v>45994</v>
       </c>
@@ -8041,7 +8138,7 @@
       <c r="R629" s="13"/>
       <c r="Y629" s="13"/>
     </row>
-    <row r="630" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:25" hidden="1">
       <c r="B630" s="11">
         <v>45994</v>
       </c>
@@ -8051,7 +8148,7 @@
       <c r="R630" s="13"/>
       <c r="Y630" s="13"/>
     </row>
-    <row r="631" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:25" hidden="1">
       <c r="B631" s="11">
         <v>45994</v>
       </c>
@@ -8061,7 +8158,7 @@
       <c r="R631" s="13"/>
       <c r="Y631" s="13"/>
     </row>
-    <row r="632" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:25" hidden="1">
       <c r="B632" s="11">
         <v>45994</v>
       </c>
@@ -8071,7 +8168,7 @@
       <c r="R632" s="13"/>
       <c r="Y632" s="13"/>
     </row>
-    <row r="633" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:25" hidden="1">
       <c r="B633" s="11">
         <v>45994</v>
       </c>
@@ -8081,7 +8178,7 @@
       <c r="R633" s="13"/>
       <c r="Y633" s="13"/>
     </row>
-    <row r="634" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:25" hidden="1">
       <c r="B634" s="11">
         <v>45995</v>
       </c>
@@ -8091,7 +8188,7 @@
       <c r="R634" s="13"/>
       <c r="Y634" s="13"/>
     </row>
-    <row r="635" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:25" hidden="1">
       <c r="B635" s="11">
         <v>45995</v>
       </c>
@@ -8101,7 +8198,7 @@
       <c r="R635" s="13"/>
       <c r="Y635" s="13"/>
     </row>
-    <row r="636" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:25" hidden="1">
       <c r="B636" s="11">
         <v>45995</v>
       </c>
@@ -8111,7 +8208,7 @@
       <c r="R636" s="13"/>
       <c r="Y636" s="13"/>
     </row>
-    <row r="637" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:25" hidden="1">
       <c r="B637" s="11">
         <v>45995</v>
       </c>
@@ -8121,7 +8218,7 @@
       <c r="R637" s="13"/>
       <c r="Y637" s="13"/>
     </row>
-    <row r="638" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:25" hidden="1">
       <c r="B638" s="11">
         <v>45995</v>
       </c>
@@ -8131,7 +8228,7 @@
       <c r="R638" s="13"/>
       <c r="Y638" s="13"/>
     </row>
-    <row r="639" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:25" hidden="1">
       <c r="B639" s="11">
         <v>45995</v>
       </c>
@@ -8141,7 +8238,7 @@
       <c r="R639" s="13"/>
       <c r="Y639" s="13"/>
     </row>
-    <row r="640" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:25" hidden="1">
       <c r="B640" s="11">
         <v>45995</v>
       </c>
@@ -8151,7 +8248,7 @@
       <c r="R640" s="13"/>
       <c r="Y640" s="13"/>
     </row>
-    <row r="641" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:25" hidden="1">
       <c r="B641" s="11">
         <v>45996</v>
       </c>
@@ -8161,7 +8258,7 @@
       <c r="R641" s="13"/>
       <c r="Y641" s="13"/>
     </row>
-    <row r="642" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:25" hidden="1">
       <c r="B642" s="11">
         <v>45996</v>
       </c>
@@ -8171,7 +8268,7 @@
       <c r="R642" s="13"/>
       <c r="Y642" s="13"/>
     </row>
-    <row r="643" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:25" hidden="1">
       <c r="B643" s="11">
         <v>45996</v>
       </c>
@@ -8181,7 +8278,7 @@
       <c r="R643" s="13"/>
       <c r="Y643" s="13"/>
     </row>
-    <row r="644" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:25" hidden="1">
       <c r="B644" s="11">
         <v>45996</v>
       </c>
@@ -8191,7 +8288,7 @@
       <c r="R644" s="13"/>
       <c r="Y644" s="13"/>
     </row>
-    <row r="645" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:25" hidden="1">
       <c r="B645" s="11">
         <v>45996</v>
       </c>
@@ -8201,7 +8298,7 @@
       <c r="R645" s="13"/>
       <c r="Y645" s="13"/>
     </row>
-    <row r="646" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:25" hidden="1">
       <c r="B646" s="11">
         <v>45996</v>
       </c>
@@ -8211,7 +8308,7 @@
       <c r="R646" s="13"/>
       <c r="Y646" s="13"/>
     </row>
-    <row r="647" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:25" hidden="1">
       <c r="B647" s="11">
         <v>45996</v>
       </c>
@@ -8221,7 +8318,7 @@
       <c r="R647" s="13"/>
       <c r="Y647" s="13"/>
     </row>
-    <row r="648" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:25" hidden="1">
       <c r="B648" s="11">
         <v>45997</v>
       </c>
@@ -8231,7 +8328,7 @@
       <c r="R648" s="13"/>
       <c r="Y648" s="13"/>
     </row>
-    <row r="649" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:25" hidden="1">
       <c r="B649" s="11">
         <v>45997</v>
       </c>
@@ -8241,7 +8338,7 @@
       <c r="R649" s="13"/>
       <c r="Y649" s="13"/>
     </row>
-    <row r="650" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:25" hidden="1">
       <c r="B650" s="11">
         <v>45997</v>
       </c>
@@ -8251,7 +8348,7 @@
       <c r="R650" s="13"/>
       <c r="Y650" s="13"/>
     </row>
-    <row r="651" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:25" hidden="1">
       <c r="B651" s="11">
         <v>45997</v>
       </c>
@@ -8261,7 +8358,7 @@
       <c r="R651" s="13"/>
       <c r="Y651" s="13"/>
     </row>
-    <row r="652" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:25" hidden="1">
       <c r="B652" s="11">
         <v>45997</v>
       </c>
@@ -8271,7 +8368,7 @@
       <c r="R652" s="13"/>
       <c r="Y652" s="13"/>
     </row>
-    <row r="653" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:25" hidden="1">
       <c r="B653" s="11">
         <v>45997</v>
       </c>
@@ -8281,7 +8378,7 @@
       <c r="R653" s="13"/>
       <c r="Y653" s="13"/>
     </row>
-    <row r="654" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:25" hidden="1">
       <c r="B654" s="11">
         <v>45997</v>
       </c>
@@ -8291,7 +8388,7 @@
       <c r="R654" s="13"/>
       <c r="Y654" s="13"/>
     </row>
-    <row r="655" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:25" hidden="1">
       <c r="B655" s="11">
         <v>45998</v>
       </c>
@@ -8301,7 +8398,7 @@
       <c r="R655" s="13"/>
       <c r="Y655" s="13"/>
     </row>
-    <row r="656" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:25" hidden="1">
       <c r="B656" s="11">
         <v>45998</v>
       </c>
@@ -8311,7 +8408,7 @@
       <c r="R656" s="13"/>
       <c r="Y656" s="13"/>
     </row>
-    <row r="657" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:25" hidden="1">
       <c r="B657" s="11">
         <v>45998</v>
       </c>
@@ -8321,7 +8418,7 @@
       <c r="R657" s="13"/>
       <c r="Y657" s="13"/>
     </row>
-    <row r="658" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:25" hidden="1">
       <c r="B658" s="11">
         <v>45998</v>
       </c>
@@ -8331,7 +8428,7 @@
       <c r="R658" s="13"/>
       <c r="Y658" s="13"/>
     </row>
-    <row r="659" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:25" hidden="1">
       <c r="B659" s="11">
         <v>45998</v>
       </c>
@@ -8341,7 +8438,7 @@
       <c r="R659" s="13"/>
       <c r="Y659" s="13"/>
     </row>
-    <row r="660" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:25" hidden="1">
       <c r="B660" s="11">
         <v>45998</v>
       </c>
@@ -8351,7 +8448,7 @@
       <c r="R660" s="13"/>
       <c r="Y660" s="13"/>
     </row>
-    <row r="661" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:25" hidden="1">
       <c r="B661" s="11">
         <v>45998</v>
       </c>
@@ -8361,7 +8458,7 @@
       <c r="R661" s="13"/>
       <c r="Y661" s="13"/>
     </row>
-    <row r="662" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:25" hidden="1">
       <c r="B662" s="11">
         <v>45999</v>
       </c>
@@ -8371,7 +8468,7 @@
       <c r="R662" s="13"/>
       <c r="Y662" s="13"/>
     </row>
-    <row r="663" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:25" hidden="1">
       <c r="B663" s="11">
         <v>45999</v>
       </c>
@@ -8381,7 +8478,7 @@
       <c r="R663" s="13"/>
       <c r="Y663" s="13"/>
     </row>
-    <row r="664" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:25" hidden="1">
       <c r="B664" s="11">
         <v>45999</v>
       </c>
@@ -8391,7 +8488,7 @@
       <c r="R664" s="13"/>
       <c r="Y664" s="13"/>
     </row>
-    <row r="665" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:25" hidden="1">
       <c r="B665" s="11">
         <v>45999</v>
       </c>
@@ -8401,7 +8498,7 @@
       <c r="R665" s="13"/>
       <c r="Y665" s="13"/>
     </row>
-    <row r="666" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:25" hidden="1">
       <c r="B666" s="11">
         <v>45999</v>
       </c>
@@ -8411,7 +8508,7 @@
       <c r="R666" s="13"/>
       <c r="Y666" s="13"/>
     </row>
-    <row r="667" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:25" hidden="1">
       <c r="B667" s="11">
         <v>45999</v>
       </c>
@@ -8421,7 +8518,7 @@
       <c r="R667" s="13"/>
       <c r="Y667" s="13"/>
     </row>
-    <row r="668" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:25" hidden="1">
       <c r="B668" s="11">
         <v>45999</v>
       </c>
@@ -8431,7 +8528,7 @@
       <c r="R668" s="13"/>
       <c r="Y668" s="13"/>
     </row>
-    <row r="669" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:25" hidden="1">
       <c r="B669" s="11">
         <v>46000</v>
       </c>
@@ -8441,7 +8538,7 @@
       <c r="R669" s="13"/>
       <c r="Y669" s="13"/>
     </row>
-    <row r="670" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:25" hidden="1">
       <c r="B670" s="11">
         <v>46000</v>
       </c>
@@ -8451,7 +8548,7 @@
       <c r="R670" s="13"/>
       <c r="Y670" s="13"/>
     </row>
-    <row r="671" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:25" hidden="1">
       <c r="B671" s="11">
         <v>46000</v>
       </c>
@@ -8461,7 +8558,7 @@
       <c r="R671" s="13"/>
       <c r="Y671" s="13"/>
     </row>
-    <row r="672" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:25" hidden="1">
       <c r="B672" s="11">
         <v>46000</v>
       </c>
@@ -8471,7 +8568,7 @@
       <c r="R672" s="13"/>
       <c r="Y672" s="13"/>
     </row>
-    <row r="673" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:25" hidden="1">
       <c r="B673" s="11">
         <v>46000</v>
       </c>
@@ -8481,7 +8578,7 @@
       <c r="R673" s="13"/>
       <c r="Y673" s="13"/>
     </row>
-    <row r="674" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:25" hidden="1">
       <c r="B674" s="11">
         <v>46000</v>
       </c>
@@ -8491,7 +8588,7 @@
       <c r="R674" s="13"/>
       <c r="Y674" s="13"/>
     </row>
-    <row r="675" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:25" hidden="1">
       <c r="B675" s="11">
         <v>46000</v>
       </c>
@@ -8501,7 +8598,7 @@
       <c r="R675" s="13"/>
       <c r="Y675" s="13"/>
     </row>
-    <row r="676" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:25" hidden="1">
       <c r="B676" s="11">
         <v>46001</v>
       </c>
@@ -8511,7 +8608,7 @@
       <c r="R676" s="13"/>
       <c r="Y676" s="13"/>
     </row>
-    <row r="677" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:25" hidden="1">
       <c r="B677" s="11">
         <v>46001</v>
       </c>
@@ -8521,7 +8618,7 @@
       <c r="R677" s="13"/>
       <c r="Y677" s="13"/>
     </row>
-    <row r="678" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:25" hidden="1">
       <c r="B678" s="11">
         <v>46001</v>
       </c>
@@ -8531,7 +8628,7 @@
       <c r="R678" s="13"/>
       <c r="Y678" s="13"/>
     </row>
-    <row r="679" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:25" hidden="1">
       <c r="B679" s="11">
         <v>46001</v>
       </c>
@@ -8541,7 +8638,7 @@
       <c r="R679" s="13"/>
       <c r="Y679" s="13"/>
     </row>
-    <row r="680" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:25" hidden="1">
       <c r="B680" s="11">
         <v>46001</v>
       </c>
@@ -8551,7 +8648,7 @@
       <c r="R680" s="13"/>
       <c r="Y680" s="13"/>
     </row>
-    <row r="681" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:25" hidden="1">
       <c r="B681" s="11">
         <v>46001</v>
       </c>
@@ -8561,7 +8658,7 @@
       <c r="R681" s="13"/>
       <c r="Y681" s="13"/>
     </row>
-    <row r="682" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:25" hidden="1">
       <c r="B682" s="11">
         <v>46001</v>
       </c>
@@ -8571,7 +8668,7 @@
       <c r="R682" s="13"/>
       <c r="Y682" s="13"/>
     </row>
-    <row r="683" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:25" hidden="1">
       <c r="B683" s="11">
         <v>46002</v>
       </c>
@@ -8581,7 +8678,7 @@
       <c r="R683" s="13"/>
       <c r="Y683" s="13"/>
     </row>
-    <row r="684" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:25" hidden="1">
       <c r="B684" s="11">
         <v>46002</v>
       </c>
@@ -8591,7 +8688,7 @@
       <c r="R684" s="13"/>
       <c r="Y684" s="13"/>
     </row>
-    <row r="685" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:25" hidden="1">
       <c r="B685" s="11">
         <v>46002</v>
       </c>
@@ -8601,7 +8698,7 @@
       <c r="R685" s="13"/>
       <c r="Y685" s="13"/>
     </row>
-    <row r="686" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:25" hidden="1">
       <c r="B686" s="11">
         <v>46002</v>
       </c>
@@ -8611,7 +8708,7 @@
       <c r="R686" s="13"/>
       <c r="Y686" s="13"/>
     </row>
-    <row r="687" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:25" hidden="1">
       <c r="B687" s="11">
         <v>46002</v>
       </c>
@@ -8621,7 +8718,7 @@
       <c r="R687" s="13"/>
       <c r="Y687" s="13"/>
     </row>
-    <row r="688" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:25" hidden="1">
       <c r="B688" s="11">
         <v>46002</v>
       </c>
@@ -8631,7 +8728,7 @@
       <c r="R688" s="13"/>
       <c r="Y688" s="13"/>
     </row>
-    <row r="689" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:25" hidden="1">
       <c r="B689" s="11">
         <v>46002</v>
       </c>
@@ -8641,7 +8738,7 @@
       <c r="R689" s="13"/>
       <c r="Y689" s="13"/>
     </row>
-    <row r="690" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:25" hidden="1">
       <c r="B690" s="11">
         <v>46003</v>
       </c>
@@ -8651,7 +8748,7 @@
       <c r="R690" s="13"/>
       <c r="Y690" s="13"/>
     </row>
-    <row r="691" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:25" hidden="1">
       <c r="B691" s="11">
         <v>46003</v>
       </c>
@@ -8661,7 +8758,7 @@
       <c r="R691" s="13"/>
       <c r="Y691" s="13"/>
     </row>
-    <row r="692" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:25" hidden="1">
       <c r="B692" s="11">
         <v>46003</v>
       </c>
@@ -8671,7 +8768,7 @@
       <c r="R692" s="13"/>
       <c r="Y692" s="13"/>
     </row>
-    <row r="693" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:25" hidden="1">
       <c r="B693" s="11">
         <v>46003</v>
       </c>
@@ -8681,7 +8778,7 @@
       <c r="R693" s="13"/>
       <c r="Y693" s="13"/>
     </row>
-    <row r="694" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:25" hidden="1">
       <c r="B694" s="11">
         <v>46003</v>
       </c>
@@ -8691,7 +8788,7 @@
       <c r="R694" s="13"/>
       <c r="Y694" s="13"/>
     </row>
-    <row r="695" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:25" hidden="1">
       <c r="B695" s="11">
         <v>46003</v>
       </c>
@@ -8701,7 +8798,7 @@
       <c r="R695" s="13"/>
       <c r="Y695" s="13"/>
     </row>
-    <row r="696" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:25" hidden="1">
       <c r="B696" s="11">
         <v>46003</v>
       </c>
@@ -8711,7 +8808,7 @@
       <c r="R696" s="13"/>
       <c r="Y696" s="13"/>
     </row>
-    <row r="697" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:25" hidden="1">
       <c r="B697" s="11">
         <v>46004</v>
       </c>
@@ -8721,7 +8818,7 @@
       <c r="R697" s="13"/>
       <c r="Y697" s="13"/>
     </row>
-    <row r="698" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:25" hidden="1">
       <c r="B698" s="11">
         <v>46004</v>
       </c>
@@ -8731,7 +8828,7 @@
       <c r="R698" s="13"/>
       <c r="Y698" s="13"/>
     </row>
-    <row r="699" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:25" hidden="1">
       <c r="B699" s="11">
         <v>46004</v>
       </c>
@@ -8741,7 +8838,7 @@
       <c r="R699" s="13"/>
       <c r="Y699" s="13"/>
     </row>
-    <row r="700" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:25" hidden="1">
       <c r="B700" s="11">
         <v>46004</v>
       </c>
@@ -8751,7 +8848,7 @@
       <c r="R700" s="13"/>
       <c r="Y700" s="13"/>
     </row>
-    <row r="701" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:25" hidden="1">
       <c r="B701" s="11">
         <v>46004</v>
       </c>
@@ -8761,7 +8858,7 @@
       <c r="R701" s="13"/>
       <c r="Y701" s="13"/>
     </row>
-    <row r="702" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:25" hidden="1">
       <c r="B702" s="11">
         <v>46004</v>
       </c>
@@ -8771,7 +8868,7 @@
       <c r="R702" s="13"/>
       <c r="Y702" s="13"/>
     </row>
-    <row r="703" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:25" hidden="1">
       <c r="B703" s="11">
         <v>46004</v>
       </c>
@@ -8781,7 +8878,7 @@
       <c r="R703" s="13"/>
       <c r="Y703" s="13"/>
     </row>
-    <row r="704" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:25" hidden="1">
       <c r="B704" s="11">
         <v>46005</v>
       </c>
@@ -8791,7 +8888,7 @@
       <c r="R704" s="13"/>
       <c r="Y704" s="13"/>
     </row>
-    <row r="705" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:25" hidden="1">
       <c r="B705" s="11">
         <v>46005</v>
       </c>
@@ -8801,7 +8898,7 @@
       <c r="R705" s="13"/>
       <c r="Y705" s="13"/>
     </row>
-    <row r="706" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:25" hidden="1">
       <c r="B706" s="11">
         <v>46005</v>
       </c>
@@ -8811,7 +8908,7 @@
       <c r="R706" s="13"/>
       <c r="Y706" s="13"/>
     </row>
-    <row r="707" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:25" hidden="1">
       <c r="B707" s="11">
         <v>46005</v>
       </c>
@@ -8821,7 +8918,7 @@
       <c r="R707" s="13"/>
       <c r="Y707" s="13"/>
     </row>
-    <row r="708" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:25" hidden="1">
       <c r="B708" s="11">
         <v>46005</v>
       </c>
@@ -8831,7 +8928,7 @@
       <c r="R708" s="13"/>
       <c r="Y708" s="13"/>
     </row>
-    <row r="709" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:25" hidden="1">
       <c r="B709" s="11">
         <v>46005</v>
       </c>
@@ -8841,7 +8938,7 @@
       <c r="R709" s="13"/>
       <c r="Y709" s="13"/>
     </row>
-    <row r="710" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:25" hidden="1">
       <c r="B710" s="11">
         <v>46005</v>
       </c>
@@ -8851,7 +8948,7 @@
       <c r="R710" s="13"/>
       <c r="Y710" s="13"/>
     </row>
-    <row r="711" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:25" hidden="1">
       <c r="B711" s="11">
         <v>46006</v>
       </c>
@@ -8861,7 +8958,7 @@
       <c r="R711" s="13"/>
       <c r="Y711" s="13"/>
     </row>
-    <row r="712" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:25" hidden="1">
       <c r="B712" s="11">
         <v>46006</v>
       </c>
@@ -8871,7 +8968,7 @@
       <c r="R712" s="13"/>
       <c r="Y712" s="13"/>
     </row>
-    <row r="713" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:25" hidden="1">
       <c r="B713" s="11">
         <v>46006</v>
       </c>
@@ -8881,7 +8978,7 @@
       <c r="R713" s="13"/>
       <c r="Y713" s="13"/>
     </row>
-    <row r="714" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:25" hidden="1">
       <c r="B714" s="11">
         <v>46006</v>
       </c>
@@ -8891,7 +8988,7 @@
       <c r="R714" s="13"/>
       <c r="Y714" s="13"/>
     </row>
-    <row r="715" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:25" hidden="1">
       <c r="B715" s="11">
         <v>46006</v>
       </c>
@@ -8901,7 +8998,7 @@
       <c r="R715" s="13"/>
       <c r="Y715" s="13"/>
     </row>
-    <row r="716" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:25" hidden="1">
       <c r="B716" s="11">
         <v>46006</v>
       </c>
@@ -8911,7 +9008,7 @@
       <c r="R716" s="13"/>
       <c r="Y716" s="13"/>
     </row>
-    <row r="717" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:25" hidden="1">
       <c r="B717" s="11">
         <v>46006</v>
       </c>
@@ -8921,7 +9018,7 @@
       <c r="R717" s="13"/>
       <c r="Y717" s="13"/>
     </row>
-    <row r="718" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:25" hidden="1">
       <c r="B718" s="11">
         <v>46007</v>
       </c>
@@ -8931,7 +9028,7 @@
       <c r="R718" s="13"/>
       <c r="Y718" s="13"/>
     </row>
-    <row r="719" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:25" hidden="1">
       <c r="B719" s="11">
         <v>46007</v>
       </c>
@@ -8941,7 +9038,7 @@
       <c r="R719" s="13"/>
       <c r="Y719" s="13"/>
     </row>
-    <row r="720" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:25" hidden="1">
       <c r="B720" s="11">
         <v>46007</v>
       </c>
@@ -8951,7 +9048,7 @@
       <c r="R720" s="13"/>
       <c r="Y720" s="13"/>
     </row>
-    <row r="721" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:25" hidden="1">
       <c r="B721" s="11">
         <v>46007</v>
       </c>
@@ -8961,7 +9058,7 @@
       <c r="R721" s="13"/>
       <c r="Y721" s="13"/>
     </row>
-    <row r="722" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:25" hidden="1">
       <c r="B722" s="11">
         <v>46007</v>
       </c>
@@ -8971,7 +9068,7 @@
       <c r="R722" s="13"/>
       <c r="Y722" s="13"/>
     </row>
-    <row r="723" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:25" hidden="1">
       <c r="B723" s="11">
         <v>46007</v>
       </c>
@@ -8981,7 +9078,7 @@
       <c r="R723" s="13"/>
       <c r="Y723" s="13"/>
     </row>
-    <row r="724" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:25" hidden="1">
       <c r="B724" s="11">
         <v>46007</v>
       </c>
@@ -8991,7 +9088,7 @@
       <c r="R724" s="13"/>
       <c r="Y724" s="13"/>
     </row>
-    <row r="725" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:25" hidden="1">
       <c r="B725" s="11">
         <v>46008</v>
       </c>
@@ -9001,7 +9098,7 @@
       <c r="R725" s="13"/>
       <c r="Y725" s="13"/>
     </row>
-    <row r="726" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:25" hidden="1">
       <c r="B726" s="11">
         <v>46008</v>
       </c>
@@ -9011,7 +9108,7 @@
       <c r="R726" s="13"/>
       <c r="Y726" s="13"/>
     </row>
-    <row r="727" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:25" hidden="1">
       <c r="B727" s="11">
         <v>46008</v>
       </c>
@@ -9021,7 +9118,7 @@
       <c r="R727" s="13"/>
       <c r="Y727" s="13"/>
     </row>
-    <row r="728" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:25" hidden="1">
       <c r="B728" s="11">
         <v>46008</v>
       </c>
@@ -9031,7 +9128,7 @@
       <c r="R728" s="13"/>
       <c r="Y728" s="13"/>
     </row>
-    <row r="729" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:25" hidden="1">
       <c r="B729" s="11">
         <v>46008</v>
       </c>
@@ -9041,7 +9138,7 @@
       <c r="R729" s="13"/>
       <c r="Y729" s="13"/>
     </row>
-    <row r="730" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:25" hidden="1">
       <c r="B730" s="11">
         <v>46008</v>
       </c>
@@ -9051,7 +9148,7 @@
       <c r="R730" s="13"/>
       <c r="Y730" s="13"/>
     </row>
-    <row r="731" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:25" hidden="1">
       <c r="B731" s="11">
         <v>46008</v>
       </c>
@@ -9061,7 +9158,7 @@
       <c r="R731" s="13"/>
       <c r="Y731" s="13"/>
     </row>
-    <row r="732" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:25" hidden="1">
       <c r="B732" s="11">
         <v>46009</v>
       </c>
@@ -9071,7 +9168,7 @@
       <c r="R732" s="13"/>
       <c r="Y732" s="13"/>
     </row>
-    <row r="733" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:25" hidden="1">
       <c r="B733" s="11">
         <v>46009</v>
       </c>
@@ -9081,7 +9178,7 @@
       <c r="R733" s="13"/>
       <c r="Y733" s="13"/>
     </row>
-    <row r="734" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:25" hidden="1">
       <c r="B734" s="11">
         <v>46009</v>
       </c>
@@ -9091,7 +9188,7 @@
       <c r="R734" s="13"/>
       <c r="Y734" s="13"/>
     </row>
-    <row r="735" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:25" hidden="1">
       <c r="B735" s="11">
         <v>46009</v>
       </c>
@@ -9101,7 +9198,7 @@
       <c r="R735" s="13"/>
       <c r="Y735" s="13"/>
     </row>
-    <row r="736" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:25" hidden="1">
       <c r="B736" s="11">
         <v>46009</v>
       </c>
@@ -9111,7 +9208,7 @@
       <c r="R736" s="13"/>
       <c r="Y736" s="13"/>
     </row>
-    <row r="737" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:25" hidden="1">
       <c r="B737" s="11">
         <v>46009</v>
       </c>
@@ -9121,7 +9218,7 @@
       <c r="R737" s="13"/>
       <c r="Y737" s="13"/>
     </row>
-    <row r="738" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:25" hidden="1">
       <c r="B738" s="11">
         <v>46009</v>
       </c>
@@ -9131,7 +9228,7 @@
       <c r="R738" s="13"/>
       <c r="Y738" s="13"/>
     </row>
-    <row r="739" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:25" hidden="1">
       <c r="B739" s="11">
         <v>46010</v>
       </c>
@@ -9141,7 +9238,7 @@
       <c r="R739" s="13"/>
       <c r="Y739" s="13"/>
     </row>
-    <row r="740" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:25" hidden="1">
       <c r="B740" s="11">
         <v>46010</v>
       </c>
@@ -9151,7 +9248,7 @@
       <c r="R740" s="13"/>
       <c r="Y740" s="13"/>
     </row>
-    <row r="741" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:25" hidden="1">
       <c r="B741" s="11">
         <v>46010</v>
       </c>
@@ -9161,7 +9258,7 @@
       <c r="R741" s="13"/>
       <c r="Y741" s="13"/>
     </row>
-    <row r="742" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:25" hidden="1">
       <c r="B742" s="11">
         <v>46010</v>
       </c>
@@ -9171,7 +9268,7 @@
       <c r="R742" s="13"/>
       <c r="Y742" s="13"/>
     </row>
-    <row r="743" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:25" hidden="1">
       <c r="B743" s="11">
         <v>46010</v>
       </c>
@@ -9181,7 +9278,7 @@
       <c r="R743" s="13"/>
       <c r="Y743" s="13"/>
     </row>
-    <row r="744" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:25" hidden="1">
       <c r="B744" s="11">
         <v>46010</v>
       </c>
@@ -9191,7 +9288,7 @@
       <c r="R744" s="13"/>
       <c r="Y744" s="13"/>
     </row>
-    <row r="745" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:25" hidden="1">
       <c r="B745" s="11">
         <v>46010</v>
       </c>
@@ -9201,7 +9298,7 @@
       <c r="R745" s="13"/>
       <c r="Y745" s="13"/>
     </row>
-    <row r="746" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:25" hidden="1">
       <c r="B746" s="11">
         <v>46011</v>
       </c>
@@ -9211,7 +9308,7 @@
       <c r="R746" s="13"/>
       <c r="Y746" s="13"/>
     </row>
-    <row r="747" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:25" hidden="1">
       <c r="B747" s="11">
         <v>46011</v>
       </c>
@@ -9221,7 +9318,7 @@
       <c r="R747" s="13"/>
       <c r="Y747" s="13"/>
     </row>
-    <row r="748" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:25" hidden="1">
       <c r="B748" s="11">
         <v>46011</v>
       </c>
@@ -9231,7 +9328,7 @@
       <c r="R748" s="13"/>
       <c r="Y748" s="13"/>
     </row>
-    <row r="749" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:25" hidden="1">
       <c r="B749" s="11">
         <v>46011</v>
       </c>
@@ -9241,7 +9338,7 @@
       <c r="R749" s="13"/>
       <c r="Y749" s="13"/>
     </row>
-    <row r="750" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:25" hidden="1">
       <c r="B750" s="11">
         <v>46011</v>
       </c>
@@ -9251,7 +9348,7 @@
       <c r="R750" s="13"/>
       <c r="Y750" s="13"/>
     </row>
-    <row r="751" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:25" hidden="1">
       <c r="B751" s="11">
         <v>46011</v>
       </c>
@@ -9261,7 +9358,7 @@
       <c r="R751" s="13"/>
       <c r="Y751" s="13"/>
     </row>
-    <row r="752" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:25" hidden="1">
       <c r="B752" s="11">
         <v>46011</v>
       </c>
@@ -9271,7 +9368,7 @@
       <c r="R752" s="13"/>
       <c r="Y752" s="13"/>
     </row>
-    <row r="753" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:25" hidden="1">
       <c r="B753" s="11">
         <v>46012</v>
       </c>
@@ -9281,7 +9378,7 @@
       <c r="R753" s="13"/>
       <c r="Y753" s="13"/>
     </row>
-    <row r="754" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:25" hidden="1">
       <c r="B754" s="11">
         <v>46012</v>
       </c>
@@ -9291,7 +9388,7 @@
       <c r="R754" s="13"/>
       <c r="Y754" s="13"/>
     </row>
-    <row r="755" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:25" hidden="1">
       <c r="B755" s="11">
         <v>46012</v>
       </c>
@@ -9301,7 +9398,7 @@
       <c r="R755" s="13"/>
       <c r="Y755" s="13"/>
     </row>
-    <row r="756" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:25" hidden="1">
       <c r="B756" s="11">
         <v>46012</v>
       </c>
@@ -9311,7 +9408,7 @@
       <c r="R756" s="13"/>
       <c r="Y756" s="13"/>
     </row>
-    <row r="757" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:25" hidden="1">
       <c r="B757" s="11">
         <v>46012</v>
       </c>
@@ -9321,7 +9418,7 @@
       <c r="R757" s="13"/>
       <c r="Y757" s="13"/>
     </row>
-    <row r="758" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:25" hidden="1">
       <c r="B758" s="11">
         <v>46012</v>
       </c>
@@ -9331,7 +9428,7 @@
       <c r="R758" s="13"/>
       <c r="Y758" s="13"/>
     </row>
-    <row r="759" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:25" hidden="1">
       <c r="B759" s="11">
         <v>46012</v>
       </c>
@@ -9341,7 +9438,7 @@
       <c r="R759" s="13"/>
       <c r="Y759" s="13"/>
     </row>
-    <row r="760" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:25" hidden="1">
       <c r="B760" s="11">
         <v>46013</v>
       </c>
@@ -9351,7 +9448,7 @@
       <c r="R760" s="13"/>
       <c r="Y760" s="13"/>
     </row>
-    <row r="761" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:25" hidden="1">
       <c r="B761" s="11">
         <v>46013</v>
       </c>
@@ -9361,7 +9458,7 @@
       <c r="R761" s="13"/>
       <c r="Y761" s="13"/>
     </row>
-    <row r="762" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:25" hidden="1">
       <c r="B762" s="11">
         <v>46013</v>
       </c>
@@ -9371,7 +9468,7 @@
       <c r="R762" s="13"/>
       <c r="Y762" s="13"/>
     </row>
-    <row r="763" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:25" hidden="1">
       <c r="B763" s="11">
         <v>46013</v>
       </c>
@@ -9381,7 +9478,7 @@
       <c r="R763" s="13"/>
       <c r="Y763" s="13"/>
     </row>
-    <row r="764" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:25" hidden="1">
       <c r="B764" s="11">
         <v>46013</v>
       </c>
@@ -9391,7 +9488,7 @@
       <c r="R764" s="13"/>
       <c r="Y764" s="13"/>
     </row>
-    <row r="765" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:25" hidden="1">
       <c r="B765" s="11">
         <v>46013</v>
       </c>
@@ -9401,7 +9498,7 @@
       <c r="R765" s="13"/>
       <c r="Y765" s="13"/>
     </row>
-    <row r="766" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:25" hidden="1">
       <c r="B766" s="11">
         <v>46013</v>
       </c>
@@ -9411,7 +9508,7 @@
       <c r="R766" s="13"/>
       <c r="Y766" s="13"/>
     </row>
-    <row r="767" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:25" hidden="1">
       <c r="B767" s="11">
         <v>46014</v>
       </c>
@@ -9421,7 +9518,7 @@
       <c r="R767" s="13"/>
       <c r="Y767" s="13"/>
     </row>
-    <row r="768" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:25" hidden="1">
       <c r="B768" s="11">
         <v>46014</v>
       </c>
@@ -9431,7 +9528,7 @@
       <c r="R768" s="13"/>
       <c r="Y768" s="13"/>
     </row>
-    <row r="769" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:25" hidden="1">
       <c r="B769" s="11">
         <v>46014</v>
       </c>
@@ -9441,7 +9538,7 @@
       <c r="R769" s="13"/>
       <c r="Y769" s="13"/>
     </row>
-    <row r="770" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:25" hidden="1">
       <c r="B770" s="11">
         <v>46014</v>
       </c>
@@ -9451,7 +9548,7 @@
       <c r="R770" s="13"/>
       <c r="Y770" s="13"/>
     </row>
-    <row r="771" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:25" hidden="1">
       <c r="B771" s="11">
         <v>46014</v>
       </c>
@@ -9461,7 +9558,7 @@
       <c r="R771" s="13"/>
       <c r="Y771" s="13"/>
     </row>
-    <row r="772" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:25" hidden="1">
       <c r="B772" s="11">
         <v>46014</v>
       </c>
@@ -9471,7 +9568,7 @@
       <c r="R772" s="13"/>
       <c r="Y772" s="13"/>
     </row>
-    <row r="773" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:25" hidden="1">
       <c r="B773" s="11">
         <v>46014</v>
       </c>
@@ -9481,7 +9578,7 @@
       <c r="R773" s="13"/>
       <c r="Y773" s="13"/>
     </row>
-    <row r="774" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:25" hidden="1">
       <c r="B774" s="11">
         <v>46015</v>
       </c>
@@ -9491,7 +9588,7 @@
       <c r="R774" s="13"/>
       <c r="Y774" s="13"/>
     </row>
-    <row r="775" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:25" hidden="1">
       <c r="B775" s="11">
         <v>46015</v>
       </c>
@@ -9501,7 +9598,7 @@
       <c r="R775" s="13"/>
       <c r="Y775" s="13"/>
     </row>
-    <row r="776" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:25" hidden="1">
       <c r="B776" s="11">
         <v>46015</v>
       </c>
@@ -9511,7 +9608,7 @@
       <c r="R776" s="13"/>
       <c r="Y776" s="13"/>
     </row>
-    <row r="777" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:25" hidden="1">
       <c r="B777" s="11">
         <v>46015</v>
       </c>
@@ -9521,7 +9618,7 @@
       <c r="R777" s="13"/>
       <c r="Y777" s="13"/>
     </row>
-    <row r="778" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:25" hidden="1">
       <c r="B778" s="11">
         <v>46015</v>
       </c>
@@ -9531,7 +9628,7 @@
       <c r="R778" s="13"/>
       <c r="Y778" s="13"/>
     </row>
-    <row r="779" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:25" hidden="1">
       <c r="B779" s="11">
         <v>46015</v>
       </c>
@@ -9541,7 +9638,7 @@
       <c r="R779" s="13"/>
       <c r="Y779" s="13"/>
     </row>
-    <row r="780" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:25" hidden="1">
       <c r="B780" s="11">
         <v>46015</v>
       </c>
@@ -9551,7 +9648,7 @@
       <c r="R780" s="13"/>
       <c r="Y780" s="13"/>
     </row>
-    <row r="781" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:25" hidden="1">
       <c r="B781" s="11">
         <v>46016</v>
       </c>
@@ -9561,7 +9658,7 @@
       <c r="R781" s="13"/>
       <c r="Y781" s="13"/>
     </row>
-    <row r="782" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:25" hidden="1">
       <c r="B782" s="11">
         <v>46016</v>
       </c>
@@ -9571,7 +9668,7 @@
       <c r="R782" s="13"/>
       <c r="Y782" s="13"/>
     </row>
-    <row r="783" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:25" hidden="1">
       <c r="B783" s="11">
         <v>46016</v>
       </c>
@@ -9581,7 +9678,7 @@
       <c r="R783" s="13"/>
       <c r="Y783" s="13"/>
     </row>
-    <row r="784" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:25" hidden="1">
       <c r="B784" s="11">
         <v>46016</v>
       </c>
@@ -9591,7 +9688,7 @@
       <c r="R784" s="13"/>
       <c r="Y784" s="13"/>
     </row>
-    <row r="785" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:25" hidden="1">
       <c r="B785" s="11">
         <v>46016</v>
       </c>
@@ -9601,7 +9698,7 @@
       <c r="R785" s="13"/>
       <c r="Y785" s="13"/>
     </row>
-    <row r="786" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:25" hidden="1">
       <c r="B786" s="11">
         <v>46016</v>
       </c>
@@ -9611,7 +9708,7 @@
       <c r="R786" s="13"/>
       <c r="Y786" s="13"/>
     </row>
-    <row r="787" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:25" hidden="1">
       <c r="B787" s="11">
         <v>46016</v>
       </c>
@@ -9621,7 +9718,7 @@
       <c r="R787" s="13"/>
       <c r="Y787" s="13"/>
     </row>
-    <row r="788" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:25" hidden="1">
       <c r="B788" s="11">
         <v>46017</v>
       </c>
@@ -9631,7 +9728,7 @@
       <c r="R788" s="13"/>
       <c r="Y788" s="13"/>
     </row>
-    <row r="789" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:25" hidden="1">
       <c r="B789" s="11">
         <v>46017</v>
       </c>
@@ -9641,7 +9738,7 @@
       <c r="R789" s="13"/>
       <c r="Y789" s="13"/>
     </row>
-    <row r="790" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:25" hidden="1">
       <c r="B790" s="11">
         <v>46017</v>
       </c>
@@ -9651,7 +9748,7 @@
       <c r="R790" s="13"/>
       <c r="Y790" s="13"/>
     </row>
-    <row r="791" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:25" hidden="1">
       <c r="B791" s="11">
         <v>46017</v>
       </c>
@@ -9661,7 +9758,7 @@
       <c r="R791" s="13"/>
       <c r="Y791" s="13"/>
     </row>
-    <row r="792" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:25" hidden="1">
       <c r="B792" s="11">
         <v>46017</v>
       </c>
@@ -9671,7 +9768,7 @@
       <c r="R792" s="13"/>
       <c r="Y792" s="13"/>
     </row>
-    <row r="793" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:25" hidden="1">
       <c r="B793" s="11">
         <v>46017</v>
       </c>
@@ -9681,7 +9778,7 @@
       <c r="R793" s="13"/>
       <c r="Y793" s="13"/>
     </row>
-    <row r="794" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:25" hidden="1">
       <c r="B794" s="11">
         <v>46017</v>
       </c>
@@ -9691,7 +9788,7 @@
       <c r="R794" s="13"/>
       <c r="Y794" s="13"/>
     </row>
-    <row r="795" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:25" hidden="1">
       <c r="B795" s="11">
         <v>46018</v>
       </c>
@@ -9701,7 +9798,7 @@
       <c r="R795" s="13"/>
       <c r="Y795" s="13"/>
     </row>
-    <row r="796" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:25" hidden="1">
       <c r="B796" s="11">
         <v>46018</v>
       </c>
@@ -9711,7 +9808,7 @@
       <c r="R796" s="13"/>
       <c r="Y796" s="13"/>
     </row>
-    <row r="797" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:25" hidden="1">
       <c r="B797" s="11">
         <v>46018</v>
       </c>
@@ -9721,7 +9818,7 @@
       <c r="R797" s="13"/>
       <c r="Y797" s="13"/>
     </row>
-    <row r="798" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:25" hidden="1">
       <c r="B798" s="11">
         <v>46018</v>
       </c>
@@ -9731,7 +9828,7 @@
       <c r="R798" s="13"/>
       <c r="Y798" s="13"/>
     </row>
-    <row r="799" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:25" hidden="1">
       <c r="B799" s="11">
         <v>46018</v>
       </c>
@@ -9741,7 +9838,7 @@
       <c r="R799" s="13"/>
       <c r="Y799" s="13"/>
     </row>
-    <row r="800" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:25" hidden="1">
       <c r="B800" s="11">
         <v>46018</v>
       </c>
@@ -9751,7 +9848,7 @@
       <c r="R800" s="13"/>
       <c r="Y800" s="13"/>
     </row>
-    <row r="801" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:25" hidden="1">
       <c r="B801" s="11">
         <v>46018</v>
       </c>
@@ -9761,7 +9858,7 @@
       <c r="R801" s="13"/>
       <c r="Y801" s="13"/>
     </row>
-    <row r="802" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:25" hidden="1">
       <c r="B802" s="11">
         <v>46019</v>
       </c>
@@ -9771,7 +9868,7 @@
       <c r="R802" s="13"/>
       <c r="Y802" s="13"/>
     </row>
-    <row r="803" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:25" hidden="1">
       <c r="B803" s="11">
         <v>46019</v>
       </c>
@@ -9781,7 +9878,7 @@
       <c r="R803" s="13"/>
       <c r="Y803" s="13"/>
     </row>
-    <row r="804" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:25" hidden="1">
       <c r="B804" s="11">
         <v>46019</v>
       </c>
@@ -9791,7 +9888,7 @@
       <c r="R804" s="13"/>
       <c r="Y804" s="13"/>
     </row>
-    <row r="805" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:25" hidden="1">
       <c r="B805" s="11">
         <v>46019</v>
       </c>
@@ -9801,7 +9898,7 @@
       <c r="R805" s="13"/>
       <c r="Y805" s="13"/>
     </row>
-    <row r="806" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:25" hidden="1">
       <c r="B806" s="11">
         <v>46019</v>
       </c>
@@ -9811,7 +9908,7 @@
       <c r="R806" s="13"/>
       <c r="Y806" s="13"/>
     </row>
-    <row r="807" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:25" hidden="1">
       <c r="B807" s="11">
         <v>46019</v>
       </c>
@@ -9821,7 +9918,7 @@
       <c r="R807" s="13"/>
       <c r="Y807" s="13"/>
     </row>
-    <row r="808" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:25" hidden="1">
       <c r="B808" s="11">
         <v>46019</v>
       </c>
@@ -9831,7 +9928,7 @@
       <c r="R808" s="13"/>
       <c r="Y808" s="13"/>
     </row>
-    <row r="809" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:25" hidden="1">
       <c r="B809" s="11">
         <v>46020</v>
       </c>
@@ -9841,7 +9938,7 @@
       <c r="R809" s="13"/>
       <c r="Y809" s="13"/>
     </row>
-    <row r="810" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:25" hidden="1">
       <c r="B810" s="11">
         <v>46020</v>
       </c>
@@ -9851,7 +9948,7 @@
       <c r="R810" s="13"/>
       <c r="Y810" s="13"/>
     </row>
-    <row r="811" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:25" hidden="1">
       <c r="B811" s="11">
         <v>46020</v>
       </c>
@@ -9861,7 +9958,7 @@
       <c r="R811" s="13"/>
       <c r="Y811" s="13"/>
     </row>
-    <row r="812" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:25" hidden="1">
       <c r="B812" s="11">
         <v>46020</v>
       </c>
@@ -9871,7 +9968,7 @@
       <c r="R812" s="13"/>
       <c r="Y812" s="13"/>
     </row>
-    <row r="813" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:25" hidden="1">
       <c r="B813" s="11">
         <v>46020</v>
       </c>
@@ -9881,7 +9978,7 @@
       <c r="R813" s="13"/>
       <c r="Y813" s="13"/>
     </row>
-    <row r="814" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:25" hidden="1">
       <c r="B814" s="11">
         <v>46020</v>
       </c>
@@ -9891,7 +9988,7 @@
       <c r="R814" s="13"/>
       <c r="Y814" s="13"/>
     </row>
-    <row r="815" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:25" hidden="1">
       <c r="B815" s="11">
         <v>46020</v>
       </c>
@@ -9901,7 +9998,7 @@
       <c r="R815" s="13"/>
       <c r="Y815" s="13"/>
     </row>
-    <row r="816" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:25" hidden="1">
       <c r="B816" s="11">
         <v>46021</v>
       </c>
@@ -9911,7 +10008,7 @@
       <c r="R816" s="13"/>
       <c r="Y816" s="13"/>
     </row>
-    <row r="817" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:25" hidden="1">
       <c r="B817" s="11">
         <v>46021</v>
       </c>
@@ -9921,7 +10018,7 @@
       <c r="R817" s="13"/>
       <c r="Y817" s="13"/>
     </row>
-    <row r="818" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:25" hidden="1">
       <c r="B818" s="11">
         <v>46021</v>
       </c>
@@ -9931,7 +10028,7 @@
       <c r="R818" s="13"/>
       <c r="Y818" s="13"/>
     </row>
-    <row r="819" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:25" hidden="1">
       <c r="B819" s="11">
         <v>46021</v>
       </c>
@@ -9941,7 +10038,7 @@
       <c r="R819" s="13"/>
       <c r="Y819" s="13"/>
     </row>
-    <row r="820" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:25" hidden="1">
       <c r="B820" s="11">
         <v>46021</v>
       </c>
@@ -9951,7 +10048,7 @@
       <c r="R820" s="13"/>
       <c r="Y820" s="13"/>
     </row>
-    <row r="821" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:25" hidden="1">
       <c r="B821" s="11">
         <v>46021</v>
       </c>
@@ -9961,7 +10058,7 @@
       <c r="R821" s="13"/>
       <c r="Y821" s="13"/>
     </row>
-    <row r="822" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:25" hidden="1">
       <c r="B822" s="11">
         <v>46021</v>
       </c>
@@ -9971,7 +10068,7 @@
       <c r="R822" s="13"/>
       <c r="Y822" s="13"/>
     </row>
-    <row r="823" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:25" hidden="1">
       <c r="B823" s="11">
         <v>46022</v>
       </c>
@@ -9981,7 +10078,7 @@
       <c r="R823" s="13"/>
       <c r="Y823" s="13"/>
     </row>
-    <row r="824" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:25" hidden="1">
       <c r="B824" s="11">
         <v>46022</v>
       </c>
@@ -9991,7 +10088,7 @@
       <c r="R824" s="13"/>
       <c r="Y824" s="13"/>
     </row>
-    <row r="825" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:25" hidden="1">
       <c r="B825" s="11">
         <v>46022</v>
       </c>
@@ -10001,7 +10098,7 @@
       <c r="R825" s="13"/>
       <c r="Y825" s="13"/>
     </row>
-    <row r="826" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:25" hidden="1">
       <c r="B826" s="11">
         <v>46022</v>
       </c>
@@ -10011,7 +10108,7 @@
       <c r="R826" s="13"/>
       <c r="Y826" s="13"/>
     </row>
-    <row r="827" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:25" hidden="1">
       <c r="B827" s="11">
         <v>46022</v>
       </c>
@@ -10021,7 +10118,7 @@
       <c r="R827" s="13"/>
       <c r="Y827" s="13"/>
     </row>
-    <row r="828" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:25" hidden="1">
       <c r="B828" s="11">
         <v>46022</v>
       </c>
@@ -10031,7 +10128,7 @@
       <c r="R828" s="13"/>
       <c r="Y828" s="13"/>
     </row>
-    <row r="829" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:25" hidden="1">
       <c r="B829" s="11">
         <v>46022</v>
       </c>
@@ -10050,7 +10147,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="RMRJ"/>
+        <filter val="RMSPII"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10214,6 +10311,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10222,50 +10325,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7087569-6A88-4418-92A0-7D4EC74832F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B65608-A1BD-466E-AEAE-A489CA88A715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>731520</xdr:rowOff>
@@ -813,9 +813,9 @@
   </sheetPr>
   <dimension ref="A1:AA829"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="B8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X40" sqref="X40"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -824,16 +824,16 @@
     <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="15" style="13" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="13" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="13" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="13" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="13" customWidth="1"/>
     <col min="18" max="18" width="12" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" style="13" customWidth="1"/>
@@ -967,7 +967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1">
+    <row r="4" spans="1:26">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" hidden="1">
       <c r="B7" s="10">
         <v>45905</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26" hidden="1">
+    <row r="11" spans="1:26">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="R13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" hidden="1">
       <c r="B14" s="11">
         <v>45906</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26" hidden="1">
+    <row r="18" spans="2:26">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="R20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:26" hidden="1">
       <c r="B21" s="11">
         <v>45907</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26" hidden="1">
+    <row r="25" spans="2:26">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:26">
+    <row r="28" spans="2:26" hidden="1">
       <c r="B28" s="11">
         <v>45908</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26" hidden="1">
+    <row r="32" spans="2:26">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:26">
+    <row r="35" spans="2:26" hidden="1">
       <c r="B35" s="11">
         <v>45909</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26" hidden="1">
+    <row r="39" spans="2:26">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -1936,6 +1936,15 @@
       </c>
       <c r="T39" s="13">
         <v>0</v>
+      </c>
+      <c r="U39" s="13">
+        <v>100</v>
+      </c>
+      <c r="V39" s="13">
+        <v>90</v>
+      </c>
+      <c r="W39" s="13">
+        <v>99.8</v>
       </c>
       <c r="Y39" s="13"/>
       <c r="Z39" s="16">
@@ -1973,6 +1982,15 @@
       <c r="T40" s="13">
         <v>0</v>
       </c>
+      <c r="U40" s="13">
+        <v>100</v>
+      </c>
+      <c r="V40" s="13">
+        <v>97.69</v>
+      </c>
+      <c r="W40" s="13">
+        <v>99.9</v>
+      </c>
       <c r="Z40" s="16">
         <v>0</v>
       </c>
@@ -1999,6 +2017,15 @@
       <c r="T41" s="13">
         <v>0</v>
       </c>
+      <c r="U41" s="13">
+        <v>100</v>
+      </c>
+      <c r="V41" s="13">
+        <v>95.73</v>
+      </c>
+      <c r="W41" s="13">
+        <v>99.8</v>
+      </c>
       <c r="X41" s="13">
         <v>0</v>
       </c>
@@ -2009,7 +2036,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:26">
+    <row r="42" spans="2:26" hidden="1">
       <c r="B42" s="11">
         <v>45910</v>
       </c>
@@ -2042,6 +2069,15 @@
       </c>
       <c r="T42" s="13">
         <v>13</v>
+      </c>
+      <c r="U42" s="13">
+        <v>99.5</v>
+      </c>
+      <c r="V42" s="13">
+        <v>89.36</v>
+      </c>
+      <c r="W42" s="13">
+        <v>99.3</v>
       </c>
       <c r="X42" s="13">
         <v>488</v>
@@ -2099,6 +2135,15 @@
       <c r="T43" s="13">
         <v>0</v>
       </c>
+      <c r="U43" s="16">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="V43" s="17">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="W43" s="17">
+        <v>0.998</v>
+      </c>
       <c r="X43" s="13">
         <v>11</v>
       </c>
@@ -2127,9 +2172,18 @@
         <v>35</v>
       </c>
       <c r="R45" s="13"/>
+      <c r="U45" s="13">
+        <v>97.5</v>
+      </c>
+      <c r="V45" s="13">
+        <v>80.56</v>
+      </c>
+      <c r="W45" s="13">
+        <v>97.5</v>
+      </c>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26" hidden="1">
+    <row r="46" spans="2:26">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
@@ -2150,6 +2204,15 @@
       </c>
       <c r="T46" s="13">
         <v>0</v>
+      </c>
+      <c r="U46" s="13">
+        <v>100</v>
+      </c>
+      <c r="V46" s="13">
+        <v>86.96</v>
+      </c>
+      <c r="W46" s="13">
+        <v>99.8</v>
       </c>
       <c r="Y46" s="13"/>
       <c r="Z46" s="16">
@@ -2178,6 +2241,15 @@
       <c r="T47" s="13">
         <v>0</v>
       </c>
+      <c r="U47" s="13">
+        <v>100</v>
+      </c>
+      <c r="V47" s="13">
+        <v>98.47</v>
+      </c>
+      <c r="W47" s="13">
+        <v>99.9</v>
+      </c>
       <c r="Z47" s="16">
         <v>0</v>
       </c>
@@ -2204,6 +2276,15 @@
       <c r="T48" s="13">
         <v>0</v>
       </c>
+      <c r="U48" s="13">
+        <v>100</v>
+      </c>
+      <c r="V48" s="13">
+        <v>94.12</v>
+      </c>
+      <c r="W48" s="13">
+        <v>99.8</v>
+      </c>
       <c r="X48" s="13">
         <v>0</v>
       </c>
@@ -2214,7 +2295,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:27">
+    <row r="49" spans="2:27" hidden="1">
       <c r="B49" s="11">
         <v>45911</v>
       </c>
@@ -2247,6 +2328,15 @@
       </c>
       <c r="T49" s="13">
         <v>7</v>
+      </c>
+      <c r="U49" s="13">
+        <v>97.2</v>
+      </c>
+      <c r="V49" s="13">
+        <v>93.69</v>
+      </c>
+      <c r="W49" s="13">
+        <v>99.7</v>
       </c>
       <c r="X49" s="13">
         <v>159</v>
@@ -2303,7 +2393,16 @@
         <v>0.69310000000000005</v>
       </c>
       <c r="T50" s="13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U50" s="16">
+        <v>1</v>
+      </c>
+      <c r="V50" s="17">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="W50" s="17">
+        <v>0.997</v>
       </c>
       <c r="X50" s="13">
         <v>30</v>
@@ -2333,9 +2432,18 @@
         <v>35</v>
       </c>
       <c r="R52" s="13"/>
+      <c r="U52" s="13">
+        <v>100</v>
+      </c>
+      <c r="V52" s="13">
+        <v>91.48</v>
+      </c>
+      <c r="W52" s="13">
+        <v>99.4</v>
+      </c>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:27" hidden="1">
+    <row r="53" spans="2:27">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
@@ -2406,7 +2514,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:27">
+    <row r="56" spans="2:27" hidden="1">
       <c r="B56" s="11">
         <v>45912</v>
       </c>
@@ -2491,7 +2599,7 @@
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:27" hidden="1">
+    <row r="60" spans="2:27">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2520,7 +2628,7 @@
       <c r="R62" s="13"/>
       <c r="Y62" s="13"/>
     </row>
-    <row r="63" spans="2:27">
+    <row r="63" spans="2:27" hidden="1">
       <c r="B63" s="11">
         <v>45913</v>
       </c>
@@ -2559,7 +2667,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:25" hidden="1">
+    <row r="67" spans="2:25">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2588,7 +2696,7 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:25">
+    <row r="70" spans="2:25" hidden="1">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
@@ -2626,7 +2734,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:25" hidden="1">
+    <row r="74" spans="2:25">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2655,7 +2763,7 @@
       <c r="R76" s="13"/>
       <c r="Y76" s="13"/>
     </row>
-    <row r="77" spans="2:25">
+    <row r="77" spans="2:25" hidden="1">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
@@ -2693,7 +2801,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25" hidden="1">
+    <row r="81" spans="2:25">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2722,7 +2830,7 @@
       <c r="R83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="2:25">
+    <row r="84" spans="2:25" hidden="1">
       <c r="B84" s="11">
         <v>45916</v>
       </c>
@@ -2760,7 +2868,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25" hidden="1">
+    <row r="88" spans="2:25">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2789,7 +2897,7 @@
       <c r="R90" s="13"/>
       <c r="Y90" s="13"/>
     </row>
-    <row r="91" spans="2:25">
+    <row r="91" spans="2:25" hidden="1">
       <c r="B91" s="11">
         <v>45917</v>
       </c>
@@ -2827,7 +2935,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25" hidden="1">
+    <row r="95" spans="2:25">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -2856,7 +2964,7 @@
       <c r="R97" s="13"/>
       <c r="Y97" s="13"/>
     </row>
-    <row r="98" spans="2:25">
+    <row r="98" spans="2:25" hidden="1">
       <c r="B98" s="11">
         <v>45918</v>
       </c>
@@ -2894,7 +3002,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25" hidden="1">
+    <row r="102" spans="2:25">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -2923,7 +3031,7 @@
       <c r="R104" s="13"/>
       <c r="Y104" s="13"/>
     </row>
-    <row r="105" spans="2:25">
+    <row r="105" spans="2:25" hidden="1">
       <c r="B105" s="11">
         <v>45919</v>
       </c>
@@ -2961,7 +3069,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25" hidden="1">
+    <row r="109" spans="2:25">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -2990,7 +3098,7 @@
       <c r="R111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="2:25">
+    <row r="112" spans="2:25" hidden="1">
       <c r="B112" s="11">
         <v>45920</v>
       </c>
@@ -3028,7 +3136,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25" hidden="1">
+    <row r="116" spans="2:25">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -3057,7 +3165,7 @@
       <c r="R118" s="13"/>
       <c r="Y118" s="13"/>
     </row>
-    <row r="119" spans="2:25">
+    <row r="119" spans="2:25" hidden="1">
       <c r="B119" s="11">
         <v>45921</v>
       </c>
@@ -3095,7 +3203,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25" hidden="1">
+    <row r="123" spans="2:25">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -3124,7 +3232,7 @@
       <c r="R125" s="13"/>
       <c r="Y125" s="13"/>
     </row>
-    <row r="126" spans="2:25">
+    <row r="126" spans="2:25" hidden="1">
       <c r="B126" s="11">
         <v>45922</v>
       </c>
@@ -3162,7 +3270,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25" hidden="1">
+    <row r="130" spans="2:25">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -3191,7 +3299,7 @@
       <c r="R132" s="13"/>
       <c r="Y132" s="13"/>
     </row>
-    <row r="133" spans="2:25">
+    <row r="133" spans="2:25" hidden="1">
       <c r="B133" s="11">
         <v>45923</v>
       </c>
@@ -3229,7 +3337,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25" hidden="1">
+    <row r="137" spans="2:25">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -3258,7 +3366,7 @@
       <c r="R139" s="13"/>
       <c r="Y139" s="13"/>
     </row>
-    <row r="140" spans="2:25">
+    <row r="140" spans="2:25" hidden="1">
       <c r="B140" s="11">
         <v>45924</v>
       </c>
@@ -3296,7 +3404,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25" hidden="1">
+    <row r="144" spans="2:25">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -3325,7 +3433,7 @@
       <c r="R146" s="13"/>
       <c r="Y146" s="13"/>
     </row>
-    <row r="147" spans="2:25">
+    <row r="147" spans="2:25" hidden="1">
       <c r="B147" s="11">
         <v>45925</v>
       </c>
@@ -3363,7 +3471,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" hidden="1">
+    <row r="151" spans="2:25">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -3392,7 +3500,7 @@
       <c r="R153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="2:25">
+    <row r="154" spans="2:25" hidden="1">
       <c r="B154" s="11">
         <v>45926</v>
       </c>
@@ -3430,7 +3538,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25" hidden="1">
+    <row r="158" spans="2:25">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3459,7 +3567,7 @@
       <c r="R160" s="13"/>
       <c r="Y160" s="13"/>
     </row>
-    <row r="161" spans="2:25">
+    <row r="161" spans="2:25" hidden="1">
       <c r="B161" s="11">
         <v>45927</v>
       </c>
@@ -3497,7 +3605,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25" hidden="1">
+    <row r="165" spans="2:25">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3526,7 +3634,7 @@
       <c r="R167" s="13"/>
       <c r="Y167" s="13"/>
     </row>
-    <row r="168" spans="2:25">
+    <row r="168" spans="2:25" hidden="1">
       <c r="B168" s="11">
         <v>45928</v>
       </c>
@@ -3564,7 +3672,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25" hidden="1">
+    <row r="172" spans="2:25">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3593,7 +3701,7 @@
       <c r="R174" s="13"/>
       <c r="Y174" s="13"/>
     </row>
-    <row r="175" spans="2:25">
+    <row r="175" spans="2:25" hidden="1">
       <c r="B175" s="11">
         <v>45929</v>
       </c>
@@ -3631,7 +3739,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25" hidden="1">
+    <row r="179" spans="2:25">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3660,7 +3768,7 @@
       <c r="R181" s="13"/>
       <c r="Y181" s="13"/>
     </row>
-    <row r="182" spans="2:25">
+    <row r="182" spans="2:25" hidden="1">
       <c r="B182" s="11">
         <v>45930</v>
       </c>
@@ -10147,7 +10255,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="RMSPII"/>
+        <filter val="FOR"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10167,8 +10275,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="4" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="5f7d05b22801f8a5aef07f913f0a6c2d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36a9bbd0f338303ab31ebe548315c8aa" ns2:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="5" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="23f2b8cef8559182614740ba6ceef74b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="934927422b4276a9b2616a1597130764" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -10180,6 +10305,7 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10206,6 +10332,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="12" nillable="true" ma:displayName="Status de liberação" ma:internalName="_x0024_Resources_x003a_core_x002c_Signoff_Status">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -10310,23 +10441,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C69AD62-87CE-49F9-AB55-3C4A609B441A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10334,5 +10450,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649809F5-D46F-4002-9C20-8A9684DA0DCC}"/>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B65608-A1BD-466E-AEAE-A489CA88A715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BBBB6C-220C-4348-A6CD-1F0F068AE973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>731520</xdr:rowOff>
@@ -814,7 +814,7 @@
   <dimension ref="A1:AA829"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="B25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X40" sqref="X40"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -824,16 +824,16 @@
     <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="13" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="14" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="13" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="13" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="13" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="15" style="13" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="13" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="13" customWidth="1"/>
     <col min="18" max="18" width="12" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" style="13" customWidth="1"/>
@@ -967,7 +967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" hidden="1">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" hidden="1">
+    <row r="8" spans="1:26">
       <c r="B8" s="10">
         <v>45905</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" hidden="1">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:26" hidden="1">
+    <row r="15" spans="1:26">
       <c r="B15" s="11">
         <v>45906</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:26" hidden="1">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="2:26" hidden="1">
+    <row r="22" spans="2:26">
       <c r="B22" s="11">
         <v>45907</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26">
+    <row r="25" spans="2:26" hidden="1">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:26" hidden="1">
+    <row r="29" spans="2:26">
       <c r="B29" s="11">
         <v>45908</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26">
+    <row r="32" spans="2:26" hidden="1">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:26" hidden="1">
+    <row r="36" spans="2:26">
       <c r="B36" s="11">
         <v>45909</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26">
+    <row r="39" spans="2:26" hidden="1">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" spans="2:26" hidden="1">
+    <row r="43" spans="2:26">
       <c r="B43" s="11">
         <v>45910</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26">
+    <row r="46" spans="2:26" hidden="1">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
@@ -2219,12 +2219,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:26" hidden="1">
+    <row r="47" spans="2:26" ht="15" hidden="1">
       <c r="B47" s="11">
         <v>45911</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
+      </c>
+      <c r="D47" s="12">
+        <v>72670.17</v>
+      </c>
+      <c r="E47" s="12">
+        <v>36131.629999999997</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1579.63</v>
       </c>
       <c r="P47" s="13">
         <v>10</v>
@@ -2349,7 +2358,7 @@
       </c>
       <c r="AA49" s="27"/>
     </row>
-    <row r="50" spans="2:27" hidden="1">
+    <row r="50" spans="2:27">
       <c r="B50" s="11">
         <v>45911</v>
       </c>
@@ -2443,7 +2452,7 @@
       </c>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:27">
+    <row r="53" spans="2:27" hidden="1">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
@@ -2538,12 +2547,15 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="57" spans="2:27" hidden="1">
+    <row r="57" spans="2:27" ht="15">
       <c r="B57" s="11">
         <v>45912</v>
       </c>
       <c r="C57" t="s">
         <v>33</v>
+      </c>
+      <c r="D57" s="15">
+        <v>107801</v>
       </c>
       <c r="P57" s="13">
         <v>19</v>
@@ -2599,7 +2611,7 @@
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:27">
+    <row r="60" spans="2:27" hidden="1">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2637,7 +2649,7 @@
       </c>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:27" hidden="1">
+    <row r="64" spans="2:27">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
@@ -2667,7 +2679,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:25">
+    <row r="67" spans="2:25" hidden="1">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2705,7 +2717,7 @@
       </c>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:25" hidden="1">
+    <row r="71" spans="2:25">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
@@ -2734,7 +2746,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:25">
+    <row r="74" spans="2:25" hidden="1">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2772,7 +2784,7 @@
       </c>
       <c r="Y77" s="13"/>
     </row>
-    <row r="78" spans="2:25" hidden="1">
+    <row r="78" spans="2:25">
       <c r="B78" s="11">
         <v>45915</v>
       </c>
@@ -2801,7 +2813,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25">
+    <row r="81" spans="2:25" hidden="1">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2839,7 +2851,7 @@
       </c>
       <c r="Y84" s="13"/>
     </row>
-    <row r="85" spans="2:25" hidden="1">
+    <row r="85" spans="2:25">
       <c r="B85" s="11">
         <v>45916</v>
       </c>
@@ -2868,7 +2880,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25">
+    <row r="88" spans="2:25" hidden="1">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2906,7 +2918,7 @@
       </c>
       <c r="Y91" s="13"/>
     </row>
-    <row r="92" spans="2:25" hidden="1">
+    <row r="92" spans="2:25">
       <c r="B92" s="11">
         <v>45917</v>
       </c>
@@ -2935,7 +2947,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25">
+    <row r="95" spans="2:25" hidden="1">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -2973,7 +2985,7 @@
       </c>
       <c r="Y98" s="13"/>
     </row>
-    <row r="99" spans="2:25" hidden="1">
+    <row r="99" spans="2:25">
       <c r="B99" s="11">
         <v>45918</v>
       </c>
@@ -3002,7 +3014,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25">
+    <row r="102" spans="2:25" hidden="1">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -3040,7 +3052,7 @@
       </c>
       <c r="Y105" s="13"/>
     </row>
-    <row r="106" spans="2:25" hidden="1">
+    <row r="106" spans="2:25">
       <c r="B106" s="11">
         <v>45919</v>
       </c>
@@ -3069,7 +3081,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25">
+    <row r="109" spans="2:25" hidden="1">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -3107,7 +3119,7 @@
       </c>
       <c r="Y112" s="13"/>
     </row>
-    <row r="113" spans="2:25" hidden="1">
+    <row r="113" spans="2:25">
       <c r="B113" s="11">
         <v>45920</v>
       </c>
@@ -3136,7 +3148,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25">
+    <row r="116" spans="2:25" hidden="1">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -3174,7 +3186,7 @@
       </c>
       <c r="Y119" s="13"/>
     </row>
-    <row r="120" spans="2:25" hidden="1">
+    <row r="120" spans="2:25">
       <c r="B120" s="11">
         <v>45921</v>
       </c>
@@ -3203,7 +3215,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25">
+    <row r="123" spans="2:25" hidden="1">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -3241,7 +3253,7 @@
       </c>
       <c r="Y126" s="13"/>
     </row>
-    <row r="127" spans="2:25" hidden="1">
+    <row r="127" spans="2:25">
       <c r="B127" s="11">
         <v>45922</v>
       </c>
@@ -3270,7 +3282,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25">
+    <row r="130" spans="2:25" hidden="1">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -3308,7 +3320,7 @@
       </c>
       <c r="Y133" s="13"/>
     </row>
-    <row r="134" spans="2:25" hidden="1">
+    <row r="134" spans="2:25">
       <c r="B134" s="11">
         <v>45923</v>
       </c>
@@ -3337,7 +3349,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25">
+    <row r="137" spans="2:25" hidden="1">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -3375,7 +3387,7 @@
       </c>
       <c r="Y140" s="13"/>
     </row>
-    <row r="141" spans="2:25" hidden="1">
+    <row r="141" spans="2:25">
       <c r="B141" s="11">
         <v>45924</v>
       </c>
@@ -3404,7 +3416,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25">
+    <row r="144" spans="2:25" hidden="1">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -3442,7 +3454,7 @@
       </c>
       <c r="Y147" s="13"/>
     </row>
-    <row r="148" spans="2:25" hidden="1">
+    <row r="148" spans="2:25">
       <c r="B148" s="11">
         <v>45925</v>
       </c>
@@ -3471,7 +3483,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25">
+    <row r="151" spans="2:25" hidden="1">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -3509,7 +3521,7 @@
       </c>
       <c r="Y154" s="13"/>
     </row>
-    <row r="155" spans="2:25" hidden="1">
+    <row r="155" spans="2:25">
       <c r="B155" s="11">
         <v>45926</v>
       </c>
@@ -3538,7 +3550,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25">
+    <row r="158" spans="2:25" hidden="1">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3576,7 +3588,7 @@
       </c>
       <c r="Y161" s="13"/>
     </row>
-    <row r="162" spans="2:25" hidden="1">
+    <row r="162" spans="2:25">
       <c r="B162" s="11">
         <v>45927</v>
       </c>
@@ -3605,7 +3617,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25">
+    <row r="165" spans="2:25" hidden="1">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3643,7 +3655,7 @@
       </c>
       <c r="Y168" s="13"/>
     </row>
-    <row r="169" spans="2:25" hidden="1">
+    <row r="169" spans="2:25">
       <c r="B169" s="11">
         <v>45928</v>
       </c>
@@ -3672,7 +3684,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25">
+    <row r="172" spans="2:25" hidden="1">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3710,7 +3722,7 @@
       </c>
       <c r="Y175" s="13"/>
     </row>
-    <row r="176" spans="2:25" hidden="1">
+    <row r="176" spans="2:25">
       <c r="B176" s="11">
         <v>45929</v>
       </c>
@@ -3739,7 +3751,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25">
+    <row r="179" spans="2:25" hidden="1">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3777,7 +3789,7 @@
       </c>
       <c r="Y182" s="13"/>
     </row>
-    <row r="183" spans="2:25" hidden="1">
+    <row r="183" spans="2:25">
       <c r="B183" s="11">
         <v>45930</v>
       </c>
@@ -10255,7 +10267,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="FOR"/>
+        <filter val="RMRJ"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10275,20 +10287,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10442,11 +10454,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BBBB6C-220C-4348-A6CD-1F0F068AE973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D7B650-95E6-45D7-903E-D3DA6A67CDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,7 +814,7 @@
   <dimension ref="A1:AA829"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="B25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="B43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X40" sqref="X40"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26" hidden="1">
+    <row r="41" spans="2:26" ht="15" hidden="1">
       <c r="B41" s="11">
         <v>45910</v>
       </c>
@@ -2017,14 +2017,14 @@
       <c r="T41" s="13">
         <v>0</v>
       </c>
-      <c r="U41" s="13">
-        <v>100</v>
-      </c>
-      <c r="V41" s="13">
-        <v>95.73</v>
-      </c>
-      <c r="W41" s="13">
-        <v>99.8</v>
+      <c r="U41" s="16">
+        <v>1</v>
+      </c>
+      <c r="V41" s="16">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="W41" s="16">
+        <v>0.998</v>
       </c>
       <c r="X41" s="13">
         <v>0</v>
@@ -2285,14 +2285,14 @@
       <c r="T48" s="13">
         <v>0</v>
       </c>
-      <c r="U48" s="13">
-        <v>100</v>
-      </c>
-      <c r="V48" s="13">
-        <v>94.12</v>
-      </c>
-      <c r="W48" s="13">
-        <v>99.8</v>
+      <c r="U48" s="16">
+        <v>1</v>
+      </c>
+      <c r="V48" s="16">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="W48" s="16">
+        <v>0.998</v>
       </c>
       <c r="X48" s="13">
         <v>0</v>
@@ -2518,6 +2518,9 @@
       <c r="S55" s="17">
         <v>0.78710000000000002</v>
       </c>
+      <c r="T55" s="13">
+        <v>0</v>
+      </c>
       <c r="Y55" s="13"/>
       <c r="Z55" s="17">
         <v>0.33329999999999999</v>
@@ -2530,6 +2533,18 @@
       <c r="C56" t="s">
         <v>32</v>
       </c>
+      <c r="D56" s="12">
+        <v>812</v>
+      </c>
+      <c r="E56" s="12">
+        <v>750</v>
+      </c>
+      <c r="F56" s="12">
+        <v>1582</v>
+      </c>
+      <c r="J56" s="13">
+        <v>25</v>
+      </c>
       <c r="P56" s="13">
         <v>203</v>
       </c>
@@ -2557,6 +2572,12 @@
       <c r="D57" s="15">
         <v>107801</v>
       </c>
+      <c r="E57" s="15">
+        <v>68483</v>
+      </c>
+      <c r="F57" s="12">
+        <v>98</v>
+      </c>
       <c r="P57" s="13">
         <v>19</v>
       </c>
@@ -2608,6 +2629,9 @@
       <c r="J59" s="13">
         <v>0</v>
       </c>
+      <c r="K59" s="13">
+        <v>0</v>
+      </c>
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
@@ -2649,17 +2673,26 @@
       </c>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:27">
+    <row r="64" spans="2:27" ht="15">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
       <c r="C64" t="s">
         <v>33</v>
       </c>
+      <c r="D64" s="12">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
       <c r="R64" s="13"/>
       <c r="AA64" s="29"/>
     </row>
-    <row r="65" spans="2:25" hidden="1">
+    <row r="65" spans="2:26" hidden="1">
       <c r="B65" s="11">
         <v>45913</v>
       </c>
@@ -2669,7 +2702,7 @@
       <c r="R65" s="13"/>
       <c r="Y65" s="13"/>
     </row>
-    <row r="66" spans="2:25" hidden="1">
+    <row r="66" spans="2:26" hidden="1">
       <c r="B66" s="11">
         <v>45913</v>
       </c>
@@ -2679,7 +2712,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:25" hidden="1">
+    <row r="67" spans="2:26" hidden="1">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2689,7 +2722,7 @@
       <c r="R67" s="13"/>
       <c r="Y67" s="13"/>
     </row>
-    <row r="68" spans="2:25" hidden="1">
+    <row r="68" spans="2:26" hidden="1">
       <c r="B68" s="11">
         <v>45914</v>
       </c>
@@ -2698,7 +2731,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="2:25" hidden="1">
+    <row r="69" spans="2:26" hidden="1">
       <c r="B69" s="11">
         <v>45914</v>
       </c>
@@ -2708,7 +2741,7 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:25" hidden="1">
+    <row r="70" spans="2:26" hidden="1">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
@@ -2717,16 +2750,25 @@
       </c>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:25">
+    <row r="71" spans="2:26" ht="15">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
       <c r="C71" t="s">
         <v>33</v>
       </c>
+      <c r="D71" s="12">
+        <v>0</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="2:25" hidden="1">
+    <row r="72" spans="2:26" hidden="1">
       <c r="B72" s="11">
         <v>45914</v>
       </c>
@@ -2736,7 +2778,7 @@
       <c r="R72" s="13"/>
       <c r="Y72" s="13"/>
     </row>
-    <row r="73" spans="2:25" hidden="1">
+    <row r="73" spans="2:26" hidden="1">
       <c r="B73" s="11">
         <v>45914</v>
       </c>
@@ -2746,7 +2788,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:25" hidden="1">
+    <row r="74" spans="2:26" hidden="1">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2756,7 +2798,7 @@
       <c r="R74" s="13"/>
       <c r="Y74" s="13"/>
     </row>
-    <row r="75" spans="2:25" hidden="1">
+    <row r="75" spans="2:26" hidden="1">
       <c r="B75" s="11">
         <v>45915</v>
       </c>
@@ -2765,17 +2807,34 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="2:25" hidden="1">
+    <row r="76" spans="2:26" hidden="1">
       <c r="B76" s="11">
         <v>45915</v>
       </c>
       <c r="C76" t="s">
         <v>31</v>
       </c>
-      <c r="R76" s="13"/>
+      <c r="P76" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q76" s="13">
+        <v>11</v>
+      </c>
+      <c r="R76" s="13">
+        <v>67158.67</v>
+      </c>
+      <c r="S76" s="13">
+        <v>93.75</v>
+      </c>
+      <c r="T76" s="13">
+        <v>0</v>
+      </c>
       <c r="Y76" s="13"/>
-    </row>
-    <row r="77" spans="2:25" hidden="1">
+      <c r="Z76" s="17">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" hidden="1">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
@@ -2784,7 +2843,7 @@
       </c>
       <c r="Y77" s="13"/>
     </row>
-    <row r="78" spans="2:25">
+    <row r="78" spans="2:26">
       <c r="B78" s="11">
         <v>45915</v>
       </c>
@@ -2793,7 +2852,7 @@
       </c>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="2:25" hidden="1">
+    <row r="79" spans="2:26" hidden="1">
       <c r="B79" s="11">
         <v>45915</v>
       </c>
@@ -2803,12 +2862,36 @@
       <c r="R79" s="13"/>
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:25" hidden="1">
+    <row r="80" spans="2:26" hidden="1">
       <c r="B80" s="11">
         <v>45915</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
+      </c>
+      <c r="D80" s="12">
+        <v>16000</v>
+      </c>
+      <c r="E80" s="12">
+        <v>28600</v>
+      </c>
+      <c r="F80" s="12">
+        <v>21</v>
+      </c>
+      <c r="G80" s="13">
+        <v>150</v>
+      </c>
+      <c r="H80" s="14">
+        <v>0.89</v>
+      </c>
+      <c r="I80" s="14">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="J80" s="13">
+        <v>0</v>
+      </c>
+      <c r="K80" s="13">
+        <v>0</v>
       </c>
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
@@ -10287,20 +10370,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10454,11 +10537,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D7B650-95E6-45D7-903E-D3DA6A67CDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87D2C3B-2A24-4F2F-982E-D336BF3F1BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10370,23 +10370,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="5" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="23f2b8cef8559182614740ba6ceef74b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="934927422b4276a9b2616a1597130764" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
@@ -10536,14 +10519,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649809F5-D46F-4002-9C20-8A9684DA0DCC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649809F5-D46F-4002-9C20-8A9684DA0DCC}"/>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D87D2C3B-2A24-4F2F-982E-D336BF3F1BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{384A8C0A-2E9B-4189-9406-0D5039F4876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,8 +814,8 @@
   <dimension ref="A1:AA829"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="B43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X40" sqref="X40"/>
+      <pane ySplit="3" topLeftCell="N46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -838,8 +838,8 @@
     <col min="18" max="18" width="12" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" style="13" customWidth="1"/>
     <col min="20" max="20" width="16" style="13" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="13"/>
-    <col min="22" max="23" width="9.140625" style="13"/>
+    <col min="21" max="21" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.140625" style="13" customWidth="1"/>
     <col min="25" max="25" width="13.85546875" style="21" customWidth="1"/>
     <col min="26" max="26" width="18.5703125" style="13" customWidth="1"/>
@@ -2795,7 +2795,21 @@
       <c r="C74" t="s">
         <v>29</v>
       </c>
-      <c r="R74" s="13"/>
+      <c r="P74" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>7</v>
+      </c>
+      <c r="R74" s="13">
+        <v>37419.199999999997</v>
+      </c>
+      <c r="T74" s="13">
+        <v>0</v>
+      </c>
+      <c r="U74" s="13">
+        <v>100</v>
+      </c>
       <c r="Y74" s="13"/>
     </row>
     <row r="75" spans="2:26" hidden="1">
@@ -10370,6 +10384,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="5" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="23f2b8cef8559182614740ba6ceef74b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="934927422b4276a9b2616a1597130764" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
@@ -10519,15 +10542,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10537,11 +10551,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649809F5-D46F-4002-9C20-8A9684DA0DCC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649809F5-D46F-4002-9C20-8A9684DA0DCC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{384A8C0A-2E9B-4189-9406-0D5039F4876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD84F466-E371-463D-87EB-25BEF296B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="N46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
+      <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens-my.sharepoint.com/personal/carlos_renier_superfrio_com_br/Documents/Apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD84F466-E371-463D-87EB-25BEF296B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{121A33C7-E774-4421-A0B5-B1133C94BF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,12 +814,12 @@
   <dimension ref="A1:AA829"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="N46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
@@ -845,7 +845,7 @@
     <col min="26" max="26" width="18.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
@@ -857,7 +857,7 @@
       <c r="R1" s="18"/>
       <c r="Y1" s="22"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="C2" s="7"/>
       <c r="D2" s="31" t="s">
@@ -890,7 +890,7 @@
       <c r="Y2" s="35"/>
       <c r="Z2" s="33"/>
     </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1">
+    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -967,7 +967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>45905</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>45905</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>45905</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>45905</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>45905</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="R9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:26" hidden="1">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>45905</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26" hidden="1">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="S11" s="17"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26" hidden="1">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>45906</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:26" hidden="1">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>45906</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="R13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:26" hidden="1">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>45906</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>45906</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="R15" s="13"/>
       <c r="Y15" s="30"/>
     </row>
-    <row r="16" spans="1:26" hidden="1">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>45906</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="R16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:26" hidden="1">
+    <row r="17" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>45906</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26" hidden="1">
+    <row r="18" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="R18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="2:26" hidden="1">
+    <row r="19" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>45907</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:26" hidden="1">
+    <row r="20" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>45907</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="R20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:26" hidden="1">
+    <row r="21" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>45907</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>45907</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="R22" s="13"/>
       <c r="Y22" s="30"/>
     </row>
-    <row r="23" spans="2:26" hidden="1">
+    <row r="23" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>45907</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="R23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="2:26" hidden="1">
+    <row r="24" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>45907</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26" hidden="1">
+    <row r="25" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26" hidden="1">
+    <row r="26" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>45908</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26" hidden="1">
+    <row r="27" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>45908</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:26" hidden="1">
+    <row r="28" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>45908</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:26">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>45908</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:26" hidden="1">
+    <row r="30" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>45908</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="R30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="2:26" hidden="1">
+    <row r="31" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>45908</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26" hidden="1">
+    <row r="32" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:26" hidden="1">
+    <row r="33" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>45909</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26" hidden="1">
+    <row r="34" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>45909</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:26" hidden="1">
+    <row r="35" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>45909</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:26">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>45909</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:26" hidden="1">
+    <row r="37" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>45909</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="R37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:26" hidden="1">
+    <row r="38" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>45909</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26" hidden="1">
+    <row r="39" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:26" hidden="1">
+    <row r="40" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>45910</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26" ht="15" hidden="1">
+    <row r="41" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>45910</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:26" hidden="1">
+    <row r="42" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>45910</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" spans="2:26">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>45910</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:26" hidden="1">
+    <row r="44" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>45910</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="R44" s="13"/>
       <c r="Y44" s="13"/>
     </row>
-    <row r="45" spans="2:26" hidden="1">
+    <row r="45" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>45910</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26" hidden="1">
+    <row r="46" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:26" ht="15" hidden="1">
+    <row r="47" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <v>45911</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:26" hidden="1">
+    <row r="48" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <v>45911</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1">
+    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <v>45911</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="AA49" s="27"/>
     </row>
-    <row r="50" spans="2:27">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <v>45911</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" hidden="1">
+    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="11">
         <v>45911</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="R51" s="13"/>
       <c r="Y51" s="13"/>
     </row>
-    <row r="52" spans="2:27" hidden="1">
+    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="11">
         <v>45911</v>
       </c>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:27" hidden="1">
+    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:27" hidden="1">
+    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <v>45912</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1">
+    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="11">
         <v>45912</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1">
+    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="11">
         <v>45912</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="57" spans="2:27" ht="15">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <v>45912</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>0.63109999999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:27" hidden="1">
+    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <v>45912</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="R58" s="13"/>
       <c r="Y58" s="13"/>
     </row>
-    <row r="59" spans="2:27" hidden="1">
+    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <v>45912</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:27" hidden="1">
+    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="R60" s="13"/>
       <c r="Y60" s="13"/>
     </row>
-    <row r="61" spans="2:27" hidden="1">
+    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <v>45913</v>
       </c>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="2:27" hidden="1">
+    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <v>45913</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="R62" s="13"/>
       <c r="Y62" s="13"/>
     </row>
-    <row r="63" spans="2:27" hidden="1">
+    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="11">
         <v>45913</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:27" ht="15">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="R64" s="13"/>
       <c r="AA64" s="29"/>
     </row>
-    <row r="65" spans="2:26" hidden="1">
+    <row r="65" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="11">
         <v>45913</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="R65" s="13"/>
       <c r="Y65" s="13"/>
     </row>
-    <row r="66" spans="2:26" hidden="1">
+    <row r="66" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="11">
         <v>45913</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:26" hidden="1">
+    <row r="67" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="R67" s="13"/>
       <c r="Y67" s="13"/>
     </row>
-    <row r="68" spans="2:26" hidden="1">
+    <row r="68" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
         <v>45914</v>
       </c>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="2:26" hidden="1">
+    <row r="69" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="11">
         <v>45914</v>
       </c>
@@ -2741,7 +2741,7 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:26" hidden="1">
+    <row r="70" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:26" ht="15">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="2:26" hidden="1">
+    <row r="72" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="11">
         <v>45914</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="R72" s="13"/>
       <c r="Y72" s="13"/>
     </row>
-    <row r="73" spans="2:26" hidden="1">
+    <row r="73" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="11">
         <v>45914</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:26" hidden="1">
+    <row r="74" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="Y74" s="13"/>
     </row>
-    <row r="75" spans="2:26" hidden="1">
+    <row r="75" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="11">
         <v>45915</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="2:26" hidden="1">
+    <row r="76" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="11">
         <v>45915</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:26" hidden="1">
+    <row r="77" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="Y77" s="13"/>
     </row>
-    <row r="78" spans="2:26">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B78" s="11">
         <v>45915</v>
       </c>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="2:26" hidden="1">
+    <row r="79" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <v>45915</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="R79" s="13"/>
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:26" hidden="1">
+    <row r="80" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="11">
         <v>45915</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25" hidden="1">
+    <row r="81" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="R81" s="13"/>
       <c r="Y81" s="13"/>
     </row>
-    <row r="82" spans="2:25" hidden="1">
+    <row r="82" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="11">
         <v>45916</v>
       </c>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="2:25" hidden="1">
+    <row r="83" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="11">
         <v>45916</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="R83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="2:25" hidden="1">
+    <row r="84" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="11">
         <v>45916</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="Y84" s="13"/>
     </row>
-    <row r="85" spans="2:25">
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B85" s="11">
         <v>45916</v>
       </c>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="2:25" hidden="1">
+    <row r="86" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86" s="11">
         <v>45916</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="R86" s="13"/>
       <c r="Y86" s="13"/>
     </row>
-    <row r="87" spans="2:25" hidden="1">
+    <row r="87" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87" s="11">
         <v>45916</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25" hidden="1">
+    <row r="88" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2987,7 +2987,7 @@
       <c r="R88" s="13"/>
       <c r="Y88" s="13"/>
     </row>
-    <row r="89" spans="2:25" hidden="1">
+    <row r="89" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89" s="11">
         <v>45917</v>
       </c>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="2:25" hidden="1">
+    <row r="90" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="11">
         <v>45917</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="R90" s="13"/>
       <c r="Y90" s="13"/>
     </row>
-    <row r="91" spans="2:25" hidden="1">
+    <row r="91" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="11">
         <v>45917</v>
       </c>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="Y91" s="13"/>
     </row>
-    <row r="92" spans="2:25">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B92" s="11">
         <v>45917</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="2:25" hidden="1">
+    <row r="93" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93" s="11">
         <v>45917</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="R93" s="13"/>
       <c r="Y93" s="13"/>
     </row>
-    <row r="94" spans="2:25" hidden="1">
+    <row r="94" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94" s="11">
         <v>45917</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25" hidden="1">
+    <row r="95" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -3054,7 +3054,7 @@
       <c r="R95" s="13"/>
       <c r="Y95" s="13"/>
     </row>
-    <row r="96" spans="2:25" hidden="1">
+    <row r="96" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96" s="11">
         <v>45918</v>
       </c>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="2:25" hidden="1">
+    <row r="97" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97" s="11">
         <v>45918</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="R97" s="13"/>
       <c r="Y97" s="13"/>
     </row>
-    <row r="98" spans="2:25" hidden="1">
+    <row r="98" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98" s="11">
         <v>45918</v>
       </c>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="Y98" s="13"/>
     </row>
-    <row r="99" spans="2:25">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="11">
         <v>45918</v>
       </c>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="2:25" hidden="1">
+    <row r="100" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100" s="11">
         <v>45918</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="R100" s="13"/>
       <c r="Y100" s="13"/>
     </row>
-    <row r="101" spans="2:25" hidden="1">
+    <row r="101" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101" s="11">
         <v>45918</v>
       </c>
@@ -3111,7 +3111,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25" hidden="1">
+    <row r="102" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="R102" s="13"/>
       <c r="Y102" s="13"/>
     </row>
-    <row r="103" spans="2:25" hidden="1">
+    <row r="103" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" s="11">
         <v>45919</v>
       </c>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="2:25" hidden="1">
+    <row r="104" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104" s="11">
         <v>45919</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="R104" s="13"/>
       <c r="Y104" s="13"/>
     </row>
-    <row r="105" spans="2:25" hidden="1">
+    <row r="105" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105" s="11">
         <v>45919</v>
       </c>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="Y105" s="13"/>
     </row>
-    <row r="106" spans="2:25">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="11">
         <v>45919</v>
       </c>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" spans="2:25" hidden="1">
+    <row r="107" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" s="11">
         <v>45919</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="R107" s="13"/>
       <c r="Y107" s="13"/>
     </row>
-    <row r="108" spans="2:25" hidden="1">
+    <row r="108" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" s="11">
         <v>45919</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25" hidden="1">
+    <row r="109" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="R109" s="13"/>
       <c r="Y109" s="13"/>
     </row>
-    <row r="110" spans="2:25" hidden="1">
+    <row r="110" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110" s="11">
         <v>45920</v>
       </c>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="R110" s="13"/>
     </row>
-    <row r="111" spans="2:25" hidden="1">
+    <row r="111" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111" s="11">
         <v>45920</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="R111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="2:25" hidden="1">
+    <row r="112" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112" s="11">
         <v>45920</v>
       </c>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="Y112" s="13"/>
     </row>
-    <row r="113" spans="2:25">
+    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B113" s="11">
         <v>45920</v>
       </c>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="R113" s="13"/>
     </row>
-    <row r="114" spans="2:25" hidden="1">
+    <row r="114" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B114" s="11">
         <v>45920</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="R114" s="13"/>
       <c r="Y114" s="13"/>
     </row>
-    <row r="115" spans="2:25" hidden="1">
+    <row r="115" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="11">
         <v>45920</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25" hidden="1">
+    <row r="116" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="R116" s="13"/>
       <c r="Y116" s="13"/>
     </row>
-    <row r="117" spans="2:25" hidden="1">
+    <row r="117" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B117" s="11">
         <v>45921</v>
       </c>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="R117" s="13"/>
     </row>
-    <row r="118" spans="2:25" hidden="1">
+    <row r="118" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118" s="11">
         <v>45921</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="R118" s="13"/>
       <c r="Y118" s="13"/>
     </row>
-    <row r="119" spans="2:25" hidden="1">
+    <row r="119" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B119" s="11">
         <v>45921</v>
       </c>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="Y119" s="13"/>
     </row>
-    <row r="120" spans="2:25">
+    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B120" s="11">
         <v>45921</v>
       </c>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="R120" s="13"/>
     </row>
-    <row r="121" spans="2:25" hidden="1">
+    <row r="121" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B121" s="11">
         <v>45921</v>
       </c>
@@ -3302,7 +3302,7 @@
       <c r="R121" s="13"/>
       <c r="Y121" s="13"/>
     </row>
-    <row r="122" spans="2:25" hidden="1">
+    <row r="122" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B122" s="11">
         <v>45921</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25" hidden="1">
+    <row r="123" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="R123" s="13"/>
       <c r="Y123" s="13"/>
     </row>
-    <row r="124" spans="2:25" hidden="1">
+    <row r="124" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" s="11">
         <v>45922</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" spans="2:25" hidden="1">
+    <row r="125" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B125" s="11">
         <v>45922</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="R125" s="13"/>
       <c r="Y125" s="13"/>
     </row>
-    <row r="126" spans="2:25" hidden="1">
+    <row r="126" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126" s="11">
         <v>45922</v>
       </c>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="Y126" s="13"/>
     </row>
-    <row r="127" spans="2:25">
+    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B127" s="11">
         <v>45922</v>
       </c>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="R127" s="13"/>
     </row>
-    <row r="128" spans="2:25" hidden="1">
+    <row r="128" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B128" s="11">
         <v>45922</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="R128" s="13"/>
       <c r="Y128" s="13"/>
     </row>
-    <row r="129" spans="2:25" hidden="1">
+    <row r="129" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" s="11">
         <v>45922</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25" hidden="1">
+    <row r="130" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="R130" s="13"/>
       <c r="Y130" s="13"/>
     </row>
-    <row r="131" spans="2:25" hidden="1">
+    <row r="131" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B131" s="11">
         <v>45923</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="R131" s="13"/>
     </row>
-    <row r="132" spans="2:25" hidden="1">
+    <row r="132" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B132" s="11">
         <v>45923</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="R132" s="13"/>
       <c r="Y132" s="13"/>
     </row>
-    <row r="133" spans="2:25" hidden="1">
+    <row r="133" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B133" s="11">
         <v>45923</v>
       </c>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="Y133" s="13"/>
     </row>
-    <row r="134" spans="2:25">
+    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B134" s="11">
         <v>45923</v>
       </c>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="R134" s="13"/>
     </row>
-    <row r="135" spans="2:25" hidden="1">
+    <row r="135" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B135" s="11">
         <v>45923</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="R135" s="13"/>
       <c r="Y135" s="13"/>
     </row>
-    <row r="136" spans="2:25" hidden="1">
+    <row r="136" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B136" s="11">
         <v>45923</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25" hidden="1">
+    <row r="137" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="R137" s="13"/>
       <c r="Y137" s="13"/>
     </row>
-    <row r="138" spans="2:25" hidden="1">
+    <row r="138" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="11">
         <v>45924</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="R138" s="13"/>
     </row>
-    <row r="139" spans="2:25" hidden="1">
+    <row r="139" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="11">
         <v>45924</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="R139" s="13"/>
       <c r="Y139" s="13"/>
     </row>
-    <row r="140" spans="2:25" hidden="1">
+    <row r="140" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="11">
         <v>45924</v>
       </c>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="Y140" s="13"/>
     </row>
-    <row r="141" spans="2:25">
+    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B141" s="11">
         <v>45924</v>
       </c>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="R141" s="13"/>
     </row>
-    <row r="142" spans="2:25" hidden="1">
+    <row r="142" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142" s="11">
         <v>45924</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="R142" s="13"/>
       <c r="Y142" s="13"/>
     </row>
-    <row r="143" spans="2:25" hidden="1">
+    <row r="143" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B143" s="11">
         <v>45924</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25" hidden="1">
+    <row r="144" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="R144" s="13"/>
       <c r="Y144" s="13"/>
     </row>
-    <row r="145" spans="2:25" hidden="1">
+    <row r="145" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B145" s="11">
         <v>45925</v>
       </c>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="R145" s="13"/>
     </row>
-    <row r="146" spans="2:25" hidden="1">
+    <row r="146" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B146" s="11">
         <v>45925</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="R146" s="13"/>
       <c r="Y146" s="13"/>
     </row>
-    <row r="147" spans="2:25" hidden="1">
+    <row r="147" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B147" s="11">
         <v>45925</v>
       </c>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="Y147" s="13"/>
     </row>
-    <row r="148" spans="2:25">
+    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B148" s="11">
         <v>45925</v>
       </c>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="R148" s="13"/>
     </row>
-    <row r="149" spans="2:25" hidden="1">
+    <row r="149" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B149" s="11">
         <v>45925</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="R149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" hidden="1">
+    <row r="150" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150" s="11">
         <v>45925</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" hidden="1">
+    <row r="151" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -3590,7 +3590,7 @@
       <c r="R151" s="13"/>
       <c r="Y151" s="13"/>
     </row>
-    <row r="152" spans="2:25" hidden="1">
+    <row r="152" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="11">
         <v>45926</v>
       </c>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="R152" s="13"/>
     </row>
-    <row r="153" spans="2:25" hidden="1">
+    <row r="153" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="11">
         <v>45926</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="R153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="2:25" hidden="1">
+    <row r="154" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="11">
         <v>45926</v>
       </c>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="Y154" s="13"/>
     </row>
-    <row r="155" spans="2:25">
+    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B155" s="11">
         <v>45926</v>
       </c>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" spans="2:25" hidden="1">
+    <row r="156" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="11">
         <v>45926</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="R156" s="13"/>
       <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="2:25" hidden="1">
+    <row r="157" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="11">
         <v>45926</v>
       </c>
@@ -3647,7 +3647,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25" hidden="1">
+    <row r="158" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="R158" s="13"/>
       <c r="Y158" s="13"/>
     </row>
-    <row r="159" spans="2:25" hidden="1">
+    <row r="159" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="11">
         <v>45927</v>
       </c>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="R159" s="13"/>
     </row>
-    <row r="160" spans="2:25" hidden="1">
+    <row r="160" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="11">
         <v>45927</v>
       </c>
@@ -3676,7 +3676,7 @@
       <c r="R160" s="13"/>
       <c r="Y160" s="13"/>
     </row>
-    <row r="161" spans="2:25" hidden="1">
+    <row r="161" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="11">
         <v>45927</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="Y161" s="13"/>
     </row>
-    <row r="162" spans="2:25">
+    <row r="162" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B162" s="11">
         <v>45927</v>
       </c>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="R162" s="13"/>
     </row>
-    <row r="163" spans="2:25" hidden="1">
+    <row r="163" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="11">
         <v>45927</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="R163" s="13"/>
       <c r="Y163" s="13"/>
     </row>
-    <row r="164" spans="2:25" hidden="1">
+    <row r="164" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="11">
         <v>45927</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25" hidden="1">
+    <row r="165" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="R165" s="13"/>
       <c r="Y165" s="13"/>
     </row>
-    <row r="166" spans="2:25" hidden="1">
+    <row r="166" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="11">
         <v>45928</v>
       </c>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="R166" s="13"/>
     </row>
-    <row r="167" spans="2:25" hidden="1">
+    <row r="167" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="11">
         <v>45928</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="R167" s="13"/>
       <c r="Y167" s="13"/>
     </row>
-    <row r="168" spans="2:25" hidden="1">
+    <row r="168" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="11">
         <v>45928</v>
       </c>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="Y168" s="13"/>
     </row>
-    <row r="169" spans="2:25">
+    <row r="169" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B169" s="11">
         <v>45928</v>
       </c>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="R169" s="13"/>
     </row>
-    <row r="170" spans="2:25" hidden="1">
+    <row r="170" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="11">
         <v>45928</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="R170" s="13"/>
       <c r="Y170" s="13"/>
     </row>
-    <row r="171" spans="2:25" hidden="1">
+    <row r="171" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="11">
         <v>45928</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25" hidden="1">
+    <row r="172" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3791,7 +3791,7 @@
       <c r="R172" s="13"/>
       <c r="Y172" s="13"/>
     </row>
-    <row r="173" spans="2:25" hidden="1">
+    <row r="173" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="11">
         <v>45929</v>
       </c>
@@ -3800,7 +3800,7 @@
       </c>
       <c r="R173" s="13"/>
     </row>
-    <row r="174" spans="2:25" hidden="1">
+    <row r="174" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="11">
         <v>45929</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="R174" s="13"/>
       <c r="Y174" s="13"/>
     </row>
-    <row r="175" spans="2:25" hidden="1">
+    <row r="175" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="11">
         <v>45929</v>
       </c>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="Y175" s="13"/>
     </row>
-    <row r="176" spans="2:25">
+    <row r="176" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B176" s="11">
         <v>45929</v>
       </c>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" spans="2:25" hidden="1">
+    <row r="177" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="11">
         <v>45929</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="R177" s="13"/>
       <c r="Y177" s="13"/>
     </row>
-    <row r="178" spans="2:25" hidden="1">
+    <row r="178" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="11">
         <v>45929</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25" hidden="1">
+    <row r="179" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="R179" s="13"/>
       <c r="Y179" s="13"/>
     </row>
-    <row r="180" spans="2:25" hidden="1">
+    <row r="180" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="11">
         <v>45930</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="R180" s="13"/>
     </row>
-    <row r="181" spans="2:25" hidden="1">
+    <row r="181" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="11">
         <v>45930</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="R181" s="13"/>
       <c r="Y181" s="13"/>
     </row>
-    <row r="182" spans="2:25" hidden="1">
+    <row r="182" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="11">
         <v>45930</v>
       </c>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="Y182" s="13"/>
     </row>
-    <row r="183" spans="2:25">
+    <row r="183" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B183" s="11">
         <v>45930</v>
       </c>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="R183" s="13"/>
     </row>
-    <row r="184" spans="2:25" hidden="1">
+    <row r="184" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="11">
         <v>45930</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="R184" s="13"/>
       <c r="Y184" s="13"/>
     </row>
-    <row r="185" spans="2:25" hidden="1">
+    <row r="185" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="11">
         <v>45930</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="R185" s="13"/>
       <c r="Y185" s="13"/>
     </row>
-    <row r="186" spans="2:25" hidden="1">
+    <row r="186" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="11">
         <v>45931</v>
       </c>
@@ -3925,7 +3925,7 @@
       <c r="R186" s="13"/>
       <c r="Y186" s="13"/>
     </row>
-    <row r="187" spans="2:25" hidden="1">
+    <row r="187" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="11">
         <v>45931</v>
       </c>
@@ -3935,7 +3935,7 @@
       <c r="R187" s="13"/>
       <c r="Y187" s="13"/>
     </row>
-    <row r="188" spans="2:25" hidden="1">
+    <row r="188" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="11">
         <v>45931</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="R188" s="13"/>
       <c r="Y188" s="13"/>
     </row>
-    <row r="189" spans="2:25" hidden="1">
+    <row r="189" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="11">
         <v>45931</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="R189" s="13"/>
       <c r="Y189" s="13"/>
     </row>
-    <row r="190" spans="2:25" hidden="1">
+    <row r="190" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="11">
         <v>45931</v>
       </c>
@@ -3965,7 +3965,7 @@
       <c r="R190" s="13"/>
       <c r="Y190" s="13"/>
     </row>
-    <row r="191" spans="2:25" hidden="1">
+    <row r="191" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="11">
         <v>45931</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="R191" s="13"/>
       <c r="Y191" s="13"/>
     </row>
-    <row r="192" spans="2:25" hidden="1">
+    <row r="192" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="11">
         <v>45931</v>
       </c>
@@ -3985,7 +3985,7 @@
       <c r="R192" s="13"/>
       <c r="Y192" s="13"/>
     </row>
-    <row r="193" spans="2:25" hidden="1">
+    <row r="193" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="11">
         <v>45932</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="R193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" hidden="1">
+    <row r="194" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="11">
         <v>45932</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="R194" s="13"/>
       <c r="Y194" s="13"/>
     </row>
-    <row r="195" spans="2:25" hidden="1">
+    <row r="195" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="11">
         <v>45932</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="R195" s="13"/>
       <c r="Y195" s="13"/>
     </row>
-    <row r="196" spans="2:25" hidden="1">
+    <row r="196" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="11">
         <v>45932</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="R196" s="13"/>
       <c r="Y196" s="13"/>
     </row>
-    <row r="197" spans="2:25" hidden="1">
+    <row r="197" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="11">
         <v>45932</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="R197" s="13"/>
       <c r="Y197" s="13"/>
     </row>
-    <row r="198" spans="2:25" hidden="1">
+    <row r="198" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="11">
         <v>45932</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="R198" s="13"/>
       <c r="Y198" s="13"/>
     </row>
-    <row r="199" spans="2:25" hidden="1">
+    <row r="199" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="11">
         <v>45932</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="R199" s="13"/>
       <c r="Y199" s="13"/>
     </row>
-    <row r="200" spans="2:25" hidden="1">
+    <row r="200" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="11">
         <v>45933</v>
       </c>
@@ -4065,7 +4065,7 @@
       <c r="R200" s="13"/>
       <c r="Y200" s="13"/>
     </row>
-    <row r="201" spans="2:25" hidden="1">
+    <row r="201" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="11">
         <v>45933</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="R201" s="13"/>
       <c r="Y201" s="13"/>
     </row>
-    <row r="202" spans="2:25" hidden="1">
+    <row r="202" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="11">
         <v>45933</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="R202" s="13"/>
       <c r="Y202" s="13"/>
     </row>
-    <row r="203" spans="2:25" hidden="1">
+    <row r="203" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="11">
         <v>45933</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="R203" s="13"/>
       <c r="Y203" s="13"/>
     </row>
-    <row r="204" spans="2:25" hidden="1">
+    <row r="204" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="11">
         <v>45933</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="R204" s="13"/>
       <c r="Y204" s="13"/>
     </row>
-    <row r="205" spans="2:25" hidden="1">
+    <row r="205" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="11">
         <v>45933</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="R205" s="13"/>
       <c r="Y205" s="13"/>
     </row>
-    <row r="206" spans="2:25" hidden="1">
+    <row r="206" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="11">
         <v>45933</v>
       </c>
@@ -4125,7 +4125,7 @@
       <c r="R206" s="13"/>
       <c r="Y206" s="13"/>
     </row>
-    <row r="207" spans="2:25" hidden="1">
+    <row r="207" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="11">
         <v>45934</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="R207" s="13"/>
       <c r="Y207" s="13"/>
     </row>
-    <row r="208" spans="2:25" hidden="1">
+    <row r="208" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="11">
         <v>45934</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="R208" s="13"/>
       <c r="Y208" s="13"/>
     </row>
-    <row r="209" spans="2:25" hidden="1">
+    <row r="209" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="11">
         <v>45934</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="R209" s="13"/>
       <c r="Y209" s="13"/>
     </row>
-    <row r="210" spans="2:25" hidden="1">
+    <row r="210" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="11">
         <v>45934</v>
       </c>
@@ -4165,7 +4165,7 @@
       <c r="R210" s="13"/>
       <c r="Y210" s="13"/>
     </row>
-    <row r="211" spans="2:25" hidden="1">
+    <row r="211" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="11">
         <v>45934</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="R211" s="13"/>
       <c r="Y211" s="13"/>
     </row>
-    <row r="212" spans="2:25" hidden="1">
+    <row r="212" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="11">
         <v>45934</v>
       </c>
@@ -4185,7 +4185,7 @@
       <c r="R212" s="13"/>
       <c r="Y212" s="13"/>
     </row>
-    <row r="213" spans="2:25" hidden="1">
+    <row r="213" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="11">
         <v>45934</v>
       </c>
@@ -4195,7 +4195,7 @@
       <c r="R213" s="13"/>
       <c r="Y213" s="13"/>
     </row>
-    <row r="214" spans="2:25" hidden="1">
+    <row r="214" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="11">
         <v>45935</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="R214" s="13"/>
       <c r="Y214" s="13"/>
     </row>
-    <row r="215" spans="2:25" hidden="1">
+    <row r="215" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="11">
         <v>45935</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="R215" s="13"/>
       <c r="Y215" s="13"/>
     </row>
-    <row r="216" spans="2:25" hidden="1">
+    <row r="216" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="11">
         <v>45935</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="R216" s="13"/>
       <c r="Y216" s="13"/>
     </row>
-    <row r="217" spans="2:25" hidden="1">
+    <row r="217" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="11">
         <v>45935</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="R217" s="13"/>
       <c r="Y217" s="13"/>
     </row>
-    <row r="218" spans="2:25" hidden="1">
+    <row r="218" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="11">
         <v>45935</v>
       </c>
@@ -4245,7 +4245,7 @@
       <c r="R218" s="13"/>
       <c r="Y218" s="13"/>
     </row>
-    <row r="219" spans="2:25" hidden="1">
+    <row r="219" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="11">
         <v>45935</v>
       </c>
@@ -4255,7 +4255,7 @@
       <c r="R219" s="13"/>
       <c r="Y219" s="13"/>
     </row>
-    <row r="220" spans="2:25" hidden="1">
+    <row r="220" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="11">
         <v>45935</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="R220" s="13"/>
       <c r="Y220" s="13"/>
     </row>
-    <row r="221" spans="2:25" hidden="1">
+    <row r="221" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="11">
         <v>45936</v>
       </c>
@@ -4275,7 +4275,7 @@
       <c r="R221" s="13"/>
       <c r="Y221" s="13"/>
     </row>
-    <row r="222" spans="2:25" hidden="1">
+    <row r="222" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="11">
         <v>45936</v>
       </c>
@@ -4285,7 +4285,7 @@
       <c r="R222" s="13"/>
       <c r="Y222" s="13"/>
     </row>
-    <row r="223" spans="2:25" hidden="1">
+    <row r="223" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="11">
         <v>45936</v>
       </c>
@@ -4295,7 +4295,7 @@
       <c r="R223" s="13"/>
       <c r="Y223" s="13"/>
     </row>
-    <row r="224" spans="2:25" hidden="1">
+    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B224" s="11">
         <v>45936</v>
       </c>
@@ -4305,7 +4305,7 @@
       <c r="R224" s="13"/>
       <c r="Y224" s="13"/>
     </row>
-    <row r="225" spans="2:25" hidden="1">
+    <row r="225" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B225" s="11">
         <v>45936</v>
       </c>
@@ -4315,7 +4315,7 @@
       <c r="R225" s="13"/>
       <c r="Y225" s="13"/>
     </row>
-    <row r="226" spans="2:25" hidden="1">
+    <row r="226" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B226" s="11">
         <v>45936</v>
       </c>
@@ -4325,7 +4325,7 @@
       <c r="R226" s="13"/>
       <c r="Y226" s="13"/>
     </row>
-    <row r="227" spans="2:25" hidden="1">
+    <row r="227" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B227" s="11">
         <v>45936</v>
       </c>
@@ -4335,7 +4335,7 @@
       <c r="R227" s="13"/>
       <c r="Y227" s="13"/>
     </row>
-    <row r="228" spans="2:25" hidden="1">
+    <row r="228" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B228" s="11">
         <v>45937</v>
       </c>
@@ -4345,7 +4345,7 @@
       <c r="R228" s="13"/>
       <c r="Y228" s="13"/>
     </row>
-    <row r="229" spans="2:25" hidden="1">
+    <row r="229" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B229" s="11">
         <v>45937</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="R229" s="13"/>
       <c r="Y229" s="13"/>
     </row>
-    <row r="230" spans="2:25" hidden="1">
+    <row r="230" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230" s="11">
         <v>45937</v>
       </c>
@@ -4365,7 +4365,7 @@
       <c r="R230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="2:25" hidden="1">
+    <row r="231" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B231" s="11">
         <v>45937</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="R231" s="13"/>
       <c r="Y231" s="13"/>
     </row>
-    <row r="232" spans="2:25" hidden="1">
+    <row r="232" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B232" s="11">
         <v>45937</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="R232" s="13"/>
       <c r="Y232" s="13"/>
     </row>
-    <row r="233" spans="2:25" hidden="1">
+    <row r="233" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B233" s="11">
         <v>45937</v>
       </c>
@@ -4395,7 +4395,7 @@
       <c r="R233" s="13"/>
       <c r="Y233" s="13"/>
     </row>
-    <row r="234" spans="2:25" hidden="1">
+    <row r="234" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B234" s="11">
         <v>45937</v>
       </c>
@@ -4405,7 +4405,7 @@
       <c r="R234" s="13"/>
       <c r="Y234" s="13"/>
     </row>
-    <row r="235" spans="2:25" hidden="1">
+    <row r="235" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B235" s="11">
         <v>45938</v>
       </c>
@@ -4415,7 +4415,7 @@
       <c r="R235" s="13"/>
       <c r="Y235" s="13"/>
     </row>
-    <row r="236" spans="2:25" hidden="1">
+    <row r="236" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B236" s="11">
         <v>45938</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="R236" s="13"/>
       <c r="Y236" s="13"/>
     </row>
-    <row r="237" spans="2:25" hidden="1">
+    <row r="237" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B237" s="11">
         <v>45938</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="R237" s="13"/>
       <c r="Y237" s="13"/>
     </row>
-    <row r="238" spans="2:25" hidden="1">
+    <row r="238" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238" s="11">
         <v>45938</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="R238" s="13"/>
       <c r="Y238" s="13"/>
     </row>
-    <row r="239" spans="2:25" hidden="1">
+    <row r="239" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B239" s="11">
         <v>45938</v>
       </c>
@@ -4455,7 +4455,7 @@
       <c r="R239" s="13"/>
       <c r="Y239" s="13"/>
     </row>
-    <row r="240" spans="2:25" hidden="1">
+    <row r="240" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B240" s="11">
         <v>45938</v>
       </c>
@@ -4465,7 +4465,7 @@
       <c r="R240" s="13"/>
       <c r="Y240" s="13"/>
     </row>
-    <row r="241" spans="2:25" hidden="1">
+    <row r="241" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B241" s="11">
         <v>45938</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="R241" s="13"/>
       <c r="Y241" s="13"/>
     </row>
-    <row r="242" spans="2:25" hidden="1">
+    <row r="242" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B242" s="11">
         <v>45939</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="R242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" hidden="1">
+    <row r="243" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B243" s="11">
         <v>45939</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="R243" s="13"/>
       <c r="Y243" s="13"/>
     </row>
-    <row r="244" spans="2:25" hidden="1">
+    <row r="244" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B244" s="11">
         <v>45939</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="R244" s="13"/>
       <c r="Y244" s="13"/>
     </row>
-    <row r="245" spans="2:25" hidden="1">
+    <row r="245" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B245" s="11">
         <v>45939</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="R245" s="13"/>
       <c r="Y245" s="13"/>
     </row>
-    <row r="246" spans="2:25" hidden="1">
+    <row r="246" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B246" s="11">
         <v>45939</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="R246" s="13"/>
       <c r="Y246" s="13"/>
     </row>
-    <row r="247" spans="2:25" hidden="1">
+    <row r="247" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B247" s="11">
         <v>45939</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="R247" s="13"/>
       <c r="Y247" s="13"/>
     </row>
-    <row r="248" spans="2:25" hidden="1">
+    <row r="248" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B248" s="11">
         <v>45939</v>
       </c>
@@ -4545,7 +4545,7 @@
       <c r="R248" s="13"/>
       <c r="Y248" s="13"/>
     </row>
-    <row r="249" spans="2:25" hidden="1">
+    <row r="249" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B249" s="11">
         <v>45940</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="R249" s="13"/>
       <c r="Y249" s="13"/>
     </row>
-    <row r="250" spans="2:25" hidden="1">
+    <row r="250" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B250" s="11">
         <v>45940</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="R250" s="13"/>
       <c r="Y250" s="13"/>
     </row>
-    <row r="251" spans="2:25" hidden="1">
+    <row r="251" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B251" s="11">
         <v>45940</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="R251" s="13"/>
       <c r="Y251" s="13"/>
     </row>
-    <row r="252" spans="2:25" hidden="1">
+    <row r="252" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B252" s="11">
         <v>45940</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="R252" s="13"/>
       <c r="Y252" s="13"/>
     </row>
-    <row r="253" spans="2:25" hidden="1">
+    <row r="253" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B253" s="11">
         <v>45940</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="R253" s="13"/>
       <c r="Y253" s="13"/>
     </row>
-    <row r="254" spans="2:25" hidden="1">
+    <row r="254" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B254" s="11">
         <v>45940</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="R254" s="13"/>
       <c r="Y254" s="13"/>
     </row>
-    <row r="255" spans="2:25" hidden="1">
+    <row r="255" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B255" s="11">
         <v>45940</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="R255" s="13"/>
       <c r="Y255" s="13"/>
     </row>
-    <row r="256" spans="2:25" hidden="1">
+    <row r="256" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B256" s="11">
         <v>45941</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="R256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="2:25" hidden="1">
+    <row r="257" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B257" s="11">
         <v>45941</v>
       </c>
@@ -4635,7 +4635,7 @@
       <c r="R257" s="13"/>
       <c r="Y257" s="13"/>
     </row>
-    <row r="258" spans="2:25" hidden="1">
+    <row r="258" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B258" s="11">
         <v>45941</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="R258" s="13"/>
       <c r="Y258" s="13"/>
     </row>
-    <row r="259" spans="2:25" hidden="1">
+    <row r="259" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B259" s="11">
         <v>45941</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="R259" s="13"/>
       <c r="Y259" s="13"/>
     </row>
-    <row r="260" spans="2:25" hidden="1">
+    <row r="260" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B260" s="11">
         <v>45941</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="R260" s="13"/>
       <c r="Y260" s="13"/>
     </row>
-    <row r="261" spans="2:25" hidden="1">
+    <row r="261" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B261" s="11">
         <v>45941</v>
       </c>
@@ -4675,7 +4675,7 @@
       <c r="R261" s="13"/>
       <c r="Y261" s="13"/>
     </row>
-    <row r="262" spans="2:25" hidden="1">
+    <row r="262" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B262" s="11">
         <v>45941</v>
       </c>
@@ -4685,7 +4685,7 @@
       <c r="R262" s="13"/>
       <c r="Y262" s="13"/>
     </row>
-    <row r="263" spans="2:25" hidden="1">
+    <row r="263" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B263" s="11">
         <v>45942</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="R263" s="13"/>
       <c r="Y263" s="13"/>
     </row>
-    <row r="264" spans="2:25" hidden="1">
+    <row r="264" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B264" s="11">
         <v>45942</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="R264" s="13"/>
       <c r="Y264" s="13"/>
     </row>
-    <row r="265" spans="2:25" hidden="1">
+    <row r="265" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B265" s="11">
         <v>45942</v>
       </c>
@@ -4715,7 +4715,7 @@
       <c r="R265" s="13"/>
       <c r="Y265" s="13"/>
     </row>
-    <row r="266" spans="2:25" hidden="1">
+    <row r="266" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B266" s="11">
         <v>45942</v>
       </c>
@@ -4725,7 +4725,7 @@
       <c r="R266" s="13"/>
       <c r="Y266" s="13"/>
     </row>
-    <row r="267" spans="2:25" hidden="1">
+    <row r="267" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B267" s="11">
         <v>45942</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="R267" s="13"/>
       <c r="Y267" s="13"/>
     </row>
-    <row r="268" spans="2:25" hidden="1">
+    <row r="268" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B268" s="11">
         <v>45942</v>
       </c>
@@ -4745,7 +4745,7 @@
       <c r="R268" s="13"/>
       <c r="Y268" s="13"/>
     </row>
-    <row r="269" spans="2:25" hidden="1">
+    <row r="269" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B269" s="11">
         <v>45942</v>
       </c>
@@ -4755,7 +4755,7 @@
       <c r="R269" s="13"/>
       <c r="Y269" s="13"/>
     </row>
-    <row r="270" spans="2:25" hidden="1">
+    <row r="270" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B270" s="11">
         <v>45943</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="R270" s="13"/>
       <c r="Y270" s="13"/>
     </row>
-    <row r="271" spans="2:25" hidden="1">
+    <row r="271" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B271" s="11">
         <v>45943</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="R271" s="13"/>
       <c r="Y271" s="13"/>
     </row>
-    <row r="272" spans="2:25" hidden="1">
+    <row r="272" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B272" s="11">
         <v>45943</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="R272" s="13"/>
       <c r="Y272" s="13"/>
     </row>
-    <row r="273" spans="2:25" hidden="1">
+    <row r="273" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B273" s="11">
         <v>45943</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="R273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" hidden="1">
+    <row r="274" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B274" s="11">
         <v>45943</v>
       </c>
@@ -4805,7 +4805,7 @@
       <c r="R274" s="13"/>
       <c r="Y274" s="13"/>
     </row>
-    <row r="275" spans="2:25" hidden="1">
+    <row r="275" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B275" s="11">
         <v>45943</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="R275" s="13"/>
       <c r="Y275" s="13"/>
     </row>
-    <row r="276" spans="2:25" hidden="1">
+    <row r="276" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B276" s="11">
         <v>45943</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="R276" s="13"/>
       <c r="Y276" s="13"/>
     </row>
-    <row r="277" spans="2:25" hidden="1">
+    <row r="277" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B277" s="11">
         <v>45944</v>
       </c>
@@ -4835,7 +4835,7 @@
       <c r="R277" s="13"/>
       <c r="Y277" s="13"/>
     </row>
-    <row r="278" spans="2:25" hidden="1">
+    <row r="278" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B278" s="11">
         <v>45944</v>
       </c>
@@ -4845,7 +4845,7 @@
       <c r="R278" s="13"/>
       <c r="Y278" s="13"/>
     </row>
-    <row r="279" spans="2:25" hidden="1">
+    <row r="279" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B279" s="11">
         <v>45944</v>
       </c>
@@ -4855,7 +4855,7 @@
       <c r="R279" s="13"/>
       <c r="Y279" s="13"/>
     </row>
-    <row r="280" spans="2:25" hidden="1">
+    <row r="280" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B280" s="11">
         <v>45944</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="R280" s="13"/>
       <c r="Y280" s="13"/>
     </row>
-    <row r="281" spans="2:25" hidden="1">
+    <row r="281" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B281" s="11">
         <v>45944</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="R281" s="13"/>
       <c r="Y281" s="13"/>
     </row>
-    <row r="282" spans="2:25" hidden="1">
+    <row r="282" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B282" s="11">
         <v>45944</v>
       </c>
@@ -4885,7 +4885,7 @@
       <c r="R282" s="13"/>
       <c r="Y282" s="13"/>
     </row>
-    <row r="283" spans="2:25" hidden="1">
+    <row r="283" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B283" s="11">
         <v>45944</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="R283" s="13"/>
       <c r="Y283" s="13"/>
     </row>
-    <row r="284" spans="2:25" hidden="1">
+    <row r="284" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B284" s="11">
         <v>45945</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="R284" s="13"/>
       <c r="Y284" s="13"/>
     </row>
-    <row r="285" spans="2:25" hidden="1">
+    <row r="285" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B285" s="11">
         <v>45945</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="R285" s="13"/>
       <c r="Y285" s="13"/>
     </row>
-    <row r="286" spans="2:25" hidden="1">
+    <row r="286" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B286" s="11">
         <v>45945</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="R286" s="13"/>
       <c r="Y286" s="13"/>
     </row>
-    <row r="287" spans="2:25" hidden="1">
+    <row r="287" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B287" s="11">
         <v>45945</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="R287" s="13"/>
       <c r="Y287" s="13"/>
     </row>
-    <row r="288" spans="2:25" hidden="1">
+    <row r="288" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B288" s="11">
         <v>45945</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="R288" s="13"/>
       <c r="Y288" s="13"/>
     </row>
-    <row r="289" spans="2:25" hidden="1">
+    <row r="289" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B289" s="11">
         <v>45945</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="R289" s="13"/>
       <c r="Y289" s="13"/>
     </row>
-    <row r="290" spans="2:25" hidden="1">
+    <row r="290" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B290" s="11">
         <v>45945</v>
       </c>
@@ -4965,7 +4965,7 @@
       <c r="R290" s="13"/>
       <c r="Y290" s="13"/>
     </row>
-    <row r="291" spans="2:25" hidden="1">
+    <row r="291" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B291" s="11">
         <v>45946</v>
       </c>
@@ -4975,7 +4975,7 @@
       <c r="R291" s="13"/>
       <c r="Y291" s="13"/>
     </row>
-    <row r="292" spans="2:25" hidden="1">
+    <row r="292" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B292" s="11">
         <v>45946</v>
       </c>
@@ -4985,7 +4985,7 @@
       <c r="R292" s="13"/>
       <c r="Y292" s="13"/>
     </row>
-    <row r="293" spans="2:25" hidden="1">
+    <row r="293" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B293" s="11">
         <v>45946</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="R293" s="13"/>
       <c r="Y293" s="13"/>
     </row>
-    <row r="294" spans="2:25" hidden="1">
+    <row r="294" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B294" s="11">
         <v>45946</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="R294" s="13"/>
       <c r="Y294" s="13"/>
     </row>
-    <row r="295" spans="2:25" hidden="1">
+    <row r="295" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B295" s="11">
         <v>45946</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="R295" s="13"/>
       <c r="Y295" s="13"/>
     </row>
-    <row r="296" spans="2:25" hidden="1">
+    <row r="296" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B296" s="11">
         <v>45946</v>
       </c>
@@ -5025,7 +5025,7 @@
       <c r="R296" s="13"/>
       <c r="Y296" s="13"/>
     </row>
-    <row r="297" spans="2:25" hidden="1">
+    <row r="297" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297" s="11">
         <v>45946</v>
       </c>
@@ -5035,7 +5035,7 @@
       <c r="R297" s="13"/>
       <c r="Y297" s="13"/>
     </row>
-    <row r="298" spans="2:25" hidden="1">
+    <row r="298" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298" s="11">
         <v>45947</v>
       </c>
@@ -5045,7 +5045,7 @@
       <c r="R298" s="13"/>
       <c r="Y298" s="13"/>
     </row>
-    <row r="299" spans="2:25" hidden="1">
+    <row r="299" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299" s="11">
         <v>45947</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="R299" s="13"/>
       <c r="Y299" s="13"/>
     </row>
-    <row r="300" spans="2:25" hidden="1">
+    <row r="300" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300" s="11">
         <v>45947</v>
       </c>
@@ -5065,7 +5065,7 @@
       <c r="R300" s="13"/>
       <c r="Y300" s="13"/>
     </row>
-    <row r="301" spans="2:25" hidden="1">
+    <row r="301" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B301" s="11">
         <v>45947</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="R301" s="13"/>
       <c r="Y301" s="13"/>
     </row>
-    <row r="302" spans="2:25" hidden="1">
+    <row r="302" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B302" s="11">
         <v>45947</v>
       </c>
@@ -5085,7 +5085,7 @@
       <c r="R302" s="13"/>
       <c r="Y302" s="13"/>
     </row>
-    <row r="303" spans="2:25" hidden="1">
+    <row r="303" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="11">
         <v>45947</v>
       </c>
@@ -5095,7 +5095,7 @@
       <c r="R303" s="13"/>
       <c r="Y303" s="13"/>
     </row>
-    <row r="304" spans="2:25" hidden="1">
+    <row r="304" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B304" s="11">
         <v>45947</v>
       </c>
@@ -5105,7 +5105,7 @@
       <c r="R304" s="13"/>
       <c r="Y304" s="13"/>
     </row>
-    <row r="305" spans="2:25" hidden="1">
+    <row r="305" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B305" s="11">
         <v>45948</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="R305" s="13"/>
       <c r="Y305" s="13"/>
     </row>
-    <row r="306" spans="2:25" hidden="1">
+    <row r="306" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306" s="11">
         <v>45948</v>
       </c>
@@ -5125,7 +5125,7 @@
       <c r="R306" s="13"/>
       <c r="Y306" s="13"/>
     </row>
-    <row r="307" spans="2:25" hidden="1">
+    <row r="307" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="11">
         <v>45948</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="R307" s="13"/>
       <c r="Y307" s="13"/>
     </row>
-    <row r="308" spans="2:25" hidden="1">
+    <row r="308" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308" s="11">
         <v>45948</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="R308" s="13"/>
       <c r="Y308" s="13"/>
     </row>
-    <row r="309" spans="2:25" hidden="1">
+    <row r="309" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="11">
         <v>45948</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="R309" s="13"/>
       <c r="Y309" s="13"/>
     </row>
-    <row r="310" spans="2:25" hidden="1">
+    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="11">
         <v>45948</v>
       </c>
@@ -5165,7 +5165,7 @@
       <c r="R310" s="13"/>
       <c r="Y310" s="13"/>
     </row>
-    <row r="311" spans="2:25" hidden="1">
+    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B311" s="11">
         <v>45948</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="R311" s="13"/>
       <c r="Y311" s="13"/>
     </row>
-    <row r="312" spans="2:25" hidden="1">
+    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B312" s="11">
         <v>45949</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="R312" s="13"/>
       <c r="Y312" s="13"/>
     </row>
-    <row r="313" spans="2:25" hidden="1">
+    <row r="313" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B313" s="11">
         <v>45949</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="R313" s="13"/>
       <c r="Y313" s="13"/>
     </row>
-    <row r="314" spans="2:25" hidden="1">
+    <row r="314" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B314" s="11">
         <v>45949</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="R314" s="13"/>
       <c r="Y314" s="13"/>
     </row>
-    <row r="315" spans="2:25" hidden="1">
+    <row r="315" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="11">
         <v>45949</v>
       </c>
@@ -5215,7 +5215,7 @@
       <c r="R315" s="13"/>
       <c r="Y315" s="13"/>
     </row>
-    <row r="316" spans="2:25" hidden="1">
+    <row r="316" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316" s="11">
         <v>45949</v>
       </c>
@@ -5225,7 +5225,7 @@
       <c r="R316" s="13"/>
       <c r="Y316" s="13"/>
     </row>
-    <row r="317" spans="2:25" hidden="1">
+    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B317" s="11">
         <v>45949</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="R317" s="13"/>
       <c r="Y317" s="13"/>
     </row>
-    <row r="318" spans="2:25" hidden="1">
+    <row r="318" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B318" s="11">
         <v>45949</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="R318" s="13"/>
       <c r="Y318" s="13"/>
     </row>
-    <row r="319" spans="2:25" hidden="1">
+    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B319" s="11">
         <v>45950</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="R319" s="13"/>
       <c r="Y319" s="13"/>
     </row>
-    <row r="320" spans="2:25" hidden="1">
+    <row r="320" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B320" s="11">
         <v>45950</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="R320" s="13"/>
       <c r="Y320" s="13"/>
     </row>
-    <row r="321" spans="2:25" hidden="1">
+    <row r="321" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B321" s="11">
         <v>45950</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="R321" s="13"/>
       <c r="Y321" s="13"/>
     </row>
-    <row r="322" spans="2:25" hidden="1">
+    <row r="322" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B322" s="11">
         <v>45950</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="R322" s="13"/>
       <c r="Y322" s="13"/>
     </row>
-    <row r="323" spans="2:25" hidden="1">
+    <row r="323" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B323" s="11">
         <v>45950</v>
       </c>
@@ -5295,7 +5295,7 @@
       <c r="R323" s="13"/>
       <c r="Y323" s="13"/>
     </row>
-    <row r="324" spans="2:25" hidden="1">
+    <row r="324" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B324" s="11">
         <v>45950</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="R324" s="13"/>
       <c r="Y324" s="13"/>
     </row>
-    <row r="325" spans="2:25" hidden="1">
+    <row r="325" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B325" s="11">
         <v>45950</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="R325" s="13"/>
       <c r="Y325" s="13"/>
     </row>
-    <row r="326" spans="2:25" hidden="1">
+    <row r="326" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B326" s="11">
         <v>45951</v>
       </c>
@@ -5325,7 +5325,7 @@
       <c r="R326" s="13"/>
       <c r="Y326" s="13"/>
     </row>
-    <row r="327" spans="2:25" hidden="1">
+    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B327" s="11">
         <v>45951</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="R327" s="13"/>
       <c r="Y327" s="13"/>
     </row>
-    <row r="328" spans="2:25" hidden="1">
+    <row r="328" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B328" s="11">
         <v>45951</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="R328" s="13"/>
       <c r="Y328" s="13"/>
     </row>
-    <row r="329" spans="2:25" hidden="1">
+    <row r="329" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B329" s="11">
         <v>45951</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="R329" s="13"/>
       <c r="Y329" s="13"/>
     </row>
-    <row r="330" spans="2:25" hidden="1">
+    <row r="330" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B330" s="11">
         <v>45951</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="R330" s="13"/>
       <c r="Y330" s="13"/>
     </row>
-    <row r="331" spans="2:25" hidden="1">
+    <row r="331" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B331" s="11">
         <v>45951</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="R331" s="13"/>
       <c r="Y331" s="13"/>
     </row>
-    <row r="332" spans="2:25" hidden="1">
+    <row r="332" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B332" s="11">
         <v>45951</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="R332" s="13"/>
       <c r="Y332" s="13"/>
     </row>
-    <row r="333" spans="2:25" hidden="1">
+    <row r="333" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B333" s="11">
         <v>45952</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="R333" s="13"/>
       <c r="Y333" s="13"/>
     </row>
-    <row r="334" spans="2:25" hidden="1">
+    <row r="334" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B334" s="11">
         <v>45952</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="R334" s="13"/>
       <c r="Y334" s="13"/>
     </row>
-    <row r="335" spans="2:25" hidden="1">
+    <row r="335" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B335" s="11">
         <v>45952</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="R335" s="13"/>
       <c r="Y335" s="13"/>
     </row>
-    <row r="336" spans="2:25" hidden="1">
+    <row r="336" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B336" s="11">
         <v>45952</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="R336" s="13"/>
       <c r="Y336" s="13"/>
     </row>
-    <row r="337" spans="2:25" hidden="1">
+    <row r="337" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B337" s="11">
         <v>45952</v>
       </c>
@@ -5435,7 +5435,7 @@
       <c r="R337" s="13"/>
       <c r="Y337" s="13"/>
     </row>
-    <row r="338" spans="2:25" hidden="1">
+    <row r="338" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B338" s="11">
         <v>45952</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="R338" s="13"/>
       <c r="Y338" s="13"/>
     </row>
-    <row r="339" spans="2:25" hidden="1">
+    <row r="339" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B339" s="11">
         <v>45952</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="R339" s="13"/>
       <c r="Y339" s="13"/>
     </row>
-    <row r="340" spans="2:25" hidden="1">
+    <row r="340" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B340" s="11">
         <v>45953</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="R340" s="13"/>
       <c r="Y340" s="13"/>
     </row>
-    <row r="341" spans="2:25" hidden="1">
+    <row r="341" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B341" s="11">
         <v>45953</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="R341" s="13"/>
       <c r="Y341" s="13"/>
     </row>
-    <row r="342" spans="2:25" hidden="1">
+    <row r="342" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B342" s="11">
         <v>45953</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="R342" s="13"/>
       <c r="Y342" s="13"/>
     </row>
-    <row r="343" spans="2:25" hidden="1">
+    <row r="343" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B343" s="11">
         <v>45953</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="R343" s="13"/>
       <c r="Y343" s="13"/>
     </row>
-    <row r="344" spans="2:25" hidden="1">
+    <row r="344" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B344" s="11">
         <v>45953</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="R344" s="13"/>
       <c r="Y344" s="13"/>
     </row>
-    <row r="345" spans="2:25" hidden="1">
+    <row r="345" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B345" s="11">
         <v>45953</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="R345" s="13"/>
       <c r="Y345" s="13"/>
     </row>
-    <row r="346" spans="2:25" hidden="1">
+    <row r="346" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B346" s="11">
         <v>45953</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="R346" s="13"/>
       <c r="Y346" s="13"/>
     </row>
-    <row r="347" spans="2:25" hidden="1">
+    <row r="347" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B347" s="11">
         <v>45954</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="R347" s="13"/>
       <c r="Y347" s="13"/>
     </row>
-    <row r="348" spans="2:25" hidden="1">
+    <row r="348" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B348" s="11">
         <v>45954</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="R348" s="13"/>
       <c r="Y348" s="13"/>
     </row>
-    <row r="349" spans="2:25" hidden="1">
+    <row r="349" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B349" s="11">
         <v>45954</v>
       </c>
@@ -5555,7 +5555,7 @@
       <c r="R349" s="13"/>
       <c r="Y349" s="13"/>
     </row>
-    <row r="350" spans="2:25" hidden="1">
+    <row r="350" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B350" s="11">
         <v>45954</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="R350" s="13"/>
       <c r="Y350" s="13"/>
     </row>
-    <row r="351" spans="2:25" hidden="1">
+    <row r="351" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B351" s="11">
         <v>45954</v>
       </c>
@@ -5575,7 +5575,7 @@
       <c r="R351" s="13"/>
       <c r="Y351" s="13"/>
     </row>
-    <row r="352" spans="2:25" hidden="1">
+    <row r="352" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B352" s="11">
         <v>45954</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="R352" s="13"/>
       <c r="Y352" s="13"/>
     </row>
-    <row r="353" spans="2:25" hidden="1">
+    <row r="353" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B353" s="11">
         <v>45954</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="R353" s="13"/>
       <c r="Y353" s="13"/>
     </row>
-    <row r="354" spans="2:25" hidden="1">
+    <row r="354" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B354" s="11">
         <v>45955</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="R354" s="13"/>
       <c r="Y354" s="13"/>
     </row>
-    <row r="355" spans="2:25" hidden="1">
+    <row r="355" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B355" s="11">
         <v>45955</v>
       </c>
@@ -5615,7 +5615,7 @@
       <c r="R355" s="13"/>
       <c r="Y355" s="13"/>
     </row>
-    <row r="356" spans="2:25" hidden="1">
+    <row r="356" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B356" s="11">
         <v>45955</v>
       </c>
@@ -5625,7 +5625,7 @@
       <c r="R356" s="13"/>
       <c r="Y356" s="13"/>
     </row>
-    <row r="357" spans="2:25" hidden="1">
+    <row r="357" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B357" s="11">
         <v>45955</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="R357" s="13"/>
       <c r="Y357" s="13"/>
     </row>
-    <row r="358" spans="2:25" hidden="1">
+    <row r="358" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B358" s="11">
         <v>45955</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="R358" s="13"/>
       <c r="Y358" s="13"/>
     </row>
-    <row r="359" spans="2:25" hidden="1">
+    <row r="359" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B359" s="11">
         <v>45955</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="R359" s="13"/>
       <c r="Y359" s="13"/>
     </row>
-    <row r="360" spans="2:25" hidden="1">
+    <row r="360" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B360" s="11">
         <v>45955</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="R360" s="13"/>
       <c r="Y360" s="13"/>
     </row>
-    <row r="361" spans="2:25" hidden="1">
+    <row r="361" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B361" s="11">
         <v>45956</v>
       </c>
@@ -5675,7 +5675,7 @@
       <c r="R361" s="13"/>
       <c r="Y361" s="13"/>
     </row>
-    <row r="362" spans="2:25" hidden="1">
+    <row r="362" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B362" s="11">
         <v>45956</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c r="R362" s="13"/>
       <c r="Y362" s="13"/>
     </row>
-    <row r="363" spans="2:25" hidden="1">
+    <row r="363" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B363" s="11">
         <v>45956</v>
       </c>
@@ -5695,7 +5695,7 @@
       <c r="R363" s="13"/>
       <c r="Y363" s="13"/>
     </row>
-    <row r="364" spans="2:25" hidden="1">
+    <row r="364" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B364" s="11">
         <v>45956</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="R364" s="13"/>
       <c r="Y364" s="13"/>
     </row>
-    <row r="365" spans="2:25" hidden="1">
+    <row r="365" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B365" s="11">
         <v>45956</v>
       </c>
@@ -5715,7 +5715,7 @@
       <c r="R365" s="13"/>
       <c r="Y365" s="13"/>
     </row>
-    <row r="366" spans="2:25" hidden="1">
+    <row r="366" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B366" s="11">
         <v>45956</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="R366" s="13"/>
       <c r="Y366" s="13"/>
     </row>
-    <row r="367" spans="2:25" hidden="1">
+    <row r="367" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B367" s="11">
         <v>45956</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="R367" s="13"/>
       <c r="Y367" s="13"/>
     </row>
-    <row r="368" spans="2:25" hidden="1">
+    <row r="368" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B368" s="11">
         <v>45957</v>
       </c>
@@ -5745,7 +5745,7 @@
       <c r="R368" s="13"/>
       <c r="Y368" s="13"/>
     </row>
-    <row r="369" spans="2:25" hidden="1">
+    <row r="369" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B369" s="11">
         <v>45957</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="R369" s="13"/>
       <c r="Y369" s="13"/>
     </row>
-    <row r="370" spans="2:25" hidden="1">
+    <row r="370" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B370" s="11">
         <v>45957</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="R370" s="13"/>
       <c r="Y370" s="13"/>
     </row>
-    <row r="371" spans="2:25" hidden="1">
+    <row r="371" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B371" s="11">
         <v>45957</v>
       </c>
@@ -5775,7 +5775,7 @@
       <c r="R371" s="13"/>
       <c r="Y371" s="13"/>
     </row>
-    <row r="372" spans="2:25" hidden="1">
+    <row r="372" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B372" s="11">
         <v>45957</v>
       </c>
@@ -5785,7 +5785,7 @@
       <c r="R372" s="13"/>
       <c r="Y372" s="13"/>
     </row>
-    <row r="373" spans="2:25" hidden="1">
+    <row r="373" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B373" s="11">
         <v>45957</v>
       </c>
@@ -5795,7 +5795,7 @@
       <c r="R373" s="13"/>
       <c r="Y373" s="13"/>
     </row>
-    <row r="374" spans="2:25" hidden="1">
+    <row r="374" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B374" s="11">
         <v>45957</v>
       </c>
@@ -5805,7 +5805,7 @@
       <c r="R374" s="13"/>
       <c r="Y374" s="13"/>
     </row>
-    <row r="375" spans="2:25" hidden="1">
+    <row r="375" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B375" s="11">
         <v>45958</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="R375" s="13"/>
       <c r="Y375" s="13"/>
     </row>
-    <row r="376" spans="2:25" hidden="1">
+    <row r="376" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B376" s="11">
         <v>45958</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="R376" s="13"/>
       <c r="Y376" s="13"/>
     </row>
-    <row r="377" spans="2:25" hidden="1">
+    <row r="377" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B377" s="11">
         <v>45958</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="R377" s="13"/>
       <c r="Y377" s="13"/>
     </row>
-    <row r="378" spans="2:25" hidden="1">
+    <row r="378" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B378" s="11">
         <v>45958</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="R378" s="13"/>
       <c r="Y378" s="13"/>
     </row>
-    <row r="379" spans="2:25" hidden="1">
+    <row r="379" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B379" s="11">
         <v>45958</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="R379" s="13"/>
       <c r="Y379" s="13"/>
     </row>
-    <row r="380" spans="2:25" hidden="1">
+    <row r="380" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B380" s="11">
         <v>45958</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="R380" s="13"/>
       <c r="Y380" s="13"/>
     </row>
-    <row r="381" spans="2:25" hidden="1">
+    <row r="381" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B381" s="11">
         <v>45958</v>
       </c>
@@ -5875,7 +5875,7 @@
       <c r="R381" s="13"/>
       <c r="Y381" s="13"/>
     </row>
-    <row r="382" spans="2:25" hidden="1">
+    <row r="382" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B382" s="11">
         <v>45959</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="R382" s="13"/>
       <c r="Y382" s="13"/>
     </row>
-    <row r="383" spans="2:25" hidden="1">
+    <row r="383" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B383" s="11">
         <v>45959</v>
       </c>
@@ -5895,7 +5895,7 @@
       <c r="R383" s="13"/>
       <c r="Y383" s="13"/>
     </row>
-    <row r="384" spans="2:25" hidden="1">
+    <row r="384" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B384" s="11">
         <v>45959</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="R384" s="13"/>
       <c r="Y384" s="13"/>
     </row>
-    <row r="385" spans="2:25" hidden="1">
+    <row r="385" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B385" s="11">
         <v>45959</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="R385" s="13"/>
       <c r="Y385" s="13"/>
     </row>
-    <row r="386" spans="2:25" hidden="1">
+    <row r="386" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B386" s="11">
         <v>45959</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="R386" s="13"/>
       <c r="Y386" s="13"/>
     </row>
-    <row r="387" spans="2:25" hidden="1">
+    <row r="387" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B387" s="11">
         <v>45959</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="R387" s="13"/>
       <c r="Y387" s="13"/>
     </row>
-    <row r="388" spans="2:25" hidden="1">
+    <row r="388" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B388" s="11">
         <v>45959</v>
       </c>
@@ -5945,7 +5945,7 @@
       <c r="R388" s="13"/>
       <c r="Y388" s="13"/>
     </row>
-    <row r="389" spans="2:25" hidden="1">
+    <row r="389" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B389" s="11">
         <v>45960</v>
       </c>
@@ -5955,7 +5955,7 @@
       <c r="R389" s="13"/>
       <c r="Y389" s="13"/>
     </row>
-    <row r="390" spans="2:25" hidden="1">
+    <row r="390" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B390" s="11">
         <v>45960</v>
       </c>
@@ -5965,7 +5965,7 @@
       <c r="R390" s="13"/>
       <c r="Y390" s="13"/>
     </row>
-    <row r="391" spans="2:25" hidden="1">
+    <row r="391" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B391" s="11">
         <v>45960</v>
       </c>
@@ -5975,7 +5975,7 @@
       <c r="R391" s="13"/>
       <c r="Y391" s="13"/>
     </row>
-    <row r="392" spans="2:25" hidden="1">
+    <row r="392" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B392" s="11">
         <v>45960</v>
       </c>
@@ -5985,7 +5985,7 @@
       <c r="R392" s="13"/>
       <c r="Y392" s="13"/>
     </row>
-    <row r="393" spans="2:25" hidden="1">
+    <row r="393" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B393" s="11">
         <v>45960</v>
       </c>
@@ -5995,7 +5995,7 @@
       <c r="R393" s="13"/>
       <c r="Y393" s="13"/>
     </row>
-    <row r="394" spans="2:25" hidden="1">
+    <row r="394" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="11">
         <v>45960</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="R394" s="13"/>
       <c r="Y394" s="13"/>
     </row>
-    <row r="395" spans="2:25" hidden="1">
+    <row r="395" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="11">
         <v>45960</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="R395" s="13"/>
       <c r="Y395" s="13"/>
     </row>
-    <row r="396" spans="2:25" hidden="1">
+    <row r="396" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B396" s="11">
         <v>45961</v>
       </c>
@@ -6025,7 +6025,7 @@
       <c r="R396" s="13"/>
       <c r="Y396" s="13"/>
     </row>
-    <row r="397" spans="2:25" hidden="1">
+    <row r="397" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B397" s="11">
         <v>45961</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="R397" s="13"/>
       <c r="Y397" s="13"/>
     </row>
-    <row r="398" spans="2:25" hidden="1">
+    <row r="398" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B398" s="11">
         <v>45961</v>
       </c>
@@ -6045,7 +6045,7 @@
       <c r="R398" s="13"/>
       <c r="Y398" s="13"/>
     </row>
-    <row r="399" spans="2:25" hidden="1">
+    <row r="399" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B399" s="11">
         <v>45961</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="R399" s="13"/>
       <c r="Y399" s="13"/>
     </row>
-    <row r="400" spans="2:25" hidden="1">
+    <row r="400" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B400" s="11">
         <v>45961</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="R400" s="13"/>
       <c r="Y400" s="13"/>
     </row>
-    <row r="401" spans="2:25" hidden="1">
+    <row r="401" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B401" s="11">
         <v>45961</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="R401" s="13"/>
       <c r="Y401" s="13"/>
     </row>
-    <row r="402" spans="2:25" hidden="1">
+    <row r="402" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B402" s="11">
         <v>45961</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="R402" s="13"/>
       <c r="Y402" s="13"/>
     </row>
-    <row r="403" spans="2:25" hidden="1">
+    <row r="403" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B403" s="11">
         <v>45962</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="R403" s="13"/>
       <c r="Y403" s="13"/>
     </row>
-    <row r="404" spans="2:25" hidden="1">
+    <row r="404" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B404" s="11">
         <v>45962</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="R404" s="13"/>
       <c r="Y404" s="13"/>
     </row>
-    <row r="405" spans="2:25" hidden="1">
+    <row r="405" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B405" s="11">
         <v>45962</v>
       </c>
@@ -6115,7 +6115,7 @@
       <c r="R405" s="13"/>
       <c r="Y405" s="13"/>
     </row>
-    <row r="406" spans="2:25" hidden="1">
+    <row r="406" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B406" s="11">
         <v>45962</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="R406" s="13"/>
       <c r="Y406" s="13"/>
     </row>
-    <row r="407" spans="2:25" hidden="1">
+    <row r="407" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B407" s="11">
         <v>45962</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="R407" s="13"/>
       <c r="Y407" s="13"/>
     </row>
-    <row r="408" spans="2:25" hidden="1">
+    <row r="408" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B408" s="11">
         <v>45962</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="R408" s="13"/>
       <c r="Y408" s="13"/>
     </row>
-    <row r="409" spans="2:25" hidden="1">
+    <row r="409" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B409" s="11">
         <v>45962</v>
       </c>
@@ -6155,7 +6155,7 @@
       <c r="R409" s="13"/>
       <c r="Y409" s="13"/>
     </row>
-    <row r="410" spans="2:25" hidden="1">
+    <row r="410" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B410" s="11">
         <v>45963</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="R410" s="13"/>
       <c r="Y410" s="13"/>
     </row>
-    <row r="411" spans="2:25" hidden="1">
+    <row r="411" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B411" s="11">
         <v>45963</v>
       </c>
@@ -6175,7 +6175,7 @@
       <c r="R411" s="13"/>
       <c r="Y411" s="13"/>
     </row>
-    <row r="412" spans="2:25" hidden="1">
+    <row r="412" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B412" s="11">
         <v>45963</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="R412" s="13"/>
       <c r="Y412" s="13"/>
     </row>
-    <row r="413" spans="2:25" hidden="1">
+    <row r="413" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B413" s="11">
         <v>45963</v>
       </c>
@@ -6195,7 +6195,7 @@
       <c r="R413" s="13"/>
       <c r="Y413" s="13"/>
     </row>
-    <row r="414" spans="2:25" hidden="1">
+    <row r="414" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B414" s="11">
         <v>45963</v>
       </c>
@@ -6205,7 +6205,7 @@
       <c r="R414" s="13"/>
       <c r="Y414" s="13"/>
     </row>
-    <row r="415" spans="2:25" hidden="1">
+    <row r="415" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B415" s="11">
         <v>45963</v>
       </c>
@@ -6215,7 +6215,7 @@
       <c r="R415" s="13"/>
       <c r="Y415" s="13"/>
     </row>
-    <row r="416" spans="2:25" hidden="1">
+    <row r="416" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B416" s="11">
         <v>45963</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="R416" s="13"/>
       <c r="Y416" s="13"/>
     </row>
-    <row r="417" spans="2:25" hidden="1">
+    <row r="417" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B417" s="11">
         <v>45964</v>
       </c>
@@ -6235,7 +6235,7 @@
       <c r="R417" s="13"/>
       <c r="Y417" s="13"/>
     </row>
-    <row r="418" spans="2:25" hidden="1">
+    <row r="418" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B418" s="11">
         <v>45964</v>
       </c>
@@ -6245,7 +6245,7 @@
       <c r="R418" s="13"/>
       <c r="Y418" s="13"/>
     </row>
-    <row r="419" spans="2:25" hidden="1">
+    <row r="419" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B419" s="11">
         <v>45964</v>
       </c>
@@ -6255,7 +6255,7 @@
       <c r="R419" s="13"/>
       <c r="Y419" s="13"/>
     </row>
-    <row r="420" spans="2:25" hidden="1">
+    <row r="420" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B420" s="11">
         <v>45964</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="R420" s="13"/>
       <c r="Y420" s="13"/>
     </row>
-    <row r="421" spans="2:25" hidden="1">
+    <row r="421" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B421" s="11">
         <v>45964</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="R421" s="13"/>
       <c r="Y421" s="13"/>
     </row>
-    <row r="422" spans="2:25" hidden="1">
+    <row r="422" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B422" s="11">
         <v>45964</v>
       </c>
@@ -6285,7 +6285,7 @@
       <c r="R422" s="13"/>
       <c r="Y422" s="13"/>
     </row>
-    <row r="423" spans="2:25" hidden="1">
+    <row r="423" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B423" s="11">
         <v>45964</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="R423" s="13"/>
       <c r="Y423" s="13"/>
     </row>
-    <row r="424" spans="2:25" hidden="1">
+    <row r="424" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B424" s="11">
         <v>45965</v>
       </c>
@@ -6305,7 +6305,7 @@
       <c r="R424" s="13"/>
       <c r="Y424" s="13"/>
     </row>
-    <row r="425" spans="2:25" hidden="1">
+    <row r="425" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B425" s="11">
         <v>45965</v>
       </c>
@@ -6315,7 +6315,7 @@
       <c r="R425" s="13"/>
       <c r="Y425" s="13"/>
     </row>
-    <row r="426" spans="2:25" hidden="1">
+    <row r="426" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B426" s="11">
         <v>45965</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="R426" s="13"/>
       <c r="Y426" s="13"/>
     </row>
-    <row r="427" spans="2:25" hidden="1">
+    <row r="427" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B427" s="11">
         <v>45965</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="R427" s="13"/>
       <c r="Y427" s="13"/>
     </row>
-    <row r="428" spans="2:25" hidden="1">
+    <row r="428" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B428" s="11">
         <v>45965</v>
       </c>
@@ -6345,7 +6345,7 @@
       <c r="R428" s="13"/>
       <c r="Y428" s="13"/>
     </row>
-    <row r="429" spans="2:25" hidden="1">
+    <row r="429" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B429" s="11">
         <v>45965</v>
       </c>
@@ -6355,7 +6355,7 @@
       <c r="R429" s="13"/>
       <c r="Y429" s="13"/>
     </row>
-    <row r="430" spans="2:25" hidden="1">
+    <row r="430" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B430" s="11">
         <v>45965</v>
       </c>
@@ -6365,7 +6365,7 @@
       <c r="R430" s="13"/>
       <c r="Y430" s="13"/>
     </row>
-    <row r="431" spans="2:25" hidden="1">
+    <row r="431" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B431" s="11">
         <v>45966</v>
       </c>
@@ -6375,7 +6375,7 @@
       <c r="R431" s="13"/>
       <c r="Y431" s="13"/>
     </row>
-    <row r="432" spans="2:25" hidden="1">
+    <row r="432" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B432" s="11">
         <v>45966</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="R432" s="13"/>
       <c r="Y432" s="13"/>
     </row>
-    <row r="433" spans="2:25" hidden="1">
+    <row r="433" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B433" s="11">
         <v>45966</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="R433" s="13"/>
       <c r="Y433" s="13"/>
     </row>
-    <row r="434" spans="2:25" hidden="1">
+    <row r="434" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B434" s="11">
         <v>45966</v>
       </c>
@@ -6405,7 +6405,7 @@
       <c r="R434" s="13"/>
       <c r="Y434" s="13"/>
     </row>
-    <row r="435" spans="2:25" hidden="1">
+    <row r="435" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B435" s="11">
         <v>45966</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="R435" s="13"/>
       <c r="Y435" s="13"/>
     </row>
-    <row r="436" spans="2:25" hidden="1">
+    <row r="436" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B436" s="11">
         <v>45966</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="R436" s="13"/>
       <c r="Y436" s="13"/>
     </row>
-    <row r="437" spans="2:25" hidden="1">
+    <row r="437" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B437" s="11">
         <v>45966</v>
       </c>
@@ -6435,7 +6435,7 @@
       <c r="R437" s="13"/>
       <c r="Y437" s="13"/>
     </row>
-    <row r="438" spans="2:25" hidden="1">
+    <row r="438" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B438" s="11">
         <v>45967</v>
       </c>
@@ -6445,7 +6445,7 @@
       <c r="R438" s="13"/>
       <c r="Y438" s="13"/>
     </row>
-    <row r="439" spans="2:25" hidden="1">
+    <row r="439" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B439" s="11">
         <v>45967</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="R439" s="13"/>
       <c r="Y439" s="13"/>
     </row>
-    <row r="440" spans="2:25" hidden="1">
+    <row r="440" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B440" s="11">
         <v>45967</v>
       </c>
@@ -6465,7 +6465,7 @@
       <c r="R440" s="13"/>
       <c r="Y440" s="13"/>
     </row>
-    <row r="441" spans="2:25" hidden="1">
+    <row r="441" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B441" s="11">
         <v>45967</v>
       </c>
@@ -6475,7 +6475,7 @@
       <c r="R441" s="13"/>
       <c r="Y441" s="13"/>
     </row>
-    <row r="442" spans="2:25" hidden="1">
+    <row r="442" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B442" s="11">
         <v>45967</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="R442" s="13"/>
       <c r="Y442" s="13"/>
     </row>
-    <row r="443" spans="2:25" hidden="1">
+    <row r="443" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B443" s="11">
         <v>45967</v>
       </c>
@@ -6495,7 +6495,7 @@
       <c r="R443" s="13"/>
       <c r="Y443" s="13"/>
     </row>
-    <row r="444" spans="2:25" hidden="1">
+    <row r="444" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B444" s="11">
         <v>45967</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="R444" s="13"/>
       <c r="Y444" s="13"/>
     </row>
-    <row r="445" spans="2:25" hidden="1">
+    <row r="445" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B445" s="11">
         <v>45968</v>
       </c>
@@ -6515,7 +6515,7 @@
       <c r="R445" s="13"/>
       <c r="Y445" s="13"/>
     </row>
-    <row r="446" spans="2:25" hidden="1">
+    <row r="446" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B446" s="11">
         <v>45968</v>
       </c>
@@ -6525,7 +6525,7 @@
       <c r="R446" s="13"/>
       <c r="Y446" s="13"/>
     </row>
-    <row r="447" spans="2:25" hidden="1">
+    <row r="447" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B447" s="11">
         <v>45968</v>
       </c>
@@ -6535,7 +6535,7 @@
       <c r="R447" s="13"/>
       <c r="Y447" s="13"/>
     </row>
-    <row r="448" spans="2:25" hidden="1">
+    <row r="448" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B448" s="11">
         <v>45968</v>
       </c>
@@ -6545,7 +6545,7 @@
       <c r="R448" s="13"/>
       <c r="Y448" s="13"/>
     </row>
-    <row r="449" spans="2:25" hidden="1">
+    <row r="449" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B449" s="11">
         <v>45968</v>
       </c>
@@ -6555,7 +6555,7 @@
       <c r="R449" s="13"/>
       <c r="Y449" s="13"/>
     </row>
-    <row r="450" spans="2:25" hidden="1">
+    <row r="450" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B450" s="11">
         <v>45968</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="R450" s="13"/>
       <c r="Y450" s="13"/>
     </row>
-    <row r="451" spans="2:25" hidden="1">
+    <row r="451" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B451" s="11">
         <v>45968</v>
       </c>
@@ -6575,7 +6575,7 @@
       <c r="R451" s="13"/>
       <c r="Y451" s="13"/>
     </row>
-    <row r="452" spans="2:25" hidden="1">
+    <row r="452" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B452" s="11">
         <v>45969</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="R452" s="13"/>
       <c r="Y452" s="13"/>
     </row>
-    <row r="453" spans="2:25" hidden="1">
+    <row r="453" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B453" s="11">
         <v>45969</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="R453" s="13"/>
       <c r="Y453" s="13"/>
     </row>
-    <row r="454" spans="2:25" hidden="1">
+    <row r="454" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B454" s="11">
         <v>45969</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="R454" s="13"/>
       <c r="Y454" s="13"/>
     </row>
-    <row r="455" spans="2:25" hidden="1">
+    <row r="455" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B455" s="11">
         <v>45969</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="R455" s="13"/>
       <c r="Y455" s="13"/>
     </row>
-    <row r="456" spans="2:25" hidden="1">
+    <row r="456" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B456" s="11">
         <v>45969</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="R456" s="13"/>
       <c r="Y456" s="13"/>
     </row>
-    <row r="457" spans="2:25" hidden="1">
+    <row r="457" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B457" s="11">
         <v>45969</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="R457" s="13"/>
       <c r="Y457" s="13"/>
     </row>
-    <row r="458" spans="2:25" hidden="1">
+    <row r="458" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B458" s="11">
         <v>45969</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="R458" s="13"/>
       <c r="Y458" s="13"/>
     </row>
-    <row r="459" spans="2:25" hidden="1">
+    <row r="459" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B459" s="11">
         <v>45970</v>
       </c>
@@ -6655,7 +6655,7 @@
       <c r="R459" s="13"/>
       <c r="Y459" s="13"/>
     </row>
-    <row r="460" spans="2:25" hidden="1">
+    <row r="460" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B460" s="11">
         <v>45970</v>
       </c>
@@ -6665,7 +6665,7 @@
       <c r="R460" s="13"/>
       <c r="Y460" s="13"/>
     </row>
-    <row r="461" spans="2:25" hidden="1">
+    <row r="461" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B461" s="11">
         <v>45970</v>
       </c>
@@ -6675,7 +6675,7 @@
       <c r="R461" s="13"/>
       <c r="Y461" s="13"/>
     </row>
-    <row r="462" spans="2:25" hidden="1">
+    <row r="462" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B462" s="11">
         <v>45970</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="R462" s="13"/>
       <c r="Y462" s="13"/>
     </row>
-    <row r="463" spans="2:25" hidden="1">
+    <row r="463" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B463" s="11">
         <v>45970</v>
       </c>
@@ -6695,7 +6695,7 @@
       <c r="R463" s="13"/>
       <c r="Y463" s="13"/>
     </row>
-    <row r="464" spans="2:25" hidden="1">
+    <row r="464" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B464" s="11">
         <v>45970</v>
       </c>
@@ -6705,7 +6705,7 @@
       <c r="R464" s="13"/>
       <c r="Y464" s="13"/>
     </row>
-    <row r="465" spans="2:25" hidden="1">
+    <row r="465" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B465" s="11">
         <v>45970</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="R465" s="13"/>
       <c r="Y465" s="13"/>
     </row>
-    <row r="466" spans="2:25" hidden="1">
+    <row r="466" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B466" s="11">
         <v>45971</v>
       </c>
@@ -6725,7 +6725,7 @@
       <c r="R466" s="13"/>
       <c r="Y466" s="13"/>
     </row>
-    <row r="467" spans="2:25" hidden="1">
+    <row r="467" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B467" s="11">
         <v>45971</v>
       </c>
@@ -6735,7 +6735,7 @@
       <c r="R467" s="13"/>
       <c r="Y467" s="13"/>
     </row>
-    <row r="468" spans="2:25" hidden="1">
+    <row r="468" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B468" s="11">
         <v>45971</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="R468" s="13"/>
       <c r="Y468" s="13"/>
     </row>
-    <row r="469" spans="2:25" hidden="1">
+    <row r="469" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B469" s="11">
         <v>45971</v>
       </c>
@@ -6755,7 +6755,7 @@
       <c r="R469" s="13"/>
       <c r="Y469" s="13"/>
     </row>
-    <row r="470" spans="2:25" hidden="1">
+    <row r="470" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B470" s="11">
         <v>45971</v>
       </c>
@@ -6765,7 +6765,7 @@
       <c r="R470" s="13"/>
       <c r="Y470" s="13"/>
     </row>
-    <row r="471" spans="2:25" hidden="1">
+    <row r="471" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B471" s="11">
         <v>45971</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="R471" s="13"/>
       <c r="Y471" s="13"/>
     </row>
-    <row r="472" spans="2:25" hidden="1">
+    <row r="472" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B472" s="11">
         <v>45971</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="R472" s="13"/>
       <c r="Y472" s="13"/>
     </row>
-    <row r="473" spans="2:25" hidden="1">
+    <row r="473" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B473" s="11">
         <v>45972</v>
       </c>
@@ -6795,7 +6795,7 @@
       <c r="R473" s="13"/>
       <c r="Y473" s="13"/>
     </row>
-    <row r="474" spans="2:25" hidden="1">
+    <row r="474" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B474" s="11">
         <v>45972</v>
       </c>
@@ -6805,7 +6805,7 @@
       <c r="R474" s="13"/>
       <c r="Y474" s="13"/>
     </row>
-    <row r="475" spans="2:25" hidden="1">
+    <row r="475" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B475" s="11">
         <v>45972</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="R475" s="13"/>
       <c r="Y475" s="13"/>
     </row>
-    <row r="476" spans="2:25" hidden="1">
+    <row r="476" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B476" s="11">
         <v>45972</v>
       </c>
@@ -6825,7 +6825,7 @@
       <c r="R476" s="13"/>
       <c r="Y476" s="13"/>
     </row>
-    <row r="477" spans="2:25" hidden="1">
+    <row r="477" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B477" s="11">
         <v>45972</v>
       </c>
@@ -6835,7 +6835,7 @@
       <c r="R477" s="13"/>
       <c r="Y477" s="13"/>
     </row>
-    <row r="478" spans="2:25" hidden="1">
+    <row r="478" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B478" s="11">
         <v>45972</v>
       </c>
@@ -6845,7 +6845,7 @@
       <c r="R478" s="13"/>
       <c r="Y478" s="13"/>
     </row>
-    <row r="479" spans="2:25" hidden="1">
+    <row r="479" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B479" s="11">
         <v>45972</v>
       </c>
@@ -6855,7 +6855,7 @@
       <c r="R479" s="13"/>
       <c r="Y479" s="13"/>
     </row>
-    <row r="480" spans="2:25" hidden="1">
+    <row r="480" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B480" s="11">
         <v>45973</v>
       </c>
@@ -6865,7 +6865,7 @@
       <c r="R480" s="13"/>
       <c r="Y480" s="13"/>
     </row>
-    <row r="481" spans="2:25" hidden="1">
+    <row r="481" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B481" s="11">
         <v>45973</v>
       </c>
@@ -6875,7 +6875,7 @@
       <c r="R481" s="13"/>
       <c r="Y481" s="13"/>
     </row>
-    <row r="482" spans="2:25" hidden="1">
+    <row r="482" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B482" s="11">
         <v>45973</v>
       </c>
@@ -6885,7 +6885,7 @@
       <c r="R482" s="13"/>
       <c r="Y482" s="13"/>
     </row>
-    <row r="483" spans="2:25" hidden="1">
+    <row r="483" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B483" s="11">
         <v>45973</v>
       </c>
@@ -6895,7 +6895,7 @@
       <c r="R483" s="13"/>
       <c r="Y483" s="13"/>
     </row>
-    <row r="484" spans="2:25" hidden="1">
+    <row r="484" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B484" s="11">
         <v>45973</v>
       </c>
@@ -6905,7 +6905,7 @@
       <c r="R484" s="13"/>
       <c r="Y484" s="13"/>
     </row>
-    <row r="485" spans="2:25" hidden="1">
+    <row r="485" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B485" s="11">
         <v>45973</v>
       </c>
@@ -6915,7 +6915,7 @@
       <c r="R485" s="13"/>
       <c r="Y485" s="13"/>
     </row>
-    <row r="486" spans="2:25" hidden="1">
+    <row r="486" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B486" s="11">
         <v>45973</v>
       </c>
@@ -6925,7 +6925,7 @@
       <c r="R486" s="13"/>
       <c r="Y486" s="13"/>
     </row>
-    <row r="487" spans="2:25" hidden="1">
+    <row r="487" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B487" s="11">
         <v>45974</v>
       </c>
@@ -6935,7 +6935,7 @@
       <c r="R487" s="13"/>
       <c r="Y487" s="13"/>
     </row>
-    <row r="488" spans="2:25" hidden="1">
+    <row r="488" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B488" s="11">
         <v>45974</v>
       </c>
@@ -6945,7 +6945,7 @@
       <c r="R488" s="13"/>
       <c r="Y488" s="13"/>
     </row>
-    <row r="489" spans="2:25" hidden="1">
+    <row r="489" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B489" s="11">
         <v>45974</v>
       </c>
@@ -6955,7 +6955,7 @@
       <c r="R489" s="13"/>
       <c r="Y489" s="13"/>
     </row>
-    <row r="490" spans="2:25" hidden="1">
+    <row r="490" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B490" s="11">
         <v>45974</v>
       </c>
@@ -6965,7 +6965,7 @@
       <c r="R490" s="13"/>
       <c r="Y490" s="13"/>
     </row>
-    <row r="491" spans="2:25" hidden="1">
+    <row r="491" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B491" s="11">
         <v>45974</v>
       </c>
@@ -6975,7 +6975,7 @@
       <c r="R491" s="13"/>
       <c r="Y491" s="13"/>
     </row>
-    <row r="492" spans="2:25" hidden="1">
+    <row r="492" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B492" s="11">
         <v>45974</v>
       </c>
@@ -6985,7 +6985,7 @@
       <c r="R492" s="13"/>
       <c r="Y492" s="13"/>
     </row>
-    <row r="493" spans="2:25" hidden="1">
+    <row r="493" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B493" s="11">
         <v>45974</v>
       </c>
@@ -6995,7 +6995,7 @@
       <c r="R493" s="13"/>
       <c r="Y493" s="13"/>
     </row>
-    <row r="494" spans="2:25" hidden="1">
+    <row r="494" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B494" s="11">
         <v>45975</v>
       </c>
@@ -7005,7 +7005,7 @@
       <c r="R494" s="13"/>
       <c r="Y494" s="13"/>
     </row>
-    <row r="495" spans="2:25" hidden="1">
+    <row r="495" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B495" s="11">
         <v>45975</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="R495" s="13"/>
       <c r="Y495" s="13"/>
     </row>
-    <row r="496" spans="2:25" hidden="1">
+    <row r="496" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B496" s="11">
         <v>45975</v>
       </c>
@@ -7025,7 +7025,7 @@
       <c r="R496" s="13"/>
       <c r="Y496" s="13"/>
     </row>
-    <row r="497" spans="2:25" hidden="1">
+    <row r="497" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B497" s="11">
         <v>45975</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="R497" s="13"/>
       <c r="Y497" s="13"/>
     </row>
-    <row r="498" spans="2:25" hidden="1">
+    <row r="498" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B498" s="11">
         <v>45975</v>
       </c>
@@ -7045,7 +7045,7 @@
       <c r="R498" s="13"/>
       <c r="Y498" s="13"/>
     </row>
-    <row r="499" spans="2:25" hidden="1">
+    <row r="499" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B499" s="11">
         <v>45975</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="R499" s="13"/>
       <c r="Y499" s="13"/>
     </row>
-    <row r="500" spans="2:25" hidden="1">
+    <row r="500" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B500" s="11">
         <v>45975</v>
       </c>
@@ -7065,7 +7065,7 @@
       <c r="R500" s="13"/>
       <c r="Y500" s="13"/>
     </row>
-    <row r="501" spans="2:25" hidden="1">
+    <row r="501" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B501" s="11">
         <v>45976</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="R501" s="13"/>
       <c r="Y501" s="13"/>
     </row>
-    <row r="502" spans="2:25" hidden="1">
+    <row r="502" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B502" s="11">
         <v>45976</v>
       </c>
@@ -7085,7 +7085,7 @@
       <c r="R502" s="13"/>
       <c r="Y502" s="13"/>
     </row>
-    <row r="503" spans="2:25" hidden="1">
+    <row r="503" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B503" s="11">
         <v>45976</v>
       </c>
@@ -7095,7 +7095,7 @@
       <c r="R503" s="13"/>
       <c r="Y503" s="13"/>
     </row>
-    <row r="504" spans="2:25" hidden="1">
+    <row r="504" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B504" s="11">
         <v>45976</v>
       </c>
@@ -7105,7 +7105,7 @@
       <c r="R504" s="13"/>
       <c r="Y504" s="13"/>
     </row>
-    <row r="505" spans="2:25" hidden="1">
+    <row r="505" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B505" s="11">
         <v>45976</v>
       </c>
@@ -7115,7 +7115,7 @@
       <c r="R505" s="13"/>
       <c r="Y505" s="13"/>
     </row>
-    <row r="506" spans="2:25" hidden="1">
+    <row r="506" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B506" s="11">
         <v>45976</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="R506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25" hidden="1">
+    <row r="507" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B507" s="11">
         <v>45976</v>
       </c>
@@ -7135,7 +7135,7 @@
       <c r="R507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25" hidden="1">
+    <row r="508" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B508" s="11">
         <v>45977</v>
       </c>
@@ -7145,7 +7145,7 @@
       <c r="R508" s="13"/>
       <c r="Y508" s="13"/>
     </row>
-    <row r="509" spans="2:25" hidden="1">
+    <row r="509" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B509" s="11">
         <v>45977</v>
       </c>
@@ -7155,7 +7155,7 @@
       <c r="R509" s="13"/>
       <c r="Y509" s="13"/>
     </row>
-    <row r="510" spans="2:25" hidden="1">
+    <row r="510" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B510" s="11">
         <v>45977</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="R510" s="13"/>
       <c r="Y510" s="13"/>
     </row>
-    <row r="511" spans="2:25" hidden="1">
+    <row r="511" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B511" s="11">
         <v>45977</v>
       </c>
@@ -7175,7 +7175,7 @@
       <c r="R511" s="13"/>
       <c r="Y511" s="13"/>
     </row>
-    <row r="512" spans="2:25" hidden="1">
+    <row r="512" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B512" s="11">
         <v>45977</v>
       </c>
@@ -7185,7 +7185,7 @@
       <c r="R512" s="13"/>
       <c r="Y512" s="13"/>
     </row>
-    <row r="513" spans="2:25" hidden="1">
+    <row r="513" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B513" s="11">
         <v>45977</v>
       </c>
@@ -7195,7 +7195,7 @@
       <c r="R513" s="13"/>
       <c r="Y513" s="13"/>
     </row>
-    <row r="514" spans="2:25" hidden="1">
+    <row r="514" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B514" s="11">
         <v>45977</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="R514" s="13"/>
       <c r="Y514" s="13"/>
     </row>
-    <row r="515" spans="2:25" hidden="1">
+    <row r="515" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B515" s="11">
         <v>45978</v>
       </c>
@@ -7215,7 +7215,7 @@
       <c r="R515" s="13"/>
       <c r="Y515" s="13"/>
     </row>
-    <row r="516" spans="2:25" hidden="1">
+    <row r="516" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B516" s="11">
         <v>45978</v>
       </c>
@@ -7225,7 +7225,7 @@
       <c r="R516" s="13"/>
       <c r="Y516" s="13"/>
     </row>
-    <row r="517" spans="2:25" hidden="1">
+    <row r="517" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B517" s="11">
         <v>45978</v>
       </c>
@@ -7235,7 +7235,7 @@
       <c r="R517" s="13"/>
       <c r="Y517" s="13"/>
     </row>
-    <row r="518" spans="2:25" hidden="1">
+    <row r="518" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B518" s="11">
         <v>45978</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="R518" s="13"/>
       <c r="Y518" s="13"/>
     </row>
-    <row r="519" spans="2:25" hidden="1">
+    <row r="519" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B519" s="11">
         <v>45978</v>
       </c>
@@ -7255,7 +7255,7 @@
       <c r="R519" s="13"/>
       <c r="Y519" s="13"/>
     </row>
-    <row r="520" spans="2:25" hidden="1">
+    <row r="520" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B520" s="11">
         <v>45978</v>
       </c>
@@ -7265,7 +7265,7 @@
       <c r="R520" s="13"/>
       <c r="Y520" s="13"/>
     </row>
-    <row r="521" spans="2:25" hidden="1">
+    <row r="521" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B521" s="11">
         <v>45978</v>
       </c>
@@ -7275,7 +7275,7 @@
       <c r="R521" s="13"/>
       <c r="Y521" s="13"/>
     </row>
-    <row r="522" spans="2:25" hidden="1">
+    <row r="522" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B522" s="11">
         <v>45979</v>
       </c>
@@ -7285,7 +7285,7 @@
       <c r="R522" s="13"/>
       <c r="Y522" s="13"/>
     </row>
-    <row r="523" spans="2:25" hidden="1">
+    <row r="523" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B523" s="11">
         <v>45979</v>
       </c>
@@ -7295,7 +7295,7 @@
       <c r="R523" s="13"/>
       <c r="Y523" s="13"/>
     </row>
-    <row r="524" spans="2:25" hidden="1">
+    <row r="524" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B524" s="11">
         <v>45979</v>
       </c>
@@ -7305,7 +7305,7 @@
       <c r="R524" s="13"/>
       <c r="Y524" s="13"/>
     </row>
-    <row r="525" spans="2:25" hidden="1">
+    <row r="525" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B525" s="11">
         <v>45979</v>
       </c>
@@ -7315,7 +7315,7 @@
       <c r="R525" s="13"/>
       <c r="Y525" s="13"/>
     </row>
-    <row r="526" spans="2:25" hidden="1">
+    <row r="526" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B526" s="11">
         <v>45979</v>
       </c>
@@ -7325,7 +7325,7 @@
       <c r="R526" s="13"/>
       <c r="Y526" s="13"/>
     </row>
-    <row r="527" spans="2:25" hidden="1">
+    <row r="527" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B527" s="11">
         <v>45979</v>
       </c>
@@ -7335,7 +7335,7 @@
       <c r="R527" s="13"/>
       <c r="Y527" s="13"/>
     </row>
-    <row r="528" spans="2:25" hidden="1">
+    <row r="528" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B528" s="11">
         <v>45979</v>
       </c>
@@ -7345,7 +7345,7 @@
       <c r="R528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25" hidden="1">
+    <row r="529" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B529" s="11">
         <v>45980</v>
       </c>
@@ -7355,7 +7355,7 @@
       <c r="R529" s="13"/>
       <c r="Y529" s="13"/>
     </row>
-    <row r="530" spans="2:25" hidden="1">
+    <row r="530" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B530" s="11">
         <v>45980</v>
       </c>
@@ -7365,7 +7365,7 @@
       <c r="R530" s="13"/>
       <c r="Y530" s="13"/>
     </row>
-    <row r="531" spans="2:25" hidden="1">
+    <row r="531" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B531" s="11">
         <v>45980</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="R531" s="13"/>
       <c r="Y531" s="13"/>
     </row>
-    <row r="532" spans="2:25" hidden="1">
+    <row r="532" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B532" s="11">
         <v>45980</v>
       </c>
@@ -7385,7 +7385,7 @@
       <c r="R532" s="13"/>
       <c r="Y532" s="13"/>
     </row>
-    <row r="533" spans="2:25" hidden="1">
+    <row r="533" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B533" s="11">
         <v>45980</v>
       </c>
@@ -7395,7 +7395,7 @@
       <c r="R533" s="13"/>
       <c r="Y533" s="13"/>
     </row>
-    <row r="534" spans="2:25" hidden="1">
+    <row r="534" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B534" s="11">
         <v>45980</v>
       </c>
@@ -7405,7 +7405,7 @@
       <c r="R534" s="13"/>
       <c r="Y534" s="13"/>
     </row>
-    <row r="535" spans="2:25" hidden="1">
+    <row r="535" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B535" s="11">
         <v>45980</v>
       </c>
@@ -7415,7 +7415,7 @@
       <c r="R535" s="13"/>
       <c r="Y535" s="13"/>
     </row>
-    <row r="536" spans="2:25" hidden="1">
+    <row r="536" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B536" s="11">
         <v>45981</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="R536" s="13"/>
       <c r="Y536" s="13"/>
     </row>
-    <row r="537" spans="2:25" hidden="1">
+    <row r="537" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B537" s="11">
         <v>45981</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="R537" s="13"/>
       <c r="Y537" s="13"/>
     </row>
-    <row r="538" spans="2:25" hidden="1">
+    <row r="538" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B538" s="11">
         <v>45981</v>
       </c>
@@ -7445,7 +7445,7 @@
       <c r="R538" s="13"/>
       <c r="Y538" s="13"/>
     </row>
-    <row r="539" spans="2:25" hidden="1">
+    <row r="539" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B539" s="11">
         <v>45981</v>
       </c>
@@ -7455,7 +7455,7 @@
       <c r="R539" s="13"/>
       <c r="Y539" s="13"/>
     </row>
-    <row r="540" spans="2:25" hidden="1">
+    <row r="540" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B540" s="11">
         <v>45981</v>
       </c>
@@ -7465,7 +7465,7 @@
       <c r="R540" s="13"/>
       <c r="Y540" s="13"/>
     </row>
-    <row r="541" spans="2:25" hidden="1">
+    <row r="541" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B541" s="11">
         <v>45981</v>
       </c>
@@ -7475,7 +7475,7 @@
       <c r="R541" s="13"/>
       <c r="Y541" s="13"/>
     </row>
-    <row r="542" spans="2:25" hidden="1">
+    <row r="542" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B542" s="11">
         <v>45981</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="R542" s="13"/>
       <c r="Y542" s="13"/>
     </row>
-    <row r="543" spans="2:25" hidden="1">
+    <row r="543" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B543" s="11">
         <v>45982</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="R543" s="13"/>
       <c r="Y543" s="13"/>
     </row>
-    <row r="544" spans="2:25" hidden="1">
+    <row r="544" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B544" s="11">
         <v>45982</v>
       </c>
@@ -7505,7 +7505,7 @@
       <c r="R544" s="13"/>
       <c r="Y544" s="13"/>
     </row>
-    <row r="545" spans="2:25" hidden="1">
+    <row r="545" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B545" s="11">
         <v>45982</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="R545" s="13"/>
       <c r="Y545" s="13"/>
     </row>
-    <row r="546" spans="2:25" hidden="1">
+    <row r="546" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B546" s="11">
         <v>45982</v>
       </c>
@@ -7525,7 +7525,7 @@
       <c r="R546" s="13"/>
       <c r="Y546" s="13"/>
     </row>
-    <row r="547" spans="2:25" hidden="1">
+    <row r="547" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B547" s="11">
         <v>45982</v>
       </c>
@@ -7535,7 +7535,7 @@
       <c r="R547" s="13"/>
       <c r="Y547" s="13"/>
     </row>
-    <row r="548" spans="2:25" hidden="1">
+    <row r="548" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B548" s="11">
         <v>45982</v>
       </c>
@@ -7545,7 +7545,7 @@
       <c r="R548" s="13"/>
       <c r="Y548" s="13"/>
     </row>
-    <row r="549" spans="2:25" hidden="1">
+    <row r="549" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B549" s="11">
         <v>45982</v>
       </c>
@@ -7555,7 +7555,7 @@
       <c r="R549" s="13"/>
       <c r="Y549" s="13"/>
     </row>
-    <row r="550" spans="2:25" hidden="1">
+    <row r="550" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B550" s="11">
         <v>45983</v>
       </c>
@@ -7565,7 +7565,7 @@
       <c r="R550" s="13"/>
       <c r="Y550" s="13"/>
     </row>
-    <row r="551" spans="2:25" hidden="1">
+    <row r="551" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B551" s="11">
         <v>45983</v>
       </c>
@@ -7575,7 +7575,7 @@
       <c r="R551" s="13"/>
       <c r="Y551" s="13"/>
     </row>
-    <row r="552" spans="2:25" hidden="1">
+    <row r="552" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B552" s="11">
         <v>45983</v>
       </c>
@@ -7585,7 +7585,7 @@
       <c r="R552" s="13"/>
       <c r="Y552" s="13"/>
     </row>
-    <row r="553" spans="2:25" hidden="1">
+    <row r="553" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B553" s="11">
         <v>45983</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="R553" s="13"/>
       <c r="Y553" s="13"/>
     </row>
-    <row r="554" spans="2:25" hidden="1">
+    <row r="554" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B554" s="11">
         <v>45983</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="R554" s="13"/>
       <c r="Y554" s="13"/>
     </row>
-    <row r="555" spans="2:25" hidden="1">
+    <row r="555" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B555" s="11">
         <v>45983</v>
       </c>
@@ -7615,7 +7615,7 @@
       <c r="R555" s="13"/>
       <c r="Y555" s="13"/>
     </row>
-    <row r="556" spans="2:25" hidden="1">
+    <row r="556" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B556" s="11">
         <v>45983</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="R556" s="13"/>
       <c r="Y556" s="13"/>
     </row>
-    <row r="557" spans="2:25" hidden="1">
+    <row r="557" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B557" s="11">
         <v>45984</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="R557" s="13"/>
       <c r="Y557" s="13"/>
     </row>
-    <row r="558" spans="2:25" hidden="1">
+    <row r="558" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B558" s="11">
         <v>45984</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="R558" s="13"/>
       <c r="Y558" s="13"/>
     </row>
-    <row r="559" spans="2:25" hidden="1">
+    <row r="559" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B559" s="11">
         <v>45984</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="R559" s="13"/>
       <c r="Y559" s="13"/>
     </row>
-    <row r="560" spans="2:25" hidden="1">
+    <row r="560" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B560" s="11">
         <v>45984</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="R560" s="13"/>
       <c r="Y560" s="13"/>
     </row>
-    <row r="561" spans="2:25" hidden="1">
+    <row r="561" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B561" s="11">
         <v>45984</v>
       </c>
@@ -7675,7 +7675,7 @@
       <c r="R561" s="13"/>
       <c r="Y561" s="13"/>
     </row>
-    <row r="562" spans="2:25" hidden="1">
+    <row r="562" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B562" s="11">
         <v>45984</v>
       </c>
@@ -7685,7 +7685,7 @@
       <c r="R562" s="13"/>
       <c r="Y562" s="13"/>
     </row>
-    <row r="563" spans="2:25" hidden="1">
+    <row r="563" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B563" s="11">
         <v>45984</v>
       </c>
@@ -7695,7 +7695,7 @@
       <c r="R563" s="13"/>
       <c r="Y563" s="13"/>
     </row>
-    <row r="564" spans="2:25" hidden="1">
+    <row r="564" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B564" s="11">
         <v>45985</v>
       </c>
@@ -7705,7 +7705,7 @@
       <c r="R564" s="13"/>
       <c r="Y564" s="13"/>
     </row>
-    <row r="565" spans="2:25" hidden="1">
+    <row r="565" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B565" s="11">
         <v>45985</v>
       </c>
@@ -7715,7 +7715,7 @@
       <c r="R565" s="13"/>
       <c r="Y565" s="13"/>
     </row>
-    <row r="566" spans="2:25" hidden="1">
+    <row r="566" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B566" s="11">
         <v>45985</v>
       </c>
@@ -7725,7 +7725,7 @@
       <c r="R566" s="13"/>
       <c r="Y566" s="13"/>
     </row>
-    <row r="567" spans="2:25" hidden="1">
+    <row r="567" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B567" s="11">
         <v>45985</v>
       </c>
@@ -7735,7 +7735,7 @@
       <c r="R567" s="13"/>
       <c r="Y567" s="13"/>
     </row>
-    <row r="568" spans="2:25" hidden="1">
+    <row r="568" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B568" s="11">
         <v>45985</v>
       </c>
@@ -7745,7 +7745,7 @@
       <c r="R568" s="13"/>
       <c r="Y568" s="13"/>
     </row>
-    <row r="569" spans="2:25" hidden="1">
+    <row r="569" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B569" s="11">
         <v>45985</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="R569" s="13"/>
       <c r="Y569" s="13"/>
     </row>
-    <row r="570" spans="2:25" hidden="1">
+    <row r="570" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B570" s="11">
         <v>45985</v>
       </c>
@@ -7765,7 +7765,7 @@
       <c r="R570" s="13"/>
       <c r="Y570" s="13"/>
     </row>
-    <row r="571" spans="2:25" hidden="1">
+    <row r="571" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B571" s="11">
         <v>45986</v>
       </c>
@@ -7775,7 +7775,7 @@
       <c r="R571" s="13"/>
       <c r="Y571" s="13"/>
     </row>
-    <row r="572" spans="2:25" hidden="1">
+    <row r="572" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B572" s="11">
         <v>45986</v>
       </c>
@@ -7785,7 +7785,7 @@
       <c r="R572" s="13"/>
       <c r="Y572" s="13"/>
     </row>
-    <row r="573" spans="2:25" hidden="1">
+    <row r="573" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B573" s="11">
         <v>45986</v>
       </c>
@@ -7795,7 +7795,7 @@
       <c r="R573" s="13"/>
       <c r="Y573" s="13"/>
     </row>
-    <row r="574" spans="2:25" hidden="1">
+    <row r="574" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B574" s="11">
         <v>45986</v>
       </c>
@@ -7805,7 +7805,7 @@
       <c r="R574" s="13"/>
       <c r="Y574" s="13"/>
     </row>
-    <row r="575" spans="2:25" hidden="1">
+    <row r="575" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B575" s="11">
         <v>45986</v>
       </c>
@@ -7815,7 +7815,7 @@
       <c r="R575" s="13"/>
       <c r="Y575" s="13"/>
     </row>
-    <row r="576" spans="2:25" hidden="1">
+    <row r="576" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B576" s="11">
         <v>45986</v>
       </c>
@@ -7825,7 +7825,7 @@
       <c r="R576" s="13"/>
       <c r="Y576" s="13"/>
     </row>
-    <row r="577" spans="2:25" hidden="1">
+    <row r="577" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B577" s="11">
         <v>45986</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="R577" s="13"/>
       <c r="Y577" s="13"/>
     </row>
-    <row r="578" spans="2:25" hidden="1">
+    <row r="578" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B578" s="11">
         <v>45987</v>
       </c>
@@ -7845,7 +7845,7 @@
       <c r="R578" s="13"/>
       <c r="Y578" s="13"/>
     </row>
-    <row r="579" spans="2:25" hidden="1">
+    <row r="579" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B579" s="11">
         <v>45987</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="R579" s="13"/>
       <c r="Y579" s="13"/>
     </row>
-    <row r="580" spans="2:25" hidden="1">
+    <row r="580" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B580" s="11">
         <v>45987</v>
       </c>
@@ -7865,7 +7865,7 @@
       <c r="R580" s="13"/>
       <c r="Y580" s="13"/>
     </row>
-    <row r="581" spans="2:25" hidden="1">
+    <row r="581" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B581" s="11">
         <v>45987</v>
       </c>
@@ -7875,7 +7875,7 @@
       <c r="R581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25" hidden="1">
+    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B582" s="11">
         <v>45987</v>
       </c>
@@ -7885,7 +7885,7 @@
       <c r="R582" s="13"/>
       <c r="Y582" s="13"/>
     </row>
-    <row r="583" spans="2:25" hidden="1">
+    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B583" s="11">
         <v>45987</v>
       </c>
@@ -7895,7 +7895,7 @@
       <c r="R583" s="13"/>
       <c r="Y583" s="13"/>
     </row>
-    <row r="584" spans="2:25" hidden="1">
+    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B584" s="11">
         <v>45987</v>
       </c>
@@ -7905,7 +7905,7 @@
       <c r="R584" s="13"/>
       <c r="Y584" s="13"/>
     </row>
-    <row r="585" spans="2:25" hidden="1">
+    <row r="585" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B585" s="11">
         <v>45988</v>
       </c>
@@ -7915,7 +7915,7 @@
       <c r="R585" s="13"/>
       <c r="Y585" s="13"/>
     </row>
-    <row r="586" spans="2:25" hidden="1">
+    <row r="586" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B586" s="11">
         <v>45988</v>
       </c>
@@ -7925,7 +7925,7 @@
       <c r="R586" s="13"/>
       <c r="Y586" s="13"/>
     </row>
-    <row r="587" spans="2:25" hidden="1">
+    <row r="587" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B587" s="11">
         <v>45988</v>
       </c>
@@ -7935,7 +7935,7 @@
       <c r="R587" s="13"/>
       <c r="Y587" s="13"/>
     </row>
-    <row r="588" spans="2:25" hidden="1">
+    <row r="588" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B588" s="11">
         <v>45988</v>
       </c>
@@ -7945,7 +7945,7 @@
       <c r="R588" s="13"/>
       <c r="Y588" s="13"/>
     </row>
-    <row r="589" spans="2:25" hidden="1">
+    <row r="589" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B589" s="11">
         <v>45988</v>
       </c>
@@ -7955,7 +7955,7 @@
       <c r="R589" s="13"/>
       <c r="Y589" s="13"/>
     </row>
-    <row r="590" spans="2:25" hidden="1">
+    <row r="590" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B590" s="11">
         <v>45988</v>
       </c>
@@ -7965,7 +7965,7 @@
       <c r="R590" s="13"/>
       <c r="Y590" s="13"/>
     </row>
-    <row r="591" spans="2:25" hidden="1">
+    <row r="591" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B591" s="11">
         <v>45988</v>
       </c>
@@ -7975,7 +7975,7 @@
       <c r="R591" s="13"/>
       <c r="Y591" s="13"/>
     </row>
-    <row r="592" spans="2:25" hidden="1">
+    <row r="592" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B592" s="11">
         <v>45989</v>
       </c>
@@ -7985,7 +7985,7 @@
       <c r="R592" s="13"/>
       <c r="Y592" s="13"/>
     </row>
-    <row r="593" spans="2:25" hidden="1">
+    <row r="593" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B593" s="11">
         <v>45989</v>
       </c>
@@ -7995,7 +7995,7 @@
       <c r="R593" s="13"/>
       <c r="Y593" s="13"/>
     </row>
-    <row r="594" spans="2:25" hidden="1">
+    <row r="594" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B594" s="11">
         <v>45989</v>
       </c>
@@ -8005,7 +8005,7 @@
       <c r="R594" s="13"/>
       <c r="Y594" s="13"/>
     </row>
-    <row r="595" spans="2:25" hidden="1">
+    <row r="595" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B595" s="11">
         <v>45989</v>
       </c>
@@ -8015,7 +8015,7 @@
       <c r="R595" s="13"/>
       <c r="Y595" s="13"/>
     </row>
-    <row r="596" spans="2:25" hidden="1">
+    <row r="596" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B596" s="11">
         <v>45989</v>
       </c>
@@ -8025,7 +8025,7 @@
       <c r="R596" s="13"/>
       <c r="Y596" s="13"/>
     </row>
-    <row r="597" spans="2:25" hidden="1">
+    <row r="597" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B597" s="11">
         <v>45989</v>
       </c>
@@ -8035,7 +8035,7 @@
       <c r="R597" s="13"/>
       <c r="Y597" s="13"/>
     </row>
-    <row r="598" spans="2:25" hidden="1">
+    <row r="598" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B598" s="11">
         <v>45989</v>
       </c>
@@ -8045,7 +8045,7 @@
       <c r="R598" s="13"/>
       <c r="Y598" s="13"/>
     </row>
-    <row r="599" spans="2:25" hidden="1">
+    <row r="599" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B599" s="11">
         <v>45990</v>
       </c>
@@ -8055,7 +8055,7 @@
       <c r="R599" s="13"/>
       <c r="Y599" s="13"/>
     </row>
-    <row r="600" spans="2:25" hidden="1">
+    <row r="600" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B600" s="11">
         <v>45990</v>
       </c>
@@ -8065,7 +8065,7 @@
       <c r="R600" s="13"/>
       <c r="Y600" s="13"/>
     </row>
-    <row r="601" spans="2:25" hidden="1">
+    <row r="601" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B601" s="11">
         <v>45990</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="R601" s="13"/>
       <c r="Y601" s="13"/>
     </row>
-    <row r="602" spans="2:25" hidden="1">
+    <row r="602" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B602" s="11">
         <v>45990</v>
       </c>
@@ -8085,7 +8085,7 @@
       <c r="R602" s="13"/>
       <c r="Y602" s="13"/>
     </row>
-    <row r="603" spans="2:25" hidden="1">
+    <row r="603" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B603" s="11">
         <v>45990</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="R603" s="13"/>
       <c r="Y603" s="13"/>
     </row>
-    <row r="604" spans="2:25" hidden="1">
+    <row r="604" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B604" s="11">
         <v>45990</v>
       </c>
@@ -8105,7 +8105,7 @@
       <c r="R604" s="13"/>
       <c r="Y604" s="13"/>
     </row>
-    <row r="605" spans="2:25" hidden="1">
+    <row r="605" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B605" s="11">
         <v>45990</v>
       </c>
@@ -8115,7 +8115,7 @@
       <c r="R605" s="13"/>
       <c r="Y605" s="13"/>
     </row>
-    <row r="606" spans="2:25" hidden="1">
+    <row r="606" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B606" s="11">
         <v>45991</v>
       </c>
@@ -8125,7 +8125,7 @@
       <c r="R606" s="13"/>
       <c r="Y606" s="13"/>
     </row>
-    <row r="607" spans="2:25" hidden="1">
+    <row r="607" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B607" s="11">
         <v>45991</v>
       </c>
@@ -8135,7 +8135,7 @@
       <c r="R607" s="13"/>
       <c r="Y607" s="13"/>
     </row>
-    <row r="608" spans="2:25" hidden="1">
+    <row r="608" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B608" s="11">
         <v>45991</v>
       </c>
@@ -8145,7 +8145,7 @@
       <c r="R608" s="13"/>
       <c r="Y608" s="13"/>
     </row>
-    <row r="609" spans="2:25" hidden="1">
+    <row r="609" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B609" s="11">
         <v>45991</v>
       </c>
@@ -8155,7 +8155,7 @@
       <c r="R609" s="13"/>
       <c r="Y609" s="13"/>
     </row>
-    <row r="610" spans="2:25" hidden="1">
+    <row r="610" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B610" s="11">
         <v>45991</v>
       </c>
@@ -8165,7 +8165,7 @@
       <c r="R610" s="13"/>
       <c r="Y610" s="13"/>
     </row>
-    <row r="611" spans="2:25" hidden="1">
+    <row r="611" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B611" s="11">
         <v>45991</v>
       </c>
@@ -8175,7 +8175,7 @@
       <c r="R611" s="13"/>
       <c r="Y611" s="13"/>
     </row>
-    <row r="612" spans="2:25" hidden="1">
+    <row r="612" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B612" s="11">
         <v>45991</v>
       </c>
@@ -8185,7 +8185,7 @@
       <c r="R612" s="13"/>
       <c r="Y612" s="13"/>
     </row>
-    <row r="613" spans="2:25" hidden="1">
+    <row r="613" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B613" s="11">
         <v>45992</v>
       </c>
@@ -8195,7 +8195,7 @@
       <c r="R613" s="13"/>
       <c r="Y613" s="13"/>
     </row>
-    <row r="614" spans="2:25" hidden="1">
+    <row r="614" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B614" s="11">
         <v>45992</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="R614" s="13"/>
       <c r="Y614" s="13"/>
     </row>
-    <row r="615" spans="2:25" hidden="1">
+    <row r="615" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B615" s="11">
         <v>45992</v>
       </c>
@@ -8215,7 +8215,7 @@
       <c r="R615" s="13"/>
       <c r="Y615" s="13"/>
     </row>
-    <row r="616" spans="2:25" hidden="1">
+    <row r="616" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B616" s="11">
         <v>45992</v>
       </c>
@@ -8225,7 +8225,7 @@
       <c r="R616" s="13"/>
       <c r="Y616" s="13"/>
     </row>
-    <row r="617" spans="2:25" hidden="1">
+    <row r="617" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B617" s="11">
         <v>45992</v>
       </c>
@@ -8235,7 +8235,7 @@
       <c r="R617" s="13"/>
       <c r="Y617" s="13"/>
     </row>
-    <row r="618" spans="2:25" hidden="1">
+    <row r="618" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B618" s="11">
         <v>45992</v>
       </c>
@@ -8245,7 +8245,7 @@
       <c r="R618" s="13"/>
       <c r="Y618" s="13"/>
     </row>
-    <row r="619" spans="2:25" hidden="1">
+    <row r="619" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B619" s="11">
         <v>45992</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="R619" s="13"/>
       <c r="Y619" s="13"/>
     </row>
-    <row r="620" spans="2:25" hidden="1">
+    <row r="620" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B620" s="11">
         <v>45993</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="R620" s="13"/>
       <c r="Y620" s="13"/>
     </row>
-    <row r="621" spans="2:25" hidden="1">
+    <row r="621" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B621" s="11">
         <v>45993</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="R621" s="13"/>
       <c r="Y621" s="13"/>
     </row>
-    <row r="622" spans="2:25" hidden="1">
+    <row r="622" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B622" s="11">
         <v>45993</v>
       </c>
@@ -8285,7 +8285,7 @@
       <c r="R622" s="13"/>
       <c r="Y622" s="13"/>
     </row>
-    <row r="623" spans="2:25" hidden="1">
+    <row r="623" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B623" s="11">
         <v>45993</v>
       </c>
@@ -8295,7 +8295,7 @@
       <c r="R623" s="13"/>
       <c r="Y623" s="13"/>
     </row>
-    <row r="624" spans="2:25" hidden="1">
+    <row r="624" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B624" s="11">
         <v>45993</v>
       </c>
@@ -8305,7 +8305,7 @@
       <c r="R624" s="13"/>
       <c r="Y624" s="13"/>
     </row>
-    <row r="625" spans="2:25" hidden="1">
+    <row r="625" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B625" s="11">
         <v>45993</v>
       </c>
@@ -8315,7 +8315,7 @@
       <c r="R625" s="13"/>
       <c r="Y625" s="13"/>
     </row>
-    <row r="626" spans="2:25" hidden="1">
+    <row r="626" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B626" s="11">
         <v>45993</v>
       </c>
@@ -8325,7 +8325,7 @@
       <c r="R626" s="13"/>
       <c r="Y626" s="13"/>
     </row>
-    <row r="627" spans="2:25" hidden="1">
+    <row r="627" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B627" s="11">
         <v>45994</v>
       </c>
@@ -8335,7 +8335,7 @@
       <c r="R627" s="13"/>
       <c r="Y627" s="13"/>
     </row>
-    <row r="628" spans="2:25" hidden="1">
+    <row r="628" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B628" s="11">
         <v>45994</v>
       </c>
@@ -8345,7 +8345,7 @@
       <c r="R628" s="13"/>
       <c r="Y628" s="13"/>
     </row>
-    <row r="629" spans="2:25" hidden="1">
+    <row r="629" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B629" s="11">
         <v>45994</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="R629" s="13"/>
       <c r="Y629" s="13"/>
     </row>
-    <row r="630" spans="2:25" hidden="1">
+    <row r="630" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B630" s="11">
         <v>45994</v>
       </c>
@@ -8365,7 +8365,7 @@
       <c r="R630" s="13"/>
       <c r="Y630" s="13"/>
     </row>
-    <row r="631" spans="2:25" hidden="1">
+    <row r="631" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B631" s="11">
         <v>45994</v>
       </c>
@@ -8375,7 +8375,7 @@
       <c r="R631" s="13"/>
       <c r="Y631" s="13"/>
     </row>
-    <row r="632" spans="2:25" hidden="1">
+    <row r="632" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B632" s="11">
         <v>45994</v>
       </c>
@@ -8385,7 +8385,7 @@
       <c r="R632" s="13"/>
       <c r="Y632" s="13"/>
     </row>
-    <row r="633" spans="2:25" hidden="1">
+    <row r="633" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B633" s="11">
         <v>45994</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="R633" s="13"/>
       <c r="Y633" s="13"/>
     </row>
-    <row r="634" spans="2:25" hidden="1">
+    <row r="634" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B634" s="11">
         <v>45995</v>
       </c>
@@ -8405,7 +8405,7 @@
       <c r="R634" s="13"/>
       <c r="Y634" s="13"/>
     </row>
-    <row r="635" spans="2:25" hidden="1">
+    <row r="635" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B635" s="11">
         <v>45995</v>
       </c>
@@ -8415,7 +8415,7 @@
       <c r="R635" s="13"/>
       <c r="Y635" s="13"/>
     </row>
-    <row r="636" spans="2:25" hidden="1">
+    <row r="636" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B636" s="11">
         <v>45995</v>
       </c>
@@ -8425,7 +8425,7 @@
       <c r="R636" s="13"/>
       <c r="Y636" s="13"/>
     </row>
-    <row r="637" spans="2:25" hidden="1">
+    <row r="637" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B637" s="11">
         <v>45995</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="R637" s="13"/>
       <c r="Y637" s="13"/>
     </row>
-    <row r="638" spans="2:25" hidden="1">
+    <row r="638" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B638" s="11">
         <v>45995</v>
       </c>
@@ -8445,7 +8445,7 @@
       <c r="R638" s="13"/>
       <c r="Y638" s="13"/>
     </row>
-    <row r="639" spans="2:25" hidden="1">
+    <row r="639" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B639" s="11">
         <v>45995</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="R639" s="13"/>
       <c r="Y639" s="13"/>
     </row>
-    <row r="640" spans="2:25" hidden="1">
+    <row r="640" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B640" s="11">
         <v>45995</v>
       </c>
@@ -8465,7 +8465,7 @@
       <c r="R640" s="13"/>
       <c r="Y640" s="13"/>
     </row>
-    <row r="641" spans="2:25" hidden="1">
+    <row r="641" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B641" s="11">
         <v>45996</v>
       </c>
@@ -8475,7 +8475,7 @@
       <c r="R641" s="13"/>
       <c r="Y641" s="13"/>
     </row>
-    <row r="642" spans="2:25" hidden="1">
+    <row r="642" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B642" s="11">
         <v>45996</v>
       </c>
@@ -8485,7 +8485,7 @@
       <c r="R642" s="13"/>
       <c r="Y642" s="13"/>
     </row>
-    <row r="643" spans="2:25" hidden="1">
+    <row r="643" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B643" s="11">
         <v>45996</v>
       </c>
@@ -8495,7 +8495,7 @@
       <c r="R643" s="13"/>
       <c r="Y643" s="13"/>
     </row>
-    <row r="644" spans="2:25" hidden="1">
+    <row r="644" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B644" s="11">
         <v>45996</v>
       </c>
@@ -8505,7 +8505,7 @@
       <c r="R644" s="13"/>
       <c r="Y644" s="13"/>
     </row>
-    <row r="645" spans="2:25" hidden="1">
+    <row r="645" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B645" s="11">
         <v>45996</v>
       </c>
@@ -8515,7 +8515,7 @@
       <c r="R645" s="13"/>
       <c r="Y645" s="13"/>
     </row>
-    <row r="646" spans="2:25" hidden="1">
+    <row r="646" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B646" s="11">
         <v>45996</v>
       </c>
@@ -8525,7 +8525,7 @@
       <c r="R646" s="13"/>
       <c r="Y646" s="13"/>
     </row>
-    <row r="647" spans="2:25" hidden="1">
+    <row r="647" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B647" s="11">
         <v>45996</v>
       </c>
@@ -8535,7 +8535,7 @@
       <c r="R647" s="13"/>
       <c r="Y647" s="13"/>
     </row>
-    <row r="648" spans="2:25" hidden="1">
+    <row r="648" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B648" s="11">
         <v>45997</v>
       </c>
@@ -8545,7 +8545,7 @@
       <c r="R648" s="13"/>
       <c r="Y648" s="13"/>
     </row>
-    <row r="649" spans="2:25" hidden="1">
+    <row r="649" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B649" s="11">
         <v>45997</v>
       </c>
@@ -8555,7 +8555,7 @@
       <c r="R649" s="13"/>
       <c r="Y649" s="13"/>
     </row>
-    <row r="650" spans="2:25" hidden="1">
+    <row r="650" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B650" s="11">
         <v>45997</v>
       </c>
@@ -8565,7 +8565,7 @@
       <c r="R650" s="13"/>
       <c r="Y650" s="13"/>
     </row>
-    <row r="651" spans="2:25" hidden="1">
+    <row r="651" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B651" s="11">
         <v>45997</v>
       </c>
@@ -8575,7 +8575,7 @@
       <c r="R651" s="13"/>
       <c r="Y651" s="13"/>
     </row>
-    <row r="652" spans="2:25" hidden="1">
+    <row r="652" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B652" s="11">
         <v>45997</v>
       </c>
@@ -8585,7 +8585,7 @@
       <c r="R652" s="13"/>
       <c r="Y652" s="13"/>
     </row>
-    <row r="653" spans="2:25" hidden="1">
+    <row r="653" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B653" s="11">
         <v>45997</v>
       </c>
@@ -8595,7 +8595,7 @@
       <c r="R653" s="13"/>
       <c r="Y653" s="13"/>
     </row>
-    <row r="654" spans="2:25" hidden="1">
+    <row r="654" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B654" s="11">
         <v>45997</v>
       </c>
@@ -8605,7 +8605,7 @@
       <c r="R654" s="13"/>
       <c r="Y654" s="13"/>
     </row>
-    <row r="655" spans="2:25" hidden="1">
+    <row r="655" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B655" s="11">
         <v>45998</v>
       </c>
@@ -8615,7 +8615,7 @@
       <c r="R655" s="13"/>
       <c r="Y655" s="13"/>
     </row>
-    <row r="656" spans="2:25" hidden="1">
+    <row r="656" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B656" s="11">
         <v>45998</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="R656" s="13"/>
       <c r="Y656" s="13"/>
     </row>
-    <row r="657" spans="2:25" hidden="1">
+    <row r="657" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B657" s="11">
         <v>45998</v>
       </c>
@@ -8635,7 +8635,7 @@
       <c r="R657" s="13"/>
       <c r="Y657" s="13"/>
     </row>
-    <row r="658" spans="2:25" hidden="1">
+    <row r="658" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B658" s="11">
         <v>45998</v>
       </c>
@@ -8645,7 +8645,7 @@
       <c r="R658" s="13"/>
       <c r="Y658" s="13"/>
     </row>
-    <row r="659" spans="2:25" hidden="1">
+    <row r="659" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B659" s="11">
         <v>45998</v>
       </c>
@@ -8655,7 +8655,7 @@
       <c r="R659" s="13"/>
       <c r="Y659" s="13"/>
     </row>
-    <row r="660" spans="2:25" hidden="1">
+    <row r="660" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B660" s="11">
         <v>45998</v>
       </c>
@@ -8665,7 +8665,7 @@
       <c r="R660" s="13"/>
       <c r="Y660" s="13"/>
     </row>
-    <row r="661" spans="2:25" hidden="1">
+    <row r="661" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B661" s="11">
         <v>45998</v>
       </c>
@@ -8675,7 +8675,7 @@
       <c r="R661" s="13"/>
       <c r="Y661" s="13"/>
     </row>
-    <row r="662" spans="2:25" hidden="1">
+    <row r="662" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B662" s="11">
         <v>45999</v>
       </c>
@@ -8685,7 +8685,7 @@
       <c r="R662" s="13"/>
       <c r="Y662" s="13"/>
     </row>
-    <row r="663" spans="2:25" hidden="1">
+    <row r="663" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B663" s="11">
         <v>45999</v>
       </c>
@@ -8695,7 +8695,7 @@
       <c r="R663" s="13"/>
       <c r="Y663" s="13"/>
     </row>
-    <row r="664" spans="2:25" hidden="1">
+    <row r="664" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B664" s="11">
         <v>45999</v>
       </c>
@@ -8705,7 +8705,7 @@
       <c r="R664" s="13"/>
       <c r="Y664" s="13"/>
     </row>
-    <row r="665" spans="2:25" hidden="1">
+    <row r="665" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B665" s="11">
         <v>45999</v>
       </c>
@@ -8715,7 +8715,7 @@
       <c r="R665" s="13"/>
       <c r="Y665" s="13"/>
     </row>
-    <row r="666" spans="2:25" hidden="1">
+    <row r="666" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B666" s="11">
         <v>45999</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="R666" s="13"/>
       <c r="Y666" s="13"/>
     </row>
-    <row r="667" spans="2:25" hidden="1">
+    <row r="667" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B667" s="11">
         <v>45999</v>
       </c>
@@ -8735,7 +8735,7 @@
       <c r="R667" s="13"/>
       <c r="Y667" s="13"/>
     </row>
-    <row r="668" spans="2:25" hidden="1">
+    <row r="668" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B668" s="11">
         <v>45999</v>
       </c>
@@ -8745,7 +8745,7 @@
       <c r="R668" s="13"/>
       <c r="Y668" s="13"/>
     </row>
-    <row r="669" spans="2:25" hidden="1">
+    <row r="669" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B669" s="11">
         <v>46000</v>
       </c>
@@ -8755,7 +8755,7 @@
       <c r="R669" s="13"/>
       <c r="Y669" s="13"/>
     </row>
-    <row r="670" spans="2:25" hidden="1">
+    <row r="670" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B670" s="11">
         <v>46000</v>
       </c>
@@ -8765,7 +8765,7 @@
       <c r="R670" s="13"/>
       <c r="Y670" s="13"/>
     </row>
-    <row r="671" spans="2:25" hidden="1">
+    <row r="671" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B671" s="11">
         <v>46000</v>
       </c>
@@ -8775,7 +8775,7 @@
       <c r="R671" s="13"/>
       <c r="Y671" s="13"/>
     </row>
-    <row r="672" spans="2:25" hidden="1">
+    <row r="672" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B672" s="11">
         <v>46000</v>
       </c>
@@ -8785,7 +8785,7 @@
       <c r="R672" s="13"/>
       <c r="Y672" s="13"/>
     </row>
-    <row r="673" spans="2:25" hidden="1">
+    <row r="673" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B673" s="11">
         <v>46000</v>
       </c>
@@ -8795,7 +8795,7 @@
       <c r="R673" s="13"/>
       <c r="Y673" s="13"/>
     </row>
-    <row r="674" spans="2:25" hidden="1">
+    <row r="674" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B674" s="11">
         <v>46000</v>
       </c>
@@ -8805,7 +8805,7 @@
       <c r="R674" s="13"/>
       <c r="Y674" s="13"/>
     </row>
-    <row r="675" spans="2:25" hidden="1">
+    <row r="675" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B675" s="11">
         <v>46000</v>
       </c>
@@ -8815,7 +8815,7 @@
       <c r="R675" s="13"/>
       <c r="Y675" s="13"/>
     </row>
-    <row r="676" spans="2:25" hidden="1">
+    <row r="676" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B676" s="11">
         <v>46001</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="R676" s="13"/>
       <c r="Y676" s="13"/>
     </row>
-    <row r="677" spans="2:25" hidden="1">
+    <row r="677" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B677" s="11">
         <v>46001</v>
       </c>
@@ -8835,7 +8835,7 @@
       <c r="R677" s="13"/>
       <c r="Y677" s="13"/>
     </row>
-    <row r="678" spans="2:25" hidden="1">
+    <row r="678" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B678" s="11">
         <v>46001</v>
       </c>
@@ -8845,7 +8845,7 @@
       <c r="R678" s="13"/>
       <c r="Y678" s="13"/>
     </row>
-    <row r="679" spans="2:25" hidden="1">
+    <row r="679" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B679" s="11">
         <v>46001</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="R679" s="13"/>
       <c r="Y679" s="13"/>
     </row>
-    <row r="680" spans="2:25" hidden="1">
+    <row r="680" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B680" s="11">
         <v>46001</v>
       </c>
@@ -8865,7 +8865,7 @@
       <c r="R680" s="13"/>
       <c r="Y680" s="13"/>
     </row>
-    <row r="681" spans="2:25" hidden="1">
+    <row r="681" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B681" s="11">
         <v>46001</v>
       </c>
@@ -8875,7 +8875,7 @@
       <c r="R681" s="13"/>
       <c r="Y681" s="13"/>
     </row>
-    <row r="682" spans="2:25" hidden="1">
+    <row r="682" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B682" s="11">
         <v>46001</v>
       </c>
@@ -8885,7 +8885,7 @@
       <c r="R682" s="13"/>
       <c r="Y682" s="13"/>
     </row>
-    <row r="683" spans="2:25" hidden="1">
+    <row r="683" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B683" s="11">
         <v>46002</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="R683" s="13"/>
       <c r="Y683" s="13"/>
     </row>
-    <row r="684" spans="2:25" hidden="1">
+    <row r="684" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B684" s="11">
         <v>46002</v>
       </c>
@@ -8905,7 +8905,7 @@
       <c r="R684" s="13"/>
       <c r="Y684" s="13"/>
     </row>
-    <row r="685" spans="2:25" hidden="1">
+    <row r="685" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B685" s="11">
         <v>46002</v>
       </c>
@@ -8915,7 +8915,7 @@
       <c r="R685" s="13"/>
       <c r="Y685" s="13"/>
     </row>
-    <row r="686" spans="2:25" hidden="1">
+    <row r="686" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B686" s="11">
         <v>46002</v>
       </c>
@@ -8925,7 +8925,7 @@
       <c r="R686" s="13"/>
       <c r="Y686" s="13"/>
     </row>
-    <row r="687" spans="2:25" hidden="1">
+    <row r="687" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B687" s="11">
         <v>46002</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="R687" s="13"/>
       <c r="Y687" s="13"/>
     </row>
-    <row r="688" spans="2:25" hidden="1">
+    <row r="688" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B688" s="11">
         <v>46002</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="R688" s="13"/>
       <c r="Y688" s="13"/>
     </row>
-    <row r="689" spans="2:25" hidden="1">
+    <row r="689" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B689" s="11">
         <v>46002</v>
       </c>
@@ -8955,7 +8955,7 @@
       <c r="R689" s="13"/>
       <c r="Y689" s="13"/>
     </row>
-    <row r="690" spans="2:25" hidden="1">
+    <row r="690" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B690" s="11">
         <v>46003</v>
       </c>
@@ -8965,7 +8965,7 @@
       <c r="R690" s="13"/>
       <c r="Y690" s="13"/>
     </row>
-    <row r="691" spans="2:25" hidden="1">
+    <row r="691" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B691" s="11">
         <v>46003</v>
       </c>
@@ -8975,7 +8975,7 @@
       <c r="R691" s="13"/>
       <c r="Y691" s="13"/>
     </row>
-    <row r="692" spans="2:25" hidden="1">
+    <row r="692" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B692" s="11">
         <v>46003</v>
       </c>
@@ -8985,7 +8985,7 @@
       <c r="R692" s="13"/>
       <c r="Y692" s="13"/>
     </row>
-    <row r="693" spans="2:25" hidden="1">
+    <row r="693" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B693" s="11">
         <v>46003</v>
       </c>
@@ -8995,7 +8995,7 @@
       <c r="R693" s="13"/>
       <c r="Y693" s="13"/>
     </row>
-    <row r="694" spans="2:25" hidden="1">
+    <row r="694" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B694" s="11">
         <v>46003</v>
       </c>
@@ -9005,7 +9005,7 @@
       <c r="R694" s="13"/>
       <c r="Y694" s="13"/>
     </row>
-    <row r="695" spans="2:25" hidden="1">
+    <row r="695" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B695" s="11">
         <v>46003</v>
       </c>
@@ -9015,7 +9015,7 @@
       <c r="R695" s="13"/>
       <c r="Y695" s="13"/>
     </row>
-    <row r="696" spans="2:25" hidden="1">
+    <row r="696" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B696" s="11">
         <v>46003</v>
       </c>
@@ -9025,7 +9025,7 @@
       <c r="R696" s="13"/>
       <c r="Y696" s="13"/>
     </row>
-    <row r="697" spans="2:25" hidden="1">
+    <row r="697" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B697" s="11">
         <v>46004</v>
       </c>
@@ -9035,7 +9035,7 @@
       <c r="R697" s="13"/>
       <c r="Y697" s="13"/>
     </row>
-    <row r="698" spans="2:25" hidden="1">
+    <row r="698" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B698" s="11">
         <v>46004</v>
       </c>
@@ -9045,7 +9045,7 @@
       <c r="R698" s="13"/>
       <c r="Y698" s="13"/>
     </row>
-    <row r="699" spans="2:25" hidden="1">
+    <row r="699" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B699" s="11">
         <v>46004</v>
       </c>
@@ -9055,7 +9055,7 @@
       <c r="R699" s="13"/>
       <c r="Y699" s="13"/>
     </row>
-    <row r="700" spans="2:25" hidden="1">
+    <row r="700" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B700" s="11">
         <v>46004</v>
       </c>
@@ -9065,7 +9065,7 @@
       <c r="R700" s="13"/>
       <c r="Y700" s="13"/>
     </row>
-    <row r="701" spans="2:25" hidden="1">
+    <row r="701" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B701" s="11">
         <v>46004</v>
       </c>
@@ -9075,7 +9075,7 @@
       <c r="R701" s="13"/>
       <c r="Y701" s="13"/>
     </row>
-    <row r="702" spans="2:25" hidden="1">
+    <row r="702" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B702" s="11">
         <v>46004</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="R702" s="13"/>
       <c r="Y702" s="13"/>
     </row>
-    <row r="703" spans="2:25" hidden="1">
+    <row r="703" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B703" s="11">
         <v>46004</v>
       </c>
@@ -9095,7 +9095,7 @@
       <c r="R703" s="13"/>
       <c r="Y703" s="13"/>
     </row>
-    <row r="704" spans="2:25" hidden="1">
+    <row r="704" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B704" s="11">
         <v>46005</v>
       </c>
@@ -9105,7 +9105,7 @@
       <c r="R704" s="13"/>
       <c r="Y704" s="13"/>
     </row>
-    <row r="705" spans="2:25" hidden="1">
+    <row r="705" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B705" s="11">
         <v>46005</v>
       </c>
@@ -9115,7 +9115,7 @@
       <c r="R705" s="13"/>
       <c r="Y705" s="13"/>
     </row>
-    <row r="706" spans="2:25" hidden="1">
+    <row r="706" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B706" s="11">
         <v>46005</v>
       </c>
@@ -9125,7 +9125,7 @@
       <c r="R706" s="13"/>
       <c r="Y706" s="13"/>
     </row>
-    <row r="707" spans="2:25" hidden="1">
+    <row r="707" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B707" s="11">
         <v>46005</v>
       </c>
@@ -9135,7 +9135,7 @@
       <c r="R707" s="13"/>
       <c r="Y707" s="13"/>
     </row>
-    <row r="708" spans="2:25" hidden="1">
+    <row r="708" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B708" s="11">
         <v>46005</v>
       </c>
@@ -9145,7 +9145,7 @@
       <c r="R708" s="13"/>
       <c r="Y708" s="13"/>
     </row>
-    <row r="709" spans="2:25" hidden="1">
+    <row r="709" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B709" s="11">
         <v>46005</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="R709" s="13"/>
       <c r="Y709" s="13"/>
     </row>
-    <row r="710" spans="2:25" hidden="1">
+    <row r="710" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B710" s="11">
         <v>46005</v>
       </c>
@@ -9165,7 +9165,7 @@
       <c r="R710" s="13"/>
       <c r="Y710" s="13"/>
     </row>
-    <row r="711" spans="2:25" hidden="1">
+    <row r="711" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B711" s="11">
         <v>46006</v>
       </c>
@@ -9175,7 +9175,7 @@
       <c r="R711" s="13"/>
       <c r="Y711" s="13"/>
     </row>
-    <row r="712" spans="2:25" hidden="1">
+    <row r="712" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B712" s="11">
         <v>46006</v>
       </c>
@@ -9185,7 +9185,7 @@
       <c r="R712" s="13"/>
       <c r="Y712" s="13"/>
     </row>
-    <row r="713" spans="2:25" hidden="1">
+    <row r="713" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B713" s="11">
         <v>46006</v>
       </c>
@@ -9195,7 +9195,7 @@
       <c r="R713" s="13"/>
       <c r="Y713" s="13"/>
     </row>
-    <row r="714" spans="2:25" hidden="1">
+    <row r="714" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B714" s="11">
         <v>46006</v>
       </c>
@@ -9205,7 +9205,7 @@
       <c r="R714" s="13"/>
       <c r="Y714" s="13"/>
     </row>
-    <row r="715" spans="2:25" hidden="1">
+    <row r="715" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B715" s="11">
         <v>46006</v>
       </c>
@@ -9215,7 +9215,7 @@
       <c r="R715" s="13"/>
       <c r="Y715" s="13"/>
     </row>
-    <row r="716" spans="2:25" hidden="1">
+    <row r="716" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B716" s="11">
         <v>46006</v>
       </c>
@@ -9225,7 +9225,7 @@
       <c r="R716" s="13"/>
       <c r="Y716" s="13"/>
     </row>
-    <row r="717" spans="2:25" hidden="1">
+    <row r="717" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B717" s="11">
         <v>46006</v>
       </c>
@@ -9235,7 +9235,7 @@
       <c r="R717" s="13"/>
       <c r="Y717" s="13"/>
     </row>
-    <row r="718" spans="2:25" hidden="1">
+    <row r="718" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B718" s="11">
         <v>46007</v>
       </c>
@@ -9245,7 +9245,7 @@
       <c r="R718" s="13"/>
       <c r="Y718" s="13"/>
     </row>
-    <row r="719" spans="2:25" hidden="1">
+    <row r="719" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B719" s="11">
         <v>46007</v>
       </c>
@@ -9255,7 +9255,7 @@
       <c r="R719" s="13"/>
       <c r="Y719" s="13"/>
     </row>
-    <row r="720" spans="2:25" hidden="1">
+    <row r="720" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B720" s="11">
         <v>46007</v>
       </c>
@@ -9265,7 +9265,7 @@
       <c r="R720" s="13"/>
       <c r="Y720" s="13"/>
     </row>
-    <row r="721" spans="2:25" hidden="1">
+    <row r="721" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B721" s="11">
         <v>46007</v>
       </c>
@@ -9275,7 +9275,7 @@
       <c r="R721" s="13"/>
       <c r="Y721" s="13"/>
     </row>
-    <row r="722" spans="2:25" hidden="1">
+    <row r="722" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B722" s="11">
         <v>46007</v>
       </c>
@@ -9285,7 +9285,7 @@
       <c r="R722" s="13"/>
       <c r="Y722" s="13"/>
     </row>
-    <row r="723" spans="2:25" hidden="1">
+    <row r="723" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B723" s="11">
         <v>46007</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="R723" s="13"/>
       <c r="Y723" s="13"/>
     </row>
-    <row r="724" spans="2:25" hidden="1">
+    <row r="724" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B724" s="11">
         <v>46007</v>
       </c>
@@ -9305,7 +9305,7 @@
       <c r="R724" s="13"/>
       <c r="Y724" s="13"/>
     </row>
-    <row r="725" spans="2:25" hidden="1">
+    <row r="725" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B725" s="11">
         <v>46008</v>
       </c>
@@ -9315,7 +9315,7 @@
       <c r="R725" s="13"/>
       <c r="Y725" s="13"/>
     </row>
-    <row r="726" spans="2:25" hidden="1">
+    <row r="726" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B726" s="11">
         <v>46008</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="R726" s="13"/>
       <c r="Y726" s="13"/>
     </row>
-    <row r="727" spans="2:25" hidden="1">
+    <row r="727" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B727" s="11">
         <v>46008</v>
       </c>
@@ -9335,7 +9335,7 @@
       <c r="R727" s="13"/>
       <c r="Y727" s="13"/>
     </row>
-    <row r="728" spans="2:25" hidden="1">
+    <row r="728" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B728" s="11">
         <v>46008</v>
       </c>
@@ -9345,7 +9345,7 @@
       <c r="R728" s="13"/>
       <c r="Y728" s="13"/>
     </row>
-    <row r="729" spans="2:25" hidden="1">
+    <row r="729" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B729" s="11">
         <v>46008</v>
       </c>
@@ -9355,7 +9355,7 @@
       <c r="R729" s="13"/>
       <c r="Y729" s="13"/>
     </row>
-    <row r="730" spans="2:25" hidden="1">
+    <row r="730" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B730" s="11">
         <v>46008</v>
       </c>
@@ -9365,7 +9365,7 @@
       <c r="R730" s="13"/>
       <c r="Y730" s="13"/>
     </row>
-    <row r="731" spans="2:25" hidden="1">
+    <row r="731" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B731" s="11">
         <v>46008</v>
       </c>
@@ -9375,7 +9375,7 @@
       <c r="R731" s="13"/>
       <c r="Y731" s="13"/>
     </row>
-    <row r="732" spans="2:25" hidden="1">
+    <row r="732" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B732" s="11">
         <v>46009</v>
       </c>
@@ -9385,7 +9385,7 @@
       <c r="R732" s="13"/>
       <c r="Y732" s="13"/>
     </row>
-    <row r="733" spans="2:25" hidden="1">
+    <row r="733" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B733" s="11">
         <v>46009</v>
       </c>
@@ -9395,7 +9395,7 @@
       <c r="R733" s="13"/>
       <c r="Y733" s="13"/>
     </row>
-    <row r="734" spans="2:25" hidden="1">
+    <row r="734" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B734" s="11">
         <v>46009</v>
       </c>
@@ -9405,7 +9405,7 @@
       <c r="R734" s="13"/>
       <c r="Y734" s="13"/>
     </row>
-    <row r="735" spans="2:25" hidden="1">
+    <row r="735" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B735" s="11">
         <v>46009</v>
       </c>
@@ -9415,7 +9415,7 @@
       <c r="R735" s="13"/>
       <c r="Y735" s="13"/>
     </row>
-    <row r="736" spans="2:25" hidden="1">
+    <row r="736" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B736" s="11">
         <v>46009</v>
       </c>
@@ -9425,7 +9425,7 @@
       <c r="R736" s="13"/>
       <c r="Y736" s="13"/>
     </row>
-    <row r="737" spans="2:25" hidden="1">
+    <row r="737" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B737" s="11">
         <v>46009</v>
       </c>
@@ -9435,7 +9435,7 @@
       <c r="R737" s="13"/>
       <c r="Y737" s="13"/>
     </row>
-    <row r="738" spans="2:25" hidden="1">
+    <row r="738" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B738" s="11">
         <v>46009</v>
       </c>
@@ -9445,7 +9445,7 @@
       <c r="R738" s="13"/>
       <c r="Y738" s="13"/>
     </row>
-    <row r="739" spans="2:25" hidden="1">
+    <row r="739" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B739" s="11">
         <v>46010</v>
       </c>
@@ -9455,7 +9455,7 @@
       <c r="R739" s="13"/>
       <c r="Y739" s="13"/>
     </row>
-    <row r="740" spans="2:25" hidden="1">
+    <row r="740" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B740" s="11">
         <v>46010</v>
       </c>
@@ -9465,7 +9465,7 @@
       <c r="R740" s="13"/>
       <c r="Y740" s="13"/>
     </row>
-    <row r="741" spans="2:25" hidden="1">
+    <row r="741" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B741" s="11">
         <v>46010</v>
       </c>
@@ -9475,7 +9475,7 @@
       <c r="R741" s="13"/>
       <c r="Y741" s="13"/>
     </row>
-    <row r="742" spans="2:25" hidden="1">
+    <row r="742" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B742" s="11">
         <v>46010</v>
       </c>
@@ -9485,7 +9485,7 @@
       <c r="R742" s="13"/>
       <c r="Y742" s="13"/>
     </row>
-    <row r="743" spans="2:25" hidden="1">
+    <row r="743" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B743" s="11">
         <v>46010</v>
       </c>
@@ -9495,7 +9495,7 @@
       <c r="R743" s="13"/>
       <c r="Y743" s="13"/>
     </row>
-    <row r="744" spans="2:25" hidden="1">
+    <row r="744" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B744" s="11">
         <v>46010</v>
       </c>
@@ -9505,7 +9505,7 @@
       <c r="R744" s="13"/>
       <c r="Y744" s="13"/>
     </row>
-    <row r="745" spans="2:25" hidden="1">
+    <row r="745" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B745" s="11">
         <v>46010</v>
       </c>
@@ -9515,7 +9515,7 @@
       <c r="R745" s="13"/>
       <c r="Y745" s="13"/>
     </row>
-    <row r="746" spans="2:25" hidden="1">
+    <row r="746" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B746" s="11">
         <v>46011</v>
       </c>
@@ -9525,7 +9525,7 @@
       <c r="R746" s="13"/>
       <c r="Y746" s="13"/>
     </row>
-    <row r="747" spans="2:25" hidden="1">
+    <row r="747" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B747" s="11">
         <v>46011</v>
       </c>
@@ -9535,7 +9535,7 @@
       <c r="R747" s="13"/>
       <c r="Y747" s="13"/>
     </row>
-    <row r="748" spans="2:25" hidden="1">
+    <row r="748" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B748" s="11">
         <v>46011</v>
       </c>
@@ -9545,7 +9545,7 @@
       <c r="R748" s="13"/>
       <c r="Y748" s="13"/>
     </row>
-    <row r="749" spans="2:25" hidden="1">
+    <row r="749" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B749" s="11">
         <v>46011</v>
       </c>
@@ -9555,7 +9555,7 @@
       <c r="R749" s="13"/>
       <c r="Y749" s="13"/>
     </row>
-    <row r="750" spans="2:25" hidden="1">
+    <row r="750" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B750" s="11">
         <v>46011</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="R750" s="13"/>
       <c r="Y750" s="13"/>
     </row>
-    <row r="751" spans="2:25" hidden="1">
+    <row r="751" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B751" s="11">
         <v>46011</v>
       </c>
@@ -9575,7 +9575,7 @@
       <c r="R751" s="13"/>
       <c r="Y751" s="13"/>
     </row>
-    <row r="752" spans="2:25" hidden="1">
+    <row r="752" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B752" s="11">
         <v>46011</v>
       </c>
@@ -9585,7 +9585,7 @@
       <c r="R752" s="13"/>
       <c r="Y752" s="13"/>
     </row>
-    <row r="753" spans="2:25" hidden="1">
+    <row r="753" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B753" s="11">
         <v>46012</v>
       </c>
@@ -9595,7 +9595,7 @@
       <c r="R753" s="13"/>
       <c r="Y753" s="13"/>
     </row>
-    <row r="754" spans="2:25" hidden="1">
+    <row r="754" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B754" s="11">
         <v>46012</v>
       </c>
@@ -9605,7 +9605,7 @@
       <c r="R754" s="13"/>
       <c r="Y754" s="13"/>
     </row>
-    <row r="755" spans="2:25" hidden="1">
+    <row r="755" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B755" s="11">
         <v>46012</v>
       </c>
@@ -9615,7 +9615,7 @@
       <c r="R755" s="13"/>
       <c r="Y755" s="13"/>
     </row>
-    <row r="756" spans="2:25" hidden="1">
+    <row r="756" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B756" s="11">
         <v>46012</v>
       </c>
@@ -9625,7 +9625,7 @@
       <c r="R756" s="13"/>
       <c r="Y756" s="13"/>
     </row>
-    <row r="757" spans="2:25" hidden="1">
+    <row r="757" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B757" s="11">
         <v>46012</v>
       </c>
@@ -9635,7 +9635,7 @@
       <c r="R757" s="13"/>
       <c r="Y757" s="13"/>
     </row>
-    <row r="758" spans="2:25" hidden="1">
+    <row r="758" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B758" s="11">
         <v>46012</v>
       </c>
@@ -9645,7 +9645,7 @@
       <c r="R758" s="13"/>
       <c r="Y758" s="13"/>
     </row>
-    <row r="759" spans="2:25" hidden="1">
+    <row r="759" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B759" s="11">
         <v>46012</v>
       </c>
@@ -9655,7 +9655,7 @@
       <c r="R759" s="13"/>
       <c r="Y759" s="13"/>
     </row>
-    <row r="760" spans="2:25" hidden="1">
+    <row r="760" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B760" s="11">
         <v>46013</v>
       </c>
@@ -9665,7 +9665,7 @@
       <c r="R760" s="13"/>
       <c r="Y760" s="13"/>
     </row>
-    <row r="761" spans="2:25" hidden="1">
+    <row r="761" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B761" s="11">
         <v>46013</v>
       </c>
@@ -9675,7 +9675,7 @@
       <c r="R761" s="13"/>
       <c r="Y761" s="13"/>
     </row>
-    <row r="762" spans="2:25" hidden="1">
+    <row r="762" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B762" s="11">
         <v>46013</v>
       </c>
@@ -9685,7 +9685,7 @@
       <c r="R762" s="13"/>
       <c r="Y762" s="13"/>
     </row>
-    <row r="763" spans="2:25" hidden="1">
+    <row r="763" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B763" s="11">
         <v>46013</v>
       </c>
@@ -9695,7 +9695,7 @@
       <c r="R763" s="13"/>
       <c r="Y763" s="13"/>
     </row>
-    <row r="764" spans="2:25" hidden="1">
+    <row r="764" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B764" s="11">
         <v>46013</v>
       </c>
@@ -9705,7 +9705,7 @@
       <c r="R764" s="13"/>
       <c r="Y764" s="13"/>
     </row>
-    <row r="765" spans="2:25" hidden="1">
+    <row r="765" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B765" s="11">
         <v>46013</v>
       </c>
@@ -9715,7 +9715,7 @@
       <c r="R765" s="13"/>
       <c r="Y765" s="13"/>
     </row>
-    <row r="766" spans="2:25" hidden="1">
+    <row r="766" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B766" s="11">
         <v>46013</v>
       </c>
@@ -9725,7 +9725,7 @@
       <c r="R766" s="13"/>
       <c r="Y766" s="13"/>
     </row>
-    <row r="767" spans="2:25" hidden="1">
+    <row r="767" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B767" s="11">
         <v>46014</v>
       </c>
@@ -9735,7 +9735,7 @@
       <c r="R767" s="13"/>
       <c r="Y767" s="13"/>
     </row>
-    <row r="768" spans="2:25" hidden="1">
+    <row r="768" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B768" s="11">
         <v>46014</v>
       </c>
@@ -9745,7 +9745,7 @@
       <c r="R768" s="13"/>
       <c r="Y768" s="13"/>
     </row>
-    <row r="769" spans="2:25" hidden="1">
+    <row r="769" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B769" s="11">
         <v>46014</v>
       </c>
@@ -9755,7 +9755,7 @@
       <c r="R769" s="13"/>
       <c r="Y769" s="13"/>
     </row>
-    <row r="770" spans="2:25" hidden="1">
+    <row r="770" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B770" s="11">
         <v>46014</v>
       </c>
@@ -9765,7 +9765,7 @@
       <c r="R770" s="13"/>
       <c r="Y770" s="13"/>
     </row>
-    <row r="771" spans="2:25" hidden="1">
+    <row r="771" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B771" s="11">
         <v>46014</v>
       </c>
@@ -9775,7 +9775,7 @@
       <c r="R771" s="13"/>
       <c r="Y771" s="13"/>
     </row>
-    <row r="772" spans="2:25" hidden="1">
+    <row r="772" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B772" s="11">
         <v>46014</v>
       </c>
@@ -9785,7 +9785,7 @@
       <c r="R772" s="13"/>
       <c r="Y772" s="13"/>
     </row>
-    <row r="773" spans="2:25" hidden="1">
+    <row r="773" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B773" s="11">
         <v>46014</v>
       </c>
@@ -9795,7 +9795,7 @@
       <c r="R773" s="13"/>
       <c r="Y773" s="13"/>
     </row>
-    <row r="774" spans="2:25" hidden="1">
+    <row r="774" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B774" s="11">
         <v>46015</v>
       </c>
@@ -9805,7 +9805,7 @@
       <c r="R774" s="13"/>
       <c r="Y774" s="13"/>
     </row>
-    <row r="775" spans="2:25" hidden="1">
+    <row r="775" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B775" s="11">
         <v>46015</v>
       </c>
@@ -9815,7 +9815,7 @@
       <c r="R775" s="13"/>
       <c r="Y775" s="13"/>
     </row>
-    <row r="776" spans="2:25" hidden="1">
+    <row r="776" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B776" s="11">
         <v>46015</v>
       </c>
@@ -9825,7 +9825,7 @@
       <c r="R776" s="13"/>
       <c r="Y776" s="13"/>
     </row>
-    <row r="777" spans="2:25" hidden="1">
+    <row r="777" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B777" s="11">
         <v>46015</v>
       </c>
@@ -9835,7 +9835,7 @@
       <c r="R777" s="13"/>
       <c r="Y777" s="13"/>
     </row>
-    <row r="778" spans="2:25" hidden="1">
+    <row r="778" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B778" s="11">
         <v>46015</v>
       </c>
@@ -9845,7 +9845,7 @@
       <c r="R778" s="13"/>
       <c r="Y778" s="13"/>
     </row>
-    <row r="779" spans="2:25" hidden="1">
+    <row r="779" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B779" s="11">
         <v>46015</v>
       </c>
@@ -9855,7 +9855,7 @@
       <c r="R779" s="13"/>
       <c r="Y779" s="13"/>
     </row>
-    <row r="780" spans="2:25" hidden="1">
+    <row r="780" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B780" s="11">
         <v>46015</v>
       </c>
@@ -9865,7 +9865,7 @@
       <c r="R780" s="13"/>
       <c r="Y780" s="13"/>
     </row>
-    <row r="781" spans="2:25" hidden="1">
+    <row r="781" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B781" s="11">
         <v>46016</v>
       </c>
@@ -9875,7 +9875,7 @@
       <c r="R781" s="13"/>
       <c r="Y781" s="13"/>
     </row>
-    <row r="782" spans="2:25" hidden="1">
+    <row r="782" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B782" s="11">
         <v>46016</v>
       </c>
@@ -9885,7 +9885,7 @@
       <c r="R782" s="13"/>
       <c r="Y782" s="13"/>
     </row>
-    <row r="783" spans="2:25" hidden="1">
+    <row r="783" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B783" s="11">
         <v>46016</v>
       </c>
@@ -9895,7 +9895,7 @@
       <c r="R783" s="13"/>
       <c r="Y783" s="13"/>
     </row>
-    <row r="784" spans="2:25" hidden="1">
+    <row r="784" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B784" s="11">
         <v>46016</v>
       </c>
@@ -9905,7 +9905,7 @@
       <c r="R784" s="13"/>
       <c r="Y784" s="13"/>
     </row>
-    <row r="785" spans="2:25" hidden="1">
+    <row r="785" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B785" s="11">
         <v>46016</v>
       </c>
@@ -9915,7 +9915,7 @@
       <c r="R785" s="13"/>
       <c r="Y785" s="13"/>
     </row>
-    <row r="786" spans="2:25" hidden="1">
+    <row r="786" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B786" s="11">
         <v>46016</v>
       </c>
@@ -9925,7 +9925,7 @@
       <c r="R786" s="13"/>
       <c r="Y786" s="13"/>
     </row>
-    <row r="787" spans="2:25" hidden="1">
+    <row r="787" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B787" s="11">
         <v>46016</v>
       </c>
@@ -9935,7 +9935,7 @@
       <c r="R787" s="13"/>
       <c r="Y787" s="13"/>
     </row>
-    <row r="788" spans="2:25" hidden="1">
+    <row r="788" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B788" s="11">
         <v>46017</v>
       </c>
@@ -9945,7 +9945,7 @@
       <c r="R788" s="13"/>
       <c r="Y788" s="13"/>
     </row>
-    <row r="789" spans="2:25" hidden="1">
+    <row r="789" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B789" s="11">
         <v>46017</v>
       </c>
@@ -9955,7 +9955,7 @@
       <c r="R789" s="13"/>
       <c r="Y789" s="13"/>
     </row>
-    <row r="790" spans="2:25" hidden="1">
+    <row r="790" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B790" s="11">
         <v>46017</v>
       </c>
@@ -9965,7 +9965,7 @@
       <c r="R790" s="13"/>
       <c r="Y790" s="13"/>
     </row>
-    <row r="791" spans="2:25" hidden="1">
+    <row r="791" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B791" s="11">
         <v>46017</v>
       </c>
@@ -9975,7 +9975,7 @@
       <c r="R791" s="13"/>
       <c r="Y791" s="13"/>
     </row>
-    <row r="792" spans="2:25" hidden="1">
+    <row r="792" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B792" s="11">
         <v>46017</v>
       </c>
@@ -9985,7 +9985,7 @@
       <c r="R792" s="13"/>
       <c r="Y792" s="13"/>
     </row>
-    <row r="793" spans="2:25" hidden="1">
+    <row r="793" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B793" s="11">
         <v>46017</v>
       </c>
@@ -9995,7 +9995,7 @@
       <c r="R793" s="13"/>
       <c r="Y793" s="13"/>
     </row>
-    <row r="794" spans="2:25" hidden="1">
+    <row r="794" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B794" s="11">
         <v>46017</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="R794" s="13"/>
       <c r="Y794" s="13"/>
     </row>
-    <row r="795" spans="2:25" hidden="1">
+    <row r="795" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B795" s="11">
         <v>46018</v>
       </c>
@@ -10015,7 +10015,7 @@
       <c r="R795" s="13"/>
       <c r="Y795" s="13"/>
     </row>
-    <row r="796" spans="2:25" hidden="1">
+    <row r="796" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B796" s="11">
         <v>46018</v>
       </c>
@@ -10025,7 +10025,7 @@
       <c r="R796" s="13"/>
       <c r="Y796" s="13"/>
     </row>
-    <row r="797" spans="2:25" hidden="1">
+    <row r="797" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B797" s="11">
         <v>46018</v>
       </c>
@@ -10035,7 +10035,7 @@
       <c r="R797" s="13"/>
       <c r="Y797" s="13"/>
     </row>
-    <row r="798" spans="2:25" hidden="1">
+    <row r="798" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B798" s="11">
         <v>46018</v>
       </c>
@@ -10045,7 +10045,7 @@
       <c r="R798" s="13"/>
       <c r="Y798" s="13"/>
     </row>
-    <row r="799" spans="2:25" hidden="1">
+    <row r="799" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B799" s="11">
         <v>46018</v>
       </c>
@@ -10055,7 +10055,7 @@
       <c r="R799" s="13"/>
       <c r="Y799" s="13"/>
     </row>
-    <row r="800" spans="2:25" hidden="1">
+    <row r="800" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B800" s="11">
         <v>46018</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="R800" s="13"/>
       <c r="Y800" s="13"/>
     </row>
-    <row r="801" spans="2:25" hidden="1">
+    <row r="801" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B801" s="11">
         <v>46018</v>
       </c>
@@ -10075,7 +10075,7 @@
       <c r="R801" s="13"/>
       <c r="Y801" s="13"/>
     </row>
-    <row r="802" spans="2:25" hidden="1">
+    <row r="802" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B802" s="11">
         <v>46019</v>
       </c>
@@ -10085,7 +10085,7 @@
       <c r="R802" s="13"/>
       <c r="Y802" s="13"/>
     </row>
-    <row r="803" spans="2:25" hidden="1">
+    <row r="803" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B803" s="11">
         <v>46019</v>
       </c>
@@ -10095,7 +10095,7 @@
       <c r="R803" s="13"/>
       <c r="Y803" s="13"/>
     </row>
-    <row r="804" spans="2:25" hidden="1">
+    <row r="804" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B804" s="11">
         <v>46019</v>
       </c>
@@ -10105,7 +10105,7 @@
       <c r="R804" s="13"/>
       <c r="Y804" s="13"/>
     </row>
-    <row r="805" spans="2:25" hidden="1">
+    <row r="805" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B805" s="11">
         <v>46019</v>
       </c>
@@ -10115,7 +10115,7 @@
       <c r="R805" s="13"/>
       <c r="Y805" s="13"/>
     </row>
-    <row r="806" spans="2:25" hidden="1">
+    <row r="806" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B806" s="11">
         <v>46019</v>
       </c>
@@ -10125,7 +10125,7 @@
       <c r="R806" s="13"/>
       <c r="Y806" s="13"/>
     </row>
-    <row r="807" spans="2:25" hidden="1">
+    <row r="807" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B807" s="11">
         <v>46019</v>
       </c>
@@ -10135,7 +10135,7 @@
       <c r="R807" s="13"/>
       <c r="Y807" s="13"/>
     </row>
-    <row r="808" spans="2:25" hidden="1">
+    <row r="808" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B808" s="11">
         <v>46019</v>
       </c>
@@ -10145,7 +10145,7 @@
       <c r="R808" s="13"/>
       <c r="Y808" s="13"/>
     </row>
-    <row r="809" spans="2:25" hidden="1">
+    <row r="809" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B809" s="11">
         <v>46020</v>
       </c>
@@ -10155,7 +10155,7 @@
       <c r="R809" s="13"/>
       <c r="Y809" s="13"/>
     </row>
-    <row r="810" spans="2:25" hidden="1">
+    <row r="810" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B810" s="11">
         <v>46020</v>
       </c>
@@ -10165,7 +10165,7 @@
       <c r="R810" s="13"/>
       <c r="Y810" s="13"/>
     </row>
-    <row r="811" spans="2:25" hidden="1">
+    <row r="811" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B811" s="11">
         <v>46020</v>
       </c>
@@ -10175,7 +10175,7 @@
       <c r="R811" s="13"/>
       <c r="Y811" s="13"/>
     </row>
-    <row r="812" spans="2:25" hidden="1">
+    <row r="812" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B812" s="11">
         <v>46020</v>
       </c>
@@ -10185,7 +10185,7 @@
       <c r="R812" s="13"/>
       <c r="Y812" s="13"/>
     </row>
-    <row r="813" spans="2:25" hidden="1">
+    <row r="813" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B813" s="11">
         <v>46020</v>
       </c>
@@ -10195,7 +10195,7 @@
       <c r="R813" s="13"/>
       <c r="Y813" s="13"/>
     </row>
-    <row r="814" spans="2:25" hidden="1">
+    <row r="814" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B814" s="11">
         <v>46020</v>
       </c>
@@ -10205,7 +10205,7 @@
       <c r="R814" s="13"/>
       <c r="Y814" s="13"/>
     </row>
-    <row r="815" spans="2:25" hidden="1">
+    <row r="815" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B815" s="11">
         <v>46020</v>
       </c>
@@ -10215,7 +10215,7 @@
       <c r="R815" s="13"/>
       <c r="Y815" s="13"/>
     </row>
-    <row r="816" spans="2:25" hidden="1">
+    <row r="816" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B816" s="11">
         <v>46021</v>
       </c>
@@ -10225,7 +10225,7 @@
       <c r="R816" s="13"/>
       <c r="Y816" s="13"/>
     </row>
-    <row r="817" spans="2:25" hidden="1">
+    <row r="817" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B817" s="11">
         <v>46021</v>
       </c>
@@ -10235,7 +10235,7 @@
       <c r="R817" s="13"/>
       <c r="Y817" s="13"/>
     </row>
-    <row r="818" spans="2:25" hidden="1">
+    <row r="818" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B818" s="11">
         <v>46021</v>
       </c>
@@ -10245,7 +10245,7 @@
       <c r="R818" s="13"/>
       <c r="Y818" s="13"/>
     </row>
-    <row r="819" spans="2:25" hidden="1">
+    <row r="819" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B819" s="11">
         <v>46021</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="R819" s="13"/>
       <c r="Y819" s="13"/>
     </row>
-    <row r="820" spans="2:25" hidden="1">
+    <row r="820" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B820" s="11">
         <v>46021</v>
       </c>
@@ -10265,7 +10265,7 @@
       <c r="R820" s="13"/>
       <c r="Y820" s="13"/>
     </row>
-    <row r="821" spans="2:25" hidden="1">
+    <row r="821" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B821" s="11">
         <v>46021</v>
       </c>
@@ -10275,7 +10275,7 @@
       <c r="R821" s="13"/>
       <c r="Y821" s="13"/>
     </row>
-    <row r="822" spans="2:25" hidden="1">
+    <row r="822" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B822" s="11">
         <v>46021</v>
       </c>
@@ -10285,7 +10285,7 @@
       <c r="R822" s="13"/>
       <c r="Y822" s="13"/>
     </row>
-    <row r="823" spans="2:25" hidden="1">
+    <row r="823" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B823" s="11">
         <v>46022</v>
       </c>
@@ -10295,7 +10295,7 @@
       <c r="R823" s="13"/>
       <c r="Y823" s="13"/>
     </row>
-    <row r="824" spans="2:25" hidden="1">
+    <row r="824" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B824" s="11">
         <v>46022</v>
       </c>
@@ -10305,7 +10305,7 @@
       <c r="R824" s="13"/>
       <c r="Y824" s="13"/>
     </row>
-    <row r="825" spans="2:25" hidden="1">
+    <row r="825" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B825" s="11">
         <v>46022</v>
       </c>
@@ -10315,7 +10315,7 @@
       <c r="R825" s="13"/>
       <c r="Y825" s="13"/>
     </row>
-    <row r="826" spans="2:25" hidden="1">
+    <row r="826" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B826" s="11">
         <v>46022</v>
       </c>
@@ -10325,7 +10325,7 @@
       <c r="R826" s="13"/>
       <c r="Y826" s="13"/>
     </row>
-    <row r="827" spans="2:25" hidden="1">
+    <row r="827" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B827" s="11">
         <v>46022</v>
       </c>
@@ -10335,7 +10335,7 @@
       <c r="R827" s="13"/>
       <c r="Y827" s="13"/>
     </row>
-    <row r="828" spans="2:25" hidden="1">
+    <row r="828" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B828" s="11">
         <v>46022</v>
       </c>
@@ -10345,7 +10345,7 @@
       <c r="R828" s="13"/>
       <c r="Y828" s="13"/>
     </row>
-    <row r="829" spans="2:25" hidden="1">
+    <row r="829" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B829" s="11">
         <v>46022</v>
       </c>
@@ -10384,6 +10384,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10392,7 +10400,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="5" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="23f2b8cef8559182614740ba6ceef74b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="934927422b4276a9b2616a1597130764" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
@@ -10542,22 +10550,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649809F5-D46F-4002-9C20-8A9684DA0DCC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649809F5-D46F-4002-9C20-8A9684DA0DCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens-my.sharepoint.com/personal/carlos_renier_superfrio_com_br/Documents/Apps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{121A33C7-E774-4421-A0B5-B1133C94BF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DECBCB0-A30E-4CED-AE51-A52A95012C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,7 +444,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>731520</xdr:rowOff>
@@ -814,38 +814,38 @@
   <dimension ref="A1:AA829"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="B43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="13" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="15" style="13" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="13" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="13" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="13" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="13" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="13" customWidth="1"/>
     <col min="18" max="18" width="12" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" style="13" customWidth="1"/>
     <col min="20" max="20" width="16" style="13" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="13"/>
+    <col min="22" max="23" width="9.140625" style="13"/>
     <col min="24" max="24" width="17.140625" style="13" customWidth="1"/>
     <col min="25" max="25" width="13.85546875" style="21" customWidth="1"/>
     <col min="26" max="26" width="18.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A1" s="1"/>
       <c r="C1" s="7"/>
       <c r="D1" s="8" t="s">
@@ -857,7 +857,7 @@
       <c r="R1" s="18"/>
       <c r="Y1" s="22"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="1"/>
       <c r="C2" s="7"/>
       <c r="D2" s="31" t="s">
@@ -890,7 +890,7 @@
       <c r="Y2" s="35"/>
       <c r="Z2" s="33"/>
     </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="75" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
@@ -967,7 +967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1">
       <c r="B5" s="10">
         <v>45905</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1">
       <c r="B6" s="10">
         <v>45905</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" hidden="1">
       <c r="B7" s="10">
         <v>45905</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="B8" s="10">
         <v>45905</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1">
       <c r="B9" s="10">
         <v>45905</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="R9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1">
       <c r="B10" s="10">
         <v>45905</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="S11" s="17"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1">
       <c r="B12" s="11">
         <v>45906</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1">
       <c r="B13" s="11">
         <v>45906</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="R13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1">
       <c r="B14" s="11">
         <v>45906</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="B15" s="11">
         <v>45906</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="R15" s="13"/>
       <c r="Y15" s="30"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1">
       <c r="B16" s="11">
         <v>45906</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="R16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" hidden="1">
       <c r="B17" s="11">
         <v>45906</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" hidden="1">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="R18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" hidden="1">
       <c r="B19" s="11">
         <v>45907</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" hidden="1">
       <c r="B20" s="11">
         <v>45907</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="R20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" hidden="1">
       <c r="B21" s="11">
         <v>45907</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26">
       <c r="B22" s="11">
         <v>45907</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="R22" s="13"/>
       <c r="Y22" s="30"/>
     </row>
-    <row r="23" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" hidden="1">
       <c r="B23" s="11">
         <v>45907</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="R23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" hidden="1">
       <c r="B24" s="11">
         <v>45907</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" hidden="1">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" hidden="1">
       <c r="B26" s="11">
         <v>45908</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" hidden="1">
       <c r="B27" s="11">
         <v>45908</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" hidden="1">
       <c r="B28" s="11">
         <v>45908</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26">
       <c r="B29" s="11">
         <v>45908</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" hidden="1">
       <c r="B30" s="11">
         <v>45908</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="R30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" hidden="1">
       <c r="B31" s="11">
         <v>45908</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" hidden="1">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" hidden="1">
       <c r="B33" s="11">
         <v>45909</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" hidden="1">
       <c r="B34" s="11">
         <v>45909</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" hidden="1">
       <c r="B35" s="11">
         <v>45909</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26">
       <c r="B36" s="11">
         <v>45909</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" hidden="1">
       <c r="B37" s="11">
         <v>45909</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="R37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" hidden="1">
       <c r="B38" s="11">
         <v>45909</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" hidden="1">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" hidden="1">
       <c r="B40" s="11">
         <v>45910</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" ht="15" hidden="1">
       <c r="B41" s="11">
         <v>45910</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" hidden="1">
       <c r="B42" s="11">
         <v>45910</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26">
       <c r="B43" s="11">
         <v>45910</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" hidden="1">
       <c r="B44" s="11">
         <v>45910</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="R44" s="13"/>
       <c r="Y44" s="13"/>
     </row>
-    <row r="45" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" hidden="1">
       <c r="B45" s="11">
         <v>45910</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" hidden="1">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" ht="15" hidden="1">
       <c r="B47" s="11">
         <v>45911</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" hidden="1">
       <c r="B48" s="11">
         <v>45911</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" hidden="1">
       <c r="B49" s="11">
         <v>45911</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="AA49" s="27"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27">
       <c r="B50" s="11">
         <v>45911</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" hidden="1">
       <c r="B51" s="11">
         <v>45911</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="R51" s="13"/>
       <c r="Y51" s="13"/>
     </row>
-    <row r="52" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" hidden="1">
       <c r="B52" s="11">
         <v>45911</v>
       </c>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" hidden="1">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
@@ -2476,13 +2476,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" ht="15" hidden="1">
       <c r="B54" s="11">
         <v>45912</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
       </c>
+      <c r="D54" s="12">
+        <v>52429.57</v>
+      </c>
+      <c r="E54" s="12">
+        <v>42743.74</v>
+      </c>
+      <c r="F54" s="12">
+        <v>61.4</v>
+      </c>
       <c r="P54" s="13">
         <v>11</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" hidden="1">
       <c r="B55" s="11">
         <v>45912</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" ht="15" hidden="1">
       <c r="B56" s="11">
         <v>45912</v>
       </c>
@@ -2562,7 +2571,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" ht="15">
       <c r="B57" s="11">
         <v>45912</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>0.63109999999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" hidden="1">
       <c r="B58" s="11">
         <v>45912</v>
       </c>
@@ -2601,7 +2610,7 @@
       <c r="R58" s="13"/>
       <c r="Y58" s="13"/>
     </row>
-    <row r="59" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" hidden="1">
       <c r="B59" s="11">
         <v>45912</v>
       </c>
@@ -2635,7 +2644,7 @@
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" hidden="1">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2645,7 +2654,7 @@
       <c r="R60" s="13"/>
       <c r="Y60" s="13"/>
     </row>
-    <row r="61" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" hidden="1">
       <c r="B61" s="11">
         <v>45913</v>
       </c>
@@ -2654,7 +2663,7 @@
       </c>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" hidden="1">
       <c r="B62" s="11">
         <v>45913</v>
       </c>
@@ -2664,7 +2673,7 @@
       <c r="R62" s="13"/>
       <c r="Y62" s="13"/>
     </row>
-    <row r="63" spans="2:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" hidden="1">
       <c r="B63" s="11">
         <v>45913</v>
       </c>
@@ -2673,7 +2682,7 @@
       </c>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" ht="15">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
@@ -2692,7 +2701,7 @@
       <c r="R64" s="13"/>
       <c r="AA64" s="29"/>
     </row>
-    <row r="65" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:26" hidden="1">
       <c r="B65" s="11">
         <v>45913</v>
       </c>
@@ -2702,7 +2711,7 @@
       <c r="R65" s="13"/>
       <c r="Y65" s="13"/>
     </row>
-    <row r="66" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:26" hidden="1">
       <c r="B66" s="11">
         <v>45913</v>
       </c>
@@ -2712,7 +2721,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:26" hidden="1">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2722,7 +2731,7 @@
       <c r="R67" s="13"/>
       <c r="Y67" s="13"/>
     </row>
-    <row r="68" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:26" hidden="1">
       <c r="B68" s="11">
         <v>45914</v>
       </c>
@@ -2731,7 +2740,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:26" hidden="1">
       <c r="B69" s="11">
         <v>45914</v>
       </c>
@@ -2741,7 +2750,7 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:26" hidden="1">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
@@ -2750,7 +2759,7 @@
       </c>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:26" ht="15">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
@@ -2768,7 +2777,7 @@
       </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:26" hidden="1">
       <c r="B72" s="11">
         <v>45914</v>
       </c>
@@ -2778,7 +2787,7 @@
       <c r="R72" s="13"/>
       <c r="Y72" s="13"/>
     </row>
-    <row r="73" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:26" hidden="1">
       <c r="B73" s="11">
         <v>45914</v>
       </c>
@@ -2788,7 +2797,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:26" hidden="1">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2812,7 +2821,7 @@
       </c>
       <c r="Y74" s="13"/>
     </row>
-    <row r="75" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:26" hidden="1">
       <c r="B75" s="11">
         <v>45915</v>
       </c>
@@ -2821,7 +2830,7 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:26" hidden="1">
       <c r="B76" s="11">
         <v>45915</v>
       </c>
@@ -2848,7 +2857,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:26" hidden="1">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
@@ -2857,7 +2866,7 @@
       </c>
       <c r="Y77" s="13"/>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:26">
       <c r="B78" s="11">
         <v>45915</v>
       </c>
@@ -2866,7 +2875,7 @@
       </c>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:26" hidden="1">
       <c r="B79" s="11">
         <v>45915</v>
       </c>
@@ -2876,7 +2885,7 @@
       <c r="R79" s="13"/>
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:26" ht="15" hidden="1">
       <c r="B80" s="11">
         <v>45915</v>
       </c>
@@ -2910,7 +2919,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:25" hidden="1">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2920,7 +2929,7 @@
       <c r="R81" s="13"/>
       <c r="Y81" s="13"/>
     </row>
-    <row r="82" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:25" hidden="1">
       <c r="B82" s="11">
         <v>45916</v>
       </c>
@@ -2929,7 +2938,7 @@
       </c>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:25" hidden="1">
       <c r="B83" s="11">
         <v>45916</v>
       </c>
@@ -2939,7 +2948,7 @@
       <c r="R83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:25" hidden="1">
       <c r="B84" s="11">
         <v>45916</v>
       </c>
@@ -2948,7 +2957,7 @@
       </c>
       <c r="Y84" s="13"/>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:25">
       <c r="B85" s="11">
         <v>45916</v>
       </c>
@@ -2957,7 +2966,7 @@
       </c>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:25" hidden="1">
       <c r="B86" s="11">
         <v>45916</v>
       </c>
@@ -2967,7 +2976,7 @@
       <c r="R86" s="13"/>
       <c r="Y86" s="13"/>
     </row>
-    <row r="87" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:25" hidden="1">
       <c r="B87" s="11">
         <v>45916</v>
       </c>
@@ -2977,7 +2986,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:25" hidden="1">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2987,7 +2996,7 @@
       <c r="R88" s="13"/>
       <c r="Y88" s="13"/>
     </row>
-    <row r="89" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:25" hidden="1">
       <c r="B89" s="11">
         <v>45917</v>
       </c>
@@ -2996,7 +3005,7 @@
       </c>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:25" hidden="1">
       <c r="B90" s="11">
         <v>45917</v>
       </c>
@@ -3006,7 +3015,7 @@
       <c r="R90" s="13"/>
       <c r="Y90" s="13"/>
     </row>
-    <row r="91" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:25" hidden="1">
       <c r="B91" s="11">
         <v>45917</v>
       </c>
@@ -3015,7 +3024,7 @@
       </c>
       <c r="Y91" s="13"/>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:25">
       <c r="B92" s="11">
         <v>45917</v>
       </c>
@@ -3024,7 +3033,7 @@
       </c>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:25" hidden="1">
       <c r="B93" s="11">
         <v>45917</v>
       </c>
@@ -3034,7 +3043,7 @@
       <c r="R93" s="13"/>
       <c r="Y93" s="13"/>
     </row>
-    <row r="94" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:25" hidden="1">
       <c r="B94" s="11">
         <v>45917</v>
       </c>
@@ -3044,7 +3053,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:25" hidden="1">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -3054,7 +3063,7 @@
       <c r="R95" s="13"/>
       <c r="Y95" s="13"/>
     </row>
-    <row r="96" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:25" hidden="1">
       <c r="B96" s="11">
         <v>45918</v>
       </c>
@@ -3063,7 +3072,7 @@
       </c>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:25" hidden="1">
       <c r="B97" s="11">
         <v>45918</v>
       </c>
@@ -3073,7 +3082,7 @@
       <c r="R97" s="13"/>
       <c r="Y97" s="13"/>
     </row>
-    <row r="98" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25" hidden="1">
       <c r="B98" s="11">
         <v>45918</v>
       </c>
@@ -3082,7 +3091,7 @@
       </c>
       <c r="Y98" s="13"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:25">
       <c r="B99" s="11">
         <v>45918</v>
       </c>
@@ -3091,7 +3100,7 @@
       </c>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:25" hidden="1">
       <c r="B100" s="11">
         <v>45918</v>
       </c>
@@ -3101,7 +3110,7 @@
       <c r="R100" s="13"/>
       <c r="Y100" s="13"/>
     </row>
-    <row r="101" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25" hidden="1">
       <c r="B101" s="11">
         <v>45918</v>
       </c>
@@ -3111,7 +3120,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:25" hidden="1">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -3121,7 +3130,7 @@
       <c r="R102" s="13"/>
       <c r="Y102" s="13"/>
     </row>
-    <row r="103" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:25" hidden="1">
       <c r="B103" s="11">
         <v>45919</v>
       </c>
@@ -3130,7 +3139,7 @@
       </c>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:25" hidden="1">
       <c r="B104" s="11">
         <v>45919</v>
       </c>
@@ -3140,7 +3149,7 @@
       <c r="R104" s="13"/>
       <c r="Y104" s="13"/>
     </row>
-    <row r="105" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:25" hidden="1">
       <c r="B105" s="11">
         <v>45919</v>
       </c>
@@ -3149,7 +3158,7 @@
       </c>
       <c r="Y105" s="13"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:25">
       <c r="B106" s="11">
         <v>45919</v>
       </c>
@@ -3158,7 +3167,7 @@
       </c>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:25" hidden="1">
       <c r="B107" s="11">
         <v>45919</v>
       </c>
@@ -3168,7 +3177,7 @@
       <c r="R107" s="13"/>
       <c r="Y107" s="13"/>
     </row>
-    <row r="108" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:25" hidden="1">
       <c r="B108" s="11">
         <v>45919</v>
       </c>
@@ -3178,7 +3187,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:25" hidden="1">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -3188,7 +3197,7 @@
       <c r="R109" s="13"/>
       <c r="Y109" s="13"/>
     </row>
-    <row r="110" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:25" hidden="1">
       <c r="B110" s="11">
         <v>45920</v>
       </c>
@@ -3197,7 +3206,7 @@
       </c>
       <c r="R110" s="13"/>
     </row>
-    <row r="111" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:25" hidden="1">
       <c r="B111" s="11">
         <v>45920</v>
       </c>
@@ -3207,7 +3216,7 @@
       <c r="R111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:25" hidden="1">
       <c r="B112" s="11">
         <v>45920</v>
       </c>
@@ -3216,7 +3225,7 @@
       </c>
       <c r="Y112" s="13"/>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:25">
       <c r="B113" s="11">
         <v>45920</v>
       </c>
@@ -3225,7 +3234,7 @@
       </c>
       <c r="R113" s="13"/>
     </row>
-    <row r="114" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:25" hidden="1">
       <c r="B114" s="11">
         <v>45920</v>
       </c>
@@ -3235,7 +3244,7 @@
       <c r="R114" s="13"/>
       <c r="Y114" s="13"/>
     </row>
-    <row r="115" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:25" hidden="1">
       <c r="B115" s="11">
         <v>45920</v>
       </c>
@@ -3245,7 +3254,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:25" hidden="1">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -3255,7 +3264,7 @@
       <c r="R116" s="13"/>
       <c r="Y116" s="13"/>
     </row>
-    <row r="117" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:25" hidden="1">
       <c r="B117" s="11">
         <v>45921</v>
       </c>
@@ -3264,7 +3273,7 @@
       </c>
       <c r="R117" s="13"/>
     </row>
-    <row r="118" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:25" hidden="1">
       <c r="B118" s="11">
         <v>45921</v>
       </c>
@@ -3274,7 +3283,7 @@
       <c r="R118" s="13"/>
       <c r="Y118" s="13"/>
     </row>
-    <row r="119" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:25" hidden="1">
       <c r="B119" s="11">
         <v>45921</v>
       </c>
@@ -3283,7 +3292,7 @@
       </c>
       <c r="Y119" s="13"/>
     </row>
-    <row r="120" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:25">
       <c r="B120" s="11">
         <v>45921</v>
       </c>
@@ -3292,7 +3301,7 @@
       </c>
       <c r="R120" s="13"/>
     </row>
-    <row r="121" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:25" hidden="1">
       <c r="B121" s="11">
         <v>45921</v>
       </c>
@@ -3302,7 +3311,7 @@
       <c r="R121" s="13"/>
       <c r="Y121" s="13"/>
     </row>
-    <row r="122" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:25" hidden="1">
       <c r="B122" s="11">
         <v>45921</v>
       </c>
@@ -3312,7 +3321,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:25" hidden="1">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -3322,7 +3331,7 @@
       <c r="R123" s="13"/>
       <c r="Y123" s="13"/>
     </row>
-    <row r="124" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:25" hidden="1">
       <c r="B124" s="11">
         <v>45922</v>
       </c>
@@ -3331,7 +3340,7 @@
       </c>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:25" hidden="1">
       <c r="B125" s="11">
         <v>45922</v>
       </c>
@@ -3341,7 +3350,7 @@
       <c r="R125" s="13"/>
       <c r="Y125" s="13"/>
     </row>
-    <row r="126" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:25" hidden="1">
       <c r="B126" s="11">
         <v>45922</v>
       </c>
@@ -3350,7 +3359,7 @@
       </c>
       <c r="Y126" s="13"/>
     </row>
-    <row r="127" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:25">
       <c r="B127" s="11">
         <v>45922</v>
       </c>
@@ -3359,7 +3368,7 @@
       </c>
       <c r="R127" s="13"/>
     </row>
-    <row r="128" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:25" hidden="1">
       <c r="B128" s="11">
         <v>45922</v>
       </c>
@@ -3369,7 +3378,7 @@
       <c r="R128" s="13"/>
       <c r="Y128" s="13"/>
     </row>
-    <row r="129" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:25" hidden="1">
       <c r="B129" s="11">
         <v>45922</v>
       </c>
@@ -3379,7 +3388,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:25" hidden="1">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -3389,7 +3398,7 @@
       <c r="R130" s="13"/>
       <c r="Y130" s="13"/>
     </row>
-    <row r="131" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:25" hidden="1">
       <c r="B131" s="11">
         <v>45923</v>
       </c>
@@ -3398,7 +3407,7 @@
       </c>
       <c r="R131" s="13"/>
     </row>
-    <row r="132" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:25" hidden="1">
       <c r="B132" s="11">
         <v>45923</v>
       </c>
@@ -3408,7 +3417,7 @@
       <c r="R132" s="13"/>
       <c r="Y132" s="13"/>
     </row>
-    <row r="133" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:25" hidden="1">
       <c r="B133" s="11">
         <v>45923</v>
       </c>
@@ -3417,7 +3426,7 @@
       </c>
       <c r="Y133" s="13"/>
     </row>
-    <row r="134" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:25">
       <c r="B134" s="11">
         <v>45923</v>
       </c>
@@ -3426,7 +3435,7 @@
       </c>
       <c r="R134" s="13"/>
     </row>
-    <row r="135" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:25" hidden="1">
       <c r="B135" s="11">
         <v>45923</v>
       </c>
@@ -3436,7 +3445,7 @@
       <c r="R135" s="13"/>
       <c r="Y135" s="13"/>
     </row>
-    <row r="136" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:25" hidden="1">
       <c r="B136" s="11">
         <v>45923</v>
       </c>
@@ -3446,7 +3455,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:25" hidden="1">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -3456,7 +3465,7 @@
       <c r="R137" s="13"/>
       <c r="Y137" s="13"/>
     </row>
-    <row r="138" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:25" hidden="1">
       <c r="B138" s="11">
         <v>45924</v>
       </c>
@@ -3465,7 +3474,7 @@
       </c>
       <c r="R138" s="13"/>
     </row>
-    <row r="139" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:25" hidden="1">
       <c r="B139" s="11">
         <v>45924</v>
       </c>
@@ -3475,7 +3484,7 @@
       <c r="R139" s="13"/>
       <c r="Y139" s="13"/>
     </row>
-    <row r="140" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:25" hidden="1">
       <c r="B140" s="11">
         <v>45924</v>
       </c>
@@ -3484,7 +3493,7 @@
       </c>
       <c r="Y140" s="13"/>
     </row>
-    <row r="141" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:25">
       <c r="B141" s="11">
         <v>45924</v>
       </c>
@@ -3493,7 +3502,7 @@
       </c>
       <c r="R141" s="13"/>
     </row>
-    <row r="142" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:25" hidden="1">
       <c r="B142" s="11">
         <v>45924</v>
       </c>
@@ -3503,7 +3512,7 @@
       <c r="R142" s="13"/>
       <c r="Y142" s="13"/>
     </row>
-    <row r="143" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:25" hidden="1">
       <c r="B143" s="11">
         <v>45924</v>
       </c>
@@ -3513,7 +3522,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:25" hidden="1">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -3523,7 +3532,7 @@
       <c r="R144" s="13"/>
       <c r="Y144" s="13"/>
     </row>
-    <row r="145" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:25" hidden="1">
       <c r="B145" s="11">
         <v>45925</v>
       </c>
@@ -3532,7 +3541,7 @@
       </c>
       <c r="R145" s="13"/>
     </row>
-    <row r="146" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:25" hidden="1">
       <c r="B146" s="11">
         <v>45925</v>
       </c>
@@ -3542,7 +3551,7 @@
       <c r="R146" s="13"/>
       <c r="Y146" s="13"/>
     </row>
-    <row r="147" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:25" hidden="1">
       <c r="B147" s="11">
         <v>45925</v>
       </c>
@@ -3551,7 +3560,7 @@
       </c>
       <c r="Y147" s="13"/>
     </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:25">
       <c r="B148" s="11">
         <v>45925</v>
       </c>
@@ -3560,7 +3569,7 @@
       </c>
       <c r="R148" s="13"/>
     </row>
-    <row r="149" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:25" hidden="1">
       <c r="B149" s="11">
         <v>45925</v>
       </c>
@@ -3570,7 +3579,7 @@
       <c r="R149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:25" hidden="1">
       <c r="B150" s="11">
         <v>45925</v>
       </c>
@@ -3580,7 +3589,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:25" hidden="1">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -3590,7 +3599,7 @@
       <c r="R151" s="13"/>
       <c r="Y151" s="13"/>
     </row>
-    <row r="152" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:25" hidden="1">
       <c r="B152" s="11">
         <v>45926</v>
       </c>
@@ -3599,7 +3608,7 @@
       </c>
       <c r="R152" s="13"/>
     </row>
-    <row r="153" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:25" hidden="1">
       <c r="B153" s="11">
         <v>45926</v>
       </c>
@@ -3609,7 +3618,7 @@
       <c r="R153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:25" hidden="1">
       <c r="B154" s="11">
         <v>45926</v>
       </c>
@@ -3618,7 +3627,7 @@
       </c>
       <c r="Y154" s="13"/>
     </row>
-    <row r="155" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:25">
       <c r="B155" s="11">
         <v>45926</v>
       </c>
@@ -3627,7 +3636,7 @@
       </c>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:25" hidden="1">
       <c r="B156" s="11">
         <v>45926</v>
       </c>
@@ -3637,7 +3646,7 @@
       <c r="R156" s="13"/>
       <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:25" hidden="1">
       <c r="B157" s="11">
         <v>45926</v>
       </c>
@@ -3647,7 +3656,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:25" hidden="1">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3657,7 +3666,7 @@
       <c r="R158" s="13"/>
       <c r="Y158" s="13"/>
     </row>
-    <row r="159" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:25" hidden="1">
       <c r="B159" s="11">
         <v>45927</v>
       </c>
@@ -3666,7 +3675,7 @@
       </c>
       <c r="R159" s="13"/>
     </row>
-    <row r="160" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:25" hidden="1">
       <c r="B160" s="11">
         <v>45927</v>
       </c>
@@ -3676,7 +3685,7 @@
       <c r="R160" s="13"/>
       <c r="Y160" s="13"/>
     </row>
-    <row r="161" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:25" hidden="1">
       <c r="B161" s="11">
         <v>45927</v>
       </c>
@@ -3685,7 +3694,7 @@
       </c>
       <c r="Y161" s="13"/>
     </row>
-    <row r="162" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:25">
       <c r="B162" s="11">
         <v>45927</v>
       </c>
@@ -3694,7 +3703,7 @@
       </c>
       <c r="R162" s="13"/>
     </row>
-    <row r="163" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:25" hidden="1">
       <c r="B163" s="11">
         <v>45927</v>
       </c>
@@ -3704,7 +3713,7 @@
       <c r="R163" s="13"/>
       <c r="Y163" s="13"/>
     </row>
-    <row r="164" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:25" hidden="1">
       <c r="B164" s="11">
         <v>45927</v>
       </c>
@@ -3714,7 +3723,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:25" hidden="1">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3724,7 +3733,7 @@
       <c r="R165" s="13"/>
       <c r="Y165" s="13"/>
     </row>
-    <row r="166" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:25" hidden="1">
       <c r="B166" s="11">
         <v>45928</v>
       </c>
@@ -3733,7 +3742,7 @@
       </c>
       <c r="R166" s="13"/>
     </row>
-    <row r="167" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:25" hidden="1">
       <c r="B167" s="11">
         <v>45928</v>
       </c>
@@ -3743,7 +3752,7 @@
       <c r="R167" s="13"/>
       <c r="Y167" s="13"/>
     </row>
-    <row r="168" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:25" hidden="1">
       <c r="B168" s="11">
         <v>45928</v>
       </c>
@@ -3752,7 +3761,7 @@
       </c>
       <c r="Y168" s="13"/>
     </row>
-    <row r="169" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:25">
       <c r="B169" s="11">
         <v>45928</v>
       </c>
@@ -3761,7 +3770,7 @@
       </c>
       <c r="R169" s="13"/>
     </row>
-    <row r="170" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:25" hidden="1">
       <c r="B170" s="11">
         <v>45928</v>
       </c>
@@ -3771,7 +3780,7 @@
       <c r="R170" s="13"/>
       <c r="Y170" s="13"/>
     </row>
-    <row r="171" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:25" hidden="1">
       <c r="B171" s="11">
         <v>45928</v>
       </c>
@@ -3781,7 +3790,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:25" hidden="1">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3791,7 +3800,7 @@
       <c r="R172" s="13"/>
       <c r="Y172" s="13"/>
     </row>
-    <row r="173" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:25" hidden="1">
       <c r="B173" s="11">
         <v>45929</v>
       </c>
@@ -3800,7 +3809,7 @@
       </c>
       <c r="R173" s="13"/>
     </row>
-    <row r="174" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:25" hidden="1">
       <c r="B174" s="11">
         <v>45929</v>
       </c>
@@ -3810,7 +3819,7 @@
       <c r="R174" s="13"/>
       <c r="Y174" s="13"/>
     </row>
-    <row r="175" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:25" hidden="1">
       <c r="B175" s="11">
         <v>45929</v>
       </c>
@@ -3819,7 +3828,7 @@
       </c>
       <c r="Y175" s="13"/>
     </row>
-    <row r="176" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:25">
       <c r="B176" s="11">
         <v>45929</v>
       </c>
@@ -3828,7 +3837,7 @@
       </c>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:25" hidden="1">
       <c r="B177" s="11">
         <v>45929</v>
       </c>
@@ -3838,7 +3847,7 @@
       <c r="R177" s="13"/>
       <c r="Y177" s="13"/>
     </row>
-    <row r="178" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:25" hidden="1">
       <c r="B178" s="11">
         <v>45929</v>
       </c>
@@ -3848,7 +3857,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:25" hidden="1">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3858,7 +3867,7 @@
       <c r="R179" s="13"/>
       <c r="Y179" s="13"/>
     </row>
-    <row r="180" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:25" hidden="1">
       <c r="B180" s="11">
         <v>45930</v>
       </c>
@@ -3867,7 +3876,7 @@
       </c>
       <c r="R180" s="13"/>
     </row>
-    <row r="181" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:25" hidden="1">
       <c r="B181" s="11">
         <v>45930</v>
       </c>
@@ -3877,7 +3886,7 @@
       <c r="R181" s="13"/>
       <c r="Y181" s="13"/>
     </row>
-    <row r="182" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:25" hidden="1">
       <c r="B182" s="11">
         <v>45930</v>
       </c>
@@ -3886,7 +3895,7 @@
       </c>
       <c r="Y182" s="13"/>
     </row>
-    <row r="183" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:25">
       <c r="B183" s="11">
         <v>45930</v>
       </c>
@@ -3895,7 +3904,7 @@
       </c>
       <c r="R183" s="13"/>
     </row>
-    <row r="184" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:25" hidden="1">
       <c r="B184" s="11">
         <v>45930</v>
       </c>
@@ -3905,7 +3914,7 @@
       <c r="R184" s="13"/>
       <c r="Y184" s="13"/>
     </row>
-    <row r="185" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:25" hidden="1">
       <c r="B185" s="11">
         <v>45930</v>
       </c>
@@ -3915,7 +3924,7 @@
       <c r="R185" s="13"/>
       <c r="Y185" s="13"/>
     </row>
-    <row r="186" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:25" hidden="1">
       <c r="B186" s="11">
         <v>45931</v>
       </c>
@@ -3925,7 +3934,7 @@
       <c r="R186" s="13"/>
       <c r="Y186" s="13"/>
     </row>
-    <row r="187" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:25" hidden="1">
       <c r="B187" s="11">
         <v>45931</v>
       </c>
@@ -3935,7 +3944,7 @@
       <c r="R187" s="13"/>
       <c r="Y187" s="13"/>
     </row>
-    <row r="188" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:25" hidden="1">
       <c r="B188" s="11">
         <v>45931</v>
       </c>
@@ -3945,7 +3954,7 @@
       <c r="R188" s="13"/>
       <c r="Y188" s="13"/>
     </row>
-    <row r="189" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:25" hidden="1">
       <c r="B189" s="11">
         <v>45931</v>
       </c>
@@ -3955,7 +3964,7 @@
       <c r="R189" s="13"/>
       <c r="Y189" s="13"/>
     </row>
-    <row r="190" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:25" hidden="1">
       <c r="B190" s="11">
         <v>45931</v>
       </c>
@@ -3965,7 +3974,7 @@
       <c r="R190" s="13"/>
       <c r="Y190" s="13"/>
     </row>
-    <row r="191" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:25" hidden="1">
       <c r="B191" s="11">
         <v>45931</v>
       </c>
@@ -3975,7 +3984,7 @@
       <c r="R191" s="13"/>
       <c r="Y191" s="13"/>
     </row>
-    <row r="192" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:25" hidden="1">
       <c r="B192" s="11">
         <v>45931</v>
       </c>
@@ -3985,7 +3994,7 @@
       <c r="R192" s="13"/>
       <c r="Y192" s="13"/>
     </row>
-    <row r="193" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:25" hidden="1">
       <c r="B193" s="11">
         <v>45932</v>
       </c>
@@ -3995,7 +4004,7 @@
       <c r="R193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:25" hidden="1">
       <c r="B194" s="11">
         <v>45932</v>
       </c>
@@ -4005,7 +4014,7 @@
       <c r="R194" s="13"/>
       <c r="Y194" s="13"/>
     </row>
-    <row r="195" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:25" hidden="1">
       <c r="B195" s="11">
         <v>45932</v>
       </c>
@@ -4015,7 +4024,7 @@
       <c r="R195" s="13"/>
       <c r="Y195" s="13"/>
     </row>
-    <row r="196" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:25" hidden="1">
       <c r="B196" s="11">
         <v>45932</v>
       </c>
@@ -4025,7 +4034,7 @@
       <c r="R196" s="13"/>
       <c r="Y196" s="13"/>
     </row>
-    <row r="197" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:25" hidden="1">
       <c r="B197" s="11">
         <v>45932</v>
       </c>
@@ -4035,7 +4044,7 @@
       <c r="R197" s="13"/>
       <c r="Y197" s="13"/>
     </row>
-    <row r="198" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:25" hidden="1">
       <c r="B198" s="11">
         <v>45932</v>
       </c>
@@ -4045,7 +4054,7 @@
       <c r="R198" s="13"/>
       <c r="Y198" s="13"/>
     </row>
-    <row r="199" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:25" hidden="1">
       <c r="B199" s="11">
         <v>45932</v>
       </c>
@@ -4055,7 +4064,7 @@
       <c r="R199" s="13"/>
       <c r="Y199" s="13"/>
     </row>
-    <row r="200" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:25" hidden="1">
       <c r="B200" s="11">
         <v>45933</v>
       </c>
@@ -4065,7 +4074,7 @@
       <c r="R200" s="13"/>
       <c r="Y200" s="13"/>
     </row>
-    <row r="201" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:25" hidden="1">
       <c r="B201" s="11">
         <v>45933</v>
       </c>
@@ -4075,7 +4084,7 @@
       <c r="R201" s="13"/>
       <c r="Y201" s="13"/>
     </row>
-    <row r="202" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:25" hidden="1">
       <c r="B202" s="11">
         <v>45933</v>
       </c>
@@ -4085,7 +4094,7 @@
       <c r="R202" s="13"/>
       <c r="Y202" s="13"/>
     </row>
-    <row r="203" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:25" hidden="1">
       <c r="B203" s="11">
         <v>45933</v>
       </c>
@@ -4095,7 +4104,7 @@
       <c r="R203" s="13"/>
       <c r="Y203" s="13"/>
     </row>
-    <row r="204" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:25" hidden="1">
       <c r="B204" s="11">
         <v>45933</v>
       </c>
@@ -4105,7 +4114,7 @@
       <c r="R204" s="13"/>
       <c r="Y204" s="13"/>
     </row>
-    <row r="205" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:25" hidden="1">
       <c r="B205" s="11">
         <v>45933</v>
       </c>
@@ -4115,7 +4124,7 @@
       <c r="R205" s="13"/>
       <c r="Y205" s="13"/>
     </row>
-    <row r="206" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:25" hidden="1">
       <c r="B206" s="11">
         <v>45933</v>
       </c>
@@ -4125,7 +4134,7 @@
       <c r="R206" s="13"/>
       <c r="Y206" s="13"/>
     </row>
-    <row r="207" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:25" hidden="1">
       <c r="B207" s="11">
         <v>45934</v>
       </c>
@@ -4135,7 +4144,7 @@
       <c r="R207" s="13"/>
       <c r="Y207" s="13"/>
     </row>
-    <row r="208" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:25" hidden="1">
       <c r="B208" s="11">
         <v>45934</v>
       </c>
@@ -4145,7 +4154,7 @@
       <c r="R208" s="13"/>
       <c r="Y208" s="13"/>
     </row>
-    <row r="209" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:25" hidden="1">
       <c r="B209" s="11">
         <v>45934</v>
       </c>
@@ -4155,7 +4164,7 @@
       <c r="R209" s="13"/>
       <c r="Y209" s="13"/>
     </row>
-    <row r="210" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:25" hidden="1">
       <c r="B210" s="11">
         <v>45934</v>
       </c>
@@ -4165,7 +4174,7 @@
       <c r="R210" s="13"/>
       <c r="Y210" s="13"/>
     </row>
-    <row r="211" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:25" hidden="1">
       <c r="B211" s="11">
         <v>45934</v>
       </c>
@@ -4175,7 +4184,7 @@
       <c r="R211" s="13"/>
       <c r="Y211" s="13"/>
     </row>
-    <row r="212" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:25" hidden="1">
       <c r="B212" s="11">
         <v>45934</v>
       </c>
@@ -4185,7 +4194,7 @@
       <c r="R212" s="13"/>
       <c r="Y212" s="13"/>
     </row>
-    <row r="213" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:25" hidden="1">
       <c r="B213" s="11">
         <v>45934</v>
       </c>
@@ -4195,7 +4204,7 @@
       <c r="R213" s="13"/>
       <c r="Y213" s="13"/>
     </row>
-    <row r="214" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:25" hidden="1">
       <c r="B214" s="11">
         <v>45935</v>
       </c>
@@ -4205,7 +4214,7 @@
       <c r="R214" s="13"/>
       <c r="Y214" s="13"/>
     </row>
-    <row r="215" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:25" hidden="1">
       <c r="B215" s="11">
         <v>45935</v>
       </c>
@@ -4215,7 +4224,7 @@
       <c r="R215" s="13"/>
       <c r="Y215" s="13"/>
     </row>
-    <row r="216" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:25" hidden="1">
       <c r="B216" s="11">
         <v>45935</v>
       </c>
@@ -4225,7 +4234,7 @@
       <c r="R216" s="13"/>
       <c r="Y216" s="13"/>
     </row>
-    <row r="217" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:25" hidden="1">
       <c r="B217" s="11">
         <v>45935</v>
       </c>
@@ -4235,7 +4244,7 @@
       <c r="R217" s="13"/>
       <c r="Y217" s="13"/>
     </row>
-    <row r="218" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:25" hidden="1">
       <c r="B218" s="11">
         <v>45935</v>
       </c>
@@ -4245,7 +4254,7 @@
       <c r="R218" s="13"/>
       <c r="Y218" s="13"/>
     </row>
-    <row r="219" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:25" hidden="1">
       <c r="B219" s="11">
         <v>45935</v>
       </c>
@@ -4255,7 +4264,7 @@
       <c r="R219" s="13"/>
       <c r="Y219" s="13"/>
     </row>
-    <row r="220" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:25" hidden="1">
       <c r="B220" s="11">
         <v>45935</v>
       </c>
@@ -4265,7 +4274,7 @@
       <c r="R220" s="13"/>
       <c r="Y220" s="13"/>
     </row>
-    <row r="221" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:25" hidden="1">
       <c r="B221" s="11">
         <v>45936</v>
       </c>
@@ -4275,7 +4284,7 @@
       <c r="R221" s="13"/>
       <c r="Y221" s="13"/>
     </row>
-    <row r="222" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:25" hidden="1">
       <c r="B222" s="11">
         <v>45936</v>
       </c>
@@ -4285,7 +4294,7 @@
       <c r="R222" s="13"/>
       <c r="Y222" s="13"/>
     </row>
-    <row r="223" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:25" hidden="1">
       <c r="B223" s="11">
         <v>45936</v>
       </c>
@@ -4295,7 +4304,7 @@
       <c r="R223" s="13"/>
       <c r="Y223" s="13"/>
     </row>
-    <row r="224" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:25" hidden="1">
       <c r="B224" s="11">
         <v>45936</v>
       </c>
@@ -4305,7 +4314,7 @@
       <c r="R224" s="13"/>
       <c r="Y224" s="13"/>
     </row>
-    <row r="225" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:25" hidden="1">
       <c r="B225" s="11">
         <v>45936</v>
       </c>
@@ -4315,7 +4324,7 @@
       <c r="R225" s="13"/>
       <c r="Y225" s="13"/>
     </row>
-    <row r="226" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:25" hidden="1">
       <c r="B226" s="11">
         <v>45936</v>
       </c>
@@ -4325,7 +4334,7 @@
       <c r="R226" s="13"/>
       <c r="Y226" s="13"/>
     </row>
-    <row r="227" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:25" hidden="1">
       <c r="B227" s="11">
         <v>45936</v>
       </c>
@@ -4335,7 +4344,7 @@
       <c r="R227" s="13"/>
       <c r="Y227" s="13"/>
     </row>
-    <row r="228" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:25" hidden="1">
       <c r="B228" s="11">
         <v>45937</v>
       </c>
@@ -4345,7 +4354,7 @@
       <c r="R228" s="13"/>
       <c r="Y228" s="13"/>
     </row>
-    <row r="229" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:25" hidden="1">
       <c r="B229" s="11">
         <v>45937</v>
       </c>
@@ -4355,7 +4364,7 @@
       <c r="R229" s="13"/>
       <c r="Y229" s="13"/>
     </row>
-    <row r="230" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:25" hidden="1">
       <c r="B230" s="11">
         <v>45937</v>
       </c>
@@ -4365,7 +4374,7 @@
       <c r="R230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:25" hidden="1">
       <c r="B231" s="11">
         <v>45937</v>
       </c>
@@ -4375,7 +4384,7 @@
       <c r="R231" s="13"/>
       <c r="Y231" s="13"/>
     </row>
-    <row r="232" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:25" hidden="1">
       <c r="B232" s="11">
         <v>45937</v>
       </c>
@@ -4385,7 +4394,7 @@
       <c r="R232" s="13"/>
       <c r="Y232" s="13"/>
     </row>
-    <row r="233" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:25" hidden="1">
       <c r="B233" s="11">
         <v>45937</v>
       </c>
@@ -4395,7 +4404,7 @@
       <c r="R233" s="13"/>
       <c r="Y233" s="13"/>
     </row>
-    <row r="234" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:25" hidden="1">
       <c r="B234" s="11">
         <v>45937</v>
       </c>
@@ -4405,7 +4414,7 @@
       <c r="R234" s="13"/>
       <c r="Y234" s="13"/>
     </row>
-    <row r="235" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:25" hidden="1">
       <c r="B235" s="11">
         <v>45938</v>
       </c>
@@ -4415,7 +4424,7 @@
       <c r="R235" s="13"/>
       <c r="Y235" s="13"/>
     </row>
-    <row r="236" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:25" hidden="1">
       <c r="B236" s="11">
         <v>45938</v>
       </c>
@@ -4425,7 +4434,7 @@
       <c r="R236" s="13"/>
       <c r="Y236" s="13"/>
     </row>
-    <row r="237" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:25" hidden="1">
       <c r="B237" s="11">
         <v>45938</v>
       </c>
@@ -4435,7 +4444,7 @@
       <c r="R237" s="13"/>
       <c r="Y237" s="13"/>
     </row>
-    <row r="238" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:25" hidden="1">
       <c r="B238" s="11">
         <v>45938</v>
       </c>
@@ -4445,7 +4454,7 @@
       <c r="R238" s="13"/>
       <c r="Y238" s="13"/>
     </row>
-    <row r="239" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:25" hidden="1">
       <c r="B239" s="11">
         <v>45938</v>
       </c>
@@ -4455,7 +4464,7 @@
       <c r="R239" s="13"/>
       <c r="Y239" s="13"/>
     </row>
-    <row r="240" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:25" hidden="1">
       <c r="B240" s="11">
         <v>45938</v>
       </c>
@@ -4465,7 +4474,7 @@
       <c r="R240" s="13"/>
       <c r="Y240" s="13"/>
     </row>
-    <row r="241" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:25" hidden="1">
       <c r="B241" s="11">
         <v>45938</v>
       </c>
@@ -4475,7 +4484,7 @@
       <c r="R241" s="13"/>
       <c r="Y241" s="13"/>
     </row>
-    <row r="242" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:25" hidden="1">
       <c r="B242" s="11">
         <v>45939</v>
       </c>
@@ -4485,7 +4494,7 @@
       <c r="R242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:25" hidden="1">
       <c r="B243" s="11">
         <v>45939</v>
       </c>
@@ -4495,7 +4504,7 @@
       <c r="R243" s="13"/>
       <c r="Y243" s="13"/>
     </row>
-    <row r="244" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:25" hidden="1">
       <c r="B244" s="11">
         <v>45939</v>
       </c>
@@ -4505,7 +4514,7 @@
       <c r="R244" s="13"/>
       <c r="Y244" s="13"/>
     </row>
-    <row r="245" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:25" hidden="1">
       <c r="B245" s="11">
         <v>45939</v>
       </c>
@@ -4515,7 +4524,7 @@
       <c r="R245" s="13"/>
       <c r="Y245" s="13"/>
     </row>
-    <row r="246" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:25" hidden="1">
       <c r="B246" s="11">
         <v>45939</v>
       </c>
@@ -4525,7 +4534,7 @@
       <c r="R246" s="13"/>
       <c r="Y246" s="13"/>
     </row>
-    <row r="247" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:25" hidden="1">
       <c r="B247" s="11">
         <v>45939</v>
       </c>
@@ -4535,7 +4544,7 @@
       <c r="R247" s="13"/>
       <c r="Y247" s="13"/>
     </row>
-    <row r="248" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:25" hidden="1">
       <c r="B248" s="11">
         <v>45939</v>
       </c>
@@ -4545,7 +4554,7 @@
       <c r="R248" s="13"/>
       <c r="Y248" s="13"/>
     </row>
-    <row r="249" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:25" hidden="1">
       <c r="B249" s="11">
         <v>45940</v>
       </c>
@@ -4555,7 +4564,7 @@
       <c r="R249" s="13"/>
       <c r="Y249" s="13"/>
     </row>
-    <row r="250" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:25" hidden="1">
       <c r="B250" s="11">
         <v>45940</v>
       </c>
@@ -4565,7 +4574,7 @@
       <c r="R250" s="13"/>
       <c r="Y250" s="13"/>
     </row>
-    <row r="251" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:25" hidden="1">
       <c r="B251" s="11">
         <v>45940</v>
       </c>
@@ -4575,7 +4584,7 @@
       <c r="R251" s="13"/>
       <c r="Y251" s="13"/>
     </row>
-    <row r="252" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:25" hidden="1">
       <c r="B252" s="11">
         <v>45940</v>
       </c>
@@ -4585,7 +4594,7 @@
       <c r="R252" s="13"/>
       <c r="Y252" s="13"/>
     </row>
-    <row r="253" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:25" hidden="1">
       <c r="B253" s="11">
         <v>45940</v>
       </c>
@@ -4595,7 +4604,7 @@
       <c r="R253" s="13"/>
       <c r="Y253" s="13"/>
     </row>
-    <row r="254" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:25" hidden="1">
       <c r="B254" s="11">
         <v>45940</v>
       </c>
@@ -4605,7 +4614,7 @@
       <c r="R254" s="13"/>
       <c r="Y254" s="13"/>
     </row>
-    <row r="255" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:25" hidden="1">
       <c r="B255" s="11">
         <v>45940</v>
       </c>
@@ -4615,7 +4624,7 @@
       <c r="R255" s="13"/>
       <c r="Y255" s="13"/>
     </row>
-    <row r="256" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:25" hidden="1">
       <c r="B256" s="11">
         <v>45941</v>
       </c>
@@ -4625,7 +4634,7 @@
       <c r="R256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:25" hidden="1">
       <c r="B257" s="11">
         <v>45941</v>
       </c>
@@ -4635,7 +4644,7 @@
       <c r="R257" s="13"/>
       <c r="Y257" s="13"/>
     </row>
-    <row r="258" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:25" hidden="1">
       <c r="B258" s="11">
         <v>45941</v>
       </c>
@@ -4645,7 +4654,7 @@
       <c r="R258" s="13"/>
       <c r="Y258" s="13"/>
     </row>
-    <row r="259" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:25" hidden="1">
       <c r="B259" s="11">
         <v>45941</v>
       </c>
@@ -4655,7 +4664,7 @@
       <c r="R259" s="13"/>
       <c r="Y259" s="13"/>
     </row>
-    <row r="260" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:25" hidden="1">
       <c r="B260" s="11">
         <v>45941</v>
       </c>
@@ -4665,7 +4674,7 @@
       <c r="R260" s="13"/>
       <c r="Y260" s="13"/>
     </row>
-    <row r="261" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:25" hidden="1">
       <c r="B261" s="11">
         <v>45941</v>
       </c>
@@ -4675,7 +4684,7 @@
       <c r="R261" s="13"/>
       <c r="Y261" s="13"/>
     </row>
-    <row r="262" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:25" hidden="1">
       <c r="B262" s="11">
         <v>45941</v>
       </c>
@@ -4685,7 +4694,7 @@
       <c r="R262" s="13"/>
       <c r="Y262" s="13"/>
     </row>
-    <row r="263" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:25" hidden="1">
       <c r="B263" s="11">
         <v>45942</v>
       </c>
@@ -4695,7 +4704,7 @@
       <c r="R263" s="13"/>
       <c r="Y263" s="13"/>
     </row>
-    <row r="264" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:25" hidden="1">
       <c r="B264" s="11">
         <v>45942</v>
       </c>
@@ -4705,7 +4714,7 @@
       <c r="R264" s="13"/>
       <c r="Y264" s="13"/>
     </row>
-    <row r="265" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:25" hidden="1">
       <c r="B265" s="11">
         <v>45942</v>
       </c>
@@ -4715,7 +4724,7 @@
       <c r="R265" s="13"/>
       <c r="Y265" s="13"/>
     </row>
-    <row r="266" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:25" hidden="1">
       <c r="B266" s="11">
         <v>45942</v>
       </c>
@@ -4725,7 +4734,7 @@
       <c r="R266" s="13"/>
       <c r="Y266" s="13"/>
     </row>
-    <row r="267" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:25" hidden="1">
       <c r="B267" s="11">
         <v>45942</v>
       </c>
@@ -4735,7 +4744,7 @@
       <c r="R267" s="13"/>
       <c r="Y267" s="13"/>
     </row>
-    <row r="268" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:25" hidden="1">
       <c r="B268" s="11">
         <v>45942</v>
       </c>
@@ -4745,7 +4754,7 @@
       <c r="R268" s="13"/>
       <c r="Y268" s="13"/>
     </row>
-    <row r="269" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:25" hidden="1">
       <c r="B269" s="11">
         <v>45942</v>
       </c>
@@ -4755,7 +4764,7 @@
       <c r="R269" s="13"/>
       <c r="Y269" s="13"/>
     </row>
-    <row r="270" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:25" hidden="1">
       <c r="B270" s="11">
         <v>45943</v>
       </c>
@@ -4765,7 +4774,7 @@
       <c r="R270" s="13"/>
       <c r="Y270" s="13"/>
     </row>
-    <row r="271" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:25" hidden="1">
       <c r="B271" s="11">
         <v>45943</v>
       </c>
@@ -4775,7 +4784,7 @@
       <c r="R271" s="13"/>
       <c r="Y271" s="13"/>
     </row>
-    <row r="272" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:25" hidden="1">
       <c r="B272" s="11">
         <v>45943</v>
       </c>
@@ -4785,7 +4794,7 @@
       <c r="R272" s="13"/>
       <c r="Y272" s="13"/>
     </row>
-    <row r="273" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:25" hidden="1">
       <c r="B273" s="11">
         <v>45943</v>
       </c>
@@ -4795,7 +4804,7 @@
       <c r="R273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:25" hidden="1">
       <c r="B274" s="11">
         <v>45943</v>
       </c>
@@ -4805,7 +4814,7 @@
       <c r="R274" s="13"/>
       <c r="Y274" s="13"/>
     </row>
-    <row r="275" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:25" hidden="1">
       <c r="B275" s="11">
         <v>45943</v>
       </c>
@@ -4815,7 +4824,7 @@
       <c r="R275" s="13"/>
       <c r="Y275" s="13"/>
     </row>
-    <row r="276" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:25" hidden="1">
       <c r="B276" s="11">
         <v>45943</v>
       </c>
@@ -4825,7 +4834,7 @@
       <c r="R276" s="13"/>
       <c r="Y276" s="13"/>
     </row>
-    <row r="277" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:25" hidden="1">
       <c r="B277" s="11">
         <v>45944</v>
       </c>
@@ -4835,7 +4844,7 @@
       <c r="R277" s="13"/>
       <c r="Y277" s="13"/>
     </row>
-    <row r="278" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:25" hidden="1">
       <c r="B278" s="11">
         <v>45944</v>
       </c>
@@ -4845,7 +4854,7 @@
       <c r="R278" s="13"/>
       <c r="Y278" s="13"/>
     </row>
-    <row r="279" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:25" hidden="1">
       <c r="B279" s="11">
         <v>45944</v>
       </c>
@@ -4855,7 +4864,7 @@
       <c r="R279" s="13"/>
       <c r="Y279" s="13"/>
     </row>
-    <row r="280" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:25" hidden="1">
       <c r="B280" s="11">
         <v>45944</v>
       </c>
@@ -4865,7 +4874,7 @@
       <c r="R280" s="13"/>
       <c r="Y280" s="13"/>
     </row>
-    <row r="281" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:25" hidden="1">
       <c r="B281" s="11">
         <v>45944</v>
       </c>
@@ -4875,7 +4884,7 @@
       <c r="R281" s="13"/>
       <c r="Y281" s="13"/>
     </row>
-    <row r="282" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:25" hidden="1">
       <c r="B282" s="11">
         <v>45944</v>
       </c>
@@ -4885,7 +4894,7 @@
       <c r="R282" s="13"/>
       <c r="Y282" s="13"/>
     </row>
-    <row r="283" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:25" hidden="1">
       <c r="B283" s="11">
         <v>45944</v>
       </c>
@@ -4895,7 +4904,7 @@
       <c r="R283" s="13"/>
       <c r="Y283" s="13"/>
     </row>
-    <row r="284" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:25" hidden="1">
       <c r="B284" s="11">
         <v>45945</v>
       </c>
@@ -4905,7 +4914,7 @@
       <c r="R284" s="13"/>
       <c r="Y284" s="13"/>
     </row>
-    <row r="285" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:25" hidden="1">
       <c r="B285" s="11">
         <v>45945</v>
       </c>
@@ -4915,7 +4924,7 @@
       <c r="R285" s="13"/>
       <c r="Y285" s="13"/>
     </row>
-    <row r="286" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:25" hidden="1">
       <c r="B286" s="11">
         <v>45945</v>
       </c>
@@ -4925,7 +4934,7 @@
       <c r="R286" s="13"/>
       <c r="Y286" s="13"/>
     </row>
-    <row r="287" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:25" hidden="1">
       <c r="B287" s="11">
         <v>45945</v>
       </c>
@@ -4935,7 +4944,7 @@
       <c r="R287" s="13"/>
       <c r="Y287" s="13"/>
     </row>
-    <row r="288" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:25" hidden="1">
       <c r="B288" s="11">
         <v>45945</v>
       </c>
@@ -4945,7 +4954,7 @@
       <c r="R288" s="13"/>
       <c r="Y288" s="13"/>
     </row>
-    <row r="289" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:25" hidden="1">
       <c r="B289" s="11">
         <v>45945</v>
       </c>
@@ -4955,7 +4964,7 @@
       <c r="R289" s="13"/>
       <c r="Y289" s="13"/>
     </row>
-    <row r="290" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:25" hidden="1">
       <c r="B290" s="11">
         <v>45945</v>
       </c>
@@ -4965,7 +4974,7 @@
       <c r="R290" s="13"/>
       <c r="Y290" s="13"/>
     </row>
-    <row r="291" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:25" hidden="1">
       <c r="B291" s="11">
         <v>45946</v>
       </c>
@@ -4975,7 +4984,7 @@
       <c r="R291" s="13"/>
       <c r="Y291" s="13"/>
     </row>
-    <row r="292" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:25" hidden="1">
       <c r="B292" s="11">
         <v>45946</v>
       </c>
@@ -4985,7 +4994,7 @@
       <c r="R292" s="13"/>
       <c r="Y292" s="13"/>
     </row>
-    <row r="293" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:25" hidden="1">
       <c r="B293" s="11">
         <v>45946</v>
       </c>
@@ -4995,7 +5004,7 @@
       <c r="R293" s="13"/>
       <c r="Y293" s="13"/>
     </row>
-    <row r="294" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:25" hidden="1">
       <c r="B294" s="11">
         <v>45946</v>
       </c>
@@ -5005,7 +5014,7 @@
       <c r="R294" s="13"/>
       <c r="Y294" s="13"/>
     </row>
-    <row r="295" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:25" hidden="1">
       <c r="B295" s="11">
         <v>45946</v>
       </c>
@@ -5015,7 +5024,7 @@
       <c r="R295" s="13"/>
       <c r="Y295" s="13"/>
     </row>
-    <row r="296" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:25" hidden="1">
       <c r="B296" s="11">
         <v>45946</v>
       </c>
@@ -5025,7 +5034,7 @@
       <c r="R296" s="13"/>
       <c r="Y296" s="13"/>
     </row>
-    <row r="297" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:25" hidden="1">
       <c r="B297" s="11">
         <v>45946</v>
       </c>
@@ -5035,7 +5044,7 @@
       <c r="R297" s="13"/>
       <c r="Y297" s="13"/>
     </row>
-    <row r="298" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:25" hidden="1">
       <c r="B298" s="11">
         <v>45947</v>
       </c>
@@ -5045,7 +5054,7 @@
       <c r="R298" s="13"/>
       <c r="Y298" s="13"/>
     </row>
-    <row r="299" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:25" hidden="1">
       <c r="B299" s="11">
         <v>45947</v>
       </c>
@@ -5055,7 +5064,7 @@
       <c r="R299" s="13"/>
       <c r="Y299" s="13"/>
     </row>
-    <row r="300" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:25" hidden="1">
       <c r="B300" s="11">
         <v>45947</v>
       </c>
@@ -5065,7 +5074,7 @@
       <c r="R300" s="13"/>
       <c r="Y300" s="13"/>
     </row>
-    <row r="301" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:25" hidden="1">
       <c r="B301" s="11">
         <v>45947</v>
       </c>
@@ -5075,7 +5084,7 @@
       <c r="R301" s="13"/>
       <c r="Y301" s="13"/>
     </row>
-    <row r="302" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:25" hidden="1">
       <c r="B302" s="11">
         <v>45947</v>
       </c>
@@ -5085,7 +5094,7 @@
       <c r="R302" s="13"/>
       <c r="Y302" s="13"/>
     </row>
-    <row r="303" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:25" hidden="1">
       <c r="B303" s="11">
         <v>45947</v>
       </c>
@@ -5095,7 +5104,7 @@
       <c r="R303" s="13"/>
       <c r="Y303" s="13"/>
     </row>
-    <row r="304" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:25" hidden="1">
       <c r="B304" s="11">
         <v>45947</v>
       </c>
@@ -5105,7 +5114,7 @@
       <c r="R304" s="13"/>
       <c r="Y304" s="13"/>
     </row>
-    <row r="305" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:25" hidden="1">
       <c r="B305" s="11">
         <v>45948</v>
       </c>
@@ -5115,7 +5124,7 @@
       <c r="R305" s="13"/>
       <c r="Y305" s="13"/>
     </row>
-    <row r="306" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:25" hidden="1">
       <c r="B306" s="11">
         <v>45948</v>
       </c>
@@ -5125,7 +5134,7 @@
       <c r="R306" s="13"/>
       <c r="Y306" s="13"/>
     </row>
-    <row r="307" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:25" hidden="1">
       <c r="B307" s="11">
         <v>45948</v>
       </c>
@@ -5135,7 +5144,7 @@
       <c r="R307" s="13"/>
       <c r="Y307" s="13"/>
     </row>
-    <row r="308" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:25" hidden="1">
       <c r="B308" s="11">
         <v>45948</v>
       </c>
@@ -5145,7 +5154,7 @@
       <c r="R308" s="13"/>
       <c r="Y308" s="13"/>
     </row>
-    <row r="309" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:25" hidden="1">
       <c r="B309" s="11">
         <v>45948</v>
       </c>
@@ -5155,7 +5164,7 @@
       <c r="R309" s="13"/>
       <c r="Y309" s="13"/>
     </row>
-    <row r="310" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:25" hidden="1">
       <c r="B310" s="11">
         <v>45948</v>
       </c>
@@ -5165,7 +5174,7 @@
       <c r="R310" s="13"/>
       <c r="Y310" s="13"/>
     </row>
-    <row r="311" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:25" hidden="1">
       <c r="B311" s="11">
         <v>45948</v>
       </c>
@@ -5175,7 +5184,7 @@
       <c r="R311" s="13"/>
       <c r="Y311" s="13"/>
     </row>
-    <row r="312" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:25" hidden="1">
       <c r="B312" s="11">
         <v>45949</v>
       </c>
@@ -5185,7 +5194,7 @@
       <c r="R312" s="13"/>
       <c r="Y312" s="13"/>
     </row>
-    <row r="313" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:25" hidden="1">
       <c r="B313" s="11">
         <v>45949</v>
       </c>
@@ -5195,7 +5204,7 @@
       <c r="R313" s="13"/>
       <c r="Y313" s="13"/>
     </row>
-    <row r="314" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:25" hidden="1">
       <c r="B314" s="11">
         <v>45949</v>
       </c>
@@ -5205,7 +5214,7 @@
       <c r="R314" s="13"/>
       <c r="Y314" s="13"/>
     </row>
-    <row r="315" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:25" hidden="1">
       <c r="B315" s="11">
         <v>45949</v>
       </c>
@@ -5215,7 +5224,7 @@
       <c r="R315" s="13"/>
       <c r="Y315" s="13"/>
     </row>
-    <row r="316" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:25" hidden="1">
       <c r="B316" s="11">
         <v>45949</v>
       </c>
@@ -5225,7 +5234,7 @@
       <c r="R316" s="13"/>
       <c r="Y316" s="13"/>
     </row>
-    <row r="317" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:25" hidden="1">
       <c r="B317" s="11">
         <v>45949</v>
       </c>
@@ -5235,7 +5244,7 @@
       <c r="R317" s="13"/>
       <c r="Y317" s="13"/>
     </row>
-    <row r="318" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:25" hidden="1">
       <c r="B318" s="11">
         <v>45949</v>
       </c>
@@ -5245,7 +5254,7 @@
       <c r="R318" s="13"/>
       <c r="Y318" s="13"/>
     </row>
-    <row r="319" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:25" hidden="1">
       <c r="B319" s="11">
         <v>45950</v>
       </c>
@@ -5255,7 +5264,7 @@
       <c r="R319" s="13"/>
       <c r="Y319" s="13"/>
     </row>
-    <row r="320" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:25" hidden="1">
       <c r="B320" s="11">
         <v>45950</v>
       </c>
@@ -5265,7 +5274,7 @@
       <c r="R320" s="13"/>
       <c r="Y320" s="13"/>
     </row>
-    <row r="321" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:25" hidden="1">
       <c r="B321" s="11">
         <v>45950</v>
       </c>
@@ -5275,7 +5284,7 @@
       <c r="R321" s="13"/>
       <c r="Y321" s="13"/>
     </row>
-    <row r="322" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:25" hidden="1">
       <c r="B322" s="11">
         <v>45950</v>
       </c>
@@ -5285,7 +5294,7 @@
       <c r="R322" s="13"/>
       <c r="Y322" s="13"/>
     </row>
-    <row r="323" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:25" hidden="1">
       <c r="B323" s="11">
         <v>45950</v>
       </c>
@@ -5295,7 +5304,7 @@
       <c r="R323" s="13"/>
       <c r="Y323" s="13"/>
     </row>
-    <row r="324" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:25" hidden="1">
       <c r="B324" s="11">
         <v>45950</v>
       </c>
@@ -5305,7 +5314,7 @@
       <c r="R324" s="13"/>
       <c r="Y324" s="13"/>
     </row>
-    <row r="325" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:25" hidden="1">
       <c r="B325" s="11">
         <v>45950</v>
       </c>
@@ -5315,7 +5324,7 @@
       <c r="R325" s="13"/>
       <c r="Y325" s="13"/>
     </row>
-    <row r="326" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:25" hidden="1">
       <c r="B326" s="11">
         <v>45951</v>
       </c>
@@ -5325,7 +5334,7 @@
       <c r="R326" s="13"/>
       <c r="Y326" s="13"/>
     </row>
-    <row r="327" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:25" hidden="1">
       <c r="B327" s="11">
         <v>45951</v>
       </c>
@@ -5335,7 +5344,7 @@
       <c r="R327" s="13"/>
       <c r="Y327" s="13"/>
     </row>
-    <row r="328" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:25" hidden="1">
       <c r="B328" s="11">
         <v>45951</v>
       </c>
@@ -5345,7 +5354,7 @@
       <c r="R328" s="13"/>
       <c r="Y328" s="13"/>
     </row>
-    <row r="329" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:25" hidden="1">
       <c r="B329" s="11">
         <v>45951</v>
       </c>
@@ -5355,7 +5364,7 @@
       <c r="R329" s="13"/>
       <c r="Y329" s="13"/>
     </row>
-    <row r="330" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:25" hidden="1">
       <c r="B330" s="11">
         <v>45951</v>
       </c>
@@ -5365,7 +5374,7 @@
       <c r="R330" s="13"/>
       <c r="Y330" s="13"/>
     </row>
-    <row r="331" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:25" hidden="1">
       <c r="B331" s="11">
         <v>45951</v>
       </c>
@@ -5375,7 +5384,7 @@
       <c r="R331" s="13"/>
       <c r="Y331" s="13"/>
     </row>
-    <row r="332" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:25" hidden="1">
       <c r="B332" s="11">
         <v>45951</v>
       </c>
@@ -5385,7 +5394,7 @@
       <c r="R332" s="13"/>
       <c r="Y332" s="13"/>
     </row>
-    <row r="333" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:25" hidden="1">
       <c r="B333" s="11">
         <v>45952</v>
       </c>
@@ -5395,7 +5404,7 @@
       <c r="R333" s="13"/>
       <c r="Y333" s="13"/>
     </row>
-    <row r="334" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:25" hidden="1">
       <c r="B334" s="11">
         <v>45952</v>
       </c>
@@ -5405,7 +5414,7 @@
       <c r="R334" s="13"/>
       <c r="Y334" s="13"/>
     </row>
-    <row r="335" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:25" hidden="1">
       <c r="B335" s="11">
         <v>45952</v>
       </c>
@@ -5415,7 +5424,7 @@
       <c r="R335" s="13"/>
       <c r="Y335" s="13"/>
     </row>
-    <row r="336" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:25" hidden="1">
       <c r="B336" s="11">
         <v>45952</v>
       </c>
@@ -5425,7 +5434,7 @@
       <c r="R336" s="13"/>
       <c r="Y336" s="13"/>
     </row>
-    <row r="337" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:25" hidden="1">
       <c r="B337" s="11">
         <v>45952</v>
       </c>
@@ -5435,7 +5444,7 @@
       <c r="R337" s="13"/>
       <c r="Y337" s="13"/>
     </row>
-    <row r="338" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:25" hidden="1">
       <c r="B338" s="11">
         <v>45952</v>
       </c>
@@ -5445,7 +5454,7 @@
       <c r="R338" s="13"/>
       <c r="Y338" s="13"/>
     </row>
-    <row r="339" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:25" hidden="1">
       <c r="B339" s="11">
         <v>45952</v>
       </c>
@@ -5455,7 +5464,7 @@
       <c r="R339" s="13"/>
       <c r="Y339" s="13"/>
     </row>
-    <row r="340" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:25" hidden="1">
       <c r="B340" s="11">
         <v>45953</v>
       </c>
@@ -5465,7 +5474,7 @@
       <c r="R340" s="13"/>
       <c r="Y340" s="13"/>
     </row>
-    <row r="341" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:25" hidden="1">
       <c r="B341" s="11">
         <v>45953</v>
       </c>
@@ -5475,7 +5484,7 @@
       <c r="R341" s="13"/>
       <c r="Y341" s="13"/>
     </row>
-    <row r="342" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:25" hidden="1">
       <c r="B342" s="11">
         <v>45953</v>
       </c>
@@ -5485,7 +5494,7 @@
       <c r="R342" s="13"/>
       <c r="Y342" s="13"/>
     </row>
-    <row r="343" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:25" hidden="1">
       <c r="B343" s="11">
         <v>45953</v>
       </c>
@@ -5495,7 +5504,7 @@
       <c r="R343" s="13"/>
       <c r="Y343" s="13"/>
     </row>
-    <row r="344" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:25" hidden="1">
       <c r="B344" s="11">
         <v>45953</v>
       </c>
@@ -5505,7 +5514,7 @@
       <c r="R344" s="13"/>
       <c r="Y344" s="13"/>
     </row>
-    <row r="345" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:25" hidden="1">
       <c r="B345" s="11">
         <v>45953</v>
       </c>
@@ -5515,7 +5524,7 @@
       <c r="R345" s="13"/>
       <c r="Y345" s="13"/>
     </row>
-    <row r="346" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:25" hidden="1">
       <c r="B346" s="11">
         <v>45953</v>
       </c>
@@ -5525,7 +5534,7 @@
       <c r="R346" s="13"/>
       <c r="Y346" s="13"/>
     </row>
-    <row r="347" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:25" hidden="1">
       <c r="B347" s="11">
         <v>45954</v>
       </c>
@@ -5535,7 +5544,7 @@
       <c r="R347" s="13"/>
       <c r="Y347" s="13"/>
     </row>
-    <row r="348" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:25" hidden="1">
       <c r="B348" s="11">
         <v>45954</v>
       </c>
@@ -5545,7 +5554,7 @@
       <c r="R348" s="13"/>
       <c r="Y348" s="13"/>
     </row>
-    <row r="349" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:25" hidden="1">
       <c r="B349" s="11">
         <v>45954</v>
       </c>
@@ -5555,7 +5564,7 @@
       <c r="R349" s="13"/>
       <c r="Y349" s="13"/>
     </row>
-    <row r="350" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:25" hidden="1">
       <c r="B350" s="11">
         <v>45954</v>
       </c>
@@ -5565,7 +5574,7 @@
       <c r="R350" s="13"/>
       <c r="Y350" s="13"/>
     </row>
-    <row r="351" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:25" hidden="1">
       <c r="B351" s="11">
         <v>45954</v>
       </c>
@@ -5575,7 +5584,7 @@
       <c r="R351" s="13"/>
       <c r="Y351" s="13"/>
     </row>
-    <row r="352" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:25" hidden="1">
       <c r="B352" s="11">
         <v>45954</v>
       </c>
@@ -5585,7 +5594,7 @@
       <c r="R352" s="13"/>
       <c r="Y352" s="13"/>
     </row>
-    <row r="353" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:25" hidden="1">
       <c r="B353" s="11">
         <v>45954</v>
       </c>
@@ -5595,7 +5604,7 @@
       <c r="R353" s="13"/>
       <c r="Y353" s="13"/>
     </row>
-    <row r="354" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:25" hidden="1">
       <c r="B354" s="11">
         <v>45955</v>
       </c>
@@ -5605,7 +5614,7 @@
       <c r="R354" s="13"/>
       <c r="Y354" s="13"/>
     </row>
-    <row r="355" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:25" hidden="1">
       <c r="B355" s="11">
         <v>45955</v>
       </c>
@@ -5615,7 +5624,7 @@
       <c r="R355" s="13"/>
       <c r="Y355" s="13"/>
     </row>
-    <row r="356" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:25" hidden="1">
       <c r="B356" s="11">
         <v>45955</v>
       </c>
@@ -5625,7 +5634,7 @@
       <c r="R356" s="13"/>
       <c r="Y356" s="13"/>
     </row>
-    <row r="357" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:25" hidden="1">
       <c r="B357" s="11">
         <v>45955</v>
       </c>
@@ -5635,7 +5644,7 @@
       <c r="R357" s="13"/>
       <c r="Y357" s="13"/>
     </row>
-    <row r="358" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:25" hidden="1">
       <c r="B358" s="11">
         <v>45955</v>
       </c>
@@ -5645,7 +5654,7 @@
       <c r="R358" s="13"/>
       <c r="Y358" s="13"/>
     </row>
-    <row r="359" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:25" hidden="1">
       <c r="B359" s="11">
         <v>45955</v>
       </c>
@@ -5655,7 +5664,7 @@
       <c r="R359" s="13"/>
       <c r="Y359" s="13"/>
     </row>
-    <row r="360" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:25" hidden="1">
       <c r="B360" s="11">
         <v>45955</v>
       </c>
@@ -5665,7 +5674,7 @@
       <c r="R360" s="13"/>
       <c r="Y360" s="13"/>
     </row>
-    <row r="361" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:25" hidden="1">
       <c r="B361" s="11">
         <v>45956</v>
       </c>
@@ -5675,7 +5684,7 @@
       <c r="R361" s="13"/>
       <c r="Y361" s="13"/>
     </row>
-    <row r="362" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:25" hidden="1">
       <c r="B362" s="11">
         <v>45956</v>
       </c>
@@ -5685,7 +5694,7 @@
       <c r="R362" s="13"/>
       <c r="Y362" s="13"/>
     </row>
-    <row r="363" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:25" hidden="1">
       <c r="B363" s="11">
         <v>45956</v>
       </c>
@@ -5695,7 +5704,7 @@
       <c r="R363" s="13"/>
       <c r="Y363" s="13"/>
     </row>
-    <row r="364" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:25" hidden="1">
       <c r="B364" s="11">
         <v>45956</v>
       </c>
@@ -5705,7 +5714,7 @@
       <c r="R364" s="13"/>
       <c r="Y364" s="13"/>
     </row>
-    <row r="365" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:25" hidden="1">
       <c r="B365" s="11">
         <v>45956</v>
       </c>
@@ -5715,7 +5724,7 @@
       <c r="R365" s="13"/>
       <c r="Y365" s="13"/>
     </row>
-    <row r="366" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:25" hidden="1">
       <c r="B366" s="11">
         <v>45956</v>
       </c>
@@ -5725,7 +5734,7 @@
       <c r="R366" s="13"/>
       <c r="Y366" s="13"/>
     </row>
-    <row r="367" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:25" hidden="1">
       <c r="B367" s="11">
         <v>45956</v>
       </c>
@@ -5735,7 +5744,7 @@
       <c r="R367" s="13"/>
       <c r="Y367" s="13"/>
     </row>
-    <row r="368" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:25" hidden="1">
       <c r="B368" s="11">
         <v>45957</v>
       </c>
@@ -5745,7 +5754,7 @@
       <c r="R368" s="13"/>
       <c r="Y368" s="13"/>
     </row>
-    <row r="369" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:25" hidden="1">
       <c r="B369" s="11">
         <v>45957</v>
       </c>
@@ -5755,7 +5764,7 @@
       <c r="R369" s="13"/>
       <c r="Y369" s="13"/>
     </row>
-    <row r="370" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:25" hidden="1">
       <c r="B370" s="11">
         <v>45957</v>
       </c>
@@ -5765,7 +5774,7 @@
       <c r="R370" s="13"/>
       <c r="Y370" s="13"/>
     </row>
-    <row r="371" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:25" hidden="1">
       <c r="B371" s="11">
         <v>45957</v>
       </c>
@@ -5775,7 +5784,7 @@
       <c r="R371" s="13"/>
       <c r="Y371" s="13"/>
     </row>
-    <row r="372" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:25" hidden="1">
       <c r="B372" s="11">
         <v>45957</v>
       </c>
@@ -5785,7 +5794,7 @@
       <c r="R372" s="13"/>
       <c r="Y372" s="13"/>
     </row>
-    <row r="373" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:25" hidden="1">
       <c r="B373" s="11">
         <v>45957</v>
       </c>
@@ -5795,7 +5804,7 @@
       <c r="R373" s="13"/>
       <c r="Y373" s="13"/>
     </row>
-    <row r="374" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:25" hidden="1">
       <c r="B374" s="11">
         <v>45957</v>
       </c>
@@ -5805,7 +5814,7 @@
       <c r="R374" s="13"/>
       <c r="Y374" s="13"/>
     </row>
-    <row r="375" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:25" hidden="1">
       <c r="B375" s="11">
         <v>45958</v>
       </c>
@@ -5815,7 +5824,7 @@
       <c r="R375" s="13"/>
       <c r="Y375" s="13"/>
     </row>
-    <row r="376" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:25" hidden="1">
       <c r="B376" s="11">
         <v>45958</v>
       </c>
@@ -5825,7 +5834,7 @@
       <c r="R376" s="13"/>
       <c r="Y376" s="13"/>
     </row>
-    <row r="377" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:25" hidden="1">
       <c r="B377" s="11">
         <v>45958</v>
       </c>
@@ -5835,7 +5844,7 @@
       <c r="R377" s="13"/>
       <c r="Y377" s="13"/>
     </row>
-    <row r="378" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:25" hidden="1">
       <c r="B378" s="11">
         <v>45958</v>
       </c>
@@ -5845,7 +5854,7 @@
       <c r="R378" s="13"/>
       <c r="Y378" s="13"/>
     </row>
-    <row r="379" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:25" hidden="1">
       <c r="B379" s="11">
         <v>45958</v>
       </c>
@@ -5855,7 +5864,7 @@
       <c r="R379" s="13"/>
       <c r="Y379" s="13"/>
     </row>
-    <row r="380" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:25" hidden="1">
       <c r="B380" s="11">
         <v>45958</v>
       </c>
@@ -5865,7 +5874,7 @@
       <c r="R380" s="13"/>
       <c r="Y380" s="13"/>
     </row>
-    <row r="381" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:25" hidden="1">
       <c r="B381" s="11">
         <v>45958</v>
       </c>
@@ -5875,7 +5884,7 @@
       <c r="R381" s="13"/>
       <c r="Y381" s="13"/>
     </row>
-    <row r="382" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:25" hidden="1">
       <c r="B382" s="11">
         <v>45959</v>
       </c>
@@ -5885,7 +5894,7 @@
       <c r="R382" s="13"/>
       <c r="Y382" s="13"/>
     </row>
-    <row r="383" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:25" hidden="1">
       <c r="B383" s="11">
         <v>45959</v>
       </c>
@@ -5895,7 +5904,7 @@
       <c r="R383" s="13"/>
       <c r="Y383" s="13"/>
     </row>
-    <row r="384" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:25" hidden="1">
       <c r="B384" s="11">
         <v>45959</v>
       </c>
@@ -5905,7 +5914,7 @@
       <c r="R384" s="13"/>
       <c r="Y384" s="13"/>
     </row>
-    <row r="385" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:25" hidden="1">
       <c r="B385" s="11">
         <v>45959</v>
       </c>
@@ -5915,7 +5924,7 @@
       <c r="R385" s="13"/>
       <c r="Y385" s="13"/>
     </row>
-    <row r="386" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:25" hidden="1">
       <c r="B386" s="11">
         <v>45959</v>
       </c>
@@ -5925,7 +5934,7 @@
       <c r="R386" s="13"/>
       <c r="Y386" s="13"/>
     </row>
-    <row r="387" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:25" hidden="1">
       <c r="B387" s="11">
         <v>45959</v>
       </c>
@@ -5935,7 +5944,7 @@
       <c r="R387" s="13"/>
       <c r="Y387" s="13"/>
     </row>
-    <row r="388" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:25" hidden="1">
       <c r="B388" s="11">
         <v>45959</v>
       </c>
@@ -5945,7 +5954,7 @@
       <c r="R388" s="13"/>
       <c r="Y388" s="13"/>
     </row>
-    <row r="389" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:25" hidden="1">
       <c r="B389" s="11">
         <v>45960</v>
       </c>
@@ -5955,7 +5964,7 @@
       <c r="R389" s="13"/>
       <c r="Y389" s="13"/>
     </row>
-    <row r="390" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:25" hidden="1">
       <c r="B390" s="11">
         <v>45960</v>
       </c>
@@ -5965,7 +5974,7 @@
       <c r="R390" s="13"/>
       <c r="Y390" s="13"/>
     </row>
-    <row r="391" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:25" hidden="1">
       <c r="B391" s="11">
         <v>45960</v>
       </c>
@@ -5975,7 +5984,7 @@
       <c r="R391" s="13"/>
       <c r="Y391" s="13"/>
     </row>
-    <row r="392" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:25" hidden="1">
       <c r="B392" s="11">
         <v>45960</v>
       </c>
@@ -5985,7 +5994,7 @@
       <c r="R392" s="13"/>
       <c r="Y392" s="13"/>
     </row>
-    <row r="393" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:25" hidden="1">
       <c r="B393" s="11">
         <v>45960</v>
       </c>
@@ -5995,7 +6004,7 @@
       <c r="R393" s="13"/>
       <c r="Y393" s="13"/>
     </row>
-    <row r="394" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:25" hidden="1">
       <c r="B394" s="11">
         <v>45960</v>
       </c>
@@ -6005,7 +6014,7 @@
       <c r="R394" s="13"/>
       <c r="Y394" s="13"/>
     </row>
-    <row r="395" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:25" hidden="1">
       <c r="B395" s="11">
         <v>45960</v>
       </c>
@@ -6015,7 +6024,7 @@
       <c r="R395" s="13"/>
       <c r="Y395" s="13"/>
     </row>
-    <row r="396" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:25" hidden="1">
       <c r="B396" s="11">
         <v>45961</v>
       </c>
@@ -6025,7 +6034,7 @@
       <c r="R396" s="13"/>
       <c r="Y396" s="13"/>
     </row>
-    <row r="397" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:25" hidden="1">
       <c r="B397" s="11">
         <v>45961</v>
       </c>
@@ -6035,7 +6044,7 @@
       <c r="R397" s="13"/>
       <c r="Y397" s="13"/>
     </row>
-    <row r="398" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:25" hidden="1">
       <c r="B398" s="11">
         <v>45961</v>
       </c>
@@ -6045,7 +6054,7 @@
       <c r="R398" s="13"/>
       <c r="Y398" s="13"/>
     </row>
-    <row r="399" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:25" hidden="1">
       <c r="B399" s="11">
         <v>45961</v>
       </c>
@@ -6055,7 +6064,7 @@
       <c r="R399" s="13"/>
       <c r="Y399" s="13"/>
     </row>
-    <row r="400" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:25" hidden="1">
       <c r="B400" s="11">
         <v>45961</v>
       </c>
@@ -6065,7 +6074,7 @@
       <c r="R400" s="13"/>
       <c r="Y400" s="13"/>
     </row>
-    <row r="401" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:25" hidden="1">
       <c r="B401" s="11">
         <v>45961</v>
       </c>
@@ -6075,7 +6084,7 @@
       <c r="R401" s="13"/>
       <c r="Y401" s="13"/>
     </row>
-    <row r="402" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:25" hidden="1">
       <c r="B402" s="11">
         <v>45961</v>
       </c>
@@ -6085,7 +6094,7 @@
       <c r="R402" s="13"/>
       <c r="Y402" s="13"/>
     </row>
-    <row r="403" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:25" hidden="1">
       <c r="B403" s="11">
         <v>45962</v>
       </c>
@@ -6095,7 +6104,7 @@
       <c r="R403" s="13"/>
       <c r="Y403" s="13"/>
     </row>
-    <row r="404" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:25" hidden="1">
       <c r="B404" s="11">
         <v>45962</v>
       </c>
@@ -6105,7 +6114,7 @@
       <c r="R404" s="13"/>
       <c r="Y404" s="13"/>
     </row>
-    <row r="405" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:25" hidden="1">
       <c r="B405" s="11">
         <v>45962</v>
       </c>
@@ -6115,7 +6124,7 @@
       <c r="R405" s="13"/>
       <c r="Y405" s="13"/>
     </row>
-    <row r="406" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:25" hidden="1">
       <c r="B406" s="11">
         <v>45962</v>
       </c>
@@ -6125,7 +6134,7 @@
       <c r="R406" s="13"/>
       <c r="Y406" s="13"/>
     </row>
-    <row r="407" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:25" hidden="1">
       <c r="B407" s="11">
         <v>45962</v>
       </c>
@@ -6135,7 +6144,7 @@
       <c r="R407" s="13"/>
       <c r="Y407" s="13"/>
     </row>
-    <row r="408" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:25" hidden="1">
       <c r="B408" s="11">
         <v>45962</v>
       </c>
@@ -6145,7 +6154,7 @@
       <c r="R408" s="13"/>
       <c r="Y408" s="13"/>
     </row>
-    <row r="409" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:25" hidden="1">
       <c r="B409" s="11">
         <v>45962</v>
       </c>
@@ -6155,7 +6164,7 @@
       <c r="R409" s="13"/>
       <c r="Y409" s="13"/>
     </row>
-    <row r="410" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:25" hidden="1">
       <c r="B410" s="11">
         <v>45963</v>
       </c>
@@ -6165,7 +6174,7 @@
       <c r="R410" s="13"/>
       <c r="Y410" s="13"/>
     </row>
-    <row r="411" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:25" hidden="1">
       <c r="B411" s="11">
         <v>45963</v>
       </c>
@@ -6175,7 +6184,7 @@
       <c r="R411" s="13"/>
       <c r="Y411" s="13"/>
     </row>
-    <row r="412" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:25" hidden="1">
       <c r="B412" s="11">
         <v>45963</v>
       </c>
@@ -6185,7 +6194,7 @@
       <c r="R412" s="13"/>
       <c r="Y412" s="13"/>
     </row>
-    <row r="413" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:25" hidden="1">
       <c r="B413" s="11">
         <v>45963</v>
       </c>
@@ -6195,7 +6204,7 @@
       <c r="R413" s="13"/>
       <c r="Y413" s="13"/>
     </row>
-    <row r="414" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:25" hidden="1">
       <c r="B414" s="11">
         <v>45963</v>
       </c>
@@ -6205,7 +6214,7 @@
       <c r="R414" s="13"/>
       <c r="Y414" s="13"/>
     </row>
-    <row r="415" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:25" hidden="1">
       <c r="B415" s="11">
         <v>45963</v>
       </c>
@@ -6215,7 +6224,7 @@
       <c r="R415" s="13"/>
       <c r="Y415" s="13"/>
     </row>
-    <row r="416" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:25" hidden="1">
       <c r="B416" s="11">
         <v>45963</v>
       </c>
@@ -6225,7 +6234,7 @@
       <c r="R416" s="13"/>
       <c r="Y416" s="13"/>
     </row>
-    <row r="417" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:25" hidden="1">
       <c r="B417" s="11">
         <v>45964</v>
       </c>
@@ -6235,7 +6244,7 @@
       <c r="R417" s="13"/>
       <c r="Y417" s="13"/>
     </row>
-    <row r="418" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:25" hidden="1">
       <c r="B418" s="11">
         <v>45964</v>
       </c>
@@ -6245,7 +6254,7 @@
       <c r="R418" s="13"/>
       <c r="Y418" s="13"/>
     </row>
-    <row r="419" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:25" hidden="1">
       <c r="B419" s="11">
         <v>45964</v>
       </c>
@@ -6255,7 +6264,7 @@
       <c r="R419" s="13"/>
       <c r="Y419" s="13"/>
     </row>
-    <row r="420" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:25" hidden="1">
       <c r="B420" s="11">
         <v>45964</v>
       </c>
@@ -6265,7 +6274,7 @@
       <c r="R420" s="13"/>
       <c r="Y420" s="13"/>
     </row>
-    <row r="421" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:25" hidden="1">
       <c r="B421" s="11">
         <v>45964</v>
       </c>
@@ -6275,7 +6284,7 @@
       <c r="R421" s="13"/>
       <c r="Y421" s="13"/>
     </row>
-    <row r="422" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:25" hidden="1">
       <c r="B422" s="11">
         <v>45964</v>
       </c>
@@ -6285,7 +6294,7 @@
       <c r="R422" s="13"/>
       <c r="Y422" s="13"/>
     </row>
-    <row r="423" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:25" hidden="1">
       <c r="B423" s="11">
         <v>45964</v>
       </c>
@@ -6295,7 +6304,7 @@
       <c r="R423" s="13"/>
       <c r="Y423" s="13"/>
     </row>
-    <row r="424" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:25" hidden="1">
       <c r="B424" s="11">
         <v>45965</v>
       </c>
@@ -6305,7 +6314,7 @@
       <c r="R424" s="13"/>
       <c r="Y424" s="13"/>
     </row>
-    <row r="425" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:25" hidden="1">
       <c r="B425" s="11">
         <v>45965</v>
       </c>
@@ -6315,7 +6324,7 @@
       <c r="R425" s="13"/>
       <c r="Y425" s="13"/>
     </row>
-    <row r="426" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:25" hidden="1">
       <c r="B426" s="11">
         <v>45965</v>
       </c>
@@ -6325,7 +6334,7 @@
       <c r="R426" s="13"/>
       <c r="Y426" s="13"/>
     </row>
-    <row r="427" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:25" hidden="1">
       <c r="B427" s="11">
         <v>45965</v>
       </c>
@@ -6335,7 +6344,7 @@
       <c r="R427" s="13"/>
       <c r="Y427" s="13"/>
     </row>
-    <row r="428" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:25" hidden="1">
       <c r="B428" s="11">
         <v>45965</v>
       </c>
@@ -6345,7 +6354,7 @@
       <c r="R428" s="13"/>
       <c r="Y428" s="13"/>
     </row>
-    <row r="429" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:25" hidden="1">
       <c r="B429" s="11">
         <v>45965</v>
       </c>
@@ -6355,7 +6364,7 @@
       <c r="R429" s="13"/>
       <c r="Y429" s="13"/>
     </row>
-    <row r="430" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:25" hidden="1">
       <c r="B430" s="11">
         <v>45965</v>
       </c>
@@ -6365,7 +6374,7 @@
       <c r="R430" s="13"/>
       <c r="Y430" s="13"/>
     </row>
-    <row r="431" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:25" hidden="1">
       <c r="B431" s="11">
         <v>45966</v>
       </c>
@@ -6375,7 +6384,7 @@
       <c r="R431" s="13"/>
       <c r="Y431" s="13"/>
     </row>
-    <row r="432" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:25" hidden="1">
       <c r="B432" s="11">
         <v>45966</v>
       </c>
@@ -6385,7 +6394,7 @@
       <c r="R432" s="13"/>
       <c r="Y432" s="13"/>
     </row>
-    <row r="433" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:25" hidden="1">
       <c r="B433" s="11">
         <v>45966</v>
       </c>
@@ -6395,7 +6404,7 @@
       <c r="R433" s="13"/>
       <c r="Y433" s="13"/>
     </row>
-    <row r="434" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:25" hidden="1">
       <c r="B434" s="11">
         <v>45966</v>
       </c>
@@ -6405,7 +6414,7 @@
       <c r="R434" s="13"/>
       <c r="Y434" s="13"/>
     </row>
-    <row r="435" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:25" hidden="1">
       <c r="B435" s="11">
         <v>45966</v>
       </c>
@@ -6415,7 +6424,7 @@
       <c r="R435" s="13"/>
       <c r="Y435" s="13"/>
     </row>
-    <row r="436" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:25" hidden="1">
       <c r="B436" s="11">
         <v>45966</v>
       </c>
@@ -6425,7 +6434,7 @@
       <c r="R436" s="13"/>
       <c r="Y436" s="13"/>
     </row>
-    <row r="437" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:25" hidden="1">
       <c r="B437" s="11">
         <v>45966</v>
       </c>
@@ -6435,7 +6444,7 @@
       <c r="R437" s="13"/>
       <c r="Y437" s="13"/>
     </row>
-    <row r="438" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:25" hidden="1">
       <c r="B438" s="11">
         <v>45967</v>
       </c>
@@ -6445,7 +6454,7 @@
       <c r="R438" s="13"/>
       <c r="Y438" s="13"/>
     </row>
-    <row r="439" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:25" hidden="1">
       <c r="B439" s="11">
         <v>45967</v>
       </c>
@@ -6455,7 +6464,7 @@
       <c r="R439" s="13"/>
       <c r="Y439" s="13"/>
     </row>
-    <row r="440" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:25" hidden="1">
       <c r="B440" s="11">
         <v>45967</v>
       </c>
@@ -6465,7 +6474,7 @@
       <c r="R440" s="13"/>
       <c r="Y440" s="13"/>
     </row>
-    <row r="441" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:25" hidden="1">
       <c r="B441" s="11">
         <v>45967</v>
       </c>
@@ -6475,7 +6484,7 @@
       <c r="R441" s="13"/>
       <c r="Y441" s="13"/>
     </row>
-    <row r="442" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:25" hidden="1">
       <c r="B442" s="11">
         <v>45967</v>
       </c>
@@ -6485,7 +6494,7 @@
       <c r="R442" s="13"/>
       <c r="Y442" s="13"/>
     </row>
-    <row r="443" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:25" hidden="1">
       <c r="B443" s="11">
         <v>45967</v>
       </c>
@@ -6495,7 +6504,7 @@
       <c r="R443" s="13"/>
       <c r="Y443" s="13"/>
     </row>
-    <row r="444" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:25" hidden="1">
       <c r="B444" s="11">
         <v>45967</v>
       </c>
@@ -6505,7 +6514,7 @@
       <c r="R444" s="13"/>
       <c r="Y444" s="13"/>
     </row>
-    <row r="445" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:25" hidden="1">
       <c r="B445" s="11">
         <v>45968</v>
       </c>
@@ -6515,7 +6524,7 @@
       <c r="R445" s="13"/>
       <c r="Y445" s="13"/>
     </row>
-    <row r="446" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:25" hidden="1">
       <c r="B446" s="11">
         <v>45968</v>
       </c>
@@ -6525,7 +6534,7 @@
       <c r="R446" s="13"/>
       <c r="Y446" s="13"/>
     </row>
-    <row r="447" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:25" hidden="1">
       <c r="B447" s="11">
         <v>45968</v>
       </c>
@@ -6535,7 +6544,7 @@
       <c r="R447" s="13"/>
       <c r="Y447" s="13"/>
     </row>
-    <row r="448" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:25" hidden="1">
       <c r="B448" s="11">
         <v>45968</v>
       </c>
@@ -6545,7 +6554,7 @@
       <c r="R448" s="13"/>
       <c r="Y448" s="13"/>
     </row>
-    <row r="449" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:25" hidden="1">
       <c r="B449" s="11">
         <v>45968</v>
       </c>
@@ -6555,7 +6564,7 @@
       <c r="R449" s="13"/>
       <c r="Y449" s="13"/>
     </row>
-    <row r="450" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:25" hidden="1">
       <c r="B450" s="11">
         <v>45968</v>
       </c>
@@ -6565,7 +6574,7 @@
       <c r="R450" s="13"/>
       <c r="Y450" s="13"/>
     </row>
-    <row r="451" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:25" hidden="1">
       <c r="B451" s="11">
         <v>45968</v>
       </c>
@@ -6575,7 +6584,7 @@
       <c r="R451" s="13"/>
       <c r="Y451" s="13"/>
     </row>
-    <row r="452" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:25" hidden="1">
       <c r="B452" s="11">
         <v>45969</v>
       </c>
@@ -6585,7 +6594,7 @@
       <c r="R452" s="13"/>
       <c r="Y452" s="13"/>
     </row>
-    <row r="453" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:25" hidden="1">
       <c r="B453" s="11">
         <v>45969</v>
       </c>
@@ -6595,7 +6604,7 @@
       <c r="R453" s="13"/>
       <c r="Y453" s="13"/>
     </row>
-    <row r="454" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:25" hidden="1">
       <c r="B454" s="11">
         <v>45969</v>
       </c>
@@ -6605,7 +6614,7 @@
       <c r="R454" s="13"/>
       <c r="Y454" s="13"/>
     </row>
-    <row r="455" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:25" hidden="1">
       <c r="B455" s="11">
         <v>45969</v>
       </c>
@@ -6615,7 +6624,7 @@
       <c r="R455" s="13"/>
       <c r="Y455" s="13"/>
     </row>
-    <row r="456" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:25" hidden="1">
       <c r="B456" s="11">
         <v>45969</v>
       </c>
@@ -6625,7 +6634,7 @@
       <c r="R456" s="13"/>
       <c r="Y456" s="13"/>
     </row>
-    <row r="457" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:25" hidden="1">
       <c r="B457" s="11">
         <v>45969</v>
       </c>
@@ -6635,7 +6644,7 @@
       <c r="R457" s="13"/>
       <c r="Y457" s="13"/>
     </row>
-    <row r="458" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:25" hidden="1">
       <c r="B458" s="11">
         <v>45969</v>
       </c>
@@ -6645,7 +6654,7 @@
       <c r="R458" s="13"/>
       <c r="Y458" s="13"/>
     </row>
-    <row r="459" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:25" hidden="1">
       <c r="B459" s="11">
         <v>45970</v>
       </c>
@@ -6655,7 +6664,7 @@
       <c r="R459" s="13"/>
       <c r="Y459" s="13"/>
     </row>
-    <row r="460" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:25" hidden="1">
       <c r="B460" s="11">
         <v>45970</v>
       </c>
@@ -6665,7 +6674,7 @@
       <c r="R460" s="13"/>
       <c r="Y460" s="13"/>
     </row>
-    <row r="461" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:25" hidden="1">
       <c r="B461" s="11">
         <v>45970</v>
       </c>
@@ -6675,7 +6684,7 @@
       <c r="R461" s="13"/>
       <c r="Y461" s="13"/>
     </row>
-    <row r="462" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:25" hidden="1">
       <c r="B462" s="11">
         <v>45970</v>
       </c>
@@ -6685,7 +6694,7 @@
       <c r="R462" s="13"/>
       <c r="Y462" s="13"/>
     </row>
-    <row r="463" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:25" hidden="1">
       <c r="B463" s="11">
         <v>45970</v>
       </c>
@@ -6695,7 +6704,7 @@
       <c r="R463" s="13"/>
       <c r="Y463" s="13"/>
     </row>
-    <row r="464" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:25" hidden="1">
       <c r="B464" s="11">
         <v>45970</v>
       </c>
@@ -6705,7 +6714,7 @@
       <c r="R464" s="13"/>
       <c r="Y464" s="13"/>
     </row>
-    <row r="465" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:25" hidden="1">
       <c r="B465" s="11">
         <v>45970</v>
       </c>
@@ -6715,7 +6724,7 @@
       <c r="R465" s="13"/>
       <c r="Y465" s="13"/>
     </row>
-    <row r="466" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:25" hidden="1">
       <c r="B466" s="11">
         <v>45971</v>
       </c>
@@ -6725,7 +6734,7 @@
       <c r="R466" s="13"/>
       <c r="Y466" s="13"/>
     </row>
-    <row r="467" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:25" hidden="1">
       <c r="B467" s="11">
         <v>45971</v>
       </c>
@@ -6735,7 +6744,7 @@
       <c r="R467" s="13"/>
       <c r="Y467" s="13"/>
     </row>
-    <row r="468" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:25" hidden="1">
       <c r="B468" s="11">
         <v>45971</v>
       </c>
@@ -6745,7 +6754,7 @@
       <c r="R468" s="13"/>
       <c r="Y468" s="13"/>
     </row>
-    <row r="469" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:25" hidden="1">
       <c r="B469" s="11">
         <v>45971</v>
       </c>
@@ -6755,7 +6764,7 @@
       <c r="R469" s="13"/>
       <c r="Y469" s="13"/>
     </row>
-    <row r="470" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:25" hidden="1">
       <c r="B470" s="11">
         <v>45971</v>
       </c>
@@ -6765,7 +6774,7 @@
       <c r="R470" s="13"/>
       <c r="Y470" s="13"/>
     </row>
-    <row r="471" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:25" hidden="1">
       <c r="B471" s="11">
         <v>45971</v>
       </c>
@@ -6775,7 +6784,7 @@
       <c r="R471" s="13"/>
       <c r="Y471" s="13"/>
     </row>
-    <row r="472" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:25" hidden="1">
       <c r="B472" s="11">
         <v>45971</v>
       </c>
@@ -6785,7 +6794,7 @@
       <c r="R472" s="13"/>
       <c r="Y472" s="13"/>
     </row>
-    <row r="473" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:25" hidden="1">
       <c r="B473" s="11">
         <v>45972</v>
       </c>
@@ -6795,7 +6804,7 @@
       <c r="R473" s="13"/>
       <c r="Y473" s="13"/>
     </row>
-    <row r="474" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:25" hidden="1">
       <c r="B474" s="11">
         <v>45972</v>
       </c>
@@ -6805,7 +6814,7 @@
       <c r="R474" s="13"/>
       <c r="Y474" s="13"/>
     </row>
-    <row r="475" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:25" hidden="1">
       <c r="B475" s="11">
         <v>45972</v>
       </c>
@@ -6815,7 +6824,7 @@
       <c r="R475" s="13"/>
       <c r="Y475" s="13"/>
     </row>
-    <row r="476" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:25" hidden="1">
       <c r="B476" s="11">
         <v>45972</v>
       </c>
@@ -6825,7 +6834,7 @@
       <c r="R476" s="13"/>
       <c r="Y476" s="13"/>
     </row>
-    <row r="477" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:25" hidden="1">
       <c r="B477" s="11">
         <v>45972</v>
       </c>
@@ -6835,7 +6844,7 @@
       <c r="R477" s="13"/>
       <c r="Y477" s="13"/>
     </row>
-    <row r="478" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:25" hidden="1">
       <c r="B478" s="11">
         <v>45972</v>
       </c>
@@ -6845,7 +6854,7 @@
       <c r="R478" s="13"/>
       <c r="Y478" s="13"/>
     </row>
-    <row r="479" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:25" hidden="1">
       <c r="B479" s="11">
         <v>45972</v>
       </c>
@@ -6855,7 +6864,7 @@
       <c r="R479" s="13"/>
       <c r="Y479" s="13"/>
     </row>
-    <row r="480" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:25" hidden="1">
       <c r="B480" s="11">
         <v>45973</v>
       </c>
@@ -6865,7 +6874,7 @@
       <c r="R480" s="13"/>
       <c r="Y480" s="13"/>
     </row>
-    <row r="481" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:25" hidden="1">
       <c r="B481" s="11">
         <v>45973</v>
       </c>
@@ -6875,7 +6884,7 @@
       <c r="R481" s="13"/>
       <c r="Y481" s="13"/>
     </row>
-    <row r="482" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:25" hidden="1">
       <c r="B482" s="11">
         <v>45973</v>
       </c>
@@ -6885,7 +6894,7 @@
       <c r="R482" s="13"/>
       <c r="Y482" s="13"/>
     </row>
-    <row r="483" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:25" hidden="1">
       <c r="B483" s="11">
         <v>45973</v>
       </c>
@@ -6895,7 +6904,7 @@
       <c r="R483" s="13"/>
       <c r="Y483" s="13"/>
     </row>
-    <row r="484" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:25" hidden="1">
       <c r="B484" s="11">
         <v>45973</v>
       </c>
@@ -6905,7 +6914,7 @@
       <c r="R484" s="13"/>
       <c r="Y484" s="13"/>
     </row>
-    <row r="485" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:25" hidden="1">
       <c r="B485" s="11">
         <v>45973</v>
       </c>
@@ -6915,7 +6924,7 @@
       <c r="R485" s="13"/>
       <c r="Y485" s="13"/>
     </row>
-    <row r="486" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:25" hidden="1">
       <c r="B486" s="11">
         <v>45973</v>
       </c>
@@ -6925,7 +6934,7 @@
       <c r="R486" s="13"/>
       <c r="Y486" s="13"/>
     </row>
-    <row r="487" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:25" hidden="1">
       <c r="B487" s="11">
         <v>45974</v>
       </c>
@@ -6935,7 +6944,7 @@
       <c r="R487" s="13"/>
       <c r="Y487" s="13"/>
     </row>
-    <row r="488" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:25" hidden="1">
       <c r="B488" s="11">
         <v>45974</v>
       </c>
@@ -6945,7 +6954,7 @@
       <c r="R488" s="13"/>
       <c r="Y488" s="13"/>
     </row>
-    <row r="489" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:25" hidden="1">
       <c r="B489" s="11">
         <v>45974</v>
       </c>
@@ -6955,7 +6964,7 @@
       <c r="R489" s="13"/>
       <c r="Y489" s="13"/>
     </row>
-    <row r="490" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:25" hidden="1">
       <c r="B490" s="11">
         <v>45974</v>
       </c>
@@ -6965,7 +6974,7 @@
       <c r="R490" s="13"/>
       <c r="Y490" s="13"/>
     </row>
-    <row r="491" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:25" hidden="1">
       <c r="B491" s="11">
         <v>45974</v>
       </c>
@@ -6975,7 +6984,7 @@
       <c r="R491" s="13"/>
       <c r="Y491" s="13"/>
     </row>
-    <row r="492" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:25" hidden="1">
       <c r="B492" s="11">
         <v>45974</v>
       </c>
@@ -6985,7 +6994,7 @@
       <c r="R492" s="13"/>
       <c r="Y492" s="13"/>
     </row>
-    <row r="493" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:25" hidden="1">
       <c r="B493" s="11">
         <v>45974</v>
       </c>
@@ -6995,7 +7004,7 @@
       <c r="R493" s="13"/>
       <c r="Y493" s="13"/>
     </row>
-    <row r="494" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:25" hidden="1">
       <c r="B494" s="11">
         <v>45975</v>
       </c>
@@ -7005,7 +7014,7 @@
       <c r="R494" s="13"/>
       <c r="Y494" s="13"/>
     </row>
-    <row r="495" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:25" hidden="1">
       <c r="B495" s="11">
         <v>45975</v>
       </c>
@@ -7015,7 +7024,7 @@
       <c r="R495" s="13"/>
       <c r="Y495" s="13"/>
     </row>
-    <row r="496" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:25" hidden="1">
       <c r="B496" s="11">
         <v>45975</v>
       </c>
@@ -7025,7 +7034,7 @@
       <c r="R496" s="13"/>
       <c r="Y496" s="13"/>
     </row>
-    <row r="497" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:25" hidden="1">
       <c r="B497" s="11">
         <v>45975</v>
       </c>
@@ -7035,7 +7044,7 @@
       <c r="R497" s="13"/>
       <c r="Y497" s="13"/>
     </row>
-    <row r="498" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:25" hidden="1">
       <c r="B498" s="11">
         <v>45975</v>
       </c>
@@ -7045,7 +7054,7 @@
       <c r="R498" s="13"/>
       <c r="Y498" s="13"/>
     </row>
-    <row r="499" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:25" hidden="1">
       <c r="B499" s="11">
         <v>45975</v>
       </c>
@@ -7055,7 +7064,7 @@
       <c r="R499" s="13"/>
       <c r="Y499" s="13"/>
     </row>
-    <row r="500" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:25" hidden="1">
       <c r="B500" s="11">
         <v>45975</v>
       </c>
@@ -7065,7 +7074,7 @@
       <c r="R500" s="13"/>
       <c r="Y500" s="13"/>
     </row>
-    <row r="501" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:25" hidden="1">
       <c r="B501" s="11">
         <v>45976</v>
       </c>
@@ -7075,7 +7084,7 @@
       <c r="R501" s="13"/>
       <c r="Y501" s="13"/>
     </row>
-    <row r="502" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:25" hidden="1">
       <c r="B502" s="11">
         <v>45976</v>
       </c>
@@ -7085,7 +7094,7 @@
       <c r="R502" s="13"/>
       <c r="Y502" s="13"/>
     </row>
-    <row r="503" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:25" hidden="1">
       <c r="B503" s="11">
         <v>45976</v>
       </c>
@@ -7095,7 +7104,7 @@
       <c r="R503" s="13"/>
       <c r="Y503" s="13"/>
     </row>
-    <row r="504" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:25" hidden="1">
       <c r="B504" s="11">
         <v>45976</v>
       </c>
@@ -7105,7 +7114,7 @@
       <c r="R504" s="13"/>
       <c r="Y504" s="13"/>
     </row>
-    <row r="505" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:25" hidden="1">
       <c r="B505" s="11">
         <v>45976</v>
       </c>
@@ -7115,7 +7124,7 @@
       <c r="R505" s="13"/>
       <c r="Y505" s="13"/>
     </row>
-    <row r="506" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:25" hidden="1">
       <c r="B506" s="11">
         <v>45976</v>
       </c>
@@ -7125,7 +7134,7 @@
       <c r="R506" s="13"/>
       <c r="Y506" s="13"/>
     </row>
-    <row r="507" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:25" hidden="1">
       <c r="B507" s="11">
         <v>45976</v>
       </c>
@@ -7135,7 +7144,7 @@
       <c r="R507" s="13"/>
       <c r="Y507" s="13"/>
     </row>
-    <row r="508" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:25" hidden="1">
       <c r="B508" s="11">
         <v>45977</v>
       </c>
@@ -7145,7 +7154,7 @@
       <c r="R508" s="13"/>
       <c r="Y508" s="13"/>
     </row>
-    <row r="509" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:25" hidden="1">
       <c r="B509" s="11">
         <v>45977</v>
       </c>
@@ -7155,7 +7164,7 @@
       <c r="R509" s="13"/>
       <c r="Y509" s="13"/>
     </row>
-    <row r="510" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:25" hidden="1">
       <c r="B510" s="11">
         <v>45977</v>
       </c>
@@ -7165,7 +7174,7 @@
       <c r="R510" s="13"/>
       <c r="Y510" s="13"/>
     </row>
-    <row r="511" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:25" hidden="1">
       <c r="B511" s="11">
         <v>45977</v>
       </c>
@@ -7175,7 +7184,7 @@
       <c r="R511" s="13"/>
       <c r="Y511" s="13"/>
     </row>
-    <row r="512" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:25" hidden="1">
       <c r="B512" s="11">
         <v>45977</v>
       </c>
@@ -7185,7 +7194,7 @@
       <c r="R512" s="13"/>
       <c r="Y512" s="13"/>
     </row>
-    <row r="513" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:25" hidden="1">
       <c r="B513" s="11">
         <v>45977</v>
       </c>
@@ -7195,7 +7204,7 @@
       <c r="R513" s="13"/>
       <c r="Y513" s="13"/>
     </row>
-    <row r="514" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:25" hidden="1">
       <c r="B514" s="11">
         <v>45977</v>
       </c>
@@ -7205,7 +7214,7 @@
       <c r="R514" s="13"/>
       <c r="Y514" s="13"/>
     </row>
-    <row r="515" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:25" hidden="1">
       <c r="B515" s="11">
         <v>45978</v>
       </c>
@@ -7215,7 +7224,7 @@
       <c r="R515" s="13"/>
       <c r="Y515" s="13"/>
     </row>
-    <row r="516" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:25" hidden="1">
       <c r="B516" s="11">
         <v>45978</v>
       </c>
@@ -7225,7 +7234,7 @@
       <c r="R516" s="13"/>
       <c r="Y516" s="13"/>
     </row>
-    <row r="517" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:25" hidden="1">
       <c r="B517" s="11">
         <v>45978</v>
       </c>
@@ -7235,7 +7244,7 @@
       <c r="R517" s="13"/>
       <c r="Y517" s="13"/>
     </row>
-    <row r="518" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:25" hidden="1">
       <c r="B518" s="11">
         <v>45978</v>
       </c>
@@ -7245,7 +7254,7 @@
       <c r="R518" s="13"/>
       <c r="Y518" s="13"/>
     </row>
-    <row r="519" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:25" hidden="1">
       <c r="B519" s="11">
         <v>45978</v>
       </c>
@@ -7255,7 +7264,7 @@
       <c r="R519" s="13"/>
       <c r="Y519" s="13"/>
     </row>
-    <row r="520" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:25" hidden="1">
       <c r="B520" s="11">
         <v>45978</v>
       </c>
@@ -7265,7 +7274,7 @@
       <c r="R520" s="13"/>
       <c r="Y520" s="13"/>
     </row>
-    <row r="521" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:25" hidden="1">
       <c r="B521" s="11">
         <v>45978</v>
       </c>
@@ -7275,7 +7284,7 @@
       <c r="R521" s="13"/>
       <c r="Y521" s="13"/>
     </row>
-    <row r="522" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:25" hidden="1">
       <c r="B522" s="11">
         <v>45979</v>
       </c>
@@ -7285,7 +7294,7 @@
       <c r="R522" s="13"/>
       <c r="Y522" s="13"/>
     </row>
-    <row r="523" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:25" hidden="1">
       <c r="B523" s="11">
         <v>45979</v>
       </c>
@@ -7295,7 +7304,7 @@
       <c r="R523" s="13"/>
       <c r="Y523" s="13"/>
     </row>
-    <row r="524" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:25" hidden="1">
       <c r="B524" s="11">
         <v>45979</v>
       </c>
@@ -7305,7 +7314,7 @@
       <c r="R524" s="13"/>
       <c r="Y524" s="13"/>
     </row>
-    <row r="525" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:25" hidden="1">
       <c r="B525" s="11">
         <v>45979</v>
       </c>
@@ -7315,7 +7324,7 @@
       <c r="R525" s="13"/>
       <c r="Y525" s="13"/>
     </row>
-    <row r="526" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:25" hidden="1">
       <c r="B526" s="11">
         <v>45979</v>
       </c>
@@ -7325,7 +7334,7 @@
       <c r="R526" s="13"/>
       <c r="Y526" s="13"/>
     </row>
-    <row r="527" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:25" hidden="1">
       <c r="B527" s="11">
         <v>45979</v>
       </c>
@@ -7335,7 +7344,7 @@
       <c r="R527" s="13"/>
       <c r="Y527" s="13"/>
     </row>
-    <row r="528" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:25" hidden="1">
       <c r="B528" s="11">
         <v>45979</v>
       </c>
@@ -7345,7 +7354,7 @@
       <c r="R528" s="13"/>
       <c r="Y528" s="13"/>
     </row>
-    <row r="529" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:25" hidden="1">
       <c r="B529" s="11">
         <v>45980</v>
       </c>
@@ -7355,7 +7364,7 @@
       <c r="R529" s="13"/>
       <c r="Y529" s="13"/>
     </row>
-    <row r="530" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:25" hidden="1">
       <c r="B530" s="11">
         <v>45980</v>
       </c>
@@ -7365,7 +7374,7 @@
       <c r="R530" s="13"/>
       <c r="Y530" s="13"/>
     </row>
-    <row r="531" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:25" hidden="1">
       <c r="B531" s="11">
         <v>45980</v>
       </c>
@@ -7375,7 +7384,7 @@
       <c r="R531" s="13"/>
       <c r="Y531" s="13"/>
     </row>
-    <row r="532" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:25" hidden="1">
       <c r="B532" s="11">
         <v>45980</v>
       </c>
@@ -7385,7 +7394,7 @@
       <c r="R532" s="13"/>
       <c r="Y532" s="13"/>
     </row>
-    <row r="533" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:25" hidden="1">
       <c r="B533" s="11">
         <v>45980</v>
       </c>
@@ -7395,7 +7404,7 @@
       <c r="R533" s="13"/>
       <c r="Y533" s="13"/>
     </row>
-    <row r="534" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:25" hidden="1">
       <c r="B534" s="11">
         <v>45980</v>
       </c>
@@ -7405,7 +7414,7 @@
       <c r="R534" s="13"/>
       <c r="Y534" s="13"/>
     </row>
-    <row r="535" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:25" hidden="1">
       <c r="B535" s="11">
         <v>45980</v>
       </c>
@@ -7415,7 +7424,7 @@
       <c r="R535" s="13"/>
       <c r="Y535" s="13"/>
     </row>
-    <row r="536" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:25" hidden="1">
       <c r="B536" s="11">
         <v>45981</v>
       </c>
@@ -7425,7 +7434,7 @@
       <c r="R536" s="13"/>
       <c r="Y536" s="13"/>
     </row>
-    <row r="537" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:25" hidden="1">
       <c r="B537" s="11">
         <v>45981</v>
       </c>
@@ -7435,7 +7444,7 @@
       <c r="R537" s="13"/>
       <c r="Y537" s="13"/>
     </row>
-    <row r="538" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:25" hidden="1">
       <c r="B538" s="11">
         <v>45981</v>
       </c>
@@ -7445,7 +7454,7 @@
       <c r="R538" s="13"/>
       <c r="Y538" s="13"/>
     </row>
-    <row r="539" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:25" hidden="1">
       <c r="B539" s="11">
         <v>45981</v>
       </c>
@@ -7455,7 +7464,7 @@
       <c r="R539" s="13"/>
       <c r="Y539" s="13"/>
     </row>
-    <row r="540" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:25" hidden="1">
       <c r="B540" s="11">
         <v>45981</v>
       </c>
@@ -7465,7 +7474,7 @@
       <c r="R540" s="13"/>
       <c r="Y540" s="13"/>
     </row>
-    <row r="541" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:25" hidden="1">
       <c r="B541" s="11">
         <v>45981</v>
       </c>
@@ -7475,7 +7484,7 @@
       <c r="R541" s="13"/>
       <c r="Y541" s="13"/>
     </row>
-    <row r="542" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:25" hidden="1">
       <c r="B542" s="11">
         <v>45981</v>
       </c>
@@ -7485,7 +7494,7 @@
       <c r="R542" s="13"/>
       <c r="Y542" s="13"/>
     </row>
-    <row r="543" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:25" hidden="1">
       <c r="B543" s="11">
         <v>45982</v>
       </c>
@@ -7495,7 +7504,7 @@
       <c r="R543" s="13"/>
       <c r="Y543" s="13"/>
     </row>
-    <row r="544" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:25" hidden="1">
       <c r="B544" s="11">
         <v>45982</v>
       </c>
@@ -7505,7 +7514,7 @@
       <c r="R544" s="13"/>
       <c r="Y544" s="13"/>
     </row>
-    <row r="545" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:25" hidden="1">
       <c r="B545" s="11">
         <v>45982</v>
       </c>
@@ -7515,7 +7524,7 @@
       <c r="R545" s="13"/>
       <c r="Y545" s="13"/>
     </row>
-    <row r="546" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:25" hidden="1">
       <c r="B546" s="11">
         <v>45982</v>
       </c>
@@ -7525,7 +7534,7 @@
       <c r="R546" s="13"/>
       <c r="Y546" s="13"/>
     </row>
-    <row r="547" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:25" hidden="1">
       <c r="B547" s="11">
         <v>45982</v>
       </c>
@@ -7535,7 +7544,7 @@
       <c r="R547" s="13"/>
       <c r="Y547" s="13"/>
     </row>
-    <row r="548" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:25" hidden="1">
       <c r="B548" s="11">
         <v>45982</v>
       </c>
@@ -7545,7 +7554,7 @@
       <c r="R548" s="13"/>
       <c r="Y548" s="13"/>
     </row>
-    <row r="549" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:25" hidden="1">
       <c r="B549" s="11">
         <v>45982</v>
       </c>
@@ -7555,7 +7564,7 @@
       <c r="R549" s="13"/>
       <c r="Y549" s="13"/>
     </row>
-    <row r="550" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:25" hidden="1">
       <c r="B550" s="11">
         <v>45983</v>
       </c>
@@ -7565,7 +7574,7 @@
       <c r="R550" s="13"/>
       <c r="Y550" s="13"/>
     </row>
-    <row r="551" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:25" hidden="1">
       <c r="B551" s="11">
         <v>45983</v>
       </c>
@@ -7575,7 +7584,7 @@
       <c r="R551" s="13"/>
       <c r="Y551" s="13"/>
     </row>
-    <row r="552" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:25" hidden="1">
       <c r="B552" s="11">
         <v>45983</v>
       </c>
@@ -7585,7 +7594,7 @@
       <c r="R552" s="13"/>
       <c r="Y552" s="13"/>
     </row>
-    <row r="553" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:25" hidden="1">
       <c r="B553" s="11">
         <v>45983</v>
       </c>
@@ -7595,7 +7604,7 @@
       <c r="R553" s="13"/>
       <c r="Y553" s="13"/>
     </row>
-    <row r="554" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:25" hidden="1">
       <c r="B554" s="11">
         <v>45983</v>
       </c>
@@ -7605,7 +7614,7 @@
       <c r="R554" s="13"/>
       <c r="Y554" s="13"/>
     </row>
-    <row r="555" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:25" hidden="1">
       <c r="B555" s="11">
         <v>45983</v>
       </c>
@@ -7615,7 +7624,7 @@
       <c r="R555" s="13"/>
       <c r="Y555" s="13"/>
     </row>
-    <row r="556" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:25" hidden="1">
       <c r="B556" s="11">
         <v>45983</v>
       </c>
@@ -7625,7 +7634,7 @@
       <c r="R556" s="13"/>
       <c r="Y556" s="13"/>
     </row>
-    <row r="557" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:25" hidden="1">
       <c r="B557" s="11">
         <v>45984</v>
       </c>
@@ -7635,7 +7644,7 @@
       <c r="R557" s="13"/>
       <c r="Y557" s="13"/>
     </row>
-    <row r="558" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:25" hidden="1">
       <c r="B558" s="11">
         <v>45984</v>
       </c>
@@ -7645,7 +7654,7 @@
       <c r="R558" s="13"/>
       <c r="Y558" s="13"/>
     </row>
-    <row r="559" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:25" hidden="1">
       <c r="B559" s="11">
         <v>45984</v>
       </c>
@@ -7655,7 +7664,7 @@
       <c r="R559" s="13"/>
       <c r="Y559" s="13"/>
     </row>
-    <row r="560" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:25" hidden="1">
       <c r="B560" s="11">
         <v>45984</v>
       </c>
@@ -7665,7 +7674,7 @@
       <c r="R560" s="13"/>
       <c r="Y560" s="13"/>
     </row>
-    <row r="561" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:25" hidden="1">
       <c r="B561" s="11">
         <v>45984</v>
       </c>
@@ -7675,7 +7684,7 @@
       <c r="R561" s="13"/>
       <c r="Y561" s="13"/>
     </row>
-    <row r="562" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:25" hidden="1">
       <c r="B562" s="11">
         <v>45984</v>
       </c>
@@ -7685,7 +7694,7 @@
       <c r="R562" s="13"/>
       <c r="Y562" s="13"/>
     </row>
-    <row r="563" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:25" hidden="1">
       <c r="B563" s="11">
         <v>45984</v>
       </c>
@@ -7695,7 +7704,7 @@
       <c r="R563" s="13"/>
       <c r="Y563" s="13"/>
     </row>
-    <row r="564" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:25" hidden="1">
       <c r="B564" s="11">
         <v>45985</v>
       </c>
@@ -7705,7 +7714,7 @@
       <c r="R564" s="13"/>
       <c r="Y564" s="13"/>
     </row>
-    <row r="565" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:25" hidden="1">
       <c r="B565" s="11">
         <v>45985</v>
       </c>
@@ -7715,7 +7724,7 @@
       <c r="R565" s="13"/>
       <c r="Y565" s="13"/>
     </row>
-    <row r="566" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:25" hidden="1">
       <c r="B566" s="11">
         <v>45985</v>
       </c>
@@ -7725,7 +7734,7 @@
       <c r="R566" s="13"/>
       <c r="Y566" s="13"/>
     </row>
-    <row r="567" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:25" hidden="1">
       <c r="B567" s="11">
         <v>45985</v>
       </c>
@@ -7735,7 +7744,7 @@
       <c r="R567" s="13"/>
       <c r="Y567" s="13"/>
     </row>
-    <row r="568" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:25" hidden="1">
       <c r="B568" s="11">
         <v>45985</v>
       </c>
@@ -7745,7 +7754,7 @@
       <c r="R568" s="13"/>
       <c r="Y568" s="13"/>
     </row>
-    <row r="569" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:25" hidden="1">
       <c r="B569" s="11">
         <v>45985</v>
       </c>
@@ -7755,7 +7764,7 @@
       <c r="R569" s="13"/>
       <c r="Y569" s="13"/>
     </row>
-    <row r="570" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:25" hidden="1">
       <c r="B570" s="11">
         <v>45985</v>
       </c>
@@ -7765,7 +7774,7 @@
       <c r="R570" s="13"/>
       <c r="Y570" s="13"/>
     </row>
-    <row r="571" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:25" hidden="1">
       <c r="B571" s="11">
         <v>45986</v>
       </c>
@@ -7775,7 +7784,7 @@
       <c r="R571" s="13"/>
       <c r="Y571" s="13"/>
     </row>
-    <row r="572" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:25" hidden="1">
       <c r="B572" s="11">
         <v>45986</v>
       </c>
@@ -7785,7 +7794,7 @@
       <c r="R572" s="13"/>
       <c r="Y572" s="13"/>
     </row>
-    <row r="573" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:25" hidden="1">
       <c r="B573" s="11">
         <v>45986</v>
       </c>
@@ -7795,7 +7804,7 @@
       <c r="R573" s="13"/>
       <c r="Y573" s="13"/>
     </row>
-    <row r="574" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:25" hidden="1">
       <c r="B574" s="11">
         <v>45986</v>
       </c>
@@ -7805,7 +7814,7 @@
       <c r="R574" s="13"/>
       <c r="Y574" s="13"/>
     </row>
-    <row r="575" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:25" hidden="1">
       <c r="B575" s="11">
         <v>45986</v>
       </c>
@@ -7815,7 +7824,7 @@
       <c r="R575" s="13"/>
       <c r="Y575" s="13"/>
     </row>
-    <row r="576" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:25" hidden="1">
       <c r="B576" s="11">
         <v>45986</v>
       </c>
@@ -7825,7 +7834,7 @@
       <c r="R576" s="13"/>
       <c r="Y576" s="13"/>
     </row>
-    <row r="577" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:25" hidden="1">
       <c r="B577" s="11">
         <v>45986</v>
       </c>
@@ -7835,7 +7844,7 @@
       <c r="R577" s="13"/>
       <c r="Y577" s="13"/>
     </row>
-    <row r="578" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:25" hidden="1">
       <c r="B578" s="11">
         <v>45987</v>
       </c>
@@ -7845,7 +7854,7 @@
       <c r="R578" s="13"/>
       <c r="Y578" s="13"/>
     </row>
-    <row r="579" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:25" hidden="1">
       <c r="B579" s="11">
         <v>45987</v>
       </c>
@@ -7855,7 +7864,7 @@
       <c r="R579" s="13"/>
       <c r="Y579" s="13"/>
     </row>
-    <row r="580" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:25" hidden="1">
       <c r="B580" s="11">
         <v>45987</v>
       </c>
@@ -7865,7 +7874,7 @@
       <c r="R580" s="13"/>
       <c r="Y580" s="13"/>
     </row>
-    <row r="581" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:25" hidden="1">
       <c r="B581" s="11">
         <v>45987</v>
       </c>
@@ -7875,7 +7884,7 @@
       <c r="R581" s="13"/>
       <c r="Y581" s="13"/>
     </row>
-    <row r="582" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:25" hidden="1">
       <c r="B582" s="11">
         <v>45987</v>
       </c>
@@ -7885,7 +7894,7 @@
       <c r="R582" s="13"/>
       <c r="Y582" s="13"/>
     </row>
-    <row r="583" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:25" hidden="1">
       <c r="B583" s="11">
         <v>45987</v>
       </c>
@@ -7895,7 +7904,7 @@
       <c r="R583" s="13"/>
       <c r="Y583" s="13"/>
     </row>
-    <row r="584" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:25" hidden="1">
       <c r="B584" s="11">
         <v>45987</v>
       </c>
@@ -7905,7 +7914,7 @@
       <c r="R584" s="13"/>
       <c r="Y584" s="13"/>
     </row>
-    <row r="585" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:25" hidden="1">
       <c r="B585" s="11">
         <v>45988</v>
       </c>
@@ -7915,7 +7924,7 @@
       <c r="R585" s="13"/>
       <c r="Y585" s="13"/>
     </row>
-    <row r="586" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:25" hidden="1">
       <c r="B586" s="11">
         <v>45988</v>
       </c>
@@ -7925,7 +7934,7 @@
       <c r="R586" s="13"/>
       <c r="Y586" s="13"/>
     </row>
-    <row r="587" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:25" hidden="1">
       <c r="B587" s="11">
         <v>45988</v>
       </c>
@@ -7935,7 +7944,7 @@
       <c r="R587" s="13"/>
       <c r="Y587" s="13"/>
     </row>
-    <row r="588" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:25" hidden="1">
       <c r="B588" s="11">
         <v>45988</v>
       </c>
@@ -7945,7 +7954,7 @@
       <c r="R588" s="13"/>
       <c r="Y588" s="13"/>
     </row>
-    <row r="589" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:25" hidden="1">
       <c r="B589" s="11">
         <v>45988</v>
       </c>
@@ -7955,7 +7964,7 @@
       <c r="R589" s="13"/>
       <c r="Y589" s="13"/>
     </row>
-    <row r="590" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:25" hidden="1">
       <c r="B590" s="11">
         <v>45988</v>
       </c>
@@ -7965,7 +7974,7 @@
       <c r="R590" s="13"/>
       <c r="Y590" s="13"/>
     </row>
-    <row r="591" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:25" hidden="1">
       <c r="B591" s="11">
         <v>45988</v>
       </c>
@@ -7975,7 +7984,7 @@
       <c r="R591" s="13"/>
       <c r="Y591" s="13"/>
     </row>
-    <row r="592" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:25" hidden="1">
       <c r="B592" s="11">
         <v>45989</v>
       </c>
@@ -7985,7 +7994,7 @@
       <c r="R592" s="13"/>
       <c r="Y592" s="13"/>
     </row>
-    <row r="593" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:25" hidden="1">
       <c r="B593" s="11">
         <v>45989</v>
       </c>
@@ -7995,7 +8004,7 @@
       <c r="R593" s="13"/>
       <c r="Y593" s="13"/>
     </row>
-    <row r="594" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:25" hidden="1">
       <c r="B594" s="11">
         <v>45989</v>
       </c>
@@ -8005,7 +8014,7 @@
       <c r="R594" s="13"/>
       <c r="Y594" s="13"/>
     </row>
-    <row r="595" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:25" hidden="1">
       <c r="B595" s="11">
         <v>45989</v>
       </c>
@@ -8015,7 +8024,7 @@
       <c r="R595" s="13"/>
       <c r="Y595" s="13"/>
     </row>
-    <row r="596" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:25" hidden="1">
       <c r="B596" s="11">
         <v>45989</v>
       </c>
@@ -8025,7 +8034,7 @@
       <c r="R596" s="13"/>
       <c r="Y596" s="13"/>
     </row>
-    <row r="597" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:25" hidden="1">
       <c r="B597" s="11">
         <v>45989</v>
       </c>
@@ -8035,7 +8044,7 @@
       <c r="R597" s="13"/>
       <c r="Y597" s="13"/>
     </row>
-    <row r="598" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:25" hidden="1">
       <c r="B598" s="11">
         <v>45989</v>
       </c>
@@ -8045,7 +8054,7 @@
       <c r="R598" s="13"/>
       <c r="Y598" s="13"/>
     </row>
-    <row r="599" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:25" hidden="1">
       <c r="B599" s="11">
         <v>45990</v>
       </c>
@@ -8055,7 +8064,7 @@
       <c r="R599" s="13"/>
       <c r="Y599" s="13"/>
     </row>
-    <row r="600" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:25" hidden="1">
       <c r="B600" s="11">
         <v>45990</v>
       </c>
@@ -8065,7 +8074,7 @@
       <c r="R600" s="13"/>
       <c r="Y600" s="13"/>
     </row>
-    <row r="601" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:25" hidden="1">
       <c r="B601" s="11">
         <v>45990</v>
       </c>
@@ -8075,7 +8084,7 @@
       <c r="R601" s="13"/>
       <c r="Y601" s="13"/>
     </row>
-    <row r="602" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:25" hidden="1">
       <c r="B602" s="11">
         <v>45990</v>
       </c>
@@ -8085,7 +8094,7 @@
       <c r="R602" s="13"/>
       <c r="Y602" s="13"/>
     </row>
-    <row r="603" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:25" hidden="1">
       <c r="B603" s="11">
         <v>45990</v>
       </c>
@@ -8095,7 +8104,7 @@
       <c r="R603" s="13"/>
       <c r="Y603" s="13"/>
     </row>
-    <row r="604" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:25" hidden="1">
       <c r="B604" s="11">
         <v>45990</v>
       </c>
@@ -8105,7 +8114,7 @@
       <c r="R604" s="13"/>
       <c r="Y604" s="13"/>
     </row>
-    <row r="605" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:25" hidden="1">
       <c r="B605" s="11">
         <v>45990</v>
       </c>
@@ -8115,7 +8124,7 @@
       <c r="R605" s="13"/>
       <c r="Y605" s="13"/>
     </row>
-    <row r="606" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:25" hidden="1">
       <c r="B606" s="11">
         <v>45991</v>
       </c>
@@ -8125,7 +8134,7 @@
       <c r="R606" s="13"/>
       <c r="Y606" s="13"/>
     </row>
-    <row r="607" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:25" hidden="1">
       <c r="B607" s="11">
         <v>45991</v>
       </c>
@@ -8135,7 +8144,7 @@
       <c r="R607" s="13"/>
       <c r="Y607" s="13"/>
     </row>
-    <row r="608" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:25" hidden="1">
       <c r="B608" s="11">
         <v>45991</v>
       </c>
@@ -8145,7 +8154,7 @@
       <c r="R608" s="13"/>
       <c r="Y608" s="13"/>
     </row>
-    <row r="609" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:25" hidden="1">
       <c r="B609" s="11">
         <v>45991</v>
       </c>
@@ -8155,7 +8164,7 @@
       <c r="R609" s="13"/>
       <c r="Y609" s="13"/>
     </row>
-    <row r="610" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:25" hidden="1">
       <c r="B610" s="11">
         <v>45991</v>
       </c>
@@ -8165,7 +8174,7 @@
       <c r="R610" s="13"/>
       <c r="Y610" s="13"/>
     </row>
-    <row r="611" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:25" hidden="1">
       <c r="B611" s="11">
         <v>45991</v>
       </c>
@@ -8175,7 +8184,7 @@
       <c r="R611" s="13"/>
       <c r="Y611" s="13"/>
     </row>
-    <row r="612" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:25" hidden="1">
       <c r="B612" s="11">
         <v>45991</v>
       </c>
@@ -8185,7 +8194,7 @@
       <c r="R612" s="13"/>
       <c r="Y612" s="13"/>
     </row>
-    <row r="613" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:25" hidden="1">
       <c r="B613" s="11">
         <v>45992</v>
       </c>
@@ -8195,7 +8204,7 @@
       <c r="R613" s="13"/>
       <c r="Y613" s="13"/>
     </row>
-    <row r="614" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:25" hidden="1">
       <c r="B614" s="11">
         <v>45992</v>
       </c>
@@ -8205,7 +8214,7 @@
       <c r="R614" s="13"/>
       <c r="Y614" s="13"/>
     </row>
-    <row r="615" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:25" hidden="1">
       <c r="B615" s="11">
         <v>45992</v>
       </c>
@@ -8215,7 +8224,7 @@
       <c r="R615" s="13"/>
       <c r="Y615" s="13"/>
     </row>
-    <row r="616" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:25" hidden="1">
       <c r="B616" s="11">
         <v>45992</v>
       </c>
@@ -8225,7 +8234,7 @@
       <c r="R616" s="13"/>
       <c r="Y616" s="13"/>
     </row>
-    <row r="617" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:25" hidden="1">
       <c r="B617" s="11">
         <v>45992</v>
       </c>
@@ -8235,7 +8244,7 @@
       <c r="R617" s="13"/>
       <c r="Y617" s="13"/>
     </row>
-    <row r="618" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:25" hidden="1">
       <c r="B618" s="11">
         <v>45992</v>
       </c>
@@ -8245,7 +8254,7 @@
       <c r="R618" s="13"/>
       <c r="Y618" s="13"/>
     </row>
-    <row r="619" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:25" hidden="1">
       <c r="B619" s="11">
         <v>45992</v>
       </c>
@@ -8255,7 +8264,7 @@
       <c r="R619" s="13"/>
       <c r="Y619" s="13"/>
     </row>
-    <row r="620" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:25" hidden="1">
       <c r="B620" s="11">
         <v>45993</v>
       </c>
@@ -8265,7 +8274,7 @@
       <c r="R620" s="13"/>
       <c r="Y620" s="13"/>
     </row>
-    <row r="621" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:25" hidden="1">
       <c r="B621" s="11">
         <v>45993</v>
       </c>
@@ -8275,7 +8284,7 @@
       <c r="R621" s="13"/>
       <c r="Y621" s="13"/>
     </row>
-    <row r="622" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:25" hidden="1">
       <c r="B622" s="11">
         <v>45993</v>
       </c>
@@ -8285,7 +8294,7 @@
       <c r="R622" s="13"/>
       <c r="Y622" s="13"/>
     </row>
-    <row r="623" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:25" hidden="1">
       <c r="B623" s="11">
         <v>45993</v>
       </c>
@@ -8295,7 +8304,7 @@
       <c r="R623" s="13"/>
       <c r="Y623" s="13"/>
     </row>
-    <row r="624" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:25" hidden="1">
       <c r="B624" s="11">
         <v>45993</v>
       </c>
@@ -8305,7 +8314,7 @@
       <c r="R624" s="13"/>
       <c r="Y624" s="13"/>
     </row>
-    <row r="625" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:25" hidden="1">
       <c r="B625" s="11">
         <v>45993</v>
       </c>
@@ -8315,7 +8324,7 @@
       <c r="R625" s="13"/>
       <c r="Y625" s="13"/>
     </row>
-    <row r="626" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:25" hidden="1">
       <c r="B626" s="11">
         <v>45993</v>
       </c>
@@ -8325,7 +8334,7 @@
       <c r="R626" s="13"/>
       <c r="Y626" s="13"/>
     </row>
-    <row r="627" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:25" hidden="1">
       <c r="B627" s="11">
         <v>45994</v>
       </c>
@@ -8335,7 +8344,7 @@
       <c r="R627" s="13"/>
       <c r="Y627" s="13"/>
     </row>
-    <row r="628" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:25" hidden="1">
       <c r="B628" s="11">
         <v>45994</v>
       </c>
@@ -8345,7 +8354,7 @@
       <c r="R628" s="13"/>
       <c r="Y628" s="13"/>
     </row>
-    <row r="629" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:25" hidden="1">
       <c r="B629" s="11">
         <v>45994</v>
       </c>
@@ -8355,7 +8364,7 @@
       <c r="R629" s="13"/>
       <c r="Y629" s="13"/>
     </row>
-    <row r="630" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:25" hidden="1">
       <c r="B630" s="11">
         <v>45994</v>
       </c>
@@ -8365,7 +8374,7 @@
       <c r="R630" s="13"/>
       <c r="Y630" s="13"/>
     </row>
-    <row r="631" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:25" hidden="1">
       <c r="B631" s="11">
         <v>45994</v>
       </c>
@@ -8375,7 +8384,7 @@
       <c r="R631" s="13"/>
       <c r="Y631" s="13"/>
     </row>
-    <row r="632" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:25" hidden="1">
       <c r="B632" s="11">
         <v>45994</v>
       </c>
@@ -8385,7 +8394,7 @@
       <c r="R632" s="13"/>
       <c r="Y632" s="13"/>
     </row>
-    <row r="633" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:25" hidden="1">
       <c r="B633" s="11">
         <v>45994</v>
       </c>
@@ -8395,7 +8404,7 @@
       <c r="R633" s="13"/>
       <c r="Y633" s="13"/>
     </row>
-    <row r="634" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:25" hidden="1">
       <c r="B634" s="11">
         <v>45995</v>
       </c>
@@ -8405,7 +8414,7 @@
       <c r="R634" s="13"/>
       <c r="Y634" s="13"/>
     </row>
-    <row r="635" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:25" hidden="1">
       <c r="B635" s="11">
         <v>45995</v>
       </c>
@@ -8415,7 +8424,7 @@
       <c r="R635" s="13"/>
       <c r="Y635" s="13"/>
     </row>
-    <row r="636" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:25" hidden="1">
       <c r="B636" s="11">
         <v>45995</v>
       </c>
@@ -8425,7 +8434,7 @@
       <c r="R636" s="13"/>
       <c r="Y636" s="13"/>
     </row>
-    <row r="637" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:25" hidden="1">
       <c r="B637" s="11">
         <v>45995</v>
       </c>
@@ -8435,7 +8444,7 @@
       <c r="R637" s="13"/>
       <c r="Y637" s="13"/>
     </row>
-    <row r="638" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:25" hidden="1">
       <c r="B638" s="11">
         <v>45995</v>
       </c>
@@ -8445,7 +8454,7 @@
       <c r="R638" s="13"/>
       <c r="Y638" s="13"/>
     </row>
-    <row r="639" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:25" hidden="1">
       <c r="B639" s="11">
         <v>45995</v>
       </c>
@@ -8455,7 +8464,7 @@
       <c r="R639" s="13"/>
       <c r="Y639" s="13"/>
     </row>
-    <row r="640" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:25" hidden="1">
       <c r="B640" s="11">
         <v>45995</v>
       </c>
@@ -8465,7 +8474,7 @@
       <c r="R640" s="13"/>
       <c r="Y640" s="13"/>
     </row>
-    <row r="641" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:25" hidden="1">
       <c r="B641" s="11">
         <v>45996</v>
       </c>
@@ -8475,7 +8484,7 @@
       <c r="R641" s="13"/>
       <c r="Y641" s="13"/>
     </row>
-    <row r="642" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:25" hidden="1">
       <c r="B642" s="11">
         <v>45996</v>
       </c>
@@ -8485,7 +8494,7 @@
       <c r="R642" s="13"/>
       <c r="Y642" s="13"/>
     </row>
-    <row r="643" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:25" hidden="1">
       <c r="B643" s="11">
         <v>45996</v>
       </c>
@@ -8495,7 +8504,7 @@
       <c r="R643" s="13"/>
       <c r="Y643" s="13"/>
     </row>
-    <row r="644" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:25" hidden="1">
       <c r="B644" s="11">
         <v>45996</v>
       </c>
@@ -8505,7 +8514,7 @@
       <c r="R644" s="13"/>
       <c r="Y644" s="13"/>
     </row>
-    <row r="645" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:25" hidden="1">
       <c r="B645" s="11">
         <v>45996</v>
       </c>
@@ -8515,7 +8524,7 @@
       <c r="R645" s="13"/>
       <c r="Y645" s="13"/>
     </row>
-    <row r="646" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:25" hidden="1">
       <c r="B646" s="11">
         <v>45996</v>
       </c>
@@ -8525,7 +8534,7 @@
       <c r="R646" s="13"/>
       <c r="Y646" s="13"/>
     </row>
-    <row r="647" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:25" hidden="1">
       <c r="B647" s="11">
         <v>45996</v>
       </c>
@@ -8535,7 +8544,7 @@
       <c r="R647" s="13"/>
       <c r="Y647" s="13"/>
     </row>
-    <row r="648" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:25" hidden="1">
       <c r="B648" s="11">
         <v>45997</v>
       </c>
@@ -8545,7 +8554,7 @@
       <c r="R648" s="13"/>
       <c r="Y648" s="13"/>
     </row>
-    <row r="649" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:25" hidden="1">
       <c r="B649" s="11">
         <v>45997</v>
       </c>
@@ -8555,7 +8564,7 @@
       <c r="R649" s="13"/>
       <c r="Y649" s="13"/>
     </row>
-    <row r="650" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:25" hidden="1">
       <c r="B650" s="11">
         <v>45997</v>
       </c>
@@ -8565,7 +8574,7 @@
       <c r="R650" s="13"/>
       <c r="Y650" s="13"/>
     </row>
-    <row r="651" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:25" hidden="1">
       <c r="B651" s="11">
         <v>45997</v>
       </c>
@@ -8575,7 +8584,7 @@
       <c r="R651" s="13"/>
       <c r="Y651" s="13"/>
     </row>
-    <row r="652" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:25" hidden="1">
       <c r="B652" s="11">
         <v>45997</v>
       </c>
@@ -8585,7 +8594,7 @@
       <c r="R652" s="13"/>
       <c r="Y652" s="13"/>
     </row>
-    <row r="653" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:25" hidden="1">
       <c r="B653" s="11">
         <v>45997</v>
       </c>
@@ -8595,7 +8604,7 @@
       <c r="R653" s="13"/>
       <c r="Y653" s="13"/>
     </row>
-    <row r="654" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:25" hidden="1">
       <c r="B654" s="11">
         <v>45997</v>
       </c>
@@ -8605,7 +8614,7 @@
       <c r="R654" s="13"/>
       <c r="Y654" s="13"/>
     </row>
-    <row r="655" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:25" hidden="1">
       <c r="B655" s="11">
         <v>45998</v>
       </c>
@@ -8615,7 +8624,7 @@
       <c r="R655" s="13"/>
       <c r="Y655" s="13"/>
     </row>
-    <row r="656" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:25" hidden="1">
       <c r="B656" s="11">
         <v>45998</v>
       </c>
@@ -8625,7 +8634,7 @@
       <c r="R656" s="13"/>
       <c r="Y656" s="13"/>
     </row>
-    <row r="657" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:25" hidden="1">
       <c r="B657" s="11">
         <v>45998</v>
       </c>
@@ -8635,7 +8644,7 @@
       <c r="R657" s="13"/>
       <c r="Y657" s="13"/>
     </row>
-    <row r="658" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:25" hidden="1">
       <c r="B658" s="11">
         <v>45998</v>
       </c>
@@ -8645,7 +8654,7 @@
       <c r="R658" s="13"/>
       <c r="Y658" s="13"/>
     </row>
-    <row r="659" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:25" hidden="1">
       <c r="B659" s="11">
         <v>45998</v>
       </c>
@@ -8655,7 +8664,7 @@
       <c r="R659" s="13"/>
       <c r="Y659" s="13"/>
     </row>
-    <row r="660" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:25" hidden="1">
       <c r="B660" s="11">
         <v>45998</v>
       </c>
@@ -8665,7 +8674,7 @@
       <c r="R660" s="13"/>
       <c r="Y660" s="13"/>
     </row>
-    <row r="661" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:25" hidden="1">
       <c r="B661" s="11">
         <v>45998</v>
       </c>
@@ -8675,7 +8684,7 @@
       <c r="R661" s="13"/>
       <c r="Y661" s="13"/>
     </row>
-    <row r="662" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:25" hidden="1">
       <c r="B662" s="11">
         <v>45999</v>
       </c>
@@ -8685,7 +8694,7 @@
       <c r="R662" s="13"/>
       <c r="Y662" s="13"/>
     </row>
-    <row r="663" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:25" hidden="1">
       <c r="B663" s="11">
         <v>45999</v>
       </c>
@@ -8695,7 +8704,7 @@
       <c r="R663" s="13"/>
       <c r="Y663" s="13"/>
     </row>
-    <row r="664" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:25" hidden="1">
       <c r="B664" s="11">
         <v>45999</v>
       </c>
@@ -8705,7 +8714,7 @@
       <c r="R664" s="13"/>
       <c r="Y664" s="13"/>
     </row>
-    <row r="665" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:25" hidden="1">
       <c r="B665" s="11">
         <v>45999</v>
       </c>
@@ -8715,7 +8724,7 @@
       <c r="R665" s="13"/>
       <c r="Y665" s="13"/>
     </row>
-    <row r="666" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:25" hidden="1">
       <c r="B666" s="11">
         <v>45999</v>
       </c>
@@ -8725,7 +8734,7 @@
       <c r="R666" s="13"/>
       <c r="Y666" s="13"/>
     </row>
-    <row r="667" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:25" hidden="1">
       <c r="B667" s="11">
         <v>45999</v>
       </c>
@@ -8735,7 +8744,7 @@
       <c r="R667" s="13"/>
       <c r="Y667" s="13"/>
     </row>
-    <row r="668" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:25" hidden="1">
       <c r="B668" s="11">
         <v>45999</v>
       </c>
@@ -8745,7 +8754,7 @@
       <c r="R668" s="13"/>
       <c r="Y668" s="13"/>
     </row>
-    <row r="669" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:25" hidden="1">
       <c r="B669" s="11">
         <v>46000</v>
       </c>
@@ -8755,7 +8764,7 @@
       <c r="R669" s="13"/>
       <c r="Y669" s="13"/>
     </row>
-    <row r="670" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:25" hidden="1">
       <c r="B670" s="11">
         <v>46000</v>
       </c>
@@ -8765,7 +8774,7 @@
       <c r="R670" s="13"/>
       <c r="Y670" s="13"/>
     </row>
-    <row r="671" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:25" hidden="1">
       <c r="B671" s="11">
         <v>46000</v>
       </c>
@@ -8775,7 +8784,7 @@
       <c r="R671" s="13"/>
       <c r="Y671" s="13"/>
     </row>
-    <row r="672" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:25" hidden="1">
       <c r="B672" s="11">
         <v>46000</v>
       </c>
@@ -8785,7 +8794,7 @@
       <c r="R672" s="13"/>
       <c r="Y672" s="13"/>
     </row>
-    <row r="673" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:25" hidden="1">
       <c r="B673" s="11">
         <v>46000</v>
       </c>
@@ -8795,7 +8804,7 @@
       <c r="R673" s="13"/>
       <c r="Y673" s="13"/>
     </row>
-    <row r="674" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:25" hidden="1">
       <c r="B674" s="11">
         <v>46000</v>
       </c>
@@ -8805,7 +8814,7 @@
       <c r="R674" s="13"/>
       <c r="Y674" s="13"/>
     </row>
-    <row r="675" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:25" hidden="1">
       <c r="B675" s="11">
         <v>46000</v>
       </c>
@@ -8815,7 +8824,7 @@
       <c r="R675" s="13"/>
       <c r="Y675" s="13"/>
     </row>
-    <row r="676" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:25" hidden="1">
       <c r="B676" s="11">
         <v>46001</v>
       </c>
@@ -8825,7 +8834,7 @@
       <c r="R676" s="13"/>
       <c r="Y676" s="13"/>
     </row>
-    <row r="677" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:25" hidden="1">
       <c r="B677" s="11">
         <v>46001</v>
       </c>
@@ -8835,7 +8844,7 @@
       <c r="R677" s="13"/>
       <c r="Y677" s="13"/>
     </row>
-    <row r="678" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:25" hidden="1">
       <c r="B678" s="11">
         <v>46001</v>
       </c>
@@ -8845,7 +8854,7 @@
       <c r="R678" s="13"/>
       <c r="Y678" s="13"/>
     </row>
-    <row r="679" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:25" hidden="1">
       <c r="B679" s="11">
         <v>46001</v>
       </c>
@@ -8855,7 +8864,7 @@
       <c r="R679" s="13"/>
       <c r="Y679" s="13"/>
     </row>
-    <row r="680" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:25" hidden="1">
       <c r="B680" s="11">
         <v>46001</v>
       </c>
@@ -8865,7 +8874,7 @@
       <c r="R680" s="13"/>
       <c r="Y680" s="13"/>
     </row>
-    <row r="681" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:25" hidden="1">
       <c r="B681" s="11">
         <v>46001</v>
       </c>
@@ -8875,7 +8884,7 @@
       <c r="R681" s="13"/>
       <c r="Y681" s="13"/>
     </row>
-    <row r="682" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:25" hidden="1">
       <c r="B682" s="11">
         <v>46001</v>
       </c>
@@ -8885,7 +8894,7 @@
       <c r="R682" s="13"/>
       <c r="Y682" s="13"/>
     </row>
-    <row r="683" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:25" hidden="1">
       <c r="B683" s="11">
         <v>46002</v>
       </c>
@@ -8895,7 +8904,7 @@
       <c r="R683" s="13"/>
       <c r="Y683" s="13"/>
     </row>
-    <row r="684" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:25" hidden="1">
       <c r="B684" s="11">
         <v>46002</v>
       </c>
@@ -8905,7 +8914,7 @@
       <c r="R684" s="13"/>
       <c r="Y684" s="13"/>
     </row>
-    <row r="685" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:25" hidden="1">
       <c r="B685" s="11">
         <v>46002</v>
       </c>
@@ -8915,7 +8924,7 @@
       <c r="R685" s="13"/>
       <c r="Y685" s="13"/>
     </row>
-    <row r="686" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:25" hidden="1">
       <c r="B686" s="11">
         <v>46002</v>
       </c>
@@ -8925,7 +8934,7 @@
       <c r="R686" s="13"/>
       <c r="Y686" s="13"/>
     </row>
-    <row r="687" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:25" hidden="1">
       <c r="B687" s="11">
         <v>46002</v>
       </c>
@@ -8935,7 +8944,7 @@
       <c r="R687" s="13"/>
       <c r="Y687" s="13"/>
     </row>
-    <row r="688" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:25" hidden="1">
       <c r="B688" s="11">
         <v>46002</v>
       </c>
@@ -8945,7 +8954,7 @@
       <c r="R688" s="13"/>
       <c r="Y688" s="13"/>
     </row>
-    <row r="689" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:25" hidden="1">
       <c r="B689" s="11">
         <v>46002</v>
       </c>
@@ -8955,7 +8964,7 @@
       <c r="R689" s="13"/>
       <c r="Y689" s="13"/>
     </row>
-    <row r="690" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:25" hidden="1">
       <c r="B690" s="11">
         <v>46003</v>
       </c>
@@ -8965,7 +8974,7 @@
       <c r="R690" s="13"/>
       <c r="Y690" s="13"/>
     </row>
-    <row r="691" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:25" hidden="1">
       <c r="B691" s="11">
         <v>46003</v>
       </c>
@@ -8975,7 +8984,7 @@
       <c r="R691" s="13"/>
       <c r="Y691" s="13"/>
     </row>
-    <row r="692" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:25" hidden="1">
       <c r="B692" s="11">
         <v>46003</v>
       </c>
@@ -8985,7 +8994,7 @@
       <c r="R692" s="13"/>
       <c r="Y692" s="13"/>
     </row>
-    <row r="693" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:25" hidden="1">
       <c r="B693" s="11">
         <v>46003</v>
       </c>
@@ -8995,7 +9004,7 @@
       <c r="R693" s="13"/>
       <c r="Y693" s="13"/>
     </row>
-    <row r="694" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:25" hidden="1">
       <c r="B694" s="11">
         <v>46003</v>
       </c>
@@ -9005,7 +9014,7 @@
       <c r="R694" s="13"/>
       <c r="Y694" s="13"/>
     </row>
-    <row r="695" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:25" hidden="1">
       <c r="B695" s="11">
         <v>46003</v>
       </c>
@@ -9015,7 +9024,7 @@
       <c r="R695" s="13"/>
       <c r="Y695" s="13"/>
     </row>
-    <row r="696" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:25" hidden="1">
       <c r="B696" s="11">
         <v>46003</v>
       </c>
@@ -9025,7 +9034,7 @@
       <c r="R696" s="13"/>
       <c r="Y696" s="13"/>
     </row>
-    <row r="697" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:25" hidden="1">
       <c r="B697" s="11">
         <v>46004</v>
       </c>
@@ -9035,7 +9044,7 @@
       <c r="R697" s="13"/>
       <c r="Y697" s="13"/>
     </row>
-    <row r="698" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:25" hidden="1">
       <c r="B698" s="11">
         <v>46004</v>
       </c>
@@ -9045,7 +9054,7 @@
       <c r="R698" s="13"/>
       <c r="Y698" s="13"/>
     </row>
-    <row r="699" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:25" hidden="1">
       <c r="B699" s="11">
         <v>46004</v>
       </c>
@@ -9055,7 +9064,7 @@
       <c r="R699" s="13"/>
       <c r="Y699" s="13"/>
     </row>
-    <row r="700" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:25" hidden="1">
       <c r="B700" s="11">
         <v>46004</v>
       </c>
@@ -9065,7 +9074,7 @@
       <c r="R700" s="13"/>
       <c r="Y700" s="13"/>
     </row>
-    <row r="701" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:25" hidden="1">
       <c r="B701" s="11">
         <v>46004</v>
       </c>
@@ -9075,7 +9084,7 @@
       <c r="R701" s="13"/>
       <c r="Y701" s="13"/>
     </row>
-    <row r="702" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:25" hidden="1">
       <c r="B702" s="11">
         <v>46004</v>
       </c>
@@ -9085,7 +9094,7 @@
       <c r="R702" s="13"/>
       <c r="Y702" s="13"/>
     </row>
-    <row r="703" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:25" hidden="1">
       <c r="B703" s="11">
         <v>46004</v>
       </c>
@@ -9095,7 +9104,7 @@
       <c r="R703" s="13"/>
       <c r="Y703" s="13"/>
     </row>
-    <row r="704" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:25" hidden="1">
       <c r="B704" s="11">
         <v>46005</v>
       </c>
@@ -9105,7 +9114,7 @@
       <c r="R704" s="13"/>
       <c r="Y704" s="13"/>
     </row>
-    <row r="705" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:25" hidden="1">
       <c r="B705" s="11">
         <v>46005</v>
       </c>
@@ -9115,7 +9124,7 @@
       <c r="R705" s="13"/>
       <c r="Y705" s="13"/>
     </row>
-    <row r="706" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:25" hidden="1">
       <c r="B706" s="11">
         <v>46005</v>
       </c>
@@ -9125,7 +9134,7 @@
       <c r="R706" s="13"/>
       <c r="Y706" s="13"/>
     </row>
-    <row r="707" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:25" hidden="1">
       <c r="B707" s="11">
         <v>46005</v>
       </c>
@@ -9135,7 +9144,7 @@
       <c r="R707" s="13"/>
       <c r="Y707" s="13"/>
     </row>
-    <row r="708" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:25" hidden="1">
       <c r="B708" s="11">
         <v>46005</v>
       </c>
@@ -9145,7 +9154,7 @@
       <c r="R708" s="13"/>
       <c r="Y708" s="13"/>
     </row>
-    <row r="709" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:25" hidden="1">
       <c r="B709" s="11">
         <v>46005</v>
       </c>
@@ -9155,7 +9164,7 @@
       <c r="R709" s="13"/>
       <c r="Y709" s="13"/>
     </row>
-    <row r="710" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:25" hidden="1">
       <c r="B710" s="11">
         <v>46005</v>
       </c>
@@ -9165,7 +9174,7 @@
       <c r="R710" s="13"/>
       <c r="Y710" s="13"/>
     </row>
-    <row r="711" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:25" hidden="1">
       <c r="B711" s="11">
         <v>46006</v>
       </c>
@@ -9175,7 +9184,7 @@
       <c r="R711" s="13"/>
       <c r="Y711" s="13"/>
     </row>
-    <row r="712" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:25" hidden="1">
       <c r="B712" s="11">
         <v>46006</v>
       </c>
@@ -9185,7 +9194,7 @@
       <c r="R712" s="13"/>
       <c r="Y712" s="13"/>
     </row>
-    <row r="713" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:25" hidden="1">
       <c r="B713" s="11">
         <v>46006</v>
       </c>
@@ -9195,7 +9204,7 @@
       <c r="R713" s="13"/>
       <c r="Y713" s="13"/>
     </row>
-    <row r="714" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:25" hidden="1">
       <c r="B714" s="11">
         <v>46006</v>
       </c>
@@ -9205,7 +9214,7 @@
       <c r="R714" s="13"/>
       <c r="Y714" s="13"/>
     </row>
-    <row r="715" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:25" hidden="1">
       <c r="B715" s="11">
         <v>46006</v>
       </c>
@@ -9215,7 +9224,7 @@
       <c r="R715" s="13"/>
       <c r="Y715" s="13"/>
     </row>
-    <row r="716" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:25" hidden="1">
       <c r="B716" s="11">
         <v>46006</v>
       </c>
@@ -9225,7 +9234,7 @@
       <c r="R716" s="13"/>
       <c r="Y716" s="13"/>
     </row>
-    <row r="717" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:25" hidden="1">
       <c r="B717" s="11">
         <v>46006</v>
       </c>
@@ -9235,7 +9244,7 @@
       <c r="R717" s="13"/>
       <c r="Y717" s="13"/>
     </row>
-    <row r="718" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:25" hidden="1">
       <c r="B718" s="11">
         <v>46007</v>
       </c>
@@ -9245,7 +9254,7 @@
       <c r="R718" s="13"/>
       <c r="Y718" s="13"/>
     </row>
-    <row r="719" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:25" hidden="1">
       <c r="B719" s="11">
         <v>46007</v>
       </c>
@@ -9255,7 +9264,7 @@
       <c r="R719" s="13"/>
       <c r="Y719" s="13"/>
     </row>
-    <row r="720" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:25" hidden="1">
       <c r="B720" s="11">
         <v>46007</v>
       </c>
@@ -9265,7 +9274,7 @@
       <c r="R720" s="13"/>
       <c r="Y720" s="13"/>
     </row>
-    <row r="721" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:25" hidden="1">
       <c r="B721" s="11">
         <v>46007</v>
       </c>
@@ -9275,7 +9284,7 @@
       <c r="R721" s="13"/>
       <c r="Y721" s="13"/>
     </row>
-    <row r="722" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:25" hidden="1">
       <c r="B722" s="11">
         <v>46007</v>
       </c>
@@ -9285,7 +9294,7 @@
       <c r="R722" s="13"/>
       <c r="Y722" s="13"/>
     </row>
-    <row r="723" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:25" hidden="1">
       <c r="B723" s="11">
         <v>46007</v>
       </c>
@@ -9295,7 +9304,7 @@
       <c r="R723" s="13"/>
       <c r="Y723" s="13"/>
     </row>
-    <row r="724" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:25" hidden="1">
       <c r="B724" s="11">
         <v>46007</v>
       </c>
@@ -9305,7 +9314,7 @@
       <c r="R724" s="13"/>
       <c r="Y724" s="13"/>
     </row>
-    <row r="725" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:25" hidden="1">
       <c r="B725" s="11">
         <v>46008</v>
       </c>
@@ -9315,7 +9324,7 @@
       <c r="R725" s="13"/>
       <c r="Y725" s="13"/>
     </row>
-    <row r="726" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:25" hidden="1">
       <c r="B726" s="11">
         <v>46008</v>
       </c>
@@ -9325,7 +9334,7 @@
       <c r="R726" s="13"/>
       <c r="Y726" s="13"/>
     </row>
-    <row r="727" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:25" hidden="1">
       <c r="B727" s="11">
         <v>46008</v>
       </c>
@@ -9335,7 +9344,7 @@
       <c r="R727" s="13"/>
       <c r="Y727" s="13"/>
     </row>
-    <row r="728" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:25" hidden="1">
       <c r="B728" s="11">
         <v>46008</v>
       </c>
@@ -9345,7 +9354,7 @@
       <c r="R728" s="13"/>
       <c r="Y728" s="13"/>
     </row>
-    <row r="729" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:25" hidden="1">
       <c r="B729" s="11">
         <v>46008</v>
       </c>
@@ -9355,7 +9364,7 @@
       <c r="R729" s="13"/>
       <c r="Y729" s="13"/>
     </row>
-    <row r="730" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:25" hidden="1">
       <c r="B730" s="11">
         <v>46008</v>
       </c>
@@ -9365,7 +9374,7 @@
       <c r="R730" s="13"/>
       <c r="Y730" s="13"/>
     </row>
-    <row r="731" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:25" hidden="1">
       <c r="B731" s="11">
         <v>46008</v>
       </c>
@@ -9375,7 +9384,7 @@
       <c r="R731" s="13"/>
       <c r="Y731" s="13"/>
     </row>
-    <row r="732" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:25" hidden="1">
       <c r="B732" s="11">
         <v>46009</v>
       </c>
@@ -9385,7 +9394,7 @@
       <c r="R732" s="13"/>
       <c r="Y732" s="13"/>
     </row>
-    <row r="733" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:25" hidden="1">
       <c r="B733" s="11">
         <v>46009</v>
       </c>
@@ -9395,7 +9404,7 @@
       <c r="R733" s="13"/>
       <c r="Y733" s="13"/>
     </row>
-    <row r="734" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:25" hidden="1">
       <c r="B734" s="11">
         <v>46009</v>
       </c>
@@ -9405,7 +9414,7 @@
       <c r="R734" s="13"/>
       <c r="Y734" s="13"/>
     </row>
-    <row r="735" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:25" hidden="1">
       <c r="B735" s="11">
         <v>46009</v>
       </c>
@@ -9415,7 +9424,7 @@
       <c r="R735" s="13"/>
       <c r="Y735" s="13"/>
     </row>
-    <row r="736" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:25" hidden="1">
       <c r="B736" s="11">
         <v>46009</v>
       </c>
@@ -9425,7 +9434,7 @@
       <c r="R736" s="13"/>
       <c r="Y736" s="13"/>
     </row>
-    <row r="737" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:25" hidden="1">
       <c r="B737" s="11">
         <v>46009</v>
       </c>
@@ -9435,7 +9444,7 @@
       <c r="R737" s="13"/>
       <c r="Y737" s="13"/>
     </row>
-    <row r="738" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:25" hidden="1">
       <c r="B738" s="11">
         <v>46009</v>
       </c>
@@ -9445,7 +9454,7 @@
       <c r="R738" s="13"/>
       <c r="Y738" s="13"/>
     </row>
-    <row r="739" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:25" hidden="1">
       <c r="B739" s="11">
         <v>46010</v>
       </c>
@@ -9455,7 +9464,7 @@
       <c r="R739" s="13"/>
       <c r="Y739" s="13"/>
     </row>
-    <row r="740" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:25" hidden="1">
       <c r="B740" s="11">
         <v>46010</v>
       </c>
@@ -9465,7 +9474,7 @@
       <c r="R740" s="13"/>
       <c r="Y740" s="13"/>
     </row>
-    <row r="741" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:25" hidden="1">
       <c r="B741" s="11">
         <v>46010</v>
       </c>
@@ -9475,7 +9484,7 @@
       <c r="R741" s="13"/>
       <c r="Y741" s="13"/>
     </row>
-    <row r="742" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:25" hidden="1">
       <c r="B742" s="11">
         <v>46010</v>
       </c>
@@ -9485,7 +9494,7 @@
       <c r="R742" s="13"/>
       <c r="Y742" s="13"/>
     </row>
-    <row r="743" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:25" hidden="1">
       <c r="B743" s="11">
         <v>46010</v>
       </c>
@@ -9495,7 +9504,7 @@
       <c r="R743" s="13"/>
       <c r="Y743" s="13"/>
     </row>
-    <row r="744" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:25" hidden="1">
       <c r="B744" s="11">
         <v>46010</v>
       </c>
@@ -9505,7 +9514,7 @@
       <c r="R744" s="13"/>
       <c r="Y744" s="13"/>
     </row>
-    <row r="745" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:25" hidden="1">
       <c r="B745" s="11">
         <v>46010</v>
       </c>
@@ -9515,7 +9524,7 @@
       <c r="R745" s="13"/>
       <c r="Y745" s="13"/>
     </row>
-    <row r="746" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:25" hidden="1">
       <c r="B746" s="11">
         <v>46011</v>
       </c>
@@ -9525,7 +9534,7 @@
       <c r="R746" s="13"/>
       <c r="Y746" s="13"/>
     </row>
-    <row r="747" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:25" hidden="1">
       <c r="B747" s="11">
         <v>46011</v>
       </c>
@@ -9535,7 +9544,7 @@
       <c r="R747" s="13"/>
       <c r="Y747" s="13"/>
     </row>
-    <row r="748" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:25" hidden="1">
       <c r="B748" s="11">
         <v>46011</v>
       </c>
@@ -9545,7 +9554,7 @@
       <c r="R748" s="13"/>
       <c r="Y748" s="13"/>
     </row>
-    <row r="749" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:25" hidden="1">
       <c r="B749" s="11">
         <v>46011</v>
       </c>
@@ -9555,7 +9564,7 @@
       <c r="R749" s="13"/>
       <c r="Y749" s="13"/>
     </row>
-    <row r="750" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:25" hidden="1">
       <c r="B750" s="11">
         <v>46011</v>
       </c>
@@ -9565,7 +9574,7 @@
       <c r="R750" s="13"/>
       <c r="Y750" s="13"/>
     </row>
-    <row r="751" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:25" hidden="1">
       <c r="B751" s="11">
         <v>46011</v>
       </c>
@@ -9575,7 +9584,7 @@
       <c r="R751" s="13"/>
       <c r="Y751" s="13"/>
     </row>
-    <row r="752" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:25" hidden="1">
       <c r="B752" s="11">
         <v>46011</v>
       </c>
@@ -9585,7 +9594,7 @@
       <c r="R752" s="13"/>
       <c r="Y752" s="13"/>
     </row>
-    <row r="753" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:25" hidden="1">
       <c r="B753" s="11">
         <v>46012</v>
       </c>
@@ -9595,7 +9604,7 @@
       <c r="R753" s="13"/>
       <c r="Y753" s="13"/>
     </row>
-    <row r="754" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:25" hidden="1">
       <c r="B754" s="11">
         <v>46012</v>
       </c>
@@ -9605,7 +9614,7 @@
       <c r="R754" s="13"/>
       <c r="Y754" s="13"/>
     </row>
-    <row r="755" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:25" hidden="1">
       <c r="B755" s="11">
         <v>46012</v>
       </c>
@@ -9615,7 +9624,7 @@
       <c r="R755" s="13"/>
       <c r="Y755" s="13"/>
     </row>
-    <row r="756" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:25" hidden="1">
       <c r="B756" s="11">
         <v>46012</v>
       </c>
@@ -9625,7 +9634,7 @@
       <c r="R756" s="13"/>
       <c r="Y756" s="13"/>
     </row>
-    <row r="757" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:25" hidden="1">
       <c r="B757" s="11">
         <v>46012</v>
       </c>
@@ -9635,7 +9644,7 @@
       <c r="R757" s="13"/>
       <c r="Y757" s="13"/>
     </row>
-    <row r="758" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:25" hidden="1">
       <c r="B758" s="11">
         <v>46012</v>
       </c>
@@ -9645,7 +9654,7 @@
       <c r="R758" s="13"/>
       <c r="Y758" s="13"/>
     </row>
-    <row r="759" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:25" hidden="1">
       <c r="B759" s="11">
         <v>46012</v>
       </c>
@@ -9655,7 +9664,7 @@
       <c r="R759" s="13"/>
       <c r="Y759" s="13"/>
     </row>
-    <row r="760" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:25" hidden="1">
       <c r="B760" s="11">
         <v>46013</v>
       </c>
@@ -9665,7 +9674,7 @@
       <c r="R760" s="13"/>
       <c r="Y760" s="13"/>
     </row>
-    <row r="761" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:25" hidden="1">
       <c r="B761" s="11">
         <v>46013</v>
       </c>
@@ -9675,7 +9684,7 @@
       <c r="R761" s="13"/>
       <c r="Y761" s="13"/>
     </row>
-    <row r="762" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:25" hidden="1">
       <c r="B762" s="11">
         <v>46013</v>
       </c>
@@ -9685,7 +9694,7 @@
       <c r="R762" s="13"/>
       <c r="Y762" s="13"/>
     </row>
-    <row r="763" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:25" hidden="1">
       <c r="B763" s="11">
         <v>46013</v>
       </c>
@@ -9695,7 +9704,7 @@
       <c r="R763" s="13"/>
       <c r="Y763" s="13"/>
     </row>
-    <row r="764" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:25" hidden="1">
       <c r="B764" s="11">
         <v>46013</v>
       </c>
@@ -9705,7 +9714,7 @@
       <c r="R764" s="13"/>
       <c r="Y764" s="13"/>
     </row>
-    <row r="765" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:25" hidden="1">
       <c r="B765" s="11">
         <v>46013</v>
       </c>
@@ -9715,7 +9724,7 @@
       <c r="R765" s="13"/>
       <c r="Y765" s="13"/>
     </row>
-    <row r="766" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:25" hidden="1">
       <c r="B766" s="11">
         <v>46013</v>
       </c>
@@ -9725,7 +9734,7 @@
       <c r="R766" s="13"/>
       <c r="Y766" s="13"/>
     </row>
-    <row r="767" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:25" hidden="1">
       <c r="B767" s="11">
         <v>46014</v>
       </c>
@@ -9735,7 +9744,7 @@
       <c r="R767" s="13"/>
       <c r="Y767" s="13"/>
     </row>
-    <row r="768" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:25" hidden="1">
       <c r="B768" s="11">
         <v>46014</v>
       </c>
@@ -9745,7 +9754,7 @@
       <c r="R768" s="13"/>
       <c r="Y768" s="13"/>
     </row>
-    <row r="769" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:25" hidden="1">
       <c r="B769" s="11">
         <v>46014</v>
       </c>
@@ -9755,7 +9764,7 @@
       <c r="R769" s="13"/>
       <c r="Y769" s="13"/>
     </row>
-    <row r="770" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:25" hidden="1">
       <c r="B770" s="11">
         <v>46014</v>
       </c>
@@ -9765,7 +9774,7 @@
       <c r="R770" s="13"/>
       <c r="Y770" s="13"/>
     </row>
-    <row r="771" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:25" hidden="1">
       <c r="B771" s="11">
         <v>46014</v>
       </c>
@@ -9775,7 +9784,7 @@
       <c r="R771" s="13"/>
       <c r="Y771" s="13"/>
     </row>
-    <row r="772" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:25" hidden="1">
       <c r="B772" s="11">
         <v>46014</v>
       </c>
@@ -9785,7 +9794,7 @@
       <c r="R772" s="13"/>
       <c r="Y772" s="13"/>
     </row>
-    <row r="773" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:25" hidden="1">
       <c r="B773" s="11">
         <v>46014</v>
       </c>
@@ -9795,7 +9804,7 @@
       <c r="R773" s="13"/>
       <c r="Y773" s="13"/>
     </row>
-    <row r="774" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:25" hidden="1">
       <c r="B774" s="11">
         <v>46015</v>
       </c>
@@ -9805,7 +9814,7 @@
       <c r="R774" s="13"/>
       <c r="Y774" s="13"/>
     </row>
-    <row r="775" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:25" hidden="1">
       <c r="B775" s="11">
         <v>46015</v>
       </c>
@@ -9815,7 +9824,7 @@
       <c r="R775" s="13"/>
       <c r="Y775" s="13"/>
     </row>
-    <row r="776" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:25" hidden="1">
       <c r="B776" s="11">
         <v>46015</v>
       </c>
@@ -9825,7 +9834,7 @@
       <c r="R776" s="13"/>
       <c r="Y776" s="13"/>
     </row>
-    <row r="777" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:25" hidden="1">
       <c r="B777" s="11">
         <v>46015</v>
       </c>
@@ -9835,7 +9844,7 @@
       <c r="R777" s="13"/>
       <c r="Y777" s="13"/>
     </row>
-    <row r="778" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:25" hidden="1">
       <c r="B778" s="11">
         <v>46015</v>
       </c>
@@ -9845,7 +9854,7 @@
       <c r="R778" s="13"/>
       <c r="Y778" s="13"/>
     </row>
-    <row r="779" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:25" hidden="1">
       <c r="B779" s="11">
         <v>46015</v>
       </c>
@@ -9855,7 +9864,7 @@
       <c r="R779" s="13"/>
       <c r="Y779" s="13"/>
     </row>
-    <row r="780" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:25" hidden="1">
       <c r="B780" s="11">
         <v>46015</v>
       </c>
@@ -9865,7 +9874,7 @@
       <c r="R780" s="13"/>
       <c r="Y780" s="13"/>
     </row>
-    <row r="781" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:25" hidden="1">
       <c r="B781" s="11">
         <v>46016</v>
       </c>
@@ -9875,7 +9884,7 @@
       <c r="R781" s="13"/>
       <c r="Y781" s="13"/>
     </row>
-    <row r="782" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:25" hidden="1">
       <c r="B782" s="11">
         <v>46016</v>
       </c>
@@ -9885,7 +9894,7 @@
       <c r="R782" s="13"/>
       <c r="Y782" s="13"/>
     </row>
-    <row r="783" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:25" hidden="1">
       <c r="B783" s="11">
         <v>46016</v>
       </c>
@@ -9895,7 +9904,7 @@
       <c r="R783" s="13"/>
       <c r="Y783" s="13"/>
     </row>
-    <row r="784" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:25" hidden="1">
       <c r="B784" s="11">
         <v>46016</v>
       </c>
@@ -9905,7 +9914,7 @@
       <c r="R784" s="13"/>
       <c r="Y784" s="13"/>
     </row>
-    <row r="785" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:25" hidden="1">
       <c r="B785" s="11">
         <v>46016</v>
       </c>
@@ -9915,7 +9924,7 @@
       <c r="R785" s="13"/>
       <c r="Y785" s="13"/>
     </row>
-    <row r="786" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:25" hidden="1">
       <c r="B786" s="11">
         <v>46016</v>
       </c>
@@ -9925,7 +9934,7 @@
       <c r="R786" s="13"/>
       <c r="Y786" s="13"/>
     </row>
-    <row r="787" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:25" hidden="1">
       <c r="B787" s="11">
         <v>46016</v>
       </c>
@@ -9935,7 +9944,7 @@
       <c r="R787" s="13"/>
       <c r="Y787" s="13"/>
     </row>
-    <row r="788" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:25" hidden="1">
       <c r="B788" s="11">
         <v>46017</v>
       </c>
@@ -9945,7 +9954,7 @@
       <c r="R788" s="13"/>
       <c r="Y788" s="13"/>
     </row>
-    <row r="789" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:25" hidden="1">
       <c r="B789" s="11">
         <v>46017</v>
       </c>
@@ -9955,7 +9964,7 @@
       <c r="R789" s="13"/>
       <c r="Y789" s="13"/>
     </row>
-    <row r="790" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:25" hidden="1">
       <c r="B790" s="11">
         <v>46017</v>
       </c>
@@ -9965,7 +9974,7 @@
       <c r="R790" s="13"/>
       <c r="Y790" s="13"/>
     </row>
-    <row r="791" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:25" hidden="1">
       <c r="B791" s="11">
         <v>46017</v>
       </c>
@@ -9975,7 +9984,7 @@
       <c r="R791" s="13"/>
       <c r="Y791" s="13"/>
     </row>
-    <row r="792" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:25" hidden="1">
       <c r="B792" s="11">
         <v>46017</v>
       </c>
@@ -9985,7 +9994,7 @@
       <c r="R792" s="13"/>
       <c r="Y792" s="13"/>
     </row>
-    <row r="793" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:25" hidden="1">
       <c r="B793" s="11">
         <v>46017</v>
       </c>
@@ -9995,7 +10004,7 @@
       <c r="R793" s="13"/>
       <c r="Y793" s="13"/>
     </row>
-    <row r="794" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:25" hidden="1">
       <c r="B794" s="11">
         <v>46017</v>
       </c>
@@ -10005,7 +10014,7 @@
       <c r="R794" s="13"/>
       <c r="Y794" s="13"/>
     </row>
-    <row r="795" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:25" hidden="1">
       <c r="B795" s="11">
         <v>46018</v>
       </c>
@@ -10015,7 +10024,7 @@
       <c r="R795" s="13"/>
       <c r="Y795" s="13"/>
     </row>
-    <row r="796" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:25" hidden="1">
       <c r="B796" s="11">
         <v>46018</v>
       </c>
@@ -10025,7 +10034,7 @@
       <c r="R796" s="13"/>
       <c r="Y796" s="13"/>
     </row>
-    <row r="797" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:25" hidden="1">
       <c r="B797" s="11">
         <v>46018</v>
       </c>
@@ -10035,7 +10044,7 @@
       <c r="R797" s="13"/>
       <c r="Y797" s="13"/>
     </row>
-    <row r="798" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:25" hidden="1">
       <c r="B798" s="11">
         <v>46018</v>
       </c>
@@ -10045,7 +10054,7 @@
       <c r="R798" s="13"/>
       <c r="Y798" s="13"/>
     </row>
-    <row r="799" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:25" hidden="1">
       <c r="B799" s="11">
         <v>46018</v>
       </c>
@@ -10055,7 +10064,7 @@
       <c r="R799" s="13"/>
       <c r="Y799" s="13"/>
     </row>
-    <row r="800" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:25" hidden="1">
       <c r="B800" s="11">
         <v>46018</v>
       </c>
@@ -10065,7 +10074,7 @@
       <c r="R800" s="13"/>
       <c r="Y800" s="13"/>
     </row>
-    <row r="801" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:25" hidden="1">
       <c r="B801" s="11">
         <v>46018</v>
       </c>
@@ -10075,7 +10084,7 @@
       <c r="R801" s="13"/>
       <c r="Y801" s="13"/>
     </row>
-    <row r="802" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:25" hidden="1">
       <c r="B802" s="11">
         <v>46019</v>
       </c>
@@ -10085,7 +10094,7 @@
       <c r="R802" s="13"/>
       <c r="Y802" s="13"/>
     </row>
-    <row r="803" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:25" hidden="1">
       <c r="B803" s="11">
         <v>46019</v>
       </c>
@@ -10095,7 +10104,7 @@
       <c r="R803" s="13"/>
       <c r="Y803" s="13"/>
     </row>
-    <row r="804" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:25" hidden="1">
       <c r="B804" s="11">
         <v>46019</v>
       </c>
@@ -10105,7 +10114,7 @@
       <c r="R804" s="13"/>
       <c r="Y804" s="13"/>
     </row>
-    <row r="805" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:25" hidden="1">
       <c r="B805" s="11">
         <v>46019</v>
       </c>
@@ -10115,7 +10124,7 @@
       <c r="R805" s="13"/>
       <c r="Y805" s="13"/>
     </row>
-    <row r="806" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:25" hidden="1">
       <c r="B806" s="11">
         <v>46019</v>
       </c>
@@ -10125,7 +10134,7 @@
       <c r="R806" s="13"/>
       <c r="Y806" s="13"/>
     </row>
-    <row r="807" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:25" hidden="1">
       <c r="B807" s="11">
         <v>46019</v>
       </c>
@@ -10135,7 +10144,7 @@
       <c r="R807" s="13"/>
       <c r="Y807" s="13"/>
     </row>
-    <row r="808" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:25" hidden="1">
       <c r="B808" s="11">
         <v>46019</v>
       </c>
@@ -10145,7 +10154,7 @@
       <c r="R808" s="13"/>
       <c r="Y808" s="13"/>
     </row>
-    <row r="809" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:25" hidden="1">
       <c r="B809" s="11">
         <v>46020</v>
       </c>
@@ -10155,7 +10164,7 @@
       <c r="R809" s="13"/>
       <c r="Y809" s="13"/>
     </row>
-    <row r="810" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:25" hidden="1">
       <c r="B810" s="11">
         <v>46020</v>
       </c>
@@ -10165,7 +10174,7 @@
       <c r="R810" s="13"/>
       <c r="Y810" s="13"/>
     </row>
-    <row r="811" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:25" hidden="1">
       <c r="B811" s="11">
         <v>46020</v>
       </c>
@@ -10175,7 +10184,7 @@
       <c r="R811" s="13"/>
       <c r="Y811" s="13"/>
     </row>
-    <row r="812" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:25" hidden="1">
       <c r="B812" s="11">
         <v>46020</v>
       </c>
@@ -10185,7 +10194,7 @@
       <c r="R812" s="13"/>
       <c r="Y812" s="13"/>
     </row>
-    <row r="813" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:25" hidden="1">
       <c r="B813" s="11">
         <v>46020</v>
       </c>
@@ -10195,7 +10204,7 @@
       <c r="R813" s="13"/>
       <c r="Y813" s="13"/>
     </row>
-    <row r="814" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:25" hidden="1">
       <c r="B814" s="11">
         <v>46020</v>
       </c>
@@ -10205,7 +10214,7 @@
       <c r="R814" s="13"/>
       <c r="Y814" s="13"/>
     </row>
-    <row r="815" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:25" hidden="1">
       <c r="B815" s="11">
         <v>46020</v>
       </c>
@@ -10215,7 +10224,7 @@
       <c r="R815" s="13"/>
       <c r="Y815" s="13"/>
     </row>
-    <row r="816" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:25" hidden="1">
       <c r="B816" s="11">
         <v>46021</v>
       </c>
@@ -10225,7 +10234,7 @@
       <c r="R816" s="13"/>
       <c r="Y816" s="13"/>
     </row>
-    <row r="817" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:25" hidden="1">
       <c r="B817" s="11">
         <v>46021</v>
       </c>
@@ -10235,7 +10244,7 @@
       <c r="R817" s="13"/>
       <c r="Y817" s="13"/>
     </row>
-    <row r="818" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:25" hidden="1">
       <c r="B818" s="11">
         <v>46021</v>
       </c>
@@ -10245,7 +10254,7 @@
       <c r="R818" s="13"/>
       <c r="Y818" s="13"/>
     </row>
-    <row r="819" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:25" hidden="1">
       <c r="B819" s="11">
         <v>46021</v>
       </c>
@@ -10255,7 +10264,7 @@
       <c r="R819" s="13"/>
       <c r="Y819" s="13"/>
     </row>
-    <row r="820" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:25" hidden="1">
       <c r="B820" s="11">
         <v>46021</v>
       </c>
@@ -10265,7 +10274,7 @@
       <c r="R820" s="13"/>
       <c r="Y820" s="13"/>
     </row>
-    <row r="821" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:25" hidden="1">
       <c r="B821" s="11">
         <v>46021</v>
       </c>
@@ -10275,7 +10284,7 @@
       <c r="R821" s="13"/>
       <c r="Y821" s="13"/>
     </row>
-    <row r="822" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:25" hidden="1">
       <c r="B822" s="11">
         <v>46021</v>
       </c>
@@ -10285,7 +10294,7 @@
       <c r="R822" s="13"/>
       <c r="Y822" s="13"/>
     </row>
-    <row r="823" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:25" hidden="1">
       <c r="B823" s="11">
         <v>46022</v>
       </c>
@@ -10295,7 +10304,7 @@
       <c r="R823" s="13"/>
       <c r="Y823" s="13"/>
     </row>
-    <row r="824" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:25" hidden="1">
       <c r="B824" s="11">
         <v>46022</v>
       </c>
@@ -10305,7 +10314,7 @@
       <c r="R824" s="13"/>
       <c r="Y824" s="13"/>
     </row>
-    <row r="825" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:25" hidden="1">
       <c r="B825" s="11">
         <v>46022</v>
       </c>
@@ -10315,7 +10324,7 @@
       <c r="R825" s="13"/>
       <c r="Y825" s="13"/>
     </row>
-    <row r="826" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:25" hidden="1">
       <c r="B826" s="11">
         <v>46022</v>
       </c>
@@ -10325,7 +10334,7 @@
       <c r="R826" s="13"/>
       <c r="Y826" s="13"/>
     </row>
-    <row r="827" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:25" hidden="1">
       <c r="B827" s="11">
         <v>46022</v>
       </c>
@@ -10335,7 +10344,7 @@
       <c r="R827" s="13"/>
       <c r="Y827" s="13"/>
     </row>
-    <row r="828" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:25" hidden="1">
       <c r="B828" s="11">
         <v>46022</v>
       </c>
@@ -10345,7 +10354,7 @@
       <c r="R828" s="13"/>
       <c r="Y828" s="13"/>
     </row>
-    <row r="829" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:25" hidden="1">
       <c r="B829" s="11">
         <v>46022</v>
       </c>
@@ -10392,15 +10401,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A52200CFC6580341A53BA4D1EFA7F521" ma:contentTypeVersion="5" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="23f2b8cef8559182614740ba6ceef74b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="934927422b4276a9b2616a1597130764" ns2:_="">
     <xsd:import namespace="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
@@ -10550,44 +10550,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A175AAA7-D266-4395-B6D4-E939A4E29720}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649809F5-D46F-4002-9C20-8A9684DA0DCC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649809F5-D46F-4002-9C20-8A9684DA0DCC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c398fc99-688d-4d4b-a7cc-5fa8e0544a8d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD3EA06-45AA-4ABA-83F6-CAB4B308E842}"/>
 </file>
--- a/data/BI Operacional_Catering.xlsx
+++ b/data/BI Operacional_Catering.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://superfrioarmazens.sharepoint.com/sites/KPIs/Documentos Compartilhados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DECBCB0-A30E-4CED-AE51-A52A95012C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B9A28CA-D0FF-42DB-8B6C-6FD590A643C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$3:$Z$829</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$A$3:$AA$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -438,14 +438,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
@@ -477,7 +477,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="238125" y="0"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="1323975" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -502,24 +502,7 @@
 
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <namedSheetView name="Exibição 1" id="{292D52A0-5F2B-4A27-BA4B-AEB5D224519A}">
-    <nsvFilter filterId="{189FA7ED-4382-47B5-A726-2C2BB85CC8B9}" ref="A3:Z829" tableId="0">
-      <columnFilter colId="1">
-        <filter colId="1">
-          <x:filters>
-            <x:dateGroupItem year="2025" month="9" dateTimeGrouping="month"/>
-          </x:filters>
-        </filter>
-      </columnFilter>
-      <columnFilter colId="2">
-        <filter colId="2">
-          <x:filters>
-            <x:filter val="CBWII"/>
-          </x:filters>
-        </filter>
-      </columnFilter>
-    </nsvFilter>
-  </namedSheetView>
+  <namedSheetView name="Exibição 1" id="{292D52A0-5F2B-4A27-BA4B-AEB5D224519A}"/>
 </namedSheetViews>
 </file>
 
@@ -808,18 +791,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189FA7ED-4382-47B5-A726-2C2BB85CC8B9}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:AA829"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="B43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
+      <pane ySplit="3" topLeftCell="B7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U98" sqref="U56:W98"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
@@ -832,8 +815,8 @@
     <col min="11" max="11" width="19.28515625" style="13" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" style="13" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" style="13" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15" style="13" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="13" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" style="13" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="13" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="13" customWidth="1"/>
     <col min="18" max="18" width="12" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" style="13" customWidth="1"/>
@@ -967,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" hidden="1">
+    <row r="4" spans="1:26">
       <c r="B4" s="10">
         <v>45905</v>
       </c>
@@ -1008,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" hidden="1">
+    <row r="5" spans="1:26">
       <c r="B5" s="10">
         <v>45905</v>
       </c>
@@ -1049,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" hidden="1">
+    <row r="6" spans="1:26">
       <c r="B6" s="10">
         <v>45905</v>
       </c>
@@ -1090,7 +1073,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26" hidden="1">
+    <row r="7" spans="1:26">
       <c r="B7" s="10">
         <v>45905</v>
       </c>
@@ -1202,7 +1185,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" hidden="1">
+    <row r="9" spans="1:26">
       <c r="B9" s="10">
         <v>45905</v>
       </c>
@@ -1212,7 +1195,7 @@
       <c r="R9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:26" hidden="1">
+    <row r="10" spans="1:26">
       <c r="B10" s="10">
         <v>45905</v>
       </c>
@@ -1221,7 +1204,7 @@
       </c>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:26" hidden="1">
+    <row r="11" spans="1:26">
       <c r="B11" s="11">
         <v>45906</v>
       </c>
@@ -1233,7 +1216,7 @@
       <c r="S11" s="17"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:26" hidden="1">
+    <row r="12" spans="1:26">
       <c r="B12" s="11">
         <v>45906</v>
       </c>
@@ -1243,7 +1226,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:26" hidden="1">
+    <row r="13" spans="1:26">
       <c r="B13" s="11">
         <v>45906</v>
       </c>
@@ -1254,7 +1237,7 @@
       <c r="R13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:26" hidden="1">
+    <row r="14" spans="1:26">
       <c r="B14" s="11">
         <v>45906</v>
       </c>
@@ -1277,7 +1260,7 @@
       <c r="R15" s="13"/>
       <c r="Y15" s="30"/>
     </row>
-    <row r="16" spans="1:26" hidden="1">
+    <row r="16" spans="1:26">
       <c r="B16" s="11">
         <v>45906</v>
       </c>
@@ -1287,7 +1270,7 @@
       <c r="R16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:26" hidden="1">
+    <row r="17" spans="2:26">
       <c r="B17" s="11">
         <v>45906</v>
       </c>
@@ -1297,7 +1280,7 @@
       <c r="R17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="2:26" hidden="1">
+    <row r="18" spans="2:26">
       <c r="B18" s="11">
         <v>45907</v>
       </c>
@@ -1308,7 +1291,7 @@
       <c r="R18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="2:26" hidden="1">
+    <row r="19" spans="2:26">
       <c r="B19" s="11">
         <v>45907</v>
       </c>
@@ -1318,7 +1301,7 @@
       <c r="Q19" s="28"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:26" hidden="1">
+    <row r="20" spans="2:26">
       <c r="B20" s="11">
         <v>45907</v>
       </c>
@@ -1329,7 +1312,7 @@
       <c r="R20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="2:26" hidden="1">
+    <row r="21" spans="2:26">
       <c r="B21" s="11">
         <v>45907</v>
       </c>
@@ -1352,7 +1335,7 @@
       <c r="R22" s="13"/>
       <c r="Y22" s="30"/>
     </row>
-    <row r="23" spans="2:26" hidden="1">
+    <row r="23" spans="2:26">
       <c r="B23" s="11">
         <v>45907</v>
       </c>
@@ -1362,7 +1345,7 @@
       <c r="R23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="2:26" hidden="1">
+    <row r="24" spans="2:26">
       <c r="B24" s="11">
         <v>45907</v>
       </c>
@@ -1372,7 +1355,7 @@
       <c r="R24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="2:26" hidden="1">
+    <row r="25" spans="2:26">
       <c r="B25" s="11">
         <v>45908</v>
       </c>
@@ -1413,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:26" hidden="1">
+    <row r="26" spans="2:26">
       <c r="B26" s="11">
         <v>45908</v>
       </c>
@@ -1454,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:26" hidden="1">
+    <row r="27" spans="2:26">
       <c r="B27" s="11">
         <v>45908</v>
       </c>
@@ -1495,7 +1478,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:26" hidden="1">
+    <row r="28" spans="2:26">
       <c r="B28" s="11">
         <v>45908</v>
       </c>
@@ -1625,7 +1608,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="2:26" hidden="1">
+    <row r="30" spans="2:26">
       <c r="B30" s="11">
         <v>45908</v>
       </c>
@@ -1635,7 +1618,7 @@
       <c r="R30" s="13"/>
       <c r="Y30" s="13"/>
     </row>
-    <row r="31" spans="2:26" hidden="1">
+    <row r="31" spans="2:26">
       <c r="B31" s="11">
         <v>45908</v>
       </c>
@@ -1645,7 +1628,7 @@
       <c r="R31" s="13"/>
       <c r="Y31" s="13"/>
     </row>
-    <row r="32" spans="2:26" hidden="1">
+    <row r="32" spans="2:26">
       <c r="B32" s="11">
         <v>45909</v>
       </c>
@@ -1695,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:26" hidden="1">
+    <row r="33" spans="2:26">
       <c r="B33" s="11">
         <v>45909</v>
       </c>
@@ -1736,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:26" hidden="1">
+    <row r="34" spans="2:26">
       <c r="B34" s="11">
         <v>45909</v>
       </c>
@@ -1777,7 +1760,7 @@
         <v>0.66659999999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:26" hidden="1">
+    <row r="35" spans="2:26">
       <c r="B35" s="11">
         <v>45909</v>
       </c>
@@ -1895,7 +1878,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:26" hidden="1">
+    <row r="37" spans="2:26">
       <c r="B37" s="11">
         <v>45909</v>
       </c>
@@ -1905,7 +1888,7 @@
       <c r="R37" s="13"/>
       <c r="Y37" s="13"/>
     </row>
-    <row r="38" spans="2:26" hidden="1">
+    <row r="38" spans="2:26">
       <c r="B38" s="11">
         <v>45909</v>
       </c>
@@ -1915,7 +1898,7 @@
       <c r="R38" s="13"/>
       <c r="Y38" s="13"/>
     </row>
-    <row r="39" spans="2:26" hidden="1">
+    <row r="39" spans="2:26">
       <c r="B39" s="11">
         <v>45910</v>
       </c>
@@ -1951,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:26" hidden="1">
+    <row r="40" spans="2:26">
       <c r="B40" s="11">
         <v>45910</v>
       </c>
@@ -1995,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:26" ht="15" hidden="1">
+    <row r="41" spans="2:26">
       <c r="B41" s="11">
         <v>45910</v>
       </c>
@@ -2036,7 +2019,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:26" hidden="1">
+    <row r="42" spans="2:26">
       <c r="B42" s="11">
         <v>45910</v>
       </c>
@@ -2154,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:26" hidden="1">
+    <row r="44" spans="2:26">
       <c r="B44" s="11">
         <v>45910</v>
       </c>
@@ -2164,7 +2147,7 @@
       <c r="R44" s="13"/>
       <c r="Y44" s="13"/>
     </row>
-    <row r="45" spans="2:26" hidden="1">
+    <row r="45" spans="2:26">
       <c r="B45" s="11">
         <v>45910</v>
       </c>
@@ -2183,7 +2166,7 @@
       </c>
       <c r="Y45" s="13"/>
     </row>
-    <row r="46" spans="2:26" hidden="1">
+    <row r="46" spans="2:26">
       <c r="B46" s="11">
         <v>45911</v>
       </c>
@@ -2219,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:26" ht="15" hidden="1">
+    <row r="47" spans="2:26">
       <c r="B47" s="11">
         <v>45911</v>
       </c>
@@ -2263,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:26" hidden="1">
+    <row r="48" spans="2:26">
       <c r="B48" s="11">
         <v>45911</v>
       </c>
@@ -2304,7 +2287,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:27" hidden="1">
+    <row r="49" spans="2:27">
       <c r="B49" s="11">
         <v>45911</v>
       </c>
@@ -2423,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" hidden="1">
+    <row r="51" spans="2:27">
       <c r="B51" s="11">
         <v>45911</v>
       </c>
@@ -2433,7 +2416,7 @@
       <c r="R51" s="13"/>
       <c r="Y51" s="13"/>
     </row>
-    <row r="52" spans="2:27" hidden="1">
+    <row r="52" spans="2:27">
       <c r="B52" s="11">
         <v>45911</v>
       </c>
@@ -2452,7 +2435,7 @@
       </c>
       <c r="Y52" s="13"/>
     </row>
-    <row r="53" spans="2:27" hidden="1">
+    <row r="53" spans="2:27">
       <c r="B53" s="11">
         <v>45912</v>
       </c>
@@ -2476,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:27" ht="15" hidden="1">
+    <row r="54" spans="2:27">
       <c r="B54" s="11">
         <v>45912</v>
       </c>
@@ -2508,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" hidden="1">
+    <row r="55" spans="2:27">
       <c r="B55" s="11">
         <v>45912</v>
       </c>
@@ -2535,7 +2518,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:27" ht="15" hidden="1">
+    <row r="56" spans="2:27">
       <c r="B56" s="11">
         <v>45912</v>
       </c>
@@ -2565,13 +2548,22 @@
       </c>
       <c r="S56" s="17">
         <v>0.87</v>
+      </c>
+      <c r="U56" s="13">
+        <v>99.1</v>
+      </c>
+      <c r="V56" s="13">
+        <v>91.96</v>
+      </c>
+      <c r="W56" s="13">
+        <v>99.5</v>
       </c>
       <c r="Y56" s="13"/>
       <c r="Z56" s="16">
         <v>0.13</v>
       </c>
     </row>
-    <row r="57" spans="2:27" ht="15">
+    <row r="57" spans="2:27">
       <c r="B57" s="11">
         <v>45912</v>
       </c>
@@ -2587,6 +2579,21 @@
       <c r="F57" s="12">
         <v>98</v>
       </c>
+      <c r="G57" s="13">
+        <v>530</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="I57" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="J57" s="13">
+        <v>16</v>
+      </c>
+      <c r="K57" s="13">
+        <v>0</v>
+      </c>
       <c r="P57" s="13">
         <v>19</v>
       </c>
@@ -2600,7 +2607,7 @@
         <v>0.63109999999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:27" hidden="1">
+    <row r="58" spans="2:27">
       <c r="B58" s="11">
         <v>45912</v>
       </c>
@@ -2610,7 +2617,7 @@
       <c r="R58" s="13"/>
       <c r="Y58" s="13"/>
     </row>
-    <row r="59" spans="2:27" hidden="1">
+    <row r="59" spans="2:27">
       <c r="B59" s="11">
         <v>45912</v>
       </c>
@@ -2644,7 +2651,7 @@
       <c r="R59" s="13"/>
       <c r="Y59" s="13"/>
     </row>
-    <row r="60" spans="2:27" hidden="1">
+    <row r="60" spans="2:27">
       <c r="B60" s="11">
         <v>45913</v>
       </c>
@@ -2654,7 +2661,7 @@
       <c r="R60" s="13"/>
       <c r="Y60" s="13"/>
     </row>
-    <row r="61" spans="2:27" hidden="1">
+    <row r="61" spans="2:27">
       <c r="B61" s="11">
         <v>45913</v>
       </c>
@@ -2663,7 +2670,7 @@
       </c>
       <c r="R61" s="13"/>
     </row>
-    <row r="62" spans="2:27" hidden="1">
+    <row r="62" spans="2:27">
       <c r="B62" s="11">
         <v>45913</v>
       </c>
@@ -2673,16 +2680,17 @@
       <c r="R62" s="13"/>
       <c r="Y62" s="13"/>
     </row>
-    <row r="63" spans="2:27" hidden="1">
+    <row r="63" spans="2:27">
       <c r="B63" s="11">
         <v>45913</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
       </c>
+      <c r="S63" s="17"/>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="2:27" ht="15">
+    <row r="64" spans="2:27">
       <c r="B64" s="11">
         <v>45913</v>
       </c>
@@ -2698,10 +2706,25 @@
       <c r="F64" s="12">
         <v>0</v>
       </c>
+      <c r="G64" s="13">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>0</v>
+      </c>
+      <c r="I64" s="14">
+        <v>0</v>
+      </c>
+      <c r="J64" s="13">
+        <v>0</v>
+      </c>
+      <c r="K64" s="13">
+        <v>0</v>
+      </c>
       <c r="R64" s="13"/>
       <c r="AA64" s="29"/>
     </row>
-    <row r="65" spans="2:26" hidden="1">
+    <row r="65" spans="2:26">
       <c r="B65" s="11">
         <v>45913</v>
       </c>
@@ -2711,7 +2734,7 @@
       <c r="R65" s="13"/>
       <c r="Y65" s="13"/>
     </row>
-    <row r="66" spans="2:26" hidden="1">
+    <row r="66" spans="2:26">
       <c r="B66" s="11">
         <v>45913</v>
       </c>
@@ -2721,7 +2744,7 @@
       <c r="R66" s="13"/>
       <c r="Y66" s="13"/>
     </row>
-    <row r="67" spans="2:26" hidden="1">
+    <row r="67" spans="2:26">
       <c r="B67" s="11">
         <v>45914</v>
       </c>
@@ -2731,7 +2754,7 @@
       <c r="R67" s="13"/>
       <c r="Y67" s="13"/>
     </row>
-    <row r="68" spans="2:26" hidden="1">
+    <row r="68" spans="2:26">
       <c r="B68" s="11">
         <v>45914</v>
       </c>
@@ -2740,7 +2763,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="2:26" hidden="1">
+    <row r="69" spans="2:26">
       <c r="B69" s="11">
         <v>45914</v>
       </c>
@@ -2750,16 +2773,17 @@
       <c r="R69" s="13"/>
       <c r="Y69" s="13"/>
     </row>
-    <row r="70" spans="2:26" hidden="1">
+    <row r="70" spans="2:26">
       <c r="B70" s="11">
         <v>45914</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
       </c>
+      <c r="S70" s="17"/>
       <c r="Y70" s="13"/>
     </row>
-    <row r="71" spans="2:26" ht="15">
+    <row r="71" spans="2:26">
       <c r="B71" s="11">
         <v>45914</v>
       </c>
@@ -2775,9 +2799,24 @@
       <c r="F71" s="12">
         <v>0</v>
       </c>
+      <c r="G71" s="13">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14">
+        <v>0</v>
+      </c>
+      <c r="I71" s="14">
+        <v>0</v>
+      </c>
+      <c r="J71" s="13">
+        <v>0</v>
+      </c>
+      <c r="K71" s="13">
+        <v>0</v>
+      </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="2:26" hidden="1">
+    <row r="72" spans="2:26">
       <c r="B72" s="11">
         <v>45914</v>
       </c>
@@ -2787,7 +2826,7 @@
       <c r="R72" s="13"/>
       <c r="Y72" s="13"/>
     </row>
-    <row r="73" spans="2:26" hidden="1">
+    <row r="73" spans="2:26">
       <c r="B73" s="11">
         <v>45914</v>
       </c>
@@ -2797,7 +2836,7 @@
       <c r="R73" s="13"/>
       <c r="Y73" s="13"/>
     </row>
-    <row r="74" spans="2:26" hidden="1">
+    <row r="74" spans="2:26">
       <c r="B74" s="11">
         <v>45915</v>
       </c>
@@ -2821,7 +2860,7 @@
       </c>
       <c r="Y74" s="13"/>
     </row>
-    <row r="75" spans="2:26" hidden="1">
+    <row r="75" spans="2:26">
       <c r="B75" s="11">
         <v>45915</v>
       </c>
@@ -2830,7 +2869,7 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="2:26" hidden="1">
+    <row r="76" spans="2:26">
       <c r="B76" s="11">
         <v>45915</v>
       </c>
@@ -2857,12 +2896,25 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:26" hidden="1">
+    <row r="77" spans="2:26">
       <c r="B77" s="11">
         <v>45915</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
+      </c>
+      <c r="P77" s="13">
+        <v>213</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>213</v>
+      </c>
+      <c r="R77" s="20">
+        <v>778860.12</v>
+      </c>
+      <c r="S77" s="17"/>
+      <c r="T77" s="13">
+        <v>7</v>
       </c>
       <c r="Y77" s="13"/>
     </row>
@@ -2875,7 +2927,7 @@
       </c>
       <c r="R78" s="13"/>
     </row>
-    <row r="79" spans="2:26" hidden="1">
+    <row r="79" spans="2:26">
       <c r="B79" s="11">
         <v>45915</v>
       </c>
@@ -2885,7 +2937,7 @@
       <c r="R79" s="13"/>
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:26" ht="15" hidden="1">
+    <row r="80" spans="2:26">
       <c r="B80" s="11">
         <v>45915</v>
       </c>
@@ -2919,7 +2971,7 @@
       <c r="R80" s="13"/>
       <c r="Y80" s="13"/>
     </row>
-    <row r="81" spans="2:25" hidden="1">
+    <row r="81" spans="2:25">
       <c r="B81" s="11">
         <v>45916</v>
       </c>
@@ -2929,7 +2981,7 @@
       <c r="R81" s="13"/>
       <c r="Y81" s="13"/>
     </row>
-    <row r="82" spans="2:25" hidden="1">
+    <row r="82" spans="2:25">
       <c r="B82" s="11">
         <v>45916</v>
       </c>
@@ -2938,7 +2990,7 @@
       </c>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="2:25" hidden="1">
+    <row r="83" spans="2:25">
       <c r="B83" s="11">
         <v>45916</v>
       </c>
@@ -2948,7 +3000,7 @@
       <c r="R83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="2:25" hidden="1">
+    <row r="84" spans="2:25">
       <c r="B84" s="11">
         <v>45916</v>
       </c>
@@ -2966,7 +3018,7 @@
       </c>
       <c r="R85" s="13"/>
     </row>
-    <row r="86" spans="2:25" hidden="1">
+    <row r="86" spans="2:25">
       <c r="B86" s="11">
         <v>45916</v>
       </c>
@@ -2976,7 +3028,7 @@
       <c r="R86" s="13"/>
       <c r="Y86" s="13"/>
     </row>
-    <row r="87" spans="2:25" hidden="1">
+    <row r="87" spans="2:25">
       <c r="B87" s="11">
         <v>45916</v>
       </c>
@@ -2986,7 +3038,7 @@
       <c r="R87" s="13"/>
       <c r="Y87" s="13"/>
     </row>
-    <row r="88" spans="2:25" hidden="1">
+    <row r="88" spans="2:25">
       <c r="B88" s="11">
         <v>45917</v>
       </c>
@@ -2996,7 +3048,7 @@
       <c r="R88" s="13"/>
       <c r="Y88" s="13"/>
     </row>
-    <row r="89" spans="2:25" hidden="1">
+    <row r="89" spans="2:25">
       <c r="B89" s="11">
         <v>45917</v>
       </c>
@@ -3005,7 +3057,7 @@
       </c>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="2:25" hidden="1">
+    <row r="90" spans="2:25">
       <c r="B90" s="11">
         <v>45917</v>
       </c>
@@ -3015,7 +3067,7 @@
       <c r="R90" s="13"/>
       <c r="Y90" s="13"/>
     </row>
-    <row r="91" spans="2:25" hidden="1">
+    <row r="91" spans="2:25">
       <c r="B91" s="11">
         <v>45917</v>
       </c>
@@ -3033,7 +3085,7 @@
       </c>
       <c r="R92" s="13"/>
     </row>
-    <row r="93" spans="2:25" hidden="1">
+    <row r="93" spans="2:25">
       <c r="B93" s="11">
         <v>45917</v>
       </c>
@@ -3043,7 +3095,7 @@
       <c r="R93" s="13"/>
       <c r="Y93" s="13"/>
     </row>
-    <row r="94" spans="2:25" hidden="1">
+    <row r="94" spans="2:25">
       <c r="B94" s="11">
         <v>45917</v>
       </c>
@@ -3053,7 +3105,7 @@
       <c r="R94" s="13"/>
       <c r="Y94" s="13"/>
     </row>
-    <row r="95" spans="2:25" hidden="1">
+    <row r="95" spans="2:25">
       <c r="B95" s="11">
         <v>45918</v>
       </c>
@@ -3063,7 +3115,7 @@
       <c r="R95" s="13"/>
       <c r="Y95" s="13"/>
     </row>
-    <row r="96" spans="2:25" hidden="1">
+    <row r="96" spans="2:25">
       <c r="B96" s="11">
         <v>45918</v>
       </c>
@@ -3072,7 +3124,7 @@
       </c>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="2:25" hidden="1">
+    <row r="97" spans="2:25">
       <c r="B97" s="11">
         <v>45918</v>
       </c>
@@ -3082,7 +3134,7 @@
       <c r="R97" s="13"/>
       <c r="Y97" s="13"/>
     </row>
-    <row r="98" spans="2:25" hidden="1">
+    <row r="98" spans="2:25">
       <c r="B98" s="11">
         <v>45918</v>
       </c>
@@ -3100,7 +3152,7 @@
       </c>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="2:25" hidden="1">
+    <row r="100" spans="2:25">
       <c r="B100" s="11">
         <v>45918</v>
       </c>
@@ -3110,7 +3162,7 @@
       <c r="R100" s="13"/>
       <c r="Y100" s="13"/>
     </row>
-    <row r="101" spans="2:25" hidden="1">
+    <row r="101" spans="2:25">
       <c r="B101" s="11">
         <v>45918</v>
       </c>
@@ -3120,7 +3172,7 @@
       <c r="R101" s="13"/>
       <c r="Y101" s="13"/>
     </row>
-    <row r="102" spans="2:25" hidden="1">
+    <row r="102" spans="2:25">
       <c r="B102" s="11">
         <v>45919</v>
       </c>
@@ -3130,7 +3182,7 @@
       <c r="R102" s="13"/>
       <c r="Y102" s="13"/>
     </row>
-    <row r="103" spans="2:25" hidden="1">
+    <row r="103" spans="2:25">
       <c r="B103" s="11">
         <v>45919</v>
       </c>
@@ -3139,7 +3191,7 @@
       </c>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="2:25" hidden="1">
+    <row r="104" spans="2:25">
       <c r="B104" s="11">
         <v>45919</v>
       </c>
@@ -3149,7 +3201,7 @@
       <c r="R104" s="13"/>
       <c r="Y104" s="13"/>
     </row>
-    <row r="105" spans="2:25" hidden="1">
+    <row r="105" spans="2:25">
       <c r="B105" s="11">
         <v>45919</v>
       </c>
@@ -3167,7 +3219,7 @@
       </c>
       <c r="R106" s="13"/>
     </row>
-    <row r="107" spans="2:25" hidden="1">
+    <row r="107" spans="2:25">
       <c r="B107" s="11">
         <v>45919</v>
       </c>
@@ -3177,7 +3229,7 @@
       <c r="R107" s="13"/>
       <c r="Y107" s="13"/>
     </row>
-    <row r="108" spans="2:25" hidden="1">
+    <row r="108" spans="2:25">
       <c r="B108" s="11">
         <v>45919</v>
       </c>
@@ -3187,7 +3239,7 @@
       <c r="R108" s="13"/>
       <c r="Y108" s="13"/>
     </row>
-    <row r="109" spans="2:25" hidden="1">
+    <row r="109" spans="2:25">
       <c r="B109" s="11">
         <v>45920</v>
       </c>
@@ -3197,7 +3249,7 @@
       <c r="R109" s="13"/>
       <c r="Y109" s="13"/>
     </row>
-    <row r="110" spans="2:25" hidden="1">
+    <row r="110" spans="2:25">
       <c r="B110" s="11">
         <v>45920</v>
       </c>
@@ -3206,7 +3258,7 @@
       </c>
       <c r="R110" s="13"/>
     </row>
-    <row r="111" spans="2:25" hidden="1">
+    <row r="111" spans="2:25">
       <c r="B111" s="11">
         <v>45920</v>
       </c>
@@ -3216,7 +3268,7 @@
       <c r="R111" s="13"/>
       <c r="Y111" s="13"/>
     </row>
-    <row r="112" spans="2:25" hidden="1">
+    <row r="112" spans="2:25">
       <c r="B112" s="11">
         <v>45920</v>
       </c>
@@ -3234,7 +3286,7 @@
       </c>
       <c r="R113" s="13"/>
     </row>
-    <row r="114" spans="2:25" hidden="1">
+    <row r="114" spans="2:25">
       <c r="B114" s="11">
         <v>45920</v>
       </c>
@@ -3244,7 +3296,7 @@
       <c r="R114" s="13"/>
       <c r="Y114" s="13"/>
     </row>
-    <row r="115" spans="2:25" hidden="1">
+    <row r="115" spans="2:25">
       <c r="B115" s="11">
         <v>45920</v>
       </c>
@@ -3254,7 +3306,7 @@
       <c r="R115" s="13"/>
       <c r="Y115" s="13"/>
     </row>
-    <row r="116" spans="2:25" hidden="1">
+    <row r="116" spans="2:25">
       <c r="B116" s="11">
         <v>45921</v>
       </c>
@@ -3264,7 +3316,7 @@
       <c r="R116" s="13"/>
       <c r="Y116" s="13"/>
     </row>
-    <row r="117" spans="2:25" hidden="1">
+    <row r="117" spans="2:25">
       <c r="B117" s="11">
         <v>45921</v>
       </c>
@@ -3273,7 +3325,7 @@
       </c>
       <c r="R117" s="13"/>
     </row>
-    <row r="118" spans="2:25" hidden="1">
+    <row r="118" spans="2:25">
       <c r="B118" s="11">
         <v>45921</v>
       </c>
@@ -3283,7 +3335,7 @@
       <c r="R118" s="13"/>
       <c r="Y118" s="13"/>
     </row>
-    <row r="119" spans="2:25" hidden="1">
+    <row r="119" spans="2:25">
       <c r="B119" s="11">
         <v>45921</v>
       </c>
@@ -3301,7 +3353,7 @@
       </c>
       <c r="R120" s="13"/>
     </row>
-    <row r="121" spans="2:25" hidden="1">
+    <row r="121" spans="2:25">
       <c r="B121" s="11">
         <v>45921</v>
       </c>
@@ -3311,7 +3363,7 @@
       <c r="R121" s="13"/>
       <c r="Y121" s="13"/>
     </row>
-    <row r="122" spans="2:25" hidden="1">
+    <row r="122" spans="2:25">
       <c r="B122" s="11">
         <v>45921</v>
       </c>
@@ -3321,7 +3373,7 @@
       <c r="R122" s="13"/>
       <c r="Y122" s="13"/>
     </row>
-    <row r="123" spans="2:25" hidden="1">
+    <row r="123" spans="2:25">
       <c r="B123" s="11">
         <v>45922</v>
       </c>
@@ -3331,7 +3383,7 @@
       <c r="R123" s="13"/>
       <c r="Y123" s="13"/>
     </row>
-    <row r="124" spans="2:25" hidden="1">
+    <row r="124" spans="2:25">
       <c r="B124" s="11">
         <v>45922</v>
       </c>
@@ -3340,7 +3392,7 @@
       </c>
       <c r="R124" s="13"/>
     </row>
-    <row r="125" spans="2:25" hidden="1">
+    <row r="125" spans="2:25">
       <c r="B125" s="11">
         <v>45922</v>
       </c>
@@ -3350,7 +3402,7 @@
       <c r="R125" s="13"/>
       <c r="Y125" s="13"/>
     </row>
-    <row r="126" spans="2:25" hidden="1">
+    <row r="126" spans="2:25">
       <c r="B126" s="11">
         <v>45922</v>
       </c>
@@ -3368,7 +3420,7 @@
       </c>
       <c r="R127" s="13"/>
     </row>
-    <row r="128" spans="2:25" hidden="1">
+    <row r="128" spans="2:25">
       <c r="B128" s="11">
         <v>45922</v>
       </c>
@@ -3378,7 +3430,7 @@
       <c r="R128" s="13"/>
       <c r="Y128" s="13"/>
     </row>
-    <row r="129" spans="2:25" hidden="1">
+    <row r="129" spans="2:25">
       <c r="B129" s="11">
         <v>45922</v>
       </c>
@@ -3388,7 +3440,7 @@
       <c r="R129" s="13"/>
       <c r="Y129" s="13"/>
     </row>
-    <row r="130" spans="2:25" hidden="1">
+    <row r="130" spans="2:25">
       <c r="B130" s="11">
         <v>45923</v>
       </c>
@@ -3398,7 +3450,7 @@
       <c r="R130" s="13"/>
       <c r="Y130" s="13"/>
     </row>
-    <row r="131" spans="2:25" hidden="1">
+    <row r="131" spans="2:25">
       <c r="B131" s="11">
         <v>45923</v>
       </c>
@@ -3407,7 +3459,7 @@
       </c>
       <c r="R131" s="13"/>
     </row>
-    <row r="132" spans="2:25" hidden="1">
+    <row r="132" spans="2:25">
       <c r="B132" s="11">
         <v>45923</v>
       </c>
@@ -3417,7 +3469,7 @@
       <c r="R132" s="13"/>
       <c r="Y132" s="13"/>
     </row>
-    <row r="133" spans="2:25" hidden="1">
+    <row r="133" spans="2:25">
       <c r="B133" s="11">
         <v>45923</v>
       </c>
@@ -3435,7 +3487,7 @@
       </c>
       <c r="R134" s="13"/>
     </row>
-    <row r="135" spans="2:25" hidden="1">
+    <row r="135" spans="2:25">
       <c r="B135" s="11">
         <v>45923</v>
       </c>
@@ -3445,7 +3497,7 @@
       <c r="R135" s="13"/>
       <c r="Y135" s="13"/>
     </row>
-    <row r="136" spans="2:25" hidden="1">
+    <row r="136" spans="2:25">
       <c r="B136" s="11">
         <v>45923</v>
       </c>
@@ -3455,7 +3507,7 @@
       <c r="R136" s="13"/>
       <c r="Y136" s="13"/>
     </row>
-    <row r="137" spans="2:25" hidden="1">
+    <row r="137" spans="2:25">
       <c r="B137" s="11">
         <v>45924</v>
       </c>
@@ -3465,7 +3517,7 @@
       <c r="R137" s="13"/>
       <c r="Y137" s="13"/>
     </row>
-    <row r="138" spans="2:25" hidden="1">
+    <row r="138" spans="2:25">
       <c r="B138" s="11">
         <v>45924</v>
       </c>
@@ -3474,7 +3526,7 @@
       </c>
       <c r="R138" s="13"/>
     </row>
-    <row r="139" spans="2:25" hidden="1">
+    <row r="139" spans="2:25">
       <c r="B139" s="11">
         <v>45924</v>
       </c>
@@ -3484,7 +3536,7 @@
       <c r="R139" s="13"/>
       <c r="Y139" s="13"/>
     </row>
-    <row r="140" spans="2:25" hidden="1">
+    <row r="140" spans="2:25">
       <c r="B140" s="11">
         <v>45924</v>
       </c>
@@ -3502,7 +3554,7 @@
       </c>
       <c r="R141" s="13"/>
     </row>
-    <row r="142" spans="2:25" hidden="1">
+    <row r="142" spans="2:25">
       <c r="B142" s="11">
         <v>45924</v>
       </c>
@@ -3512,7 +3564,7 @@
       <c r="R142" s="13"/>
       <c r="Y142" s="13"/>
     </row>
-    <row r="143" spans="2:25" hidden="1">
+    <row r="143" spans="2:25">
       <c r="B143" s="11">
         <v>45924</v>
       </c>
@@ -3522,7 +3574,7 @@
       <c r="R143" s="13"/>
       <c r="Y143" s="13"/>
     </row>
-    <row r="144" spans="2:25" hidden="1">
+    <row r="144" spans="2:25">
       <c r="B144" s="11">
         <v>45925</v>
       </c>
@@ -3532,7 +3584,7 @@
       <c r="R144" s="13"/>
       <c r="Y144" s="13"/>
     </row>
-    <row r="145" spans="2:25" hidden="1">
+    <row r="145" spans="2:25">
       <c r="B145" s="11">
         <v>45925</v>
       </c>
@@ -3541,7 +3593,7 @@
       </c>
       <c r="R145" s="13"/>
     </row>
-    <row r="146" spans="2:25" hidden="1">
+    <row r="146" spans="2:25">
       <c r="B146" s="11">
         <v>45925</v>
       </c>
@@ -3551,7 +3603,7 @@
       <c r="R146" s="13"/>
       <c r="Y146" s="13"/>
     </row>
-    <row r="147" spans="2:25" hidden="1">
+    <row r="147" spans="2:25">
       <c r="B147" s="11">
         <v>45925</v>
       </c>
@@ -3569,7 +3621,7 @@
       </c>
       <c r="R148" s="13"/>
     </row>
-    <row r="149" spans="2:25" hidden="1">
+    <row r="149" spans="2:25">
       <c r="B149" s="11">
         <v>45925</v>
       </c>
@@ -3579,7 +3631,7 @@
       <c r="R149" s="13"/>
       <c r="Y149" s="13"/>
     </row>
-    <row r="150" spans="2:25" hidden="1">
+    <row r="150" spans="2:25">
       <c r="B150" s="11">
         <v>45925</v>
       </c>
@@ -3589,7 +3641,7 @@
       <c r="R150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="2:25" hidden="1">
+    <row r="151" spans="2:25">
       <c r="B151" s="11">
         <v>45926</v>
       </c>
@@ -3599,7 +3651,7 @@
       <c r="R151" s="13"/>
       <c r="Y151" s="13"/>
     </row>
-    <row r="152" spans="2:25" hidden="1">
+    <row r="152" spans="2:25">
       <c r="B152" s="11">
         <v>45926</v>
       </c>
@@ -3608,7 +3660,7 @@
       </c>
       <c r="R152" s="13"/>
     </row>
-    <row r="153" spans="2:25" hidden="1">
+    <row r="153" spans="2:25">
       <c r="B153" s="11">
         <v>45926</v>
       </c>
@@ -3618,7 +3670,7 @@
       <c r="R153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="2:25" hidden="1">
+    <row r="154" spans="2:25">
       <c r="B154" s="11">
         <v>45926</v>
       </c>
@@ -3636,7 +3688,7 @@
       </c>
       <c r="R155" s="13"/>
     </row>
-    <row r="156" spans="2:25" hidden="1">
+    <row r="156" spans="2:25">
       <c r="B156" s="11">
         <v>45926</v>
       </c>
@@ -3646,7 +3698,7 @@
       <c r="R156" s="13"/>
       <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="2:25" hidden="1">
+    <row r="157" spans="2:25">
       <c r="B157" s="11">
         <v>45926</v>
       </c>
@@ -3656,7 +3708,7 @@
       <c r="R157" s="13"/>
       <c r="Y157" s="13"/>
     </row>
-    <row r="158" spans="2:25" hidden="1">
+    <row r="158" spans="2:25">
       <c r="B158" s="11">
         <v>45927</v>
       </c>
@@ -3666,7 +3718,7 @@
       <c r="R158" s="13"/>
       <c r="Y158" s="13"/>
     </row>
-    <row r="159" spans="2:25" hidden="1">
+    <row r="159" spans="2:25">
       <c r="B159" s="11">
         <v>45927</v>
       </c>
@@ -3675,7 +3727,7 @@
       </c>
       <c r="R159" s="13"/>
     </row>
-    <row r="160" spans="2:25" hidden="1">
+    <row r="160" spans="2:25">
       <c r="B160" s="11">
         <v>45927</v>
       </c>
@@ -3685,7 +3737,7 @@
       <c r="R160" s="13"/>
       <c r="Y160" s="13"/>
     </row>
-    <row r="161" spans="2:25" hidden="1">
+    <row r="161" spans="2:25">
       <c r="B161" s="11">
         <v>45927</v>
       </c>
@@ -3703,7 +3755,7 @@
       </c>
       <c r="R162" s="13"/>
     </row>
-    <row r="163" spans="2:25" hidden="1">
+    <row r="163" spans="2:25">
       <c r="B163" s="11">
         <v>45927</v>
       </c>
@@ -3713,7 +3765,7 @@
       <c r="R163" s="13"/>
       <c r="Y163" s="13"/>
     </row>
-    <row r="164" spans="2:25" hidden="1">
+    <row r="164" spans="2:25">
       <c r="B164" s="11">
         <v>45927</v>
       </c>
@@ -3723,7 +3775,7 @@
       <c r="R164" s="13"/>
       <c r="Y164" s="13"/>
     </row>
-    <row r="165" spans="2:25" hidden="1">
+    <row r="165" spans="2:25">
       <c r="B165" s="11">
         <v>45928</v>
       </c>
@@ -3733,7 +3785,7 @@
       <c r="R165" s="13"/>
       <c r="Y165" s="13"/>
     </row>
-    <row r="166" spans="2:25" hidden="1">
+    <row r="166" spans="2:25">
       <c r="B166" s="11">
         <v>45928</v>
       </c>
@@ -3742,7 +3794,7 @@
       </c>
       <c r="R166" s="13"/>
     </row>
-    <row r="167" spans="2:25" hidden="1">
+    <row r="167" spans="2:25">
       <c r="B167" s="11">
         <v>45928</v>
       </c>
@@ -3752,7 +3804,7 @@
       <c r="R167" s="13"/>
       <c r="Y167" s="13"/>
     </row>
-    <row r="168" spans="2:25" hidden="1">
+    <row r="168" spans="2:25">
       <c r="B168" s="11">
         <v>45928</v>
       </c>
@@ -3770,7 +3822,7 @@
       </c>
       <c r="R169" s="13"/>
     </row>
-    <row r="170" spans="2:25" hidden="1">
+    <row r="170" spans="2:25">
       <c r="B170" s="11">
         <v>45928</v>
       </c>
@@ -3780,7 +3832,7 @@
       <c r="R170" s="13"/>
       <c r="Y170" s="13"/>
     </row>
-    <row r="171" spans="2:25" hidden="1">
+    <row r="171" spans="2:25">
       <c r="B171" s="11">
         <v>45928</v>
       </c>
@@ -3790,7 +3842,7 @@
       <c r="R171" s="13"/>
       <c r="Y171" s="13"/>
     </row>
-    <row r="172" spans="2:25" hidden="1">
+    <row r="172" spans="2:25">
       <c r="B172" s="11">
         <v>45929</v>
       </c>
@@ -3800,7 +3852,7 @@
       <c r="R172" s="13"/>
       <c r="Y172" s="13"/>
     </row>
-    <row r="173" spans="2:25" hidden="1">
+    <row r="173" spans="2:25">
       <c r="B173" s="11">
         <v>45929</v>
       </c>
@@ -3809,7 +3861,7 @@
       </c>
       <c r="R173" s="13"/>
     </row>
-    <row r="174" spans="2:25" hidden="1">
+    <row r="174" spans="2:25">
       <c r="B174" s="11">
         <v>45929</v>
       </c>
@@ -3819,7 +3871,7 @@
       <c r="R174" s="13"/>
       <c r="Y174" s="13"/>
     </row>
-    <row r="175" spans="2:25" hidden="1">
+    <row r="175" spans="2:25">
       <c r="B175" s="11">
         <v>45929</v>
       </c>
@@ -3837,7 +3889,7 @@
       </c>
       <c r="R176" s="13"/>
     </row>
-    <row r="177" spans="2:25" hidden="1">
+    <row r="177" spans="2:25">
       <c r="B177" s="11">
         <v>45929</v>
       </c>
@@ -3847,7 +3899,7 @@
       <c r="R177" s="13"/>
       <c r="Y177" s="13"/>
     </row>
-    <row r="178" spans="2:25" hidden="1">
+    <row r="178" spans="2:25">
       <c r="B178" s="11">
         <v>45929</v>
       </c>
@@ -3857,7 +3909,7 @@
       <c r="R178" s="13"/>
       <c r="Y178" s="13"/>
     </row>
-    <row r="179" spans="2:25" hidden="1">
+    <row r="179" spans="2:25">
       <c r="B179" s="11">
         <v>45930</v>
       </c>
@@ -3867,7 +3919,7 @@
       <c r="R179" s="13"/>
       <c r="Y179" s="13"/>
     </row>
-    <row r="180" spans="2:25" hidden="1">
+    <row r="180" spans="2:25">
       <c r="B180" s="11">
         <v>45930</v>
       </c>
@@ -3876,7 +3928,7 @@
       </c>
       <c r="R180" s="13"/>
     </row>
-    <row r="181" spans="2:25" hidden="1">
+    <row r="181" spans="2:25">
       <c r="B181" s="11">
         <v>45930</v>
       </c>
@@ -3886,7 +3938,7 @@
       <c r="R181" s="13"/>
       <c r="Y181" s="13"/>
     </row>
-    <row r="182" spans="2:25" hidden="1">
+    <row r="182" spans="2:25">
       <c r="B182" s="11">
         <v>45930</v>
       </c>
@@ -3904,7 +3956,7 @@
       </c>
       <c r="R183" s="13"/>
     </row>
-    <row r="184" spans="2:25" hidden="1">
+    <row r="184" spans="2:25">
       <c r="B184" s="11">
         <v>45930</v>
       </c>
@@ -3914,7 +3966,7 @@
       <c r="R184" s="13"/>
       <c r="Y184" s="13"/>
     </row>
-    <row r="185" spans="2:25" hidden="1">
+    <row r="185" spans="2:25">
       <c r="B185" s="11">
         <v>45930</v>
       </c>
@@ -3924,7 +3976,7 @@
       <c r="R185" s="13"/>
       <c r="Y185" s="13"/>
     </row>
-    <row r="186" spans="2:25" hidden="1">
+    <row r="186" spans="2:25">
       <c r="B186" s="11">
         <v>45931</v>
       </c>
@@ -3934,7 +3986,7 @@
       <c r="R186" s="13"/>
       <c r="Y186" s="13"/>
     </row>
-    <row r="187" spans="2:25" hidden="1">
+    <row r="187" spans="2:25">
       <c r="B187" s="11">
         <v>45931</v>
       </c>
@@ -3944,7 +3996,7 @@
       <c r="R187" s="13"/>
       <c r="Y187" s="13"/>
     </row>
-    <row r="188" spans="2:25" hidden="1">
+    <row r="188" spans="2:25">
       <c r="B188" s="11">
         <v>45931</v>
       </c>
@@ -3954,7 +4006,7 @@
       <c r="R188" s="13"/>
       <c r="Y188" s="13"/>
     </row>
-    <row r="189" spans="2:25" hidden="1">
+    <row r="189" spans="2:25">
       <c r="B189" s="11">
         <v>45931</v>
       </c>
@@ -3964,7 +4016,7 @@
       <c r="R189" s="13"/>
       <c r="Y189" s="13"/>
     </row>
-    <row r="190" spans="2:25" hidden="1">
+    <row r="190" spans="2:25">
       <c r="B190" s="11">
         <v>45931</v>
       </c>
@@ -3974,7 +4026,7 @@
       <c r="R190" s="13"/>
       <c r="Y190" s="13"/>
     </row>
-    <row r="191" spans="2:25" hidden="1">
+    <row r="191" spans="2:25">
       <c r="B191" s="11">
         <v>45931</v>
       </c>
@@ -3984,7 +4036,7 @@
       <c r="R191" s="13"/>
       <c r="Y191" s="13"/>
     </row>
-    <row r="192" spans="2:25" hidden="1">
+    <row r="192" spans="2:25">
       <c r="B192" s="11">
         <v>45931</v>
       </c>
@@ -3994,7 +4046,7 @@
       <c r="R192" s="13"/>
       <c r="Y192" s="13"/>
     </row>
-    <row r="193" spans="2:25" hidden="1">
+    <row r="193" spans="2:25">
       <c r="B193" s="11">
         <v>45932</v>
       </c>
@@ -4004,7 +4056,7 @@
       <c r="R193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="2:25" hidden="1">
+    <row r="194" spans="2:25">
       <c r="B194" s="11">
         <v>45932</v>
       </c>
@@ -4014,7 +4066,7 @@
       <c r="R194" s="13"/>
       <c r="Y194" s="13"/>
     </row>
-    <row r="195" spans="2:25" hidden="1">
+    <row r="195" spans="2:25">
       <c r="B195" s="11">
         <v>45932</v>
       </c>
@@ -4024,7 +4076,7 @@
       <c r="R195" s="13"/>
       <c r="Y195" s="13"/>
     </row>
-    <row r="196" spans="2:25" hidden="1">
+    <row r="196" spans="2:25">
       <c r="B196" s="11">
         <v>45932</v>
       </c>
@@ -4034,7 +4086,7 @@
       <c r="R196" s="13"/>
       <c r="Y196" s="13"/>
     </row>
-    <row r="197" spans="2:25" hidden="1">
+    <row r="197" spans="2:25">
       <c r="B197" s="11">
         <v>45932</v>
       </c>
@@ -4044,7 +4096,7 @@
       <c r="R197" s="13"/>
       <c r="Y197" s="13"/>
     </row>
-    <row r="198" spans="2:25" hidden="1">
+    <row r="198" spans="2:25">
       <c r="B198" s="11">
         <v>45932</v>
       </c>
@@ -4054,7 +4106,7 @@
       <c r="R198" s="13"/>
       <c r="Y198" s="13"/>
     </row>
-    <row r="199" spans="2:25" hidden="1">
+    <row r="199" spans="2:25">
       <c r="B199" s="11">
         <v>45932</v>
       </c>
@@ -4064,7 +4116,7 @@
       <c r="R199" s="13"/>
       <c r="Y199" s="13"/>
     </row>
-    <row r="200" spans="2:25" hidden="1">
+    <row r="200" spans="2:25">
       <c r="B200" s="11">
         <v>45933</v>
       </c>
@@ -4074,7 +4126,7 @@
       <c r="R200" s="13"/>
       <c r="Y200" s="13"/>
     </row>
-    <row r="201" spans="2:25" hidden="1">
+    <row r="201" spans="2:25">
       <c r="B201" s="11">
         <v>45933</v>
       </c>
@@ -4084,7 +4136,7 @@
       <c r="R201" s="13"/>
       <c r="Y201" s="13"/>
     </row>
-    <row r="202" spans="2:25" hidden="1">
+    <row r="202" spans="2:25">
       <c r="B202" s="11">
         <v>45933</v>
       </c>
@@ -4094,7 +4146,7 @@
       <c r="R202" s="13"/>
       <c r="Y202" s="13"/>
     </row>
-    <row r="203" spans="2:25" hidden="1">
+    <row r="203" spans="2:25">
       <c r="B203" s="11">
         <v>45933</v>
       </c>
@@ -4104,7 +4156,7 @@
       <c r="R203" s="13"/>
       <c r="Y203" s="13"/>
     </row>
-    <row r="204" spans="2:25" hidden="1">
+    <row r="204" spans="2:25">
       <c r="B204" s="11">
         <v>45933</v>
       </c>
@@ -4114,7 +4166,7 @@
       <c r="R204" s="13"/>
       <c r="Y204" s="13"/>
     </row>
-    <row r="205" spans="2:25" hidden="1">
+    <row r="205" spans="2:25">
       <c r="B205" s="11">
         <v>45933</v>
       </c>
@@ -4124,7 +4176,7 @@
       <c r="R205" s="13"/>
       <c r="Y205" s="13"/>
     </row>
-    <row r="206" spans="2:25" hidden="1">
+    <row r="206" spans="2:25">
       <c r="B206" s="11">
         <v>45933</v>
       </c>
@@ -4134,7 +4186,7 @@
       <c r="R206" s="13"/>
       <c r="Y206" s="13"/>
     </row>
-    <row r="207" spans="2:25" hidden="1">
+    <row r="207" spans="2:25">
       <c r="B207" s="11">
         <v>45934</v>
       </c>
@@ -4144,7 +4196,7 @@
       <c r="R207" s="13"/>
       <c r="Y207" s="13"/>
     </row>
-    <row r="208" spans="2:25" hidden="1">
+    <row r="208" spans="2:25">
       <c r="B208" s="11">
         <v>45934</v>
       </c>
@@ -4154,7 +4206,7 @@
       <c r="R208" s="13"/>
       <c r="Y208" s="13"/>
     </row>
-    <row r="209" spans="2:25" hidden="1">
+    <row r="209" spans="2:25">
       <c r="B209" s="11">
         <v>45934</v>
       </c>
@@ -4164,7 +4216,7 @@
       <c r="R209" s="13"/>
       <c r="Y209" s="13"/>
     </row>
-    <row r="210" spans="2:25" hidden="1">
+    <row r="210" spans="2:25">
       <c r="B210" s="11">
         <v>45934</v>
       </c>
@@ -4174,7 +4226,7 @@
       <c r="R210" s="13"/>
       <c r="Y210" s="13"/>
     </row>
-    <row r="211" spans="2:25" hidden="1">
+    <row r="211" spans="2:25">
       <c r="B211" s="11">
         <v>45934</v>
       </c>
@@ -4184,7 +4236,7 @@
       <c r="R211" s="13"/>
       <c r="Y211" s="13"/>
     </row>
-    <row r="212" spans="2:25" hidden="1">
+    <row r="212" spans="2:25">
       <c r="B212" s="11">
         <v>45934</v>
       </c>
@@ -4194,7 +4246,7 @@
       <c r="R212" s="13"/>
       <c r="Y212" s="13"/>
     </row>
-    <row r="213" spans="2:25" hidden="1">
+    <row r="213" spans="2:25">
       <c r="B213" s="11">
         <v>45934</v>
       </c>
@@ -4204,7 +4256,7 @@
       <c r="R213" s="13"/>
       <c r="Y213" s="13"/>
     </row>
-    <row r="214" spans="2:25" hidden="1">
+    <row r="214" spans="2:25">
       <c r="B214" s="11">
         <v>45935</v>
       </c>
@@ -4214,7 +4266,7 @@
       <c r="R214" s="13"/>
       <c r="Y214" s="13"/>
     </row>
-    <row r="215" spans="2:25" hidden="1">
+    <row r="215" spans="2:25">
       <c r="B215" s="11">
         <v>45935</v>
       </c>
@@ -4224,7 +4276,7 @@
       <c r="R215" s="13"/>
       <c r="Y215" s="13"/>
     </row>
-    <row r="216" spans="2:25" hidden="1">
+    <row r="216" spans="2:25">
       <c r="B216" s="11">
         <v>45935</v>
       </c>
@@ -4234,7 +4286,7 @@
       <c r="R216" s="13"/>
       <c r="Y216" s="13"/>
     </row>
-    <row r="217" spans="2:25" hidden="1">
+    <row r="217" spans="2:25">
       <c r="B217" s="11">
         <v>45935</v>
       </c>
@@ -4244,7 +4296,7 @@
       <c r="R217" s="13"/>
       <c r="Y217" s="13"/>
     </row>
-    <row r="218" spans="2:25" hidden="1">
+    <row r="218" spans="2:25">
       <c r="B218" s="11">
         <v>45935</v>
       </c>
@@ -4254,7 +4306,7 @@
       <c r="R218" s="13"/>
       <c r="Y218" s="13"/>
     </row>
-    <row r="219" spans="2:25" hidden="1">
+    <row r="219" spans="2:25">
       <c r="B219" s="11">
         <v>45935</v>
       </c>
@@ -4264,7 +4316,7 @@
       <c r="R219" s="13"/>
       <c r="Y219" s="13"/>
     </row>
-    <row r="220" spans="2:25" hidden="1">
+    <row r="220" spans="2:25">
       <c r="B220" s="11">
         <v>45935</v>
       </c>
@@ -4274,7 +4326,7 @@
       <c r="R220" s="13"/>
       <c r="Y220" s="13"/>
     </row>
-    <row r="221" spans="2:25" hidden="1">
+    <row r="221" spans="2:25">
       <c r="B221" s="11">
         <v>45936</v>
       </c>
@@ -4284,7 +4336,7 @@
       <c r="R221" s="13"/>
       <c r="Y221" s="13"/>
     </row>
-    <row r="222" spans="2:25" hidden="1">
+    <row r="222" spans="2:25">
       <c r="B222" s="11">
         <v>45936</v>
       </c>
@@ -4294,7 +4346,7 @@
       <c r="R222" s="13"/>
       <c r="Y222" s="13"/>
     </row>
-    <row r="223" spans="2:25" hidden="1">
+    <row r="223" spans="2:25">
       <c r="B223" s="11">
         <v>45936</v>
       </c>
@@ -4304,7 +4356,7 @@
       <c r="R223" s="13"/>
       <c r="Y223" s="13"/>
     </row>
-    <row r="224" spans="2:25" hidden="1">
+    <row r="224" spans="2:25">
       <c r="B224" s="11">
         <v>45936</v>
       </c>
@@ -4314,7 +4366,7 @@
       <c r="R224" s="13"/>
       <c r="Y224" s="13"/>
     </row>
-    <row r="225" spans="2:25" hidden="1">
+    <row r="225" spans="2:25">
       <c r="B225" s="11">
         <v>45936</v>
       </c>
@@ -4324,7 +4376,7 @@
       <c r="R225" s="13"/>
       <c r="Y225" s="13"/>
     </row>
-    <row r="226" spans="2:25" hidden="1">
+    <row r="226" spans="2:25">
       <c r="B226" s="11">
         <v>45936</v>
       </c>
@@ -4334,7 +4386,7 @@
       <c r="R226" s="13"/>
       <c r="Y226" s="13"/>
     </row>
-    <row r="227" spans="2:25" hidden="1">
+    <row r="227" spans="2:25">
       <c r="B227" s="11">
         <v>45936</v>
       </c>
@@ -4344,7 +4396,7 @@
       <c r="R227" s="13"/>
       <c r="Y227" s="13"/>
     </row>
-    <row r="228" spans="2:25" hidden="1">
+    <row r="228" spans="2:25">
       <c r="B228" s="11">
         <v>45937</v>
       </c>
@@ -4354,7 +4406,7 @@
       <c r="R228" s="13"/>
       <c r="Y228" s="13"/>
     </row>
-    <row r="229" spans="2:25" hidden="1">
+    <row r="229" spans="2:25">
       <c r="B229" s="11">
         <v>45937</v>
       </c>
@@ -4364,7 +4416,7 @@
       <c r="R229" s="13"/>
       <c r="Y229" s="13"/>
     </row>
-    <row r="230" spans="2:25" hidden="1">
+    <row r="230" spans="2:25">
       <c r="B230" s="11">
         <v>45937</v>
       </c>
@@ -4374,7 +4426,7 @@
       <c r="R230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="2:25" hidden="1">
+    <row r="231" spans="2:25">
       <c r="B231" s="11">
         <v>45937</v>
       </c>
@@ -4384,7 +4436,7 @@
       <c r="R231" s="13"/>
       <c r="Y231" s="13"/>
     </row>
-    <row r="232" spans="2:25" hidden="1">
+    <row r="232" spans="2:25">
       <c r="B232" s="11">
         <v>45937</v>
       </c>
@@ -4394,7 +4446,7 @@
       <c r="R232" s="13"/>
       <c r="Y232" s="13"/>
     </row>
-    <row r="233" spans="2:25" hidden="1">
+    <row r="233" spans="2:25">
       <c r="B233" s="11">
         <v>45937</v>
       </c>
@@ -4404,7 +4456,7 @@
       <c r="R233" s="13"/>
       <c r="Y233" s="13"/>
     </row>
-    <row r="234" spans="2:25" hidden="1">
+    <row r="234" spans="2:25">
       <c r="B234" s="11">
         <v>45937</v>
       </c>
@@ -4414,7 +4466,7 @@
       <c r="R234" s="13"/>
       <c r="Y234" s="13"/>
     </row>
-    <row r="235" spans="2:25" hidden="1">
+    <row r="235" spans="2:25">
       <c r="B235" s="11">
         <v>45938</v>
       </c>
@@ -4424,7 +4476,7 @@
       <c r="R235" s="13"/>
       <c r="Y235" s="13"/>
     </row>
-    <row r="236" spans="2:25" hidden="1">
+    <row r="236" spans="2:25">
       <c r="B236" s="11">
         <v>45938</v>
       </c>
@@ -4434,7 +4486,7 @@
       <c r="R236" s="13"/>
       <c r="Y236" s="13"/>
     </row>
-    <row r="237" spans="2:25" hidden="1">
+    <row r="237" spans="2:25">
       <c r="B237" s="11">
         <v>45938</v>
       </c>
@@ -4444,7 +4496,7 @@
       <c r="R237" s="13"/>
       <c r="Y237" s="13"/>
     </row>
-    <row r="238" spans="2:25" hidden="1">
+    <row r="238" spans="2:25">
       <c r="B238" s="11">
         <v>45938</v>
       </c>
@@ -4454,7 +4506,7 @@
       <c r="R238" s="13"/>
       <c r="Y238" s="13"/>
     </row>
-    <row r="239" spans="2:25" hidden="1">
+    <row r="239" spans="2:25">
       <c r="B239" s="11">
         <v>45938</v>
       </c>
@@ -4464,7 +4516,7 @@
       <c r="R239" s="13"/>
       <c r="Y239" s="13"/>
     </row>
-    <row r="240" spans="2:25" hidden="1">
+    <row r="240" spans="2:25">
       <c r="B240" s="11">
         <v>45938</v>
       </c>
@@ -4474,7 +4526,7 @@
       <c r="R240" s="13"/>
       <c r="Y240" s="13"/>
     </row>
-    <row r="241" spans="2:25" hidden="1">
+    <row r="241" spans="2:25">
       <c r="B241" s="11">
         <v>45938</v>
       </c>
@@ -4484,7 +4536,7 @@
       <c r="R241" s="13"/>
       <c r="Y241" s="13"/>
     </row>
-    <row r="242" spans="2:25" hidden="1">
+    <row r="242" spans="2:25">
       <c r="B242" s="11">
         <v>45939</v>
       </c>
@@ -4494,7 +4546,7 @@
       <c r="R242" s="13"/>
       <c r="Y242" s="13"/>
     </row>
-    <row r="243" spans="2:25" hidden="1">
+    <row r="243" spans="2:25">
       <c r="B243" s="11">
         <v>45939</v>
       </c>
@@ -4504,7 +4556,7 @@
       <c r="R243" s="13"/>
       <c r="Y243" s="13"/>
     </row>
-    <row r="244" spans="2:25" hidden="1">
+    <row r="244" spans="2:25">
       <c r="B244" s="11">
         <v>45939</v>
       </c>
@@ -4514,7 +4566,7 @@
       <c r="R244" s="13"/>
       <c r="Y244" s="13"/>
     </row>
-    <row r="245" spans="2:25" hidden="1">
+    <row r="245" spans="2:25">
       <c r="B245" s="11">
         <v>45939</v>
       </c>
@@ -4524,7 +4576,7 @@
       <c r="R245" s="13"/>
       <c r="Y245" s="13"/>
     </row>
-    <row r="246" spans="2:25" hidden="1">
+    <row r="246" spans="2:25">
       <c r="B246" s="11">
         <v>45939</v>
       </c>
@@ -4534,7 +4586,7 @@
       <c r="R246" s="13"/>
       <c r="Y246" s="13"/>
     </row>
-    <row r="247" spans="2:25" hidden="1">
+    <row r="247" spans="2:25">
       <c r="B247" s="11">
         <v>45939</v>
       </c>
@@ -4544,7 +4596,7 @@
       <c r="R247" s="13"/>
       <c r="Y247" s="13"/>
     </row>
-    <row r="248" spans="2:25" hidden="1">
+    <row r="248" spans="2:25">
       <c r="B248" s="11">
         <v>45939</v>
       </c>
@@ -4554,7 +4606,7 @@
       <c r="R248" s="13"/>
       <c r="Y248" s="13"/>
     </row>
-    <row r="249" spans="2:25" hidden="1">
+    <row r="249" spans="2:25">
       <c r="B249" s="11">
         <v>45940</v>
       </c>
@@ -4564,7 +4616,7 @@
       <c r="R249" s="13"/>
       <c r="Y249" s="13"/>
     </row>
-    <row r="250" spans="2:25" hidden="1">
+    <row r="250" spans="2:25">
       <c r="B250" s="11">
         <v>45940</v>
       </c>
@@ -4574,7 +4626,7 @@
       <c r="R250" s="13"/>
       <c r="Y250" s="13"/>
     </row>
-    <row r="251" spans="2:25" hidden="1">
+    <row r="251" spans="2:25">
       <c r="B251" s="11">
         <v>45940</v>
       </c>
@@ -4584,7 +4636,7 @@
       <c r="R251" s="13"/>
       <c r="Y251" s="13"/>
     </row>
-    <row r="252" spans="2:25" hidden="1">
+    <row r="252" spans="2:25">
       <c r="B252" s="11">
         <v>45940</v>
       </c>
@@ -4594,7 +4646,7 @@
       <c r="R252" s="13"/>
       <c r="Y252" s="13"/>
     </row>
-    <row r="253" spans="2:25" hidden="1">
+    <row r="253" spans="2:25">
       <c r="B253" s="11">
         <v>45940</v>
       </c>
@@ -4604,7 +4656,7 @@
       <c r="R253" s="13"/>
       <c r="Y253" s="13"/>
     </row>
-    <row r="254" spans="2:25" hidden="1">
+    <row r="254" spans="2:25">
       <c r="B254" s="11">
         <v>45940</v>
       </c>
@@ -4614,7 +4666,7 @@
       <c r="R254" s="13"/>
       <c r="Y254" s="13"/>
     </row>
-    <row r="255" spans="2:25" hidden="1">
+    <row r="255" spans="2:25">
       <c r="B255" s="11">
         <v>45940</v>
       </c>
@@ -4624,7 +4676,7 @@
       <c r="R255" s="13"/>
       <c r="Y255" s="13"/>
     </row>
-    <row r="256" spans="2:25" hidden="1">
+    <row r="256" spans="2:25">
       <c r="B256" s="11">
         <v>45941</v>
       </c>
@@ -4634,7 +4686,7 @@
       <c r="R256" s="13"/>
       <c r="Y256" s="13"/>
     </row>
-    <row r="257" spans="2:25" hidden="1">
+    <row r="257" spans="2:25">
       <c r="B257" s="11">
         <v>45941</v>
       </c>
@@ -4644,7 +4696,7 @@
       <c r="R257" s="13"/>
       <c r="Y257" s="13"/>
     </row>
-    <row r="258" spans="2:25" hidden="1">
+    <row r="258" spans="2:25">
       <c r="B258" s="11">
         <v>45941</v>
       </c>
@@ -4654,7 +4706,7 @@
       <c r="R258" s="13"/>
       <c r="Y258" s="13"/>
     </row>
-    <row r="259" spans="2:25" hidden="1">
+    <row r="259" spans="2:25">
       <c r="B259" s="11">
         <v>45941</v>
       </c>
@@ -4664,7 +4716,7 @@
       <c r="R259" s="13"/>
       <c r="Y259" s="13"/>
     </row>
-    <row r="260" spans="2:25" hidden="1">
+    <row r="260" spans="2:25">
       <c r="B260" s="11">
         <v>45941</v>
       </c>
@@ -4674,7 +4726,7 @@
       <c r="R260" s="13"/>
       <c r="Y260" s="13"/>
     </row>
-    <row r="261" spans="2:25" hidden="1">
+    <row r="261" spans="2:25">
       <c r="B261" s="11">
         <v>45941</v>
       </c>
@@ -4684,7 +4736,7 @@
       <c r="R261" s="13"/>
       <c r="Y261" s="13"/>
     </row>
-    <row r="262" spans="2:25" hidden="1">
+    <row r="262" spans="2:25">
       <c r="B262" s="11">
         <v>45941</v>
       </c>
@@ -4694,7 +4746,7 @@
       <c r="R262" s="13"/>
       <c r="Y262" s="13"/>
     </row>
-    <row r="263" spans="2:25" hidden="1">
+    <row r="263" spans="2:25">
       <c r="B263" s="11">
         <v>45942</v>
       </c>
@@ -4704,7 +4756,7 @@
       <c r="R263" s="13"/>
       <c r="Y263" s="13"/>
     </row>
-    <row r="264" spans="2:25" hidden="1">
+    <row r="264" spans="2:25">
       <c r="B264" s="11">
         <v>45942</v>
       </c>
@@ -4714,7 +4766,7 @@
       <c r="R264" s="13"/>
       <c r="Y264" s="13"/>
     </row>
-    <row r="265" spans="2:25" hidden="1">
+    <row r="265" spans="2:25">
       <c r="B265" s="11">
         <v>45942</v>
       </c>
@@ -4724,7 +4776,7 @@
       <c r="R265" s="13"/>
       <c r="Y265" s="13"/>
     </row>
-    <row r="266" spans="2:25" hidden="1">
+    <row r="266" spans="2:25">
       <c r="B266" s="11">
         <v>45942</v>
       </c>
@@ -4734,7 +4786,7 @@
       <c r="R266" s="13"/>
       <c r="Y266" s="13"/>
     </row>
-    <row r="267" spans="2:25" hidden="1">
+    <row r="267" spans="2:25">
       <c r="B267" s="11">
         <v>45942</v>
       </c>
@@ -4744,7 +4796,7 @@
       <c r="R267" s="13"/>
       <c r="Y267" s="13"/>
     </row>
-    <row r="268" spans="2:25" hidden="1">
+    <row r="268" spans="2:25">
       <c r="B268" s="11">
         <v>45942</v>
       </c>
@@ -4754,7 +4806,7 @@
       <c r="R268" s="13"/>
       <c r="Y268" s="13"/>
     </row>
-    <row r="269" spans="2:25" hidden="1">
+    <row r="269" spans="2:25">
       <c r="B269" s="11">
         <v>45942</v>
       </c>
@@ -4764,7 +4816,7 @@
       <c r="R269" s="13"/>
       <c r="Y269" s="13"/>
     </row>
-    <row r="270" spans="2:25" hidden="1">
+    <row r="270" spans="2:25">
       <c r="B270" s="11">
         <v>45943</v>
       </c>
@@ -4774,7 +4826,7 @@
       <c r="R270" s="13"/>
       <c r="Y270" s="13"/>
     </row>
-    <row r="271" spans="2:25" hidden="1">
+    <row r="271" spans="2:25">
       <c r="B271" s="11">
         <v>45943</v>
       </c>
@@ -4784,7 +4836,7 @@
       <c r="R271" s="13"/>
       <c r="Y271" s="13"/>
     </row>
-    <row r="272" spans="2:25" hidden="1">
+    <row r="272" spans="2:25">
       <c r="B272" s="11">
         <v>45943</v>
       </c>
@@ -4794,7 +4846,7 @@
       <c r="R272" s="13"/>
       <c r="Y272" s="13"/>
     </row>
-    <row r="273" spans="2:25" hidden="1">
+    <row r="273" spans="2:25">
       <c r="B273" s="11">
         <v>45943</v>
       </c>
@@ -4804,7 +4856,7 @@
       <c r="R273" s="13"/>
       <c r="Y273" s="13"/>
     </row>
-    <row r="274" spans="2:25" hidden="1">
+    <row r="274" spans="2:25">
       <c r="B274" s="11">
         <v>45943</v>
       </c>
@@ -4814,7 +4866,7 @@
       <c r="R274" s="13"/>
       <c r="Y274" s="13"/>
     </row>
-    <row r="275" spans="2:25" hidden="1">
+    <row r="275" spans="2:25">
       <c r="B275" s="11">
         <v>45943</v>
       </c>
@@ -4824,7 +4876,7 @@
       <c r="R275" s="13"/>
       <c r="Y275" s="13"/>
     </row>
-    <row r="276" spans="2:25" hidden="1">
+    <row r="276" spans="2:25">
       <c r="B276" s="11">
         <v>45943</v>
       </c>
@@ -4834,7 +4886,7 @@
       <c r="R276" s="13"/>
       <c r="Y276" s="13"/>
     </row>
-    <row r="277" spans="2:25" hidden="1">
+    <row r="277" spans="2:25">
       <c r="B277" s="11">
         <v>45944</v>
       </c>
@@ -4844,7 +4896,7 @@
       <c r="R277" s="13"/>
       <c r="Y277" s="13"/>
     </row>
-    <row r="278" spans="2:25" hidden="1">
+    <row r="278" spans="2:25">
       <c r="B278" s="11">
         <v>45944</v>
       </c>
@@ -4854,7 +4906,7 @@
       <c r="R278" s="13"/>
       <c r="Y278" s="13"/>
     </row>
-    <row r="279" spans="2:25" hidden="1">
+    <row r="279" spans="2:25">
       <c r="B279" s="11">
         <v>45944</v>
       </c>
@@ -4864,7 +4916,7 @@
       <c r="R279" s="13"/>
       <c r="Y279" s="13"/>
     </row>
-    <row r="280" spans="2:25" hidden="1">
+    <row r="280" spans="2:25">
       <c r="B280" s="11">
         <v>45944</v>
       </c>
@@ -4874,7 +4926,7 @@
       <c r="R280" s="13"/>
       <c r="Y280" s="13"/>
     </row>
-    <row r="281" spans="2:25" hidden="1">
+    <row r="281" spans="2:25">
       <c r="B281" s="11">
         <v>45944</v>
       </c>
@@ -4884,7 +4936,7 @@
       <c r="R281" s="13"/>
       <c r="Y281" s="13"/>
     </row>
-    <row r="282" spans="2:25" hidden="1">
+    <row r="282" spans="2:25">
       <c r="B282" s="11">
         <v>45944</v>
       </c>
@@ -4894,7 +4946,7 @@
       <c r="R282" s="13"/>
       <c r="Y282" s="13"/>
     </row>
-    <row r="283" spans="2:25" hidden="1">
+    <row r="283" spans="2:25">
       <c r="B283" s="11">
         <v>45944</v>
       </c>
@@ -4904,7 +4956,7 @@
       <c r="R283" s="13"/>
       <c r="Y283" s="13"/>
     </row>
-    <row r="284" spans="2:25" hidden="1">
+    <row r="284" spans="2:25">
       <c r="B284" s="11">
         <v>45945</v>
       </c>
@@ -4914,7 +4966,7 @@
       <c r="R284" s="13"/>
       <c r="Y284" s="13"/>
     </row>
-    <row r="285" spans="2:25" hidden="1">
+    <row r="285" spans="2:25">
       <c r="B285" s="11">
         <v>45945</v>
       </c>
@@ -4924,7 +4976,7 @@
       <c r="R285" s="13"/>
       <c r="Y285" s="13"/>
     </row>
-    <row r="286" spans="2:25" hidden="1">
+    <row r="286" spans="2:25">
       <c r="B286" s="11">
         <v>45945</v>
       </c>
@@ -4934,7 +4986,7 @@
       <c r="R286" s="13"/>
       <c r="Y286" s="13"/>
     </row>
-    <row r="287" spans="2:25" hidden="1">
+    <row r="287" spans="2:25">
       <c r="B287" s="11">
         <v>45945</v>
       </c>
@@ -4944,7 +4996,7 @@
       <c r="R287" s="13"/>
       <c r="Y287" s="13"/>
     </row>
-    <row r="288" spans="2:25" hidden="1">
+    <row r="288" spans="2:25">
       <c r="B288" s="11">
         <v>45945</v>
       </c>
@@ -4954,7 +5006,7 @@
       <c r="R288" s="13"/>
       <c r="Y288" s="13"/>
     </row>
-    <row r="289" spans="2:25" hidden="1">
+    <row r="289" spans="2:25">
       <c r="B289" s="11">
         <v>45945</v>
       </c>
@@ -4964,7 +5016,7 @@
       <c r="R289" s="13"/>
       <c r="Y289" s="13"/>
     </row>
-    <row r="290" spans="2:25" hidden="1">
+    <row r="290" spans="2:25">
       <c r="B290" s="11">
         <v>45945</v>
       </c>
@@ -4974,7 +5026,7 @@
       <c r="R290" s="13"/>
       <c r="Y290" s="13"/>
     </row>
-    <row r="291" spans="2:25" hidden="1">
+    <row r="291" spans="2:25">
       <c r="B291" s="11">
         <v>45946</v>
       </c>
@@ -4984,7 +5036,7 @@
       <c r="R291" s="13"/>
       <c r="Y291" s="13"/>
     </row>
-    <row r="292" spans="2:25" hidden="1">
+    <row r="292" spans="2:25">
       <c r="B292" s="11">
         <v>45946</v>
       </c>
@@ -4994,7 +5046,7 @@
       <c r="R292" s="13"/>
       <c r="Y292" s="13"/>
     </row>
-    <row r="293" spans="2:25" hidden="1">
+    <row r="293" spans="2:25">
       <c r="B293" s="11">
         <v>45946</v>
       </c>
@@ -5004,7 +5056,7 @@
       <c r="R293" s="13"/>
       <c r="Y293" s="13"/>
     </row>
-    <row r="294" spans="2:25" hidden="1">
+    <row r="294" spans="2:25">
       <c r="B294" s="11">
         <v>45946</v>
       </c>
@@ -5014,7 +5066,7 @@
       <c r="R294" s="13"/>
       <c r="Y294" s="13"/>
     </row>
-    <row r="295" spans="2:25" hidden="1">
+    <row r="295" spans="2:25">
       <c r="B295" s="11">
         <v>45946</v>
       </c>
@@ -5024,7 +5076,7 @@
       <c r="R295" s="13"/>
       <c r="Y295" s="13"/>
     </row>
-    <row r="296" spans="2:25" hidden="1">
+    <row r="296" spans="2:25">
       <c r="B296" s="11">
         <v>45946</v>
       </c>
@@ -5034,7 +5086,7 @@
       <c r="R296" s="13"/>
       <c r="Y296" s="13"/>
     </row>
-    <row r="297" spans="2:25" hidden="1">
+    <row r="297" spans="2:25">
       <c r="B297" s="11">
         <v>45946</v>
       </c>
@@ -5044,7 +5096,7 @@
       <c r="R297" s="13"/>
       <c r="Y297" s="13"/>
     </row>
-    <row r="298" spans="2:25" hidden="1">
+    <row r="298" spans="2:25">
       <c r="B298" s="11">
         <v>45947</v>
       </c>
@@ -5054,7 +5106,7 @@
       <c r="R298" s="13"/>
       <c r="Y298" s="13"/>
     </row>
-    <row r="299" spans="2:25" hidden="1">
+    <row r="299" spans="2:25">
       <c r="B299" s="11">
         <v>45947</v>
       </c>
@@ -5064,7 +5116,7 @@
       <c r="R299" s="13"/>
       <c r="Y299" s="13"/>
     </row>
-    <row r="300" spans="2:25" hidden="1">
+    <row r="300" spans="2:25">
       <c r="B300" s="11">
         <v>45947</v>
       </c>
@@ -5074,7 +5126,7 @@
       <c r="R300" s="13"/>
       <c r="Y300" s="13"/>
     </row>
-    <row r="301" spans="2:25" hidden="1">
+    <row r="301" spans="2:25">
       <c r="B301" s="11">
         <v>45947</v>
       </c>
@@ -5084,7 +5136,7 @@
       <c r="R301" s="13"/>
       <c r="Y301" s="13"/>
     </row>
-    <row r="302" spans="2:25" hidden="1">
+    <row r="302" spans="2:25">
       <c r="B302" s="11">
         <v>45947</v>
       </c>
@@ -5094,7 +5146,7 @@
       <c r="R302" s="13"/>
       <c r="Y302" s="13"/>
     </row>
-    <row r="303" spans="2:25" hidden="1">
+    <row r="303" spans="2:25">
       <c r="B303" s="11">
         <v>45947</v>
       </c>
@@ -5104,7 +5156,7 @@
       <c r="R303" s="13"/>
       <c r="Y303" s="13"/>
     </row>
-    <row r="304" spans="2:25" hidden="1">
+    <row r="304" spans="2:25">
       <c r="B304" s="11">
         <v>45947</v>
       </c>
@@ -5114,7 +5166,7 @@
       <c r="R304" s="13"/>
       <c r="Y304" s="13"/>
     </row>
-    <row r="305" spans="2:25" hidden="1">
+    <row r="305" spans="2:25">
       <c r="B305" s="11">
         <v>45948</v>
       </c>
@@ -5124,7 +5176,7 @@
       <c r="R305" s="13"/>
       <c r="Y305" s="13"/>
     </row>
-    <row r="306" spans="2:25" hidden="1">
+    <row r="306" spans="2:25">
       <c r="B306" s="11">
         <v>45948</v>
       </c>
@@ -5134,7 +5186,7 @@
       <c r="R306" s="13"/>
       <c r="Y306" s="13"/>
     </row>
-    <row r="307" spans="2:25" hidden="1">
+    <row r="307" spans="2:25">
       <c r="B307" s="11">
         <v>45948</v>
       </c>
@@ -5144,7 +5196,7 @@
       <c r="R307" s="13"/>
       <c r="Y307" s="13"/>
     </row>
-    <row r="308" spans="2:25" hidden="1">
+    <row r="308" spans="2:25">
       <c r="B308" s="11">
         <v>45948</v>
       </c>
@@ -5154,7 +5206,7 @@
       <c r="R308" s="13"/>
       <c r="Y308" s="13"/>
     </row>
-    <row r="309" spans="2:25" hidden="1">
+    <row r="309" spans="2:25">
       <c r="B309" s="11">
         <v>45948</v>
       </c>
@@ -5164,7 +5216,7 @@
       <c r="R309" s="13"/>
       <c r="Y309" s="13"/>
     </row>
-    <row r="310" spans="2:25" hidden="1">
+    <row r="310" spans="2:25">
       <c r="B310" s="11">
         <v>45948</v>
       </c>
@@ -5174,7 +5226,7 @@
       <c r="R310" s="13"/>
       <c r="Y310" s="13"/>
     </row>
-    <row r="311" spans="2:25" hidden="1">
+    <row r="311" spans="2:25">
       <c r="B311" s="11">
         <v>45948</v>
       </c>
@@ -5184,7 +5236,7 @@
       <c r="R311" s="13"/>
       <c r="Y311" s="13"/>
     </row>
-    <row r="312" spans="2:25" hidden="1">
+    <row r="312" spans="2:25">
       <c r="B312" s="11">
         <v>45949</v>
       </c>
@@ -5194,7 +5246,7 @@
       <c r="R312" s="13"/>
       <c r="Y312" s="13"/>
     </row>
-    <row r="313" spans="2:25" hidden="1">
+    <row r="313" spans="2:25">
       <c r="B313" s="11">
         <v>45949</v>
       </c>
@@ -5204,7 +5256,7 @@
       <c r="R313" s="13"/>
       <c r="Y313" s="13"/>
     </row>
-    <row r="314" spans="2:25" hidden="1">
+    <row r="314" spans="2:25">
       <c r="B314" s="11">
         <v>45949</v>
       </c>
@@ -5214,7 +5266,7 @@
       <c r="R314" s="13"/>
       <c r="Y314" s="13"/>
     </row>
-    <row r="315" spans="2:25" hidden="1">
+    <row r="315" spans="2:25">
       <c r="B315" s="11">
         <v>45949</v>
       </c>
@@ -5224,7 +5276,7 @@
       <c r="R315" s="13"/>
       <c r="Y315" s="13"/>
     </row>
-    <row r="316" spans="2:25" hidden="1">
+    <row r="316" spans="2:25">
       <c r="B316" s="11">
         <v>45949</v>
       </c>
@@ -5234,7 +5286,7 @@
       <c r="R316" s="13"/>
       <c r="Y316" s="13"/>
     </row>
-    <row r="317" spans="2:25" hidden="1">
+    <row r="317" spans="2:25">
       <c r="B317" s="11">
         <v>45949</v>
       </c>
@@ -5244,7 +5296,7 @@
       <c r="R317" s="13"/>
       <c r="Y317" s="13"/>
     </row>
-    <row r="318" spans="2:25" hidden="1">
+    <row r="318" spans="2:25">
       <c r="B318" s="11">
         <v>45949</v>
       </c>
@@ -5254,7 +5306,7 @@
       <c r="R318" s="13"/>
       <c r="Y318" s="13"/>
     </row>
-    <row r="319" spans="2:25" hidden="1">
+    <row r="319" spans="2:25">
       <c r="B319" s="11">
         <v>45950</v>
       </c>
@@ -5264,7 +5316,7 @@
       <c r="R319" s="13"/>
       <c r="Y319" s="13"/>
     </row>
-    <row r="320" spans="2:25" hidden="1">
+    <row r="320" spans="2:25">
       <c r="B320" s="11">
         <v>45950</v>
       </c>
@@ -5274,7 +5326,7 @@
       <c r="R320" s="13"/>
       <c r="Y320" s="13"/>
     </row>
-    <row r="321" spans="2:25" hidden="1">
+    <row r="321" spans="2:25">
       <c r="B321" s="11">
         <v>45950</v>
       </c>
@@ -5284,7 +5336,7 @@
       <c r="R321" s="13"/>
       <c r="Y321" s="13"/>
     </row>
-    <row r="322" spans="2:25" hidden="1">
+    <row r="322" spans="2:25">
       <c r="B322" s="11">
         <v>45950</v>
       </c>
@@ -5294,7 +5346,7 @@
       <c r="R322" s="13"/>
       <c r="Y322" s="13"/>
     </row>
-    <row r="323" spans="2:25" hidden="1">
+    <row r="323" spans="2:25">
       <c r="B323" s="11">
         <v>45950</v>
       </c>
@@ -5304,7 +5356,7 @@
       <c r="R323" s="13"/>
       <c r="Y323" s="13"/>
     </row>
-    <row r="324" spans="2:25" hidden="1">
+    <row r="324" spans="2:25">
       <c r="B324" s="11">
         <v>45950</v>
       </c>
@@ -5314,7 +5366,7 @@
       <c r="R324" s="13"/>
       <c r="Y324" s="13"/>
     </row>
-    <row r="325" spans="2:25" hidden="1">
+    <row r="325" spans="2:25">
       <c r="B325" s="11">
         <v>45950</v>
       </c>
@@ -5324,7 +5376,7 @@
       <c r="R325" s="13"/>
       <c r="Y325" s="13"/>
     </row>
-    <row r="326" spans="2:25" hidden="1">
+    <row r="326" spans="2:25">
       <c r="B326" s="11">
         <v>45951</v>
       </c>
@@ -5334,7 +5386,7 @@
       <c r="R326" s="13"/>
       <c r="Y326" s="13"/>
     </row>
-    <row r="327" spans="2:25" hidden="1">
+    <row r="327" spans="2:25">
       <c r="B327" s="11">
         <v>45951</v>
       </c>
@@ -5344,7 +5396,7 @@
       <c r="R327" s="13"/>
       <c r="Y327" s="13"/>
     </row>
-    <row r="328" spans="2:25" hidden="1">
+    <row r="328" spans="2:25">
       <c r="B328" s="11">
         <v>45951</v>
       </c>
@@ -5354,7 +5406,7 @@
       <c r="R328" s="13"/>
       <c r="Y328" s="13"/>
     </row>
-    <row r="329" spans="2:25" hidden="1">
+    <row r="329" spans="2:25">
       <c r="B329" s="11">
         <v>45951</v>
       </c>
@@ -5364,7 +5416,7 @@
       <c r="R329" s="13"/>
       <c r="Y329" s="13"/>
     </row>
-    <row r="330" spans="2:25" hidden="1">
+    <row r="330" spans="2:25">
       <c r="B330" s="11">
         <v>45951</v>
       </c>
@@ -5374,7 +5426,7 @@
       <c r="R330" s="13"/>
       <c r="Y330" s="13"/>
     </row>
-    <row r="331" spans="2:25" hidden="1">
+    <row r="331" spans="2:25">
       <c r="B331" s="11">
         <v>45951</v>
       </c>
@@ -5384,7 +5436,7 @@
       <c r="R331" s="13"/>
       <c r="Y331" s="13"/>
     </row>
-    <row r="332" spans="2:25" hidden="1">
+    <row r="332" spans="2:25">
       <c r="B332" s="11">
         <v>45951</v>
       </c>
@@ -5394,7 +5446,7 @@
       <c r="R332" s="13"/>
       <c r="Y332" s="13"/>
     </row>
-    <row r="333" spans="2:25" hidden="1">
+    <row r="333" spans="2:25">
       <c r="B333" s="11">
         <v>45952</v>
       </c>
@@ -5404,7 +5456,7 @@
       <c r="R333" s="13"/>
       <c r="Y333" s="13"/>
     </row>
-    <row r="334" spans="2:25" hidden="1">
+    <row r="334" spans="2:25">
       <c r="B334" s="11">
         <v>45952</v>
       </c>
@@ -5414,7 +5466,7 @@
       <c r="R334" s="13"/>
       <c r="Y334" s="13"/>
     </row>
-    <row r="335" spans="2:25" hidden="1">
+    <row r="335" spans="2:25">
       <c r="B335" s="11">
         <v>45952</v>
       </c>
@@ -5424,7 +5476,7 @@
       <c r="R335" s="13"/>
       <c r="Y335" s="13"/>
     </row>
-    <row r="336" spans="2:25" hidden="1">
+    <row r="336" spans="2:25">
       <c r="B336" s="11">
         <v>45952</v>
       </c>
@@ -5434,7 +5486,7 @@
       <c r="R336" s="13"/>
       <c r="Y336" s="13"/>
     </row>
-    <row r="337" spans="2:25" hidden="1">
+    <row r="337" spans="2:25">
       <c r="B337" s="11">
         <v>45952</v>
       </c>
@@ -5444,7 +5496,7 @@
       <c r="R337" s="13"/>
       <c r="Y337" s="13"/>
     </row>
-    <row r="338" spans="2:25" hidden="1">
+    <row r="338" spans="2:25">
       <c r="B338" s="11">
         <v>45952</v>
       </c>
@@ -5454,7 +5506,7 @@
       <c r="R338" s="13"/>
       <c r="Y338" s="13"/>
     </row>
-    <row r="339" spans="2:25" hidden="1">
+    <row r="339" spans="2:25">
       <c r="B339" s="11">
         <v>45952</v>
       </c>
@@ -5464,7 +5516,7 @@
       <c r="R339" s="13"/>
       <c r="Y339" s="13"/>
     </row>
-    <row r="340" spans="2:25" hidden="1">
+    <row r="340" spans="2:25">
       <c r="B340" s="11">
         <v>45953</v>
       </c>
@@ -5474,7 +5526,7 @@
       <c r="R340" s="13"/>
       <c r="Y340" s="13"/>
     </row>
-    <row r="341" spans="2:25" hidden="1">
+    <row r="341" spans="2:25">
       <c r="B341" s="11">
         <v>45953</v>
       </c>
@@ -5484,7 +5536,7 @@
       <c r="R341" s="13"/>
       <c r="Y341" s="13"/>
     </row>
-    <row r="342" spans="2:25" hidden="1">
+    <row r="342" spans="2:25">
       <c r="B342" s="11">
         <v>45953</v>
       </c>
@@ -5494,7 +5546,7 @@
       <c r="R342" s="13"/>
       <c r="Y342" s="13"/>
     </row>
-    <row r="343" spans="2:25" hidden="1">
+    <row r="343" spans="2:25">
       <c r="B343" s="11">
         <v>45953</v>
       </c>
@@ -5504,7 +5556,7 @@
       <c r="R343" s="13"/>
       <c r="Y343" s="13"/>
     </row>
-    <row r="344" spans="2:25" hidden="1">
+    <row r="344" spans="2:25">
       <c r="B344" s="11">
         <v>45953</v>
       </c>
@@ -5514,7 +5566,7 @@
       <c r="R344" s="13"/>
       <c r="Y344" s="13"/>
     </row>
-    <row r="345" spans="2:25" hidden="1">
+    <row r="345" spans="2:25">
       <c r="B345" s="11">
         <v>45953</v>
       </c>
@@ -5524,7 +5576,7 @@
       <c r="R345" s="13"/>
       <c r="Y345" s="13"/>
     </row>
-    <row r="346" spans="2:25" hidden="1">
+    <row r="346" spans="2:25">
       <c r="B346" s="11">
         <v>45953</v>
       </c>
@@ -5534,7 +5586,7 @@
       <c r="R346" s="13"/>
       <c r="Y346" s="13"/>
     </row>
-    <row r="347" spans="2:25" hidden="1">
+    <row r="347" spans="2:25">
       <c r="B347" s="11">
         <v>45954</v>
       </c>
@@ -5544,7 +5596,7 @@
       <c r="R347" s="13"/>
       <c r="Y347" s="13"/>
     </row>
-    <row r="348" spans="2:25" hidden="1">
+    <row r="348" spans="2:25">
       <c r="B348" s="11">
         <v>45954</v>
       </c>
@@ -5554,7 +5606,7 @@
       <c r="R348" s="13"/>
       <c r="Y348" s="13"/>
     </row>
-    <row r="349" spans="2:25" hidden="1">
+    <row r="349" spans="2:25">
       <c r="B349" s="11">
         <v>45954</v>
       </c>
@@ -5564,7 +5616,7 @@
       <c r="R349" s="13"/>
       <c r="Y349" s="13"/>
     </row>
-    <row r="350" spans="2:25" hidden="1">
+    <row r="350" spans="2:25">
       <c r="B350" s="11">
         <v>45954</v>
       </c>
@@ -5574,7 +5626,7 @@
       <c r="R350" s="13"/>
       <c r="Y350" s="13"/>
     </row>
-    <row r="351" spans="2:25" hidden="1">
+    <row r="351" spans="2:25">
       <c r="B351" s="11">
         <v>45954</v>
       </c>
@@ -5584,7 +5636,7 @@
       <c r="R351" s="13"/>
       <c r="Y351" s="13"/>
     </row>
-    <row r="352" spans="2:25" hidden="1">
+    <row r="352" spans="2:25">
       <c r="B352" s="11">
         <v>45954</v>
       </c>
@@ -5594,7 +5646,7 @@
       <c r="R352" s="13"/>
       <c r="Y352" s="13"/>
     </row>
-    <row r="353" spans="2:25" hidden="1">
+    <row r="353" spans="2:25">
       <c r="B353" s="11">
         <v>45954</v>
       </c>
@@ -5604,7 +5656,7 @@
       <c r="R353" s="13"/>
       <c r="Y353" s="13"/>
     </row>
-    <row r="354" spans="2:25" hidden="1">
+    <row r="354" spans="2:25">
       <c r="B354" s="11">
         <v>45955</v>
       </c>
@@ -5614,7 +5666,7 @@
       <c r="R354" s="13"/>
       <c r="Y354" s="13"/>
     </row>
-    <row r="355" spans="2:25" hidden="1">
+    <row r="355" spans="2:25">
       <c r="B355" s="11">
         <v>45955</v>
       </c>
@@ -5624,7 +5676,7 @@
       <c r="R355" s="13"/>
       <c r="Y355" s="13"/>
     </row>
-    <row r="356" spans="2:25" hidden="1">
+    <row r="356" spans="2:25">
       <c r="B356" s="11">
         <v>45955</v>
       </c>
@@ -5634,7 +5686,7 @@
       <c r="R356" s="13"/>
       <c r="Y356" s="13"/>
     </row>
-    <row r="357" spans="2:25" hidden="1">
+    <row r="357" spans="2:25">
       <c r="B357" s="11">
         <v>45955</v>
       </c>
@@ -5644,7 +5696,7 @@
       <c r="R357" s="13"/>
       <c r="Y357" s="13"/>
     </row>
-    <row r="358" spans="2:25" hidden="1">
+    <row r="358" spans="2:25">
       <c r="B358" s="11">
         <v>45955</v>
       </c>
@@ -5654,7 +5706,7 @@
       <c r="R358" s="13"/>
       <c r="Y358" s="13"/>
     </row>
-    <row r="359" spans="2:25" hidden="1">
+    <row r="359" spans="2:25">
       <c r="B359" s="11">
         <v>45955</v>
       </c>
@@ -5664,7 +5716,7 @@
       <c r="R359" s="13"/>
       <c r="Y359" s="13"/>
     </row>
-    <row r="360" spans="2:25" hidden="1">
+    <row r="360" spans="2:25">
       <c r="B360" s="11">
         <v>45955</v>
       </c>
@@ -5674,7 +5726,7 @@
       <c r="R360" s="13"/>
       <c r="Y360" s="13"/>
     </row>
-    <row r="361" spans="2:25" hidden="1">
+    <row r="361" spans="2:25">
       <c r="B361" s="11">
         <v>45956</v>
       </c>
@@ -5684,7 +5736,7 @@
       <c r="R361" s="13"/>
       <c r="Y361" s="13"/>
     </row>
-    <row r="362" spans="2:25" hidden="1">
+    <row r="362" spans="2:25">
       <c r="B362" s="11">
         <v>45956</v>
       </c>
@@ -5694,7 +5746,7 @@
       <c r="R362" s="13"/>
       <c r="Y362" s="13"/>
     </row>
-    <row r="363" spans="2:25" hidden="1">
+    <row r="363" spans="2:25">
       <c r="B363" s="11">
         <v>45956</v>
       </c>
@@ -5704,7 +5756,7 @@
       <c r="R363" s="13"/>
       <c r="Y363" s="13"/>
     </row>
-    <row r="364" spans="2:25" hidden="1">
+    <row r="364" spans="2:25">
       <c r="B364" s="11">
         <v>45956</v>
       </c>
@@ -5714,7 +5766,7 @@
       <c r="R364" s="13"/>
       <c r="Y364" s="13"/>
     </row>
-    <row r="365" spans="2:25" hidden="1">
+    <row r="365" spans="2:25">
       <c r="B365" s="11">
         <v>45956</v>
       </c>
@@ -5724,7 +5776,7 @@
       <c r="R365" s="13"/>
       <c r="Y365" s="13"/>
     </row>
-    <row r="366" spans="2:25" hidden="1">
+    <row r="366" spans="2:25">
       <c r="B366" s="11">
         <v>45956</v>
       </c>
@@ -5734,7 +5786,7 @@
       <c r="R366" s="13"/>
       <c r="Y366" s="13"/>
     </row>
-    <row r="367" spans="2:25" hidden="1">
+    <row r="367" spans="2:25">
       <c r="B367" s="11">
         <v>45956</v>
       </c>
@@ -5744,7 +5796,7 @@
       <c r="R367" s="13"/>
       <c r="Y367" s="13"/>
     </row>
-    <row r="368" spans="2:25" hidden="1">
+    <row r="368" spans="2:25">
       <c r="B368" s="11">
         <v>45957</v>
       </c>
@@ -5754,7 +5806,7 @@
       <c r="R368" s="13"/>
       <c r="Y368" s="13"/>
     </row>
-    <row r="369" spans="2:25" hidden="1">
+    <row r="369" spans="2:25">
       <c r="B369" s="11">
         <v>45957</v>
       </c>
@@ -5764,7 +5816,7 @@
       <c r="R369" s="13"/>
       <c r="Y369" s="13"/>
     </row>
-    <row r="370" spans="2:25" hidden="1">
+    <row r="370" spans="2:25">
       <c r="B370" s="11">
         <v>45957</v>
       </c>
@@ -5774,7 +5826,7 @@
       <c r="R370" s="13"/>
       <c r="Y370" s="13"/>
     </row>
-    <row r="371" spans="2:25" hidden="1">
+    <row r="371" spans="2:25">
       <c r="B371" s="11">
         <v>45957</v>
       </c>
@@ -5784,7 +5836,7 @@
       <c r="R371" s="13"/>
       <c r="Y371" s="13"/>
     </row>
-    <row r="372" spans="2:25" hidden="1">
+    <row r="372" spans="2:25">
       <c r="B372" s="11">
         <v>45957</v>
       </c>
@@ -5794,7 +5846,7 @@
       <c r="R372" s="13"/>
       <c r="Y372" s="13"/>
     </row>
-    <row r="373" spans="2:25" hidden="1">
+    <row r="373" spans="2:25">
       <c r="B373" s="11">
         <v>45957</v>
       </c>
@@ -5804,7 +5856,7 @@
       <c r="R373" s="13"/>
       <c r="Y373" s="13"/>
     </row>
-    <row r="374" spans="2:25" hidden="1">
+    <row r="374" spans="2:25">
       <c r="B374" s="11">
         <v>45957</v>
       </c>
@@ -5814,7 +5866,7 @@
       <c r="R374" s="13"/>
       <c r="Y374" s="13"/>
     </row>
-    <row r="375" spans="2:25" hidden="1">
+    <row r="375" spans="2:25">
       <c r="B375" s="11">
         <v>45958</v>
       </c>
@@ -5824,7 +5876,7 @@
       <c r="R375" s="13"/>
       <c r="Y375" s="13"/>
     </row>
-    <row r="376" spans="2:25" hidden="1">
+    <row r="376" spans="2:25">
       <c r="B376" s="11">
         <v>45958</v>
       </c>
@@ -5834,7 +5886,7 @@
       <c r="R376" s="13"/>
       <c r="Y376" s="13"/>
     </row>
-    <row r="377" spans="2:25" hidden="1">
+    <row r="377" spans="2:25">
       <c r="B377" s="11">
         <v>45958</v>
       </c>
@@ -5844,7 +5896,7 @@
       <c r="R377" s="13"/>
       <c r="Y377" s="13"/>
     </row>
-    <row r="378" spans="2:25" hidden="1">
+    <row r="378" spans="2:25">
       <c r="B378" s="11">
         <v>45958</v>
       </c>
@@ -5854,7 +5906,7 @@
       <c r="R378" s="13"/>
       <c r="Y378" s="13"/>
     </row>
-    <row r="379" spans="2:25" hidden="1">
+    <row r="379" spans="2:25">
       <c r="B379" s="11">
         <v>45958</v>
       </c>
@@ -5864,7 +5916,7 @@
       <c r="R379" s="13"/>
       <c r="Y379" s="13"/>
     </row>
-    <row r="380" spans="2:25" hidden="1">
+    <row r="380" spans="2:25">
       <c r="B380" s="11">
         <v>45958</v>
       </c>
@@ -5874,7 +5926,7 @@
       <c r="R380" s="13"/>
       <c r="Y380" s="13"/>
     </row>
-    <row r="381" spans="2:25" hidden="1">
+    <row r="381" spans="2:25">
       <c r="B381" s="11">
         <v>45958</v>
       </c>
@@ -5884,7 +5936,7 @@
       <c r="R381" s="13"/>
       <c r="Y381" s="13"/>
     </row>
-    <row r="382" spans="2:25" hidden="1">
+    <row r="382" spans="2:25">
       <c r="B382" s="11">
         <v>45959</v>
       </c>
@@ -5894,7 +5946,7 @@
       <c r="R382" s="13"/>
       <c r="Y382" s="13"/>
     </row>
-    <row r="383" spans="2:25" hidden="1">
+    <row r="383" spans="2:25">
       <c r="B383" s="11">
         <v>45959</v>
       </c>
@@ -5904,7 +5956,7 @@
       <c r="R383" s="13"/>
       <c r="Y383" s="13"/>
     </row>
-    <row r="384" spans="2:25" hidden="1">
+    <row r="384" spans="2:25">
       <c r="B384" s="11">
         <v>45959</v>
       </c>
@@ -5914,7 +5966,7 @@
       <c r="R384" s="13"/>
       <c r="Y384" s="13"/>
     </row>
-    <row r="385" spans="2:25" hidden="1">
+    <row r="385" spans="2:25">
       <c r="B385" s="11">
         <v>45959</v>
       </c>
@@ -5924,7 +5976,7 @@
       <c r="R385" s="13"/>
       <c r="Y385" s="13"/>
     </row>
-    <row r="386" spans="2:25" hidden="1">
+    <row r="386" spans="2:25">
       <c r="B386" s="11">
         <v>45959</v>
       </c>
@@ -5934,7 +5986,7 @@
       <c r="R386" s="13"/>
       <c r="Y386" s="13"/>
     </row>
-    <row r="387" spans="2:25" hidden="1">
+    <row r="387" spans="2:25">
       <c r="B387" s="11">
         <v>45959</v>
       </c>
@@ -5944,7 +5996,7 @@
       <c r="R387" s="13"/>
       <c r="Y387" s="13"/>
     </row>
-    <row r="388" spans="2:25" hidden="1">
+    <row r="388" spans="2:25">
       <c r="B388" s="11">
         <v>45959</v>
       </c>
@@ -5954,7 +6006,7 @@
       <c r="R388" s="13"/>
       <c r="Y388" s="13"/>
     </row>
-    <row r="389" spans="2:25" hidden="1">
+    <row r="389" spans="2:25">
       <c r="B389" s="11">
         <v>45960</v>
       </c>
@@ -5964,7 +6016,7 @@
       <c r="R389" s="13"/>
       <c r="Y389" s="13"/>
     </row>
-    <row r="390" spans="2:25" hidden="1">
+    <row r="390" spans="2:25">
       <c r="B390" s="11">
         <v>45960</v>
       </c>
@@ -5974,7 +6026,7 @@
       <c r="R390" s="13"/>
       <c r="Y390" s="13"/>
     </row>
-    <row r="391" spans="2:25" hidden="1">
+    <row r="391" spans="2:25">
       <c r="B391" s="11">
         <v>45960</v>
       </c>
@@ -5984,7 +6036,7 @@
       <c r="R391" s="13"/>
       <c r="Y391" s="13"/>
     </row>
-    <row r="392" spans="2:25" hidden="1">
+    <row r="392" spans="2:25">
       <c r="B392" s="11">
         <v>45960</v>
       </c>
@@ -5994,7 +6046,7 @@
       <c r="R392" s="13"/>
       <c r="Y392" s="13"/>
     </row>
-    <row r="393" spans="2:25" hidden="1">
+    <row r="393" spans="2:25">
       <c r="B393" s="11">
         <v>45960</v>
       </c>
@@ -6004,7 +6056,7 @@
       <c r="R393" s="13"/>
       <c r="Y393" s="13"/>
     </row>
-    <row r="394" spans="2:25" hidden="1">
+    <row r="394" spans="2:25">
       <c r="B394" s="11">
         <v>45960</v>
       </c>
@@ -6014,7 +6066,7 @@
       <c r="R394" s="13"/>
       <c r="Y394" s="13"/>
     </row>
-    <row r="395" spans="2:25" hidden="1">
+    <row r="395" spans="2:25">
       <c r="B395" s="11">
         <v>45960</v>
       </c>
@@ -6024,7 +6076,7 @@
       <c r="R395" s="13"/>
       <c r="Y395" s="13"/>
     </row>
-    <row r="396" spans="2:25" hidden="1">
+    <row r="396" spans="2:25">
       <c r="B396" s="11">
         <v>45961</v>
       </c>
@@ -6034,7 +6086,7 @@
       <c r="R396" s="13"/>
       <c r="Y396" s="13"/>
     </row>
-    <row r="397" spans="2:25" hidden="1">
+    <row r="397" spans="2:25">
       <c r="B397" s="11">
         <v>45961</v>
       </c>
@@ -6044,7 +6096,7 @@
       <c r="R397" s="13"/>
       <c r="Y397" s="13"/>
     </row>
-    <row r="398" spans="2:25" hidden="1">
+    <row r="398" spans="2:25">
       <c r="B398" s="11">
         <v>45961</v>
       </c>
@@ -6054,7 +6106,7 @@
       <c r="R398" s="13"/>
       <c r="Y398" s="13"/>
     </row>
-    <row r="399" spans="2:25" hidden="1">
+    <row r="399" spans="2:25">
       <c r="B399" s="11">
         <v>45961</v>
       </c>
@@ -6064,7 +6116,7 @@
       <c r="R399" s="13"/>
       <c r="Y399" s="13"/>
     </row>
-    <row r="400" spans="2:25" hidden="1">
+    <row r="400" spans="2:25">
       <c r="B400" s="11">
         <v>45961</v>
       </c>
@@ -6074,7 +6126,7 @@
       <c r="R400" s="13"/>
       <c r="Y400" s="13"/>
     </row>
-    <row r="401" spans="2:25" hidden="1">
+    <row r="401" spans="2:25">
       <c r="B401" s="11">
         <v>45961</v>
       </c>
@@ -6084,7 +6136,7 @@
       <c r="R401" s="13"/>
       <c r="Y401" s="13"/>
     </row>
-    <row r="402" spans="2:25" hidden="1">
+    <row r="402" spans="2:25">
       <c r="B402" s="11">
         <v>45961</v>
       </c>
@@ -6094,7 +6146,7 @@
       <c r="R402" s="13"/>
       <c r="Y402" s="13"/>
     </row>
-    <row r="403" spans="2:25" hidden="1">
+    <row r="403" spans="2:25">
       <c r="B403" s="11">
         <v>45962</v>
       </c>
@@ -6104,7 +6156,7 @@
       <c r="R403" s="13"/>
       <c r="Y403" s="13"/>
     </row>
-    <row r="404" spans="2:25" hidden="1">
+    <row r="404" spans="2:25">
       <c r="B404" s="11">
         <v>45962</v>
       </c>
@@ -6114,7 +6166,7 @@
       <c r="R404" s="13"/>
       <c r="Y404" s="13"/>
     </row>
-    <row r="405" spans="2:25" hidden="1">
+    <row r="405" spans="2:25">
       <c r="B405" s="11">
         <v>45962</v>
       </c>
@@ -6124,7 +6176,7 @@
       <c r="R405" s="13"/>
       <c r="Y405" s="13"/>
     </row>
-    <row r="406" spa